--- a/static/data/source/current_earnings.xlsx
+++ b/static/data/source/current_earnings.xlsx
@@ -7,9 +7,9 @@
     <workbookView xWindow="390" yWindow="810" windowWidth="20775" windowHeight="11715" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Wage Table" sheetId="2" r:id="rId1"/>
-    <sheet name="Wage_Comparison" sheetId="1" r:id="rId2"/>
-    <sheet name="BLS Data Series_February" sheetId="14" r:id="rId3"/>
+    <sheet name="Earnings Table" sheetId="2" r:id="rId1"/>
+    <sheet name="Earnings_Comparison" sheetId="1" r:id="rId2"/>
+    <sheet name="BLS Data Series_March" sheetId="15" r:id="rId3"/>
     <sheet name="SCRATCH" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
@@ -25,7 +25,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="O5" authorId="0">
+    <comment ref="P5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -40,7 +40,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O6" authorId="0">
+    <comment ref="P6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -55,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O7" authorId="0">
+    <comment ref="P7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -70,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O8" authorId="0">
+    <comment ref="P8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -85,7 +85,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O9" authorId="0">
+    <comment ref="P9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -100,7 +100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O10" authorId="0">
+    <comment ref="P10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -115,7 +115,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O11" authorId="0">
+    <comment ref="P11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -130,7 +130,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O12" authorId="0">
+    <comment ref="P12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -145,7 +145,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O13" authorId="0">
+    <comment ref="P13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -160,7 +160,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O14" authorId="0">
+    <comment ref="P14" authorId="0">
       <text>
         <r>
           <rPr>
@@ -175,7 +175,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O15" authorId="0">
+    <comment ref="P15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -190,7 +190,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O16" authorId="0">
+    <comment ref="P16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -205,7 +205,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O17" authorId="0">
+    <comment ref="P17" authorId="0">
       <text>
         <r>
           <rPr>
@@ -220,7 +220,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O18" authorId="0">
+    <comment ref="P18" authorId="0">
       <text>
         <r>
           <rPr>
@@ -235,7 +235,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O19" authorId="0">
+    <comment ref="P19" authorId="0">
       <text>
         <r>
           <rPr>
@@ -250,7 +250,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O20" authorId="0">
+    <comment ref="P20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -265,7 +265,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O21" authorId="0">
+    <comment ref="P21" authorId="0">
       <text>
         <r>
           <rPr>
@@ -280,7 +280,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O22" authorId="0">
+    <comment ref="P22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -295,7 +295,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O23" authorId="0">
+    <comment ref="P23" authorId="0">
       <text>
         <r>
           <rPr>
@@ -310,7 +310,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O24" authorId="0">
+    <comment ref="P24" authorId="0">
       <text>
         <r>
           <rPr>
@@ -325,7 +325,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O25" authorId="0">
+    <comment ref="P25" authorId="0">
       <text>
         <r>
           <rPr>
@@ -340,7 +340,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O26" authorId="0">
+    <comment ref="P26" authorId="0">
       <text>
         <r>
           <rPr>
@@ -355,7 +355,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O27" authorId="0">
+    <comment ref="P27" authorId="0">
       <text>
         <r>
           <rPr>
@@ -370,7 +370,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O28" authorId="0">
+    <comment ref="P28" authorId="0">
       <text>
         <r>
           <rPr>
@@ -385,7 +385,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O29" authorId="0">
+    <comment ref="P29" authorId="0">
       <text>
         <r>
           <rPr>
@@ -400,7 +400,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O30" authorId="0">
+    <comment ref="P30" authorId="0">
       <text>
         <r>
           <rPr>
@@ -415,7 +415,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O31" authorId="0">
+    <comment ref="P31" authorId="0">
       <text>
         <r>
           <rPr>
@@ -430,7 +430,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O32" authorId="0">
+    <comment ref="P32" authorId="0">
       <text>
         <r>
           <rPr>
@@ -445,7 +445,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O33" authorId="0">
+    <comment ref="P33" authorId="0">
       <text>
         <r>
           <rPr>
@@ -460,7 +460,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O34" authorId="0">
+    <comment ref="P34" authorId="0">
       <text>
         <r>
           <rPr>
@@ -475,7 +475,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O35" authorId="0">
+    <comment ref="P35" authorId="0">
       <text>
         <r>
           <rPr>
@@ -490,7 +490,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O36" authorId="0">
+    <comment ref="P36" authorId="0">
       <text>
         <r>
           <rPr>
@@ -505,7 +505,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O37" authorId="0">
+    <comment ref="P37" authorId="0">
       <text>
         <r>
           <rPr>
@@ -520,7 +520,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O38" authorId="0">
+    <comment ref="P38" authorId="0">
       <text>
         <r>
           <rPr>
@@ -535,7 +535,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O39" authorId="0">
+    <comment ref="P39" authorId="0">
       <text>
         <r>
           <rPr>
@@ -550,7 +550,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O40" authorId="0">
+    <comment ref="P40" authorId="0">
       <text>
         <r>
           <rPr>
@@ -565,7 +565,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O41" authorId="0">
+    <comment ref="P41" authorId="0">
       <text>
         <r>
           <rPr>
@@ -580,7 +580,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O42" authorId="0">
+    <comment ref="P42" authorId="0">
       <text>
         <r>
           <rPr>
@@ -595,7 +595,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O43" authorId="0">
+    <comment ref="P43" authorId="0">
       <text>
         <r>
           <rPr>
@@ -610,7 +610,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O44" authorId="0">
+    <comment ref="P44" authorId="0">
       <text>
         <r>
           <rPr>
@@ -625,7 +625,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O45" authorId="0">
+    <comment ref="P45" authorId="0">
       <text>
         <r>
           <rPr>
@@ -640,7 +640,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O46" authorId="0">
+    <comment ref="P46" authorId="0">
       <text>
         <r>
           <rPr>
@@ -655,7 +655,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O47" authorId="0">
+    <comment ref="P47" authorId="0">
       <text>
         <r>
           <rPr>
@@ -670,7 +670,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O48" authorId="0">
+    <comment ref="P48" authorId="0">
       <text>
         <r>
           <rPr>
@@ -685,7 +685,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O49" authorId="0">
+    <comment ref="P49" authorId="0">
       <text>
         <r>
           <rPr>
@@ -700,7 +700,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O50" authorId="0">
+    <comment ref="P50" authorId="0">
       <text>
         <r>
           <rPr>
@@ -715,7 +715,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O51" authorId="0">
+    <comment ref="P51" authorId="0">
       <text>
         <r>
           <rPr>
@@ -730,7 +730,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O52" authorId="0">
+    <comment ref="P52" authorId="0">
       <text>
         <r>
           <rPr>
@@ -745,7 +745,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O53" authorId="0">
+    <comment ref="P53" authorId="0">
       <text>
         <r>
           <rPr>
@@ -760,7 +760,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O54" authorId="0">
+    <comment ref="P54" authorId="0">
       <text>
         <r>
           <rPr>
@@ -775,7 +775,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O55" authorId="0">
+    <comment ref="P55" authorId="0">
       <text>
         <r>
           <rPr>
@@ -795,7 +795,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="198">
   <si>
     <t>State and Area Employment, Hours, and Earnings</t>
   </si>
@@ -1403,18 +1403,18 @@
     <t>2015 to 2016</t>
   </si>
   <si>
-    <t>February
+    <t>March
 2015</t>
   </si>
   <si>
-    <t>February
+    <t>March
 2016</t>
   </si>
   <si>
-    <t>February 2015 adj for inflation</t>
-  </si>
-  <si>
-    <t>Average Weekly Wages February 2016</t>
+    <t>March 2015 adj for inflation</t>
+  </si>
+  <si>
+    <t>Average Weekly Wages March 2016</t>
   </si>
 </sst>
 </file>
@@ -4330,7 +4330,7 @@
   <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4371,12 +4371,12 @@
         <v>168</v>
       </c>
       <c r="C3" s="31">
-        <f>+Wage_Comparison!E58</f>
-        <v>872.04</v>
+        <f>+Earnings_Comparison!E58</f>
+        <v>874.79</v>
       </c>
       <c r="D3" s="30">
-        <f>+Wage_Comparison!H58</f>
-        <v>0.6029513184971691</v>
+        <f>+Earnings_Comparison!H58</f>
+        <v>1.0926484501572631</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -4384,16 +4384,16 @@
         <v>115</v>
       </c>
       <c r="B4" s="9" t="str">
-        <f>+Wage_Comparison!B5</f>
+        <f>+Earnings_Comparison!B5</f>
         <v>AL</v>
       </c>
       <c r="C4" s="31">
-        <f>+Wage_Comparison!E5</f>
-        <v>768.6</v>
+        <f>+Earnings_Comparison!E5</f>
+        <v>760.06</v>
       </c>
       <c r="D4" s="30">
-        <f>+Wage_Comparison!H5</f>
-        <v>0.10472978592164228</v>
+        <f>+Earnings_Comparison!H5</f>
+        <v>-5.106114615824886E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -4401,16 +4401,16 @@
         <v>116</v>
       </c>
       <c r="B5" s="9" t="str">
-        <f>+Wage_Comparison!B6</f>
+        <f>+Earnings_Comparison!B6</f>
         <v>AK</v>
       </c>
       <c r="C5" s="31">
-        <f>+Wage_Comparison!E6</f>
-        <v>944.03</v>
+        <f>+Earnings_Comparison!E6</f>
+        <v>958.34</v>
       </c>
       <c r="D5" s="30">
-        <f>+Wage_Comparison!H6</f>
-        <v>-1.1823545483942599</v>
+        <f>+Earnings_Comparison!H6</f>
+        <v>-0.94971913789996254</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -4418,16 +4418,16 @@
         <v>117</v>
       </c>
       <c r="B6" s="9" t="str">
-        <f>+Wage_Comparison!B7</f>
+        <f>+Earnings_Comparison!B7</f>
         <v>AZ</v>
       </c>
       <c r="C6" s="31">
-        <f>+Wage_Comparison!E7</f>
-        <v>808.49</v>
+        <f>+Earnings_Comparison!E7</f>
+        <v>809.14</v>
       </c>
       <c r="D6" s="30">
-        <f>+Wage_Comparison!H7</f>
-        <v>-0.90458744325222495</v>
+        <f>+Earnings_Comparison!H7</f>
+        <v>-4.9819230546921389E-2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -4435,16 +4435,16 @@
         <v>118</v>
       </c>
       <c r="B7" s="9" t="str">
-        <f>+Wage_Comparison!B8</f>
+        <f>+Earnings_Comparison!B8</f>
         <v>AR</v>
       </c>
       <c r="C7" s="31">
-        <f>+Wage_Comparison!E8</f>
-        <v>675.29</v>
+        <f>+Earnings_Comparison!E8</f>
+        <v>666.99</v>
       </c>
       <c r="D7" s="30">
-        <f>+Wage_Comparison!H8</f>
-        <v>-0.90188572860380178</v>
+        <f>+Earnings_Comparison!H8</f>
+        <v>-2.2464360514635184</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -4452,16 +4452,16 @@
         <v>119</v>
       </c>
       <c r="B8" s="9" t="str">
-        <f>+Wage_Comparison!B9</f>
+        <f>+Earnings_Comparison!B9</f>
         <v>CA</v>
       </c>
       <c r="C8" s="31">
-        <f>+Wage_Comparison!E9</f>
-        <v>973.33</v>
+        <f>+Earnings_Comparison!E9</f>
+        <v>970.49</v>
       </c>
       <c r="D8" s="30">
-        <f>+Wage_Comparison!H9</f>
-        <v>-1.7504754454599647</v>
+        <f>+Earnings_Comparison!H9</f>
+        <v>-1.8776219110227754</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -4469,16 +4469,16 @@
         <v>120</v>
       </c>
       <c r="B9" s="9" t="str">
-        <f>+Wage_Comparison!B10</f>
+        <f>+Earnings_Comparison!B10</f>
         <v>CO</v>
       </c>
       <c r="C9" s="31">
-        <f>+Wage_Comparison!E10</f>
-        <v>901.05</v>
+        <f>+Earnings_Comparison!E10</f>
+        <v>908.02</v>
       </c>
       <c r="D9" s="30">
-        <f>+Wage_Comparison!H10</f>
-        <v>-3.0318183340602878</v>
+        <f>+Earnings_Comparison!H10</f>
+        <v>-2.3763104498232046</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -4486,16 +4486,16 @@
         <v>121</v>
       </c>
       <c r="B10" s="9" t="str">
-        <f>+Wage_Comparison!B11</f>
+        <f>+Earnings_Comparison!B11</f>
         <v>CT</v>
       </c>
       <c r="C10" s="31">
-        <f>+Wage_Comparison!E11</f>
-        <v>1004.59</v>
+        <f>+Earnings_Comparison!E11</f>
+        <v>997.99</v>
       </c>
       <c r="D10" s="30">
-        <f>+Wage_Comparison!H11</f>
-        <v>2.1769998140522828</v>
+        <f>+Earnings_Comparison!H11</f>
+        <v>1.4157148739714964</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -4503,16 +4503,16 @@
         <v>122</v>
       </c>
       <c r="B11" s="9" t="str">
-        <f>+Wage_Comparison!B12</f>
+        <f>+Earnings_Comparison!B12</f>
         <v>DE</v>
       </c>
       <c r="C11" s="31">
-        <f>+Wage_Comparison!E12</f>
-        <v>807.28</v>
+        <f>+Earnings_Comparison!E12</f>
+        <v>807.69</v>
       </c>
       <c r="D11" s="30">
-        <f>+Wage_Comparison!H12</f>
-        <v>6.5173329968605254</v>
+        <f>+Earnings_Comparison!H12</f>
+        <v>6.6039744843762183</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -4520,16 +4520,16 @@
         <v>123</v>
       </c>
       <c r="B12" s="9" t="str">
-        <f>+Wage_Comparison!B13</f>
+        <f>+Earnings_Comparison!B13</f>
         <v>DC</v>
       </c>
       <c r="C12" s="31">
-        <f>+Wage_Comparison!E13</f>
-        <v>1308.03</v>
+        <f>+Earnings_Comparison!E13</f>
+        <v>1305.2</v>
       </c>
       <c r="D12" s="30">
-        <f>+Wage_Comparison!H13</f>
-        <v>-13.098997384338739</v>
+        <f>+Earnings_Comparison!H13</f>
+        <v>-12.255716568764907</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -4537,16 +4537,16 @@
         <v>124</v>
       </c>
       <c r="B13" s="9" t="str">
-        <f>+Wage_Comparison!B14</f>
+        <f>+Earnings_Comparison!B14</f>
         <v>FL</v>
       </c>
       <c r="C13" s="31">
-        <f>+Wage_Comparison!E14</f>
-        <v>783.76</v>
+        <f>+Earnings_Comparison!E14</f>
+        <v>792.07</v>
       </c>
       <c r="D13" s="30">
-        <f>+Wage_Comparison!H14</f>
-        <v>-0.75809803265951548</v>
+        <f>+Earnings_Comparison!H14</f>
+        <v>0.81569135308832141</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -4554,16 +4554,16 @@
         <v>125</v>
       </c>
       <c r="B14" s="9" t="str">
-        <f>+Wage_Comparison!B15</f>
+        <f>+Earnings_Comparison!B15</f>
         <v>GA</v>
       </c>
       <c r="C14" s="31">
-        <f>+Wage_Comparison!E15</f>
-        <v>846.68</v>
+        <f>+Earnings_Comparison!E15</f>
+        <v>834.21</v>
       </c>
       <c r="D14" s="30">
-        <f>+Wage_Comparison!H15</f>
-        <v>-1.3152500726355321</v>
+        <f>+Earnings_Comparison!H15</f>
+        <v>-2.0395820678508314</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -4571,16 +4571,16 @@
         <v>126</v>
       </c>
       <c r="B15" s="9" t="str">
-        <f>+Wage_Comparison!B16</f>
+        <f>+Earnings_Comparison!B16</f>
         <v>HI</v>
       </c>
       <c r="C15" s="31">
-        <f>+Wage_Comparison!E16</f>
-        <v>832.93</v>
+        <f>+Earnings_Comparison!E16</f>
+        <v>812.35</v>
       </c>
       <c r="D15" s="30">
-        <f>+Wage_Comparison!H16</f>
-        <v>-1.7471573499588833</v>
+        <f>+Earnings_Comparison!H16</f>
+        <v>-4.0566303023017554</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -4588,16 +4588,16 @@
         <v>127</v>
       </c>
       <c r="B16" s="9" t="str">
-        <f>+Wage_Comparison!B17</f>
+        <f>+Earnings_Comparison!B17</f>
         <v>ID</v>
       </c>
       <c r="C16" s="31">
-        <f>+Wage_Comparison!E17</f>
-        <v>726.43</v>
+        <f>+Earnings_Comparison!E17</f>
+        <v>727.06</v>
       </c>
       <c r="D16" s="30">
-        <f>+Wage_Comparison!H17</f>
-        <v>-3.4452393446381291</v>
+        <f>+Earnings_Comparison!H17</f>
+        <v>-2.096292866909788</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -4605,16 +4605,16 @@
         <v>128</v>
       </c>
       <c r="B17" s="9" t="str">
-        <f>+Wage_Comparison!B18</f>
+        <f>+Earnings_Comparison!B18</f>
         <v>IL</v>
       </c>
       <c r="C17" s="31">
-        <f>+Wage_Comparison!E18</f>
-        <v>890.63</v>
+        <f>+Earnings_Comparison!E18</f>
+        <v>893.6</v>
       </c>
       <c r="D17" s="30">
-        <f>+Wage_Comparison!H18</f>
-        <v>-2.1620944514485485</v>
+        <f>+Earnings_Comparison!H18</f>
+        <v>-0.85753367908615319</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -4622,16 +4622,16 @@
         <v>129</v>
       </c>
       <c r="B18" s="9" t="str">
-        <f>+Wage_Comparison!B19</f>
+        <f>+Earnings_Comparison!B19</f>
         <v>IN</v>
       </c>
       <c r="C18" s="31">
-        <f>+Wage_Comparison!E19</f>
-        <v>791.99</v>
+        <f>+Earnings_Comparison!E19</f>
+        <v>799.11</v>
       </c>
       <c r="D18" s="30">
-        <f>+Wage_Comparison!H19</f>
-        <v>-2.0109555758233699</v>
+        <f>+Earnings_Comparison!H19</f>
+        <v>-0.62023233621507634</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -4639,16 +4639,16 @@
         <v>130</v>
       </c>
       <c r="B19" s="9" t="str">
-        <f>+Wage_Comparison!B20</f>
+        <f>+Earnings_Comparison!B20</f>
         <v>IA</v>
       </c>
       <c r="C19" s="31">
-        <f>+Wage_Comparison!E20</f>
-        <v>773.26</v>
+        <f>+Earnings_Comparison!E20</f>
+        <v>788.31</v>
       </c>
       <c r="D19" s="30">
-        <f>+Wage_Comparison!H20</f>
-        <v>-1.273111458925591</v>
+        <f>+Earnings_Comparison!H20</f>
+        <v>0.78604644024484749</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -4656,16 +4656,16 @@
         <v>131</v>
       </c>
       <c r="B20" s="9" t="str">
-        <f>+Wage_Comparison!B21</f>
+        <f>+Earnings_Comparison!B21</f>
         <v>KS</v>
       </c>
       <c r="C20" s="31">
-        <f>+Wage_Comparison!E21</f>
-        <v>769.5</v>
+        <f>+Earnings_Comparison!E21</f>
+        <v>757.44</v>
       </c>
       <c r="D20" s="30">
-        <f>+Wage_Comparison!H21</f>
-        <v>-2.5612467470009448</v>
+        <f>+Earnings_Comparison!H21</f>
+        <v>-3.442082722240225</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -4673,16 +4673,16 @@
         <v>132</v>
       </c>
       <c r="B21" s="9" t="str">
-        <f>+Wage_Comparison!B22</f>
+        <f>+Earnings_Comparison!B22</f>
         <v>KY</v>
       </c>
       <c r="C21" s="31">
-        <f>+Wage_Comparison!E22</f>
-        <v>735.99</v>
+        <f>+Earnings_Comparison!E22</f>
+        <v>743.77</v>
       </c>
       <c r="D21" s="30">
-        <f>+Wage_Comparison!H22</f>
-        <v>-0.37813197255112119</v>
+        <f>+Earnings_Comparison!H22</f>
+        <v>-0.46795425896304366</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -4690,16 +4690,16 @@
         <v>133</v>
       </c>
       <c r="B22" s="9" t="str">
-        <f>+Wage_Comparison!B23</f>
+        <f>+Earnings_Comparison!B23</f>
         <v>LA</v>
       </c>
       <c r="C22" s="31">
-        <f>+Wage_Comparison!E23</f>
-        <v>787.42</v>
+        <f>+Earnings_Comparison!E23</f>
+        <v>779.36</v>
       </c>
       <c r="D22" s="30">
-        <f>+Wage_Comparison!H23</f>
-        <v>-3.3207167360583045</v>
+        <f>+Earnings_Comparison!H23</f>
+        <v>-3.5590310429582495</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -4707,16 +4707,16 @@
         <v>134</v>
       </c>
       <c r="B23" s="9" t="str">
-        <f>+Wage_Comparison!B24</f>
+        <f>+Earnings_Comparison!B24</f>
         <v>ME</v>
       </c>
       <c r="C23" s="31">
-        <f>+Wage_Comparison!E24</f>
-        <v>747.94</v>
+        <f>+Earnings_Comparison!E24</f>
+        <v>749.53</v>
       </c>
       <c r="D23" s="30">
-        <f>+Wage_Comparison!H24</f>
-        <v>-1.0154855607350188</v>
+        <f>+Earnings_Comparison!H24</f>
+        <v>-1.4266195450493679</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -4724,16 +4724,16 @@
         <v>135</v>
       </c>
       <c r="B24" s="9" t="str">
-        <f>+Wage_Comparison!B25</f>
+        <f>+Earnings_Comparison!B25</f>
         <v>MD</v>
       </c>
       <c r="C24" s="31">
-        <f>+Wage_Comparison!E25</f>
-        <v>919.34</v>
+        <f>+Earnings_Comparison!E25</f>
+        <v>926.84</v>
       </c>
       <c r="D24" s="30">
-        <f>+Wage_Comparison!H25</f>
-        <v>-3.1183414529165732</v>
+        <f>+Earnings_Comparison!H25</f>
+        <v>-2.9520625752817331</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -4741,16 +4741,16 @@
         <v>136</v>
       </c>
       <c r="B25" s="9" t="str">
-        <f>+Wage_Comparison!B26</f>
+        <f>+Earnings_Comparison!B26</f>
         <v>MA</v>
       </c>
       <c r="C25" s="31">
-        <f>+Wage_Comparison!E26</f>
-        <v>1039.5</v>
+        <f>+Earnings_Comparison!E26</f>
+        <v>1038.29</v>
       </c>
       <c r="D25" s="30">
-        <f>+Wage_Comparison!H26</f>
-        <v>1.9039978049496531</v>
+        <f>+Earnings_Comparison!H26</f>
+        <v>1.4268571894815674</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -4758,16 +4758,16 @@
         <v>137</v>
       </c>
       <c r="B26" s="9" t="str">
-        <f>+Wage_Comparison!B27</f>
+        <f>+Earnings_Comparison!B27</f>
         <v>MI</v>
       </c>
       <c r="C26" s="31">
-        <f>+Wage_Comparison!E27</f>
-        <v>820.66</v>
+        <f>+Earnings_Comparison!E27</f>
+        <v>827.22</v>
       </c>
       <c r="D26" s="30">
-        <f>+Wage_Comparison!H27</f>
-        <v>-1.1893548427510225</v>
+        <f>+Earnings_Comparison!H27</f>
+        <v>-0.73252826327491194</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -4775,16 +4775,16 @@
         <v>138</v>
       </c>
       <c r="B27" s="9" t="str">
-        <f>+Wage_Comparison!B28</f>
+        <f>+Earnings_Comparison!B28</f>
         <v>MN</v>
       </c>
       <c r="C27" s="31">
-        <f>+Wage_Comparison!E28</f>
-        <v>875.16</v>
+        <f>+Earnings_Comparison!E28</f>
+        <v>898.47</v>
       </c>
       <c r="D27" s="30">
-        <f>+Wage_Comparison!H28</f>
-        <v>-2.0096629073204975</v>
+        <f>+Earnings_Comparison!H28</f>
+        <v>-0.15410835405904599</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -4792,16 +4792,16 @@
         <v>139</v>
       </c>
       <c r="B28" s="9" t="str">
-        <f>+Wage_Comparison!B29</f>
+        <f>+Earnings_Comparison!B29</f>
         <v>MS</v>
       </c>
       <c r="C28" s="31">
-        <f>+Wage_Comparison!E29</f>
-        <v>681.27</v>
+        <f>+Earnings_Comparison!E29</f>
+        <v>674</v>
       </c>
       <c r="D28" s="30">
-        <f>+Wage_Comparison!H29</f>
-        <v>-3.3151408182892861</v>
+        <f>+Earnings_Comparison!H29</f>
+        <v>-4.8639117261667479</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -4809,16 +4809,16 @@
         <v>140</v>
       </c>
       <c r="B29" s="9" t="str">
-        <f>+Wage_Comparison!B30</f>
+        <f>+Earnings_Comparison!B30</f>
         <v>MO</v>
       </c>
       <c r="C29" s="31">
-        <f>+Wage_Comparison!E30</f>
-        <v>735.93</v>
+        <f>+Earnings_Comparison!E30</f>
+        <v>729.94</v>
       </c>
       <c r="D29" s="30">
-        <f>+Wage_Comparison!H30</f>
-        <v>-4.0897372022778207</v>
+        <f>+Earnings_Comparison!H30</f>
+        <v>-4.4995049302052559</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -4826,16 +4826,16 @@
         <v>141</v>
       </c>
       <c r="B30" s="9" t="str">
-        <f>+Wage_Comparison!B31</f>
+        <f>+Earnings_Comparison!B31</f>
         <v>MT</v>
       </c>
       <c r="C30" s="31">
-        <f>+Wage_Comparison!E31</f>
-        <v>722.25</v>
+        <f>+Earnings_Comparison!E31</f>
+        <v>709.88</v>
       </c>
       <c r="D30" s="30">
-        <f>+Wage_Comparison!H31</f>
-        <v>-1.0650772394732222</v>
+        <f>+Earnings_Comparison!H31</f>
+        <v>-0.33286959214878786</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -4843,16 +4843,16 @@
         <v>142</v>
       </c>
       <c r="B31" s="9" t="str">
-        <f>+Wage_Comparison!B32</f>
+        <f>+Earnings_Comparison!B32</f>
         <v>NE</v>
       </c>
       <c r="C31" s="31">
-        <f>+Wage_Comparison!E32</f>
-        <v>760.57</v>
+        <f>+Earnings_Comparison!E32</f>
+        <v>763.8</v>
       </c>
       <c r="D31" s="30">
-        <f>+Wage_Comparison!H32</f>
-        <v>-0.36037279177227877</v>
+        <f>+Earnings_Comparison!H32</f>
+        <v>0.29178343395177553</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -4860,16 +4860,16 @@
         <v>143</v>
       </c>
       <c r="B32" s="9" t="str">
-        <f>+Wage_Comparison!B33</f>
+        <f>+Earnings_Comparison!B33</f>
         <v>NV</v>
       </c>
       <c r="C32" s="31">
-        <f>+Wage_Comparison!E33</f>
-        <v>740.69</v>
+        <f>+Earnings_Comparison!E33</f>
+        <v>741.69</v>
       </c>
       <c r="D32" s="30">
-        <f>+Wage_Comparison!H33</f>
-        <v>3.372738921105789E-2</v>
+        <f>+Earnings_Comparison!H33</f>
+        <v>-0.28470064928125538</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -4877,16 +4877,16 @@
         <v>144</v>
       </c>
       <c r="B33" s="9" t="str">
-        <f>+Wage_Comparison!B34</f>
+        <f>+Earnings_Comparison!B34</f>
         <v>NH</v>
       </c>
       <c r="C33" s="31">
-        <f>+Wage_Comparison!E34</f>
-        <v>855.9</v>
+        <f>+Earnings_Comparison!E34</f>
+        <v>852.58</v>
       </c>
       <c r="D33" s="30">
-        <f>+Wage_Comparison!H34</f>
-        <v>3.3843891006005933</v>
+        <f>+Earnings_Comparison!H34</f>
+        <v>1.7124539680195783</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -4894,16 +4894,16 @@
         <v>145</v>
       </c>
       <c r="B34" s="9" t="str">
-        <f>+Wage_Comparison!B35</f>
+        <f>+Earnings_Comparison!B35</f>
         <v>NJ</v>
       </c>
       <c r="C34" s="31">
-        <f>+Wage_Comparison!E35</f>
-        <v>939.46</v>
+        <f>+Earnings_Comparison!E35</f>
+        <v>936.33</v>
       </c>
       <c r="D34" s="30">
-        <f>+Wage_Comparison!H35</f>
-        <v>-1.3121824099224577</v>
+        <f>+Earnings_Comparison!H35</f>
+        <v>-2.0638698633565045</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -4911,16 +4911,16 @@
         <v>146</v>
       </c>
       <c r="B35" s="9" t="str">
-        <f>+Wage_Comparison!B36</f>
+        <f>+Earnings_Comparison!B36</f>
         <v>NM</v>
       </c>
       <c r="C35" s="31">
-        <f>+Wage_Comparison!E36</f>
-        <v>692.11</v>
+        <f>+Earnings_Comparison!E36</f>
+        <v>679.99</v>
       </c>
       <c r="D35" s="30">
-        <f>+Wage_Comparison!H36</f>
-        <v>-3.2702696070411652</v>
+        <f>+Earnings_Comparison!H36</f>
+        <v>-4.8997370784398919</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -4928,16 +4928,16 @@
         <v>147</v>
       </c>
       <c r="B36" s="9" t="str">
-        <f>+Wage_Comparison!B37</f>
+        <f>+Earnings_Comparison!B37</f>
         <v>NY</v>
       </c>
       <c r="C36" s="31">
-        <f>+Wage_Comparison!E37</f>
-        <v>982.39</v>
+        <f>+Earnings_Comparison!E37</f>
+        <v>973.69</v>
       </c>
       <c r="D36" s="30">
-        <f>+Wage_Comparison!H37</f>
-        <v>-0.59470119104658714</v>
+        <f>+Earnings_Comparison!H37</f>
+        <v>-1.4354876495422664</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -4945,16 +4945,16 @@
         <v>148</v>
       </c>
       <c r="B37" s="9" t="str">
-        <f>+Wage_Comparison!B38</f>
+        <f>+Earnings_Comparison!B38</f>
         <v>NC</v>
       </c>
       <c r="C37" s="31">
-        <f>+Wage_Comparison!E38</f>
-        <v>782.81</v>
+        <f>+Earnings_Comparison!E38</f>
+        <v>788.65</v>
       </c>
       <c r="D37" s="30">
-        <f>+Wage_Comparison!H38</f>
-        <v>0.49837073557492673</v>
+        <f>+Earnings_Comparison!H38</f>
+        <v>1.7081757231037331</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -4962,16 +4962,16 @@
         <v>149</v>
       </c>
       <c r="B38" s="9" t="str">
-        <f>+Wage_Comparison!B39</f>
+        <f>+Earnings_Comparison!B39</f>
         <v>ND</v>
       </c>
       <c r="C38" s="31">
-        <f>+Wage_Comparison!E39</f>
-        <v>872.1</v>
+        <f>+Earnings_Comparison!E39</f>
+        <v>854.3</v>
       </c>
       <c r="D38" s="30">
-        <f>+Wage_Comparison!H39</f>
-        <v>-1.1379100891191762</v>
+        <f>+Earnings_Comparison!H39</f>
+        <v>-3.4162238617711282</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -4979,16 +4979,16 @@
         <v>150</v>
       </c>
       <c r="B39" s="9" t="str">
-        <f>+Wage_Comparison!B40</f>
+        <f>+Earnings_Comparison!B40</f>
         <v>OH</v>
       </c>
       <c r="C39" s="31">
-        <f>+Wage_Comparison!E40</f>
-        <v>780.38</v>
+        <f>+Earnings_Comparison!E40</f>
+        <v>784.98</v>
       </c>
       <c r="D39" s="30">
-        <f>+Wage_Comparison!H40</f>
-        <v>0.10850616980038197</v>
+        <f>+Earnings_Comparison!H40</f>
+        <v>9.8296334658876106E-2</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -4996,16 +4996,16 @@
         <v>151</v>
       </c>
       <c r="B40" s="9" t="str">
-        <f>+Wage_Comparison!B41</f>
+        <f>+Earnings_Comparison!B41</f>
         <v>OK</v>
       </c>
       <c r="C40" s="31">
-        <f>+Wage_Comparison!E41</f>
-        <v>755.07</v>
+        <f>+Earnings_Comparison!E41</f>
+        <v>752.9</v>
       </c>
       <c r="D40" s="30">
-        <f>+Wage_Comparison!H41</f>
-        <v>-2.6171154911142747</v>
+        <f>+Earnings_Comparison!H41</f>
+        <v>-2.8378693889962281</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -5013,16 +5013,16 @@
         <v>152</v>
       </c>
       <c r="B41" s="9" t="str">
-        <f>+Wage_Comparison!B42</f>
+        <f>+Earnings_Comparison!B42</f>
         <v>OR</v>
       </c>
       <c r="C41" s="31">
-        <f>+Wage_Comparison!E42</f>
-        <v>822.28</v>
+        <f>+Earnings_Comparison!E42</f>
+        <v>819.08</v>
       </c>
       <c r="D41" s="30">
-        <f>+Wage_Comparison!H42</f>
-        <v>0.79686451291847149</v>
+        <f>+Earnings_Comparison!H42</f>
+        <v>0.98052585400123515</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -5030,16 +5030,16 @@
         <v>153</v>
       </c>
       <c r="B42" s="9" t="str">
-        <f>+Wage_Comparison!B43</f>
+        <f>+Earnings_Comparison!B43</f>
         <v>PA</v>
       </c>
       <c r="C42" s="31">
-        <f>+Wage_Comparison!E43</f>
-        <v>824.21</v>
+        <f>+Earnings_Comparison!E43</f>
+        <v>823.29</v>
       </c>
       <c r="D42" s="30">
-        <f>+Wage_Comparison!H43</f>
-        <v>0.50204025993465518</v>
+        <f>+Earnings_Comparison!H43</f>
+        <v>-0.28211583665344042</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -5047,16 +5047,16 @@
         <v>154</v>
       </c>
       <c r="B43" s="9" t="str">
-        <f>+Wage_Comparison!B44</f>
+        <f>+Earnings_Comparison!B44</f>
         <v>RI</v>
       </c>
       <c r="C43" s="31">
-        <f>+Wage_Comparison!E44</f>
-        <v>845.98</v>
+        <f>+Earnings_Comparison!E44</f>
+        <v>835.9</v>
       </c>
       <c r="D43" s="30">
-        <f>+Wage_Comparison!H44</f>
-        <v>0.69454248004261476</v>
+        <f>+Earnings_Comparison!H44</f>
+        <v>-1.1280236114888598</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -5064,16 +5064,16 @@
         <v>155</v>
       </c>
       <c r="B44" s="9" t="str">
-        <f>+Wage_Comparison!B45</f>
+        <f>+Earnings_Comparison!B45</f>
         <v>SC</v>
       </c>
       <c r="C44" s="31">
-        <f>+Wage_Comparison!E45</f>
-        <v>749.58</v>
+        <f>+Earnings_Comparison!E45</f>
+        <v>766.74</v>
       </c>
       <c r="D44" s="30">
-        <f>+Wage_Comparison!H45</f>
-        <v>0.40154307740571937</v>
+        <f>+Earnings_Comparison!H45</f>
+        <v>0.73251636166551393</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -5081,16 +5081,16 @@
         <v>156</v>
       </c>
       <c r="B45" s="9" t="str">
-        <f>+Wage_Comparison!B46</f>
+        <f>+Earnings_Comparison!B46</f>
         <v>SD</v>
       </c>
       <c r="C45" s="31">
-        <f>+Wage_Comparison!E46</f>
-        <v>705.41</v>
+        <f>+Earnings_Comparison!E46</f>
+        <v>712.32</v>
       </c>
       <c r="D45" s="30">
-        <f>+Wage_Comparison!H46</f>
-        <v>-2.4458058856782094</v>
+        <f>+Earnings_Comparison!H46</f>
+        <v>-0.51012099391082311</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -5098,16 +5098,16 @@
         <v>157</v>
       </c>
       <c r="B46" s="9" t="str">
-        <f>+Wage_Comparison!B47</f>
+        <f>+Earnings_Comparison!B47</f>
         <v>TN</v>
       </c>
       <c r="C46" s="31">
-        <f>+Wage_Comparison!E47</f>
-        <v>747.25</v>
+        <f>+Earnings_Comparison!E47</f>
+        <v>753.66</v>
       </c>
       <c r="D46" s="30">
-        <f>+Wage_Comparison!H47</f>
-        <v>1.6575213789585153</v>
+        <f>+Earnings_Comparison!H47</f>
+        <v>2.066363886654532</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -5115,16 +5115,16 @@
         <v>158</v>
       </c>
       <c r="B47" s="9" t="str">
-        <f>+Wage_Comparison!B48</f>
+        <f>+Earnings_Comparison!B48</f>
         <v>TX</v>
       </c>
       <c r="C47" s="31">
-        <f>+Wage_Comparison!E48</f>
-        <v>871.08</v>
+        <f>+Earnings_Comparison!E48</f>
+        <v>862.05</v>
       </c>
       <c r="D47" s="30">
-        <f>+Wage_Comparison!H48</f>
-        <v>-4.9792860410958317</v>
+        <f>+Earnings_Comparison!H48</f>
+        <v>-4.6491859792138985</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -5132,16 +5132,16 @@
         <v>159</v>
       </c>
       <c r="B48" s="9" t="str">
-        <f>+Wage_Comparison!B49</f>
+        <f>+Earnings_Comparison!B49</f>
         <v>UT</v>
       </c>
       <c r="C48" s="31">
-        <f>+Wage_Comparison!E49</f>
-        <v>852.7</v>
+        <f>+Earnings_Comparison!E49</f>
+        <v>830.07</v>
       </c>
       <c r="D48" s="30">
-        <f>+Wage_Comparison!H49</f>
-        <v>-0.69543494568062858</v>
+        <f>+Earnings_Comparison!H49</f>
+        <v>-2.8226629857372565</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -5149,16 +5149,16 @@
         <v>160</v>
       </c>
       <c r="B49" s="9" t="str">
-        <f>+Wage_Comparison!B50</f>
+        <f>+Earnings_Comparison!B50</f>
         <v>VT</v>
       </c>
       <c r="C49" s="31">
-        <f>+Wage_Comparison!E50</f>
-        <v>796.38</v>
+        <f>+Earnings_Comparison!E50</f>
+        <v>789.82</v>
       </c>
       <c r="D49" s="30">
-        <f>+Wage_Comparison!H50</f>
-        <v>0.92766872947460666</v>
+        <f>+Earnings_Comparison!H50</f>
+        <v>-0.62136202576594801</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -5166,16 +5166,16 @@
         <v>161</v>
       </c>
       <c r="B50" s="9" t="str">
-        <f>+Wage_Comparison!B51</f>
+        <f>+Earnings_Comparison!B51</f>
         <v>VA</v>
       </c>
       <c r="C50" s="31">
-        <f>+Wage_Comparison!E51</f>
-        <v>912.98</v>
+        <f>+Earnings_Comparison!E51</f>
+        <v>923.24</v>
       </c>
       <c r="D50" s="30">
-        <f>+Wage_Comparison!H51</f>
-        <v>-2.0959869406184994</v>
+        <f>+Earnings_Comparison!H51</f>
+        <v>-1.1323245962466699</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -5183,16 +5183,16 @@
         <v>162</v>
       </c>
       <c r="B51" s="9" t="str">
-        <f>+Wage_Comparison!B52</f>
+        <f>+Earnings_Comparison!B52</f>
         <v>WA</v>
       </c>
       <c r="C51" s="31">
-        <f>+Wage_Comparison!E52</f>
-        <v>1031.53</v>
+        <f>+Earnings_Comparison!E52</f>
+        <v>1036.3</v>
       </c>
       <c r="D51" s="30">
-        <f>+Wage_Comparison!H52</f>
-        <v>-0.34675158632925251</v>
+        <f>+Earnings_Comparison!H52</f>
+        <v>0.31238168841101199</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -5200,16 +5200,16 @@
         <v>163</v>
       </c>
       <c r="B52" s="9" t="str">
-        <f>+Wage_Comparison!B53</f>
+        <f>+Earnings_Comparison!B53</f>
         <v>WV</v>
       </c>
       <c r="C52" s="31">
-        <f>+Wage_Comparison!E53</f>
-        <v>727.16</v>
+        <f>+Earnings_Comparison!E53</f>
+        <v>732.2</v>
       </c>
       <c r="D52" s="30">
-        <f>+Wage_Comparison!H53</f>
-        <v>1.1428320717318252</v>
+        <f>+Earnings_Comparison!H53</f>
+        <v>1.5129542553978359</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -5217,16 +5217,16 @@
         <v>164</v>
       </c>
       <c r="B53" s="9" t="str">
-        <f>+Wage_Comparison!B54</f>
+        <f>+Earnings_Comparison!B54</f>
         <v>WI</v>
       </c>
       <c r="C53" s="31">
-        <f>+Wage_Comparison!E54</f>
-        <v>793.48</v>
+        <f>+Earnings_Comparison!E54</f>
+        <v>794.92</v>
       </c>
       <c r="D53" s="30">
-        <f>+Wage_Comparison!H54</f>
-        <v>-1.2365674172038932</v>
+        <f>+Earnings_Comparison!H54</f>
+        <v>-0.93630278531813271</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -5234,16 +5234,16 @@
         <v>165</v>
       </c>
       <c r="B54" s="9" t="str">
-        <f>+Wage_Comparison!B55</f>
+        <f>+Earnings_Comparison!B55</f>
         <v>WY</v>
       </c>
       <c r="C54" s="31">
-        <f>+Wage_Comparison!E55</f>
-        <v>780.55</v>
+        <f>+Earnings_Comparison!E55</f>
+        <v>772.89</v>
       </c>
       <c r="D54" s="30">
-        <f>+Wage_Comparison!H55</f>
-        <v>-7.5458441418326805</v>
+        <f>+Earnings_Comparison!H55</f>
+        <v>-7.2477085382807838</v>
       </c>
     </row>
   </sheetData>
@@ -5260,10 +5260,10 @@
   <dimension ref="A1:AF65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="D29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K44" sqref="K44"/>
+      <selection pane="bottomRight" activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5293,7 +5293,7 @@
     <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D3" s="35"/>
     </row>
-    <row r="4" spans="1:32" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>63</v>
       </c>
@@ -5352,21 +5352,21 @@
         <v>5</v>
       </c>
       <c r="D5" s="36">
-        <f>'BLS Data Series_February'!C5</f>
+        <f>'BLS Data Series_March'!D5</f>
+        <v>754.02</v>
+      </c>
+      <c r="E5" s="36">
+        <f>'BLS Data Series_March'!P5</f>
         <v>760.06</v>
-      </c>
-      <c r="E5" s="36">
-        <f>'BLS Data Series_February'!O5</f>
-        <v>768.6</v>
       </c>
       <c r="F5" s="37"/>
       <c r="G5" s="37">
         <f>D5/$G$61</f>
-        <v>767.79588900912552</v>
+        <v>760.44829361466043</v>
       </c>
       <c r="H5" s="11">
         <f>((E5/G5)-1)*100</f>
-        <v>0.10472978592164228</v>
+        <v>-5.106114615824886E-2</v>
       </c>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
@@ -5384,21 +5384,21 @@
         <v>6</v>
       </c>
       <c r="D6" s="36">
-        <f>'BLS Data Series_February'!C6</f>
-        <v>945.7</v>
+        <f>'BLS Data Series_March'!D6</f>
+        <v>959.35</v>
       </c>
       <c r="E6" s="36">
-        <f>'BLS Data Series_February'!O6</f>
-        <v>944.03</v>
+        <f>'BLS Data Series_March'!P6</f>
+        <v>958.34</v>
       </c>
       <c r="F6" s="37"/>
       <c r="G6" s="37">
         <f t="shared" ref="G6:G55" si="0">D6/$G$61</f>
-        <v>955.32533252102485</v>
+        <v>967.52880623753288</v>
       </c>
       <c r="H6" s="11">
         <f t="shared" ref="H6:H55" si="1">((E6/G6)-1)*100</f>
-        <v>-1.1823545483942599</v>
+        <v>-0.94971913789996254</v>
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
@@ -5416,21 +5416,21 @@
         <v>7</v>
       </c>
       <c r="D7" s="36">
-        <f>'BLS Data Series_February'!C7</f>
-        <v>807.65</v>
+        <f>'BLS Data Series_March'!D7</f>
+        <v>802.7</v>
       </c>
       <c r="E7" s="36">
-        <f>'BLS Data Series_February'!O7</f>
-        <v>808.49</v>
+        <f>'BLS Data Series_March'!P7</f>
+        <v>809.14</v>
       </c>
       <c r="F7" s="37"/>
       <c r="G7" s="37">
         <f t="shared" si="0"/>
-        <v>815.8702599245064</v>
+        <v>809.5433082471128</v>
       </c>
       <c r="H7" s="11">
         <f t="shared" si="1"/>
-        <v>-0.90458744325222495</v>
+        <v>-4.9819230546921389E-2</v>
       </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
@@ -5448,21 +5448,21 @@
         <v>8</v>
       </c>
       <c r="D8" s="36">
-        <f>'BLS Data Series_February'!C8</f>
-        <v>674.57</v>
+        <f>'BLS Data Series_March'!D8</f>
+        <v>676.55</v>
       </c>
       <c r="E8" s="36">
-        <f>'BLS Data Series_February'!O8</f>
-        <v>675.29</v>
+        <f>'BLS Data Series_March'!P8</f>
+        <v>666.99</v>
       </c>
       <c r="F8" s="37"/>
       <c r="G8" s="37">
         <f t="shared" si="0"/>
-        <v>681.43577197706225</v>
+        <v>682.31783380414117</v>
       </c>
       <c r="H8" s="11">
         <f t="shared" si="1"/>
-        <v>-0.90188572860380178</v>
+        <v>-2.2464360514635184</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -5480,21 +5480,21 @@
         <v>9</v>
       </c>
       <c r="D9" s="36">
-        <f>'BLS Data Series_February'!C9</f>
-        <v>980.69</v>
+        <f>'BLS Data Series_March'!D9</f>
+        <v>980.7</v>
       </c>
       <c r="E9" s="36">
-        <f>'BLS Data Series_February'!O9</f>
-        <v>973.33</v>
+        <f>'BLS Data Series_March'!P9</f>
+        <v>970.49</v>
       </c>
       <c r="F9" s="37"/>
       <c r="G9" s="37">
         <f t="shared" si="0"/>
-        <v>990.67146066410476</v>
+        <v>989.06082272074684</v>
       </c>
       <c r="H9" s="11">
         <f t="shared" si="1"/>
-        <v>-1.7504754454599647</v>
+        <v>-1.8776219110227754</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -5512,21 +5512,21 @@
         <v>10</v>
       </c>
       <c r="D10" s="36">
-        <f>'BLS Data Series_February'!C10</f>
-        <v>919.86</v>
+        <f>'BLS Data Series_March'!D10</f>
+        <v>922.26</v>
       </c>
       <c r="E10" s="36">
-        <f>'BLS Data Series_February'!O10</f>
-        <v>901.05</v>
+        <f>'BLS Data Series_March'!P10</f>
+        <v>908.02</v>
       </c>
       <c r="F10" s="37"/>
       <c r="G10" s="37">
         <f t="shared" si="0"/>
-        <v>929.22233305783004</v>
+        <v>930.12260055311094</v>
       </c>
       <c r="H10" s="11">
         <f t="shared" si="1"/>
-        <v>-3.0318183340602878</v>
+        <v>-2.3763104498232046</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -5544,21 +5544,21 @@
         <v>11</v>
       </c>
       <c r="D11" s="36">
-        <f>'BLS Data Series_February'!C11</f>
-        <v>973.28</v>
+        <f>'BLS Data Series_March'!D11</f>
+        <v>975.74</v>
       </c>
       <c r="E11" s="36">
-        <f>'BLS Data Series_February'!O11</f>
-        <v>1004.59</v>
+        <f>'BLS Data Series_March'!P11</f>
+        <v>997.99</v>
       </c>
       <c r="F11" s="37"/>
       <c r="G11" s="37">
         <f t="shared" si="0"/>
-        <v>983.18604170039441</v>
+        <v>984.05853692417816</v>
       </c>
       <c r="H11" s="11">
         <f t="shared" si="1"/>
-        <v>2.1769998140522828</v>
+        <v>1.4157148739714964</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -5576,21 +5576,21 @@
         <v>12</v>
       </c>
       <c r="D12" s="36">
-        <f>'BLS Data Series_February'!C12</f>
-        <v>750.25</v>
+        <f>'BLS Data Series_March'!D12</f>
+        <v>751.25</v>
       </c>
       <c r="E12" s="36">
-        <f>'BLS Data Series_February'!O12</f>
-        <v>807.28</v>
+        <f>'BLS Data Series_March'!P12</f>
+        <v>807.69</v>
       </c>
       <c r="F12" s="37"/>
       <c r="G12" s="37">
         <f t="shared" si="0"/>
-        <v>757.88604285069141</v>
+        <v>757.65467836133485</v>
       </c>
       <c r="H12" s="11">
         <f t="shared" si="1"/>
-        <v>6.5173329968605254</v>
+        <v>6.6039744843762183</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -5608,21 +5608,21 @@
         <v>13</v>
       </c>
       <c r="D13" s="36">
-        <f>'BLS Data Series_February'!C13</f>
-        <v>1490.03</v>
+        <f>'BLS Data Series_March'!D13</f>
+        <v>1474.93</v>
       </c>
       <c r="E13" s="36">
-        <f>'BLS Data Series_February'!O13</f>
-        <v>1308.03</v>
+        <f>'BLS Data Series_March'!P13</f>
+        <v>1305.2</v>
       </c>
       <c r="F13" s="37"/>
       <c r="G13" s="37">
         <f t="shared" si="0"/>
-        <v>1505.1955220643995</v>
+        <v>1487.5043124865006</v>
       </c>
       <c r="H13" s="11">
         <f t="shared" si="1"/>
-        <v>-13.098997384338739</v>
+        <v>-12.255716568764907</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -5640,21 +5640,21 @@
         <v>14</v>
       </c>
       <c r="D14" s="36">
-        <f>'BLS Data Series_February'!C14</f>
-        <v>781.79</v>
+        <f>'BLS Data Series_March'!D14</f>
+        <v>779.02</v>
       </c>
       <c r="E14" s="36">
-        <f>'BLS Data Series_February'!O14</f>
-        <v>783.76</v>
+        <f>'BLS Data Series_March'!P14</f>
+        <v>792.07</v>
       </c>
       <c r="F14" s="37"/>
       <c r="G14" s="37">
         <f t="shared" si="0"/>
-        <v>789.74705690135556</v>
+        <v>785.66142766994608</v>
       </c>
       <c r="H14" s="11">
         <f t="shared" si="1"/>
-        <v>-0.75809803265951548</v>
+        <v>0.81569135308832141</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -5672,21 +5672,21 @@
         <v>15</v>
       </c>
       <c r="D15" s="36">
-        <f>'BLS Data Series_February'!C15</f>
-        <v>849.32</v>
+        <f>'BLS Data Series_March'!D15</f>
+        <v>844.38</v>
       </c>
       <c r="E15" s="36">
-        <f>'BLS Data Series_February'!O15</f>
-        <v>846.68</v>
+        <f>'BLS Data Series_March'!P15</f>
+        <v>834.21</v>
       </c>
       <c r="F15" s="37"/>
       <c r="G15" s="37">
         <f t="shared" si="0"/>
-        <v>857.96437709290137</v>
+        <v>851.57864534408498</v>
       </c>
       <c r="H15" s="11">
         <f t="shared" si="1"/>
-        <v>-1.3152500726355321</v>
+        <v>-2.0395820678508314</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -5704,21 +5704,21 @@
         <v>16</v>
       </c>
       <c r="D16" s="36">
-        <f>'BLS Data Series_February'!C16</f>
-        <v>839.2</v>
+        <f>'BLS Data Series_March'!D16</f>
+        <v>839.54</v>
       </c>
       <c r="E16" s="36">
-        <f>'BLS Data Series_February'!O16</f>
-        <v>832.93</v>
+        <f>'BLS Data Series_March'!P16</f>
+        <v>812.35</v>
       </c>
       <c r="F16" s="37"/>
       <c r="G16" s="37">
         <f t="shared" si="0"/>
-        <v>847.74137575514862</v>
+        <v>846.69738259098165</v>
       </c>
       <c r="H16" s="11">
         <f t="shared" si="1"/>
-        <v>-1.7471573499588833</v>
+        <v>-4.0566303023017554</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -5736,21 +5736,21 @@
         <v>17</v>
       </c>
       <c r="D17" s="36">
-        <f>'BLS Data Series_February'!C17</f>
-        <v>744.77</v>
+        <f>'BLS Data Series_March'!D17</f>
+        <v>736.35</v>
       </c>
       <c r="E17" s="36">
-        <f>'BLS Data Series_February'!O17</f>
-        <v>726.43</v>
+        <f>'BLS Data Series_March'!P17</f>
+        <v>727.06</v>
       </c>
       <c r="F17" s="37"/>
       <c r="G17" s="37">
         <f t="shared" si="0"/>
-        <v>752.35026742273828</v>
+        <v>742.6276504643846</v>
       </c>
       <c r="H17" s="11">
         <f t="shared" si="1"/>
-        <v>-3.4452393446381291</v>
+        <v>-2.096292866909788</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -5768,21 +5768,21 @@
         <v>18</v>
       </c>
       <c r="D18" s="36">
-        <f>'BLS Data Series_February'!C18</f>
-        <v>901.14</v>
+        <f>'BLS Data Series_March'!D18</f>
+        <v>893.71</v>
       </c>
       <c r="E18" s="36">
-        <f>'BLS Data Series_February'!O18</f>
-        <v>890.63</v>
+        <f>'BLS Data Series_March'!P18</f>
+        <v>893.6</v>
       </c>
       <c r="F18" s="37"/>
       <c r="G18" s="37">
         <f t="shared" si="0"/>
-        <v>910.31180093898308</v>
+        <v>901.32920146197478</v>
       </c>
       <c r="H18" s="11">
         <f t="shared" si="1"/>
-        <v>-2.1620944514485485</v>
+        <v>-0.85753367908615319</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -5800,21 +5800,21 @@
         <v>19</v>
       </c>
       <c r="D19" s="36">
-        <f>'BLS Data Series_February'!C19</f>
-        <v>800.1</v>
+        <f>'BLS Data Series_March'!D19</f>
+        <v>797.3</v>
       </c>
       <c r="E19" s="36">
-        <f>'BLS Data Series_February'!O19</f>
-        <v>791.99</v>
+        <f>'BLS Data Series_March'!P19</f>
+        <v>799.11</v>
       </c>
       <c r="F19" s="37"/>
       <c r="G19" s="37">
         <f t="shared" si="0"/>
-        <v>808.24341604110384</v>
+        <v>804.09727129117096</v>
       </c>
       <c r="H19" s="11">
         <f t="shared" si="1"/>
-        <v>-2.0109555758233699</v>
+        <v>-0.62023233621507634</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -5832,21 +5832,21 @@
         <v>20</v>
       </c>
       <c r="D20" s="36">
-        <f>'BLS Data Series_February'!C20</f>
-        <v>775.34</v>
+        <f>'BLS Data Series_March'!D20</f>
+        <v>775.55</v>
       </c>
       <c r="E20" s="36">
-        <f>'BLS Data Series_February'!O20</f>
-        <v>773.26</v>
+        <f>'BLS Data Series_March'!P20</f>
+        <v>788.31</v>
       </c>
       <c r="F20" s="37"/>
       <c r="G20" s="37">
         <f t="shared" si="0"/>
-        <v>783.23140881553491</v>
+        <v>782.16184466307243</v>
       </c>
       <c r="H20" s="11">
         <f t="shared" si="1"/>
-        <v>-1.273111458925591</v>
+        <v>0.78604644024484749</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -5864,21 +5864,21 @@
         <v>21</v>
       </c>
       <c r="D21" s="36">
-        <f>'BLS Data Series_February'!C21</f>
-        <v>781.77</v>
+        <f>'BLS Data Series_March'!D21</f>
+        <v>777.81</v>
       </c>
       <c r="E21" s="36">
-        <f>'BLS Data Series_February'!O21</f>
-        <v>769.5</v>
+        <f>'BLS Data Series_March'!P21</f>
+        <v>757.44</v>
       </c>
       <c r="F21" s="37"/>
       <c r="G21" s="37">
         <f t="shared" si="0"/>
-        <v>789.72685334139953</v>
+        <v>784.44111198167025</v>
       </c>
       <c r="H21" s="11">
         <f t="shared" si="1"/>
-        <v>-2.5612467470009448</v>
+        <v>-3.442082722240225</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -5896,21 +5896,21 @@
         <v>22</v>
       </c>
       <c r="D22" s="36">
-        <f>'BLS Data Series_February'!C22</f>
-        <v>731.34</v>
+        <f>'BLS Data Series_March'!D22</f>
+        <v>740.95</v>
       </c>
       <c r="E22" s="36">
-        <f>'BLS Data Series_February'!O22</f>
-        <v>735.99</v>
+        <f>'BLS Data Series_March'!P22</f>
+        <v>743.77</v>
       </c>
       <c r="F22" s="37"/>
       <c r="G22" s="37">
         <f t="shared" si="0"/>
-        <v>738.78357691226211</v>
+        <v>747.2668671305571</v>
       </c>
       <c r="H22" s="11">
         <f t="shared" si="1"/>
-        <v>-0.37813197255112119</v>
+        <v>-0.46795425896304366</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -5928,21 +5928,21 @@
         <v>23</v>
       </c>
       <c r="D23" s="36">
-        <f>'BLS Data Series_February'!C23</f>
-        <v>806.26</v>
+        <f>'BLS Data Series_March'!D23</f>
+        <v>801.29</v>
       </c>
       <c r="E23" s="36">
-        <f>'BLS Data Series_February'!O23</f>
-        <v>787.42</v>
+        <f>'BLS Data Series_March'!P23</f>
+        <v>779.36</v>
       </c>
       <c r="F23" s="37"/>
       <c r="G23" s="37">
         <f t="shared" si="0"/>
-        <v>814.466112507562</v>
+        <v>808.12128748639464</v>
       </c>
       <c r="H23" s="11">
         <f t="shared" si="1"/>
-        <v>-3.3207167360583045</v>
+        <v>-3.5590310429582495</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -5960,21 +5960,21 @@
         <v>24</v>
       </c>
       <c r="D24" s="36">
-        <f>'BLS Data Series_February'!C24</f>
-        <v>748</v>
+        <f>'BLS Data Series_March'!D24</f>
+        <v>753.95</v>
       </c>
       <c r="E24" s="36">
-        <f>'BLS Data Series_February'!O24</f>
-        <v>747.94</v>
+        <f>'BLS Data Series_March'!P24</f>
+        <v>749.53</v>
       </c>
       <c r="F24" s="37"/>
       <c r="G24" s="37">
         <f t="shared" si="0"/>
-        <v>755.61314235563771</v>
+        <v>760.37769683930571</v>
       </c>
       <c r="H24" s="11">
         <f t="shared" si="1"/>
-        <v>-1.0154855607350188</v>
+        <v>-1.4266195450493679</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -5992,21 +5992,21 @@
         <v>25</v>
       </c>
       <c r="D25" s="36">
-        <f>'BLS Data Series_February'!C25</f>
-        <v>939.37</v>
+        <f>'BLS Data Series_March'!D25</f>
+        <v>946.96</v>
       </c>
       <c r="E25" s="36">
-        <f>'BLS Data Series_February'!O25</f>
-        <v>919.34</v>
+        <f>'BLS Data Series_March'!P25</f>
+        <v>926.84</v>
       </c>
       <c r="F25" s="37"/>
       <c r="G25" s="37">
         <f t="shared" si="0"/>
-        <v>948.93090579494037</v>
+        <v>955.03317699973331</v>
       </c>
       <c r="H25" s="11">
         <f t="shared" si="1"/>
-        <v>-3.1183414529165732</v>
+        <v>-2.9520625752817331</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -6024,21 +6024,21 @@
         <v>26</v>
       </c>
       <c r="D26" s="36">
-        <f>'BLS Data Series_February'!C26</f>
-        <v>1009.8</v>
+        <f>'BLS Data Series_March'!D26</f>
+        <v>1015.03</v>
       </c>
       <c r="E26" s="36">
-        <f>'BLS Data Series_February'!O26</f>
-        <v>1039.5</v>
+        <f>'BLS Data Series_March'!P26</f>
+        <v>1038.29</v>
       </c>
       <c r="F26" s="37"/>
       <c r="G26" s="37">
         <f t="shared" si="0"/>
-        <v>1020.0777421801108</v>
+        <v>1023.6834984054651</v>
       </c>
       <c r="H26" s="11">
         <f t="shared" si="1"/>
-        <v>1.9039978049496531</v>
+        <v>1.4268571894815674</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -6056,21 +6056,21 @@
         <v>27</v>
       </c>
       <c r="D27" s="36">
-        <f>'BLS Data Series_February'!C27</f>
-        <v>822.17</v>
+        <f>'BLS Data Series_March'!D27</f>
+        <v>826.28</v>
       </c>
       <c r="E27" s="36">
-        <f>'BLS Data Series_February'!O27</f>
-        <v>820.66</v>
+        <f>'BLS Data Series_March'!P27</f>
+        <v>827.22</v>
       </c>
       <c r="F27" s="37"/>
       <c r="G27" s="37">
         <f t="shared" si="0"/>
-        <v>830.5380444525864</v>
+        <v>833.32433628805813</v>
       </c>
       <c r="H27" s="11">
         <f t="shared" si="1"/>
-        <v>-1.1893548427510225</v>
+        <v>-0.73252826327491194</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -6088,21 +6088,21 @@
         <v>28</v>
       </c>
       <c r="D28" s="36">
-        <f>'BLS Data Series_February'!C28</f>
-        <v>884.11</v>
+        <f>'BLS Data Series_March'!D28</f>
+        <v>892.25</v>
       </c>
       <c r="E28" s="36">
-        <f>'BLS Data Series_February'!O28</f>
-        <v>875.16</v>
+        <f>'BLS Data Series_March'!P28</f>
+        <v>898.47</v>
       </c>
       <c r="F28" s="37"/>
       <c r="G28" s="37">
         <f t="shared" si="0"/>
-        <v>893.10846963642086</v>
+        <v>899.85675443314608</v>
       </c>
       <c r="H28" s="11">
         <f t="shared" si="1"/>
-        <v>-2.0096629073204975</v>
+        <v>-0.15410835405904599</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -6120,21 +6120,21 @@
         <v>29</v>
       </c>
       <c r="D29" s="36">
-        <f>'BLS Data Series_February'!C29</f>
-        <v>697.53</v>
+        <f>'BLS Data Series_March'!D29</f>
+        <v>702.47</v>
       </c>
       <c r="E29" s="36">
-        <f>'BLS Data Series_February'!O29</f>
-        <v>681.27</v>
+        <f>'BLS Data Series_March'!P29</f>
+        <v>674</v>
       </c>
       <c r="F29" s="37"/>
       <c r="G29" s="37">
         <f t="shared" si="0"/>
-        <v>704.6294588065881</v>
+        <v>708.45881119266141</v>
       </c>
       <c r="H29" s="11">
         <f t="shared" si="1"/>
-        <v>-3.3151408182892861</v>
+        <v>-4.8639117261667479</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -6152,21 +6152,21 @@
         <v>30</v>
       </c>
       <c r="D30" s="36">
-        <f>'BLS Data Series_February'!C30</f>
-        <v>759.58</v>
+        <f>'BLS Data Series_March'!D30</f>
+        <v>757.87</v>
       </c>
       <c r="E30" s="36">
-        <f>'BLS Data Series_February'!O30</f>
-        <v>735.93</v>
+        <f>'BLS Data Series_March'!P30</f>
+        <v>729.94</v>
       </c>
       <c r="F30" s="37"/>
       <c r="G30" s="37">
         <f t="shared" si="0"/>
-        <v>767.3110035701809</v>
+        <v>764.33111625917445</v>
       </c>
       <c r="H30" s="11">
         <f t="shared" si="1"/>
-        <v>-4.0897372022778207</v>
+        <v>-4.4995049302052559</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -6184,21 +6184,21 @@
         <v>31</v>
       </c>
       <c r="D31" s="36">
-        <f>'BLS Data Series_February'!C31</f>
-        <v>722.67</v>
+        <f>'BLS Data Series_March'!D31</f>
+        <v>706.23</v>
       </c>
       <c r="E31" s="36">
-        <f>'BLS Data Series_February'!O31</f>
-        <v>722.25</v>
+        <f>'BLS Data Series_March'!P31</f>
+        <v>709.88</v>
       </c>
       <c r="F31" s="37"/>
       <c r="G31" s="37">
         <f t="shared" si="0"/>
-        <v>730.02533367132173</v>
+        <v>712.25086655457642</v>
       </c>
       <c r="H31" s="11">
         <f t="shared" si="1"/>
-        <v>-1.0650772394732222</v>
+        <v>-0.33286959214878786</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -6216,21 +6216,21 @@
         <v>32</v>
       </c>
       <c r="D32" s="36">
-        <f>'BLS Data Series_February'!C32</f>
-        <v>755.63</v>
+        <f>'BLS Data Series_March'!D32</f>
+        <v>755.14</v>
       </c>
       <c r="E32" s="36">
-        <f>'BLS Data Series_February'!O32</f>
-        <v>760.57</v>
+        <f>'BLS Data Series_March'!P32</f>
+        <v>763.8</v>
       </c>
       <c r="F32" s="37"/>
       <c r="G32" s="37">
         <f t="shared" si="0"/>
-        <v>763.32080047886427</v>
+        <v>761.57784202033724</v>
       </c>
       <c r="H32" s="11">
         <f t="shared" si="1"/>
-        <v>-0.36037279177227877</v>
+        <v>0.29178343395177553</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -6248,21 +6248,21 @@
         <v>33</v>
       </c>
       <c r="D33" s="36">
-        <f>'BLS Data Series_February'!C33</f>
-        <v>732.98</v>
+        <f>'BLS Data Series_March'!D33</f>
+        <v>737.52</v>
       </c>
       <c r="E33" s="36">
-        <f>'BLS Data Series_February'!O33</f>
-        <v>740.69</v>
+        <f>'BLS Data Series_March'!P33</f>
+        <v>741.69</v>
       </c>
       <c r="F33" s="37"/>
       <c r="G33" s="37">
         <f t="shared" si="0"/>
-        <v>740.44026882865683</v>
+        <v>743.80762513817194</v>
       </c>
       <c r="H33" s="11">
         <f t="shared" si="1"/>
-        <v>3.372738921105789E-2</v>
+        <v>-0.28470064928125538</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -6280,21 +6280,21 @@
         <v>34</v>
       </c>
       <c r="D34" s="36">
-        <f>'BLS Data Series_February'!C34</f>
-        <v>819.54</v>
+        <f>'BLS Data Series_March'!D34</f>
+        <v>831.14</v>
       </c>
       <c r="E34" s="36">
-        <f>'BLS Data Series_February'!O34</f>
-        <v>855.9</v>
+        <f>'BLS Data Series_March'!P34</f>
+        <v>852.58</v>
       </c>
       <c r="F34" s="37"/>
       <c r="G34" s="37">
         <f t="shared" si="0"/>
-        <v>827.88127631836801</v>
+        <v>838.22576954840576</v>
       </c>
       <c r="H34" s="11">
         <f t="shared" si="1"/>
-        <v>3.3843891006005933</v>
+        <v>1.7124539680195783</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -6312,21 +6312,21 @@
         <v>35</v>
       </c>
       <c r="D35" s="36">
-        <f>'BLS Data Series_February'!C35</f>
-        <v>942.36</v>
+        <f>'BLS Data Series_March'!D35</f>
+        <v>947.98</v>
       </c>
       <c r="E35" s="36">
-        <f>'BLS Data Series_February'!O35</f>
-        <v>939.46</v>
+        <f>'BLS Data Series_March'!P35</f>
+        <v>936.33</v>
       </c>
       <c r="F35" s="37"/>
       <c r="G35" s="37">
         <f t="shared" si="0"/>
-        <v>951.95133800836732</v>
+        <v>956.06187286918896</v>
       </c>
       <c r="H35" s="11">
         <f t="shared" si="1"/>
-        <v>-1.3121824099224577</v>
+        <v>-2.0638698633565045</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -6344,21 +6344,21 @@
         <v>36</v>
       </c>
       <c r="D36" s="36">
-        <f>'BLS Data Series_February'!C36</f>
-        <v>708.3</v>
+        <f>'BLS Data Series_March'!D36</f>
+        <v>708.98</v>
       </c>
       <c r="E36" s="36">
-        <f>'BLS Data Series_February'!O36</f>
-        <v>692.11</v>
+        <f>'BLS Data Series_March'!P36</f>
+        <v>679.99</v>
       </c>
       <c r="F36" s="37"/>
       <c r="G36" s="37">
         <f t="shared" si="0"/>
-        <v>715.5090758429119</v>
+        <v>715.02431130065781</v>
       </c>
       <c r="H36" s="11">
         <f t="shared" si="1"/>
-        <v>-3.2702696070411652</v>
+        <v>-4.8997370784398919</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -6376,21 +6376,21 @@
         <v>37</v>
       </c>
       <c r="D37" s="36">
-        <f>'BLS Data Series_February'!C37</f>
-        <v>978.31</v>
+        <f>'BLS Data Series_March'!D37</f>
+        <v>979.52</v>
       </c>
       <c r="E37" s="36">
-        <f>'BLS Data Series_February'!O37</f>
-        <v>982.39</v>
+        <f>'BLS Data Series_March'!P37</f>
+        <v>973.69</v>
       </c>
       <c r="F37" s="37"/>
       <c r="G37" s="37">
         <f t="shared" si="0"/>
-        <v>988.26723702933668</v>
+        <v>987.87076279333735</v>
       </c>
       <c r="H37" s="11">
         <f t="shared" si="1"/>
-        <v>-0.59470119104658714</v>
+        <v>-1.4354876495422664</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -6408,21 +6408,21 @@
         <v>38</v>
       </c>
       <c r="D38" s="36">
-        <f>'BLS Data Series_February'!C38</f>
-        <v>771.08</v>
+        <f>'BLS Data Series_March'!D38</f>
+        <v>768.85</v>
       </c>
       <c r="E38" s="36">
-        <f>'BLS Data Series_February'!O38</f>
-        <v>782.81</v>
+        <f>'BLS Data Series_March'!P38</f>
+        <v>788.65</v>
       </c>
       <c r="F38" s="37"/>
       <c r="G38" s="37">
         <f t="shared" si="0"/>
-        <v>778.92805054489986</v>
+        <v>775.40472473625596</v>
       </c>
       <c r="H38" s="11">
         <f t="shared" si="1"/>
-        <v>0.49837073557492673</v>
+        <v>1.7081757231037331</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -6440,21 +6440,21 @@
         <v>39</v>
       </c>
       <c r="D39" s="36">
-        <f>'BLS Data Series_February'!C39</f>
-        <v>873.25</v>
+        <f>'BLS Data Series_March'!D39</f>
+        <v>877.04</v>
       </c>
       <c r="E39" s="36">
-        <f>'BLS Data Series_February'!O39</f>
-        <v>872.1</v>
+        <f>'BLS Data Series_March'!P39</f>
+        <v>854.3</v>
       </c>
       <c r="F39" s="37"/>
       <c r="G39" s="37">
         <f t="shared" si="0"/>
-        <v>882.13793658029488</v>
+        <v>884.51708367391018</v>
       </c>
       <c r="H39" s="11">
         <f t="shared" si="1"/>
-        <v>-1.1379100891191762</v>
+        <v>-3.4162238617711282</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -6472,21 +6472,21 @@
         <v>40</v>
       </c>
       <c r="D40" s="36">
-        <f>'BLS Data Series_February'!C40</f>
-        <v>771.68</v>
+        <f>'BLS Data Series_March'!D40</f>
+        <v>777.58</v>
       </c>
       <c r="E40" s="36">
-        <f>'BLS Data Series_February'!O40</f>
-        <v>780.38</v>
+        <f>'BLS Data Series_March'!P40</f>
+        <v>784.98</v>
       </c>
       <c r="F40" s="37"/>
       <c r="G40" s="37">
         <f t="shared" si="0"/>
-        <v>779.53415734358077</v>
+        <v>784.20915114836168</v>
       </c>
       <c r="H40" s="11">
         <f t="shared" si="1"/>
-        <v>0.10850616980038197</v>
+        <v>9.8296334658876106E-2</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -6504,21 +6504,21 @@
         <v>41</v>
       </c>
       <c r="D41" s="36">
-        <f>'BLS Data Series_February'!C41</f>
-        <v>767.55</v>
+        <f>'BLS Data Series_March'!D41</f>
+        <v>768.34</v>
       </c>
       <c r="E41" s="36">
-        <f>'BLS Data Series_February'!O41</f>
-        <v>755.07</v>
+        <f>'BLS Data Series_March'!P41</f>
+        <v>752.9</v>
       </c>
       <c r="F41" s="37"/>
       <c r="G41" s="37">
         <f t="shared" si="0"/>
-        <v>775.36212221265998</v>
+        <v>774.89037680152808</v>
       </c>
       <c r="H41" s="11">
         <f t="shared" si="1"/>
-        <v>-2.6171154911142747</v>
+        <v>-2.8378693889962281</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -6536,21 +6536,21 @@
         <v>42</v>
       </c>
       <c r="D42" s="36">
-        <f>'BLS Data Series_February'!C42</f>
-        <v>807.56</v>
+        <f>'BLS Data Series_March'!D42</f>
+        <v>804.27</v>
       </c>
       <c r="E42" s="36">
-        <f>'BLS Data Series_February'!O42</f>
-        <v>822.28</v>
+        <f>'BLS Data Series_March'!P42</f>
+        <v>819.08</v>
       </c>
       <c r="F42" s="37"/>
       <c r="G42" s="37">
         <f t="shared" si="0"/>
-        <v>815.77934390470421</v>
+        <v>811.12669306578471</v>
       </c>
       <c r="H42" s="11">
         <f t="shared" si="1"/>
-        <v>0.79686451291847149</v>
+        <v>0.98052585400123515</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -6568,21 +6568,21 @@
         <v>43</v>
       </c>
       <c r="D43" s="36">
-        <f>'BLS Data Series_February'!C43</f>
-        <v>811.83</v>
+        <f>'BLS Data Series_March'!D43</f>
+        <v>818.64</v>
       </c>
       <c r="E43" s="36">
-        <f>'BLS Data Series_February'!O43</f>
-        <v>824.21</v>
+        <f>'BLS Data Series_March'!P43</f>
+        <v>823.29</v>
       </c>
       <c r="F43" s="37"/>
       <c r="G43" s="37">
         <f t="shared" si="0"/>
-        <v>820.09280395531732</v>
+        <v>825.61920252076288</v>
       </c>
       <c r="H43" s="11">
         <f t="shared" si="1"/>
-        <v>0.50204025993465518</v>
+        <v>-0.28211583665344042</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -6600,21 +6600,21 @@
         <v>44</v>
       </c>
       <c r="D44" s="36">
-        <f>'BLS Data Series_February'!C44</f>
-        <v>831.68</v>
+        <f>'BLS Data Series_March'!D44</f>
+        <v>838.29</v>
       </c>
       <c r="E44" s="36">
-        <f>'BLS Data Series_February'!O44</f>
-        <v>845.98</v>
+        <f>'BLS Data Series_March'!P44</f>
+        <v>835.9</v>
       </c>
       <c r="F44" s="37"/>
       <c r="G44" s="37">
         <f t="shared" si="0"/>
-        <v>840.14483721168006</v>
+        <v>845.43672588821744</v>
       </c>
       <c r="H44" s="11">
         <f t="shared" si="1"/>
-        <v>0.69454248004261476</v>
+        <v>-1.1280236114888598</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -6632,21 +6632,21 @@
         <v>45</v>
       </c>
       <c r="D45" s="36">
-        <f>'BLS Data Series_February'!C45</f>
-        <v>739.06</v>
+        <f>'BLS Data Series_March'!D45</f>
+        <v>754.73</v>
       </c>
       <c r="E45" s="36">
-        <f>'BLS Data Series_February'!O45</f>
-        <v>749.58</v>
+        <f>'BLS Data Series_March'!P45</f>
+        <v>766.74</v>
       </c>
       <c r="F45" s="37"/>
       <c r="G45" s="37">
         <f t="shared" si="0"/>
-        <v>746.58215105529086</v>
+        <v>761.16434662183065</v>
       </c>
       <c r="H45" s="11">
         <f t="shared" si="1"/>
-        <v>0.40154307740571937</v>
+        <v>0.73251636166551393</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -6664,21 +6664,21 @@
         <v>46</v>
       </c>
       <c r="D46" s="36">
-        <f>'BLS Data Series_February'!C46</f>
-        <v>715.81</v>
+        <f>'BLS Data Series_March'!D46</f>
+        <v>709.92</v>
       </c>
       <c r="E46" s="36">
-        <f>'BLS Data Series_February'!O46</f>
-        <v>705.41</v>
+        <f>'BLS Data Series_March'!P46</f>
+        <v>712.32</v>
       </c>
       <c r="F46" s="37"/>
       <c r="G46" s="37">
         <f t="shared" si="0"/>
-        <v>723.09551260640239</v>
+        <v>715.97232514113648</v>
       </c>
       <c r="H46" s="11">
         <f t="shared" si="1"/>
-        <v>-2.4458058856782094</v>
+        <v>-0.51012099391082311</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -6696,21 +6696,21 @@
         <v>47</v>
       </c>
       <c r="D47" s="36">
-        <f>'BLS Data Series_February'!C47</f>
-        <v>727.66</v>
+        <f>'BLS Data Series_March'!D47</f>
+        <v>732.16</v>
       </c>
       <c r="E47" s="36">
-        <f>'BLS Data Series_February'!O47</f>
-        <v>747.25</v>
+        <f>'BLS Data Series_March'!P47</f>
+        <v>753.66</v>
       </c>
       <c r="F47" s="37"/>
       <c r="G47" s="37">
         <f t="shared" si="0"/>
-        <v>735.06612188035194</v>
+        <v>738.40192919671858</v>
       </c>
       <c r="H47" s="11">
         <f t="shared" si="1"/>
-        <v>1.6575213789585153</v>
+        <v>2.066363886654532</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -6728,21 +6728,21 @@
         <v>48</v>
       </c>
       <c r="D48" s="36">
-        <f>'BLS Data Series_February'!C48</f>
-        <v>907.49</v>
+        <f>'BLS Data Series_March'!D48</f>
+        <v>896.44</v>
       </c>
       <c r="E48" s="36">
-        <f>'BLS Data Series_February'!O48</f>
-        <v>871.08</v>
+        <f>'BLS Data Series_March'!P48</f>
+        <v>862.05</v>
       </c>
       <c r="F48" s="37"/>
       <c r="G48" s="37">
         <f t="shared" si="0"/>
-        <v>916.72643122502359</v>
+        <v>904.08247570081198</v>
       </c>
       <c r="H48" s="11">
         <f t="shared" si="1"/>
-        <v>-4.9792860410958317</v>
+        <v>-4.6491859792138985</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -6760,21 +6760,21 @@
         <v>49</v>
       </c>
       <c r="D49" s="36">
-        <f>'BLS Data Series_February'!C49</f>
-        <v>850.02</v>
+        <f>'BLS Data Series_March'!D49</f>
+        <v>846.96</v>
       </c>
       <c r="E49" s="36">
-        <f>'BLS Data Series_February'!O49</f>
-        <v>852.7</v>
+        <f>'BLS Data Series_March'!P49</f>
+        <v>830.07</v>
       </c>
       <c r="F49" s="37"/>
       <c r="G49" s="37">
         <f t="shared" si="0"/>
-        <v>858.67150169136244</v>
+        <v>854.1806407785906</v>
       </c>
       <c r="H49" s="11">
         <f t="shared" si="1"/>
-        <v>-0.69543494568062858</v>
+        <v>-2.8226629857372565</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -6792,21 +6792,21 @@
         <v>50</v>
       </c>
       <c r="D50" s="36">
-        <f>'BLS Data Series_February'!C50</f>
-        <v>781.11</v>
+        <f>'BLS Data Series_March'!D50</f>
+        <v>788.04</v>
       </c>
       <c r="E50" s="36">
-        <f>'BLS Data Series_February'!O50</f>
-        <v>796.38</v>
+        <f>'BLS Data Series_March'!P50</f>
+        <v>789.82</v>
       </c>
       <c r="F50" s="37"/>
       <c r="G50" s="37">
         <f t="shared" si="0"/>
-        <v>789.06013586285042</v>
+        <v>794.75832643709316</v>
       </c>
       <c r="H50" s="11">
         <f t="shared" si="1"/>
-        <v>0.92766872947460666</v>
+        <v>-0.62136202576594801</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -6824,21 +6824,21 @@
         <v>51</v>
       </c>
       <c r="D51" s="36">
-        <f>'BLS Data Series_February'!C51</f>
-        <v>923.13</v>
+        <f>'BLS Data Series_March'!D51</f>
+        <v>925.92</v>
       </c>
       <c r="E51" s="36">
-        <f>'BLS Data Series_February'!O51</f>
-        <v>912.98</v>
+        <f>'BLS Data Series_March'!P51</f>
+        <v>923.24</v>
       </c>
       <c r="F51" s="37"/>
       <c r="G51" s="37">
         <f t="shared" si="0"/>
-        <v>932.52561511064141</v>
+        <v>933.81380337880478</v>
       </c>
       <c r="H51" s="11">
         <f t="shared" si="1"/>
-        <v>-2.0959869406184994</v>
+        <v>-1.1323245962466699</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -6856,21 +6856,21 @@
         <v>52</v>
       </c>
       <c r="D52" s="36">
-        <f>'BLS Data Series_February'!C52</f>
-        <v>1024.69</v>
+        <f>'BLS Data Series_March'!D52</f>
+        <v>1024.3399999999999</v>
       </c>
       <c r="E52" s="36">
-        <f>'BLS Data Series_February'!O52</f>
-        <v>1031.53</v>
+        <f>'BLS Data Series_March'!P52</f>
+        <v>1036.3</v>
       </c>
       <c r="F52" s="37"/>
       <c r="G52" s="37">
         <f t="shared" si="0"/>
-        <v>1035.1192925673774</v>
+        <v>1033.0728695276534</v>
       </c>
       <c r="H52" s="11">
         <f t="shared" si="1"/>
-        <v>-0.34675158632925251</v>
+        <v>0.31238168841101199</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -6888,21 +6888,21 @@
         <v>53</v>
       </c>
       <c r="D53" s="36">
-        <f>'BLS Data Series_February'!C53</f>
-        <v>711.7</v>
+        <f>'BLS Data Series_March'!D53</f>
+        <v>715.19</v>
       </c>
       <c r="E53" s="36">
-        <f>'BLS Data Series_February'!O53</f>
-        <v>727.16</v>
+        <f>'BLS Data Series_March'!P53</f>
+        <v>732.2</v>
       </c>
       <c r="F53" s="37"/>
       <c r="G53" s="37">
         <f t="shared" si="0"/>
-        <v>718.94368103543763</v>
+        <v>721.28725379999082</v>
       </c>
       <c r="H53" s="11">
         <f t="shared" si="1"/>
-        <v>1.1428320717318252</v>
+        <v>1.5129542553978359</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -6920,21 +6920,21 @@
         <v>54</v>
       </c>
       <c r="D54" s="36">
-        <f>'BLS Data Series_February'!C54</f>
-        <v>795.32</v>
+        <f>'BLS Data Series_March'!D54</f>
+        <v>795.65</v>
       </c>
       <c r="E54" s="36">
-        <f>'BLS Data Series_February'!O54</f>
-        <v>793.48</v>
+        <f>'BLS Data Series_March'!P54</f>
+        <v>794.92</v>
       </c>
       <c r="F54" s="37"/>
       <c r="G54" s="37">
         <f t="shared" si="0"/>
-        <v>803.41476521161201</v>
+        <v>802.43320444352219</v>
       </c>
       <c r="H54" s="11">
         <f t="shared" si="1"/>
-        <v>-1.2365674172038932</v>
+        <v>-0.93630278531813271</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -6952,21 +6952,21 @@
         <v>55</v>
       </c>
       <c r="D55" s="36">
-        <f>'BLS Data Series_February'!C55</f>
-        <v>835.75</v>
+        <f>'BLS Data Series_March'!D55</f>
+        <v>826.24</v>
       </c>
       <c r="E55" s="36">
-        <f>'BLS Data Series_February'!O55</f>
-        <v>780.55</v>
+        <f>'BLS Data Series_March'!P55</f>
+        <v>772.89</v>
       </c>
       <c r="F55" s="37"/>
       <c r="G55" s="37">
         <f t="shared" si="0"/>
-        <v>844.25626166273287</v>
+        <v>833.28399527356976</v>
       </c>
       <c r="H55" s="11">
         <f t="shared" si="1"/>
-        <v>-7.5458441418326805</v>
+        <v>-7.2477085382807838</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -7008,19 +7008,19 @@
         <v>180</v>
       </c>
       <c r="D58" s="44">
-        <v>858.08</v>
+        <v>858.02</v>
       </c>
       <c r="E58" s="44">
-        <v>872.04</v>
+        <v>874.79</v>
       </c>
       <c r="F58" s="9"/>
       <c r="G58" s="11">
         <f>D58/$G$61</f>
-        <v>866.81353635364383</v>
+        <v>865.33493128464886</v>
       </c>
       <c r="H58" s="11">
         <f>((E58/G58)-1)*100</f>
-        <v>0.6029513184971691</v>
+        <v>1.0926484501572631</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -7058,15 +7058,15 @@
         <v>58</v>
       </c>
       <c r="D61" s="43">
-        <v>234.72200000000001</v>
+        <v>236.119</v>
       </c>
       <c r="E61" s="43">
-        <v>237.11099999999999</v>
+        <v>238.13200000000001</v>
       </c>
       <c r="F61" s="9"/>
       <c r="G61" s="9">
         <f>D61/E61</f>
-        <v>0.98992455010522507</v>
+        <v>0.99154670518871879</v>
       </c>
       <c r="H61" s="9"/>
       <c r="I61" s="9"/>
@@ -7126,7 +7126,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomRight" activeCell="E21" sqref="E21:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7298,7 +7298,10 @@
         <v>768.22</v>
       </c>
       <c r="O5" s="38">
-        <v>768.6</v>
+        <v>768.96</v>
+      </c>
+      <c r="P5" s="38">
+        <v>760.06</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -7345,7 +7348,10 @@
         <v>934.99</v>
       </c>
       <c r="O6" s="38">
-        <v>944.03</v>
+        <v>948.02</v>
+      </c>
+      <c r="P6" s="38">
+        <v>958.34</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
@@ -7392,7 +7398,10 @@
         <v>803.06</v>
       </c>
       <c r="O7" s="38">
-        <v>808.49</v>
+        <v>810.54</v>
+      </c>
+      <c r="P7" s="38">
+        <v>809.14</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -7439,7 +7448,10 @@
         <v>675.35</v>
       </c>
       <c r="O8" s="38">
-        <v>675.29</v>
+        <v>673.93</v>
+      </c>
+      <c r="P8" s="38">
+        <v>666.99</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -7486,7 +7498,10 @@
         <v>970.25</v>
       </c>
       <c r="O9" s="38">
-        <v>973.33</v>
+        <v>974.7</v>
+      </c>
+      <c r="P9" s="38">
+        <v>970.49</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
@@ -7533,7 +7548,10 @@
         <v>915.83</v>
       </c>
       <c r="O10" s="38">
-        <v>901.05</v>
+        <v>912.34</v>
+      </c>
+      <c r="P10" s="38">
+        <v>908.02</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
@@ -7580,7 +7598,10 @@
         <v>1005.3</v>
       </c>
       <c r="O11" s="38">
-        <v>1004.59</v>
+        <v>1003.59</v>
+      </c>
+      <c r="P11" s="38">
+        <v>997.99</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
@@ -7627,7 +7648,10 @@
         <v>799.53</v>
       </c>
       <c r="O12" s="38">
-        <v>807.28</v>
+        <v>803.2</v>
+      </c>
+      <c r="P12" s="38">
+        <v>807.69</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
@@ -7674,7 +7698,10 @@
         <v>1287.97</v>
       </c>
       <c r="O13" s="38">
-        <v>1308.03</v>
+        <v>1305.3900000000001</v>
+      </c>
+      <c r="P13" s="38">
+        <v>1305.2</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
@@ -7721,7 +7748,10 @@
         <v>777.02</v>
       </c>
       <c r="O14" s="38">
-        <v>783.76</v>
+        <v>782.5</v>
+      </c>
+      <c r="P14" s="38">
+        <v>792.07</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
@@ -7768,7 +7798,10 @@
         <v>839.36</v>
       </c>
       <c r="O15" s="38">
-        <v>846.68</v>
+        <v>842.17</v>
+      </c>
+      <c r="P15" s="38">
+        <v>834.21</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
@@ -7815,10 +7848,13 @@
         <v>824.92</v>
       </c>
       <c r="O16" s="38">
-        <v>832.93</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+        <v>827.64</v>
+      </c>
+      <c r="P16" s="38">
+        <v>812.35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="39" t="s">
         <v>17</v>
       </c>
@@ -7862,10 +7898,13 @@
         <v>731.92</v>
       </c>
       <c r="O17" s="38">
-        <v>726.43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+        <v>729.65</v>
+      </c>
+      <c r="P17" s="38">
+        <v>727.06</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="39" t="s">
         <v>18</v>
       </c>
@@ -7909,10 +7948,13 @@
         <v>900.38</v>
       </c>
       <c r="O18" s="38">
-        <v>890.63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+        <v>894.01</v>
+      </c>
+      <c r="P18" s="38">
+        <v>893.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="39" t="s">
         <v>19</v>
       </c>
@@ -7956,10 +7998,13 @@
         <v>804.54</v>
       </c>
       <c r="O19" s="38">
-        <v>791.99</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+        <v>796.79</v>
+      </c>
+      <c r="P19" s="38">
+        <v>799.11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="39" t="s">
         <v>20</v>
       </c>
@@ -8003,10 +8048,13 @@
         <v>768.95</v>
       </c>
       <c r="O20" s="38">
-        <v>773.26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+        <v>770.64</v>
+      </c>
+      <c r="P20" s="38">
+        <v>788.31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="39" t="s">
         <v>21</v>
       </c>
@@ -8050,10 +8098,13 @@
         <v>772.13</v>
       </c>
       <c r="O21" s="38">
-        <v>769.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+        <v>766.82</v>
+      </c>
+      <c r="P21" s="38">
+        <v>757.44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="39" t="s">
         <v>22</v>
       </c>
@@ -8097,10 +8148,13 @@
         <v>739.5</v>
       </c>
       <c r="O22" s="38">
-        <v>735.99</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+        <v>732.89</v>
+      </c>
+      <c r="P22" s="38">
+        <v>743.77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="39" t="s">
         <v>23</v>
       </c>
@@ -8144,10 +8198,13 @@
         <v>795.66</v>
       </c>
       <c r="O23" s="38">
-        <v>787.42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+        <v>786.59</v>
+      </c>
+      <c r="P23" s="38">
+        <v>779.36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="39" t="s">
         <v>24</v>
       </c>
@@ -8191,10 +8248,13 @@
         <v>749.06</v>
       </c>
       <c r="O24" s="38">
-        <v>747.94</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+        <v>751.17</v>
+      </c>
+      <c r="P24" s="38">
+        <v>749.53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="39" t="s">
         <v>25</v>
       </c>
@@ -8238,10 +8298,13 @@
         <v>919.97</v>
       </c>
       <c r="O25" s="38">
-        <v>919.34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+        <v>916.64</v>
+      </c>
+      <c r="P25" s="38">
+        <v>926.84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="39" t="s">
         <v>26</v>
       </c>
@@ -8285,10 +8348,13 @@
         <v>1044.95</v>
       </c>
       <c r="O26" s="38">
-        <v>1039.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1038.02</v>
+      </c>
+      <c r="P26" s="38">
+        <v>1038.29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="39" t="s">
         <v>27</v>
       </c>
@@ -8334,8 +8400,11 @@
       <c r="O27" s="38">
         <v>820.66</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P27" s="38">
+        <v>827.22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="39" t="s">
         <v>28</v>
       </c>
@@ -8379,10 +8448,13 @@
         <v>894.79</v>
       </c>
       <c r="O28" s="38">
-        <v>875.16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+        <v>886.44</v>
+      </c>
+      <c r="P28" s="38">
+        <v>898.47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="39" t="s">
         <v>29</v>
       </c>
@@ -8426,10 +8498,13 @@
         <v>687.85</v>
       </c>
       <c r="O29" s="38">
-        <v>681.27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+        <v>681.62</v>
+      </c>
+      <c r="P29" s="38">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="39" t="s">
         <v>30</v>
       </c>
@@ -8473,10 +8548,13 @@
         <v>743.15</v>
       </c>
       <c r="O30" s="38">
-        <v>735.93</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+        <v>738.26</v>
+      </c>
+      <c r="P30" s="38">
+        <v>729.94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="39" t="s">
         <v>31</v>
       </c>
@@ -8520,10 +8598,13 @@
         <v>711.98</v>
       </c>
       <c r="O31" s="38">
-        <v>722.25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+        <v>722.55</v>
+      </c>
+      <c r="P31" s="38">
+        <v>709.88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="39" t="s">
         <v>32</v>
       </c>
@@ -8567,10 +8648,13 @@
         <v>760.18</v>
       </c>
       <c r="O32" s="38">
-        <v>760.57</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+        <v>761.9</v>
+      </c>
+      <c r="P32" s="38">
+        <v>763.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="39" t="s">
         <v>33</v>
       </c>
@@ -8614,10 +8698,13 @@
         <v>739.36</v>
       </c>
       <c r="O33" s="38">
-        <v>740.69</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+        <v>741.26</v>
+      </c>
+      <c r="P33" s="38">
+        <v>741.69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="39" t="s">
         <v>34</v>
       </c>
@@ -8661,10 +8748,13 @@
         <v>861.14</v>
       </c>
       <c r="O34" s="38">
-        <v>855.9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+        <v>857.89</v>
+      </c>
+      <c r="P34" s="38">
+        <v>852.58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="39" t="s">
         <v>35</v>
       </c>
@@ -8708,10 +8798,13 @@
         <v>934.75</v>
       </c>
       <c r="O35" s="38">
-        <v>939.46</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+        <v>940.46</v>
+      </c>
+      <c r="P35" s="38">
+        <v>936.33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="39" t="s">
         <v>36</v>
       </c>
@@ -8755,10 +8848,13 @@
         <v>687.71</v>
       </c>
       <c r="O36" s="38">
-        <v>692.11</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+        <v>691.78</v>
+      </c>
+      <c r="P36" s="38">
+        <v>679.99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="39" t="s">
         <v>37</v>
       </c>
@@ -8802,10 +8898,13 @@
         <v>977.28</v>
       </c>
       <c r="O37" s="38">
-        <v>982.39</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+        <v>979.4</v>
+      </c>
+      <c r="P37" s="38">
+        <v>973.69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="39" t="s">
         <v>38</v>
       </c>
@@ -8849,10 +8948,13 @@
         <v>776.72</v>
       </c>
       <c r="O38" s="38">
-        <v>782.81</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+        <v>783.15</v>
+      </c>
+      <c r="P38" s="38">
+        <v>788.65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="39" t="s">
         <v>39</v>
       </c>
@@ -8896,10 +8998,13 @@
         <v>895.13</v>
       </c>
       <c r="O39" s="38">
-        <v>872.1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+        <v>875.69</v>
+      </c>
+      <c r="P39" s="38">
+        <v>854.3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="39" t="s">
         <v>40</v>
       </c>
@@ -8943,10 +9048,13 @@
         <v>786.08</v>
       </c>
       <c r="O40" s="38">
-        <v>780.38</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+        <v>785.4</v>
+      </c>
+      <c r="P40" s="38">
+        <v>784.98</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="39" t="s">
         <v>41</v>
       </c>
@@ -8990,10 +9098,13 @@
         <v>756.63</v>
       </c>
       <c r="O41" s="38">
-        <v>755.07</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+        <v>760.03</v>
+      </c>
+      <c r="P41" s="38">
+        <v>752.9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="39" t="s">
         <v>42</v>
       </c>
@@ -9037,10 +9148,13 @@
         <v>811.29</v>
       </c>
       <c r="O42" s="38">
-        <v>822.28</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+        <v>820.6</v>
+      </c>
+      <c r="P42" s="38">
+        <v>819.08</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="39" t="s">
         <v>43</v>
       </c>
@@ -9084,10 +9198,13 @@
         <v>831.04</v>
       </c>
       <c r="O43" s="38">
-        <v>824.21</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+        <v>825.55</v>
+      </c>
+      <c r="P43" s="38">
+        <v>823.29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="39" t="s">
         <v>44</v>
       </c>
@@ -9131,10 +9248,13 @@
         <v>844.34</v>
       </c>
       <c r="O44" s="38">
-        <v>845.98</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+        <v>843.7</v>
+      </c>
+      <c r="P44" s="38">
+        <v>835.9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="39" t="s">
         <v>45</v>
       </c>
@@ -9180,8 +9300,11 @@
       <c r="O45" s="38">
         <v>749.58</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P45" s="38">
+        <v>766.74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="39" t="s">
         <v>46</v>
       </c>
@@ -9225,10 +9348,13 @@
         <v>717.36</v>
       </c>
       <c r="O46" s="38">
-        <v>705.41</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+        <v>707.41</v>
+      </c>
+      <c r="P46" s="38">
+        <v>712.32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="39" t="s">
         <v>47</v>
       </c>
@@ -9272,10 +9398,13 @@
         <v>755.74</v>
       </c>
       <c r="O47" s="38">
-        <v>747.25</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+        <v>749.03</v>
+      </c>
+      <c r="P47" s="38">
+        <v>753.66</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="39" t="s">
         <v>48</v>
       </c>
@@ -9319,10 +9448,13 @@
         <v>877.15</v>
       </c>
       <c r="O48" s="38">
-        <v>871.08</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+        <v>871.79</v>
+      </c>
+      <c r="P48" s="38">
+        <v>862.05</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="39" t="s">
         <v>49</v>
       </c>
@@ -9366,10 +9498,13 @@
         <v>831.3</v>
       </c>
       <c r="O49" s="38">
-        <v>852.7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+        <v>829.01</v>
+      </c>
+      <c r="P49" s="38">
+        <v>830.07</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="39" t="s">
         <v>50</v>
       </c>
@@ -9413,10 +9548,13 @@
         <v>806.85</v>
       </c>
       <c r="O50" s="38">
-        <v>796.38</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+        <v>797.17</v>
+      </c>
+      <c r="P50" s="38">
+        <v>789.82</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="39" t="s">
         <v>51</v>
       </c>
@@ -9460,10 +9598,13 @@
         <v>924.76</v>
       </c>
       <c r="O51" s="38">
-        <v>912.98</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+        <v>924.06</v>
+      </c>
+      <c r="P51" s="38">
+        <v>923.24</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="39" t="s">
         <v>52</v>
       </c>
@@ -9507,10 +9648,13 @@
         <v>1032.58</v>
       </c>
       <c r="O52" s="38">
-        <v>1031.53</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1036.5999999999999</v>
+      </c>
+      <c r="P52" s="38">
+        <v>1036.3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="39" t="s">
         <v>53</v>
       </c>
@@ -9554,10 +9698,13 @@
         <v>720.94</v>
       </c>
       <c r="O53" s="38">
-        <v>727.16</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+        <v>724.07</v>
+      </c>
+      <c r="P53" s="38">
+        <v>732.2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="39" t="s">
         <v>54</v>
       </c>
@@ -9601,10 +9748,13 @@
         <v>793.74</v>
       </c>
       <c r="O54" s="38">
-        <v>793.48</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+        <v>794.14</v>
+      </c>
+      <c r="P54" s="38">
+        <v>794.92</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="39" t="s">
         <v>55</v>
       </c>
@@ -9648,7 +9798,10 @@
         <v>773.85</v>
       </c>
       <c r="O55" s="38">
-        <v>780.55</v>
+        <v>776.22</v>
+      </c>
+      <c r="P55" s="38">
+        <v>772.89</v>
       </c>
     </row>
   </sheetData>
@@ -9660,7 +9813,7 @@
   <pageSetup orientation="landscape"/>
   <headerFooter>
     <oddHeader>&amp;CBureau of Labor Statistics</oddHeader>
-    <oddFooter>&amp;LSource: Bureau of Labor Statistics&amp;RGenerated on: March 25, 2016 (11:09:57 AM)</oddFooter>
+    <oddFooter>&amp;LSource: Bureau of Labor Statistics&amp;RGenerated on: April 15, 2016 (10:43:49 AM)</oddFooter>
   </headerFooter>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -9668,10 +9821,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:L56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="L13" sqref="L13:L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9681,7 +9834,7 @@
     <col min="4" max="4" width="40.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>168</v>
       </c>
@@ -9689,15 +9842,15 @@
         <v>166</v>
       </c>
       <c r="C1" s="24">
-        <f>+Wage_Comparison!E58</f>
-        <v>872.04</v>
+        <f>+Earnings_Comparison!E58</f>
+        <v>874.79</v>
       </c>
       <c r="D1" s="23">
-        <f>+Wage_Comparison!H58</f>
-        <v>0.6029513184971691</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+        <f>+Earnings_Comparison!H58</f>
+        <v>1.0926484501572631</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="51" t="s">
         <v>169</v>
       </c>
@@ -9705,7 +9858,7 @@
       <c r="C2" s="51"/>
       <c r="D2" s="51"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>167</v>
       </c>
@@ -9719,923 +9872,941 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
-        <f>+Wage_Comparison!B13</f>
-        <v>DC</v>
+        <f>+Earnings_Comparison!B12</f>
+        <v>DE</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C4" s="26">
-        <f>+Wage_Comparison!E13</f>
-        <v>1308.03</v>
+        <f>+Earnings_Comparison!E12</f>
+        <v>807.69</v>
       </c>
       <c r="D4" s="25">
-        <f>+Wage_Comparison!H13</f>
-        <v>-13.098997384338739</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <f>+Earnings_Comparison!H12</f>
+        <v>6.6039744843762183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
-        <f>+Wage_Comparison!B55</f>
-        <v>WY</v>
+        <f>+Earnings_Comparison!B47</f>
+        <v>TN</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C5" s="26">
-        <f>+Wage_Comparison!E55</f>
-        <v>780.55</v>
+        <f>+Earnings_Comparison!E47</f>
+        <v>753.66</v>
       </c>
       <c r="D5" s="25">
-        <f>+Wage_Comparison!H55</f>
-        <v>-7.5458441418326805</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <f>+Earnings_Comparison!H47</f>
+        <v>2.066363886654532</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
-        <f>+Wage_Comparison!B48</f>
-        <v>TX</v>
+        <f>+Earnings_Comparison!B34</f>
+        <v>NH</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="C6" s="26">
-        <f>+Wage_Comparison!E48</f>
-        <v>871.08</v>
+        <f>+Earnings_Comparison!E34</f>
+        <v>852.58</v>
       </c>
       <c r="D6" s="25">
-        <f>+Wage_Comparison!H48</f>
-        <v>-4.9792860410958317</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <f>+Earnings_Comparison!H34</f>
+        <v>1.7124539680195783</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
-        <f>+Wage_Comparison!B30</f>
-        <v>MO</v>
+        <f>+Earnings_Comparison!B38</f>
+        <v>NC</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C7" s="26">
-        <f>+Wage_Comparison!E30</f>
-        <v>735.93</v>
+        <f>+Earnings_Comparison!E38</f>
+        <v>788.65</v>
       </c>
       <c r="D7" s="25">
-        <f>+Wage_Comparison!H30</f>
-        <v>-4.0897372022778207</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <f>+Earnings_Comparison!H38</f>
+        <v>1.7081757231037331</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
-        <f>+Wage_Comparison!B17</f>
-        <v>ID</v>
+        <f>+Earnings_Comparison!B53</f>
+        <v>WV</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="C8" s="26">
-        <f>+Wage_Comparison!E17</f>
-        <v>726.43</v>
+        <f>+Earnings_Comparison!E53</f>
+        <v>732.2</v>
       </c>
       <c r="D8" s="25">
-        <f>+Wage_Comparison!H17</f>
-        <v>-3.4452393446381291</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <f>+Earnings_Comparison!H53</f>
+        <v>1.5129542553978359</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
-        <f>+Wage_Comparison!B23</f>
-        <v>LA</v>
+        <f>+Earnings_Comparison!B26</f>
+        <v>MA</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C9" s="26">
-        <f>+Wage_Comparison!E23</f>
-        <v>787.42</v>
+        <f>+Earnings_Comparison!E26</f>
+        <v>1038.29</v>
       </c>
       <c r="D9" s="25">
-        <f>+Wage_Comparison!H23</f>
-        <v>-3.3207167360583045</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <f>+Earnings_Comparison!H26</f>
+        <v>1.4268571894815674</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
-        <f>+Wage_Comparison!B29</f>
-        <v>MS</v>
+        <f>+Earnings_Comparison!B11</f>
+        <v>CT</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="C10" s="26">
-        <f>+Wage_Comparison!E29</f>
-        <v>681.27</v>
+        <f>+Earnings_Comparison!E11</f>
+        <v>997.99</v>
       </c>
       <c r="D10" s="25">
-        <f>+Wage_Comparison!H29</f>
-        <v>-3.3151408182892861</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <f>+Earnings_Comparison!H11</f>
+        <v>1.4157148739714964</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
-        <f>+Wage_Comparison!B36</f>
-        <v>NM</v>
+        <f>+Earnings_Comparison!B42</f>
+        <v>OR</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C11" s="26">
-        <f>+Wage_Comparison!E36</f>
-        <v>692.11</v>
+        <f>+Earnings_Comparison!E42</f>
+        <v>819.08</v>
       </c>
       <c r="D11" s="25">
-        <f>+Wage_Comparison!H36</f>
-        <v>-3.2702696070411652</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <f>+Earnings_Comparison!H42</f>
+        <v>0.98052585400123515</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
-        <f>+Wage_Comparison!B25</f>
-        <v>MD</v>
+        <f>+Earnings_Comparison!B14</f>
+        <v>FL</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C12" s="26">
-        <f>+Wage_Comparison!E25</f>
-        <v>919.34</v>
+        <f>+Earnings_Comparison!E14</f>
+        <v>792.07</v>
       </c>
       <c r="D12" s="25">
-        <f>+Wage_Comparison!H25</f>
-        <v>-3.1183414529165732</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <f>+Earnings_Comparison!H14</f>
+        <v>0.81569135308832141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
-        <f>+Wage_Comparison!B10</f>
-        <v>CO</v>
+        <f>+Earnings_Comparison!B20</f>
+        <v>IA</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C13" s="26">
-        <f>+Wage_Comparison!E10</f>
-        <v>901.05</v>
+        <f>+Earnings_Comparison!E20</f>
+        <v>788.31</v>
       </c>
       <c r="D13" s="25">
-        <f>+Wage_Comparison!H10</f>
-        <v>-3.0318183340602878</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <f>+Earnings_Comparison!H20</f>
+        <v>0.78604644024484749</v>
+      </c>
+      <c r="L13" s="20" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
-        <f>+Wage_Comparison!B41</f>
-        <v>OK</v>
+        <f>+Earnings_Comparison!B45</f>
+        <v>SC</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C14" s="26">
-        <f>+Wage_Comparison!E41</f>
-        <v>755.07</v>
+        <f>+Earnings_Comparison!E45</f>
+        <v>766.74</v>
       </c>
       <c r="D14" s="25">
-        <f>+Wage_Comparison!H41</f>
-        <v>-2.6171154911142747</v>
+        <f>+Earnings_Comparison!H45</f>
+        <v>0.73251636166551393</v>
       </c>
       <c r="F14" s="26">
         <f>C$1-C14</f>
-        <v>116.96999999999991</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>108.04999999999995</v>
+      </c>
+      <c r="L14" s="20" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
-        <f>+Wage_Comparison!B21</f>
-        <v>KS</v>
+        <f>+Earnings_Comparison!B52</f>
+        <v>WA</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>131</v>
+        <v>162</v>
       </c>
       <c r="C15" s="26">
-        <f>+Wage_Comparison!E21</f>
-        <v>769.5</v>
+        <f>+Earnings_Comparison!E52</f>
+        <v>1036.3</v>
       </c>
       <c r="D15" s="25">
-        <f>+Wage_Comparison!H21</f>
-        <v>-2.5612467470009448</v>
+        <f>+Earnings_Comparison!H52</f>
+        <v>0.31238168841101199</v>
       </c>
       <c r="F15" s="26">
         <f t="shared" ref="F15:F21" si="0">C$1-C15</f>
-        <v>102.53999999999996</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-161.51</v>
+      </c>
+      <c r="L15" s="20" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
-        <f>+Wage_Comparison!B46</f>
-        <v>SD</v>
+        <f>+Earnings_Comparison!B32</f>
+        <v>NE</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="C16" s="26">
-        <f>+Wage_Comparison!E46</f>
-        <v>705.41</v>
+        <f>+Earnings_Comparison!E32</f>
+        <v>763.8</v>
       </c>
       <c r="D16" s="25">
-        <f>+Wage_Comparison!H46</f>
-        <v>-2.4458058856782094</v>
+        <f>+Earnings_Comparison!H32</f>
+        <v>0.29178343395177553</v>
       </c>
       <c r="F16" s="26">
         <f t="shared" si="0"/>
-        <v>166.63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>110.99000000000001</v>
+      </c>
+      <c r="L16" s="20" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
-        <f>+Wage_Comparison!B18</f>
-        <v>IL</v>
+        <f>+Earnings_Comparison!B40</f>
+        <v>OH</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="C17" s="26">
-        <f>+Wage_Comparison!E18</f>
-        <v>890.63</v>
+        <f>+Earnings_Comparison!E40</f>
+        <v>784.98</v>
       </c>
       <c r="D17" s="25">
-        <f>+Wage_Comparison!H18</f>
-        <v>-2.1620944514485485</v>
+        <f>+Earnings_Comparison!H40</f>
+        <v>9.8296334658876106E-2</v>
       </c>
       <c r="F17" s="26">
         <f t="shared" si="0"/>
-        <v>-18.590000000000032</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>89.809999999999945</v>
+      </c>
+      <c r="L17" s="20" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
-        <f>+Wage_Comparison!B51</f>
-        <v>VA</v>
+        <f>+Earnings_Comparison!B7</f>
+        <v>AZ</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>161</v>
+        <v>117</v>
       </c>
       <c r="C18" s="26">
-        <f>+Wage_Comparison!E51</f>
-        <v>912.98</v>
+        <f>+Earnings_Comparison!E7</f>
+        <v>809.14</v>
       </c>
       <c r="D18" s="25">
-        <f>+Wage_Comparison!H51</f>
-        <v>-2.0959869406184994</v>
+        <f>+Earnings_Comparison!H7</f>
+        <v>-4.9819230546921389E-2</v>
       </c>
       <c r="F18" s="26">
         <f t="shared" si="0"/>
-        <v>-40.940000000000055</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>65.649999999999977</v>
+      </c>
+      <c r="L18" s="20" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
-        <f>+Wage_Comparison!B19</f>
-        <v>IN</v>
+        <f>+Earnings_Comparison!B5</f>
+        <v>AL</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="C19" s="26">
-        <f>+Wage_Comparison!E19</f>
-        <v>791.99</v>
+        <f>+Earnings_Comparison!E5</f>
+        <v>760.06</v>
       </c>
       <c r="D19" s="25">
-        <f>+Wage_Comparison!H19</f>
-        <v>-2.0109555758233699</v>
+        <f>+Earnings_Comparison!H5</f>
+        <v>-5.106114615824886E-2</v>
       </c>
       <c r="F19" s="26">
         <f t="shared" si="0"/>
-        <v>80.049999999999955</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>114.73000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
-        <f>+Wage_Comparison!B28</f>
+        <f>+Earnings_Comparison!B28</f>
         <v>MN</v>
       </c>
       <c r="B20" s="20" t="s">
         <v>138</v>
       </c>
       <c r="C20" s="26">
-        <f>+Wage_Comparison!E28</f>
-        <v>875.16</v>
+        <f>+Earnings_Comparison!E28</f>
+        <v>898.47</v>
       </c>
       <c r="D20" s="25">
-        <f>+Wage_Comparison!H28</f>
-        <v>-2.0096629073204975</v>
+        <f>+Earnings_Comparison!H28</f>
+        <v>-0.15410835405904599</v>
       </c>
       <c r="F20" s="26">
         <f t="shared" si="0"/>
-        <v>-3.1200000000000045</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-23.680000000000064</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
-        <f>+Wage_Comparison!B9</f>
-        <v>CA</v>
+        <f>+Earnings_Comparison!B43</f>
+        <v>PA</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="C21" s="26">
-        <f>+Wage_Comparison!E9</f>
-        <v>973.33</v>
+        <f>+Earnings_Comparison!E43</f>
+        <v>823.29</v>
       </c>
       <c r="D21" s="25">
-        <f>+Wage_Comparison!H9</f>
-        <v>-1.7504754454599647</v>
+        <f>+Earnings_Comparison!H43</f>
+        <v>-0.28211583665344042</v>
       </c>
       <c r="F21" s="26">
         <f t="shared" si="0"/>
-        <v>-101.29000000000008</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>51.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
-        <f>+Wage_Comparison!B16</f>
-        <v>HI</v>
+        <f>+Earnings_Comparison!B33</f>
+        <v>NV</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="C22" s="26">
-        <f>+Wage_Comparison!E16</f>
-        <v>832.93</v>
+        <f>+Earnings_Comparison!E33</f>
+        <v>741.69</v>
       </c>
       <c r="D22" s="25">
-        <f>+Wage_Comparison!H16</f>
-        <v>-1.7471573499588833</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <f>+Earnings_Comparison!H33</f>
+        <v>-0.28470064928125538</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
-        <f>+Wage_Comparison!B15</f>
-        <v>GA</v>
+        <f>+Earnings_Comparison!B31</f>
+        <v>MT</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="C23" s="26">
-        <f>+Wage_Comparison!E15</f>
-        <v>846.68</v>
+        <f>+Earnings_Comparison!E31</f>
+        <v>709.88</v>
       </c>
       <c r="D23" s="25">
-        <f>+Wage_Comparison!H15</f>
-        <v>-1.3152500726355321</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <f>+Earnings_Comparison!H31</f>
+        <v>-0.33286959214878786</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
-        <f>+Wage_Comparison!B35</f>
-        <v>NJ</v>
+        <f>+Earnings_Comparison!B22</f>
+        <v>KY</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="C24" s="26">
-        <f>+Wage_Comparison!E35</f>
-        <v>939.46</v>
+        <f>+Earnings_Comparison!E22</f>
+        <v>743.77</v>
       </c>
       <c r="D24" s="25">
-        <f>+Wage_Comparison!H35</f>
-        <v>-1.3121824099224577</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <f>+Earnings_Comparison!H22</f>
+        <v>-0.46795425896304366</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
-        <f>+Wage_Comparison!B20</f>
-        <v>IA</v>
+        <f>+Earnings_Comparison!B46</f>
+        <v>SD</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="C25" s="26">
-        <f>+Wage_Comparison!E20</f>
-        <v>773.26</v>
+        <f>+Earnings_Comparison!E46</f>
+        <v>712.32</v>
       </c>
       <c r="D25" s="25">
-        <f>+Wage_Comparison!H20</f>
-        <v>-1.273111458925591</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <f>+Earnings_Comparison!H46</f>
+        <v>-0.51012099391082311</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
-        <f>+Wage_Comparison!B54</f>
+        <f>+Earnings_Comparison!B19</f>
+        <v>IN</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="C26" s="26">
+        <f>+Earnings_Comparison!E19</f>
+        <v>799.11</v>
+      </c>
+      <c r="D26" s="25">
+        <f>+Earnings_Comparison!H19</f>
+        <v>-0.62023233621507634</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="str">
+        <f>+Earnings_Comparison!B50</f>
+        <v>VT</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="C27" s="26">
+        <f>+Earnings_Comparison!E50</f>
+        <v>789.82</v>
+      </c>
+      <c r="D27" s="25">
+        <f>+Earnings_Comparison!H50</f>
+        <v>-0.62136202576594801</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="str">
+        <f>+Earnings_Comparison!B27</f>
+        <v>MI</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C28" s="26">
+        <f>+Earnings_Comparison!E27</f>
+        <v>827.22</v>
+      </c>
+      <c r="D28" s="25">
+        <f>+Earnings_Comparison!H27</f>
+        <v>-0.73252826327491194</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="str">
+        <f>+Earnings_Comparison!B18</f>
+        <v>IL</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C29" s="26">
+        <f>+Earnings_Comparison!E18</f>
+        <v>893.6</v>
+      </c>
+      <c r="D29" s="25">
+        <f>+Earnings_Comparison!H18</f>
+        <v>-0.85753367908615319</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="str">
+        <f>+Earnings_Comparison!B54</f>
         <v>WI</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B30" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="C26" s="26">
-        <f>+Wage_Comparison!E54</f>
-        <v>793.48</v>
-      </c>
-      <c r="D26" s="25">
-        <f>+Wage_Comparison!H54</f>
-        <v>-1.2365674172038932</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="str">
-        <f>+Wage_Comparison!B27</f>
-        <v>MI</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="C27" s="26">
-        <f>+Wage_Comparison!E27</f>
-        <v>820.66</v>
-      </c>
-      <c r="D27" s="25">
-        <f>+Wage_Comparison!H27</f>
-        <v>-1.1893548427510225</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="str">
-        <f>+Wage_Comparison!B6</f>
+      <c r="C30" s="26">
+        <f>+Earnings_Comparison!E54</f>
+        <v>794.92</v>
+      </c>
+      <c r="D30" s="25">
+        <f>+Earnings_Comparison!H54</f>
+        <v>-0.93630278531813271</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="str">
+        <f>+Earnings_Comparison!B6</f>
         <v>AK</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B31" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="C28" s="26">
-        <f>+Wage_Comparison!E6</f>
-        <v>944.03</v>
-      </c>
-      <c r="D28" s="25">
-        <f>+Wage_Comparison!H6</f>
-        <v>-1.1823545483942599</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="str">
-        <f>+Wage_Comparison!B39</f>
-        <v>ND</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="C29" s="26">
-        <f>+Wage_Comparison!E39</f>
-        <v>872.1</v>
-      </c>
-      <c r="D29" s="25">
-        <f>+Wage_Comparison!H39</f>
-        <v>-1.1379100891191762</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="str">
-        <f>+Wage_Comparison!B31</f>
-        <v>MT</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="C30" s="26">
-        <f>+Wage_Comparison!E31</f>
-        <v>722.25</v>
-      </c>
-      <c r="D30" s="25">
-        <f>+Wage_Comparison!H31</f>
-        <v>-1.0650772394732222</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="str">
-        <f>+Wage_Comparison!B24</f>
-        <v>ME</v>
-      </c>
-      <c r="B31" s="20" t="s">
-        <v>134</v>
-      </c>
       <c r="C31" s="26">
-        <f>+Wage_Comparison!E24</f>
-        <v>747.94</v>
+        <f>+Earnings_Comparison!E6</f>
+        <v>958.34</v>
       </c>
       <c r="D31" s="25">
-        <f>+Wage_Comparison!H24</f>
-        <v>-1.0154855607350188</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <f>+Earnings_Comparison!H6</f>
+        <v>-0.94971913789996254</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
-        <f>+Wage_Comparison!B7</f>
-        <v>AZ</v>
+        <f>+Earnings_Comparison!B44</f>
+        <v>RI</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="C32" s="26">
-        <f>+Wage_Comparison!E7</f>
-        <v>808.49</v>
+        <f>+Earnings_Comparison!E44</f>
+        <v>835.9</v>
       </c>
       <c r="D32" s="25">
-        <f>+Wage_Comparison!H7</f>
-        <v>-0.90458744325222495</v>
+        <f>+Earnings_Comparison!H44</f>
+        <v>-1.1280236114888598</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
-        <f>+Wage_Comparison!B8</f>
-        <v>AR</v>
+        <f>+Earnings_Comparison!B51</f>
+        <v>VA</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>118</v>
+        <v>161</v>
       </c>
       <c r="C33" s="26">
-        <f>+Wage_Comparison!E8</f>
-        <v>675.29</v>
+        <f>+Earnings_Comparison!E51</f>
+        <v>923.24</v>
       </c>
       <c r="D33" s="25">
-        <f>+Wage_Comparison!H8</f>
-        <v>-0.90188572860380178</v>
+        <f>+Earnings_Comparison!H51</f>
+        <v>-1.1323245962466699</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
-        <f>+Wage_Comparison!B14</f>
-        <v>FL</v>
+        <f>+Earnings_Comparison!B24</f>
+        <v>ME</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C34" s="26">
-        <f>+Wage_Comparison!E14</f>
-        <v>783.76</v>
+        <f>+Earnings_Comparison!E24</f>
+        <v>749.53</v>
       </c>
       <c r="D34" s="25">
-        <f>+Wage_Comparison!H14</f>
-        <v>-0.75809803265951548</v>
+        <f>+Earnings_Comparison!H24</f>
+        <v>-1.4266195450493679</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
-        <f>+Wage_Comparison!B49</f>
-        <v>UT</v>
+        <f>+Earnings_Comparison!B37</f>
+        <v>NY</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="C35" s="26">
-        <f>+Wage_Comparison!E49</f>
-        <v>852.7</v>
+        <f>+Earnings_Comparison!E37</f>
+        <v>973.69</v>
       </c>
       <c r="D35" s="25">
-        <f>+Wage_Comparison!H49</f>
-        <v>-0.69543494568062858</v>
+        <f>+Earnings_Comparison!H37</f>
+        <v>-1.4354876495422664</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
-        <f>+Wage_Comparison!B37</f>
-        <v>NY</v>
+        <f>+Earnings_Comparison!B9</f>
+        <v>CA</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>147</v>
+        <v>119</v>
       </c>
       <c r="C36" s="26">
-        <f>+Wage_Comparison!E37</f>
-        <v>982.39</v>
+        <f>+Earnings_Comparison!E9</f>
+        <v>970.49</v>
       </c>
       <c r="D36" s="25">
-        <f>+Wage_Comparison!H37</f>
-        <v>-0.59470119104658714</v>
+        <f>+Earnings_Comparison!H9</f>
+        <v>-1.8776219110227754</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
-        <f>+Wage_Comparison!B22</f>
-        <v>KY</v>
+        <f>+Earnings_Comparison!B15</f>
+        <v>GA</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="C37" s="26">
-        <f>+Wage_Comparison!E22</f>
-        <v>735.99</v>
+        <f>+Earnings_Comparison!E15</f>
+        <v>834.21</v>
       </c>
       <c r="D37" s="25">
-        <f>+Wage_Comparison!H22</f>
-        <v>-0.37813197255112119</v>
+        <f>+Earnings_Comparison!H15</f>
+        <v>-2.0395820678508314</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
-        <f>+Wage_Comparison!B32</f>
-        <v>NE</v>
+        <f>+Earnings_Comparison!B35</f>
+        <v>NJ</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C38" s="26">
-        <f>+Wage_Comparison!E32</f>
-        <v>760.57</v>
+        <f>+Earnings_Comparison!E35</f>
+        <v>936.33</v>
       </c>
       <c r="D38" s="25">
-        <f>+Wage_Comparison!H32</f>
-        <v>-0.36037279177227877</v>
+        <f>+Earnings_Comparison!H35</f>
+        <v>-2.0638698633565045</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
-        <f>+Wage_Comparison!B52</f>
-        <v>WA</v>
+        <f>+Earnings_Comparison!B17</f>
+        <v>ID</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
       <c r="C39" s="26">
-        <f>+Wage_Comparison!E52</f>
-        <v>1031.53</v>
+        <f>+Earnings_Comparison!E17</f>
+        <v>727.06</v>
       </c>
       <c r="D39" s="25">
-        <f>+Wage_Comparison!H52</f>
-        <v>-0.34675158632925251</v>
+        <f>+Earnings_Comparison!H17</f>
+        <v>-2.096292866909788</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
-        <f>+Wage_Comparison!B33</f>
-        <v>NV</v>
+        <f>+Earnings_Comparison!B8</f>
+        <v>AR</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="C40" s="26">
-        <f>+Wage_Comparison!E33</f>
-        <v>740.69</v>
+        <f>+Earnings_Comparison!E8</f>
+        <v>666.99</v>
       </c>
       <c r="D40" s="25">
-        <f>+Wage_Comparison!H33</f>
-        <v>3.372738921105789E-2</v>
+        <f>+Earnings_Comparison!H8</f>
+        <v>-2.2464360514635184</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
-        <f>+Wage_Comparison!B5</f>
-        <v>AL</v>
+        <f>+Earnings_Comparison!B10</f>
+        <v>CO</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C41" s="26">
-        <f>+Wage_Comparison!E5</f>
-        <v>768.6</v>
+        <f>+Earnings_Comparison!E10</f>
+        <v>908.02</v>
       </c>
       <c r="D41" s="25">
-        <f>+Wage_Comparison!H5</f>
-        <v>0.10472978592164228</v>
+        <f>+Earnings_Comparison!H10</f>
+        <v>-2.3763104498232046</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
-        <f>+Wage_Comparison!B40</f>
-        <v>OH</v>
+        <f>+Earnings_Comparison!B49</f>
+        <v>UT</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="C42" s="26">
-        <f>+Wage_Comparison!E40</f>
-        <v>780.38</v>
+        <f>+Earnings_Comparison!E49</f>
+        <v>830.07</v>
       </c>
       <c r="D42" s="25">
-        <f>+Wage_Comparison!H40</f>
-        <v>0.10850616980038197</v>
+        <f>+Earnings_Comparison!H49</f>
+        <v>-2.8226629857372565</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
-        <f>+Wage_Comparison!B45</f>
-        <v>SC</v>
+        <f>+Earnings_Comparison!B41</f>
+        <v>OK</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C43" s="26">
-        <f>+Wage_Comparison!E45</f>
-        <v>749.58</v>
+        <f>+Earnings_Comparison!E41</f>
+        <v>752.9</v>
       </c>
       <c r="D43" s="25">
-        <f>+Wage_Comparison!H45</f>
-        <v>0.40154307740571937</v>
+        <f>+Earnings_Comparison!H41</f>
+        <v>-2.8378693889962281</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
-        <f>+Wage_Comparison!B38</f>
-        <v>NC</v>
+        <f>+Earnings_Comparison!B25</f>
+        <v>MD</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="C44" s="26">
-        <f>+Wage_Comparison!E38</f>
-        <v>782.81</v>
+        <f>+Earnings_Comparison!E25</f>
+        <v>926.84</v>
       </c>
       <c r="D44" s="25">
-        <f>+Wage_Comparison!H38</f>
-        <v>0.49837073557492673</v>
+        <f>+Earnings_Comparison!H25</f>
+        <v>-2.9520625752817331</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
-        <f>+Wage_Comparison!B43</f>
-        <v>PA</v>
+        <f>+Earnings_Comparison!B39</f>
+        <v>ND</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C45" s="26">
-        <f>+Wage_Comparison!E43</f>
-        <v>824.21</v>
+        <f>+Earnings_Comparison!E39</f>
+        <v>854.3</v>
       </c>
       <c r="D45" s="25">
-        <f>+Wage_Comparison!H43</f>
-        <v>0.50204025993465518</v>
+        <f>+Earnings_Comparison!H39</f>
+        <v>-3.4162238617711282</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
-        <f>+Wage_Comparison!B44</f>
-        <v>RI</v>
+        <f>+Earnings_Comparison!B21</f>
+        <v>KS</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="C46" s="26">
-        <f>+Wage_Comparison!E44</f>
-        <v>845.98</v>
+        <f>+Earnings_Comparison!E21</f>
+        <v>757.44</v>
       </c>
       <c r="D46" s="25">
-        <f>+Wage_Comparison!H44</f>
-        <v>0.69454248004261476</v>
+        <f>+Earnings_Comparison!H21</f>
+        <v>-3.442082722240225</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
-        <f>+Wage_Comparison!B42</f>
-        <v>OR</v>
+        <f>+Earnings_Comparison!B23</f>
+        <v>LA</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="C47" s="26">
-        <f>+Wage_Comparison!E42</f>
-        <v>822.28</v>
+        <f>+Earnings_Comparison!E23</f>
+        <v>779.36</v>
       </c>
       <c r="D47" s="25">
-        <f>+Wage_Comparison!H42</f>
-        <v>0.79686451291847149</v>
+        <f>+Earnings_Comparison!H23</f>
+        <v>-3.5590310429582495</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
-        <f>+Wage_Comparison!B50</f>
-        <v>VT</v>
+        <f>+Earnings_Comparison!B16</f>
+        <v>HI</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="C48" s="26">
-        <f>+Wage_Comparison!E50</f>
-        <v>796.38</v>
+        <f>+Earnings_Comparison!E16</f>
+        <v>812.35</v>
       </c>
       <c r="D48" s="25">
-        <f>+Wage_Comparison!H50</f>
-        <v>0.92766872947460666</v>
+        <f>+Earnings_Comparison!H16</f>
+        <v>-4.0566303023017554</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
-        <f>+Wage_Comparison!B53</f>
-        <v>WV</v>
+        <f>+Earnings_Comparison!B30</f>
+        <v>MO</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="C49" s="26">
-        <f>+Wage_Comparison!E53</f>
-        <v>727.16</v>
+        <f>+Earnings_Comparison!E30</f>
+        <v>729.94</v>
       </c>
       <c r="D49" s="25">
-        <f>+Wage_Comparison!H53</f>
-        <v>1.1428320717318252</v>
+        <f>+Earnings_Comparison!H30</f>
+        <v>-4.4995049302052559</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
-        <f>+Wage_Comparison!B47</f>
-        <v>TN</v>
+        <f>+Earnings_Comparison!B48</f>
+        <v>TX</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C50" s="26">
-        <f>+Wage_Comparison!E47</f>
-        <v>747.25</v>
+        <f>+Earnings_Comparison!E48</f>
+        <v>862.05</v>
       </c>
       <c r="D50" s="25">
-        <f>+Wage_Comparison!H47</f>
-        <v>1.6575213789585153</v>
+        <f>+Earnings_Comparison!H48</f>
+        <v>-4.6491859792138985</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
-        <f>+Wage_Comparison!B26</f>
-        <v>MA</v>
+        <f>+Earnings_Comparison!B29</f>
+        <v>MS</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C51" s="26">
-        <f>+Wage_Comparison!E26</f>
-        <v>1039.5</v>
+        <f>+Earnings_Comparison!E29</f>
+        <v>674</v>
       </c>
       <c r="D51" s="25">
-        <f>+Wage_Comparison!H26</f>
-        <v>1.9039978049496531</v>
+        <f>+Earnings_Comparison!H29</f>
+        <v>-4.8639117261667479</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
-        <f>+Wage_Comparison!B11</f>
-        <v>CT</v>
+        <f>+Earnings_Comparison!B36</f>
+        <v>NM</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="C52" s="26">
-        <f>+Wage_Comparison!E11</f>
-        <v>1004.59</v>
+        <f>+Earnings_Comparison!E36</f>
+        <v>679.99</v>
       </c>
       <c r="D52" s="25">
-        <f>+Wage_Comparison!H11</f>
-        <v>2.1769998140522828</v>
+        <f>+Earnings_Comparison!H36</f>
+        <v>-4.8997370784398919</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
-        <f>+Wage_Comparison!B34</f>
-        <v>NH</v>
+        <f>+Earnings_Comparison!B55</f>
+        <v>WY</v>
       </c>
       <c r="B53" s="20" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="C53" s="26">
-        <f>+Wage_Comparison!E34</f>
-        <v>855.9</v>
+        <f>+Earnings_Comparison!E55</f>
+        <v>772.89</v>
       </c>
       <c r="D53" s="25">
-        <f>+Wage_Comparison!H34</f>
-        <v>3.3843891006005933</v>
+        <f>+Earnings_Comparison!H55</f>
+        <v>-7.2477085382807838</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
-        <f>+Wage_Comparison!B12</f>
-        <v>DE</v>
+        <f>+Earnings_Comparison!B13</f>
+        <v>DC</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C54" s="26">
-        <f>+Wage_Comparison!E12</f>
-        <v>807.28</v>
+        <f>+Earnings_Comparison!E13</f>
+        <v>1305.2</v>
       </c>
       <c r="D54" s="25">
-        <f>+Wage_Comparison!H12</f>
-        <v>6.5173329968605254</v>
+        <f>+Earnings_Comparison!H13</f>
+        <v>-12.255716568764907</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C56">
-        <f>COUNTIF(C4:C54, "&lt;873")</f>
+        <f>COUNTIF(C4:C54, "&lt;875")</f>
         <v>38</v>
       </c>
       <c r="D56">
         <f>COUNTIF(D4:D54, "&lt;0")</f>
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A3:D54">
     <sortState ref="A4:D54">
-      <sortCondition ref="D3:D54"/>
+      <sortCondition descending="1" ref="D3:D54"/>
     </sortState>
   </autoFilter>
-  <sortState ref="I42:I52">
-    <sortCondition ref="I42"/>
+  <sortState ref="L13:L18">
+    <sortCondition ref="L13"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A2:D2"/>

--- a/static/data/source/current_earnings.xlsx
+++ b/static/data/source/current_earnings.xlsx
@@ -3148,6 +3148,24 @@
     <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="315"/>
+    <xf numFmtId="164" fontId="80" fillId="2" borderId="0" xfId="315" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="2" borderId="0" xfId="315" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="2" borderId="1" xfId="315" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="2" borderId="1" xfId="315" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="2" borderId="0" xfId="315" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="2" borderId="0" xfId="315" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3155,30 +3173,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="82" fillId="2" borderId="0" xfId="315" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="315"/>
     <xf numFmtId="0" fontId="28" fillId="34" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="80" fillId="2" borderId="0" xfId="315" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="2" borderId="0" xfId="315" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="2" borderId="1" xfId="315" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="2" borderId="1" xfId="315" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="2" borderId="0" xfId="315" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="2" borderId="0" xfId="315" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="2" borderId="0" xfId="315" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="480">
@@ -4354,12 +4354,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="47" t="s">
         <v>195</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
@@ -5292,10 +5292,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="43"/>
+      <c r="D1" s="49"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C2" s="2" t="s">
@@ -7149,2976 +7149,2976 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="45" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
     </row>
     <row r="4" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="48" t="s">
+      <c r="D4" s="43" t="s">
         <v>170</v>
       </c>
-      <c r="E4" s="48" t="s">
+      <c r="E4" s="43" t="s">
         <v>179</v>
       </c>
-      <c r="F4" s="48" t="s">
+      <c r="F4" s="43" t="s">
         <v>178</v>
       </c>
-      <c r="G4" s="48" t="s">
+      <c r="G4" s="43" t="s">
         <v>177</v>
       </c>
-      <c r="H4" s="48" t="s">
+      <c r="H4" s="43" t="s">
         <v>176</v>
       </c>
-      <c r="I4" s="48" t="s">
+      <c r="I4" s="43" t="s">
         <v>175</v>
       </c>
-      <c r="J4" s="48" t="s">
+      <c r="J4" s="43" t="s">
         <v>174</v>
       </c>
-      <c r="K4" s="48" t="s">
+      <c r="K4" s="43" t="s">
         <v>173</v>
       </c>
-      <c r="L4" s="48" t="s">
+      <c r="L4" s="43" t="s">
         <v>172</v>
       </c>
-      <c r="M4" s="48" t="s">
+      <c r="M4" s="43" t="s">
         <v>171</v>
       </c>
-      <c r="N4" s="48" t="s">
+      <c r="N4" s="43" t="s">
         <v>181</v>
       </c>
-      <c r="O4" s="48" t="s">
+      <c r="O4" s="43" t="s">
         <v>192</v>
       </c>
-      <c r="P4" s="48" t="s">
+      <c r="P4" s="43" t="s">
         <v>191</v>
       </c>
-      <c r="Q4" s="48" t="s">
+      <c r="Q4" s="43" t="s">
         <v>190</v>
       </c>
-      <c r="R4" s="48" t="s">
+      <c r="R4" s="43" t="s">
         <v>189</v>
       </c>
-      <c r="S4" s="48" t="s">
+      <c r="S4" s="43" t="s">
         <v>188</v>
       </c>
-      <c r="T4" s="48" t="s">
+      <c r="T4" s="43" t="s">
         <v>187</v>
       </c>
-      <c r="U4" s="48" t="s">
+      <c r="U4" s="43" t="s">
         <v>186</v>
       </c>
-      <c r="V4" s="48" t="s">
+      <c r="V4" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="W4" s="48" t="s">
+      <c r="W4" s="43" t="s">
         <v>184</v>
       </c>
-      <c r="X4" s="48" t="s">
+      <c r="X4" s="43" t="s">
         <v>183</v>
       </c>
-      <c r="Y4" s="48" t="s">
+      <c r="Y4" s="43" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="46">
+      <c r="B5" s="41">
         <v>733.25</v>
       </c>
-      <c r="C5" s="46">
+      <c r="C5" s="41">
         <v>760.06</v>
       </c>
-      <c r="D5" s="46">
+      <c r="D5" s="41">
         <v>754.02</v>
       </c>
-      <c r="E5" s="46">
+      <c r="E5" s="41">
         <v>726.53</v>
       </c>
-      <c r="F5" s="46">
+      <c r="F5" s="41">
         <v>732.01</v>
       </c>
-      <c r="G5" s="46">
+      <c r="G5" s="41">
         <v>735.92</v>
       </c>
-      <c r="H5" s="46">
+      <c r="H5" s="41">
         <v>738.05</v>
       </c>
-      <c r="I5" s="46">
+      <c r="I5" s="41">
         <v>753.9</v>
       </c>
-      <c r="J5" s="46">
+      <c r="J5" s="41">
         <v>743.75</v>
       </c>
-      <c r="K5" s="46">
+      <c r="K5" s="41">
         <v>755.38</v>
       </c>
-      <c r="L5" s="46">
+      <c r="L5" s="41">
         <v>765.03</v>
       </c>
-      <c r="M5" s="46">
+      <c r="M5" s="41">
         <v>760.06</v>
       </c>
-      <c r="N5" s="46">
+      <c r="N5" s="41">
         <v>768.22</v>
       </c>
-      <c r="O5" s="46">
+      <c r="O5" s="41">
         <v>768.96</v>
       </c>
-      <c r="P5" s="46">
+      <c r="P5" s="41">
         <v>760.77</v>
       </c>
-      <c r="Q5" s="46">
+      <c r="Q5" s="41">
         <v>777.15</v>
       </c>
-      <c r="R5" s="46">
+      <c r="R5" s="41">
         <v>781.9</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="46">
+      <c r="B6" s="41">
         <v>918.31</v>
       </c>
-      <c r="C6" s="46">
+      <c r="C6" s="41">
         <v>945.7</v>
       </c>
-      <c r="D6" s="46">
+      <c r="D6" s="41">
         <v>959.35</v>
       </c>
-      <c r="E6" s="46">
+      <c r="E6" s="41">
         <v>955.4</v>
       </c>
-      <c r="F6" s="46">
+      <c r="F6" s="41">
         <v>966.74</v>
       </c>
-      <c r="G6" s="46">
+      <c r="G6" s="41">
         <v>976.45</v>
       </c>
-      <c r="H6" s="46">
+      <c r="H6" s="41">
         <v>996.31</v>
       </c>
-      <c r="I6" s="46">
+      <c r="I6" s="41">
         <v>1013.33</v>
       </c>
-      <c r="J6" s="46">
+      <c r="J6" s="41">
         <v>968.13</v>
       </c>
-      <c r="K6" s="46">
+      <c r="K6" s="41">
         <v>973.33</v>
       </c>
-      <c r="L6" s="46">
+      <c r="L6" s="41">
         <v>976.28</v>
       </c>
-      <c r="M6" s="46">
+      <c r="M6" s="41">
         <v>954.57</v>
       </c>
-      <c r="N6" s="46">
+      <c r="N6" s="41">
         <v>934.99</v>
       </c>
-      <c r="O6" s="46">
+      <c r="O6" s="41">
         <v>948.02</v>
       </c>
-      <c r="P6" s="46">
+      <c r="P6" s="41">
         <v>955.21</v>
       </c>
-      <c r="Q6" s="46">
+      <c r="Q6" s="41">
         <v>962.76</v>
       </c>
-      <c r="R6" s="46">
+      <c r="R6" s="41">
         <v>975.8</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="46">
+      <c r="B7" s="41">
         <v>788.1</v>
       </c>
-      <c r="C7" s="46">
+      <c r="C7" s="41">
         <v>807.65</v>
       </c>
-      <c r="D7" s="46">
+      <c r="D7" s="41">
         <v>802.7</v>
       </c>
-      <c r="E7" s="46">
+      <c r="E7" s="41">
         <v>799.84</v>
       </c>
-      <c r="F7" s="46">
+      <c r="F7" s="41">
         <v>794.42</v>
       </c>
-      <c r="G7" s="46">
+      <c r="G7" s="41">
         <v>798.66</v>
       </c>
-      <c r="H7" s="46">
+      <c r="H7" s="41">
         <v>796.49</v>
       </c>
-      <c r="I7" s="46">
+      <c r="I7" s="41">
         <v>819.94</v>
       </c>
-      <c r="J7" s="46">
+      <c r="J7" s="41">
         <v>799.8</v>
       </c>
-      <c r="K7" s="46">
+      <c r="K7" s="41">
         <v>801.86</v>
       </c>
-      <c r="L7" s="46">
+      <c r="L7" s="41">
         <v>812.41</v>
       </c>
-      <c r="M7" s="46">
+      <c r="M7" s="41">
         <v>797.48</v>
       </c>
-      <c r="N7" s="46">
+      <c r="N7" s="41">
         <v>803.06</v>
       </c>
-      <c r="O7" s="46">
+      <c r="O7" s="41">
         <v>810.54</v>
       </c>
-      <c r="P7" s="46">
+      <c r="P7" s="41">
         <v>813.6</v>
       </c>
-      <c r="Q7" s="46">
+      <c r="Q7" s="41">
         <v>820.46</v>
       </c>
-      <c r="R7" s="46">
+      <c r="R7" s="41">
         <v>828.8</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="46">
+      <c r="B8" s="41">
         <v>670.89</v>
       </c>
-      <c r="C8" s="46">
+      <c r="C8" s="41">
         <v>674.57</v>
       </c>
-      <c r="D8" s="46">
+      <c r="D8" s="41">
         <v>676.55</v>
       </c>
-      <c r="E8" s="46">
+      <c r="E8" s="41">
         <v>670.55</v>
       </c>
-      <c r="F8" s="46">
+      <c r="F8" s="41">
         <v>666.79</v>
       </c>
-      <c r="G8" s="46">
+      <c r="G8" s="41">
         <v>661.65</v>
       </c>
-      <c r="H8" s="46">
+      <c r="H8" s="41">
         <v>667.36</v>
       </c>
-      <c r="I8" s="46">
+      <c r="I8" s="41">
         <v>684.39</v>
       </c>
-      <c r="J8" s="46">
+      <c r="J8" s="41">
         <v>669.19</v>
       </c>
-      <c r="K8" s="46">
+      <c r="K8" s="41">
         <v>675.86</v>
       </c>
-      <c r="L8" s="46">
+      <c r="L8" s="41">
         <v>686.26</v>
       </c>
-      <c r="M8" s="46">
+      <c r="M8" s="41">
         <v>675.37</v>
       </c>
-      <c r="N8" s="46">
+      <c r="N8" s="41">
         <v>675.35</v>
       </c>
-      <c r="O8" s="46">
+      <c r="O8" s="41">
         <v>673.93</v>
       </c>
-      <c r="P8" s="46">
+      <c r="P8" s="41">
         <v>664.99</v>
       </c>
-      <c r="Q8" s="46">
+      <c r="Q8" s="41">
         <v>675.66</v>
       </c>
-      <c r="R8" s="46">
+      <c r="R8" s="41">
         <v>687.37</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="46">
+      <c r="B9" s="41">
         <v>955.48</v>
       </c>
-      <c r="C9" s="46">
+      <c r="C9" s="41">
         <v>980.69</v>
       </c>
-      <c r="D9" s="46">
+      <c r="D9" s="41">
         <v>980.7</v>
       </c>
-      <c r="E9" s="46">
+      <c r="E9" s="41">
         <v>961.14</v>
       </c>
-      <c r="F9" s="46">
+      <c r="F9" s="41">
         <v>960.06</v>
       </c>
-      <c r="G9" s="46">
+      <c r="G9" s="41">
         <v>962.21</v>
       </c>
-      <c r="H9" s="46">
+      <c r="H9" s="41">
         <v>963.59</v>
       </c>
-      <c r="I9" s="46">
+      <c r="I9" s="41">
         <v>994.39</v>
       </c>
-      <c r="J9" s="46">
+      <c r="J9" s="41">
         <v>960.45</v>
       </c>
-      <c r="K9" s="46">
+      <c r="K9" s="41">
         <v>970.14</v>
       </c>
-      <c r="L9" s="46">
+      <c r="L9" s="41">
         <v>994.73</v>
       </c>
-      <c r="M9" s="46">
+      <c r="M9" s="41">
         <v>969.8</v>
       </c>
-      <c r="N9" s="46">
+      <c r="N9" s="41">
         <v>970.25</v>
       </c>
-      <c r="O9" s="46">
+      <c r="O9" s="41">
         <v>974.7</v>
       </c>
-      <c r="P9" s="46">
+      <c r="P9" s="41">
         <v>970.15</v>
       </c>
-      <c r="Q9" s="46">
+      <c r="Q9" s="41">
         <v>979.61</v>
       </c>
-      <c r="R9" s="46">
+      <c r="R9" s="41">
         <v>1010.01</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="46">
+      <c r="B10" s="41">
         <v>895.1</v>
       </c>
-      <c r="C10" s="46">
+      <c r="C10" s="41">
         <v>919.86</v>
       </c>
-      <c r="D10" s="46">
+      <c r="D10" s="41">
         <v>922.26</v>
       </c>
-      <c r="E10" s="46">
+      <c r="E10" s="41">
         <v>902.16</v>
       </c>
-      <c r="F10" s="46">
+      <c r="F10" s="41">
         <v>903.83</v>
       </c>
-      <c r="G10" s="46">
+      <c r="G10" s="41">
         <v>897.94</v>
       </c>
-      <c r="H10" s="46">
+      <c r="H10" s="41">
         <v>912.52</v>
       </c>
-      <c r="I10" s="46">
+      <c r="I10" s="41">
         <v>939.6</v>
       </c>
-      <c r="J10" s="46">
+      <c r="J10" s="41">
         <v>908.86</v>
       </c>
-      <c r="K10" s="46">
+      <c r="K10" s="41">
         <v>917.67</v>
       </c>
-      <c r="L10" s="46">
+      <c r="L10" s="41">
         <v>927.18</v>
       </c>
-      <c r="M10" s="46">
+      <c r="M10" s="41">
         <v>897.4</v>
       </c>
-      <c r="N10" s="46">
+      <c r="N10" s="41">
         <v>915.83</v>
       </c>
-      <c r="O10" s="46">
+      <c r="O10" s="41">
         <v>912.34</v>
       </c>
-      <c r="P10" s="46">
+      <c r="P10" s="41">
         <v>910.09</v>
       </c>
-      <c r="Q10" s="46">
+      <c r="Q10" s="41">
         <v>910.68</v>
       </c>
-      <c r="R10" s="46">
+      <c r="R10" s="41">
         <v>927.84</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="46">
+      <c r="B11" s="41">
         <v>956.09</v>
       </c>
-      <c r="C11" s="46">
+      <c r="C11" s="41">
         <v>973.28</v>
       </c>
-      <c r="D11" s="46">
+      <c r="D11" s="41">
         <v>975.74</v>
       </c>
-      <c r="E11" s="46">
+      <c r="E11" s="41">
         <v>962.46</v>
       </c>
-      <c r="F11" s="46">
+      <c r="F11" s="41">
         <v>955.04</v>
       </c>
-      <c r="G11" s="46">
+      <c r="G11" s="41">
         <v>957.38</v>
       </c>
-      <c r="H11" s="46">
+      <c r="H11" s="41">
         <v>961.92</v>
       </c>
-      <c r="I11" s="46">
+      <c r="I11" s="41">
         <v>997.9</v>
       </c>
-      <c r="J11" s="46">
+      <c r="J11" s="41">
         <v>984.97</v>
       </c>
-      <c r="K11" s="46">
+      <c r="K11" s="41">
         <v>993.81</v>
       </c>
-      <c r="L11" s="46">
+      <c r="L11" s="41">
         <v>1010.28</v>
       </c>
-      <c r="M11" s="46">
+      <c r="M11" s="41">
         <v>1001.28</v>
       </c>
-      <c r="N11" s="46">
+      <c r="N11" s="41">
         <v>1005.3</v>
       </c>
-      <c r="O11" s="46">
+      <c r="O11" s="41">
         <v>1003.59</v>
       </c>
-      <c r="P11" s="46">
+      <c r="P11" s="41">
         <v>999.32</v>
       </c>
-      <c r="Q11" s="46">
+      <c r="Q11" s="41">
         <v>1019.37</v>
       </c>
-      <c r="R11" s="46">
+      <c r="R11" s="41">
         <v>1042.44</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="46">
+      <c r="B12" s="41">
         <v>730.52</v>
       </c>
-      <c r="C12" s="46">
+      <c r="C12" s="41">
         <v>750.25</v>
       </c>
-      <c r="D12" s="46">
+      <c r="D12" s="41">
         <v>751.25</v>
       </c>
-      <c r="E12" s="46">
+      <c r="E12" s="41">
         <v>741.59</v>
       </c>
-      <c r="F12" s="46">
+      <c r="F12" s="41">
         <v>738.81</v>
       </c>
-      <c r="G12" s="46">
+      <c r="G12" s="41">
         <v>728.97</v>
       </c>
-      <c r="H12" s="46">
+      <c r="H12" s="41">
         <v>738.81</v>
       </c>
-      <c r="I12" s="46">
+      <c r="I12" s="41">
         <v>759.45</v>
       </c>
-      <c r="J12" s="46">
+      <c r="J12" s="41">
         <v>759.28</v>
       </c>
-      <c r="K12" s="46">
+      <c r="K12" s="41">
         <v>761.54</v>
       </c>
-      <c r="L12" s="46">
+      <c r="L12" s="41">
         <v>765.61</v>
       </c>
-      <c r="M12" s="46">
+      <c r="M12" s="41">
         <v>782.21</v>
       </c>
-      <c r="N12" s="46">
+      <c r="N12" s="41">
         <v>799.53</v>
       </c>
-      <c r="O12" s="46">
+      <c r="O12" s="41">
         <v>803.2</v>
       </c>
-      <c r="P12" s="46">
+      <c r="P12" s="41">
         <v>806.86</v>
       </c>
-      <c r="Q12" s="46">
+      <c r="Q12" s="41">
         <v>810.41</v>
       </c>
-      <c r="R12" s="46">
+      <c r="R12" s="41">
         <v>809.42</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="46">
+      <c r="B13" s="41">
         <v>1398.23</v>
       </c>
-      <c r="C13" s="46">
+      <c r="C13" s="41">
         <v>1490.03</v>
       </c>
-      <c r="D13" s="46">
+      <c r="D13" s="41">
         <v>1474.93</v>
       </c>
-      <c r="E13" s="46">
+      <c r="E13" s="41">
         <v>1382.37</v>
       </c>
-      <c r="F13" s="46">
+      <c r="F13" s="41">
         <v>1367.2</v>
       </c>
-      <c r="G13" s="46">
+      <c r="G13" s="41">
         <v>1359.65</v>
       </c>
-      <c r="H13" s="46">
+      <c r="H13" s="41">
         <v>1317.75</v>
       </c>
-      <c r="I13" s="46">
+      <c r="I13" s="41">
         <v>1363.12</v>
       </c>
-      <c r="J13" s="46">
+      <c r="J13" s="41">
         <v>1308.3</v>
       </c>
-      <c r="K13" s="46">
+      <c r="K13" s="41">
         <v>1273.6199999999999</v>
       </c>
-      <c r="L13" s="46">
+      <c r="L13" s="41">
         <v>1345.68</v>
       </c>
-      <c r="M13" s="46">
+      <c r="M13" s="41">
         <v>1298.8800000000001</v>
       </c>
-      <c r="N13" s="46">
+      <c r="N13" s="41">
         <v>1287.97</v>
       </c>
-      <c r="O13" s="46">
+      <c r="O13" s="41">
         <v>1305.3900000000001</v>
       </c>
-      <c r="P13" s="46">
+      <c r="P13" s="41">
         <v>1306.6099999999999</v>
       </c>
-      <c r="Q13" s="46">
+      <c r="Q13" s="41">
         <v>1333.58</v>
       </c>
-      <c r="R13" s="46">
+      <c r="R13" s="41">
         <v>1412.43</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="46">
+      <c r="B14" s="41">
         <v>761.11</v>
       </c>
-      <c r="C14" s="46">
+      <c r="C14" s="41">
         <v>781.79</v>
       </c>
-      <c r="D14" s="46">
+      <c r="D14" s="41">
         <v>779.02</v>
       </c>
-      <c r="E14" s="46">
+      <c r="E14" s="41">
         <v>769.01</v>
       </c>
-      <c r="F14" s="46">
+      <c r="F14" s="41">
         <v>769.84</v>
       </c>
-      <c r="G14" s="46">
+      <c r="G14" s="41">
         <v>764.18</v>
       </c>
-      <c r="H14" s="46">
+      <c r="H14" s="41">
         <v>771.21</v>
       </c>
-      <c r="I14" s="46">
+      <c r="I14" s="41">
         <v>786.6</v>
       </c>
-      <c r="J14" s="46">
+      <c r="J14" s="41">
         <v>772.92</v>
       </c>
-      <c r="K14" s="46">
+      <c r="K14" s="41">
         <v>777.82</v>
       </c>
-      <c r="L14" s="46">
+      <c r="L14" s="41">
         <v>792.81</v>
       </c>
-      <c r="M14" s="46">
+      <c r="M14" s="41">
         <v>784.78</v>
       </c>
-      <c r="N14" s="46">
+      <c r="N14" s="41">
         <v>777.02</v>
       </c>
-      <c r="O14" s="46">
+      <c r="O14" s="41">
         <v>782.5</v>
       </c>
-      <c r="P14" s="46">
+      <c r="P14" s="41">
         <v>788.39</v>
       </c>
-      <c r="Q14" s="46">
+      <c r="Q14" s="41">
         <v>788.65</v>
       </c>
-      <c r="R14" s="46">
+      <c r="R14" s="41">
         <v>802.96</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" s="47" t="s">
+      <c r="A15" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="46">
+      <c r="B15" s="41">
         <v>830.33</v>
       </c>
-      <c r="C15" s="46">
+      <c r="C15" s="41">
         <v>849.32</v>
       </c>
-      <c r="D15" s="46">
+      <c r="D15" s="41">
         <v>844.38</v>
       </c>
-      <c r="E15" s="46">
+      <c r="E15" s="41">
         <v>823.02</v>
       </c>
-      <c r="F15" s="46">
+      <c r="F15" s="41">
         <v>824.85</v>
       </c>
-      <c r="G15" s="46">
+      <c r="G15" s="41">
         <v>820.99</v>
       </c>
-      <c r="H15" s="46">
+      <c r="H15" s="41">
         <v>826.61</v>
       </c>
-      <c r="I15" s="46">
+      <c r="I15" s="41">
         <v>848.7</v>
       </c>
-      <c r="J15" s="46">
+      <c r="J15" s="41">
         <v>825.11</v>
       </c>
-      <c r="K15" s="46">
+      <c r="K15" s="41">
         <v>839.03</v>
       </c>
-      <c r="L15" s="46">
+      <c r="L15" s="41">
         <v>852.23</v>
       </c>
-      <c r="M15" s="46">
+      <c r="M15" s="41">
         <v>839.72</v>
       </c>
-      <c r="N15" s="46">
+      <c r="N15" s="41">
         <v>839.36</v>
       </c>
-      <c r="O15" s="46">
+      <c r="O15" s="41">
         <v>842.17</v>
       </c>
-      <c r="P15" s="46">
+      <c r="P15" s="41">
         <v>840.43</v>
       </c>
-      <c r="Q15" s="46">
+      <c r="Q15" s="41">
         <v>842.51</v>
       </c>
-      <c r="R15" s="46">
+      <c r="R15" s="41">
         <v>877.91</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="46">
+      <c r="B16" s="41">
         <v>813.73</v>
       </c>
-      <c r="C16" s="46">
+      <c r="C16" s="41">
         <v>839.2</v>
       </c>
-      <c r="D16" s="46">
+      <c r="D16" s="41">
         <v>839.54</v>
       </c>
-      <c r="E16" s="46">
+      <c r="E16" s="41">
         <v>811.47</v>
       </c>
-      <c r="F16" s="46">
+      <c r="F16" s="41">
         <v>812.13</v>
       </c>
-      <c r="G16" s="46">
+      <c r="G16" s="41">
         <v>804.41</v>
       </c>
-      <c r="H16" s="46">
+      <c r="H16" s="41">
         <v>814.19</v>
       </c>
-      <c r="I16" s="46">
+      <c r="I16" s="41">
         <v>833.68</v>
       </c>
-      <c r="J16" s="46">
+      <c r="J16" s="41">
         <v>797.72</v>
       </c>
-      <c r="K16" s="46">
+      <c r="K16" s="41">
         <v>806.2</v>
       </c>
-      <c r="L16" s="46">
+      <c r="L16" s="41">
         <v>833.15</v>
       </c>
-      <c r="M16" s="46">
+      <c r="M16" s="41">
         <v>828.3</v>
       </c>
-      <c r="N16" s="46">
+      <c r="N16" s="41">
         <v>824.92</v>
       </c>
-      <c r="O16" s="46">
+      <c r="O16" s="41">
         <v>827.64</v>
       </c>
-      <c r="P16" s="46">
+      <c r="P16" s="41">
         <v>822.17</v>
       </c>
-      <c r="Q16" s="46">
+      <c r="Q16" s="41">
         <v>829.27</v>
       </c>
-      <c r="R16" s="46">
+      <c r="R16" s="41">
         <v>851.76</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="46">
+      <c r="B17" s="41">
         <v>717.53</v>
       </c>
-      <c r="C17" s="46">
+      <c r="C17" s="41">
         <v>744.77</v>
       </c>
-      <c r="D17" s="46">
+      <c r="D17" s="41">
         <v>736.35</v>
       </c>
-      <c r="E17" s="46">
+      <c r="E17" s="41">
         <v>733.6</v>
       </c>
-      <c r="F17" s="46">
+      <c r="F17" s="41">
         <v>735.13</v>
       </c>
-      <c r="G17" s="46">
+      <c r="G17" s="41">
         <v>735.5</v>
       </c>
-      <c r="H17" s="46">
+      <c r="H17" s="41">
         <v>740.04</v>
       </c>
-      <c r="I17" s="46">
+      <c r="I17" s="41">
         <v>765.9</v>
       </c>
-      <c r="J17" s="46">
+      <c r="J17" s="41">
         <v>732.39</v>
       </c>
-      <c r="K17" s="46">
+      <c r="K17" s="41">
         <v>738.7</v>
       </c>
-      <c r="L17" s="46">
+      <c r="L17" s="41">
         <v>748.39</v>
       </c>
-      <c r="M17" s="46">
+      <c r="M17" s="41">
         <v>732.15</v>
       </c>
-      <c r="N17" s="46">
+      <c r="N17" s="41">
         <v>731.92</v>
       </c>
-      <c r="O17" s="46">
+      <c r="O17" s="41">
         <v>729.65</v>
       </c>
-      <c r="P17" s="46">
+      <c r="P17" s="41">
         <v>727.06</v>
       </c>
-      <c r="Q17" s="46">
+      <c r="Q17" s="41">
         <v>742.62</v>
       </c>
-      <c r="R17" s="46">
+      <c r="R17" s="41">
         <v>758.59</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="47" t="s">
+      <c r="A18" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="46">
+      <c r="B18" s="41">
         <v>872.59</v>
       </c>
-      <c r="C18" s="46">
+      <c r="C18" s="41">
         <v>901.14</v>
       </c>
-      <c r="D18" s="46">
+      <c r="D18" s="41">
         <v>893.71</v>
       </c>
-      <c r="E18" s="46">
+      <c r="E18" s="41">
         <v>878.76</v>
       </c>
-      <c r="F18" s="46">
+      <c r="F18" s="41">
         <v>879.28</v>
       </c>
-      <c r="G18" s="46">
+      <c r="G18" s="41">
         <v>878.77</v>
       </c>
-      <c r="H18" s="46">
+      <c r="H18" s="41">
         <v>880.99</v>
       </c>
-      <c r="I18" s="46">
+      <c r="I18" s="41">
         <v>905.5</v>
       </c>
-      <c r="J18" s="46">
+      <c r="J18" s="41">
         <v>887.49</v>
       </c>
-      <c r="K18" s="46">
+      <c r="K18" s="41">
         <v>902.31</v>
       </c>
-      <c r="L18" s="46">
+      <c r="L18" s="41">
         <v>920.94</v>
       </c>
-      <c r="M18" s="46">
+      <c r="M18" s="41">
         <v>902.09</v>
       </c>
-      <c r="N18" s="46">
+      <c r="N18" s="41">
         <v>900.38</v>
       </c>
-      <c r="O18" s="46">
+      <c r="O18" s="41">
         <v>894.01</v>
       </c>
-      <c r="P18" s="46">
+      <c r="P18" s="41">
         <v>896.99</v>
       </c>
-      <c r="Q18" s="46">
+      <c r="Q18" s="41">
         <v>899.03</v>
       </c>
-      <c r="R18" s="46">
+      <c r="R18" s="41">
         <v>917.18</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="47" t="s">
+      <c r="A19" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="46">
+      <c r="B19" s="41">
         <v>798.1</v>
       </c>
-      <c r="C19" s="46">
+      <c r="C19" s="41">
         <v>800.1</v>
       </c>
-      <c r="D19" s="46">
+      <c r="D19" s="41">
         <v>797.3</v>
       </c>
-      <c r="E19" s="46">
+      <c r="E19" s="41">
         <v>790.31</v>
       </c>
-      <c r="F19" s="46">
+      <c r="F19" s="41">
         <v>792.75</v>
       </c>
-      <c r="G19" s="46">
+      <c r="G19" s="41">
         <v>790.49</v>
       </c>
-      <c r="H19" s="46">
+      <c r="H19" s="41">
         <v>791.7</v>
       </c>
-      <c r="I19" s="46">
+      <c r="I19" s="41">
         <v>810.84</v>
       </c>
-      <c r="J19" s="46">
+      <c r="J19" s="41">
         <v>791.09</v>
       </c>
-      <c r="K19" s="46">
+      <c r="K19" s="41">
         <v>799.21</v>
       </c>
-      <c r="L19" s="46">
+      <c r="L19" s="41">
         <v>807.45</v>
       </c>
-      <c r="M19" s="46">
+      <c r="M19" s="41">
         <v>807.3</v>
       </c>
-      <c r="N19" s="46">
+      <c r="N19" s="41">
         <v>804.54</v>
       </c>
-      <c r="O19" s="46">
+      <c r="O19" s="41">
         <v>796.79</v>
       </c>
-      <c r="P19" s="46">
+      <c r="P19" s="41">
         <v>794.05</v>
       </c>
-      <c r="Q19" s="46">
+      <c r="Q19" s="41">
         <v>808.68</v>
       </c>
-      <c r="R19" s="46">
+      <c r="R19" s="41">
         <v>813.28</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="47" t="s">
+      <c r="A20" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="46">
+      <c r="B20" s="41">
         <v>755.82</v>
       </c>
-      <c r="C20" s="46">
+      <c r="C20" s="41">
         <v>775.34</v>
       </c>
-      <c r="D20" s="46">
+      <c r="D20" s="41">
         <v>775.55</v>
       </c>
-      <c r="E20" s="46">
+      <c r="E20" s="41">
         <v>780.06</v>
       </c>
-      <c r="F20" s="46">
+      <c r="F20" s="41">
         <v>780.92</v>
       </c>
-      <c r="G20" s="46">
+      <c r="G20" s="41">
         <v>776.04</v>
       </c>
-      <c r="H20" s="46">
+      <c r="H20" s="41">
         <v>780.71</v>
       </c>
-      <c r="I20" s="46">
+      <c r="I20" s="41">
         <v>812.25</v>
       </c>
-      <c r="J20" s="46">
+      <c r="J20" s="41">
         <v>792.81</v>
       </c>
-      <c r="K20" s="46">
+      <c r="K20" s="41">
         <v>796.02</v>
       </c>
-      <c r="L20" s="46">
+      <c r="L20" s="41">
         <v>781.1</v>
       </c>
-      <c r="M20" s="46">
+      <c r="M20" s="41">
         <v>777.92</v>
       </c>
-      <c r="N20" s="46">
+      <c r="N20" s="41">
         <v>768.95</v>
       </c>
-      <c r="O20" s="46">
+      <c r="O20" s="41">
         <v>770.64</v>
       </c>
-      <c r="P20" s="46">
+      <c r="P20" s="41">
         <v>784.04</v>
       </c>
-      <c r="Q20" s="46">
+      <c r="Q20" s="41">
         <v>806.61</v>
       </c>
-      <c r="R20" s="46">
+      <c r="R20" s="41">
         <v>812.33</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="46">
+      <c r="B21" s="41">
         <v>770.18</v>
       </c>
-      <c r="C21" s="46">
+      <c r="C21" s="41">
         <v>781.77</v>
       </c>
-      <c r="D21" s="46">
+      <c r="D21" s="41">
         <v>777.81</v>
       </c>
-      <c r="E21" s="46">
+      <c r="E21" s="41">
         <v>756.84</v>
       </c>
-      <c r="F21" s="46">
+      <c r="F21" s="41">
         <v>761.11</v>
       </c>
-      <c r="G21" s="46">
+      <c r="G21" s="41">
         <v>767.08</v>
       </c>
-      <c r="H21" s="46">
+      <c r="H21" s="41">
         <v>769.18</v>
       </c>
-      <c r="I21" s="46">
+      <c r="I21" s="41">
         <v>789.6</v>
       </c>
-      <c r="J21" s="46">
+      <c r="J21" s="41">
         <v>768.4</v>
       </c>
-      <c r="K21" s="46">
+      <c r="K21" s="41">
         <v>779.08</v>
       </c>
-      <c r="L21" s="46">
+      <c r="L21" s="41">
         <v>790.17</v>
       </c>
-      <c r="M21" s="46">
+      <c r="M21" s="41">
         <v>783.82</v>
       </c>
-      <c r="N21" s="46">
+      <c r="N21" s="41">
         <v>772.13</v>
       </c>
-      <c r="O21" s="46">
+      <c r="O21" s="41">
         <v>766.82</v>
       </c>
-      <c r="P21" s="46">
+      <c r="P21" s="41">
         <v>760.45</v>
       </c>
-      <c r="Q21" s="46">
+      <c r="Q21" s="41">
         <v>767.53</v>
       </c>
-      <c r="R21" s="46">
+      <c r="R21" s="41">
         <v>766.42</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="47" t="s">
+      <c r="A22" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="46">
+      <c r="B22" s="41">
         <v>740.23</v>
       </c>
-      <c r="C22" s="46">
+      <c r="C22" s="41">
         <v>731.34</v>
       </c>
-      <c r="D22" s="46">
+      <c r="D22" s="41">
         <v>740.95</v>
       </c>
-      <c r="E22" s="46">
+      <c r="E22" s="41">
         <v>739.55</v>
       </c>
-      <c r="F22" s="46">
+      <c r="F22" s="41">
         <v>742.02</v>
       </c>
-      <c r="G22" s="46">
+      <c r="G22" s="41">
         <v>742.34</v>
       </c>
-      <c r="H22" s="46">
+      <c r="H22" s="41">
         <v>749.06</v>
       </c>
-      <c r="I22" s="46">
+      <c r="I22" s="41">
         <v>754.7</v>
       </c>
-      <c r="J22" s="46">
+      <c r="J22" s="41">
         <v>744.12</v>
       </c>
-      <c r="K22" s="46">
+      <c r="K22" s="41">
         <v>741.95</v>
       </c>
-      <c r="L22" s="46">
+      <c r="L22" s="41">
         <v>747.56</v>
       </c>
-      <c r="M22" s="46">
+      <c r="M22" s="41">
         <v>751.08</v>
       </c>
-      <c r="N22" s="46">
+      <c r="N22" s="41">
         <v>739.5</v>
       </c>
-      <c r="O22" s="46">
+      <c r="O22" s="41">
         <v>732.89</v>
       </c>
-      <c r="P22" s="46">
+      <c r="P22" s="41">
         <v>741.31</v>
       </c>
-      <c r="Q22" s="46">
+      <c r="Q22" s="41">
         <v>744.1</v>
       </c>
-      <c r="R22" s="46">
+      <c r="R22" s="41">
         <v>739.55</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="47" t="s">
+      <c r="A23" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="46">
+      <c r="B23" s="41">
         <v>794.47</v>
       </c>
-      <c r="C23" s="46">
+      <c r="C23" s="41">
         <v>806.26</v>
       </c>
-      <c r="D23" s="46">
+      <c r="D23" s="41">
         <v>801.29</v>
       </c>
-      <c r="E23" s="46">
+      <c r="E23" s="41">
         <v>794.68</v>
       </c>
-      <c r="F23" s="46">
+      <c r="F23" s="41">
         <v>786.88</v>
       </c>
-      <c r="G23" s="46">
+      <c r="G23" s="41">
         <v>788.01</v>
       </c>
-      <c r="H23" s="46">
+      <c r="H23" s="41">
         <v>787.29</v>
       </c>
-      <c r="I23" s="46">
+      <c r="I23" s="41">
         <v>807.68</v>
       </c>
-      <c r="J23" s="46">
+      <c r="J23" s="41">
         <v>784.11</v>
       </c>
-      <c r="K23" s="46">
+      <c r="K23" s="41">
         <v>801.29</v>
       </c>
-      <c r="L23" s="46">
+      <c r="L23" s="41">
         <v>812.52</v>
       </c>
-      <c r="M23" s="46">
+      <c r="M23" s="41">
         <v>802.28</v>
       </c>
-      <c r="N23" s="46">
+      <c r="N23" s="41">
         <v>795.66</v>
       </c>
-      <c r="O23" s="46">
+      <c r="O23" s="41">
         <v>786.59</v>
       </c>
-      <c r="P23" s="46">
+      <c r="P23" s="41">
         <v>776.08</v>
       </c>
-      <c r="Q23" s="46">
+      <c r="Q23" s="41">
         <v>789.6</v>
       </c>
-      <c r="R23" s="46">
+      <c r="R23" s="41">
         <v>806.34</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="47" t="s">
+      <c r="A24" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="46">
+      <c r="B24" s="41">
         <v>743.43</v>
       </c>
-      <c r="C24" s="46">
+      <c r="C24" s="41">
         <v>748</v>
       </c>
-      <c r="D24" s="46">
+      <c r="D24" s="41">
         <v>753.95</v>
       </c>
-      <c r="E24" s="46">
+      <c r="E24" s="41">
         <v>743.77</v>
       </c>
-      <c r="F24" s="46">
+      <c r="F24" s="41">
         <v>743.28</v>
       </c>
-      <c r="G24" s="46">
+      <c r="G24" s="41">
         <v>736.08</v>
       </c>
-      <c r="H24" s="46">
+      <c r="H24" s="41">
         <v>741.13</v>
       </c>
-      <c r="I24" s="46">
+      <c r="I24" s="41">
         <v>747.44</v>
       </c>
-      <c r="J24" s="46">
+      <c r="J24" s="41">
         <v>752.79</v>
       </c>
-      <c r="K24" s="46">
+      <c r="K24" s="41">
         <v>754.94</v>
       </c>
-      <c r="L24" s="46">
+      <c r="L24" s="41">
         <v>761.46</v>
       </c>
-      <c r="M24" s="46">
+      <c r="M24" s="41">
         <v>758.38</v>
       </c>
-      <c r="N24" s="46">
+      <c r="N24" s="41">
         <v>749.06</v>
       </c>
-      <c r="O24" s="46">
+      <c r="O24" s="41">
         <v>751.17</v>
       </c>
-      <c r="P24" s="46">
+      <c r="P24" s="41">
         <v>751.04</v>
       </c>
-      <c r="Q24" s="46">
+      <c r="Q24" s="41">
         <v>753.06</v>
       </c>
-      <c r="R24" s="46">
+      <c r="R24" s="41">
         <v>756.68</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="47" t="s">
+      <c r="A25" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="46">
+      <c r="B25" s="41">
         <v>920.41</v>
       </c>
-      <c r="C25" s="46">
+      <c r="C25" s="41">
         <v>939.37</v>
       </c>
-      <c r="D25" s="46">
+      <c r="D25" s="41">
         <v>946.96</v>
       </c>
-      <c r="E25" s="46">
+      <c r="E25" s="41">
         <v>930.25</v>
       </c>
-      <c r="F25" s="46">
+      <c r="F25" s="41">
         <v>928.84</v>
       </c>
-      <c r="G25" s="46">
+      <c r="G25" s="41">
         <v>919.58</v>
       </c>
-      <c r="H25" s="46">
+      <c r="H25" s="41">
         <v>920.2</v>
       </c>
-      <c r="I25" s="46">
+      <c r="I25" s="41">
         <v>946.62</v>
       </c>
-      <c r="J25" s="46">
+      <c r="J25" s="41">
         <v>938.4</v>
       </c>
-      <c r="K25" s="46">
+      <c r="K25" s="41">
         <v>941.47</v>
       </c>
-      <c r="L25" s="46">
+      <c r="L25" s="41">
         <v>958.07</v>
       </c>
-      <c r="M25" s="46">
+      <c r="M25" s="41">
         <v>939.13</v>
       </c>
-      <c r="N25" s="46">
+      <c r="N25" s="41">
         <v>919.97</v>
       </c>
-      <c r="O25" s="46">
+      <c r="O25" s="41">
         <v>916.64</v>
       </c>
-      <c r="P25" s="46">
+      <c r="P25" s="41">
         <v>924.45</v>
       </c>
-      <c r="Q25" s="46">
+      <c r="Q25" s="41">
         <v>929.21</v>
       </c>
-      <c r="R25" s="46">
+      <c r="R25" s="41">
         <v>942.91</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="47" t="s">
+      <c r="A26" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="46">
+      <c r="B26" s="41">
         <v>1008.56</v>
       </c>
-      <c r="C26" s="46">
+      <c r="C26" s="41">
         <v>1009.8</v>
       </c>
-      <c r="D26" s="46">
+      <c r="D26" s="41">
         <v>1015.03</v>
       </c>
-      <c r="E26" s="46">
+      <c r="E26" s="41">
         <v>1006.99</v>
       </c>
-      <c r="F26" s="46">
+      <c r="F26" s="41">
         <v>1011.37</v>
       </c>
-      <c r="G26" s="46">
+      <c r="G26" s="41">
         <v>1002.99</v>
       </c>
-      <c r="H26" s="46">
+      <c r="H26" s="41">
         <v>1004.3</v>
       </c>
-      <c r="I26" s="46">
+      <c r="I26" s="41">
         <v>1021.77</v>
       </c>
-      <c r="J26" s="46">
+      <c r="J26" s="41">
         <v>1018.4</v>
       </c>
-      <c r="K26" s="46">
+      <c r="K26" s="41">
         <v>1031.47</v>
       </c>
-      <c r="L26" s="46">
+      <c r="L26" s="41">
         <v>1055.57</v>
       </c>
-      <c r="M26" s="46">
+      <c r="M26" s="41">
         <v>1044.03</v>
       </c>
-      <c r="N26" s="46">
+      <c r="N26" s="41">
         <v>1044.95</v>
       </c>
-      <c r="O26" s="46">
+      <c r="O26" s="41">
         <v>1038.02</v>
       </c>
-      <c r="P26" s="46">
+      <c r="P26" s="41">
         <v>1035.3</v>
       </c>
-      <c r="Q26" s="46">
+      <c r="Q26" s="41">
         <v>1035.6300000000001</v>
       </c>
-      <c r="R26" s="46">
+      <c r="R26" s="41">
         <v>1046.6400000000001</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="47" t="s">
+      <c r="A27" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="46">
+      <c r="B27" s="41">
         <v>814.31</v>
       </c>
-      <c r="C27" s="46">
+      <c r="C27" s="41">
         <v>822.17</v>
       </c>
-      <c r="D27" s="46">
+      <c r="D27" s="41">
         <v>826.28</v>
       </c>
-      <c r="E27" s="46">
+      <c r="E27" s="41">
         <v>818.4</v>
       </c>
-      <c r="F27" s="46">
+      <c r="F27" s="41">
         <v>820.02</v>
       </c>
-      <c r="G27" s="46">
+      <c r="G27" s="41">
         <v>816.91</v>
       </c>
-      <c r="H27" s="46">
+      <c r="H27" s="41">
         <v>820.46</v>
       </c>
-      <c r="I27" s="46">
+      <c r="I27" s="41">
         <v>847.37</v>
       </c>
-      <c r="J27" s="46">
+      <c r="J27" s="41">
         <v>827.27</v>
       </c>
-      <c r="K27" s="46">
+      <c r="K27" s="41">
         <v>837.26</v>
       </c>
-      <c r="L27" s="46">
+      <c r="L27" s="41">
         <v>844.22</v>
       </c>
-      <c r="M27" s="46">
+      <c r="M27" s="41">
         <v>835.21</v>
       </c>
-      <c r="N27" s="46">
+      <c r="N27" s="41">
         <v>823.71</v>
       </c>
-      <c r="O27" s="46">
+      <c r="O27" s="41">
         <v>820.66</v>
       </c>
-      <c r="P27" s="46">
+      <c r="P27" s="41">
         <v>823.09</v>
       </c>
-      <c r="Q27" s="46">
+      <c r="Q27" s="41">
         <v>823.88</v>
       </c>
-      <c r="R27" s="46">
+      <c r="R27" s="41">
         <v>827.66</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="47" t="s">
+      <c r="A28" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="46">
+      <c r="B28" s="41">
         <v>873.68</v>
       </c>
-      <c r="C28" s="46">
+      <c r="C28" s="41">
         <v>884.11</v>
       </c>
-      <c r="D28" s="46">
+      <c r="D28" s="41">
         <v>892.25</v>
       </c>
-      <c r="E28" s="46">
+      <c r="E28" s="41">
         <v>872.93</v>
       </c>
-      <c r="F28" s="46">
+      <c r="F28" s="41">
         <v>871.7</v>
       </c>
-      <c r="G28" s="46">
+      <c r="G28" s="41">
         <v>876.71</v>
       </c>
-      <c r="H28" s="46">
+      <c r="H28" s="41">
         <v>882.36</v>
       </c>
-      <c r="I28" s="46">
+      <c r="I28" s="41">
         <v>904.1</v>
       </c>
-      <c r="J28" s="46">
+      <c r="J28" s="41">
         <v>881.4</v>
       </c>
-      <c r="K28" s="46">
+      <c r="K28" s="41">
         <v>897.26</v>
       </c>
-      <c r="L28" s="46">
+      <c r="L28" s="41">
         <v>900.14</v>
       </c>
-      <c r="M28" s="46">
+      <c r="M28" s="41">
         <v>888.33</v>
       </c>
-      <c r="N28" s="46">
+      <c r="N28" s="41">
         <v>894.79</v>
       </c>
-      <c r="O28" s="46">
+      <c r="O28" s="41">
         <v>886.44</v>
       </c>
-      <c r="P28" s="46">
+      <c r="P28" s="41">
         <v>906.18</v>
       </c>
-      <c r="Q28" s="46">
+      <c r="Q28" s="41">
         <v>906.53</v>
       </c>
-      <c r="R28" s="46">
+      <c r="R28" s="41">
         <v>928.5</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="47" t="s">
+      <c r="A29" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="46">
+      <c r="B29" s="41">
         <v>675.85</v>
       </c>
-      <c r="C29" s="46">
+      <c r="C29" s="41">
         <v>697.53</v>
       </c>
-      <c r="D29" s="46">
+      <c r="D29" s="41">
         <v>702.47</v>
       </c>
-      <c r="E29" s="46">
+      <c r="E29" s="41">
         <v>680.78</v>
       </c>
-      <c r="F29" s="46">
+      <c r="F29" s="41">
         <v>677.12</v>
       </c>
-      <c r="G29" s="46">
+      <c r="G29" s="41">
         <v>678.39</v>
       </c>
-      <c r="H29" s="46">
+      <c r="H29" s="41">
         <v>681.51</v>
       </c>
-      <c r="I29" s="46">
+      <c r="I29" s="41">
         <v>694.63</v>
       </c>
-      <c r="J29" s="46">
+      <c r="J29" s="41">
         <v>676.13</v>
       </c>
-      <c r="K29" s="46">
+      <c r="K29" s="41">
         <v>683.59</v>
       </c>
-      <c r="L29" s="46">
+      <c r="L29" s="41">
         <v>698.49</v>
       </c>
-      <c r="M29" s="46">
+      <c r="M29" s="41">
         <v>689.49</v>
       </c>
-      <c r="N29" s="46">
+      <c r="N29" s="41">
         <v>687.85</v>
       </c>
-      <c r="O29" s="46">
+      <c r="O29" s="41">
         <v>681.62</v>
       </c>
-      <c r="P29" s="46">
+      <c r="P29" s="41">
         <v>672.71</v>
       </c>
-      <c r="Q29" s="46">
+      <c r="Q29" s="41">
         <v>684.63</v>
       </c>
-      <c r="R29" s="46">
+      <c r="R29" s="41">
         <v>706.73</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="47" t="s">
+      <c r="A30" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="46">
+      <c r="B30" s="41">
         <v>743.76</v>
       </c>
-      <c r="C30" s="46">
+      <c r="C30" s="41">
         <v>759.58</v>
       </c>
-      <c r="D30" s="46">
+      <c r="D30" s="41">
         <v>757.87</v>
       </c>
-      <c r="E30" s="46">
+      <c r="E30" s="41">
         <v>747.66</v>
       </c>
-      <c r="F30" s="46">
+      <c r="F30" s="41">
         <v>743.37</v>
       </c>
-      <c r="G30" s="46">
+      <c r="G30" s="41">
         <v>743.6</v>
       </c>
-      <c r="H30" s="46">
+      <c r="H30" s="41">
         <v>743.6</v>
       </c>
-      <c r="I30" s="46">
+      <c r="I30" s="41">
         <v>759.55</v>
       </c>
-      <c r="J30" s="46">
+      <c r="J30" s="41">
         <v>742.22</v>
       </c>
-      <c r="K30" s="46">
+      <c r="K30" s="41">
         <v>744.95</v>
       </c>
-      <c r="L30" s="46">
+      <c r="L30" s="41">
         <v>755.48</v>
       </c>
-      <c r="M30" s="46">
+      <c r="M30" s="41">
         <v>745.78</v>
       </c>
-      <c r="N30" s="46">
+      <c r="N30" s="41">
         <v>743.15</v>
       </c>
-      <c r="O30" s="46">
+      <c r="O30" s="41">
         <v>738.26</v>
       </c>
-      <c r="P30" s="46">
+      <c r="P30" s="41">
         <v>740.26</v>
       </c>
-      <c r="Q30" s="46">
+      <c r="Q30" s="41">
         <v>746.79</v>
       </c>
-      <c r="R30" s="46">
+      <c r="R30" s="41">
         <v>753.87</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="47" t="s">
+      <c r="A31" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="46">
+      <c r="B31" s="41">
         <v>700.1</v>
       </c>
-      <c r="C31" s="46">
+      <c r="C31" s="41">
         <v>722.67</v>
       </c>
-      <c r="D31" s="46">
+      <c r="D31" s="41">
         <v>706.23</v>
       </c>
-      <c r="E31" s="46">
+      <c r="E31" s="41">
         <v>696.96</v>
       </c>
-      <c r="F31" s="46">
+      <c r="F31" s="41">
         <v>711.75</v>
       </c>
-      <c r="G31" s="46">
+      <c r="G31" s="41">
         <v>713.19</v>
       </c>
-      <c r="H31" s="46">
+      <c r="H31" s="41">
         <v>716.56</v>
       </c>
-      <c r="I31" s="46">
+      <c r="I31" s="41">
         <v>746.72</v>
       </c>
-      <c r="J31" s="46">
+      <c r="J31" s="41">
         <v>723.65</v>
       </c>
-      <c r="K31" s="46">
+      <c r="K31" s="41">
         <v>723.13</v>
       </c>
-      <c r="L31" s="46">
+      <c r="L31" s="41">
         <v>747.78</v>
       </c>
-      <c r="M31" s="46">
+      <c r="M31" s="41">
         <v>722.87</v>
       </c>
-      <c r="N31" s="46">
+      <c r="N31" s="41">
         <v>711.98</v>
       </c>
-      <c r="O31" s="46">
+      <c r="O31" s="41">
         <v>722.55</v>
       </c>
-      <c r="P31" s="46">
+      <c r="P31" s="41">
         <v>709.95</v>
       </c>
-      <c r="Q31" s="46">
+      <c r="Q31" s="41">
         <v>724.46</v>
       </c>
-      <c r="R31" s="46">
+      <c r="R31" s="41">
         <v>743.76</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="47" t="s">
+      <c r="A32" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="46">
+      <c r="B32" s="41">
         <v>738.53</v>
       </c>
-      <c r="C32" s="46">
+      <c r="C32" s="41">
         <v>755.63</v>
       </c>
-      <c r="D32" s="46">
+      <c r="D32" s="41">
         <v>755.14</v>
       </c>
-      <c r="E32" s="46">
+      <c r="E32" s="41">
         <v>738.53</v>
       </c>
-      <c r="F32" s="46">
+      <c r="F32" s="41">
         <v>742.75</v>
       </c>
-      <c r="G32" s="46">
+      <c r="G32" s="41">
         <v>749.34</v>
       </c>
-      <c r="H32" s="46">
+      <c r="H32" s="41">
         <v>752.2</v>
       </c>
-      <c r="I32" s="46">
+      <c r="I32" s="41">
         <v>785.25</v>
       </c>
-      <c r="J32" s="46">
+      <c r="J32" s="41">
         <v>766.14</v>
       </c>
-      <c r="K32" s="46">
+      <c r="K32" s="41">
         <v>766.61</v>
       </c>
-      <c r="L32" s="46">
+      <c r="L32" s="41">
         <v>774.63</v>
       </c>
-      <c r="M32" s="46">
+      <c r="M32" s="41">
         <v>760.84</v>
       </c>
-      <c r="N32" s="46">
+      <c r="N32" s="41">
         <v>760.18</v>
       </c>
-      <c r="O32" s="46">
+      <c r="O32" s="41">
         <v>761.9</v>
       </c>
-      <c r="P32" s="46">
+      <c r="P32" s="41">
         <v>762.86</v>
       </c>
-      <c r="Q32" s="46">
+      <c r="Q32" s="41">
         <v>777.67</v>
       </c>
-      <c r="R32" s="46">
+      <c r="R32" s="41">
         <v>788.73</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="47" t="s">
+      <c r="A33" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="46">
+      <c r="B33" s="41">
         <v>717.45</v>
       </c>
-      <c r="C33" s="46">
+      <c r="C33" s="41">
         <v>732.98</v>
       </c>
-      <c r="D33" s="46">
+      <c r="D33" s="41">
         <v>737.52</v>
       </c>
-      <c r="E33" s="46">
+      <c r="E33" s="41">
         <v>729.79</v>
       </c>
-      <c r="F33" s="46">
+      <c r="F33" s="41">
         <v>729.63</v>
       </c>
-      <c r="G33" s="46">
+      <c r="G33" s="41">
         <v>730.13</v>
       </c>
-      <c r="H33" s="46">
+      <c r="H33" s="41">
         <v>737.02</v>
       </c>
-      <c r="I33" s="46">
+      <c r="I33" s="41">
         <v>754.29</v>
       </c>
-      <c r="J33" s="46">
+      <c r="J33" s="41">
         <v>747.32</v>
       </c>
-      <c r="K33" s="46">
+      <c r="K33" s="41">
         <v>741.69</v>
       </c>
-      <c r="L33" s="46">
+      <c r="L33" s="41">
         <v>753.94</v>
       </c>
-      <c r="M33" s="46">
+      <c r="M33" s="41">
         <v>737.14</v>
       </c>
-      <c r="N33" s="46">
+      <c r="N33" s="41">
         <v>739.36</v>
       </c>
-      <c r="O33" s="46">
+      <c r="O33" s="41">
         <v>741.26</v>
       </c>
-      <c r="P33" s="46">
+      <c r="P33" s="41">
         <v>737.04</v>
       </c>
-      <c r="Q33" s="46">
+      <c r="Q33" s="41">
         <v>746.59</v>
       </c>
-      <c r="R33" s="46">
+      <c r="R33" s="41">
         <v>757.86</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="47" t="s">
+      <c r="A34" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="46">
+      <c r="B34" s="41">
         <v>809.34</v>
       </c>
-      <c r="C34" s="46">
+      <c r="C34" s="41">
         <v>819.54</v>
       </c>
-      <c r="D34" s="46">
+      <c r="D34" s="41">
         <v>831.14</v>
       </c>
-      <c r="E34" s="46">
+      <c r="E34" s="41">
         <v>842.69</v>
       </c>
-      <c r="F34" s="46">
+      <c r="F34" s="41">
         <v>839.8</v>
       </c>
-      <c r="G34" s="46">
+      <c r="G34" s="41">
         <v>825.11</v>
       </c>
-      <c r="H34" s="46">
+      <c r="H34" s="41">
         <v>830.89</v>
       </c>
-      <c r="I34" s="46">
+      <c r="I34" s="41">
         <v>835.79</v>
       </c>
-      <c r="J34" s="46">
+      <c r="J34" s="41">
         <v>837.78</v>
       </c>
-      <c r="K34" s="46">
+      <c r="K34" s="41">
         <v>852.1</v>
       </c>
-      <c r="L34" s="46">
+      <c r="L34" s="41">
         <v>862.76</v>
       </c>
-      <c r="M34" s="46">
+      <c r="M34" s="41">
         <v>851.26</v>
       </c>
-      <c r="N34" s="46">
+      <c r="N34" s="41">
         <v>861.14</v>
       </c>
-      <c r="O34" s="46">
+      <c r="O34" s="41">
         <v>857.89</v>
       </c>
-      <c r="P34" s="46">
+      <c r="P34" s="41">
         <v>848.68</v>
       </c>
-      <c r="Q34" s="46">
+      <c r="Q34" s="41">
         <v>860.5</v>
       </c>
-      <c r="R34" s="46">
+      <c r="R34" s="41">
         <v>871.42</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="47" t="s">
+      <c r="A35" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="46">
+      <c r="B35" s="41">
         <v>918.98</v>
       </c>
-      <c r="C35" s="46">
+      <c r="C35" s="41">
         <v>942.36</v>
       </c>
-      <c r="D35" s="46">
+      <c r="D35" s="41">
         <v>947.98</v>
       </c>
-      <c r="E35" s="46">
+      <c r="E35" s="41">
         <v>928.44</v>
       </c>
-      <c r="F35" s="46">
+      <c r="F35" s="41">
         <v>930.46</v>
       </c>
-      <c r="G35" s="46">
+      <c r="G35" s="41">
         <v>929.78</v>
       </c>
-      <c r="H35" s="46">
+      <c r="H35" s="41">
         <v>930.56</v>
       </c>
-      <c r="I35" s="46">
+      <c r="I35" s="41">
         <v>948.02</v>
       </c>
-      <c r="J35" s="46">
+      <c r="J35" s="41">
         <v>938.96</v>
       </c>
-      <c r="K35" s="46">
+      <c r="K35" s="41">
         <v>943.1</v>
       </c>
-      <c r="L35" s="46">
+      <c r="L35" s="41">
         <v>956.08</v>
       </c>
-      <c r="M35" s="46">
+      <c r="M35" s="41">
         <v>942.82</v>
       </c>
-      <c r="N35" s="46">
+      <c r="N35" s="41">
         <v>934.75</v>
       </c>
-      <c r="O35" s="46">
+      <c r="O35" s="41">
         <v>940.46</v>
       </c>
-      <c r="P35" s="46">
+      <c r="P35" s="41">
         <v>937.33</v>
       </c>
-      <c r="Q35" s="46">
+      <c r="Q35" s="41">
         <v>945.96</v>
       </c>
-      <c r="R35" s="46">
+      <c r="R35" s="41">
         <v>962.2</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="47" t="s">
+      <c r="A36" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="46">
+      <c r="B36" s="41">
         <v>699.02</v>
       </c>
-      <c r="C36" s="46">
+      <c r="C36" s="41">
         <v>708.3</v>
       </c>
-      <c r="D36" s="46">
+      <c r="D36" s="41">
         <v>708.98</v>
       </c>
-      <c r="E36" s="46">
+      <c r="E36" s="41">
         <v>694.27</v>
       </c>
-      <c r="F36" s="46">
+      <c r="F36" s="41">
         <v>693.58</v>
       </c>
-      <c r="G36" s="46">
+      <c r="G36" s="41">
         <v>689.16</v>
       </c>
-      <c r="H36" s="46">
+      <c r="H36" s="41">
         <v>693.89</v>
       </c>
-      <c r="I36" s="46">
+      <c r="I36" s="41">
         <v>709.17</v>
       </c>
-      <c r="J36" s="46">
+      <c r="J36" s="41">
         <v>700.42</v>
       </c>
-      <c r="K36" s="46">
+      <c r="K36" s="41">
         <v>699.73</v>
       </c>
-      <c r="L36" s="46">
+      <c r="L36" s="41">
         <v>705.55</v>
       </c>
-      <c r="M36" s="46">
+      <c r="M36" s="41">
         <v>693.6</v>
       </c>
-      <c r="N36" s="46">
+      <c r="N36" s="41">
         <v>687.71</v>
       </c>
-      <c r="O36" s="46">
+      <c r="O36" s="41">
         <v>691.78</v>
       </c>
-      <c r="P36" s="46">
+      <c r="P36" s="41">
         <v>681.98</v>
       </c>
-      <c r="Q36" s="46">
+      <c r="Q36" s="41">
         <v>685.41</v>
       </c>
-      <c r="R36" s="46">
+      <c r="R36" s="41">
         <v>686.82</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="47" t="s">
+      <c r="A37" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="46">
+      <c r="B37" s="41">
         <v>961.45</v>
       </c>
-      <c r="C37" s="46">
+      <c r="C37" s="41">
         <v>978.31</v>
       </c>
-      <c r="D37" s="46">
+      <c r="D37" s="41">
         <v>979.52</v>
       </c>
-      <c r="E37" s="46">
+      <c r="E37" s="41">
         <v>966.48</v>
       </c>
-      <c r="F37" s="46">
+      <c r="F37" s="41">
         <v>962.14</v>
       </c>
-      <c r="G37" s="46">
+      <c r="G37" s="41">
         <v>958.77</v>
       </c>
-      <c r="H37" s="46">
+      <c r="H37" s="41">
         <v>961.61</v>
       </c>
-      <c r="I37" s="46">
+      <c r="I37" s="41">
         <v>983.25</v>
       </c>
-      <c r="J37" s="46">
+      <c r="J37" s="41">
         <v>964.83</v>
       </c>
-      <c r="K37" s="46">
+      <c r="K37" s="41">
         <v>969.21</v>
       </c>
-      <c r="L37" s="46">
+      <c r="L37" s="41">
         <v>993.82</v>
       </c>
-      <c r="M37" s="46">
+      <c r="M37" s="41">
         <v>978.31</v>
       </c>
-      <c r="N37" s="46">
+      <c r="N37" s="41">
         <v>977.28</v>
       </c>
-      <c r="O37" s="46">
+      <c r="O37" s="41">
         <v>979.4</v>
       </c>
-      <c r="P37" s="46">
+      <c r="P37" s="41">
         <v>971.43</v>
       </c>
-      <c r="Q37" s="46">
+      <c r="Q37" s="41">
         <v>969.7</v>
       </c>
-      <c r="R37" s="46">
+      <c r="R37" s="41">
         <v>983.47</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="47" t="s">
+      <c r="A38" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="46">
+      <c r="B38" s="41">
         <v>753.77</v>
       </c>
-      <c r="C38" s="46">
+      <c r="C38" s="41">
         <v>771.08</v>
       </c>
-      <c r="D38" s="46">
+      <c r="D38" s="41">
         <v>768.85</v>
       </c>
-      <c r="E38" s="46">
+      <c r="E38" s="41">
         <v>758.18</v>
       </c>
-      <c r="F38" s="46">
+      <c r="F38" s="41">
         <v>762.45</v>
       </c>
-      <c r="G38" s="46">
+      <c r="G38" s="41">
         <v>760.04</v>
       </c>
-      <c r="H38" s="46">
+      <c r="H38" s="41">
         <v>763.49</v>
       </c>
-      <c r="I38" s="46">
+      <c r="I38" s="41">
         <v>788.9</v>
       </c>
-      <c r="J38" s="46">
+      <c r="J38" s="41">
         <v>766.61</v>
       </c>
-      <c r="K38" s="46">
+      <c r="K38" s="41">
         <v>778.15</v>
       </c>
-      <c r="L38" s="46">
+      <c r="L38" s="41">
         <v>790.26</v>
       </c>
-      <c r="M38" s="46">
+      <c r="M38" s="41">
         <v>779.16</v>
       </c>
-      <c r="N38" s="46">
+      <c r="N38" s="41">
         <v>776.72</v>
       </c>
-      <c r="O38" s="46">
+      <c r="O38" s="41">
         <v>783.15</v>
       </c>
-      <c r="P38" s="46">
+      <c r="P38" s="41">
         <v>790.78</v>
       </c>
-      <c r="Q38" s="46">
+      <c r="Q38" s="41">
         <v>797.48</v>
       </c>
-      <c r="R38" s="46">
+      <c r="R38" s="41">
         <v>811.44</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="47" t="s">
+      <c r="A39" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="46">
+      <c r="B39" s="41">
         <v>864.92</v>
       </c>
-      <c r="C39" s="46">
+      <c r="C39" s="41">
         <v>873.25</v>
       </c>
-      <c r="D39" s="46">
+      <c r="D39" s="41">
         <v>877.04</v>
       </c>
-      <c r="E39" s="46">
+      <c r="E39" s="41">
         <v>878.15</v>
       </c>
-      <c r="F39" s="46">
+      <c r="F39" s="41">
         <v>875.13</v>
       </c>
-      <c r="G39" s="46">
+      <c r="G39" s="41">
         <v>877.21</v>
       </c>
-      <c r="H39" s="46">
+      <c r="H39" s="41">
         <v>894.2</v>
       </c>
-      <c r="I39" s="46">
+      <c r="I39" s="41">
         <v>919.08</v>
       </c>
-      <c r="J39" s="46">
+      <c r="J39" s="41">
         <v>895.49</v>
       </c>
-      <c r="K39" s="46">
+      <c r="K39" s="41">
         <v>907.3</v>
       </c>
-      <c r="L39" s="46">
+      <c r="L39" s="41">
         <v>901.56</v>
       </c>
-      <c r="M39" s="46">
+      <c r="M39" s="41">
         <v>881.03</v>
       </c>
-      <c r="N39" s="46">
+      <c r="N39" s="41">
         <v>895.13</v>
       </c>
-      <c r="O39" s="46">
+      <c r="O39" s="41">
         <v>875.69</v>
       </c>
-      <c r="P39" s="46">
+      <c r="P39" s="41">
         <v>864.74</v>
       </c>
-      <c r="Q39" s="46">
+      <c r="Q39" s="41">
         <v>885.1</v>
       </c>
-      <c r="R39" s="46">
+      <c r="R39" s="41">
         <v>907.9</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="47" t="s">
+      <c r="A40" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="46">
+      <c r="B40" s="41">
         <v>760.84</v>
       </c>
-      <c r="C40" s="46">
+      <c r="C40" s="41">
         <v>771.68</v>
       </c>
-      <c r="D40" s="46">
+      <c r="D40" s="41">
         <v>777.58</v>
       </c>
-      <c r="E40" s="46">
+      <c r="E40" s="41">
         <v>767.38</v>
       </c>
-      <c r="F40" s="46">
+      <c r="F40" s="41">
         <v>766.57</v>
       </c>
-      <c r="G40" s="46">
+      <c r="G40" s="41">
         <v>767.29</v>
       </c>
-      <c r="H40" s="46">
+      <c r="H40" s="41">
         <v>767.59</v>
       </c>
-      <c r="I40" s="46">
+      <c r="I40" s="41">
         <v>788.88</v>
       </c>
-      <c r="J40" s="46">
+      <c r="J40" s="41">
         <v>780.89</v>
       </c>
-      <c r="K40" s="46">
+      <c r="K40" s="41">
         <v>782.94</v>
       </c>
-      <c r="L40" s="46">
+      <c r="L40" s="41">
         <v>795.11</v>
       </c>
-      <c r="M40" s="46">
+      <c r="M40" s="41">
         <v>788.79</v>
       </c>
-      <c r="N40" s="46">
+      <c r="N40" s="41">
         <v>786.08</v>
       </c>
-      <c r="O40" s="46">
+      <c r="O40" s="41">
         <v>785.4</v>
       </c>
-      <c r="P40" s="46">
+      <c r="P40" s="41">
         <v>787.03</v>
       </c>
-      <c r="Q40" s="46">
+      <c r="Q40" s="41">
         <v>799.6</v>
       </c>
-      <c r="R40" s="46">
+      <c r="R40" s="41">
         <v>807.71</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="47" t="s">
+      <c r="A41" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="46">
+      <c r="B41" s="41">
         <v>755.32</v>
       </c>
-      <c r="C41" s="46">
+      <c r="C41" s="41">
         <v>767.55</v>
       </c>
-      <c r="D41" s="46">
+      <c r="D41" s="41">
         <v>768.34</v>
       </c>
-      <c r="E41" s="46">
+      <c r="E41" s="41">
         <v>748.89</v>
       </c>
-      <c r="F41" s="46">
+      <c r="F41" s="41">
         <v>744.88</v>
       </c>
-      <c r="G41" s="46">
+      <c r="G41" s="41">
         <v>752.03</v>
       </c>
-      <c r="H41" s="46">
+      <c r="H41" s="41">
         <v>744.76</v>
       </c>
-      <c r="I41" s="46">
+      <c r="I41" s="41">
         <v>767.71</v>
       </c>
-      <c r="J41" s="46">
+      <c r="J41" s="41">
         <v>748.43</v>
       </c>
-      <c r="K41" s="46">
+      <c r="K41" s="41">
         <v>756.46</v>
       </c>
-      <c r="L41" s="46">
+      <c r="L41" s="41">
         <v>771.5</v>
       </c>
-      <c r="M41" s="46">
+      <c r="M41" s="41">
         <v>758.1</v>
       </c>
-      <c r="N41" s="46">
+      <c r="N41" s="41">
         <v>756.63</v>
       </c>
-      <c r="O41" s="46">
+      <c r="O41" s="41">
         <v>760.03</v>
       </c>
-      <c r="P41" s="46">
+      <c r="P41" s="41">
         <v>754.86</v>
       </c>
-      <c r="Q41" s="46">
+      <c r="Q41" s="41">
         <v>759.93</v>
       </c>
-      <c r="R41" s="46">
+      <c r="R41" s="41">
         <v>773.96</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="47" t="s">
+      <c r="A42" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="B42" s="46">
+      <c r="B42" s="41">
         <v>778.22</v>
       </c>
-      <c r="C42" s="46">
+      <c r="C42" s="41">
         <v>807.56</v>
       </c>
-      <c r="D42" s="46">
+      <c r="D42" s="41">
         <v>804.27</v>
       </c>
-      <c r="E42" s="46">
+      <c r="E42" s="41">
         <v>783.55</v>
       </c>
-      <c r="F42" s="46">
+      <c r="F42" s="41">
         <v>787.23</v>
       </c>
-      <c r="G42" s="46">
+      <c r="G42" s="41">
         <v>791.52</v>
       </c>
-      <c r="H42" s="46">
+      <c r="H42" s="41">
         <v>792.88</v>
       </c>
-      <c r="I42" s="46">
+      <c r="I42" s="41">
         <v>820.05</v>
       </c>
-      <c r="J42" s="46">
+      <c r="J42" s="41">
         <v>796.67</v>
       </c>
-      <c r="K42" s="46">
+      <c r="K42" s="41">
         <v>801.39</v>
       </c>
-      <c r="L42" s="46">
+      <c r="L42" s="41">
         <v>828.35</v>
       </c>
-      <c r="M42" s="46">
+      <c r="M42" s="41">
         <v>808.02</v>
       </c>
-      <c r="N42" s="46">
+      <c r="N42" s="41">
         <v>811.29</v>
       </c>
-      <c r="O42" s="46">
+      <c r="O42" s="41">
         <v>820.6</v>
       </c>
-      <c r="P42" s="46">
+      <c r="P42" s="41">
         <v>811.71</v>
       </c>
-      <c r="Q42" s="46">
+      <c r="Q42" s="41">
         <v>834.62</v>
       </c>
-      <c r="R42" s="46">
+      <c r="R42" s="41">
         <v>857.82</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="47" t="s">
+      <c r="A43" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="46">
+      <c r="B43" s="41">
         <v>799.6</v>
       </c>
-      <c r="C43" s="46">
+      <c r="C43" s="41">
         <v>811.83</v>
       </c>
-      <c r="D43" s="46">
+      <c r="D43" s="41">
         <v>818.64</v>
       </c>
-      <c r="E43" s="46">
+      <c r="E43" s="41">
         <v>814.58</v>
       </c>
-      <c r="F43" s="46">
+      <c r="F43" s="41">
         <v>817.36</v>
       </c>
-      <c r="G43" s="46">
+      <c r="G43" s="41">
         <v>818.38</v>
       </c>
-      <c r="H43" s="46">
+      <c r="H43" s="41">
         <v>819.74</v>
       </c>
-      <c r="I43" s="46">
+      <c r="I43" s="41">
         <v>831.78</v>
       </c>
-      <c r="J43" s="46">
+      <c r="J43" s="41">
         <v>823.03</v>
       </c>
-      <c r="K43" s="46">
+      <c r="K43" s="41">
         <v>828.97</v>
       </c>
-      <c r="L43" s="46">
+      <c r="L43" s="41">
         <v>841.72</v>
       </c>
-      <c r="M43" s="46">
+      <c r="M43" s="41">
         <v>833.45</v>
       </c>
-      <c r="N43" s="46">
+      <c r="N43" s="41">
         <v>831.04</v>
       </c>
-      <c r="O43" s="46">
+      <c r="O43" s="41">
         <v>825.55</v>
       </c>
-      <c r="P43" s="46">
+      <c r="P43" s="41">
         <v>822.19</v>
       </c>
-      <c r="Q43" s="46">
+      <c r="Q43" s="41">
         <v>825.31</v>
       </c>
-      <c r="R43" s="46">
+      <c r="R43" s="41">
         <v>832.32</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="47" t="s">
+      <c r="A44" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="46">
+      <c r="B44" s="41">
         <v>827.87</v>
       </c>
-      <c r="C44" s="46">
+      <c r="C44" s="41">
         <v>831.68</v>
       </c>
-      <c r="D44" s="46">
+      <c r="D44" s="41">
         <v>838.29</v>
       </c>
-      <c r="E44" s="46">
+      <c r="E44" s="41">
         <v>827.44</v>
       </c>
-      <c r="F44" s="46">
+      <c r="F44" s="41">
         <v>828.16</v>
       </c>
-      <c r="G44" s="46">
+      <c r="G44" s="41">
         <v>810.77</v>
       </c>
-      <c r="H44" s="46">
+      <c r="H44" s="41">
         <v>815.14</v>
       </c>
-      <c r="I44" s="46">
+      <c r="I44" s="41">
         <v>814.39</v>
       </c>
-      <c r="J44" s="46">
+      <c r="J44" s="41">
         <v>821.84</v>
       </c>
-      <c r="K44" s="46">
+      <c r="K44" s="41">
         <v>827.11</v>
       </c>
-      <c r="L44" s="46">
+      <c r="L44" s="41">
         <v>839.42</v>
       </c>
-      <c r="M44" s="46">
+      <c r="M44" s="41">
         <v>825.46</v>
       </c>
-      <c r="N44" s="46">
+      <c r="N44" s="41">
         <v>844.34</v>
       </c>
-      <c r="O44" s="46">
+      <c r="O44" s="41">
         <v>843.7</v>
       </c>
-      <c r="P44" s="46">
+      <c r="P44" s="41">
         <v>833.95</v>
       </c>
-      <c r="Q44" s="46">
+      <c r="Q44" s="41">
         <v>852.16</v>
       </c>
-      <c r="R44" s="46">
+      <c r="R44" s="41">
         <v>860.66</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="47" t="s">
+      <c r="A45" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="46">
+      <c r="B45" s="41">
         <v>744.31</v>
       </c>
-      <c r="C45" s="46">
+      <c r="C45" s="41">
         <v>739.06</v>
       </c>
-      <c r="D45" s="46">
+      <c r="D45" s="41">
         <v>754.73</v>
       </c>
-      <c r="E45" s="46">
+      <c r="E45" s="41">
         <v>734.21</v>
       </c>
-      <c r="F45" s="46">
+      <c r="F45" s="41">
         <v>729.74</v>
       </c>
-      <c r="G45" s="46">
+      <c r="G45" s="41">
         <v>730.45</v>
       </c>
-      <c r="H45" s="46">
+      <c r="H45" s="41">
         <v>737.72</v>
       </c>
-      <c r="I45" s="46">
+      <c r="I45" s="41">
         <v>749.41</v>
       </c>
-      <c r="J45" s="46">
+      <c r="J45" s="41">
         <v>737.45</v>
       </c>
-      <c r="K45" s="46">
+      <c r="K45" s="41">
         <v>744.94</v>
       </c>
-      <c r="L45" s="46">
+      <c r="L45" s="41">
         <v>758.64</v>
       </c>
-      <c r="M45" s="46">
+      <c r="M45" s="41">
         <v>749.78</v>
       </c>
-      <c r="N45" s="46">
+      <c r="N45" s="41">
         <v>752.33</v>
       </c>
-      <c r="O45" s="46">
+      <c r="O45" s="41">
         <v>749.58</v>
       </c>
-      <c r="P45" s="46">
+      <c r="P45" s="41">
         <v>767.08</v>
       </c>
-      <c r="Q45" s="46">
+      <c r="Q45" s="41">
         <v>758.78</v>
       </c>
-      <c r="R45" s="46">
+      <c r="R45" s="41">
         <v>762.91</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="47" t="s">
+      <c r="A46" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="46">
+      <c r="B46" s="41">
         <v>701.49</v>
       </c>
-      <c r="C46" s="46">
+      <c r="C46" s="41">
         <v>715.81</v>
       </c>
-      <c r="D46" s="46">
+      <c r="D46" s="41">
         <v>709.92</v>
       </c>
-      <c r="E46" s="46">
+      <c r="E46" s="41">
         <v>704.67</v>
       </c>
-      <c r="F46" s="46">
+      <c r="F46" s="41">
         <v>707.36</v>
       </c>
-      <c r="G46" s="46">
+      <c r="G46" s="41">
         <v>708.62</v>
       </c>
-      <c r="H46" s="46">
+      <c r="H46" s="41">
         <v>709.32</v>
       </c>
-      <c r="I46" s="46">
+      <c r="I46" s="41">
         <v>721.41</v>
       </c>
-      <c r="J46" s="46">
+      <c r="J46" s="41">
         <v>715.36</v>
       </c>
-      <c r="K46" s="46">
+      <c r="K46" s="41">
         <v>727.35</v>
       </c>
-      <c r="L46" s="46">
+      <c r="L46" s="41">
         <v>730.31</v>
       </c>
-      <c r="M46" s="46">
+      <c r="M46" s="41">
         <v>716.57</v>
       </c>
-      <c r="N46" s="46">
+      <c r="N46" s="41">
         <v>717.36</v>
       </c>
-      <c r="O46" s="46">
+      <c r="O46" s="41">
         <v>707.41</v>
       </c>
-      <c r="P46" s="46">
+      <c r="P46" s="41">
         <v>711.98</v>
       </c>
-      <c r="Q46" s="46">
+      <c r="Q46" s="41">
         <v>725.8</v>
       </c>
-      <c r="R46" s="46">
+      <c r="R46" s="41">
         <v>737.27</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="47" t="s">
+      <c r="A47" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="46">
+      <c r="B47" s="41">
         <v>718.98</v>
       </c>
-      <c r="C47" s="46">
+      <c r="C47" s="41">
         <v>727.66</v>
       </c>
-      <c r="D47" s="46">
+      <c r="D47" s="41">
         <v>732.16</v>
       </c>
-      <c r="E47" s="46">
+      <c r="E47" s="41">
         <v>724.15</v>
       </c>
-      <c r="F47" s="46">
+      <c r="F47" s="41">
         <v>724.11</v>
       </c>
-      <c r="G47" s="46">
+      <c r="G47" s="41">
         <v>729.65</v>
       </c>
-      <c r="H47" s="46">
+      <c r="H47" s="41">
         <v>734.98</v>
       </c>
-      <c r="I47" s="46">
+      <c r="I47" s="41">
         <v>748.94</v>
       </c>
-      <c r="J47" s="46">
+      <c r="J47" s="41">
         <v>734.65</v>
       </c>
-      <c r="K47" s="46">
+      <c r="K47" s="41">
         <v>742.02</v>
       </c>
-      <c r="L47" s="46">
+      <c r="L47" s="41">
         <v>753.67</v>
       </c>
-      <c r="M47" s="46">
+      <c r="M47" s="41">
         <v>752.58</v>
       </c>
-      <c r="N47" s="46">
+      <c r="N47" s="41">
         <v>755.74</v>
       </c>
-      <c r="O47" s="46">
+      <c r="O47" s="41">
         <v>749.03</v>
       </c>
-      <c r="P47" s="46">
+      <c r="P47" s="41">
         <v>754.01</v>
       </c>
-      <c r="Q47" s="46">
+      <c r="Q47" s="41">
         <v>756.85</v>
       </c>
-      <c r="R47" s="46">
+      <c r="R47" s="41">
         <v>777.22</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="47" t="s">
+      <c r="A48" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="46">
+      <c r="B48" s="41">
         <v>883.01</v>
       </c>
-      <c r="C48" s="46">
+      <c r="C48" s="41">
         <v>907.49</v>
       </c>
-      <c r="D48" s="46">
+      <c r="D48" s="41">
         <v>896.44</v>
       </c>
-      <c r="E48" s="46">
+      <c r="E48" s="41">
         <v>878.04</v>
       </c>
-      <c r="F48" s="46">
+      <c r="F48" s="41">
         <v>874.52</v>
       </c>
-      <c r="G48" s="46">
+      <c r="G48" s="41">
         <v>877.49</v>
       </c>
-      <c r="H48" s="46">
+      <c r="H48" s="41">
         <v>876.4</v>
       </c>
-      <c r="I48" s="46">
+      <c r="I48" s="41">
         <v>899.99</v>
       </c>
-      <c r="J48" s="46">
+      <c r="J48" s="41">
         <v>865.18</v>
       </c>
-      <c r="K48" s="46">
+      <c r="K48" s="41">
         <v>876.79</v>
       </c>
-      <c r="L48" s="46">
+      <c r="L48" s="41">
         <v>898.35</v>
       </c>
-      <c r="M48" s="46">
+      <c r="M48" s="41">
         <v>876.68</v>
       </c>
-      <c r="N48" s="46">
+      <c r="N48" s="41">
         <v>877.15</v>
       </c>
-      <c r="O48" s="46">
+      <c r="O48" s="41">
         <v>871.79</v>
       </c>
-      <c r="P48" s="46">
+      <c r="P48" s="41">
         <v>862.75</v>
       </c>
-      <c r="Q48" s="46">
+      <c r="Q48" s="41">
         <v>867.27</v>
       </c>
-      <c r="R48" s="46">
+      <c r="R48" s="41">
         <v>891.61</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="47" t="s">
+      <c r="A49" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="46">
+      <c r="B49" s="41">
         <v>825.6</v>
       </c>
-      <c r="C49" s="46">
+      <c r="C49" s="41">
         <v>850.02</v>
       </c>
-      <c r="D49" s="46">
+      <c r="D49" s="41">
         <v>846.96</v>
       </c>
-      <c r="E49" s="46">
+      <c r="E49" s="41">
         <v>825.59</v>
       </c>
-      <c r="F49" s="46">
+      <c r="F49" s="41">
         <v>829.33</v>
       </c>
-      <c r="G49" s="46">
+      <c r="G49" s="41">
         <v>830.97</v>
       </c>
-      <c r="H49" s="46">
+      <c r="H49" s="41">
         <v>836.59</v>
       </c>
-      <c r="I49" s="46">
+      <c r="I49" s="41">
         <v>858.45</v>
       </c>
-      <c r="J49" s="46">
+      <c r="J49" s="41">
         <v>837.98</v>
       </c>
-      <c r="K49" s="46">
+      <c r="K49" s="41">
         <v>841.46</v>
       </c>
-      <c r="L49" s="46">
+      <c r="L49" s="41">
         <v>870.06</v>
       </c>
-      <c r="M49" s="46">
+      <c r="M49" s="41">
         <v>829.72</v>
       </c>
-      <c r="N49" s="46">
+      <c r="N49" s="41">
         <v>831.3</v>
       </c>
-      <c r="O49" s="46">
+      <c r="O49" s="41">
         <v>829.01</v>
       </c>
-      <c r="P49" s="46">
+      <c r="P49" s="41">
         <v>826.63</v>
       </c>
-      <c r="Q49" s="46">
+      <c r="Q49" s="41">
         <v>840.39</v>
       </c>
-      <c r="R49" s="46">
+      <c r="R49" s="41">
         <v>862.7</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="47" t="s">
+      <c r="A50" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="B50" s="46">
+      <c r="B50" s="41">
         <v>775.45</v>
       </c>
-      <c r="C50" s="46">
+      <c r="C50" s="41">
         <v>781.11</v>
       </c>
-      <c r="D50" s="46">
+      <c r="D50" s="41">
         <v>788.04</v>
       </c>
-      <c r="E50" s="46">
+      <c r="E50" s="41">
         <v>801.45</v>
       </c>
-      <c r="F50" s="46">
+      <c r="F50" s="41">
         <v>808.36</v>
       </c>
-      <c r="G50" s="46">
+      <c r="G50" s="41">
         <v>805.06</v>
       </c>
-      <c r="H50" s="46">
+      <c r="H50" s="41">
         <v>808.83</v>
       </c>
-      <c r="I50" s="46">
+      <c r="I50" s="41">
         <v>810.86</v>
       </c>
-      <c r="J50" s="46">
+      <c r="J50" s="41">
         <v>808.02</v>
       </c>
-      <c r="K50" s="46">
+      <c r="K50" s="41">
         <v>810.43</v>
       </c>
-      <c r="L50" s="46">
+      <c r="L50" s="41">
         <v>817.85</v>
       </c>
-      <c r="M50" s="46">
+      <c r="M50" s="41">
         <v>814.11</v>
       </c>
-      <c r="N50" s="46">
+      <c r="N50" s="41">
         <v>806.85</v>
       </c>
-      <c r="O50" s="46">
+      <c r="O50" s="41">
         <v>797.17</v>
       </c>
-      <c r="P50" s="46">
+      <c r="P50" s="41">
         <v>794.21</v>
       </c>
-      <c r="Q50" s="46">
+      <c r="Q50" s="41">
         <v>809.52</v>
       </c>
-      <c r="R50" s="46">
+      <c r="R50" s="41">
         <v>817.23</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="47" t="s">
+      <c r="A51" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="B51" s="46">
+      <c r="B51" s="41">
         <v>889.76</v>
       </c>
-      <c r="C51" s="46">
+      <c r="C51" s="41">
         <v>923.13</v>
       </c>
-      <c r="D51" s="46">
+      <c r="D51" s="41">
         <v>925.92</v>
       </c>
-      <c r="E51" s="46">
+      <c r="E51" s="41">
         <v>919.21</v>
       </c>
-      <c r="F51" s="46">
+      <c r="F51" s="41">
         <v>915.68</v>
       </c>
-      <c r="G51" s="46">
+      <c r="G51" s="41">
         <v>905.23</v>
       </c>
-      <c r="H51" s="46">
+      <c r="H51" s="41">
         <v>905.93</v>
       </c>
-      <c r="I51" s="46">
+      <c r="I51" s="41">
         <v>937.7</v>
       </c>
-      <c r="J51" s="46">
+      <c r="J51" s="41">
         <v>919.1</v>
       </c>
-      <c r="K51" s="46">
+      <c r="K51" s="41">
         <v>919.96</v>
       </c>
-      <c r="L51" s="46">
+      <c r="L51" s="41">
         <v>939.87</v>
       </c>
-      <c r="M51" s="46">
+      <c r="M51" s="41">
         <v>919.45</v>
       </c>
-      <c r="N51" s="46">
+      <c r="N51" s="41">
         <v>924.76</v>
       </c>
-      <c r="O51" s="46">
+      <c r="O51" s="41">
         <v>924.06</v>
       </c>
-      <c r="P51" s="46">
+      <c r="P51" s="41">
         <v>929.51</v>
       </c>
-      <c r="Q51" s="46">
+      <c r="Q51" s="41">
         <v>938.46</v>
       </c>
-      <c r="R51" s="46">
+      <c r="R51" s="41">
         <v>954.45</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="47" t="s">
+      <c r="A52" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="B52" s="46">
+      <c r="B52" s="41">
         <v>990.86</v>
       </c>
-      <c r="C52" s="46">
+      <c r="C52" s="41">
         <v>1024.69</v>
       </c>
-      <c r="D52" s="46">
+      <c r="D52" s="41">
         <v>1024.3399999999999</v>
       </c>
-      <c r="E52" s="46">
+      <c r="E52" s="41">
         <v>995.98</v>
       </c>
-      <c r="F52" s="46">
+      <c r="F52" s="41">
         <v>998.92</v>
       </c>
-      <c r="G52" s="46">
+      <c r="G52" s="41">
         <v>997.27</v>
       </c>
-      <c r="H52" s="46">
+      <c r="H52" s="41">
         <v>998.82</v>
       </c>
-      <c r="I52" s="46">
+      <c r="I52" s="41">
         <v>1039.23</v>
       </c>
-      <c r="J52" s="46">
+      <c r="J52" s="41">
         <v>1021.8</v>
       </c>
-      <c r="K52" s="46">
+      <c r="K52" s="41">
         <v>1029</v>
       </c>
-      <c r="L52" s="46">
+      <c r="L52" s="41">
         <v>1066.3399999999999</v>
       </c>
-      <c r="M52" s="46">
+      <c r="M52" s="41">
         <v>1026.1500000000001</v>
       </c>
-      <c r="N52" s="46">
+      <c r="N52" s="41">
         <v>1032.58</v>
       </c>
-      <c r="O52" s="46">
+      <c r="O52" s="41">
         <v>1036.5999999999999</v>
       </c>
-      <c r="P52" s="46">
+      <c r="P52" s="41">
         <v>1032.8900000000001</v>
       </c>
-      <c r="Q52" s="46">
+      <c r="Q52" s="41">
         <v>1040.26</v>
       </c>
-      <c r="R52" s="46">
+      <c r="R52" s="41">
         <v>1072.06</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A53" s="47" t="s">
+      <c r="A53" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="B53" s="46">
+      <c r="B53" s="41">
         <v>714.81</v>
       </c>
-      <c r="C53" s="46">
+      <c r="C53" s="41">
         <v>711.7</v>
       </c>
-      <c r="D53" s="46">
+      <c r="D53" s="41">
         <v>715.19</v>
       </c>
-      <c r="E53" s="46">
+      <c r="E53" s="41">
         <v>712.41</v>
       </c>
-      <c r="F53" s="46">
+      <c r="F53" s="41">
         <v>718.24</v>
       </c>
-      <c r="G53" s="46">
+      <c r="G53" s="41">
         <v>714.44</v>
       </c>
-      <c r="H53" s="46">
+      <c r="H53" s="41">
         <v>720.34</v>
       </c>
-      <c r="I53" s="46">
+      <c r="I53" s="41">
         <v>729.03</v>
       </c>
-      <c r="J53" s="46">
+      <c r="J53" s="41">
         <v>720.37</v>
       </c>
-      <c r="K53" s="46">
+      <c r="K53" s="41">
         <v>725.22</v>
       </c>
-      <c r="L53" s="46">
+      <c r="L53" s="41">
         <v>731.5</v>
       </c>
-      <c r="M53" s="46">
+      <c r="M53" s="41">
         <v>718.99</v>
       </c>
-      <c r="N53" s="46">
+      <c r="N53" s="41">
         <v>720.94</v>
       </c>
-      <c r="O53" s="46">
+      <c r="O53" s="41">
         <v>724.07</v>
       </c>
-      <c r="P53" s="46">
+      <c r="P53" s="41">
         <v>727.67</v>
       </c>
-      <c r="Q53" s="46">
+      <c r="Q53" s="41">
         <v>731.84</v>
       </c>
-      <c r="R53" s="46">
+      <c r="R53" s="41">
         <v>725.87</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A54" s="47" t="s">
+      <c r="A54" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="B54" s="46">
+      <c r="B54" s="41">
         <v>787.24</v>
       </c>
-      <c r="C54" s="46">
+      <c r="C54" s="41">
         <v>795.32</v>
       </c>
-      <c r="D54" s="46">
+      <c r="D54" s="41">
         <v>795.65</v>
       </c>
-      <c r="E54" s="46">
+      <c r="E54" s="41">
         <v>785.57</v>
       </c>
-      <c r="F54" s="46">
+      <c r="F54" s="41">
         <v>786.24</v>
       </c>
-      <c r="G54" s="46">
+      <c r="G54" s="41">
         <v>778.13</v>
       </c>
-      <c r="H54" s="46">
+      <c r="H54" s="41">
         <v>781.12</v>
       </c>
-      <c r="I54" s="46">
+      <c r="I54" s="41">
         <v>792.83</v>
       </c>
-      <c r="J54" s="46">
+      <c r="J54" s="41">
         <v>785.57</v>
       </c>
-      <c r="K54" s="46">
+      <c r="K54" s="41">
         <v>795.66</v>
       </c>
-      <c r="L54" s="46">
+      <c r="L54" s="41">
         <v>805.46</v>
       </c>
-      <c r="M54" s="46">
+      <c r="M54" s="41">
         <v>800.35</v>
       </c>
-      <c r="N54" s="46">
+      <c r="N54" s="41">
         <v>793.74</v>
       </c>
-      <c r="O54" s="46">
+      <c r="O54" s="41">
         <v>794.14</v>
       </c>
-      <c r="P54" s="46">
+      <c r="P54" s="41">
         <v>794.87</v>
       </c>
-      <c r="Q54" s="46">
+      <c r="Q54" s="41">
         <v>801.6</v>
       </c>
-      <c r="R54" s="46">
+      <c r="R54" s="41">
         <v>809.42</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A55" s="47" t="s">
+      <c r="A55" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="B55" s="46">
+      <c r="B55" s="41">
         <v>811.19</v>
       </c>
-      <c r="C55" s="46">
+      <c r="C55" s="41">
         <v>835.75</v>
       </c>
-      <c r="D55" s="46">
+      <c r="D55" s="41">
         <v>826.24</v>
       </c>
-      <c r="E55" s="46">
+      <c r="E55" s="41">
         <v>814.45</v>
       </c>
-      <c r="F55" s="46">
+      <c r="F55" s="41">
         <v>815.08</v>
       </c>
-      <c r="G55" s="46">
+      <c r="G55" s="41">
         <v>810.87</v>
       </c>
-      <c r="H55" s="46">
+      <c r="H55" s="41">
         <v>809.9</v>
       </c>
-      <c r="I55" s="46">
+      <c r="I55" s="41">
         <v>837.93</v>
       </c>
-      <c r="J55" s="46">
+      <c r="J55" s="41">
         <v>804.8</v>
       </c>
-      <c r="K55" s="46">
+      <c r="K55" s="41">
         <v>806.96</v>
       </c>
-      <c r="L55" s="46">
+      <c r="L55" s="41">
         <v>816.76</v>
       </c>
-      <c r="M55" s="46">
+      <c r="M55" s="41">
         <v>778.22</v>
       </c>
-      <c r="N55" s="46">
+      <c r="N55" s="41">
         <v>773.85</v>
       </c>
-      <c r="O55" s="46">
+      <c r="O55" s="41">
         <v>776.22</v>
       </c>
-      <c r="P55" s="46">
+      <c r="P55" s="41">
         <v>778.55</v>
       </c>
-      <c r="Q55" s="46">
+      <c r="Q55" s="41">
         <v>755.96</v>
       </c>
-      <c r="R55" s="46">
+      <c r="R55" s="41">
         <v>774.56</v>
       </c>
     </row>
@@ -10142,7 +10142,7 @@
   <dimension ref="A1:L56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D9" sqref="D9:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10169,12 +10169,12 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="52" t="s">
         <v>169</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">

--- a/static/data/source/current_earnings.xlsx
+++ b/static/data/source/current_earnings.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Earnings Table" sheetId="2" r:id="rId1"/>
     <sheet name="Earnings_Comparison" sheetId="1" r:id="rId2"/>
-    <sheet name="BLS Data Series_May" sheetId="16" r:id="rId3"/>
+    <sheet name="June_BLS Data Series" sheetId="17" r:id="rId3"/>
     <sheet name="SCRATCH" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
@@ -25,7 +25,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="R5" authorId="0">
+    <comment ref="S5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -40,7 +40,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R6" authorId="0">
+    <comment ref="S6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -55,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R7" authorId="0">
+    <comment ref="S7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -70,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R8" authorId="0">
+    <comment ref="S8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -85,7 +85,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R9" authorId="0">
+    <comment ref="S9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -100,7 +100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R10" authorId="0">
+    <comment ref="S10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -115,7 +115,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R11" authorId="0">
+    <comment ref="S11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -130,7 +130,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R12" authorId="0">
+    <comment ref="S12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -145,7 +145,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R13" authorId="0">
+    <comment ref="S13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -160,7 +160,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R14" authorId="0">
+    <comment ref="S14" authorId="0">
       <text>
         <r>
           <rPr>
@@ -175,7 +175,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R15" authorId="0">
+    <comment ref="S15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -190,7 +190,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R16" authorId="0">
+    <comment ref="S16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -205,7 +205,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R17" authorId="0">
+    <comment ref="S17" authorId="0">
       <text>
         <r>
           <rPr>
@@ -220,7 +220,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R18" authorId="0">
+    <comment ref="S18" authorId="0">
       <text>
         <r>
           <rPr>
@@ -235,7 +235,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R19" authorId="0">
+    <comment ref="S19" authorId="0">
       <text>
         <r>
           <rPr>
@@ -250,7 +250,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R20" authorId="0">
+    <comment ref="S20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -265,7 +265,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R21" authorId="0">
+    <comment ref="S21" authorId="0">
       <text>
         <r>
           <rPr>
@@ -280,7 +280,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R22" authorId="0">
+    <comment ref="S22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -295,7 +295,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R23" authorId="0">
+    <comment ref="S23" authorId="0">
       <text>
         <r>
           <rPr>
@@ -310,7 +310,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R24" authorId="0">
+    <comment ref="S24" authorId="0">
       <text>
         <r>
           <rPr>
@@ -325,7 +325,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R25" authorId="0">
+    <comment ref="S25" authorId="0">
       <text>
         <r>
           <rPr>
@@ -340,7 +340,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R26" authorId="0">
+    <comment ref="S26" authorId="0">
       <text>
         <r>
           <rPr>
@@ -355,7 +355,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R27" authorId="0">
+    <comment ref="S27" authorId="0">
       <text>
         <r>
           <rPr>
@@ -370,7 +370,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R28" authorId="0">
+    <comment ref="S28" authorId="0">
       <text>
         <r>
           <rPr>
@@ -385,7 +385,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R29" authorId="0">
+    <comment ref="S29" authorId="0">
       <text>
         <r>
           <rPr>
@@ -400,7 +400,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R30" authorId="0">
+    <comment ref="S30" authorId="0">
       <text>
         <r>
           <rPr>
@@ -415,7 +415,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R31" authorId="0">
+    <comment ref="S31" authorId="0">
       <text>
         <r>
           <rPr>
@@ -430,7 +430,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R32" authorId="0">
+    <comment ref="S32" authorId="0">
       <text>
         <r>
           <rPr>
@@ -445,7 +445,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R33" authorId="0">
+    <comment ref="S33" authorId="0">
       <text>
         <r>
           <rPr>
@@ -460,7 +460,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R34" authorId="0">
+    <comment ref="S34" authorId="0">
       <text>
         <r>
           <rPr>
@@ -475,7 +475,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R35" authorId="0">
+    <comment ref="S35" authorId="0">
       <text>
         <r>
           <rPr>
@@ -490,7 +490,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R36" authorId="0">
+    <comment ref="S36" authorId="0">
       <text>
         <r>
           <rPr>
@@ -505,7 +505,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R37" authorId="0">
+    <comment ref="S37" authorId="0">
       <text>
         <r>
           <rPr>
@@ -520,7 +520,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R38" authorId="0">
+    <comment ref="S38" authorId="0">
       <text>
         <r>
           <rPr>
@@ -535,7 +535,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R39" authorId="0">
+    <comment ref="S39" authorId="0">
       <text>
         <r>
           <rPr>
@@ -550,7 +550,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R40" authorId="0">
+    <comment ref="S40" authorId="0">
       <text>
         <r>
           <rPr>
@@ -565,7 +565,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R41" authorId="0">
+    <comment ref="S41" authorId="0">
       <text>
         <r>
           <rPr>
@@ -580,7 +580,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R42" authorId="0">
+    <comment ref="S42" authorId="0">
       <text>
         <r>
           <rPr>
@@ -595,7 +595,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R43" authorId="0">
+    <comment ref="S43" authorId="0">
       <text>
         <r>
           <rPr>
@@ -610,7 +610,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R44" authorId="0">
+    <comment ref="S44" authorId="0">
       <text>
         <r>
           <rPr>
@@ -625,7 +625,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R45" authorId="0">
+    <comment ref="S45" authorId="0">
       <text>
         <r>
           <rPr>
@@ -640,7 +640,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R46" authorId="0">
+    <comment ref="S46" authorId="0">
       <text>
         <r>
           <rPr>
@@ -655,7 +655,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R47" authorId="0">
+    <comment ref="S47" authorId="0">
       <text>
         <r>
           <rPr>
@@ -670,7 +670,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R48" authorId="0">
+    <comment ref="S48" authorId="0">
       <text>
         <r>
           <rPr>
@@ -685,7 +685,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R49" authorId="0">
+    <comment ref="S49" authorId="0">
       <text>
         <r>
           <rPr>
@@ -700,7 +700,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R50" authorId="0">
+    <comment ref="S50" authorId="0">
       <text>
         <r>
           <rPr>
@@ -715,7 +715,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R51" authorId="0">
+    <comment ref="S51" authorId="0">
       <text>
         <r>
           <rPr>
@@ -730,7 +730,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R52" authorId="0">
+    <comment ref="S52" authorId="0">
       <text>
         <r>
           <rPr>
@@ -745,7 +745,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R53" authorId="0">
+    <comment ref="S53" authorId="0">
       <text>
         <r>
           <rPr>
@@ -760,7 +760,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R54" authorId="0">
+    <comment ref="S54" authorId="0">
       <text>
         <r>
           <rPr>
@@ -775,7 +775,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R55" authorId="0">
+    <comment ref="S55" authorId="0">
       <text>
         <r>
           <rPr>
@@ -795,7 +795,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="198">
   <si>
     <t>State and Area Employment, Hours, and Earnings</t>
   </si>
@@ -1403,10 +1403,18 @@
     <t>2015 to 2016</t>
   </si>
   <si>
-    <t>May 2015 adj for inflation</t>
-  </si>
-  <si>
-    <t>Average Weekly Wages May 2016</t>
+    <t>Average Weekly Wages June 2016</t>
+  </si>
+  <si>
+    <t>June
+2015</t>
+  </si>
+  <si>
+    <t>June
+2016</t>
+  </si>
+  <si>
+    <t>June 2015 adj for inflation</t>
   </si>
 </sst>
 </file>
@@ -1963,7 +1971,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="43">
+  <fills count="44">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2201,8 +2209,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEEF4FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -2408,6 +2422,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFAAAAAA"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFAAAAAA"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFAAAAAA"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFAAAAAA"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="480">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3146,8 +3175,6 @@
     </xf>
     <xf numFmtId="174" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="315"/>
     <xf numFmtId="164" fontId="80" fillId="2" borderId="0" xfId="315" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -3166,6 +3193,7 @@
     <xf numFmtId="0" fontId="81" fillId="2" borderId="0" xfId="315" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="315"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3179,6 +3207,9 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="315"/>
     <xf numFmtId="0" fontId="28" fillId="34" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="43" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="480">
@@ -4342,7 +4373,7 @@
   <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C18:C19"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4354,12 +4385,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
-        <v>195</v>
-      </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
+      <c r="A1" s="46" t="s">
+        <v>194</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
@@ -4384,11 +4415,11 @@
       </c>
       <c r="C3" s="31">
         <f>+Earnings_Comparison!E58</f>
-        <v>880.3</v>
+        <v>880.98</v>
       </c>
       <c r="D3" s="30">
         <f>+Earnings_Comparison!H58</f>
-        <v>1.1517585131814334</v>
+        <v>1.287641478753776</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -4401,11 +4432,11 @@
       </c>
       <c r="C4" s="31">
         <f>+Earnings_Comparison!E5</f>
-        <v>781.9</v>
+        <v>776.83</v>
       </c>
       <c r="D4" s="30">
         <f>+Earnings_Comparison!H5</f>
-        <v>5.7345917307350947</v>
+        <v>4.5079836412051044</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -4418,11 +4449,11 @@
       </c>
       <c r="C5" s="31">
         <f>+Earnings_Comparison!E6</f>
-        <v>975.8</v>
+        <v>966</v>
       </c>
       <c r="D5" s="30">
         <f>+Earnings_Comparison!H6</f>
-        <v>-8.4234755409262618E-2</v>
+        <v>-2.0552409665821503</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -4435,11 +4466,11 @@
       </c>
       <c r="C6" s="31">
         <f>+Earnings_Comparison!E7</f>
-        <v>828.8</v>
+        <v>819.41</v>
       </c>
       <c r="D6" s="30">
         <f>+Earnings_Comparison!H7</f>
-        <v>3.2719712108039367</v>
+        <v>1.5765390612777708</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -4452,11 +4483,11 @@
       </c>
       <c r="C7" s="31">
         <f>+Earnings_Comparison!E8</f>
-        <v>687.37</v>
+        <v>685.31</v>
       </c>
       <c r="D7" s="30">
         <f>+Earnings_Comparison!H8</f>
-        <v>2.0432751580678588</v>
+        <v>2.5446099928998711</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -4469,11 +4500,11 @@
       </c>
       <c r="C8" s="31">
         <f>+Earnings_Comparison!E9</f>
-        <v>1010.01</v>
+        <v>980.29</v>
       </c>
       <c r="D8" s="30">
         <f>+Earnings_Comparison!H9</f>
-        <v>4.1382299588185179</v>
+        <v>0.86460491605635514</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -4486,11 +4517,11 @@
       </c>
       <c r="C9" s="31">
         <f>+Earnings_Comparison!E10</f>
-        <v>927.84</v>
+        <v>904.51</v>
       </c>
       <c r="D9" s="30">
         <f>+Earnings_Comparison!H10</f>
-        <v>1.6176699744323786</v>
+        <v>-0.27130414149441062</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -4503,11 +4534,11 @@
       </c>
       <c r="C10" s="31">
         <f>+Earnings_Comparison!E11</f>
-        <v>1042.44</v>
+        <v>1005.65</v>
       </c>
       <c r="D10" s="30">
         <f>+Earnings_Comparison!H11</f>
-        <v>8.046922051890526</v>
+        <v>3.9959897908320441</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -4520,11 +4551,11 @@
       </c>
       <c r="C11" s="31">
         <f>+Earnings_Comparison!E12</f>
-        <v>809.42</v>
+        <v>797.97</v>
       </c>
       <c r="D11" s="30">
         <f>+Earnings_Comparison!H12</f>
-        <v>8.4486274009511817</v>
+        <v>8.375469989165051</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -4537,11 +4568,11 @@
       </c>
       <c r="C12" s="31">
         <f>+Earnings_Comparison!E13</f>
-        <v>1412.43</v>
+        <v>1344.03</v>
       </c>
       <c r="D12" s="30">
         <f>+Earnings_Comparison!H13</f>
-        <v>2.2628229665005328</v>
+        <v>-2.133079912407565</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -4554,11 +4585,11 @@
       </c>
       <c r="C13" s="31">
         <f>+Earnings_Comparison!E14</f>
-        <v>802.96</v>
+        <v>787.84</v>
       </c>
       <c r="D13" s="30">
         <f>+Earnings_Comparison!H14</f>
-        <v>3.246736235711345</v>
+        <v>2.0696075982407525</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -4571,11 +4602,11 @@
       </c>
       <c r="C14" s="31">
         <f>+Earnings_Comparison!E15</f>
-        <v>877.91</v>
+        <v>843.18</v>
       </c>
       <c r="D14" s="30">
         <f>+Earnings_Comparison!H15</f>
-        <v>5.3556693932221844</v>
+        <v>1.680228808161055</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -4588,11 +4619,11 @@
       </c>
       <c r="C15" s="31">
         <f>+Earnings_Comparison!E16</f>
-        <v>851.76</v>
+        <v>823</v>
       </c>
       <c r="D15" s="30">
         <f>+Earnings_Comparison!H16</f>
-        <v>3.8184596666933857</v>
+        <v>1.2923063444836735</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -4605,11 +4636,11 @@
       </c>
       <c r="C16" s="31">
         <f>+Earnings_Comparison!E17</f>
-        <v>758.59</v>
+        <v>732.83</v>
       </c>
       <c r="D16" s="30">
         <f>+Earnings_Comparison!H17</f>
-        <v>2.1470575075894116</v>
+        <v>-1.355097429315022</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -4622,11 +4653,11 @@
       </c>
       <c r="C17" s="31">
         <f>+Earnings_Comparison!E18</f>
-        <v>917.18</v>
+        <v>894.67</v>
       </c>
       <c r="D17" s="30">
         <f>+Earnings_Comparison!H18</f>
-        <v>3.2548059063759682</v>
+        <v>0.79563797632737909</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -4639,11 +4670,11 @@
       </c>
       <c r="C18" s="31">
         <f>+Earnings_Comparison!E19</f>
-        <v>813.28</v>
+        <v>805.73</v>
       </c>
       <c r="D18" s="30">
         <f>+Earnings_Comparison!H19</f>
-        <v>1.5515917914607602</v>
+        <v>0.91302834377549047</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -4656,11 +4687,11 @@
       </c>
       <c r="C19" s="31">
         <f>+Earnings_Comparison!E20</f>
-        <v>812.33</v>
+        <v>833.18</v>
       </c>
       <c r="D19" s="30">
         <f>+Earnings_Comparison!H20</f>
-        <v>2.9695560597890136</v>
+        <v>6.2940157536504282</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -4673,11 +4704,11 @@
       </c>
       <c r="C20" s="31">
         <f>+Earnings_Comparison!E21</f>
-        <v>766.42</v>
+        <v>762.62</v>
       </c>
       <c r="D20" s="30">
         <f>+Earnings_Comparison!H21</f>
-        <v>-0.32131618380439875</v>
+        <v>-1.5713300729416568</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -4690,11 +4721,11 @@
       </c>
       <c r="C21" s="31">
         <f>+Earnings_Comparison!E22</f>
-        <v>739.55</v>
+        <v>748.7</v>
       </c>
       <c r="D21" s="30">
         <f>+Earnings_Comparison!H22</f>
-        <v>-1.3414282997540106</v>
+        <v>-0.1474739568002259</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -4707,11 +4738,11 @@
       </c>
       <c r="C22" s="31">
         <f>+Earnings_Comparison!E23</f>
-        <v>806.34</v>
+        <v>792</v>
       </c>
       <c r="D22" s="30">
         <f>+Earnings_Comparison!H23</f>
-        <v>1.4361111334089349</v>
+        <v>-0.49439645570066304</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -4724,11 +4755,11 @@
       </c>
       <c r="C23" s="31">
         <f>+Earnings_Comparison!E24</f>
-        <v>756.68</v>
+        <v>742.56</v>
       </c>
       <c r="D23" s="30">
         <f>+Earnings_Comparison!H24</f>
-        <v>0.77265519835068019</v>
+        <v>-0.1241200117285457</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -4741,11 +4772,11 @@
       </c>
       <c r="C24" s="31">
         <f>+Earnings_Comparison!E25</f>
-        <v>942.91</v>
+        <v>924.04</v>
       </c>
       <c r="D24" s="30">
         <f>+Earnings_Comparison!H25</f>
-        <v>0.48754252004892251</v>
+        <v>-0.51551875563968785</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -4758,11 +4789,11 @@
       </c>
       <c r="C25" s="31">
         <f>+Earnings_Comparison!E26</f>
-        <v>1046.6400000000001</v>
+        <v>1030.1300000000001</v>
       </c>
       <c r="D25" s="30">
         <f>+Earnings_Comparison!H26</f>
-        <v>2.4401379966518366</v>
+        <v>1.6832731393184641</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -4775,11 +4806,11 @@
       </c>
       <c r="C26" s="31">
         <f>+Earnings_Comparison!E27</f>
-        <v>827.66</v>
+        <v>817.34</v>
       </c>
       <c r="D26" s="30">
         <f>+Earnings_Comparison!H27</f>
-        <v>-8.9664935095790099E-2</v>
+        <v>-0.9435803546485988</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -4792,11 +4823,11 @@
       </c>
       <c r="C27" s="31">
         <f>+Earnings_Comparison!E28</f>
-        <v>928.5</v>
+        <v>911.09</v>
       </c>
       <c r="D27" s="30">
         <f>+Earnings_Comparison!H28</f>
-        <v>5.4381447570590158</v>
+        <v>2.8867396232888254</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -4809,11 +4840,11 @@
       </c>
       <c r="C28" s="31">
         <f>+Earnings_Comparison!E29</f>
-        <v>706.73</v>
+        <v>696.84</v>
       </c>
       <c r="D28" s="30">
         <f>+Earnings_Comparison!H29</f>
-        <v>3.316760161079868</v>
+        <v>1.6969012725793986</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -4826,11 +4857,11 @@
       </c>
       <c r="C29" s="31">
         <f>+Earnings_Comparison!E30</f>
-        <v>753.87</v>
+        <v>735.38</v>
       </c>
       <c r="D29" s="30">
         <f>+Earnings_Comparison!H30</f>
-        <v>0.38627151425989492</v>
+        <v>-2.0901199273872129</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -4843,11 +4874,11 @@
       </c>
       <c r="C30" s="31">
         <f>+Earnings_Comparison!E31</f>
-        <v>743.76</v>
+        <v>731.28</v>
       </c>
       <c r="D30" s="30">
         <f>+Earnings_Comparison!H31</f>
-        <v>3.4399342227420915</v>
+        <v>1.5155416731272853</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -4860,11 +4891,11 @@
       </c>
       <c r="C31" s="31">
         <f>+Earnings_Comparison!E32</f>
-        <v>788.73</v>
+        <v>780.1</v>
       </c>
       <c r="D31" s="30">
         <f>+Earnings_Comparison!H32</f>
-        <v>5.115943545225532</v>
+        <v>3.0683793779614943</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -4877,11 +4908,11 @@
       </c>
       <c r="C32" s="31">
         <f>+Earnings_Comparison!E33</f>
-        <v>757.86</v>
+        <v>748.34</v>
       </c>
       <c r="D32" s="30">
         <f>+Earnings_Comparison!H33</f>
-        <v>2.8180106195329291</v>
+        <v>1.4735494125894588</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -4894,11 +4925,11 @@
       </c>
       <c r="C33" s="31">
         <f>+Earnings_Comparison!E34</f>
-        <v>871.42</v>
+        <v>842.69</v>
       </c>
       <c r="D33" s="30">
         <f>+Earnings_Comparison!H34</f>
-        <v>2.7151598836043345</v>
+        <v>1.1137168851285795</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -4911,11 +4942,11 @@
       </c>
       <c r="C34" s="31">
         <f>+Earnings_Comparison!E35</f>
-        <v>962.2</v>
+        <v>938.29</v>
       </c>
       <c r="D34" s="30">
         <f>+Earnings_Comparison!H35</f>
-        <v>2.3647755158279882</v>
+        <v>-8.9536633900921814E-2</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -4928,11 +4959,11 @@
       </c>
       <c r="C35" s="31">
         <f>+Earnings_Comparison!E36</f>
-        <v>686.82</v>
+        <v>678.69</v>
       </c>
       <c r="D35" s="30">
         <f>+Earnings_Comparison!H36</f>
-        <v>-1.9767121319331671</v>
+        <v>-2.499807456033154</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -4945,11 +4976,11 @@
       </c>
       <c r="C36" s="31">
         <f>+Earnings_Comparison!E37</f>
-        <v>983.47</v>
+        <v>960.78</v>
       </c>
       <c r="D36" s="30">
         <f>+Earnings_Comparison!H37</f>
-        <v>1.1825778512521756</v>
+        <v>-0.7881374272205699</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -4962,11 +4993,11 @@
       </c>
       <c r="C37" s="31">
         <f>+Earnings_Comparison!E38</f>
-        <v>811.44</v>
+        <v>803.85</v>
       </c>
       <c r="D37" s="30">
         <f>+Earnings_Comparison!H38</f>
-        <v>5.3483983585070449</v>
+        <v>4.7110832054710672</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -4979,11 +5010,11 @@
       </c>
       <c r="C38" s="31">
         <f>+Earnings_Comparison!E39</f>
-        <v>907.9</v>
+        <v>878.42</v>
       </c>
       <c r="D38" s="30">
         <f>+Earnings_Comparison!H39</f>
-        <v>2.694772627955766</v>
+        <v>-0.85912973419748351</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -4996,11 +5027,11 @@
       </c>
       <c r="C39" s="31">
         <f>+Earnings_Comparison!E40</f>
-        <v>807.71</v>
+        <v>791.73</v>
       </c>
       <c r="D39" s="30">
         <f>+Earnings_Comparison!H40</f>
-        <v>4.3005345839917553</v>
+        <v>2.1578275309493078</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -5013,11 +5044,11 @@
       </c>
       <c r="C40" s="31">
         <f>+Earnings_Comparison!E41</f>
-        <v>773.96</v>
+        <v>760.82</v>
       </c>
       <c r="D40" s="30">
         <f>+Earnings_Comparison!H41</f>
-        <v>2.8525576608340986</v>
+        <v>0.16150469552151936</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -5030,11 +5061,11 @@
       </c>
       <c r="C41" s="31">
         <f>+Earnings_Comparison!E42</f>
-        <v>857.82</v>
+        <v>832.12</v>
       </c>
       <c r="D41" s="30">
         <f>+Earnings_Comparison!H42</f>
-        <v>7.8642244377787884</v>
+        <v>4.0826048876913434</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -5047,11 +5078,11 @@
       </c>
       <c r="C42" s="31">
         <f>+Earnings_Comparison!E43</f>
-        <v>832.32</v>
+        <v>824.38</v>
       </c>
       <c r="D42" s="30">
         <f>+Earnings_Comparison!H43</f>
-        <v>0.79984022366912377</v>
+        <v>-0.2698378633843701</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -5064,11 +5095,11 @@
       </c>
       <c r="C43" s="31">
         <f>+Earnings_Comparison!E44</f>
-        <v>860.66</v>
+        <v>848.02</v>
       </c>
       <c r="D43" s="30">
         <f>+Earnings_Comparison!H44</f>
-        <v>2.8727293600016912</v>
+        <v>3.5529581657767428</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -5081,11 +5112,11 @@
       </c>
       <c r="C44" s="31">
         <f>+Earnings_Comparison!E45</f>
-        <v>762.91</v>
+        <v>748.74</v>
       </c>
       <c r="D44" s="30">
         <f>+Earnings_Comparison!H45</f>
-        <v>3.4875364982009938</v>
+        <v>1.4833107744046892</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -5098,11 +5129,11 @@
       </c>
       <c r="C45" s="31">
         <f>+Earnings_Comparison!E46</f>
-        <v>737.27</v>
+        <v>720.02</v>
       </c>
       <c r="D45" s="30">
         <f>+Earnings_Comparison!H46</f>
-        <v>3.17368886322138</v>
+        <v>0.59704873708894546</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -5115,11 +5146,11 @@
       </c>
       <c r="C46" s="31">
         <f>+Earnings_Comparison!E47</f>
-        <v>777.22</v>
+        <v>767.54</v>
       </c>
       <c r="D46" s="30">
         <f>+Earnings_Comparison!H47</f>
-        <v>6.2483797847732392</v>
+        <v>4.145501699462173</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -5132,11 +5163,11 @@
       </c>
       <c r="C47" s="31">
         <f>+Earnings_Comparison!E48</f>
-        <v>891.61</v>
+        <v>872.09</v>
       </c>
       <c r="D47" s="30">
         <f>+Earnings_Comparison!H48</f>
-        <v>0.92251815045580887</v>
+        <v>-1.6049578382530405</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -5149,11 +5180,11 @@
       </c>
       <c r="C48" s="31">
         <f>+Earnings_Comparison!E49</f>
-        <v>862.7</v>
+        <v>841.82</v>
       </c>
       <c r="D48" s="30">
         <f>+Earnings_Comparison!H49</f>
-        <v>2.9710913950945494</v>
+        <v>0.29700854729082238</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -5166,11 +5197,11 @@
       </c>
       <c r="C49" s="31">
         <f>+Earnings_Comparison!E50</f>
-        <v>817.23</v>
+        <v>806.74</v>
       </c>
       <c r="D49" s="30">
         <f>+Earnings_Comparison!H50</f>
-        <v>7.4258130436177794E-2</v>
+        <v>-0.78909134113014368</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -5183,11 +5214,11 @@
       </c>
       <c r="C50" s="31">
         <f>+Earnings_Comparison!E51</f>
-        <v>954.45</v>
+        <v>931.83</v>
       </c>
       <c r="D50" s="30">
         <f>+Earnings_Comparison!H51</f>
-        <v>3.1792453902433682</v>
+        <v>1.9135278430338909</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -5200,11 +5231,11 @@
       </c>
       <c r="C51" s="31">
         <f>+Earnings_Comparison!E52</f>
-        <v>1072.06</v>
+        <v>1034.31</v>
       </c>
       <c r="D51" s="30">
         <f>+Earnings_Comparison!H52</f>
-        <v>6.2358940839476462</v>
+        <v>2.6814645248049329</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -5217,11 +5248,11 @@
       </c>
       <c r="C52" s="31">
         <f>+Earnings_Comparison!E53</f>
-        <v>725.87</v>
+        <v>726.88</v>
       </c>
       <c r="D52" s="30">
         <f>+Earnings_Comparison!H53</f>
-        <v>3.9647556035626863E-2</v>
+        <v>0.72819301523987523</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -5234,11 +5265,11 @@
       </c>
       <c r="C53" s="31">
         <f>+Earnings_Comparison!E54</f>
-        <v>809.42</v>
+        <v>802.4</v>
       </c>
       <c r="D53" s="30">
         <f>+Earnings_Comparison!H54</f>
-        <v>1.9064540217958115</v>
+        <v>2.0922666331365747</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -5251,11 +5282,11 @@
       </c>
       <c r="C54" s="31">
         <f>+Earnings_Comparison!E55</f>
-        <v>774.56</v>
+        <v>753.69</v>
       </c>
       <c r="D54" s="30">
         <f>+Earnings_Comparison!H55</f>
-        <v>-5.9329072024392087</v>
+        <v>-7.9771656717848582</v>
       </c>
     </row>
   </sheetData>
@@ -5272,10 +5303,10 @@
   <dimension ref="A1:AF65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="D41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K42" sqref="K42"/>
+      <selection pane="bottomRight" activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5292,10 +5323,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="49"/>
+      <c r="D1" s="48"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C2" s="2" t="s">
@@ -5316,14 +5347,14 @@
         <v>2</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="13" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>59</v>
@@ -5364,21 +5395,21 @@
         <v>5</v>
       </c>
       <c r="D5" s="36">
-        <f>'BLS Data Series_May'!F5</f>
-        <v>732.01</v>
+        <f>'June_BLS Data Series'!G5</f>
+        <v>735.92</v>
       </c>
       <c r="E5" s="36">
-        <f>'BLS Data Series_May'!R5</f>
-        <v>781.9</v>
+        <f>'June_BLS Data Series'!S5</f>
+        <v>776.83</v>
       </c>
       <c r="F5" s="37"/>
       <c r="G5" s="37">
         <f>D5/$G$61</f>
-        <v>739.49309038918443</v>
+        <v>743.32120182033032</v>
       </c>
       <c r="H5" s="11">
         <f>((E5/G5)-1)*100</f>
-        <v>5.7345917307350947</v>
+        <v>4.5079836412051044</v>
       </c>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
@@ -5396,21 +5427,21 @@
         <v>6</v>
       </c>
       <c r="D6" s="36">
-        <f>'BLS Data Series_May'!F6</f>
-        <v>966.74</v>
+        <f>'June_BLS Data Series'!G6</f>
+        <v>976.45</v>
       </c>
       <c r="E6" s="36">
-        <f>'BLS Data Series_May'!R6</f>
-        <v>975.8</v>
+        <f>'June_BLS Data Series'!S6</f>
+        <v>966</v>
       </c>
       <c r="F6" s="37"/>
       <c r="G6" s="37">
         <f t="shared" ref="G6:G55" si="0">D6/$G$61</f>
-        <v>976.62265570530474</v>
+        <v>986.27022980413858</v>
       </c>
       <c r="H6" s="11">
         <f t="shared" ref="H6:H55" si="1">((E6/G6)-1)*100</f>
-        <v>-8.4234755409262618E-2</v>
+        <v>-2.0552409665821503</v>
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
@@ -5428,21 +5459,21 @@
         <v>7</v>
       </c>
       <c r="D7" s="36">
-        <f>'BLS Data Series_May'!F7</f>
-        <v>794.42</v>
+        <f>'June_BLS Data Series'!G7</f>
+        <v>798.66</v>
       </c>
       <c r="E7" s="36">
-        <f>'BLS Data Series_May'!R7</f>
-        <v>828.8</v>
+        <f>'June_BLS Data Series'!S7</f>
+        <v>819.41</v>
       </c>
       <c r="F7" s="37"/>
       <c r="G7" s="37">
         <f t="shared" si="0"/>
-        <v>802.54108668867343</v>
+        <v>806.69218263646189</v>
       </c>
       <c r="H7" s="11">
         <f t="shared" si="1"/>
-        <v>3.2719712108039367</v>
+        <v>1.5765390612777708</v>
       </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
@@ -5460,21 +5491,21 @@
         <v>8</v>
       </c>
       <c r="D8" s="36">
-        <f>'BLS Data Series_May'!F8</f>
-        <v>666.79</v>
+        <f>'June_BLS Data Series'!G8</f>
+        <v>661.65</v>
       </c>
       <c r="E8" s="36">
-        <f>'BLS Data Series_May'!R8</f>
-        <v>687.37</v>
+        <f>'June_BLS Data Series'!S8</f>
+        <v>685.31</v>
       </c>
       <c r="F8" s="37"/>
       <c r="G8" s="37">
         <f t="shared" si="0"/>
-        <v>673.60636841109306</v>
+        <v>668.30426294219694</v>
       </c>
       <c r="H8" s="11">
         <f t="shared" si="1"/>
-        <v>2.0432751580678588</v>
+        <v>2.5446099928998711</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -5492,21 +5523,21 @@
         <v>9</v>
       </c>
       <c r="D9" s="36">
-        <f>'BLS Data Series_May'!F9</f>
-        <v>960.06</v>
+        <f>'June_BLS Data Series'!G9</f>
+        <v>962.21</v>
       </c>
       <c r="E9" s="36">
-        <f>'BLS Data Series_May'!R9</f>
-        <v>1010.01</v>
+        <f>'June_BLS Data Series'!S9</f>
+        <v>980.29</v>
       </c>
       <c r="F9" s="37"/>
       <c r="G9" s="37">
         <f t="shared" si="0"/>
-        <v>969.87436832699052</v>
+        <v>971.88701707188307</v>
       </c>
       <c r="H9" s="11">
         <f t="shared" si="1"/>
-        <v>4.1382299588185179</v>
+        <v>0.86460491605635514</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -5524,21 +5555,21 @@
         <v>10</v>
       </c>
       <c r="D10" s="36">
-        <f>'BLS Data Series_May'!F10</f>
-        <v>903.83</v>
+        <f>'June_BLS Data Series'!G10</f>
+        <v>897.94</v>
       </c>
       <c r="E10" s="36">
-        <f>'BLS Data Series_May'!R10</f>
-        <v>927.84</v>
+        <f>'June_BLS Data Series'!S10</f>
+        <v>904.51</v>
       </c>
       <c r="F10" s="37"/>
       <c r="G10" s="37">
         <f t="shared" si="0"/>
-        <v>913.06954807510363</v>
+        <v>906.97064893269317</v>
       </c>
       <c r="H10" s="11">
         <f t="shared" si="1"/>
-        <v>1.6176699744323786</v>
+        <v>-0.27130414149441062</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -5556,21 +5587,21 @@
         <v>11</v>
       </c>
       <c r="D11" s="36">
-        <f>'BLS Data Series_May'!F11</f>
-        <v>955.04</v>
+        <f>'June_BLS Data Series'!G11</f>
+        <v>957.38</v>
       </c>
       <c r="E11" s="36">
-        <f>'BLS Data Series_May'!R11</f>
-        <v>1042.44</v>
+        <f>'June_BLS Data Series'!S11</f>
+        <v>1005.65</v>
       </c>
       <c r="F11" s="37"/>
       <c r="G11" s="37">
         <f t="shared" si="0"/>
-        <v>964.80305056664065</v>
+        <v>967.00844140497327</v>
       </c>
       <c r="H11" s="11">
         <f t="shared" si="1"/>
-        <v>8.046922051890526</v>
+        <v>3.9959897908320441</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -5588,21 +5619,21 @@
         <v>12</v>
       </c>
       <c r="D12" s="36">
-        <f>'BLS Data Series_May'!F12</f>
-        <v>738.81</v>
+        <f>'June_BLS Data Series'!G12</f>
+        <v>728.97</v>
       </c>
       <c r="E12" s="36">
-        <f>'BLS Data Series_May'!R12</f>
-        <v>809.42</v>
+        <f>'June_BLS Data Series'!S12</f>
+        <v>797.97</v>
       </c>
       <c r="F12" s="37"/>
       <c r="G12" s="37">
         <f t="shared" si="0"/>
-        <v>746.36260448686937</v>
+        <v>736.30130515676467</v>
       </c>
       <c r="H12" s="11">
         <f t="shared" si="1"/>
-        <v>8.4486274009511817</v>
+        <v>8.375469989165051</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -5620,21 +5651,21 @@
         <v>13</v>
       </c>
       <c r="D13" s="36">
-        <f>'BLS Data Series_May'!F13</f>
-        <v>1367.2</v>
+        <f>'June_BLS Data Series'!G13</f>
+        <v>1359.65</v>
       </c>
       <c r="E13" s="36">
-        <f>'BLS Data Series_May'!R13</f>
-        <v>1412.43</v>
+        <f>'June_BLS Data Series'!S13</f>
+        <v>1344.03</v>
       </c>
       <c r="F13" s="37"/>
       <c r="G13" s="37">
         <f t="shared" si="0"/>
-        <v>1381.1764226992705</v>
+        <v>1373.3241005204536</v>
       </c>
       <c r="H13" s="11">
         <f t="shared" si="1"/>
-        <v>2.2628229665005328</v>
+        <v>-2.133079912407565</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -5652,21 +5683,21 @@
         <v>14</v>
       </c>
       <c r="D14" s="36">
-        <f>'BLS Data Series_May'!F14</f>
-        <v>769.84</v>
+        <f>'June_BLS Data Series'!G14</f>
+        <v>764.18</v>
       </c>
       <c r="E14" s="36">
-        <f>'BLS Data Series_May'!R14</f>
-        <v>802.96</v>
+        <f>'June_BLS Data Series'!S14</f>
+        <v>787.84</v>
       </c>
       <c r="F14" s="37"/>
       <c r="G14" s="37">
         <f t="shared" si="0"/>
-        <v>777.70981367086483</v>
+        <v>771.86541472858471</v>
       </c>
       <c r="H14" s="11">
         <f t="shared" si="1"/>
-        <v>3.246736235711345</v>
+        <v>2.0696075982407525</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -5684,21 +5715,21 @@
         <v>15</v>
       </c>
       <c r="D15" s="36">
-        <f>'BLS Data Series_May'!F15</f>
-        <v>824.85</v>
+        <f>'June_BLS Data Series'!G15</f>
+        <v>820.99</v>
       </c>
       <c r="E15" s="36">
-        <f>'BLS Data Series_May'!R15</f>
-        <v>877.91</v>
+        <f>'June_BLS Data Series'!S15</f>
+        <v>843.18</v>
       </c>
       <c r="F15" s="37"/>
       <c r="G15" s="37">
         <f t="shared" si="0"/>
-        <v>833.28216227581424</v>
+        <v>829.24675709652286</v>
       </c>
       <c r="H15" s="11">
         <f t="shared" si="1"/>
-        <v>5.3556693932221844</v>
+        <v>1.680228808161055</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -5716,21 +5747,21 @@
         <v>16</v>
       </c>
       <c r="D16" s="36">
-        <f>'BLS Data Series_May'!F16</f>
-        <v>812.13</v>
+        <f>'June_BLS Data Series'!G16</f>
+        <v>804.41</v>
       </c>
       <c r="E16" s="36">
-        <f>'BLS Data Series_May'!R16</f>
-        <v>851.76</v>
+        <f>'June_BLS Data Series'!S16</f>
+        <v>823</v>
       </c>
       <c r="F16" s="37"/>
       <c r="G16" s="37">
         <f t="shared" si="0"/>
-        <v>820.4321300224974</v>
+        <v>812.5000108113544</v>
       </c>
       <c r="H16" s="11">
         <f t="shared" si="1"/>
-        <v>3.8184596666933857</v>
+        <v>1.2923063444836735</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -5748,21 +5779,21 @@
         <v>17</v>
       </c>
       <c r="D17" s="36">
-        <f>'BLS Data Series_May'!F17</f>
-        <v>735.13</v>
+        <f>'June_BLS Data Series'!G17</f>
+        <v>735.5</v>
       </c>
       <c r="E17" s="36">
-        <f>'BLS Data Series_May'!R17</f>
-        <v>758.59</v>
+        <f>'June_BLS Data Series'!S17</f>
+        <v>732.83</v>
       </c>
       <c r="F17" s="37"/>
       <c r="G17" s="37">
         <f t="shared" si="0"/>
-        <v>742.64498509282816</v>
+        <v>742.89697784929479</v>
       </c>
       <c r="H17" s="11">
         <f t="shared" si="1"/>
-        <v>2.1470575075894116</v>
+        <v>-1.355097429315022</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -5780,21 +5811,21 @@
         <v>18</v>
       </c>
       <c r="D18" s="36">
-        <f>'BLS Data Series_May'!F18</f>
-        <v>879.28</v>
+        <f>'June_BLS Data Series'!G18</f>
+        <v>878.77</v>
       </c>
       <c r="E18" s="36">
-        <f>'BLS Data Series_May'!R18</f>
-        <v>917.18</v>
+        <f>'June_BLS Data Series'!S18</f>
+        <v>894.67</v>
       </c>
       <c r="F18" s="37"/>
       <c r="G18" s="37">
         <f t="shared" si="0"/>
-        <v>888.26858173713754</v>
+        <v>887.60785482613835</v>
       </c>
       <c r="H18" s="11">
         <f t="shared" si="1"/>
-        <v>3.2548059063759682</v>
+        <v>0.79563797632737909</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -5812,21 +5843,21 @@
         <v>19</v>
       </c>
       <c r="D19" s="36">
-        <f>'BLS Data Series_May'!F19</f>
-        <v>792.75</v>
+        <f>'June_BLS Data Series'!G19</f>
+        <v>790.49</v>
       </c>
       <c r="E19" s="36">
-        <f>'BLS Data Series_May'!R19</f>
-        <v>813.28</v>
+        <f>'June_BLS Data Series'!S19</f>
+        <v>805.73</v>
       </c>
       <c r="F19" s="37"/>
       <c r="G19" s="37">
         <f t="shared" si="0"/>
-        <v>800.85401484409499</v>
+        <v>798.44001634274514</v>
       </c>
       <c r="H19" s="11">
         <f t="shared" si="1"/>
-        <v>1.5515917914607602</v>
+        <v>0.91302834377549047</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -5844,21 +5875,21 @@
         <v>20</v>
       </c>
       <c r="D20" s="36">
-        <f>'BLS Data Series_May'!F20</f>
-        <v>780.92</v>
+        <f>'June_BLS Data Series'!G20</f>
+        <v>776.04</v>
       </c>
       <c r="E20" s="36">
-        <f>'BLS Data Series_May'!R20</f>
-        <v>812.33</v>
+        <f>'June_BLS Data Series'!S20</f>
+        <v>833.18</v>
       </c>
       <c r="F20" s="37"/>
       <c r="G20" s="37">
         <f t="shared" si="0"/>
-        <v>788.90308075944574</v>
+        <v>783.84469162497169</v>
       </c>
       <c r="H20" s="11">
         <f t="shared" si="1"/>
-        <v>2.9695560597890136</v>
+        <v>6.2940157536504282</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -5876,21 +5907,21 @@
         <v>21</v>
       </c>
       <c r="D21" s="36">
-        <f>'BLS Data Series_May'!F21</f>
-        <v>761.11</v>
+        <f>'June_BLS Data Series'!G21</f>
+        <v>767.08</v>
       </c>
       <c r="E21" s="36">
-        <f>'BLS Data Series_May'!R21</f>
-        <v>766.42</v>
+        <f>'June_BLS Data Series'!S21</f>
+        <v>762.62</v>
       </c>
       <c r="F21" s="37"/>
       <c r="G21" s="37">
         <f t="shared" si="0"/>
-        <v>768.8905698366309</v>
+        <v>774.7945802428784</v>
       </c>
       <c r="H21" s="11">
         <f t="shared" si="1"/>
-        <v>-0.32131618380439875</v>
+        <v>-1.5713300729416568</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -5908,21 +5939,21 @@
         <v>22</v>
       </c>
       <c r="D22" s="36">
-        <f>'BLS Data Series_May'!F22</f>
-        <v>742.02</v>
+        <f>'June_BLS Data Series'!G22</f>
+        <v>742.34</v>
       </c>
       <c r="E22" s="36">
-        <f>'BLS Data Series_May'!R22</f>
-        <v>739.55</v>
+        <f>'June_BLS Data Series'!S22</f>
+        <v>748.7</v>
       </c>
       <c r="F22" s="37"/>
       <c r="G22" s="37">
         <f t="shared" si="0"/>
-        <v>749.60541923004143</v>
+        <v>749.80576823473211</v>
       </c>
       <c r="H22" s="11">
         <f t="shared" si="1"/>
-        <v>-1.3414282997540106</v>
+        <v>-0.1474739568002259</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -5940,21 +5971,21 @@
         <v>23</v>
       </c>
       <c r="D23" s="36">
-        <f>'BLS Data Series_May'!F23</f>
-        <v>786.88</v>
+        <f>'June_BLS Data Series'!G23</f>
+        <v>788.01</v>
       </c>
       <c r="E23" s="36">
-        <f>'BLS Data Series_May'!R23</f>
-        <v>806.34</v>
+        <f>'June_BLS Data Series'!S23</f>
+        <v>792</v>
       </c>
       <c r="F23" s="37"/>
       <c r="G23" s="37">
         <f t="shared" si="0"/>
-        <v>794.92400782153447</v>
+        <v>795.9350747994871</v>
       </c>
       <c r="H23" s="11">
         <f t="shared" si="1"/>
-        <v>1.4361111334089349</v>
+        <v>-0.49439645570066304</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -5972,21 +6003,21 @@
         <v>24</v>
       </c>
       <c r="D24" s="36">
-        <f>'BLS Data Series_May'!F24</f>
-        <v>743.28</v>
+        <f>'June_BLS Data Series'!G24</f>
+        <v>736.08</v>
       </c>
       <c r="E24" s="36">
-        <f>'BLS Data Series_May'!R24</f>
-        <v>756.68</v>
+        <f>'June_BLS Data Series'!S24</f>
+        <v>742.56</v>
       </c>
       <c r="F24" s="37"/>
       <c r="G24" s="37">
         <f t="shared" si="0"/>
-        <v>750.87829978343598</v>
+        <v>743.4828109521535</v>
       </c>
       <c r="H24" s="11">
         <f t="shared" si="1"/>
-        <v>0.77265519835068019</v>
+        <v>-0.1241200117285457</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -6004,21 +6035,21 @@
         <v>25</v>
       </c>
       <c r="D25" s="36">
-        <f>'BLS Data Series_May'!F25</f>
-        <v>928.84</v>
+        <f>'June_BLS Data Series'!G25</f>
+        <v>919.58</v>
       </c>
       <c r="E25" s="36">
-        <f>'BLS Data Series_May'!R25</f>
-        <v>942.91</v>
+        <f>'June_BLS Data Series'!S25</f>
+        <v>924.04</v>
       </c>
       <c r="F25" s="37"/>
       <c r="G25" s="37">
         <f t="shared" si="0"/>
-        <v>938.33521683732477</v>
+        <v>928.82828401176687</v>
       </c>
       <c r="H25" s="11">
         <f t="shared" si="1"/>
-        <v>0.48754252004892251</v>
+        <v>-0.51551875563968785</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -6036,21 +6067,21 @@
         <v>26</v>
       </c>
       <c r="D26" s="36">
-        <f>'BLS Data Series_May'!F26</f>
-        <v>1011.37</v>
+        <f>'June_BLS Data Series'!G26</f>
+        <v>1002.99</v>
       </c>
       <c r="E26" s="36">
-        <f>'BLS Data Series_May'!R26</f>
-        <v>1046.6400000000001</v>
+        <f>'June_BLS Data Series'!S26</f>
+        <v>1030.1300000000001</v>
       </c>
       <c r="F26" s="37"/>
       <c r="G26" s="37">
         <f t="shared" si="0"/>
-        <v>1021.7088930846702</v>
+        <v>1013.0771445452946</v>
       </c>
       <c r="H26" s="11">
         <f t="shared" si="1"/>
-        <v>2.4401379966518366</v>
+        <v>1.6832731393184641</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -6068,21 +6099,21 @@
         <v>27</v>
       </c>
       <c r="D27" s="36">
-        <f>'BLS Data Series_May'!F27</f>
-        <v>820.02</v>
+        <f>'June_BLS Data Series'!G27</f>
+        <v>816.91</v>
       </c>
       <c r="E27" s="36">
-        <f>'BLS Data Series_May'!R27</f>
-        <v>827.66</v>
+        <f>'June_BLS Data Series'!S27</f>
+        <v>817.34</v>
       </c>
       <c r="F27" s="37"/>
       <c r="G27" s="37">
         <f t="shared" si="0"/>
-        <v>828.4027868211349</v>
+        <v>825.12572423503377</v>
       </c>
       <c r="H27" s="11">
         <f t="shared" si="1"/>
-        <v>-8.9664935095790099E-2</v>
+        <v>-0.9435803546485988</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -6100,21 +6131,21 @@
         <v>28</v>
       </c>
       <c r="D28" s="36">
-        <f>'BLS Data Series_May'!F28</f>
-        <v>871.7</v>
+        <f>'June_BLS Data Series'!G28</f>
+        <v>876.71</v>
       </c>
       <c r="E28" s="36">
-        <f>'BLS Data Series_May'!R28</f>
-        <v>928.5</v>
+        <f>'June_BLS Data Series'!S28</f>
+        <v>911.09</v>
       </c>
       <c r="F28" s="37"/>
       <c r="G28" s="37">
         <f t="shared" si="0"/>
-        <v>880.61109396354163</v>
+        <v>885.52713725391607</v>
       </c>
       <c r="H28" s="11">
         <f t="shared" si="1"/>
-        <v>5.4381447570590158</v>
+        <v>2.8867396232888254</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -6132,21 +6163,21 @@
         <v>29</v>
       </c>
       <c r="D29" s="36">
-        <f>'BLS Data Series_May'!F29</f>
-        <v>677.12</v>
+        <f>'June_BLS Data Series'!G29</f>
+        <v>678.39</v>
       </c>
       <c r="E29" s="36">
-        <f>'BLS Data Series_May'!R29</f>
-        <v>706.73</v>
+        <f>'June_BLS Data Series'!S29</f>
+        <v>696.84</v>
       </c>
       <c r="F29" s="37"/>
       <c r="G29" s="37">
         <f t="shared" si="0"/>
-        <v>684.04196850360586</v>
+        <v>685.21261835918835</v>
       </c>
       <c r="H29" s="11">
         <f t="shared" si="1"/>
-        <v>3.316760161079868</v>
+        <v>1.6969012725793986</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -6164,21 +6195,21 @@
         <v>30</v>
       </c>
       <c r="D30" s="36">
-        <f>'BLS Data Series_May'!F30</f>
-        <v>743.37</v>
+        <f>'June_BLS Data Series'!G30</f>
+        <v>743.6</v>
       </c>
       <c r="E30" s="36">
-        <f>'BLS Data Series_May'!R30</f>
-        <v>753.87</v>
+        <f>'June_BLS Data Series'!S30</f>
+        <v>735.38</v>
       </c>
       <c r="F30" s="37"/>
       <c r="G30" s="37">
         <f t="shared" si="0"/>
-        <v>750.96921982296419</v>
+        <v>751.07844014783905</v>
       </c>
       <c r="H30" s="11">
         <f t="shared" si="1"/>
-        <v>0.38627151425989492</v>
+        <v>-2.0901199273872129</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -6196,21 +6227,21 @@
         <v>31</v>
       </c>
       <c r="D31" s="36">
-        <f>'BLS Data Series_May'!F31</f>
-        <v>711.75</v>
+        <f>'June_BLS Data Series'!G31</f>
+        <v>713.19</v>
       </c>
       <c r="E31" s="36">
-        <f>'BLS Data Series_May'!R31</f>
-        <v>743.76</v>
+        <f>'June_BLS Data Series'!S31</f>
+        <v>731.28</v>
       </c>
       <c r="F31" s="37"/>
       <c r="G31" s="37">
         <f t="shared" si="0"/>
-        <v>719.02597926872852</v>
+        <v>720.36260453071191</v>
       </c>
       <c r="H31" s="11">
         <f t="shared" si="1"/>
-        <v>3.4399342227420915</v>
+        <v>1.5155416731272853</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -6228,21 +6259,21 @@
         <v>32</v>
       </c>
       <c r="D32" s="36">
-        <f>'BLS Data Series_May'!F32</f>
-        <v>742.75</v>
+        <f>'June_BLS Data Series'!G32</f>
+        <v>749.34</v>
       </c>
       <c r="E32" s="36">
-        <f>'BLS Data Series_May'!R32</f>
-        <v>788.73</v>
+        <f>'June_BLS Data Series'!S32</f>
+        <v>780.1</v>
       </c>
       <c r="F32" s="37"/>
       <c r="G32" s="37">
         <f t="shared" si="0"/>
-        <v>750.34288177288113</v>
+        <v>756.87616775199263</v>
       </c>
       <c r="H32" s="11">
         <f t="shared" si="1"/>
-        <v>5.115943545225532</v>
+        <v>3.0683793779614943</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -6260,21 +6291,21 @@
         <v>33</v>
       </c>
       <c r="D33" s="36">
-        <f>'BLS Data Series_May'!F33</f>
-        <v>729.63</v>
+        <f>'June_BLS Data Series'!G33</f>
+        <v>730.13</v>
       </c>
       <c r="E33" s="36">
-        <f>'BLS Data Series_May'!R33</f>
-        <v>757.86</v>
+        <f>'June_BLS Data Series'!S33</f>
+        <v>748.34</v>
       </c>
       <c r="F33" s="37"/>
       <c r="G33" s="37">
         <f t="shared" si="0"/>
-        <v>737.0887604549946</v>
+        <v>737.4729713624821</v>
       </c>
       <c r="H33" s="11">
         <f t="shared" si="1"/>
-        <v>2.8180106195329291</v>
+        <v>1.4735494125894588</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -6292,21 +6323,21 @@
         <v>34</v>
       </c>
       <c r="D34" s="36">
-        <f>'BLS Data Series_May'!F34</f>
-        <v>839.8</v>
+        <f>'June_BLS Data Series'!G34</f>
+        <v>825.11</v>
       </c>
       <c r="E34" s="36">
-        <f>'BLS Data Series_May'!R34</f>
-        <v>871.42</v>
+        <f>'June_BLS Data Series'!S34</f>
+        <v>842.69</v>
       </c>
       <c r="F34" s="37"/>
       <c r="G34" s="37">
         <f t="shared" si="0"/>
-        <v>848.38499106410711</v>
+        <v>833.40819224096754</v>
       </c>
       <c r="H34" s="11">
         <f t="shared" si="1"/>
-        <v>2.7151598836043345</v>
+        <v>1.1137168851285795</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -6324,21 +6355,21 @@
         <v>35</v>
       </c>
       <c r="D35" s="36">
-        <f>'BLS Data Series_May'!F35</f>
-        <v>930.46</v>
+        <f>'June_BLS Data Series'!G35</f>
+        <v>929.78</v>
       </c>
       <c r="E35" s="36">
-        <f>'BLS Data Series_May'!R35</f>
-        <v>962.2</v>
+        <f>'June_BLS Data Series'!S35</f>
+        <v>938.29</v>
       </c>
       <c r="F35" s="37"/>
       <c r="G35" s="37">
         <f t="shared" si="0"/>
-        <v>939.97177754883205</v>
+        <v>939.13086616548912</v>
       </c>
       <c r="H35" s="11">
         <f t="shared" si="1"/>
-        <v>2.3647755158279882</v>
+        <v>-8.9536633900921814E-2</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -6356,21 +6387,21 @@
         <v>36</v>
       </c>
       <c r="D36" s="36">
-        <f>'BLS Data Series_May'!F36</f>
-        <v>693.58</v>
+        <f>'June_BLS Data Series'!G36</f>
+        <v>689.16</v>
       </c>
       <c r="E36" s="36">
-        <f>'BLS Data Series_May'!R36</f>
-        <v>686.82</v>
+        <f>'June_BLS Data Series'!S36</f>
+        <v>678.69</v>
       </c>
       <c r="F36" s="37"/>
       <c r="G36" s="37">
         <f t="shared" si="0"/>
-        <v>700.6702335106495</v>
+        <v>696.09093304503051</v>
       </c>
       <c r="H36" s="11">
         <f t="shared" si="1"/>
-        <v>-1.9767121319331671</v>
+        <v>-2.499807456033154</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -6388,21 +6419,21 @@
         <v>37</v>
       </c>
       <c r="D37" s="36">
-        <f>'BLS Data Series_May'!F37</f>
-        <v>962.14</v>
+        <f>'June_BLS Data Series'!G37</f>
+        <v>958.77</v>
       </c>
       <c r="E37" s="36">
-        <f>'BLS Data Series_May'!R37</f>
-        <v>983.47</v>
+        <f>'June_BLS Data Series'!S37</f>
+        <v>960.78</v>
       </c>
       <c r="F37" s="37"/>
       <c r="G37" s="37">
         <f t="shared" si="0"/>
-        <v>971.97563146275309</v>
+        <v>968.41242073768638</v>
       </c>
       <c r="H37" s="11">
         <f t="shared" si="1"/>
-        <v>1.1825778512521756</v>
+        <v>-0.7881374272205699</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -6420,21 +6451,21 @@
         <v>38</v>
       </c>
       <c r="D38" s="36">
-        <f>'BLS Data Series_May'!F38</f>
-        <v>762.45</v>
+        <f>'June_BLS Data Series'!G38</f>
+        <v>760.04</v>
       </c>
       <c r="E38" s="36">
-        <f>'BLS Data Series_May'!R38</f>
-        <v>811.44</v>
+        <f>'June_BLS Data Series'!S38</f>
+        <v>803.85</v>
       </c>
       <c r="F38" s="37"/>
       <c r="G38" s="37">
         <f t="shared" si="0"/>
-        <v>770.24426820293945</v>
+        <v>767.68377844266206</v>
       </c>
       <c r="H38" s="11">
         <f t="shared" si="1"/>
-        <v>5.3483983585070449</v>
+        <v>4.7110832054710672</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -6452,21 +6483,21 @@
         <v>39</v>
       </c>
       <c r="D39" s="36">
-        <f>'BLS Data Series_May'!F39</f>
-        <v>875.13</v>
+        <f>'June_BLS Data Series'!G39</f>
+        <v>877.21</v>
       </c>
       <c r="E39" s="36">
-        <f>'BLS Data Series_May'!R39</f>
-        <v>907.9</v>
+        <f>'June_BLS Data Series'!S39</f>
+        <v>878.42</v>
       </c>
       <c r="F39" s="37"/>
       <c r="G39" s="37">
         <f t="shared" si="0"/>
-        <v>884.07615769222684</v>
+        <v>886.03216579086325</v>
       </c>
       <c r="H39" s="11">
         <f t="shared" si="1"/>
-        <v>2.694772627955766</v>
+        <v>-0.85912973419748351</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -6484,21 +6515,21 @@
         <v>40</v>
       </c>
       <c r="D40" s="36">
-        <f>'BLS Data Series_May'!F40</f>
-        <v>766.57</v>
+        <f>'June_BLS Data Series'!G40</f>
+        <v>767.29</v>
       </c>
       <c r="E40" s="36">
-        <f>'BLS Data Series_May'!R40</f>
-        <v>807.71</v>
+        <f>'June_BLS Data Series'!S40</f>
+        <v>791.73</v>
       </c>
       <c r="F40" s="37"/>
       <c r="G40" s="37">
         <f t="shared" si="0"/>
-        <v>774.40638556800741</v>
+        <v>775.0066922283961</v>
       </c>
       <c r="H40" s="11">
         <f t="shared" si="1"/>
-        <v>4.3005345839917553</v>
+        <v>2.1578275309493078</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -6516,21 +6547,21 @@
         <v>41</v>
       </c>
       <c r="D41" s="36">
-        <f>'BLS Data Series_May'!F41</f>
-        <v>744.88</v>
+        <f>'June_BLS Data Series'!G41</f>
+        <v>752.03</v>
       </c>
       <c r="E41" s="36">
-        <f>'BLS Data Series_May'!R41</f>
-        <v>773.96</v>
+        <f>'June_BLS Data Series'!S41</f>
+        <v>760.82</v>
       </c>
       <c r="F41" s="37"/>
       <c r="G41" s="37">
         <f t="shared" si="0"/>
-        <v>752.49465604171485</v>
+        <v>759.59322128076838</v>
       </c>
       <c r="H41" s="11">
         <f t="shared" si="1"/>
-        <v>2.8525576608340986</v>
+        <v>0.16150469552151936</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -6548,21 +6579,21 @@
         <v>42</v>
       </c>
       <c r="D42" s="36">
-        <f>'BLS Data Series_May'!F42</f>
-        <v>787.23</v>
+        <f>'June_BLS Data Series'!G42</f>
+        <v>791.52</v>
       </c>
       <c r="E42" s="36">
-        <f>'BLS Data Series_May'!R42</f>
-        <v>857.82</v>
+        <f>'June_BLS Data Series'!S42</f>
+        <v>832.12</v>
       </c>
       <c r="F42" s="37"/>
       <c r="G42" s="37">
         <f t="shared" si="0"/>
-        <v>795.27758575303289</v>
+        <v>799.48037512885628</v>
       </c>
       <c r="H42" s="11">
         <f t="shared" si="1"/>
-        <v>7.8642244377787884</v>
+        <v>4.0826048876913434</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -6580,21 +6611,21 @@
         <v>43</v>
       </c>
       <c r="D43" s="36">
-        <f>'BLS Data Series_May'!F43</f>
-        <v>817.36</v>
+        <f>'June_BLS Data Series'!G43</f>
+        <v>818.38</v>
       </c>
       <c r="E43" s="36">
-        <f>'BLS Data Series_May'!R43</f>
-        <v>832.32</v>
+        <f>'June_BLS Data Series'!S43</f>
+        <v>824.38</v>
       </c>
       <c r="F43" s="37"/>
       <c r="G43" s="37">
         <f t="shared" si="0"/>
-        <v>825.71559454174644</v>
+        <v>826.61050813365853</v>
       </c>
       <c r="H43" s="11">
         <f t="shared" si="1"/>
-        <v>0.79984022366912377</v>
+        <v>-0.2698378633843701</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -6612,21 +6643,21 @@
         <v>44</v>
       </c>
       <c r="D44" s="36">
-        <f>'BLS Data Series_May'!F44</f>
-        <v>828.16</v>
+        <f>'June_BLS Data Series'!G44</f>
+        <v>810.77</v>
       </c>
       <c r="E44" s="36">
-        <f>'BLS Data Series_May'!R44</f>
-        <v>860.66</v>
+        <f>'June_BLS Data Series'!S44</f>
+        <v>848.02</v>
       </c>
       <c r="F44" s="37"/>
       <c r="G44" s="37">
         <f t="shared" si="0"/>
-        <v>836.6259992851285</v>
+        <v>818.92397380132252</v>
       </c>
       <c r="H44" s="11">
         <f t="shared" si="1"/>
-        <v>2.8727293600016912</v>
+        <v>3.5529581657767428</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -6644,21 +6675,21 @@
         <v>45</v>
       </c>
       <c r="D45" s="36">
-        <f>'BLS Data Series_May'!F45</f>
-        <v>729.74</v>
+        <f>'June_BLS Data Series'!G45</f>
+        <v>730.45</v>
       </c>
       <c r="E45" s="36">
-        <f>'BLS Data Series_May'!R45</f>
-        <v>762.91</v>
+        <f>'June_BLS Data Series'!S45</f>
+        <v>748.74</v>
       </c>
       <c r="F45" s="37"/>
       <c r="G45" s="37">
         <f t="shared" si="0"/>
-        <v>737.19988494775134</v>
+        <v>737.79618962612835</v>
       </c>
       <c r="H45" s="11">
         <f t="shared" si="1"/>
-        <v>3.4875364982009938</v>
+        <v>1.4833107744046892</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -6676,21 +6707,21 @@
         <v>46</v>
       </c>
       <c r="D46" s="36">
-        <f>'BLS Data Series_May'!F46</f>
-        <v>707.36</v>
+        <f>'June_BLS Data Series'!G46</f>
+        <v>708.62</v>
       </c>
       <c r="E46" s="36">
-        <f>'BLS Data Series_May'!R46</f>
-        <v>737.27</v>
+        <f>'June_BLS Data Series'!S46</f>
+        <v>720.02</v>
       </c>
       <c r="F46" s="37"/>
       <c r="G46" s="37">
         <f t="shared" si="0"/>
-        <v>714.59110178507603</v>
+        <v>715.74664370301468</v>
       </c>
       <c r="H46" s="11">
         <f t="shared" si="1"/>
-        <v>3.17368886322138</v>
+        <v>0.59704873708894546</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -6708,21 +6739,21 @@
         <v>47</v>
       </c>
       <c r="D47" s="36">
-        <f>'BLS Data Series_May'!F47</f>
-        <v>724.11</v>
+        <f>'June_BLS Data Series'!G47</f>
+        <v>729.65</v>
       </c>
       <c r="E47" s="36">
-        <f>'BLS Data Series_May'!R47</f>
-        <v>777.22</v>
+        <f>'June_BLS Data Series'!S47</f>
+        <v>767.54</v>
       </c>
       <c r="F47" s="37"/>
       <c r="G47" s="37">
         <f t="shared" si="0"/>
-        <v>731.51233136393262</v>
+        <v>736.98814396701277</v>
       </c>
       <c r="H47" s="11">
         <f t="shared" si="1"/>
-        <v>6.2483797847732392</v>
+        <v>4.145501699462173</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -6740,21 +6771,21 @@
         <v>48</v>
       </c>
       <c r="D48" s="36">
-        <f>'BLS Data Series_May'!F48</f>
-        <v>874.52</v>
+        <f>'June_BLS Data Series'!G48</f>
+        <v>877.49</v>
       </c>
       <c r="E48" s="36">
-        <f>'BLS Data Series_May'!R48</f>
-        <v>891.61</v>
+        <f>'June_BLS Data Series'!S48</f>
+        <v>872.09</v>
       </c>
       <c r="F48" s="37"/>
       <c r="G48" s="37">
         <f t="shared" si="0"/>
-        <v>883.45992186875799</v>
+        <v>886.31498177155356</v>
       </c>
       <c r="H48" s="11">
         <f t="shared" si="1"/>
-        <v>0.92251815045580887</v>
+        <v>-1.6049578382530405</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -6772,21 +6803,21 @@
         <v>49</v>
       </c>
       <c r="D49" s="36">
-        <f>'BLS Data Series_May'!F49</f>
-        <v>829.33</v>
+        <f>'June_BLS Data Series'!G49</f>
+        <v>830.97</v>
       </c>
       <c r="E49" s="36">
-        <f>'BLS Data Series_May'!R49</f>
-        <v>862.7</v>
+        <f>'June_BLS Data Series'!S49</f>
+        <v>841.82</v>
       </c>
       <c r="F49" s="37"/>
       <c r="G49" s="37">
         <f t="shared" si="0"/>
-        <v>837.80795979899494</v>
+        <v>839.32712669398848</v>
       </c>
       <c r="H49" s="11">
         <f t="shared" si="1"/>
-        <v>2.9710913950945494</v>
+        <v>0.29700854729082238</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -6804,21 +6835,21 @@
         <v>50</v>
       </c>
       <c r="D50" s="36">
-        <f>'BLS Data Series_May'!F50</f>
-        <v>808.36</v>
+        <f>'June_BLS Data Series'!G50</f>
+        <v>805.06</v>
       </c>
       <c r="E50" s="36">
-        <f>'BLS Data Series_May'!R50</f>
-        <v>817.23</v>
+        <f>'June_BLS Data Series'!S50</f>
+        <v>806.74</v>
       </c>
       <c r="F50" s="37"/>
       <c r="G50" s="37">
         <f t="shared" si="0"/>
-        <v>816.62359058892787</v>
+        <v>813.15654790938572</v>
       </c>
       <c r="H50" s="11">
         <f t="shared" si="1"/>
-        <v>7.4258130436177794E-2</v>
+        <v>-0.78909134113014368</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -6836,21 +6867,21 @@
         <v>51</v>
       </c>
       <c r="D51" s="36">
-        <f>'BLS Data Series_May'!F51</f>
-        <v>915.68</v>
+        <f>'June_BLS Data Series'!G51</f>
+        <v>905.23</v>
       </c>
       <c r="E51" s="36">
-        <f>'BLS Data Series_May'!R51</f>
-        <v>954.45</v>
+        <f>'June_BLS Data Series'!S51</f>
+        <v>931.83</v>
       </c>
       <c r="F51" s="37"/>
       <c r="G51" s="37">
         <f t="shared" si="0"/>
-        <v>925.04068661298118</v>
+        <v>914.33396500138292</v>
       </c>
       <c r="H51" s="11">
         <f t="shared" si="1"/>
-        <v>3.1792453902433682</v>
+        <v>1.9135278430338909</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -6868,21 +6899,21 @@
         <v>52</v>
       </c>
       <c r="D52" s="36">
-        <f>'BLS Data Series_May'!F52</f>
-        <v>998.92</v>
+        <f>'June_BLS Data Series'!G52</f>
+        <v>997.27</v>
       </c>
       <c r="E52" s="36">
-        <f>'BLS Data Series_May'!R52</f>
-        <v>1072.06</v>
+        <f>'June_BLS Data Series'!S52</f>
+        <v>1034.31</v>
       </c>
       <c r="F52" s="37"/>
       <c r="G52" s="37">
         <f t="shared" si="0"/>
-        <v>1009.1316209499379</v>
+        <v>1007.2996180826188</v>
       </c>
       <c r="H52" s="11">
         <f t="shared" si="1"/>
-        <v>6.2358940839476462</v>
+        <v>2.6814645248049329</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -6900,21 +6931,21 @@
         <v>53</v>
       </c>
       <c r="D53" s="36">
-        <f>'BLS Data Series_May'!F53</f>
-        <v>718.24</v>
+        <f>'June_BLS Data Series'!G53</f>
+        <v>714.44</v>
       </c>
       <c r="E53" s="36">
-        <f>'BLS Data Series_May'!R53</f>
-        <v>725.87</v>
+        <f>'June_BLS Data Series'!S53</f>
+        <v>726.88</v>
       </c>
       <c r="F53" s="37"/>
       <c r="G53" s="37">
         <f t="shared" si="0"/>
-        <v>725.5823243413721</v>
+        <v>721.6251758730798</v>
       </c>
       <c r="H53" s="11">
         <f t="shared" si="1"/>
-        <v>3.9647556035626863E-2</v>
+        <v>0.72819301523987523</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -6932,21 +6963,21 @@
         <v>54</v>
       </c>
       <c r="D54" s="36">
-        <f>'BLS Data Series_May'!F54</f>
-        <v>786.24</v>
+        <f>'June_BLS Data Series'!G54</f>
+        <v>778.13</v>
       </c>
       <c r="E54" s="36">
-        <f>'BLS Data Series_May'!R54</f>
-        <v>809.42</v>
+        <f>'June_BLS Data Series'!S54</f>
+        <v>802.4</v>
       </c>
       <c r="F54" s="37"/>
       <c r="G54" s="37">
         <f t="shared" si="0"/>
-        <v>794.27746531822288</v>
+        <v>785.95571090941098</v>
       </c>
       <c r="H54" s="11">
         <f t="shared" si="1"/>
-        <v>1.9064540217958115</v>
+        <v>2.0922666331365747</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -6964,21 +6995,21 @@
         <v>55</v>
       </c>
       <c r="D55" s="36">
-        <f>'BLS Data Series_May'!F55</f>
-        <v>815.08</v>
+        <f>'June_BLS Data Series'!G55</f>
+        <v>810.87</v>
       </c>
       <c r="E55" s="36">
-        <f>'BLS Data Series_May'!R55</f>
-        <v>774.56</v>
+        <f>'June_BLS Data Series'!S55</f>
+        <v>753.69</v>
       </c>
       <c r="F55" s="37"/>
       <c r="G55" s="37">
         <f t="shared" si="0"/>
-        <v>823.41228687369903</v>
+        <v>819.02497950871202</v>
       </c>
       <c r="H55" s="11">
         <f t="shared" si="1"/>
-        <v>-5.9329072024392087</v>
+        <v>-7.9771656717848582</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -6999,10 +7030,10 @@
         <v>56</v>
       </c>
       <c r="D57" s="33" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="E57" s="34" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
@@ -7015,24 +7046,24 @@
       <c r="N57" s="6"/>
       <c r="O57" s="6"/>
     </row>
-    <row r="58" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="C58" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="D58" s="39">
-        <v>861.47</v>
-      </c>
-      <c r="E58" s="39">
-        <v>880.3</v>
+      <c r="D58" s="38">
+        <v>861.12</v>
+      </c>
+      <c r="E58" s="38">
+        <v>880.98</v>
       </c>
       <c r="F58" s="9"/>
       <c r="G58" s="11">
         <f>D58/$G$61</f>
-        <v>870.27651613717126</v>
+        <v>869.78034747190304</v>
       </c>
       <c r="H58" s="11">
         <f>((E58/G58)-1)*100</f>
-        <v>1.1517585131814334</v>
+        <v>1.287641478753776</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -7051,7 +7082,7 @@
       <c r="K59" s="9"/>
       <c r="L59" s="9"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C60" s="7" t="s">
         <v>57</v>
       </c>
@@ -7065,20 +7096,20 @@
       <c r="K60" s="9"/>
       <c r="L60" s="9"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C61" s="7" t="s">
         <v>58</v>
       </c>
       <c r="D61" s="38">
-        <v>237.80500000000001</v>
-      </c>
-      <c r="E61" s="38">
-        <v>240.23599999999999</v>
+        <v>238.63800000000001</v>
+      </c>
+      <c r="E61" s="52">
+        <v>241.03800000000001</v>
       </c>
       <c r="F61" s="9"/>
       <c r="G61" s="9">
         <f>D61/E61</f>
-        <v>0.98988078389583578</v>
+        <v>0.9900430637492843</v>
       </c>
       <c r="H61" s="9"/>
       <c r="I61" s="9"/>
@@ -7138,2988 +7169,3141 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A42" sqref="A42"/>
+      <selection pane="bottomRight" sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23" style="40" customWidth="1"/>
-    <col min="2" max="255" width="8" style="40" customWidth="1"/>
-    <col min="256" max="16384" width="9.140625" style="40"/>
+    <col min="1" max="1" width="23" style="45" customWidth="1"/>
+    <col min="2" max="255" width="8" style="45" customWidth="1"/>
+    <col min="256" max="16384" width="9.140625" style="45"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="43" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
     </row>
     <row r="4" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="43" t="s">
+      <c r="D4" s="41" t="s">
         <v>170</v>
       </c>
-      <c r="E4" s="43" t="s">
+      <c r="E4" s="41" t="s">
         <v>179</v>
       </c>
-      <c r="F4" s="43" t="s">
+      <c r="F4" s="41" t="s">
         <v>178</v>
       </c>
-      <c r="G4" s="43" t="s">
+      <c r="G4" s="41" t="s">
         <v>177</v>
       </c>
-      <c r="H4" s="43" t="s">
+      <c r="H4" s="41" t="s">
         <v>176</v>
       </c>
-      <c r="I4" s="43" t="s">
+      <c r="I4" s="41" t="s">
         <v>175</v>
       </c>
-      <c r="J4" s="43" t="s">
+      <c r="J4" s="41" t="s">
         <v>174</v>
       </c>
-      <c r="K4" s="43" t="s">
+      <c r="K4" s="41" t="s">
         <v>173</v>
       </c>
-      <c r="L4" s="43" t="s">
+      <c r="L4" s="41" t="s">
         <v>172</v>
       </c>
-      <c r="M4" s="43" t="s">
+      <c r="M4" s="41" t="s">
         <v>171</v>
       </c>
-      <c r="N4" s="43" t="s">
+      <c r="N4" s="41" t="s">
         <v>181</v>
       </c>
-      <c r="O4" s="43" t="s">
+      <c r="O4" s="41" t="s">
         <v>192</v>
       </c>
-      <c r="P4" s="43" t="s">
+      <c r="P4" s="41" t="s">
         <v>191</v>
       </c>
-      <c r="Q4" s="43" t="s">
+      <c r="Q4" s="41" t="s">
         <v>190</v>
       </c>
-      <c r="R4" s="43" t="s">
+      <c r="R4" s="41" t="s">
         <v>189</v>
       </c>
-      <c r="S4" s="43" t="s">
+      <c r="S4" s="41" t="s">
         <v>188</v>
       </c>
-      <c r="T4" s="43" t="s">
+      <c r="T4" s="41" t="s">
         <v>187</v>
       </c>
-      <c r="U4" s="43" t="s">
+      <c r="U4" s="41" t="s">
         <v>186</v>
       </c>
-      <c r="V4" s="43" t="s">
+      <c r="V4" s="41" t="s">
         <v>185</v>
       </c>
-      <c r="W4" s="43" t="s">
+      <c r="W4" s="41" t="s">
         <v>184</v>
       </c>
-      <c r="X4" s="43" t="s">
+      <c r="X4" s="41" t="s">
         <v>183</v>
       </c>
-      <c r="Y4" s="43" t="s">
+      <c r="Y4" s="41" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="41">
+      <c r="B5" s="39">
         <v>733.25</v>
       </c>
-      <c r="C5" s="41">
+      <c r="C5" s="39">
         <v>760.06</v>
       </c>
-      <c r="D5" s="41">
+      <c r="D5" s="39">
         <v>754.02</v>
       </c>
-      <c r="E5" s="41">
+      <c r="E5" s="39">
         <v>726.53</v>
       </c>
-      <c r="F5" s="41">
+      <c r="F5" s="39">
         <v>732.01</v>
       </c>
-      <c r="G5" s="41">
+      <c r="G5" s="39">
         <v>735.92</v>
       </c>
-      <c r="H5" s="41">
+      <c r="H5" s="39">
         <v>738.05</v>
       </c>
-      <c r="I5" s="41">
+      <c r="I5" s="39">
         <v>753.9</v>
       </c>
-      <c r="J5" s="41">
+      <c r="J5" s="39">
         <v>743.75</v>
       </c>
-      <c r="K5" s="41">
+      <c r="K5" s="39">
         <v>755.38</v>
       </c>
-      <c r="L5" s="41">
+      <c r="L5" s="39">
         <v>765.03</v>
       </c>
-      <c r="M5" s="41">
+      <c r="M5" s="39">
         <v>760.06</v>
       </c>
-      <c r="N5" s="41">
+      <c r="N5" s="39">
         <v>768.22</v>
       </c>
-      <c r="O5" s="41">
+      <c r="O5" s="39">
         <v>768.96</v>
       </c>
-      <c r="P5" s="41">
+      <c r="P5" s="39">
         <v>760.77</v>
       </c>
-      <c r="Q5" s="41">
+      <c r="Q5" s="39">
         <v>777.15</v>
       </c>
-      <c r="R5" s="41">
-        <v>781.9</v>
+      <c r="R5" s="39">
+        <v>786.21</v>
+      </c>
+      <c r="S5" s="39">
+        <v>776.83</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="41">
+      <c r="B6" s="39">
         <v>918.31</v>
       </c>
-      <c r="C6" s="41">
+      <c r="C6" s="39">
         <v>945.7</v>
       </c>
-      <c r="D6" s="41">
+      <c r="D6" s="39">
         <v>959.35</v>
       </c>
-      <c r="E6" s="41">
+      <c r="E6" s="39">
         <v>955.4</v>
       </c>
-      <c r="F6" s="41">
+      <c r="F6" s="39">
         <v>966.74</v>
       </c>
-      <c r="G6" s="41">
+      <c r="G6" s="39">
         <v>976.45</v>
       </c>
-      <c r="H6" s="41">
+      <c r="H6" s="39">
         <v>996.31</v>
       </c>
-      <c r="I6" s="41">
+      <c r="I6" s="39">
         <v>1013.33</v>
       </c>
-      <c r="J6" s="41">
+      <c r="J6" s="39">
         <v>968.13</v>
       </c>
-      <c r="K6" s="41">
+      <c r="K6" s="39">
         <v>973.33</v>
       </c>
-      <c r="L6" s="41">
+      <c r="L6" s="39">
         <v>976.28</v>
       </c>
-      <c r="M6" s="41">
+      <c r="M6" s="39">
         <v>954.57</v>
       </c>
-      <c r="N6" s="41">
+      <c r="N6" s="39">
         <v>934.99</v>
       </c>
-      <c r="O6" s="41">
+      <c r="O6" s="39">
         <v>948.02</v>
       </c>
-      <c r="P6" s="41">
+      <c r="P6" s="39">
         <v>955.21</v>
       </c>
-      <c r="Q6" s="41">
+      <c r="Q6" s="39">
         <v>962.76</v>
       </c>
-      <c r="R6" s="41">
-        <v>975.8</v>
+      <c r="R6" s="39">
+        <v>969.68</v>
+      </c>
+      <c r="S6" s="39">
+        <v>966</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="41">
+      <c r="B7" s="39">
         <v>788.1</v>
       </c>
-      <c r="C7" s="41">
+      <c r="C7" s="39">
         <v>807.65</v>
       </c>
-      <c r="D7" s="41">
+      <c r="D7" s="39">
         <v>802.7</v>
       </c>
-      <c r="E7" s="41">
+      <c r="E7" s="39">
         <v>799.84</v>
       </c>
-      <c r="F7" s="41">
+      <c r="F7" s="39">
         <v>794.42</v>
       </c>
-      <c r="G7" s="41">
+      <c r="G7" s="39">
         <v>798.66</v>
       </c>
-      <c r="H7" s="41">
+      <c r="H7" s="39">
         <v>796.49</v>
       </c>
-      <c r="I7" s="41">
+      <c r="I7" s="39">
         <v>819.94</v>
       </c>
-      <c r="J7" s="41">
+      <c r="J7" s="39">
         <v>799.8</v>
       </c>
-      <c r="K7" s="41">
+      <c r="K7" s="39">
         <v>801.86</v>
       </c>
-      <c r="L7" s="41">
+      <c r="L7" s="39">
         <v>812.41</v>
       </c>
-      <c r="M7" s="41">
+      <c r="M7" s="39">
         <v>797.48</v>
       </c>
-      <c r="N7" s="41">
+      <c r="N7" s="39">
         <v>803.06</v>
       </c>
-      <c r="O7" s="41">
+      <c r="O7" s="39">
         <v>810.54</v>
       </c>
-      <c r="P7" s="41">
+      <c r="P7" s="39">
         <v>813.6</v>
       </c>
-      <c r="Q7" s="41">
+      <c r="Q7" s="39">
         <v>820.46</v>
       </c>
-      <c r="R7" s="41">
-        <v>828.8</v>
+      <c r="R7" s="39">
+        <v>841.12</v>
+      </c>
+      <c r="S7" s="39">
+        <v>819.41</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="41">
+      <c r="B8" s="39">
         <v>670.89</v>
       </c>
-      <c r="C8" s="41">
+      <c r="C8" s="39">
         <v>674.57</v>
       </c>
-      <c r="D8" s="41">
+      <c r="D8" s="39">
         <v>676.55</v>
       </c>
-      <c r="E8" s="41">
+      <c r="E8" s="39">
         <v>670.55</v>
       </c>
-      <c r="F8" s="41">
+      <c r="F8" s="39">
         <v>666.79</v>
       </c>
-      <c r="G8" s="41">
+      <c r="G8" s="39">
         <v>661.65</v>
       </c>
-      <c r="H8" s="41">
+      <c r="H8" s="39">
         <v>667.36</v>
       </c>
-      <c r="I8" s="41">
+      <c r="I8" s="39">
         <v>684.39</v>
       </c>
-      <c r="J8" s="41">
+      <c r="J8" s="39">
         <v>669.19</v>
       </c>
-      <c r="K8" s="41">
+      <c r="K8" s="39">
         <v>675.86</v>
       </c>
-      <c r="L8" s="41">
+      <c r="L8" s="39">
         <v>686.26</v>
       </c>
-      <c r="M8" s="41">
+      <c r="M8" s="39">
         <v>675.37</v>
       </c>
-      <c r="N8" s="41">
+      <c r="N8" s="39">
         <v>675.35</v>
       </c>
-      <c r="O8" s="41">
+      <c r="O8" s="39">
         <v>673.93</v>
       </c>
-      <c r="P8" s="41">
+      <c r="P8" s="39">
         <v>664.99</v>
       </c>
-      <c r="Q8" s="41">
+      <c r="Q8" s="39">
         <v>675.66</v>
       </c>
-      <c r="R8" s="41">
+      <c r="R8" s="39">
         <v>687.37</v>
       </c>
+      <c r="S8" s="39">
+        <v>685.31</v>
+      </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="41">
+      <c r="B9" s="39">
         <v>955.48</v>
       </c>
-      <c r="C9" s="41">
+      <c r="C9" s="39">
         <v>980.69</v>
       </c>
-      <c r="D9" s="41">
+      <c r="D9" s="39">
         <v>980.7</v>
       </c>
-      <c r="E9" s="41">
+      <c r="E9" s="39">
         <v>961.14</v>
       </c>
-      <c r="F9" s="41">
+      <c r="F9" s="39">
         <v>960.06</v>
       </c>
-      <c r="G9" s="41">
+      <c r="G9" s="39">
         <v>962.21</v>
       </c>
-      <c r="H9" s="41">
+      <c r="H9" s="39">
         <v>963.59</v>
       </c>
-      <c r="I9" s="41">
+      <c r="I9" s="39">
         <v>994.39</v>
       </c>
-      <c r="J9" s="41">
+      <c r="J9" s="39">
         <v>960.45</v>
       </c>
-      <c r="K9" s="41">
+      <c r="K9" s="39">
         <v>970.14</v>
       </c>
-      <c r="L9" s="41">
+      <c r="L9" s="39">
         <v>994.73</v>
       </c>
-      <c r="M9" s="41">
+      <c r="M9" s="39">
         <v>969.8</v>
       </c>
-      <c r="N9" s="41">
+      <c r="N9" s="39">
         <v>970.25</v>
       </c>
-      <c r="O9" s="41">
+      <c r="O9" s="39">
         <v>974.7</v>
       </c>
-      <c r="P9" s="41">
+      <c r="P9" s="39">
         <v>970.15</v>
       </c>
-      <c r="Q9" s="41">
+      <c r="Q9" s="39">
         <v>979.61</v>
       </c>
-      <c r="R9" s="41">
-        <v>1010.01</v>
+      <c r="R9" s="39">
+        <v>1009.31</v>
+      </c>
+      <c r="S9" s="39">
+        <v>980.29</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="41">
+      <c r="B10" s="39">
         <v>895.1</v>
       </c>
-      <c r="C10" s="41">
+      <c r="C10" s="39">
         <v>919.86</v>
       </c>
-      <c r="D10" s="41">
+      <c r="D10" s="39">
         <v>922.26</v>
       </c>
-      <c r="E10" s="41">
+      <c r="E10" s="39">
         <v>902.16</v>
       </c>
-      <c r="F10" s="41">
+      <c r="F10" s="39">
         <v>903.83</v>
       </c>
-      <c r="G10" s="41">
+      <c r="G10" s="39">
         <v>897.94</v>
       </c>
-      <c r="H10" s="41">
+      <c r="H10" s="39">
         <v>912.52</v>
       </c>
-      <c r="I10" s="41">
+      <c r="I10" s="39">
         <v>939.6</v>
       </c>
-      <c r="J10" s="41">
+      <c r="J10" s="39">
         <v>908.86</v>
       </c>
-      <c r="K10" s="41">
+      <c r="K10" s="39">
         <v>917.67</v>
       </c>
-      <c r="L10" s="41">
+      <c r="L10" s="39">
         <v>927.18</v>
       </c>
-      <c r="M10" s="41">
+      <c r="M10" s="39">
         <v>897.4</v>
       </c>
-      <c r="N10" s="41">
+      <c r="N10" s="39">
         <v>915.83</v>
       </c>
-      <c r="O10" s="41">
+      <c r="O10" s="39">
         <v>912.34</v>
       </c>
-      <c r="P10" s="41">
+      <c r="P10" s="39">
         <v>910.09</v>
       </c>
-      <c r="Q10" s="41">
+      <c r="Q10" s="39">
         <v>910.68</v>
       </c>
-      <c r="R10" s="41">
-        <v>927.84</v>
+      <c r="R10" s="39">
+        <v>926.15</v>
+      </c>
+      <c r="S10" s="39">
+        <v>904.51</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="41">
+      <c r="B11" s="39">
         <v>956.09</v>
       </c>
-      <c r="C11" s="41">
+      <c r="C11" s="39">
         <v>973.28</v>
       </c>
-      <c r="D11" s="41">
+      <c r="D11" s="39">
         <v>975.74</v>
       </c>
-      <c r="E11" s="41">
+      <c r="E11" s="39">
         <v>962.46</v>
       </c>
-      <c r="F11" s="41">
+      <c r="F11" s="39">
         <v>955.04</v>
       </c>
-      <c r="G11" s="41">
+      <c r="G11" s="39">
         <v>957.38</v>
       </c>
-      <c r="H11" s="41">
+      <c r="H11" s="39">
         <v>961.92</v>
       </c>
-      <c r="I11" s="41">
+      <c r="I11" s="39">
         <v>997.9</v>
       </c>
-      <c r="J11" s="41">
+      <c r="J11" s="39">
         <v>984.97</v>
       </c>
-      <c r="K11" s="41">
+      <c r="K11" s="39">
         <v>993.81</v>
       </c>
-      <c r="L11" s="41">
+      <c r="L11" s="39">
         <v>1010.28</v>
       </c>
-      <c r="M11" s="41">
+      <c r="M11" s="39">
         <v>1001.28</v>
       </c>
-      <c r="N11" s="41">
+      <c r="N11" s="39">
         <v>1005.3</v>
       </c>
-      <c r="O11" s="41">
+      <c r="O11" s="39">
         <v>1003.59</v>
       </c>
-      <c r="P11" s="41">
+      <c r="P11" s="39">
         <v>999.32</v>
       </c>
-      <c r="Q11" s="41">
+      <c r="Q11" s="39">
         <v>1019.37</v>
       </c>
-      <c r="R11" s="41">
-        <v>1042.44</v>
+      <c r="R11" s="39">
+        <v>1044.1400000000001</v>
+      </c>
+      <c r="S11" s="39">
+        <v>1005.65</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="41">
+      <c r="B12" s="39">
         <v>730.52</v>
       </c>
-      <c r="C12" s="41">
+      <c r="C12" s="39">
         <v>750.25</v>
       </c>
-      <c r="D12" s="41">
+      <c r="D12" s="39">
         <v>751.25</v>
       </c>
-      <c r="E12" s="41">
+      <c r="E12" s="39">
         <v>741.59</v>
       </c>
-      <c r="F12" s="41">
+      <c r="F12" s="39">
         <v>738.81</v>
       </c>
-      <c r="G12" s="41">
+      <c r="G12" s="39">
         <v>728.97</v>
       </c>
-      <c r="H12" s="41">
+      <c r="H12" s="39">
         <v>738.81</v>
       </c>
-      <c r="I12" s="41">
+      <c r="I12" s="39">
         <v>759.45</v>
       </c>
-      <c r="J12" s="41">
+      <c r="J12" s="39">
         <v>759.28</v>
       </c>
-      <c r="K12" s="41">
+      <c r="K12" s="39">
         <v>761.54</v>
       </c>
-      <c r="L12" s="41">
+      <c r="L12" s="39">
         <v>765.61</v>
       </c>
-      <c r="M12" s="41">
+      <c r="M12" s="39">
         <v>782.21</v>
       </c>
-      <c r="N12" s="41">
+      <c r="N12" s="39">
         <v>799.53</v>
       </c>
-      <c r="O12" s="41">
+      <c r="O12" s="39">
         <v>803.2</v>
       </c>
-      <c r="P12" s="41">
+      <c r="P12" s="39">
         <v>806.86</v>
       </c>
-      <c r="Q12" s="41">
+      <c r="Q12" s="39">
         <v>810.41</v>
       </c>
-      <c r="R12" s="41">
-        <v>809.42</v>
+      <c r="R12" s="39">
+        <v>811.52</v>
+      </c>
+      <c r="S12" s="39">
+        <v>797.97</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="41">
+      <c r="B13" s="39">
         <v>1398.23</v>
       </c>
-      <c r="C13" s="41">
+      <c r="C13" s="39">
         <v>1490.03</v>
       </c>
-      <c r="D13" s="41">
+      <c r="D13" s="39">
         <v>1474.93</v>
       </c>
-      <c r="E13" s="41">
+      <c r="E13" s="39">
         <v>1382.37</v>
       </c>
-      <c r="F13" s="41">
+      <c r="F13" s="39">
         <v>1367.2</v>
       </c>
-      <c r="G13" s="41">
+      <c r="G13" s="39">
         <v>1359.65</v>
       </c>
-      <c r="H13" s="41">
+      <c r="H13" s="39">
         <v>1317.75</v>
       </c>
-      <c r="I13" s="41">
+      <c r="I13" s="39">
         <v>1363.12</v>
       </c>
-      <c r="J13" s="41">
+      <c r="J13" s="39">
         <v>1308.3</v>
       </c>
-      <c r="K13" s="41">
+      <c r="K13" s="39">
         <v>1273.6199999999999</v>
       </c>
-      <c r="L13" s="41">
+      <c r="L13" s="39">
         <v>1345.68</v>
       </c>
-      <c r="M13" s="41">
+      <c r="M13" s="39">
         <v>1298.8800000000001</v>
       </c>
-      <c r="N13" s="41">
+      <c r="N13" s="39">
         <v>1287.97</v>
       </c>
-      <c r="O13" s="41">
+      <c r="O13" s="39">
         <v>1305.3900000000001</v>
       </c>
-      <c r="P13" s="41">
+      <c r="P13" s="39">
         <v>1306.6099999999999</v>
       </c>
-      <c r="Q13" s="41">
+      <c r="Q13" s="39">
         <v>1333.58</v>
       </c>
-      <c r="R13" s="41">
-        <v>1412.43</v>
+      <c r="R13" s="39">
+        <v>1413.05</v>
+      </c>
+      <c r="S13" s="39">
+        <v>1344.03</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="41">
+      <c r="B14" s="39">
         <v>761.11</v>
       </c>
-      <c r="C14" s="41">
+      <c r="C14" s="39">
         <v>781.79</v>
       </c>
-      <c r="D14" s="41">
+      <c r="D14" s="39">
         <v>779.02</v>
       </c>
-      <c r="E14" s="41">
+      <c r="E14" s="39">
         <v>769.01</v>
       </c>
-      <c r="F14" s="41">
+      <c r="F14" s="39">
         <v>769.84</v>
       </c>
-      <c r="G14" s="41">
+      <c r="G14" s="39">
         <v>764.18</v>
       </c>
-      <c r="H14" s="41">
+      <c r="H14" s="39">
         <v>771.21</v>
       </c>
-      <c r="I14" s="41">
+      <c r="I14" s="39">
         <v>786.6</v>
       </c>
-      <c r="J14" s="41">
+      <c r="J14" s="39">
         <v>772.92</v>
       </c>
-      <c r="K14" s="41">
+      <c r="K14" s="39">
         <v>777.82</v>
       </c>
-      <c r="L14" s="41">
+      <c r="L14" s="39">
         <v>792.81</v>
       </c>
-      <c r="M14" s="41">
+      <c r="M14" s="39">
         <v>784.78</v>
       </c>
-      <c r="N14" s="41">
+      <c r="N14" s="39">
         <v>777.02</v>
       </c>
-      <c r="O14" s="41">
+      <c r="O14" s="39">
         <v>782.5</v>
       </c>
-      <c r="P14" s="41">
+      <c r="P14" s="39">
         <v>788.39</v>
       </c>
-      <c r="Q14" s="41">
+      <c r="Q14" s="39">
         <v>788.65</v>
       </c>
-      <c r="R14" s="41">
-        <v>802.96</v>
+      <c r="R14" s="39">
+        <v>797.89</v>
+      </c>
+      <c r="S14" s="39">
+        <v>787.84</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="41">
+      <c r="B15" s="39">
         <v>830.33</v>
       </c>
-      <c r="C15" s="41">
+      <c r="C15" s="39">
         <v>849.32</v>
       </c>
-      <c r="D15" s="41">
+      <c r="D15" s="39">
         <v>844.38</v>
       </c>
-      <c r="E15" s="41">
+      <c r="E15" s="39">
         <v>823.02</v>
       </c>
-      <c r="F15" s="41">
+      <c r="F15" s="39">
         <v>824.85</v>
       </c>
-      <c r="G15" s="41">
+      <c r="G15" s="39">
         <v>820.99</v>
       </c>
-      <c r="H15" s="41">
+      <c r="H15" s="39">
         <v>826.61</v>
       </c>
-      <c r="I15" s="41">
+      <c r="I15" s="39">
         <v>848.7</v>
       </c>
-      <c r="J15" s="41">
+      <c r="J15" s="39">
         <v>825.11</v>
       </c>
-      <c r="K15" s="41">
+      <c r="K15" s="39">
         <v>839.03</v>
       </c>
-      <c r="L15" s="41">
+      <c r="L15" s="39">
         <v>852.23</v>
       </c>
-      <c r="M15" s="41">
+      <c r="M15" s="39">
         <v>839.72</v>
       </c>
-      <c r="N15" s="41">
+      <c r="N15" s="39">
         <v>839.36</v>
       </c>
-      <c r="O15" s="41">
+      <c r="O15" s="39">
         <v>842.17</v>
       </c>
-      <c r="P15" s="41">
+      <c r="P15" s="39">
         <v>840.43</v>
       </c>
-      <c r="Q15" s="41">
+      <c r="Q15" s="39">
         <v>842.51</v>
       </c>
-      <c r="R15" s="41">
-        <v>877.91</v>
+      <c r="R15" s="39">
+        <v>865.22</v>
+      </c>
+      <c r="S15" s="39">
+        <v>843.18</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="41">
+      <c r="B16" s="39">
         <v>813.73</v>
       </c>
-      <c r="C16" s="41">
+      <c r="C16" s="39">
         <v>839.2</v>
       </c>
-      <c r="D16" s="41">
+      <c r="D16" s="39">
         <v>839.54</v>
       </c>
-      <c r="E16" s="41">
+      <c r="E16" s="39">
         <v>811.47</v>
       </c>
-      <c r="F16" s="41">
+      <c r="F16" s="39">
         <v>812.13</v>
       </c>
-      <c r="G16" s="41">
+      <c r="G16" s="39">
         <v>804.41</v>
       </c>
-      <c r="H16" s="41">
+      <c r="H16" s="39">
         <v>814.19</v>
       </c>
-      <c r="I16" s="41">
+      <c r="I16" s="39">
         <v>833.68</v>
       </c>
-      <c r="J16" s="41">
+      <c r="J16" s="39">
         <v>797.72</v>
       </c>
-      <c r="K16" s="41">
+      <c r="K16" s="39">
         <v>806.2</v>
       </c>
-      <c r="L16" s="41">
+      <c r="L16" s="39">
         <v>833.15</v>
       </c>
-      <c r="M16" s="41">
+      <c r="M16" s="39">
         <v>828.3</v>
       </c>
-      <c r="N16" s="41">
+      <c r="N16" s="39">
         <v>824.92</v>
       </c>
-      <c r="O16" s="41">
+      <c r="O16" s="39">
         <v>827.64</v>
       </c>
-      <c r="P16" s="41">
+      <c r="P16" s="39">
         <v>822.17</v>
       </c>
-      <c r="Q16" s="41">
+      <c r="Q16" s="39">
         <v>829.27</v>
       </c>
-      <c r="R16" s="41">
-        <v>851.76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="42" t="s">
+      <c r="R16" s="39">
+        <v>854.11</v>
+      </c>
+      <c r="S16" s="39">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="41">
+      <c r="B17" s="39">
         <v>717.53</v>
       </c>
-      <c r="C17" s="41">
+      <c r="C17" s="39">
         <v>744.77</v>
       </c>
-      <c r="D17" s="41">
+      <c r="D17" s="39">
         <v>736.35</v>
       </c>
-      <c r="E17" s="41">
+      <c r="E17" s="39">
         <v>733.6</v>
       </c>
-      <c r="F17" s="41">
+      <c r="F17" s="39">
         <v>735.13</v>
       </c>
-      <c r="G17" s="41">
+      <c r="G17" s="39">
         <v>735.5</v>
       </c>
-      <c r="H17" s="41">
+      <c r="H17" s="39">
         <v>740.04</v>
       </c>
-      <c r="I17" s="41">
+      <c r="I17" s="39">
         <v>765.9</v>
       </c>
-      <c r="J17" s="41">
+      <c r="J17" s="39">
         <v>732.39</v>
       </c>
-      <c r="K17" s="41">
+      <c r="K17" s="39">
         <v>738.7</v>
       </c>
-      <c r="L17" s="41">
+      <c r="L17" s="39">
         <v>748.39</v>
       </c>
-      <c r="M17" s="41">
+      <c r="M17" s="39">
         <v>732.15</v>
       </c>
-      <c r="N17" s="41">
+      <c r="N17" s="39">
         <v>731.92</v>
       </c>
-      <c r="O17" s="41">
+      <c r="O17" s="39">
         <v>729.65</v>
       </c>
-      <c r="P17" s="41">
+      <c r="P17" s="39">
         <v>727.06</v>
       </c>
-      <c r="Q17" s="41">
+      <c r="Q17" s="39">
         <v>742.62</v>
       </c>
-      <c r="R17" s="41">
-        <v>758.59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="42" t="s">
+      <c r="R17" s="39">
+        <v>755.66</v>
+      </c>
+      <c r="S17" s="39">
+        <v>732.83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="41">
+      <c r="B18" s="39">
         <v>872.59</v>
       </c>
-      <c r="C18" s="41">
+      <c r="C18" s="39">
         <v>901.14</v>
       </c>
-      <c r="D18" s="41">
+      <c r="D18" s="39">
         <v>893.71</v>
       </c>
-      <c r="E18" s="41">
+      <c r="E18" s="39">
         <v>878.76</v>
       </c>
-      <c r="F18" s="41">
+      <c r="F18" s="39">
         <v>879.28</v>
       </c>
-      <c r="G18" s="41">
+      <c r="G18" s="39">
         <v>878.77</v>
       </c>
-      <c r="H18" s="41">
+      <c r="H18" s="39">
         <v>880.99</v>
       </c>
-      <c r="I18" s="41">
+      <c r="I18" s="39">
         <v>905.5</v>
       </c>
-      <c r="J18" s="41">
+      <c r="J18" s="39">
         <v>887.49</v>
       </c>
-      <c r="K18" s="41">
+      <c r="K18" s="39">
         <v>902.31</v>
       </c>
-      <c r="L18" s="41">
+      <c r="L18" s="39">
         <v>920.94</v>
       </c>
-      <c r="M18" s="41">
+      <c r="M18" s="39">
         <v>902.09</v>
       </c>
-      <c r="N18" s="41">
+      <c r="N18" s="39">
         <v>900.38</v>
       </c>
-      <c r="O18" s="41">
+      <c r="O18" s="39">
         <v>894.01</v>
       </c>
-      <c r="P18" s="41">
+      <c r="P18" s="39">
         <v>896.99</v>
       </c>
-      <c r="Q18" s="41">
+      <c r="Q18" s="39">
         <v>899.03</v>
       </c>
-      <c r="R18" s="41">
-        <v>917.18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="42" t="s">
+      <c r="R18" s="39">
+        <v>915.47</v>
+      </c>
+      <c r="S18" s="39">
+        <v>894.67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="41">
+      <c r="B19" s="39">
         <v>798.1</v>
       </c>
-      <c r="C19" s="41">
+      <c r="C19" s="39">
         <v>800.1</v>
       </c>
-      <c r="D19" s="41">
+      <c r="D19" s="39">
         <v>797.3</v>
       </c>
-      <c r="E19" s="41">
+      <c r="E19" s="39">
         <v>790.31</v>
       </c>
-      <c r="F19" s="41">
+      <c r="F19" s="39">
         <v>792.75</v>
       </c>
-      <c r="G19" s="41">
+      <c r="G19" s="39">
         <v>790.49</v>
       </c>
-      <c r="H19" s="41">
+      <c r="H19" s="39">
         <v>791.7</v>
       </c>
-      <c r="I19" s="41">
+      <c r="I19" s="39">
         <v>810.84</v>
       </c>
-      <c r="J19" s="41">
+      <c r="J19" s="39">
         <v>791.09</v>
       </c>
-      <c r="K19" s="41">
+      <c r="K19" s="39">
         <v>799.21</v>
       </c>
-      <c r="L19" s="41">
+      <c r="L19" s="39">
         <v>807.45</v>
       </c>
-      <c r="M19" s="41">
+      <c r="M19" s="39">
         <v>807.3</v>
       </c>
-      <c r="N19" s="41">
+      <c r="N19" s="39">
         <v>804.54</v>
       </c>
-      <c r="O19" s="41">
+      <c r="O19" s="39">
         <v>796.79</v>
       </c>
-      <c r="P19" s="41">
+      <c r="P19" s="39">
         <v>794.05</v>
       </c>
-      <c r="Q19" s="41">
+      <c r="Q19" s="39">
         <v>808.68</v>
       </c>
-      <c r="R19" s="41">
-        <v>813.28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="42" t="s">
+      <c r="R19" s="39">
+        <v>814.32</v>
+      </c>
+      <c r="S19" s="39">
+        <v>805.73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="41">
+      <c r="B20" s="39">
         <v>755.82</v>
       </c>
-      <c r="C20" s="41">
+      <c r="C20" s="39">
         <v>775.34</v>
       </c>
-      <c r="D20" s="41">
+      <c r="D20" s="39">
         <v>775.55</v>
       </c>
-      <c r="E20" s="41">
+      <c r="E20" s="39">
         <v>780.06</v>
       </c>
-      <c r="F20" s="41">
+      <c r="F20" s="39">
         <v>780.92</v>
       </c>
-      <c r="G20" s="41">
+      <c r="G20" s="39">
         <v>776.04</v>
       </c>
-      <c r="H20" s="41">
+      <c r="H20" s="39">
         <v>780.71</v>
       </c>
-      <c r="I20" s="41">
+      <c r="I20" s="39">
         <v>812.25</v>
       </c>
-      <c r="J20" s="41">
+      <c r="J20" s="39">
         <v>792.81</v>
       </c>
-      <c r="K20" s="41">
+      <c r="K20" s="39">
         <v>796.02</v>
       </c>
-      <c r="L20" s="41">
+      <c r="L20" s="39">
         <v>781.1</v>
       </c>
-      <c r="M20" s="41">
+      <c r="M20" s="39">
         <v>777.92</v>
       </c>
-      <c r="N20" s="41">
+      <c r="N20" s="39">
         <v>768.95</v>
       </c>
-      <c r="O20" s="41">
+      <c r="O20" s="39">
         <v>770.64</v>
       </c>
-      <c r="P20" s="41">
+      <c r="P20" s="39">
         <v>784.04</v>
       </c>
-      <c r="Q20" s="41">
+      <c r="Q20" s="39">
         <v>806.61</v>
       </c>
-      <c r="R20" s="41">
-        <v>812.33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="42" t="s">
+      <c r="R20" s="39">
+        <v>808.6</v>
+      </c>
+      <c r="S20" s="39">
+        <v>833.18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="41">
+      <c r="B21" s="39">
         <v>770.18</v>
       </c>
-      <c r="C21" s="41">
+      <c r="C21" s="39">
         <v>781.77</v>
       </c>
-      <c r="D21" s="41">
+      <c r="D21" s="39">
         <v>777.81</v>
       </c>
-      <c r="E21" s="41">
+      <c r="E21" s="39">
         <v>756.84</v>
       </c>
-      <c r="F21" s="41">
+      <c r="F21" s="39">
         <v>761.11</v>
       </c>
-      <c r="G21" s="41">
+      <c r="G21" s="39">
         <v>767.08</v>
       </c>
-      <c r="H21" s="41">
+      <c r="H21" s="39">
         <v>769.18</v>
       </c>
-      <c r="I21" s="41">
+      <c r="I21" s="39">
         <v>789.6</v>
       </c>
-      <c r="J21" s="41">
+      <c r="J21" s="39">
         <v>768.4</v>
       </c>
-      <c r="K21" s="41">
+      <c r="K21" s="39">
         <v>779.08</v>
       </c>
-      <c r="L21" s="41">
+      <c r="L21" s="39">
         <v>790.17</v>
       </c>
-      <c r="M21" s="41">
+      <c r="M21" s="39">
         <v>783.82</v>
       </c>
-      <c r="N21" s="41">
+      <c r="N21" s="39">
         <v>772.13</v>
       </c>
-      <c r="O21" s="41">
+      <c r="O21" s="39">
         <v>766.82</v>
       </c>
-      <c r="P21" s="41">
+      <c r="P21" s="39">
         <v>760.45</v>
       </c>
-      <c r="Q21" s="41">
+      <c r="Q21" s="39">
         <v>767.53</v>
       </c>
-      <c r="R21" s="41">
-        <v>766.42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="42" t="s">
+      <c r="R21" s="39">
+        <v>766.08</v>
+      </c>
+      <c r="S21" s="39">
+        <v>762.62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="41">
+      <c r="B22" s="39">
         <v>740.23</v>
       </c>
-      <c r="C22" s="41">
+      <c r="C22" s="39">
         <v>731.34</v>
       </c>
-      <c r="D22" s="41">
+      <c r="D22" s="39">
         <v>740.95</v>
       </c>
-      <c r="E22" s="41">
+      <c r="E22" s="39">
         <v>739.55</v>
       </c>
-      <c r="F22" s="41">
+      <c r="F22" s="39">
         <v>742.02</v>
       </c>
-      <c r="G22" s="41">
+      <c r="G22" s="39">
         <v>742.34</v>
       </c>
-      <c r="H22" s="41">
+      <c r="H22" s="39">
         <v>749.06</v>
       </c>
-      <c r="I22" s="41">
+      <c r="I22" s="39">
         <v>754.7</v>
       </c>
-      <c r="J22" s="41">
+      <c r="J22" s="39">
         <v>744.12</v>
       </c>
-      <c r="K22" s="41">
+      <c r="K22" s="39">
         <v>741.95</v>
       </c>
-      <c r="L22" s="41">
+      <c r="L22" s="39">
         <v>747.56</v>
       </c>
-      <c r="M22" s="41">
+      <c r="M22" s="39">
         <v>751.08</v>
       </c>
-      <c r="N22" s="41">
+      <c r="N22" s="39">
         <v>739.5</v>
       </c>
-      <c r="O22" s="41">
+      <c r="O22" s="39">
         <v>732.89</v>
       </c>
-      <c r="P22" s="41">
+      <c r="P22" s="39">
         <v>741.31</v>
       </c>
-      <c r="Q22" s="41">
+      <c r="Q22" s="39">
         <v>744.1</v>
       </c>
-      <c r="R22" s="41">
-        <v>739.55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="42" t="s">
+      <c r="R22" s="39">
+        <v>740.25</v>
+      </c>
+      <c r="S22" s="39">
+        <v>748.7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="41">
+      <c r="B23" s="39">
         <v>794.47</v>
       </c>
-      <c r="C23" s="41">
+      <c r="C23" s="39">
         <v>806.26</v>
       </c>
-      <c r="D23" s="41">
+      <c r="D23" s="39">
         <v>801.29</v>
       </c>
-      <c r="E23" s="41">
+      <c r="E23" s="39">
         <v>794.68</v>
       </c>
-      <c r="F23" s="41">
+      <c r="F23" s="39">
         <v>786.88</v>
       </c>
-      <c r="G23" s="41">
+      <c r="G23" s="39">
         <v>788.01</v>
       </c>
-      <c r="H23" s="41">
+      <c r="H23" s="39">
         <v>787.29</v>
       </c>
-      <c r="I23" s="41">
+      <c r="I23" s="39">
         <v>807.68</v>
       </c>
-      <c r="J23" s="41">
+      <c r="J23" s="39">
         <v>784.11</v>
       </c>
-      <c r="K23" s="41">
+      <c r="K23" s="39">
         <v>801.29</v>
       </c>
-      <c r="L23" s="41">
+      <c r="L23" s="39">
         <v>812.52</v>
       </c>
-      <c r="M23" s="41">
+      <c r="M23" s="39">
         <v>802.28</v>
       </c>
-      <c r="N23" s="41">
+      <c r="N23" s="39">
         <v>795.66</v>
       </c>
-      <c r="O23" s="41">
+      <c r="O23" s="39">
         <v>786.59</v>
       </c>
-      <c r="P23" s="41">
+      <c r="P23" s="39">
         <v>776.08</v>
       </c>
-      <c r="Q23" s="41">
+      <c r="Q23" s="39">
         <v>789.6</v>
       </c>
-      <c r="R23" s="41">
-        <v>806.34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="42" t="s">
+      <c r="R23" s="39">
+        <v>804.08</v>
+      </c>
+      <c r="S23" s="39">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="41">
+      <c r="B24" s="39">
         <v>743.43</v>
       </c>
-      <c r="C24" s="41">
+      <c r="C24" s="39">
         <v>748</v>
       </c>
-      <c r="D24" s="41">
+      <c r="D24" s="39">
         <v>753.95</v>
       </c>
-      <c r="E24" s="41">
+      <c r="E24" s="39">
         <v>743.77</v>
       </c>
-      <c r="F24" s="41">
+      <c r="F24" s="39">
         <v>743.28</v>
       </c>
-      <c r="G24" s="41">
+      <c r="G24" s="39">
         <v>736.08</v>
       </c>
-      <c r="H24" s="41">
+      <c r="H24" s="39">
         <v>741.13</v>
       </c>
-      <c r="I24" s="41">
+      <c r="I24" s="39">
         <v>747.44</v>
       </c>
-      <c r="J24" s="41">
+      <c r="J24" s="39">
         <v>752.79</v>
       </c>
-      <c r="K24" s="41">
+      <c r="K24" s="39">
         <v>754.94</v>
       </c>
-      <c r="L24" s="41">
+      <c r="L24" s="39">
         <v>761.46</v>
       </c>
-      <c r="M24" s="41">
+      <c r="M24" s="39">
         <v>758.38</v>
       </c>
-      <c r="N24" s="41">
+      <c r="N24" s="39">
         <v>749.06</v>
       </c>
-      <c r="O24" s="41">
+      <c r="O24" s="39">
         <v>751.17</v>
       </c>
-      <c r="P24" s="41">
+      <c r="P24" s="39">
         <v>751.04</v>
       </c>
-      <c r="Q24" s="41">
+      <c r="Q24" s="39">
         <v>753.06</v>
       </c>
-      <c r="R24" s="41">
-        <v>756.68</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="42" t="s">
+      <c r="R24" s="39">
+        <v>754.8</v>
+      </c>
+      <c r="S24" s="39">
+        <v>742.56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="41">
+      <c r="B25" s="39">
         <v>920.41</v>
       </c>
-      <c r="C25" s="41">
+      <c r="C25" s="39">
         <v>939.37</v>
       </c>
-      <c r="D25" s="41">
+      <c r="D25" s="39">
         <v>946.96</v>
       </c>
-      <c r="E25" s="41">
+      <c r="E25" s="39">
         <v>930.25</v>
       </c>
-      <c r="F25" s="41">
+      <c r="F25" s="39">
         <v>928.84</v>
       </c>
-      <c r="G25" s="41">
+      <c r="G25" s="39">
         <v>919.58</v>
       </c>
-      <c r="H25" s="41">
+      <c r="H25" s="39">
         <v>920.2</v>
       </c>
-      <c r="I25" s="41">
+      <c r="I25" s="39">
         <v>946.62</v>
       </c>
-      <c r="J25" s="41">
+      <c r="J25" s="39">
         <v>938.4</v>
       </c>
-      <c r="K25" s="41">
+      <c r="K25" s="39">
         <v>941.47</v>
       </c>
-      <c r="L25" s="41">
+      <c r="L25" s="39">
         <v>958.07</v>
       </c>
-      <c r="M25" s="41">
+      <c r="M25" s="39">
         <v>939.13</v>
       </c>
-      <c r="N25" s="41">
+      <c r="N25" s="39">
         <v>919.97</v>
       </c>
-      <c r="O25" s="41">
+      <c r="O25" s="39">
         <v>916.64</v>
       </c>
-      <c r="P25" s="41">
+      <c r="P25" s="39">
         <v>924.45</v>
       </c>
-      <c r="Q25" s="41">
+      <c r="Q25" s="39">
         <v>929.21</v>
       </c>
-      <c r="R25" s="41">
-        <v>942.91</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="42" t="s">
+      <c r="R25" s="39">
+        <v>939.47</v>
+      </c>
+      <c r="S25" s="39">
+        <v>924.04</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="41">
+      <c r="B26" s="39">
         <v>1008.56</v>
       </c>
-      <c r="C26" s="41">
+      <c r="C26" s="39">
         <v>1009.8</v>
       </c>
-      <c r="D26" s="41">
+      <c r="D26" s="39">
         <v>1015.03</v>
       </c>
-      <c r="E26" s="41">
+      <c r="E26" s="39">
         <v>1006.99</v>
       </c>
-      <c r="F26" s="41">
+      <c r="F26" s="39">
         <v>1011.37</v>
       </c>
-      <c r="G26" s="41">
+      <c r="G26" s="39">
         <v>1002.99</v>
       </c>
-      <c r="H26" s="41">
+      <c r="H26" s="39">
         <v>1004.3</v>
       </c>
-      <c r="I26" s="41">
+      <c r="I26" s="39">
         <v>1021.77</v>
       </c>
-      <c r="J26" s="41">
+      <c r="J26" s="39">
         <v>1018.4</v>
       </c>
-      <c r="K26" s="41">
+      <c r="K26" s="39">
         <v>1031.47</v>
       </c>
-      <c r="L26" s="41">
+      <c r="L26" s="39">
         <v>1055.57</v>
       </c>
-      <c r="M26" s="41">
+      <c r="M26" s="39">
         <v>1044.03</v>
       </c>
-      <c r="N26" s="41">
+      <c r="N26" s="39">
         <v>1044.95</v>
       </c>
-      <c r="O26" s="41">
+      <c r="O26" s="39">
         <v>1038.02</v>
       </c>
-      <c r="P26" s="41">
+      <c r="P26" s="39">
         <v>1035.3</v>
       </c>
-      <c r="Q26" s="41">
+      <c r="Q26" s="39">
         <v>1035.6300000000001</v>
       </c>
-      <c r="R26" s="41">
-        <v>1046.6400000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="42" t="s">
+      <c r="R26" s="39">
+        <v>1050.43</v>
+      </c>
+      <c r="S26" s="39">
+        <v>1030.1300000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="41">
+      <c r="B27" s="39">
         <v>814.31</v>
       </c>
-      <c r="C27" s="41">
+      <c r="C27" s="39">
         <v>822.17</v>
       </c>
-      <c r="D27" s="41">
+      <c r="D27" s="39">
         <v>826.28</v>
       </c>
-      <c r="E27" s="41">
+      <c r="E27" s="39">
         <v>818.4</v>
       </c>
-      <c r="F27" s="41">
+      <c r="F27" s="39">
         <v>820.02</v>
       </c>
-      <c r="G27" s="41">
+      <c r="G27" s="39">
         <v>816.91</v>
       </c>
-      <c r="H27" s="41">
+      <c r="H27" s="39">
         <v>820.46</v>
       </c>
-      <c r="I27" s="41">
+      <c r="I27" s="39">
         <v>847.37</v>
       </c>
-      <c r="J27" s="41">
+      <c r="J27" s="39">
         <v>827.27</v>
       </c>
-      <c r="K27" s="41">
+      <c r="K27" s="39">
         <v>837.26</v>
       </c>
-      <c r="L27" s="41">
+      <c r="L27" s="39">
         <v>844.22</v>
       </c>
-      <c r="M27" s="41">
+      <c r="M27" s="39">
         <v>835.21</v>
       </c>
-      <c r="N27" s="41">
+      <c r="N27" s="39">
         <v>823.71</v>
       </c>
-      <c r="O27" s="41">
+      <c r="O27" s="39">
         <v>820.66</v>
       </c>
-      <c r="P27" s="41">
+      <c r="P27" s="39">
         <v>823.09</v>
       </c>
-      <c r="Q27" s="41">
+      <c r="Q27" s="39">
         <v>823.88</v>
       </c>
-      <c r="R27" s="41">
-        <v>827.66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="42" t="s">
+      <c r="R27" s="39">
+        <v>825.94</v>
+      </c>
+      <c r="S27" s="39">
+        <v>817.34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="41">
+      <c r="B28" s="39">
         <v>873.68</v>
       </c>
-      <c r="C28" s="41">
+      <c r="C28" s="39">
         <v>884.11</v>
       </c>
-      <c r="D28" s="41">
+      <c r="D28" s="39">
         <v>892.25</v>
       </c>
-      <c r="E28" s="41">
+      <c r="E28" s="39">
         <v>872.93</v>
       </c>
-      <c r="F28" s="41">
+      <c r="F28" s="39">
         <v>871.7</v>
       </c>
-      <c r="G28" s="41">
+      <c r="G28" s="39">
         <v>876.71</v>
       </c>
-      <c r="H28" s="41">
+      <c r="H28" s="39">
         <v>882.36</v>
       </c>
-      <c r="I28" s="41">
+      <c r="I28" s="39">
         <v>904.1</v>
       </c>
-      <c r="J28" s="41">
+      <c r="J28" s="39">
         <v>881.4</v>
       </c>
-      <c r="K28" s="41">
+      <c r="K28" s="39">
         <v>897.26</v>
       </c>
-      <c r="L28" s="41">
+      <c r="L28" s="39">
         <v>900.14</v>
       </c>
-      <c r="M28" s="41">
+      <c r="M28" s="39">
         <v>888.33</v>
       </c>
-      <c r="N28" s="41">
+      <c r="N28" s="39">
         <v>894.79</v>
       </c>
-      <c r="O28" s="41">
+      <c r="O28" s="39">
         <v>886.44</v>
       </c>
-      <c r="P28" s="41">
+      <c r="P28" s="39">
         <v>906.18</v>
       </c>
-      <c r="Q28" s="41">
+      <c r="Q28" s="39">
         <v>906.53</v>
       </c>
-      <c r="R28" s="41">
-        <v>928.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="42" t="s">
+      <c r="R28" s="39">
+        <v>925.76</v>
+      </c>
+      <c r="S28" s="39">
+        <v>911.09</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="41">
+      <c r="B29" s="39">
         <v>675.85</v>
       </c>
-      <c r="C29" s="41">
+      <c r="C29" s="39">
         <v>697.53</v>
       </c>
-      <c r="D29" s="41">
+      <c r="D29" s="39">
         <v>702.47</v>
       </c>
-      <c r="E29" s="41">
+      <c r="E29" s="39">
         <v>680.78</v>
       </c>
-      <c r="F29" s="41">
+      <c r="F29" s="39">
         <v>677.12</v>
       </c>
-      <c r="G29" s="41">
+      <c r="G29" s="39">
         <v>678.39</v>
       </c>
-      <c r="H29" s="41">
+      <c r="H29" s="39">
         <v>681.51</v>
       </c>
-      <c r="I29" s="41">
+      <c r="I29" s="39">
         <v>694.63</v>
       </c>
-      <c r="J29" s="41">
+      <c r="J29" s="39">
         <v>676.13</v>
       </c>
-      <c r="K29" s="41">
+      <c r="K29" s="39">
         <v>683.59</v>
       </c>
-      <c r="L29" s="41">
+      <c r="L29" s="39">
         <v>698.49</v>
       </c>
-      <c r="M29" s="41">
+      <c r="M29" s="39">
         <v>689.49</v>
       </c>
-      <c r="N29" s="41">
+      <c r="N29" s="39">
         <v>687.85</v>
       </c>
-      <c r="O29" s="41">
+      <c r="O29" s="39">
         <v>681.62</v>
       </c>
-      <c r="P29" s="41">
+      <c r="P29" s="39">
         <v>672.71</v>
       </c>
-      <c r="Q29" s="41">
+      <c r="Q29" s="39">
         <v>684.63</v>
       </c>
-      <c r="R29" s="41">
-        <v>706.73</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="42" t="s">
+      <c r="R29" s="39">
+        <v>700.79</v>
+      </c>
+      <c r="S29" s="39">
+        <v>696.84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="41">
+      <c r="B30" s="39">
         <v>743.76</v>
       </c>
-      <c r="C30" s="41">
+      <c r="C30" s="39">
         <v>759.58</v>
       </c>
-      <c r="D30" s="41">
+      <c r="D30" s="39">
         <v>757.87</v>
       </c>
-      <c r="E30" s="41">
+      <c r="E30" s="39">
         <v>747.66</v>
       </c>
-      <c r="F30" s="41">
+      <c r="F30" s="39">
         <v>743.37</v>
       </c>
-      <c r="G30" s="41">
+      <c r="G30" s="39">
         <v>743.6</v>
       </c>
-      <c r="H30" s="41">
+      <c r="H30" s="39">
         <v>743.6</v>
       </c>
-      <c r="I30" s="41">
+      <c r="I30" s="39">
         <v>759.55</v>
       </c>
-      <c r="J30" s="41">
+      <c r="J30" s="39">
         <v>742.22</v>
       </c>
-      <c r="K30" s="41">
+      <c r="K30" s="39">
         <v>744.95</v>
       </c>
-      <c r="L30" s="41">
+      <c r="L30" s="39">
         <v>755.48</v>
       </c>
-      <c r="M30" s="41">
+      <c r="M30" s="39">
         <v>745.78</v>
       </c>
-      <c r="N30" s="41">
+      <c r="N30" s="39">
         <v>743.15</v>
       </c>
-      <c r="O30" s="41">
+      <c r="O30" s="39">
         <v>738.26</v>
       </c>
-      <c r="P30" s="41">
+      <c r="P30" s="39">
         <v>740.26</v>
       </c>
-      <c r="Q30" s="41">
+      <c r="Q30" s="39">
         <v>746.79</v>
       </c>
-      <c r="R30" s="41">
-        <v>753.87</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="42" t="s">
+      <c r="R30" s="39">
+        <v>751.85</v>
+      </c>
+      <c r="S30" s="39">
+        <v>735.38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="41">
+      <c r="B31" s="39">
         <v>700.1</v>
       </c>
-      <c r="C31" s="41">
+      <c r="C31" s="39">
         <v>722.67</v>
       </c>
-      <c r="D31" s="41">
+      <c r="D31" s="39">
         <v>706.23</v>
       </c>
-      <c r="E31" s="41">
+      <c r="E31" s="39">
         <v>696.96</v>
       </c>
-      <c r="F31" s="41">
+      <c r="F31" s="39">
         <v>711.75</v>
       </c>
-      <c r="G31" s="41">
+      <c r="G31" s="39">
         <v>713.19</v>
       </c>
-      <c r="H31" s="41">
+      <c r="H31" s="39">
         <v>716.56</v>
       </c>
-      <c r="I31" s="41">
+      <c r="I31" s="39">
         <v>746.72</v>
       </c>
-      <c r="J31" s="41">
+      <c r="J31" s="39">
         <v>723.65</v>
       </c>
-      <c r="K31" s="41">
+      <c r="K31" s="39">
         <v>723.13</v>
       </c>
-      <c r="L31" s="41">
+      <c r="L31" s="39">
         <v>747.78</v>
       </c>
-      <c r="M31" s="41">
+      <c r="M31" s="39">
         <v>722.87</v>
       </c>
-      <c r="N31" s="41">
+      <c r="N31" s="39">
         <v>711.98</v>
       </c>
-      <c r="O31" s="41">
+      <c r="O31" s="39">
         <v>722.55</v>
       </c>
-      <c r="P31" s="41">
+      <c r="P31" s="39">
         <v>709.95</v>
       </c>
-      <c r="Q31" s="41">
+      <c r="Q31" s="39">
         <v>724.46</v>
       </c>
-      <c r="R31" s="41">
-        <v>743.76</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="42" t="s">
+      <c r="R31" s="39">
+        <v>740.52</v>
+      </c>
+      <c r="S31" s="39">
+        <v>731.28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="41">
+      <c r="B32" s="39">
         <v>738.53</v>
       </c>
-      <c r="C32" s="41">
+      <c r="C32" s="39">
         <v>755.63</v>
       </c>
-      <c r="D32" s="41">
+      <c r="D32" s="39">
         <v>755.14</v>
       </c>
-      <c r="E32" s="41">
+      <c r="E32" s="39">
         <v>738.53</v>
       </c>
-      <c r="F32" s="41">
+      <c r="F32" s="39">
         <v>742.75</v>
       </c>
-      <c r="G32" s="41">
+      <c r="G32" s="39">
         <v>749.34</v>
       </c>
-      <c r="H32" s="41">
+      <c r="H32" s="39">
         <v>752.2</v>
       </c>
-      <c r="I32" s="41">
+      <c r="I32" s="39">
         <v>785.25</v>
       </c>
-      <c r="J32" s="41">
+      <c r="J32" s="39">
         <v>766.14</v>
       </c>
-      <c r="K32" s="41">
+      <c r="K32" s="39">
         <v>766.61</v>
       </c>
-      <c r="L32" s="41">
+      <c r="L32" s="39">
         <v>774.63</v>
       </c>
-      <c r="M32" s="41">
+      <c r="M32" s="39">
         <v>760.84</v>
       </c>
-      <c r="N32" s="41">
+      <c r="N32" s="39">
         <v>760.18</v>
       </c>
-      <c r="O32" s="41">
+      <c r="O32" s="39">
         <v>761.9</v>
       </c>
-      <c r="P32" s="41">
+      <c r="P32" s="39">
         <v>762.86</v>
       </c>
-      <c r="Q32" s="41">
+      <c r="Q32" s="39">
         <v>777.67</v>
       </c>
-      <c r="R32" s="41">
-        <v>788.73</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="42" t="s">
+      <c r="R32" s="39">
+        <v>785.66</v>
+      </c>
+      <c r="S32" s="39">
+        <v>780.1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="41">
+      <c r="B33" s="39">
         <v>717.45</v>
       </c>
-      <c r="C33" s="41">
+      <c r="C33" s="39">
         <v>732.98</v>
       </c>
-      <c r="D33" s="41">
+      <c r="D33" s="39">
         <v>737.52</v>
       </c>
-      <c r="E33" s="41">
+      <c r="E33" s="39">
         <v>729.79</v>
       </c>
-      <c r="F33" s="41">
+      <c r="F33" s="39">
         <v>729.63</v>
       </c>
-      <c r="G33" s="41">
+      <c r="G33" s="39">
         <v>730.13</v>
       </c>
-      <c r="H33" s="41">
+      <c r="H33" s="39">
         <v>737.02</v>
       </c>
-      <c r="I33" s="41">
+      <c r="I33" s="39">
         <v>754.29</v>
       </c>
-      <c r="J33" s="41">
+      <c r="J33" s="39">
         <v>747.32</v>
       </c>
-      <c r="K33" s="41">
+      <c r="K33" s="39">
         <v>741.69</v>
       </c>
-      <c r="L33" s="41">
+      <c r="L33" s="39">
         <v>753.94</v>
       </c>
-      <c r="M33" s="41">
+      <c r="M33" s="39">
         <v>737.14</v>
       </c>
-      <c r="N33" s="41">
+      <c r="N33" s="39">
         <v>739.36</v>
       </c>
-      <c r="O33" s="41">
+      <c r="O33" s="39">
         <v>741.26</v>
       </c>
-      <c r="P33" s="41">
+      <c r="P33" s="39">
         <v>737.04</v>
       </c>
-      <c r="Q33" s="41">
+      <c r="Q33" s="39">
         <v>746.59</v>
       </c>
-      <c r="R33" s="41">
-        <v>757.86</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="42" t="s">
+      <c r="R33" s="39">
+        <v>759.07</v>
+      </c>
+      <c r="S33" s="39">
+        <v>748.34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="41">
+      <c r="B34" s="39">
         <v>809.34</v>
       </c>
-      <c r="C34" s="41">
+      <c r="C34" s="39">
         <v>819.54</v>
       </c>
-      <c r="D34" s="41">
+      <c r="D34" s="39">
         <v>831.14</v>
       </c>
-      <c r="E34" s="41">
+      <c r="E34" s="39">
         <v>842.69</v>
       </c>
-      <c r="F34" s="41">
+      <c r="F34" s="39">
         <v>839.8</v>
       </c>
-      <c r="G34" s="41">
+      <c r="G34" s="39">
         <v>825.11</v>
       </c>
-      <c r="H34" s="41">
+      <c r="H34" s="39">
         <v>830.89</v>
       </c>
-      <c r="I34" s="41">
+      <c r="I34" s="39">
         <v>835.79</v>
       </c>
-      <c r="J34" s="41">
+      <c r="J34" s="39">
         <v>837.78</v>
       </c>
-      <c r="K34" s="41">
+      <c r="K34" s="39">
         <v>852.1</v>
       </c>
-      <c r="L34" s="41">
+      <c r="L34" s="39">
         <v>862.76</v>
       </c>
-      <c r="M34" s="41">
+      <c r="M34" s="39">
         <v>851.26</v>
       </c>
-      <c r="N34" s="41">
+      <c r="N34" s="39">
         <v>861.14</v>
       </c>
-      <c r="O34" s="41">
+      <c r="O34" s="39">
         <v>857.89</v>
       </c>
-      <c r="P34" s="41">
+      <c r="P34" s="39">
         <v>848.68</v>
       </c>
-      <c r="Q34" s="41">
+      <c r="Q34" s="39">
         <v>860.5</v>
       </c>
-      <c r="R34" s="41">
-        <v>871.42</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="42" t="s">
+      <c r="R34" s="39">
+        <v>862.58</v>
+      </c>
+      <c r="S34" s="39">
+        <v>842.69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="41">
+      <c r="B35" s="39">
         <v>918.98</v>
       </c>
-      <c r="C35" s="41">
+      <c r="C35" s="39">
         <v>942.36</v>
       </c>
-      <c r="D35" s="41">
+      <c r="D35" s="39">
         <v>947.98</v>
       </c>
-      <c r="E35" s="41">
+      <c r="E35" s="39">
         <v>928.44</v>
       </c>
-      <c r="F35" s="41">
+      <c r="F35" s="39">
         <v>930.46</v>
       </c>
-      <c r="G35" s="41">
+      <c r="G35" s="39">
         <v>929.78</v>
       </c>
-      <c r="H35" s="41">
+      <c r="H35" s="39">
         <v>930.56</v>
       </c>
-      <c r="I35" s="41">
+      <c r="I35" s="39">
         <v>948.02</v>
       </c>
-      <c r="J35" s="41">
+      <c r="J35" s="39">
         <v>938.96</v>
       </c>
-      <c r="K35" s="41">
+      <c r="K35" s="39">
         <v>943.1</v>
       </c>
-      <c r="L35" s="41">
+      <c r="L35" s="39">
         <v>956.08</v>
       </c>
-      <c r="M35" s="41">
+      <c r="M35" s="39">
         <v>942.82</v>
       </c>
-      <c r="N35" s="41">
+      <c r="N35" s="39">
         <v>934.75</v>
       </c>
-      <c r="O35" s="41">
+      <c r="O35" s="39">
         <v>940.46</v>
       </c>
-      <c r="P35" s="41">
+      <c r="P35" s="39">
         <v>937.33</v>
       </c>
-      <c r="Q35" s="41">
+      <c r="Q35" s="39">
         <v>945.96</v>
       </c>
-      <c r="R35" s="41">
-        <v>962.2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="42" t="s">
+      <c r="R35" s="39">
+        <v>960.84</v>
+      </c>
+      <c r="S35" s="39">
+        <v>938.29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A36" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="41">
+      <c r="B36" s="39">
         <v>699.02</v>
       </c>
-      <c r="C36" s="41">
+      <c r="C36" s="39">
         <v>708.3</v>
       </c>
-      <c r="D36" s="41">
+      <c r="D36" s="39">
         <v>708.98</v>
       </c>
-      <c r="E36" s="41">
+      <c r="E36" s="39">
         <v>694.27</v>
       </c>
-      <c r="F36" s="41">
+      <c r="F36" s="39">
         <v>693.58</v>
       </c>
-      <c r="G36" s="41">
+      <c r="G36" s="39">
         <v>689.16</v>
       </c>
-      <c r="H36" s="41">
+      <c r="H36" s="39">
         <v>693.89</v>
       </c>
-      <c r="I36" s="41">
+      <c r="I36" s="39">
         <v>709.17</v>
       </c>
-      <c r="J36" s="41">
+      <c r="J36" s="39">
         <v>700.42</v>
       </c>
-      <c r="K36" s="41">
+      <c r="K36" s="39">
         <v>699.73</v>
       </c>
-      <c r="L36" s="41">
+      <c r="L36" s="39">
         <v>705.55</v>
       </c>
-      <c r="M36" s="41">
+      <c r="M36" s="39">
         <v>693.6</v>
       </c>
-      <c r="N36" s="41">
+      <c r="N36" s="39">
         <v>687.71</v>
       </c>
-      <c r="O36" s="41">
+      <c r="O36" s="39">
         <v>691.78</v>
       </c>
-      <c r="P36" s="41">
+      <c r="P36" s="39">
         <v>681.98</v>
       </c>
-      <c r="Q36" s="41">
+      <c r="Q36" s="39">
         <v>685.41</v>
       </c>
-      <c r="R36" s="41">
-        <v>686.82</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="42" t="s">
+      <c r="R36" s="39">
+        <v>686.81</v>
+      </c>
+      <c r="S36" s="39">
+        <v>678.69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A37" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="41">
+      <c r="B37" s="39">
         <v>961.45</v>
       </c>
-      <c r="C37" s="41">
+      <c r="C37" s="39">
         <v>978.31</v>
       </c>
-      <c r="D37" s="41">
+      <c r="D37" s="39">
         <v>979.52</v>
       </c>
-      <c r="E37" s="41">
+      <c r="E37" s="39">
         <v>966.48</v>
       </c>
-      <c r="F37" s="41">
+      <c r="F37" s="39">
         <v>962.14</v>
       </c>
-      <c r="G37" s="41">
+      <c r="G37" s="39">
         <v>958.77</v>
       </c>
-      <c r="H37" s="41">
+      <c r="H37" s="39">
         <v>961.61</v>
       </c>
-      <c r="I37" s="41">
+      <c r="I37" s="39">
         <v>983.25</v>
       </c>
-      <c r="J37" s="41">
+      <c r="J37" s="39">
         <v>964.83</v>
       </c>
-      <c r="K37" s="41">
+      <c r="K37" s="39">
         <v>969.21</v>
       </c>
-      <c r="L37" s="41">
+      <c r="L37" s="39">
         <v>993.82</v>
       </c>
-      <c r="M37" s="41">
+      <c r="M37" s="39">
         <v>978.31</v>
       </c>
-      <c r="N37" s="41">
+      <c r="N37" s="39">
         <v>977.28</v>
       </c>
-      <c r="O37" s="41">
+      <c r="O37" s="39">
         <v>979.4</v>
       </c>
-      <c r="P37" s="41">
+      <c r="P37" s="39">
         <v>971.43</v>
       </c>
-      <c r="Q37" s="41">
+      <c r="Q37" s="39">
         <v>969.7</v>
       </c>
-      <c r="R37" s="41">
-        <v>983.47</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="42" t="s">
+      <c r="R37" s="39">
+        <v>981.12</v>
+      </c>
+      <c r="S37" s="39">
+        <v>960.78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A38" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="41">
+      <c r="B38" s="39">
         <v>753.77</v>
       </c>
-      <c r="C38" s="41">
+      <c r="C38" s="39">
         <v>771.08</v>
       </c>
-      <c r="D38" s="41">
+      <c r="D38" s="39">
         <v>768.85</v>
       </c>
-      <c r="E38" s="41">
+      <c r="E38" s="39">
         <v>758.18</v>
       </c>
-      <c r="F38" s="41">
+      <c r="F38" s="39">
         <v>762.45</v>
       </c>
-      <c r="G38" s="41">
+      <c r="G38" s="39">
         <v>760.04</v>
       </c>
-      <c r="H38" s="41">
+      <c r="H38" s="39">
         <v>763.49</v>
       </c>
-      <c r="I38" s="41">
+      <c r="I38" s="39">
         <v>788.9</v>
       </c>
-      <c r="J38" s="41">
+      <c r="J38" s="39">
         <v>766.61</v>
       </c>
-      <c r="K38" s="41">
+      <c r="K38" s="39">
         <v>778.15</v>
       </c>
-      <c r="L38" s="41">
+      <c r="L38" s="39">
         <v>790.26</v>
       </c>
-      <c r="M38" s="41">
+      <c r="M38" s="39">
         <v>779.16</v>
       </c>
-      <c r="N38" s="41">
+      <c r="N38" s="39">
         <v>776.72</v>
       </c>
-      <c r="O38" s="41">
+      <c r="O38" s="39">
         <v>783.15</v>
       </c>
-      <c r="P38" s="41">
+      <c r="P38" s="39">
         <v>790.78</v>
       </c>
-      <c r="Q38" s="41">
+      <c r="Q38" s="39">
         <v>797.48</v>
       </c>
-      <c r="R38" s="41">
-        <v>811.44</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="42" t="s">
+      <c r="R38" s="39">
+        <v>809.03</v>
+      </c>
+      <c r="S38" s="39">
+        <v>803.85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A39" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="41">
+      <c r="B39" s="39">
         <v>864.92</v>
       </c>
-      <c r="C39" s="41">
+      <c r="C39" s="39">
         <v>873.25</v>
       </c>
-      <c r="D39" s="41">
+      <c r="D39" s="39">
         <v>877.04</v>
       </c>
-      <c r="E39" s="41">
+      <c r="E39" s="39">
         <v>878.15</v>
       </c>
-      <c r="F39" s="41">
+      <c r="F39" s="39">
         <v>875.13</v>
       </c>
-      <c r="G39" s="41">
+      <c r="G39" s="39">
         <v>877.21</v>
       </c>
-      <c r="H39" s="41">
+      <c r="H39" s="39">
         <v>894.2</v>
       </c>
-      <c r="I39" s="41">
+      <c r="I39" s="39">
         <v>919.08</v>
       </c>
-      <c r="J39" s="41">
+      <c r="J39" s="39">
         <v>895.49</v>
       </c>
-      <c r="K39" s="41">
+      <c r="K39" s="39">
         <v>907.3</v>
       </c>
-      <c r="L39" s="41">
+      <c r="L39" s="39">
         <v>901.56</v>
       </c>
-      <c r="M39" s="41">
+      <c r="M39" s="39">
         <v>881.03</v>
       </c>
-      <c r="N39" s="41">
+      <c r="N39" s="39">
         <v>895.13</v>
       </c>
-      <c r="O39" s="41">
+      <c r="O39" s="39">
         <v>875.69</v>
       </c>
-      <c r="P39" s="41">
+      <c r="P39" s="39">
         <v>864.74</v>
       </c>
-      <c r="Q39" s="41">
+      <c r="Q39" s="39">
         <v>885.1</v>
       </c>
-      <c r="R39" s="41">
-        <v>907.9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="42" t="s">
+      <c r="R39" s="39">
+        <v>905.31</v>
+      </c>
+      <c r="S39" s="39">
+        <v>878.42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A40" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="41">
+      <c r="B40" s="39">
         <v>760.84</v>
       </c>
-      <c r="C40" s="41">
+      <c r="C40" s="39">
         <v>771.68</v>
       </c>
-      <c r="D40" s="41">
+      <c r="D40" s="39">
         <v>777.58</v>
       </c>
-      <c r="E40" s="41">
+      <c r="E40" s="39">
         <v>767.38</v>
       </c>
-      <c r="F40" s="41">
+      <c r="F40" s="39">
         <v>766.57</v>
       </c>
-      <c r="G40" s="41">
+      <c r="G40" s="39">
         <v>767.29</v>
       </c>
-      <c r="H40" s="41">
+      <c r="H40" s="39">
         <v>767.59</v>
       </c>
-      <c r="I40" s="41">
+      <c r="I40" s="39">
         <v>788.88</v>
       </c>
-      <c r="J40" s="41">
+      <c r="J40" s="39">
         <v>780.89</v>
       </c>
-      <c r="K40" s="41">
+      <c r="K40" s="39">
         <v>782.94</v>
       </c>
-      <c r="L40" s="41">
+      <c r="L40" s="39">
         <v>795.11</v>
       </c>
-      <c r="M40" s="41">
+      <c r="M40" s="39">
         <v>788.79</v>
       </c>
-      <c r="N40" s="41">
+      <c r="N40" s="39">
         <v>786.08</v>
       </c>
-      <c r="O40" s="41">
+      <c r="O40" s="39">
         <v>785.4</v>
       </c>
-      <c r="P40" s="41">
+      <c r="P40" s="39">
         <v>787.03</v>
       </c>
-      <c r="Q40" s="41">
+      <c r="Q40" s="39">
         <v>799.6</v>
       </c>
-      <c r="R40" s="41">
-        <v>807.71</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="42" t="s">
+      <c r="R40" s="39">
+        <v>805.3</v>
+      </c>
+      <c r="S40" s="39">
+        <v>791.73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A41" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="41">
+      <c r="B41" s="39">
         <v>755.32</v>
       </c>
-      <c r="C41" s="41">
+      <c r="C41" s="39">
         <v>767.55</v>
       </c>
-      <c r="D41" s="41">
+      <c r="D41" s="39">
         <v>768.34</v>
       </c>
-      <c r="E41" s="41">
+      <c r="E41" s="39">
         <v>748.89</v>
       </c>
-      <c r="F41" s="41">
+      <c r="F41" s="39">
         <v>744.88</v>
       </c>
-      <c r="G41" s="41">
+      <c r="G41" s="39">
         <v>752.03</v>
       </c>
-      <c r="H41" s="41">
+      <c r="H41" s="39">
         <v>744.76</v>
       </c>
-      <c r="I41" s="41">
+      <c r="I41" s="39">
         <v>767.71</v>
       </c>
-      <c r="J41" s="41">
+      <c r="J41" s="39">
         <v>748.43</v>
       </c>
-      <c r="K41" s="41">
+      <c r="K41" s="39">
         <v>756.46</v>
       </c>
-      <c r="L41" s="41">
+      <c r="L41" s="39">
         <v>771.5</v>
       </c>
-      <c r="M41" s="41">
+      <c r="M41" s="39">
         <v>758.1</v>
       </c>
-      <c r="N41" s="41">
+      <c r="N41" s="39">
         <v>756.63</v>
       </c>
-      <c r="O41" s="41">
+      <c r="O41" s="39">
         <v>760.03</v>
       </c>
-      <c r="P41" s="41">
+      <c r="P41" s="39">
         <v>754.86</v>
       </c>
-      <c r="Q41" s="41">
+      <c r="Q41" s="39">
         <v>759.93</v>
       </c>
-      <c r="R41" s="41">
-        <v>773.96</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="42" t="s">
+      <c r="R41" s="39">
+        <v>771.5</v>
+      </c>
+      <c r="S41" s="39">
+        <v>760.82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A42" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="B42" s="41">
+      <c r="B42" s="39">
         <v>778.22</v>
       </c>
-      <c r="C42" s="41">
+      <c r="C42" s="39">
         <v>807.56</v>
       </c>
-      <c r="D42" s="41">
+      <c r="D42" s="39">
         <v>804.27</v>
       </c>
-      <c r="E42" s="41">
+      <c r="E42" s="39">
         <v>783.55</v>
       </c>
-      <c r="F42" s="41">
+      <c r="F42" s="39">
         <v>787.23</v>
       </c>
-      <c r="G42" s="41">
+      <c r="G42" s="39">
         <v>791.52</v>
       </c>
-      <c r="H42" s="41">
+      <c r="H42" s="39">
         <v>792.88</v>
       </c>
-      <c r="I42" s="41">
+      <c r="I42" s="39">
         <v>820.05</v>
       </c>
-      <c r="J42" s="41">
+      <c r="J42" s="39">
         <v>796.67</v>
       </c>
-      <c r="K42" s="41">
+      <c r="K42" s="39">
         <v>801.39</v>
       </c>
-      <c r="L42" s="41">
+      <c r="L42" s="39">
         <v>828.35</v>
       </c>
-      <c r="M42" s="41">
+      <c r="M42" s="39">
         <v>808.02</v>
       </c>
-      <c r="N42" s="41">
+      <c r="N42" s="39">
         <v>811.29</v>
       </c>
-      <c r="O42" s="41">
+      <c r="O42" s="39">
         <v>820.6</v>
       </c>
-      <c r="P42" s="41">
+      <c r="P42" s="39">
         <v>811.71</v>
       </c>
-      <c r="Q42" s="41">
+      <c r="Q42" s="39">
         <v>834.62</v>
       </c>
-      <c r="R42" s="41">
-        <v>857.82</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="42" t="s">
+      <c r="R42" s="39">
+        <v>855.7</v>
+      </c>
+      <c r="S42" s="39">
+        <v>832.12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A43" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="41">
+      <c r="B43" s="39">
         <v>799.6</v>
       </c>
-      <c r="C43" s="41">
+      <c r="C43" s="39">
         <v>811.83</v>
       </c>
-      <c r="D43" s="41">
+      <c r="D43" s="39">
         <v>818.64</v>
       </c>
-      <c r="E43" s="41">
+      <c r="E43" s="39">
         <v>814.58</v>
       </c>
-      <c r="F43" s="41">
+      <c r="F43" s="39">
         <v>817.36</v>
       </c>
-      <c r="G43" s="41">
+      <c r="G43" s="39">
         <v>818.38</v>
       </c>
-      <c r="H43" s="41">
+      <c r="H43" s="39">
         <v>819.74</v>
       </c>
-      <c r="I43" s="41">
+      <c r="I43" s="39">
         <v>831.78</v>
       </c>
-      <c r="J43" s="41">
+      <c r="J43" s="39">
         <v>823.03</v>
       </c>
-      <c r="K43" s="41">
+      <c r="K43" s="39">
         <v>828.97</v>
       </c>
-      <c r="L43" s="41">
+      <c r="L43" s="39">
         <v>841.72</v>
       </c>
-      <c r="M43" s="41">
+      <c r="M43" s="39">
         <v>833.45</v>
       </c>
-      <c r="N43" s="41">
+      <c r="N43" s="39">
         <v>831.04</v>
       </c>
-      <c r="O43" s="41">
+      <c r="O43" s="39">
         <v>825.55</v>
       </c>
-      <c r="P43" s="41">
+      <c r="P43" s="39">
         <v>822.19</v>
       </c>
-      <c r="Q43" s="41">
+      <c r="Q43" s="39">
         <v>825.31</v>
       </c>
-      <c r="R43" s="41">
-        <v>832.32</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="42" t="s">
+      <c r="R43" s="39">
+        <v>830.21</v>
+      </c>
+      <c r="S43" s="39">
+        <v>824.38</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A44" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="41">
+      <c r="B44" s="39">
         <v>827.87</v>
       </c>
-      <c r="C44" s="41">
+      <c r="C44" s="39">
         <v>831.68</v>
       </c>
-      <c r="D44" s="41">
+      <c r="D44" s="39">
         <v>838.29</v>
       </c>
-      <c r="E44" s="41">
+      <c r="E44" s="39">
         <v>827.44</v>
       </c>
-      <c r="F44" s="41">
+      <c r="F44" s="39">
         <v>828.16</v>
       </c>
-      <c r="G44" s="41">
+      <c r="G44" s="39">
         <v>810.77</v>
       </c>
-      <c r="H44" s="41">
+      <c r="H44" s="39">
         <v>815.14</v>
       </c>
-      <c r="I44" s="41">
+      <c r="I44" s="39">
         <v>814.39</v>
       </c>
-      <c r="J44" s="41">
+      <c r="J44" s="39">
         <v>821.84</v>
       </c>
-      <c r="K44" s="41">
+      <c r="K44" s="39">
         <v>827.11</v>
       </c>
-      <c r="L44" s="41">
+      <c r="L44" s="39">
         <v>839.42</v>
       </c>
-      <c r="M44" s="41">
+      <c r="M44" s="39">
         <v>825.46</v>
       </c>
-      <c r="N44" s="41">
+      <c r="N44" s="39">
         <v>844.34</v>
       </c>
-      <c r="O44" s="41">
+      <c r="O44" s="39">
         <v>843.7</v>
       </c>
-      <c r="P44" s="41">
+      <c r="P44" s="39">
         <v>833.95</v>
       </c>
-      <c r="Q44" s="41">
+      <c r="Q44" s="39">
         <v>852.16</v>
       </c>
-      <c r="R44" s="41">
-        <v>860.66</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="42" t="s">
+      <c r="R44" s="39">
+        <v>857.67</v>
+      </c>
+      <c r="S44" s="39">
+        <v>848.02</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A45" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="41">
+      <c r="B45" s="39">
         <v>744.31</v>
       </c>
-      <c r="C45" s="41">
+      <c r="C45" s="39">
         <v>739.06</v>
       </c>
-      <c r="D45" s="41">
+      <c r="D45" s="39">
         <v>754.73</v>
       </c>
-      <c r="E45" s="41">
+      <c r="E45" s="39">
         <v>734.21</v>
       </c>
-      <c r="F45" s="41">
+      <c r="F45" s="39">
         <v>729.74</v>
       </c>
-      <c r="G45" s="41">
+      <c r="G45" s="39">
         <v>730.45</v>
       </c>
-      <c r="H45" s="41">
+      <c r="H45" s="39">
         <v>737.72</v>
       </c>
-      <c r="I45" s="41">
+      <c r="I45" s="39">
         <v>749.41</v>
       </c>
-      <c r="J45" s="41">
+      <c r="J45" s="39">
         <v>737.45</v>
       </c>
-      <c r="K45" s="41">
+      <c r="K45" s="39">
         <v>744.94</v>
       </c>
-      <c r="L45" s="41">
+      <c r="L45" s="39">
         <v>758.64</v>
       </c>
-      <c r="M45" s="41">
+      <c r="M45" s="39">
         <v>749.78</v>
       </c>
-      <c r="N45" s="41">
+      <c r="N45" s="39">
         <v>752.33</v>
       </c>
-      <c r="O45" s="41">
+      <c r="O45" s="39">
         <v>749.58</v>
       </c>
-      <c r="P45" s="41">
+      <c r="P45" s="39">
         <v>767.08</v>
       </c>
-      <c r="Q45" s="41">
+      <c r="Q45" s="39">
         <v>758.78</v>
       </c>
-      <c r="R45" s="41">
-        <v>762.91</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="42" t="s">
+      <c r="R45" s="39">
+        <v>761.08</v>
+      </c>
+      <c r="S45" s="39">
+        <v>748.74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A46" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="41">
+      <c r="B46" s="39">
         <v>701.49</v>
       </c>
-      <c r="C46" s="41">
+      <c r="C46" s="39">
         <v>715.81</v>
       </c>
-      <c r="D46" s="41">
+      <c r="D46" s="39">
         <v>709.92</v>
       </c>
-      <c r="E46" s="41">
+      <c r="E46" s="39">
         <v>704.67</v>
       </c>
-      <c r="F46" s="41">
+      <c r="F46" s="39">
         <v>707.36</v>
       </c>
-      <c r="G46" s="41">
+      <c r="G46" s="39">
         <v>708.62</v>
       </c>
-      <c r="H46" s="41">
+      <c r="H46" s="39">
         <v>709.32</v>
       </c>
-      <c r="I46" s="41">
+      <c r="I46" s="39">
         <v>721.41</v>
       </c>
-      <c r="J46" s="41">
+      <c r="J46" s="39">
         <v>715.36</v>
       </c>
-      <c r="K46" s="41">
+      <c r="K46" s="39">
         <v>727.35</v>
       </c>
-      <c r="L46" s="41">
+      <c r="L46" s="39">
         <v>730.31</v>
       </c>
-      <c r="M46" s="41">
+      <c r="M46" s="39">
         <v>716.57</v>
       </c>
-      <c r="N46" s="41">
+      <c r="N46" s="39">
         <v>717.36</v>
       </c>
-      <c r="O46" s="41">
+      <c r="O46" s="39">
         <v>707.41</v>
       </c>
-      <c r="P46" s="41">
+      <c r="P46" s="39">
         <v>711.98</v>
       </c>
-      <c r="Q46" s="41">
+      <c r="Q46" s="39">
         <v>725.8</v>
       </c>
-      <c r="R46" s="41">
-        <v>737.27</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="42" t="s">
+      <c r="R46" s="39">
+        <v>734.16</v>
+      </c>
+      <c r="S46" s="39">
+        <v>720.02</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A47" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="41">
+      <c r="B47" s="39">
         <v>718.98</v>
       </c>
-      <c r="C47" s="41">
+      <c r="C47" s="39">
         <v>727.66</v>
       </c>
-      <c r="D47" s="41">
+      <c r="D47" s="39">
         <v>732.16</v>
       </c>
-      <c r="E47" s="41">
+      <c r="E47" s="39">
         <v>724.15</v>
       </c>
-      <c r="F47" s="41">
+      <c r="F47" s="39">
         <v>724.11</v>
       </c>
-      <c r="G47" s="41">
+      <c r="G47" s="39">
         <v>729.65</v>
       </c>
-      <c r="H47" s="41">
+      <c r="H47" s="39">
         <v>734.98</v>
       </c>
-      <c r="I47" s="41">
+      <c r="I47" s="39">
         <v>748.94</v>
       </c>
-      <c r="J47" s="41">
+      <c r="J47" s="39">
         <v>734.65</v>
       </c>
-      <c r="K47" s="41">
+      <c r="K47" s="39">
         <v>742.02</v>
       </c>
-      <c r="L47" s="41">
+      <c r="L47" s="39">
         <v>753.67</v>
       </c>
-      <c r="M47" s="41">
+      <c r="M47" s="39">
         <v>752.58</v>
       </c>
-      <c r="N47" s="41">
+      <c r="N47" s="39">
         <v>755.74</v>
       </c>
-      <c r="O47" s="41">
+      <c r="O47" s="39">
         <v>749.03</v>
       </c>
-      <c r="P47" s="41">
+      <c r="P47" s="39">
         <v>754.01</v>
       </c>
-      <c r="Q47" s="41">
+      <c r="Q47" s="39">
         <v>756.85</v>
       </c>
-      <c r="R47" s="41">
-        <v>777.22</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="42" t="s">
+      <c r="R47" s="39">
+        <v>775.79</v>
+      </c>
+      <c r="S47" s="39">
+        <v>767.54</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A48" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="41">
+      <c r="B48" s="39">
         <v>883.01</v>
       </c>
-      <c r="C48" s="41">
+      <c r="C48" s="39">
         <v>907.49</v>
       </c>
-      <c r="D48" s="41">
+      <c r="D48" s="39">
         <v>896.44</v>
       </c>
-      <c r="E48" s="41">
+      <c r="E48" s="39">
         <v>878.04</v>
       </c>
-      <c r="F48" s="41">
+      <c r="F48" s="39">
         <v>874.52</v>
       </c>
-      <c r="G48" s="41">
+      <c r="G48" s="39">
         <v>877.49</v>
       </c>
-      <c r="H48" s="41">
+      <c r="H48" s="39">
         <v>876.4</v>
       </c>
-      <c r="I48" s="41">
+      <c r="I48" s="39">
         <v>899.99</v>
       </c>
-      <c r="J48" s="41">
+      <c r="J48" s="39">
         <v>865.18</v>
       </c>
-      <c r="K48" s="41">
+      <c r="K48" s="39">
         <v>876.79</v>
       </c>
-      <c r="L48" s="41">
+      <c r="L48" s="39">
         <v>898.35</v>
       </c>
-      <c r="M48" s="41">
+      <c r="M48" s="39">
         <v>876.68</v>
       </c>
-      <c r="N48" s="41">
+      <c r="N48" s="39">
         <v>877.15</v>
       </c>
-      <c r="O48" s="41">
+      <c r="O48" s="39">
         <v>871.79</v>
       </c>
-      <c r="P48" s="41">
+      <c r="P48" s="39">
         <v>862.75</v>
       </c>
-      <c r="Q48" s="41">
+      <c r="Q48" s="39">
         <v>867.27</v>
       </c>
-      <c r="R48" s="41">
-        <v>891.61</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="42" t="s">
+      <c r="R48" s="39">
+        <v>892.69</v>
+      </c>
+      <c r="S48" s="39">
+        <v>872.09</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A49" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="41">
+      <c r="B49" s="39">
         <v>825.6</v>
       </c>
-      <c r="C49" s="41">
+      <c r="C49" s="39">
         <v>850.02</v>
       </c>
-      <c r="D49" s="41">
+      <c r="D49" s="39">
         <v>846.96</v>
       </c>
-      <c r="E49" s="41">
+      <c r="E49" s="39">
         <v>825.59</v>
       </c>
-      <c r="F49" s="41">
+      <c r="F49" s="39">
         <v>829.33</v>
       </c>
-      <c r="G49" s="41">
+      <c r="G49" s="39">
         <v>830.97</v>
       </c>
-      <c r="H49" s="41">
+      <c r="H49" s="39">
         <v>836.59</v>
       </c>
-      <c r="I49" s="41">
+      <c r="I49" s="39">
         <v>858.45</v>
       </c>
-      <c r="J49" s="41">
+      <c r="J49" s="39">
         <v>837.98</v>
       </c>
-      <c r="K49" s="41">
+      <c r="K49" s="39">
         <v>841.46</v>
       </c>
-      <c r="L49" s="41">
+      <c r="L49" s="39">
         <v>870.06</v>
       </c>
-      <c r="M49" s="41">
+      <c r="M49" s="39">
         <v>829.72</v>
       </c>
-      <c r="N49" s="41">
+      <c r="N49" s="39">
         <v>831.3</v>
       </c>
-      <c r="O49" s="41">
+      <c r="O49" s="39">
         <v>829.01</v>
       </c>
-      <c r="P49" s="41">
+      <c r="P49" s="39">
         <v>826.63</v>
       </c>
-      <c r="Q49" s="41">
+      <c r="Q49" s="39">
         <v>840.39</v>
       </c>
-      <c r="R49" s="41">
-        <v>862.7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="42" t="s">
+      <c r="R49" s="39">
+        <v>860.97</v>
+      </c>
+      <c r="S49" s="39">
+        <v>841.82</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A50" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="B50" s="41">
+      <c r="B50" s="39">
         <v>775.45</v>
       </c>
-      <c r="C50" s="41">
+      <c r="C50" s="39">
         <v>781.11</v>
       </c>
-      <c r="D50" s="41">
+      <c r="D50" s="39">
         <v>788.04</v>
       </c>
-      <c r="E50" s="41">
+      <c r="E50" s="39">
         <v>801.45</v>
       </c>
-      <c r="F50" s="41">
+      <c r="F50" s="39">
         <v>808.36</v>
       </c>
-      <c r="G50" s="41">
+      <c r="G50" s="39">
         <v>805.06</v>
       </c>
-      <c r="H50" s="41">
+      <c r="H50" s="39">
         <v>808.83</v>
       </c>
-      <c r="I50" s="41">
+      <c r="I50" s="39">
         <v>810.86</v>
       </c>
-      <c r="J50" s="41">
+      <c r="J50" s="39">
         <v>808.02</v>
       </c>
-      <c r="K50" s="41">
+      <c r="K50" s="39">
         <v>810.43</v>
       </c>
-      <c r="L50" s="41">
+      <c r="L50" s="39">
         <v>817.85</v>
       </c>
-      <c r="M50" s="41">
+      <c r="M50" s="39">
         <v>814.11</v>
       </c>
-      <c r="N50" s="41">
+      <c r="N50" s="39">
         <v>806.85</v>
       </c>
-      <c r="O50" s="41">
+      <c r="O50" s="39">
         <v>797.17</v>
       </c>
-      <c r="P50" s="41">
+      <c r="P50" s="39">
         <v>794.21</v>
       </c>
-      <c r="Q50" s="41">
+      <c r="Q50" s="39">
         <v>809.52</v>
       </c>
-      <c r="R50" s="41">
-        <v>817.23</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="42" t="s">
+      <c r="R50" s="39">
+        <v>817.56</v>
+      </c>
+      <c r="S50" s="39">
+        <v>806.74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A51" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="B51" s="41">
+      <c r="B51" s="39">
         <v>889.76</v>
       </c>
-      <c r="C51" s="41">
+      <c r="C51" s="39">
         <v>923.13</v>
       </c>
-      <c r="D51" s="41">
+      <c r="D51" s="39">
         <v>925.92</v>
       </c>
-      <c r="E51" s="41">
+      <c r="E51" s="39">
         <v>919.21</v>
       </c>
-      <c r="F51" s="41">
+      <c r="F51" s="39">
         <v>915.68</v>
       </c>
-      <c r="G51" s="41">
+      <c r="G51" s="39">
         <v>905.23</v>
       </c>
-      <c r="H51" s="41">
+      <c r="H51" s="39">
         <v>905.93</v>
       </c>
-      <c r="I51" s="41">
+      <c r="I51" s="39">
         <v>937.7</v>
       </c>
-      <c r="J51" s="41">
+      <c r="J51" s="39">
         <v>919.1</v>
       </c>
-      <c r="K51" s="41">
+      <c r="K51" s="39">
         <v>919.96</v>
       </c>
-      <c r="L51" s="41">
+      <c r="L51" s="39">
         <v>939.87</v>
       </c>
-      <c r="M51" s="41">
+      <c r="M51" s="39">
         <v>919.45</v>
       </c>
-      <c r="N51" s="41">
+      <c r="N51" s="39">
         <v>924.76</v>
       </c>
-      <c r="O51" s="41">
+      <c r="O51" s="39">
         <v>924.06</v>
       </c>
-      <c r="P51" s="41">
+      <c r="P51" s="39">
         <v>929.51</v>
       </c>
-      <c r="Q51" s="41">
+      <c r="Q51" s="39">
         <v>938.46</v>
       </c>
-      <c r="R51" s="41">
-        <v>954.45</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="42" t="s">
+      <c r="R51" s="39">
+        <v>954.72</v>
+      </c>
+      <c r="S51" s="39">
+        <v>931.83</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A52" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="B52" s="41">
+      <c r="B52" s="39">
         <v>990.86</v>
       </c>
-      <c r="C52" s="41">
+      <c r="C52" s="39">
         <v>1024.69</v>
       </c>
-      <c r="D52" s="41">
+      <c r="D52" s="39">
         <v>1024.3399999999999</v>
       </c>
-      <c r="E52" s="41">
+      <c r="E52" s="39">
         <v>995.98</v>
       </c>
-      <c r="F52" s="41">
+      <c r="F52" s="39">
         <v>998.92</v>
       </c>
-      <c r="G52" s="41">
+      <c r="G52" s="39">
         <v>997.27</v>
       </c>
-      <c r="H52" s="41">
+      <c r="H52" s="39">
         <v>998.82</v>
       </c>
-      <c r="I52" s="41">
+      <c r="I52" s="39">
         <v>1039.23</v>
       </c>
-      <c r="J52" s="41">
+      <c r="J52" s="39">
         <v>1021.8</v>
       </c>
-      <c r="K52" s="41">
+      <c r="K52" s="39">
         <v>1029</v>
       </c>
-      <c r="L52" s="41">
+      <c r="L52" s="39">
         <v>1066.3399999999999</v>
       </c>
-      <c r="M52" s="41">
+      <c r="M52" s="39">
         <v>1026.1500000000001</v>
       </c>
-      <c r="N52" s="41">
+      <c r="N52" s="39">
         <v>1032.58</v>
       </c>
-      <c r="O52" s="41">
+      <c r="O52" s="39">
         <v>1036.5999999999999</v>
       </c>
-      <c r="P52" s="41">
+      <c r="P52" s="39">
         <v>1032.8900000000001</v>
       </c>
-      <c r="Q52" s="41">
+      <c r="Q52" s="39">
         <v>1040.26</v>
       </c>
-      <c r="R52" s="41">
-        <v>1072.06</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A53" s="42" t="s">
+      <c r="R52" s="39">
+        <v>1068.67</v>
+      </c>
+      <c r="S52" s="39">
+        <v>1034.31</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A53" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="B53" s="41">
+      <c r="B53" s="39">
         <v>714.81</v>
       </c>
-      <c r="C53" s="41">
+      <c r="C53" s="39">
         <v>711.7</v>
       </c>
-      <c r="D53" s="41">
+      <c r="D53" s="39">
         <v>715.19</v>
       </c>
-      <c r="E53" s="41">
+      <c r="E53" s="39">
         <v>712.41</v>
       </c>
-      <c r="F53" s="41">
+      <c r="F53" s="39">
         <v>718.24</v>
       </c>
-      <c r="G53" s="41">
+      <c r="G53" s="39">
         <v>714.44</v>
       </c>
-      <c r="H53" s="41">
+      <c r="H53" s="39">
         <v>720.34</v>
       </c>
-      <c r="I53" s="41">
+      <c r="I53" s="39">
         <v>729.03</v>
       </c>
-      <c r="J53" s="41">
+      <c r="J53" s="39">
         <v>720.37</v>
       </c>
-      <c r="K53" s="41">
+      <c r="K53" s="39">
         <v>725.22</v>
       </c>
-      <c r="L53" s="41">
+      <c r="L53" s="39">
         <v>731.5</v>
       </c>
-      <c r="M53" s="41">
+      <c r="M53" s="39">
         <v>718.99</v>
       </c>
-      <c r="N53" s="41">
+      <c r="N53" s="39">
         <v>720.94</v>
       </c>
-      <c r="O53" s="41">
+      <c r="O53" s="39">
         <v>724.07</v>
       </c>
-      <c r="P53" s="41">
+      <c r="P53" s="39">
         <v>727.67</v>
       </c>
-      <c r="Q53" s="41">
+      <c r="Q53" s="39">
         <v>731.84</v>
       </c>
-      <c r="R53" s="41">
-        <v>725.87</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A54" s="42" t="s">
+      <c r="R53" s="39">
+        <v>721.38</v>
+      </c>
+      <c r="S53" s="39">
+        <v>726.88</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A54" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="B54" s="41">
+      <c r="B54" s="39">
         <v>787.24</v>
       </c>
-      <c r="C54" s="41">
+      <c r="C54" s="39">
         <v>795.32</v>
       </c>
-      <c r="D54" s="41">
+      <c r="D54" s="39">
         <v>795.65</v>
       </c>
-      <c r="E54" s="41">
+      <c r="E54" s="39">
         <v>785.57</v>
       </c>
-      <c r="F54" s="41">
+      <c r="F54" s="39">
         <v>786.24</v>
       </c>
-      <c r="G54" s="41">
+      <c r="G54" s="39">
         <v>778.13</v>
       </c>
-      <c r="H54" s="41">
+      <c r="H54" s="39">
         <v>781.12</v>
       </c>
-      <c r="I54" s="41">
+      <c r="I54" s="39">
         <v>792.83</v>
       </c>
-      <c r="J54" s="41">
+      <c r="J54" s="39">
         <v>785.57</v>
       </c>
-      <c r="K54" s="41">
+      <c r="K54" s="39">
         <v>795.66</v>
       </c>
-      <c r="L54" s="41">
+      <c r="L54" s="39">
         <v>805.46</v>
       </c>
-      <c r="M54" s="41">
+      <c r="M54" s="39">
         <v>800.35</v>
       </c>
-      <c r="N54" s="41">
+      <c r="N54" s="39">
         <v>793.74</v>
       </c>
-      <c r="O54" s="41">
+      <c r="O54" s="39">
         <v>794.14</v>
       </c>
-      <c r="P54" s="41">
+      <c r="P54" s="39">
         <v>794.87</v>
       </c>
-      <c r="Q54" s="41">
+      <c r="Q54" s="39">
         <v>801.6</v>
       </c>
-      <c r="R54" s="41">
-        <v>809.42</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A55" s="42" t="s">
+      <c r="R54" s="39">
+        <v>812.17</v>
+      </c>
+      <c r="S54" s="39">
+        <v>802.4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A55" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="B55" s="41">
+      <c r="B55" s="39">
         <v>811.19</v>
       </c>
-      <c r="C55" s="41">
+      <c r="C55" s="39">
         <v>835.75</v>
       </c>
-      <c r="D55" s="41">
+      <c r="D55" s="39">
         <v>826.24</v>
       </c>
-      <c r="E55" s="41">
+      <c r="E55" s="39">
         <v>814.45</v>
       </c>
-      <c r="F55" s="41">
+      <c r="F55" s="39">
         <v>815.08</v>
       </c>
-      <c r="G55" s="41">
+      <c r="G55" s="39">
         <v>810.87</v>
       </c>
-      <c r="H55" s="41">
+      <c r="H55" s="39">
         <v>809.9</v>
       </c>
-      <c r="I55" s="41">
+      <c r="I55" s="39">
         <v>837.93</v>
       </c>
-      <c r="J55" s="41">
+      <c r="J55" s="39">
         <v>804.8</v>
       </c>
-      <c r="K55" s="41">
+      <c r="K55" s="39">
         <v>806.96</v>
       </c>
-      <c r="L55" s="41">
+      <c r="L55" s="39">
         <v>816.76</v>
       </c>
-      <c r="M55" s="41">
+      <c r="M55" s="39">
         <v>778.22</v>
       </c>
-      <c r="N55" s="41">
+      <c r="N55" s="39">
         <v>773.85</v>
       </c>
-      <c r="O55" s="41">
+      <c r="O55" s="39">
         <v>776.22</v>
       </c>
-      <c r="P55" s="41">
+      <c r="P55" s="39">
         <v>778.55</v>
       </c>
-      <c r="Q55" s="41">
+      <c r="Q55" s="39">
         <v>755.96</v>
       </c>
-      <c r="R55" s="41">
-        <v>774.56</v>
+      <c r="R55" s="39">
+        <v>775.55</v>
+      </c>
+      <c r="S55" s="39">
+        <v>753.69</v>
       </c>
     </row>
   </sheetData>
@@ -10131,7 +10315,7 @@
   <pageSetup orientation="landscape"/>
   <headerFooter>
     <oddHeader>&amp;CBureau of Labor Statistics</oddHeader>
-    <oddFooter>&amp;LSource: Bureau of Labor Statistics&amp;RGenerated on: June 17, 2016 (10:58:49 AM)</oddFooter>
+    <oddFooter>&amp;LSource: Bureau of Labor Statistics&amp;RGenerated on: July 22, 2016 (10:59:39 AM)</oddFooter>
   </headerFooter>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -10139,10 +10323,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L56"/>
+  <dimension ref="A1:M56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:D15"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10152,7 +10336,7 @@
     <col min="4" max="4" width="40.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>168</v>
       </c>
@@ -10161,22 +10345,22 @@
       </c>
       <c r="C1" s="24">
         <f>+Earnings_Comparison!E58</f>
-        <v>880.3</v>
+        <v>880.98</v>
       </c>
       <c r="D1" s="23">
         <f>+Earnings_Comparison!H58</f>
-        <v>1.1517585131814334</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+        <v>1.287641478753776</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="51" t="s">
         <v>169</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>167</v>
       </c>
@@ -10190,7 +10374,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>+Earnings_Comparison!B12</f>
         <v>DE</v>
@@ -10200,890 +10384,881 @@
       </c>
       <c r="C4" s="26">
         <f>+Earnings_Comparison!E12</f>
-        <v>809.42</v>
+        <v>797.97</v>
       </c>
       <c r="D4" s="25">
         <f>+Earnings_Comparison!H12</f>
-        <v>8.4486274009511817</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>8.375469989165051</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
+        <f>+Earnings_Comparison!B20</f>
+        <v>IA</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" s="26">
+        <f>+Earnings_Comparison!E20</f>
+        <v>833.18</v>
+      </c>
+      <c r="D5" s="25">
+        <f>+Earnings_Comparison!H20</f>
+        <v>6.2940157536504282</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f>+Earnings_Comparison!B38</f>
+        <v>NC</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6" s="26">
+        <f>+Earnings_Comparison!E38</f>
+        <v>803.85</v>
+      </c>
+      <c r="D6" s="25">
+        <f>+Earnings_Comparison!H38</f>
+        <v>4.7110832054710672</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <f>+Earnings_Comparison!B5</f>
+        <v>AL</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="26">
+        <f>+Earnings_Comparison!E5</f>
+        <v>776.83</v>
+      </c>
+      <c r="D7" s="25">
+        <f>+Earnings_Comparison!H5</f>
+        <v>4.5079836412051044</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
+        <f>+Earnings_Comparison!B47</f>
+        <v>TN</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8" s="26">
+        <f>+Earnings_Comparison!E47</f>
+        <v>767.54</v>
+      </c>
+      <c r="D8" s="25">
+        <f>+Earnings_Comparison!H47</f>
+        <v>4.145501699462173</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="str">
+        <f>+Earnings_Comparison!B42</f>
+        <v>OR</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="C9" s="26">
+        <f>+Earnings_Comparison!E42</f>
+        <v>832.12</v>
+      </c>
+      <c r="D9" s="25">
+        <f>+Earnings_Comparison!H42</f>
+        <v>4.0826048876913434</v>
+      </c>
+      <c r="K9" s="20"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
         <f>+Earnings_Comparison!B11</f>
         <v>CT</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B10" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C10" s="26">
         <f>+Earnings_Comparison!E11</f>
-        <v>1042.44</v>
-      </c>
-      <c r="D5" s="25">
+        <v>1005.65</v>
+      </c>
+      <c r="D10" s="25">
         <f>+Earnings_Comparison!H11</f>
-        <v>8.046922051890526</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="str">
-        <f>+Earnings_Comparison!B42</f>
-        <v>OR</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="C6" s="26">
-        <f>+Earnings_Comparison!E42</f>
-        <v>857.82</v>
-      </c>
-      <c r="D6" s="25">
-        <f>+Earnings_Comparison!H42</f>
-        <v>7.8642244377787884</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="str">
-        <f>+Earnings_Comparison!B47</f>
-        <v>TN</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="C7" s="26">
-        <f>+Earnings_Comparison!E47</f>
-        <v>777.22</v>
-      </c>
-      <c r="D7" s="25">
-        <f>+Earnings_Comparison!H47</f>
-        <v>6.2483797847732392</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="str">
+        <v>3.9959897908320441</v>
+      </c>
+      <c r="K10" s="20"/>
+      <c r="M10" s="20"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
+        <f>+Earnings_Comparison!B44</f>
+        <v>RI</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="C11" s="26">
+        <f>+Earnings_Comparison!E44</f>
+        <v>848.02</v>
+      </c>
+      <c r="D11" s="25">
+        <f>+Earnings_Comparison!H44</f>
+        <v>3.5529581657767428</v>
+      </c>
+      <c r="K11" s="20"/>
+      <c r="M11" s="20"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f>+Earnings_Comparison!B32</f>
+        <v>NE</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="C12" s="26">
+        <f>+Earnings_Comparison!E32</f>
+        <v>780.1</v>
+      </c>
+      <c r="D12" s="25">
+        <f>+Earnings_Comparison!H32</f>
+        <v>3.0683793779614943</v>
+      </c>
+      <c r="K12" s="20"/>
+      <c r="M12" s="20"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
+        <f>+Earnings_Comparison!B28</f>
+        <v>MN</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="C13" s="26">
+        <f>+Earnings_Comparison!E28</f>
+        <v>911.09</v>
+      </c>
+      <c r="D13" s="25">
+        <f>+Earnings_Comparison!H28</f>
+        <v>2.8867396232888254</v>
+      </c>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="str">
         <f>+Earnings_Comparison!B52</f>
         <v>WA</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B14" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C14" s="26">
         <f>+Earnings_Comparison!E52</f>
-        <v>1072.06</v>
-      </c>
-      <c r="D8" s="25">
+        <v>1034.31</v>
+      </c>
+      <c r="D14" s="25">
         <f>+Earnings_Comparison!H52</f>
-        <v>6.2358940839476462</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" t="str">
-        <f>+Earnings_Comparison!B5</f>
-        <v>AL</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="C9" s="26">
-        <f>+Earnings_Comparison!E5</f>
-        <v>781.9</v>
-      </c>
-      <c r="D9" s="25">
-        <f>+Earnings_Comparison!H5</f>
-        <v>5.7345917307350947</v>
-      </c>
-      <c r="K9" s="20" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" t="str">
-        <f>+Earnings_Comparison!B28</f>
-        <v>MN</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="C10" s="26">
-        <f>+Earnings_Comparison!E28</f>
-        <v>928.5</v>
-      </c>
-      <c r="D10" s="25">
-        <f>+Earnings_Comparison!H28</f>
-        <v>5.4381447570590158</v>
-      </c>
-      <c r="K10" s="20" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" t="str">
+        <v>2.6814645248049329</v>
+      </c>
+      <c r="F14" s="26">
+        <f>C$1-C14</f>
+        <v>-153.32999999999993</v>
+      </c>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="str">
+        <f>+Earnings_Comparison!B8</f>
+        <v>AR</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C15" s="26">
+        <f>+Earnings_Comparison!E8</f>
+        <v>685.31</v>
+      </c>
+      <c r="D15" s="25">
+        <f>+Earnings_Comparison!H8</f>
+        <v>2.5446099928998711</v>
+      </c>
+      <c r="F15" s="26">
+        <f t="shared" ref="F15:F21" si="0">C$1-C15</f>
+        <v>195.67000000000007</v>
+      </c>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="str">
+        <f>+Earnings_Comparison!B40</f>
+        <v>OH</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C16" s="26">
+        <f>+Earnings_Comparison!E40</f>
+        <v>791.73</v>
+      </c>
+      <c r="D16" s="25">
+        <f>+Earnings_Comparison!H40</f>
+        <v>2.1578275309493078</v>
+      </c>
+      <c r="F16" s="26">
+        <f t="shared" si="0"/>
+        <v>89.25</v>
+      </c>
+      <c r="L16" s="20"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="str">
+        <f>+Earnings_Comparison!B54</f>
+        <v>WI</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="C17" s="26">
+        <f>+Earnings_Comparison!E54</f>
+        <v>802.4</v>
+      </c>
+      <c r="D17" s="25">
+        <f>+Earnings_Comparison!H54</f>
+        <v>2.0922666331365747</v>
+      </c>
+      <c r="F17" s="26">
+        <f t="shared" si="0"/>
+        <v>78.580000000000041</v>
+      </c>
+      <c r="L17" s="20"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="str">
+        <f>+Earnings_Comparison!B14</f>
+        <v>FL</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18" s="26">
+        <f>+Earnings_Comparison!E14</f>
+        <v>787.84</v>
+      </c>
+      <c r="D18" s="25">
+        <f>+Earnings_Comparison!H14</f>
+        <v>2.0696075982407525</v>
+      </c>
+      <c r="F18" s="26">
+        <f t="shared" si="0"/>
+        <v>93.139999999999986</v>
+      </c>
+      <c r="L18" s="20"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="str">
+        <f>+Earnings_Comparison!B51</f>
+        <v>VA</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="C19" s="26">
+        <f>+Earnings_Comparison!E51</f>
+        <v>931.83</v>
+      </c>
+      <c r="D19" s="25">
+        <f>+Earnings_Comparison!H51</f>
+        <v>1.9135278430338909</v>
+      </c>
+      <c r="F19" s="26">
+        <f t="shared" si="0"/>
+        <v>-50.850000000000023</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="str">
+        <f>+Earnings_Comparison!B29</f>
+        <v>MS</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="C20" s="26">
+        <f>+Earnings_Comparison!E29</f>
+        <v>696.84</v>
+      </c>
+      <c r="D20" s="25">
+        <f>+Earnings_Comparison!H29</f>
+        <v>1.6969012725793986</v>
+      </c>
+      <c r="F20" s="26">
+        <f t="shared" si="0"/>
+        <v>184.14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="str">
+        <f>+Earnings_Comparison!B26</f>
+        <v>MA</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C21" s="26">
+        <f>+Earnings_Comparison!E26</f>
+        <v>1030.1300000000001</v>
+      </c>
+      <c r="D21" s="25">
+        <f>+Earnings_Comparison!H26</f>
+        <v>1.6832731393184641</v>
+      </c>
+      <c r="F21" s="26">
+        <f t="shared" si="0"/>
+        <v>-149.15000000000009</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="str">
         <f>+Earnings_Comparison!B15</f>
         <v>GA</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B22" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="C11" s="26">
+      <c r="C22" s="26">
         <f>+Earnings_Comparison!E15</f>
-        <v>877.91</v>
-      </c>
-      <c r="D11" s="25">
+        <v>843.18</v>
+      </c>
+      <c r="D22" s="25">
         <f>+Earnings_Comparison!H15</f>
-        <v>5.3556693932221844</v>
-      </c>
-      <c r="K11" s="20" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" t="str">
-        <f>+Earnings_Comparison!B38</f>
-        <v>NC</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="C12" s="26">
-        <f>+Earnings_Comparison!E38</f>
-        <v>811.44</v>
-      </c>
-      <c r="D12" s="25">
-        <f>+Earnings_Comparison!H38</f>
-        <v>5.3483983585070449</v>
-      </c>
-      <c r="K12" s="20" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" t="str">
-        <f>+Earnings_Comparison!B32</f>
-        <v>NE</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="C13" s="26">
-        <f>+Earnings_Comparison!E32</f>
-        <v>788.73</v>
-      </c>
-      <c r="D13" s="25">
-        <f>+Earnings_Comparison!H32</f>
-        <v>5.115943545225532</v>
-      </c>
-      <c r="K13" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="L13" s="20"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" t="str">
-        <f>+Earnings_Comparison!B40</f>
-        <v>OH</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="C14" s="26">
-        <f>+Earnings_Comparison!E40</f>
-        <v>807.71</v>
-      </c>
-      <c r="D14" s="25">
-        <f>+Earnings_Comparison!H40</f>
-        <v>4.3005345839917553</v>
-      </c>
-      <c r="F14" s="26">
-        <f>C$1-C14</f>
-        <v>72.589999999999918</v>
-      </c>
-      <c r="K14" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="L14" s="20"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" t="str">
+        <v>1.680228808161055</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="str">
+        <f>+Earnings_Comparison!B7</f>
+        <v>AZ</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="C23" s="26">
+        <f>+Earnings_Comparison!E7</f>
+        <v>819.41</v>
+      </c>
+      <c r="D23" s="25">
+        <f>+Earnings_Comparison!H7</f>
+        <v>1.5765390612777708</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="str">
+        <f>+Earnings_Comparison!B31</f>
+        <v>MT</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="C24" s="26">
+        <f>+Earnings_Comparison!E31</f>
+        <v>731.28</v>
+      </c>
+      <c r="D24" s="25">
+        <f>+Earnings_Comparison!H31</f>
+        <v>1.5155416731272853</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="str">
+        <f>+Earnings_Comparison!B45</f>
+        <v>SC</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="C25" s="26">
+        <f>+Earnings_Comparison!E45</f>
+        <v>748.74</v>
+      </c>
+      <c r="D25" s="25">
+        <f>+Earnings_Comparison!H45</f>
+        <v>1.4833107744046892</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="str">
+        <f>+Earnings_Comparison!B33</f>
+        <v>NV</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="C26" s="26">
+        <f>+Earnings_Comparison!E33</f>
+        <v>748.34</v>
+      </c>
+      <c r="D26" s="25">
+        <f>+Earnings_Comparison!H33</f>
+        <v>1.4735494125894588</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="str">
+        <f>+Earnings_Comparison!B16</f>
+        <v>HI</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="C27" s="26">
+        <f>+Earnings_Comparison!E16</f>
+        <v>823</v>
+      </c>
+      <c r="D27" s="25">
+        <f>+Earnings_Comparison!H16</f>
+        <v>1.2923063444836735</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="str">
+        <f>+Earnings_Comparison!B34</f>
+        <v>NH</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C28" s="26">
+        <f>+Earnings_Comparison!E34</f>
+        <v>842.69</v>
+      </c>
+      <c r="D28" s="25">
+        <f>+Earnings_Comparison!H34</f>
+        <v>1.1137168851285795</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="str">
+        <f>+Earnings_Comparison!B19</f>
+        <v>IN</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="C29" s="26">
+        <f>+Earnings_Comparison!E19</f>
+        <v>805.73</v>
+      </c>
+      <c r="D29" s="25">
+        <f>+Earnings_Comparison!H19</f>
+        <v>0.91302834377549047</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="str">
         <f>+Earnings_Comparison!B9</f>
         <v>CA</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B30" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="C15" s="26">
+      <c r="C30" s="26">
         <f>+Earnings_Comparison!E9</f>
-        <v>1010.01</v>
-      </c>
-      <c r="D15" s="25">
+        <v>980.29</v>
+      </c>
+      <c r="D30" s="25">
         <f>+Earnings_Comparison!H9</f>
-        <v>4.1382299588185179</v>
-      </c>
-      <c r="F15" s="26">
-        <f t="shared" ref="F15:F21" si="0">C$1-C15</f>
-        <v>-129.71000000000004</v>
-      </c>
-      <c r="K15" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="L15" s="20"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" t="str">
-        <f>+Earnings_Comparison!B16</f>
-        <v>HI</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="C16" s="26">
-        <f>+Earnings_Comparison!E16</f>
-        <v>851.76</v>
-      </c>
-      <c r="D16" s="25">
-        <f>+Earnings_Comparison!H16</f>
-        <v>3.8184596666933857</v>
-      </c>
-      <c r="F16" s="26">
-        <f t="shared" si="0"/>
-        <v>28.539999999999964</v>
-      </c>
-      <c r="L16" s="20"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" t="str">
-        <f>+Earnings_Comparison!B45</f>
-        <v>SC</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="C17" s="26">
-        <f>+Earnings_Comparison!E45</f>
-        <v>762.91</v>
-      </c>
-      <c r="D17" s="25">
-        <f>+Earnings_Comparison!H45</f>
-        <v>3.4875364982009938</v>
-      </c>
-      <c r="F17" s="26">
-        <f t="shared" si="0"/>
-        <v>117.38999999999999</v>
-      </c>
-      <c r="L17" s="20"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" t="str">
-        <f>+Earnings_Comparison!B31</f>
-        <v>MT</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="C18" s="26">
-        <f>+Earnings_Comparison!E31</f>
-        <v>743.76</v>
-      </c>
-      <c r="D18" s="25">
-        <f>+Earnings_Comparison!H31</f>
-        <v>3.4399342227420915</v>
-      </c>
-      <c r="F18" s="26">
-        <f t="shared" si="0"/>
-        <v>136.53999999999996</v>
-      </c>
-      <c r="L18" s="20"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" t="str">
-        <f>+Earnings_Comparison!B29</f>
-        <v>MS</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="C19" s="26">
-        <f>+Earnings_Comparison!E29</f>
-        <v>706.73</v>
-      </c>
-      <c r="D19" s="25">
-        <f>+Earnings_Comparison!H29</f>
-        <v>3.316760161079868</v>
-      </c>
-      <c r="F19" s="26">
-        <f t="shared" si="0"/>
-        <v>173.56999999999994</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" t="str">
-        <f>+Earnings_Comparison!B7</f>
-        <v>AZ</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="C20" s="26">
-        <f>+Earnings_Comparison!E7</f>
-        <v>828.8</v>
-      </c>
-      <c r="D20" s="25">
-        <f>+Earnings_Comparison!H7</f>
-        <v>3.2719712108039367</v>
-      </c>
-      <c r="F20" s="26">
-        <f t="shared" si="0"/>
-        <v>51.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" t="str">
+        <v>0.86460491605635514</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="str">
         <f>+Earnings_Comparison!B18</f>
         <v>IL</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B31" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="C21" s="26">
+      <c r="C31" s="26">
         <f>+Earnings_Comparison!E18</f>
-        <v>917.18</v>
-      </c>
-      <c r="D21" s="25">
+        <v>894.67</v>
+      </c>
+      <c r="D31" s="25">
         <f>+Earnings_Comparison!H18</f>
-        <v>3.2548059063759682</v>
-      </c>
-      <c r="F21" s="26">
-        <f t="shared" si="0"/>
-        <v>-36.879999999999995</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" t="str">
-        <f>+Earnings_Comparison!B14</f>
-        <v>FL</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="C22" s="26">
-        <f>+Earnings_Comparison!E14</f>
-        <v>802.96</v>
-      </c>
-      <c r="D22" s="25">
-        <f>+Earnings_Comparison!H14</f>
-        <v>3.246736235711345</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" t="str">
-        <f>+Earnings_Comparison!B51</f>
-        <v>VA</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="C23" s="26">
-        <f>+Earnings_Comparison!E51</f>
-        <v>954.45</v>
-      </c>
-      <c r="D23" s="25">
-        <f>+Earnings_Comparison!H51</f>
-        <v>3.1792453902433682</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" t="str">
+        <v>0.79563797632737909</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" t="str">
+        <f>+Earnings_Comparison!B53</f>
+        <v>WV</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="C32" s="26">
+        <f>+Earnings_Comparison!E53</f>
+        <v>726.88</v>
+      </c>
+      <c r="D32" s="25">
+        <f>+Earnings_Comparison!H53</f>
+        <v>0.72819301523987523</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" t="str">
         <f>+Earnings_Comparison!B46</f>
         <v>SD</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B33" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="C24" s="26">
+      <c r="C33" s="26">
         <f>+Earnings_Comparison!E46</f>
-        <v>737.27</v>
-      </c>
-      <c r="D24" s="25">
+        <v>720.02</v>
+      </c>
+      <c r="D33" s="25">
         <f>+Earnings_Comparison!H46</f>
-        <v>3.17368886322138</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" t="str">
+        <v>0.59704873708894546</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" t="str">
         <f>+Earnings_Comparison!B49</f>
         <v>UT</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B34" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="C25" s="26">
+      <c r="C34" s="26">
         <f>+Earnings_Comparison!E49</f>
-        <v>862.7</v>
-      </c>
-      <c r="D25" s="25">
+        <v>841.82</v>
+      </c>
+      <c r="D34" s="25">
         <f>+Earnings_Comparison!H49</f>
-        <v>2.9710913950945494</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" t="str">
-        <f>+Earnings_Comparison!B20</f>
-        <v>IA</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="C26" s="26">
-        <f>+Earnings_Comparison!E20</f>
-        <v>812.33</v>
-      </c>
-      <c r="D26" s="25">
-        <f>+Earnings_Comparison!H20</f>
-        <v>2.9695560597890136</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" t="str">
-        <f>+Earnings_Comparison!B44</f>
-        <v>RI</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="C27" s="26">
-        <f>+Earnings_Comparison!E44</f>
-        <v>860.66</v>
-      </c>
-      <c r="D27" s="25">
-        <f>+Earnings_Comparison!H44</f>
-        <v>2.8727293600016912</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" t="str">
+        <v>0.29700854729082238</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" t="str">
         <f>+Earnings_Comparison!B41</f>
         <v>OK</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B35" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="C28" s="26">
+      <c r="C35" s="26">
         <f>+Earnings_Comparison!E41</f>
-        <v>773.96</v>
-      </c>
-      <c r="D28" s="25">
+        <v>760.82</v>
+      </c>
+      <c r="D35" s="25">
         <f>+Earnings_Comparison!H41</f>
-        <v>2.8525576608340986</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" t="str">
-        <f>+Earnings_Comparison!B33</f>
-        <v>NV</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="C29" s="26">
-        <f>+Earnings_Comparison!E33</f>
-        <v>757.86</v>
-      </c>
-      <c r="D29" s="25">
-        <f>+Earnings_Comparison!H33</f>
-        <v>2.8180106195329291</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" t="str">
-        <f>+Earnings_Comparison!B34</f>
-        <v>NH</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="C30" s="26">
-        <f>+Earnings_Comparison!E34</f>
-        <v>871.42</v>
-      </c>
-      <c r="D30" s="25">
-        <f>+Earnings_Comparison!H34</f>
-        <v>2.7151598836043345</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" t="str">
+        <v>0.16150469552151936</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" t="str">
+        <f>+Earnings_Comparison!B35</f>
+        <v>NJ</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="C36" s="26">
+        <f>+Earnings_Comparison!E35</f>
+        <v>938.29</v>
+      </c>
+      <c r="D36" s="25">
+        <f>+Earnings_Comparison!H35</f>
+        <v>-8.9536633900921814E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" t="str">
+        <f>+Earnings_Comparison!B24</f>
+        <v>ME</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="C37" s="26">
+        <f>+Earnings_Comparison!E24</f>
+        <v>742.56</v>
+      </c>
+      <c r="D37" s="25">
+        <f>+Earnings_Comparison!H24</f>
+        <v>-0.1241200117285457</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" t="str">
+        <f>+Earnings_Comparison!B22</f>
+        <v>KY</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="C38" s="26">
+        <f>+Earnings_Comparison!E22</f>
+        <v>748.7</v>
+      </c>
+      <c r="D38" s="25">
+        <f>+Earnings_Comparison!H22</f>
+        <v>-0.1474739568002259</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" t="str">
+        <f>+Earnings_Comparison!B43</f>
+        <v>PA</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="C39" s="26">
+        <f>+Earnings_Comparison!E43</f>
+        <v>824.38</v>
+      </c>
+      <c r="D39" s="25">
+        <f>+Earnings_Comparison!H43</f>
+        <v>-0.2698378633843701</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" t="str">
+        <f>+Earnings_Comparison!B10</f>
+        <v>CO</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C40" s="26">
+        <f>+Earnings_Comparison!E10</f>
+        <v>904.51</v>
+      </c>
+      <c r="D40" s="25">
+        <f>+Earnings_Comparison!H10</f>
+        <v>-0.27130414149441062</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" t="str">
+        <f>+Earnings_Comparison!B23</f>
+        <v>LA</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="C41" s="26">
+        <f>+Earnings_Comparison!E23</f>
+        <v>792</v>
+      </c>
+      <c r="D41" s="25">
+        <f>+Earnings_Comparison!H23</f>
+        <v>-0.49439645570066304</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" t="str">
+        <f>+Earnings_Comparison!B25</f>
+        <v>MD</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="C42" s="26">
+        <f>+Earnings_Comparison!E25</f>
+        <v>924.04</v>
+      </c>
+      <c r="D42" s="25">
+        <f>+Earnings_Comparison!H25</f>
+        <v>-0.51551875563968785</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" t="str">
+        <f>+Earnings_Comparison!B37</f>
+        <v>NY</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="C43" s="26">
+        <f>+Earnings_Comparison!E37</f>
+        <v>960.78</v>
+      </c>
+      <c r="D43" s="25">
+        <f>+Earnings_Comparison!H37</f>
+        <v>-0.7881374272205699</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" t="str">
+        <f>+Earnings_Comparison!B50</f>
+        <v>VT</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="C44" s="26">
+        <f>+Earnings_Comparison!E50</f>
+        <v>806.74</v>
+      </c>
+      <c r="D44" s="25">
+        <f>+Earnings_Comparison!H50</f>
+        <v>-0.78909134113014368</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" t="str">
         <f>+Earnings_Comparison!B39</f>
         <v>ND</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B45" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="C31" s="26">
+      <c r="C45" s="26">
         <f>+Earnings_Comparison!E39</f>
-        <v>907.9</v>
-      </c>
-      <c r="D31" s="25">
+        <v>878.42</v>
+      </c>
+      <c r="D45" s="25">
         <f>+Earnings_Comparison!H39</f>
-        <v>2.694772627955766</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" t="str">
-        <f>+Earnings_Comparison!B26</f>
-        <v>MA</v>
-      </c>
-      <c r="B32" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="C32" s="26">
-        <f>+Earnings_Comparison!E26</f>
-        <v>1046.6400000000001</v>
-      </c>
-      <c r="D32" s="25">
-        <f>+Earnings_Comparison!H26</f>
-        <v>2.4401379966518366</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" t="str">
-        <f>+Earnings_Comparison!B35</f>
-        <v>NJ</v>
-      </c>
-      <c r="B33" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="C33" s="26">
-        <f>+Earnings_Comparison!E35</f>
-        <v>962.2</v>
-      </c>
-      <c r="D33" s="25">
-        <f>+Earnings_Comparison!H35</f>
-        <v>2.3647755158279882</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" t="str">
+        <v>-0.85912973419748351</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" t="str">
+        <f>+Earnings_Comparison!B27</f>
+        <v>MI</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C46" s="26">
+        <f>+Earnings_Comparison!E27</f>
+        <v>817.34</v>
+      </c>
+      <c r="D46" s="25">
+        <f>+Earnings_Comparison!H27</f>
+        <v>-0.9435803546485988</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" t="str">
+        <f>+Earnings_Comparison!B17</f>
+        <v>ID</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="C47" s="26">
+        <f>+Earnings_Comparison!E17</f>
+        <v>732.83</v>
+      </c>
+      <c r="D47" s="25">
+        <f>+Earnings_Comparison!H17</f>
+        <v>-1.355097429315022</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" t="str">
+        <f>+Earnings_Comparison!B21</f>
+        <v>KS</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="C48" s="26">
+        <f>+Earnings_Comparison!E21</f>
+        <v>762.62</v>
+      </c>
+      <c r="D48" s="25">
+        <f>+Earnings_Comparison!H21</f>
+        <v>-1.5713300729416568</v>
+      </c>
+      <c r="K48" s="20"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" t="str">
+        <f>+Earnings_Comparison!B48</f>
+        <v>TX</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="C49" s="26">
+        <f>+Earnings_Comparison!E48</f>
+        <v>872.09</v>
+      </c>
+      <c r="D49" s="25">
+        <f>+Earnings_Comparison!H48</f>
+        <v>-1.6049578382530405</v>
+      </c>
+      <c r="K49" s="20"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" t="str">
+        <f>+Earnings_Comparison!B6</f>
+        <v>AK</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C50" s="26">
+        <f>+Earnings_Comparison!E6</f>
+        <v>966</v>
+      </c>
+      <c r="D50" s="25">
+        <f>+Earnings_Comparison!H6</f>
+        <v>-2.0552409665821503</v>
+      </c>
+      <c r="K50" s="20"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" t="str">
+        <f>+Earnings_Comparison!B30</f>
+        <v>MO</v>
+      </c>
+      <c r="B51" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="C51" s="26">
+        <f>+Earnings_Comparison!E30</f>
+        <v>735.38</v>
+      </c>
+      <c r="D51" s="25">
+        <f>+Earnings_Comparison!H30</f>
+        <v>-2.0901199273872129</v>
+      </c>
+      <c r="K51" s="20"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" t="str">
         <f>+Earnings_Comparison!B13</f>
         <v>DC</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="B52" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="C34" s="26">
+      <c r="C52" s="26">
         <f>+Earnings_Comparison!E13</f>
-        <v>1412.43</v>
-      </c>
-      <c r="D34" s="25">
+        <v>1344.03</v>
+      </c>
+      <c r="D52" s="25">
         <f>+Earnings_Comparison!H13</f>
-        <v>2.2628229665005328</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" t="str">
-        <f>+Earnings_Comparison!B17</f>
-        <v>ID</v>
-      </c>
-      <c r="B35" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="C35" s="26">
-        <f>+Earnings_Comparison!E17</f>
-        <v>758.59</v>
-      </c>
-      <c r="D35" s="25">
-        <f>+Earnings_Comparison!H17</f>
-        <v>2.1470575075894116</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" t="str">
-        <f>+Earnings_Comparison!B8</f>
-        <v>AR</v>
-      </c>
-      <c r="B36" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="C36" s="26">
-        <f>+Earnings_Comparison!E8</f>
-        <v>687.37</v>
-      </c>
-      <c r="D36" s="25">
-        <f>+Earnings_Comparison!H8</f>
-        <v>2.0432751580678588</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" t="str">
-        <f>+Earnings_Comparison!B54</f>
-        <v>WI</v>
-      </c>
-      <c r="B37" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="C37" s="26">
-        <f>+Earnings_Comparison!E54</f>
-        <v>809.42</v>
-      </c>
-      <c r="D37" s="25">
-        <f>+Earnings_Comparison!H54</f>
-        <v>1.9064540217958115</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" t="str">
-        <f>+Earnings_Comparison!B10</f>
-        <v>CO</v>
-      </c>
-      <c r="B38" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="C38" s="26">
-        <f>+Earnings_Comparison!E10</f>
-        <v>927.84</v>
-      </c>
-      <c r="D38" s="25">
-        <f>+Earnings_Comparison!H10</f>
-        <v>1.6176699744323786</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" t="str">
-        <f>+Earnings_Comparison!B19</f>
-        <v>IN</v>
-      </c>
-      <c r="B39" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="C39" s="26">
-        <f>+Earnings_Comparison!E19</f>
-        <v>813.28</v>
-      </c>
-      <c r="D39" s="25">
-        <f>+Earnings_Comparison!H19</f>
-        <v>1.5515917914607602</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" t="str">
-        <f>+Earnings_Comparison!B23</f>
-        <v>LA</v>
-      </c>
-      <c r="B40" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="C40" s="26">
-        <f>+Earnings_Comparison!E23</f>
-        <v>806.34</v>
-      </c>
-      <c r="D40" s="25">
-        <f>+Earnings_Comparison!H23</f>
-        <v>1.4361111334089349</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" t="str">
-        <f>+Earnings_Comparison!B37</f>
-        <v>NY</v>
-      </c>
-      <c r="B41" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="C41" s="26">
-        <f>+Earnings_Comparison!E37</f>
-        <v>983.47</v>
-      </c>
-      <c r="D41" s="25">
-        <f>+Earnings_Comparison!H37</f>
-        <v>1.1825778512521756</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" t="str">
-        <f>+Earnings_Comparison!B48</f>
-        <v>TX</v>
-      </c>
-      <c r="B42" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="C42" s="26">
-        <f>+Earnings_Comparison!E48</f>
-        <v>891.61</v>
-      </c>
-      <c r="D42" s="25">
-        <f>+Earnings_Comparison!H48</f>
-        <v>0.92251815045580887</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" t="str">
-        <f>+Earnings_Comparison!B43</f>
-        <v>PA</v>
-      </c>
-      <c r="B43" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="C43" s="26">
-        <f>+Earnings_Comparison!E43</f>
-        <v>832.32</v>
-      </c>
-      <c r="D43" s="25">
-        <f>+Earnings_Comparison!H43</f>
-        <v>0.79984022366912377</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" t="str">
-        <f>+Earnings_Comparison!B24</f>
-        <v>ME</v>
-      </c>
-      <c r="B44" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="C44" s="26">
-        <f>+Earnings_Comparison!E24</f>
-        <v>756.68</v>
-      </c>
-      <c r="D44" s="25">
-        <f>+Earnings_Comparison!H24</f>
-        <v>0.77265519835068019</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" t="str">
-        <f>+Earnings_Comparison!B25</f>
-        <v>MD</v>
-      </c>
-      <c r="B45" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="C45" s="26">
-        <f>+Earnings_Comparison!E25</f>
-        <v>942.91</v>
-      </c>
-      <c r="D45" s="25">
-        <f>+Earnings_Comparison!H25</f>
-        <v>0.48754252004892251</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" t="str">
-        <f>+Earnings_Comparison!B30</f>
-        <v>MO</v>
-      </c>
-      <c r="B46" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="C46" s="26">
-        <f>+Earnings_Comparison!E30</f>
-        <v>753.87</v>
-      </c>
-      <c r="D46" s="25">
-        <f>+Earnings_Comparison!H30</f>
-        <v>0.38627151425989492</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" t="str">
-        <f>+Earnings_Comparison!B50</f>
-        <v>VT</v>
-      </c>
-      <c r="B47" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="C47" s="26">
-        <f>+Earnings_Comparison!E50</f>
-        <v>817.23</v>
-      </c>
-      <c r="D47" s="25">
-        <f>+Earnings_Comparison!H50</f>
-        <v>7.4258130436177794E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" t="str">
-        <f>+Earnings_Comparison!B53</f>
-        <v>WV</v>
-      </c>
-      <c r="B48" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="C48" s="26">
-        <f>+Earnings_Comparison!E53</f>
-        <v>725.87</v>
-      </c>
-      <c r="D48" s="25">
-        <f>+Earnings_Comparison!H53</f>
-        <v>3.9647556035626863E-2</v>
-      </c>
-      <c r="K48" s="20"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" t="str">
-        <f>+Earnings_Comparison!B6</f>
-        <v>AK</v>
-      </c>
-      <c r="B49" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="C49" s="26">
-        <f>+Earnings_Comparison!E6</f>
-        <v>975.8</v>
-      </c>
-      <c r="D49" s="25">
-        <f>+Earnings_Comparison!H6</f>
-        <v>-8.4234755409262618E-2</v>
-      </c>
-      <c r="K49" s="20"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" t="str">
-        <f>+Earnings_Comparison!B27</f>
-        <v>MI</v>
-      </c>
-      <c r="B50" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="C50" s="26">
-        <f>+Earnings_Comparison!E27</f>
-        <v>827.66</v>
-      </c>
-      <c r="D50" s="25">
-        <f>+Earnings_Comparison!H27</f>
-        <v>-8.9664935095790099E-2</v>
-      </c>
-      <c r="K50" s="20"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" t="str">
-        <f>+Earnings_Comparison!B21</f>
-        <v>KS</v>
-      </c>
-      <c r="B51" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="C51" s="26">
-        <f>+Earnings_Comparison!E21</f>
-        <v>766.42</v>
-      </c>
-      <c r="D51" s="25">
-        <f>+Earnings_Comparison!H21</f>
-        <v>-0.32131618380439875</v>
-      </c>
-      <c r="K51" s="20"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" t="str">
-        <f>+Earnings_Comparison!B22</f>
-        <v>KY</v>
-      </c>
-      <c r="B52" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="C52" s="26">
-        <f>+Earnings_Comparison!E22</f>
-        <v>739.55</v>
-      </c>
-      <c r="D52" s="25">
-        <f>+Earnings_Comparison!H22</f>
-        <v>-1.3414282997540106</v>
+        <v>-2.133079912407565</v>
       </c>
       <c r="K52" s="20"/>
     </row>
@@ -11097,11 +11272,11 @@
       </c>
       <c r="C53" s="26">
         <f>+Earnings_Comparison!E36</f>
-        <v>686.82</v>
+        <v>678.69</v>
       </c>
       <c r="D53" s="25">
         <f>+Earnings_Comparison!H36</f>
-        <v>-1.9767121319331671</v>
+        <v>-2.499807456033154</v>
       </c>
       <c r="K53" s="20"/>
     </row>
@@ -11115,21 +11290,21 @@
       </c>
       <c r="C54" s="26">
         <f>+Earnings_Comparison!E55</f>
-        <v>774.56</v>
+        <v>753.69</v>
       </c>
       <c r="D54" s="25">
         <f>+Earnings_Comparison!H55</f>
-        <v>-5.9329072024392087</v>
+        <v>-7.9771656717848582</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C56">
-        <f>COUNTIF(C4:C54, "&lt;880")</f>
-        <v>36</v>
+        <f>COUNTIF(C4:C54, "&lt;881")</f>
+        <v>38</v>
       </c>
       <c r="D56">
         <f>COUNTIF(D4:D54, "&lt;0")</f>
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -11138,8 +11313,8 @@
       <sortCondition descending="1" ref="D3:D54"/>
     </sortState>
   </autoFilter>
-  <sortState ref="K9:K15">
-    <sortCondition ref="K9"/>
+  <sortState ref="M10:M14">
+    <sortCondition ref="M10"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A2:D2"/>

--- a/static/data/source/current_earnings.xlsx
+++ b/static/data/source/current_earnings.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="810" windowWidth="20775" windowHeight="11715" activeTab="3"/>
+    <workbookView xWindow="390" yWindow="870" windowWidth="20775" windowHeight="11655" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Earnings Table" sheetId="2" r:id="rId1"/>
     <sheet name="Earnings_Comparison" sheetId="1" r:id="rId2"/>
-    <sheet name="June_BLS Data Series" sheetId="17" r:id="rId3"/>
+    <sheet name="July 2016_BLS Data Series" sheetId="18" r:id="rId3"/>
     <sheet name="SCRATCH" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
@@ -25,7 +25,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="S5" authorId="0">
+    <comment ref="T5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -40,7 +40,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S6" authorId="0">
+    <comment ref="T6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -55,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S7" authorId="0">
+    <comment ref="T7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -70,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S8" authorId="0">
+    <comment ref="T8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -85,7 +85,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S9" authorId="0">
+    <comment ref="T9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -100,7 +100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S10" authorId="0">
+    <comment ref="T10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -115,7 +115,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S11" authorId="0">
+    <comment ref="T11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -130,7 +130,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S12" authorId="0">
+    <comment ref="T12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -145,7 +145,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S13" authorId="0">
+    <comment ref="T13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -160,7 +160,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S14" authorId="0">
+    <comment ref="T14" authorId="0">
       <text>
         <r>
           <rPr>
@@ -175,7 +175,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S15" authorId="0">
+    <comment ref="T15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -190,7 +190,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S16" authorId="0">
+    <comment ref="T16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -205,7 +205,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S17" authorId="0">
+    <comment ref="T17" authorId="0">
       <text>
         <r>
           <rPr>
@@ -220,7 +220,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S18" authorId="0">
+    <comment ref="T18" authorId="0">
       <text>
         <r>
           <rPr>
@@ -235,7 +235,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S19" authorId="0">
+    <comment ref="T19" authorId="0">
       <text>
         <r>
           <rPr>
@@ -250,7 +250,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S20" authorId="0">
+    <comment ref="T20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -265,7 +265,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S21" authorId="0">
+    <comment ref="T21" authorId="0">
       <text>
         <r>
           <rPr>
@@ -280,7 +280,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S22" authorId="0">
+    <comment ref="T22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -295,7 +295,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S23" authorId="0">
+    <comment ref="T23" authorId="0">
       <text>
         <r>
           <rPr>
@@ -310,7 +310,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S24" authorId="0">
+    <comment ref="T24" authorId="0">
       <text>
         <r>
           <rPr>
@@ -325,7 +325,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S25" authorId="0">
+    <comment ref="T25" authorId="0">
       <text>
         <r>
           <rPr>
@@ -340,7 +340,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S26" authorId="0">
+    <comment ref="T26" authorId="0">
       <text>
         <r>
           <rPr>
@@ -355,7 +355,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S27" authorId="0">
+    <comment ref="T27" authorId="0">
       <text>
         <r>
           <rPr>
@@ -370,7 +370,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S28" authorId="0">
+    <comment ref="T28" authorId="0">
       <text>
         <r>
           <rPr>
@@ -385,7 +385,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S29" authorId="0">
+    <comment ref="T29" authorId="0">
       <text>
         <r>
           <rPr>
@@ -400,7 +400,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S30" authorId="0">
+    <comment ref="T30" authorId="0">
       <text>
         <r>
           <rPr>
@@ -415,7 +415,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S31" authorId="0">
+    <comment ref="T31" authorId="0">
       <text>
         <r>
           <rPr>
@@ -430,7 +430,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S32" authorId="0">
+    <comment ref="T32" authorId="0">
       <text>
         <r>
           <rPr>
@@ -445,7 +445,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S33" authorId="0">
+    <comment ref="T33" authorId="0">
       <text>
         <r>
           <rPr>
@@ -460,7 +460,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S34" authorId="0">
+    <comment ref="T34" authorId="0">
       <text>
         <r>
           <rPr>
@@ -475,7 +475,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S35" authorId="0">
+    <comment ref="T35" authorId="0">
       <text>
         <r>
           <rPr>
@@ -490,7 +490,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S36" authorId="0">
+    <comment ref="T36" authorId="0">
       <text>
         <r>
           <rPr>
@@ -505,7 +505,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S37" authorId="0">
+    <comment ref="T37" authorId="0">
       <text>
         <r>
           <rPr>
@@ -520,7 +520,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S38" authorId="0">
+    <comment ref="T38" authorId="0">
       <text>
         <r>
           <rPr>
@@ -535,7 +535,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S39" authorId="0">
+    <comment ref="T39" authorId="0">
       <text>
         <r>
           <rPr>
@@ -550,7 +550,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S40" authorId="0">
+    <comment ref="T40" authorId="0">
       <text>
         <r>
           <rPr>
@@ -565,7 +565,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S41" authorId="0">
+    <comment ref="T41" authorId="0">
       <text>
         <r>
           <rPr>
@@ -580,7 +580,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S42" authorId="0">
+    <comment ref="T42" authorId="0">
       <text>
         <r>
           <rPr>
@@ -595,7 +595,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S43" authorId="0">
+    <comment ref="T43" authorId="0">
       <text>
         <r>
           <rPr>
@@ -610,7 +610,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S44" authorId="0">
+    <comment ref="T44" authorId="0">
       <text>
         <r>
           <rPr>
@@ -625,7 +625,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S45" authorId="0">
+    <comment ref="T45" authorId="0">
       <text>
         <r>
           <rPr>
@@ -640,7 +640,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S46" authorId="0">
+    <comment ref="T46" authorId="0">
       <text>
         <r>
           <rPr>
@@ -655,7 +655,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S47" authorId="0">
+    <comment ref="T47" authorId="0">
       <text>
         <r>
           <rPr>
@@ -670,7 +670,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S48" authorId="0">
+    <comment ref="T48" authorId="0">
       <text>
         <r>
           <rPr>
@@ -685,7 +685,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S49" authorId="0">
+    <comment ref="T49" authorId="0">
       <text>
         <r>
           <rPr>
@@ -700,7 +700,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S50" authorId="0">
+    <comment ref="T50" authorId="0">
       <text>
         <r>
           <rPr>
@@ -715,7 +715,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S51" authorId="0">
+    <comment ref="T51" authorId="0">
       <text>
         <r>
           <rPr>
@@ -730,7 +730,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S52" authorId="0">
+    <comment ref="T52" authorId="0">
       <text>
         <r>
           <rPr>
@@ -745,7 +745,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S53" authorId="0">
+    <comment ref="T53" authorId="0">
       <text>
         <r>
           <rPr>
@@ -760,7 +760,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S54" authorId="0">
+    <comment ref="T54" authorId="0">
       <text>
         <r>
           <rPr>
@@ -775,7 +775,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S55" authorId="0">
+    <comment ref="T55" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1403,18 +1403,18 @@
     <t>2015 to 2016</t>
   </si>
   <si>
-    <t>Average Weekly Wages June 2016</t>
-  </si>
-  <si>
-    <t>June
+    <t>June 2015 adj for inflation</t>
+  </si>
+  <si>
+    <t>Average Weekly Wages July 2016</t>
+  </si>
+  <si>
+    <t>July
+2016</t>
+  </si>
+  <si>
+    <t>July
 2015</t>
-  </si>
-  <si>
-    <t>June
-2016</t>
-  </si>
-  <si>
-    <t>June 2015 adj for inflation</t>
   </si>
 </sst>
 </file>
@@ -1436,7 +1436,7 @@
     <numFmt numFmtId="173" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="174" formatCode="#0"/>
   </numFmts>
-  <fonts count="83" x14ac:knownFonts="1">
+  <fonts count="80" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1953,23 +1953,6 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-    </font>
   </fonts>
   <fills count="44">
     <fill>
@@ -3111,7 +3094,7 @@
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3175,25 +3158,25 @@
     </xf>
     <xf numFmtId="174" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="80" fillId="2" borderId="0" xfId="315" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="79" fillId="43" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="315"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="315" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="2" borderId="0" xfId="315" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="315" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="2" borderId="1" xfId="315" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="2" borderId="1" xfId="315" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="315" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="2" borderId="0" xfId="315" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="315" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="2" borderId="0" xfId="315" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="315" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="315"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3201,15 +3184,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="82" fillId="2" borderId="0" xfId="315" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="315" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="315"/>
     <xf numFmtId="0" fontId="28" fillId="34" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="79" fillId="43" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="480">
@@ -4373,7 +4353,7 @@
   <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4386,7 +4366,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="46" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B1" s="46"/>
       <c r="C1" s="46"/>
@@ -4415,11 +4395,11 @@
       </c>
       <c r="C3" s="31">
         <f>+Earnings_Comparison!E58</f>
-        <v>880.98</v>
+        <v>886.31</v>
       </c>
       <c r="D3" s="30">
         <f>+Earnings_Comparison!H58</f>
-        <v>1.287641478753776</v>
+        <v>1.4929705564658002</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -4432,11 +4412,11 @@
       </c>
       <c r="C4" s="31">
         <f>+Earnings_Comparison!E5</f>
-        <v>776.83</v>
+        <v>781</v>
       </c>
       <c r="D4" s="30">
         <f>+Earnings_Comparison!H5</f>
-        <v>4.5079836412051044</v>
+        <v>4.9430096604955009</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -4449,11 +4429,11 @@
       </c>
       <c r="C5" s="31">
         <f>+Earnings_Comparison!E6</f>
-        <v>966</v>
+        <v>983.54</v>
       </c>
       <c r="D5" s="30">
         <f>+Earnings_Comparison!H6</f>
-        <v>-2.0552409665821503</v>
+        <v>-2.0992985231495731</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -4466,11 +4446,11 @@
       </c>
       <c r="C6" s="31">
         <f>+Earnings_Comparison!E7</f>
-        <v>819.41</v>
+        <v>815.62</v>
       </c>
       <c r="D6" s="30">
         <f>+Earnings_Comparison!H7</f>
-        <v>1.5765390612777708</v>
+        <v>1.5537126004548485</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -4483,11 +4463,11 @@
       </c>
       <c r="C7" s="31">
         <f>+Earnings_Comparison!E8</f>
-        <v>685.31</v>
+        <v>696.9</v>
       </c>
       <c r="D7" s="30">
         <f>+Earnings_Comparison!H8</f>
-        <v>2.5446099928998711</v>
+        <v>3.5615538181180906</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -4500,11 +4480,11 @@
       </c>
       <c r="C8" s="31">
         <f>+Earnings_Comparison!E9</f>
-        <v>980.29</v>
+        <v>986.94</v>
       </c>
       <c r="D8" s="30">
         <f>+Earnings_Comparison!H9</f>
-        <v>0.86460491605635514</v>
+        <v>1.5749769743676145</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -4517,11 +4497,11 @@
       </c>
       <c r="C9" s="31">
         <f>+Earnings_Comparison!E10</f>
-        <v>904.51</v>
+        <v>902.76</v>
       </c>
       <c r="D9" s="30">
         <f>+Earnings_Comparison!H10</f>
-        <v>-0.27130414149441062</v>
+        <v>-1.8888916477631912</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -4534,11 +4514,11 @@
       </c>
       <c r="C10" s="31">
         <f>+Earnings_Comparison!E11</f>
-        <v>1005.65</v>
+        <v>1013.04</v>
       </c>
       <c r="D10" s="30">
         <f>+Earnings_Comparison!H11</f>
-        <v>3.9959897908320441</v>
+        <v>4.4421744633585059</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -4551,11 +4531,11 @@
       </c>
       <c r="C11" s="31">
         <f>+Earnings_Comparison!E12</f>
-        <v>797.97</v>
+        <v>802.41</v>
       </c>
       <c r="D11" s="30">
         <f>+Earnings_Comparison!H12</f>
-        <v>8.375469989165051</v>
+        <v>7.7089601657369444</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -4568,11 +4548,11 @@
       </c>
       <c r="C12" s="31">
         <f>+Earnings_Comparison!E13</f>
-        <v>1344.03</v>
+        <v>1357.18</v>
       </c>
       <c r="D12" s="30">
         <f>+Earnings_Comparison!H13</f>
-        <v>-2.133079912407565</v>
+        <v>2.139256468186046</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -4585,11 +4565,11 @@
       </c>
       <c r="C13" s="31">
         <f>+Earnings_Comparison!E14</f>
-        <v>787.84</v>
+        <v>783.36</v>
       </c>
       <c r="D13" s="30">
         <f>+Earnings_Comparison!H14</f>
-        <v>2.0696075982407525</v>
+        <v>0.73421476075274938</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -4602,11 +4582,11 @@
       </c>
       <c r="C14" s="31">
         <f>+Earnings_Comparison!E15</f>
-        <v>843.18</v>
+        <v>847.38</v>
       </c>
       <c r="D14" s="30">
         <f>+Earnings_Comparison!H15</f>
-        <v>1.680228808161055</v>
+        <v>1.663678669073354</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -4619,11 +4599,11 @@
       </c>
       <c r="C15" s="31">
         <f>+Earnings_Comparison!E16</f>
-        <v>823</v>
+        <v>838.29</v>
       </c>
       <c r="D15" s="30">
         <f>+Earnings_Comparison!H16</f>
-        <v>1.2923063444836735</v>
+        <v>2.1072988091106248</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -4636,11 +4616,11 @@
       </c>
       <c r="C16" s="31">
         <f>+Earnings_Comparison!E17</f>
-        <v>732.83</v>
+        <v>735.47</v>
       </c>
       <c r="D16" s="30">
         <f>+Earnings_Comparison!H17</f>
-        <v>-1.355097429315022</v>
+        <v>-1.4406038884579142</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -4653,11 +4633,11 @@
       </c>
       <c r="C17" s="31">
         <f>+Earnings_Comparison!E18</f>
-        <v>894.67</v>
+        <v>897.85</v>
       </c>
       <c r="D17" s="30">
         <f>+Earnings_Comparison!H18</f>
-        <v>0.79563797632737909</v>
+        <v>1.0697226723619613</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -4670,11 +4650,11 @@
       </c>
       <c r="C18" s="31">
         <f>+Earnings_Comparison!E19</f>
-        <v>805.73</v>
+        <v>813.72</v>
       </c>
       <c r="D18" s="30">
         <f>+Earnings_Comparison!H19</f>
-        <v>0.91302834377549047</v>
+        <v>1.9301378031771899</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -4687,11 +4667,11 @@
       </c>
       <c r="C19" s="31">
         <f>+Earnings_Comparison!E20</f>
-        <v>833.18</v>
+        <v>810.49</v>
       </c>
       <c r="D19" s="30">
         <f>+Earnings_Comparison!H20</f>
-        <v>6.2940157536504282</v>
+        <v>2.9547016602347043</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -4704,11 +4684,11 @@
       </c>
       <c r="C20" s="31">
         <f>+Earnings_Comparison!E21</f>
-        <v>762.62</v>
+        <v>765.23</v>
       </c>
       <c r="D20" s="30">
         <f>+Earnings_Comparison!H21</f>
-        <v>-1.5713300729416568</v>
+        <v>-1.3374649081707601</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -4721,11 +4701,11 @@
       </c>
       <c r="C21" s="31">
         <f>+Earnings_Comparison!E22</f>
-        <v>748.7</v>
+        <v>746.59</v>
       </c>
       <c r="D21" s="30">
         <f>+Earnings_Comparison!H22</f>
-        <v>-0.1474739568002259</v>
+        <v>-1.1551997275561665</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -4738,11 +4718,11 @@
       </c>
       <c r="C22" s="31">
         <f>+Earnings_Comparison!E23</f>
-        <v>792</v>
+        <v>789.4</v>
       </c>
       <c r="D22" s="30">
         <f>+Earnings_Comparison!H23</f>
-        <v>-0.49439645570066304</v>
+        <v>-0.56239564308471213</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -4755,11 +4735,11 @@
       </c>
       <c r="C23" s="31">
         <f>+Earnings_Comparison!E24</f>
-        <v>742.56</v>
+        <v>737.12</v>
       </c>
       <c r="D23" s="30">
         <f>+Earnings_Comparison!H24</f>
-        <v>-0.1241200117285457</v>
+        <v>-1.3647686711485862</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -4772,11 +4752,11 @@
       </c>
       <c r="C24" s="31">
         <f>+Earnings_Comparison!E25</f>
-        <v>924.04</v>
+        <v>931.9</v>
       </c>
       <c r="D24" s="30">
         <f>+Earnings_Comparison!H25</f>
-        <v>-0.51551875563968785</v>
+        <v>0.43274865379643312</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -4789,11 +4769,11 @@
       </c>
       <c r="C25" s="31">
         <f>+Earnings_Comparison!E26</f>
-        <v>1030.1300000000001</v>
+        <v>1038.6300000000001</v>
       </c>
       <c r="D25" s="30">
         <f>+Earnings_Comparison!H26</f>
-        <v>1.6832731393184641</v>
+        <v>2.5618074586351014</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -4806,11 +4786,11 @@
       </c>
       <c r="C26" s="31">
         <f>+Earnings_Comparison!E27</f>
-        <v>817.34</v>
+        <v>824.22</v>
       </c>
       <c r="D26" s="30">
         <f>+Earnings_Comparison!H27</f>
-        <v>-0.9435803546485988</v>
+        <v>-0.37369991643796396</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -4823,11 +4803,11 @@
       </c>
       <c r="C27" s="31">
         <f>+Earnings_Comparison!E28</f>
-        <v>911.09</v>
+        <v>919.68</v>
       </c>
       <c r="D27" s="30">
         <f>+Earnings_Comparison!H28</f>
-        <v>2.8867396232888254</v>
+        <v>3.3663535517871823</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -4840,11 +4820,11 @@
       </c>
       <c r="C28" s="31">
         <f>+Earnings_Comparison!E29</f>
-        <v>696.84</v>
+        <v>701.84</v>
       </c>
       <c r="D28" s="30">
         <f>+Earnings_Comparison!H29</f>
-        <v>1.6969012725793986</v>
+        <v>2.1301922598313094</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -4857,11 +4837,11 @@
       </c>
       <c r="C29" s="31">
         <f>+Earnings_Comparison!E30</f>
-        <v>735.38</v>
+        <v>746.82</v>
       </c>
       <c r="D29" s="30">
         <f>+Earnings_Comparison!H30</f>
-        <v>-2.0901199273872129</v>
+        <v>-0.39874178355022716</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -4874,11 +4854,11 @@
       </c>
       <c r="C30" s="31">
         <f>+Earnings_Comparison!E31</f>
-        <v>731.28</v>
+        <v>738.13</v>
       </c>
       <c r="D30" s="30">
         <f>+Earnings_Comparison!H31</f>
-        <v>1.5155416731272853</v>
+        <v>2.1571013298131048</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -4891,11 +4871,11 @@
       </c>
       <c r="C31" s="31">
         <f>+Earnings_Comparison!E32</f>
-        <v>780.1</v>
+        <v>778.01</v>
       </c>
       <c r="D31" s="30">
         <f>+Earnings_Comparison!H32</f>
-        <v>3.0683793779614943</v>
+        <v>2.574667043539236</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -4908,11 +4888,11 @@
       </c>
       <c r="C32" s="31">
         <f>+Earnings_Comparison!E33</f>
-        <v>748.34</v>
+        <v>746.59</v>
       </c>
       <c r="D32" s="30">
         <f>+Earnings_Comparison!H33</f>
-        <v>1.4735494125894588</v>
+        <v>0.45953446592601477</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -4925,11 +4905,11 @@
       </c>
       <c r="C33" s="31">
         <f>+Earnings_Comparison!E34</f>
-        <v>842.69</v>
+        <v>851.36</v>
       </c>
       <c r="D33" s="30">
         <f>+Earnings_Comparison!H34</f>
-        <v>1.1137168851285795</v>
+        <v>1.6150359882064258</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -4942,11 +4922,11 @@
       </c>
       <c r="C34" s="31">
         <f>+Earnings_Comparison!E35</f>
-        <v>938.29</v>
+        <v>944.52</v>
       </c>
       <c r="D34" s="30">
         <f>+Earnings_Comparison!H35</f>
-        <v>-8.9536633900921814E-2</v>
+        <v>0.65956373461550921</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -4959,11 +4939,11 @@
       </c>
       <c r="C35" s="31">
         <f>+Earnings_Comparison!E36</f>
-        <v>678.69</v>
+        <v>682.36</v>
       </c>
       <c r="D35" s="30">
         <f>+Earnings_Comparison!H36</f>
-        <v>-2.499807456033154</v>
+        <v>-2.4760691871644092</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -4976,11 +4956,11 @@
       </c>
       <c r="C36" s="31">
         <f>+Earnings_Comparison!E37</f>
-        <v>960.78</v>
+        <v>974.6</v>
       </c>
       <c r="D36" s="30">
         <f>+Earnings_Comparison!H37</f>
-        <v>-0.7881374272205699</v>
+        <v>0.51148787298884724</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -4993,11 +4973,11 @@
       </c>
       <c r="C37" s="31">
         <f>+Earnings_Comparison!E38</f>
-        <v>803.85</v>
+        <v>804.2</v>
       </c>
       <c r="D37" s="30">
         <f>+Earnings_Comparison!H38</f>
-        <v>4.7110832054710672</v>
+        <v>4.4597498469544972</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -5010,11 +4990,11 @@
       </c>
       <c r="C38" s="31">
         <f>+Earnings_Comparison!E39</f>
-        <v>878.42</v>
+        <v>887.05</v>
       </c>
       <c r="D38" s="30">
         <f>+Earnings_Comparison!H39</f>
-        <v>-0.85912973419748351</v>
+        <v>-1.6211592881386738</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -5027,11 +5007,11 @@
       </c>
       <c r="C39" s="31">
         <f>+Earnings_Comparison!E40</f>
-        <v>791.73</v>
+        <v>799.53</v>
       </c>
       <c r="D39" s="30">
         <f>+Earnings_Comparison!H40</f>
-        <v>2.1578275309493078</v>
+        <v>3.2984301906322067</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -5044,11 +5024,11 @@
       </c>
       <c r="C40" s="31">
         <f>+Earnings_Comparison!E41</f>
-        <v>760.82</v>
+        <v>780.13</v>
       </c>
       <c r="D40" s="30">
         <f>+Earnings_Comparison!H41</f>
-        <v>0.16150469552151936</v>
+        <v>3.8816649659307645</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -5061,11 +5041,11 @@
       </c>
       <c r="C41" s="31">
         <f>+Earnings_Comparison!E42</f>
-        <v>832.12</v>
+        <v>841.66</v>
       </c>
       <c r="D41" s="30">
         <f>+Earnings_Comparison!H42</f>
-        <v>4.0826048876913434</v>
+        <v>5.2731190561502661</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -5078,11 +5058,11 @@
       </c>
       <c r="C42" s="31">
         <f>+Earnings_Comparison!E43</f>
-        <v>824.38</v>
+        <v>830.8</v>
       </c>
       <c r="D42" s="30">
         <f>+Earnings_Comparison!H43</f>
-        <v>-0.2698378633843701</v>
+        <v>0.50985033755082121</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -5095,11 +5075,11 @@
       </c>
       <c r="C43" s="31">
         <f>+Earnings_Comparison!E44</f>
-        <v>848.02</v>
+        <v>840.84</v>
       </c>
       <c r="D43" s="30">
         <f>+Earnings_Comparison!H44</f>
-        <v>3.5529581657767428</v>
+        <v>2.2985373655290076</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -5112,11 +5092,11 @@
       </c>
       <c r="C44" s="31">
         <f>+Earnings_Comparison!E45</f>
-        <v>748.74</v>
+        <v>754.86</v>
       </c>
       <c r="D44" s="30">
         <f>+Earnings_Comparison!H45</f>
-        <v>1.4833107744046892</v>
+        <v>1.4759488833522072</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -5129,11 +5109,11 @@
       </c>
       <c r="C45" s="31">
         <f>+Earnings_Comparison!E46</f>
-        <v>720.02</v>
+        <v>724.46</v>
       </c>
       <c r="D45" s="30">
         <f>+Earnings_Comparison!H46</f>
-        <v>0.59704873708894546</v>
+        <v>1.288577517132139</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -5146,11 +5126,11 @@
       </c>
       <c r="C46" s="31">
         <f>+Earnings_Comparison!E47</f>
-        <v>767.54</v>
+        <v>773.19</v>
       </c>
       <c r="D46" s="30">
         <f>+Earnings_Comparison!H47</f>
-        <v>4.145501699462173</v>
+        <v>4.3275414257931022</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -5163,11 +5143,11 @@
       </c>
       <c r="C47" s="31">
         <f>+Earnings_Comparison!E48</f>
-        <v>872.09</v>
+        <v>871.37</v>
       </c>
       <c r="D47" s="30">
         <f>+Earnings_Comparison!H48</f>
-        <v>-1.6049578382530405</v>
+        <v>-1.3973695915231898</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -5180,11 +5160,11 @@
       </c>
       <c r="C48" s="31">
         <f>+Earnings_Comparison!E49</f>
-        <v>841.82</v>
+        <v>843.56</v>
       </c>
       <c r="D48" s="30">
         <f>+Earnings_Comparison!H49</f>
-        <v>0.29700854729082238</v>
+        <v>-1.9399136956810281E-3</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -5197,11 +5177,11 @@
       </c>
       <c r="C49" s="31">
         <f>+Earnings_Comparison!E50</f>
-        <v>806.74</v>
+        <v>807.16</v>
       </c>
       <c r="D49" s="30">
         <f>+Earnings_Comparison!H50</f>
-        <v>-0.78909134113014368</v>
+        <v>-1.0329451356275499</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -5214,11 +5194,11 @@
       </c>
       <c r="C50" s="31">
         <f>+Earnings_Comparison!E51</f>
-        <v>931.83</v>
+        <v>938.9</v>
       </c>
       <c r="D50" s="30">
         <f>+Earnings_Comparison!H51</f>
-        <v>1.9135278430338909</v>
+        <v>2.7810294648366263</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -5231,11 +5211,11 @@
       </c>
       <c r="C51" s="31">
         <f>+Earnings_Comparison!E52</f>
-        <v>1034.31</v>
+        <v>1036.96</v>
       </c>
       <c r="D51" s="30">
         <f>+Earnings_Comparison!H52</f>
-        <v>2.6814645248049329</v>
+        <v>2.9586975611437305</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -5248,11 +5228,11 @@
       </c>
       <c r="C52" s="31">
         <f>+Earnings_Comparison!E53</f>
-        <v>726.88</v>
+        <v>731.81</v>
       </c>
       <c r="D52" s="30">
         <f>+Earnings_Comparison!H53</f>
-        <v>0.72819301523987523</v>
+        <v>0.75093240955785845</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -5265,11 +5245,11 @@
       </c>
       <c r="C53" s="31">
         <f>+Earnings_Comparison!E54</f>
-        <v>802.4</v>
+        <v>810.1</v>
       </c>
       <c r="D53" s="30">
         <f>+Earnings_Comparison!H54</f>
-        <v>2.0922666331365747</v>
+        <v>2.8511472308094588</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -5282,11 +5262,11 @@
       </c>
       <c r="C54" s="31">
         <f>+Earnings_Comparison!E55</f>
-        <v>753.69</v>
+        <v>760.57</v>
       </c>
       <c r="D54" s="30">
         <f>+Earnings_Comparison!H55</f>
-        <v>-7.9771656717848582</v>
+        <v>-6.8686157803813934</v>
       </c>
     </row>
   </sheetData>
@@ -5303,10 +5283,10 @@
   <dimension ref="A1:AF65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F61" sqref="F61"/>
+      <selection pane="bottomRight" activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5347,14 +5327,14 @@
         <v>2</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E4" s="34" t="s">
         <v>196</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="13" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>59</v>
@@ -5395,21 +5375,21 @@
         <v>5</v>
       </c>
       <c r="D5" s="36">
-        <f>'June_BLS Data Series'!G5</f>
-        <v>735.92</v>
+        <f>'July 2016_BLS Data Series'!H5</f>
+        <v>738.05</v>
       </c>
       <c r="E5" s="36">
-        <f>'June_BLS Data Series'!S5</f>
-        <v>776.83</v>
+        <f>'July 2016_BLS Data Series'!T5</f>
+        <v>781</v>
       </c>
       <c r="F5" s="37"/>
       <c r="G5" s="37">
         <f>D5/$G$61</f>
-        <v>743.32120182033032</v>
+        <v>744.21345692927832</v>
       </c>
       <c r="H5" s="11">
         <f>((E5/G5)-1)*100</f>
-        <v>4.5079836412051044</v>
+        <v>4.9430096604955009</v>
       </c>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
@@ -5427,21 +5407,21 @@
         <v>6</v>
       </c>
       <c r="D6" s="36">
-        <f>'June_BLS Data Series'!G6</f>
-        <v>976.45</v>
+        <f>'July 2016_BLS Data Series'!H6</f>
+        <v>996.31</v>
       </c>
       <c r="E6" s="36">
-        <f>'June_BLS Data Series'!S6</f>
-        <v>966</v>
+        <f>'July 2016_BLS Data Series'!T6</f>
+        <v>983.54</v>
       </c>
       <c r="F6" s="37"/>
       <c r="G6" s="37">
         <f t="shared" ref="G6:G55" si="0">D6/$G$61</f>
-        <v>986.27022980413858</v>
+        <v>1004.6301866719183</v>
       </c>
       <c r="H6" s="11">
         <f t="shared" ref="H6:H55" si="1">((E6/G6)-1)*100</f>
-        <v>-2.0552409665821503</v>
+        <v>-2.0992985231495731</v>
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
@@ -5459,21 +5439,21 @@
         <v>7</v>
       </c>
       <c r="D7" s="36">
-        <f>'June_BLS Data Series'!G7</f>
-        <v>798.66</v>
+        <f>'July 2016_BLS Data Series'!H7</f>
+        <v>796.49</v>
       </c>
       <c r="E7" s="36">
-        <f>'June_BLS Data Series'!S7</f>
-        <v>819.41</v>
+        <f>'July 2016_BLS Data Series'!T7</f>
+        <v>815.62</v>
       </c>
       <c r="F7" s="37"/>
       <c r="G7" s="37">
         <f t="shared" si="0"/>
-        <v>806.69218263646189</v>
+        <v>803.14148947849185</v>
       </c>
       <c r="H7" s="11">
         <f t="shared" si="1"/>
-        <v>1.5765390612777708</v>
+        <v>1.5537126004548485</v>
       </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
@@ -5491,21 +5471,21 @@
         <v>8</v>
       </c>
       <c r="D8" s="36">
-        <f>'June_BLS Data Series'!G8</f>
-        <v>661.65</v>
+        <f>'July 2016_BLS Data Series'!H8</f>
+        <v>667.36</v>
       </c>
       <c r="E8" s="36">
-        <f>'June_BLS Data Series'!S8</f>
-        <v>685.31</v>
+        <f>'July 2016_BLS Data Series'!T8</f>
+        <v>696.9</v>
       </c>
       <c r="F8" s="37"/>
       <c r="G8" s="37">
         <f t="shared" si="0"/>
-        <v>668.30426294219694</v>
+        <v>672.93312460717186</v>
       </c>
       <c r="H8" s="11">
         <f t="shared" si="1"/>
-        <v>2.5446099928998711</v>
+        <v>3.5615538181180906</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -5523,21 +5503,21 @@
         <v>9</v>
       </c>
       <c r="D9" s="36">
-        <f>'June_BLS Data Series'!G9</f>
-        <v>962.21</v>
+        <f>'July 2016_BLS Data Series'!H9</f>
+        <v>963.59</v>
       </c>
       <c r="E9" s="36">
-        <f>'June_BLS Data Series'!S9</f>
-        <v>980.29</v>
+        <f>'July 2016_BLS Data Series'!T9</f>
+        <v>986.94</v>
       </c>
       <c r="F9" s="37"/>
       <c r="G9" s="37">
         <f t="shared" si="0"/>
-        <v>971.88701707188307</v>
+        <v>971.6369418907708</v>
       </c>
       <c r="H9" s="11">
         <f t="shared" si="1"/>
-        <v>0.86460491605635514</v>
+        <v>1.5749769743676145</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -5555,21 +5535,21 @@
         <v>10</v>
       </c>
       <c r="D10" s="36">
-        <f>'June_BLS Data Series'!G10</f>
-        <v>897.94</v>
+        <f>'July 2016_BLS Data Series'!H10</f>
+        <v>912.52</v>
       </c>
       <c r="E10" s="36">
-        <f>'June_BLS Data Series'!S10</f>
-        <v>904.51</v>
+        <f>'July 2016_BLS Data Series'!T10</f>
+        <v>902.76</v>
       </c>
       <c r="F10" s="37"/>
       <c r="G10" s="37">
         <f t="shared" si="0"/>
-        <v>906.97064893269317</v>
+        <v>920.14045622533035</v>
       </c>
       <c r="H10" s="11">
         <f t="shared" si="1"/>
-        <v>-0.27130414149441062</v>
+        <v>-1.8888916477631912</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -5587,21 +5567,21 @@
         <v>11</v>
       </c>
       <c r="D11" s="36">
-        <f>'June_BLS Data Series'!G11</f>
-        <v>957.38</v>
+        <f>'July 2016_BLS Data Series'!H11</f>
+        <v>961.92</v>
       </c>
       <c r="E11" s="36">
-        <f>'June_BLS Data Series'!S11</f>
-        <v>1005.65</v>
+        <f>'July 2016_BLS Data Series'!T11</f>
+        <v>1013.04</v>
       </c>
       <c r="F11" s="37"/>
       <c r="G11" s="37">
         <f t="shared" si="0"/>
-        <v>967.00844140497327</v>
+        <v>969.95299571764974</v>
       </c>
       <c r="H11" s="11">
         <f t="shared" si="1"/>
-        <v>3.9959897908320441</v>
+        <v>4.4421744633585059</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -5619,21 +5599,21 @@
         <v>12</v>
       </c>
       <c r="D12" s="36">
-        <f>'June_BLS Data Series'!G12</f>
-        <v>728.97</v>
+        <f>'July 2016_BLS Data Series'!H12</f>
+        <v>738.81</v>
       </c>
       <c r="E12" s="36">
-        <f>'June_BLS Data Series'!S12</f>
-        <v>797.97</v>
+        <f>'July 2016_BLS Data Series'!T12</f>
+        <v>802.41</v>
       </c>
       <c r="F12" s="37"/>
       <c r="G12" s="37">
         <f t="shared" si="0"/>
-        <v>736.30130515676467</v>
+        <v>744.97980369069865</v>
       </c>
       <c r="H12" s="11">
         <f t="shared" si="1"/>
-        <v>8.375469989165051</v>
+        <v>7.7089601657369444</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -5651,21 +5631,21 @@
         <v>13</v>
       </c>
       <c r="D13" s="36">
-        <f>'June_BLS Data Series'!G13</f>
-        <v>1359.65</v>
+        <f>'July 2016_BLS Data Series'!H13</f>
+        <v>1317.75</v>
       </c>
       <c r="E13" s="36">
-        <f>'June_BLS Data Series'!S13</f>
-        <v>1344.03</v>
+        <f>'July 2016_BLS Data Series'!T13</f>
+        <v>1357.18</v>
       </c>
       <c r="F13" s="37"/>
       <c r="G13" s="37">
         <f t="shared" si="0"/>
-        <v>1373.3241005204536</v>
+        <v>1328.75453271263</v>
       </c>
       <c r="H13" s="11">
         <f t="shared" si="1"/>
-        <v>-2.133079912407565</v>
+        <v>2.139256468186046</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -5683,21 +5663,21 @@
         <v>14</v>
       </c>
       <c r="D14" s="36">
-        <f>'June_BLS Data Series'!G14</f>
-        <v>764.18</v>
+        <f>'July 2016_BLS Data Series'!H14</f>
+        <v>771.21</v>
       </c>
       <c r="E14" s="36">
-        <f>'June_BLS Data Series'!S14</f>
-        <v>787.84</v>
+        <f>'July 2016_BLS Data Series'!T14</f>
+        <v>783.36</v>
       </c>
       <c r="F14" s="37"/>
       <c r="G14" s="37">
         <f t="shared" si="0"/>
-        <v>771.86541472858471</v>
+        <v>777.65037615124834</v>
       </c>
       <c r="H14" s="11">
         <f t="shared" si="1"/>
-        <v>2.0696075982407525</v>
+        <v>0.73421476075274938</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -5715,21 +5695,21 @@
         <v>15</v>
       </c>
       <c r="D15" s="36">
-        <f>'June_BLS Data Series'!G15</f>
-        <v>820.99</v>
+        <f>'July 2016_BLS Data Series'!H15</f>
+        <v>826.61</v>
       </c>
       <c r="E15" s="36">
-        <f>'June_BLS Data Series'!S15</f>
-        <v>843.18</v>
+        <f>'July 2016_BLS Data Series'!T15</f>
+        <v>847.38</v>
       </c>
       <c r="F15" s="37"/>
       <c r="G15" s="37">
         <f t="shared" si="0"/>
-        <v>829.24675709652286</v>
+        <v>833.51302165478057</v>
       </c>
       <c r="H15" s="11">
         <f t="shared" si="1"/>
-        <v>1.680228808161055</v>
+        <v>1.663678669073354</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -5747,21 +5727,21 @@
         <v>16</v>
       </c>
       <c r="D16" s="36">
-        <f>'June_BLS Data Series'!G16</f>
-        <v>804.41</v>
+        <f>'July 2016_BLS Data Series'!H16</f>
+        <v>814.19</v>
       </c>
       <c r="E16" s="36">
-        <f>'June_BLS Data Series'!S16</f>
-        <v>823</v>
+        <f>'July 2016_BLS Data Series'!T16</f>
+        <v>838.29</v>
       </c>
       <c r="F16" s="37"/>
       <c r="G16" s="37">
         <f t="shared" si="0"/>
-        <v>812.5000108113544</v>
+        <v>820.98930221156991</v>
       </c>
       <c r="H16" s="11">
         <f t="shared" si="1"/>
-        <v>1.2923063444836735</v>
+        <v>2.1072988091106248</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -5779,21 +5759,21 @@
         <v>17</v>
       </c>
       <c r="D17" s="36">
-        <f>'June_BLS Data Series'!G17</f>
-        <v>735.5</v>
+        <f>'July 2016_BLS Data Series'!H17</f>
+        <v>740.04</v>
       </c>
       <c r="E17" s="36">
-        <f>'June_BLS Data Series'!S17</f>
-        <v>732.83</v>
+        <f>'July 2016_BLS Data Series'!T17</f>
+        <v>735.47</v>
       </c>
       <c r="F17" s="37"/>
       <c r="G17" s="37">
         <f t="shared" si="0"/>
-        <v>742.89697784929479</v>
+        <v>746.2200754229973</v>
       </c>
       <c r="H17" s="11">
         <f t="shared" si="1"/>
-        <v>-1.355097429315022</v>
+        <v>-1.4406038884579142</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -5811,21 +5791,21 @@
         <v>18</v>
       </c>
       <c r="D18" s="36">
-        <f>'June_BLS Data Series'!G18</f>
-        <v>878.77</v>
+        <f>'July 2016_BLS Data Series'!H18</f>
+        <v>880.99</v>
       </c>
       <c r="E18" s="36">
-        <f>'June_BLS Data Series'!S18</f>
-        <v>894.67</v>
+        <f>'July 2016_BLS Data Series'!T18</f>
+        <v>897.85</v>
       </c>
       <c r="F18" s="37"/>
       <c r="G18" s="37">
         <f t="shared" si="0"/>
-        <v>887.60785482613835</v>
+        <v>888.34714913640676</v>
       </c>
       <c r="H18" s="11">
         <f t="shared" si="1"/>
-        <v>0.79563797632737909</v>
+        <v>1.0697226723619613</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -5843,21 +5823,21 @@
         <v>19</v>
       </c>
       <c r="D19" s="36">
-        <f>'June_BLS Data Series'!G19</f>
-        <v>790.49</v>
+        <f>'July 2016_BLS Data Series'!H19</f>
+        <v>791.7</v>
       </c>
       <c r="E19" s="36">
-        <f>'June_BLS Data Series'!S19</f>
-        <v>805.73</v>
+        <f>'July 2016_BLS Data Series'!T19</f>
+        <v>813.72</v>
       </c>
       <c r="F19" s="37"/>
       <c r="G19" s="37">
         <f t="shared" si="0"/>
-        <v>798.44001634274514</v>
+        <v>798.31148817954033</v>
       </c>
       <c r="H19" s="11">
         <f t="shared" si="1"/>
-        <v>0.91302834377549047</v>
+        <v>1.9301378031771899</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -5875,21 +5855,21 @@
         <v>20</v>
       </c>
       <c r="D20" s="36">
-        <f>'June_BLS Data Series'!G20</f>
-        <v>776.04</v>
+        <f>'July 2016_BLS Data Series'!H20</f>
+        <v>780.71</v>
       </c>
       <c r="E20" s="36">
-        <f>'June_BLS Data Series'!S20</f>
-        <v>833.18</v>
+        <f>'July 2016_BLS Data Series'!T20</f>
+        <v>810.49</v>
       </c>
       <c r="F20" s="37"/>
       <c r="G20" s="37">
         <f t="shared" si="0"/>
-        <v>783.84469162497169</v>
+        <v>787.22971066900209</v>
       </c>
       <c r="H20" s="11">
         <f t="shared" si="1"/>
-        <v>6.2940157536504282</v>
+        <v>2.9547016602347043</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -5907,21 +5887,21 @@
         <v>21</v>
       </c>
       <c r="D21" s="36">
-        <f>'June_BLS Data Series'!G21</f>
-        <v>767.08</v>
+        <f>'July 2016_BLS Data Series'!H21</f>
+        <v>769.18</v>
       </c>
       <c r="E21" s="36">
-        <f>'June_BLS Data Series'!S21</f>
-        <v>762.62</v>
+        <f>'July 2016_BLS Data Series'!T21</f>
+        <v>765.23</v>
       </c>
       <c r="F21" s="37"/>
       <c r="G21" s="37">
         <f t="shared" si="0"/>
-        <v>774.7945802428784</v>
+        <v>775.6034236174545</v>
       </c>
       <c r="H21" s="11">
         <f t="shared" si="1"/>
-        <v>-1.5713300729416568</v>
+        <v>-1.3374649081707601</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -5939,21 +5919,21 @@
         <v>22</v>
       </c>
       <c r="D22" s="36">
-        <f>'June_BLS Data Series'!G22</f>
-        <v>742.34</v>
+        <f>'July 2016_BLS Data Series'!H22</f>
+        <v>749.06</v>
       </c>
       <c r="E22" s="36">
-        <f>'June_BLS Data Series'!S22</f>
-        <v>748.7</v>
+        <f>'July 2016_BLS Data Series'!T22</f>
+        <v>746.59</v>
       </c>
       <c r="F22" s="37"/>
       <c r="G22" s="37">
         <f t="shared" si="0"/>
-        <v>749.80576823473211</v>
+        <v>755.315401459854</v>
       </c>
       <c r="H22" s="11">
         <f t="shared" si="1"/>
-        <v>-0.1474739568002259</v>
+        <v>-1.1551997275561665</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -5971,21 +5951,21 @@
         <v>23</v>
       </c>
       <c r="D23" s="36">
-        <f>'June_BLS Data Series'!G23</f>
-        <v>788.01</v>
+        <f>'July 2016_BLS Data Series'!H23</f>
+        <v>787.29</v>
       </c>
       <c r="E23" s="36">
-        <f>'June_BLS Data Series'!S23</f>
-        <v>792</v>
+        <f>'July 2016_BLS Data Series'!T23</f>
+        <v>789.4</v>
       </c>
       <c r="F23" s="37"/>
       <c r="G23" s="37">
         <f t="shared" si="0"/>
-        <v>795.9350747994871</v>
+        <v>793.86466026129881</v>
       </c>
       <c r="H23" s="11">
         <f t="shared" si="1"/>
-        <v>-0.49439645570066304</v>
+        <v>-0.56239564308471213</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -6003,21 +5983,21 @@
         <v>24</v>
       </c>
       <c r="D24" s="36">
-        <f>'June_BLS Data Series'!G24</f>
-        <v>736.08</v>
+        <f>'July 2016_BLS Data Series'!H24</f>
+        <v>741.13</v>
       </c>
       <c r="E24" s="36">
-        <f>'June_BLS Data Series'!S24</f>
-        <v>742.56</v>
+        <f>'July 2016_BLS Data Series'!T24</f>
+        <v>737.12</v>
       </c>
       <c r="F24" s="37"/>
       <c r="G24" s="37">
         <f t="shared" si="0"/>
-        <v>743.4828109521535</v>
+        <v>747.31917801503437</v>
       </c>
       <c r="H24" s="11">
         <f t="shared" si="1"/>
-        <v>-0.1241200117285457</v>
+        <v>-1.3647686711485862</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -6035,21 +6015,21 @@
         <v>25</v>
       </c>
       <c r="D25" s="36">
-        <f>'June_BLS Data Series'!G25</f>
-        <v>919.58</v>
+        <f>'July 2016_BLS Data Series'!H25</f>
+        <v>920.2</v>
       </c>
       <c r="E25" s="36">
-        <f>'June_BLS Data Series'!S25</f>
-        <v>924.04</v>
+        <f>'July 2016_BLS Data Series'!T25</f>
+        <v>931.9</v>
       </c>
       <c r="F25" s="37"/>
       <c r="G25" s="37">
         <f t="shared" si="0"/>
-        <v>928.82828401176687</v>
+        <v>927.88459191968298</v>
       </c>
       <c r="H25" s="11">
         <f t="shared" si="1"/>
-        <v>-0.51551875563968785</v>
+        <v>0.43274865379643312</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -6067,21 +6047,21 @@
         <v>26</v>
       </c>
       <c r="D26" s="36">
-        <f>'June_BLS Data Series'!G26</f>
-        <v>1002.99</v>
+        <f>'July 2016_BLS Data Series'!H26</f>
+        <v>1004.3</v>
       </c>
       <c r="E26" s="36">
-        <f>'June_BLS Data Series'!S26</f>
-        <v>1030.1300000000001</v>
+        <f>'July 2016_BLS Data Series'!T26</f>
+        <v>1038.6300000000001</v>
       </c>
       <c r="F26" s="37"/>
       <c r="G26" s="37">
         <f t="shared" si="0"/>
-        <v>1013.0771445452946</v>
+        <v>1012.6869111768501</v>
       </c>
       <c r="H26" s="11">
         <f t="shared" si="1"/>
-        <v>1.6832731393184641</v>
+        <v>2.5618074586351014</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -6099,21 +6079,21 @@
         <v>27</v>
       </c>
       <c r="D27" s="36">
-        <f>'June_BLS Data Series'!G27</f>
-        <v>816.91</v>
+        <f>'July 2016_BLS Data Series'!H27</f>
+        <v>820.46</v>
       </c>
       <c r="E27" s="36">
-        <f>'June_BLS Data Series'!S27</f>
-        <v>817.34</v>
+        <f>'July 2016_BLS Data Series'!T27</f>
+        <v>824.22</v>
       </c>
       <c r="F27" s="37"/>
       <c r="G27" s="37">
         <f t="shared" si="0"/>
-        <v>825.12572423503377</v>
+        <v>827.31166299328743</v>
       </c>
       <c r="H27" s="11">
         <f t="shared" si="1"/>
-        <v>-0.9435803546485988</v>
+        <v>-0.37369991643796396</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -6131,21 +6111,21 @@
         <v>28</v>
       </c>
       <c r="D28" s="36">
-        <f>'June_BLS Data Series'!G28</f>
-        <v>876.71</v>
+        <f>'July 2016_BLS Data Series'!H28</f>
+        <v>882.36</v>
       </c>
       <c r="E28" s="36">
-        <f>'June_BLS Data Series'!S28</f>
-        <v>911.09</v>
+        <f>'July 2016_BLS Data Series'!T28</f>
+        <v>919.68</v>
       </c>
       <c r="F28" s="37"/>
       <c r="G28" s="37">
         <f t="shared" si="0"/>
-        <v>885.52713725391607</v>
+        <v>889.72859000896699</v>
       </c>
       <c r="H28" s="11">
         <f t="shared" si="1"/>
-        <v>2.8867396232888254</v>
+        <v>3.3663535517871823</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -6163,21 +6143,21 @@
         <v>29</v>
       </c>
       <c r="D29" s="36">
-        <f>'June_BLS Data Series'!G29</f>
-        <v>678.39</v>
+        <f>'July 2016_BLS Data Series'!H29</f>
+        <v>681.51</v>
       </c>
       <c r="E29" s="36">
-        <f>'June_BLS Data Series'!S29</f>
-        <v>696.84</v>
+        <f>'July 2016_BLS Data Series'!T29</f>
+        <v>701.84</v>
       </c>
       <c r="F29" s="37"/>
       <c r="G29" s="37">
         <f t="shared" si="0"/>
-        <v>685.21261835918835</v>
+        <v>687.20129128361566</v>
       </c>
       <c r="H29" s="11">
         <f t="shared" si="1"/>
-        <v>1.6969012725793986</v>
+        <v>2.1301922598313094</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -6195,21 +6175,21 @@
         <v>30</v>
       </c>
       <c r="D30" s="36">
-        <f>'June_BLS Data Series'!G30</f>
+        <f>'July 2016_BLS Data Series'!H30</f>
         <v>743.6</v>
       </c>
       <c r="E30" s="36">
-        <f>'June_BLS Data Series'!S30</f>
-        <v>735.38</v>
+        <f>'July 2016_BLS Data Series'!T30</f>
+        <v>746.82</v>
       </c>
       <c r="F30" s="37"/>
       <c r="G30" s="37">
         <f t="shared" si="0"/>
-        <v>751.07844014783905</v>
+        <v>749.80980498965027</v>
       </c>
       <c r="H30" s="11">
         <f t="shared" si="1"/>
-        <v>-2.0901199273872129</v>
+        <v>-0.39874178355022716</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -6227,21 +6207,21 @@
         <v>31</v>
       </c>
       <c r="D31" s="36">
-        <f>'June_BLS Data Series'!G31</f>
-        <v>713.19</v>
+        <f>'July 2016_BLS Data Series'!H31</f>
+        <v>716.56</v>
       </c>
       <c r="E31" s="36">
-        <f>'June_BLS Data Series'!S31</f>
-        <v>731.28</v>
+        <f>'July 2016_BLS Data Series'!T31</f>
+        <v>738.13</v>
       </c>
       <c r="F31" s="37"/>
       <c r="G31" s="37">
         <f t="shared" si="0"/>
-        <v>720.36260453071191</v>
+        <v>722.54399389911748</v>
       </c>
       <c r="H31" s="11">
         <f t="shared" si="1"/>
-        <v>1.5155416731272853</v>
+        <v>2.1571013298131048</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -6259,21 +6239,21 @@
         <v>32</v>
       </c>
       <c r="D32" s="36">
-        <f>'June_BLS Data Series'!G32</f>
-        <v>749.34</v>
+        <f>'July 2016_BLS Data Series'!H32</f>
+        <v>752.2</v>
       </c>
       <c r="E32" s="36">
-        <f>'June_BLS Data Series'!S32</f>
-        <v>780.1</v>
+        <f>'July 2016_BLS Data Series'!T32</f>
+        <v>778.01</v>
       </c>
       <c r="F32" s="37"/>
       <c r="G32" s="37">
         <f t="shared" si="0"/>
-        <v>756.87616775199263</v>
+        <v>758.48162360572212</v>
       </c>
       <c r="H32" s="11">
         <f t="shared" si="1"/>
-        <v>3.0683793779614943</v>
+        <v>2.574667043539236</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -6291,21 +6271,21 @@
         <v>33</v>
       </c>
       <c r="D33" s="36">
-        <f>'June_BLS Data Series'!G33</f>
-        <v>730.13</v>
+        <f>'July 2016_BLS Data Series'!H33</f>
+        <v>737.02</v>
       </c>
       <c r="E33" s="36">
-        <f>'June_BLS Data Series'!S33</f>
-        <v>748.34</v>
+        <f>'July 2016_BLS Data Series'!T33</f>
+        <v>746.59</v>
       </c>
       <c r="F33" s="37"/>
       <c r="G33" s="37">
         <f t="shared" si="0"/>
-        <v>737.4729713624821</v>
+        <v>743.17485539735344</v>
       </c>
       <c r="H33" s="11">
         <f t="shared" si="1"/>
-        <v>1.4735494125894588</v>
+        <v>0.45953446592601477</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -6323,21 +6303,21 @@
         <v>34</v>
       </c>
       <c r="D34" s="36">
-        <f>'June_BLS Data Series'!G34</f>
-        <v>825.11</v>
+        <f>'July 2016_BLS Data Series'!H34</f>
+        <v>830.89</v>
       </c>
       <c r="E34" s="36">
-        <f>'June_BLS Data Series'!S34</f>
-        <v>842.69</v>
+        <f>'July 2016_BLS Data Series'!T34</f>
+        <v>851.36</v>
       </c>
       <c r="F34" s="37"/>
       <c r="G34" s="37">
         <f t="shared" si="0"/>
-        <v>833.40819224096754</v>
+        <v>837.82876394277912</v>
       </c>
       <c r="H34" s="11">
         <f t="shared" si="1"/>
-        <v>1.1137168851285795</v>
+        <v>1.6150359882064258</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -6355,21 +6335,21 @@
         <v>35</v>
       </c>
       <c r="D35" s="36">
-        <f>'June_BLS Data Series'!G35</f>
-        <v>929.78</v>
+        <f>'July 2016_BLS Data Series'!H35</f>
+        <v>930.56</v>
       </c>
       <c r="E35" s="36">
-        <f>'June_BLS Data Series'!S35</f>
-        <v>938.29</v>
+        <f>'July 2016_BLS Data Series'!T35</f>
+        <v>944.52</v>
       </c>
       <c r="F35" s="37"/>
       <c r="G35" s="37">
         <f t="shared" si="0"/>
-        <v>939.13086616548912</v>
+        <v>938.33110829904376</v>
       </c>
       <c r="H35" s="11">
         <f t="shared" si="1"/>
-        <v>-8.9536633900921814E-2</v>
+        <v>0.65956373461550921</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -6387,21 +6367,21 @@
         <v>36</v>
       </c>
       <c r="D36" s="36">
-        <f>'June_BLS Data Series'!G36</f>
-        <v>689.16</v>
+        <f>'July 2016_BLS Data Series'!H36</f>
+        <v>693.89</v>
       </c>
       <c r="E36" s="36">
-        <f>'June_BLS Data Series'!S36</f>
-        <v>678.69</v>
+        <f>'July 2016_BLS Data Series'!T36</f>
+        <v>682.36</v>
       </c>
       <c r="F36" s="37"/>
       <c r="G36" s="37">
         <f t="shared" si="0"/>
-        <v>696.09093304503051</v>
+        <v>699.68467668675157</v>
       </c>
       <c r="H36" s="11">
         <f t="shared" si="1"/>
-        <v>-2.499807456033154</v>
+        <v>-2.4760691871644092</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -6419,21 +6399,21 @@
         <v>37</v>
       </c>
       <c r="D37" s="36">
-        <f>'June_BLS Data Series'!G37</f>
-        <v>958.77</v>
+        <f>'July 2016_BLS Data Series'!H37</f>
+        <v>961.61</v>
       </c>
       <c r="E37" s="36">
-        <f>'June_BLS Data Series'!S37</f>
-        <v>960.78</v>
+        <f>'July 2016_BLS Data Series'!T37</f>
+        <v>974.6</v>
       </c>
       <c r="F37" s="37"/>
       <c r="G37" s="37">
         <f t="shared" si="0"/>
-        <v>968.41242073768638</v>
+        <v>969.64040690707054</v>
       </c>
       <c r="H37" s="11">
         <f t="shared" si="1"/>
-        <v>-0.7881374272205699</v>
+        <v>0.51148787298884724</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -6451,21 +6431,21 @@
         <v>38</v>
       </c>
       <c r="D38" s="36">
-        <f>'June_BLS Data Series'!G38</f>
-        <v>760.04</v>
+        <f>'July 2016_BLS Data Series'!H38</f>
+        <v>763.49</v>
       </c>
       <c r="E38" s="36">
-        <f>'June_BLS Data Series'!S38</f>
-        <v>803.85</v>
+        <f>'July 2016_BLS Data Series'!T38</f>
+        <v>804.2</v>
       </c>
       <c r="F38" s="37"/>
       <c r="G38" s="37">
         <f t="shared" si="0"/>
-        <v>767.68377844266206</v>
+        <v>769.86590641682108</v>
       </c>
       <c r="H38" s="11">
         <f t="shared" si="1"/>
-        <v>4.7110832054710672</v>
+        <v>4.4597498469544972</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -6483,21 +6463,21 @@
         <v>39</v>
       </c>
       <c r="D39" s="36">
-        <f>'June_BLS Data Series'!G39</f>
-        <v>877.21</v>
+        <f>'July 2016_BLS Data Series'!H39</f>
+        <v>894.2</v>
       </c>
       <c r="E39" s="36">
-        <f>'June_BLS Data Series'!S39</f>
-        <v>878.42</v>
+        <f>'July 2016_BLS Data Series'!T39</f>
+        <v>887.05</v>
       </c>
       <c r="F39" s="37"/>
       <c r="G39" s="37">
         <f t="shared" si="0"/>
-        <v>886.03216579086325</v>
+        <v>901.66746587109378</v>
       </c>
       <c r="H39" s="11">
         <f t="shared" si="1"/>
-        <v>-0.85912973419748351</v>
+        <v>-1.6211592881386738</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -6515,21 +6495,21 @@
         <v>40</v>
       </c>
       <c r="D40" s="36">
-        <f>'June_BLS Data Series'!G40</f>
-        <v>767.29</v>
+        <f>'July 2016_BLS Data Series'!H40</f>
+        <v>767.59</v>
       </c>
       <c r="E40" s="36">
-        <f>'June_BLS Data Series'!S40</f>
-        <v>791.73</v>
+        <f>'July 2016_BLS Data Series'!T40</f>
+        <v>799.53</v>
       </c>
       <c r="F40" s="37"/>
       <c r="G40" s="37">
         <f t="shared" si="0"/>
-        <v>775.0066922283961</v>
+        <v>774.00014552448317</v>
       </c>
       <c r="H40" s="11">
         <f t="shared" si="1"/>
-        <v>2.1578275309493078</v>
+        <v>3.2984301906322067</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -6547,21 +6527,21 @@
         <v>41</v>
       </c>
       <c r="D41" s="36">
-        <f>'June_BLS Data Series'!G41</f>
-        <v>752.03</v>
+        <f>'July 2016_BLS Data Series'!H41</f>
+        <v>744.76</v>
       </c>
       <c r="E41" s="36">
-        <f>'June_BLS Data Series'!S41</f>
-        <v>760.82</v>
+        <f>'July 2016_BLS Data Series'!T41</f>
+        <v>780.13</v>
       </c>
       <c r="F41" s="37"/>
       <c r="G41" s="37">
         <f t="shared" si="0"/>
-        <v>759.59322128076838</v>
+        <v>750.97949215181814</v>
       </c>
       <c r="H41" s="11">
         <f t="shared" si="1"/>
-        <v>0.16150469552151936</v>
+        <v>3.8816649659307645</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -6579,21 +6559,21 @@
         <v>42</v>
       </c>
       <c r="D42" s="36">
-        <f>'June_BLS Data Series'!G42</f>
-        <v>791.52</v>
+        <f>'July 2016_BLS Data Series'!H42</f>
+        <v>792.88</v>
       </c>
       <c r="E42" s="36">
-        <f>'June_BLS Data Series'!S42</f>
-        <v>832.12</v>
+        <f>'July 2016_BLS Data Series'!T42</f>
+        <v>841.66</v>
       </c>
       <c r="F42" s="37"/>
       <c r="G42" s="37">
         <f t="shared" si="0"/>
-        <v>799.48037512885628</v>
+        <v>799.50134236174551</v>
       </c>
       <c r="H42" s="11">
         <f t="shared" si="1"/>
-        <v>4.0826048876913434</v>
+        <v>5.2731190561502661</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -6611,21 +6591,21 @@
         <v>43</v>
       </c>
       <c r="D43" s="36">
-        <f>'June_BLS Data Series'!G43</f>
-        <v>818.38</v>
+        <f>'July 2016_BLS Data Series'!H43</f>
+        <v>819.74</v>
       </c>
       <c r="E43" s="36">
-        <f>'June_BLS Data Series'!S43</f>
-        <v>824.38</v>
+        <f>'July 2016_BLS Data Series'!T43</f>
+        <v>830.8</v>
       </c>
       <c r="F43" s="37"/>
       <c r="G43" s="37">
         <f t="shared" si="0"/>
-        <v>826.61050813365853</v>
+        <v>826.58565027194186</v>
       </c>
       <c r="H43" s="11">
         <f t="shared" si="1"/>
-        <v>-0.2698378633843701</v>
+        <v>0.50985033755082121</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -6643,21 +6623,21 @@
         <v>44</v>
       </c>
       <c r="D44" s="36">
-        <f>'June_BLS Data Series'!G44</f>
-        <v>810.77</v>
+        <f>'July 2016_BLS Data Series'!H44</f>
+        <v>815.14</v>
       </c>
       <c r="E44" s="36">
-        <f>'June_BLS Data Series'!S44</f>
-        <v>848.02</v>
+        <f>'July 2016_BLS Data Series'!T44</f>
+        <v>840.84</v>
       </c>
       <c r="F44" s="37"/>
       <c r="G44" s="37">
         <f t="shared" si="0"/>
-        <v>818.92397380132252</v>
+        <v>821.94723566334528</v>
       </c>
       <c r="H44" s="11">
         <f t="shared" si="1"/>
-        <v>3.5529581657767428</v>
+        <v>2.2985373655290076</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -6675,21 +6655,21 @@
         <v>45</v>
       </c>
       <c r="D45" s="36">
-        <f>'June_BLS Data Series'!G45</f>
-        <v>730.45</v>
+        <f>'July 2016_BLS Data Series'!H45</f>
+        <v>737.72</v>
       </c>
       <c r="E45" s="36">
-        <f>'June_BLS Data Series'!S45</f>
-        <v>748.74</v>
+        <f>'July 2016_BLS Data Series'!T45</f>
+        <v>754.86</v>
       </c>
       <c r="F45" s="37"/>
       <c r="G45" s="37">
         <f t="shared" si="0"/>
-        <v>737.79618962612835</v>
+        <v>743.88070109866169</v>
       </c>
       <c r="H45" s="11">
         <f t="shared" si="1"/>
-        <v>1.4833107744046892</v>
+        <v>1.4759488833522072</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -6707,21 +6687,21 @@
         <v>46</v>
       </c>
       <c r="D46" s="36">
-        <f>'June_BLS Data Series'!G46</f>
-        <v>708.62</v>
+        <f>'July 2016_BLS Data Series'!H46</f>
+        <v>709.32</v>
       </c>
       <c r="E46" s="36">
-        <f>'June_BLS Data Series'!S46</f>
-        <v>720.02</v>
+        <f>'July 2016_BLS Data Series'!T46</f>
+        <v>724.46</v>
       </c>
       <c r="F46" s="37"/>
       <c r="G46" s="37">
         <f t="shared" si="0"/>
-        <v>715.74664370301468</v>
+        <v>715.24353264558738</v>
       </c>
       <c r="H46" s="11">
         <f t="shared" si="1"/>
-        <v>0.59704873708894546</v>
+        <v>1.288577517132139</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -6739,21 +6719,21 @@
         <v>47</v>
       </c>
       <c r="D47" s="36">
-        <f>'June_BLS Data Series'!G47</f>
-        <v>729.65</v>
+        <f>'July 2016_BLS Data Series'!H47</f>
+        <v>734.98</v>
       </c>
       <c r="E47" s="36">
-        <f>'June_BLS Data Series'!S47</f>
-        <v>767.54</v>
+        <f>'July 2016_BLS Data Series'!T47</f>
+        <v>773.19</v>
       </c>
       <c r="F47" s="37"/>
       <c r="G47" s="37">
         <f t="shared" si="0"/>
-        <v>736.98814396701277</v>
+        <v>741.11781935354111</v>
       </c>
       <c r="H47" s="11">
         <f t="shared" si="1"/>
-        <v>4.145501699462173</v>
+        <v>4.3275414257931022</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -6771,21 +6751,21 @@
         <v>48</v>
       </c>
       <c r="D48" s="36">
-        <f>'June_BLS Data Series'!G48</f>
-        <v>877.49</v>
+        <f>'July 2016_BLS Data Series'!H48</f>
+        <v>876.4</v>
       </c>
       <c r="E48" s="36">
-        <f>'June_BLS Data Series'!S48</f>
-        <v>872.09</v>
+        <f>'July 2016_BLS Data Series'!T48</f>
+        <v>871.37</v>
       </c>
       <c r="F48" s="37"/>
       <c r="G48" s="37">
         <f t="shared" si="0"/>
-        <v>886.31498177155356</v>
+        <v>883.71881803782878</v>
       </c>
       <c r="H48" s="11">
         <f t="shared" si="1"/>
-        <v>-1.6049578382530405</v>
+        <v>-1.3973695915231898</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -6803,21 +6783,21 @@
         <v>49</v>
       </c>
       <c r="D49" s="36">
-        <f>'June_BLS Data Series'!G49</f>
-        <v>830.97</v>
+        <f>'July 2016_BLS Data Series'!H49</f>
+        <v>836.59</v>
       </c>
       <c r="E49" s="36">
-        <f>'June_BLS Data Series'!S49</f>
-        <v>841.82</v>
+        <f>'July 2016_BLS Data Series'!T49</f>
+        <v>843.56</v>
       </c>
       <c r="F49" s="37"/>
       <c r="G49" s="37">
         <f t="shared" si="0"/>
-        <v>839.32712669398848</v>
+        <v>843.57636465343137</v>
       </c>
       <c r="H49" s="11">
         <f t="shared" si="1"/>
-        <v>0.29700854729082238</v>
+        <v>-1.9399136956810281E-3</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -6835,21 +6815,21 @@
         <v>50</v>
       </c>
       <c r="D50" s="36">
-        <f>'June_BLS Data Series'!G50</f>
-        <v>805.06</v>
+        <f>'July 2016_BLS Data Series'!H50</f>
+        <v>808.83</v>
       </c>
       <c r="E50" s="36">
-        <f>'June_BLS Data Series'!S50</f>
-        <v>806.74</v>
+        <f>'July 2016_BLS Data Series'!T50</f>
+        <v>807.16</v>
       </c>
       <c r="F50" s="37"/>
       <c r="G50" s="37">
         <f t="shared" si="0"/>
-        <v>813.15654790938572</v>
+        <v>815.58454084155312</v>
       </c>
       <c r="H50" s="11">
         <f t="shared" si="1"/>
-        <v>-0.78909134113014368</v>
+        <v>-1.0329451356275499</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -6867,21 +6847,21 @@
         <v>51</v>
       </c>
       <c r="D51" s="36">
-        <f>'June_BLS Data Series'!G51</f>
-        <v>905.23</v>
+        <f>'July 2016_BLS Data Series'!H51</f>
+        <v>905.93</v>
       </c>
       <c r="E51" s="36">
-        <f>'June_BLS Data Series'!S51</f>
-        <v>931.83</v>
+        <f>'July 2016_BLS Data Series'!T51</f>
+        <v>938.9</v>
       </c>
       <c r="F51" s="37"/>
       <c r="G51" s="37">
         <f t="shared" si="0"/>
-        <v>914.33396500138292</v>
+        <v>913.49542312301492</v>
       </c>
       <c r="H51" s="11">
         <f t="shared" si="1"/>
-        <v>1.9135278430338909</v>
+        <v>2.7810294648366263</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -6899,21 +6879,21 @@
         <v>52</v>
       </c>
       <c r="D52" s="36">
-        <f>'June_BLS Data Series'!G52</f>
-        <v>997.27</v>
+        <f>'July 2016_BLS Data Series'!H52</f>
+        <v>998.82</v>
       </c>
       <c r="E52" s="36">
-        <f>'June_BLS Data Series'!S52</f>
-        <v>1034.31</v>
+        <f>'July 2016_BLS Data Series'!T52</f>
+        <v>1036.96</v>
       </c>
       <c r="F52" s="37"/>
       <c r="G52" s="37">
         <f t="shared" si="0"/>
-        <v>1007.2996180826188</v>
+        <v>1007.1611476866092</v>
       </c>
       <c r="H52" s="11">
         <f t="shared" si="1"/>
-        <v>2.6814645248049329</v>
+        <v>2.9586975611437305</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -6931,21 +6911,21 @@
         <v>53</v>
       </c>
       <c r="D53" s="36">
-        <f>'June_BLS Data Series'!G53</f>
-        <v>714.44</v>
+        <f>'July 2016_BLS Data Series'!H53</f>
+        <v>720.34</v>
       </c>
       <c r="E53" s="36">
-        <f>'June_BLS Data Series'!S53</f>
-        <v>726.88</v>
+        <f>'July 2016_BLS Data Series'!T53</f>
+        <v>731.81</v>
       </c>
       <c r="F53" s="37"/>
       <c r="G53" s="37">
         <f t="shared" si="0"/>
-        <v>721.6251758730798</v>
+        <v>726.35556068618166</v>
       </c>
       <c r="H53" s="11">
         <f t="shared" si="1"/>
-        <v>0.72819301523987523</v>
+        <v>0.75093240955785845</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -6963,21 +6943,21 @@
         <v>54</v>
       </c>
       <c r="D54" s="36">
-        <f>'June_BLS Data Series'!G54</f>
-        <v>778.13</v>
+        <f>'July 2016_BLS Data Series'!H54</f>
+        <v>781.12</v>
       </c>
       <c r="E54" s="36">
-        <f>'June_BLS Data Series'!S54</f>
-        <v>802.4</v>
+        <f>'July 2016_BLS Data Series'!T54</f>
+        <v>810.1</v>
       </c>
       <c r="F54" s="37"/>
       <c r="G54" s="37">
         <f t="shared" si="0"/>
-        <v>785.95571090941098</v>
+        <v>787.64313457976823</v>
       </c>
       <c r="H54" s="11">
         <f t="shared" si="1"/>
-        <v>2.0922666331365747</v>
+        <v>2.8511472308094588</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -6995,21 +6975,21 @@
         <v>55</v>
       </c>
       <c r="D55" s="36">
-        <f>'June_BLS Data Series'!G55</f>
-        <v>810.87</v>
+        <f>'July 2016_BLS Data Series'!H55</f>
+        <v>809.9</v>
       </c>
       <c r="E55" s="36">
-        <f>'June_BLS Data Series'!S55</f>
-        <v>753.69</v>
+        <f>'July 2016_BLS Data Series'!T55</f>
+        <v>760.57</v>
       </c>
       <c r="F55" s="37"/>
       <c r="G55" s="37">
         <f t="shared" si="0"/>
-        <v>819.02497950871202</v>
+        <v>816.66347641355264</v>
       </c>
       <c r="H55" s="11">
         <f t="shared" si="1"/>
-        <v>-7.9771656717848582</v>
+        <v>-6.8686157803813934</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -7030,7 +7010,7 @@
         <v>56</v>
       </c>
       <c r="D57" s="33" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E57" s="34" t="s">
         <v>196</v>
@@ -7051,19 +7031,19 @@
         <v>180</v>
       </c>
       <c r="D58" s="38">
-        <v>861.12</v>
+        <v>866.04</v>
       </c>
       <c r="E58" s="38">
-        <v>880.98</v>
+        <v>886.31</v>
       </c>
       <c r="F58" s="9"/>
       <c r="G58" s="11">
         <f>D58/$G$61</f>
-        <v>869.78034747190304</v>
+        <v>873.27230165846788</v>
       </c>
       <c r="H58" s="11">
         <f>((E58/G58)-1)*100</f>
-        <v>1.287641478753776</v>
+        <v>1.4929705564658002</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -7101,15 +7081,15 @@
         <v>58</v>
       </c>
       <c r="D61" s="38">
-        <v>238.63800000000001</v>
-      </c>
-      <c r="E61" s="52">
-        <v>241.03800000000001</v>
+        <v>238.654</v>
+      </c>
+      <c r="E61" s="39">
+        <v>240.64699999999999</v>
       </c>
       <c r="F61" s="9"/>
       <c r="G61" s="9">
         <f>D61/E61</f>
-        <v>0.9900430637492843</v>
+        <v>0.9917181597942214</v>
       </c>
       <c r="H61" s="9"/>
       <c r="I61" s="9"/>
@@ -7169,14 +7149,14 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" sqref="A1:N1"/>
+      <selection pane="bottomRight" activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23" style="45" customWidth="1"/>
-    <col min="2" max="255" width="8" style="45" customWidth="1"/>
-    <col min="256" max="16384" width="9.140625" style="45"/>
+    <col min="1" max="1" width="23" style="40" customWidth="1"/>
+    <col min="2" max="255" width="8" style="40" customWidth="1"/>
+    <col min="256" max="16384" width="9.140625" style="40"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
@@ -7198,10 +7178,10 @@
       <c r="N1" s="50"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="44" t="s">
         <v>193</v>
       </c>
     </row>
@@ -7221,3089 +7201,3242 @@
       <c r="N3" s="50"/>
     </row>
     <row r="4" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D4" s="33" t="s">
         <v>170</v>
       </c>
-      <c r="E4" s="41" t="s">
+      <c r="E4" s="33" t="s">
         <v>179</v>
       </c>
-      <c r="F4" s="41" t="s">
+      <c r="F4" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="G4" s="41" t="s">
+      <c r="G4" s="33" t="s">
         <v>177</v>
       </c>
-      <c r="H4" s="41" t="s">
+      <c r="H4" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="I4" s="41" t="s">
+      <c r="I4" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="J4" s="41" t="s">
+      <c r="J4" s="33" t="s">
         <v>174</v>
       </c>
-      <c r="K4" s="41" t="s">
+      <c r="K4" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="L4" s="41" t="s">
+      <c r="L4" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="M4" s="41" t="s">
+      <c r="M4" s="33" t="s">
         <v>171</v>
       </c>
-      <c r="N4" s="41" t="s">
+      <c r="N4" s="33" t="s">
         <v>181</v>
       </c>
-      <c r="O4" s="41" t="s">
+      <c r="O4" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="P4" s="41" t="s">
+      <c r="P4" s="33" t="s">
         <v>191</v>
       </c>
-      <c r="Q4" s="41" t="s">
+      <c r="Q4" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="R4" s="41" t="s">
+      <c r="R4" s="33" t="s">
         <v>189</v>
       </c>
-      <c r="S4" s="41" t="s">
+      <c r="S4" s="33" t="s">
         <v>188</v>
       </c>
-      <c r="T4" s="41" t="s">
+      <c r="T4" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="U4" s="41" t="s">
+      <c r="U4" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="V4" s="41" t="s">
+      <c r="V4" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="W4" s="41" t="s">
+      <c r="W4" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="X4" s="41" t="s">
+      <c r="X4" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="Y4" s="41" t="s">
+      <c r="Y4" s="33" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="39">
+      <c r="B5" s="41">
         <v>733.25</v>
       </c>
-      <c r="C5" s="39">
+      <c r="C5" s="41">
         <v>760.06</v>
       </c>
-      <c r="D5" s="39">
+      <c r="D5" s="41">
         <v>754.02</v>
       </c>
-      <c r="E5" s="39">
+      <c r="E5" s="41">
         <v>726.53</v>
       </c>
-      <c r="F5" s="39">
+      <c r="F5" s="41">
         <v>732.01</v>
       </c>
-      <c r="G5" s="39">
+      <c r="G5" s="41">
         <v>735.92</v>
       </c>
-      <c r="H5" s="39">
+      <c r="H5" s="41">
         <v>738.05</v>
       </c>
-      <c r="I5" s="39">
+      <c r="I5" s="41">
         <v>753.9</v>
       </c>
-      <c r="J5" s="39">
+      <c r="J5" s="41">
         <v>743.75</v>
       </c>
-      <c r="K5" s="39">
+      <c r="K5" s="41">
         <v>755.38</v>
       </c>
-      <c r="L5" s="39">
+      <c r="L5" s="41">
         <v>765.03</v>
       </c>
-      <c r="M5" s="39">
+      <c r="M5" s="41">
         <v>760.06</v>
       </c>
-      <c r="N5" s="39">
+      <c r="N5" s="41">
         <v>768.22</v>
       </c>
-      <c r="O5" s="39">
+      <c r="O5" s="41">
         <v>768.96</v>
       </c>
-      <c r="P5" s="39">
+      <c r="P5" s="41">
         <v>760.77</v>
       </c>
-      <c r="Q5" s="39">
+      <c r="Q5" s="41">
         <v>777.15</v>
       </c>
-      <c r="R5" s="39">
+      <c r="R5" s="41">
         <v>786.21</v>
       </c>
-      <c r="S5" s="39">
-        <v>776.83</v>
+      <c r="S5" s="41">
+        <v>778.26</v>
+      </c>
+      <c r="T5" s="41">
+        <v>781</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="39">
+      <c r="B6" s="41">
         <v>918.31</v>
       </c>
-      <c r="C6" s="39">
+      <c r="C6" s="41">
         <v>945.7</v>
       </c>
-      <c r="D6" s="39">
+      <c r="D6" s="41">
         <v>959.35</v>
       </c>
-      <c r="E6" s="39">
+      <c r="E6" s="41">
         <v>955.4</v>
       </c>
-      <c r="F6" s="39">
+      <c r="F6" s="41">
         <v>966.74</v>
       </c>
-      <c r="G6" s="39">
+      <c r="G6" s="41">
         <v>976.45</v>
       </c>
-      <c r="H6" s="39">
+      <c r="H6" s="41">
         <v>996.31</v>
       </c>
-      <c r="I6" s="39">
+      <c r="I6" s="41">
         <v>1013.33</v>
       </c>
-      <c r="J6" s="39">
+      <c r="J6" s="41">
         <v>968.13</v>
       </c>
-      <c r="K6" s="39">
+      <c r="K6" s="41">
         <v>973.33</v>
       </c>
-      <c r="L6" s="39">
+      <c r="L6" s="41">
         <v>976.28</v>
       </c>
-      <c r="M6" s="39">
+      <c r="M6" s="41">
         <v>954.57</v>
       </c>
-      <c r="N6" s="39">
+      <c r="N6" s="41">
         <v>934.99</v>
       </c>
-      <c r="O6" s="39">
+      <c r="O6" s="41">
         <v>948.02</v>
       </c>
-      <c r="P6" s="39">
+      <c r="P6" s="41">
         <v>955.21</v>
       </c>
-      <c r="Q6" s="39">
+      <c r="Q6" s="41">
         <v>962.76</v>
       </c>
-      <c r="R6" s="39">
+      <c r="R6" s="41">
         <v>969.68</v>
       </c>
-      <c r="S6" s="39">
-        <v>966</v>
+      <c r="S6" s="41">
+        <v>962.57</v>
+      </c>
+      <c r="T6" s="41">
+        <v>983.54</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="39">
+      <c r="B7" s="41">
         <v>788.1</v>
       </c>
-      <c r="C7" s="39">
+      <c r="C7" s="41">
         <v>807.65</v>
       </c>
-      <c r="D7" s="39">
+      <c r="D7" s="41">
         <v>802.7</v>
       </c>
-      <c r="E7" s="39">
+      <c r="E7" s="41">
         <v>799.84</v>
       </c>
-      <c r="F7" s="39">
+      <c r="F7" s="41">
         <v>794.42</v>
       </c>
-      <c r="G7" s="39">
+      <c r="G7" s="41">
         <v>798.66</v>
       </c>
-      <c r="H7" s="39">
+      <c r="H7" s="41">
         <v>796.49</v>
       </c>
-      <c r="I7" s="39">
+      <c r="I7" s="41">
         <v>819.94</v>
       </c>
-      <c r="J7" s="39">
+      <c r="J7" s="41">
         <v>799.8</v>
       </c>
-      <c r="K7" s="39">
+      <c r="K7" s="41">
         <v>801.86</v>
       </c>
-      <c r="L7" s="39">
+      <c r="L7" s="41">
         <v>812.41</v>
       </c>
-      <c r="M7" s="39">
+      <c r="M7" s="41">
         <v>797.48</v>
       </c>
-      <c r="N7" s="39">
+      <c r="N7" s="41">
         <v>803.06</v>
       </c>
-      <c r="O7" s="39">
+      <c r="O7" s="41">
         <v>810.54</v>
       </c>
-      <c r="P7" s="39">
+      <c r="P7" s="41">
         <v>813.6</v>
       </c>
-      <c r="Q7" s="39">
+      <c r="Q7" s="41">
         <v>820.46</v>
       </c>
-      <c r="R7" s="39">
+      <c r="R7" s="41">
         <v>841.12</v>
       </c>
-      <c r="S7" s="39">
-        <v>819.41</v>
+      <c r="S7" s="41">
+        <v>817.69</v>
+      </c>
+      <c r="T7" s="41">
+        <v>815.62</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="39">
+      <c r="B8" s="41">
         <v>670.89</v>
       </c>
-      <c r="C8" s="39">
+      <c r="C8" s="41">
         <v>674.57</v>
       </c>
-      <c r="D8" s="39">
+      <c r="D8" s="41">
         <v>676.55</v>
       </c>
-      <c r="E8" s="39">
+      <c r="E8" s="41">
         <v>670.55</v>
       </c>
-      <c r="F8" s="39">
+      <c r="F8" s="41">
         <v>666.79</v>
       </c>
-      <c r="G8" s="39">
+      <c r="G8" s="41">
         <v>661.65</v>
       </c>
-      <c r="H8" s="39">
+      <c r="H8" s="41">
         <v>667.36</v>
       </c>
-      <c r="I8" s="39">
+      <c r="I8" s="41">
         <v>684.39</v>
       </c>
-      <c r="J8" s="39">
+      <c r="J8" s="41">
         <v>669.19</v>
       </c>
-      <c r="K8" s="39">
+      <c r="K8" s="41">
         <v>675.86</v>
       </c>
-      <c r="L8" s="39">
+      <c r="L8" s="41">
         <v>686.26</v>
       </c>
-      <c r="M8" s="39">
+      <c r="M8" s="41">
         <v>675.37</v>
       </c>
-      <c r="N8" s="39">
+      <c r="N8" s="41">
         <v>675.35</v>
       </c>
-      <c r="O8" s="39">
+      <c r="O8" s="41">
         <v>673.93</v>
       </c>
-      <c r="P8" s="39">
+      <c r="P8" s="41">
         <v>664.99</v>
       </c>
-      <c r="Q8" s="39">
+      <c r="Q8" s="41">
         <v>675.66</v>
       </c>
-      <c r="R8" s="39">
+      <c r="R8" s="41">
         <v>687.37</v>
       </c>
-      <c r="S8" s="39">
-        <v>685.31</v>
+      <c r="S8" s="41">
+        <v>685.25</v>
+      </c>
+      <c r="T8" s="41">
+        <v>696.9</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="39">
+      <c r="B9" s="41">
         <v>955.48</v>
       </c>
-      <c r="C9" s="39">
+      <c r="C9" s="41">
         <v>980.69</v>
       </c>
-      <c r="D9" s="39">
+      <c r="D9" s="41">
         <v>980.7</v>
       </c>
-      <c r="E9" s="39">
+      <c r="E9" s="41">
         <v>961.14</v>
       </c>
-      <c r="F9" s="39">
+      <c r="F9" s="41">
         <v>960.06</v>
       </c>
-      <c r="G9" s="39">
+      <c r="G9" s="41">
         <v>962.21</v>
       </c>
-      <c r="H9" s="39">
+      <c r="H9" s="41">
         <v>963.59</v>
       </c>
-      <c r="I9" s="39">
+      <c r="I9" s="41">
         <v>994.39</v>
       </c>
-      <c r="J9" s="39">
+      <c r="J9" s="41">
         <v>960.45</v>
       </c>
-      <c r="K9" s="39">
+      <c r="K9" s="41">
         <v>970.14</v>
       </c>
-      <c r="L9" s="39">
+      <c r="L9" s="41">
         <v>994.73</v>
       </c>
-      <c r="M9" s="39">
+      <c r="M9" s="41">
         <v>969.8</v>
       </c>
-      <c r="N9" s="39">
+      <c r="N9" s="41">
         <v>970.25</v>
       </c>
-      <c r="O9" s="39">
+      <c r="O9" s="41">
         <v>974.7</v>
       </c>
-      <c r="P9" s="39">
+      <c r="P9" s="41">
         <v>970.15</v>
       </c>
-      <c r="Q9" s="39">
+      <c r="Q9" s="41">
         <v>979.61</v>
       </c>
-      <c r="R9" s="39">
+      <c r="R9" s="41">
         <v>1009.31</v>
       </c>
-      <c r="S9" s="39">
+      <c r="S9" s="41">
         <v>980.29</v>
       </c>
+      <c r="T9" s="41">
+        <v>986.94</v>
+      </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="39">
+      <c r="B10" s="41">
         <v>895.1</v>
       </c>
-      <c r="C10" s="39">
+      <c r="C10" s="41">
         <v>919.86</v>
       </c>
-      <c r="D10" s="39">
+      <c r="D10" s="41">
         <v>922.26</v>
       </c>
-      <c r="E10" s="39">
+      <c r="E10" s="41">
         <v>902.16</v>
       </c>
-      <c r="F10" s="39">
+      <c r="F10" s="41">
         <v>903.83</v>
       </c>
-      <c r="G10" s="39">
+      <c r="G10" s="41">
         <v>897.94</v>
       </c>
-      <c r="H10" s="39">
+      <c r="H10" s="41">
         <v>912.52</v>
       </c>
-      <c r="I10" s="39">
+      <c r="I10" s="41">
         <v>939.6</v>
       </c>
-      <c r="J10" s="39">
+      <c r="J10" s="41">
         <v>908.86</v>
       </c>
-      <c r="K10" s="39">
+      <c r="K10" s="41">
         <v>917.67</v>
       </c>
-      <c r="L10" s="39">
+      <c r="L10" s="41">
         <v>927.18</v>
       </c>
-      <c r="M10" s="39">
+      <c r="M10" s="41">
         <v>897.4</v>
       </c>
-      <c r="N10" s="39">
+      <c r="N10" s="41">
         <v>915.83</v>
       </c>
-      <c r="O10" s="39">
+      <c r="O10" s="41">
         <v>912.34</v>
       </c>
-      <c r="P10" s="39">
+      <c r="P10" s="41">
         <v>910.09</v>
       </c>
-      <c r="Q10" s="39">
+      <c r="Q10" s="41">
         <v>910.68</v>
       </c>
-      <c r="R10" s="39">
+      <c r="R10" s="41">
         <v>926.15</v>
       </c>
-      <c r="S10" s="39">
-        <v>904.51</v>
+      <c r="S10" s="41">
+        <v>903.83</v>
+      </c>
+      <c r="T10" s="41">
+        <v>902.76</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="39">
+      <c r="B11" s="41">
         <v>956.09</v>
       </c>
-      <c r="C11" s="39">
+      <c r="C11" s="41">
         <v>973.28</v>
       </c>
-      <c r="D11" s="39">
+      <c r="D11" s="41">
         <v>975.74</v>
       </c>
-      <c r="E11" s="39">
+      <c r="E11" s="41">
         <v>962.46</v>
       </c>
-      <c r="F11" s="39">
+      <c r="F11" s="41">
         <v>955.04</v>
       </c>
-      <c r="G11" s="39">
+      <c r="G11" s="41">
         <v>957.38</v>
       </c>
-      <c r="H11" s="39">
+      <c r="H11" s="41">
         <v>961.92</v>
       </c>
-      <c r="I11" s="39">
+      <c r="I11" s="41">
         <v>997.9</v>
       </c>
-      <c r="J11" s="39">
+      <c r="J11" s="41">
         <v>984.97</v>
       </c>
-      <c r="K11" s="39">
+      <c r="K11" s="41">
         <v>993.81</v>
       </c>
-      <c r="L11" s="39">
+      <c r="L11" s="41">
         <v>1010.28</v>
       </c>
-      <c r="M11" s="39">
+      <c r="M11" s="41">
         <v>1001.28</v>
       </c>
-      <c r="N11" s="39">
+      <c r="N11" s="41">
         <v>1005.3</v>
       </c>
-      <c r="O11" s="39">
+      <c r="O11" s="41">
         <v>1003.59</v>
       </c>
-      <c r="P11" s="39">
+      <c r="P11" s="41">
         <v>999.32</v>
       </c>
-      <c r="Q11" s="39">
+      <c r="Q11" s="41">
         <v>1019.37</v>
       </c>
-      <c r="R11" s="39">
+      <c r="R11" s="41">
         <v>1044.1400000000001</v>
       </c>
-      <c r="S11" s="39">
-        <v>1005.65</v>
+      <c r="S11" s="41">
+        <v>1009.34</v>
+      </c>
+      <c r="T11" s="41">
+        <v>1013.04</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="39">
+      <c r="B12" s="41">
         <v>730.52</v>
       </c>
-      <c r="C12" s="39">
+      <c r="C12" s="41">
         <v>750.25</v>
       </c>
-      <c r="D12" s="39">
+      <c r="D12" s="41">
         <v>751.25</v>
       </c>
-      <c r="E12" s="39">
+      <c r="E12" s="41">
         <v>741.59</v>
       </c>
-      <c r="F12" s="39">
+      <c r="F12" s="41">
         <v>738.81</v>
       </c>
-      <c r="G12" s="39">
+      <c r="G12" s="41">
         <v>728.97</v>
       </c>
-      <c r="H12" s="39">
+      <c r="H12" s="41">
         <v>738.81</v>
       </c>
-      <c r="I12" s="39">
+      <c r="I12" s="41">
         <v>759.45</v>
       </c>
-      <c r="J12" s="39">
+      <c r="J12" s="41">
         <v>759.28</v>
       </c>
-      <c r="K12" s="39">
+      <c r="K12" s="41">
         <v>761.54</v>
       </c>
-      <c r="L12" s="39">
+      <c r="L12" s="41">
         <v>765.61</v>
       </c>
-      <c r="M12" s="39">
+      <c r="M12" s="41">
         <v>782.21</v>
       </c>
-      <c r="N12" s="39">
+      <c r="N12" s="41">
         <v>799.53</v>
       </c>
-      <c r="O12" s="39">
+      <c r="O12" s="41">
         <v>803.2</v>
       </c>
-      <c r="P12" s="39">
+      <c r="P12" s="41">
         <v>806.86</v>
       </c>
-      <c r="Q12" s="39">
+      <c r="Q12" s="41">
         <v>810.41</v>
       </c>
-      <c r="R12" s="39">
+      <c r="R12" s="41">
         <v>811.52</v>
       </c>
-      <c r="S12" s="39">
-        <v>797.97</v>
+      <c r="S12" s="41">
+        <v>796.3</v>
+      </c>
+      <c r="T12" s="41">
+        <v>802.41</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="39">
+      <c r="B13" s="41">
         <v>1398.23</v>
       </c>
-      <c r="C13" s="39">
+      <c r="C13" s="41">
         <v>1490.03</v>
       </c>
-      <c r="D13" s="39">
+      <c r="D13" s="41">
         <v>1474.93</v>
       </c>
-      <c r="E13" s="39">
+      <c r="E13" s="41">
         <v>1382.37</v>
       </c>
-      <c r="F13" s="39">
+      <c r="F13" s="41">
         <v>1367.2</v>
       </c>
-      <c r="G13" s="39">
+      <c r="G13" s="41">
         <v>1359.65</v>
       </c>
-      <c r="H13" s="39">
+      <c r="H13" s="41">
         <v>1317.75</v>
       </c>
-      <c r="I13" s="39">
+      <c r="I13" s="41">
         <v>1363.12</v>
       </c>
-      <c r="J13" s="39">
+      <c r="J13" s="41">
         <v>1308.3</v>
       </c>
-      <c r="K13" s="39">
+      <c r="K13" s="41">
         <v>1273.6199999999999</v>
       </c>
-      <c r="L13" s="39">
+      <c r="L13" s="41">
         <v>1345.68</v>
       </c>
-      <c r="M13" s="39">
+      <c r="M13" s="41">
         <v>1298.8800000000001</v>
       </c>
-      <c r="N13" s="39">
+      <c r="N13" s="41">
         <v>1287.97</v>
       </c>
-      <c r="O13" s="39">
+      <c r="O13" s="41">
         <v>1305.3900000000001</v>
       </c>
-      <c r="P13" s="39">
+      <c r="P13" s="41">
         <v>1306.6099999999999</v>
       </c>
-      <c r="Q13" s="39">
+      <c r="Q13" s="41">
         <v>1333.58</v>
       </c>
-      <c r="R13" s="39">
+      <c r="R13" s="41">
         <v>1413.05</v>
       </c>
-      <c r="S13" s="39">
-        <v>1344.03</v>
+      <c r="S13" s="41">
+        <v>1348.17</v>
+      </c>
+      <c r="T13" s="41">
+        <v>1357.18</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="39">
+      <c r="B14" s="41">
         <v>761.11</v>
       </c>
-      <c r="C14" s="39">
+      <c r="C14" s="41">
         <v>781.79</v>
       </c>
-      <c r="D14" s="39">
+      <c r="D14" s="41">
         <v>779.02</v>
       </c>
-      <c r="E14" s="39">
+      <c r="E14" s="41">
         <v>769.01</v>
       </c>
-      <c r="F14" s="39">
+      <c r="F14" s="41">
         <v>769.84</v>
       </c>
-      <c r="G14" s="39">
+      <c r="G14" s="41">
         <v>764.18</v>
       </c>
-      <c r="H14" s="39">
+      <c r="H14" s="41">
         <v>771.21</v>
       </c>
-      <c r="I14" s="39">
+      <c r="I14" s="41">
         <v>786.6</v>
       </c>
-      <c r="J14" s="39">
+      <c r="J14" s="41">
         <v>772.92</v>
       </c>
-      <c r="K14" s="39">
+      <c r="K14" s="41">
         <v>777.82</v>
       </c>
-      <c r="L14" s="39">
+      <c r="L14" s="41">
         <v>792.81</v>
       </c>
-      <c r="M14" s="39">
+      <c r="M14" s="41">
         <v>784.78</v>
       </c>
-      <c r="N14" s="39">
+      <c r="N14" s="41">
         <v>777.02</v>
       </c>
-      <c r="O14" s="39">
+      <c r="O14" s="41">
         <v>782.5</v>
       </c>
-      <c r="P14" s="39">
+      <c r="P14" s="41">
         <v>788.39</v>
       </c>
-      <c r="Q14" s="39">
+      <c r="Q14" s="41">
         <v>788.65</v>
       </c>
-      <c r="R14" s="39">
+      <c r="R14" s="41">
         <v>797.89</v>
       </c>
-      <c r="S14" s="39">
-        <v>787.84</v>
+      <c r="S14" s="41">
+        <v>787.16</v>
+      </c>
+      <c r="T14" s="41">
+        <v>783.36</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="39">
+      <c r="B15" s="41">
         <v>830.33</v>
       </c>
-      <c r="C15" s="39">
+      <c r="C15" s="41">
         <v>849.32</v>
       </c>
-      <c r="D15" s="39">
+      <c r="D15" s="41">
         <v>844.38</v>
       </c>
-      <c r="E15" s="39">
+      <c r="E15" s="41">
         <v>823.02</v>
       </c>
-      <c r="F15" s="39">
+      <c r="F15" s="41">
         <v>824.85</v>
       </c>
-      <c r="G15" s="39">
+      <c r="G15" s="41">
         <v>820.99</v>
       </c>
-      <c r="H15" s="39">
+      <c r="H15" s="41">
         <v>826.61</v>
       </c>
-      <c r="I15" s="39">
+      <c r="I15" s="41">
         <v>848.7</v>
       </c>
-      <c r="J15" s="39">
+      <c r="J15" s="41">
         <v>825.11</v>
       </c>
-      <c r="K15" s="39">
+      <c r="K15" s="41">
         <v>839.03</v>
       </c>
-      <c r="L15" s="39">
+      <c r="L15" s="41">
         <v>852.23</v>
       </c>
-      <c r="M15" s="39">
+      <c r="M15" s="41">
         <v>839.72</v>
       </c>
-      <c r="N15" s="39">
+      <c r="N15" s="41">
         <v>839.36</v>
       </c>
-      <c r="O15" s="39">
+      <c r="O15" s="41">
         <v>842.17</v>
       </c>
-      <c r="P15" s="39">
+      <c r="P15" s="41">
         <v>840.43</v>
       </c>
-      <c r="Q15" s="39">
+      <c r="Q15" s="41">
         <v>842.51</v>
       </c>
-      <c r="R15" s="39">
+      <c r="R15" s="41">
         <v>865.22</v>
       </c>
-      <c r="S15" s="39">
-        <v>843.18</v>
+      <c r="S15" s="41">
+        <v>843.88</v>
+      </c>
+      <c r="T15" s="41">
+        <v>847.38</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="39">
+      <c r="B16" s="41">
         <v>813.73</v>
       </c>
-      <c r="C16" s="39">
+      <c r="C16" s="41">
         <v>839.2</v>
       </c>
-      <c r="D16" s="39">
+      <c r="D16" s="41">
         <v>839.54</v>
       </c>
-      <c r="E16" s="39">
+      <c r="E16" s="41">
         <v>811.47</v>
       </c>
-      <c r="F16" s="39">
+      <c r="F16" s="41">
         <v>812.13</v>
       </c>
-      <c r="G16" s="39">
+      <c r="G16" s="41">
         <v>804.41</v>
       </c>
-      <c r="H16" s="39">
+      <c r="H16" s="41">
         <v>814.19</v>
       </c>
-      <c r="I16" s="39">
+      <c r="I16" s="41">
         <v>833.68</v>
       </c>
-      <c r="J16" s="39">
+      <c r="J16" s="41">
         <v>797.72</v>
       </c>
-      <c r="K16" s="39">
+      <c r="K16" s="41">
         <v>806.2</v>
       </c>
-      <c r="L16" s="39">
+      <c r="L16" s="41">
         <v>833.15</v>
       </c>
-      <c r="M16" s="39">
+      <c r="M16" s="41">
         <v>828.3</v>
       </c>
-      <c r="N16" s="39">
+      <c r="N16" s="41">
         <v>824.92</v>
       </c>
-      <c r="O16" s="39">
+      <c r="O16" s="41">
         <v>827.64</v>
       </c>
-      <c r="P16" s="39">
+      <c r="P16" s="41">
         <v>822.17</v>
       </c>
-      <c r="Q16" s="39">
+      <c r="Q16" s="41">
         <v>829.27</v>
       </c>
-      <c r="R16" s="39">
+      <c r="R16" s="41">
         <v>854.11</v>
       </c>
-      <c r="S16" s="39">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="40" t="s">
+      <c r="S16" s="41">
+        <v>829.08</v>
+      </c>
+      <c r="T16" s="41">
+        <v>838.29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="39">
+      <c r="B17" s="41">
         <v>717.53</v>
       </c>
-      <c r="C17" s="39">
+      <c r="C17" s="41">
         <v>744.77</v>
       </c>
-      <c r="D17" s="39">
+      <c r="D17" s="41">
         <v>736.35</v>
       </c>
-      <c r="E17" s="39">
+      <c r="E17" s="41">
         <v>733.6</v>
       </c>
-      <c r="F17" s="39">
+      <c r="F17" s="41">
         <v>735.13</v>
       </c>
-      <c r="G17" s="39">
+      <c r="G17" s="41">
         <v>735.5</v>
       </c>
-      <c r="H17" s="39">
+      <c r="H17" s="41">
         <v>740.04</v>
       </c>
-      <c r="I17" s="39">
+      <c r="I17" s="41">
         <v>765.9</v>
       </c>
-      <c r="J17" s="39">
+      <c r="J17" s="41">
         <v>732.39</v>
       </c>
-      <c r="K17" s="39">
+      <c r="K17" s="41">
         <v>738.7</v>
       </c>
-      <c r="L17" s="39">
+      <c r="L17" s="41">
         <v>748.39</v>
       </c>
-      <c r="M17" s="39">
+      <c r="M17" s="41">
         <v>732.15</v>
       </c>
-      <c r="N17" s="39">
+      <c r="N17" s="41">
         <v>731.92</v>
       </c>
-      <c r="O17" s="39">
+      <c r="O17" s="41">
         <v>729.65</v>
       </c>
-      <c r="P17" s="39">
+      <c r="P17" s="41">
         <v>727.06</v>
       </c>
-      <c r="Q17" s="39">
+      <c r="Q17" s="41">
         <v>742.62</v>
       </c>
-      <c r="R17" s="39">
+      <c r="R17" s="41">
         <v>755.66</v>
       </c>
-      <c r="S17" s="39">
-        <v>732.83</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="40" t="s">
+      <c r="S17" s="41">
+        <v>730.85</v>
+      </c>
+      <c r="T17" s="41">
+        <v>735.47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="39">
+      <c r="B18" s="41">
         <v>872.59</v>
       </c>
-      <c r="C18" s="39">
+      <c r="C18" s="41">
         <v>901.14</v>
       </c>
-      <c r="D18" s="39">
+      <c r="D18" s="41">
         <v>893.71</v>
       </c>
-      <c r="E18" s="39">
+      <c r="E18" s="41">
         <v>878.76</v>
       </c>
-      <c r="F18" s="39">
+      <c r="F18" s="41">
         <v>879.28</v>
       </c>
-      <c r="G18" s="39">
+      <c r="G18" s="41">
         <v>878.77</v>
       </c>
-      <c r="H18" s="39">
+      <c r="H18" s="41">
         <v>880.99</v>
       </c>
-      <c r="I18" s="39">
+      <c r="I18" s="41">
         <v>905.5</v>
       </c>
-      <c r="J18" s="39">
+      <c r="J18" s="41">
         <v>887.49</v>
       </c>
-      <c r="K18" s="39">
+      <c r="K18" s="41">
         <v>902.31</v>
       </c>
-      <c r="L18" s="39">
+      <c r="L18" s="41">
         <v>920.94</v>
       </c>
-      <c r="M18" s="39">
+      <c r="M18" s="41">
         <v>902.09</v>
       </c>
-      <c r="N18" s="39">
+      <c r="N18" s="41">
         <v>900.38</v>
       </c>
-      <c r="O18" s="39">
+      <c r="O18" s="41">
         <v>894.01</v>
       </c>
-      <c r="P18" s="39">
+      <c r="P18" s="41">
         <v>896.99</v>
       </c>
-      <c r="Q18" s="39">
+      <c r="Q18" s="41">
         <v>899.03</v>
       </c>
-      <c r="R18" s="39">
+      <c r="R18" s="41">
         <v>915.47</v>
       </c>
-      <c r="S18" s="39">
-        <v>894.67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="40" t="s">
+      <c r="S18" s="41">
+        <v>898.78</v>
+      </c>
+      <c r="T18" s="41">
+        <v>897.85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="39">
+      <c r="B19" s="41">
         <v>798.1</v>
       </c>
-      <c r="C19" s="39">
+      <c r="C19" s="41">
         <v>800.1</v>
       </c>
-      <c r="D19" s="39">
+      <c r="D19" s="41">
         <v>797.3</v>
       </c>
-      <c r="E19" s="39">
+      <c r="E19" s="41">
         <v>790.31</v>
       </c>
-      <c r="F19" s="39">
+      <c r="F19" s="41">
         <v>792.75</v>
       </c>
-      <c r="G19" s="39">
+      <c r="G19" s="41">
         <v>790.49</v>
       </c>
-      <c r="H19" s="39">
+      <c r="H19" s="41">
         <v>791.7</v>
       </c>
-      <c r="I19" s="39">
+      <c r="I19" s="41">
         <v>810.84</v>
       </c>
-      <c r="J19" s="39">
+      <c r="J19" s="41">
         <v>791.09</v>
       </c>
-      <c r="K19" s="39">
+      <c r="K19" s="41">
         <v>799.21</v>
       </c>
-      <c r="L19" s="39">
+      <c r="L19" s="41">
         <v>807.45</v>
       </c>
-      <c r="M19" s="39">
+      <c r="M19" s="41">
         <v>807.3</v>
       </c>
-      <c r="N19" s="39">
+      <c r="N19" s="41">
         <v>804.54</v>
       </c>
-      <c r="O19" s="39">
+      <c r="O19" s="41">
         <v>796.79</v>
       </c>
-      <c r="P19" s="39">
+      <c r="P19" s="41">
         <v>794.05</v>
       </c>
-      <c r="Q19" s="39">
+      <c r="Q19" s="41">
         <v>808.68</v>
       </c>
-      <c r="R19" s="39">
+      <c r="R19" s="41">
         <v>814.32</v>
       </c>
-      <c r="S19" s="39">
-        <v>805.73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="40" t="s">
+      <c r="S19" s="41">
+        <v>804.69</v>
+      </c>
+      <c r="T19" s="41">
+        <v>813.72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="39">
+      <c r="B20" s="41">
         <v>755.82</v>
       </c>
-      <c r="C20" s="39">
+      <c r="C20" s="41">
         <v>775.34</v>
       </c>
-      <c r="D20" s="39">
+      <c r="D20" s="41">
         <v>775.55</v>
       </c>
-      <c r="E20" s="39">
+      <c r="E20" s="41">
         <v>780.06</v>
       </c>
-      <c r="F20" s="39">
+      <c r="F20" s="41">
         <v>780.92</v>
       </c>
-      <c r="G20" s="39">
+      <c r="G20" s="41">
         <v>776.04</v>
       </c>
-      <c r="H20" s="39">
+      <c r="H20" s="41">
         <v>780.71</v>
       </c>
-      <c r="I20" s="39">
+      <c r="I20" s="41">
         <v>812.25</v>
       </c>
-      <c r="J20" s="39">
+      <c r="J20" s="41">
         <v>792.81</v>
       </c>
-      <c r="K20" s="39">
+      <c r="K20" s="41">
         <v>796.02</v>
       </c>
-      <c r="L20" s="39">
+      <c r="L20" s="41">
         <v>781.1</v>
       </c>
-      <c r="M20" s="39">
+      <c r="M20" s="41">
         <v>777.92</v>
       </c>
-      <c r="N20" s="39">
+      <c r="N20" s="41">
         <v>768.95</v>
       </c>
-      <c r="O20" s="39">
+      <c r="O20" s="41">
         <v>770.64</v>
       </c>
-      <c r="P20" s="39">
+      <c r="P20" s="41">
         <v>784.04</v>
       </c>
-      <c r="Q20" s="39">
+      <c r="Q20" s="41">
         <v>806.61</v>
       </c>
-      <c r="R20" s="39">
+      <c r="R20" s="41">
         <v>808.6</v>
       </c>
-      <c r="S20" s="39">
-        <v>833.18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="40" t="s">
+      <c r="S20" s="41">
+        <v>820.99</v>
+      </c>
+      <c r="T20" s="41">
+        <v>810.49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="39">
+      <c r="B21" s="41">
         <v>770.18</v>
       </c>
-      <c r="C21" s="39">
+      <c r="C21" s="41">
         <v>781.77</v>
       </c>
-      <c r="D21" s="39">
+      <c r="D21" s="41">
         <v>777.81</v>
       </c>
-      <c r="E21" s="39">
+      <c r="E21" s="41">
         <v>756.84</v>
       </c>
-      <c r="F21" s="39">
+      <c r="F21" s="41">
         <v>761.11</v>
       </c>
-      <c r="G21" s="39">
+      <c r="G21" s="41">
         <v>767.08</v>
       </c>
-      <c r="H21" s="39">
+      <c r="H21" s="41">
         <v>769.18</v>
       </c>
-      <c r="I21" s="39">
+      <c r="I21" s="41">
         <v>789.6</v>
       </c>
-      <c r="J21" s="39">
+      <c r="J21" s="41">
         <v>768.4</v>
       </c>
-      <c r="K21" s="39">
+      <c r="K21" s="41">
         <v>779.08</v>
       </c>
-      <c r="L21" s="39">
+      <c r="L21" s="41">
         <v>790.17</v>
       </c>
-      <c r="M21" s="39">
+      <c r="M21" s="41">
         <v>783.82</v>
       </c>
-      <c r="N21" s="39">
+      <c r="N21" s="41">
         <v>772.13</v>
       </c>
-      <c r="O21" s="39">
+      <c r="O21" s="41">
         <v>766.82</v>
       </c>
-      <c r="P21" s="39">
+      <c r="P21" s="41">
         <v>760.45</v>
       </c>
-      <c r="Q21" s="39">
+      <c r="Q21" s="41">
         <v>767.53</v>
       </c>
-      <c r="R21" s="39">
+      <c r="R21" s="41">
         <v>766.08</v>
       </c>
-      <c r="S21" s="39">
-        <v>762.62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="40" t="s">
+      <c r="S21" s="41">
+        <v>763.3</v>
+      </c>
+      <c r="T21" s="41">
+        <v>765.23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="39">
+      <c r="B22" s="41">
         <v>740.23</v>
       </c>
-      <c r="C22" s="39">
+      <c r="C22" s="41">
         <v>731.34</v>
       </c>
-      <c r="D22" s="39">
+      <c r="D22" s="41">
         <v>740.95</v>
       </c>
-      <c r="E22" s="39">
+      <c r="E22" s="41">
         <v>739.55</v>
       </c>
-      <c r="F22" s="39">
+      <c r="F22" s="41">
         <v>742.02</v>
       </c>
-      <c r="G22" s="39">
+      <c r="G22" s="41">
         <v>742.34</v>
       </c>
-      <c r="H22" s="39">
+      <c r="H22" s="41">
         <v>749.06</v>
       </c>
-      <c r="I22" s="39">
+      <c r="I22" s="41">
         <v>754.7</v>
       </c>
-      <c r="J22" s="39">
+      <c r="J22" s="41">
         <v>744.12</v>
       </c>
-      <c r="K22" s="39">
+      <c r="K22" s="41">
         <v>741.95</v>
       </c>
-      <c r="L22" s="39">
+      <c r="L22" s="41">
         <v>747.56</v>
       </c>
-      <c r="M22" s="39">
+      <c r="M22" s="41">
         <v>751.08</v>
       </c>
-      <c r="N22" s="39">
+      <c r="N22" s="41">
         <v>739.5</v>
       </c>
-      <c r="O22" s="39">
+      <c r="O22" s="41">
         <v>732.89</v>
       </c>
-      <c r="P22" s="39">
+      <c r="P22" s="41">
         <v>741.31</v>
       </c>
-      <c r="Q22" s="39">
+      <c r="Q22" s="41">
         <v>744.1</v>
       </c>
-      <c r="R22" s="39">
+      <c r="R22" s="41">
         <v>740.25</v>
       </c>
-      <c r="S22" s="39">
-        <v>748.7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="40" t="s">
+      <c r="S22" s="41">
+        <v>748.34</v>
+      </c>
+      <c r="T22" s="41">
+        <v>746.59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="39">
+      <c r="B23" s="41">
         <v>794.47</v>
       </c>
-      <c r="C23" s="39">
+      <c r="C23" s="41">
         <v>806.26</v>
       </c>
-      <c r="D23" s="39">
+      <c r="D23" s="41">
         <v>801.29</v>
       </c>
-      <c r="E23" s="39">
+      <c r="E23" s="41">
         <v>794.68</v>
       </c>
-      <c r="F23" s="39">
+      <c r="F23" s="41">
         <v>786.88</v>
       </c>
-      <c r="G23" s="39">
+      <c r="G23" s="41">
         <v>788.01</v>
       </c>
-      <c r="H23" s="39">
+      <c r="H23" s="41">
         <v>787.29</v>
       </c>
-      <c r="I23" s="39">
+      <c r="I23" s="41">
         <v>807.68</v>
       </c>
-      <c r="J23" s="39">
+      <c r="J23" s="41">
         <v>784.11</v>
       </c>
-      <c r="K23" s="39">
+      <c r="K23" s="41">
         <v>801.29</v>
       </c>
-      <c r="L23" s="39">
+      <c r="L23" s="41">
         <v>812.52</v>
       </c>
-      <c r="M23" s="39">
+      <c r="M23" s="41">
         <v>802.28</v>
       </c>
-      <c r="N23" s="39">
+      <c r="N23" s="41">
         <v>795.66</v>
       </c>
-      <c r="O23" s="39">
+      <c r="O23" s="41">
         <v>786.59</v>
       </c>
-      <c r="P23" s="39">
+      <c r="P23" s="41">
         <v>776.08</v>
       </c>
-      <c r="Q23" s="39">
+      <c r="Q23" s="41">
         <v>789.6</v>
       </c>
-      <c r="R23" s="39">
+      <c r="R23" s="41">
         <v>804.08</v>
       </c>
-      <c r="S23" s="39">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="40" t="s">
+      <c r="S23" s="41">
+        <v>793.54</v>
+      </c>
+      <c r="T23" s="41">
+        <v>789.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="39">
+      <c r="B24" s="41">
         <v>743.43</v>
       </c>
-      <c r="C24" s="39">
+      <c r="C24" s="41">
         <v>748</v>
       </c>
-      <c r="D24" s="39">
+      <c r="D24" s="41">
         <v>753.95</v>
       </c>
-      <c r="E24" s="39">
+      <c r="E24" s="41">
         <v>743.77</v>
       </c>
-      <c r="F24" s="39">
+      <c r="F24" s="41">
         <v>743.28</v>
       </c>
-      <c r="G24" s="39">
+      <c r="G24" s="41">
         <v>736.08</v>
       </c>
-      <c r="H24" s="39">
+      <c r="H24" s="41">
         <v>741.13</v>
       </c>
-      <c r="I24" s="39">
+      <c r="I24" s="41">
         <v>747.44</v>
       </c>
-      <c r="J24" s="39">
+      <c r="J24" s="41">
         <v>752.79</v>
       </c>
-      <c r="K24" s="39">
+      <c r="K24" s="41">
         <v>754.94</v>
       </c>
-      <c r="L24" s="39">
+      <c r="L24" s="41">
         <v>761.46</v>
       </c>
-      <c r="M24" s="39">
+      <c r="M24" s="41">
         <v>758.38</v>
       </c>
-      <c r="N24" s="39">
+      <c r="N24" s="41">
         <v>749.06</v>
       </c>
-      <c r="O24" s="39">
+      <c r="O24" s="41">
         <v>751.17</v>
       </c>
-      <c r="P24" s="39">
+      <c r="P24" s="41">
         <v>751.04</v>
       </c>
-      <c r="Q24" s="39">
+      <c r="Q24" s="41">
         <v>753.06</v>
       </c>
-      <c r="R24" s="39">
+      <c r="R24" s="41">
         <v>754.8</v>
       </c>
-      <c r="S24" s="39">
-        <v>742.56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="40" t="s">
+      <c r="S24" s="41">
+        <v>739.21</v>
+      </c>
+      <c r="T24" s="41">
+        <v>737.12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="39">
+      <c r="B25" s="41">
         <v>920.41</v>
       </c>
-      <c r="C25" s="39">
+      <c r="C25" s="41">
         <v>939.37</v>
       </c>
-      <c r="D25" s="39">
+      <c r="D25" s="41">
         <v>946.96</v>
       </c>
-      <c r="E25" s="39">
+      <c r="E25" s="41">
         <v>930.25</v>
       </c>
-      <c r="F25" s="39">
+      <c r="F25" s="41">
         <v>928.84</v>
       </c>
-      <c r="G25" s="39">
+      <c r="G25" s="41">
         <v>919.58</v>
       </c>
-      <c r="H25" s="39">
+      <c r="H25" s="41">
         <v>920.2</v>
       </c>
-      <c r="I25" s="39">
+      <c r="I25" s="41">
         <v>946.62</v>
       </c>
-      <c r="J25" s="39">
+      <c r="J25" s="41">
         <v>938.4</v>
       </c>
-      <c r="K25" s="39">
+      <c r="K25" s="41">
         <v>941.47</v>
       </c>
-      <c r="L25" s="39">
+      <c r="L25" s="41">
         <v>958.07</v>
       </c>
-      <c r="M25" s="39">
+      <c r="M25" s="41">
         <v>939.13</v>
       </c>
-      <c r="N25" s="39">
+      <c r="N25" s="41">
         <v>919.97</v>
       </c>
-      <c r="O25" s="39">
+      <c r="O25" s="41">
         <v>916.64</v>
       </c>
-      <c r="P25" s="39">
+      <c r="P25" s="41">
         <v>924.45</v>
       </c>
-      <c r="Q25" s="39">
+      <c r="Q25" s="41">
         <v>929.21</v>
       </c>
-      <c r="R25" s="39">
+      <c r="R25" s="41">
         <v>939.47</v>
       </c>
-      <c r="S25" s="39">
-        <v>924.04</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="40" t="s">
+      <c r="S25" s="41">
+        <v>926.74</v>
+      </c>
+      <c r="T25" s="41">
+        <v>931.9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="39">
+      <c r="B26" s="41">
         <v>1008.56</v>
       </c>
-      <c r="C26" s="39">
+      <c r="C26" s="41">
         <v>1009.8</v>
       </c>
-      <c r="D26" s="39">
+      <c r="D26" s="41">
         <v>1015.03</v>
       </c>
-      <c r="E26" s="39">
+      <c r="E26" s="41">
         <v>1006.99</v>
       </c>
-      <c r="F26" s="39">
+      <c r="F26" s="41">
         <v>1011.37</v>
       </c>
-      <c r="G26" s="39">
+      <c r="G26" s="41">
         <v>1002.99</v>
       </c>
-      <c r="H26" s="39">
+      <c r="H26" s="41">
         <v>1004.3</v>
       </c>
-      <c r="I26" s="39">
+      <c r="I26" s="41">
         <v>1021.77</v>
       </c>
-      <c r="J26" s="39">
+      <c r="J26" s="41">
         <v>1018.4</v>
       </c>
-      <c r="K26" s="39">
+      <c r="K26" s="41">
         <v>1031.47</v>
       </c>
-      <c r="L26" s="39">
+      <c r="L26" s="41">
         <v>1055.57</v>
       </c>
-      <c r="M26" s="39">
+      <c r="M26" s="41">
         <v>1044.03</v>
       </c>
-      <c r="N26" s="39">
+      <c r="N26" s="41">
         <v>1044.95</v>
       </c>
-      <c r="O26" s="39">
+      <c r="O26" s="41">
         <v>1038.02</v>
       </c>
-      <c r="P26" s="39">
+      <c r="P26" s="41">
         <v>1035.3</v>
       </c>
-      <c r="Q26" s="39">
+      <c r="Q26" s="41">
         <v>1035.6300000000001</v>
       </c>
-      <c r="R26" s="39">
+      <c r="R26" s="41">
         <v>1050.43</v>
       </c>
-      <c r="S26" s="39">
-        <v>1030.1300000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="40" t="s">
+      <c r="S26" s="41">
+        <v>1031.47</v>
+      </c>
+      <c r="T26" s="41">
+        <v>1038.6300000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="39">
+      <c r="B27" s="41">
         <v>814.31</v>
       </c>
-      <c r="C27" s="39">
+      <c r="C27" s="41">
         <v>822.17</v>
       </c>
-      <c r="D27" s="39">
+      <c r="D27" s="41">
         <v>826.28</v>
       </c>
-      <c r="E27" s="39">
+      <c r="E27" s="41">
         <v>818.4</v>
       </c>
-      <c r="F27" s="39">
+      <c r="F27" s="41">
         <v>820.02</v>
       </c>
-      <c r="G27" s="39">
+      <c r="G27" s="41">
         <v>816.91</v>
       </c>
-      <c r="H27" s="39">
+      <c r="H27" s="41">
         <v>820.46</v>
       </c>
-      <c r="I27" s="39">
+      <c r="I27" s="41">
         <v>847.37</v>
       </c>
-      <c r="J27" s="39">
+      <c r="J27" s="41">
         <v>827.27</v>
       </c>
-      <c r="K27" s="39">
+      <c r="K27" s="41">
         <v>837.26</v>
       </c>
-      <c r="L27" s="39">
+      <c r="L27" s="41">
         <v>844.22</v>
       </c>
-      <c r="M27" s="39">
+      <c r="M27" s="41">
         <v>835.21</v>
       </c>
-      <c r="N27" s="39">
+      <c r="N27" s="41">
         <v>823.71</v>
       </c>
-      <c r="O27" s="39">
+      <c r="O27" s="41">
         <v>820.66</v>
       </c>
-      <c r="P27" s="39">
+      <c r="P27" s="41">
         <v>823.09</v>
       </c>
-      <c r="Q27" s="39">
+      <c r="Q27" s="41">
         <v>823.88</v>
       </c>
-      <c r="R27" s="39">
+      <c r="R27" s="41">
         <v>825.94</v>
       </c>
-      <c r="S27" s="39">
-        <v>817.34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="40" t="s">
+      <c r="S27" s="41">
+        <v>818.03</v>
+      </c>
+      <c r="T27" s="41">
+        <v>824.22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="39">
+      <c r="B28" s="41">
         <v>873.68</v>
       </c>
-      <c r="C28" s="39">
+      <c r="C28" s="41">
         <v>884.11</v>
       </c>
-      <c r="D28" s="39">
+      <c r="D28" s="41">
         <v>892.25</v>
       </c>
-      <c r="E28" s="39">
+      <c r="E28" s="41">
         <v>872.93</v>
       </c>
-      <c r="F28" s="39">
+      <c r="F28" s="41">
         <v>871.7</v>
       </c>
-      <c r="G28" s="39">
+      <c r="G28" s="41">
         <v>876.71</v>
       </c>
-      <c r="H28" s="39">
+      <c r="H28" s="41">
         <v>882.36</v>
       </c>
-      <c r="I28" s="39">
+      <c r="I28" s="41">
         <v>904.1</v>
       </c>
-      <c r="J28" s="39">
+      <c r="J28" s="41">
         <v>881.4</v>
       </c>
-      <c r="K28" s="39">
+      <c r="K28" s="41">
         <v>897.26</v>
       </c>
-      <c r="L28" s="39">
+      <c r="L28" s="41">
         <v>900.14</v>
       </c>
-      <c r="M28" s="39">
+      <c r="M28" s="41">
         <v>888.33</v>
       </c>
-      <c r="N28" s="39">
+      <c r="N28" s="41">
         <v>894.79</v>
       </c>
-      <c r="O28" s="39">
+      <c r="O28" s="41">
         <v>886.44</v>
       </c>
-      <c r="P28" s="39">
+      <c r="P28" s="41">
         <v>906.18</v>
       </c>
-      <c r="Q28" s="39">
+      <c r="Q28" s="41">
         <v>906.53</v>
       </c>
-      <c r="R28" s="39">
+      <c r="R28" s="41">
         <v>925.76</v>
       </c>
-      <c r="S28" s="39">
-        <v>911.09</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="40" t="s">
+      <c r="S28" s="41">
+        <v>913.75</v>
+      </c>
+      <c r="T28" s="41">
+        <v>919.68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="39">
+      <c r="B29" s="41">
         <v>675.85</v>
       </c>
-      <c r="C29" s="39">
+      <c r="C29" s="41">
         <v>697.53</v>
       </c>
-      <c r="D29" s="39">
+      <c r="D29" s="41">
         <v>702.47</v>
       </c>
-      <c r="E29" s="39">
+      <c r="E29" s="41">
         <v>680.78</v>
       </c>
-      <c r="F29" s="39">
+      <c r="F29" s="41">
         <v>677.12</v>
       </c>
-      <c r="G29" s="39">
+      <c r="G29" s="41">
         <v>678.39</v>
       </c>
-      <c r="H29" s="39">
+      <c r="H29" s="41">
         <v>681.51</v>
       </c>
-      <c r="I29" s="39">
+      <c r="I29" s="41">
         <v>694.63</v>
       </c>
-      <c r="J29" s="39">
+      <c r="J29" s="41">
         <v>676.13</v>
       </c>
-      <c r="K29" s="39">
+      <c r="K29" s="41">
         <v>683.59</v>
       </c>
-      <c r="L29" s="39">
+      <c r="L29" s="41">
         <v>698.49</v>
       </c>
-      <c r="M29" s="39">
+      <c r="M29" s="41">
         <v>689.49</v>
       </c>
-      <c r="N29" s="39">
+      <c r="N29" s="41">
         <v>687.85</v>
       </c>
-      <c r="O29" s="39">
+      <c r="O29" s="41">
         <v>681.62</v>
       </c>
-      <c r="P29" s="39">
+      <c r="P29" s="41">
         <v>672.71</v>
       </c>
-      <c r="Q29" s="39">
+      <c r="Q29" s="41">
         <v>684.63</v>
       </c>
-      <c r="R29" s="39">
+      <c r="R29" s="41">
         <v>700.79</v>
       </c>
-      <c r="S29" s="39">
-        <v>696.84</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="40" t="s">
+      <c r="S29" s="41">
+        <v>688.62</v>
+      </c>
+      <c r="T29" s="41">
+        <v>701.84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="39">
+      <c r="B30" s="41">
         <v>743.76</v>
       </c>
-      <c r="C30" s="39">
+      <c r="C30" s="41">
         <v>759.58</v>
       </c>
-      <c r="D30" s="39">
+      <c r="D30" s="41">
         <v>757.87</v>
       </c>
-      <c r="E30" s="39">
+      <c r="E30" s="41">
         <v>747.66</v>
       </c>
-      <c r="F30" s="39">
+      <c r="F30" s="41">
         <v>743.37</v>
       </c>
-      <c r="G30" s="39">
+      <c r="G30" s="41">
         <v>743.6</v>
       </c>
-      <c r="H30" s="39">
+      <c r="H30" s="41">
         <v>743.6</v>
       </c>
-      <c r="I30" s="39">
+      <c r="I30" s="41">
         <v>759.55</v>
       </c>
-      <c r="J30" s="39">
+      <c r="J30" s="41">
         <v>742.22</v>
       </c>
-      <c r="K30" s="39">
+      <c r="K30" s="41">
         <v>744.95</v>
       </c>
-      <c r="L30" s="39">
+      <c r="L30" s="41">
         <v>755.48</v>
       </c>
-      <c r="M30" s="39">
+      <c r="M30" s="41">
         <v>745.78</v>
       </c>
-      <c r="N30" s="39">
+      <c r="N30" s="41">
         <v>743.15</v>
       </c>
-      <c r="O30" s="39">
+      <c r="O30" s="41">
         <v>738.26</v>
       </c>
-      <c r="P30" s="39">
+      <c r="P30" s="41">
         <v>740.26</v>
       </c>
-      <c r="Q30" s="39">
+      <c r="Q30" s="41">
         <v>746.79</v>
       </c>
-      <c r="R30" s="39">
+      <c r="R30" s="41">
         <v>751.85</v>
       </c>
-      <c r="S30" s="39">
-        <v>735.38</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="40" t="s">
+      <c r="S30" s="41">
+        <v>738.59</v>
+      </c>
+      <c r="T30" s="41">
+        <v>746.82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="39">
+      <c r="B31" s="41">
         <v>700.1</v>
       </c>
-      <c r="C31" s="39">
+      <c r="C31" s="41">
         <v>722.67</v>
       </c>
-      <c r="D31" s="39">
+      <c r="D31" s="41">
         <v>706.23</v>
       </c>
-      <c r="E31" s="39">
+      <c r="E31" s="41">
         <v>696.96</v>
       </c>
-      <c r="F31" s="39">
+      <c r="F31" s="41">
         <v>711.75</v>
       </c>
-      <c r="G31" s="39">
+      <c r="G31" s="41">
         <v>713.19</v>
       </c>
-      <c r="H31" s="39">
+      <c r="H31" s="41">
         <v>716.56</v>
       </c>
-      <c r="I31" s="39">
+      <c r="I31" s="41">
         <v>746.72</v>
       </c>
-      <c r="J31" s="39">
+      <c r="J31" s="41">
         <v>723.65</v>
       </c>
-      <c r="K31" s="39">
+      <c r="K31" s="41">
         <v>723.13</v>
       </c>
-      <c r="L31" s="39">
+      <c r="L31" s="41">
         <v>747.78</v>
       </c>
-      <c r="M31" s="39">
+      <c r="M31" s="41">
         <v>722.87</v>
       </c>
-      <c r="N31" s="39">
+      <c r="N31" s="41">
         <v>711.98</v>
       </c>
-      <c r="O31" s="39">
+      <c r="O31" s="41">
         <v>722.55</v>
       </c>
-      <c r="P31" s="39">
+      <c r="P31" s="41">
         <v>709.95</v>
       </c>
-      <c r="Q31" s="39">
+      <c r="Q31" s="41">
         <v>724.46</v>
       </c>
-      <c r="R31" s="39">
+      <c r="R31" s="41">
         <v>740.52</v>
       </c>
-      <c r="S31" s="39">
-        <v>731.28</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="40" t="s">
+      <c r="S31" s="41">
+        <v>729.96</v>
+      </c>
+      <c r="T31" s="41">
+        <v>738.13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="39">
+      <c r="B32" s="41">
         <v>738.53</v>
       </c>
-      <c r="C32" s="39">
+      <c r="C32" s="41">
         <v>755.63</v>
       </c>
-      <c r="D32" s="39">
+      <c r="D32" s="41">
         <v>755.14</v>
       </c>
-      <c r="E32" s="39">
+      <c r="E32" s="41">
         <v>738.53</v>
       </c>
-      <c r="F32" s="39">
+      <c r="F32" s="41">
         <v>742.75</v>
       </c>
-      <c r="G32" s="39">
+      <c r="G32" s="41">
         <v>749.34</v>
       </c>
-      <c r="H32" s="39">
+      <c r="H32" s="41">
         <v>752.2</v>
       </c>
-      <c r="I32" s="39">
+      <c r="I32" s="41">
         <v>785.25</v>
       </c>
-      <c r="J32" s="39">
+      <c r="J32" s="41">
         <v>766.14</v>
       </c>
-      <c r="K32" s="39">
+      <c r="K32" s="41">
         <v>766.61</v>
       </c>
-      <c r="L32" s="39">
+      <c r="L32" s="41">
         <v>774.63</v>
       </c>
-      <c r="M32" s="39">
+      <c r="M32" s="41">
         <v>760.84</v>
       </c>
-      <c r="N32" s="39">
+      <c r="N32" s="41">
         <v>760.18</v>
       </c>
-      <c r="O32" s="39">
+      <c r="O32" s="41">
         <v>761.9</v>
       </c>
-      <c r="P32" s="39">
+      <c r="P32" s="41">
         <v>762.86</v>
       </c>
-      <c r="Q32" s="39">
+      <c r="Q32" s="41">
         <v>777.67</v>
       </c>
-      <c r="R32" s="39">
+      <c r="R32" s="41">
         <v>785.66</v>
       </c>
-      <c r="S32" s="39">
-        <v>780.1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="40" t="s">
+      <c r="S32" s="41">
+        <v>779.42</v>
+      </c>
+      <c r="T32" s="41">
+        <v>778.01</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="39">
+      <c r="B33" s="41">
         <v>717.45</v>
       </c>
-      <c r="C33" s="39">
+      <c r="C33" s="41">
         <v>732.98</v>
       </c>
-      <c r="D33" s="39">
+      <c r="D33" s="41">
         <v>737.52</v>
       </c>
-      <c r="E33" s="39">
+      <c r="E33" s="41">
         <v>729.79</v>
       </c>
-      <c r="F33" s="39">
+      <c r="F33" s="41">
         <v>729.63</v>
       </c>
-      <c r="G33" s="39">
+      <c r="G33" s="41">
         <v>730.13</v>
       </c>
-      <c r="H33" s="39">
+      <c r="H33" s="41">
         <v>737.02</v>
       </c>
-      <c r="I33" s="39">
+      <c r="I33" s="41">
         <v>754.29</v>
       </c>
-      <c r="J33" s="39">
+      <c r="J33" s="41">
         <v>747.32</v>
       </c>
-      <c r="K33" s="39">
+      <c r="K33" s="41">
         <v>741.69</v>
       </c>
-      <c r="L33" s="39">
+      <c r="L33" s="41">
         <v>753.94</v>
       </c>
-      <c r="M33" s="39">
+      <c r="M33" s="41">
         <v>737.14</v>
       </c>
-      <c r="N33" s="39">
+      <c r="N33" s="41">
         <v>739.36</v>
       </c>
-      <c r="O33" s="39">
+      <c r="O33" s="41">
         <v>741.26</v>
       </c>
-      <c r="P33" s="39">
+      <c r="P33" s="41">
         <v>737.04</v>
       </c>
-      <c r="Q33" s="39">
+      <c r="Q33" s="41">
         <v>746.59</v>
       </c>
-      <c r="R33" s="39">
+      <c r="R33" s="41">
         <v>759.07</v>
       </c>
-      <c r="S33" s="39">
-        <v>748.34</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="40" t="s">
+      <c r="S33" s="41">
+        <v>750.38</v>
+      </c>
+      <c r="T33" s="41">
+        <v>746.59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A34" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="39">
+      <c r="B34" s="41">
         <v>809.34</v>
       </c>
-      <c r="C34" s="39">
+      <c r="C34" s="41">
         <v>819.54</v>
       </c>
-      <c r="D34" s="39">
+      <c r="D34" s="41">
         <v>831.14</v>
       </c>
-      <c r="E34" s="39">
+      <c r="E34" s="41">
         <v>842.69</v>
       </c>
-      <c r="F34" s="39">
+      <c r="F34" s="41">
         <v>839.8</v>
       </c>
-      <c r="G34" s="39">
+      <c r="G34" s="41">
         <v>825.11</v>
       </c>
-      <c r="H34" s="39">
+      <c r="H34" s="41">
         <v>830.89</v>
       </c>
-      <c r="I34" s="39">
+      <c r="I34" s="41">
         <v>835.79</v>
       </c>
-      <c r="J34" s="39">
+      <c r="J34" s="41">
         <v>837.78</v>
       </c>
-      <c r="K34" s="39">
+      <c r="K34" s="41">
         <v>852.1</v>
       </c>
-      <c r="L34" s="39">
+      <c r="L34" s="41">
         <v>862.76</v>
       </c>
-      <c r="M34" s="39">
+      <c r="M34" s="41">
         <v>851.26</v>
       </c>
-      <c r="N34" s="39">
+      <c r="N34" s="41">
         <v>861.14</v>
       </c>
-      <c r="O34" s="39">
+      <c r="O34" s="41">
         <v>857.89</v>
       </c>
-      <c r="P34" s="39">
+      <c r="P34" s="41">
         <v>848.68</v>
       </c>
-      <c r="Q34" s="39">
+      <c r="Q34" s="41">
         <v>860.5</v>
       </c>
-      <c r="R34" s="39">
+      <c r="R34" s="41">
         <v>862.58</v>
       </c>
-      <c r="S34" s="39">
-        <v>842.69</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="40" t="s">
+      <c r="S34" s="41">
+        <v>845.53</v>
+      </c>
+      <c r="T34" s="41">
+        <v>851.36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="39">
+      <c r="B35" s="41">
         <v>918.98</v>
       </c>
-      <c r="C35" s="39">
+      <c r="C35" s="41">
         <v>942.36</v>
       </c>
-      <c r="D35" s="39">
+      <c r="D35" s="41">
         <v>947.98</v>
       </c>
-      <c r="E35" s="39">
+      <c r="E35" s="41">
         <v>928.44</v>
       </c>
-      <c r="F35" s="39">
+      <c r="F35" s="41">
         <v>930.46</v>
       </c>
-      <c r="G35" s="39">
+      <c r="G35" s="41">
         <v>929.78</v>
       </c>
-      <c r="H35" s="39">
+      <c r="H35" s="41">
         <v>930.56</v>
       </c>
-      <c r="I35" s="39">
+      <c r="I35" s="41">
         <v>948.02</v>
       </c>
-      <c r="J35" s="39">
+      <c r="J35" s="41">
         <v>938.96</v>
       </c>
-      <c r="K35" s="39">
+      <c r="K35" s="41">
         <v>943.1</v>
       </c>
-      <c r="L35" s="39">
+      <c r="L35" s="41">
         <v>956.08</v>
       </c>
-      <c r="M35" s="39">
+      <c r="M35" s="41">
         <v>942.82</v>
       </c>
-      <c r="N35" s="39">
+      <c r="N35" s="41">
         <v>934.75</v>
       </c>
-      <c r="O35" s="39">
+      <c r="O35" s="41">
         <v>940.46</v>
       </c>
-      <c r="P35" s="39">
+      <c r="P35" s="41">
         <v>937.33</v>
       </c>
-      <c r="Q35" s="39">
+      <c r="Q35" s="41">
         <v>945.96</v>
       </c>
-      <c r="R35" s="39">
+      <c r="R35" s="41">
         <v>960.84</v>
       </c>
-      <c r="S35" s="39">
-        <v>938.29</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="40" t="s">
+      <c r="S35" s="41">
+        <v>941.4</v>
+      </c>
+      <c r="T35" s="41">
+        <v>944.52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A36" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="39">
+      <c r="B36" s="41">
         <v>699.02</v>
       </c>
-      <c r="C36" s="39">
+      <c r="C36" s="41">
         <v>708.3</v>
       </c>
-      <c r="D36" s="39">
+      <c r="D36" s="41">
         <v>708.98</v>
       </c>
-      <c r="E36" s="39">
+      <c r="E36" s="41">
         <v>694.27</v>
       </c>
-      <c r="F36" s="39">
+      <c r="F36" s="41">
         <v>693.58</v>
       </c>
-      <c r="G36" s="39">
+      <c r="G36" s="41">
         <v>689.16</v>
       </c>
-      <c r="H36" s="39">
+      <c r="H36" s="41">
         <v>693.89</v>
       </c>
-      <c r="I36" s="39">
+      <c r="I36" s="41">
         <v>709.17</v>
       </c>
-      <c r="J36" s="39">
+      <c r="J36" s="41">
         <v>700.42</v>
       </c>
-      <c r="K36" s="39">
+      <c r="K36" s="41">
         <v>699.73</v>
       </c>
-      <c r="L36" s="39">
+      <c r="L36" s="41">
         <v>705.55</v>
       </c>
-      <c r="M36" s="39">
+      <c r="M36" s="41">
         <v>693.6</v>
       </c>
-      <c r="N36" s="39">
+      <c r="N36" s="41">
         <v>687.71</v>
       </c>
-      <c r="O36" s="39">
+      <c r="O36" s="41">
         <v>691.78</v>
       </c>
-      <c r="P36" s="39">
+      <c r="P36" s="41">
         <v>681.98</v>
       </c>
-      <c r="Q36" s="39">
+      <c r="Q36" s="41">
         <v>685.41</v>
       </c>
-      <c r="R36" s="39">
+      <c r="R36" s="41">
         <v>686.81</v>
       </c>
-      <c r="S36" s="39">
-        <v>678.69</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="40" t="s">
+      <c r="S36" s="41">
+        <v>678.35</v>
+      </c>
+      <c r="T36" s="41">
+        <v>682.36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A37" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="39">
+      <c r="B37" s="41">
         <v>961.45</v>
       </c>
-      <c r="C37" s="39">
+      <c r="C37" s="41">
         <v>978.31</v>
       </c>
-      <c r="D37" s="39">
+      <c r="D37" s="41">
         <v>979.52</v>
       </c>
-      <c r="E37" s="39">
+      <c r="E37" s="41">
         <v>966.48</v>
       </c>
-      <c r="F37" s="39">
+      <c r="F37" s="41">
         <v>962.14</v>
       </c>
-      <c r="G37" s="39">
+      <c r="G37" s="41">
         <v>958.77</v>
       </c>
-      <c r="H37" s="39">
+      <c r="H37" s="41">
         <v>961.61</v>
       </c>
-      <c r="I37" s="39">
+      <c r="I37" s="41">
         <v>983.25</v>
       </c>
-      <c r="J37" s="39">
+      <c r="J37" s="41">
         <v>964.83</v>
       </c>
-      <c r="K37" s="39">
+      <c r="K37" s="41">
         <v>969.21</v>
       </c>
-      <c r="L37" s="39">
+      <c r="L37" s="41">
         <v>993.82</v>
       </c>
-      <c r="M37" s="39">
+      <c r="M37" s="41">
         <v>978.31</v>
       </c>
-      <c r="N37" s="39">
+      <c r="N37" s="41">
         <v>977.28</v>
       </c>
-      <c r="O37" s="39">
+      <c r="O37" s="41">
         <v>979.4</v>
       </c>
-      <c r="P37" s="39">
+      <c r="P37" s="41">
         <v>971.43</v>
       </c>
-      <c r="Q37" s="39">
+      <c r="Q37" s="41">
         <v>969.7</v>
       </c>
-      <c r="R37" s="39">
+      <c r="R37" s="41">
         <v>981.12</v>
       </c>
-      <c r="S37" s="39">
-        <v>960.78</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="40" t="s">
+      <c r="S37" s="41">
+        <v>961.12</v>
+      </c>
+      <c r="T37" s="41">
+        <v>974.6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A38" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="39">
+      <c r="B38" s="41">
         <v>753.77</v>
       </c>
-      <c r="C38" s="39">
+      <c r="C38" s="41">
         <v>771.08</v>
       </c>
-      <c r="D38" s="39">
+      <c r="D38" s="41">
         <v>768.85</v>
       </c>
-      <c r="E38" s="39">
+      <c r="E38" s="41">
         <v>758.18</v>
       </c>
-      <c r="F38" s="39">
+      <c r="F38" s="41">
         <v>762.45</v>
       </c>
-      <c r="G38" s="39">
+      <c r="G38" s="41">
         <v>760.04</v>
       </c>
-      <c r="H38" s="39">
+      <c r="H38" s="41">
         <v>763.49</v>
       </c>
-      <c r="I38" s="39">
+      <c r="I38" s="41">
         <v>788.9</v>
       </c>
-      <c r="J38" s="39">
+      <c r="J38" s="41">
         <v>766.61</v>
       </c>
-      <c r="K38" s="39">
+      <c r="K38" s="41">
         <v>778.15</v>
       </c>
-      <c r="L38" s="39">
+      <c r="L38" s="41">
         <v>790.26</v>
       </c>
-      <c r="M38" s="39">
+      <c r="M38" s="41">
         <v>779.16</v>
       </c>
-      <c r="N38" s="39">
+      <c r="N38" s="41">
         <v>776.72</v>
       </c>
-      <c r="O38" s="39">
+      <c r="O38" s="41">
         <v>783.15</v>
       </c>
-      <c r="P38" s="39">
+      <c r="P38" s="41">
         <v>790.78</v>
       </c>
-      <c r="Q38" s="39">
+      <c r="Q38" s="41">
         <v>797.48</v>
       </c>
-      <c r="R38" s="39">
+      <c r="R38" s="41">
         <v>809.03</v>
       </c>
-      <c r="S38" s="39">
-        <v>803.85</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="40" t="s">
+      <c r="S38" s="41">
+        <v>801.52</v>
+      </c>
+      <c r="T38" s="41">
+        <v>804.2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A39" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="39">
+      <c r="B39" s="41">
         <v>864.92</v>
       </c>
-      <c r="C39" s="39">
+      <c r="C39" s="41">
         <v>873.25</v>
       </c>
-      <c r="D39" s="39">
+      <c r="D39" s="41">
         <v>877.04</v>
       </c>
-      <c r="E39" s="39">
+      <c r="E39" s="41">
         <v>878.15</v>
       </c>
-      <c r="F39" s="39">
+      <c r="F39" s="41">
         <v>875.13</v>
       </c>
-      <c r="G39" s="39">
+      <c r="G39" s="41">
         <v>877.21</v>
       </c>
-      <c r="H39" s="39">
+      <c r="H39" s="41">
         <v>894.2</v>
       </c>
-      <c r="I39" s="39">
+      <c r="I39" s="41">
         <v>919.08</v>
       </c>
-      <c r="J39" s="39">
+      <c r="J39" s="41">
         <v>895.49</v>
       </c>
-      <c r="K39" s="39">
+      <c r="K39" s="41">
         <v>907.3</v>
       </c>
-      <c r="L39" s="39">
+      <c r="L39" s="41">
         <v>901.56</v>
       </c>
-      <c r="M39" s="39">
+      <c r="M39" s="41">
         <v>881.03</v>
       </c>
-      <c r="N39" s="39">
+      <c r="N39" s="41">
         <v>895.13</v>
       </c>
-      <c r="O39" s="39">
+      <c r="O39" s="41">
         <v>875.69</v>
       </c>
-      <c r="P39" s="39">
+      <c r="P39" s="41">
         <v>864.74</v>
       </c>
-      <c r="Q39" s="39">
+      <c r="Q39" s="41">
         <v>885.1</v>
       </c>
-      <c r="R39" s="39">
+      <c r="R39" s="41">
         <v>905.31</v>
       </c>
-      <c r="S39" s="39">
-        <v>878.42</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="40" t="s">
+      <c r="S39" s="41">
+        <v>878.49</v>
+      </c>
+      <c r="T39" s="41">
+        <v>887.05</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A40" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="39">
+      <c r="B40" s="41">
         <v>760.84</v>
       </c>
-      <c r="C40" s="39">
+      <c r="C40" s="41">
         <v>771.68</v>
       </c>
-      <c r="D40" s="39">
+      <c r="D40" s="41">
         <v>777.58</v>
       </c>
-      <c r="E40" s="39">
+      <c r="E40" s="41">
         <v>767.38</v>
       </c>
-      <c r="F40" s="39">
+      <c r="F40" s="41">
         <v>766.57</v>
       </c>
-      <c r="G40" s="39">
+      <c r="G40" s="41">
         <v>767.29</v>
       </c>
-      <c r="H40" s="39">
+      <c r="H40" s="41">
         <v>767.59</v>
       </c>
-      <c r="I40" s="39">
+      <c r="I40" s="41">
         <v>788.88</v>
       </c>
-      <c r="J40" s="39">
+      <c r="J40" s="41">
         <v>780.89</v>
       </c>
-      <c r="K40" s="39">
+      <c r="K40" s="41">
         <v>782.94</v>
       </c>
-      <c r="L40" s="39">
+      <c r="L40" s="41">
         <v>795.11</v>
       </c>
-      <c r="M40" s="39">
+      <c r="M40" s="41">
         <v>788.79</v>
       </c>
-      <c r="N40" s="39">
+      <c r="N40" s="41">
         <v>786.08</v>
       </c>
-      <c r="O40" s="39">
+      <c r="O40" s="41">
         <v>785.4</v>
       </c>
-      <c r="P40" s="39">
+      <c r="P40" s="41">
         <v>787.03</v>
       </c>
-      <c r="Q40" s="39">
+      <c r="Q40" s="41">
         <v>799.6</v>
       </c>
-      <c r="R40" s="39">
+      <c r="R40" s="41">
         <v>805.3</v>
       </c>
-      <c r="S40" s="39">
-        <v>791.73</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="40" t="s">
+      <c r="S40" s="41">
+        <v>794.05</v>
+      </c>
+      <c r="T40" s="41">
+        <v>799.53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A41" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="39">
+      <c r="B41" s="41">
         <v>755.32</v>
       </c>
-      <c r="C41" s="39">
+      <c r="C41" s="41">
         <v>767.55</v>
       </c>
-      <c r="D41" s="39">
+      <c r="D41" s="41">
         <v>768.34</v>
       </c>
-      <c r="E41" s="39">
+      <c r="E41" s="41">
         <v>748.89</v>
       </c>
-      <c r="F41" s="39">
+      <c r="F41" s="41">
         <v>744.88</v>
       </c>
-      <c r="G41" s="39">
+      <c r="G41" s="41">
         <v>752.03</v>
       </c>
-      <c r="H41" s="39">
+      <c r="H41" s="41">
         <v>744.76</v>
       </c>
-      <c r="I41" s="39">
+      <c r="I41" s="41">
         <v>767.71</v>
       </c>
-      <c r="J41" s="39">
+      <c r="J41" s="41">
         <v>748.43</v>
       </c>
-      <c r="K41" s="39">
+      <c r="K41" s="41">
         <v>756.46</v>
       </c>
-      <c r="L41" s="39">
+      <c r="L41" s="41">
         <v>771.5</v>
       </c>
-      <c r="M41" s="39">
+      <c r="M41" s="41">
         <v>758.1</v>
       </c>
-      <c r="N41" s="39">
+      <c r="N41" s="41">
         <v>756.63</v>
       </c>
-      <c r="O41" s="39">
+      <c r="O41" s="41">
         <v>760.03</v>
       </c>
-      <c r="P41" s="39">
+      <c r="P41" s="41">
         <v>754.86</v>
       </c>
-      <c r="Q41" s="39">
+      <c r="Q41" s="41">
         <v>759.93</v>
       </c>
-      <c r="R41" s="39">
+      <c r="R41" s="41">
         <v>771.5</v>
       </c>
-      <c r="S41" s="39">
-        <v>760.82</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="40" t="s">
+      <c r="S41" s="41">
+        <v>763</v>
+      </c>
+      <c r="T41" s="41">
+        <v>780.13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A42" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="B42" s="39">
+      <c r="B42" s="41">
         <v>778.22</v>
       </c>
-      <c r="C42" s="39">
+      <c r="C42" s="41">
         <v>807.56</v>
       </c>
-      <c r="D42" s="39">
+      <c r="D42" s="41">
         <v>804.27</v>
       </c>
-      <c r="E42" s="39">
+      <c r="E42" s="41">
         <v>783.55</v>
       </c>
-      <c r="F42" s="39">
+      <c r="F42" s="41">
         <v>787.23</v>
       </c>
-      <c r="G42" s="39">
+      <c r="G42" s="41">
         <v>791.52</v>
       </c>
-      <c r="H42" s="39">
+      <c r="H42" s="41">
         <v>792.88</v>
       </c>
-      <c r="I42" s="39">
+      <c r="I42" s="41">
         <v>820.05</v>
       </c>
-      <c r="J42" s="39">
+      <c r="J42" s="41">
         <v>796.67</v>
       </c>
-      <c r="K42" s="39">
+      <c r="K42" s="41">
         <v>801.39</v>
       </c>
-      <c r="L42" s="39">
+      <c r="L42" s="41">
         <v>828.35</v>
       </c>
-      <c r="M42" s="39">
+      <c r="M42" s="41">
         <v>808.02</v>
       </c>
-      <c r="N42" s="39">
+      <c r="N42" s="41">
         <v>811.29</v>
       </c>
-      <c r="O42" s="39">
+      <c r="O42" s="41">
         <v>820.6</v>
       </c>
-      <c r="P42" s="39">
+      <c r="P42" s="41">
         <v>811.71</v>
       </c>
-      <c r="Q42" s="39">
+      <c r="Q42" s="41">
         <v>834.62</v>
       </c>
-      <c r="R42" s="39">
+      <c r="R42" s="41">
         <v>855.7</v>
       </c>
-      <c r="S42" s="39">
-        <v>832.12</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="40" t="s">
+      <c r="S42" s="41">
+        <v>833.8</v>
+      </c>
+      <c r="T42" s="41">
+        <v>841.66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A43" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="39">
+      <c r="B43" s="41">
         <v>799.6</v>
       </c>
-      <c r="C43" s="39">
+      <c r="C43" s="41">
         <v>811.83</v>
       </c>
-      <c r="D43" s="39">
+      <c r="D43" s="41">
         <v>818.64</v>
       </c>
-      <c r="E43" s="39">
+      <c r="E43" s="41">
         <v>814.58</v>
       </c>
-      <c r="F43" s="39">
+      <c r="F43" s="41">
         <v>817.36</v>
       </c>
-      <c r="G43" s="39">
+      <c r="G43" s="41">
         <v>818.38</v>
       </c>
-      <c r="H43" s="39">
+      <c r="H43" s="41">
         <v>819.74</v>
       </c>
-      <c r="I43" s="39">
+      <c r="I43" s="41">
         <v>831.78</v>
       </c>
-      <c r="J43" s="39">
+      <c r="J43" s="41">
         <v>823.03</v>
       </c>
-      <c r="K43" s="39">
+      <c r="K43" s="41">
         <v>828.97</v>
       </c>
-      <c r="L43" s="39">
+      <c r="L43" s="41">
         <v>841.72</v>
       </c>
-      <c r="M43" s="39">
+      <c r="M43" s="41">
         <v>833.45</v>
       </c>
-      <c r="N43" s="39">
+      <c r="N43" s="41">
         <v>831.04</v>
       </c>
-      <c r="O43" s="39">
+      <c r="O43" s="41">
         <v>825.55</v>
       </c>
-      <c r="P43" s="39">
+      <c r="P43" s="41">
         <v>822.19</v>
       </c>
-      <c r="Q43" s="39">
+      <c r="Q43" s="41">
         <v>825.31</v>
       </c>
-      <c r="R43" s="39">
+      <c r="R43" s="41">
         <v>830.21</v>
       </c>
-      <c r="S43" s="39">
+      <c r="S43" s="41">
         <v>824.38</v>
       </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" s="40" t="s">
+      <c r="T43" s="41">
+        <v>830.8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A44" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="39">
+      <c r="B44" s="41">
         <v>827.87</v>
       </c>
-      <c r="C44" s="39">
+      <c r="C44" s="41">
         <v>831.68</v>
       </c>
-      <c r="D44" s="39">
+      <c r="D44" s="41">
         <v>838.29</v>
       </c>
-      <c r="E44" s="39">
+      <c r="E44" s="41">
         <v>827.44</v>
       </c>
-      <c r="F44" s="39">
+      <c r="F44" s="41">
         <v>828.16</v>
       </c>
-      <c r="G44" s="39">
+      <c r="G44" s="41">
         <v>810.77</v>
       </c>
-      <c r="H44" s="39">
+      <c r="H44" s="41">
         <v>815.14</v>
       </c>
-      <c r="I44" s="39">
+      <c r="I44" s="41">
         <v>814.39</v>
       </c>
-      <c r="J44" s="39">
+      <c r="J44" s="41">
         <v>821.84</v>
       </c>
-      <c r="K44" s="39">
+      <c r="K44" s="41">
         <v>827.11</v>
       </c>
-      <c r="L44" s="39">
+      <c r="L44" s="41">
         <v>839.42</v>
       </c>
-      <c r="M44" s="39">
+      <c r="M44" s="41">
         <v>825.46</v>
       </c>
-      <c r="N44" s="39">
+      <c r="N44" s="41">
         <v>844.34</v>
       </c>
-      <c r="O44" s="39">
+      <c r="O44" s="41">
         <v>843.7</v>
       </c>
-      <c r="P44" s="39">
+      <c r="P44" s="41">
         <v>833.95</v>
       </c>
-      <c r="Q44" s="39">
+      <c r="Q44" s="41">
         <v>852.16</v>
       </c>
-      <c r="R44" s="39">
+      <c r="R44" s="41">
         <v>857.67</v>
       </c>
-      <c r="S44" s="39">
-        <v>848.02</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="40" t="s">
+      <c r="S44" s="41">
+        <v>848.1</v>
+      </c>
+      <c r="T44" s="41">
+        <v>840.84</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A45" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="39">
+      <c r="B45" s="41">
         <v>744.31</v>
       </c>
-      <c r="C45" s="39">
+      <c r="C45" s="41">
         <v>739.06</v>
       </c>
-      <c r="D45" s="39">
+      <c r="D45" s="41">
         <v>754.73</v>
       </c>
-      <c r="E45" s="39">
+      <c r="E45" s="41">
         <v>734.21</v>
       </c>
-      <c r="F45" s="39">
+      <c r="F45" s="41">
         <v>729.74</v>
       </c>
-      <c r="G45" s="39">
+      <c r="G45" s="41">
         <v>730.45</v>
       </c>
-      <c r="H45" s="39">
+      <c r="H45" s="41">
         <v>737.72</v>
       </c>
-      <c r="I45" s="39">
+      <c r="I45" s="41">
         <v>749.41</v>
       </c>
-      <c r="J45" s="39">
+      <c r="J45" s="41">
         <v>737.45</v>
       </c>
-      <c r="K45" s="39">
+      <c r="K45" s="41">
         <v>744.94</v>
       </c>
-      <c r="L45" s="39">
+      <c r="L45" s="41">
         <v>758.64</v>
       </c>
-      <c r="M45" s="39">
+      <c r="M45" s="41">
         <v>749.78</v>
       </c>
-      <c r="N45" s="39">
+      <c r="N45" s="41">
         <v>752.33</v>
       </c>
-      <c r="O45" s="39">
+      <c r="O45" s="41">
         <v>749.58</v>
       </c>
-      <c r="P45" s="39">
+      <c r="P45" s="41">
         <v>767.08</v>
       </c>
-      <c r="Q45" s="39">
+      <c r="Q45" s="41">
         <v>758.78</v>
       </c>
-      <c r="R45" s="39">
+      <c r="R45" s="41">
         <v>761.08</v>
       </c>
-      <c r="S45" s="39">
-        <v>748.74</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="40" t="s">
+      <c r="S45" s="41">
+        <v>763.62</v>
+      </c>
+      <c r="T45" s="41">
+        <v>754.86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A46" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="39">
+      <c r="B46" s="41">
         <v>701.49</v>
       </c>
-      <c r="C46" s="39">
+      <c r="C46" s="41">
         <v>715.81</v>
       </c>
-      <c r="D46" s="39">
+      <c r="D46" s="41">
         <v>709.92</v>
       </c>
-      <c r="E46" s="39">
+      <c r="E46" s="41">
         <v>704.67</v>
       </c>
-      <c r="F46" s="39">
+      <c r="F46" s="41">
         <v>707.36</v>
       </c>
-      <c r="G46" s="39">
+      <c r="G46" s="41">
         <v>708.62</v>
       </c>
-      <c r="H46" s="39">
+      <c r="H46" s="41">
         <v>709.32</v>
       </c>
-      <c r="I46" s="39">
+      <c r="I46" s="41">
         <v>721.41</v>
       </c>
-      <c r="J46" s="39">
+      <c r="J46" s="41">
         <v>715.36</v>
       </c>
-      <c r="K46" s="39">
+      <c r="K46" s="41">
         <v>727.35</v>
       </c>
-      <c r="L46" s="39">
+      <c r="L46" s="41">
         <v>730.31</v>
       </c>
-      <c r="M46" s="39">
+      <c r="M46" s="41">
         <v>716.57</v>
       </c>
-      <c r="N46" s="39">
+      <c r="N46" s="41">
         <v>717.36</v>
       </c>
-      <c r="O46" s="39">
+      <c r="O46" s="41">
         <v>707.41</v>
       </c>
-      <c r="P46" s="39">
+      <c r="P46" s="41">
         <v>711.98</v>
       </c>
-      <c r="Q46" s="39">
+      <c r="Q46" s="41">
         <v>725.8</v>
       </c>
-      <c r="R46" s="39">
+      <c r="R46" s="41">
         <v>734.16</v>
       </c>
-      <c r="S46" s="39">
-        <v>720.02</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="40" t="s">
+      <c r="S46" s="41">
+        <v>717.6</v>
+      </c>
+      <c r="T46" s="41">
+        <v>724.46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A47" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="39">
+      <c r="B47" s="41">
         <v>718.98</v>
       </c>
-      <c r="C47" s="39">
+      <c r="C47" s="41">
         <v>727.66</v>
       </c>
-      <c r="D47" s="39">
+      <c r="D47" s="41">
         <v>732.16</v>
       </c>
-      <c r="E47" s="39">
+      <c r="E47" s="41">
         <v>724.15</v>
       </c>
-      <c r="F47" s="39">
+      <c r="F47" s="41">
         <v>724.11</v>
       </c>
-      <c r="G47" s="39">
+      <c r="G47" s="41">
         <v>729.65</v>
       </c>
-      <c r="H47" s="39">
+      <c r="H47" s="41">
         <v>734.98</v>
       </c>
-      <c r="I47" s="39">
+      <c r="I47" s="41">
         <v>748.94</v>
       </c>
-      <c r="J47" s="39">
+      <c r="J47" s="41">
         <v>734.65</v>
       </c>
-      <c r="K47" s="39">
+      <c r="K47" s="41">
         <v>742.02</v>
       </c>
-      <c r="L47" s="39">
+      <c r="L47" s="41">
         <v>753.67</v>
       </c>
-      <c r="M47" s="39">
+      <c r="M47" s="41">
         <v>752.58</v>
       </c>
-      <c r="N47" s="39">
+      <c r="N47" s="41">
         <v>755.74</v>
       </c>
-      <c r="O47" s="39">
+      <c r="O47" s="41">
         <v>749.03</v>
       </c>
-      <c r="P47" s="39">
+      <c r="P47" s="41">
         <v>754.01</v>
       </c>
-      <c r="Q47" s="39">
+      <c r="Q47" s="41">
         <v>756.85</v>
       </c>
-      <c r="R47" s="39">
+      <c r="R47" s="41">
         <v>775.79</v>
       </c>
-      <c r="S47" s="39">
-        <v>767.54</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48" s="40" t="s">
+      <c r="S47" s="41">
+        <v>766.47</v>
+      </c>
+      <c r="T47" s="41">
+        <v>773.19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A48" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="39">
+      <c r="B48" s="41">
         <v>883.01</v>
       </c>
-      <c r="C48" s="39">
+      <c r="C48" s="41">
         <v>907.49</v>
       </c>
-      <c r="D48" s="39">
+      <c r="D48" s="41">
         <v>896.44</v>
       </c>
-      <c r="E48" s="39">
+      <c r="E48" s="41">
         <v>878.04</v>
       </c>
-      <c r="F48" s="39">
+      <c r="F48" s="41">
         <v>874.52</v>
       </c>
-      <c r="G48" s="39">
+      <c r="G48" s="41">
         <v>877.49</v>
       </c>
-      <c r="H48" s="39">
+      <c r="H48" s="41">
         <v>876.4</v>
       </c>
-      <c r="I48" s="39">
+      <c r="I48" s="41">
         <v>899.99</v>
       </c>
-      <c r="J48" s="39">
+      <c r="J48" s="41">
         <v>865.18</v>
       </c>
-      <c r="K48" s="39">
+      <c r="K48" s="41">
         <v>876.79</v>
       </c>
-      <c r="L48" s="39">
+      <c r="L48" s="41">
         <v>898.35</v>
       </c>
-      <c r="M48" s="39">
+      <c r="M48" s="41">
         <v>876.68</v>
       </c>
-      <c r="N48" s="39">
+      <c r="N48" s="41">
         <v>877.15</v>
       </c>
-      <c r="O48" s="39">
+      <c r="O48" s="41">
         <v>871.79</v>
       </c>
-      <c r="P48" s="39">
+      <c r="P48" s="41">
         <v>862.75</v>
       </c>
-      <c r="Q48" s="39">
+      <c r="Q48" s="41">
         <v>867.27</v>
       </c>
-      <c r="R48" s="39">
+      <c r="R48" s="41">
         <v>892.69</v>
       </c>
-      <c r="S48" s="39">
-        <v>872.09</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A49" s="40" t="s">
+      <c r="S48" s="41">
+        <v>870.3</v>
+      </c>
+      <c r="T48" s="41">
+        <v>871.37</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A49" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="39">
+      <c r="B49" s="41">
         <v>825.6</v>
       </c>
-      <c r="C49" s="39">
+      <c r="C49" s="41">
         <v>850.02</v>
       </c>
-      <c r="D49" s="39">
+      <c r="D49" s="41">
         <v>846.96</v>
       </c>
-      <c r="E49" s="39">
+      <c r="E49" s="41">
         <v>825.59</v>
       </c>
-      <c r="F49" s="39">
+      <c r="F49" s="41">
         <v>829.33</v>
       </c>
-      <c r="G49" s="39">
+      <c r="G49" s="41">
         <v>830.97</v>
       </c>
-      <c r="H49" s="39">
+      <c r="H49" s="41">
         <v>836.59</v>
       </c>
-      <c r="I49" s="39">
+      <c r="I49" s="41">
         <v>858.45</v>
       </c>
-      <c r="J49" s="39">
+      <c r="J49" s="41">
         <v>837.98</v>
       </c>
-      <c r="K49" s="39">
+      <c r="K49" s="41">
         <v>841.46</v>
       </c>
-      <c r="L49" s="39">
+      <c r="L49" s="41">
         <v>870.06</v>
       </c>
-      <c r="M49" s="39">
+      <c r="M49" s="41">
         <v>829.72</v>
       </c>
-      <c r="N49" s="39">
+      <c r="N49" s="41">
         <v>831.3</v>
       </c>
-      <c r="O49" s="39">
+      <c r="O49" s="41">
         <v>829.01</v>
       </c>
-      <c r="P49" s="39">
+      <c r="P49" s="41">
         <v>826.63</v>
       </c>
-      <c r="Q49" s="39">
+      <c r="Q49" s="41">
         <v>840.39</v>
       </c>
-      <c r="R49" s="39">
+      <c r="R49" s="41">
         <v>860.97</v>
       </c>
-      <c r="S49" s="39">
-        <v>841.82</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A50" s="40" t="s">
+      <c r="S49" s="41">
+        <v>841.12</v>
+      </c>
+      <c r="T49" s="41">
+        <v>843.56</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A50" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="B50" s="39">
+      <c r="B50" s="41">
         <v>775.45</v>
       </c>
-      <c r="C50" s="39">
+      <c r="C50" s="41">
         <v>781.11</v>
       </c>
-      <c r="D50" s="39">
+      <c r="D50" s="41">
         <v>788.04</v>
       </c>
-      <c r="E50" s="39">
+      <c r="E50" s="41">
         <v>801.45</v>
       </c>
-      <c r="F50" s="39">
+      <c r="F50" s="41">
         <v>808.36</v>
       </c>
-      <c r="G50" s="39">
+      <c r="G50" s="41">
         <v>805.06</v>
       </c>
-      <c r="H50" s="39">
+      <c r="H50" s="41">
         <v>808.83</v>
       </c>
-      <c r="I50" s="39">
+      <c r="I50" s="41">
         <v>810.86</v>
       </c>
-      <c r="J50" s="39">
+      <c r="J50" s="41">
         <v>808.02</v>
       </c>
-      <c r="K50" s="39">
+      <c r="K50" s="41">
         <v>810.43</v>
       </c>
-      <c r="L50" s="39">
+      <c r="L50" s="41">
         <v>817.85</v>
       </c>
-      <c r="M50" s="39">
+      <c r="M50" s="41">
         <v>814.11</v>
       </c>
-      <c r="N50" s="39">
+      <c r="N50" s="41">
         <v>806.85</v>
       </c>
-      <c r="O50" s="39">
+      <c r="O50" s="41">
         <v>797.17</v>
       </c>
-      <c r="P50" s="39">
+      <c r="P50" s="41">
         <v>794.21</v>
       </c>
-      <c r="Q50" s="39">
+      <c r="Q50" s="41">
         <v>809.52</v>
       </c>
-      <c r="R50" s="39">
+      <c r="R50" s="41">
         <v>817.56</v>
       </c>
-      <c r="S50" s="39">
-        <v>806.74</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A51" s="40" t="s">
+      <c r="S50" s="41">
+        <v>806.44</v>
+      </c>
+      <c r="T50" s="41">
+        <v>807.16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A51" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="B51" s="39">
+      <c r="B51" s="41">
         <v>889.76</v>
       </c>
-      <c r="C51" s="39">
+      <c r="C51" s="41">
         <v>923.13</v>
       </c>
-      <c r="D51" s="39">
+      <c r="D51" s="41">
         <v>925.92</v>
       </c>
-      <c r="E51" s="39">
+      <c r="E51" s="41">
         <v>919.21</v>
       </c>
-      <c r="F51" s="39">
+      <c r="F51" s="41">
         <v>915.68</v>
       </c>
-      <c r="G51" s="39">
+      <c r="G51" s="41">
         <v>905.23</v>
       </c>
-      <c r="H51" s="39">
+      <c r="H51" s="41">
         <v>905.93</v>
       </c>
-      <c r="I51" s="39">
+      <c r="I51" s="41">
         <v>937.7</v>
       </c>
-      <c r="J51" s="39">
+      <c r="J51" s="41">
         <v>919.1</v>
       </c>
-      <c r="K51" s="39">
+      <c r="K51" s="41">
         <v>919.96</v>
       </c>
-      <c r="L51" s="39">
+      <c r="L51" s="41">
         <v>939.87</v>
       </c>
-      <c r="M51" s="39">
+      <c r="M51" s="41">
         <v>919.45</v>
       </c>
-      <c r="N51" s="39">
+      <c r="N51" s="41">
         <v>924.76</v>
       </c>
-      <c r="O51" s="39">
+      <c r="O51" s="41">
         <v>924.06</v>
       </c>
-      <c r="P51" s="39">
+      <c r="P51" s="41">
         <v>929.51</v>
       </c>
-      <c r="Q51" s="39">
+      <c r="Q51" s="41">
         <v>938.46</v>
       </c>
-      <c r="R51" s="39">
+      <c r="R51" s="41">
         <v>954.72</v>
       </c>
-      <c r="S51" s="39">
-        <v>931.83</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A52" s="40" t="s">
+      <c r="S51" s="41">
+        <v>933.92</v>
+      </c>
+      <c r="T51" s="41">
+        <v>938.9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A52" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="B52" s="39">
+      <c r="B52" s="41">
         <v>990.86</v>
       </c>
-      <c r="C52" s="39">
+      <c r="C52" s="41">
         <v>1024.69</v>
       </c>
-      <c r="D52" s="39">
+      <c r="D52" s="41">
         <v>1024.3399999999999</v>
       </c>
-      <c r="E52" s="39">
+      <c r="E52" s="41">
         <v>995.98</v>
       </c>
-      <c r="F52" s="39">
+      <c r="F52" s="41">
         <v>998.92</v>
       </c>
-      <c r="G52" s="39">
+      <c r="G52" s="41">
         <v>997.27</v>
       </c>
-      <c r="H52" s="39">
+      <c r="H52" s="41">
         <v>998.82</v>
       </c>
-      <c r="I52" s="39">
+      <c r="I52" s="41">
         <v>1039.23</v>
       </c>
-      <c r="J52" s="39">
+      <c r="J52" s="41">
         <v>1021.8</v>
       </c>
-      <c r="K52" s="39">
+      <c r="K52" s="41">
         <v>1029</v>
       </c>
-      <c r="L52" s="39">
+      <c r="L52" s="41">
         <v>1066.3399999999999</v>
       </c>
-      <c r="M52" s="39">
+      <c r="M52" s="41">
         <v>1026.1500000000001</v>
       </c>
-      <c r="N52" s="39">
+      <c r="N52" s="41">
         <v>1032.58</v>
       </c>
-      <c r="O52" s="39">
+      <c r="O52" s="41">
         <v>1036.5999999999999</v>
       </c>
-      <c r="P52" s="39">
+      <c r="P52" s="41">
         <v>1032.8900000000001</v>
       </c>
-      <c r="Q52" s="39">
+      <c r="Q52" s="41">
         <v>1040.26</v>
       </c>
-      <c r="R52" s="39">
+      <c r="R52" s="41">
         <v>1068.67</v>
       </c>
-      <c r="S52" s="39">
-        <v>1034.31</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A53" s="40" t="s">
+      <c r="S52" s="41">
+        <v>1033.97</v>
+      </c>
+      <c r="T52" s="41">
+        <v>1036.96</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A53" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="B53" s="39">
+      <c r="B53" s="41">
         <v>714.81</v>
       </c>
-      <c r="C53" s="39">
+      <c r="C53" s="41">
         <v>711.7</v>
       </c>
-      <c r="D53" s="39">
+      <c r="D53" s="41">
         <v>715.19</v>
       </c>
-      <c r="E53" s="39">
+      <c r="E53" s="41">
         <v>712.41</v>
       </c>
-      <c r="F53" s="39">
+      <c r="F53" s="41">
         <v>718.24</v>
       </c>
-      <c r="G53" s="39">
+      <c r="G53" s="41">
         <v>714.44</v>
       </c>
-      <c r="H53" s="39">
+      <c r="H53" s="41">
         <v>720.34</v>
       </c>
-      <c r="I53" s="39">
+      <c r="I53" s="41">
         <v>729.03</v>
       </c>
-      <c r="J53" s="39">
+      <c r="J53" s="41">
         <v>720.37</v>
       </c>
-      <c r="K53" s="39">
+      <c r="K53" s="41">
         <v>725.22</v>
       </c>
-      <c r="L53" s="39">
+      <c r="L53" s="41">
         <v>731.5</v>
       </c>
-      <c r="M53" s="39">
+      <c r="M53" s="41">
         <v>718.99</v>
       </c>
-      <c r="N53" s="39">
+      <c r="N53" s="41">
         <v>720.94</v>
       </c>
-      <c r="O53" s="39">
+      <c r="O53" s="41">
         <v>724.07</v>
       </c>
-      <c r="P53" s="39">
+      <c r="P53" s="41">
         <v>727.67</v>
       </c>
-      <c r="Q53" s="39">
+      <c r="Q53" s="41">
         <v>731.84</v>
       </c>
-      <c r="R53" s="39">
+      <c r="R53" s="41">
         <v>721.38</v>
       </c>
-      <c r="S53" s="39">
-        <v>726.88</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A54" s="40" t="s">
+      <c r="S53" s="41">
+        <v>724.06</v>
+      </c>
+      <c r="T53" s="41">
+        <v>731.81</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A54" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="B54" s="39">
+      <c r="B54" s="41">
         <v>787.24</v>
       </c>
-      <c r="C54" s="39">
+      <c r="C54" s="41">
         <v>795.32</v>
       </c>
-      <c r="D54" s="39">
+      <c r="D54" s="41">
         <v>795.65</v>
       </c>
-      <c r="E54" s="39">
+      <c r="E54" s="41">
         <v>785.57</v>
       </c>
-      <c r="F54" s="39">
+      <c r="F54" s="41">
         <v>786.24</v>
       </c>
-      <c r="G54" s="39">
+      <c r="G54" s="41">
         <v>778.13</v>
       </c>
-      <c r="H54" s="39">
+      <c r="H54" s="41">
         <v>781.12</v>
       </c>
-      <c r="I54" s="39">
+      <c r="I54" s="41">
         <v>792.83</v>
       </c>
-      <c r="J54" s="39">
+      <c r="J54" s="41">
         <v>785.57</v>
       </c>
-      <c r="K54" s="39">
+      <c r="K54" s="41">
         <v>795.66</v>
       </c>
-      <c r="L54" s="39">
+      <c r="L54" s="41">
         <v>805.46</v>
       </c>
-      <c r="M54" s="39">
+      <c r="M54" s="41">
         <v>800.35</v>
       </c>
-      <c r="N54" s="39">
+      <c r="N54" s="41">
         <v>793.74</v>
       </c>
-      <c r="O54" s="39">
+      <c r="O54" s="41">
         <v>794.14</v>
       </c>
-      <c r="P54" s="39">
+      <c r="P54" s="41">
         <v>794.87</v>
       </c>
-      <c r="Q54" s="39">
+      <c r="Q54" s="41">
         <v>801.6</v>
       </c>
-      <c r="R54" s="39">
+      <c r="R54" s="41">
         <v>812.17</v>
       </c>
-      <c r="S54" s="39">
-        <v>802.4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A55" s="40" t="s">
+      <c r="S54" s="41">
+        <v>798.67</v>
+      </c>
+      <c r="T54" s="41">
+        <v>810.1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A55" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="B55" s="39">
+      <c r="B55" s="41">
         <v>811.19</v>
       </c>
-      <c r="C55" s="39">
+      <c r="C55" s="41">
         <v>835.75</v>
       </c>
-      <c r="D55" s="39">
+      <c r="D55" s="41">
         <v>826.24</v>
       </c>
-      <c r="E55" s="39">
+      <c r="E55" s="41">
         <v>814.45</v>
       </c>
-      <c r="F55" s="39">
+      <c r="F55" s="41">
         <v>815.08</v>
       </c>
-      <c r="G55" s="39">
+      <c r="G55" s="41">
         <v>810.87</v>
       </c>
-      <c r="H55" s="39">
+      <c r="H55" s="41">
         <v>809.9</v>
       </c>
-      <c r="I55" s="39">
+      <c r="I55" s="41">
         <v>837.93</v>
       </c>
-      <c r="J55" s="39">
+      <c r="J55" s="41">
         <v>804.8</v>
       </c>
-      <c r="K55" s="39">
+      <c r="K55" s="41">
         <v>806.96</v>
       </c>
-      <c r="L55" s="39">
+      <c r="L55" s="41">
         <v>816.76</v>
       </c>
-      <c r="M55" s="39">
+      <c r="M55" s="41">
         <v>778.22</v>
       </c>
-      <c r="N55" s="39">
+      <c r="N55" s="41">
         <v>773.85</v>
       </c>
-      <c r="O55" s="39">
+      <c r="O55" s="41">
         <v>776.22</v>
       </c>
-      <c r="P55" s="39">
+      <c r="P55" s="41">
         <v>778.55</v>
       </c>
-      <c r="Q55" s="39">
+      <c r="Q55" s="41">
         <v>755.96</v>
       </c>
-      <c r="R55" s="39">
+      <c r="R55" s="41">
         <v>775.55</v>
       </c>
-      <c r="S55" s="39">
-        <v>753.69</v>
+      <c r="S55" s="41">
+        <v>750.09</v>
+      </c>
+      <c r="T55" s="41">
+        <v>760.57</v>
       </c>
     </row>
   </sheetData>
@@ -10315,7 +10448,7 @@
   <pageSetup orientation="landscape"/>
   <headerFooter>
     <oddHeader>&amp;CBureau of Labor Statistics</oddHeader>
-    <oddFooter>&amp;LSource: Bureau of Labor Statistics&amp;RGenerated on: July 22, 2016 (10:59:39 AM)</oddFooter>
+    <oddFooter>&amp;LSource: Bureau of Labor Statistics&amp;RGenerated on: August 19, 2016 (10:47:20 AM)</oddFooter>
   </headerFooter>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -10325,8 +10458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10345,11 +10478,11 @@
       </c>
       <c r="C1" s="24">
         <f>+Earnings_Comparison!E58</f>
-        <v>880.98</v>
+        <v>886.31</v>
       </c>
       <c r="D1" s="23">
         <f>+Earnings_Comparison!H58</f>
-        <v>1.287641478753776</v>
+        <v>1.4929705564658002</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.25">
@@ -10384,171 +10517,171 @@
       </c>
       <c r="C4" s="26">
         <f>+Earnings_Comparison!E12</f>
-        <v>797.97</v>
+        <v>802.41</v>
       </c>
       <c r="D4" s="25">
         <f>+Earnings_Comparison!H12</f>
-        <v>8.375469989165051</v>
+        <v>7.7089601657369444</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
-        <f>+Earnings_Comparison!B20</f>
-        <v>IA</v>
+        <f>+Earnings_Comparison!B42</f>
+        <v>OR</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="C5" s="26">
-        <f>+Earnings_Comparison!E20</f>
-        <v>833.18</v>
+        <f>+Earnings_Comparison!E42</f>
+        <v>841.66</v>
       </c>
       <c r="D5" s="25">
-        <f>+Earnings_Comparison!H20</f>
-        <v>6.2940157536504282</v>
+        <f>+Earnings_Comparison!H42</f>
+        <v>5.2731190561502661</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
+        <f>+Earnings_Comparison!B5</f>
+        <v>AL</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" s="26">
+        <f>+Earnings_Comparison!E5</f>
+        <v>781</v>
+      </c>
+      <c r="D6" s="25">
+        <f>+Earnings_Comparison!H5</f>
+        <v>4.9430096604955009</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
         <f>+Earnings_Comparison!B38</f>
         <v>NC</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B7" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C7" s="26">
         <f>+Earnings_Comparison!E38</f>
-        <v>803.85</v>
-      </c>
-      <c r="D6" s="25">
+        <v>804.2</v>
+      </c>
+      <c r="D7" s="25">
         <f>+Earnings_Comparison!H38</f>
-        <v>4.7110832054710672</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" t="str">
-        <f>+Earnings_Comparison!B5</f>
-        <v>AL</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="C7" s="26">
-        <f>+Earnings_Comparison!E5</f>
-        <v>776.83</v>
-      </c>
-      <c r="D7" s="25">
-        <f>+Earnings_Comparison!H5</f>
-        <v>4.5079836412051044</v>
+        <v>4.4597498469544972</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
+        <f>+Earnings_Comparison!B11</f>
+        <v>CT</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="26">
+        <f>+Earnings_Comparison!E11</f>
+        <v>1013.04</v>
+      </c>
+      <c r="D8" s="25">
+        <f>+Earnings_Comparison!H11</f>
+        <v>4.4421744633585059</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="str">
         <f>+Earnings_Comparison!B47</f>
         <v>TN</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B9" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C9" s="26">
         <f>+Earnings_Comparison!E47</f>
-        <v>767.54</v>
-      </c>
-      <c r="D8" s="25">
+        <v>773.19</v>
+      </c>
+      <c r="D9" s="25">
         <f>+Earnings_Comparison!H47</f>
-        <v>4.145501699462173</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" t="str">
-        <f>+Earnings_Comparison!B42</f>
-        <v>OR</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="C9" s="26">
-        <f>+Earnings_Comparison!E42</f>
-        <v>832.12</v>
-      </c>
-      <c r="D9" s="25">
-        <f>+Earnings_Comparison!H42</f>
-        <v>4.0826048876913434</v>
+        <v>4.3275414257931022</v>
       </c>
       <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
-        <f>+Earnings_Comparison!B11</f>
-        <v>CT</v>
+        <f>+Earnings_Comparison!B41</f>
+        <v>OK</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="C10" s="26">
-        <f>+Earnings_Comparison!E11</f>
-        <v>1005.65</v>
+        <f>+Earnings_Comparison!E41</f>
+        <v>780.13</v>
       </c>
       <c r="D10" s="25">
-        <f>+Earnings_Comparison!H11</f>
-        <v>3.9959897908320441</v>
+        <f>+Earnings_Comparison!H41</f>
+        <v>3.8816649659307645</v>
       </c>
       <c r="K10" s="20"/>
       <c r="M10" s="20"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
-        <f>+Earnings_Comparison!B44</f>
-        <v>RI</v>
+        <f>+Earnings_Comparison!B8</f>
+        <v>AR</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>154</v>
+        <v>118</v>
       </c>
       <c r="C11" s="26">
-        <f>+Earnings_Comparison!E44</f>
-        <v>848.02</v>
+        <f>+Earnings_Comparison!E8</f>
+        <v>696.9</v>
       </c>
       <c r="D11" s="25">
-        <f>+Earnings_Comparison!H44</f>
-        <v>3.5529581657767428</v>
+        <f>+Earnings_Comparison!H8</f>
+        <v>3.5615538181180906</v>
       </c>
       <c r="K11" s="20"/>
       <c r="M11" s="20"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
-        <f>+Earnings_Comparison!B32</f>
-        <v>NE</v>
+        <f>+Earnings_Comparison!B28</f>
+        <v>MN</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C12" s="26">
-        <f>+Earnings_Comparison!E32</f>
-        <v>780.1</v>
+        <f>+Earnings_Comparison!E28</f>
+        <v>919.68</v>
       </c>
       <c r="D12" s="25">
-        <f>+Earnings_Comparison!H32</f>
-        <v>3.0683793779614943</v>
+        <f>+Earnings_Comparison!H28</f>
+        <v>3.3663535517871823</v>
       </c>
       <c r="K12" s="20"/>
       <c r="M12" s="20"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
-        <f>+Earnings_Comparison!B28</f>
-        <v>MN</v>
+        <f>+Earnings_Comparison!B40</f>
+        <v>OH</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="C13" s="26">
-        <f>+Earnings_Comparison!E28</f>
-        <v>911.09</v>
+        <f>+Earnings_Comparison!E40</f>
+        <v>799.53</v>
       </c>
       <c r="D13" s="25">
-        <f>+Earnings_Comparison!H28</f>
-        <v>2.8867396232888254</v>
+        <f>+Earnings_Comparison!H40</f>
+        <v>3.2984301906322067</v>
       </c>
       <c r="K13" s="20"/>
       <c r="L13" s="20"/>
@@ -10564,15 +10697,15 @@
       </c>
       <c r="C14" s="26">
         <f>+Earnings_Comparison!E52</f>
-        <v>1034.31</v>
+        <v>1036.96</v>
       </c>
       <c r="D14" s="25">
         <f>+Earnings_Comparison!H52</f>
-        <v>2.6814645248049329</v>
+        <v>2.9586975611437305</v>
       </c>
       <c r="F14" s="26">
         <f>C$1-C14</f>
-        <v>-153.32999999999993</v>
+        <v>-150.65000000000009</v>
       </c>
       <c r="K14" s="20"/>
       <c r="L14" s="20"/>
@@ -10580,528 +10713,528 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
-        <f>+Earnings_Comparison!B8</f>
-        <v>AR</v>
+        <f>+Earnings_Comparison!B20</f>
+        <v>IA</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="C15" s="26">
-        <f>+Earnings_Comparison!E8</f>
-        <v>685.31</v>
+        <f>+Earnings_Comparison!E20</f>
+        <v>810.49</v>
       </c>
       <c r="D15" s="25">
-        <f>+Earnings_Comparison!H8</f>
-        <v>2.5446099928998711</v>
+        <f>+Earnings_Comparison!H20</f>
+        <v>2.9547016602347043</v>
       </c>
       <c r="F15" s="26">
         <f t="shared" ref="F15:F21" si="0">C$1-C15</f>
-        <v>195.67000000000007</v>
+        <v>75.819999999999936</v>
       </c>
       <c r="K15" s="20"/>
       <c r="L15" s="20"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
-        <f>+Earnings_Comparison!B40</f>
-        <v>OH</v>
+        <f>+Earnings_Comparison!B54</f>
+        <v>WI</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="C16" s="26">
-        <f>+Earnings_Comparison!E40</f>
-        <v>791.73</v>
+        <f>+Earnings_Comparison!E54</f>
+        <v>810.1</v>
       </c>
       <c r="D16" s="25">
-        <f>+Earnings_Comparison!H40</f>
-        <v>2.1578275309493078</v>
+        <f>+Earnings_Comparison!H54</f>
+        <v>2.8511472308094588</v>
       </c>
       <c r="F16" s="26">
         <f t="shared" si="0"/>
-        <v>89.25</v>
+        <v>76.209999999999923</v>
       </c>
       <c r="L16" s="20"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
-        <f>+Earnings_Comparison!B54</f>
-        <v>WI</v>
+        <f>+Earnings_Comparison!B51</f>
+        <v>VA</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C17" s="26">
-        <f>+Earnings_Comparison!E54</f>
-        <v>802.4</v>
+        <f>+Earnings_Comparison!E51</f>
+        <v>938.9</v>
       </c>
       <c r="D17" s="25">
-        <f>+Earnings_Comparison!H54</f>
-        <v>2.0922666331365747</v>
+        <f>+Earnings_Comparison!H51</f>
+        <v>2.7810294648366263</v>
       </c>
       <c r="F17" s="26">
         <f t="shared" si="0"/>
-        <v>78.580000000000041</v>
+        <v>-52.590000000000032</v>
       </c>
       <c r="L17" s="20"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
+        <f>+Earnings_Comparison!B32</f>
+        <v>NE</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="C18" s="26">
+        <f>+Earnings_Comparison!E32</f>
+        <v>778.01</v>
+      </c>
+      <c r="D18" s="25">
+        <f>+Earnings_Comparison!H32</f>
+        <v>2.574667043539236</v>
+      </c>
+      <c r="F18" s="26">
+        <f t="shared" si="0"/>
+        <v>108.29999999999995</v>
+      </c>
+      <c r="L18" s="20"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="str">
+        <f>+Earnings_Comparison!B26</f>
+        <v>MA</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" s="26">
+        <f>+Earnings_Comparison!E26</f>
+        <v>1038.6300000000001</v>
+      </c>
+      <c r="D19" s="25">
+        <f>+Earnings_Comparison!H26</f>
+        <v>2.5618074586351014</v>
+      </c>
+      <c r="F19" s="26">
+        <f t="shared" si="0"/>
+        <v>-152.32000000000016</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="str">
+        <f>+Earnings_Comparison!B44</f>
+        <v>RI</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="C20" s="26">
+        <f>+Earnings_Comparison!E44</f>
+        <v>840.84</v>
+      </c>
+      <c r="D20" s="25">
+        <f>+Earnings_Comparison!H44</f>
+        <v>2.2985373655290076</v>
+      </c>
+      <c r="F20" s="26">
+        <f t="shared" si="0"/>
+        <v>45.469999999999914</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="str">
+        <f>+Earnings_Comparison!B31</f>
+        <v>MT</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="C21" s="26">
+        <f>+Earnings_Comparison!E31</f>
+        <v>738.13</v>
+      </c>
+      <c r="D21" s="25">
+        <f>+Earnings_Comparison!H31</f>
+        <v>2.1571013298131048</v>
+      </c>
+      <c r="F21" s="26">
+        <f t="shared" si="0"/>
+        <v>148.17999999999995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="str">
+        <f>+Earnings_Comparison!B13</f>
+        <v>DC</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="C22" s="26">
+        <f>+Earnings_Comparison!E13</f>
+        <v>1357.18</v>
+      </c>
+      <c r="D22" s="25">
+        <f>+Earnings_Comparison!H13</f>
+        <v>2.139256468186046</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="str">
+        <f>+Earnings_Comparison!B29</f>
+        <v>MS</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="C23" s="26">
+        <f>+Earnings_Comparison!E29</f>
+        <v>701.84</v>
+      </c>
+      <c r="D23" s="25">
+        <f>+Earnings_Comparison!H29</f>
+        <v>2.1301922598313094</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="str">
+        <f>+Earnings_Comparison!B16</f>
+        <v>HI</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="C24" s="26">
+        <f>+Earnings_Comparison!E16</f>
+        <v>838.29</v>
+      </c>
+      <c r="D24" s="25">
+        <f>+Earnings_Comparison!H16</f>
+        <v>2.1072988091106248</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="str">
+        <f>+Earnings_Comparison!B19</f>
+        <v>IN</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="C25" s="26">
+        <f>+Earnings_Comparison!E19</f>
+        <v>813.72</v>
+      </c>
+      <c r="D25" s="25">
+        <f>+Earnings_Comparison!H19</f>
+        <v>1.9301378031771899</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="str">
+        <f>+Earnings_Comparison!B15</f>
+        <v>GA</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="C26" s="26">
+        <f>+Earnings_Comparison!E15</f>
+        <v>847.38</v>
+      </c>
+      <c r="D26" s="25">
+        <f>+Earnings_Comparison!H15</f>
+        <v>1.663678669073354</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="str">
+        <f>+Earnings_Comparison!B34</f>
+        <v>NH</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C27" s="26">
+        <f>+Earnings_Comparison!E34</f>
+        <v>851.36</v>
+      </c>
+      <c r="D27" s="25">
+        <f>+Earnings_Comparison!H34</f>
+        <v>1.6150359882064258</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="str">
+        <f>+Earnings_Comparison!B9</f>
+        <v>CA</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="C28" s="26">
+        <f>+Earnings_Comparison!E9</f>
+        <v>986.94</v>
+      </c>
+      <c r="D28" s="25">
+        <f>+Earnings_Comparison!H9</f>
+        <v>1.5749769743676145</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="str">
+        <f>+Earnings_Comparison!B7</f>
+        <v>AZ</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="C29" s="26">
+        <f>+Earnings_Comparison!E7</f>
+        <v>815.62</v>
+      </c>
+      <c r="D29" s="25">
+        <f>+Earnings_Comparison!H7</f>
+        <v>1.5537126004548485</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="str">
+        <f>+Earnings_Comparison!B45</f>
+        <v>SC</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="C30" s="26">
+        <f>+Earnings_Comparison!E45</f>
+        <v>754.86</v>
+      </c>
+      <c r="D30" s="25">
+        <f>+Earnings_Comparison!H45</f>
+        <v>1.4759488833522072</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="str">
+        <f>+Earnings_Comparison!B46</f>
+        <v>SD</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="C31" s="26">
+        <f>+Earnings_Comparison!E46</f>
+        <v>724.46</v>
+      </c>
+      <c r="D31" s="25">
+        <f>+Earnings_Comparison!H46</f>
+        <v>1.288577517132139</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" t="str">
+        <f>+Earnings_Comparison!B18</f>
+        <v>IL</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C32" s="26">
+        <f>+Earnings_Comparison!E18</f>
+        <v>897.85</v>
+      </c>
+      <c r="D32" s="25">
+        <f>+Earnings_Comparison!H18</f>
+        <v>1.0697226723619613</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" t="str">
+        <f>+Earnings_Comparison!B53</f>
+        <v>WV</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="C33" s="26">
+        <f>+Earnings_Comparison!E53</f>
+        <v>731.81</v>
+      </c>
+      <c r="D33" s="25">
+        <f>+Earnings_Comparison!H53</f>
+        <v>0.75093240955785845</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" t="str">
         <f>+Earnings_Comparison!B14</f>
         <v>FL</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B34" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="C18" s="26">
+      <c r="C34" s="26">
         <f>+Earnings_Comparison!E14</f>
-        <v>787.84</v>
-      </c>
-      <c r="D18" s="25">
+        <v>783.36</v>
+      </c>
+      <c r="D34" s="25">
         <f>+Earnings_Comparison!H14</f>
-        <v>2.0696075982407525</v>
-      </c>
-      <c r="F18" s="26">
-        <f t="shared" si="0"/>
-        <v>93.139999999999986</v>
-      </c>
-      <c r="L18" s="20"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" t="str">
-        <f>+Earnings_Comparison!B51</f>
-        <v>VA</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="C19" s="26">
-        <f>+Earnings_Comparison!E51</f>
-        <v>931.83</v>
-      </c>
-      <c r="D19" s="25">
-        <f>+Earnings_Comparison!H51</f>
-        <v>1.9135278430338909</v>
-      </c>
-      <c r="F19" s="26">
-        <f t="shared" si="0"/>
-        <v>-50.850000000000023</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" t="str">
-        <f>+Earnings_Comparison!B29</f>
-        <v>MS</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="C20" s="26">
-        <f>+Earnings_Comparison!E29</f>
-        <v>696.84</v>
-      </c>
-      <c r="D20" s="25">
-        <f>+Earnings_Comparison!H29</f>
-        <v>1.6969012725793986</v>
-      </c>
-      <c r="F20" s="26">
-        <f t="shared" si="0"/>
-        <v>184.14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" t="str">
-        <f>+Earnings_Comparison!B26</f>
-        <v>MA</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="C21" s="26">
-        <f>+Earnings_Comparison!E26</f>
-        <v>1030.1300000000001</v>
-      </c>
-      <c r="D21" s="25">
-        <f>+Earnings_Comparison!H26</f>
-        <v>1.6832731393184641</v>
-      </c>
-      <c r="F21" s="26">
-        <f t="shared" si="0"/>
-        <v>-149.15000000000009</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" t="str">
-        <f>+Earnings_Comparison!B15</f>
-        <v>GA</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="C22" s="26">
-        <f>+Earnings_Comparison!E15</f>
-        <v>843.18</v>
-      </c>
-      <c r="D22" s="25">
-        <f>+Earnings_Comparison!H15</f>
-        <v>1.680228808161055</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" t="str">
-        <f>+Earnings_Comparison!B7</f>
-        <v>AZ</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="C23" s="26">
-        <f>+Earnings_Comparison!E7</f>
-        <v>819.41</v>
-      </c>
-      <c r="D23" s="25">
-        <f>+Earnings_Comparison!H7</f>
-        <v>1.5765390612777708</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" t="str">
-        <f>+Earnings_Comparison!B31</f>
-        <v>MT</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="C24" s="26">
-        <f>+Earnings_Comparison!E31</f>
-        <v>731.28</v>
-      </c>
-      <c r="D24" s="25">
-        <f>+Earnings_Comparison!H31</f>
-        <v>1.5155416731272853</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" t="str">
-        <f>+Earnings_Comparison!B45</f>
-        <v>SC</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="C25" s="26">
-        <f>+Earnings_Comparison!E45</f>
-        <v>748.74</v>
-      </c>
-      <c r="D25" s="25">
-        <f>+Earnings_Comparison!H45</f>
-        <v>1.4833107744046892</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" t="str">
+        <v>0.73421476075274938</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" t="str">
+        <f>+Earnings_Comparison!B35</f>
+        <v>NJ</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="C35" s="26">
+        <f>+Earnings_Comparison!E35</f>
+        <v>944.52</v>
+      </c>
+      <c r="D35" s="25">
+        <f>+Earnings_Comparison!H35</f>
+        <v>0.65956373461550921</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" t="str">
+        <f>+Earnings_Comparison!B37</f>
+        <v>NY</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="C36" s="26">
+        <f>+Earnings_Comparison!E37</f>
+        <v>974.6</v>
+      </c>
+      <c r="D36" s="25">
+        <f>+Earnings_Comparison!H37</f>
+        <v>0.51148787298884724</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" t="str">
+        <f>+Earnings_Comparison!B43</f>
+        <v>PA</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="C37" s="26">
+        <f>+Earnings_Comparison!E43</f>
+        <v>830.8</v>
+      </c>
+      <c r="D37" s="25">
+        <f>+Earnings_Comparison!H43</f>
+        <v>0.50985033755082121</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" t="str">
         <f>+Earnings_Comparison!B33</f>
         <v>NV</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B38" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="C26" s="26">
+      <c r="C38" s="26">
         <f>+Earnings_Comparison!E33</f>
-        <v>748.34</v>
-      </c>
-      <c r="D26" s="25">
+        <v>746.59</v>
+      </c>
+      <c r="D38" s="25">
         <f>+Earnings_Comparison!H33</f>
-        <v>1.4735494125894588</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" t="str">
-        <f>+Earnings_Comparison!B16</f>
-        <v>HI</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="C27" s="26">
-        <f>+Earnings_Comparison!E16</f>
-        <v>823</v>
-      </c>
-      <c r="D27" s="25">
-        <f>+Earnings_Comparison!H16</f>
-        <v>1.2923063444836735</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" t="str">
-        <f>+Earnings_Comparison!B34</f>
-        <v>NH</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="C28" s="26">
-        <f>+Earnings_Comparison!E34</f>
-        <v>842.69</v>
-      </c>
-      <c r="D28" s="25">
-        <f>+Earnings_Comparison!H34</f>
-        <v>1.1137168851285795</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" t="str">
-        <f>+Earnings_Comparison!B19</f>
-        <v>IN</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="C29" s="26">
-        <f>+Earnings_Comparison!E19</f>
-        <v>805.73</v>
-      </c>
-      <c r="D29" s="25">
-        <f>+Earnings_Comparison!H19</f>
-        <v>0.91302834377549047</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" t="str">
-        <f>+Earnings_Comparison!B9</f>
-        <v>CA</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="C30" s="26">
-        <f>+Earnings_Comparison!E9</f>
-        <v>980.29</v>
-      </c>
-      <c r="D30" s="25">
-        <f>+Earnings_Comparison!H9</f>
-        <v>0.86460491605635514</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" t="str">
-        <f>+Earnings_Comparison!B18</f>
-        <v>IL</v>
-      </c>
-      <c r="B31" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="C31" s="26">
-        <f>+Earnings_Comparison!E18</f>
-        <v>894.67</v>
-      </c>
-      <c r="D31" s="25">
-        <f>+Earnings_Comparison!H18</f>
-        <v>0.79563797632737909</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" t="str">
-        <f>+Earnings_Comparison!B53</f>
-        <v>WV</v>
-      </c>
-      <c r="B32" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="C32" s="26">
-        <f>+Earnings_Comparison!E53</f>
-        <v>726.88</v>
-      </c>
-      <c r="D32" s="25">
-        <f>+Earnings_Comparison!H53</f>
-        <v>0.72819301523987523</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" t="str">
-        <f>+Earnings_Comparison!B46</f>
-        <v>SD</v>
-      </c>
-      <c r="B33" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="C33" s="26">
-        <f>+Earnings_Comparison!E46</f>
-        <v>720.02</v>
-      </c>
-      <c r="D33" s="25">
-        <f>+Earnings_Comparison!H46</f>
-        <v>0.59704873708894546</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" t="str">
+        <v>0.45953446592601477</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" t="str">
+        <f>+Earnings_Comparison!B25</f>
+        <v>MD</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="C39" s="26">
+        <f>+Earnings_Comparison!E25</f>
+        <v>931.9</v>
+      </c>
+      <c r="D39" s="25">
+        <f>+Earnings_Comparison!H25</f>
+        <v>0.43274865379643312</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" t="str">
         <f>+Earnings_Comparison!B49</f>
         <v>UT</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="B40" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="C34" s="26">
+      <c r="C40" s="26">
         <f>+Earnings_Comparison!E49</f>
-        <v>841.82</v>
-      </c>
-      <c r="D34" s="25">
+        <v>843.56</v>
+      </c>
+      <c r="D40" s="25">
         <f>+Earnings_Comparison!H49</f>
-        <v>0.29700854729082238</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" t="str">
-        <f>+Earnings_Comparison!B41</f>
-        <v>OK</v>
-      </c>
-      <c r="B35" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="C35" s="26">
-        <f>+Earnings_Comparison!E41</f>
-        <v>760.82</v>
-      </c>
-      <c r="D35" s="25">
-        <f>+Earnings_Comparison!H41</f>
-        <v>0.16150469552151936</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" t="str">
-        <f>+Earnings_Comparison!B35</f>
-        <v>NJ</v>
-      </c>
-      <c r="B36" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="C36" s="26">
-        <f>+Earnings_Comparison!E35</f>
-        <v>938.29</v>
-      </c>
-      <c r="D36" s="25">
-        <f>+Earnings_Comparison!H35</f>
-        <v>-8.9536633900921814E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" t="str">
-        <f>+Earnings_Comparison!B24</f>
-        <v>ME</v>
-      </c>
-      <c r="B37" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="C37" s="26">
-        <f>+Earnings_Comparison!E24</f>
-        <v>742.56</v>
-      </c>
-      <c r="D37" s="25">
-        <f>+Earnings_Comparison!H24</f>
-        <v>-0.1241200117285457</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" t="str">
-        <f>+Earnings_Comparison!B22</f>
-        <v>KY</v>
-      </c>
-      <c r="B38" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="C38" s="26">
-        <f>+Earnings_Comparison!E22</f>
-        <v>748.7</v>
-      </c>
-      <c r="D38" s="25">
-        <f>+Earnings_Comparison!H22</f>
-        <v>-0.1474739568002259</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" t="str">
-        <f>+Earnings_Comparison!B43</f>
-        <v>PA</v>
-      </c>
-      <c r="B39" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="C39" s="26">
-        <f>+Earnings_Comparison!E43</f>
-        <v>824.38</v>
-      </c>
-      <c r="D39" s="25">
-        <f>+Earnings_Comparison!H43</f>
-        <v>-0.2698378633843701</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" t="str">
-        <f>+Earnings_Comparison!B10</f>
-        <v>CO</v>
-      </c>
-      <c r="B40" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="C40" s="26">
-        <f>+Earnings_Comparison!E10</f>
-        <v>904.51</v>
-      </c>
-      <c r="D40" s="25">
-        <f>+Earnings_Comparison!H10</f>
-        <v>-0.27130414149441062</v>
+        <v>-1.9399136956810281E-3</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
+        <f>+Earnings_Comparison!B27</f>
+        <v>MI</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C41" s="26">
+        <f>+Earnings_Comparison!E27</f>
+        <v>824.22</v>
+      </c>
+      <c r="D41" s="25">
+        <f>+Earnings_Comparison!H27</f>
+        <v>-0.37369991643796396</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" t="str">
+        <f>+Earnings_Comparison!B30</f>
+        <v>MO</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="C42" s="26">
+        <f>+Earnings_Comparison!E30</f>
+        <v>746.82</v>
+      </c>
+      <c r="D42" s="25">
+        <f>+Earnings_Comparison!H30</f>
+        <v>-0.39874178355022716</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" t="str">
         <f>+Earnings_Comparison!B23</f>
         <v>LA</v>
       </c>
-      <c r="B41" s="20" t="s">
+      <c r="B43" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="C41" s="26">
+      <c r="C43" s="26">
         <f>+Earnings_Comparison!E23</f>
-        <v>792</v>
-      </c>
-      <c r="D41" s="25">
+        <v>789.4</v>
+      </c>
+      <c r="D43" s="25">
         <f>+Earnings_Comparison!H23</f>
-        <v>-0.49439645570066304</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" t="str">
-        <f>+Earnings_Comparison!B25</f>
-        <v>MD</v>
-      </c>
-      <c r="B42" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="C42" s="26">
-        <f>+Earnings_Comparison!E25</f>
-        <v>924.04</v>
-      </c>
-      <c r="D42" s="25">
-        <f>+Earnings_Comparison!H25</f>
-        <v>-0.51551875563968785</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" t="str">
-        <f>+Earnings_Comparison!B37</f>
-        <v>NY</v>
-      </c>
-      <c r="B43" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="C43" s="26">
-        <f>+Earnings_Comparison!E37</f>
-        <v>960.78</v>
-      </c>
-      <c r="D43" s="25">
-        <f>+Earnings_Comparison!H37</f>
-        <v>-0.7881374272205699</v>
+        <v>-0.56239564308471213</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -11114,151 +11247,151 @@
       </c>
       <c r="C44" s="26">
         <f>+Earnings_Comparison!E50</f>
-        <v>806.74</v>
+        <v>807.16</v>
       </c>
       <c r="D44" s="25">
         <f>+Earnings_Comparison!H50</f>
-        <v>-0.78909134113014368</v>
+        <v>-1.0329451356275499</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
+        <f>+Earnings_Comparison!B22</f>
+        <v>KY</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="C45" s="26">
+        <f>+Earnings_Comparison!E22</f>
+        <v>746.59</v>
+      </c>
+      <c r="D45" s="25">
+        <f>+Earnings_Comparison!H22</f>
+        <v>-1.1551997275561665</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" t="str">
+        <f>+Earnings_Comparison!B21</f>
+        <v>KS</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="C46" s="26">
+        <f>+Earnings_Comparison!E21</f>
+        <v>765.23</v>
+      </c>
+      <c r="D46" s="25">
+        <f>+Earnings_Comparison!H21</f>
+        <v>-1.3374649081707601</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" t="str">
+        <f>+Earnings_Comparison!B24</f>
+        <v>ME</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="C47" s="26">
+        <f>+Earnings_Comparison!E24</f>
+        <v>737.12</v>
+      </c>
+      <c r="D47" s="25">
+        <f>+Earnings_Comparison!H24</f>
+        <v>-1.3647686711485862</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" t="str">
+        <f>+Earnings_Comparison!B48</f>
+        <v>TX</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="C48" s="26">
+        <f>+Earnings_Comparison!E48</f>
+        <v>871.37</v>
+      </c>
+      <c r="D48" s="25">
+        <f>+Earnings_Comparison!H48</f>
+        <v>-1.3973695915231898</v>
+      </c>
+      <c r="K48" s="20"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" t="str">
+        <f>+Earnings_Comparison!B17</f>
+        <v>ID</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="C49" s="26">
+        <f>+Earnings_Comparison!E17</f>
+        <v>735.47</v>
+      </c>
+      <c r="D49" s="25">
+        <f>+Earnings_Comparison!H17</f>
+        <v>-1.4406038884579142</v>
+      </c>
+      <c r="K49" s="20"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" t="str">
         <f>+Earnings_Comparison!B39</f>
         <v>ND</v>
       </c>
-      <c r="B45" s="20" t="s">
+      <c r="B50" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="C45" s="26">
+      <c r="C50" s="26">
         <f>+Earnings_Comparison!E39</f>
-        <v>878.42</v>
-      </c>
-      <c r="D45" s="25">
+        <v>887.05</v>
+      </c>
+      <c r="D50" s="25">
         <f>+Earnings_Comparison!H39</f>
-        <v>-0.85912973419748351</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" t="str">
-        <f>+Earnings_Comparison!B27</f>
-        <v>MI</v>
-      </c>
-      <c r="B46" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="C46" s="26">
-        <f>+Earnings_Comparison!E27</f>
-        <v>817.34</v>
-      </c>
-      <c r="D46" s="25">
-        <f>+Earnings_Comparison!H27</f>
-        <v>-0.9435803546485988</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" t="str">
-        <f>+Earnings_Comparison!B17</f>
-        <v>ID</v>
-      </c>
-      <c r="B47" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="C47" s="26">
-        <f>+Earnings_Comparison!E17</f>
-        <v>732.83</v>
-      </c>
-      <c r="D47" s="25">
-        <f>+Earnings_Comparison!H17</f>
-        <v>-1.355097429315022</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" t="str">
-        <f>+Earnings_Comparison!B21</f>
-        <v>KS</v>
-      </c>
-      <c r="B48" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="C48" s="26">
-        <f>+Earnings_Comparison!E21</f>
-        <v>762.62</v>
-      </c>
-      <c r="D48" s="25">
-        <f>+Earnings_Comparison!H21</f>
-        <v>-1.5713300729416568</v>
-      </c>
-      <c r="K48" s="20"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" t="str">
-        <f>+Earnings_Comparison!B48</f>
-        <v>TX</v>
-      </c>
-      <c r="B49" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="C49" s="26">
-        <f>+Earnings_Comparison!E48</f>
-        <v>872.09</v>
-      </c>
-      <c r="D49" s="25">
-        <f>+Earnings_Comparison!H48</f>
-        <v>-1.6049578382530405</v>
-      </c>
-      <c r="K49" s="20"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" t="str">
+        <v>-1.6211592881386738</v>
+      </c>
+      <c r="K50" s="20"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" t="str">
+        <f>+Earnings_Comparison!B10</f>
+        <v>CO</v>
+      </c>
+      <c r="B51" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C51" s="26">
+        <f>+Earnings_Comparison!E10</f>
+        <v>902.76</v>
+      </c>
+      <c r="D51" s="25">
+        <f>+Earnings_Comparison!H10</f>
+        <v>-1.8888916477631912</v>
+      </c>
+      <c r="K51" s="20"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" t="str">
         <f>+Earnings_Comparison!B6</f>
         <v>AK</v>
       </c>
-      <c r="B50" s="20" t="s">
+      <c r="B52" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="C50" s="26">
+      <c r="C52" s="26">
         <f>+Earnings_Comparison!E6</f>
-        <v>966</v>
-      </c>
-      <c r="D50" s="25">
+        <v>983.54</v>
+      </c>
+      <c r="D52" s="25">
         <f>+Earnings_Comparison!H6</f>
-        <v>-2.0552409665821503</v>
-      </c>
-      <c r="K50" s="20"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" t="str">
-        <f>+Earnings_Comparison!B30</f>
-        <v>MO</v>
-      </c>
-      <c r="B51" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="C51" s="26">
-        <f>+Earnings_Comparison!E30</f>
-        <v>735.38</v>
-      </c>
-      <c r="D51" s="25">
-        <f>+Earnings_Comparison!H30</f>
-        <v>-2.0901199273872129</v>
-      </c>
-      <c r="K51" s="20"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" t="str">
-        <f>+Earnings_Comparison!B13</f>
-        <v>DC</v>
-      </c>
-      <c r="B52" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="C52" s="26">
-        <f>+Earnings_Comparison!E13</f>
-        <v>1344.03</v>
-      </c>
-      <c r="D52" s="25">
-        <f>+Earnings_Comparison!H13</f>
-        <v>-2.133079912407565</v>
+        <v>-2.0992985231495731</v>
       </c>
       <c r="K52" s="20"/>
     </row>
@@ -11272,11 +11405,11 @@
       </c>
       <c r="C53" s="26">
         <f>+Earnings_Comparison!E36</f>
-        <v>678.69</v>
+        <v>682.36</v>
       </c>
       <c r="D53" s="25">
         <f>+Earnings_Comparison!H36</f>
-        <v>-2.499807456033154</v>
+        <v>-2.4760691871644092</v>
       </c>
       <c r="K53" s="20"/>
     </row>
@@ -11290,21 +11423,21 @@
       </c>
       <c r="C54" s="26">
         <f>+Earnings_Comparison!E55</f>
-        <v>753.69</v>
+        <v>760.57</v>
       </c>
       <c r="D54" s="25">
         <f>+Earnings_Comparison!H55</f>
-        <v>-7.9771656717848582</v>
+        <v>-6.8686157803813934</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C56">
-        <f>COUNTIF(C4:C54, "&lt;881")</f>
-        <v>38</v>
+        <f>COUNTIF(C4:C54, "&lt;886")</f>
+        <v>37</v>
       </c>
       <c r="D56">
         <f>COUNTIF(D4:D54, "&lt;0")</f>
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/static/data/source/current_earnings.xlsx
+++ b/static/data/source/current_earnings.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Earnings Table" sheetId="2" r:id="rId1"/>
     <sheet name="Earnings_Comparison" sheetId="1" r:id="rId2"/>
-    <sheet name="October 2016_BLS Data Series" sheetId="21" r:id="rId3"/>
+    <sheet name="November 2016_BLS Data Series" sheetId="22" r:id="rId3"/>
     <sheet name="SCRATCH" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
@@ -22,44 +22,10 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Randall, Megan</author>
-  </authors>
-  <commentList>
-    <comment ref="E58" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Randall, Megan:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Preliminary</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="W5" authorId="0">
+    <comment ref="X5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -74,7 +40,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W6" authorId="0">
+    <comment ref="X6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -89,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W7" authorId="0">
+    <comment ref="X7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -104,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W8" authorId="0">
+    <comment ref="X8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -119,7 +85,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W9" authorId="0">
+    <comment ref="X9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -134,7 +100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W10" authorId="0">
+    <comment ref="X10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -149,7 +115,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W11" authorId="0">
+    <comment ref="X11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -164,7 +130,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W12" authorId="0">
+    <comment ref="X12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -179,7 +145,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W13" authorId="0">
+    <comment ref="X13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -194,7 +160,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W14" authorId="0">
+    <comment ref="X14" authorId="0">
       <text>
         <r>
           <rPr>
@@ -209,7 +175,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W15" authorId="0">
+    <comment ref="X15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -224,7 +190,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W16" authorId="0">
+    <comment ref="X16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -239,7 +205,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W17" authorId="0">
+    <comment ref="X17" authorId="0">
       <text>
         <r>
           <rPr>
@@ -254,7 +220,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W18" authorId="0">
+    <comment ref="X18" authorId="0">
       <text>
         <r>
           <rPr>
@@ -269,7 +235,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W19" authorId="0">
+    <comment ref="X19" authorId="0">
       <text>
         <r>
           <rPr>
@@ -284,7 +250,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W20" authorId="0">
+    <comment ref="X20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -299,7 +265,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W21" authorId="0">
+    <comment ref="X21" authorId="0">
       <text>
         <r>
           <rPr>
@@ -314,7 +280,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W22" authorId="0">
+    <comment ref="X22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -329,7 +295,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W23" authorId="0">
+    <comment ref="X23" authorId="0">
       <text>
         <r>
           <rPr>
@@ -344,7 +310,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W24" authorId="0">
+    <comment ref="X24" authorId="0">
       <text>
         <r>
           <rPr>
@@ -359,7 +325,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W25" authorId="0">
+    <comment ref="X25" authorId="0">
       <text>
         <r>
           <rPr>
@@ -374,7 +340,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W26" authorId="0">
+    <comment ref="X26" authorId="0">
       <text>
         <r>
           <rPr>
@@ -389,7 +355,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W27" authorId="0">
+    <comment ref="X27" authorId="0">
       <text>
         <r>
           <rPr>
@@ -404,7 +370,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W28" authorId="0">
+    <comment ref="X28" authorId="0">
       <text>
         <r>
           <rPr>
@@ -419,7 +385,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W29" authorId="0">
+    <comment ref="X29" authorId="0">
       <text>
         <r>
           <rPr>
@@ -434,7 +400,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W30" authorId="0">
+    <comment ref="X30" authorId="0">
       <text>
         <r>
           <rPr>
@@ -449,7 +415,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W31" authorId="0">
+    <comment ref="X31" authorId="0">
       <text>
         <r>
           <rPr>
@@ -464,7 +430,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W32" authorId="0">
+    <comment ref="X32" authorId="0">
       <text>
         <r>
           <rPr>
@@ -479,7 +445,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W33" authorId="0">
+    <comment ref="X33" authorId="0">
       <text>
         <r>
           <rPr>
@@ -494,7 +460,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W34" authorId="0">
+    <comment ref="X34" authorId="0">
       <text>
         <r>
           <rPr>
@@ -509,7 +475,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W35" authorId="0">
+    <comment ref="X35" authorId="0">
       <text>
         <r>
           <rPr>
@@ -524,7 +490,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W36" authorId="0">
+    <comment ref="X36" authorId="0">
       <text>
         <r>
           <rPr>
@@ -539,7 +505,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W37" authorId="0">
+    <comment ref="X37" authorId="0">
       <text>
         <r>
           <rPr>
@@ -554,7 +520,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W38" authorId="0">
+    <comment ref="X38" authorId="0">
       <text>
         <r>
           <rPr>
@@ -569,7 +535,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W39" authorId="0">
+    <comment ref="X39" authorId="0">
       <text>
         <r>
           <rPr>
@@ -584,7 +550,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W40" authorId="0">
+    <comment ref="X40" authorId="0">
       <text>
         <r>
           <rPr>
@@ -599,7 +565,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W41" authorId="0">
+    <comment ref="X41" authorId="0">
       <text>
         <r>
           <rPr>
@@ -614,7 +580,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W42" authorId="0">
+    <comment ref="X42" authorId="0">
       <text>
         <r>
           <rPr>
@@ -629,7 +595,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W43" authorId="0">
+    <comment ref="X43" authorId="0">
       <text>
         <r>
           <rPr>
@@ -644,7 +610,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W44" authorId="0">
+    <comment ref="X44" authorId="0">
       <text>
         <r>
           <rPr>
@@ -659,7 +625,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W45" authorId="0">
+    <comment ref="X45" authorId="0">
       <text>
         <r>
           <rPr>
@@ -674,7 +640,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W46" authorId="0">
+    <comment ref="X46" authorId="0">
       <text>
         <r>
           <rPr>
@@ -689,7 +655,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W47" authorId="0">
+    <comment ref="X47" authorId="0">
       <text>
         <r>
           <rPr>
@@ -704,7 +670,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W48" authorId="0">
+    <comment ref="X48" authorId="0">
       <text>
         <r>
           <rPr>
@@ -719,7 +685,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W49" authorId="0">
+    <comment ref="X49" authorId="0">
       <text>
         <r>
           <rPr>
@@ -734,7 +700,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W50" authorId="0">
+    <comment ref="X50" authorId="0">
       <text>
         <r>
           <rPr>
@@ -749,7 +715,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W51" authorId="0">
+    <comment ref="X51" authorId="0">
       <text>
         <r>
           <rPr>
@@ -764,7 +730,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W52" authorId="0">
+    <comment ref="X52" authorId="0">
       <text>
         <r>
           <rPr>
@@ -779,7 +745,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W53" authorId="0">
+    <comment ref="X53" authorId="0">
       <text>
         <r>
           <rPr>
@@ -794,7 +760,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W54" authorId="0">
+    <comment ref="X54" authorId="0">
       <text>
         <r>
           <rPr>
@@ -809,7 +775,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W55" authorId="0">
+    <comment ref="X55" authorId="0">
       <text>
         <r>
           <rPr>
@@ -829,7 +795,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="199">
   <si>
     <t>State and Area Employment, Hours, and Earnings</t>
   </si>
@@ -1440,18 +1406,18 @@
     <t>minus DC</t>
   </si>
   <si>
-    <t>Average Weekly Wages October 2016</t>
-  </si>
-  <si>
-    <t>October
+    <t>Average Weekly Wages November 2016</t>
+  </si>
+  <si>
+    <t>November
 2015</t>
   </si>
   <si>
-    <t>October
+    <t>November
 2016</t>
   </si>
   <si>
-    <t>October 2015 adj for inflation</t>
+    <t>November 2015 adj for inflation</t>
   </si>
 </sst>
 </file>
@@ -1473,7 +1439,7 @@
     <numFmt numFmtId="173" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="174" formatCode="#0"/>
   </numFmts>
-  <fonts count="85" x14ac:knownFonts="1">
+  <fonts count="80" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1989,36 +1955,6 @@
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="43">
@@ -3140,7 +3076,7 @@
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3206,6 +3142,21 @@
     <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="315"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="315" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="315" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="315" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="315" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="315" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3213,30 +3164,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="315" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="315"/>
     <xf numFmtId="0" fontId="28" fillId="34" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="82" fillId="2" borderId="0" xfId="315" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="83" fillId="2" borderId="0" xfId="315" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="83" fillId="2" borderId="1" xfId="315" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="83" fillId="2" borderId="1" xfId="315" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="2" borderId="0" xfId="315" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="83" fillId="2" borderId="0" xfId="315" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="84" fillId="2" borderId="0" xfId="315" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="480">
@@ -4400,7 +4333,7 @@
   <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4412,12 +4345,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="46" t="s">
         <v>195</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
@@ -4442,11 +4375,11 @@
       </c>
       <c r="C3" s="31">
         <f>+Earnings_Comparison!E58</f>
-        <v>891.65</v>
+        <v>890.62</v>
       </c>
       <c r="D3" s="30">
         <f>+Earnings_Comparison!H58</f>
-        <v>0.86778062873913431</v>
+        <v>0.45615074947766843</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -4459,11 +4392,11 @@
       </c>
       <c r="C4" s="31">
         <f>+Earnings_Comparison!E5</f>
-        <v>798.78</v>
+        <v>780.22</v>
       </c>
       <c r="D4" s="30">
         <f>+Earnings_Comparison!H5</f>
-        <v>4.0433169384122669</v>
+        <v>0.28812919440424078</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -4476,11 +4409,11 @@
       </c>
       <c r="C5" s="31">
         <f>+Earnings_Comparison!E6</f>
-        <v>1007.69</v>
+        <v>985.83</v>
       </c>
       <c r="D5" s="30">
         <f>+Earnings_Comparison!H6</f>
-        <v>1.8636721117562427</v>
+        <v>-0.70244504452259271</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -4493,11 +4426,11 @@
       </c>
       <c r="C6" s="31">
         <f>+Earnings_Comparison!E7</f>
-        <v>851.89</v>
+        <v>832.38</v>
       </c>
       <c r="D6" s="30">
         <f>+Earnings_Comparison!H7</f>
-        <v>4.5291597490475954</v>
+        <v>0.75283919213016137</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -4510,11 +4443,11 @@
       </c>
       <c r="C7" s="31">
         <f>+Earnings_Comparison!E8</f>
-        <v>706.15</v>
+        <v>693.89</v>
       </c>
       <c r="D7" s="30">
         <f>+Earnings_Comparison!H8</f>
-        <v>2.799903795344072</v>
+        <v>-0.57104844817691403</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -4527,11 +4460,11 @@
       </c>
       <c r="C8" s="31">
         <f>+Earnings_Comparison!E9</f>
-        <v>1036.3499999999999</v>
+        <v>1003.62</v>
       </c>
       <c r="D8" s="30">
         <f>+Earnings_Comparison!H9</f>
-        <v>5.1052789278178246</v>
+        <v>-0.7855318923874921</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -4544,11 +4477,11 @@
       </c>
       <c r="C9" s="31">
         <f>+Earnings_Comparison!E10</f>
-        <v>935.36</v>
+        <v>902.8</v>
       </c>
       <c r="D9" s="30">
         <f>+Earnings_Comparison!H10</f>
-        <v>0.28702500339590209</v>
+        <v>-4.2500815863559023</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -4561,11 +4494,11 @@
       </c>
       <c r="C10" s="31">
         <f>+Earnings_Comparison!E11</f>
-        <v>1055.4100000000001</v>
+        <v>1029.8699999999999</v>
       </c>
       <c r="D10" s="30">
         <f>+Earnings_Comparison!H11</f>
-        <v>4.4889418479134857</v>
+        <v>0.24242608337781135</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -4578,11 +4511,11 @@
       </c>
       <c r="C11" s="31">
         <f>+Earnings_Comparison!E12</f>
-        <v>835.33</v>
+        <v>806.93</v>
       </c>
       <c r="D11" s="30">
         <f>+Earnings_Comparison!H12</f>
-        <v>7.9239539657339098</v>
+        <v>3.6428106105519387</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -4595,11 +4528,11 @@
       </c>
       <c r="C12" s="31">
         <f>+Earnings_Comparison!E13</f>
-        <v>1463.62</v>
+        <v>1390.2</v>
       </c>
       <c r="D12" s="30">
         <f>+Earnings_Comparison!H13</f>
-        <v>13.068323774715074</v>
+        <v>1.5889340819904341</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -4612,11 +4545,11 @@
       </c>
       <c r="C13" s="31">
         <f>+Earnings_Comparison!E14</f>
-        <v>810.21</v>
+        <v>803.08</v>
       </c>
       <c r="D13" s="30">
         <f>+Earnings_Comparison!H14</f>
-        <v>2.4875194854408145</v>
+        <v>-0.3905348759521865</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -4629,11 +4562,11 @@
       </c>
       <c r="C14" s="31">
         <f>+Earnings_Comparison!E15</f>
-        <v>879.26</v>
+        <v>859.21</v>
       </c>
       <c r="D14" s="30">
         <f>+Earnings_Comparison!H15</f>
-        <v>3.1079887635156789</v>
+        <v>-0.85897103132671626</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -4646,11 +4579,11 @@
       </c>
       <c r="C15" s="31">
         <f>+Earnings_Comparison!E16</f>
-        <v>867.22</v>
+        <v>818.88</v>
       </c>
       <c r="D15" s="30">
         <f>+Earnings_Comparison!H16</f>
-        <v>5.8373555492857943</v>
+        <v>-3.3486370469452686</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -4663,11 +4596,11 @@
       </c>
       <c r="C16" s="31">
         <f>+Earnings_Comparison!E17</f>
-        <v>755.33</v>
+        <v>739.2</v>
       </c>
       <c r="D16" s="30">
         <f>+Earnings_Comparison!H17</f>
-        <v>0.60536104769606247</v>
+        <v>-2.8718985859243262</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -4680,11 +4613,11 @@
       </c>
       <c r="C17" s="31">
         <f>+Earnings_Comparison!E18</f>
-        <v>933.51</v>
+        <v>908.77</v>
       </c>
       <c r="D17" s="30">
         <f>+Earnings_Comparison!H18</f>
-        <v>1.7924794077092576</v>
+        <v>-2.9638488034023691</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -4697,11 +4630,11 @@
       </c>
       <c r="C18" s="31">
         <f>+Earnings_Comparison!E19</f>
-        <v>843.45</v>
+        <v>834.75</v>
       </c>
       <c r="D18" s="30">
         <f>+Earnings_Comparison!H19</f>
-        <v>3.8367106446664634</v>
+        <v>1.6603746832369204</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -4714,11 +4647,11 @@
       </c>
       <c r="C19" s="31">
         <f>+Earnings_Comparison!E20</f>
-        <v>829.06</v>
+        <v>819.89</v>
       </c>
       <c r="D19" s="30">
         <f>+Earnings_Comparison!H20</f>
-        <v>2.4741846088066621</v>
+        <v>3.2190526610369252</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -4731,11 +4664,11 @@
       </c>
       <c r="C20" s="31">
         <f>+Earnings_Comparison!E21</f>
-        <v>800.06</v>
+        <v>778.75</v>
       </c>
       <c r="D20" s="30">
         <f>+Earnings_Comparison!H21</f>
-        <v>1.039919381953025</v>
+        <v>-3.0855713361977677</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -4748,11 +4681,11 @@
       </c>
       <c r="C21" s="31">
         <f>+Earnings_Comparison!E22</f>
-        <v>761.81</v>
+        <v>750.82</v>
       </c>
       <c r="D21" s="30">
         <f>+Earnings_Comparison!H22</f>
-        <v>1.0239903624243762</v>
+        <v>-1.2355397944967872</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -4765,11 +4698,11 @@
       </c>
       <c r="C22" s="31">
         <f>+Earnings_Comparison!E23</f>
-        <v>829.67</v>
+        <v>803.95</v>
       </c>
       <c r="D22" s="30">
         <f>+Earnings_Comparison!H23</f>
-        <v>1.8751245410437045</v>
+        <v>-2.701555597901617</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -4782,11 +4715,11 @@
       </c>
       <c r="C23" s="31">
         <f>+Earnings_Comparison!E24</f>
-        <v>771.41</v>
+        <v>760.72</v>
       </c>
       <c r="D23" s="30">
         <f>+Earnings_Comparison!H24</f>
-        <v>0.53685984721514313</v>
+        <v>-1.7599313993696741</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -4799,11 +4732,11 @@
       </c>
       <c r="C24" s="31">
         <f>+Earnings_Comparison!E25</f>
-        <v>963.2</v>
+        <v>959.1</v>
       </c>
       <c r="D24" s="30">
         <f>+Earnings_Comparison!H25</f>
-        <v>0.6612865768088394</v>
+        <v>-1.5586486526804166</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -4816,11 +4749,11 @@
       </c>
       <c r="C25" s="31">
         <f>+Earnings_Comparison!E26</f>
-        <v>1075.7</v>
+        <v>1067.8</v>
       </c>
       <c r="D25" s="30">
         <f>+Earnings_Comparison!H26</f>
-        <v>2.6093782878416016</v>
+        <v>-0.52503502537724067</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -4833,11 +4766,11 @@
       </c>
       <c r="C26" s="31">
         <f>+Earnings_Comparison!E27</f>
-        <v>858.89</v>
+        <v>845.6</v>
       </c>
       <c r="D26" s="30">
         <f>+Earnings_Comparison!H27</f>
-        <v>0.93218887785198046</v>
+        <v>-1.5036232799319427</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -4850,11 +4783,11 @@
       </c>
       <c r="C27" s="31">
         <f>+Earnings_Comparison!E28</f>
-        <v>952.89</v>
+        <v>947.92</v>
       </c>
       <c r="D27" s="30">
         <f>+Earnings_Comparison!H28</f>
-        <v>4.4905345206521341</v>
+        <v>3.5553504008746017</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -4867,11 +4800,11 @@
       </c>
       <c r="C28" s="31">
         <f>+Earnings_Comparison!E29</f>
-        <v>719.94</v>
+        <v>699.13</v>
       </c>
       <c r="D28" s="30">
         <f>+Earnings_Comparison!H29</f>
-        <v>3.6222675191479592</v>
+        <v>-1.5742659047497942</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -4884,11 +4817,11 @@
       </c>
       <c r="C29" s="31">
         <f>+Earnings_Comparison!E30</f>
-        <v>791.23</v>
+        <v>768.57</v>
       </c>
       <c r="D29" s="30">
         <f>+Earnings_Comparison!H30</f>
-        <v>4.5028439962695899</v>
+        <v>3.9468092686889555E-2</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -4901,11 +4834,11 @@
       </c>
       <c r="C30" s="31">
         <f>+Earnings_Comparison!E31</f>
-        <v>709.49</v>
+        <v>737.75</v>
       </c>
       <c r="D30" s="30">
         <f>+Earnings_Comparison!H31</f>
-        <v>-3.4655362998679329</v>
+        <v>-2.9833465061662068</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -4918,11 +4851,11 @@
       </c>
       <c r="C31" s="31">
         <f>+Earnings_Comparison!E32</f>
-        <v>808.95</v>
+        <v>781.73</v>
       </c>
       <c r="D31" s="30">
         <f>+Earnings_Comparison!H32</f>
-        <v>3.8244616818666088</v>
+        <v>-0.76305554493331096</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -4935,11 +4868,11 @@
       </c>
       <c r="C32" s="31">
         <f>+Earnings_Comparison!E33</f>
-        <v>758.86</v>
+        <v>752.08</v>
       </c>
       <c r="D32" s="30">
         <f>+Earnings_Comparison!H33</f>
-        <v>0.66806634587095459</v>
+        <v>-1.9069650520707415</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -4952,11 +4885,11 @@
       </c>
       <c r="C33" s="31">
         <f>+Earnings_Comparison!E34</f>
-        <v>913.22</v>
+        <v>890.01</v>
       </c>
       <c r="D33" s="30">
         <f>+Earnings_Comparison!H34</f>
-        <v>5.4477549227614608</v>
+        <v>1.441532535536072</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -4969,11 +4902,11 @@
       </c>
       <c r="C34" s="31">
         <f>+Earnings_Comparison!E35</f>
-        <v>1005.97</v>
+        <v>992.42</v>
       </c>
       <c r="D34" s="30">
         <f>+Earnings_Comparison!H35</f>
-        <v>4.949354873340428</v>
+        <v>2.0733084810316882</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -4986,11 +4919,11 @@
       </c>
       <c r="C35" s="31">
         <f>+Earnings_Comparison!E36</f>
-        <v>706.76</v>
+        <v>693.05</v>
       </c>
       <c r="D35" s="30">
         <f>+Earnings_Comparison!H36</f>
-        <v>-0.62115231544757066</v>
+        <v>-3.4065475723285887</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -5003,11 +4936,11 @@
       </c>
       <c r="C36" s="31">
         <f>+Earnings_Comparison!E37</f>
-        <v>996.85</v>
+        <v>981.22</v>
       </c>
       <c r="D36" s="30">
         <f>+Earnings_Comparison!H37</f>
-        <v>1.1962491344232218</v>
+        <v>-2.9111009192769544</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -5020,11 +4953,11 @@
       </c>
       <c r="C37" s="31">
         <f>+Earnings_Comparison!E38</f>
-        <v>826.25</v>
+        <v>818.03</v>
       </c>
       <c r="D37" s="30">
         <f>+Earnings_Comparison!H38</f>
-        <v>4.4721757494577297</v>
+        <v>1.7911798096807541</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -5037,11 +4970,11 @@
       </c>
       <c r="C38" s="31">
         <f>+Earnings_Comparison!E39</f>
-        <v>913.09</v>
+        <v>873.3</v>
       </c>
       <c r="D38" s="30">
         <f>+Earnings_Comparison!H39</f>
-        <v>-0.98176873726747438</v>
+        <v>-4.7467631825874328</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -5054,11 +4987,11 @@
       </c>
       <c r="C39" s="31">
         <f>+Earnings_Comparison!E40</f>
-        <v>823.83</v>
+        <v>811.2</v>
       </c>
       <c r="D39" s="30">
         <f>+Earnings_Comparison!H40</f>
-        <v>3.5289024977677386</v>
+        <v>0.32557178742347315</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -5071,11 +5004,11 @@
       </c>
       <c r="C40" s="31">
         <f>+Earnings_Comparison!E41</f>
-        <v>800.75</v>
+        <v>782.46</v>
       </c>
       <c r="D40" s="30">
         <f>+Earnings_Comparison!H41</f>
-        <v>4.1510056460086764</v>
+        <v>-0.26740208007364208</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -5088,11 +5021,11 @@
       </c>
       <c r="C41" s="31">
         <f>+Earnings_Comparison!E42</f>
-        <v>888.03</v>
+        <v>858.16</v>
       </c>
       <c r="D41" s="30">
         <f>+Earnings_Comparison!H42</f>
-        <v>9.0275385873927139</v>
+        <v>1.8744572987979158</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -5105,11 +5038,11 @@
       </c>
       <c r="C42" s="31">
         <f>+Earnings_Comparison!E43</f>
-        <v>847.28</v>
+        <v>845.47</v>
       </c>
       <c r="D42" s="30">
         <f>+Earnings_Comparison!H43</f>
-        <v>0.56355783722459307</v>
+        <v>-1.2262658338369148</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -5122,11 +5055,11 @@
       </c>
       <c r="C43" s="31">
         <f>+Earnings_Comparison!E44</f>
-        <v>859.3</v>
+        <v>858.86</v>
       </c>
       <c r="D43" s="30">
         <f>+Earnings_Comparison!H44</f>
-        <v>2.2195651144565343</v>
+        <v>0.61297282226779881</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -5139,11 +5072,11 @@
       </c>
       <c r="C44" s="31">
         <f>+Earnings_Comparison!E45</f>
-        <v>768.47</v>
+        <v>775.72</v>
       </c>
       <c r="D44" s="30">
         <f>+Earnings_Comparison!H45</f>
-        <v>1.4981466362216977</v>
+        <v>0.54955859127048257</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -5156,11 +5089,11 @@
       </c>
       <c r="C45" s="31">
         <f>+Earnings_Comparison!E46</f>
-        <v>751.86</v>
+        <v>736.35</v>
       </c>
       <c r="D45" s="30">
         <f>+Earnings_Comparison!H46</f>
-        <v>1.7058715949267667</v>
+        <v>-0.85108616395578318</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -5173,11 +5106,11 @@
       </c>
       <c r="C46" s="31">
         <f>+Earnings_Comparison!E47</f>
-        <v>800.49</v>
+        <v>791.39</v>
       </c>
       <c r="D46" s="30">
         <f>+Earnings_Comparison!H47</f>
-        <v>6.1433495606102895</v>
+        <v>3.2571768768155485</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -5190,11 +5123,11 @@
       </c>
       <c r="C47" s="31">
         <f>+Earnings_Comparison!E48</f>
-        <v>899.57</v>
+        <v>877.21</v>
       </c>
       <c r="D47" s="30">
         <f>+Earnings_Comparison!H48</f>
-        <v>0.94663915402997123</v>
+        <v>-3.9784042860499969</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -5207,11 +5140,11 @@
       </c>
       <c r="C48" s="31">
         <f>+Earnings_Comparison!E49</f>
-        <v>874.01</v>
+        <v>876.34</v>
       </c>
       <c r="D48" s="30">
         <f>+Earnings_Comparison!H49</f>
-        <v>2.1963569208616862</v>
+        <v>-0.95459105230633057</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -5224,11 +5157,11 @@
       </c>
       <c r="C49" s="31">
         <f>+Earnings_Comparison!E50</f>
-        <v>824.11</v>
+        <v>810.41</v>
       </c>
       <c r="D49" s="30">
         <f>+Earnings_Comparison!H50</f>
-        <v>5.1168168185089513E-2</v>
+        <v>-2.5589286129104272</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -5241,11 +5174,11 @@
       </c>
       <c r="C50" s="31">
         <f>+Earnings_Comparison!E51</f>
-        <v>972.16</v>
+        <v>942.65</v>
       </c>
       <c r="D50" s="30">
         <f>+Earnings_Comparison!H51</f>
-        <v>3.9731716330568601</v>
+        <v>-1.3735045010267788</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -5258,11 +5191,11 @@
       </c>
       <c r="C51" s="31">
         <f>+Earnings_Comparison!E52</f>
-        <v>1088.2</v>
+        <v>1052.94</v>
       </c>
       <c r="D51" s="30">
         <f>+Earnings_Comparison!H52</f>
-        <v>4.0508986882768161</v>
+        <v>-2.9000869574255295</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -5275,11 +5208,11 @@
       </c>
       <c r="C52" s="31">
         <f>+Earnings_Comparison!E53</f>
-        <v>749.42</v>
+        <v>747.3</v>
       </c>
       <c r="D52" s="30">
         <f>+Earnings_Comparison!H53</f>
-        <v>1.673551832281861</v>
+        <v>0.45962876763450122</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -5292,11 +5225,11 @@
       </c>
       <c r="C53" s="31">
         <f>+Earnings_Comparison!E54</f>
-        <v>824.5</v>
+        <v>818.91</v>
       </c>
       <c r="D53" s="30">
         <f>+Earnings_Comparison!H54</f>
-        <v>1.9566654771708603</v>
+        <v>-2.2306367388025272E-2</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -5309,11 +5242,11 @@
       </c>
       <c r="C54" s="31">
         <f>+Earnings_Comparison!E55</f>
-        <v>805.1</v>
+        <v>796.87</v>
       </c>
       <c r="D54" s="30">
         <f>+Earnings_Comparison!H55</f>
-        <v>-1.8364383153919972</v>
+        <v>-4.0590678230134625</v>
       </c>
     </row>
   </sheetData>
@@ -5326,14 +5259,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="D42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F45" sqref="F45"/>
+      <selection pane="bottomRight" activeCell="L58" sqref="L58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5350,10 +5283,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="43"/>
+      <c r="D1" s="48"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C2" s="2" t="s">
@@ -5422,21 +5355,21 @@
         <v>5</v>
       </c>
       <c r="D5" s="36">
-        <f>'October 2016_BLS Data Series'!K5</f>
-        <v>755.38</v>
+        <f>'November 2016_BLS Data Series'!L5</f>
+        <v>765.03</v>
       </c>
       <c r="E5" s="36">
-        <f>'October 2016_BLS Data Series'!W5</f>
-        <v>798.78</v>
+        <f>'November 2016_BLS Data Series'!X5</f>
+        <v>780.22</v>
       </c>
       <c r="F5" s="37"/>
       <c r="G5" s="37">
         <f>D5/$G$61</f>
-        <v>767.73792253550744</v>
+        <v>777.97841705430267</v>
       </c>
       <c r="H5" s="11">
         <f>((E5/G5)-1)*100</f>
-        <v>4.0433169384122669</v>
+        <v>0.28812919440424078</v>
       </c>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
@@ -5454,21 +5387,21 @@
         <v>6</v>
       </c>
       <c r="D6" s="36">
-        <f>'October 2016_BLS Data Series'!K6</f>
-        <v>973.33</v>
+        <f>'November 2016_BLS Data Series'!L6</f>
+        <v>976.28</v>
       </c>
       <c r="E6" s="36">
-        <f>'October 2016_BLS Data Series'!W6</f>
-        <v>1007.69</v>
+        <f>'November 2016_BLS Data Series'!X6</f>
+        <v>985.83</v>
       </c>
       <c r="F6" s="37"/>
       <c r="G6" s="37">
         <f t="shared" ref="G6:G55" si="0">D6/$G$61</f>
-        <v>989.25355733734739</v>
+        <v>992.80390181009193</v>
       </c>
       <c r="H6" s="11">
         <f t="shared" ref="H6:H55" si="1">((E6/G6)-1)*100</f>
-        <v>1.8636721117562427</v>
+        <v>-0.70244504452259271</v>
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
@@ -5486,21 +5419,21 @@
         <v>7</v>
       </c>
       <c r="D7" s="36">
-        <f>'October 2016_BLS Data Series'!K7</f>
-        <v>801.86</v>
+        <f>'November 2016_BLS Data Series'!L7</f>
+        <v>812.41</v>
       </c>
       <c r="E7" s="36">
-        <f>'October 2016_BLS Data Series'!W7</f>
-        <v>851.89</v>
+        <f>'November 2016_BLS Data Series'!X7</f>
+        <v>832.38</v>
       </c>
       <c r="F7" s="37"/>
       <c r="G7" s="37">
         <f t="shared" si="0"/>
-        <v>814.97832953522993</v>
+        <v>826.16034116189701</v>
       </c>
       <c r="H7" s="11">
         <f t="shared" si="1"/>
-        <v>4.5291597490475954</v>
+        <v>0.75283919213016137</v>
       </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
@@ -5518,21 +5451,21 @@
         <v>8</v>
       </c>
       <c r="D8" s="36">
-        <f>'October 2016_BLS Data Series'!K8</f>
-        <v>675.86</v>
+        <f>'November 2016_BLS Data Series'!L8</f>
+        <v>686.26</v>
       </c>
       <c r="E8" s="36">
-        <f>'October 2016_BLS Data Series'!W8</f>
-        <v>706.15</v>
+        <f>'November 2016_BLS Data Series'!X8</f>
+        <v>693.89</v>
       </c>
       <c r="F8" s="37"/>
       <c r="G8" s="37">
         <f t="shared" si="0"/>
-        <v>686.91698525887375</v>
+        <v>697.87520553139848</v>
       </c>
       <c r="H8" s="11">
         <f t="shared" si="1"/>
-        <v>2.799903795344072</v>
+        <v>-0.57104844817691403</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -5550,21 +5483,21 @@
         <v>9</v>
       </c>
       <c r="D9" s="36">
-        <f>'October 2016_BLS Data Series'!K9</f>
-        <v>970.14</v>
+        <f>'November 2016_BLS Data Series'!L9</f>
+        <v>994.73</v>
       </c>
       <c r="E9" s="36">
-        <f>'October 2016_BLS Data Series'!W9</f>
-        <v>1036.3499999999999</v>
+        <f>'November 2016_BLS Data Series'!X9</f>
+        <v>1003.62</v>
       </c>
       <c r="F9" s="37"/>
       <c r="G9" s="37">
         <f t="shared" si="0"/>
-        <v>986.01136933543012</v>
+        <v>1011.5661749165739</v>
       </c>
       <c r="H9" s="11">
         <f t="shared" si="1"/>
-        <v>5.1052789278178246</v>
+        <v>-0.7855318923874921</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -5582,21 +5515,21 @@
         <v>10</v>
       </c>
       <c r="D10" s="36">
-        <f>'October 2016_BLS Data Series'!K10</f>
-        <v>917.67</v>
+        <f>'November 2016_BLS Data Series'!L10</f>
+        <v>927.18</v>
       </c>
       <c r="E10" s="36">
-        <f>'October 2016_BLS Data Series'!W10</f>
-        <v>935.36</v>
+        <f>'November 2016_BLS Data Series'!X10</f>
+        <v>902.8</v>
       </c>
       <c r="F10" s="37"/>
       <c r="G10" s="37">
         <f t="shared" si="0"/>
-        <v>932.68296668320454</v>
+        <v>942.87286606330258</v>
       </c>
       <c r="H10" s="11">
         <f t="shared" si="1"/>
-        <v>0.28702500339590209</v>
+        <v>-4.2500815863559023</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -5614,21 +5547,21 @@
         <v>11</v>
       </c>
       <c r="D11" s="36">
-        <f>'October 2016_BLS Data Series'!K11</f>
-        <v>993.81</v>
+        <f>'November 2016_BLS Data Series'!L11</f>
+        <v>1010.28</v>
       </c>
       <c r="E11" s="36">
-        <f>'October 2016_BLS Data Series'!W11</f>
-        <v>1055.4100000000001</v>
+        <f>'November 2016_BLS Data Series'!X11</f>
+        <v>1029.8699999999999</v>
       </c>
       <c r="F11" s="37"/>
       <c r="G11" s="37">
         <f t="shared" si="0"/>
-        <v>1010.0686075816312</v>
+        <v>1027.3793644453433</v>
       </c>
       <c r="H11" s="11">
         <f t="shared" si="1"/>
-        <v>4.4889418479134857</v>
+        <v>0.24242608337781135</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -5646,21 +5579,21 @@
         <v>12</v>
       </c>
       <c r="D12" s="36">
-        <f>'October 2016_BLS Data Series'!K12</f>
-        <v>761.54</v>
+        <f>'November 2016_BLS Data Series'!L12</f>
+        <v>765.61</v>
       </c>
       <c r="E12" s="36">
-        <f>'October 2016_BLS Data Series'!W12</f>
-        <v>835.33</v>
+        <f>'November 2016_BLS Data Series'!X12</f>
+        <v>806.93</v>
       </c>
       <c r="F12" s="37"/>
       <c r="G12" s="37">
         <f t="shared" si="0"/>
-        <v>773.9986993667959</v>
+        <v>778.56823376984528</v>
       </c>
       <c r="H12" s="11">
         <f t="shared" si="1"/>
-        <v>7.9239539657339098</v>
+        <v>3.6428106105519387</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -5678,21 +5611,21 @@
         <v>13</v>
       </c>
       <c r="D13" s="36">
-        <f>'October 2016_BLS Data Series'!K13</f>
-        <v>1273.6199999999999</v>
+        <f>'November 2016_BLS Data Series'!L13</f>
+        <v>1345.68</v>
       </c>
       <c r="E13" s="36">
-        <f>'October 2016_BLS Data Series'!W13</f>
-        <v>1463.62</v>
+        <f>'November 2016_BLS Data Series'!X13</f>
+        <v>1390.2</v>
       </c>
       <c r="F13" s="37"/>
       <c r="G13" s="37">
         <f t="shared" si="0"/>
-        <v>1294.4562642639107</v>
+        <v>1368.4561340883811</v>
       </c>
       <c r="H13" s="11">
         <f t="shared" si="1"/>
-        <v>13.068323774715074</v>
+        <v>1.5889340819904341</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -5710,21 +5643,21 @@
         <v>14</v>
       </c>
       <c r="D14" s="36">
-        <f>'October 2016_BLS Data Series'!K14</f>
-        <v>777.82</v>
+        <f>'November 2016_BLS Data Series'!L14</f>
+        <v>792.81</v>
       </c>
       <c r="E14" s="36">
-        <f>'October 2016_BLS Data Series'!W14</f>
-        <v>810.21</v>
+        <f>'November 2016_BLS Data Series'!X14</f>
+        <v>803.08</v>
       </c>
       <c r="F14" s="37"/>
       <c r="G14" s="37">
         <f t="shared" si="0"/>
-        <v>790.54503813520137</v>
+        <v>806.22860387804621</v>
       </c>
       <c r="H14" s="11">
         <f t="shared" si="1"/>
-        <v>2.4875194854408145</v>
+        <v>-0.3905348759521865</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -5742,21 +5675,21 @@
         <v>15</v>
       </c>
       <c r="D15" s="36">
-        <f>'October 2016_BLS Data Series'!K15</f>
-        <v>839.03</v>
+        <f>'November 2016_BLS Data Series'!L15</f>
+        <v>852.23</v>
       </c>
       <c r="E15" s="36">
-        <f>'October 2016_BLS Data Series'!W15</f>
-        <v>879.26</v>
+        <f>'November 2016_BLS Data Series'!X15</f>
+        <v>859.21</v>
       </c>
       <c r="F15" s="37"/>
       <c r="G15" s="37">
         <f t="shared" si="0"/>
-        <v>852.75642609675504</v>
+        <v>866.65430946000606</v>
       </c>
       <c r="H15" s="11">
         <f t="shared" si="1"/>
-        <v>3.1079887635156789</v>
+        <v>-0.85897103132671626</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -5774,21 +5707,21 @@
         <v>16</v>
       </c>
       <c r="D16" s="36">
-        <f>'October 2016_BLS Data Series'!K16</f>
-        <v>806.2</v>
+        <f>'November 2016_BLS Data Series'!L16</f>
+        <v>833.15</v>
       </c>
       <c r="E16" s="36">
-        <f>'October 2016_BLS Data Series'!W16</f>
-        <v>867.22</v>
+        <f>'November 2016_BLS Data Series'!X16</f>
+        <v>818.88</v>
       </c>
       <c r="F16" s="37"/>
       <c r="G16" s="37">
         <f t="shared" si="0"/>
-        <v>819.3893313936378</v>
+        <v>847.25137336940031</v>
       </c>
       <c r="H16" s="11">
         <f t="shared" si="1"/>
-        <v>5.8373555492857943</v>
+        <v>-3.3486370469452686</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -5806,21 +5739,21 @@
         <v>17</v>
       </c>
       <c r="D17" s="36">
-        <f>'October 2016_BLS Data Series'!K17</f>
-        <v>738.7</v>
+        <f>'November 2016_BLS Data Series'!L17</f>
+        <v>748.39</v>
       </c>
       <c r="E17" s="36">
-        <f>'October 2016_BLS Data Series'!W17</f>
-        <v>755.33</v>
+        <f>'November 2016_BLS Data Series'!X17</f>
+        <v>739.2</v>
       </c>
       <c r="F17" s="37"/>
       <c r="G17" s="37">
         <f t="shared" si="0"/>
-        <v>750.7850398170184</v>
+        <v>761.05677887046204</v>
       </c>
       <c r="H17" s="11">
         <f t="shared" si="1"/>
-        <v>0.60536104769606247</v>
+        <v>-2.8718985859243262</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -5838,21 +5771,21 @@
         <v>18</v>
       </c>
       <c r="D18" s="36">
-        <f>'October 2016_BLS Data Series'!K18</f>
-        <v>902.31</v>
+        <f>'November 2016_BLS Data Series'!L18</f>
+        <v>920.94</v>
       </c>
       <c r="E18" s="36">
-        <f>'October 2016_BLS Data Series'!W18</f>
-        <v>933.51</v>
+        <f>'November 2016_BLS Data Series'!X18</f>
+        <v>908.77</v>
       </c>
       <c r="F18" s="37"/>
       <c r="G18" s="37">
         <f t="shared" si="0"/>
-        <v>917.0716789999916</v>
+        <v>936.52725174436239</v>
       </c>
       <c r="H18" s="11">
         <f t="shared" si="1"/>
-        <v>1.7924794077092576</v>
+        <v>-2.9638488034023691</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -5870,21 +5803,21 @@
         <v>19</v>
       </c>
       <c r="D19" s="36">
-        <f>'October 2016_BLS Data Series'!K19</f>
-        <v>799.21</v>
+        <f>'November 2016_BLS Data Series'!L19</f>
+        <v>807.45</v>
       </c>
       <c r="E19" s="36">
-        <f>'October 2016_BLS Data Series'!W19</f>
-        <v>843.45</v>
+        <f>'November 2016_BLS Data Series'!X19</f>
+        <v>834.75</v>
       </c>
       <c r="F19" s="37"/>
       <c r="G19" s="37">
         <f t="shared" si="0"/>
-        <v>812.28497586592562</v>
+        <v>821.11639131863683</v>
       </c>
       <c r="H19" s="11">
         <f t="shared" si="1"/>
-        <v>3.8367106446664634</v>
+        <v>1.6603746832369204</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -5902,21 +5835,21 @@
         <v>20</v>
       </c>
       <c r="D20" s="36">
-        <f>'October 2016_BLS Data Series'!K20</f>
-        <v>796.02</v>
+        <f>'November 2016_BLS Data Series'!L20</f>
+        <v>781.1</v>
       </c>
       <c r="E20" s="36">
-        <f>'October 2016_BLS Data Series'!W20</f>
-        <v>829.06</v>
+        <f>'November 2016_BLS Data Series'!X20</f>
+        <v>819.89</v>
       </c>
       <c r="F20" s="37"/>
       <c r="G20" s="37">
         <f t="shared" si="0"/>
-        <v>809.04278786400835</v>
+        <v>794.3204077763171</v>
       </c>
       <c r="H20" s="11">
         <f t="shared" si="1"/>
-        <v>2.4741846088066621</v>
+        <v>3.2190526610369252</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -5934,21 +5867,21 @@
         <v>21</v>
       </c>
       <c r="D21" s="36">
-        <f>'October 2016_BLS Data Series'!K21</f>
-        <v>779.08</v>
+        <f>'November 2016_BLS Data Series'!L21</f>
+        <v>790.17</v>
       </c>
       <c r="E21" s="36">
-        <f>'October 2016_BLS Data Series'!W21</f>
-        <v>800.06</v>
+        <f>'November 2016_BLS Data Series'!X21</f>
+        <v>778.75</v>
       </c>
       <c r="F21" s="37"/>
       <c r="G21" s="37">
         <f t="shared" si="0"/>
-        <v>791.82565157796489</v>
+        <v>803.54392089695614</v>
       </c>
       <c r="H21" s="11">
         <f t="shared" si="1"/>
-        <v>1.039919381953025</v>
+        <v>-3.0855713361977677</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -5966,21 +5899,21 @@
         <v>22</v>
       </c>
       <c r="D22" s="36">
-        <f>'October 2016_BLS Data Series'!K22</f>
-        <v>741.95</v>
+        <f>'November 2016_BLS Data Series'!L22</f>
+        <v>747.56</v>
       </c>
       <c r="E22" s="36">
-        <f>'October 2016_BLS Data Series'!W22</f>
-        <v>761.81</v>
+        <f>'November 2016_BLS Data Series'!X22</f>
+        <v>750.82</v>
       </c>
       <c r="F22" s="37"/>
       <c r="G22" s="37">
         <f t="shared" si="0"/>
-        <v>754.08820941144825</v>
+        <v>760.21273081201321</v>
       </c>
       <c r="H22" s="11">
         <f t="shared" si="1"/>
-        <v>1.0239903624243762</v>
+        <v>-1.2355397944967872</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -5998,21 +5931,21 @@
         <v>23</v>
       </c>
       <c r="D23" s="36">
-        <f>'October 2016_BLS Data Series'!K23</f>
-        <v>801.29</v>
+        <f>'November 2016_BLS Data Series'!L23</f>
+        <v>812.52</v>
       </c>
       <c r="E23" s="36">
-        <f>'October 2016_BLS Data Series'!W23</f>
-        <v>829.67</v>
+        <f>'November 2016_BLS Data Series'!X23</f>
+        <v>803.95</v>
       </c>
       <c r="F23" s="37"/>
       <c r="G23" s="37">
         <f t="shared" si="0"/>
-        <v>814.39900440636063</v>
+        <v>826.27220295277573</v>
       </c>
       <c r="H23" s="11">
         <f t="shared" si="1"/>
-        <v>1.8751245410437045</v>
+        <v>-2.701555597901617</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -6030,21 +5963,21 @@
         <v>24</v>
       </c>
       <c r="D24" s="36">
-        <f>'October 2016_BLS Data Series'!K24</f>
-        <v>754.94</v>
+        <f>'November 2016_BLS Data Series'!L24</f>
+        <v>761.46</v>
       </c>
       <c r="E24" s="36">
-        <f>'October 2016_BLS Data Series'!W24</f>
-        <v>771.41</v>
+        <f>'November 2016_BLS Data Series'!X24</f>
+        <v>760.72</v>
       </c>
       <c r="F24" s="37"/>
       <c r="G24" s="37">
         <f t="shared" si="0"/>
-        <v>767.2907241904154</v>
+        <v>774.34799347760134</v>
       </c>
       <c r="H24" s="11">
         <f t="shared" si="1"/>
-        <v>0.53685984721514313</v>
+        <v>-1.7599313993696741</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -6062,21 +5995,21 @@
         <v>25</v>
       </c>
       <c r="D25" s="36">
-        <f>'October 2016_BLS Data Series'!K25</f>
-        <v>941.47</v>
+        <f>'November 2016_BLS Data Series'!L25</f>
+        <v>958.07</v>
       </c>
       <c r="E25" s="36">
-        <f>'October 2016_BLS Data Series'!W25</f>
-        <v>963.2</v>
+        <f>'November 2016_BLS Data Series'!X25</f>
+        <v>959.1</v>
       </c>
       <c r="F25" s="37"/>
       <c r="G25" s="37">
         <f t="shared" si="0"/>
-        <v>956.87233171318303</v>
+        <v>974.2856907928001</v>
       </c>
       <c r="H25" s="11">
         <f t="shared" si="1"/>
-        <v>0.6612865768088394</v>
+        <v>-1.5586486526804166</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -6094,21 +6027,21 @@
         <v>26</v>
       </c>
       <c r="D26" s="36">
-        <f>'October 2016_BLS Data Series'!K26</f>
-        <v>1031.47</v>
+        <f>'November 2016_BLS Data Series'!L26</f>
+        <v>1055.57</v>
       </c>
       <c r="E26" s="36">
-        <f>'October 2016_BLS Data Series'!W26</f>
-        <v>1075.7</v>
+        <f>'November 2016_BLS Data Series'!X26</f>
+        <v>1067.8</v>
       </c>
       <c r="F26" s="37"/>
       <c r="G26" s="37">
         <f t="shared" si="0"/>
-        <v>1048.3447204820088</v>
+        <v>1073.4359145262413</v>
       </c>
       <c r="H26" s="11">
         <f t="shared" si="1"/>
-        <v>2.6093782878416016</v>
+        <v>-0.52503502537724067</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -6126,21 +6059,21 @@
         <v>27</v>
       </c>
       <c r="D27" s="36">
-        <f>'October 2016_BLS Data Series'!K27</f>
-        <v>837.26</v>
+        <f>'November 2016_BLS Data Series'!L27</f>
+        <v>844.22</v>
       </c>
       <c r="E27" s="36">
-        <f>'October 2016_BLS Data Series'!W27</f>
-        <v>858.89</v>
+        <f>'November 2016_BLS Data Series'!X27</f>
+        <v>845.6</v>
       </c>
       <c r="F27" s="37"/>
       <c r="G27" s="37">
         <f t="shared" si="0"/>
-        <v>850.95746911763479</v>
+        <v>858.50873723328948</v>
       </c>
       <c r="H27" s="11">
         <f t="shared" si="1"/>
-        <v>0.93218887785198046</v>
+        <v>-1.5036232799319427</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -6158,21 +6091,21 @@
         <v>28</v>
       </c>
       <c r="D28" s="36">
-        <f>'October 2016_BLS Data Series'!K28</f>
-        <v>897.26</v>
+        <f>'November 2016_BLS Data Series'!L28</f>
+        <v>900.14</v>
       </c>
       <c r="E28" s="36">
-        <f>'October 2016_BLS Data Series'!W28</f>
-        <v>952.89</v>
+        <f>'November 2016_BLS Data Series'!X28</f>
+        <v>947.92</v>
       </c>
       <c r="F28" s="37"/>
       <c r="G28" s="37">
         <f t="shared" si="0"/>
-        <v>911.93906163018528</v>
+        <v>915.37520401456163</v>
       </c>
       <c r="H28" s="11">
         <f t="shared" si="1"/>
-        <v>4.4905345206521341</v>
+        <v>3.5553504008746017</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -6190,21 +6123,21 @@
         <v>29</v>
       </c>
       <c r="D29" s="36">
-        <f>'October 2016_BLS Data Series'!K29</f>
-        <v>683.59</v>
+        <f>'November 2016_BLS Data Series'!L29</f>
+        <v>698.49</v>
       </c>
       <c r="E29" s="36">
-        <f>'October 2016_BLS Data Series'!W29</f>
-        <v>719.94</v>
+        <f>'November 2016_BLS Data Series'!X29</f>
+        <v>699.13</v>
       </c>
       <c r="F29" s="37"/>
       <c r="G29" s="37">
         <f t="shared" si="0"/>
-        <v>694.77344709424074</v>
+        <v>710.31220282637275</v>
       </c>
       <c r="H29" s="11">
         <f t="shared" si="1"/>
-        <v>3.6222675191479592</v>
+        <v>-1.5742659047497942</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -6222,21 +6155,21 @@
         <v>30</v>
       </c>
       <c r="D30" s="36">
-        <f>'October 2016_BLS Data Series'!K30</f>
-        <v>744.95</v>
+        <f>'November 2016_BLS Data Series'!L30</f>
+        <v>755.48</v>
       </c>
       <c r="E30" s="36">
-        <f>'October 2016_BLS Data Series'!W30</f>
-        <v>791.23</v>
+        <f>'November 2016_BLS Data Series'!X30</f>
+        <v>768.57</v>
       </c>
       <c r="F30" s="37"/>
       <c r="G30" s="37">
         <f t="shared" si="0"/>
-        <v>757.13728903707579</v>
+        <v>768.26677975528366</v>
       </c>
       <c r="H30" s="11">
         <f t="shared" si="1"/>
-        <v>4.5028439962695899</v>
+        <v>3.9468092686889555E-2</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -6254,21 +6187,21 @@
         <v>31</v>
       </c>
       <c r="D31" s="36">
-        <f>'October 2016_BLS Data Series'!K31</f>
-        <v>723.13</v>
+        <f>'November 2016_BLS Data Series'!L31</f>
+        <v>747.78</v>
       </c>
       <c r="E31" s="36">
-        <f>'October 2016_BLS Data Series'!W31</f>
-        <v>709.49</v>
+        <f>'November 2016_BLS Data Series'!X31</f>
+        <v>737.75</v>
       </c>
       <c r="F31" s="37"/>
       <c r="G31" s="37">
         <f t="shared" si="0"/>
-        <v>734.96031656001151</v>
+        <v>760.43645439377076</v>
       </c>
       <c r="H31" s="11">
         <f t="shared" si="1"/>
-        <v>-3.4655362998679329</v>
+        <v>-2.9833465061662068</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -6286,21 +6219,21 @@
         <v>32</v>
       </c>
       <c r="D32" s="36">
-        <f>'October 2016_BLS Data Series'!K32</f>
-        <v>766.61</v>
+        <f>'November 2016_BLS Data Series'!L32</f>
+        <v>774.63</v>
       </c>
       <c r="E32" s="36">
-        <f>'October 2016_BLS Data Series'!W32</f>
-        <v>808.95</v>
+        <f>'November 2016_BLS Data Series'!X32</f>
+        <v>781.73</v>
       </c>
       <c r="F32" s="37"/>
       <c r="G32" s="37">
         <f t="shared" si="0"/>
-        <v>779.15164393410646</v>
+        <v>787.74090062190305</v>
       </c>
       <c r="H32" s="11">
         <f t="shared" si="1"/>
-        <v>3.8244616818666088</v>
+        <v>-0.76305554493331096</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -6318,21 +6251,21 @@
         <v>33</v>
       </c>
       <c r="D33" s="36">
-        <f>'October 2016_BLS Data Series'!K33</f>
-        <v>741.69</v>
+        <f>'November 2016_BLS Data Series'!L33</f>
+        <v>753.94</v>
       </c>
       <c r="E33" s="36">
-        <f>'October 2016_BLS Data Series'!W33</f>
-        <v>758.86</v>
+        <f>'November 2016_BLS Data Series'!X33</f>
+        <v>752.08</v>
       </c>
       <c r="F33" s="37"/>
       <c r="G33" s="37">
         <f t="shared" si="0"/>
-        <v>753.82395584389383</v>
+        <v>766.70071468298113</v>
       </c>
       <c r="H33" s="11">
         <f t="shared" si="1"/>
-        <v>0.66806634587095459</v>
+        <v>-1.9069650520707415</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -6350,21 +6283,21 @@
         <v>34</v>
       </c>
       <c r="D34" s="36">
-        <f>'October 2016_BLS Data Series'!K34</f>
-        <v>852.1</v>
+        <f>'November 2016_BLS Data Series'!L34</f>
+        <v>862.76</v>
       </c>
       <c r="E34" s="36">
-        <f>'October 2016_BLS Data Series'!W34</f>
-        <v>913.22</v>
+        <f>'November 2016_BLS Data Series'!X34</f>
+        <v>890.01</v>
       </c>
       <c r="F34" s="37"/>
       <c r="G34" s="37">
         <f t="shared" si="0"/>
-        <v>866.040249665739</v>
+        <v>877.3625336232177</v>
       </c>
       <c r="H34" s="11">
         <f t="shared" si="1"/>
-        <v>5.4477549227614608</v>
+        <v>1.441532535536072</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -6382,21 +6315,21 @@
         <v>35</v>
       </c>
       <c r="D35" s="36">
-        <f>'October 2016_BLS Data Series'!K35</f>
-        <v>943.1</v>
+        <f>'November 2016_BLS Data Series'!L35</f>
+        <v>956.08</v>
       </c>
       <c r="E35" s="36">
-        <f>'October 2016_BLS Data Series'!W35</f>
-        <v>1005.97</v>
+        <f>'November 2016_BLS Data Series'!X35</f>
+        <v>992.42</v>
       </c>
       <c r="F35" s="37"/>
       <c r="G35" s="37">
         <f t="shared" si="0"/>
-        <v>958.52899830977401</v>
+        <v>972.26200930326627</v>
       </c>
       <c r="H35" s="11">
         <f t="shared" si="1"/>
-        <v>4.949354873340428</v>
+        <v>2.0733084810316882</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -6414,21 +6347,21 @@
         <v>36</v>
       </c>
       <c r="D36" s="36">
-        <f>'October 2016_BLS Data Series'!K36</f>
-        <v>699.73</v>
+        <f>'November 2016_BLS Data Series'!L36</f>
+        <v>705.55</v>
       </c>
       <c r="E36" s="36">
-        <f>'October 2016_BLS Data Series'!W36</f>
-        <v>706.76</v>
+        <f>'November 2016_BLS Data Series'!X36</f>
+        <v>693.05</v>
       </c>
       <c r="F36" s="37"/>
       <c r="G36" s="37">
         <f t="shared" si="0"/>
-        <v>711.17749548011682</v>
+        <v>717.49169595004548</v>
       </c>
       <c r="H36" s="11">
         <f t="shared" si="1"/>
-        <v>-0.62115231544757066</v>
+        <v>-3.4065475723285887</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -6446,21 +6379,21 @@
         <v>37</v>
       </c>
       <c r="D37" s="36">
-        <f>'October 2016_BLS Data Series'!K37</f>
-        <v>969.21</v>
+        <f>'November 2016_BLS Data Series'!L37</f>
+        <v>993.82</v>
       </c>
       <c r="E37" s="36">
-        <f>'October 2016_BLS Data Series'!W37</f>
-        <v>996.85</v>
+        <f>'November 2016_BLS Data Series'!X37</f>
+        <v>981.22</v>
       </c>
       <c r="F37" s="37"/>
       <c r="G37" s="37">
         <f t="shared" si="0"/>
-        <v>985.06615465148559</v>
+        <v>1010.6407728283951</v>
       </c>
       <c r="H37" s="11">
         <f t="shared" si="1"/>
-        <v>1.1962491344232218</v>
+        <v>-2.9111009192769544</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -6478,21 +6411,21 @@
         <v>38</v>
       </c>
       <c r="D38" s="36">
-        <f>'October 2016_BLS Data Series'!K38</f>
-        <v>778.15</v>
+        <f>'November 2016_BLS Data Series'!L38</f>
+        <v>790.26</v>
       </c>
       <c r="E38" s="36">
-        <f>'October 2016_BLS Data Series'!W38</f>
-        <v>826.25</v>
+        <f>'November 2016_BLS Data Series'!X38</f>
+        <v>818.03</v>
       </c>
       <c r="F38" s="37"/>
       <c r="G38" s="37">
         <f t="shared" si="0"/>
-        <v>790.88043689402036</v>
+        <v>803.63544418040237</v>
       </c>
       <c r="H38" s="11">
         <f t="shared" si="1"/>
-        <v>4.4721757494577297</v>
+        <v>1.7911798096807541</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -6510,21 +6443,21 @@
         <v>39</v>
       </c>
       <c r="D39" s="36">
-        <f>'October 2016_BLS Data Series'!K39</f>
-        <v>907.3</v>
+        <f>'November 2016_BLS Data Series'!L39</f>
+        <v>901.56</v>
       </c>
       <c r="E39" s="36">
-        <f>'October 2016_BLS Data Series'!W39</f>
-        <v>913.09</v>
+        <f>'November 2016_BLS Data Series'!X39</f>
+        <v>873.3</v>
       </c>
       <c r="F39" s="37"/>
       <c r="G39" s="37">
         <f t="shared" si="0"/>
-        <v>922.14331477728547</v>
+        <v>916.81923804226903</v>
       </c>
       <c r="H39" s="11">
         <f t="shared" si="1"/>
-        <v>-0.98176873726747438</v>
+        <v>-4.7467631825874328</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -6542,21 +6475,21 @@
         <v>40</v>
       </c>
       <c r="D40" s="36">
-        <f>'October 2016_BLS Data Series'!K40</f>
-        <v>782.94</v>
+        <f>'November 2016_BLS Data Series'!L40</f>
+        <v>795.11</v>
       </c>
       <c r="E40" s="36">
-        <f>'October 2016_BLS Data Series'!W40</f>
-        <v>823.83</v>
+        <f>'November 2016_BLS Data Series'!X40</f>
+        <v>811.2</v>
       </c>
       <c r="F40" s="37"/>
       <c r="G40" s="37">
         <f t="shared" si="0"/>
-        <v>795.74880069627238</v>
+        <v>808.56753223278383</v>
       </c>
       <c r="H40" s="11">
         <f t="shared" si="1"/>
-        <v>3.5289024977677386</v>
+        <v>0.32557178742347315</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -6574,21 +6507,21 @@
         <v>41</v>
       </c>
       <c r="D41" s="36">
-        <f>'October 2016_BLS Data Series'!K41</f>
-        <v>756.46</v>
+        <f>'November 2016_BLS Data Series'!L41</f>
+        <v>771.5</v>
       </c>
       <c r="E41" s="36">
-        <f>'October 2016_BLS Data Series'!W41</f>
-        <v>800.75</v>
+        <f>'November 2016_BLS Data Series'!X41</f>
+        <v>782.46</v>
       </c>
       <c r="F41" s="37"/>
       <c r="G41" s="37">
         <f t="shared" si="0"/>
-        <v>768.83559120073335</v>
+        <v>784.55792420871671</v>
       </c>
       <c r="H41" s="11">
         <f t="shared" si="1"/>
-        <v>4.1510056460086764</v>
+        <v>-0.26740208007364208</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -6606,21 +6539,21 @@
         <v>42</v>
       </c>
       <c r="D42" s="36">
-        <f>'October 2016_BLS Data Series'!K42</f>
-        <v>801.39</v>
+        <f>'November 2016_BLS Data Series'!L42</f>
+        <v>828.35</v>
       </c>
       <c r="E42" s="36">
-        <f>'October 2016_BLS Data Series'!W42</f>
-        <v>888.03</v>
+        <f>'November 2016_BLS Data Series'!X42</f>
+        <v>858.16</v>
       </c>
       <c r="F42" s="37"/>
       <c r="G42" s="37">
         <f t="shared" si="0"/>
-        <v>814.50064039388155</v>
+        <v>842.37013158560012</v>
       </c>
       <c r="H42" s="11">
         <f t="shared" si="1"/>
-        <v>9.0275385873927139</v>
+        <v>1.8744572987979158</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -6638,21 +6571,21 @@
         <v>43</v>
       </c>
       <c r="D43" s="36">
-        <f>'October 2016_BLS Data Series'!K43</f>
-        <v>828.97</v>
+        <f>'November 2016_BLS Data Series'!L43</f>
+        <v>841.72</v>
       </c>
       <c r="E43" s="36">
-        <f>'October 2016_BLS Data Series'!W43</f>
-        <v>847.28</v>
+        <f>'November 2016_BLS Data Series'!X43</f>
+        <v>845.47</v>
       </c>
       <c r="F43" s="37"/>
       <c r="G43" s="37">
         <f t="shared" si="0"/>
-        <v>842.53184575215073</v>
+        <v>855.96642380422691</v>
       </c>
       <c r="H43" s="11">
         <f t="shared" si="1"/>
-        <v>0.56355783722459307</v>
+        <v>-1.2262658338369148</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -6670,21 +6603,21 @@
         <v>44</v>
       </c>
       <c r="D44" s="36">
-        <f>'October 2016_BLS Data Series'!K44</f>
-        <v>827.11</v>
+        <f>'November 2016_BLS Data Series'!L44</f>
+        <v>839.42</v>
       </c>
       <c r="E44" s="36">
-        <f>'October 2016_BLS Data Series'!W44</f>
-        <v>859.3</v>
+        <f>'November 2016_BLS Data Series'!X44</f>
+        <v>858.86</v>
       </c>
       <c r="F44" s="37"/>
       <c r="G44" s="37">
         <f t="shared" si="0"/>
-        <v>840.64141638426167</v>
+        <v>853.62749544948929</v>
       </c>
       <c r="H44" s="11">
         <f t="shared" si="1"/>
-        <v>2.2195651144565343</v>
+        <v>0.61297282226779881</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -6702,21 +6635,21 @@
         <v>45</v>
       </c>
       <c r="D45" s="36">
-        <f>'October 2016_BLS Data Series'!K45</f>
-        <v>744.94</v>
+        <f>'November 2016_BLS Data Series'!L45</f>
+        <v>758.64</v>
       </c>
       <c r="E45" s="36">
-        <f>'October 2016_BLS Data Series'!W45</f>
-        <v>768.47</v>
+        <f>'November 2016_BLS Data Series'!X45</f>
+        <v>775.72</v>
       </c>
       <c r="F45" s="37"/>
       <c r="G45" s="37">
         <f t="shared" si="0"/>
-        <v>757.12712543832367</v>
+        <v>771.48026392961867</v>
       </c>
       <c r="H45" s="11">
         <f t="shared" si="1"/>
-        <v>1.4981466362216977</v>
+        <v>0.54955859127048257</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -6734,21 +6667,21 @@
         <v>46</v>
       </c>
       <c r="D46" s="36">
-        <f>'October 2016_BLS Data Series'!K46</f>
-        <v>727.35</v>
+        <f>'November 2016_BLS Data Series'!L46</f>
+        <v>730.31</v>
       </c>
       <c r="E46" s="36">
-        <f>'October 2016_BLS Data Series'!W46</f>
-        <v>751.86</v>
+        <f>'November 2016_BLS Data Series'!X46</f>
+        <v>736.35</v>
       </c>
       <c r="F46" s="37"/>
       <c r="G46" s="37">
         <f t="shared" si="0"/>
-        <v>739.24935523339423</v>
+        <v>742.67076815148141</v>
       </c>
       <c r="H46" s="11">
         <f t="shared" si="1"/>
-        <v>1.7058715949267667</v>
+        <v>-0.85108616395578318</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -6766,21 +6699,21 @@
         <v>47</v>
       </c>
       <c r="D47" s="36">
-        <f>'October 2016_BLS Data Series'!K47</f>
-        <v>742.02</v>
+        <f>'November 2016_BLS Data Series'!L47</f>
+        <v>753.67</v>
       </c>
       <c r="E47" s="36">
-        <f>'October 2016_BLS Data Series'!W47</f>
-        <v>800.49</v>
+        <f>'November 2016_BLS Data Series'!X47</f>
+        <v>791.39</v>
       </c>
       <c r="F47" s="37"/>
       <c r="G47" s="37">
         <f t="shared" si="0"/>
-        <v>754.15935460271282</v>
+        <v>766.42614483264231</v>
       </c>
       <c r="H47" s="11">
         <f t="shared" si="1"/>
-        <v>6.1433495606102895</v>
+        <v>3.2571768768155485</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -6798,21 +6731,21 @@
         <v>48</v>
       </c>
       <c r="D48" s="36">
-        <f>'October 2016_BLS Data Series'!K48</f>
-        <v>876.79</v>
+        <f>'November 2016_BLS Data Series'!L48</f>
+        <v>898.35</v>
       </c>
       <c r="E48" s="36">
-        <f>'October 2016_BLS Data Series'!W48</f>
-        <v>899.57</v>
+        <f>'November 2016_BLS Data Series'!X48</f>
+        <v>877.21</v>
       </c>
       <c r="F48" s="37"/>
       <c r="G48" s="37">
         <f t="shared" si="0"/>
-        <v>891.13417498465344</v>
+        <v>913.55490759935276</v>
       </c>
       <c r="H48" s="11">
         <f t="shared" si="1"/>
-        <v>0.94663915402997123</v>
+        <v>-3.9784042860499969</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -6830,21 +6763,21 @@
         <v>49</v>
       </c>
       <c r="D49" s="36">
-        <f>'October 2016_BLS Data Series'!K49</f>
-        <v>841.46</v>
+        <f>'November 2016_BLS Data Series'!L49</f>
+        <v>870.06</v>
       </c>
       <c r="E49" s="36">
-        <f>'October 2016_BLS Data Series'!W49</f>
-        <v>874.01</v>
+        <f>'November 2016_BLS Data Series'!X49</f>
+        <v>876.34</v>
       </c>
       <c r="F49" s="37"/>
       <c r="G49" s="37">
         <f t="shared" si="0"/>
-        <v>855.22618059351339</v>
+        <v>884.78608883608035</v>
       </c>
       <c r="H49" s="11">
         <f t="shared" si="1"/>
-        <v>2.1963569208616862</v>
+        <v>-0.95459105230633057</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -6862,21 +6795,21 @@
         <v>50</v>
       </c>
       <c r="D50" s="36">
-        <f>'October 2016_BLS Data Series'!K50</f>
-        <v>810.43</v>
+        <f>'November 2016_BLS Data Series'!L50</f>
+        <v>817.85</v>
       </c>
       <c r="E50" s="36">
-        <f>'October 2016_BLS Data Series'!W50</f>
-        <v>824.11</v>
+        <f>'November 2016_BLS Data Series'!X50</f>
+        <v>810.41</v>
       </c>
       <c r="F50" s="37"/>
       <c r="G50" s="37">
         <f t="shared" si="0"/>
-        <v>823.68853366577252</v>
+        <v>831.69241518353726</v>
       </c>
       <c r="H50" s="11">
         <f t="shared" si="1"/>
-        <v>5.1168168185089513E-2</v>
+        <v>-2.5589286129104272</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -6894,21 +6827,21 @@
         <v>51</v>
       </c>
       <c r="D51" s="36">
-        <f>'October 2016_BLS Data Series'!K51</f>
-        <v>919.96</v>
+        <f>'November 2016_BLS Data Series'!L51</f>
+        <v>939.87</v>
       </c>
       <c r="E51" s="36">
-        <f>'October 2016_BLS Data Series'!W51</f>
-        <v>972.16</v>
+        <f>'November 2016_BLS Data Series'!X51</f>
+        <v>942.65</v>
       </c>
       <c r="F51" s="37"/>
       <c r="G51" s="37">
         <f t="shared" si="0"/>
-        <v>935.01043079743363</v>
+        <v>955.77764902922434</v>
       </c>
       <c r="H51" s="11">
         <f t="shared" si="1"/>
-        <v>3.9731716330568601</v>
+        <v>-1.3735045010267788</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -6926,21 +6859,21 @@
         <v>52</v>
       </c>
       <c r="D52" s="36">
-        <f>'October 2016_BLS Data Series'!K52</f>
-        <v>1029</v>
+        <f>'November 2016_BLS Data Series'!L52</f>
+        <v>1066.3399999999999</v>
       </c>
       <c r="E52" s="36">
-        <f>'October 2016_BLS Data Series'!W52</f>
-        <v>1088.2</v>
+        <f>'November 2016_BLS Data Series'!X52</f>
+        <v>1052.94</v>
       </c>
       <c r="F52" s="37"/>
       <c r="G52" s="37">
         <f t="shared" si="0"/>
-        <v>1045.8343115902421</v>
+        <v>1084.3882007786428</v>
       </c>
       <c r="H52" s="11">
         <f t="shared" si="1"/>
-        <v>4.0508986882768161</v>
+        <v>-2.9000869574255295</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -6958,21 +6891,21 @@
         <v>53</v>
       </c>
       <c r="D53" s="36">
-        <f>'October 2016_BLS Data Series'!K53</f>
-        <v>725.22</v>
+        <f>'November 2016_BLS Data Series'!L53</f>
+        <v>731.5</v>
       </c>
       <c r="E53" s="36">
-        <f>'October 2016_BLS Data Series'!W53</f>
-        <v>749.42</v>
+        <f>'November 2016_BLS Data Series'!X53</f>
+        <v>747.3</v>
       </c>
       <c r="F53" s="37"/>
       <c r="G53" s="37">
         <f t="shared" si="0"/>
-        <v>737.08450869919875</v>
+        <v>743.88090934371519</v>
       </c>
       <c r="H53" s="11">
         <f t="shared" si="1"/>
-        <v>1.673551832281861</v>
+        <v>0.45962876763450122</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -6990,21 +6923,21 @@
         <v>54</v>
       </c>
       <c r="D54" s="36">
-        <f>'October 2016_BLS Data Series'!K54</f>
-        <v>795.66</v>
+        <f>'November 2016_BLS Data Series'!L54</f>
+        <v>805.46</v>
       </c>
       <c r="E54" s="36">
-        <f>'October 2016_BLS Data Series'!W54</f>
-        <v>824.5</v>
+        <f>'November 2016_BLS Data Series'!X54</f>
+        <v>818.91</v>
       </c>
       <c r="F54" s="37"/>
       <c r="G54" s="37">
         <f t="shared" si="0"/>
-        <v>808.676898308933</v>
+        <v>819.092709829103</v>
       </c>
       <c r="H54" s="11">
         <f t="shared" si="1"/>
-        <v>1.9566654771708603</v>
+        <v>-2.2306367388025272E-2</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -7022,21 +6955,21 @@
         <v>55</v>
       </c>
       <c r="D55" s="36">
-        <f>'October 2016_BLS Data Series'!K55</f>
-        <v>806.96</v>
+        <f>'November 2016_BLS Data Series'!L55</f>
+        <v>816.76</v>
       </c>
       <c r="E55" s="36">
-        <f>'October 2016_BLS Data Series'!W55</f>
-        <v>805.1</v>
+        <f>'November 2016_BLS Data Series'!X55</f>
+        <v>796.87</v>
       </c>
       <c r="F55" s="37"/>
       <c r="G55" s="37">
         <f t="shared" si="0"/>
-        <v>820.16176489879672</v>
+        <v>830.58396652846591</v>
       </c>
       <c r="H55" s="11">
         <f t="shared" si="1"/>
-        <v>-1.8364383153919972</v>
+        <v>-4.0590678230134625</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -7078,19 +7011,19 @@
         <v>179</v>
       </c>
       <c r="D58" s="38">
-        <v>869.75</v>
+        <v>871.82</v>
       </c>
       <c r="E58" s="38">
-        <v>891.65</v>
+        <v>890.62</v>
       </c>
       <c r="F58" s="9"/>
       <c r="G58" s="11">
         <f>D58/$G$61</f>
-        <v>883.97900146318091</v>
+        <v>886.57587749014056</v>
       </c>
       <c r="H58" s="11">
         <f>((E58/G58)-1)*100</f>
-        <v>0.86778062873913431</v>
+        <v>0.45615074947766843</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -7128,15 +7061,15 @@
         <v>58</v>
       </c>
       <c r="D61" s="38">
-        <v>237.83799999999999</v>
+        <v>237.33600000000001</v>
       </c>
       <c r="E61">
-        <v>241.72900000000001</v>
+        <v>241.35300000000001</v>
       </c>
       <c r="F61" s="9"/>
       <c r="G61" s="9">
         <f>D61/E61</f>
-        <v>0.98390346214148894</v>
+        <v>0.98335632869697087</v>
       </c>
       <c r="H61" s="9"/>
       <c r="I61" s="9"/>
@@ -7185,7 +7118,6 @@
     <oddFooter>&amp;LSource: Bureau of Labor Statistics&amp;RGenerated on: March 27, 2015 (04:23:58 PM)</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -7194,10 +7126,10 @@
   <dimension ref="A1:Y55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D32" sqref="D32"/>
+      <selection pane="bottomRight" activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7208,3742 +7140,3895 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="44" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
     </row>
     <row r="4" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="48" t="s">
+      <c r="D4" s="33" t="s">
         <v>169</v>
       </c>
-      <c r="E4" s="48" t="s">
+      <c r="E4" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="F4" s="48" t="s">
+      <c r="F4" s="33" t="s">
         <v>177</v>
       </c>
-      <c r="G4" s="48" t="s">
+      <c r="G4" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="H4" s="48" t="s">
+      <c r="H4" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="I4" s="48" t="s">
+      <c r="I4" s="33" t="s">
         <v>174</v>
       </c>
-      <c r="J4" s="48" t="s">
+      <c r="J4" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="K4" s="48" t="s">
+      <c r="K4" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="L4" s="48" t="s">
+      <c r="L4" s="33" t="s">
         <v>171</v>
       </c>
-      <c r="M4" s="48" t="s">
+      <c r="M4" s="33" t="s">
         <v>170</v>
       </c>
-      <c r="N4" s="48" t="s">
+      <c r="N4" s="33" t="s">
         <v>180</v>
       </c>
-      <c r="O4" s="48" t="s">
+      <c r="O4" s="33" t="s">
         <v>191</v>
       </c>
-      <c r="P4" s="48" t="s">
+      <c r="P4" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="Q4" s="48" t="s">
+      <c r="Q4" s="33" t="s">
         <v>189</v>
       </c>
-      <c r="R4" s="48" t="s">
+      <c r="R4" s="33" t="s">
         <v>188</v>
       </c>
-      <c r="S4" s="48" t="s">
+      <c r="S4" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="T4" s="48" t="s">
+      <c r="T4" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="U4" s="48" t="s">
+      <c r="U4" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="V4" s="48" t="s">
+      <c r="V4" s="33" t="s">
         <v>184</v>
       </c>
-      <c r="W4" s="48" t="s">
+      <c r="W4" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="X4" s="48" t="s">
+      <c r="X4" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="Y4" s="48" t="s">
+      <c r="Y4" s="33" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="46">
+      <c r="B5" s="41">
         <v>733.25</v>
       </c>
-      <c r="C5" s="46">
+      <c r="C5" s="41">
         <v>760.06</v>
       </c>
-      <c r="D5" s="46">
+      <c r="D5" s="41">
         <v>754.02</v>
       </c>
-      <c r="E5" s="46">
+      <c r="E5" s="41">
         <v>726.53</v>
       </c>
-      <c r="F5" s="46">
+      <c r="F5" s="41">
         <v>732.01</v>
       </c>
-      <c r="G5" s="46">
+      <c r="G5" s="41">
         <v>735.92</v>
       </c>
-      <c r="H5" s="46">
+      <c r="H5" s="41">
         <v>738.05</v>
       </c>
-      <c r="I5" s="46">
+      <c r="I5" s="41">
         <v>753.9</v>
       </c>
-      <c r="J5" s="46">
+      <c r="J5" s="41">
         <v>743.75</v>
       </c>
-      <c r="K5" s="46">
+      <c r="K5" s="41">
         <v>755.38</v>
       </c>
-      <c r="L5" s="46">
+      <c r="L5" s="41">
         <v>765.03</v>
       </c>
-      <c r="M5" s="46">
+      <c r="M5" s="41">
         <v>760.06</v>
       </c>
-      <c r="N5" s="46">
+      <c r="N5" s="41">
         <v>768.22</v>
       </c>
-      <c r="O5" s="46">
+      <c r="O5" s="41">
         <v>768.96</v>
       </c>
-      <c r="P5" s="46">
+      <c r="P5" s="41">
         <v>760.77</v>
       </c>
-      <c r="Q5" s="46">
+      <c r="Q5" s="41">
         <v>777.15</v>
       </c>
-      <c r="R5" s="46">
+      <c r="R5" s="41">
         <v>786.21</v>
       </c>
-      <c r="S5" s="46">
+      <c r="S5" s="41">
         <v>778.26</v>
       </c>
-      <c r="T5" s="46">
+      <c r="T5" s="41">
         <v>782.13</v>
       </c>
-      <c r="U5" s="46">
+      <c r="U5" s="41">
         <v>771.37</v>
       </c>
-      <c r="V5" s="46">
+      <c r="V5" s="41">
         <v>778.22</v>
       </c>
-      <c r="W5" s="46">
-        <v>798.78</v>
+      <c r="W5" s="41">
+        <v>799.92</v>
+      </c>
+      <c r="X5" s="41">
+        <v>780.22</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="46">
+      <c r="B6" s="41">
         <v>918.31</v>
       </c>
-      <c r="C6" s="46">
+      <c r="C6" s="41">
         <v>945.7</v>
       </c>
-      <c r="D6" s="46">
+      <c r="D6" s="41">
         <v>959.35</v>
       </c>
-      <c r="E6" s="46">
+      <c r="E6" s="41">
         <v>955.4</v>
       </c>
-      <c r="F6" s="46">
+      <c r="F6" s="41">
         <v>966.74</v>
       </c>
-      <c r="G6" s="46">
+      <c r="G6" s="41">
         <v>976.45</v>
       </c>
-      <c r="H6" s="46">
+      <c r="H6" s="41">
         <v>996.31</v>
       </c>
-      <c r="I6" s="46">
+      <c r="I6" s="41">
         <v>1013.33</v>
       </c>
-      <c r="J6" s="46">
+      <c r="J6" s="41">
         <v>968.13</v>
       </c>
-      <c r="K6" s="46">
+      <c r="K6" s="41">
         <v>973.33</v>
       </c>
-      <c r="L6" s="46">
+      <c r="L6" s="41">
         <v>976.28</v>
       </c>
-      <c r="M6" s="46">
+      <c r="M6" s="41">
         <v>954.57</v>
       </c>
-      <c r="N6" s="46">
+      <c r="N6" s="41">
         <v>934.99</v>
       </c>
-      <c r="O6" s="46">
+      <c r="O6" s="41">
         <v>948.02</v>
       </c>
-      <c r="P6" s="46">
+      <c r="P6" s="41">
         <v>955.21</v>
       </c>
-      <c r="Q6" s="46">
+      <c r="Q6" s="41">
         <v>962.76</v>
       </c>
-      <c r="R6" s="46">
+      <c r="R6" s="41">
         <v>969.68</v>
       </c>
-      <c r="S6" s="46">
+      <c r="S6" s="41">
         <v>962.57</v>
       </c>
-      <c r="T6" s="46">
+      <c r="T6" s="41">
         <v>993.71</v>
       </c>
-      <c r="U6" s="46">
+      <c r="U6" s="41">
         <v>991.52</v>
       </c>
-      <c r="V6" s="46">
+      <c r="V6" s="41">
         <v>980.22</v>
       </c>
-      <c r="W6" s="46">
-        <v>1007.69</v>
+      <c r="W6" s="41">
+        <v>1009.42</v>
+      </c>
+      <c r="X6" s="41">
+        <v>985.83</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="46">
+      <c r="B7" s="41">
         <v>788.1</v>
       </c>
-      <c r="C7" s="46">
+      <c r="C7" s="41">
         <v>807.65</v>
       </c>
-      <c r="D7" s="46">
+      <c r="D7" s="41">
         <v>802.7</v>
       </c>
-      <c r="E7" s="46">
+      <c r="E7" s="41">
         <v>799.84</v>
       </c>
-      <c r="F7" s="46">
+      <c r="F7" s="41">
         <v>794.42</v>
       </c>
-      <c r="G7" s="46">
+      <c r="G7" s="41">
         <v>798.66</v>
       </c>
-      <c r="H7" s="46">
+      <c r="H7" s="41">
         <v>796.49</v>
       </c>
-      <c r="I7" s="46">
+      <c r="I7" s="41">
         <v>819.94</v>
       </c>
-      <c r="J7" s="46">
+      <c r="J7" s="41">
         <v>799.8</v>
       </c>
-      <c r="K7" s="46">
+      <c r="K7" s="41">
         <v>801.86</v>
       </c>
-      <c r="L7" s="46">
+      <c r="L7" s="41">
         <v>812.41</v>
       </c>
-      <c r="M7" s="46">
+      <c r="M7" s="41">
         <v>797.48</v>
       </c>
-      <c r="N7" s="46">
+      <c r="N7" s="41">
         <v>803.06</v>
       </c>
-      <c r="O7" s="46">
+      <c r="O7" s="41">
         <v>810.54</v>
       </c>
-      <c r="P7" s="46">
+      <c r="P7" s="41">
         <v>813.6</v>
       </c>
-      <c r="Q7" s="46">
+      <c r="Q7" s="41">
         <v>820.46</v>
       </c>
-      <c r="R7" s="46">
+      <c r="R7" s="41">
         <v>841.12</v>
       </c>
-      <c r="S7" s="46">
+      <c r="S7" s="41">
         <v>817.69</v>
       </c>
-      <c r="T7" s="46">
+      <c r="T7" s="41">
         <v>814.28</v>
       </c>
-      <c r="U7" s="46">
+      <c r="U7" s="41">
         <v>826.58</v>
       </c>
-      <c r="V7" s="46">
+      <c r="V7" s="41">
         <v>825.56</v>
       </c>
-      <c r="W7" s="46">
-        <v>851.89</v>
+      <c r="W7" s="41">
+        <v>850.15</v>
+      </c>
+      <c r="X7" s="41">
+        <v>832.38</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="46">
+      <c r="B8" s="41">
         <v>670.89</v>
       </c>
-      <c r="C8" s="46">
+      <c r="C8" s="41">
         <v>674.57</v>
       </c>
-      <c r="D8" s="46">
+      <c r="D8" s="41">
         <v>676.55</v>
       </c>
-      <c r="E8" s="46">
+      <c r="E8" s="41">
         <v>670.55</v>
       </c>
-      <c r="F8" s="46">
+      <c r="F8" s="41">
         <v>666.79</v>
       </c>
-      <c r="G8" s="46">
+      <c r="G8" s="41">
         <v>661.65</v>
       </c>
-      <c r="H8" s="46">
+      <c r="H8" s="41">
         <v>667.36</v>
       </c>
-      <c r="I8" s="46">
+      <c r="I8" s="41">
         <v>684.39</v>
       </c>
-      <c r="J8" s="46">
+      <c r="J8" s="41">
         <v>669.19</v>
       </c>
-      <c r="K8" s="46">
+      <c r="K8" s="41">
         <v>675.86</v>
       </c>
-      <c r="L8" s="46">
+      <c r="L8" s="41">
         <v>686.26</v>
       </c>
-      <c r="M8" s="46">
+      <c r="M8" s="41">
         <v>675.37</v>
       </c>
-      <c r="N8" s="46">
+      <c r="N8" s="41">
         <v>675.35</v>
       </c>
-      <c r="O8" s="46">
+      <c r="O8" s="41">
         <v>673.93</v>
       </c>
-      <c r="P8" s="46">
+      <c r="P8" s="41">
         <v>664.99</v>
       </c>
-      <c r="Q8" s="46">
+      <c r="Q8" s="41">
         <v>675.66</v>
       </c>
-      <c r="R8" s="46">
+      <c r="R8" s="41">
         <v>687.37</v>
       </c>
-      <c r="S8" s="46">
+      <c r="S8" s="41">
         <v>685.25</v>
       </c>
-      <c r="T8" s="46">
+      <c r="T8" s="41">
         <v>696.9</v>
       </c>
-      <c r="U8" s="46">
+      <c r="U8" s="41">
         <v>688.4</v>
       </c>
-      <c r="V8" s="46">
+      <c r="V8" s="41">
         <v>686.39</v>
       </c>
-      <c r="W8" s="46">
-        <v>706.15</v>
+      <c r="W8" s="41">
+        <v>705.15</v>
+      </c>
+      <c r="X8" s="41">
+        <v>693.89</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="46">
+      <c r="B9" s="41">
         <v>955.48</v>
       </c>
-      <c r="C9" s="46">
+      <c r="C9" s="41">
         <v>980.69</v>
       </c>
-      <c r="D9" s="46">
+      <c r="D9" s="41">
         <v>980.7</v>
       </c>
-      <c r="E9" s="46">
+      <c r="E9" s="41">
         <v>961.14</v>
       </c>
-      <c r="F9" s="46">
+      <c r="F9" s="41">
         <v>960.06</v>
       </c>
-      <c r="G9" s="46">
+      <c r="G9" s="41">
         <v>962.21</v>
       </c>
-      <c r="H9" s="46">
+      <c r="H9" s="41">
         <v>963.59</v>
       </c>
-      <c r="I9" s="46">
+      <c r="I9" s="41">
         <v>994.39</v>
       </c>
-      <c r="J9" s="46">
+      <c r="J9" s="41">
         <v>960.45</v>
       </c>
-      <c r="K9" s="46">
+      <c r="K9" s="41">
         <v>970.14</v>
       </c>
-      <c r="L9" s="46">
+      <c r="L9" s="41">
         <v>994.73</v>
       </c>
-      <c r="M9" s="46">
+      <c r="M9" s="41">
         <v>969.8</v>
       </c>
-      <c r="N9" s="46">
+      <c r="N9" s="41">
         <v>970.25</v>
       </c>
-      <c r="O9" s="46">
+      <c r="O9" s="41">
         <v>974.7</v>
       </c>
-      <c r="P9" s="46">
+      <c r="P9" s="41">
         <v>970.15</v>
       </c>
-      <c r="Q9" s="46">
+      <c r="Q9" s="41">
         <v>979.61</v>
       </c>
-      <c r="R9" s="46">
+      <c r="R9" s="41">
         <v>1009.31</v>
       </c>
-      <c r="S9" s="46">
+      <c r="S9" s="41">
         <v>980.29</v>
       </c>
-      <c r="T9" s="46">
+      <c r="T9" s="41">
         <v>987.97</v>
       </c>
-      <c r="U9" s="46">
+      <c r="U9" s="41">
         <v>992.44</v>
       </c>
-      <c r="V9" s="46">
+      <c r="V9" s="41">
         <v>995.22</v>
       </c>
-      <c r="W9" s="46">
-        <v>1036.3499999999999</v>
+      <c r="W9" s="41">
+        <v>1035.6500000000001</v>
+      </c>
+      <c r="X9" s="41">
+        <v>1003.62</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="46">
+      <c r="B10" s="41">
         <v>895.1</v>
       </c>
-      <c r="C10" s="46">
+      <c r="C10" s="41">
         <v>919.86</v>
       </c>
-      <c r="D10" s="46">
+      <c r="D10" s="41">
         <v>922.26</v>
       </c>
-      <c r="E10" s="46">
+      <c r="E10" s="41">
         <v>902.16</v>
       </c>
-      <c r="F10" s="46">
+      <c r="F10" s="41">
         <v>903.83</v>
       </c>
-      <c r="G10" s="46">
+      <c r="G10" s="41">
         <v>897.94</v>
       </c>
-      <c r="H10" s="46">
+      <c r="H10" s="41">
         <v>912.52</v>
       </c>
-      <c r="I10" s="46">
+      <c r="I10" s="41">
         <v>939.6</v>
       </c>
-      <c r="J10" s="46">
+      <c r="J10" s="41">
         <v>908.86</v>
       </c>
-      <c r="K10" s="46">
+      <c r="K10" s="41">
         <v>917.67</v>
       </c>
-      <c r="L10" s="46">
+      <c r="L10" s="41">
         <v>927.18</v>
       </c>
-      <c r="M10" s="46">
+      <c r="M10" s="41">
         <v>897.4</v>
       </c>
-      <c r="N10" s="46">
+      <c r="N10" s="41">
         <v>915.83</v>
       </c>
-      <c r="O10" s="46">
+      <c r="O10" s="41">
         <v>912.34</v>
       </c>
-      <c r="P10" s="46">
+      <c r="P10" s="41">
         <v>910.09</v>
       </c>
-      <c r="Q10" s="46">
+      <c r="Q10" s="41">
         <v>910.68</v>
       </c>
-      <c r="R10" s="46">
+      <c r="R10" s="41">
         <v>926.15</v>
       </c>
-      <c r="S10" s="46">
+      <c r="S10" s="41">
         <v>903.83</v>
       </c>
-      <c r="T10" s="46">
+      <c r="T10" s="41">
         <v>903.1</v>
       </c>
-      <c r="U10" s="46">
+      <c r="U10" s="41">
         <v>902.76</v>
       </c>
-      <c r="V10" s="46">
+      <c r="V10" s="41">
         <v>903.16</v>
       </c>
-      <c r="W10" s="46">
+      <c r="W10" s="41">
         <v>935.36</v>
       </c>
+      <c r="X10" s="41">
+        <v>902.8</v>
+      </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="46">
+      <c r="B11" s="41">
         <v>956.09</v>
       </c>
-      <c r="C11" s="46">
+      <c r="C11" s="41">
         <v>973.28</v>
       </c>
-      <c r="D11" s="46">
+      <c r="D11" s="41">
         <v>975.74</v>
       </c>
-      <c r="E11" s="46">
+      <c r="E11" s="41">
         <v>962.46</v>
       </c>
-      <c r="F11" s="46">
+      <c r="F11" s="41">
         <v>955.04</v>
       </c>
-      <c r="G11" s="46">
+      <c r="G11" s="41">
         <v>957.38</v>
       </c>
-      <c r="H11" s="46">
+      <c r="H11" s="41">
         <v>961.92</v>
       </c>
-      <c r="I11" s="46">
+      <c r="I11" s="41">
         <v>997.9</v>
       </c>
-      <c r="J11" s="46">
+      <c r="J11" s="41">
         <v>984.97</v>
       </c>
-      <c r="K11" s="46">
+      <c r="K11" s="41">
         <v>993.81</v>
       </c>
-      <c r="L11" s="46">
+      <c r="L11" s="41">
         <v>1010.28</v>
       </c>
-      <c r="M11" s="46">
+      <c r="M11" s="41">
         <v>1001.28</v>
       </c>
-      <c r="N11" s="46">
+      <c r="N11" s="41">
         <v>1005.3</v>
       </c>
-      <c r="O11" s="46">
+      <c r="O11" s="41">
         <v>1003.59</v>
       </c>
-      <c r="P11" s="46">
+      <c r="P11" s="41">
         <v>999.32</v>
       </c>
-      <c r="Q11" s="46">
+      <c r="Q11" s="41">
         <v>1019.37</v>
       </c>
-      <c r="R11" s="46">
+      <c r="R11" s="41">
         <v>1044.1400000000001</v>
       </c>
-      <c r="S11" s="46">
+      <c r="S11" s="41">
         <v>1009.34</v>
       </c>
-      <c r="T11" s="46">
+      <c r="T11" s="41">
         <v>1014.05</v>
       </c>
-      <c r="U11" s="46">
+      <c r="U11" s="41">
         <v>1021.1</v>
       </c>
-      <c r="V11" s="46">
+      <c r="V11" s="41">
         <v>1029.8800000000001</v>
       </c>
-      <c r="W11" s="46">
-        <v>1055.4100000000001</v>
+      <c r="W11" s="41">
+        <v>1053.3499999999999</v>
+      </c>
+      <c r="X11" s="41">
+        <v>1029.8699999999999</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="46">
+      <c r="B12" s="41">
         <v>730.52</v>
       </c>
-      <c r="C12" s="46">
+      <c r="C12" s="41">
         <v>750.25</v>
       </c>
-      <c r="D12" s="46">
+      <c r="D12" s="41">
         <v>751.25</v>
       </c>
-      <c r="E12" s="46">
+      <c r="E12" s="41">
         <v>741.59</v>
       </c>
-      <c r="F12" s="46">
+      <c r="F12" s="41">
         <v>738.81</v>
       </c>
-      <c r="G12" s="46">
+      <c r="G12" s="41">
         <v>728.97</v>
       </c>
-      <c r="H12" s="46">
+      <c r="H12" s="41">
         <v>738.81</v>
       </c>
-      <c r="I12" s="46">
+      <c r="I12" s="41">
         <v>759.45</v>
       </c>
-      <c r="J12" s="46">
+      <c r="J12" s="41">
         <v>759.28</v>
       </c>
-      <c r="K12" s="46">
+      <c r="K12" s="41">
         <v>761.54</v>
       </c>
-      <c r="L12" s="46">
+      <c r="L12" s="41">
         <v>765.61</v>
       </c>
-      <c r="M12" s="46">
+      <c r="M12" s="41">
         <v>782.21</v>
       </c>
-      <c r="N12" s="46">
+      <c r="N12" s="41">
         <v>799.53</v>
       </c>
-      <c r="O12" s="46">
+      <c r="O12" s="41">
         <v>803.2</v>
       </c>
-      <c r="P12" s="46">
+      <c r="P12" s="41">
         <v>806.86</v>
       </c>
-      <c r="Q12" s="46">
+      <c r="Q12" s="41">
         <v>810.41</v>
       </c>
-      <c r="R12" s="46">
+      <c r="R12" s="41">
         <v>811.52</v>
       </c>
-      <c r="S12" s="46">
+      <c r="S12" s="41">
         <v>796.3</v>
       </c>
-      <c r="T12" s="46">
+      <c r="T12" s="41">
         <v>801.36</v>
       </c>
-      <c r="U12" s="46">
+      <c r="U12" s="41">
         <v>799.79</v>
       </c>
-      <c r="V12" s="46">
+      <c r="V12" s="41">
         <v>803.75</v>
       </c>
-      <c r="W12" s="46">
-        <v>835.33</v>
+      <c r="W12" s="41">
+        <v>843.02</v>
+      </c>
+      <c r="X12" s="41">
+        <v>806.93</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="46">
+      <c r="B13" s="41">
         <v>1398.23</v>
       </c>
-      <c r="C13" s="46">
+      <c r="C13" s="41">
         <v>1490.03</v>
       </c>
-      <c r="D13" s="46">
+      <c r="D13" s="41">
         <v>1474.93</v>
       </c>
-      <c r="E13" s="46">
+      <c r="E13" s="41">
         <v>1382.37</v>
       </c>
-      <c r="F13" s="46">
+      <c r="F13" s="41">
         <v>1367.2</v>
       </c>
-      <c r="G13" s="46">
+      <c r="G13" s="41">
         <v>1359.65</v>
       </c>
-      <c r="H13" s="46">
+      <c r="H13" s="41">
         <v>1317.75</v>
       </c>
-      <c r="I13" s="46">
+      <c r="I13" s="41">
         <v>1363.12</v>
       </c>
-      <c r="J13" s="46">
+      <c r="J13" s="41">
         <v>1308.3</v>
       </c>
-      <c r="K13" s="46">
+      <c r="K13" s="41">
         <v>1273.6199999999999</v>
       </c>
-      <c r="L13" s="46">
+      <c r="L13" s="41">
         <v>1345.68</v>
       </c>
-      <c r="M13" s="46">
+      <c r="M13" s="41">
         <v>1298.8800000000001</v>
       </c>
-      <c r="N13" s="46">
+      <c r="N13" s="41">
         <v>1287.97</v>
       </c>
-      <c r="O13" s="46">
+      <c r="O13" s="41">
         <v>1305.3900000000001</v>
       </c>
-      <c r="P13" s="46">
+      <c r="P13" s="41">
         <v>1306.6099999999999</v>
       </c>
-      <c r="Q13" s="46">
+      <c r="Q13" s="41">
         <v>1333.58</v>
       </c>
-      <c r="R13" s="46">
+      <c r="R13" s="41">
         <v>1413.05</v>
       </c>
-      <c r="S13" s="46">
+      <c r="S13" s="41">
         <v>1348.17</v>
       </c>
-      <c r="T13" s="46">
+      <c r="T13" s="41">
         <v>1358.65</v>
       </c>
-      <c r="U13" s="46">
+      <c r="U13" s="41">
         <v>1382.7</v>
       </c>
-      <c r="V13" s="46">
+      <c r="V13" s="41">
         <v>1383.08</v>
       </c>
-      <c r="W13" s="46">
-        <v>1463.62</v>
+      <c r="W13" s="41">
+        <v>1454.54</v>
+      </c>
+      <c r="X13" s="41">
+        <v>1390.2</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="46">
+      <c r="B14" s="41">
         <v>761.11</v>
       </c>
-      <c r="C14" s="46">
+      <c r="C14" s="41">
         <v>781.79</v>
       </c>
-      <c r="D14" s="46">
+      <c r="D14" s="41">
         <v>779.02</v>
       </c>
-      <c r="E14" s="46">
+      <c r="E14" s="41">
         <v>769.01</v>
       </c>
-      <c r="F14" s="46">
+      <c r="F14" s="41">
         <v>769.84</v>
       </c>
-      <c r="G14" s="46">
+      <c r="G14" s="41">
         <v>764.18</v>
       </c>
-      <c r="H14" s="46">
+      <c r="H14" s="41">
         <v>771.21</v>
       </c>
-      <c r="I14" s="46">
+      <c r="I14" s="41">
         <v>786.6</v>
       </c>
-      <c r="J14" s="46">
+      <c r="J14" s="41">
         <v>772.92</v>
       </c>
-      <c r="K14" s="46">
+      <c r="K14" s="41">
         <v>777.82</v>
       </c>
-      <c r="L14" s="46">
+      <c r="L14" s="41">
         <v>792.81</v>
       </c>
-      <c r="M14" s="46">
+      <c r="M14" s="41">
         <v>784.78</v>
       </c>
-      <c r="N14" s="46">
+      <c r="N14" s="41">
         <v>777.02</v>
       </c>
-      <c r="O14" s="46">
+      <c r="O14" s="41">
         <v>782.5</v>
       </c>
-      <c r="P14" s="46">
+      <c r="P14" s="41">
         <v>788.39</v>
       </c>
-      <c r="Q14" s="46">
+      <c r="Q14" s="41">
         <v>788.65</v>
       </c>
-      <c r="R14" s="46">
+      <c r="R14" s="41">
         <v>797.89</v>
       </c>
-      <c r="S14" s="46">
+      <c r="S14" s="41">
         <v>787.16</v>
       </c>
-      <c r="T14" s="46">
+      <c r="T14" s="41">
         <v>785.4</v>
       </c>
-      <c r="U14" s="46">
+      <c r="U14" s="41">
         <v>789.57</v>
       </c>
-      <c r="V14" s="46">
+      <c r="V14" s="41">
         <v>791.28</v>
       </c>
-      <c r="W14" s="46">
-        <v>810.21</v>
+      <c r="W14" s="41">
+        <v>809.87</v>
+      </c>
+      <c r="X14" s="41">
+        <v>803.08</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" s="47" t="s">
+      <c r="A15" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="46">
+      <c r="B15" s="41">
         <v>830.33</v>
       </c>
-      <c r="C15" s="46">
+      <c r="C15" s="41">
         <v>849.32</v>
       </c>
-      <c r="D15" s="46">
+      <c r="D15" s="41">
         <v>844.38</v>
       </c>
-      <c r="E15" s="46">
+      <c r="E15" s="41">
         <v>823.02</v>
       </c>
-      <c r="F15" s="46">
+      <c r="F15" s="41">
         <v>824.85</v>
       </c>
-      <c r="G15" s="46">
+      <c r="G15" s="41">
         <v>820.99</v>
       </c>
-      <c r="H15" s="46">
+      <c r="H15" s="41">
         <v>826.61</v>
       </c>
-      <c r="I15" s="46">
+      <c r="I15" s="41">
         <v>848.7</v>
       </c>
-      <c r="J15" s="46">
+      <c r="J15" s="41">
         <v>825.11</v>
       </c>
-      <c r="K15" s="46">
+      <c r="K15" s="41">
         <v>839.03</v>
       </c>
-      <c r="L15" s="46">
+      <c r="L15" s="41">
         <v>852.23</v>
       </c>
-      <c r="M15" s="46">
+      <c r="M15" s="41">
         <v>839.72</v>
       </c>
-      <c r="N15" s="46">
+      <c r="N15" s="41">
         <v>839.36</v>
       </c>
-      <c r="O15" s="46">
+      <c r="O15" s="41">
         <v>842.17</v>
       </c>
-      <c r="P15" s="46">
+      <c r="P15" s="41">
         <v>840.43</v>
       </c>
-      <c r="Q15" s="46">
+      <c r="Q15" s="41">
         <v>842.51</v>
       </c>
-      <c r="R15" s="46">
+      <c r="R15" s="41">
         <v>865.22</v>
       </c>
-      <c r="S15" s="46">
+      <c r="S15" s="41">
         <v>843.88</v>
       </c>
-      <c r="T15" s="46">
+      <c r="T15" s="41">
         <v>847.73</v>
       </c>
-      <c r="U15" s="46">
+      <c r="U15" s="41">
         <v>847.7</v>
       </c>
-      <c r="V15" s="46">
+      <c r="V15" s="41">
         <v>848.39</v>
       </c>
-      <c r="W15" s="46">
-        <v>879.26</v>
+      <c r="W15" s="41">
+        <v>882.46</v>
+      </c>
+      <c r="X15" s="41">
+        <v>859.21</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="46">
+      <c r="B16" s="41">
         <v>813.73</v>
       </c>
-      <c r="C16" s="46">
+      <c r="C16" s="41">
         <v>839.2</v>
       </c>
-      <c r="D16" s="46">
+      <c r="D16" s="41">
         <v>839.54</v>
       </c>
-      <c r="E16" s="46">
+      <c r="E16" s="41">
         <v>811.47</v>
       </c>
-      <c r="F16" s="46">
+      <c r="F16" s="41">
         <v>812.13</v>
       </c>
-      <c r="G16" s="46">
+      <c r="G16" s="41">
         <v>804.41</v>
       </c>
-      <c r="H16" s="46">
+      <c r="H16" s="41">
         <v>814.19</v>
       </c>
-      <c r="I16" s="46">
+      <c r="I16" s="41">
         <v>833.68</v>
       </c>
-      <c r="J16" s="46">
+      <c r="J16" s="41">
         <v>797.72</v>
       </c>
-      <c r="K16" s="46">
+      <c r="K16" s="41">
         <v>806.2</v>
       </c>
-      <c r="L16" s="46">
+      <c r="L16" s="41">
         <v>833.15</v>
       </c>
-      <c r="M16" s="46">
+      <c r="M16" s="41">
         <v>828.3</v>
       </c>
-      <c r="N16" s="46">
+      <c r="N16" s="41">
         <v>824.92</v>
       </c>
-      <c r="O16" s="46">
+      <c r="O16" s="41">
         <v>827.64</v>
       </c>
-      <c r="P16" s="46">
+      <c r="P16" s="41">
         <v>822.17</v>
       </c>
-      <c r="Q16" s="46">
+      <c r="Q16" s="41">
         <v>829.27</v>
       </c>
-      <c r="R16" s="46">
+      <c r="R16" s="41">
         <v>854.11</v>
       </c>
-      <c r="S16" s="46">
+      <c r="S16" s="41">
         <v>829.08</v>
       </c>
-      <c r="T16" s="46">
+      <c r="T16" s="41">
         <v>838.29</v>
       </c>
-      <c r="U16" s="46">
+      <c r="U16" s="41">
         <v>831.89</v>
       </c>
-      <c r="V16" s="46">
+      <c r="V16" s="41">
         <v>830.11</v>
       </c>
-      <c r="W16" s="46">
-        <v>867.22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="47" t="s">
+      <c r="W16" s="41">
+        <v>862.18</v>
+      </c>
+      <c r="X16" s="41">
+        <v>818.88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A17" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="46">
+      <c r="B17" s="41">
         <v>717.53</v>
       </c>
-      <c r="C17" s="46">
+      <c r="C17" s="41">
         <v>744.77</v>
       </c>
-      <c r="D17" s="46">
+      <c r="D17" s="41">
         <v>736.35</v>
       </c>
-      <c r="E17" s="46">
+      <c r="E17" s="41">
         <v>733.6</v>
       </c>
-      <c r="F17" s="46">
+      <c r="F17" s="41">
         <v>735.13</v>
       </c>
-      <c r="G17" s="46">
+      <c r="G17" s="41">
         <v>735.5</v>
       </c>
-      <c r="H17" s="46">
+      <c r="H17" s="41">
         <v>740.04</v>
       </c>
-      <c r="I17" s="46">
+      <c r="I17" s="41">
         <v>765.9</v>
       </c>
-      <c r="J17" s="46">
+      <c r="J17" s="41">
         <v>732.39</v>
       </c>
-      <c r="K17" s="46">
+      <c r="K17" s="41">
         <v>738.7</v>
       </c>
-      <c r="L17" s="46">
+      <c r="L17" s="41">
         <v>748.39</v>
       </c>
-      <c r="M17" s="46">
+      <c r="M17" s="41">
         <v>732.15</v>
       </c>
-      <c r="N17" s="46">
+      <c r="N17" s="41">
         <v>731.92</v>
       </c>
-      <c r="O17" s="46">
+      <c r="O17" s="41">
         <v>729.65</v>
       </c>
-      <c r="P17" s="46">
+      <c r="P17" s="41">
         <v>727.06</v>
       </c>
-      <c r="Q17" s="46">
+      <c r="Q17" s="41">
         <v>742.62</v>
       </c>
-      <c r="R17" s="46">
+      <c r="R17" s="41">
         <v>755.66</v>
       </c>
-      <c r="S17" s="46">
+      <c r="S17" s="41">
         <v>730.85</v>
       </c>
-      <c r="T17" s="46">
+      <c r="T17" s="41">
         <v>735.6</v>
       </c>
-      <c r="U17" s="46">
+      <c r="U17" s="41">
         <v>735.71</v>
       </c>
-      <c r="V17" s="46">
+      <c r="V17" s="41">
         <v>734.33</v>
       </c>
-      <c r="W17" s="46">
-        <v>755.33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="47" t="s">
+      <c r="W17" s="41">
+        <v>758.25</v>
+      </c>
+      <c r="X17" s="41">
+        <v>739.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A18" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="46">
+      <c r="B18" s="41">
         <v>872.59</v>
       </c>
-      <c r="C18" s="46">
+      <c r="C18" s="41">
         <v>901.14</v>
       </c>
-      <c r="D18" s="46">
+      <c r="D18" s="41">
         <v>893.71</v>
       </c>
-      <c r="E18" s="46">
+      <c r="E18" s="41">
         <v>878.76</v>
       </c>
-      <c r="F18" s="46">
+      <c r="F18" s="41">
         <v>879.28</v>
       </c>
-      <c r="G18" s="46">
+      <c r="G18" s="41">
         <v>878.77</v>
       </c>
-      <c r="H18" s="46">
+      <c r="H18" s="41">
         <v>880.99</v>
       </c>
-      <c r="I18" s="46">
+      <c r="I18" s="41">
         <v>905.5</v>
       </c>
-      <c r="J18" s="46">
+      <c r="J18" s="41">
         <v>887.49</v>
       </c>
-      <c r="K18" s="46">
+      <c r="K18" s="41">
         <v>902.31</v>
       </c>
-      <c r="L18" s="46">
+      <c r="L18" s="41">
         <v>920.94</v>
       </c>
-      <c r="M18" s="46">
+      <c r="M18" s="41">
         <v>902.09</v>
       </c>
-      <c r="N18" s="46">
+      <c r="N18" s="41">
         <v>900.38</v>
       </c>
-      <c r="O18" s="46">
+      <c r="O18" s="41">
         <v>894.01</v>
       </c>
-      <c r="P18" s="46">
+      <c r="P18" s="41">
         <v>896.99</v>
       </c>
-      <c r="Q18" s="46">
+      <c r="Q18" s="41">
         <v>899.03</v>
       </c>
-      <c r="R18" s="46">
+      <c r="R18" s="41">
         <v>915.47</v>
       </c>
-      <c r="S18" s="46">
+      <c r="S18" s="41">
         <v>898.78</v>
       </c>
-      <c r="T18" s="46">
+      <c r="T18" s="41">
         <v>900.24</v>
       </c>
-      <c r="U18" s="46">
+      <c r="U18" s="41">
         <v>901.34</v>
       </c>
-      <c r="V18" s="46">
+      <c r="V18" s="41">
         <v>910.06</v>
       </c>
-      <c r="W18" s="46">
-        <v>933.51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="47" t="s">
+      <c r="W18" s="41">
+        <v>935.86</v>
+      </c>
+      <c r="X18" s="41">
+        <v>908.77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A19" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="46">
+      <c r="B19" s="41">
         <v>798.1</v>
       </c>
-      <c r="C19" s="46">
+      <c r="C19" s="41">
         <v>800.1</v>
       </c>
-      <c r="D19" s="46">
+      <c r="D19" s="41">
         <v>797.3</v>
       </c>
-      <c r="E19" s="46">
+      <c r="E19" s="41">
         <v>790.31</v>
       </c>
-      <c r="F19" s="46">
+      <c r="F19" s="41">
         <v>792.75</v>
       </c>
-      <c r="G19" s="46">
+      <c r="G19" s="41">
         <v>790.49</v>
       </c>
-      <c r="H19" s="46">
+      <c r="H19" s="41">
         <v>791.7</v>
       </c>
-      <c r="I19" s="46">
+      <c r="I19" s="41">
         <v>810.84</v>
       </c>
-      <c r="J19" s="46">
+      <c r="J19" s="41">
         <v>791.09</v>
       </c>
-      <c r="K19" s="46">
+      <c r="K19" s="41">
         <v>799.21</v>
       </c>
-      <c r="L19" s="46">
+      <c r="L19" s="41">
         <v>807.45</v>
       </c>
-      <c r="M19" s="46">
+      <c r="M19" s="41">
         <v>807.3</v>
       </c>
-      <c r="N19" s="46">
+      <c r="N19" s="41">
         <v>804.54</v>
       </c>
-      <c r="O19" s="46">
+      <c r="O19" s="41">
         <v>796.79</v>
       </c>
-      <c r="P19" s="46">
+      <c r="P19" s="41">
         <v>794.05</v>
       </c>
-      <c r="Q19" s="46">
+      <c r="Q19" s="41">
         <v>808.68</v>
       </c>
-      <c r="R19" s="46">
+      <c r="R19" s="41">
         <v>814.32</v>
       </c>
-      <c r="S19" s="46">
+      <c r="S19" s="41">
         <v>804.69</v>
       </c>
-      <c r="T19" s="46">
+      <c r="T19" s="41">
         <v>811.63</v>
       </c>
-      <c r="U19" s="46">
+      <c r="U19" s="41">
         <v>814.92</v>
       </c>
-      <c r="V19" s="46">
+      <c r="V19" s="41">
         <v>823.29</v>
       </c>
-      <c r="W19" s="46">
-        <v>843.45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="47" t="s">
+      <c r="W19" s="41">
+        <v>848.32</v>
+      </c>
+      <c r="X19" s="41">
+        <v>834.75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A20" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="46">
+      <c r="B20" s="41">
         <v>755.82</v>
       </c>
-      <c r="C20" s="46">
+      <c r="C20" s="41">
         <v>775.34</v>
       </c>
-      <c r="D20" s="46">
+      <c r="D20" s="41">
         <v>775.55</v>
       </c>
-      <c r="E20" s="46">
+      <c r="E20" s="41">
         <v>780.06</v>
       </c>
-      <c r="F20" s="46">
+      <c r="F20" s="41">
         <v>780.92</v>
       </c>
-      <c r="G20" s="46">
+      <c r="G20" s="41">
         <v>776.04</v>
       </c>
-      <c r="H20" s="46">
+      <c r="H20" s="41">
         <v>780.71</v>
       </c>
-      <c r="I20" s="46">
+      <c r="I20" s="41">
         <v>812.25</v>
       </c>
-      <c r="J20" s="46">
+      <c r="J20" s="41">
         <v>792.81</v>
       </c>
-      <c r="K20" s="46">
+      <c r="K20" s="41">
         <v>796.02</v>
       </c>
-      <c r="L20" s="46">
+      <c r="L20" s="41">
         <v>781.1</v>
       </c>
-      <c r="M20" s="46">
+      <c r="M20" s="41">
         <v>777.92</v>
       </c>
-      <c r="N20" s="46">
+      <c r="N20" s="41">
         <v>768.95</v>
       </c>
-      <c r="O20" s="46">
+      <c r="O20" s="41">
         <v>770.64</v>
       </c>
-      <c r="P20" s="46">
+      <c r="P20" s="41">
         <v>784.04</v>
       </c>
-      <c r="Q20" s="46">
+      <c r="Q20" s="41">
         <v>806.61</v>
       </c>
-      <c r="R20" s="46">
+      <c r="R20" s="41">
         <v>808.6</v>
       </c>
-      <c r="S20" s="46">
+      <c r="S20" s="41">
         <v>820.99</v>
       </c>
-      <c r="T20" s="46">
+      <c r="T20" s="41">
         <v>810.14</v>
       </c>
-      <c r="U20" s="46">
+      <c r="U20" s="41">
         <v>803.53</v>
       </c>
-      <c r="V20" s="46">
+      <c r="V20" s="41">
         <v>806.43</v>
       </c>
-      <c r="W20" s="46">
+      <c r="W20" s="41">
         <v>829.06</v>
       </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="47" t="s">
+      <c r="X20" s="41">
+        <v>819.89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A21" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="46">
+      <c r="B21" s="41">
         <v>770.18</v>
       </c>
-      <c r="C21" s="46">
+      <c r="C21" s="41">
         <v>781.77</v>
       </c>
-      <c r="D21" s="46">
+      <c r="D21" s="41">
         <v>777.81</v>
       </c>
-      <c r="E21" s="46">
+      <c r="E21" s="41">
         <v>756.84</v>
       </c>
-      <c r="F21" s="46">
+      <c r="F21" s="41">
         <v>761.11</v>
       </c>
-      <c r="G21" s="46">
+      <c r="G21" s="41">
         <v>767.08</v>
       </c>
-      <c r="H21" s="46">
+      <c r="H21" s="41">
         <v>769.18</v>
       </c>
-      <c r="I21" s="46">
+      <c r="I21" s="41">
         <v>789.6</v>
       </c>
-      <c r="J21" s="46">
+      <c r="J21" s="41">
         <v>768.4</v>
       </c>
-      <c r="K21" s="46">
+      <c r="K21" s="41">
         <v>779.08</v>
       </c>
-      <c r="L21" s="46">
+      <c r="L21" s="41">
         <v>790.17</v>
       </c>
-      <c r="M21" s="46">
+      <c r="M21" s="41">
         <v>783.82</v>
       </c>
-      <c r="N21" s="46">
+      <c r="N21" s="41">
         <v>772.13</v>
       </c>
-      <c r="O21" s="46">
+      <c r="O21" s="41">
         <v>766.82</v>
       </c>
-      <c r="P21" s="46">
+      <c r="P21" s="41">
         <v>760.45</v>
       </c>
-      <c r="Q21" s="46">
+      <c r="Q21" s="41">
         <v>767.53</v>
       </c>
-      <c r="R21" s="46">
+      <c r="R21" s="41">
         <v>766.08</v>
       </c>
-      <c r="S21" s="46">
+      <c r="S21" s="41">
         <v>763.3</v>
       </c>
-      <c r="T21" s="46">
+      <c r="T21" s="41">
         <v>766.58</v>
       </c>
-      <c r="U21" s="46">
+      <c r="U21" s="41">
         <v>770.3</v>
       </c>
-      <c r="V21" s="46">
+      <c r="V21" s="41">
         <v>774.7</v>
       </c>
-      <c r="W21" s="46">
-        <v>800.06</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="47" t="s">
+      <c r="W21" s="41">
+        <v>800.4</v>
+      </c>
+      <c r="X21" s="41">
+        <v>778.75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A22" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="46">
+      <c r="B22" s="41">
         <v>740.23</v>
       </c>
-      <c r="C22" s="46">
+      <c r="C22" s="41">
         <v>731.34</v>
       </c>
-      <c r="D22" s="46">
+      <c r="D22" s="41">
         <v>740.95</v>
       </c>
-      <c r="E22" s="46">
+      <c r="E22" s="41">
         <v>739.55</v>
       </c>
-      <c r="F22" s="46">
+      <c r="F22" s="41">
         <v>742.02</v>
       </c>
-      <c r="G22" s="46">
+      <c r="G22" s="41">
         <v>742.34</v>
       </c>
-      <c r="H22" s="46">
+      <c r="H22" s="41">
         <v>749.06</v>
       </c>
-      <c r="I22" s="46">
+      <c r="I22" s="41">
         <v>754.7</v>
       </c>
-      <c r="J22" s="46">
+      <c r="J22" s="41">
         <v>744.12</v>
       </c>
-      <c r="K22" s="46">
+      <c r="K22" s="41">
         <v>741.95</v>
       </c>
-      <c r="L22" s="46">
+      <c r="L22" s="41">
         <v>747.56</v>
       </c>
-      <c r="M22" s="46">
+      <c r="M22" s="41">
         <v>751.08</v>
       </c>
-      <c r="N22" s="46">
+      <c r="N22" s="41">
         <v>739.5</v>
       </c>
-      <c r="O22" s="46">
+      <c r="O22" s="41">
         <v>732.89</v>
       </c>
-      <c r="P22" s="46">
+      <c r="P22" s="41">
         <v>741.31</v>
       </c>
-      <c r="Q22" s="46">
+      <c r="Q22" s="41">
         <v>744.1</v>
       </c>
-      <c r="R22" s="46">
+      <c r="R22" s="41">
         <v>740.25</v>
       </c>
-      <c r="S22" s="46">
+      <c r="S22" s="41">
         <v>748.34</v>
       </c>
-      <c r="T22" s="46">
+      <c r="T22" s="41">
         <v>747.3</v>
       </c>
-      <c r="U22" s="46">
+      <c r="U22" s="41">
         <v>739.55</v>
       </c>
-      <c r="V22" s="46">
+      <c r="V22" s="41">
         <v>743.05</v>
       </c>
-      <c r="W22" s="46">
-        <v>761.81</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="47" t="s">
+      <c r="W22" s="41">
+        <v>763.22</v>
+      </c>
+      <c r="X22" s="41">
+        <v>750.82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A23" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="46">
+      <c r="B23" s="41">
         <v>794.47</v>
       </c>
-      <c r="C23" s="46">
+      <c r="C23" s="41">
         <v>806.26</v>
       </c>
-      <c r="D23" s="46">
+      <c r="D23" s="41">
         <v>801.29</v>
       </c>
-      <c r="E23" s="46">
+      <c r="E23" s="41">
         <v>794.68</v>
       </c>
-      <c r="F23" s="46">
+      <c r="F23" s="41">
         <v>786.88</v>
       </c>
-      <c r="G23" s="46">
+      <c r="G23" s="41">
         <v>788.01</v>
       </c>
-      <c r="H23" s="46">
+      <c r="H23" s="41">
         <v>787.29</v>
       </c>
-      <c r="I23" s="46">
+      <c r="I23" s="41">
         <v>807.68</v>
       </c>
-      <c r="J23" s="46">
+      <c r="J23" s="41">
         <v>784.11</v>
       </c>
-      <c r="K23" s="46">
+      <c r="K23" s="41">
         <v>801.29</v>
       </c>
-      <c r="L23" s="46">
+      <c r="L23" s="41">
         <v>812.52</v>
       </c>
-      <c r="M23" s="46">
+      <c r="M23" s="41">
         <v>802.28</v>
       </c>
-      <c r="N23" s="46">
+      <c r="N23" s="41">
         <v>795.66</v>
       </c>
-      <c r="O23" s="46">
+      <c r="O23" s="41">
         <v>786.59</v>
       </c>
-      <c r="P23" s="46">
+      <c r="P23" s="41">
         <v>776.08</v>
       </c>
-      <c r="Q23" s="46">
+      <c r="Q23" s="41">
         <v>789.6</v>
       </c>
-      <c r="R23" s="46">
+      <c r="R23" s="41">
         <v>804.08</v>
       </c>
-      <c r="S23" s="46">
+      <c r="S23" s="41">
         <v>793.54</v>
       </c>
-      <c r="T23" s="46">
+      <c r="T23" s="41">
         <v>789.75</v>
       </c>
-      <c r="U23" s="46">
+      <c r="U23" s="41">
         <v>775.31</v>
       </c>
-      <c r="V23" s="46">
+      <c r="V23" s="41">
         <v>798.86</v>
       </c>
-      <c r="W23" s="46">
-        <v>829.67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" s="47" t="s">
+      <c r="W23" s="41">
+        <v>825.74</v>
+      </c>
+      <c r="X23" s="41">
+        <v>803.95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A24" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="46">
+      <c r="B24" s="41">
         <v>743.43</v>
       </c>
-      <c r="C24" s="46">
+      <c r="C24" s="41">
         <v>748</v>
       </c>
-      <c r="D24" s="46">
+      <c r="D24" s="41">
         <v>753.95</v>
       </c>
-      <c r="E24" s="46">
+      <c r="E24" s="41">
         <v>743.77</v>
       </c>
-      <c r="F24" s="46">
+      <c r="F24" s="41">
         <v>743.28</v>
       </c>
-      <c r="G24" s="46">
+      <c r="G24" s="41">
         <v>736.08</v>
       </c>
-      <c r="H24" s="46">
+      <c r="H24" s="41">
         <v>741.13</v>
       </c>
-      <c r="I24" s="46">
+      <c r="I24" s="41">
         <v>747.44</v>
       </c>
-      <c r="J24" s="46">
+      <c r="J24" s="41">
         <v>752.79</v>
       </c>
-      <c r="K24" s="46">
+      <c r="K24" s="41">
         <v>754.94</v>
       </c>
-      <c r="L24" s="46">
+      <c r="L24" s="41">
         <v>761.46</v>
       </c>
-      <c r="M24" s="46">
+      <c r="M24" s="41">
         <v>758.38</v>
       </c>
-      <c r="N24" s="46">
+      <c r="N24" s="41">
         <v>749.06</v>
       </c>
-      <c r="O24" s="46">
+      <c r="O24" s="41">
         <v>751.17</v>
       </c>
-      <c r="P24" s="46">
+      <c r="P24" s="41">
         <v>751.04</v>
       </c>
-      <c r="Q24" s="46">
+      <c r="Q24" s="41">
         <v>753.06</v>
       </c>
-      <c r="R24" s="46">
+      <c r="R24" s="41">
         <v>754.8</v>
       </c>
-      <c r="S24" s="46">
+      <c r="S24" s="41">
         <v>739.21</v>
       </c>
-      <c r="T24" s="46">
+      <c r="T24" s="41">
         <v>739.84</v>
       </c>
-      <c r="U24" s="46">
+      <c r="U24" s="41">
         <v>747.61</v>
       </c>
-      <c r="V24" s="46">
+      <c r="V24" s="41">
         <v>760.92</v>
       </c>
-      <c r="W24" s="46">
-        <v>771.41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" s="47" t="s">
+      <c r="W24" s="41">
+        <v>772.44</v>
+      </c>
+      <c r="X24" s="41">
+        <v>760.72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A25" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="46">
+      <c r="B25" s="41">
         <v>920.41</v>
       </c>
-      <c r="C25" s="46">
+      <c r="C25" s="41">
         <v>939.37</v>
       </c>
-      <c r="D25" s="46">
+      <c r="D25" s="41">
         <v>946.96</v>
       </c>
-      <c r="E25" s="46">
+      <c r="E25" s="41">
         <v>930.25</v>
       </c>
-      <c r="F25" s="46">
+      <c r="F25" s="41">
         <v>928.84</v>
       </c>
-      <c r="G25" s="46">
+      <c r="G25" s="41">
         <v>919.58</v>
       </c>
-      <c r="H25" s="46">
+      <c r="H25" s="41">
         <v>920.2</v>
       </c>
-      <c r="I25" s="46">
+      <c r="I25" s="41">
         <v>946.62</v>
       </c>
-      <c r="J25" s="46">
+      <c r="J25" s="41">
         <v>938.4</v>
       </c>
-      <c r="K25" s="46">
+      <c r="K25" s="41">
         <v>941.47</v>
       </c>
-      <c r="L25" s="46">
+      <c r="L25" s="41">
         <v>958.07</v>
       </c>
-      <c r="M25" s="46">
+      <c r="M25" s="41">
         <v>939.13</v>
       </c>
-      <c r="N25" s="46">
+      <c r="N25" s="41">
         <v>919.97</v>
       </c>
-      <c r="O25" s="46">
+      <c r="O25" s="41">
         <v>916.64</v>
       </c>
-      <c r="P25" s="46">
+      <c r="P25" s="41">
         <v>924.45</v>
       </c>
-      <c r="Q25" s="46">
+      <c r="Q25" s="41">
         <v>929.21</v>
       </c>
-      <c r="R25" s="46">
+      <c r="R25" s="41">
         <v>939.47</v>
       </c>
-      <c r="S25" s="46">
+      <c r="S25" s="41">
         <v>926.74</v>
       </c>
-      <c r="T25" s="46">
+      <c r="T25" s="41">
         <v>928.16</v>
       </c>
-      <c r="U25" s="46">
+      <c r="U25" s="41">
         <v>936.37</v>
       </c>
-      <c r="V25" s="46">
+      <c r="V25" s="41">
         <v>943.49</v>
       </c>
-      <c r="W25" s="46">
+      <c r="W25" s="41">
         <v>963.2</v>
       </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="47" t="s">
+      <c r="X25" s="41">
+        <v>959.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A26" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="46">
+      <c r="B26" s="41">
         <v>1008.56</v>
       </c>
-      <c r="C26" s="46">
+      <c r="C26" s="41">
         <v>1009.8</v>
       </c>
-      <c r="D26" s="46">
+      <c r="D26" s="41">
         <v>1015.03</v>
       </c>
-      <c r="E26" s="46">
+      <c r="E26" s="41">
         <v>1006.99</v>
       </c>
-      <c r="F26" s="46">
+      <c r="F26" s="41">
         <v>1011.37</v>
       </c>
-      <c r="G26" s="46">
+      <c r="G26" s="41">
         <v>1002.99</v>
       </c>
-      <c r="H26" s="46">
+      <c r="H26" s="41">
         <v>1004.3</v>
       </c>
-      <c r="I26" s="46">
+      <c r="I26" s="41">
         <v>1021.77</v>
       </c>
-      <c r="J26" s="46">
+      <c r="J26" s="41">
         <v>1018.4</v>
       </c>
-      <c r="K26" s="46">
+      <c r="K26" s="41">
         <v>1031.47</v>
       </c>
-      <c r="L26" s="46">
+      <c r="L26" s="41">
         <v>1055.57</v>
       </c>
-      <c r="M26" s="46">
+      <c r="M26" s="41">
         <v>1044.03</v>
       </c>
-      <c r="N26" s="46">
+      <c r="N26" s="41">
         <v>1044.95</v>
       </c>
-      <c r="O26" s="46">
+      <c r="O26" s="41">
         <v>1038.02</v>
       </c>
-      <c r="P26" s="46">
+      <c r="P26" s="41">
         <v>1035.3</v>
       </c>
-      <c r="Q26" s="46">
+      <c r="Q26" s="41">
         <v>1035.6300000000001</v>
       </c>
-      <c r="R26" s="46">
+      <c r="R26" s="41">
         <v>1050.43</v>
       </c>
-      <c r="S26" s="46">
+      <c r="S26" s="41">
         <v>1031.47</v>
       </c>
-      <c r="T26" s="46">
+      <c r="T26" s="41">
         <v>1040.6600000000001</v>
       </c>
-      <c r="U26" s="46">
+      <c r="U26" s="41">
         <v>1032.81</v>
       </c>
-      <c r="V26" s="46">
+      <c r="V26" s="41">
         <v>1055.04</v>
       </c>
-      <c r="W26" s="46">
-        <v>1075.7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" s="47" t="s">
+      <c r="W26" s="41">
+        <v>1076.21</v>
+      </c>
+      <c r="X26" s="41">
+        <v>1067.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A27" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="46">
+      <c r="B27" s="41">
         <v>814.31</v>
       </c>
-      <c r="C27" s="46">
+      <c r="C27" s="41">
         <v>822.17</v>
       </c>
-      <c r="D27" s="46">
+      <c r="D27" s="41">
         <v>826.28</v>
       </c>
-      <c r="E27" s="46">
+      <c r="E27" s="41">
         <v>818.4</v>
       </c>
-      <c r="F27" s="46">
+      <c r="F27" s="41">
         <v>820.02</v>
       </c>
-      <c r="G27" s="46">
+      <c r="G27" s="41">
         <v>816.91</v>
       </c>
-      <c r="H27" s="46">
+      <c r="H27" s="41">
         <v>820.46</v>
       </c>
-      <c r="I27" s="46">
+      <c r="I27" s="41">
         <v>847.37</v>
       </c>
-      <c r="J27" s="46">
+      <c r="J27" s="41">
         <v>827.27</v>
       </c>
-      <c r="K27" s="46">
+      <c r="K27" s="41">
         <v>837.26</v>
       </c>
-      <c r="L27" s="46">
+      <c r="L27" s="41">
         <v>844.22</v>
       </c>
-      <c r="M27" s="46">
+      <c r="M27" s="41">
         <v>835.21</v>
       </c>
-      <c r="N27" s="46">
+      <c r="N27" s="41">
         <v>823.71</v>
       </c>
-      <c r="O27" s="46">
+      <c r="O27" s="41">
         <v>820.66</v>
       </c>
-      <c r="P27" s="46">
+      <c r="P27" s="41">
         <v>823.09</v>
       </c>
-      <c r="Q27" s="46">
+      <c r="Q27" s="41">
         <v>823.88</v>
       </c>
-      <c r="R27" s="46">
+      <c r="R27" s="41">
         <v>825.94</v>
       </c>
-      <c r="S27" s="46">
+      <c r="S27" s="41">
         <v>818.03</v>
       </c>
-      <c r="T27" s="46">
+      <c r="T27" s="41">
         <v>822.85</v>
       </c>
-      <c r="U27" s="46">
+      <c r="U27" s="41">
         <v>822.83</v>
       </c>
-      <c r="V27" s="46">
+      <c r="V27" s="41">
         <v>831.41</v>
       </c>
-      <c r="W27" s="46">
-        <v>858.89</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" s="47" t="s">
+      <c r="W27" s="41">
+        <v>851.9</v>
+      </c>
+      <c r="X27" s="41">
+        <v>845.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A28" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="46">
+      <c r="B28" s="41">
         <v>873.68</v>
       </c>
-      <c r="C28" s="46">
+      <c r="C28" s="41">
         <v>884.11</v>
       </c>
-      <c r="D28" s="46">
+      <c r="D28" s="41">
         <v>892.25</v>
       </c>
-      <c r="E28" s="46">
+      <c r="E28" s="41">
         <v>872.93</v>
       </c>
-      <c r="F28" s="46">
+      <c r="F28" s="41">
         <v>871.7</v>
       </c>
-      <c r="G28" s="46">
+      <c r="G28" s="41">
         <v>876.71</v>
       </c>
-      <c r="H28" s="46">
+      <c r="H28" s="41">
         <v>882.36</v>
       </c>
-      <c r="I28" s="46">
+      <c r="I28" s="41">
         <v>904.1</v>
       </c>
-      <c r="J28" s="46">
+      <c r="J28" s="41">
         <v>881.4</v>
       </c>
-      <c r="K28" s="46">
+      <c r="K28" s="41">
         <v>897.26</v>
       </c>
-      <c r="L28" s="46">
+      <c r="L28" s="41">
         <v>900.14</v>
       </c>
-      <c r="M28" s="46">
+      <c r="M28" s="41">
         <v>888.33</v>
       </c>
-      <c r="N28" s="46">
+      <c r="N28" s="41">
         <v>894.79</v>
       </c>
-      <c r="O28" s="46">
+      <c r="O28" s="41">
         <v>886.44</v>
       </c>
-      <c r="P28" s="46">
+      <c r="P28" s="41">
         <v>906.18</v>
       </c>
-      <c r="Q28" s="46">
+      <c r="Q28" s="41">
         <v>906.53</v>
       </c>
-      <c r="R28" s="46">
+      <c r="R28" s="41">
         <v>925.76</v>
       </c>
-      <c r="S28" s="46">
+      <c r="S28" s="41">
         <v>913.75</v>
       </c>
-      <c r="T28" s="46">
+      <c r="T28" s="41">
         <v>919</v>
       </c>
-      <c r="U28" s="46">
+      <c r="U28" s="41">
         <v>916.61</v>
       </c>
-      <c r="V28" s="46">
+      <c r="V28" s="41">
         <v>931.95</v>
       </c>
-      <c r="W28" s="46">
-        <v>952.89</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" s="47" t="s">
+      <c r="W28" s="41">
+        <v>953.24</v>
+      </c>
+      <c r="X28" s="41">
+        <v>947.92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A29" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="46">
+      <c r="B29" s="41">
         <v>675.85</v>
       </c>
-      <c r="C29" s="46">
+      <c r="C29" s="41">
         <v>697.53</v>
       </c>
-      <c r="D29" s="46">
+      <c r="D29" s="41">
         <v>702.47</v>
       </c>
-      <c r="E29" s="46">
+      <c r="E29" s="41">
         <v>680.78</v>
       </c>
-      <c r="F29" s="46">
+      <c r="F29" s="41">
         <v>677.12</v>
       </c>
-      <c r="G29" s="46">
+      <c r="G29" s="41">
         <v>678.39</v>
       </c>
-      <c r="H29" s="46">
+      <c r="H29" s="41">
         <v>681.51</v>
       </c>
-      <c r="I29" s="46">
+      <c r="I29" s="41">
         <v>694.63</v>
       </c>
-      <c r="J29" s="46">
+      <c r="J29" s="41">
         <v>676.13</v>
       </c>
-      <c r="K29" s="46">
+      <c r="K29" s="41">
         <v>683.59</v>
       </c>
-      <c r="L29" s="46">
+      <c r="L29" s="41">
         <v>698.49</v>
       </c>
-      <c r="M29" s="46">
+      <c r="M29" s="41">
         <v>689.49</v>
       </c>
-      <c r="N29" s="46">
+      <c r="N29" s="41">
         <v>687.85</v>
       </c>
-      <c r="O29" s="46">
+      <c r="O29" s="41">
         <v>681.62</v>
       </c>
-      <c r="P29" s="46">
+      <c r="P29" s="41">
         <v>672.71</v>
       </c>
-      <c r="Q29" s="46">
+      <c r="Q29" s="41">
         <v>684.63</v>
       </c>
-      <c r="R29" s="46">
+      <c r="R29" s="41">
         <v>700.79</v>
       </c>
-      <c r="S29" s="46">
+      <c r="S29" s="41">
         <v>688.62</v>
       </c>
-      <c r="T29" s="46">
+      <c r="T29" s="41">
         <v>701.84</v>
       </c>
-      <c r="U29" s="46">
+      <c r="U29" s="41">
         <v>689.66</v>
       </c>
-      <c r="V29" s="46">
+      <c r="V29" s="41">
         <v>702.1</v>
       </c>
-      <c r="W29" s="46">
-        <v>719.94</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" s="47" t="s">
+      <c r="W29" s="41">
+        <v>719.06</v>
+      </c>
+      <c r="X29" s="41">
+        <v>699.13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A30" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="46">
+      <c r="B30" s="41">
         <v>743.76</v>
       </c>
-      <c r="C30" s="46">
+      <c r="C30" s="41">
         <v>759.58</v>
       </c>
-      <c r="D30" s="46">
+      <c r="D30" s="41">
         <v>757.87</v>
       </c>
-      <c r="E30" s="46">
+      <c r="E30" s="41">
         <v>747.66</v>
       </c>
-      <c r="F30" s="46">
+      <c r="F30" s="41">
         <v>743.37</v>
       </c>
-      <c r="G30" s="46">
+      <c r="G30" s="41">
         <v>743.6</v>
       </c>
-      <c r="H30" s="46">
+      <c r="H30" s="41">
         <v>743.6</v>
       </c>
-      <c r="I30" s="46">
+      <c r="I30" s="41">
         <v>759.55</v>
       </c>
-      <c r="J30" s="46">
+      <c r="J30" s="41">
         <v>742.22</v>
       </c>
-      <c r="K30" s="46">
+      <c r="K30" s="41">
         <v>744.95</v>
       </c>
-      <c r="L30" s="46">
+      <c r="L30" s="41">
         <v>755.48</v>
       </c>
-      <c r="M30" s="46">
+      <c r="M30" s="41">
         <v>745.78</v>
       </c>
-      <c r="N30" s="46">
+      <c r="N30" s="41">
         <v>743.15</v>
       </c>
-      <c r="O30" s="46">
+      <c r="O30" s="41">
         <v>738.26</v>
       </c>
-      <c r="P30" s="46">
+      <c r="P30" s="41">
         <v>740.26</v>
       </c>
-      <c r="Q30" s="46">
+      <c r="Q30" s="41">
         <v>746.79</v>
       </c>
-      <c r="R30" s="46">
+      <c r="R30" s="41">
         <v>751.85</v>
       </c>
-      <c r="S30" s="46">
+      <c r="S30" s="41">
         <v>738.59</v>
       </c>
-      <c r="T30" s="46">
+      <c r="T30" s="41">
         <v>746.25</v>
       </c>
-      <c r="U30" s="46">
+      <c r="U30" s="41">
         <v>741.02</v>
       </c>
-      <c r="V30" s="46">
+      <c r="V30" s="41">
         <v>760.57</v>
       </c>
-      <c r="W30" s="46">
-        <v>791.23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" s="47" t="s">
+      <c r="W30" s="41">
+        <v>780.78</v>
+      </c>
+      <c r="X30" s="41">
+        <v>768.57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A31" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="46">
+      <c r="B31" s="41">
         <v>700.1</v>
       </c>
-      <c r="C31" s="46">
+      <c r="C31" s="41">
         <v>722.67</v>
       </c>
-      <c r="D31" s="46">
+      <c r="D31" s="41">
         <v>706.23</v>
       </c>
-      <c r="E31" s="46">
+      <c r="E31" s="41">
         <v>696.96</v>
       </c>
-      <c r="F31" s="46">
+      <c r="F31" s="41">
         <v>711.75</v>
       </c>
-      <c r="G31" s="46">
+      <c r="G31" s="41">
         <v>713.19</v>
       </c>
-      <c r="H31" s="46">
+      <c r="H31" s="41">
         <v>716.56</v>
       </c>
-      <c r="I31" s="46">
+      <c r="I31" s="41">
         <v>746.72</v>
       </c>
-      <c r="J31" s="46">
+      <c r="J31" s="41">
         <v>723.65</v>
       </c>
-      <c r="K31" s="46">
+      <c r="K31" s="41">
         <v>723.13</v>
       </c>
-      <c r="L31" s="46">
+      <c r="L31" s="41">
         <v>747.78</v>
       </c>
-      <c r="M31" s="46">
+      <c r="M31" s="41">
         <v>722.87</v>
       </c>
-      <c r="N31" s="46">
+      <c r="N31" s="41">
         <v>711.98</v>
       </c>
-      <c r="O31" s="46">
+      <c r="O31" s="41">
         <v>722.55</v>
       </c>
-      <c r="P31" s="46">
+      <c r="P31" s="41">
         <v>709.95</v>
       </c>
-      <c r="Q31" s="46">
+      <c r="Q31" s="41">
         <v>724.46</v>
       </c>
-      <c r="R31" s="46">
+      <c r="R31" s="41">
         <v>740.52</v>
       </c>
-      <c r="S31" s="46">
+      <c r="S31" s="41">
         <v>729.96</v>
       </c>
-      <c r="T31" s="46">
+      <c r="T31" s="41">
         <v>739.03</v>
       </c>
-      <c r="U31" s="46">
+      <c r="U31" s="41">
         <v>738.14</v>
       </c>
-      <c r="V31" s="46">
+      <c r="V31" s="41">
         <v>740.62</v>
       </c>
-      <c r="W31" s="46">
-        <v>709.49</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A32" s="47" t="s">
+      <c r="W31" s="41">
+        <v>756.63</v>
+      </c>
+      <c r="X31" s="41">
+        <v>737.75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A32" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="46">
+      <c r="B32" s="41">
         <v>738.53</v>
       </c>
-      <c r="C32" s="46">
+      <c r="C32" s="41">
         <v>755.63</v>
       </c>
-      <c r="D32" s="46">
+      <c r="D32" s="41">
         <v>755.14</v>
       </c>
-      <c r="E32" s="46">
+      <c r="E32" s="41">
         <v>738.53</v>
       </c>
-      <c r="F32" s="46">
+      <c r="F32" s="41">
         <v>742.75</v>
       </c>
-      <c r="G32" s="46">
+      <c r="G32" s="41">
         <v>749.34</v>
       </c>
-      <c r="H32" s="46">
+      <c r="H32" s="41">
         <v>752.2</v>
       </c>
-      <c r="I32" s="46">
+      <c r="I32" s="41">
         <v>785.25</v>
       </c>
-      <c r="J32" s="46">
+      <c r="J32" s="41">
         <v>766.14</v>
       </c>
-      <c r="K32" s="46">
+      <c r="K32" s="41">
         <v>766.61</v>
       </c>
-      <c r="L32" s="46">
+      <c r="L32" s="41">
         <v>774.63</v>
       </c>
-      <c r="M32" s="46">
+      <c r="M32" s="41">
         <v>760.84</v>
       </c>
-      <c r="N32" s="46">
+      <c r="N32" s="41">
         <v>760.18</v>
       </c>
-      <c r="O32" s="46">
+      <c r="O32" s="41">
         <v>761.9</v>
       </c>
-      <c r="P32" s="46">
+      <c r="P32" s="41">
         <v>762.86</v>
       </c>
-      <c r="Q32" s="46">
+      <c r="Q32" s="41">
         <v>777.67</v>
       </c>
-      <c r="R32" s="46">
+      <c r="R32" s="41">
         <v>785.66</v>
       </c>
-      <c r="S32" s="46">
+      <c r="S32" s="41">
         <v>779.42</v>
       </c>
-      <c r="T32" s="46">
+      <c r="T32" s="41">
         <v>782.68</v>
       </c>
-      <c r="U32" s="46">
+      <c r="U32" s="41">
         <v>783.28</v>
       </c>
-      <c r="V32" s="46">
+      <c r="V32" s="41">
         <v>781.5</v>
       </c>
-      <c r="W32" s="46">
-        <v>808.95</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A33" s="47" t="s">
+      <c r="W32" s="41">
+        <v>805.92</v>
+      </c>
+      <c r="X32" s="41">
+        <v>781.73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A33" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="46">
+      <c r="B33" s="41">
         <v>717.45</v>
       </c>
-      <c r="C33" s="46">
+      <c r="C33" s="41">
         <v>732.98</v>
       </c>
-      <c r="D33" s="46">
+      <c r="D33" s="41">
         <v>737.52</v>
       </c>
-      <c r="E33" s="46">
+      <c r="E33" s="41">
         <v>729.79</v>
       </c>
-      <c r="F33" s="46">
+      <c r="F33" s="41">
         <v>729.63</v>
       </c>
-      <c r="G33" s="46">
+      <c r="G33" s="41">
         <v>730.13</v>
       </c>
-      <c r="H33" s="46">
+      <c r="H33" s="41">
         <v>737.02</v>
       </c>
-      <c r="I33" s="46">
+      <c r="I33" s="41">
         <v>754.29</v>
       </c>
-      <c r="J33" s="46">
+      <c r="J33" s="41">
         <v>747.32</v>
       </c>
-      <c r="K33" s="46">
+      <c r="K33" s="41">
         <v>741.69</v>
       </c>
-      <c r="L33" s="46">
+      <c r="L33" s="41">
         <v>753.94</v>
       </c>
-      <c r="M33" s="46">
+      <c r="M33" s="41">
         <v>737.14</v>
       </c>
-      <c r="N33" s="46">
+      <c r="N33" s="41">
         <v>739.36</v>
       </c>
-      <c r="O33" s="46">
+      <c r="O33" s="41">
         <v>741.26</v>
       </c>
-      <c r="P33" s="46">
+      <c r="P33" s="41">
         <v>737.04</v>
       </c>
-      <c r="Q33" s="46">
+      <c r="Q33" s="41">
         <v>746.59</v>
       </c>
-      <c r="R33" s="46">
+      <c r="R33" s="41">
         <v>759.07</v>
       </c>
-      <c r="S33" s="46">
+      <c r="S33" s="41">
         <v>750.38</v>
       </c>
-      <c r="T33" s="46">
+      <c r="T33" s="41">
         <v>750.48</v>
       </c>
-      <c r="U33" s="46">
+      <c r="U33" s="41">
         <v>758.52</v>
       </c>
-      <c r="V33" s="46">
+      <c r="V33" s="41">
         <v>751.22</v>
       </c>
-      <c r="W33" s="46">
-        <v>758.86</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A34" s="47" t="s">
+      <c r="W33" s="41">
+        <v>762.8</v>
+      </c>
+      <c r="X33" s="41">
+        <v>752.08</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A34" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="46">
+      <c r="B34" s="41">
         <v>809.34</v>
       </c>
-      <c r="C34" s="46">
+      <c r="C34" s="41">
         <v>819.54</v>
       </c>
-      <c r="D34" s="46">
+      <c r="D34" s="41">
         <v>831.14</v>
       </c>
-      <c r="E34" s="46">
+      <c r="E34" s="41">
         <v>842.69</v>
       </c>
-      <c r="F34" s="46">
+      <c r="F34" s="41">
         <v>839.8</v>
       </c>
-      <c r="G34" s="46">
+      <c r="G34" s="41">
         <v>825.11</v>
       </c>
-      <c r="H34" s="46">
+      <c r="H34" s="41">
         <v>830.89</v>
       </c>
-      <c r="I34" s="46">
+      <c r="I34" s="41">
         <v>835.79</v>
       </c>
-      <c r="J34" s="46">
+      <c r="J34" s="41">
         <v>837.78</v>
       </c>
-      <c r="K34" s="46">
+      <c r="K34" s="41">
         <v>852.1</v>
       </c>
-      <c r="L34" s="46">
+      <c r="L34" s="41">
         <v>862.76</v>
       </c>
-      <c r="M34" s="46">
+      <c r="M34" s="41">
         <v>851.26</v>
       </c>
-      <c r="N34" s="46">
+      <c r="N34" s="41">
         <v>861.14</v>
       </c>
-      <c r="O34" s="46">
+      <c r="O34" s="41">
         <v>857.89</v>
       </c>
-      <c r="P34" s="46">
+      <c r="P34" s="41">
         <v>848.68</v>
       </c>
-      <c r="Q34" s="46">
+      <c r="Q34" s="41">
         <v>860.5</v>
       </c>
-      <c r="R34" s="46">
+      <c r="R34" s="41">
         <v>862.58</v>
       </c>
-      <c r="S34" s="46">
+      <c r="S34" s="41">
         <v>845.53</v>
       </c>
-      <c r="T34" s="46">
+      <c r="T34" s="41">
         <v>852.04</v>
       </c>
-      <c r="U34" s="46">
+      <c r="U34" s="41">
         <v>863.94</v>
       </c>
-      <c r="V34" s="46">
+      <c r="V34" s="41">
         <v>883.39</v>
       </c>
-      <c r="W34" s="46">
-        <v>913.22</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A35" s="47" t="s">
+      <c r="W34" s="41">
+        <v>909.08</v>
+      </c>
+      <c r="X34" s="41">
+        <v>890.01</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A35" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="46">
+      <c r="B35" s="41">
         <v>918.98</v>
       </c>
-      <c r="C35" s="46">
+      <c r="C35" s="41">
         <v>942.36</v>
       </c>
-      <c r="D35" s="46">
+      <c r="D35" s="41">
         <v>947.98</v>
       </c>
-      <c r="E35" s="46">
+      <c r="E35" s="41">
         <v>928.44</v>
       </c>
-      <c r="F35" s="46">
+      <c r="F35" s="41">
         <v>930.46</v>
       </c>
-      <c r="G35" s="46">
+      <c r="G35" s="41">
         <v>929.78</v>
       </c>
-      <c r="H35" s="46">
+      <c r="H35" s="41">
         <v>930.56</v>
       </c>
-      <c r="I35" s="46">
+      <c r="I35" s="41">
         <v>948.02</v>
       </c>
-      <c r="J35" s="46">
+      <c r="J35" s="41">
         <v>938.96</v>
       </c>
-      <c r="K35" s="46">
+      <c r="K35" s="41">
         <v>943.1</v>
       </c>
-      <c r="L35" s="46">
+      <c r="L35" s="41">
         <v>956.08</v>
       </c>
-      <c r="M35" s="46">
+      <c r="M35" s="41">
         <v>942.82</v>
       </c>
-      <c r="N35" s="46">
+      <c r="N35" s="41">
         <v>934.75</v>
       </c>
-      <c r="O35" s="46">
+      <c r="O35" s="41">
         <v>940.46</v>
       </c>
-      <c r="P35" s="46">
+      <c r="P35" s="41">
         <v>937.33</v>
       </c>
-      <c r="Q35" s="46">
+      <c r="Q35" s="41">
         <v>945.96</v>
       </c>
-      <c r="R35" s="46">
+      <c r="R35" s="41">
         <v>960.84</v>
       </c>
-      <c r="S35" s="46">
+      <c r="S35" s="41">
         <v>941.4</v>
       </c>
-      <c r="T35" s="46">
+      <c r="T35" s="41">
         <v>946.28</v>
       </c>
-      <c r="U35" s="46">
+      <c r="U35" s="41">
         <v>946.83</v>
       </c>
-      <c r="V35" s="46">
+      <c r="V35" s="41">
         <v>981.36</v>
       </c>
-      <c r="W35" s="46">
-        <v>1005.97</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A36" s="47" t="s">
+      <c r="W35" s="41">
+        <v>1004.5</v>
+      </c>
+      <c r="X35" s="41">
+        <v>992.42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A36" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="46">
+      <c r="B36" s="41">
         <v>699.02</v>
       </c>
-      <c r="C36" s="46">
+      <c r="C36" s="41">
         <v>708.3</v>
       </c>
-      <c r="D36" s="46">
+      <c r="D36" s="41">
         <v>708.98</v>
       </c>
-      <c r="E36" s="46">
+      <c r="E36" s="41">
         <v>694.27</v>
       </c>
-      <c r="F36" s="46">
+      <c r="F36" s="41">
         <v>693.58</v>
       </c>
-      <c r="G36" s="46">
+      <c r="G36" s="41">
         <v>689.16</v>
       </c>
-      <c r="H36" s="46">
+      <c r="H36" s="41">
         <v>693.89</v>
       </c>
-      <c r="I36" s="46">
+      <c r="I36" s="41">
         <v>709.17</v>
       </c>
-      <c r="J36" s="46">
+      <c r="J36" s="41">
         <v>700.42</v>
       </c>
-      <c r="K36" s="46">
+      <c r="K36" s="41">
         <v>699.73</v>
       </c>
-      <c r="L36" s="46">
+      <c r="L36" s="41">
         <v>705.55</v>
       </c>
-      <c r="M36" s="46">
+      <c r="M36" s="41">
         <v>693.6</v>
       </c>
-      <c r="N36" s="46">
+      <c r="N36" s="41">
         <v>687.71</v>
       </c>
-      <c r="O36" s="46">
+      <c r="O36" s="41">
         <v>691.78</v>
       </c>
-      <c r="P36" s="46">
+      <c r="P36" s="41">
         <v>681.98</v>
       </c>
-      <c r="Q36" s="46">
+      <c r="Q36" s="41">
         <v>685.41</v>
       </c>
-      <c r="R36" s="46">
+      <c r="R36" s="41">
         <v>686.81</v>
       </c>
-      <c r="S36" s="46">
+      <c r="S36" s="41">
         <v>678.35</v>
       </c>
-      <c r="T36" s="46">
+      <c r="T36" s="41">
         <v>684.74</v>
       </c>
-      <c r="U36" s="46">
+      <c r="U36" s="41">
         <v>688.13</v>
       </c>
-      <c r="V36" s="46">
+      <c r="V36" s="41">
         <v>691.71</v>
       </c>
-      <c r="W36" s="46">
-        <v>706.76</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A37" s="47" t="s">
+      <c r="W36" s="41">
+        <v>708.85</v>
+      </c>
+      <c r="X36" s="41">
+        <v>693.05</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A37" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="46">
+      <c r="B37" s="41">
         <v>961.45</v>
       </c>
-      <c r="C37" s="46">
+      <c r="C37" s="41">
         <v>978.31</v>
       </c>
-      <c r="D37" s="46">
+      <c r="D37" s="41">
         <v>979.52</v>
       </c>
-      <c r="E37" s="46">
+      <c r="E37" s="41">
         <v>966.48</v>
       </c>
-      <c r="F37" s="46">
+      <c r="F37" s="41">
         <v>962.14</v>
       </c>
-      <c r="G37" s="46">
+      <c r="G37" s="41">
         <v>958.77</v>
       </c>
-      <c r="H37" s="46">
+      <c r="H37" s="41">
         <v>961.61</v>
       </c>
-      <c r="I37" s="46">
+      <c r="I37" s="41">
         <v>983.25</v>
       </c>
-      <c r="J37" s="46">
+      <c r="J37" s="41">
         <v>964.83</v>
       </c>
-      <c r="K37" s="46">
+      <c r="K37" s="41">
         <v>969.21</v>
       </c>
-      <c r="L37" s="46">
+      <c r="L37" s="41">
         <v>993.82</v>
       </c>
-      <c r="M37" s="46">
+      <c r="M37" s="41">
         <v>978.31</v>
       </c>
-      <c r="N37" s="46">
+      <c r="N37" s="41">
         <v>977.28</v>
       </c>
-      <c r="O37" s="46">
+      <c r="O37" s="41">
         <v>979.4</v>
       </c>
-      <c r="P37" s="46">
+      <c r="P37" s="41">
         <v>971.43</v>
       </c>
-      <c r="Q37" s="46">
+      <c r="Q37" s="41">
         <v>969.7</v>
       </c>
-      <c r="R37" s="46">
+      <c r="R37" s="41">
         <v>981.12</v>
       </c>
-      <c r="S37" s="46">
+      <c r="S37" s="41">
         <v>961.12</v>
       </c>
-      <c r="T37" s="46">
+      <c r="T37" s="41">
         <v>975.62</v>
       </c>
-      <c r="U37" s="46">
+      <c r="U37" s="41">
         <v>991.02</v>
       </c>
-      <c r="V37" s="46">
+      <c r="V37" s="41">
         <v>979.78</v>
       </c>
-      <c r="W37" s="46">
-        <v>996.85</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A38" s="47" t="s">
+      <c r="W37" s="41">
+        <v>997.86</v>
+      </c>
+      <c r="X37" s="41">
+        <v>981.22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A38" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="46">
+      <c r="B38" s="41">
         <v>753.77</v>
       </c>
-      <c r="C38" s="46">
+      <c r="C38" s="41">
         <v>771.08</v>
       </c>
-      <c r="D38" s="46">
+      <c r="D38" s="41">
         <v>768.85</v>
       </c>
-      <c r="E38" s="46">
+      <c r="E38" s="41">
         <v>758.18</v>
       </c>
-      <c r="F38" s="46">
+      <c r="F38" s="41">
         <v>762.45</v>
       </c>
-      <c r="G38" s="46">
+      <c r="G38" s="41">
         <v>760.04</v>
       </c>
-      <c r="H38" s="46">
+      <c r="H38" s="41">
         <v>763.49</v>
       </c>
-      <c r="I38" s="46">
+      <c r="I38" s="41">
         <v>788.9</v>
       </c>
-      <c r="J38" s="46">
+      <c r="J38" s="41">
         <v>766.61</v>
       </c>
-      <c r="K38" s="46">
+      <c r="K38" s="41">
         <v>778.15</v>
       </c>
-      <c r="L38" s="46">
+      <c r="L38" s="41">
         <v>790.26</v>
       </c>
-      <c r="M38" s="46">
+      <c r="M38" s="41">
         <v>779.16</v>
       </c>
-      <c r="N38" s="46">
+      <c r="N38" s="41">
         <v>776.72</v>
       </c>
-      <c r="O38" s="46">
+      <c r="O38" s="41">
         <v>783.15</v>
       </c>
-      <c r="P38" s="46">
+      <c r="P38" s="41">
         <v>790.78</v>
       </c>
-      <c r="Q38" s="46">
+      <c r="Q38" s="41">
         <v>797.48</v>
       </c>
-      <c r="R38" s="46">
+      <c r="R38" s="41">
         <v>809.03</v>
       </c>
-      <c r="S38" s="46">
+      <c r="S38" s="41">
         <v>801.52</v>
       </c>
-      <c r="T38" s="46">
+      <c r="T38" s="41">
         <v>803.16</v>
       </c>
-      <c r="U38" s="46">
+      <c r="U38" s="41">
         <v>806.34</v>
       </c>
-      <c r="V38" s="46">
+      <c r="V38" s="41">
         <v>809.09</v>
       </c>
-      <c r="W38" s="46">
-        <v>826.25</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A39" s="47" t="s">
+      <c r="W38" s="41">
+        <v>824.52</v>
+      </c>
+      <c r="X38" s="41">
+        <v>818.03</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A39" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="46">
+      <c r="B39" s="41">
         <v>864.92</v>
       </c>
-      <c r="C39" s="46">
+      <c r="C39" s="41">
         <v>873.25</v>
       </c>
-      <c r="D39" s="46">
+      <c r="D39" s="41">
         <v>877.04</v>
       </c>
-      <c r="E39" s="46">
+      <c r="E39" s="41">
         <v>878.15</v>
       </c>
-      <c r="F39" s="46">
+      <c r="F39" s="41">
         <v>875.13</v>
       </c>
-      <c r="G39" s="46">
+      <c r="G39" s="41">
         <v>877.21</v>
       </c>
-      <c r="H39" s="46">
+      <c r="H39" s="41">
         <v>894.2</v>
       </c>
-      <c r="I39" s="46">
+      <c r="I39" s="41">
         <v>919.08</v>
       </c>
-      <c r="J39" s="46">
+      <c r="J39" s="41">
         <v>895.49</v>
       </c>
-      <c r="K39" s="46">
+      <c r="K39" s="41">
         <v>907.3</v>
       </c>
-      <c r="L39" s="46">
+      <c r="L39" s="41">
         <v>901.56</v>
       </c>
-      <c r="M39" s="46">
+      <c r="M39" s="41">
         <v>881.03</v>
       </c>
-      <c r="N39" s="46">
+      <c r="N39" s="41">
         <v>895.13</v>
       </c>
-      <c r="O39" s="46">
+      <c r="O39" s="41">
         <v>875.69</v>
       </c>
-      <c r="P39" s="46">
+      <c r="P39" s="41">
         <v>864.74</v>
       </c>
-      <c r="Q39" s="46">
+      <c r="Q39" s="41">
         <v>885.1</v>
       </c>
-      <c r="R39" s="46">
+      <c r="R39" s="41">
         <v>905.31</v>
       </c>
-      <c r="S39" s="46">
+      <c r="S39" s="41">
         <v>878.49</v>
       </c>
-      <c r="T39" s="46">
+      <c r="T39" s="41">
         <v>889.01</v>
       </c>
-      <c r="U39" s="46">
+      <c r="U39" s="41">
         <v>896.93</v>
       </c>
-      <c r="V39" s="46">
+      <c r="V39" s="41">
         <v>891.99</v>
       </c>
-      <c r="W39" s="46">
-        <v>913.09</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A40" s="47" t="s">
+      <c r="W39" s="41">
+        <v>911.9</v>
+      </c>
+      <c r="X39" s="41">
+        <v>873.3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A40" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="46">
+      <c r="B40" s="41">
         <v>760.84</v>
       </c>
-      <c r="C40" s="46">
+      <c r="C40" s="41">
         <v>771.68</v>
       </c>
-      <c r="D40" s="46">
+      <c r="D40" s="41">
         <v>777.58</v>
       </c>
-      <c r="E40" s="46">
+      <c r="E40" s="41">
         <v>767.38</v>
       </c>
-      <c r="F40" s="46">
+      <c r="F40" s="41">
         <v>766.57</v>
       </c>
-      <c r="G40" s="46">
+      <c r="G40" s="41">
         <v>767.29</v>
       </c>
-      <c r="H40" s="46">
+      <c r="H40" s="41">
         <v>767.59</v>
       </c>
-      <c r="I40" s="46">
+      <c r="I40" s="41">
         <v>788.88</v>
       </c>
-      <c r="J40" s="46">
+      <c r="J40" s="41">
         <v>780.89</v>
       </c>
-      <c r="K40" s="46">
+      <c r="K40" s="41">
         <v>782.94</v>
       </c>
-      <c r="L40" s="46">
+      <c r="L40" s="41">
         <v>795.11</v>
       </c>
-      <c r="M40" s="46">
+      <c r="M40" s="41">
         <v>788.79</v>
       </c>
-      <c r="N40" s="46">
+      <c r="N40" s="41">
         <v>786.08</v>
       </c>
-      <c r="O40" s="46">
+      <c r="O40" s="41">
         <v>785.4</v>
       </c>
-      <c r="P40" s="46">
+      <c r="P40" s="41">
         <v>787.03</v>
       </c>
-      <c r="Q40" s="46">
+      <c r="Q40" s="41">
         <v>799.6</v>
       </c>
-      <c r="R40" s="46">
+      <c r="R40" s="41">
         <v>805.3</v>
       </c>
-      <c r="S40" s="46">
+      <c r="S40" s="41">
         <v>794.05</v>
       </c>
-      <c r="T40" s="46">
+      <c r="T40" s="41">
         <v>800.22</v>
       </c>
-      <c r="U40" s="46">
+      <c r="U40" s="41">
         <v>796.79</v>
       </c>
-      <c r="V40" s="46">
+      <c r="V40" s="41">
         <v>810.46</v>
       </c>
-      <c r="W40" s="46">
-        <v>823.83</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A41" s="47" t="s">
+      <c r="W40" s="41">
+        <v>825.21</v>
+      </c>
+      <c r="X40" s="41">
+        <v>811.2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A41" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="46">
+      <c r="B41" s="41">
         <v>755.32</v>
       </c>
-      <c r="C41" s="46">
+      <c r="C41" s="41">
         <v>767.55</v>
       </c>
-      <c r="D41" s="46">
+      <c r="D41" s="41">
         <v>768.34</v>
       </c>
-      <c r="E41" s="46">
+      <c r="E41" s="41">
         <v>748.89</v>
       </c>
-      <c r="F41" s="46">
+      <c r="F41" s="41">
         <v>744.88</v>
       </c>
-      <c r="G41" s="46">
+      <c r="G41" s="41">
         <v>752.03</v>
       </c>
-      <c r="H41" s="46">
+      <c r="H41" s="41">
         <v>744.76</v>
       </c>
-      <c r="I41" s="46">
+      <c r="I41" s="41">
         <v>767.71</v>
       </c>
-      <c r="J41" s="46">
+      <c r="J41" s="41">
         <v>748.43</v>
       </c>
-      <c r="K41" s="46">
+      <c r="K41" s="41">
         <v>756.46</v>
       </c>
-      <c r="L41" s="46">
+      <c r="L41" s="41">
         <v>771.5</v>
       </c>
-      <c r="M41" s="46">
+      <c r="M41" s="41">
         <v>758.1</v>
       </c>
-      <c r="N41" s="46">
+      <c r="N41" s="41">
         <v>756.63</v>
       </c>
-      <c r="O41" s="46">
+      <c r="O41" s="41">
         <v>760.03</v>
       </c>
-      <c r="P41" s="46">
+      <c r="P41" s="41">
         <v>754.86</v>
       </c>
-      <c r="Q41" s="46">
+      <c r="Q41" s="41">
         <v>759.93</v>
       </c>
-      <c r="R41" s="46">
+      <c r="R41" s="41">
         <v>771.5</v>
       </c>
-      <c r="S41" s="46">
+      <c r="S41" s="41">
         <v>763</v>
       </c>
-      <c r="T41" s="46">
+      <c r="T41" s="41">
         <v>779.78</v>
       </c>
-      <c r="U41" s="46">
+      <c r="U41" s="41">
         <v>767.9</v>
       </c>
-      <c r="V41" s="46">
+      <c r="V41" s="41">
         <v>780.27</v>
       </c>
-      <c r="W41" s="46">
-        <v>800.75</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A42" s="47" t="s">
+      <c r="W41" s="41">
+        <v>798.15</v>
+      </c>
+      <c r="X41" s="41">
+        <v>782.46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A42" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="B42" s="46">
+      <c r="B42" s="41">
         <v>778.22</v>
       </c>
-      <c r="C42" s="46">
+      <c r="C42" s="41">
         <v>807.56</v>
       </c>
-      <c r="D42" s="46">
+      <c r="D42" s="41">
         <v>804.27</v>
       </c>
-      <c r="E42" s="46">
+      <c r="E42" s="41">
         <v>783.55</v>
       </c>
-      <c r="F42" s="46">
+      <c r="F42" s="41">
         <v>787.23</v>
       </c>
-      <c r="G42" s="46">
+      <c r="G42" s="41">
         <v>791.52</v>
       </c>
-      <c r="H42" s="46">
+      <c r="H42" s="41">
         <v>792.88</v>
       </c>
-      <c r="I42" s="46">
+      <c r="I42" s="41">
         <v>820.05</v>
       </c>
-      <c r="J42" s="46">
+      <c r="J42" s="41">
         <v>796.67</v>
       </c>
-      <c r="K42" s="46">
+      <c r="K42" s="41">
         <v>801.39</v>
       </c>
-      <c r="L42" s="46">
+      <c r="L42" s="41">
         <v>828.35</v>
       </c>
-      <c r="M42" s="46">
+      <c r="M42" s="41">
         <v>808.02</v>
       </c>
-      <c r="N42" s="46">
+      <c r="N42" s="41">
         <v>811.29</v>
       </c>
-      <c r="O42" s="46">
+      <c r="O42" s="41">
         <v>820.6</v>
       </c>
-      <c r="P42" s="46">
+      <c r="P42" s="41">
         <v>811.71</v>
       </c>
-      <c r="Q42" s="46">
+      <c r="Q42" s="41">
         <v>834.62</v>
       </c>
-      <c r="R42" s="46">
+      <c r="R42" s="41">
         <v>855.7</v>
       </c>
-      <c r="S42" s="46">
+      <c r="S42" s="41">
         <v>833.8</v>
       </c>
-      <c r="T42" s="46">
+      <c r="T42" s="41">
         <v>844.86</v>
       </c>
-      <c r="U42" s="46">
+      <c r="U42" s="41">
         <v>843.83</v>
       </c>
-      <c r="V42" s="46">
+      <c r="V42" s="41">
         <v>857.5</v>
       </c>
-      <c r="W42" s="46">
-        <v>888.03</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A43" s="47" t="s">
+      <c r="W42" s="41">
+        <v>885.57</v>
+      </c>
+      <c r="X42" s="41">
+        <v>858.16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A43" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="46">
+      <c r="B43" s="41">
         <v>799.6</v>
       </c>
-      <c r="C43" s="46">
+      <c r="C43" s="41">
         <v>811.83</v>
       </c>
-      <c r="D43" s="46">
+      <c r="D43" s="41">
         <v>818.64</v>
       </c>
-      <c r="E43" s="46">
+      <c r="E43" s="41">
         <v>814.58</v>
       </c>
-      <c r="F43" s="46">
+      <c r="F43" s="41">
         <v>817.36</v>
       </c>
-      <c r="G43" s="46">
+      <c r="G43" s="41">
         <v>818.38</v>
       </c>
-      <c r="H43" s="46">
+      <c r="H43" s="41">
         <v>819.74</v>
       </c>
-      <c r="I43" s="46">
+      <c r="I43" s="41">
         <v>831.78</v>
       </c>
-      <c r="J43" s="46">
+      <c r="J43" s="41">
         <v>823.03</v>
       </c>
-      <c r="K43" s="46">
+      <c r="K43" s="41">
         <v>828.97</v>
       </c>
-      <c r="L43" s="46">
+      <c r="L43" s="41">
         <v>841.72</v>
       </c>
-      <c r="M43" s="46">
+      <c r="M43" s="41">
         <v>833.45</v>
       </c>
-      <c r="N43" s="46">
+      <c r="N43" s="41">
         <v>831.04</v>
       </c>
-      <c r="O43" s="46">
+      <c r="O43" s="41">
         <v>825.55</v>
       </c>
-      <c r="P43" s="46">
+      <c r="P43" s="41">
         <v>822.19</v>
       </c>
-      <c r="Q43" s="46">
+      <c r="Q43" s="41">
         <v>825.31</v>
       </c>
-      <c r="R43" s="46">
+      <c r="R43" s="41">
         <v>830.21</v>
       </c>
-      <c r="S43" s="46">
+      <c r="S43" s="41">
         <v>824.38</v>
       </c>
-      <c r="T43" s="46">
+      <c r="T43" s="41">
         <v>830.8</v>
       </c>
-      <c r="U43" s="46">
+      <c r="U43" s="41">
         <v>829.11</v>
       </c>
-      <c r="V43" s="46">
+      <c r="V43" s="41">
         <v>839.7</v>
       </c>
-      <c r="W43" s="46">
-        <v>847.28</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A44" s="47" t="s">
+      <c r="W43" s="41">
+        <v>852.5</v>
+      </c>
+      <c r="X43" s="41">
+        <v>845.47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A44" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="46">
+      <c r="B44" s="41">
         <v>827.87</v>
       </c>
-      <c r="C44" s="46">
+      <c r="C44" s="41">
         <v>831.68</v>
       </c>
-      <c r="D44" s="46">
+      <c r="D44" s="41">
         <v>838.29</v>
       </c>
-      <c r="E44" s="46">
+      <c r="E44" s="41">
         <v>827.44</v>
       </c>
-      <c r="F44" s="46">
+      <c r="F44" s="41">
         <v>828.16</v>
       </c>
-      <c r="G44" s="46">
+      <c r="G44" s="41">
         <v>810.77</v>
       </c>
-      <c r="H44" s="46">
+      <c r="H44" s="41">
         <v>815.14</v>
       </c>
-      <c r="I44" s="46">
+      <c r="I44" s="41">
         <v>814.39</v>
       </c>
-      <c r="J44" s="46">
+      <c r="J44" s="41">
         <v>821.84</v>
       </c>
-      <c r="K44" s="46">
+      <c r="K44" s="41">
         <v>827.11</v>
       </c>
-      <c r="L44" s="46">
+      <c r="L44" s="41">
         <v>839.42</v>
       </c>
-      <c r="M44" s="46">
+      <c r="M44" s="41">
         <v>825.46</v>
       </c>
-      <c r="N44" s="46">
+      <c r="N44" s="41">
         <v>844.34</v>
       </c>
-      <c r="O44" s="46">
+      <c r="O44" s="41">
         <v>843.7</v>
       </c>
-      <c r="P44" s="46">
+      <c r="P44" s="41">
         <v>833.95</v>
       </c>
-      <c r="Q44" s="46">
+      <c r="Q44" s="41">
         <v>852.16</v>
       </c>
-      <c r="R44" s="46">
+      <c r="R44" s="41">
         <v>857.67</v>
       </c>
-      <c r="S44" s="46">
+      <c r="S44" s="41">
         <v>848.1</v>
       </c>
-      <c r="T44" s="46">
+      <c r="T44" s="41">
         <v>842.82</v>
       </c>
-      <c r="U44" s="46">
+      <c r="U44" s="41">
         <v>854.04</v>
       </c>
-      <c r="V44" s="46">
+      <c r="V44" s="41">
         <v>852.11</v>
       </c>
-      <c r="W44" s="46">
-        <v>859.3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A45" s="47" t="s">
+      <c r="W44" s="41">
+        <v>853.74</v>
+      </c>
+      <c r="X44" s="41">
+        <v>858.86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A45" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="46">
+      <c r="B45" s="41">
         <v>744.31</v>
       </c>
-      <c r="C45" s="46">
+      <c r="C45" s="41">
         <v>739.06</v>
       </c>
-      <c r="D45" s="46">
+      <c r="D45" s="41">
         <v>754.73</v>
       </c>
-      <c r="E45" s="46">
+      <c r="E45" s="41">
         <v>734.21</v>
       </c>
-      <c r="F45" s="46">
+      <c r="F45" s="41">
         <v>729.74</v>
       </c>
-      <c r="G45" s="46">
+      <c r="G45" s="41">
         <v>730.45</v>
       </c>
-      <c r="H45" s="46">
+      <c r="H45" s="41">
         <v>737.72</v>
       </c>
-      <c r="I45" s="46">
+      <c r="I45" s="41">
         <v>749.41</v>
       </c>
-      <c r="J45" s="46">
+      <c r="J45" s="41">
         <v>737.45</v>
       </c>
-      <c r="K45" s="46">
+      <c r="K45" s="41">
         <v>744.94</v>
       </c>
-      <c r="L45" s="46">
+      <c r="L45" s="41">
         <v>758.64</v>
       </c>
-      <c r="M45" s="46">
+      <c r="M45" s="41">
         <v>749.78</v>
       </c>
-      <c r="N45" s="46">
+      <c r="N45" s="41">
         <v>752.33</v>
       </c>
-      <c r="O45" s="46">
+      <c r="O45" s="41">
         <v>749.58</v>
       </c>
-      <c r="P45" s="46">
+      <c r="P45" s="41">
         <v>767.08</v>
       </c>
-      <c r="Q45" s="46">
+      <c r="Q45" s="41">
         <v>758.78</v>
       </c>
-      <c r="R45" s="46">
+      <c r="R45" s="41">
         <v>761.08</v>
       </c>
-      <c r="S45" s="46">
+      <c r="S45" s="41">
         <v>763.62</v>
       </c>
-      <c r="T45" s="46">
+      <c r="T45" s="41">
         <v>754.05</v>
       </c>
-      <c r="U45" s="46">
+      <c r="U45" s="41">
         <v>754.74</v>
       </c>
-      <c r="V45" s="46">
+      <c r="V45" s="41">
         <v>764.71</v>
       </c>
-      <c r="W45" s="46">
-        <v>768.47</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A46" s="47" t="s">
+      <c r="W45" s="41">
+        <v>768.96</v>
+      </c>
+      <c r="X45" s="41">
+        <v>775.72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A46" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="46">
+      <c r="B46" s="41">
         <v>701.49</v>
       </c>
-      <c r="C46" s="46">
+      <c r="C46" s="41">
         <v>715.81</v>
       </c>
-      <c r="D46" s="46">
+      <c r="D46" s="41">
         <v>709.92</v>
       </c>
-      <c r="E46" s="46">
+      <c r="E46" s="41">
         <v>704.67</v>
       </c>
-      <c r="F46" s="46">
+      <c r="F46" s="41">
         <v>707.36</v>
       </c>
-      <c r="G46" s="46">
+      <c r="G46" s="41">
         <v>708.62</v>
       </c>
-      <c r="H46" s="46">
+      <c r="H46" s="41">
         <v>709.32</v>
       </c>
-      <c r="I46" s="46">
+      <c r="I46" s="41">
         <v>721.41</v>
       </c>
-      <c r="J46" s="46">
+      <c r="J46" s="41">
         <v>715.36</v>
       </c>
-      <c r="K46" s="46">
+      <c r="K46" s="41">
         <v>727.35</v>
       </c>
-      <c r="L46" s="46">
+      <c r="L46" s="41">
         <v>730.31</v>
       </c>
-      <c r="M46" s="46">
+      <c r="M46" s="41">
         <v>716.57</v>
       </c>
-      <c r="N46" s="46">
+      <c r="N46" s="41">
         <v>717.36</v>
       </c>
-      <c r="O46" s="46">
+      <c r="O46" s="41">
         <v>707.41</v>
       </c>
-      <c r="P46" s="46">
+      <c r="P46" s="41">
         <v>711.98</v>
       </c>
-      <c r="Q46" s="46">
+      <c r="Q46" s="41">
         <v>725.8</v>
       </c>
-      <c r="R46" s="46">
+      <c r="R46" s="41">
         <v>734.16</v>
       </c>
-      <c r="S46" s="46">
+      <c r="S46" s="41">
         <v>717.6</v>
       </c>
-      <c r="T46" s="46">
+      <c r="T46" s="41">
         <v>725.1</v>
       </c>
-      <c r="U46" s="46">
+      <c r="U46" s="41">
         <v>720.19</v>
       </c>
-      <c r="V46" s="46">
+      <c r="V46" s="41">
         <v>736.56</v>
       </c>
-      <c r="W46" s="46">
-        <v>751.86</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A47" s="47" t="s">
+      <c r="W46" s="41">
+        <v>750.72</v>
+      </c>
+      <c r="X46" s="41">
+        <v>736.35</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A47" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="46">
+      <c r="B47" s="41">
         <v>718.98</v>
       </c>
-      <c r="C47" s="46">
+      <c r="C47" s="41">
         <v>727.66</v>
       </c>
-      <c r="D47" s="46">
+      <c r="D47" s="41">
         <v>732.16</v>
       </c>
-      <c r="E47" s="46">
+      <c r="E47" s="41">
         <v>724.15</v>
       </c>
-      <c r="F47" s="46">
+      <c r="F47" s="41">
         <v>724.11</v>
       </c>
-      <c r="G47" s="46">
+      <c r="G47" s="41">
         <v>729.65</v>
       </c>
-      <c r="H47" s="46">
+      <c r="H47" s="41">
         <v>734.98</v>
       </c>
-      <c r="I47" s="46">
+      <c r="I47" s="41">
         <v>748.94</v>
       </c>
-      <c r="J47" s="46">
+      <c r="J47" s="41">
         <v>734.65</v>
       </c>
-      <c r="K47" s="46">
+      <c r="K47" s="41">
         <v>742.02</v>
       </c>
-      <c r="L47" s="46">
+      <c r="L47" s="41">
         <v>753.67</v>
       </c>
-      <c r="M47" s="46">
+      <c r="M47" s="41">
         <v>752.58</v>
       </c>
-      <c r="N47" s="46">
+      <c r="N47" s="41">
         <v>755.74</v>
       </c>
-      <c r="O47" s="46">
+      <c r="O47" s="41">
         <v>749.03</v>
       </c>
-      <c r="P47" s="46">
+      <c r="P47" s="41">
         <v>754.01</v>
       </c>
-      <c r="Q47" s="46">
+      <c r="Q47" s="41">
         <v>756.85</v>
       </c>
-      <c r="R47" s="46">
+      <c r="R47" s="41">
         <v>775.79</v>
       </c>
-      <c r="S47" s="46">
+      <c r="S47" s="41">
         <v>766.47</v>
       </c>
-      <c r="T47" s="46">
+      <c r="T47" s="41">
         <v>773.19</v>
       </c>
-      <c r="U47" s="46">
+      <c r="U47" s="41">
         <v>771.06</v>
       </c>
-      <c r="V47" s="46">
+      <c r="V47" s="41">
         <v>784.55</v>
       </c>
-      <c r="W47" s="46">
-        <v>800.49</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A48" s="47" t="s">
+      <c r="W47" s="41">
+        <v>796.82</v>
+      </c>
+      <c r="X47" s="41">
+        <v>791.39</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A48" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="46">
+      <c r="B48" s="41">
         <v>883.01</v>
       </c>
-      <c r="C48" s="46">
+      <c r="C48" s="41">
         <v>907.49</v>
       </c>
-      <c r="D48" s="46">
+      <c r="D48" s="41">
         <v>896.44</v>
       </c>
-      <c r="E48" s="46">
+      <c r="E48" s="41">
         <v>878.04</v>
       </c>
-      <c r="F48" s="46">
+      <c r="F48" s="41">
         <v>874.52</v>
       </c>
-      <c r="G48" s="46">
+      <c r="G48" s="41">
         <v>877.49</v>
       </c>
-      <c r="H48" s="46">
+      <c r="H48" s="41">
         <v>876.4</v>
       </c>
-      <c r="I48" s="46">
+      <c r="I48" s="41">
         <v>899.99</v>
       </c>
-      <c r="J48" s="46">
+      <c r="J48" s="41">
         <v>865.18</v>
       </c>
-      <c r="K48" s="46">
+      <c r="K48" s="41">
         <v>876.79</v>
       </c>
-      <c r="L48" s="46">
+      <c r="L48" s="41">
         <v>898.35</v>
       </c>
-      <c r="M48" s="46">
+      <c r="M48" s="41">
         <v>876.68</v>
       </c>
-      <c r="N48" s="46">
+      <c r="N48" s="41">
         <v>877.15</v>
       </c>
-      <c r="O48" s="46">
+      <c r="O48" s="41">
         <v>871.79</v>
       </c>
-      <c r="P48" s="46">
+      <c r="P48" s="41">
         <v>862.75</v>
       </c>
-      <c r="Q48" s="46">
+      <c r="Q48" s="41">
         <v>867.27</v>
       </c>
-      <c r="R48" s="46">
+      <c r="R48" s="41">
         <v>892.69</v>
       </c>
-      <c r="S48" s="46">
+      <c r="S48" s="41">
         <v>870.3</v>
       </c>
-      <c r="T48" s="46">
+      <c r="T48" s="41">
         <v>870.72</v>
       </c>
-      <c r="U48" s="46">
+      <c r="U48" s="41">
         <v>871.79</v>
       </c>
-      <c r="V48" s="46">
+      <c r="V48" s="41">
         <v>877.86</v>
       </c>
-      <c r="W48" s="46">
-        <v>899.57</v>
-      </c>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A49" s="47" t="s">
+      <c r="W48" s="41">
+        <v>908.59</v>
+      </c>
+      <c r="X48" s="41">
+        <v>877.21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A49" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="46">
+      <c r="B49" s="41">
         <v>825.6</v>
       </c>
-      <c r="C49" s="46">
+      <c r="C49" s="41">
         <v>850.02</v>
       </c>
-      <c r="D49" s="46">
+      <c r="D49" s="41">
         <v>846.96</v>
       </c>
-      <c r="E49" s="46">
+      <c r="E49" s="41">
         <v>825.59</v>
       </c>
-      <c r="F49" s="46">
+      <c r="F49" s="41">
         <v>829.33</v>
       </c>
-      <c r="G49" s="46">
+      <c r="G49" s="41">
         <v>830.97</v>
       </c>
-      <c r="H49" s="46">
+      <c r="H49" s="41">
         <v>836.59</v>
       </c>
-      <c r="I49" s="46">
+      <c r="I49" s="41">
         <v>858.45</v>
       </c>
-      <c r="J49" s="46">
+      <c r="J49" s="41">
         <v>837.98</v>
       </c>
-      <c r="K49" s="46">
+      <c r="K49" s="41">
         <v>841.46</v>
       </c>
-      <c r="L49" s="46">
+      <c r="L49" s="41">
         <v>870.06</v>
       </c>
-      <c r="M49" s="46">
+      <c r="M49" s="41">
         <v>829.72</v>
       </c>
-      <c r="N49" s="46">
+      <c r="N49" s="41">
         <v>831.3</v>
       </c>
-      <c r="O49" s="46">
+      <c r="O49" s="41">
         <v>829.01</v>
       </c>
-      <c r="P49" s="46">
+      <c r="P49" s="41">
         <v>826.63</v>
       </c>
-      <c r="Q49" s="46">
+      <c r="Q49" s="41">
         <v>840.39</v>
       </c>
-      <c r="R49" s="46">
+      <c r="R49" s="41">
         <v>860.97</v>
       </c>
-      <c r="S49" s="46">
+      <c r="S49" s="41">
         <v>841.12</v>
       </c>
-      <c r="T49" s="46">
+      <c r="T49" s="41">
         <v>844.94</v>
       </c>
-      <c r="U49" s="46">
+      <c r="U49" s="41">
         <v>843.53</v>
       </c>
-      <c r="V49" s="46">
+      <c r="V49" s="41">
         <v>853.88</v>
       </c>
-      <c r="W49" s="46">
-        <v>874.01</v>
-      </c>
-    </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A50" s="47" t="s">
+      <c r="W49" s="41">
+        <v>875.43</v>
+      </c>
+      <c r="X49" s="41">
+        <v>876.34</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A50" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="B50" s="46">
+      <c r="B50" s="41">
         <v>775.45</v>
       </c>
-      <c r="C50" s="46">
+      <c r="C50" s="41">
         <v>781.11</v>
       </c>
-      <c r="D50" s="46">
+      <c r="D50" s="41">
         <v>788.04</v>
       </c>
-      <c r="E50" s="46">
+      <c r="E50" s="41">
         <v>801.45</v>
       </c>
-      <c r="F50" s="46">
+      <c r="F50" s="41">
         <v>808.36</v>
       </c>
-      <c r="G50" s="46">
+      <c r="G50" s="41">
         <v>805.06</v>
       </c>
-      <c r="H50" s="46">
+      <c r="H50" s="41">
         <v>808.83</v>
       </c>
-      <c r="I50" s="46">
+      <c r="I50" s="41">
         <v>810.86</v>
       </c>
-      <c r="J50" s="46">
+      <c r="J50" s="41">
         <v>808.02</v>
       </c>
-      <c r="K50" s="46">
+      <c r="K50" s="41">
         <v>810.43</v>
       </c>
-      <c r="L50" s="46">
+      <c r="L50" s="41">
         <v>817.85</v>
       </c>
-      <c r="M50" s="46">
+      <c r="M50" s="41">
         <v>814.11</v>
       </c>
-      <c r="N50" s="46">
+      <c r="N50" s="41">
         <v>806.85</v>
       </c>
-      <c r="O50" s="46">
+      <c r="O50" s="41">
         <v>797.17</v>
       </c>
-      <c r="P50" s="46">
+      <c r="P50" s="41">
         <v>794.21</v>
       </c>
-      <c r="Q50" s="46">
+      <c r="Q50" s="41">
         <v>809.52</v>
       </c>
-      <c r="R50" s="46">
+      <c r="R50" s="41">
         <v>817.56</v>
       </c>
-      <c r="S50" s="46">
+      <c r="S50" s="41">
         <v>806.44</v>
       </c>
-      <c r="T50" s="46">
+      <c r="T50" s="41">
         <v>807.84</v>
       </c>
-      <c r="U50" s="46">
+      <c r="U50" s="41">
         <v>803.09</v>
       </c>
-      <c r="V50" s="46">
+      <c r="V50" s="41">
         <v>819.31</v>
       </c>
-      <c r="W50" s="46">
-        <v>824.11</v>
-      </c>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A51" s="47" t="s">
+      <c r="W50" s="41">
+        <v>827.42</v>
+      </c>
+      <c r="X50" s="41">
+        <v>810.41</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A51" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="B51" s="46">
+      <c r="B51" s="41">
         <v>889.76</v>
       </c>
-      <c r="C51" s="46">
+      <c r="C51" s="41">
         <v>923.13</v>
       </c>
-      <c r="D51" s="46">
+      <c r="D51" s="41">
         <v>925.92</v>
       </c>
-      <c r="E51" s="46">
+      <c r="E51" s="41">
         <v>919.21</v>
       </c>
-      <c r="F51" s="46">
+      <c r="F51" s="41">
         <v>915.68</v>
       </c>
-      <c r="G51" s="46">
+      <c r="G51" s="41">
         <v>905.23</v>
       </c>
-      <c r="H51" s="46">
+      <c r="H51" s="41">
         <v>905.93</v>
       </c>
-      <c r="I51" s="46">
+      <c r="I51" s="41">
         <v>937.7</v>
       </c>
-      <c r="J51" s="46">
+      <c r="J51" s="41">
         <v>919.1</v>
       </c>
-      <c r="K51" s="46">
+      <c r="K51" s="41">
         <v>919.96</v>
       </c>
-      <c r="L51" s="46">
+      <c r="L51" s="41">
         <v>939.87</v>
       </c>
-      <c r="M51" s="46">
+      <c r="M51" s="41">
         <v>919.45</v>
       </c>
-      <c r="N51" s="46">
+      <c r="N51" s="41">
         <v>924.76</v>
       </c>
-      <c r="O51" s="46">
+      <c r="O51" s="41">
         <v>924.06</v>
       </c>
-      <c r="P51" s="46">
+      <c r="P51" s="41">
         <v>929.51</v>
       </c>
-      <c r="Q51" s="46">
+      <c r="Q51" s="41">
         <v>938.46</v>
       </c>
-      <c r="R51" s="46">
+      <c r="R51" s="41">
         <v>954.72</v>
       </c>
-      <c r="S51" s="46">
+      <c r="S51" s="41">
         <v>933.92</v>
       </c>
-      <c r="T51" s="46">
+      <c r="T51" s="41">
         <v>943.7</v>
       </c>
-      <c r="U51" s="46">
+      <c r="U51" s="41">
         <v>935.06</v>
       </c>
-      <c r="V51" s="46">
+      <c r="V51" s="41">
         <v>950.51</v>
       </c>
-      <c r="W51" s="46">
-        <v>972.16</v>
-      </c>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A52" s="47" t="s">
+      <c r="W51" s="41">
+        <v>973.57</v>
+      </c>
+      <c r="X51" s="41">
+        <v>942.65</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A52" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="B52" s="46">
+      <c r="B52" s="41">
         <v>990.86</v>
       </c>
-      <c r="C52" s="46">
+      <c r="C52" s="41">
         <v>1024.69</v>
       </c>
-      <c r="D52" s="46">
+      <c r="D52" s="41">
         <v>1024.3399999999999</v>
       </c>
-      <c r="E52" s="46">
+      <c r="E52" s="41">
         <v>995.98</v>
       </c>
-      <c r="F52" s="46">
+      <c r="F52" s="41">
         <v>998.92</v>
       </c>
-      <c r="G52" s="46">
+      <c r="G52" s="41">
         <v>997.27</v>
       </c>
-      <c r="H52" s="46">
+      <c r="H52" s="41">
         <v>998.82</v>
       </c>
-      <c r="I52" s="46">
+      <c r="I52" s="41">
         <v>1039.23</v>
       </c>
-      <c r="J52" s="46">
+      <c r="J52" s="41">
         <v>1021.8</v>
       </c>
-      <c r="K52" s="46">
+      <c r="K52" s="41">
         <v>1029</v>
       </c>
-      <c r="L52" s="46">
+      <c r="L52" s="41">
         <v>1066.3399999999999</v>
       </c>
-      <c r="M52" s="46">
+      <c r="M52" s="41">
         <v>1026.1500000000001</v>
       </c>
-      <c r="N52" s="46">
+      <c r="N52" s="41">
         <v>1032.58</v>
       </c>
-      <c r="O52" s="46">
+      <c r="O52" s="41">
         <v>1036.5999999999999</v>
       </c>
-      <c r="P52" s="46">
+      <c r="P52" s="41">
         <v>1032.8900000000001</v>
       </c>
-      <c r="Q52" s="46">
+      <c r="Q52" s="41">
         <v>1040.26</v>
       </c>
-      <c r="R52" s="46">
+      <c r="R52" s="41">
         <v>1068.67</v>
       </c>
-      <c r="S52" s="46">
+      <c r="S52" s="41">
         <v>1033.97</v>
       </c>
-      <c r="T52" s="46">
+      <c r="T52" s="41">
         <v>1038.69</v>
       </c>
-      <c r="U52" s="46">
+      <c r="U52" s="41">
         <v>1040.72</v>
       </c>
-      <c r="V52" s="46">
+      <c r="V52" s="41">
         <v>1053.57</v>
       </c>
-      <c r="W52" s="46">
-        <v>1088.2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A53" s="47" t="s">
+      <c r="W52" s="41">
+        <v>1087.24</v>
+      </c>
+      <c r="X52" s="41">
+        <v>1052.94</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A53" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="B53" s="46">
+      <c r="B53" s="41">
         <v>714.81</v>
       </c>
-      <c r="C53" s="46">
+      <c r="C53" s="41">
         <v>711.7</v>
       </c>
-      <c r="D53" s="46">
+      <c r="D53" s="41">
         <v>715.19</v>
       </c>
-      <c r="E53" s="46">
+      <c r="E53" s="41">
         <v>712.41</v>
       </c>
-      <c r="F53" s="46">
+      <c r="F53" s="41">
         <v>718.24</v>
       </c>
-      <c r="G53" s="46">
+      <c r="G53" s="41">
         <v>714.44</v>
       </c>
-      <c r="H53" s="46">
+      <c r="H53" s="41">
         <v>720.34</v>
       </c>
-      <c r="I53" s="46">
+      <c r="I53" s="41">
         <v>729.03</v>
       </c>
-      <c r="J53" s="46">
+      <c r="J53" s="41">
         <v>720.37</v>
       </c>
-      <c r="K53" s="46">
+      <c r="K53" s="41">
         <v>725.22</v>
       </c>
-      <c r="L53" s="46">
+      <c r="L53" s="41">
         <v>731.5</v>
       </c>
-      <c r="M53" s="46">
+      <c r="M53" s="41">
         <v>718.99</v>
       </c>
-      <c r="N53" s="46">
+      <c r="N53" s="41">
         <v>720.94</v>
       </c>
-      <c r="O53" s="46">
+      <c r="O53" s="41">
         <v>724.07</v>
       </c>
-      <c r="P53" s="46">
+      <c r="P53" s="41">
         <v>727.67</v>
       </c>
-      <c r="Q53" s="46">
+      <c r="Q53" s="41">
         <v>731.84</v>
       </c>
-      <c r="R53" s="46">
+      <c r="R53" s="41">
         <v>721.38</v>
       </c>
-      <c r="S53" s="46">
+      <c r="S53" s="41">
         <v>724.06</v>
       </c>
-      <c r="T53" s="46">
+      <c r="T53" s="41">
         <v>736.01</v>
       </c>
-      <c r="U53" s="46">
+      <c r="U53" s="41">
         <v>732.86</v>
       </c>
-      <c r="V53" s="46">
+      <c r="V53" s="41">
         <v>739.2</v>
       </c>
-      <c r="W53" s="46">
-        <v>749.42</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A54" s="47" t="s">
+      <c r="W53" s="41">
+        <v>751.89</v>
+      </c>
+      <c r="X53" s="41">
+        <v>747.3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A54" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="B54" s="46">
+      <c r="B54" s="41">
         <v>787.24</v>
       </c>
-      <c r="C54" s="46">
+      <c r="C54" s="41">
         <v>795.32</v>
       </c>
-      <c r="D54" s="46">
+      <c r="D54" s="41">
         <v>795.65</v>
       </c>
-      <c r="E54" s="46">
+      <c r="E54" s="41">
         <v>785.57</v>
       </c>
-      <c r="F54" s="46">
+      <c r="F54" s="41">
         <v>786.24</v>
       </c>
-      <c r="G54" s="46">
+      <c r="G54" s="41">
         <v>778.13</v>
       </c>
-      <c r="H54" s="46">
+      <c r="H54" s="41">
         <v>781.12</v>
       </c>
-      <c r="I54" s="46">
+      <c r="I54" s="41">
         <v>792.83</v>
       </c>
-      <c r="J54" s="46">
+      <c r="J54" s="41">
         <v>785.57</v>
       </c>
-      <c r="K54" s="46">
+      <c r="K54" s="41">
         <v>795.66</v>
       </c>
-      <c r="L54" s="46">
+      <c r="L54" s="41">
         <v>805.46</v>
       </c>
-      <c r="M54" s="46">
+      <c r="M54" s="41">
         <v>800.35</v>
       </c>
-      <c r="N54" s="46">
+      <c r="N54" s="41">
         <v>793.74</v>
       </c>
-      <c r="O54" s="46">
+      <c r="O54" s="41">
         <v>794.14</v>
       </c>
-      <c r="P54" s="46">
+      <c r="P54" s="41">
         <v>794.87</v>
       </c>
-      <c r="Q54" s="46">
+      <c r="Q54" s="41">
         <v>801.6</v>
       </c>
-      <c r="R54" s="46">
+      <c r="R54" s="41">
         <v>812.17</v>
       </c>
-      <c r="S54" s="46">
+      <c r="S54" s="41">
         <v>798.67</v>
       </c>
-      <c r="T54" s="46">
+      <c r="T54" s="41">
         <v>809.85</v>
       </c>
-      <c r="U54" s="46">
+      <c r="U54" s="41">
         <v>808.5</v>
       </c>
-      <c r="V54" s="46">
+      <c r="V54" s="41">
         <v>801.36</v>
       </c>
-      <c r="W54" s="46">
-        <v>824.5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A55" s="47" t="s">
+      <c r="W54" s="41">
+        <v>825.86</v>
+      </c>
+      <c r="X54" s="41">
+        <v>818.91</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A55" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="B55" s="46">
+      <c r="B55" s="41">
         <v>811.19</v>
       </c>
-      <c r="C55" s="46">
+      <c r="C55" s="41">
         <v>835.75</v>
       </c>
-      <c r="D55" s="46">
+      <c r="D55" s="41">
         <v>826.24</v>
       </c>
-      <c r="E55" s="46">
+      <c r="E55" s="41">
         <v>814.45</v>
       </c>
-      <c r="F55" s="46">
+      <c r="F55" s="41">
         <v>815.08</v>
       </c>
-      <c r="G55" s="46">
+      <c r="G55" s="41">
         <v>810.87</v>
       </c>
-      <c r="H55" s="46">
+      <c r="H55" s="41">
         <v>809.9</v>
       </c>
-      <c r="I55" s="46">
+      <c r="I55" s="41">
         <v>837.93</v>
       </c>
-      <c r="J55" s="46">
+      <c r="J55" s="41">
         <v>804.8</v>
       </c>
-      <c r="K55" s="46">
+      <c r="K55" s="41">
         <v>806.96</v>
       </c>
-      <c r="L55" s="46">
+      <c r="L55" s="41">
         <v>816.76</v>
       </c>
-      <c r="M55" s="46">
+      <c r="M55" s="41">
         <v>778.22</v>
       </c>
-      <c r="N55" s="46">
+      <c r="N55" s="41">
         <v>773.85</v>
       </c>
-      <c r="O55" s="46">
+      <c r="O55" s="41">
         <v>776.22</v>
       </c>
-      <c r="P55" s="46">
+      <c r="P55" s="41">
         <v>778.55</v>
       </c>
-      <c r="Q55" s="46">
+      <c r="Q55" s="41">
         <v>755.96</v>
       </c>
-      <c r="R55" s="46">
+      <c r="R55" s="41">
         <v>775.55</v>
       </c>
-      <c r="S55" s="46">
+      <c r="S55" s="41">
         <v>750.09</v>
       </c>
-      <c r="T55" s="46">
+      <c r="T55" s="41">
         <v>761.85</v>
       </c>
-      <c r="U55" s="46">
+      <c r="U55" s="41">
         <v>775.37</v>
       </c>
-      <c r="V55" s="46">
+      <c r="V55" s="41">
         <v>780.56</v>
       </c>
-      <c r="W55" s="46">
-        <v>805.1</v>
+      <c r="W55" s="41">
+        <v>813.96</v>
+      </c>
+      <c r="X55" s="41">
+        <v>796.87</v>
       </c>
     </row>
   </sheetData>
@@ -10955,7 +11040,7 @@
   <pageSetup orientation="landscape"/>
   <headerFooter>
     <oddHeader>&amp;CBureau of Labor Statistics</oddHeader>
-    <oddFooter>&amp;LSource: Bureau of Labor Statistics&amp;RGenerated on: November 18, 2016 (10:26:09 AM)</oddFooter>
+    <oddFooter>&amp;LSource: Bureau of Labor Statistics&amp;RGenerated on: December 19, 2016 (10:25:12 AM)</oddFooter>
   </headerFooter>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -10965,8 +11050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10986,20 +11071,20 @@
       </c>
       <c r="C1" s="24">
         <f>+Earnings_Comparison!E58</f>
-        <v>891.65</v>
+        <v>890.62</v>
       </c>
       <c r="D1" s="23">
         <f>+Earnings_Comparison!H58</f>
-        <v>0.86778062873913431</v>
+        <v>0.45615074947766843</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="51" t="s">
         <v>195</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
@@ -11017,19 +11102,19 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
-        <f>+Earnings_Comparison!B13</f>
-        <v>DC</v>
+        <f>+Earnings_Comparison!B12</f>
+        <v>DE</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C4" s="26">
-        <f>+Earnings_Comparison!E13</f>
-        <v>1463.62</v>
+        <f>+Earnings_Comparison!E12</f>
+        <v>806.93</v>
       </c>
       <c r="D4" s="25">
-        <f>+Earnings_Comparison!H13</f>
-        <v>13.068323774715074</v>
+        <f>+Earnings_Comparison!H12</f>
+        <v>3.6428106105519387</v>
       </c>
       <c r="G4" t="s">
         <v>193</v>
@@ -11041,19 +11126,19 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
-        <f>+Earnings_Comparison!B42</f>
-        <v>OR</v>
+        <f>+Earnings_Comparison!B28</f>
+        <v>MN</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="C5" s="26">
-        <f>+Earnings_Comparison!E42</f>
-        <v>888.03</v>
+        <f>+Earnings_Comparison!E28</f>
+        <v>947.92</v>
       </c>
       <c r="D5" s="25">
-        <f>+Earnings_Comparison!H42</f>
-        <v>9.0275385873927139</v>
+        <f>+Earnings_Comparison!H28</f>
+        <v>3.5553504008746017</v>
       </c>
       <c r="G5" t="s">
         <v>194</v>
@@ -11065,145 +11150,155 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
-        <f>+Earnings_Comparison!B12</f>
-        <v>DE</v>
+        <f>+Earnings_Comparison!B47</f>
+        <v>TN</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>122</v>
+        <v>157</v>
       </c>
       <c r="C6" s="26">
-        <f>+Earnings_Comparison!E12</f>
-        <v>835.33</v>
+        <f>+Earnings_Comparison!E47</f>
+        <v>791.39</v>
       </c>
       <c r="D6" s="25">
-        <f>+Earnings_Comparison!H12</f>
-        <v>7.9239539657339098</v>
+        <f>+Earnings_Comparison!H47</f>
+        <v>3.2571768768155485</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
-        <f>+Earnings_Comparison!B47</f>
-        <v>TN</v>
+        <f>+Earnings_Comparison!B20</f>
+        <v>IA</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="C7" s="26">
-        <f>+Earnings_Comparison!E47</f>
-        <v>800.49</v>
+        <f>+Earnings_Comparison!E20</f>
+        <v>819.89</v>
       </c>
       <c r="D7" s="25">
-        <f>+Earnings_Comparison!H47</f>
-        <v>6.1433495606102895</v>
+        <f>+Earnings_Comparison!H20</f>
+        <v>3.2190526610369252</v>
+      </c>
+      <c r="K7" s="20" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
-        <f>+Earnings_Comparison!B16</f>
-        <v>HI</v>
+        <f>+Earnings_Comparison!B35</f>
+        <v>NJ</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="C8" s="26">
-        <f>+Earnings_Comparison!E16</f>
-        <v>867.22</v>
+        <f>+Earnings_Comparison!E35</f>
+        <v>992.42</v>
       </c>
       <c r="D8" s="25">
-        <f>+Earnings_Comparison!H16</f>
-        <v>5.8373555492857943</v>
+        <f>+Earnings_Comparison!H35</f>
+        <v>2.0733084810316882</v>
+      </c>
+      <c r="K8" s="20" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
+        <f>+Earnings_Comparison!B42</f>
+        <v>OR</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="C9" s="26">
+        <f>+Earnings_Comparison!E42</f>
+        <v>858.16</v>
+      </c>
+      <c r="D9" s="25">
+        <f>+Earnings_Comparison!H42</f>
+        <v>1.8744572987979158</v>
+      </c>
+      <c r="K9" s="20" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
+        <f>+Earnings_Comparison!B38</f>
+        <v>NC</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10" s="26">
+        <f>+Earnings_Comparison!E38</f>
+        <v>818.03</v>
+      </c>
+      <c r="D10" s="25">
+        <f>+Earnings_Comparison!H38</f>
+        <v>1.7911798096807541</v>
+      </c>
+      <c r="K10" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="M10" s="20"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
+        <f>+Earnings_Comparison!B19</f>
+        <v>IN</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" s="26">
+        <f>+Earnings_Comparison!E19</f>
+        <v>834.75</v>
+      </c>
+      <c r="D11" s="25">
+        <f>+Earnings_Comparison!H19</f>
+        <v>1.6603746832369204</v>
+      </c>
+      <c r="K11" s="20"/>
+      <c r="M11" s="20"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f>+Earnings_Comparison!B13</f>
+        <v>DC</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" s="26">
+        <f>+Earnings_Comparison!E13</f>
+        <v>1390.2</v>
+      </c>
+      <c r="D12" s="25">
+        <f>+Earnings_Comparison!H13</f>
+        <v>1.5889340819904341</v>
+      </c>
+      <c r="K12" s="20"/>
+      <c r="M12" s="20"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
         <f>+Earnings_Comparison!B34</f>
         <v>NH</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B13" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C13" s="26">
         <f>+Earnings_Comparison!E34</f>
-        <v>913.22</v>
-      </c>
-      <c r="D9" s="25">
+        <v>890.01</v>
+      </c>
+      <c r="D13" s="25">
         <f>+Earnings_Comparison!H34</f>
-        <v>5.4477549227614608</v>
-      </c>
-      <c r="K9" s="20"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" t="str">
-        <f>+Earnings_Comparison!B9</f>
-        <v>CA</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="C10" s="26">
-        <f>+Earnings_Comparison!E9</f>
-        <v>1036.3499999999999</v>
-      </c>
-      <c r="D10" s="25">
-        <f>+Earnings_Comparison!H9</f>
-        <v>5.1052789278178246</v>
-      </c>
-      <c r="K10" s="20"/>
-      <c r="M10" s="20"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" t="str">
-        <f>+Earnings_Comparison!B35</f>
-        <v>NJ</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="C11" s="26">
-        <f>+Earnings_Comparison!E35</f>
-        <v>1005.97</v>
-      </c>
-      <c r="D11" s="25">
-        <f>+Earnings_Comparison!H35</f>
-        <v>4.949354873340428</v>
-      </c>
-      <c r="K11" s="20"/>
-      <c r="M11" s="20"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" t="str">
-        <f>+Earnings_Comparison!B7</f>
-        <v>AZ</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="C12" s="26">
-        <f>+Earnings_Comparison!E7</f>
-        <v>851.89</v>
-      </c>
-      <c r="D12" s="25">
-        <f>+Earnings_Comparison!H7</f>
-        <v>4.5291597490475954</v>
-      </c>
-      <c r="K12" s="20"/>
-      <c r="M12" s="20"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" t="str">
-        <f>+Earnings_Comparison!B30</f>
-        <v>MO</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="C13" s="26">
-        <f>+Earnings_Comparison!E30</f>
-        <v>791.23</v>
-      </c>
-      <c r="D13" s="25">
-        <f>+Earnings_Comparison!H30</f>
-        <v>4.5028439962695899</v>
+        <v>1.441532535536072</v>
       </c>
       <c r="K13" s="20"/>
       <c r="L13" s="20"/>
@@ -11211,23 +11306,23 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
-        <f>+Earnings_Comparison!B28</f>
-        <v>MN</v>
+        <f>+Earnings_Comparison!B7</f>
+        <v>AZ</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="C14" s="26">
-        <f>+Earnings_Comparison!E28</f>
-        <v>952.89</v>
+        <f>+Earnings_Comparison!E7</f>
+        <v>832.38</v>
       </c>
       <c r="D14" s="25">
-        <f>+Earnings_Comparison!H28</f>
-        <v>4.4905345206521341</v>
+        <f>+Earnings_Comparison!H7</f>
+        <v>0.75283919213016137</v>
       </c>
       <c r="F14" s="26">
         <f>C$1-C14</f>
-        <v>-61.240000000000009</v>
+        <v>58.240000000000009</v>
       </c>
       <c r="K14" s="20"/>
       <c r="L14" s="20"/>
@@ -11235,90 +11330,90 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
-        <f>+Earnings_Comparison!B11</f>
-        <v>CT</v>
+        <f>+Earnings_Comparison!B44</f>
+        <v>RI</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>121</v>
+        <v>154</v>
       </c>
       <c r="C15" s="26">
-        <f>+Earnings_Comparison!E11</f>
-        <v>1055.4100000000001</v>
+        <f>+Earnings_Comparison!E44</f>
+        <v>858.86</v>
       </c>
       <c r="D15" s="25">
-        <f>+Earnings_Comparison!H11</f>
-        <v>4.4889418479134857</v>
+        <f>+Earnings_Comparison!H44</f>
+        <v>0.61297282226779881</v>
       </c>
       <c r="F15" s="26">
         <f t="shared" ref="F15:F21" si="0">C$1-C15</f>
-        <v>-163.7600000000001</v>
+        <v>31.759999999999991</v>
       </c>
       <c r="K15" s="20"/>
       <c r="L15" s="20"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
-        <f>+Earnings_Comparison!B38</f>
-        <v>NC</v>
+        <f>+Earnings_Comparison!B45</f>
+        <v>SC</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="C16" s="26">
-        <f>+Earnings_Comparison!E38</f>
-        <v>826.25</v>
+        <f>+Earnings_Comparison!E45</f>
+        <v>775.72</v>
       </c>
       <c r="D16" s="25">
-        <f>+Earnings_Comparison!H38</f>
-        <v>4.4721757494577297</v>
+        <f>+Earnings_Comparison!H45</f>
+        <v>0.54955859127048257</v>
       </c>
       <c r="F16" s="26">
         <f t="shared" si="0"/>
-        <v>65.399999999999977</v>
+        <v>114.89999999999998</v>
       </c>
       <c r="L16" s="20"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
-        <f>+Earnings_Comparison!B41</f>
-        <v>OK</v>
+        <f>+Earnings_Comparison!B53</f>
+        <v>WV</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="C17" s="26">
-        <f>+Earnings_Comparison!E41</f>
-        <v>800.75</v>
+        <f>+Earnings_Comparison!E53</f>
+        <v>747.3</v>
       </c>
       <c r="D17" s="25">
-        <f>+Earnings_Comparison!H41</f>
-        <v>4.1510056460086764</v>
+        <f>+Earnings_Comparison!H53</f>
+        <v>0.45962876763450122</v>
       </c>
       <c r="F17" s="26">
         <f t="shared" si="0"/>
-        <v>90.899999999999977</v>
+        <v>143.32000000000005</v>
       </c>
       <c r="L17" s="20"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
-        <f>+Earnings_Comparison!B52</f>
-        <v>WA</v>
+        <f>+Earnings_Comparison!B40</f>
+        <v>OH</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="C18" s="26">
-        <f>+Earnings_Comparison!E52</f>
-        <v>1088.2</v>
-      </c>
-      <c r="D18" s="25">
-        <f>+Earnings_Comparison!H52</f>
-        <v>4.0508986882768161</v>
+        <f>+Earnings_Comparison!E40</f>
+        <v>811.2</v>
+      </c>
+      <c r="D18" s="39">
+        <f>+Earnings_Comparison!H40</f>
+        <v>0.32557178742347315</v>
       </c>
       <c r="F18" s="26">
         <f t="shared" si="0"/>
-        <v>-196.55000000000007</v>
+        <v>79.419999999999959</v>
       </c>
       <c r="L18" s="20"/>
     </row>
@@ -11332,125 +11427,125 @@
       </c>
       <c r="C19" s="26">
         <f>+Earnings_Comparison!E5</f>
-        <v>798.78</v>
+        <v>780.22</v>
       </c>
       <c r="D19" s="25">
         <f>+Earnings_Comparison!H5</f>
-        <v>4.0433169384122669</v>
+        <v>0.28812919440424078</v>
       </c>
       <c r="F19" s="26">
         <f t="shared" si="0"/>
-        <v>92.87</v>
+        <v>110.39999999999998</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
-        <f>+Earnings_Comparison!B51</f>
-        <v>VA</v>
+        <f>+Earnings_Comparison!B11</f>
+        <v>CT</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="C20" s="26">
-        <f>+Earnings_Comparison!E51</f>
-        <v>972.16</v>
+        <f>+Earnings_Comparison!E11</f>
+        <v>1029.8699999999999</v>
       </c>
       <c r="D20" s="25">
-        <f>+Earnings_Comparison!H51</f>
-        <v>3.9731716330568601</v>
+        <f>+Earnings_Comparison!H11</f>
+        <v>0.24242608337781135</v>
       </c>
       <c r="F20" s="26">
         <f t="shared" si="0"/>
-        <v>-80.509999999999991</v>
+        <v>-139.24999999999989</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
-        <f>+Earnings_Comparison!B19</f>
-        <v>IN</v>
+        <f>+Earnings_Comparison!B30</f>
+        <v>MO</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="C21" s="26">
-        <f>+Earnings_Comparison!E19</f>
-        <v>843.45</v>
-      </c>
-      <c r="D21" s="25">
-        <f>+Earnings_Comparison!H19</f>
-        <v>3.8367106446664634</v>
+        <f>+Earnings_Comparison!E30</f>
+        <v>768.57</v>
+      </c>
+      <c r="D21" s="39">
+        <f>+Earnings_Comparison!H30</f>
+        <v>3.9468092686889555E-2</v>
       </c>
       <c r="F21" s="26">
         <f t="shared" si="0"/>
-        <v>48.199999999999932</v>
+        <v>122.04999999999995</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
-        <f>+Earnings_Comparison!B32</f>
-        <v>NE</v>
+        <f>+Earnings_Comparison!B54</f>
+        <v>WI</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="C22" s="26">
-        <f>+Earnings_Comparison!E32</f>
-        <v>808.95</v>
-      </c>
-      <c r="D22" s="25">
-        <f>+Earnings_Comparison!H32</f>
-        <v>3.8244616818666088</v>
+        <f>+Earnings_Comparison!E54</f>
+        <v>818.91</v>
+      </c>
+      <c r="D22" s="39">
+        <f>+Earnings_Comparison!H54</f>
+        <v>-2.2306367388025272E-2</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
-        <f>+Earnings_Comparison!B29</f>
-        <v>MS</v>
+        <f>+Earnings_Comparison!B41</f>
+        <v>OK</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="C23" s="26">
-        <f>+Earnings_Comparison!E29</f>
-        <v>719.94</v>
+        <f>+Earnings_Comparison!E41</f>
+        <v>782.46</v>
       </c>
       <c r="D23" s="25">
-        <f>+Earnings_Comparison!H29</f>
-        <v>3.6222675191479592</v>
+        <f>+Earnings_Comparison!H41</f>
+        <v>-0.26740208007364208</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
-        <f>+Earnings_Comparison!B40</f>
-        <v>OH</v>
+        <f>+Earnings_Comparison!B14</f>
+        <v>FL</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="C24" s="26">
-        <f>+Earnings_Comparison!E40</f>
-        <v>823.83</v>
-      </c>
-      <c r="D24" s="39">
-        <f>+Earnings_Comparison!H40</f>
-        <v>3.5289024977677386</v>
+        <f>+Earnings_Comparison!E14</f>
+        <v>803.08</v>
+      </c>
+      <c r="D24" s="25">
+        <f>+Earnings_Comparison!H14</f>
+        <v>-0.3905348759521865</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
-        <f>+Earnings_Comparison!B15</f>
-        <v>GA</v>
+        <f>+Earnings_Comparison!B26</f>
+        <v>MA</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="C25" s="26">
-        <f>+Earnings_Comparison!E15</f>
-        <v>879.26</v>
+        <f>+Earnings_Comparison!E26</f>
+        <v>1067.8</v>
       </c>
       <c r="D25" s="25">
-        <f>+Earnings_Comparison!H15</f>
-        <v>3.1079887635156789</v>
+        <f>+Earnings_Comparison!H26</f>
+        <v>-0.52503502537724067</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -11463,113 +11558,113 @@
       </c>
       <c r="C26" s="26">
         <f>+Earnings_Comparison!E8</f>
-        <v>706.15</v>
+        <v>693.89</v>
       </c>
       <c r="D26" s="25">
         <f>+Earnings_Comparison!H8</f>
-        <v>2.799903795344072</v>
+        <v>-0.57104844817691403</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
-        <f>+Earnings_Comparison!B26</f>
-        <v>MA</v>
+        <f>+Earnings_Comparison!B6</f>
+        <v>AK</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="C27" s="26">
-        <f>+Earnings_Comparison!E26</f>
-        <v>1075.7</v>
+        <f>+Earnings_Comparison!E6</f>
+        <v>985.83</v>
       </c>
       <c r="D27" s="25">
-        <f>+Earnings_Comparison!H26</f>
-        <v>2.6093782878416016</v>
+        <f>+Earnings_Comparison!H6</f>
+        <v>-0.70244504452259271</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
-        <f>+Earnings_Comparison!B14</f>
-        <v>FL</v>
+        <f>+Earnings_Comparison!B32</f>
+        <v>NE</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="C28" s="26">
-        <f>+Earnings_Comparison!E14</f>
-        <v>810.21</v>
+        <f>+Earnings_Comparison!E32</f>
+        <v>781.73</v>
       </c>
       <c r="D28" s="25">
-        <f>+Earnings_Comparison!H14</f>
-        <v>2.4875194854408145</v>
+        <f>+Earnings_Comparison!H32</f>
+        <v>-0.76305554493331096</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
-        <f>+Earnings_Comparison!B20</f>
-        <v>IA</v>
+        <f>+Earnings_Comparison!B9</f>
+        <v>CA</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="C29" s="26">
-        <f>+Earnings_Comparison!E20</f>
-        <v>829.06</v>
+        <f>+Earnings_Comparison!E9</f>
+        <v>1003.62</v>
       </c>
       <c r="D29" s="25">
-        <f>+Earnings_Comparison!H20</f>
-        <v>2.4741846088066621</v>
+        <f>+Earnings_Comparison!H9</f>
+        <v>-0.7855318923874921</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
-        <f>+Earnings_Comparison!B44</f>
-        <v>RI</v>
+        <f>+Earnings_Comparison!B46</f>
+        <v>SD</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C30" s="26">
-        <f>+Earnings_Comparison!E44</f>
-        <v>859.3</v>
+        <f>+Earnings_Comparison!E46</f>
+        <v>736.35</v>
       </c>
       <c r="D30" s="25">
-        <f>+Earnings_Comparison!H44</f>
-        <v>2.2195651144565343</v>
+        <f>+Earnings_Comparison!H46</f>
+        <v>-0.85108616395578318</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
+        <f>+Earnings_Comparison!B15</f>
+        <v>GA</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="C31" s="26">
+        <f>+Earnings_Comparison!E15</f>
+        <v>859.21</v>
+      </c>
+      <c r="D31" s="25">
+        <f>+Earnings_Comparison!H15</f>
+        <v>-0.85897103132671626</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" t="str">
         <f>+Earnings_Comparison!B49</f>
         <v>UT</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B32" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="C31" s="26">
+      <c r="C32" s="26">
         <f>+Earnings_Comparison!E49</f>
-        <v>874.01</v>
-      </c>
-      <c r="D31" s="25">
+        <v>876.34</v>
+      </c>
+      <c r="D32" s="25">
         <f>+Earnings_Comparison!H49</f>
-        <v>2.1963569208616862</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" t="str">
-        <f>+Earnings_Comparison!B54</f>
-        <v>WI</v>
-      </c>
-      <c r="B32" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="C32" s="26">
-        <f>+Earnings_Comparison!E54</f>
-        <v>824.5</v>
-      </c>
-      <c r="D32" s="25">
-        <f>+Earnings_Comparison!H54</f>
-        <v>1.9566654771708603</v>
+        <v>-0.95459105230633057</v>
       </c>
       <c r="E32">
         <v>6</v>
@@ -11577,392 +11672,392 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
+        <f>+Earnings_Comparison!B43</f>
+        <v>PA</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="C33" s="26">
+        <f>+Earnings_Comparison!E43</f>
+        <v>845.47</v>
+      </c>
+      <c r="D33" s="25">
+        <f>+Earnings_Comparison!H43</f>
+        <v>-1.2262658338369148</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" t="str">
+        <f>+Earnings_Comparison!B22</f>
+        <v>KY</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="C34" s="26">
+        <f>+Earnings_Comparison!E22</f>
+        <v>750.82</v>
+      </c>
+      <c r="D34" s="25">
+        <f>+Earnings_Comparison!H22</f>
+        <v>-1.2355397944967872</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" t="str">
+        <f>+Earnings_Comparison!B51</f>
+        <v>VA</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="C35" s="26">
+        <f>+Earnings_Comparison!E51</f>
+        <v>942.65</v>
+      </c>
+      <c r="D35" s="25">
+        <f>+Earnings_Comparison!H51</f>
+        <v>-1.3735045010267788</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" t="str">
+        <f>+Earnings_Comparison!B27</f>
+        <v>MI</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C36" s="26">
+        <f>+Earnings_Comparison!E27</f>
+        <v>845.6</v>
+      </c>
+      <c r="D36" s="25">
+        <f>+Earnings_Comparison!H27</f>
+        <v>-1.5036232799319427</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" t="str">
+        <f>+Earnings_Comparison!B25</f>
+        <v>MD</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="C37" s="26">
+        <f>+Earnings_Comparison!E25</f>
+        <v>959.1</v>
+      </c>
+      <c r="D37" s="25">
+        <f>+Earnings_Comparison!H25</f>
+        <v>-1.5586486526804166</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" t="str">
+        <f>+Earnings_Comparison!B29</f>
+        <v>MS</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="C38" s="26">
+        <f>+Earnings_Comparison!E29</f>
+        <v>699.13</v>
+      </c>
+      <c r="D38" s="25">
+        <f>+Earnings_Comparison!H29</f>
+        <v>-1.5742659047497942</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" t="str">
+        <f>+Earnings_Comparison!B24</f>
+        <v>ME</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="C39" s="26">
+        <f>+Earnings_Comparison!E24</f>
+        <v>760.72</v>
+      </c>
+      <c r="D39" s="25">
+        <f>+Earnings_Comparison!H24</f>
+        <v>-1.7599313993696741</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" t="str">
+        <f>+Earnings_Comparison!B33</f>
+        <v>NV</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="C40" s="26">
+        <f>+Earnings_Comparison!E33</f>
+        <v>752.08</v>
+      </c>
+      <c r="D40" s="25">
+        <f>+Earnings_Comparison!H33</f>
+        <v>-1.9069650520707415</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" t="str">
+        <f>+Earnings_Comparison!B50</f>
+        <v>VT</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="C41" s="26">
+        <f>+Earnings_Comparison!E50</f>
+        <v>810.41</v>
+      </c>
+      <c r="D41" s="25">
+        <f>+Earnings_Comparison!H50</f>
+        <v>-2.5589286129104272</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" t="str">
         <f>+Earnings_Comparison!B23</f>
         <v>LA</v>
       </c>
-      <c r="B33" s="20" t="s">
+      <c r="B42" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="C33" s="26">
+      <c r="C42" s="26">
         <f>+Earnings_Comparison!E23</f>
-        <v>829.67</v>
-      </c>
-      <c r="D33" s="25">
+        <v>803.95</v>
+      </c>
+      <c r="D42" s="25">
         <f>+Earnings_Comparison!H23</f>
-        <v>1.8751245410437045</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" t="str">
-        <f>+Earnings_Comparison!B6</f>
-        <v>AK</v>
-      </c>
-      <c r="B34" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="C34" s="26">
-        <f>+Earnings_Comparison!E6</f>
-        <v>1007.69</v>
-      </c>
-      <c r="D34" s="25">
-        <f>+Earnings_Comparison!H6</f>
-        <v>1.8636721117562427</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" t="str">
+        <v>-2.701555597901617</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" t="str">
+        <f>+Earnings_Comparison!B17</f>
+        <v>ID</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="C43" s="26">
+        <f>+Earnings_Comparison!E17</f>
+        <v>739.2</v>
+      </c>
+      <c r="D43" s="25">
+        <f>+Earnings_Comparison!H17</f>
+        <v>-2.8718985859243262</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" t="str">
+        <f>+Earnings_Comparison!B52</f>
+        <v>WA</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="C44" s="26">
+        <f>+Earnings_Comparison!E52</f>
+        <v>1052.94</v>
+      </c>
+      <c r="D44" s="25">
+        <f>+Earnings_Comparison!H52</f>
+        <v>-2.9000869574255295</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" t="str">
+        <f>+Earnings_Comparison!B37</f>
+        <v>NY</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="C45" s="26">
+        <f>+Earnings_Comparison!E37</f>
+        <v>981.22</v>
+      </c>
+      <c r="D45" s="39">
+        <f>+Earnings_Comparison!H37</f>
+        <v>-2.9111009192769544</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" t="str">
         <f>+Earnings_Comparison!B18</f>
         <v>IL</v>
       </c>
-      <c r="B35" s="20" t="s">
+      <c r="B46" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="C35" s="26">
+      <c r="C46" s="26">
         <f>+Earnings_Comparison!E18</f>
-        <v>933.51</v>
-      </c>
-      <c r="D35" s="25">
+        <v>908.77</v>
+      </c>
+      <c r="D46" s="25">
         <f>+Earnings_Comparison!H18</f>
-        <v>1.7924794077092576</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" t="str">
-        <f>+Earnings_Comparison!B46</f>
-        <v>SD</v>
-      </c>
-      <c r="B36" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="C36" s="26">
-        <f>+Earnings_Comparison!E46</f>
-        <v>751.86</v>
-      </c>
-      <c r="D36" s="25">
-        <f>+Earnings_Comparison!H46</f>
-        <v>1.7058715949267667</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" t="str">
-        <f>+Earnings_Comparison!B53</f>
-        <v>WV</v>
-      </c>
-      <c r="B37" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="C37" s="26">
-        <f>+Earnings_Comparison!E53</f>
-        <v>749.42</v>
-      </c>
-      <c r="D37" s="25">
-        <f>+Earnings_Comparison!H53</f>
-        <v>1.673551832281861</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" t="str">
-        <f>+Earnings_Comparison!B45</f>
-        <v>SC</v>
-      </c>
-      <c r="B38" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="C38" s="26">
-        <f>+Earnings_Comparison!E45</f>
-        <v>768.47</v>
-      </c>
-      <c r="D38" s="25">
-        <f>+Earnings_Comparison!H45</f>
-        <v>1.4981466362216977</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" t="str">
-        <f>+Earnings_Comparison!B37</f>
-        <v>NY</v>
-      </c>
-      <c r="B39" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="C39" s="26">
-        <f>+Earnings_Comparison!E37</f>
-        <v>996.85</v>
-      </c>
-      <c r="D39" s="39">
-        <f>+Earnings_Comparison!H37</f>
-        <v>1.1962491344232218</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" t="str">
+        <v>-2.9638488034023691</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" t="str">
+        <f>+Earnings_Comparison!B31</f>
+        <v>MT</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="C47" s="26">
+        <f>+Earnings_Comparison!E31</f>
+        <v>737.75</v>
+      </c>
+      <c r="D47" s="25">
+        <f>+Earnings_Comparison!H31</f>
+        <v>-2.9833465061662068</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" t="str">
         <f>+Earnings_Comparison!B21</f>
         <v>KS</v>
       </c>
-      <c r="B40" s="20" t="s">
+      <c r="B48" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="C40" s="26">
+      <c r="C48" s="26">
         <f>+Earnings_Comparison!E21</f>
-        <v>800.06</v>
-      </c>
-      <c r="D40" s="25">
+        <v>778.75</v>
+      </c>
+      <c r="D48" s="25">
         <f>+Earnings_Comparison!H21</f>
-        <v>1.039919381953025</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" t="str">
-        <f>+Earnings_Comparison!B22</f>
-        <v>KY</v>
-      </c>
-      <c r="B41" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="C41" s="26">
-        <f>+Earnings_Comparison!E22</f>
-        <v>761.81</v>
-      </c>
-      <c r="D41" s="25">
-        <f>+Earnings_Comparison!H22</f>
-        <v>1.0239903624243762</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" t="str">
+        <v>-3.0855713361977677</v>
+      </c>
+      <c r="K48" s="20"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" t="str">
+        <f>+Earnings_Comparison!B16</f>
+        <v>HI</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="C49" s="26">
+        <f>+Earnings_Comparison!E16</f>
+        <v>818.88</v>
+      </c>
+      <c r="D49" s="25">
+        <f>+Earnings_Comparison!H16</f>
+        <v>-3.3486370469452686</v>
+      </c>
+      <c r="K49" s="20"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" t="str">
+        <f>+Earnings_Comparison!B36</f>
+        <v>NM</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="C50" s="26">
+        <f>+Earnings_Comparison!E36</f>
+        <v>693.05</v>
+      </c>
+      <c r="D50" s="25">
+        <f>+Earnings_Comparison!H36</f>
+        <v>-3.4065475723285887</v>
+      </c>
+      <c r="K50" s="20"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" t="str">
         <f>+Earnings_Comparison!B48</f>
         <v>TX</v>
       </c>
-      <c r="B42" s="20" t="s">
+      <c r="B51" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="C42" s="26">
+      <c r="C51" s="26">
         <f>+Earnings_Comparison!E48</f>
-        <v>899.57</v>
-      </c>
-      <c r="D42" s="25">
+        <v>877.21</v>
+      </c>
+      <c r="D51" s="25">
         <f>+Earnings_Comparison!H48</f>
-        <v>0.94663915402997123</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" t="str">
-        <f>+Earnings_Comparison!B27</f>
-        <v>MI</v>
-      </c>
-      <c r="B43" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="C43" s="26">
-        <f>+Earnings_Comparison!E27</f>
-        <v>858.89</v>
-      </c>
-      <c r="D43" s="25">
-        <f>+Earnings_Comparison!H27</f>
-        <v>0.93218887785198046</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" t="str">
-        <f>+Earnings_Comparison!B33</f>
-        <v>NV</v>
-      </c>
-      <c r="B44" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="C44" s="26">
-        <f>+Earnings_Comparison!E33</f>
-        <v>758.86</v>
-      </c>
-      <c r="D44" s="25">
-        <f>+Earnings_Comparison!H33</f>
-        <v>0.66806634587095459</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" t="str">
-        <f>+Earnings_Comparison!B25</f>
-        <v>MD</v>
-      </c>
-      <c r="B45" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="C45" s="26">
-        <f>+Earnings_Comparison!E25</f>
-        <v>963.2</v>
-      </c>
-      <c r="D45" s="25">
-        <f>+Earnings_Comparison!H25</f>
-        <v>0.6612865768088394</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" t="str">
-        <f>+Earnings_Comparison!B17</f>
-        <v>ID</v>
-      </c>
-      <c r="B46" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="C46" s="26">
-        <f>+Earnings_Comparison!E17</f>
-        <v>755.33</v>
-      </c>
-      <c r="D46" s="25">
-        <f>+Earnings_Comparison!H17</f>
-        <v>0.60536104769606247</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" t="str">
-        <f>+Earnings_Comparison!B43</f>
-        <v>PA</v>
-      </c>
-      <c r="B47" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="C47" s="26">
-        <f>+Earnings_Comparison!E43</f>
-        <v>847.28</v>
-      </c>
-      <c r="D47" s="25">
-        <f>+Earnings_Comparison!H43</f>
-        <v>0.56355783722459307</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" t="str">
-        <f>+Earnings_Comparison!B24</f>
-        <v>ME</v>
-      </c>
-      <c r="B48" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="C48" s="26">
-        <f>+Earnings_Comparison!E24</f>
-        <v>771.41</v>
-      </c>
-      <c r="D48" s="25">
-        <f>+Earnings_Comparison!H24</f>
-        <v>0.53685984721514313</v>
-      </c>
-      <c r="K48" s="20"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" t="str">
+        <v>-3.9784042860499969</v>
+      </c>
+      <c r="K51" s="20"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" t="str">
+        <f>+Earnings_Comparison!B55</f>
+        <v>WY</v>
+      </c>
+      <c r="B52" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="C52" s="26">
+        <f>+Earnings_Comparison!E55</f>
+        <v>796.87</v>
+      </c>
+      <c r="D52" s="25">
+        <f>+Earnings_Comparison!H55</f>
+        <v>-4.0590678230134625</v>
+      </c>
+      <c r="K52" s="20"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" t="str">
         <f>+Earnings_Comparison!B10</f>
         <v>CO</v>
       </c>
-      <c r="B49" s="20" t="s">
+      <c r="B53" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="C49" s="26">
+      <c r="C53" s="26">
         <f>+Earnings_Comparison!E10</f>
-        <v>935.36</v>
-      </c>
-      <c r="D49" s="25">
+        <v>902.8</v>
+      </c>
+      <c r="D53" s="25">
         <f>+Earnings_Comparison!H10</f>
-        <v>0.28702500339590209</v>
-      </c>
-      <c r="K49" s="20"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" t="str">
-        <f>+Earnings_Comparison!B50</f>
-        <v>VT</v>
-      </c>
-      <c r="B50" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="C50" s="26">
-        <f>+Earnings_Comparison!E50</f>
-        <v>824.11</v>
-      </c>
-      <c r="D50" s="25">
-        <f>+Earnings_Comparison!H50</f>
-        <v>5.1168168185089513E-2</v>
-      </c>
-      <c r="K50" s="20"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" t="str">
-        <f>+Earnings_Comparison!B36</f>
-        <v>NM</v>
-      </c>
-      <c r="B51" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="C51" s="26">
-        <f>+Earnings_Comparison!E36</f>
-        <v>706.76</v>
-      </c>
-      <c r="D51" s="25">
-        <f>+Earnings_Comparison!H36</f>
-        <v>-0.62115231544757066</v>
-      </c>
-      <c r="K51" s="20"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" t="str">
+        <v>-4.2500815863559023</v>
+      </c>
+      <c r="K53" s="20"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" t="str">
         <f>+Earnings_Comparison!B39</f>
         <v>ND</v>
       </c>
-      <c r="B52" s="20" t="s">
+      <c r="B54" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="C52" s="26">
+      <c r="C54" s="26">
         <f>+Earnings_Comparison!E39</f>
-        <v>913.09</v>
-      </c>
-      <c r="D52" s="25">
+        <v>873.3</v>
+      </c>
+      <c r="D54" s="25">
         <f>+Earnings_Comparison!H39</f>
-        <v>-0.98176873726747438</v>
-      </c>
-      <c r="K52" s="20"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" t="str">
-        <f>+Earnings_Comparison!B55</f>
-        <v>WY</v>
-      </c>
-      <c r="B53" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="C53" s="26">
-        <f>+Earnings_Comparison!E55</f>
-        <v>805.1</v>
-      </c>
-      <c r="D53" s="25">
-        <f>+Earnings_Comparison!H55</f>
-        <v>-1.8364383153919972</v>
-      </c>
-      <c r="K53" s="20"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" t="str">
-        <f>+Earnings_Comparison!B31</f>
-        <v>MT</v>
-      </c>
-      <c r="B54" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="C54" s="26">
-        <f>+Earnings_Comparison!E31</f>
-        <v>709.49</v>
-      </c>
-      <c r="D54" s="25">
-        <f>+Earnings_Comparison!H31</f>
-        <v>-3.4655362998679329</v>
+        <v>-4.7467631825874328</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C56">
-        <f>COUNTIF(C4:C54, "&lt;892")</f>
-        <v>35</v>
+        <f>COUNTIF(C4:C54, "&lt;891")</f>
+        <v>38</v>
       </c>
       <c r="D56">
-        <f>COUNTIF(D4:D54, "&gt;0")</f>
-        <v>47</v>
+        <f>COUNTIF(D4:D54, "&lt;0")</f>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -11971,8 +12066,8 @@
       <sortCondition descending="1" ref="D3:D54"/>
     </sortState>
   </autoFilter>
-  <sortState ref="M10:M14">
-    <sortCondition ref="M10"/>
+  <sortState ref="K7:K10">
+    <sortCondition ref="K7"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A2:D2"/>

--- a/static/data/source/current_earnings.xlsx
+++ b/static/data/source/current_earnings.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="1110" windowWidth="20775" windowHeight="11415" activeTab="1"/>
+    <workbookView xWindow="390" yWindow="1110" windowWidth="20775" windowHeight="11415" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Earnings Table" sheetId="2" r:id="rId1"/>
     <sheet name="Earnings_Comparison" sheetId="1" r:id="rId2"/>
-    <sheet name="Jan_2017_BLS Data Series" sheetId="23" r:id="rId3"/>
+    <sheet name="Feb_2017_BLS Data Series" sheetId="24" r:id="rId3"/>
     <sheet name="SCRATCH" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
@@ -23,10 +23,9 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
-    <author>Randall, Megan</author>
   </authors>
   <commentList>
-    <comment ref="E5" authorId="0">
+    <comment ref="O5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -41,7 +40,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E6" authorId="0">
+    <comment ref="O6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -56,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E7" authorId="0">
+    <comment ref="O7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -71,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E8" authorId="0">
+    <comment ref="O8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -86,7 +85,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E9" authorId="0">
+    <comment ref="O9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -101,7 +100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E10" authorId="0">
+    <comment ref="O10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -116,7 +115,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E11" authorId="0">
+    <comment ref="O11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -131,7 +130,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E12" authorId="0">
+    <comment ref="O12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -146,7 +145,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E13" authorId="0">
+    <comment ref="O13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -161,7 +160,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E14" authorId="0">
+    <comment ref="O14" authorId="0">
       <text>
         <r>
           <rPr>
@@ -176,7 +175,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E15" authorId="0">
+    <comment ref="O15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -191,7 +190,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E16" authorId="0">
+    <comment ref="O16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -206,7 +205,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E17" authorId="0">
+    <comment ref="O17" authorId="0">
       <text>
         <r>
           <rPr>
@@ -221,7 +220,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E18" authorId="0">
+    <comment ref="O18" authorId="0">
       <text>
         <r>
           <rPr>
@@ -236,7 +235,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E19" authorId="0">
+    <comment ref="O19" authorId="0">
       <text>
         <r>
           <rPr>
@@ -251,7 +250,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E20" authorId="0">
+    <comment ref="O20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -266,7 +265,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E21" authorId="0">
+    <comment ref="O21" authorId="0">
       <text>
         <r>
           <rPr>
@@ -281,7 +280,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E22" authorId="0">
+    <comment ref="O22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -296,7 +295,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E23" authorId="0">
+    <comment ref="O23" authorId="0">
       <text>
         <r>
           <rPr>
@@ -311,7 +310,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E24" authorId="0">
+    <comment ref="O24" authorId="0">
       <text>
         <r>
           <rPr>
@@ -326,7 +325,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E25" authorId="0">
+    <comment ref="O25" authorId="0">
       <text>
         <r>
           <rPr>
@@ -341,7 +340,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E26" authorId="0">
+    <comment ref="O26" authorId="0">
       <text>
         <r>
           <rPr>
@@ -356,7 +355,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E27" authorId="0">
+    <comment ref="O27" authorId="0">
       <text>
         <r>
           <rPr>
@@ -371,7 +370,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E28" authorId="0">
+    <comment ref="O28" authorId="0">
       <text>
         <r>
           <rPr>
@@ -386,7 +385,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E29" authorId="0">
+    <comment ref="O29" authorId="0">
       <text>
         <r>
           <rPr>
@@ -401,7 +400,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E30" authorId="0">
+    <comment ref="O30" authorId="0">
       <text>
         <r>
           <rPr>
@@ -416,7 +415,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E31" authorId="0">
+    <comment ref="O31" authorId="0">
       <text>
         <r>
           <rPr>
@@ -431,7 +430,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E32" authorId="0">
+    <comment ref="O32" authorId="0">
       <text>
         <r>
           <rPr>
@@ -446,7 +445,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E33" authorId="0">
+    <comment ref="O33" authorId="0">
       <text>
         <r>
           <rPr>
@@ -461,7 +460,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E34" authorId="0">
+    <comment ref="O34" authorId="0">
       <text>
         <r>
           <rPr>
@@ -476,7 +475,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E35" authorId="0">
+    <comment ref="O35" authorId="0">
       <text>
         <r>
           <rPr>
@@ -491,7 +490,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E36" authorId="0">
+    <comment ref="O36" authorId="0">
       <text>
         <r>
           <rPr>
@@ -506,7 +505,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E37" authorId="0">
+    <comment ref="O37" authorId="0">
       <text>
         <r>
           <rPr>
@@ -521,7 +520,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E38" authorId="0">
+    <comment ref="O38" authorId="0">
       <text>
         <r>
           <rPr>
@@ -536,7 +535,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E39" authorId="0">
+    <comment ref="O39" authorId="0">
       <text>
         <r>
           <rPr>
@@ -551,7 +550,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E40" authorId="0">
+    <comment ref="O40" authorId="0">
       <text>
         <r>
           <rPr>
@@ -566,7 +565,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E41" authorId="0">
+    <comment ref="O41" authorId="0">
       <text>
         <r>
           <rPr>
@@ -581,7 +580,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E42" authorId="0">
+    <comment ref="O42" authorId="0">
       <text>
         <r>
           <rPr>
@@ -596,7 +595,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E43" authorId="0">
+    <comment ref="O43" authorId="0">
       <text>
         <r>
           <rPr>
@@ -611,7 +610,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E44" authorId="0">
+    <comment ref="O44" authorId="0">
       <text>
         <r>
           <rPr>
@@ -626,7 +625,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E45" authorId="0">
+    <comment ref="O45" authorId="0">
       <text>
         <r>
           <rPr>
@@ -641,7 +640,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E46" authorId="0">
+    <comment ref="O46" authorId="0">
       <text>
         <r>
           <rPr>
@@ -656,7 +655,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E47" authorId="0">
+    <comment ref="O47" authorId="0">
       <text>
         <r>
           <rPr>
@@ -671,7 +670,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E48" authorId="0">
+    <comment ref="O48" authorId="0">
       <text>
         <r>
           <rPr>
@@ -686,7 +685,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E49" authorId="0">
+    <comment ref="O49" authorId="0">
       <text>
         <r>
           <rPr>
@@ -701,7 +700,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E50" authorId="0">
+    <comment ref="O50" authorId="0">
       <text>
         <r>
           <rPr>
@@ -716,7 +715,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E51" authorId="0">
+    <comment ref="O51" authorId="0">
       <text>
         <r>
           <rPr>
@@ -731,7 +730,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E52" authorId="0">
+    <comment ref="O52" authorId="0">
       <text>
         <r>
           <rPr>
@@ -746,7 +745,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E53" authorId="0">
+    <comment ref="O53" authorId="0">
       <text>
         <r>
           <rPr>
@@ -761,7 +760,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E54" authorId="0">
+    <comment ref="O54" authorId="0">
       <text>
         <r>
           <rPr>
@@ -776,806 +775,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E55" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E58" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Randall, Megan:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Preliminary</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment ref="N5" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N6" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N7" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N8" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N9" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N10" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N11" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N12" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N14" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N16" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N17" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N18" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N19" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N20" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N21" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N22" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N23" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N24" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N25" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N26" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N27" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N28" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N29" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N30" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N31" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N32" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N33" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N34" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N35" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N36" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N37" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N38" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N39" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N40" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N41" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N42" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N43" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N44" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N45" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N46" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N47" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N48" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N49" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N50" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N51" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N52" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N53" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N54" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">*  Preliminary
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N55" authorId="0">
+    <comment ref="O55" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1595,7 +795,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="199">
   <si>
     <t>State and Area Employment, Hours, and Earnings</t>
   </si>
@@ -2152,20 +1352,6 @@
     <t>Average Weekly Wages December 2016</t>
   </si>
   <si>
-    <t>Average Weekly Wages January 2017</t>
-  </si>
-  <si>
-    <t>January
-2016</t>
-  </si>
-  <si>
-    <t>January
-2017</t>
-  </si>
-  <si>
-    <t>January 2016 adj for inflation</t>
-  </si>
-  <si>
     <t>Dec
 2017</t>
   </si>
@@ -2218,6 +1404,20 @@
   </si>
   <si>
     <t>NOMINAL</t>
+  </si>
+  <si>
+    <t>February
+2016</t>
+  </si>
+  <si>
+    <t>February
+2017</t>
+  </si>
+  <si>
+    <t>February 2016 adj for inflation</t>
+  </si>
+  <si>
+    <t>Average Weekly Earnings February 2017</t>
   </si>
 </sst>
 </file>
@@ -2239,7 +1439,7 @@
     <numFmt numFmtId="173" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="174" formatCode="#0"/>
   </numFmts>
-  <fonts count="80" x14ac:knownFonts="1">
+  <fonts count="78" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -2744,19 +1944,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="44">
     <fill>
@@ -3960,6 +3147,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="315"/>
+    <xf numFmtId="17" fontId="4" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3974,7 +3162,6 @@
     <xf numFmtId="0" fontId="28" fillId="34" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="17" fontId="4" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="480">
     <cellStyle name="20% - Accent1" xfId="9" builtinId="30" customBuiltin="1"/>
@@ -5137,7 +4324,7 @@
   <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5149,12 +4336,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
-        <v>181</v>
-      </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
+      <c r="A1" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
@@ -5179,11 +4366,11 @@
       </c>
       <c r="C3" s="31">
         <f>+Earnings_Comparison!E58</f>
-        <v>895.43</v>
+        <v>897.5</v>
       </c>
       <c r="D3" s="30">
         <f>+Earnings_Comparison!H58</f>
-        <v>-0.47962130759462429</v>
+        <v>-0.23164439633514</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -5196,11 +4383,11 @@
       </c>
       <c r="C4" s="31">
         <f>+Earnings_Comparison!E5</f>
-        <v>789.66</v>
+        <v>791.43</v>
       </c>
       <c r="D4" s="30">
         <f>+Earnings_Comparison!H5</f>
-        <v>0.23675905602151825</v>
+        <v>0.17926229122313675</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -5213,11 +4400,11 @@
       </c>
       <c r="C5" s="31">
         <f>+Earnings_Comparison!E6</f>
-        <v>987.28</v>
+        <v>961.87</v>
       </c>
       <c r="D5" s="30">
         <f>+Earnings_Comparison!H6</f>
-        <v>2.9807556086263176</v>
+        <v>-1.602110052458694</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -5230,11 +4417,11 @@
       </c>
       <c r="C6" s="31">
         <f>+Earnings_Comparison!E7</f>
-        <v>853.64</v>
+        <v>850.37</v>
       </c>
       <c r="D6" s="30">
         <f>+Earnings_Comparison!H7</f>
-        <v>3.7057217697083589</v>
+        <v>2.1180582255672764</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -5247,11 +4434,11 @@
       </c>
       <c r="C7" s="31">
         <f>+Earnings_Comparison!E8</f>
-        <v>702.77</v>
+        <v>703.14</v>
       </c>
       <c r="D7" s="30">
         <f>+Earnings_Comparison!H8</f>
-        <v>1.5220235364857393</v>
+        <v>1.553778075472545</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -5264,11 +4451,11 @@
       </c>
       <c r="C8" s="31">
         <f>+Earnings_Comparison!E9</f>
-        <v>1023.74</v>
+        <v>1011.84</v>
       </c>
       <c r="D8" s="30">
         <f>+Earnings_Comparison!H9</f>
-        <v>2.8303187976747024</v>
+        <v>0.64323273163013894</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -5281,11 +4468,11 @@
       </c>
       <c r="C9" s="31">
         <f>+Earnings_Comparison!E10</f>
-        <v>902.46</v>
+        <v>889.44</v>
       </c>
       <c r="D9" s="30">
         <f>+Earnings_Comparison!H10</f>
-        <v>-3.8276313315289023</v>
+        <v>-5.0727525393451938</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -5298,11 +4485,11 @@
       </c>
       <c r="C10" s="31">
         <f>+Earnings_Comparison!E11</f>
-        <v>1049.76</v>
+        <v>1032.9000000000001</v>
       </c>
       <c r="D10" s="30">
         <f>+Earnings_Comparison!H11</f>
-        <v>1.8756267599855381</v>
+        <v>0.17769204455071463</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -5315,11 +4502,11 @@
       </c>
       <c r="C11" s="31">
         <f>+Earnings_Comparison!E12</f>
-        <v>824.92</v>
+        <v>827.52</v>
       </c>
       <c r="D11" s="30">
         <f>+Earnings_Comparison!H12</f>
-        <v>0.70065923260838048</v>
+        <v>0.54257286925800674</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -5332,11 +4519,11 @@
       </c>
       <c r="C12" s="31">
         <f>+Earnings_Comparison!E13</f>
-        <v>1466.74</v>
+        <v>1409.88</v>
       </c>
       <c r="D12" s="30">
         <f>+Earnings_Comparison!H13</f>
-        <v>11.163654925444821</v>
+        <v>5.1825961311030566</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -5349,11 +4536,11 @@
       </c>
       <c r="C13" s="31">
         <f>+Earnings_Comparison!E14</f>
-        <v>806.05</v>
+        <v>818.06</v>
       </c>
       <c r="D13" s="30">
         <f>+Earnings_Comparison!H14</f>
-        <v>1.1603123442504026</v>
+        <v>1.7583090090054876</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -5366,11 +4553,11 @@
       </c>
       <c r="C14" s="31">
         <f>+Earnings_Comparison!E15</f>
-        <v>885.66</v>
+        <v>869.29</v>
       </c>
       <c r="D14" s="30">
         <f>+Earnings_Comparison!H15</f>
-        <v>2.9425015213943029</v>
+        <v>0.46944116876361797</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -5383,11 +4570,11 @@
       </c>
       <c r="C15" s="31">
         <f>+Earnings_Comparison!E16</f>
-        <v>870.69</v>
+        <v>842.35</v>
       </c>
       <c r="D15" s="30">
         <f>+Earnings_Comparison!H16</f>
-        <v>3.0564759584860823</v>
+        <v>-0.51309362786080559</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -5400,11 +4587,11 @@
       </c>
       <c r="C16" s="31">
         <f>+Earnings_Comparison!E17</f>
-        <v>730.63</v>
+        <v>735.78</v>
       </c>
       <c r="D16" s="30">
         <f>+Earnings_Comparison!H17</f>
-        <v>-2.9108035405850163</v>
+        <v>-1.8472523460422496</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -5417,11 +4604,11 @@
       </c>
       <c r="C17" s="31">
         <f>+Earnings_Comparison!E18</f>
-        <v>921.06</v>
+        <v>896.08</v>
       </c>
       <c r="D17" s="30">
         <f>+Earnings_Comparison!H18</f>
-        <v>-0.19827718143234918</v>
+        <v>-2.4396213258287558</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -5434,11 +4621,11 @@
       </c>
       <c r="C18" s="31">
         <f>+Earnings_Comparison!E19</f>
-        <v>852.26</v>
+        <v>836.61</v>
       </c>
       <c r="D18" s="30">
         <f>+Earnings_Comparison!H19</f>
-        <v>3.3476058784923879</v>
+        <v>2.1993765000351884</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -5451,11 +4638,11 @@
       </c>
       <c r="C19" s="31">
         <f>+Earnings_Comparison!E20</f>
-        <v>793.56</v>
+        <v>791.86</v>
       </c>
       <c r="D19" s="30">
         <f>+Earnings_Comparison!H20</f>
-        <v>0.68334212038743125</v>
+        <v>5.9326995950237382E-2</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -5468,11 +4655,11 @@
       </c>
       <c r="C20" s="31">
         <f>+Earnings_Comparison!E21</f>
-        <v>791.93</v>
+        <v>784.54</v>
       </c>
       <c r="D20" s="30">
         <f>+Earnings_Comparison!H21</f>
-        <v>6.2724669049973869E-2</v>
+        <v>-0.45857091177353704</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -5485,11 +4672,11 @@
       </c>
       <c r="C21" s="31">
         <f>+Earnings_Comparison!E22</f>
-        <v>773.07</v>
+        <v>758.73</v>
       </c>
       <c r="D21" s="30">
         <f>+Earnings_Comparison!H22</f>
-        <v>1.9897665401179543</v>
+        <v>0.76681461564565012</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -5502,11 +4689,11 @@
       </c>
       <c r="C22" s="31">
         <f>+Earnings_Comparison!E23</f>
-        <v>818.8</v>
+        <v>815.62</v>
       </c>
       <c r="D22" s="30">
         <f>+Earnings_Comparison!H23</f>
-        <v>0.53220983367849861</v>
+        <v>1.0171644626656207</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -5519,11 +4706,11 @@
       </c>
       <c r="C23" s="31">
         <f>+Earnings_Comparison!E24</f>
-        <v>776.79</v>
+        <v>767.85</v>
       </c>
       <c r="D23" s="30">
         <f>+Earnings_Comparison!H24</f>
-        <v>1.1726150591860218</v>
+        <v>-0.20737837697375472</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -5536,11 +4723,11 @@
       </c>
       <c r="C24" s="31">
         <f>+Earnings_Comparison!E25</f>
-        <v>961.43</v>
+        <v>950.76</v>
       </c>
       <c r="D24" s="30">
         <f>+Earnings_Comparison!H25</f>
-        <v>1.9576835710689133</v>
+        <v>0.95809956613355229</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -5553,11 +4740,11 @@
       </c>
       <c r="C25" s="31">
         <f>+Earnings_Comparison!E26</f>
-        <v>1087.3</v>
+        <v>1066.23</v>
       </c>
       <c r="D25" s="30">
         <f>+Earnings_Comparison!H26</f>
-        <v>1.8531369762529337</v>
+        <v>0.63661166734398922</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -5570,11 +4757,11 @@
       </c>
       <c r="C26" s="31">
         <f>+Earnings_Comparison!E27</f>
-        <v>840.98</v>
+        <v>843.09</v>
       </c>
       <c r="D26" s="30">
         <f>+Earnings_Comparison!H27</f>
-        <v>-0.18880868862057865</v>
+        <v>0.24207472702451049</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -5587,11 +4774,11 @@
       </c>
       <c r="C27" s="31">
         <f>+Earnings_Comparison!E28</f>
-        <v>959.57</v>
+        <v>955.53</v>
       </c>
       <c r="D27" s="30">
         <f>+Earnings_Comparison!H28</f>
-        <v>4.6240423059801028</v>
+        <v>4.9213938623762665</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -5604,11 +4791,11 @@
       </c>
       <c r="C28" s="31">
         <f>+Earnings_Comparison!E29</f>
-        <v>719.25</v>
+        <v>705.1</v>
       </c>
       <c r="D28" s="30">
         <f>+Earnings_Comparison!H29</f>
-        <v>2.0664768164766256</v>
+        <v>1.0303311808375515</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -5621,11 +4808,11 @@
       </c>
       <c r="C29" s="31">
         <f>+Earnings_Comparison!E30</f>
-        <v>775.83</v>
+        <v>779.17</v>
       </c>
       <c r="D29" s="30">
         <f>+Earnings_Comparison!H30</f>
-        <v>1.8511747806185586</v>
+        <v>2.7287382914623848</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -5638,11 +4825,11 @@
       </c>
       <c r="C30" s="31">
         <f>+Earnings_Comparison!E31</f>
-        <v>748.48</v>
+        <v>736.44</v>
       </c>
       <c r="D30" s="30">
         <f>+Earnings_Comparison!H31</f>
-        <v>2.2909058429135376</v>
+        <v>-0.83778074741602815</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -5655,11 +4842,11 @@
       </c>
       <c r="C31" s="31">
         <f>+Earnings_Comparison!E32</f>
-        <v>796.65</v>
+        <v>791.62</v>
       </c>
       <c r="D31" s="30">
         <f>+Earnings_Comparison!H32</f>
-        <v>2.2414680917214547</v>
+        <v>1.1318272516274819</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -5672,11 +4859,11 @@
       </c>
       <c r="C32" s="31">
         <f>+Earnings_Comparison!E33</f>
-        <v>775.43</v>
+        <v>753.75</v>
       </c>
       <c r="D32" s="30">
         <f>+Earnings_Comparison!H33</f>
-        <v>2.2734570285829703</v>
+        <v>-1.0249272551108191</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -5689,11 +4876,11 @@
       </c>
       <c r="C33" s="31">
         <f>+Earnings_Comparison!E34</f>
-        <v>900.72</v>
+        <v>892.11</v>
       </c>
       <c r="D33" s="30">
         <f>+Earnings_Comparison!H34</f>
-        <v>1.9669131638923476</v>
+        <v>1.1786420218397264</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -5706,11 +4893,11 @@
       </c>
       <c r="C34" s="31">
         <f>+Earnings_Comparison!E35</f>
-        <v>990.38</v>
+        <v>977.5</v>
       </c>
       <c r="D34" s="30">
         <f>+Earnings_Comparison!H35</f>
-        <v>3.3671026859669606</v>
+        <v>1.1685457172972091</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -5723,11 +4910,11 @@
       </c>
       <c r="C35" s="31">
         <f>+Earnings_Comparison!E36</f>
-        <v>700.15</v>
+        <v>691.79</v>
       </c>
       <c r="D35" s="30">
         <f>+Earnings_Comparison!H36</f>
-        <v>-0.67428284520070214</v>
+        <v>-2.6635847878635266</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -5740,11 +4927,11 @@
       </c>
       <c r="C36" s="31">
         <f>+Earnings_Comparison!E37</f>
-        <v>1004.67</v>
+        <v>995.98</v>
       </c>
       <c r="D36" s="30">
         <f>+Earnings_Comparison!H37</f>
-        <v>0.32913148376874091</v>
+        <v>-0.98387096261524087</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -5757,11 +4944,11 @@
       </c>
       <c r="C37" s="31">
         <f>+Earnings_Comparison!E38</f>
-        <v>815.63</v>
+        <v>826.29</v>
       </c>
       <c r="D37" s="30">
         <f>+Earnings_Comparison!H38</f>
-        <v>2.4482770734798764</v>
+        <v>2.6534741371149639</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -5774,11 +4961,11 @@
       </c>
       <c r="C38" s="31">
         <f>+Earnings_Comparison!E39</f>
-        <v>876.03</v>
+        <v>864.45</v>
       </c>
       <c r="D38" s="30">
         <f>+Earnings_Comparison!H39</f>
-        <v>-4.5207888588669531</v>
+        <v>-3.9143443119594612</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -5791,11 +4978,11 @@
       </c>
       <c r="C39" s="31">
         <f>+Earnings_Comparison!E40</f>
-        <v>826.29</v>
+        <v>813.29</v>
       </c>
       <c r="D39" s="30">
         <f>+Earnings_Comparison!H40</f>
-        <v>2.5514264963438782</v>
+        <v>0.79142960336469059</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -5808,11 +4995,11 @@
       </c>
       <c r="C40" s="31">
         <f>+Earnings_Comparison!E41</f>
-        <v>797.21</v>
+        <v>800.88</v>
       </c>
       <c r="D40" s="30">
         <f>+Earnings_Comparison!H41</f>
-        <v>2.8409495660445483</v>
+        <v>2.6138128670627925</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -5825,11 +5012,11 @@
       </c>
       <c r="C41" s="31">
         <f>+Earnings_Comparison!E42</f>
-        <v>871.07</v>
+        <v>866.32</v>
       </c>
       <c r="D41" s="30">
         <f>+Earnings_Comparison!H42</f>
-        <v>4.749724548566947</v>
+        <v>2.7580603153481542</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -5842,11 +5029,11 @@
       </c>
       <c r="C42" s="31">
         <f>+Earnings_Comparison!E43</f>
-        <v>847.89</v>
+        <v>835.67</v>
       </c>
       <c r="D42" s="30">
         <f>+Earnings_Comparison!H43</f>
-        <v>-0.54232007690916406</v>
+        <v>-1.5123729627857907</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -5859,11 +5046,11 @@
       </c>
       <c r="C43" s="31">
         <f>+Earnings_Comparison!E44</f>
-        <v>853.42</v>
+        <v>859.55</v>
       </c>
       <c r="D43" s="30">
         <f>+Earnings_Comparison!H44</f>
-        <v>-1.1252452040347971</v>
+        <v>-0.83642729722483988</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -5876,11 +5063,11 @@
       </c>
       <c r="C44" s="31">
         <f>+Earnings_Comparison!E45</f>
-        <v>795.92</v>
+        <v>783.07</v>
       </c>
       <c r="D44" s="30">
         <f>+Earnings_Comparison!H45</f>
-        <v>3.2136160077327114</v>
+        <v>1.6837760652556044</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -5893,11 +5080,11 @@
       </c>
       <c r="C45" s="31">
         <f>+Earnings_Comparison!E46</f>
-        <v>741.4</v>
+        <v>735.38</v>
       </c>
       <c r="D45" s="30">
         <f>+Earnings_Comparison!H46</f>
-        <v>0.87818684444478379</v>
+        <v>1.1834980031869113</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -5910,11 +5097,11 @@
       </c>
       <c r="C46" s="31">
         <f>+Earnings_Comparison!E47</f>
-        <v>813.38</v>
+        <v>800.39</v>
       </c>
       <c r="D46" s="30">
         <f>+Earnings_Comparison!H47</f>
-        <v>5.3489726701433371</v>
+        <v>4.0577646054888339</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -5927,11 +5114,11 @@
       </c>
       <c r="C47" s="31">
         <f>+Earnings_Comparison!E48</f>
-        <v>906.12</v>
+        <v>891.02</v>
       </c>
       <c r="D47" s="30">
         <f>+Earnings_Comparison!H48</f>
-        <v>0.78312126316957276</v>
+        <v>-0.51796992732575653</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -5944,11 +5131,11 @@
       </c>
       <c r="C48" s="31">
         <f>+Earnings_Comparison!E49</f>
-        <v>870.13</v>
+        <v>852.61</v>
       </c>
       <c r="D48" s="30">
         <f>+Earnings_Comparison!H49</f>
-        <v>2.1180040294699332</v>
+        <v>0.10591106560342567</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -5961,11 +5148,11 @@
       </c>
       <c r="C49" s="31">
         <f>+Earnings_Comparison!E50</f>
-        <v>806.86</v>
+        <v>793.55</v>
       </c>
       <c r="D49" s="30">
         <f>+Earnings_Comparison!H50</f>
-        <v>-3.1901609052145452</v>
+        <v>-3.7817084199252449</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -5978,11 +5165,11 @@
       </c>
       <c r="C50" s="31">
         <f>+Earnings_Comparison!E51</f>
-        <v>972.61</v>
+        <v>946</v>
       </c>
       <c r="D50" s="30">
         <f>+Earnings_Comparison!H51</f>
-        <v>2.6478958611817038</v>
+        <v>-0.35396213739542493</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -5995,11 +5182,11 @@
       </c>
       <c r="C51" s="31">
         <f>+Earnings_Comparison!E52</f>
-        <v>1092.3699999999999</v>
+        <v>1063.92</v>
       </c>
       <c r="D51" s="30">
         <f>+Earnings_Comparison!H52</f>
-        <v>3.17608240781595</v>
+        <v>-0.13244554841106426</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -6012,11 +5199,11 @@
       </c>
       <c r="C52" s="31">
         <f>+Earnings_Comparison!E53</f>
-        <v>750.46</v>
+        <v>753.28</v>
       </c>
       <c r="D52" s="30">
         <f>+Earnings_Comparison!H53</f>
-        <v>1.5557183763436067</v>
+        <v>1.2616390252703003</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -6029,11 +5216,11 @@
       </c>
       <c r="C53" s="31">
         <f>+Earnings_Comparison!E54</f>
-        <v>817.74</v>
+        <v>809.86</v>
       </c>
       <c r="D53" s="30">
         <f>+Earnings_Comparison!H54</f>
-        <v>0.51084655212068064</v>
+        <v>-0.39709669658025692</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -6046,11 +5233,11 @@
       </c>
       <c r="C54" s="31">
         <f>+Earnings_Comparison!E55</f>
-        <v>784.9</v>
+        <v>783.81</v>
       </c>
       <c r="D54" s="30">
         <f>+Earnings_Comparison!H55</f>
-        <v>-1.1698481936341487</v>
+        <v>-1.8371683362653712</v>
       </c>
     </row>
   </sheetData>
@@ -6063,14 +5250,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D29" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="4" topLeftCell="D41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M57" sqref="M57"/>
+      <selection pane="bottomRight" activeCell="J58" sqref="J58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6089,10 +5276,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="46"/>
+      <c r="D1" s="47"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C2" s="2" t="s">
@@ -6113,21 +5300,21 @@
         <v>2</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="13" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>57</v>
       </c>
       <c r="I4" s="10"/>
-      <c r="J4" s="50" t="s">
-        <v>198</v>
+      <c r="J4" s="44" t="s">
+        <v>194</v>
       </c>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
@@ -6163,24 +5350,24 @@
         <v>3</v>
       </c>
       <c r="D5" s="38">
-        <v>768.58</v>
+        <v>768.96</v>
       </c>
       <c r="E5" s="38">
-        <v>789.66</v>
+        <v>791.43</v>
       </c>
       <c r="F5" s="36"/>
       <c r="G5" s="36">
         <f>D5/$G$61</f>
-        <v>787.79482441033963</v>
+        <v>790.01380315548431</v>
       </c>
       <c r="H5" s="11">
         <f>((E5/G5)-1)*100</f>
-        <v>0.23675905602151825</v>
+        <v>0.17926229122313675</v>
       </c>
       <c r="I5" s="9"/>
       <c r="J5" s="30">
         <f>E5-D5</f>
-        <v>21.079999999999927</v>
+        <v>22.469999999999914</v>
       </c>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
@@ -6196,24 +5383,24 @@
         <v>4</v>
       </c>
       <c r="D6" s="38">
-        <v>935.32</v>
+        <v>951.48</v>
       </c>
       <c r="E6" s="38">
-        <v>987.28</v>
+        <v>961.87</v>
       </c>
       <c r="F6" s="36"/>
       <c r="G6" s="36">
         <f t="shared" ref="G6:G55" si="0">D6/$G$61</f>
-        <v>958.70339478971459</v>
+        <v>977.53112441008648</v>
       </c>
       <c r="H6" s="11">
         <f t="shared" ref="H6:H55" si="1">((E6/G6)-1)*100</f>
-        <v>2.9807556086263176</v>
+        <v>-1.602110052458694</v>
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="30">
         <f t="shared" ref="J6:J55" si="2">E6-D6</f>
-        <v>51.959999999999923</v>
+        <v>10.389999999999986</v>
       </c>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
@@ -6229,24 +5416,24 @@
         <v>5</v>
       </c>
       <c r="D7" s="38">
-        <v>803.06</v>
+        <v>810.54</v>
       </c>
       <c r="E7" s="38">
-        <v>853.64</v>
+        <v>850.37</v>
       </c>
       <c r="F7" s="36"/>
       <c r="G7" s="36">
         <f t="shared" si="0"/>
-        <v>823.13683896402097</v>
+        <v>832.73224616318942</v>
       </c>
       <c r="H7" s="11">
         <f t="shared" si="1"/>
-        <v>3.7057217697083589</v>
+        <v>2.1180582255672764</v>
       </c>
       <c r="I7" s="9"/>
       <c r="J7" s="30">
         <f t="shared" si="2"/>
-        <v>50.580000000000041</v>
+        <v>39.830000000000041</v>
       </c>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
@@ -6262,24 +5449,24 @@
         <v>6</v>
       </c>
       <c r="D8" s="38">
-        <v>675.35</v>
+        <v>673.93</v>
       </c>
       <c r="E8" s="38">
-        <v>702.77</v>
+        <v>703.14</v>
       </c>
       <c r="F8" s="36"/>
       <c r="G8" s="36">
         <f t="shared" si="0"/>
-        <v>692.23403505883948</v>
+        <v>692.38192150511793</v>
       </c>
       <c r="H8" s="11">
         <f t="shared" si="1"/>
-        <v>1.5220235364857393</v>
+        <v>1.553778075472545</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="30">
         <f t="shared" si="2"/>
-        <v>27.419999999999959</v>
+        <v>29.210000000000036</v>
       </c>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
@@ -6295,24 +5482,24 @@
         <v>7</v>
       </c>
       <c r="D9" s="38">
-        <v>971.28</v>
+        <v>978.58</v>
       </c>
       <c r="E9" s="38">
-        <v>1023.74</v>
+        <v>1011.84</v>
       </c>
       <c r="F9" s="36"/>
       <c r="G9" s="36">
         <f t="shared" si="0"/>
-        <v>995.56240996808992</v>
+        <v>1005.3731110745601</v>
       </c>
       <c r="H9" s="11">
         <f t="shared" si="1"/>
-        <v>2.8303187976747024</v>
+        <v>0.64323273163013894</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="30">
         <f t="shared" si="2"/>
-        <v>52.460000000000036</v>
+        <v>33.259999999999991</v>
       </c>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
@@ -6328,24 +5515,24 @@
         <v>8</v>
       </c>
       <c r="D10" s="38">
-        <v>915.49</v>
+        <v>912</v>
       </c>
       <c r="E10" s="38">
-        <v>902.46</v>
+        <v>889.44</v>
       </c>
       <c r="F10" s="36"/>
       <c r="G10" s="36">
         <f t="shared" si="0"/>
-        <v>938.37763641965932</v>
+        <v>936.97017852398255</v>
       </c>
       <c r="H10" s="11">
         <f t="shared" si="1"/>
-        <v>-3.8276313315289023</v>
+        <v>-5.0727525393451938</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="30">
         <f t="shared" si="2"/>
-        <v>-13.029999999999973</v>
+        <v>-22.559999999999945</v>
       </c>
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
@@ -6361,24 +5548,24 @@
         <v>9</v>
       </c>
       <c r="D11" s="38">
-        <v>1005.3</v>
+        <v>1003.59</v>
       </c>
       <c r="E11" s="38">
-        <v>1049.76</v>
+        <v>1032.9000000000001</v>
       </c>
       <c r="F11" s="36"/>
       <c r="G11" s="36">
         <f t="shared" si="0"/>
-        <v>1030.4329243276097</v>
+        <v>1031.0678744132497</v>
       </c>
       <c r="H11" s="11">
         <f t="shared" si="1"/>
-        <v>1.8756267599855381</v>
+        <v>0.17769204455071463</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="30">
         <f t="shared" si="2"/>
-        <v>44.460000000000036</v>
+        <v>29.310000000000059</v>
       </c>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
@@ -6394,24 +5581,24 @@
         <v>10</v>
       </c>
       <c r="D12" s="38">
-        <v>799.2</v>
+        <v>801.12</v>
       </c>
       <c r="E12" s="38">
-        <v>824.92</v>
+        <v>827.52</v>
       </c>
       <c r="F12" s="36"/>
       <c r="G12" s="36">
         <f t="shared" si="0"/>
-        <v>819.18033733475158</v>
+        <v>823.05433050343515</v>
       </c>
       <c r="H12" s="11">
         <f t="shared" si="1"/>
-        <v>0.70065923260838048</v>
+        <v>0.54257286925800674</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="30">
         <f t="shared" si="2"/>
-        <v>25.719999999999914</v>
+        <v>26.399999999999977</v>
       </c>
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
@@ -6427,24 +5614,24 @@
         <v>11</v>
       </c>
       <c r="D13" s="38">
-        <v>1287.26</v>
+        <v>1304.69</v>
       </c>
       <c r="E13" s="38">
-        <v>1466.74</v>
+        <v>1409.88</v>
       </c>
       <c r="F13" s="36"/>
       <c r="G13" s="36">
         <f t="shared" si="0"/>
-        <v>1319.4420433402556</v>
+        <v>1340.4118664676039</v>
       </c>
       <c r="H13" s="11">
         <f t="shared" si="1"/>
-        <v>11.163654925444821</v>
+        <v>5.1825961311030566</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="30">
         <f t="shared" si="2"/>
-        <v>179.48000000000002</v>
+        <v>105.19000000000005</v>
       </c>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
@@ -6460,24 +5647,24 @@
         <v>12</v>
       </c>
       <c r="D14" s="38">
-        <v>777.37</v>
+        <v>782.5</v>
       </c>
       <c r="E14" s="38">
-        <v>806.05</v>
+        <v>818.06</v>
       </c>
       <c r="F14" s="36"/>
       <c r="G14" s="36">
         <f t="shared" si="0"/>
-        <v>796.80457812051532</v>
+        <v>803.92452269190392</v>
       </c>
       <c r="H14" s="11">
         <f t="shared" si="1"/>
-        <v>1.1603123442504026</v>
+        <v>1.7583090090054876</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="30">
         <f t="shared" si="2"/>
-        <v>28.67999999999995</v>
+        <v>35.559999999999945</v>
       </c>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
@@ -6493,24 +5680,24 @@
         <v>13</v>
       </c>
       <c r="D15" s="38">
-        <v>839.36</v>
+        <v>842.17</v>
       </c>
       <c r="E15" s="38">
-        <v>885.66</v>
+        <v>869.29</v>
       </c>
       <c r="F15" s="36"/>
       <c r="G15" s="36">
         <f t="shared" si="0"/>
-        <v>860.34435428590723</v>
+        <v>865.22826233283149</v>
       </c>
       <c r="H15" s="11">
         <f t="shared" si="1"/>
-        <v>2.9425015213943029</v>
+        <v>0.46944116876361797</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="30">
         <f t="shared" si="2"/>
-        <v>46.299999999999955</v>
+        <v>27.120000000000005</v>
       </c>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
@@ -6526,24 +5713,24 @@
         <v>14</v>
       </c>
       <c r="D16" s="38">
-        <v>824.26</v>
+        <v>824.13</v>
       </c>
       <c r="E16" s="38">
-        <v>870.69</v>
+        <v>842.35</v>
       </c>
       <c r="F16" s="36"/>
       <c r="G16" s="36">
         <f t="shared" si="0"/>
-        <v>844.86684791234029</v>
+        <v>846.69433467869487</v>
       </c>
       <c r="H16" s="11">
         <f t="shared" si="1"/>
-        <v>3.0564759584860823</v>
+        <v>-0.51309362786080559</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="30">
         <f t="shared" si="2"/>
-        <v>46.430000000000064</v>
+        <v>18.220000000000027</v>
       </c>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
@@ -6559,24 +5746,24 @@
         <v>15</v>
       </c>
       <c r="D17" s="38">
-        <v>734.18</v>
+        <v>729.65</v>
       </c>
       <c r="E17" s="38">
-        <v>730.63</v>
+        <v>735.78</v>
       </c>
       <c r="F17" s="36"/>
       <c r="G17" s="36">
         <f t="shared" si="0"/>
-        <v>752.53480989042521</v>
+        <v>749.62751179827171</v>
       </c>
       <c r="H17" s="11">
         <f t="shared" si="1"/>
-        <v>-2.9108035405850163</v>
+        <v>-1.8472523460422496</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="30">
         <f t="shared" si="2"/>
-        <v>-3.5499999999999545</v>
+        <v>6.1299999999999955</v>
       </c>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
@@ -6592,24 +5779,24 @@
         <v>16</v>
       </c>
       <c r="D18" s="38">
-        <v>900.38</v>
+        <v>894.01</v>
       </c>
       <c r="E18" s="38">
-        <v>921.06</v>
+        <v>896.08</v>
       </c>
       <c r="F18" s="36"/>
       <c r="G18" s="36">
         <f t="shared" si="0"/>
-        <v>922.88988004187138</v>
+        <v>918.48761984893156</v>
       </c>
       <c r="H18" s="11">
         <f t="shared" si="1"/>
-        <v>-0.19827718143234918</v>
+        <v>-2.4396213258287558</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="30">
         <f t="shared" si="2"/>
-        <v>20.67999999999995</v>
+        <v>2.07000000000005</v>
       </c>
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
@@ -6625,24 +5812,24 @@
         <v>17</v>
       </c>
       <c r="D19" s="38">
-        <v>804.54</v>
+        <v>796.79</v>
       </c>
       <c r="E19" s="38">
-        <v>852.26</v>
+        <v>836.61</v>
       </c>
       <c r="F19" s="36"/>
       <c r="G19" s="36">
         <f t="shared" si="0"/>
-        <v>824.65383958871496</v>
+        <v>818.60577691460969</v>
       </c>
       <c r="H19" s="11">
         <f t="shared" si="1"/>
-        <v>3.3476058784923879</v>
+        <v>2.1993765000351884</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="30">
         <f t="shared" si="2"/>
-        <v>47.720000000000027</v>
+        <v>39.82000000000005</v>
       </c>
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
@@ -6658,24 +5845,24 @@
         <v>18</v>
       </c>
       <c r="D20" s="38">
-        <v>768.95</v>
+        <v>770.3</v>
       </c>
       <c r="E20" s="38">
-        <v>793.56</v>
+        <v>791.86</v>
       </c>
       <c r="F20" s="36"/>
       <c r="G20" s="36">
         <f t="shared" si="0"/>
-        <v>788.17407456651313</v>
+        <v>791.39049179498215</v>
       </c>
       <c r="H20" s="11">
         <f t="shared" si="1"/>
-        <v>0.68334212038743125</v>
+        <v>5.9326995950237382E-2</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="30">
         <f t="shared" si="2"/>
-        <v>24.6099999999999</v>
+        <v>21.560000000000059</v>
       </c>
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
@@ -6691,24 +5878,24 @@
         <v>19</v>
       </c>
       <c r="D21" s="38">
-        <v>772.13</v>
+        <v>767.15</v>
       </c>
       <c r="E21" s="38">
-        <v>791.93</v>
+        <v>784.54</v>
       </c>
       <c r="F21" s="36"/>
       <c r="G21" s="36">
         <f t="shared" si="0"/>
-        <v>791.43357590876087</v>
+        <v>788.15424611258027</v>
       </c>
       <c r="H21" s="11">
         <f t="shared" si="1"/>
-        <v>6.2724669049973869E-2</v>
+        <v>-0.45857091177353704</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="30">
         <f t="shared" si="2"/>
-        <v>19.799999999999955</v>
+        <v>17.389999999999986</v>
       </c>
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
@@ -6724,24 +5911,24 @@
         <v>20</v>
       </c>
       <c r="D22" s="38">
-        <v>739.5</v>
+        <v>732.89</v>
       </c>
       <c r="E22" s="38">
-        <v>773.07</v>
+        <v>758.73</v>
       </c>
       <c r="F22" s="36"/>
       <c r="G22" s="36">
         <f t="shared" si="0"/>
-        <v>757.98781213594691</v>
+        <v>752.95622164302802</v>
       </c>
       <c r="H22" s="11">
         <f t="shared" si="1"/>
-        <v>1.9897665401179543</v>
+        <v>0.76681461564565012</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="30">
         <f t="shared" si="2"/>
-        <v>33.57000000000005</v>
+        <v>25.840000000000032</v>
       </c>
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
@@ -6757,24 +5944,24 @@
         <v>21</v>
       </c>
       <c r="D23" s="38">
-        <v>794.6</v>
+        <v>785.89</v>
       </c>
       <c r="E23" s="38">
-        <v>818.8</v>
+        <v>815.62</v>
       </c>
       <c r="F23" s="36"/>
       <c r="G23" s="36">
         <f t="shared" si="0"/>
-        <v>814.46533539313521</v>
+        <v>807.40733947391732</v>
       </c>
       <c r="H23" s="11">
         <f t="shared" si="1"/>
-        <v>0.53220983367849861</v>
+        <v>1.0171644626656207</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="30">
         <f t="shared" si="2"/>
-        <v>24.199999999999932</v>
+        <v>29.730000000000018</v>
       </c>
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
@@ -6790,24 +5977,24 @@
         <v>22</v>
       </c>
       <c r="D24" s="38">
-        <v>749.06</v>
+        <v>748.94</v>
       </c>
       <c r="E24" s="38">
-        <v>776.79</v>
+        <v>767.85</v>
       </c>
       <c r="F24" s="36"/>
       <c r="G24" s="36">
         <f t="shared" si="0"/>
-        <v>767.78681617113239</v>
+        <v>769.4456639295521</v>
       </c>
       <c r="H24" s="11">
         <f t="shared" si="1"/>
-        <v>1.1726150591860218</v>
+        <v>-0.20737837697375472</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="30">
         <f t="shared" si="2"/>
-        <v>27.730000000000018</v>
+        <v>18.909999999999968</v>
       </c>
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
@@ -6823,24 +6010,24 @@
         <v>23</v>
       </c>
       <c r="D25" s="38">
-        <v>919.97</v>
+        <v>916.64</v>
       </c>
       <c r="E25" s="38">
-        <v>961.43</v>
+        <v>950.76</v>
       </c>
       <c r="F25" s="36"/>
       <c r="G25" s="36">
         <f t="shared" si="0"/>
-        <v>942.96963831062487</v>
+        <v>941.73721978313961</v>
       </c>
       <c r="H25" s="11">
         <f t="shared" si="1"/>
-        <v>1.9576835710689133</v>
+        <v>0.95809956613355229</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="30">
         <f t="shared" si="2"/>
-        <v>41.459999999999923</v>
+        <v>34.120000000000005</v>
       </c>
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
@@ -6856,24 +6043,24 @@
         <v>24</v>
       </c>
       <c r="D26" s="38">
-        <v>1041.48</v>
+        <v>1031.25</v>
       </c>
       <c r="E26" s="38">
-        <v>1087.3</v>
+        <v>1066.23</v>
       </c>
       <c r="F26" s="36"/>
       <c r="G26" s="36">
         <f t="shared" si="0"/>
-        <v>1067.5174395988452</v>
+        <v>1059.4851936434836</v>
       </c>
       <c r="H26" s="11">
         <f t="shared" si="1"/>
-        <v>1.8531369762529337</v>
+        <v>0.63661166734398922</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="30">
         <f t="shared" si="2"/>
-        <v>45.819999999999936</v>
+        <v>34.980000000000018</v>
       </c>
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
@@ -6889,24 +6076,24 @@
         <v>25</v>
       </c>
       <c r="D27" s="38">
-        <v>822.02</v>
+        <v>818.64</v>
       </c>
       <c r="E27" s="38">
-        <v>840.98</v>
+        <v>843.09</v>
       </c>
       <c r="F27" s="36"/>
       <c r="G27" s="36">
         <f t="shared" si="0"/>
-        <v>842.5708469668574</v>
+        <v>841.05402077508006</v>
       </c>
       <c r="H27" s="11">
         <f t="shared" si="1"/>
-        <v>-0.18880868862057865</v>
+        <v>0.24207472702451049</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="30">
         <f t="shared" si="2"/>
-        <v>18.960000000000036</v>
+        <v>24.450000000000045</v>
       </c>
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
@@ -6922,24 +6109,24 @@
         <v>26</v>
       </c>
       <c r="D28" s="38">
-        <v>894.79</v>
+        <v>886.44</v>
       </c>
       <c r="E28" s="38">
-        <v>959.57</v>
+        <v>955.53</v>
       </c>
       <c r="F28" s="36"/>
       <c r="G28" s="36">
         <f t="shared" si="0"/>
-        <v>917.16012768238534</v>
+        <v>910.71035641534991</v>
       </c>
       <c r="H28" s="11">
         <f t="shared" si="1"/>
-        <v>4.6240423059801028</v>
+        <v>4.9213938623762665</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="30">
         <f t="shared" si="2"/>
-        <v>64.780000000000086</v>
+        <v>69.089999999999918</v>
       </c>
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
@@ -6955,24 +6142,24 @@
         <v>27</v>
       </c>
       <c r="D29" s="38">
-        <v>687.5</v>
+        <v>679.31</v>
       </c>
       <c r="E29" s="38">
-        <v>719.25</v>
+        <v>705.1</v>
       </c>
       <c r="F29" s="36"/>
       <c r="G29" s="36">
         <f t="shared" si="0"/>
-        <v>704.68779018723933</v>
+        <v>697.90922365474398</v>
       </c>
       <c r="H29" s="11">
         <f t="shared" si="1"/>
-        <v>2.0664768164766256</v>
+        <v>1.0303311808375515</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="30">
         <f t="shared" si="2"/>
-        <v>31.75</v>
+        <v>25.790000000000077</v>
       </c>
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
@@ -6988,24 +6175,24 @@
         <v>28</v>
       </c>
       <c r="D30" s="38">
-        <v>743.15</v>
+        <v>738.26</v>
       </c>
       <c r="E30" s="38">
-        <v>775.83</v>
+        <v>779.17</v>
       </c>
       <c r="F30" s="36"/>
       <c r="G30" s="36">
         <f t="shared" si="0"/>
-        <v>761.72906367657731</v>
+        <v>758.47324999683701</v>
       </c>
       <c r="H30" s="11">
         <f t="shared" si="1"/>
-        <v>1.8511747806185586</v>
+        <v>2.7287382914623848</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="30">
         <f t="shared" si="2"/>
-        <v>32.680000000000064</v>
+        <v>40.909999999999968</v>
       </c>
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
@@ -7021,24 +6208,24 @@
         <v>29</v>
       </c>
       <c r="D31" s="38">
-        <v>713.87</v>
+        <v>722.87</v>
       </c>
       <c r="E31" s="38">
-        <v>748.48</v>
+        <v>736.44</v>
       </c>
       <c r="F31" s="36"/>
       <c r="G31" s="36">
         <f t="shared" si="0"/>
-        <v>731.71705131776662</v>
+        <v>742.6618782342448</v>
       </c>
       <c r="H31" s="11">
         <f t="shared" si="1"/>
-        <v>2.2909058429135376</v>
+        <v>-0.83778074741602815</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="30">
         <f t="shared" si="2"/>
-        <v>34.610000000000014</v>
+        <v>13.57000000000005</v>
       </c>
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
@@ -7054,24 +6241,24 @@
         <v>30</v>
       </c>
       <c r="D32" s="38">
-        <v>760.18</v>
+        <v>761.9</v>
       </c>
       <c r="E32" s="38">
-        <v>796.65</v>
+        <v>791.62</v>
       </c>
       <c r="F32" s="36"/>
       <c r="G32" s="36">
         <f t="shared" si="0"/>
-        <v>779.184820864779</v>
+        <v>782.76050330857709</v>
       </c>
       <c r="H32" s="11">
         <f t="shared" si="1"/>
-        <v>2.2414680917214547</v>
+        <v>1.1318272516274819</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="30">
         <f t="shared" si="2"/>
-        <v>36.470000000000027</v>
+        <v>29.720000000000027</v>
       </c>
       <c r="K32" s="9"/>
       <c r="L32" s="9"/>
@@ -7087,24 +6274,24 @@
         <v>31</v>
       </c>
       <c r="D33" s="38">
-        <v>739.7</v>
+        <v>741.26</v>
       </c>
       <c r="E33" s="38">
-        <v>775.43</v>
+        <v>753.75</v>
       </c>
       <c r="F33" s="36"/>
       <c r="G33" s="36">
         <f t="shared" si="0"/>
-        <v>758.19281222036511</v>
+        <v>761.55538874198169</v>
       </c>
       <c r="H33" s="11">
         <f t="shared" si="1"/>
-        <v>2.2734570285829703</v>
+        <v>-1.0249272551108191</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="30">
         <f t="shared" si="2"/>
-        <v>35.729999999999905</v>
+        <v>12.490000000000009</v>
       </c>
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
@@ -7120,24 +6307,24 @@
         <v>32</v>
       </c>
       <c r="D34" s="38">
-        <v>861.8</v>
+        <v>858.22</v>
       </c>
       <c r="E34" s="38">
-        <v>900.72</v>
+        <v>892.11</v>
       </c>
       <c r="F34" s="36"/>
       <c r="G34" s="36">
         <f t="shared" si="0"/>
-        <v>883.34536375761866</v>
+        <v>881.71770461935557</v>
       </c>
       <c r="H34" s="11">
         <f t="shared" si="1"/>
-        <v>1.9669131638923476</v>
+        <v>1.1786420218397264</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="30">
         <f t="shared" si="2"/>
-        <v>38.920000000000073</v>
+        <v>33.889999999999986</v>
       </c>
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
@@ -7153,24 +6340,24 @@
         <v>33</v>
       </c>
       <c r="D35" s="38">
-        <v>934.75</v>
+        <v>940.46</v>
       </c>
       <c r="E35" s="38">
-        <v>990.38</v>
+        <v>977.5</v>
       </c>
       <c r="F35" s="36"/>
       <c r="G35" s="36">
         <f t="shared" si="0"/>
-        <v>958.11914454912289</v>
+        <v>966.2094014195884</v>
       </c>
       <c r="H35" s="11">
         <f t="shared" si="1"/>
-        <v>3.3671026859669606</v>
+        <v>1.1685457172972091</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="30">
         <f t="shared" si="2"/>
-        <v>55.629999999999995</v>
+        <v>37.039999999999964</v>
       </c>
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
@@ -7186,24 +6373,24 @@
         <v>34</v>
       </c>
       <c r="D36" s="38">
-        <v>687.71</v>
+        <v>691.78</v>
       </c>
       <c r="E36" s="38">
-        <v>700.15</v>
+        <v>691.79</v>
       </c>
       <c r="F36" s="36"/>
       <c r="G36" s="36">
         <f t="shared" si="0"/>
-        <v>704.90304027587842</v>
+        <v>710.72064703872877</v>
       </c>
       <c r="H36" s="11">
         <f t="shared" si="1"/>
-        <v>-0.67428284520070214</v>
+        <v>-2.6635847878635266</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="30">
         <f t="shared" si="2"/>
-        <v>12.439999999999941</v>
+        <v>9.9999999999909051E-3</v>
       </c>
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
@@ -7219,24 +6406,24 @@
         <v>35</v>
       </c>
       <c r="D37" s="38">
-        <v>976.95</v>
+        <v>979.07</v>
       </c>
       <c r="E37" s="38">
-        <v>1004.67</v>
+        <v>995.98</v>
       </c>
       <c r="F37" s="36"/>
       <c r="G37" s="36">
         <f t="shared" si="0"/>
-        <v>1001.3741623613433</v>
+        <v>1005.8765270696005</v>
       </c>
       <c r="H37" s="11">
         <f t="shared" si="1"/>
-        <v>0.32913148376874091</v>
+        <v>-0.98387096261524087</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="30">
         <f t="shared" si="2"/>
-        <v>27.719999999999914</v>
+        <v>16.909999999999968</v>
       </c>
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
@@ -7252,24 +6439,24 @@
         <v>36</v>
       </c>
       <c r="D38" s="38">
-        <v>776.72</v>
+        <v>783.48</v>
       </c>
       <c r="E38" s="38">
-        <v>815.63</v>
+        <v>826.29</v>
       </c>
       <c r="F38" s="36"/>
       <c r="G38" s="36">
         <f t="shared" si="0"/>
-        <v>796.13832784615647</v>
+        <v>804.93135468198443</v>
       </c>
       <c r="H38" s="11">
         <f t="shared" si="1"/>
-        <v>2.4482770734798764</v>
+        <v>2.6534741371149639</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="30">
         <f t="shared" si="2"/>
-        <v>38.909999999999968</v>
+        <v>42.809999999999945</v>
       </c>
       <c r="K38" s="9"/>
       <c r="L38" s="9"/>
@@ -7285,24 +6472,24 @@
         <v>37</v>
       </c>
       <c r="D39" s="38">
-        <v>895.13</v>
+        <v>875.69</v>
       </c>
       <c r="E39" s="38">
-        <v>876.03</v>
+        <v>864.45</v>
       </c>
       <c r="F39" s="36"/>
       <c r="G39" s="36">
         <f t="shared" si="0"/>
-        <v>917.50862782589616</v>
+        <v>899.66602591191486</v>
       </c>
       <c r="H39" s="11">
         <f t="shared" si="1"/>
-        <v>-4.5207888588669531</v>
+        <v>-3.9143443119594612</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="30">
         <f t="shared" si="2"/>
-        <v>-19.100000000000023</v>
+        <v>-11.240000000000009</v>
       </c>
       <c r="K39" s="9"/>
       <c r="L39" s="9"/>
@@ -7318,24 +6505,24 @@
         <v>38</v>
       </c>
       <c r="D40" s="38">
-        <v>786.08</v>
+        <v>785.4</v>
       </c>
       <c r="E40" s="38">
-        <v>826.29</v>
+        <v>813.29</v>
       </c>
       <c r="F40" s="36"/>
       <c r="G40" s="36">
         <f t="shared" si="0"/>
-        <v>805.73233179692386</v>
+        <v>806.903923478877</v>
       </c>
       <c r="H40" s="11">
         <f t="shared" si="1"/>
-        <v>2.5514264963438782</v>
+        <v>0.79142960336469059</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="30">
         <f t="shared" si="2"/>
-        <v>40.209999999999923</v>
+        <v>27.889999999999986</v>
       </c>
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
@@ -7351,24 +6538,24 @@
         <v>39</v>
       </c>
       <c r="D41" s="38">
-        <v>756.28</v>
+        <v>759.68</v>
       </c>
       <c r="E41" s="38">
-        <v>797.21</v>
+        <v>800.88</v>
       </c>
       <c r="F41" s="36"/>
       <c r="G41" s="36">
         <f t="shared" si="0"/>
-        <v>775.18731921862604</v>
+        <v>780.47972063716998</v>
       </c>
       <c r="H41" s="11">
         <f t="shared" si="1"/>
-        <v>2.8409495660445483</v>
+        <v>2.6138128670627925</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="30">
         <f t="shared" si="2"/>
-        <v>40.930000000000064</v>
+        <v>41.200000000000045</v>
       </c>
       <c r="K41" s="9"/>
       <c r="L41" s="9"/>
@@ -7384,24 +6571,24 @@
         <v>40</v>
       </c>
       <c r="D42" s="38">
-        <v>811.29</v>
+        <v>820.6</v>
       </c>
       <c r="E42" s="38">
-        <v>871.07</v>
+        <v>866.32</v>
       </c>
       <c r="F42" s="36"/>
       <c r="G42" s="36">
         <f t="shared" si="0"/>
-        <v>831.57259243782607</v>
+        <v>843.06768475524132</v>
       </c>
       <c r="H42" s="11">
         <f t="shared" si="1"/>
-        <v>4.749724548566947</v>
+        <v>2.7580603153481542</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="30">
         <f t="shared" si="2"/>
-        <v>59.780000000000086</v>
+        <v>45.720000000000027</v>
       </c>
       <c r="K42" s="9"/>
       <c r="L42" s="9"/>
@@ -7417,24 +6604,24 @@
         <v>41</v>
       </c>
       <c r="D43" s="38">
-        <v>831.72</v>
+        <v>825.89</v>
       </c>
       <c r="E43" s="38">
-        <v>847.89</v>
+        <v>835.67</v>
       </c>
       <c r="F43" s="36"/>
       <c r="G43" s="36">
         <f t="shared" si="0"/>
-        <v>852.51335106113561</v>
+        <v>848.50252274251307</v>
       </c>
       <c r="H43" s="11">
         <f t="shared" si="1"/>
-        <v>-0.54232007690916406</v>
+        <v>-1.5123729627857907</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="30">
         <f t="shared" si="2"/>
-        <v>16.169999999999959</v>
+        <v>9.7799999999999727</v>
       </c>
       <c r="K43" s="9"/>
       <c r="L43" s="9"/>
@@ -7450,24 +6637,24 @@
         <v>42</v>
       </c>
       <c r="D44" s="38">
-        <v>842.08</v>
+        <v>843.7</v>
       </c>
       <c r="E44" s="38">
-        <v>853.42</v>
+        <v>859.55</v>
       </c>
       <c r="F44" s="36"/>
       <c r="G44" s="36">
         <f t="shared" si="0"/>
-        <v>863.13235543399355</v>
+        <v>866.80015309285534</v>
       </c>
       <c r="H44" s="11">
         <f t="shared" si="1"/>
-        <v>-1.1252452040347971</v>
+        <v>-0.83642729722483988</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="30">
         <f t="shared" si="2"/>
-        <v>11.339999999999918</v>
+        <v>15.849999999999909</v>
       </c>
       <c r="K44" s="9"/>
       <c r="L44" s="9"/>
@@ -7483,24 +6670,24 @@
         <v>43</v>
       </c>
       <c r="D45" s="38">
-        <v>752.33</v>
+        <v>749.58</v>
       </c>
       <c r="E45" s="38">
-        <v>795.92</v>
+        <v>783.07</v>
       </c>
       <c r="F45" s="36"/>
       <c r="G45" s="36">
         <f t="shared" si="0"/>
-        <v>771.13856755136851</v>
+        <v>770.10318686184962</v>
       </c>
       <c r="H45" s="11">
         <f t="shared" si="1"/>
-        <v>3.2136160077327114</v>
+        <v>1.6837760652556044</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="30">
         <f t="shared" si="2"/>
-        <v>43.589999999999918</v>
+        <v>33.490000000000009</v>
       </c>
       <c r="K45" s="9"/>
       <c r="L45" s="9"/>
@@ -7516,24 +6703,24 @@
         <v>44</v>
       </c>
       <c r="D46" s="38">
-        <v>717.02</v>
+        <v>707.41</v>
       </c>
       <c r="E46" s="38">
-        <v>741.4</v>
+        <v>735.38</v>
       </c>
       <c r="F46" s="36"/>
       <c r="G46" s="36">
         <f t="shared" si="0"/>
-        <v>734.9458026473518</v>
+        <v>726.7785899009325</v>
       </c>
       <c r="H46" s="11">
         <f t="shared" si="1"/>
-        <v>0.87818684444478379</v>
+        <v>1.1834980031869113</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="30">
         <f t="shared" si="2"/>
-        <v>24.379999999999995</v>
+        <v>27.970000000000027</v>
       </c>
       <c r="K46" s="9"/>
       <c r="L46" s="9"/>
@@ -7549,24 +6736,24 @@
         <v>45</v>
       </c>
       <c r="D47" s="38">
-        <v>753.25</v>
+        <v>748.68</v>
       </c>
       <c r="E47" s="38">
-        <v>813.38</v>
+        <v>800.39</v>
       </c>
       <c r="F47" s="36"/>
       <c r="G47" s="36">
         <f t="shared" si="0"/>
-        <v>772.08156793969169</v>
+        <v>769.17854523830613</v>
       </c>
       <c r="H47" s="11">
         <f t="shared" si="1"/>
-        <v>5.3489726701433371</v>
+        <v>4.0577646054888339</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="30">
         <f t="shared" si="2"/>
-        <v>60.129999999999995</v>
+        <v>51.710000000000036</v>
       </c>
       <c r="K47" s="9"/>
       <c r="L47" s="9"/>
@@ -7582,24 +6769,24 @@
         <v>46</v>
       </c>
       <c r="D48" s="38">
-        <v>877.15</v>
+        <v>871.79</v>
       </c>
       <c r="E48" s="38">
-        <v>906.12</v>
+        <v>891.02</v>
       </c>
       <c r="F48" s="36"/>
       <c r="G48" s="36">
         <f t="shared" si="0"/>
-        <v>899.07912023670838</v>
+        <v>895.65924554322669</v>
       </c>
       <c r="H48" s="11">
         <f t="shared" si="1"/>
-        <v>0.78312126316957276</v>
+        <v>-0.51796992732575653</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="30">
         <f t="shared" si="2"/>
-        <v>28.970000000000027</v>
+        <v>19.230000000000018</v>
       </c>
       <c r="K48" s="9"/>
       <c r="L48" s="9"/>
@@ -7615,24 +6802,24 @@
         <v>47</v>
       </c>
       <c r="D49" s="38">
-        <v>831.3</v>
+        <v>829.01</v>
       </c>
       <c r="E49" s="38">
-        <v>870.13</v>
+        <v>852.61</v>
       </c>
       <c r="F49" s="36"/>
       <c r="G49" s="36">
         <f t="shared" si="0"/>
-        <v>852.08285088385753</v>
+        <v>851.70794703746355</v>
       </c>
       <c r="H49" s="11">
         <f t="shared" si="1"/>
-        <v>2.1180040294699332</v>
+        <v>0.10591106560342567</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="30">
         <f t="shared" si="2"/>
-        <v>38.830000000000041</v>
+        <v>23.600000000000023</v>
       </c>
       <c r="K49" s="9"/>
       <c r="L49" s="9"/>
@@ -7648,24 +6835,24 @@
         <v>48</v>
       </c>
       <c r="D50" s="38">
-        <v>813.12</v>
+        <v>802.76</v>
       </c>
       <c r="E50" s="38">
-        <v>806.86</v>
+        <v>793.55</v>
       </c>
       <c r="F50" s="36"/>
       <c r="G50" s="36">
         <f t="shared" si="0"/>
-        <v>833.44834321025178</v>
+        <v>824.73923301744765</v>
       </c>
       <c r="H50" s="11">
         <f t="shared" si="1"/>
-        <v>-3.1901609052145452</v>
+        <v>-3.7817084199252449</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="30">
         <f t="shared" si="2"/>
-        <v>-6.2599999999999909</v>
+        <v>-9.2100000000000364</v>
       </c>
       <c r="K50" s="9"/>
       <c r="L50" s="9"/>
@@ -7681,24 +6868,24 @@
         <v>49</v>
       </c>
       <c r="D51" s="38">
-        <v>924.41</v>
+        <v>924.06</v>
       </c>
       <c r="E51" s="38">
-        <v>972.61</v>
+        <v>946</v>
       </c>
       <c r="F51" s="36"/>
       <c r="G51" s="36">
         <f t="shared" si="0"/>
-        <v>947.52064018470685</v>
+        <v>949.36037627946405</v>
       </c>
       <c r="H51" s="11">
         <f t="shared" si="1"/>
-        <v>2.6478958611817038</v>
+        <v>-0.35396213739542493</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="30">
         <f t="shared" si="2"/>
-        <v>48.200000000000045</v>
+        <v>21.940000000000055</v>
       </c>
       <c r="K51" s="9"/>
       <c r="L51" s="9"/>
@@ -7714,24 +6901,24 @@
         <v>50</v>
       </c>
       <c r="D52" s="38">
-        <v>1032.92</v>
+        <v>1036.94</v>
       </c>
       <c r="E52" s="38">
-        <v>1092.3699999999999</v>
+        <v>1063.92</v>
       </c>
       <c r="F52" s="36"/>
       <c r="G52" s="36">
         <f t="shared" si="0"/>
-        <v>1058.7434359857502</v>
+        <v>1065.3309834634413</v>
       </c>
       <c r="H52" s="11">
         <f t="shared" si="1"/>
-        <v>3.17608240781595</v>
+        <v>-0.13244554841106426</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="30">
         <f t="shared" si="2"/>
-        <v>59.449999999999818</v>
+        <v>26.980000000000018</v>
       </c>
       <c r="K52" s="9"/>
       <c r="L52" s="9"/>
@@ -7747,24 +6934,24 @@
         <v>51</v>
       </c>
       <c r="D53" s="38">
-        <v>720.94</v>
+        <v>724.07</v>
       </c>
       <c r="E53" s="38">
-        <v>750.46</v>
+        <v>753.28</v>
       </c>
       <c r="F53" s="36"/>
       <c r="G53" s="36">
         <f t="shared" si="0"/>
-        <v>738.96380430194677</v>
+        <v>743.89473373230271</v>
       </c>
       <c r="H53" s="11">
         <f t="shared" si="1"/>
-        <v>1.5557183763436067</v>
+        <v>1.2616390252703003</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="30">
         <f t="shared" si="2"/>
-        <v>29.519999999999982</v>
+        <v>29.209999999999923</v>
       </c>
       <c r="K53" s="9"/>
       <c r="L53" s="9"/>
@@ -7780,24 +6967,24 @@
         <v>52</v>
       </c>
       <c r="D54" s="38">
-        <v>793.74</v>
+        <v>791.42</v>
       </c>
       <c r="E54" s="38">
-        <v>817.74</v>
+        <v>809.86</v>
       </c>
       <c r="F54" s="36"/>
       <c r="G54" s="36">
         <f t="shared" si="0"/>
-        <v>813.58383503013727</v>
+        <v>813.0887485608007</v>
       </c>
       <c r="H54" s="11">
         <f t="shared" si="1"/>
-        <v>0.51084655212068064</v>
+        <v>-0.39709669658025692</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="30">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>18.440000000000055</v>
       </c>
       <c r="K54" s="9"/>
       <c r="L54" s="9"/>
@@ -7813,29 +7000,29 @@
         <v>53</v>
       </c>
       <c r="D55" s="38">
-        <v>774.82</v>
+        <v>777.2</v>
       </c>
       <c r="E55" s="38">
-        <v>784.9</v>
+        <v>783.81</v>
       </c>
       <c r="F55" s="36"/>
       <c r="G55" s="36">
         <f t="shared" si="0"/>
-        <v>794.19082704418452</v>
+        <v>798.479410908815</v>
       </c>
       <c r="H55" s="11">
         <f t="shared" si="1"/>
-        <v>-1.1698481936341487</v>
+        <v>-1.8371683362653712</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="30">
         <f t="shared" si="2"/>
-        <v>10.079999999999927</v>
+        <v>6.6099999999999</v>
       </c>
       <c r="K55" s="9"/>
       <c r="L55" s="9">
         <f>COUNTIF(J5:J55,"&lt;0")</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
@@ -7852,17 +7039,17 @@
         <v>54</v>
       </c>
       <c r="D57" s="33" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="E57" s="34" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c r="H57" s="11"/>
       <c r="I57" s="8"/>
-      <c r="J57" s="50" t="s">
-        <v>198</v>
+      <c r="J57" s="44" t="s">
+        <v>194</v>
       </c>
       <c r="K57" s="8"/>
       <c r="L57" s="8"/>
@@ -7875,24 +7062,24 @@
         <v>167</v>
       </c>
       <c r="D58" s="9">
-        <v>877.8</v>
+        <v>875.61</v>
       </c>
       <c r="E58" s="9">
-        <v>895.43</v>
+        <v>897.5</v>
       </c>
       <c r="F58" s="9"/>
       <c r="G58" s="11">
         <f>D58/$G$61</f>
-        <v>899.74537051106722</v>
+        <v>899.58383554537761</v>
       </c>
       <c r="H58" s="11">
         <f>((E58/G58)-1)*100</f>
-        <v>-0.47962130759462429</v>
+        <v>-0.23164439633514</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="11">
         <f>((E58/D58)-1)*100</f>
-        <v>2.0084301663249038</v>
+        <v>2.4999714484759128</v>
       </c>
       <c r="K58" s="9"/>
       <c r="L58" s="9"/>
@@ -7928,15 +7115,15 @@
         <v>56</v>
       </c>
       <c r="D61" s="11">
-        <v>236.916</v>
+        <v>237.11099999999999</v>
       </c>
       <c r="E61" s="11">
-        <v>242.839</v>
+        <v>243.60300000000001</v>
       </c>
       <c r="F61" s="9"/>
       <c r="G61" s="9">
         <f>D61/E61</f>
-        <v>0.97560935434588347</v>
+        <v>0.97335008189554306</v>
       </c>
       <c r="H61" s="9"/>
       <c r="I61" s="9"/>
@@ -7985,7 +7172,6 @@
     <oddFooter>&amp;LSource: Bureau of Labor Statistics&amp;RGenerated on: March 27, 2015 (04:23:58 PM)</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -7994,10 +7180,10 @@
   <dimension ref="A1:Y55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N5" sqref="N5:N55"/>
+      <selection pane="bottomRight" activeCell="O5" sqref="O5:O55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8008,45 +7194,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="42" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
     </row>
     <row r="4" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="40" t="s">
@@ -8089,40 +7275,40 @@
         <v>169</v>
       </c>
       <c r="N4" s="33" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="O4" s="33" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="P4" s="33" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="Q4" s="33" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="R4" s="33" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="S4" s="33" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="T4" s="33" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="U4" s="33" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="V4" s="33" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="W4" s="33" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="X4" s="33" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="Y4" s="33" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -8166,7 +7352,10 @@
         <v>783.13</v>
       </c>
       <c r="N5" s="38">
-        <v>789.66</v>
+        <v>795.44</v>
+      </c>
+      <c r="O5" s="38">
+        <v>791.43</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -8210,7 +7399,10 @@
         <v>976.29</v>
       </c>
       <c r="N6" s="38">
-        <v>987.28</v>
+        <v>975.07</v>
+      </c>
+      <c r="O6" s="38">
+        <v>961.87</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
@@ -8254,7 +7446,10 @@
         <v>827.66</v>
       </c>
       <c r="N7" s="38">
-        <v>853.64</v>
+        <v>857.44</v>
+      </c>
+      <c r="O7" s="38">
+        <v>850.37</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -8298,7 +7493,10 @@
         <v>697.94</v>
       </c>
       <c r="N8" s="38">
-        <v>702.77</v>
+        <v>703.11</v>
+      </c>
+      <c r="O8" s="38">
+        <v>703.14</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -8342,7 +7540,10 @@
         <v>1004.45</v>
       </c>
       <c r="N9" s="38">
-        <v>1023.74</v>
+        <v>1028.79</v>
+      </c>
+      <c r="O9" s="38">
+        <v>1011.84</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
@@ -8386,7 +7587,10 @@
         <v>891.38</v>
       </c>
       <c r="N10" s="38">
-        <v>902.46</v>
+        <v>904.2</v>
+      </c>
+      <c r="O10" s="38">
+        <v>889.44</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
@@ -8430,7 +7634,10 @@
         <v>1033.24</v>
       </c>
       <c r="N11" s="38">
-        <v>1049.76</v>
+        <v>1056.83</v>
+      </c>
+      <c r="O11" s="38">
+        <v>1032.9000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
@@ -8474,7 +7681,10 @@
         <v>816.19</v>
       </c>
       <c r="N12" s="38">
-        <v>824.92</v>
+        <v>833.02</v>
+      </c>
+      <c r="O12" s="38">
+        <v>827.52</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
@@ -8518,7 +7728,10 @@
         <v>1412.46</v>
       </c>
       <c r="N13" s="38">
-        <v>1466.74</v>
+        <v>1480.46</v>
+      </c>
+      <c r="O13" s="38">
+        <v>1409.88</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
@@ -8562,7 +7775,10 @@
         <v>811.91</v>
       </c>
       <c r="N14" s="38">
-        <v>806.05</v>
+        <v>822.16</v>
+      </c>
+      <c r="O14" s="38">
+        <v>818.06</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
@@ -8606,7 +7822,10 @@
         <v>862.38</v>
       </c>
       <c r="N15" s="38">
-        <v>885.66</v>
+        <v>885.89</v>
+      </c>
+      <c r="O15" s="38">
+        <v>869.29</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
@@ -8650,10 +7869,13 @@
         <v>829.76</v>
       </c>
       <c r="N16" s="38">
-        <v>870.69</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+        <v>870.13</v>
+      </c>
+      <c r="O16" s="38">
+        <v>842.35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="39" t="s">
         <v>15</v>
       </c>
@@ -8694,10 +7916,13 @@
         <v>724.81</v>
       </c>
       <c r="N17" s="38">
-        <v>730.63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+        <v>740.34</v>
+      </c>
+      <c r="O17" s="38">
+        <v>735.78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="39" t="s">
         <v>16</v>
       </c>
@@ -8738,10 +7963,13 @@
         <v>906.1</v>
       </c>
       <c r="N18" s="38">
-        <v>921.06</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+        <v>914.62</v>
+      </c>
+      <c r="O18" s="38">
+        <v>896.08</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="39" t="s">
         <v>17</v>
       </c>
@@ -8782,10 +8010,13 @@
         <v>837.66</v>
       </c>
       <c r="N19" s="38">
-        <v>852.26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+        <v>845.99</v>
+      </c>
+      <c r="O19" s="38">
+        <v>836.61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="39" t="s">
         <v>18</v>
       </c>
@@ -8826,10 +8057,13 @@
         <v>797.89</v>
       </c>
       <c r="N20" s="38">
-        <v>793.56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+        <v>795.21</v>
+      </c>
+      <c r="O20" s="38">
+        <v>791.86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="39" t="s">
         <v>19</v>
       </c>
@@ -8870,10 +8104,13 @@
         <v>779.09</v>
       </c>
       <c r="N21" s="38">
-        <v>791.93</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+        <v>785.23</v>
+      </c>
+      <c r="O21" s="38">
+        <v>784.54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="39" t="s">
         <v>20</v>
       </c>
@@ -8914,10 +8151,13 @@
         <v>763.58</v>
       </c>
       <c r="N22" s="38">
-        <v>773.07</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+        <v>773.78</v>
+      </c>
+      <c r="O22" s="38">
+        <v>758.73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="39" t="s">
         <v>21</v>
       </c>
@@ -8958,10 +8198,13 @@
         <v>803.62</v>
       </c>
       <c r="N23" s="38">
-        <v>818.8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+        <v>817.39</v>
+      </c>
+      <c r="O23" s="38">
+        <v>815.62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="39" t="s">
         <v>22</v>
       </c>
@@ -9004,8 +8247,11 @@
       <c r="N24" s="38">
         <v>776.79</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O24" s="38">
+        <v>767.85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="39" t="s">
         <v>23</v>
       </c>
@@ -9046,10 +8292,13 @@
         <v>942.22</v>
       </c>
       <c r="N25" s="38">
-        <v>961.43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+        <v>971.11</v>
+      </c>
+      <c r="O25" s="38">
+        <v>950.76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="39" t="s">
         <v>24</v>
       </c>
@@ -9090,10 +8339,13 @@
         <v>1065.6400000000001</v>
       </c>
       <c r="N26" s="38">
-        <v>1087.3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1084.27</v>
+      </c>
+      <c r="O26" s="38">
+        <v>1066.23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="39" t="s">
         <v>25</v>
       </c>
@@ -9134,10 +8386,13 @@
         <v>840.08</v>
       </c>
       <c r="N27" s="38">
-        <v>840.98</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+        <v>851.06</v>
+      </c>
+      <c r="O27" s="38">
+        <v>843.09</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="39" t="s">
         <v>26</v>
       </c>
@@ -9178,10 +8433,13 @@
         <v>944.12</v>
       </c>
       <c r="N28" s="38">
-        <v>959.57</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+        <v>958.8</v>
+      </c>
+      <c r="O28" s="38">
+        <v>955.53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="39" t="s">
         <v>27</v>
       </c>
@@ -9222,10 +8480,13 @@
         <v>700.79</v>
       </c>
       <c r="N29" s="38">
-        <v>719.25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+        <v>711.61</v>
+      </c>
+      <c r="O29" s="38">
+        <v>705.1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="39" t="s">
         <v>28</v>
       </c>
@@ -9266,10 +8527,13 @@
         <v>766.92</v>
       </c>
       <c r="N30" s="38">
-        <v>775.83</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+        <v>792.08</v>
+      </c>
+      <c r="O30" s="38">
+        <v>779.17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="39" t="s">
         <v>29</v>
       </c>
@@ -9310,10 +8574,13 @@
         <v>735.8</v>
       </c>
       <c r="N31" s="38">
-        <v>748.48</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+        <v>751.43</v>
+      </c>
+      <c r="O31" s="38">
+        <v>736.44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="39" t="s">
         <v>30</v>
       </c>
@@ -9354,10 +8621,13 @@
         <v>768.83</v>
       </c>
       <c r="N32" s="38">
-        <v>796.65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+        <v>807.84</v>
+      </c>
+      <c r="O32" s="38">
+        <v>791.62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="39" t="s">
         <v>31</v>
       </c>
@@ -9398,10 +8668,13 @@
         <v>757.02</v>
       </c>
       <c r="N33" s="38">
-        <v>775.43</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+        <v>774.07</v>
+      </c>
+      <c r="O33" s="38">
+        <v>753.75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="39" t="s">
         <v>32</v>
       </c>
@@ -9442,10 +8715,13 @@
         <v>894.44</v>
       </c>
       <c r="N34" s="38">
-        <v>900.72</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+        <v>905.13</v>
+      </c>
+      <c r="O34" s="38">
+        <v>892.11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="39" t="s">
         <v>33</v>
       </c>
@@ -9486,10 +8762,13 @@
         <v>986.52</v>
       </c>
       <c r="N35" s="38">
-        <v>990.38</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1003.45</v>
+      </c>
+      <c r="O35" s="38">
+        <v>977.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="39" t="s">
         <v>34</v>
       </c>
@@ -9530,10 +8809,13 @@
         <v>694.54</v>
       </c>
       <c r="N36" s="38">
-        <v>700.15</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+        <v>703.17</v>
+      </c>
+      <c r="O36" s="38">
+        <v>691.79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="39" t="s">
         <v>35</v>
       </c>
@@ -9574,10 +8856,13 @@
         <v>980.88</v>
       </c>
       <c r="N37" s="38">
-        <v>1004.67</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1011.03</v>
+      </c>
+      <c r="O37" s="38">
+        <v>995.98</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="39" t="s">
         <v>36</v>
       </c>
@@ -9618,10 +8903,13 @@
         <v>812.87</v>
       </c>
       <c r="N38" s="38">
-        <v>815.63</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+        <v>818.38</v>
+      </c>
+      <c r="O38" s="38">
+        <v>826.29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="39" t="s">
         <v>37</v>
       </c>
@@ -9662,10 +8950,13 @@
         <v>872.25</v>
       </c>
       <c r="N39" s="38">
-        <v>876.03</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+        <v>882.2</v>
+      </c>
+      <c r="O39" s="38">
+        <v>864.45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="39" t="s">
         <v>38</v>
       </c>
@@ -9706,10 +8997,13 @@
         <v>820.44</v>
       </c>
       <c r="N40" s="38">
-        <v>826.29</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+        <v>825.94</v>
+      </c>
+      <c r="O40" s="38">
+        <v>813.29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="39" t="s">
         <v>39</v>
       </c>
@@ -9750,10 +9044,13 @@
         <v>781.55</v>
       </c>
       <c r="N41" s="38">
-        <v>797.21</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+        <v>798.13</v>
+      </c>
+      <c r="O41" s="38">
+        <v>800.88</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="39" t="s">
         <v>40</v>
       </c>
@@ -9794,10 +9091,13 @@
         <v>850.48</v>
       </c>
       <c r="N42" s="38">
-        <v>871.07</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+        <v>871.34</v>
+      </c>
+      <c r="O42" s="38">
+        <v>866.32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="39" t="s">
         <v>41</v>
       </c>
@@ -9838,10 +9138,13 @@
         <v>845</v>
       </c>
       <c r="N43" s="38">
-        <v>847.89</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+        <v>848.57</v>
+      </c>
+      <c r="O43" s="38">
+        <v>835.67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="39" t="s">
         <v>42</v>
       </c>
@@ -9882,10 +9185,13 @@
         <v>858.05</v>
       </c>
       <c r="N44" s="38">
-        <v>853.42</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+        <v>876.29</v>
+      </c>
+      <c r="O44" s="38">
+        <v>859.55</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="39" t="s">
         <v>43</v>
       </c>
@@ -9926,10 +9232,13 @@
         <v>774.87</v>
       </c>
       <c r="N45" s="38">
-        <v>795.92</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+        <v>794.3</v>
+      </c>
+      <c r="O45" s="38">
+        <v>783.07</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="39" t="s">
         <v>44</v>
       </c>
@@ -9970,10 +9279,13 @@
         <v>726.55</v>
       </c>
       <c r="N46" s="38">
-        <v>741.4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+        <v>745.78</v>
+      </c>
+      <c r="O46" s="38">
+        <v>735.38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="39" t="s">
         <v>45</v>
       </c>
@@ -10014,10 +9326,13 @@
         <v>806.7</v>
       </c>
       <c r="N47" s="38">
-        <v>813.38</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+        <v>814.67</v>
+      </c>
+      <c r="O47" s="38">
+        <v>800.39</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="39" t="s">
         <v>46</v>
       </c>
@@ -10058,10 +9373,13 @@
         <v>887.5</v>
       </c>
       <c r="N48" s="38">
-        <v>906.12</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+        <v>912.6</v>
+      </c>
+      <c r="O48" s="38">
+        <v>891.02</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="39" t="s">
         <v>47</v>
       </c>
@@ -10102,10 +9420,13 @@
         <v>848.08</v>
       </c>
       <c r="N49" s="38">
-        <v>870.13</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+        <v>872.96</v>
+      </c>
+      <c r="O49" s="38">
+        <v>852.61</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="39" t="s">
         <v>48</v>
       </c>
@@ -10146,10 +9467,13 @@
         <v>802.46</v>
       </c>
       <c r="N50" s="38">
-        <v>806.86</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+        <v>815.63</v>
+      </c>
+      <c r="O50" s="38">
+        <v>793.55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="39" t="s">
         <v>49</v>
       </c>
@@ -10190,10 +9514,13 @@
         <v>949.69</v>
       </c>
       <c r="N51" s="38">
-        <v>972.61</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+        <v>970.56</v>
+      </c>
+      <c r="O51" s="38">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="39" t="s">
         <v>50</v>
       </c>
@@ -10234,10 +9561,13 @@
         <v>1053.33</v>
       </c>
       <c r="N52" s="38">
-        <v>1092.3699999999999</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1094.46</v>
+      </c>
+      <c r="O52" s="38">
+        <v>1063.92</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="39" t="s">
         <v>51</v>
       </c>
@@ -10278,10 +9608,13 @@
         <v>740.61</v>
       </c>
       <c r="N53" s="38">
-        <v>750.46</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+        <v>755.04</v>
+      </c>
+      <c r="O53" s="38">
+        <v>753.28</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="39" t="s">
         <v>52</v>
       </c>
@@ -10322,10 +9655,13 @@
         <v>818.41</v>
       </c>
       <c r="N54" s="38">
-        <v>817.74</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+        <v>829.25</v>
+      </c>
+      <c r="O54" s="38">
+        <v>809.86</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="39" t="s">
         <v>53</v>
       </c>
@@ -10366,7 +9702,10 @@
         <v>770.25</v>
       </c>
       <c r="N55" s="38">
-        <v>784.9</v>
+        <v>795.31</v>
+      </c>
+      <c r="O55" s="38">
+        <v>783.81</v>
       </c>
     </row>
   </sheetData>
@@ -10378,7 +9717,7 @@
   <pageSetup orientation="landscape"/>
   <headerFooter>
     <oddHeader>&amp;CBureau of Labor Statistics</oddHeader>
-    <oddFooter>&amp;LSource: Bureau of Labor Statistics&amp;RGenerated on: March 13, 2017 (11:23:41 AM)</oddFooter>
+    <oddFooter>&amp;LSource: Bureau of Labor Statistics&amp;RGenerated on: March 24, 2017 (11:38:00 AM)</oddFooter>
   </headerFooter>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -10388,8 +9727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10409,20 +9748,20 @@
       </c>
       <c r="C1" s="24">
         <f>+Earnings_Comparison!E58</f>
-        <v>895.43</v>
+        <v>897.5</v>
       </c>
       <c r="D1" s="23">
         <f>+Earnings_Comparison!H58</f>
-        <v>-0.47962130759462429</v>
+        <v>-0.23164439633514</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="50" t="s">
         <v>180</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
@@ -10448,882 +9787,878 @@
       </c>
       <c r="C4" s="26">
         <f>+Earnings_Comparison!E13</f>
-        <v>1466.74</v>
+        <v>1409.88</v>
       </c>
       <c r="D4" s="25">
         <f>+Earnings_Comparison!H13</f>
-        <v>11.163654925444821</v>
+        <v>5.1825961311030566</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
+        <f>+Earnings_Comparison!B28</f>
+        <v>MN</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="26">
+        <f>+Earnings_Comparison!E28</f>
+        <v>955.53</v>
+      </c>
+      <c r="D5" s="25">
+        <f>+Earnings_Comparison!H28</f>
+        <v>4.9213938623762665</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
         <f>+Earnings_Comparison!B47</f>
         <v>TN</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B6" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C6" s="26">
         <f>+Earnings_Comparison!E47</f>
-        <v>813.38</v>
-      </c>
-      <c r="D5" s="25">
+        <v>800.39</v>
+      </c>
+      <c r="D6" s="25">
         <f>+Earnings_Comparison!H47</f>
-        <v>5.3489726701433371</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="str">
+        <v>4.0577646054888339</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
         <f>+Earnings_Comparison!B42</f>
         <v>OR</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B7" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C7" s="26">
         <f>+Earnings_Comparison!E42</f>
-        <v>871.07</v>
-      </c>
-      <c r="D6" s="25">
+        <v>866.32</v>
+      </c>
+      <c r="D7" s="25">
         <f>+Earnings_Comparison!H42</f>
-        <v>4.749724548566947</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="str">
-        <f>+Earnings_Comparison!B28</f>
-        <v>MN</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="C7" s="26">
-        <f>+Earnings_Comparison!E28</f>
-        <v>959.57</v>
-      </c>
-      <c r="D7" s="25">
-        <f>+Earnings_Comparison!H28</f>
-        <v>4.6240423059801028</v>
-      </c>
-      <c r="K7" s="20"/>
+        <v>2.7580603153481542</v>
+      </c>
+      <c r="K7" s="20" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
+        <f>+Earnings_Comparison!B30</f>
+        <v>MO</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="C8" s="26">
+        <f>+Earnings_Comparison!E30</f>
+        <v>779.17</v>
+      </c>
+      <c r="D8" s="25">
+        <f>+Earnings_Comparison!H30</f>
+        <v>2.7287382914623848</v>
+      </c>
+      <c r="K8" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="L8" s="20"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="str">
+        <f>+Earnings_Comparison!B38</f>
+        <v>NC</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9" s="26">
+        <f>+Earnings_Comparison!E38</f>
+        <v>826.29</v>
+      </c>
+      <c r="D9" s="25">
+        <f>+Earnings_Comparison!H38</f>
+        <v>2.6534741371149639</v>
+      </c>
+      <c r="K9" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="L9" s="20"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
+        <f>+Earnings_Comparison!B41</f>
+        <v>OK</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="C10" s="26">
+        <f>+Earnings_Comparison!E41</f>
+        <v>800.88</v>
+      </c>
+      <c r="D10" s="25">
+        <f>+Earnings_Comparison!H41</f>
+        <v>2.6138128670627925</v>
+      </c>
+      <c r="K10" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="L10" s="20"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
+        <f>+Earnings_Comparison!B19</f>
+        <v>IN</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" s="26">
+        <f>+Earnings_Comparison!E19</f>
+        <v>836.61</v>
+      </c>
+      <c r="D11" s="25">
+        <f>+Earnings_Comparison!H19</f>
+        <v>2.1993765000351884</v>
+      </c>
+      <c r="K11" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="L11" s="20"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
         <f>+Earnings_Comparison!B7</f>
         <v>AZ</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B12" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="C8" s="26">
+      <c r="C12" s="26">
         <f>+Earnings_Comparison!E7</f>
-        <v>853.64</v>
-      </c>
-      <c r="D8" s="25">
+        <v>850.37</v>
+      </c>
+      <c r="D12" s="25">
         <f>+Earnings_Comparison!H7</f>
-        <v>3.7057217697083589</v>
-      </c>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" t="str">
+        <v>2.1180582255672764</v>
+      </c>
+      <c r="K12" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="L12" s="20"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
+        <f>+Earnings_Comparison!B14</f>
+        <v>FL</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" s="26">
+        <f>+Earnings_Comparison!E14</f>
+        <v>818.06</v>
+      </c>
+      <c r="D13" s="25">
+        <f>+Earnings_Comparison!H14</f>
+        <v>1.7583090090054876</v>
+      </c>
+      <c r="L13" s="20"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="str">
+        <f>+Earnings_Comparison!B45</f>
+        <v>SC</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="C14" s="26">
+        <f>+Earnings_Comparison!E45</f>
+        <v>783.07</v>
+      </c>
+      <c r="D14" s="25">
+        <f>+Earnings_Comparison!H45</f>
+        <v>1.6837760652556044</v>
+      </c>
+      <c r="F14" s="26">
+        <f>C$1-C14</f>
+        <v>114.42999999999995</v>
+      </c>
+      <c r="L14" s="20"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="str">
+        <f>+Earnings_Comparison!B8</f>
+        <v>AR</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" s="26">
+        <f>+Earnings_Comparison!E8</f>
+        <v>703.14</v>
+      </c>
+      <c r="D15" s="25">
+        <f>+Earnings_Comparison!H8</f>
+        <v>1.553778075472545</v>
+      </c>
+      <c r="F15" s="26">
+        <f t="shared" ref="F15:F21" si="0">C$1-C15</f>
+        <v>194.36</v>
+      </c>
+      <c r="L15" s="20"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="str">
+        <f>+Earnings_Comparison!B53</f>
+        <v>WV</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="C16" s="26">
+        <f>+Earnings_Comparison!E53</f>
+        <v>753.28</v>
+      </c>
+      <c r="D16" s="25">
+        <f>+Earnings_Comparison!H53</f>
+        <v>1.2616390252703003</v>
+      </c>
+      <c r="F16" s="26">
+        <f t="shared" si="0"/>
+        <v>144.22000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="str">
+        <f>+Earnings_Comparison!B46</f>
+        <v>SD</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="C17" s="26">
+        <f>+Earnings_Comparison!E46</f>
+        <v>735.38</v>
+      </c>
+      <c r="D17" s="25">
+        <f>+Earnings_Comparison!H46</f>
+        <v>1.1834980031869113</v>
+      </c>
+      <c r="F17" s="26">
+        <f t="shared" si="0"/>
+        <v>162.12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="str">
+        <f>+Earnings_Comparison!B34</f>
+        <v>NH</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="C18" s="26">
+        <f>+Earnings_Comparison!E34</f>
+        <v>892.11</v>
+      </c>
+      <c r="D18" s="25">
+        <f>+Earnings_Comparison!H34</f>
+        <v>1.1786420218397264</v>
+      </c>
+      <c r="F18" s="26">
+        <f t="shared" si="0"/>
+        <v>5.3899999999999864</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="str">
         <f>+Earnings_Comparison!B35</f>
         <v>NJ</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B19" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C19" s="26">
         <f>+Earnings_Comparison!E35</f>
-        <v>990.38</v>
-      </c>
-      <c r="D9" s="25">
+        <v>977.5</v>
+      </c>
+      <c r="D19" s="25">
         <f>+Earnings_Comparison!H35</f>
-        <v>3.3671026859669606</v>
-      </c>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" t="str">
-        <f>+Earnings_Comparison!B19</f>
-        <v>IN</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="C10" s="26">
-        <f>+Earnings_Comparison!E19</f>
-        <v>852.26</v>
-      </c>
-      <c r="D10" s="25">
-        <f>+Earnings_Comparison!H19</f>
-        <v>3.3476058784923879</v>
-      </c>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20" t="s">
+        <v>1.1685457172972091</v>
+      </c>
+      <c r="F19" s="26">
+        <f t="shared" si="0"/>
+        <v>-80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="str">
+        <f>+Earnings_Comparison!B32</f>
+        <v>NE</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="C20" s="26">
+        <f>+Earnings_Comparison!E32</f>
+        <v>791.62</v>
+      </c>
+      <c r="D20" s="25">
+        <f>+Earnings_Comparison!H32</f>
+        <v>1.1318272516274819</v>
+      </c>
+      <c r="F20" s="26">
+        <f t="shared" si="0"/>
+        <v>105.88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="str">
+        <f>+Earnings_Comparison!B29</f>
+        <v>MS</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C21" s="26">
+        <f>+Earnings_Comparison!E29</f>
+        <v>705.1</v>
+      </c>
+      <c r="D21" s="25">
+        <f>+Earnings_Comparison!H29</f>
+        <v>1.0303311808375515</v>
+      </c>
+      <c r="F21" s="26">
+        <f t="shared" si="0"/>
+        <v>192.39999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="str">
+        <f>+Earnings_Comparison!B23</f>
+        <v>LA</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="C22" s="26">
+        <f>+Earnings_Comparison!E23</f>
+        <v>815.62</v>
+      </c>
+      <c r="D22" s="25">
+        <f>+Earnings_Comparison!H23</f>
+        <v>1.0171644626656207</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="str">
+        <f>+Earnings_Comparison!B25</f>
+        <v>MD</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="C23" s="26">
+        <f>+Earnings_Comparison!E25</f>
+        <v>950.76</v>
+      </c>
+      <c r="D23" s="25">
+        <f>+Earnings_Comparison!H25</f>
+        <v>0.95809956613355229</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="str">
+        <f>+Earnings_Comparison!B40</f>
+        <v>OH</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="C24" s="26">
+        <f>+Earnings_Comparison!E40</f>
+        <v>813.29</v>
+      </c>
+      <c r="D24" s="37">
+        <f>+Earnings_Comparison!H40</f>
+        <v>0.79142960336469059</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="str">
+        <f>+Earnings_Comparison!B22</f>
+        <v>KY</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="C25" s="26">
+        <f>+Earnings_Comparison!E22</f>
+        <v>758.73</v>
+      </c>
+      <c r="D25" s="25">
+        <f>+Earnings_Comparison!H22</f>
+        <v>0.76681461564565012</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="str">
+        <f>+Earnings_Comparison!B9</f>
+        <v>CA</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="C26" s="26">
+        <f>+Earnings_Comparison!E9</f>
+        <v>1011.84</v>
+      </c>
+      <c r="D26" s="25">
+        <f>+Earnings_Comparison!H9</f>
+        <v>0.64323273163013894</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="str">
+        <f>+Earnings_Comparison!B26</f>
+        <v>MA</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="C27" s="26">
+        <f>+Earnings_Comparison!E26</f>
+        <v>1066.23</v>
+      </c>
+      <c r="D27" s="25">
+        <f>+Earnings_Comparison!H26</f>
+        <v>0.63661166734398922</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="str">
+        <f>+Earnings_Comparison!B12</f>
+        <v>DE</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C28" s="26">
+        <f>+Earnings_Comparison!E12</f>
+        <v>827.52</v>
+      </c>
+      <c r="D28" s="25">
+        <f>+Earnings_Comparison!H12</f>
+        <v>0.54257286925800674</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="str">
+        <f>+Earnings_Comparison!B15</f>
+        <v>GA</v>
+      </c>
+      <c r="B29" s="20" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" t="str">
-        <f>+Earnings_Comparison!B45</f>
-        <v>SC</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="C11" s="26">
-        <f>+Earnings_Comparison!E45</f>
-        <v>795.92</v>
-      </c>
-      <c r="D11" s="25">
-        <f>+Earnings_Comparison!H45</f>
-        <v>3.2136160077327114</v>
-      </c>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" t="str">
+      <c r="C29" s="26">
+        <f>+Earnings_Comparison!E15</f>
+        <v>869.29</v>
+      </c>
+      <c r="D29" s="25">
+        <f>+Earnings_Comparison!H15</f>
+        <v>0.46944116876361797</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="str">
+        <f>+Earnings_Comparison!B27</f>
+        <v>MI</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="C30" s="26">
+        <f>+Earnings_Comparison!E27</f>
+        <v>843.09</v>
+      </c>
+      <c r="D30" s="25">
+        <f>+Earnings_Comparison!H27</f>
+        <v>0.24207472702451049</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="str">
+        <f>+Earnings_Comparison!B5</f>
+        <v>AL</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C31" s="26">
+        <f>+Earnings_Comparison!E5</f>
+        <v>791.43</v>
+      </c>
+      <c r="D31" s="25">
+        <f>+Earnings_Comparison!H5</f>
+        <v>0.17926229122313675</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="str">
+        <f>+Earnings_Comparison!B11</f>
+        <v>CT</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="C32" s="26">
+        <f>+Earnings_Comparison!E11</f>
+        <v>1032.9000000000001</v>
+      </c>
+      <c r="D32" s="25">
+        <f>+Earnings_Comparison!H11</f>
+        <v>0.17769204455071463</v>
+      </c>
+      <c r="E32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="str">
+        <f>+Earnings_Comparison!B49</f>
+        <v>UT</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="C33" s="26">
+        <f>+Earnings_Comparison!E49</f>
+        <v>852.61</v>
+      </c>
+      <c r="D33" s="25">
+        <f>+Earnings_Comparison!H49</f>
+        <v>0.10591106560342567</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="str">
+        <f>+Earnings_Comparison!B20</f>
+        <v>IA</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C34" s="26">
+        <f>+Earnings_Comparison!E20</f>
+        <v>791.86</v>
+      </c>
+      <c r="D34" s="25">
+        <f>+Earnings_Comparison!H20</f>
+        <v>5.9326995950237382E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="str">
         <f>+Earnings_Comparison!B52</f>
         <v>WA</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B35" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C35" s="26">
         <f>+Earnings_Comparison!E52</f>
-        <v>1092.3699999999999</v>
-      </c>
-      <c r="D12" s="25">
+        <v>1063.92</v>
+      </c>
+      <c r="D35" s="25">
         <f>+Earnings_Comparison!H52</f>
-        <v>3.17608240781595</v>
-      </c>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" t="str">
+        <v>-0.13244554841106426</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="str">
+        <f>+Earnings_Comparison!B24</f>
+        <v>ME</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="C36" s="26">
+        <f>+Earnings_Comparison!E24</f>
+        <v>767.85</v>
+      </c>
+      <c r="D36" s="25">
+        <f>+Earnings_Comparison!H24</f>
+        <v>-0.20737837697375472</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="str">
+        <f>+Earnings_Comparison!B51</f>
+        <v>VA</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="C37" s="26">
+        <f>+Earnings_Comparison!E51</f>
+        <v>946</v>
+      </c>
+      <c r="D37" s="25">
+        <f>+Earnings_Comparison!H51</f>
+        <v>-0.35396213739542493</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="str">
+        <f>+Earnings_Comparison!B54</f>
+        <v>WI</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="C38" s="26">
+        <f>+Earnings_Comparison!E54</f>
+        <v>809.86</v>
+      </c>
+      <c r="D38" s="37">
+        <f>+Earnings_Comparison!H54</f>
+        <v>-0.39709669658025692</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="str">
+        <f>+Earnings_Comparison!B21</f>
+        <v>KS</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="C39" s="26">
+        <f>+Earnings_Comparison!E21</f>
+        <v>784.54</v>
+      </c>
+      <c r="D39" s="25">
+        <f>+Earnings_Comparison!H21</f>
+        <v>-0.45857091177353704</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="str">
         <f>+Earnings_Comparison!B16</f>
         <v>HI</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B40" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="C13" s="26">
+      <c r="C40" s="26">
         <f>+Earnings_Comparison!E16</f>
-        <v>870.69</v>
-      </c>
-      <c r="D13" s="25">
+        <v>842.35</v>
+      </c>
+      <c r="D40" s="25">
         <f>+Earnings_Comparison!H16</f>
-        <v>3.0564759584860823</v>
-      </c>
-      <c r="L13" s="20" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" t="str">
+        <v>-0.51309362786080559</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="str">
+        <f>+Earnings_Comparison!B48</f>
+        <v>TX</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="C41" s="26">
+        <f>+Earnings_Comparison!E48</f>
+        <v>891.02</v>
+      </c>
+      <c r="D41" s="25">
+        <f>+Earnings_Comparison!H48</f>
+        <v>-0.51796992732575653</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="str">
+        <f>+Earnings_Comparison!B44</f>
+        <v>RI</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="C42" s="26">
+        <f>+Earnings_Comparison!E44</f>
+        <v>859.55</v>
+      </c>
+      <c r="D42" s="25">
+        <f>+Earnings_Comparison!H44</f>
+        <v>-0.83642729722483988</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="str">
+        <f>+Earnings_Comparison!B31</f>
+        <v>MT</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="C43" s="26">
+        <f>+Earnings_Comparison!E31</f>
+        <v>736.44</v>
+      </c>
+      <c r="D43" s="25">
+        <f>+Earnings_Comparison!H31</f>
+        <v>-0.83778074741602815</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="str">
+        <f>+Earnings_Comparison!B37</f>
+        <v>NY</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="C44" s="26">
+        <f>+Earnings_Comparison!E37</f>
+        <v>995.98</v>
+      </c>
+      <c r="D44" s="37">
+        <f>+Earnings_Comparison!H37</f>
+        <v>-0.98387096261524087</v>
+      </c>
+      <c r="H44" s="20"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="str">
+        <f>+Earnings_Comparison!B33</f>
+        <v>NV</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="C45" s="26">
+        <f>+Earnings_Comparison!E33</f>
+        <v>753.75</v>
+      </c>
+      <c r="D45" s="25">
+        <f>+Earnings_Comparison!H33</f>
+        <v>-1.0249272551108191</v>
+      </c>
+      <c r="H45" s="20"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="str">
+        <f>+Earnings_Comparison!B43</f>
+        <v>PA</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="C46" s="26">
+        <f>+Earnings_Comparison!E43</f>
+        <v>835.67</v>
+      </c>
+      <c r="D46" s="25">
+        <f>+Earnings_Comparison!H43</f>
+        <v>-1.5123729627857907</v>
+      </c>
+      <c r="H46" s="20"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="str">
         <f>+Earnings_Comparison!B6</f>
         <v>AK</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B47" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="C14" s="26">
+      <c r="C47" s="26">
         <f>+Earnings_Comparison!E6</f>
-        <v>987.28</v>
-      </c>
-      <c r="D14" s="25">
+        <v>961.87</v>
+      </c>
+      <c r="D47" s="25">
         <f>+Earnings_Comparison!H6</f>
-        <v>2.9807556086263176</v>
-      </c>
-      <c r="F14" s="26">
-        <f>C$1-C14</f>
-        <v>-91.850000000000023</v>
-      </c>
-      <c r="L14" s="20" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" t="str">
-        <f>+Earnings_Comparison!B15</f>
-        <v>GA</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="C15" s="26">
-        <f>+Earnings_Comparison!E15</f>
-        <v>885.66</v>
-      </c>
-      <c r="D15" s="25">
-        <f>+Earnings_Comparison!H15</f>
-        <v>2.9425015213943029</v>
-      </c>
-      <c r="F15" s="26">
-        <f t="shared" ref="F15:F21" si="0">C$1-C15</f>
-        <v>9.7699999999999818</v>
-      </c>
-      <c r="L15" s="20" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" t="str">
-        <f>+Earnings_Comparison!B41</f>
-        <v>OK</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="C16" s="26">
-        <f>+Earnings_Comparison!E41</f>
-        <v>797.21</v>
-      </c>
-      <c r="D16" s="25">
-        <f>+Earnings_Comparison!H41</f>
-        <v>2.8409495660445483</v>
-      </c>
-      <c r="F16" s="26">
-        <f t="shared" si="0"/>
-        <v>98.219999999999914</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="str">
-        <f>+Earnings_Comparison!B9</f>
-        <v>CA</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="C17" s="26">
-        <f>+Earnings_Comparison!E9</f>
-        <v>1023.74</v>
-      </c>
-      <c r="D17" s="25">
-        <f>+Earnings_Comparison!H9</f>
-        <v>2.8303187976747024</v>
-      </c>
-      <c r="F17" s="26">
-        <f t="shared" si="0"/>
-        <v>-128.31000000000006</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="str">
-        <f>+Earnings_Comparison!B51</f>
-        <v>VA</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="C18" s="26">
-        <f>+Earnings_Comparison!E51</f>
-        <v>972.61</v>
-      </c>
-      <c r="D18" s="25">
-        <f>+Earnings_Comparison!H51</f>
-        <v>2.6478958611817038</v>
-      </c>
-      <c r="F18" s="26">
-        <f t="shared" si="0"/>
-        <v>-77.180000000000064</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="str">
-        <f>+Earnings_Comparison!B40</f>
-        <v>OH</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="C19" s="26">
-        <f>+Earnings_Comparison!E40</f>
-        <v>826.29</v>
-      </c>
-      <c r="D19" s="37">
-        <f>+Earnings_Comparison!H40</f>
-        <v>2.5514264963438782</v>
-      </c>
-      <c r="F19" s="26">
-        <f t="shared" si="0"/>
-        <v>69.139999999999986</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="str">
-        <f>+Earnings_Comparison!B38</f>
-        <v>NC</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="C20" s="26">
-        <f>+Earnings_Comparison!E38</f>
-        <v>815.63</v>
-      </c>
-      <c r="D20" s="25">
-        <f>+Earnings_Comparison!H38</f>
-        <v>2.4482770734798764</v>
-      </c>
-      <c r="F20" s="26">
-        <f t="shared" si="0"/>
-        <v>79.799999999999955</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="str">
-        <f>+Earnings_Comparison!B31</f>
-        <v>MT</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="C21" s="26">
-        <f>+Earnings_Comparison!E31</f>
-        <v>748.48</v>
-      </c>
-      <c r="D21" s="25">
-        <f>+Earnings_Comparison!H31</f>
-        <v>2.2909058429135376</v>
-      </c>
-      <c r="F21" s="26">
-        <f t="shared" si="0"/>
-        <v>146.94999999999993</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="str">
-        <f>+Earnings_Comparison!B33</f>
-        <v>NV</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="C22" s="26">
-        <f>+Earnings_Comparison!E33</f>
-        <v>775.43</v>
-      </c>
-      <c r="D22" s="25">
-        <f>+Earnings_Comparison!H33</f>
-        <v>2.2734570285829703</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="str">
-        <f>+Earnings_Comparison!B32</f>
-        <v>NE</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="C23" s="26">
-        <f>+Earnings_Comparison!E32</f>
-        <v>796.65</v>
-      </c>
-      <c r="D23" s="25">
-        <f>+Earnings_Comparison!H32</f>
-        <v>2.2414680917214547</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="str">
-        <f>+Earnings_Comparison!B49</f>
-        <v>UT</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="C24" s="26">
-        <f>+Earnings_Comparison!E49</f>
-        <v>870.13</v>
-      </c>
-      <c r="D24" s="25">
-        <f>+Earnings_Comparison!H49</f>
-        <v>2.1180040294699332</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="str">
-        <f>+Earnings_Comparison!B29</f>
-        <v>MS</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="C25" s="26">
-        <f>+Earnings_Comparison!E29</f>
-        <v>719.25</v>
-      </c>
-      <c r="D25" s="25">
-        <f>+Earnings_Comparison!H29</f>
-        <v>2.0664768164766256</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="str">
-        <f>+Earnings_Comparison!B22</f>
-        <v>KY</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="C26" s="26">
-        <f>+Earnings_Comparison!E22</f>
-        <v>773.07</v>
-      </c>
-      <c r="D26" s="25">
-        <f>+Earnings_Comparison!H22</f>
-        <v>1.9897665401179543</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="str">
-        <f>+Earnings_Comparison!B34</f>
-        <v>NH</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="C27" s="26">
-        <f>+Earnings_Comparison!E34</f>
-        <v>900.72</v>
-      </c>
-      <c r="D27" s="25">
-        <f>+Earnings_Comparison!H34</f>
-        <v>1.9669131638923476</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="str">
-        <f>+Earnings_Comparison!B25</f>
-        <v>MD</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="C28" s="26">
-        <f>+Earnings_Comparison!E25</f>
-        <v>961.43</v>
-      </c>
-      <c r="D28" s="25">
-        <f>+Earnings_Comparison!H25</f>
-        <v>1.9576835710689133</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="str">
-        <f>+Earnings_Comparison!B11</f>
-        <v>CT</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="C29" s="26">
-        <f>+Earnings_Comparison!E11</f>
-        <v>1049.76</v>
-      </c>
-      <c r="D29" s="25">
-        <f>+Earnings_Comparison!H11</f>
-        <v>1.8756267599855381</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="str">
-        <f>+Earnings_Comparison!B26</f>
-        <v>MA</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="C30" s="26">
-        <f>+Earnings_Comparison!E26</f>
-        <v>1087.3</v>
-      </c>
-      <c r="D30" s="25">
-        <f>+Earnings_Comparison!H26</f>
-        <v>1.8531369762529337</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="str">
-        <f>+Earnings_Comparison!B30</f>
-        <v>MO</v>
-      </c>
-      <c r="B31" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="C31" s="26">
-        <f>+Earnings_Comparison!E30</f>
-        <v>775.83</v>
-      </c>
-      <c r="D31" s="25">
-        <f>+Earnings_Comparison!H30</f>
-        <v>1.8511747806185586</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="str">
-        <f>+Earnings_Comparison!B53</f>
-        <v>WV</v>
-      </c>
-      <c r="B32" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="C32" s="26">
-        <f>+Earnings_Comparison!E53</f>
-        <v>750.46</v>
-      </c>
-      <c r="D32" s="25">
-        <f>+Earnings_Comparison!H53</f>
-        <v>1.5557183763436067</v>
-      </c>
-      <c r="E32">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" t="str">
-        <f>+Earnings_Comparison!B8</f>
-        <v>AR</v>
-      </c>
-      <c r="B33" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="C33" s="26">
-        <f>+Earnings_Comparison!E8</f>
-        <v>702.77</v>
-      </c>
-      <c r="D33" s="25">
-        <f>+Earnings_Comparison!H8</f>
-        <v>1.5220235364857393</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" t="str">
-        <f>+Earnings_Comparison!B24</f>
-        <v>ME</v>
-      </c>
-      <c r="B34" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="C34" s="26">
-        <f>+Earnings_Comparison!E24</f>
-        <v>776.79</v>
-      </c>
-      <c r="D34" s="25">
-        <f>+Earnings_Comparison!H24</f>
-        <v>1.1726150591860218</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" t="str">
-        <f>+Earnings_Comparison!B14</f>
-        <v>FL</v>
-      </c>
-      <c r="B35" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="C35" s="26">
-        <f>+Earnings_Comparison!E14</f>
-        <v>806.05</v>
-      </c>
-      <c r="D35" s="25">
-        <f>+Earnings_Comparison!H14</f>
-        <v>1.1603123442504026</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" t="str">
-        <f>+Earnings_Comparison!B46</f>
-        <v>SD</v>
-      </c>
-      <c r="B36" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="C36" s="26">
-        <f>+Earnings_Comparison!E46</f>
-        <v>741.4</v>
-      </c>
-      <c r="D36" s="25">
-        <f>+Earnings_Comparison!H46</f>
-        <v>0.87818684444478379</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" t="str">
-        <f>+Earnings_Comparison!B48</f>
-        <v>TX</v>
-      </c>
-      <c r="B37" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="C37" s="26">
-        <f>+Earnings_Comparison!E48</f>
-        <v>906.12</v>
-      </c>
-      <c r="D37" s="25">
-        <f>+Earnings_Comparison!H48</f>
-        <v>0.78312126316957276</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" t="str">
-        <f>+Earnings_Comparison!B12</f>
-        <v>DE</v>
-      </c>
-      <c r="B38" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="C38" s="26">
-        <f>+Earnings_Comparison!E12</f>
-        <v>824.92</v>
-      </c>
-      <c r="D38" s="25">
-        <f>+Earnings_Comparison!H12</f>
-        <v>0.70065923260838048</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" t="str">
-        <f>+Earnings_Comparison!B20</f>
-        <v>IA</v>
-      </c>
-      <c r="B39" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="C39" s="26">
-        <f>+Earnings_Comparison!E20</f>
-        <v>793.56</v>
-      </c>
-      <c r="D39" s="25">
-        <f>+Earnings_Comparison!H20</f>
-        <v>0.68334212038743125</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" t="str">
-        <f>+Earnings_Comparison!B23</f>
-        <v>LA</v>
-      </c>
-      <c r="B40" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="C40" s="26">
-        <f>+Earnings_Comparison!E23</f>
-        <v>818.8</v>
-      </c>
-      <c r="D40" s="25">
-        <f>+Earnings_Comparison!H23</f>
-        <v>0.53220983367849861</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" t="str">
-        <f>+Earnings_Comparison!B54</f>
-        <v>WI</v>
-      </c>
-      <c r="B41" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="C41" s="26">
-        <f>+Earnings_Comparison!E54</f>
-        <v>817.74</v>
-      </c>
-      <c r="D41" s="37">
-        <f>+Earnings_Comparison!H54</f>
-        <v>0.51084655212068064</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" t="str">
-        <f>+Earnings_Comparison!B37</f>
-        <v>NY</v>
-      </c>
-      <c r="B42" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="C42" s="26">
-        <f>+Earnings_Comparison!E37</f>
-        <v>1004.67</v>
-      </c>
-      <c r="D42" s="37">
-        <f>+Earnings_Comparison!H37</f>
-        <v>0.32913148376874091</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" t="str">
-        <f>+Earnings_Comparison!B5</f>
-        <v>AL</v>
-      </c>
-      <c r="B43" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="C43" s="26">
-        <f>+Earnings_Comparison!E5</f>
-        <v>789.66</v>
-      </c>
-      <c r="D43" s="25">
-        <f>+Earnings_Comparison!H5</f>
-        <v>0.23675905602151825</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" t="str">
-        <f>+Earnings_Comparison!B21</f>
-        <v>KS</v>
-      </c>
-      <c r="B44" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="C44" s="26">
-        <f>+Earnings_Comparison!E21</f>
-        <v>791.93</v>
-      </c>
-      <c r="D44" s="25">
-        <f>+Earnings_Comparison!H21</f>
-        <v>6.2724669049973869E-2</v>
-      </c>
-      <c r="H44" s="20"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" t="str">
-        <f>+Earnings_Comparison!B27</f>
-        <v>MI</v>
-      </c>
-      <c r="B45" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="C45" s="26">
-        <f>+Earnings_Comparison!E27</f>
-        <v>840.98</v>
-      </c>
-      <c r="D45" s="25">
-        <f>+Earnings_Comparison!H27</f>
-        <v>-0.18880868862057865</v>
-      </c>
-      <c r="H45" s="20"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" t="str">
+        <v>-1.602110052458694</v>
+      </c>
+      <c r="H47" s="20"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="str">
+        <f>+Earnings_Comparison!B55</f>
+        <v>WY</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="C48" s="26">
+        <f>+Earnings_Comparison!E55</f>
+        <v>783.81</v>
+      </c>
+      <c r="D48" s="25">
+        <f>+Earnings_Comparison!H55</f>
+        <v>-1.8371683362653712</v>
+      </c>
+      <c r="H48" s="20"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="str">
+        <f>+Earnings_Comparison!B17</f>
+        <v>ID</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="C49" s="26">
+        <f>+Earnings_Comparison!E17</f>
+        <v>735.78</v>
+      </c>
+      <c r="D49" s="25">
+        <f>+Earnings_Comparison!H17</f>
+        <v>-1.8472523460422496</v>
+      </c>
+      <c r="H49" s="20"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" t="str">
         <f>+Earnings_Comparison!B18</f>
         <v>IL</v>
       </c>
-      <c r="B46" s="20" t="s">
+      <c r="B50" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="C46" s="26">
+      <c r="C50" s="26">
         <f>+Earnings_Comparison!E18</f>
-        <v>921.06</v>
-      </c>
-      <c r="D46" s="25">
+        <v>896.08</v>
+      </c>
+      <c r="D50" s="25">
         <f>+Earnings_Comparison!H18</f>
-        <v>-0.19827718143234918</v>
-      </c>
-      <c r="H46" s="20"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" t="str">
-        <f>+Earnings_Comparison!B43</f>
-        <v>PA</v>
-      </c>
-      <c r="B47" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="C47" s="26">
-        <f>+Earnings_Comparison!E43</f>
-        <v>847.89</v>
-      </c>
-      <c r="D47" s="25">
-        <f>+Earnings_Comparison!H43</f>
-        <v>-0.54232007690916406</v>
-      </c>
-      <c r="H47" s="20"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" t="str">
+        <v>-2.4396213258287558</v>
+      </c>
+      <c r="H50" s="20"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="str">
         <f>+Earnings_Comparison!B36</f>
         <v>NM</v>
       </c>
-      <c r="B48" s="20" t="s">
+      <c r="B51" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="C48" s="26">
+      <c r="C51" s="26">
         <f>+Earnings_Comparison!E36</f>
-        <v>700.15</v>
-      </c>
-      <c r="D48" s="25">
+        <v>691.79</v>
+      </c>
+      <c r="D51" s="25">
         <f>+Earnings_Comparison!H36</f>
-        <v>-0.67428284520070214</v>
-      </c>
-      <c r="H48" s="20"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" t="str">
-        <f>+Earnings_Comparison!B44</f>
-        <v>RI</v>
-      </c>
-      <c r="B49" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="C49" s="26">
-        <f>+Earnings_Comparison!E44</f>
-        <v>853.42</v>
-      </c>
-      <c r="D49" s="25">
-        <f>+Earnings_Comparison!H44</f>
-        <v>-1.1252452040347971</v>
-      </c>
-      <c r="H49" s="20"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" t="str">
-        <f>+Earnings_Comparison!B55</f>
-        <v>WY</v>
-      </c>
-      <c r="B50" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="C50" s="26">
-        <f>+Earnings_Comparison!E55</f>
-        <v>784.9</v>
-      </c>
-      <c r="D50" s="25">
-        <f>+Earnings_Comparison!H55</f>
-        <v>-1.1698481936341487</v>
-      </c>
-      <c r="H50" s="20"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" t="str">
-        <f>+Earnings_Comparison!B17</f>
-        <v>ID</v>
-      </c>
-      <c r="B51" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="C51" s="26">
-        <f>+Earnings_Comparison!E17</f>
-        <v>730.63</v>
-      </c>
-      <c r="D51" s="25">
-        <f>+Earnings_Comparison!H17</f>
-        <v>-2.9108035405850163</v>
+        <v>-2.6635847878635266</v>
       </c>
       <c r="H51" s="20"/>
     </row>
@@ -11337,57 +10672,57 @@
       </c>
       <c r="C52" s="26">
         <f>+Earnings_Comparison!E50</f>
-        <v>806.86</v>
+        <v>793.55</v>
       </c>
       <c r="D52" s="25">
         <f>+Earnings_Comparison!H50</f>
-        <v>-3.1901609052145452</v>
+        <v>-3.7817084199252449</v>
       </c>
       <c r="H52" s="20"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
+        <f>+Earnings_Comparison!B39</f>
+        <v>ND</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="C53" s="26">
+        <f>+Earnings_Comparison!E39</f>
+        <v>864.45</v>
+      </c>
+      <c r="D53" s="25">
+        <f>+Earnings_Comparison!H39</f>
+        <v>-3.9143443119594612</v>
+      </c>
+      <c r="H53" s="20"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" t="str">
         <f>+Earnings_Comparison!B10</f>
         <v>CO</v>
       </c>
-      <c r="B53" s="20" t="s">
+      <c r="B54" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="C53" s="26">
+      <c r="C54" s="26">
         <f>+Earnings_Comparison!E10</f>
-        <v>902.46</v>
-      </c>
-      <c r="D53" s="25">
+        <v>889.44</v>
+      </c>
+      <c r="D54" s="25">
         <f>+Earnings_Comparison!H10</f>
-        <v>-3.8276313315289023</v>
-      </c>
-      <c r="H53" s="20"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" t="str">
-        <f>+Earnings_Comparison!B39</f>
-        <v>ND</v>
-      </c>
-      <c r="B54" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="C54" s="26">
-        <f>+Earnings_Comparison!E39</f>
-        <v>876.03</v>
-      </c>
-      <c r="D54" s="25">
-        <f>+Earnings_Comparison!H39</f>
-        <v>-4.5207888588669531</v>
+        <v>-5.0727525393451938</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C56">
         <f>COUNTIF(C4:C54, "&lt;895")</f>
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D56">
         <f>COUNTIF(D4:D54, "&lt;0")</f>
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -11396,8 +10731,8 @@
       <sortCondition descending="1" ref="D3:D54"/>
     </sortState>
   </autoFilter>
-  <sortState ref="L8:L15">
-    <sortCondition ref="L8"/>
+  <sortState ref="K7:K12">
+    <sortCondition ref="K7"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A2:D2"/>

--- a/static/data/source/current_earnings.xlsx
+++ b/static/data/source/current_earnings.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Earnings Table" sheetId="2" r:id="rId1"/>
     <sheet name="Earnings_Comparison" sheetId="1" r:id="rId2"/>
-    <sheet name="Feb_2017_BLS Data Series" sheetId="24" r:id="rId3"/>
+    <sheet name="March_2017_BLS Data Series" sheetId="25" r:id="rId3"/>
     <sheet name="SCRATCH" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
@@ -25,7 +25,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="O5" authorId="0">
+    <comment ref="P5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -40,7 +40,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O6" authorId="0">
+    <comment ref="P6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -55,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O7" authorId="0">
+    <comment ref="P7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -70,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O8" authorId="0">
+    <comment ref="P8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -85,7 +85,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O9" authorId="0">
+    <comment ref="P9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -100,7 +100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O10" authorId="0">
+    <comment ref="P10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -115,7 +115,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O11" authorId="0">
+    <comment ref="P11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -130,7 +130,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O12" authorId="0">
+    <comment ref="P12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -145,7 +145,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O13" authorId="0">
+    <comment ref="P13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -160,7 +160,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O14" authorId="0">
+    <comment ref="P14" authorId="0">
       <text>
         <r>
           <rPr>
@@ -175,7 +175,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O15" authorId="0">
+    <comment ref="P15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -190,7 +190,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O16" authorId="0">
+    <comment ref="P16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -205,7 +205,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O17" authorId="0">
+    <comment ref="P17" authorId="0">
       <text>
         <r>
           <rPr>
@@ -220,7 +220,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O18" authorId="0">
+    <comment ref="P18" authorId="0">
       <text>
         <r>
           <rPr>
@@ -235,7 +235,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O19" authorId="0">
+    <comment ref="P19" authorId="0">
       <text>
         <r>
           <rPr>
@@ -250,7 +250,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O20" authorId="0">
+    <comment ref="P20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -265,7 +265,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O21" authorId="0">
+    <comment ref="P21" authorId="0">
       <text>
         <r>
           <rPr>
@@ -280,7 +280,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O22" authorId="0">
+    <comment ref="P22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -295,7 +295,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O23" authorId="0">
+    <comment ref="P23" authorId="0">
       <text>
         <r>
           <rPr>
@@ -310,7 +310,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O24" authorId="0">
+    <comment ref="P24" authorId="0">
       <text>
         <r>
           <rPr>
@@ -325,7 +325,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O25" authorId="0">
+    <comment ref="P25" authorId="0">
       <text>
         <r>
           <rPr>
@@ -340,7 +340,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O26" authorId="0">
+    <comment ref="P26" authorId="0">
       <text>
         <r>
           <rPr>
@@ -355,7 +355,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O27" authorId="0">
+    <comment ref="P27" authorId="0">
       <text>
         <r>
           <rPr>
@@ -370,7 +370,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O28" authorId="0">
+    <comment ref="P28" authorId="0">
       <text>
         <r>
           <rPr>
@@ -385,7 +385,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O29" authorId="0">
+    <comment ref="P29" authorId="0">
       <text>
         <r>
           <rPr>
@@ -400,7 +400,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O30" authorId="0">
+    <comment ref="P30" authorId="0">
       <text>
         <r>
           <rPr>
@@ -415,7 +415,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O31" authorId="0">
+    <comment ref="P31" authorId="0">
       <text>
         <r>
           <rPr>
@@ -430,7 +430,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O32" authorId="0">
+    <comment ref="P32" authorId="0">
       <text>
         <r>
           <rPr>
@@ -445,7 +445,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O33" authorId="0">
+    <comment ref="P33" authorId="0">
       <text>
         <r>
           <rPr>
@@ -460,7 +460,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O34" authorId="0">
+    <comment ref="P34" authorId="0">
       <text>
         <r>
           <rPr>
@@ -475,7 +475,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O35" authorId="0">
+    <comment ref="P35" authorId="0">
       <text>
         <r>
           <rPr>
@@ -490,7 +490,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O36" authorId="0">
+    <comment ref="P36" authorId="0">
       <text>
         <r>
           <rPr>
@@ -505,7 +505,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O37" authorId="0">
+    <comment ref="P37" authorId="0">
       <text>
         <r>
           <rPr>
@@ -520,7 +520,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O38" authorId="0">
+    <comment ref="P38" authorId="0">
       <text>
         <r>
           <rPr>
@@ -535,7 +535,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O39" authorId="0">
+    <comment ref="P39" authorId="0">
       <text>
         <r>
           <rPr>
@@ -550,7 +550,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O40" authorId="0">
+    <comment ref="P40" authorId="0">
       <text>
         <r>
           <rPr>
@@ -565,7 +565,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O41" authorId="0">
+    <comment ref="P41" authorId="0">
       <text>
         <r>
           <rPr>
@@ -580,7 +580,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O42" authorId="0">
+    <comment ref="P42" authorId="0">
       <text>
         <r>
           <rPr>
@@ -595,7 +595,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O43" authorId="0">
+    <comment ref="P43" authorId="0">
       <text>
         <r>
           <rPr>
@@ -610,7 +610,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O44" authorId="0">
+    <comment ref="P44" authorId="0">
       <text>
         <r>
           <rPr>
@@ -625,7 +625,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O45" authorId="0">
+    <comment ref="P45" authorId="0">
       <text>
         <r>
           <rPr>
@@ -640,7 +640,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O46" authorId="0">
+    <comment ref="P46" authorId="0">
       <text>
         <r>
           <rPr>
@@ -655,7 +655,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O47" authorId="0">
+    <comment ref="P47" authorId="0">
       <text>
         <r>
           <rPr>
@@ -670,7 +670,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O48" authorId="0">
+    <comment ref="P48" authorId="0">
       <text>
         <r>
           <rPr>
@@ -685,7 +685,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O49" authorId="0">
+    <comment ref="P49" authorId="0">
       <text>
         <r>
           <rPr>
@@ -700,7 +700,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O50" authorId="0">
+    <comment ref="P50" authorId="0">
       <text>
         <r>
           <rPr>
@@ -715,7 +715,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O51" authorId="0">
+    <comment ref="P51" authorId="0">
       <text>
         <r>
           <rPr>
@@ -730,7 +730,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O52" authorId="0">
+    <comment ref="P52" authorId="0">
       <text>
         <r>
           <rPr>
@@ -745,7 +745,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O53" authorId="0">
+    <comment ref="P53" authorId="0">
       <text>
         <r>
           <rPr>
@@ -760,7 +760,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O54" authorId="0">
+    <comment ref="P54" authorId="0">
       <text>
         <r>
           <rPr>
@@ -775,7 +775,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O55" authorId="0">
+    <comment ref="P55" authorId="0">
       <text>
         <r>
           <rPr>
@@ -795,7 +795,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="199">
   <si>
     <t>State and Area Employment, Hours, and Earnings</t>
   </si>
@@ -1406,18 +1406,18 @@
     <t>NOMINAL</t>
   </si>
   <si>
-    <t>February
+    <t>Average Weekly Earnings March 2017</t>
+  </si>
+  <si>
+    <t>March
 2016</t>
   </si>
   <si>
-    <t>February
+    <t>March
 2017</t>
   </si>
   <si>
-    <t>February 2016 adj for inflation</t>
-  </si>
-  <si>
-    <t>Average Weekly Earnings February 2017</t>
+    <t>March 2016 adj for inflation</t>
   </si>
 </sst>
 </file>
@@ -3111,7 +3111,6 @@
     <xf numFmtId="0" fontId="76" fillId="2" borderId="0" xfId="295" applyFont="1"/>
     <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="172" fontId="77" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="77" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="32" applyFont="1" applyFill="1"/>
@@ -3146,8 +3145,8 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="315" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="17" fontId="4" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="315"/>
-    <xf numFmtId="17" fontId="4" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3162,6 +3161,7 @@
     <xf numFmtId="0" fontId="28" fillId="34" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="77" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="480">
     <cellStyle name="20% - Accent1" xfId="9" builtinId="30" customBuiltin="1"/>
@@ -4324,7 +4324,7 @@
   <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4336,24 +4336,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
-        <v>198</v>
-      </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
+      <c r="A1" s="44" t="s">
+        <v>195</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="27" t="s">
         <v>60</v>
       </c>
     </row>
@@ -4364,13 +4364,13 @@
       <c r="B3" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="C3" s="31">
+      <c r="C3" s="30">
         <f>+Earnings_Comparison!E58</f>
-        <v>897.5</v>
-      </c>
-      <c r="D3" s="30">
+        <v>896.6</v>
+      </c>
+      <c r="D3" s="29">
         <f>+Earnings_Comparison!H58</f>
-        <v>-0.23164439633514</v>
+        <v>-7.7932599421126625E-3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -4381,13 +4381,13 @@
         <f>+Earnings_Comparison!B5</f>
         <v>AL</v>
       </c>
-      <c r="C4" s="31">
+      <c r="C4" s="30">
         <f>+Earnings_Comparison!E5</f>
-        <v>791.43</v>
-      </c>
-      <c r="D4" s="30">
+        <v>786.48</v>
+      </c>
+      <c r="D4" s="29">
         <f>+Earnings_Comparison!H5</f>
-        <v>0.17926229122313675</v>
+        <v>0.9756323410654133</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -4398,13 +4398,13 @@
         <f>+Earnings_Comparison!B6</f>
         <v>AK</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="30">
         <f>+Earnings_Comparison!E6</f>
-        <v>961.87</v>
-      </c>
-      <c r="D5" s="30">
+        <v>981.05</v>
+      </c>
+      <c r="D5" s="29">
         <f>+Earnings_Comparison!H6</f>
-        <v>-1.602110052458694</v>
+        <v>0.24564180726125429</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -4415,13 +4415,13 @@
         <f>+Earnings_Comparison!B7</f>
         <v>AZ</v>
       </c>
-      <c r="C6" s="31">
+      <c r="C6" s="30">
         <f>+Earnings_Comparison!E7</f>
-        <v>850.37</v>
-      </c>
-      <c r="D6" s="30">
+        <v>849.34</v>
+      </c>
+      <c r="D6" s="29">
         <f>+Earnings_Comparison!H7</f>
-        <v>2.1180582255672764</v>
+        <v>1.9654205462321217</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -4432,13 +4432,13 @@
         <f>+Earnings_Comparison!B8</f>
         <v>AR</v>
       </c>
-      <c r="C7" s="31">
+      <c r="C7" s="30">
         <f>+Earnings_Comparison!E8</f>
-        <v>703.14</v>
-      </c>
-      <c r="D7" s="30">
+        <v>705.89</v>
+      </c>
+      <c r="D7" s="29">
         <f>+Earnings_Comparison!H8</f>
-        <v>1.553778075472545</v>
+        <v>3.3713013444573559</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -4449,13 +4449,13 @@
         <f>+Earnings_Comparison!B9</f>
         <v>CA</v>
       </c>
-      <c r="C8" s="31">
+      <c r="C8" s="30">
         <f>+Earnings_Comparison!E9</f>
-        <v>1011.84</v>
-      </c>
-      <c r="D8" s="30">
+        <v>1008.68</v>
+      </c>
+      <c r="D8" s="29">
         <f>+Earnings_Comparison!H9</f>
-        <v>0.64323273163013894</v>
+        <v>1.5183666953567876</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -4466,13 +4466,13 @@
         <f>+Earnings_Comparison!B10</f>
         <v>CO</v>
       </c>
-      <c r="C9" s="31">
+      <c r="C9" s="30">
         <f>+Earnings_Comparison!E10</f>
-        <v>889.44</v>
-      </c>
-      <c r="D9" s="30">
+        <v>897.08</v>
+      </c>
+      <c r="D9" s="29">
         <f>+Earnings_Comparison!H10</f>
-        <v>-5.0727525393451938</v>
+        <v>-3.6506142555895016</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -4483,13 +4483,13 @@
         <f>+Earnings_Comparison!B11</f>
         <v>CT</v>
       </c>
-      <c r="C10" s="31">
+      <c r="C10" s="30">
         <f>+Earnings_Comparison!E11</f>
-        <v>1032.9000000000001</v>
-      </c>
-      <c r="D10" s="30">
+        <v>1031.0899999999999</v>
+      </c>
+      <c r="D10" s="29">
         <f>+Earnings_Comparison!H11</f>
-        <v>0.17769204455071463</v>
+        <v>0.77998107026688857</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -4500,13 +4500,13 @@
         <f>+Earnings_Comparison!B12</f>
         <v>DE</v>
       </c>
-      <c r="C11" s="31">
+      <c r="C11" s="30">
         <f>+Earnings_Comparison!E12</f>
-        <v>827.52</v>
-      </c>
-      <c r="D11" s="30">
+        <v>841.42</v>
+      </c>
+      <c r="D11" s="29">
         <f>+Earnings_Comparison!H12</f>
-        <v>0.54257286925800674</v>
+        <v>1.7739058517254325</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -4517,13 +4517,13 @@
         <f>+Earnings_Comparison!B13</f>
         <v>DC</v>
       </c>
-      <c r="C12" s="31">
+      <c r="C12" s="30">
         <f>+Earnings_Comparison!E13</f>
-        <v>1409.88</v>
-      </c>
-      <c r="D12" s="30">
+        <v>1409.97</v>
+      </c>
+      <c r="D12" s="29">
         <f>+Earnings_Comparison!H13</f>
-        <v>5.1825961311030566</v>
+        <v>5.4578472350957696</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -4534,13 +4534,13 @@
         <f>+Earnings_Comparison!B14</f>
         <v>FL</v>
       </c>
-      <c r="C13" s="31">
+      <c r="C13" s="30">
         <f>+Earnings_Comparison!E14</f>
-        <v>818.06</v>
-      </c>
-      <c r="D13" s="30">
+        <v>814.28</v>
+      </c>
+      <c r="D13" s="29">
         <f>+Earnings_Comparison!H14</f>
-        <v>1.7583090090054876</v>
+        <v>0.58756755968576435</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -4551,13 +4551,13 @@
         <f>+Earnings_Comparison!B15</f>
         <v>GA</v>
       </c>
-      <c r="C14" s="31">
+      <c r="C14" s="30">
         <f>+Earnings_Comparison!E15</f>
-        <v>869.29</v>
-      </c>
-      <c r="D14" s="30">
+        <v>863.78</v>
+      </c>
+      <c r="D14" s="29">
         <f>+Earnings_Comparison!H15</f>
-        <v>0.46944116876361797</v>
+        <v>0.38847904555987522</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -4568,13 +4568,13 @@
         <f>+Earnings_Comparison!B16</f>
         <v>HI</v>
       </c>
-      <c r="C15" s="31">
+      <c r="C15" s="30">
         <f>+Earnings_Comparison!E16</f>
-        <v>842.35</v>
-      </c>
-      <c r="D15" s="30">
+        <v>832.69</v>
+      </c>
+      <c r="D15" s="29">
         <f>+Earnings_Comparison!H16</f>
-        <v>-0.51309362786080559</v>
+        <v>-0.87895570392240163</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -4585,13 +4585,13 @@
         <f>+Earnings_Comparison!B17</f>
         <v>ID</v>
       </c>
-      <c r="C16" s="31">
+      <c r="C16" s="30">
         <f>+Earnings_Comparison!E17</f>
-        <v>735.78</v>
-      </c>
-      <c r="D16" s="30">
+        <v>739.2</v>
+      </c>
+      <c r="D16" s="29">
         <f>+Earnings_Comparison!H17</f>
-        <v>-1.8472523460422496</v>
+        <v>-0.73803243065415636</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -4602,13 +4602,13 @@
         <f>+Earnings_Comparison!B18</f>
         <v>IL</v>
       </c>
-      <c r="C17" s="31">
+      <c r="C17" s="30">
         <f>+Earnings_Comparison!E18</f>
-        <v>896.08</v>
-      </c>
-      <c r="D17" s="30">
+        <v>896.76</v>
+      </c>
+      <c r="D17" s="29">
         <f>+Earnings_Comparison!H18</f>
-        <v>-2.4396213258287558</v>
+        <v>-2.3873018109886068</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -4619,13 +4619,13 @@
         <f>+Earnings_Comparison!B19</f>
         <v>IN</v>
       </c>
-      <c r="C18" s="31">
+      <c r="C18" s="30">
         <f>+Earnings_Comparison!E19</f>
-        <v>836.61</v>
-      </c>
-      <c r="D18" s="30">
+        <v>834.21</v>
+      </c>
+      <c r="D18" s="29">
         <f>+Earnings_Comparison!H19</f>
-        <v>2.1993765000351884</v>
+        <v>2.614756370443172</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -4636,13 +4636,13 @@
         <f>+Earnings_Comparison!B20</f>
         <v>IA</v>
       </c>
-      <c r="C19" s="31">
+      <c r="C19" s="30">
         <f>+Earnings_Comparison!E20</f>
-        <v>791.86</v>
-      </c>
-      <c r="D19" s="30">
+        <v>792.27</v>
+      </c>
+      <c r="D19" s="29">
         <f>+Earnings_Comparison!H20</f>
-        <v>5.9326995950237382E-2</v>
+        <v>-1.2999737543346601</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -4653,13 +4653,13 @@
         <f>+Earnings_Comparison!B21</f>
         <v>KS</v>
       </c>
-      <c r="C20" s="31">
+      <c r="C20" s="30">
         <f>+Earnings_Comparison!E21</f>
-        <v>784.54</v>
-      </c>
-      <c r="D20" s="30">
+        <v>781.5</v>
+      </c>
+      <c r="D20" s="29">
         <f>+Earnings_Comparison!H21</f>
-        <v>-0.45857091177353704</v>
+        <v>0.37847537161275202</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -4670,13 +4670,13 @@
         <f>+Earnings_Comparison!B22</f>
         <v>KY</v>
       </c>
-      <c r="C21" s="31">
+      <c r="C21" s="30">
         <f>+Earnings_Comparison!E22</f>
-        <v>758.73</v>
-      </c>
-      <c r="D21" s="30">
+        <v>760.82</v>
+      </c>
+      <c r="D21" s="29">
         <f>+Earnings_Comparison!H22</f>
-        <v>0.76681461564565012</v>
+        <v>0.19806638168686774</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -4687,13 +4687,13 @@
         <f>+Earnings_Comparison!B23</f>
         <v>LA</v>
       </c>
-      <c r="C22" s="31">
+      <c r="C22" s="30">
         <f>+Earnings_Comparison!E23</f>
-        <v>815.62</v>
-      </c>
-      <c r="D22" s="30">
+        <v>812.96</v>
+      </c>
+      <c r="D22" s="29">
         <f>+Earnings_Comparison!H23</f>
-        <v>1.0171644626656207</v>
+        <v>2.4073808132446528</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -4704,13 +4704,13 @@
         <f>+Earnings_Comparison!B24</f>
         <v>ME</v>
       </c>
-      <c r="C23" s="31">
+      <c r="C23" s="30">
         <f>+Earnings_Comparison!E24</f>
-        <v>767.85</v>
-      </c>
-      <c r="D23" s="30">
+        <v>787.91</v>
+      </c>
+      <c r="D23" s="29">
         <f>+Earnings_Comparison!H24</f>
-        <v>-0.20737837697375472</v>
+        <v>2.4697841639538698</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -4721,13 +4721,13 @@
         <f>+Earnings_Comparison!B25</f>
         <v>MD</v>
       </c>
-      <c r="C24" s="31">
+      <c r="C24" s="30">
         <f>+Earnings_Comparison!E25</f>
-        <v>950.76</v>
-      </c>
-      <c r="D24" s="30">
+        <v>946.15</v>
+      </c>
+      <c r="D24" s="29">
         <f>+Earnings_Comparison!H25</f>
-        <v>0.95809956613355229</v>
+        <v>-3.2497139877629699E-2</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -4738,13 +4738,13 @@
         <f>+Earnings_Comparison!B26</f>
         <v>MA</v>
       </c>
-      <c r="C25" s="31">
+      <c r="C25" s="30">
         <f>+Earnings_Comparison!E26</f>
-        <v>1066.23</v>
-      </c>
-      <c r="D25" s="30">
+        <v>1063.26</v>
+      </c>
+      <c r="D25" s="29">
         <f>+Earnings_Comparison!H26</f>
-        <v>0.63661166734398922</v>
+        <v>0.74466674723545623</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -4755,13 +4755,13 @@
         <f>+Earnings_Comparison!B27</f>
         <v>MI</v>
       </c>
-      <c r="C26" s="31">
+      <c r="C26" s="30">
         <f>+Earnings_Comparison!E27</f>
-        <v>843.09</v>
-      </c>
-      <c r="D26" s="30">
+        <v>829.72</v>
+      </c>
+      <c r="D26" s="29">
         <f>+Earnings_Comparison!H27</f>
-        <v>0.24207472702451049</v>
+        <v>-1.2950482300751132</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -4772,13 +4772,13 @@
         <f>+Earnings_Comparison!B28</f>
         <v>MN</v>
       </c>
-      <c r="C27" s="31">
+      <c r="C27" s="30">
         <f>+Earnings_Comparison!E28</f>
-        <v>955.53</v>
-      </c>
-      <c r="D27" s="30">
+        <v>950.68</v>
+      </c>
+      <c r="D27" s="29">
         <f>+Earnings_Comparison!H28</f>
-        <v>4.9213938623762665</v>
+        <v>2.4712801038347942</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -4789,13 +4789,13 @@
         <f>+Earnings_Comparison!B29</f>
         <v>MS</v>
       </c>
-      <c r="C28" s="31">
+      <c r="C28" s="30">
         <f>+Earnings_Comparison!E29</f>
-        <v>705.1</v>
-      </c>
-      <c r="D28" s="30">
+        <v>701.98</v>
+      </c>
+      <c r="D28" s="29">
         <f>+Earnings_Comparison!H29</f>
-        <v>1.0303311808375515</v>
+        <v>1.9761679416103961</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -4806,13 +4806,13 @@
         <f>+Earnings_Comparison!B30</f>
         <v>MO</v>
       </c>
-      <c r="C29" s="31">
+      <c r="C29" s="30">
         <f>+Earnings_Comparison!E30</f>
-        <v>779.17</v>
-      </c>
-      <c r="D29" s="30">
+        <v>785.21</v>
+      </c>
+      <c r="D29" s="29">
         <f>+Earnings_Comparison!H30</f>
-        <v>2.7287382914623848</v>
+        <v>3.5595739783103042</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -4823,13 +4823,13 @@
         <f>+Earnings_Comparison!B31</f>
         <v>MT</v>
       </c>
-      <c r="C30" s="31">
+      <c r="C30" s="30">
         <f>+Earnings_Comparison!E31</f>
-        <v>736.44</v>
-      </c>
-      <c r="D30" s="30">
+        <v>731.58</v>
+      </c>
+      <c r="D30" s="29">
         <f>+Earnings_Comparison!H31</f>
-        <v>-0.83778074741602815</v>
+        <v>0.65059290020119676</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -4840,13 +4840,13 @@
         <f>+Earnings_Comparison!B32</f>
         <v>NE</v>
       </c>
-      <c r="C31" s="31">
+      <c r="C31" s="30">
         <f>+Earnings_Comparison!E32</f>
-        <v>791.62</v>
-      </c>
-      <c r="D31" s="30">
+        <v>808.85</v>
+      </c>
+      <c r="D31" s="29">
         <f>+Earnings_Comparison!H32</f>
-        <v>1.1318272516274819</v>
+        <v>3.5631909070571455</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -4857,13 +4857,13 @@
         <f>+Earnings_Comparison!B33</f>
         <v>NV</v>
       </c>
-      <c r="C32" s="31">
+      <c r="C32" s="30">
         <f>+Earnings_Comparison!E33</f>
-        <v>753.75</v>
-      </c>
-      <c r="D32" s="30">
+        <v>763.98</v>
+      </c>
+      <c r="D32" s="29">
         <f>+Earnings_Comparison!H33</f>
-        <v>-1.0249272551108191</v>
+        <v>0.94087344139641704</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -4874,13 +4874,13 @@
         <f>+Earnings_Comparison!B34</f>
         <v>NH</v>
       </c>
-      <c r="C33" s="31">
+      <c r="C33" s="30">
         <f>+Earnings_Comparison!E34</f>
-        <v>892.11</v>
-      </c>
-      <c r="D33" s="30">
+        <v>891.11</v>
+      </c>
+      <c r="D33" s="29">
         <f>+Earnings_Comparison!H34</f>
-        <v>1.1786420218397264</v>
+        <v>2.4771179942497668</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -4891,13 +4891,13 @@
         <f>+Earnings_Comparison!B35</f>
         <v>NJ</v>
       </c>
-      <c r="C34" s="31">
+      <c r="C34" s="30">
         <f>+Earnings_Comparison!E35</f>
-        <v>977.5</v>
-      </c>
-      <c r="D34" s="30">
+        <v>950</v>
+      </c>
+      <c r="D34" s="29">
         <f>+Earnings_Comparison!H35</f>
-        <v>1.1685457172972091</v>
+        <v>-1.0408717573307968</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -4908,13 +4908,13 @@
         <f>+Earnings_Comparison!B36</f>
         <v>NM</v>
       </c>
-      <c r="C35" s="31">
+      <c r="C35" s="30">
         <f>+Earnings_Comparison!E36</f>
-        <v>691.79</v>
-      </c>
-      <c r="D35" s="30">
+        <v>693.22</v>
+      </c>
+      <c r="D35" s="29">
         <f>+Earnings_Comparison!H36</f>
-        <v>-2.6635847878635266</v>
+        <v>-0.71543844266329648</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -4925,13 +4925,13 @@
         <f>+Earnings_Comparison!B37</f>
         <v>NY</v>
       </c>
-      <c r="C36" s="31">
+      <c r="C36" s="30">
         <f>+Earnings_Comparison!E37</f>
-        <v>995.98</v>
-      </c>
-      <c r="D36" s="30">
+        <v>985.31</v>
+      </c>
+      <c r="D36" s="29">
         <f>+Earnings_Comparison!H37</f>
-        <v>-0.98387096261524087</v>
+        <v>-0.92965941755355219</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -4942,13 +4942,13 @@
         <f>+Earnings_Comparison!B38</f>
         <v>NC</v>
       </c>
-      <c r="C37" s="31">
+      <c r="C37" s="30">
         <f>+Earnings_Comparison!E38</f>
-        <v>826.29</v>
-      </c>
-      <c r="D37" s="30">
+        <v>823.54</v>
+      </c>
+      <c r="D37" s="29">
         <f>+Earnings_Comparison!H38</f>
-        <v>2.6534741371149639</v>
+        <v>1.7211585889051584</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -4959,13 +4959,13 @@
         <f>+Earnings_Comparison!B39</f>
         <v>ND</v>
       </c>
-      <c r="C38" s="31">
+      <c r="C38" s="30">
         <f>+Earnings_Comparison!E39</f>
-        <v>864.45</v>
-      </c>
-      <c r="D38" s="30">
+        <v>870.4</v>
+      </c>
+      <c r="D38" s="29">
         <f>+Earnings_Comparison!H39</f>
-        <v>-3.9143443119594612</v>
+        <v>-1.6859446279491763</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -4976,13 +4976,13 @@
         <f>+Earnings_Comparison!B40</f>
         <v>OH</v>
       </c>
-      <c r="C39" s="31">
+      <c r="C39" s="30">
         <f>+Earnings_Comparison!E40</f>
-        <v>813.29</v>
-      </c>
-      <c r="D39" s="30">
+        <v>816.35</v>
+      </c>
+      <c r="D39" s="29">
         <f>+Earnings_Comparison!H40</f>
-        <v>0.79142960336469059</v>
+        <v>1.3135158600046992</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -4993,13 +4993,13 @@
         <f>+Earnings_Comparison!B41</f>
         <v>OK</v>
       </c>
-      <c r="C40" s="31">
+      <c r="C40" s="30">
         <f>+Earnings_Comparison!E41</f>
-        <v>800.88</v>
-      </c>
-      <c r="D40" s="30">
+        <v>796.02</v>
+      </c>
+      <c r="D40" s="29">
         <f>+Earnings_Comparison!H41</f>
-        <v>2.6138128670627925</v>
+        <v>3.0470350204399921</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -5010,13 +5010,13 @@
         <f>+Earnings_Comparison!B42</f>
         <v>OR</v>
       </c>
-      <c r="C41" s="31">
+      <c r="C41" s="30">
         <f>+Earnings_Comparison!E42</f>
-        <v>866.32</v>
-      </c>
-      <c r="D41" s="30">
+        <v>860.02</v>
+      </c>
+      <c r="D41" s="29">
         <f>+Earnings_Comparison!H42</f>
-        <v>2.7580603153481542</v>
+        <v>3.4879851312164201</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -5027,13 +5027,13 @@
         <f>+Earnings_Comparison!B43</f>
         <v>PA</v>
       </c>
-      <c r="C42" s="31">
+      <c r="C42" s="30">
         <f>+Earnings_Comparison!E43</f>
-        <v>835.67</v>
-      </c>
-      <c r="D42" s="30">
+        <v>829.82</v>
+      </c>
+      <c r="D42" s="29">
         <f>+Earnings_Comparison!H43</f>
-        <v>-1.5123729627857907</v>
+        <v>-1.4595757303598744</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -5044,13 +5044,13 @@
         <f>+Earnings_Comparison!B44</f>
         <v>RI</v>
       </c>
-      <c r="C43" s="31">
+      <c r="C43" s="30">
         <f>+Earnings_Comparison!E44</f>
-        <v>859.55</v>
-      </c>
-      <c r="D43" s="30">
+        <v>852.05</v>
+      </c>
+      <c r="D43" s="29">
         <f>+Earnings_Comparison!H44</f>
-        <v>-0.83642729722483988</v>
+        <v>-0.20533040380985579</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -5061,13 +5061,13 @@
         <f>+Earnings_Comparison!B45</f>
         <v>SC</v>
       </c>
-      <c r="C44" s="31">
+      <c r="C44" s="30">
         <f>+Earnings_Comparison!E45</f>
-        <v>783.07</v>
-      </c>
-      <c r="D44" s="30">
+        <v>799.37</v>
+      </c>
+      <c r="D44" s="29">
         <f>+Earnings_Comparison!H45</f>
-        <v>1.6837760652556044</v>
+        <v>1.7863316113353012</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -5078,13 +5078,13 @@
         <f>+Earnings_Comparison!B46</f>
         <v>SD</v>
       </c>
-      <c r="C45" s="31">
+      <c r="C45" s="30">
         <f>+Earnings_Comparison!E46</f>
-        <v>735.38</v>
-      </c>
-      <c r="D45" s="30">
+        <v>730.73</v>
+      </c>
+      <c r="D45" s="29">
         <f>+Earnings_Comparison!H46</f>
-        <v>1.1834980031869113</v>
+        <v>0.29349384952026547</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -5095,13 +5095,13 @@
         <f>+Earnings_Comparison!B47</f>
         <v>TN</v>
       </c>
-      <c r="C46" s="31">
+      <c r="C46" s="30">
         <f>+Earnings_Comparison!E47</f>
-        <v>800.39</v>
-      </c>
-      <c r="D46" s="30">
+        <v>788.6</v>
+      </c>
+      <c r="D46" s="29">
         <f>+Earnings_Comparison!H47</f>
-        <v>4.0577646054888339</v>
+        <v>2.2518283168917685</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -5112,13 +5112,13 @@
         <f>+Earnings_Comparison!B48</f>
         <v>TX</v>
       </c>
-      <c r="C47" s="31">
+      <c r="C47" s="30">
         <f>+Earnings_Comparison!E48</f>
-        <v>891.02</v>
-      </c>
-      <c r="D47" s="30">
+        <v>892.83</v>
+      </c>
+      <c r="D47" s="29">
         <f>+Earnings_Comparison!H48</f>
-        <v>-0.51796992732575653</v>
+        <v>1.039208349262033</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -5129,13 +5129,13 @@
         <f>+Earnings_Comparison!B49</f>
         <v>UT</v>
       </c>
-      <c r="C48" s="31">
+      <c r="C48" s="30">
         <f>+Earnings_Comparison!E49</f>
-        <v>852.61</v>
-      </c>
-      <c r="D48" s="30">
+        <v>848.05</v>
+      </c>
+      <c r="D48" s="29">
         <f>+Earnings_Comparison!H49</f>
-        <v>0.10591106560342567</v>
+        <v>0.1645352770238917</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -5146,13 +5146,13 @@
         <f>+Earnings_Comparison!B50</f>
         <v>VT</v>
       </c>
-      <c r="C49" s="31">
+      <c r="C49" s="30">
         <f>+Earnings_Comparison!E50</f>
-        <v>793.55</v>
-      </c>
-      <c r="D49" s="30">
+        <v>787.62</v>
+      </c>
+      <c r="D49" s="29">
         <f>+Earnings_Comparison!H50</f>
-        <v>-3.7817084199252449</v>
+        <v>-3.5195943877403324</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -5163,13 +5163,13 @@
         <f>+Earnings_Comparison!B51</f>
         <v>VA</v>
       </c>
-      <c r="C50" s="31">
+      <c r="C50" s="30">
         <f>+Earnings_Comparison!E51</f>
-        <v>946</v>
-      </c>
-      <c r="D50" s="30">
+        <v>944.28</v>
+      </c>
+      <c r="D50" s="29">
         <f>+Earnings_Comparison!H51</f>
-        <v>-0.35396213739542493</v>
+        <v>-0.77319636177202167</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -5180,13 +5180,13 @@
         <f>+Earnings_Comparison!B52</f>
         <v>WA</v>
       </c>
-      <c r="C51" s="31">
+      <c r="C51" s="30">
         <f>+Earnings_Comparison!E52</f>
-        <v>1063.92</v>
-      </c>
-      <c r="D51" s="30">
+        <v>1063.3</v>
+      </c>
+      <c r="D51" s="29">
         <f>+Earnings_Comparison!H52</f>
-        <v>-0.13244554841106426</v>
+        <v>0.51736220664531096</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -5197,13 +5197,13 @@
         <f>+Earnings_Comparison!B53</f>
         <v>WV</v>
       </c>
-      <c r="C52" s="31">
+      <c r="C52" s="30">
         <f>+Earnings_Comparison!E53</f>
-        <v>753.28</v>
-      </c>
-      <c r="D52" s="30">
+        <v>757.11</v>
+      </c>
+      <c r="D52" s="29">
         <f>+Earnings_Comparison!H53</f>
-        <v>1.2616390252703003</v>
+        <v>1.5776003631603031</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -5214,13 +5214,13 @@
         <f>+Earnings_Comparison!B54</f>
         <v>WI</v>
       </c>
-      <c r="C53" s="31">
+      <c r="C53" s="30">
         <f>+Earnings_Comparison!E54</f>
-        <v>809.86</v>
-      </c>
-      <c r="D53" s="30">
+        <v>812.74</v>
+      </c>
+      <c r="D53" s="29">
         <f>+Earnings_Comparison!H54</f>
-        <v>-0.39709669658025692</v>
+        <v>-8.7886619505450625E-2</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -5231,13 +5231,13 @@
         <f>+Earnings_Comparison!B55</f>
         <v>WY</v>
       </c>
-      <c r="C54" s="31">
+      <c r="C54" s="30">
         <f>+Earnings_Comparison!E55</f>
-        <v>783.81</v>
-      </c>
-      <c r="D54" s="30">
+        <v>775.12</v>
+      </c>
+      <c r="D54" s="29">
         <f>+Earnings_Comparison!H55</f>
-        <v>-1.8371683362653712</v>
+        <v>-2.546536483784223</v>
       </c>
     </row>
   </sheetData>
@@ -5254,10 +5254,10 @@
   <dimension ref="A1:AF65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="D32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J58" sqref="J58"/>
+      <selection pane="bottomRight" activeCell="H63" sqref="H63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5276,10 +5276,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="47"/>
+      <c r="D1" s="46"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C2" s="2" t="s">
@@ -5287,9 +5287,9 @@
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="D3" s="35"/>
-    </row>
-    <row r="4" spans="1:32" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="34"/>
+    </row>
+    <row r="4" spans="1:32" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>61</v>
       </c>
@@ -5299,21 +5299,21 @@
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="33" t="s">
-        <v>195</v>
-      </c>
-      <c r="E4" s="34" t="s">
+      <c r="D4" s="32" t="s">
         <v>196</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>197</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="13" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>57</v>
       </c>
       <c r="I4" s="10"/>
-      <c r="J4" s="44" t="s">
+      <c r="J4" s="42" t="s">
         <v>194</v>
       </c>
       <c r="K4" s="10"/>
@@ -5349,25 +5349,25 @@
       <c r="C5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="38">
-        <v>768.96</v>
-      </c>
-      <c r="E5" s="38">
-        <v>791.43</v>
-      </c>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36">
+      <c r="D5" s="37">
+        <v>760.77</v>
+      </c>
+      <c r="E5" s="37">
+        <v>786.48</v>
+      </c>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35">
         <f>D5/$G$61</f>
-        <v>790.01380315548431</v>
+        <v>778.88098520988353</v>
       </c>
       <c r="H5" s="11">
         <f>((E5/G5)-1)*100</f>
-        <v>0.17926229122313675</v>
+        <v>0.9756323410654133</v>
       </c>
       <c r="I5" s="9"/>
-      <c r="J5" s="30">
+      <c r="J5" s="29">
         <f>E5-D5</f>
-        <v>22.469999999999914</v>
+        <v>25.710000000000036</v>
       </c>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
@@ -5382,25 +5382,25 @@
       <c r="C6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="38">
-        <v>951.48</v>
-      </c>
-      <c r="E6" s="38">
-        <v>961.87</v>
-      </c>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36">
+      <c r="D6" s="37">
+        <v>955.89</v>
+      </c>
+      <c r="E6" s="37">
+        <v>981.05</v>
+      </c>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35">
         <f t="shared" ref="G6:G55" si="0">D6/$G$61</f>
-        <v>977.53112441008648</v>
+        <v>978.64603619001218</v>
       </c>
       <c r="H6" s="11">
         <f t="shared" ref="H6:H55" si="1">((E6/G6)-1)*100</f>
-        <v>-1.602110052458694</v>
+        <v>0.24564180726125429</v>
       </c>
       <c r="I6" s="9"/>
-      <c r="J6" s="30">
+      <c r="J6" s="29">
         <f t="shared" ref="J6:J55" si="2">E6-D6</f>
-        <v>10.389999999999986</v>
+        <v>25.159999999999968</v>
       </c>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
@@ -5415,25 +5415,25 @@
       <c r="C7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="38">
-        <v>810.54</v>
-      </c>
-      <c r="E7" s="38">
-        <v>850.37</v>
-      </c>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36">
+      <c r="D7" s="37">
+        <v>813.6</v>
+      </c>
+      <c r="E7" s="37">
+        <v>849.34</v>
+      </c>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35">
         <f t="shared" si="0"/>
-        <v>832.73224616318942</v>
+        <v>832.96866275847003</v>
       </c>
       <c r="H7" s="11">
         <f t="shared" si="1"/>
-        <v>2.1180582255672764</v>
+        <v>1.9654205462321217</v>
       </c>
       <c r="I7" s="9"/>
-      <c r="J7" s="30">
+      <c r="J7" s="29">
         <f t="shared" si="2"/>
-        <v>39.830000000000041</v>
+        <v>35.740000000000009</v>
       </c>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
@@ -5448,25 +5448,25 @@
       <c r="C8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="38">
-        <v>673.93</v>
-      </c>
-      <c r="E8" s="38">
-        <v>703.14</v>
-      </c>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36">
+      <c r="D8" s="37">
+        <v>666.99</v>
+      </c>
+      <c r="E8" s="37">
+        <v>705.89</v>
+      </c>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35">
         <f t="shared" si="0"/>
-        <v>692.38192150511793</v>
+        <v>682.86844686980328</v>
       </c>
       <c r="H8" s="11">
         <f t="shared" si="1"/>
-        <v>1.553778075472545</v>
+        <v>3.3713013444573559</v>
       </c>
       <c r="I8" s="9"/>
-      <c r="J8" s="30">
+      <c r="J8" s="29">
         <f t="shared" si="2"/>
-        <v>29.210000000000036</v>
+        <v>38.899999999999977</v>
       </c>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
@@ -5481,25 +5481,25 @@
       <c r="C9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="38">
-        <v>978.58</v>
-      </c>
-      <c r="E9" s="38">
-        <v>1011.84</v>
-      </c>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36">
+      <c r="D9" s="37">
+        <v>970.49</v>
+      </c>
+      <c r="E9" s="37">
+        <v>1008.68</v>
+      </c>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35">
         <f t="shared" si="0"/>
-        <v>1005.3731110745601</v>
+        <v>993.59360560529444</v>
       </c>
       <c r="H9" s="11">
         <f t="shared" si="1"/>
-        <v>0.64323273163013894</v>
+        <v>1.5183666953567876</v>
       </c>
       <c r="I9" s="9"/>
-      <c r="J9" s="30">
+      <c r="J9" s="29">
         <f t="shared" si="2"/>
-        <v>33.259999999999991</v>
+        <v>38.189999999999941</v>
       </c>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
@@ -5514,25 +5514,25 @@
       <c r="C10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="38">
-        <v>912</v>
-      </c>
-      <c r="E10" s="38">
-        <v>889.44</v>
-      </c>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36">
+      <c r="D10" s="37">
+        <v>909.42</v>
+      </c>
+      <c r="E10" s="37">
+        <v>897.08</v>
+      </c>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35">
         <f t="shared" si="0"/>
-        <v>936.97017852398255</v>
+        <v>931.06976559219243</v>
       </c>
       <c r="H10" s="11">
         <f t="shared" si="1"/>
-        <v>-5.0727525393451938</v>
+        <v>-3.6506142555895016</v>
       </c>
       <c r="I10" s="9"/>
-      <c r="J10" s="30">
+      <c r="J10" s="29">
         <f t="shared" si="2"/>
-        <v>-22.559999999999945</v>
+        <v>-12.339999999999918</v>
       </c>
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
@@ -5547,25 +5547,25 @@
       <c r="C11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="38">
-        <v>1003.59</v>
-      </c>
-      <c r="E11" s="38">
-        <v>1032.9000000000001</v>
-      </c>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36">
+      <c r="D11" s="37">
+        <v>999.32</v>
+      </c>
+      <c r="E11" s="37">
+        <v>1031.0899999999999</v>
+      </c>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35">
         <f t="shared" si="0"/>
-        <v>1031.0678744132497</v>
+        <v>1023.1099361698554</v>
       </c>
       <c r="H11" s="11">
         <f t="shared" si="1"/>
-        <v>0.17769204455071463</v>
+        <v>0.77998107026688857</v>
       </c>
       <c r="I11" s="9"/>
-      <c r="J11" s="30">
+      <c r="J11" s="29">
         <f t="shared" si="2"/>
-        <v>29.310000000000059</v>
+        <v>31.769999999999868</v>
       </c>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
@@ -5580,25 +5580,25 @@
       <c r="C12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="38">
-        <v>801.12</v>
-      </c>
-      <c r="E12" s="38">
-        <v>827.52</v>
-      </c>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36">
+      <c r="D12" s="37">
+        <v>807.53</v>
+      </c>
+      <c r="E12" s="37">
+        <v>841.42</v>
+      </c>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35">
         <f t="shared" si="0"/>
-        <v>823.05433050343515</v>
+        <v>826.75415958376016</v>
       </c>
       <c r="H12" s="11">
         <f t="shared" si="1"/>
-        <v>0.54257286925800674</v>
+        <v>1.7739058517254325</v>
       </c>
       <c r="I12" s="9"/>
-      <c r="J12" s="30">
+      <c r="J12" s="29">
         <f t="shared" si="2"/>
-        <v>26.399999999999977</v>
+        <v>33.889999999999986</v>
       </c>
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
@@ -5613,25 +5613,25 @@
       <c r="C13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="38">
-        <v>1304.69</v>
-      </c>
-      <c r="E13" s="38">
-        <v>1409.88</v>
-      </c>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36">
+      <c r="D13" s="37">
+        <v>1305.9100000000001</v>
+      </c>
+      <c r="E13" s="37">
+        <v>1409.97</v>
+      </c>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35">
         <f t="shared" si="0"/>
-        <v>1340.4118664676039</v>
+        <v>1336.99865582954</v>
       </c>
       <c r="H13" s="11">
         <f t="shared" si="1"/>
-        <v>5.1825961311030566</v>
+        <v>5.4578472350957696</v>
       </c>
       <c r="I13" s="9"/>
-      <c r="J13" s="30">
+      <c r="J13" s="29">
         <f t="shared" si="2"/>
-        <v>105.19000000000005</v>
+        <v>104.05999999999995</v>
       </c>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
@@ -5646,25 +5646,25 @@
       <c r="C14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="38">
-        <v>782.5</v>
-      </c>
-      <c r="E14" s="38">
-        <v>818.06</v>
-      </c>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36">
+      <c r="D14" s="37">
+        <v>790.7</v>
+      </c>
+      <c r="E14" s="37">
+        <v>814.28</v>
+      </c>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35">
         <f t="shared" si="0"/>
-        <v>803.92452269190392</v>
+        <v>809.5235025112122</v>
       </c>
       <c r="H14" s="11">
         <f t="shared" si="1"/>
-        <v>1.7583090090054876</v>
+        <v>0.58756755968576435</v>
       </c>
       <c r="I14" s="9"/>
-      <c r="J14" s="30">
+      <c r="J14" s="29">
         <f t="shared" si="2"/>
-        <v>35.559999999999945</v>
+        <v>23.579999999999927</v>
       </c>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
@@ -5679,25 +5679,25 @@
       <c r="C15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="38">
-        <v>842.17</v>
-      </c>
-      <c r="E15" s="38">
-        <v>869.29</v>
-      </c>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36">
+      <c r="D15" s="37">
+        <v>840.43</v>
+      </c>
+      <c r="E15" s="37">
+        <v>863.78</v>
+      </c>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35">
         <f t="shared" si="0"/>
-        <v>865.22826233283149</v>
+        <v>860.43738107436195</v>
       </c>
       <c r="H15" s="11">
         <f t="shared" si="1"/>
-        <v>0.46944116876361797</v>
+        <v>0.38847904555987522</v>
       </c>
       <c r="I15" s="9"/>
-      <c r="J15" s="30">
+      <c r="J15" s="29">
         <f t="shared" si="2"/>
-        <v>27.120000000000005</v>
+        <v>23.350000000000023</v>
       </c>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
@@ -5712,25 +5712,25 @@
       <c r="C16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="38">
-        <v>824.13</v>
-      </c>
-      <c r="E16" s="38">
-        <v>842.35</v>
-      </c>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36">
+      <c r="D16" s="37">
+        <v>820.54</v>
+      </c>
+      <c r="E16" s="37">
+        <v>832.69</v>
+      </c>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35">
         <f t="shared" si="0"/>
-        <v>846.69433467869487</v>
+        <v>840.07387726135073</v>
       </c>
       <c r="H16" s="11">
         <f t="shared" si="1"/>
-        <v>-0.51309362786080559</v>
+        <v>-0.87895570392240163</v>
       </c>
       <c r="I16" s="9"/>
-      <c r="J16" s="30">
+      <c r="J16" s="29">
         <f t="shared" si="2"/>
-        <v>18.220000000000027</v>
+        <v>12.150000000000091</v>
       </c>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
@@ -5745,25 +5745,25 @@
       <c r="C17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="38">
-        <v>729.65</v>
-      </c>
-      <c r="E17" s="38">
-        <v>735.78</v>
-      </c>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36">
+      <c r="D17" s="37">
+        <v>727.38</v>
+      </c>
+      <c r="E17" s="37">
+        <v>739.2</v>
+      </c>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35">
         <f t="shared" si="0"/>
-        <v>749.62751179827171</v>
+        <v>744.6960987183578</v>
       </c>
       <c r="H17" s="11">
         <f t="shared" si="1"/>
-        <v>-1.8472523460422496</v>
+        <v>-0.73803243065415636</v>
       </c>
       <c r="I17" s="9"/>
-      <c r="J17" s="30">
+      <c r="J17" s="29">
         <f t="shared" si="2"/>
-        <v>6.1299999999999955</v>
+        <v>11.82000000000005</v>
       </c>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
@@ -5778,25 +5778,25 @@
       <c r="C18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="38">
-        <v>894.01</v>
-      </c>
-      <c r="E18" s="38">
-        <v>896.08</v>
-      </c>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36">
+      <c r="D18" s="37">
+        <v>897.33</v>
+      </c>
+      <c r="E18" s="37">
+        <v>896.76</v>
+      </c>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35">
         <f t="shared" si="0"/>
-        <v>918.48761984893156</v>
+        <v>918.69194954898956</v>
       </c>
       <c r="H18" s="11">
         <f t="shared" si="1"/>
-        <v>-2.4396213258287558</v>
+        <v>-2.3873018109886068</v>
       </c>
       <c r="I18" s="9"/>
-      <c r="J18" s="30">
+      <c r="J18" s="29">
         <f t="shared" si="2"/>
-        <v>2.07000000000005</v>
+        <v>-0.57000000000005002</v>
       </c>
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
@@ -5811,25 +5811,25 @@
       <c r="C19" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="38">
-        <v>796.79</v>
-      </c>
-      <c r="E19" s="38">
-        <v>836.61</v>
-      </c>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36">
+      <c r="D19" s="37">
+        <v>794.05</v>
+      </c>
+      <c r="E19" s="37">
+        <v>834.21</v>
+      </c>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35">
         <f t="shared" si="0"/>
-        <v>818.60577691460969</v>
+        <v>812.95325302773244</v>
       </c>
       <c r="H19" s="11">
         <f t="shared" si="1"/>
-        <v>2.1993765000351884</v>
+        <v>2.614756370443172</v>
       </c>
       <c r="I19" s="9"/>
-      <c r="J19" s="30">
+      <c r="J19" s="29">
         <f t="shared" si="2"/>
-        <v>39.82000000000005</v>
+        <v>40.160000000000082</v>
       </c>
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
@@ -5844,25 +5844,25 @@
       <c r="C20" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="38">
-        <v>770.3</v>
-      </c>
-      <c r="E20" s="38">
-        <v>791.86</v>
-      </c>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36">
+      <c r="D20" s="37">
+        <v>784.04</v>
+      </c>
+      <c r="E20" s="37">
+        <v>792.27</v>
+      </c>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35">
         <f t="shared" si="0"/>
-        <v>791.39049179498215</v>
+        <v>802.70495372314508</v>
       </c>
       <c r="H20" s="11">
         <f t="shared" si="1"/>
-        <v>5.9326995950237382E-2</v>
+        <v>-1.2999737543346601</v>
       </c>
       <c r="I20" s="9"/>
-      <c r="J20" s="30">
+      <c r="J20" s="29">
         <f t="shared" si="2"/>
-        <v>21.560000000000059</v>
+        <v>8.2300000000000182</v>
       </c>
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
@@ -5877,25 +5877,25 @@
       <c r="C21" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="38">
-        <v>767.15</v>
-      </c>
-      <c r="E21" s="38">
-        <v>784.54</v>
-      </c>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36">
+      <c r="D21" s="37">
+        <v>760.45</v>
+      </c>
+      <c r="E21" s="37">
+        <v>781.5</v>
+      </c>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35">
         <f t="shared" si="0"/>
-        <v>788.15424611258027</v>
+        <v>778.55336725009658</v>
       </c>
       <c r="H21" s="11">
         <f t="shared" si="1"/>
-        <v>-0.45857091177353704</v>
+        <v>0.37847537161275202</v>
       </c>
       <c r="I21" s="9"/>
-      <c r="J21" s="30">
+      <c r="J21" s="29">
         <f t="shared" si="2"/>
-        <v>17.389999999999986</v>
+        <v>21.049999999999955</v>
       </c>
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
@@ -5910,25 +5910,25 @@
       <c r="C22" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="38">
-        <v>732.89</v>
-      </c>
-      <c r="E22" s="38">
-        <v>758.73</v>
-      </c>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36">
+      <c r="D22" s="37">
+        <v>741.66</v>
+      </c>
+      <c r="E22" s="37">
+        <v>760.82</v>
+      </c>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35">
         <f t="shared" si="0"/>
-        <v>752.95622164302802</v>
+        <v>759.31605017385311</v>
       </c>
       <c r="H22" s="11">
         <f t="shared" si="1"/>
-        <v>0.76681461564565012</v>
+        <v>0.19806638168686774</v>
       </c>
       <c r="I22" s="9"/>
-      <c r="J22" s="30">
+      <c r="J22" s="29">
         <f t="shared" si="2"/>
-        <v>25.840000000000032</v>
+        <v>19.160000000000082</v>
       </c>
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
@@ -5943,25 +5943,25 @@
       <c r="C23" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="38">
-        <v>785.89</v>
-      </c>
-      <c r="E23" s="38">
-        <v>815.62</v>
-      </c>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36">
+      <c r="D23" s="37">
+        <v>775.39</v>
+      </c>
+      <c r="E23" s="37">
+        <v>812.96</v>
+      </c>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35">
         <f t="shared" si="0"/>
-        <v>807.40733947391732</v>
+        <v>793.84903074765248</v>
       </c>
       <c r="H23" s="11">
         <f t="shared" si="1"/>
-        <v>1.0171644626656207</v>
+        <v>2.4073808132446528</v>
       </c>
       <c r="I23" s="9"/>
-      <c r="J23" s="30">
+      <c r="J23" s="29">
         <f t="shared" si="2"/>
-        <v>29.730000000000018</v>
+        <v>37.57000000000005</v>
       </c>
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
@@ -5976,25 +5976,25 @@
       <c r="C24" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="38">
-        <v>748.94</v>
-      </c>
-      <c r="E24" s="38">
-        <v>767.85</v>
-      </c>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36">
+      <c r="D24" s="37">
+        <v>751.04</v>
+      </c>
+      <c r="E24" s="37">
+        <v>787.91</v>
+      </c>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35">
         <f t="shared" si="0"/>
-        <v>769.4456639295521</v>
+        <v>768.91935162010975</v>
       </c>
       <c r="H24" s="11">
         <f t="shared" si="1"/>
-        <v>-0.20737837697375472</v>
+        <v>2.4697841639538698</v>
       </c>
       <c r="I24" s="9"/>
-      <c r="J24" s="30">
+      <c r="J24" s="29">
         <f t="shared" si="2"/>
-        <v>18.909999999999968</v>
+        <v>36.870000000000005</v>
       </c>
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
@@ -6009,25 +6009,25 @@
       <c r="C25" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="38">
-        <v>916.64</v>
-      </c>
-      <c r="E25" s="38">
-        <v>950.76</v>
-      </c>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36">
+      <c r="D25" s="37">
+        <v>924.45</v>
+      </c>
+      <c r="E25" s="37">
+        <v>946.15</v>
+      </c>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35">
         <f t="shared" si="0"/>
-        <v>941.73721978313961</v>
+        <v>946.45757164093857</v>
       </c>
       <c r="H25" s="11">
         <f t="shared" si="1"/>
-        <v>0.95809956613355229</v>
+        <v>-3.2497139877629699E-2</v>
       </c>
       <c r="I25" s="9"/>
-      <c r="J25" s="30">
+      <c r="J25" s="29">
         <f t="shared" si="2"/>
-        <v>34.120000000000005</v>
+        <v>21.699999999999932</v>
       </c>
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
@@ -6042,25 +6042,25 @@
       <c r="C26" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="38">
-        <v>1031.25</v>
-      </c>
-      <c r="E26" s="38">
-        <v>1066.23</v>
-      </c>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36">
+      <c r="D26" s="37">
+        <v>1030.8599999999999</v>
+      </c>
+      <c r="E26" s="37">
+        <v>1063.26</v>
+      </c>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35">
         <f t="shared" si="0"/>
-        <v>1059.4851936434836</v>
+        <v>1055.4007813313622</v>
       </c>
       <c r="H26" s="11">
         <f t="shared" si="1"/>
-        <v>0.63661166734398922</v>
+        <v>0.74466674723545623</v>
       </c>
       <c r="I26" s="9"/>
-      <c r="J26" s="30">
+      <c r="J26" s="29">
         <f t="shared" si="2"/>
-        <v>34.980000000000018</v>
+        <v>32.400000000000091</v>
       </c>
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
@@ -6075,25 +6075,25 @@
       <c r="C27" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="38">
-        <v>818.64</v>
-      </c>
-      <c r="E27" s="38">
-        <v>843.09</v>
-      </c>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36">
+      <c r="D27" s="37">
+        <v>821.06</v>
+      </c>
+      <c r="E27" s="37">
+        <v>829.72</v>
+      </c>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35">
         <f t="shared" si="0"/>
-        <v>841.05402077508006</v>
+        <v>840.60625644600464</v>
       </c>
       <c r="H27" s="11">
         <f t="shared" si="1"/>
-        <v>0.24207472702451049</v>
+        <v>-1.2950482300751132</v>
       </c>
       <c r="I27" s="9"/>
-      <c r="J27" s="30">
+      <c r="J27" s="29">
         <f t="shared" si="2"/>
-        <v>24.450000000000045</v>
+        <v>8.6600000000000819</v>
       </c>
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
@@ -6108,25 +6108,25 @@
       <c r="C28" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="38">
-        <v>886.44</v>
-      </c>
-      <c r="E28" s="38">
-        <v>955.53</v>
-      </c>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36">
+      <c r="D28" s="37">
+        <v>906.18</v>
+      </c>
+      <c r="E28" s="37">
+        <v>950.68</v>
+      </c>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35">
         <f t="shared" si="0"/>
-        <v>910.71035641534991</v>
+        <v>927.752633749349</v>
       </c>
       <c r="H28" s="11">
         <f t="shared" si="1"/>
-        <v>4.9213938623762665</v>
+        <v>2.4712801038347942</v>
       </c>
       <c r="I28" s="9"/>
-      <c r="J28" s="30">
+      <c r="J28" s="29">
         <f t="shared" si="2"/>
-        <v>69.089999999999918</v>
+        <v>44.5</v>
       </c>
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
@@ -6141,25 +6141,25 @@
       <c r="C29" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D29" s="38">
-        <v>679.31</v>
-      </c>
-      <c r="E29" s="38">
-        <v>705.1</v>
-      </c>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36">
+      <c r="D29" s="37">
+        <v>672.37</v>
+      </c>
+      <c r="E29" s="37">
+        <v>701.98</v>
+      </c>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35">
         <f t="shared" si="0"/>
-        <v>697.90922365474398</v>
+        <v>688.37652381872238</v>
       </c>
       <c r="H29" s="11">
         <f t="shared" si="1"/>
-        <v>1.0303311808375515</v>
+        <v>1.9761679416103961</v>
       </c>
       <c r="I29" s="9"/>
-      <c r="J29" s="30">
+      <c r="J29" s="29">
         <f t="shared" si="2"/>
-        <v>25.790000000000077</v>
+        <v>29.610000000000014</v>
       </c>
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
@@ -6174,25 +6174,25 @@
       <c r="C30" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D30" s="38">
-        <v>738.26</v>
-      </c>
-      <c r="E30" s="38">
-        <v>779.17</v>
-      </c>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36">
+      <c r="D30" s="37">
+        <v>740.59</v>
+      </c>
+      <c r="E30" s="37">
+        <v>785.21</v>
+      </c>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35">
         <f t="shared" si="0"/>
-        <v>758.47324999683701</v>
+        <v>758.22057762081533</v>
       </c>
       <c r="H30" s="11">
         <f t="shared" si="1"/>
-        <v>2.7287382914623848</v>
+        <v>3.5595739783103042</v>
       </c>
       <c r="I30" s="9"/>
-      <c r="J30" s="30">
+      <c r="J30" s="29">
         <f t="shared" si="2"/>
-        <v>40.909999999999968</v>
+        <v>44.620000000000005</v>
       </c>
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
@@ -6207,25 +6207,25 @@
       <c r="C31" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D31" s="38">
-        <v>722.87</v>
-      </c>
-      <c r="E31" s="38">
-        <v>736.44</v>
-      </c>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36">
+      <c r="D31" s="37">
+        <v>709.95</v>
+      </c>
+      <c r="E31" s="37">
+        <v>731.58</v>
+      </c>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35">
         <f t="shared" si="0"/>
-        <v>742.6618782342448</v>
+        <v>726.8511579712092</v>
       </c>
       <c r="H31" s="11">
         <f t="shared" si="1"/>
-        <v>-0.83778074741602815</v>
+        <v>0.65059290020119676</v>
       </c>
       <c r="I31" s="9"/>
-      <c r="J31" s="30">
+      <c r="J31" s="29">
         <f t="shared" si="2"/>
-        <v>13.57000000000005</v>
+        <v>21.629999999999995</v>
       </c>
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
@@ -6240,25 +6240,25 @@
       <c r="C32" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D32" s="38">
-        <v>761.9</v>
-      </c>
-      <c r="E32" s="38">
-        <v>791.62</v>
-      </c>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36">
+      <c r="D32" s="37">
+        <v>762.86</v>
+      </c>
+      <c r="E32" s="37">
+        <v>808.85</v>
+      </c>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35">
         <f t="shared" si="0"/>
-        <v>782.76050330857709</v>
+        <v>781.02074000974244</v>
       </c>
       <c r="H32" s="11">
         <f t="shared" si="1"/>
-        <v>1.1318272516274819</v>
+        <v>3.5631909070571455</v>
       </c>
       <c r="I32" s="9"/>
-      <c r="J32" s="30">
+      <c r="J32" s="29">
         <f t="shared" si="2"/>
-        <v>29.720000000000027</v>
+        <v>45.990000000000009</v>
       </c>
       <c r="K32" s="9"/>
       <c r="L32" s="9"/>
@@ -6273,25 +6273,25 @@
       <c r="C33" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D33" s="38">
-        <v>741.26</v>
-      </c>
-      <c r="E33" s="38">
-        <v>753.75</v>
-      </c>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36">
+      <c r="D33" s="37">
+        <v>739.26</v>
+      </c>
+      <c r="E33" s="37">
+        <v>763.98</v>
+      </c>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35">
         <f t="shared" si="0"/>
-        <v>761.55538874198169</v>
+        <v>756.85891547545054</v>
       </c>
       <c r="H33" s="11">
         <f t="shared" si="1"/>
-        <v>-1.0249272551108191</v>
+        <v>0.94087344139641704</v>
       </c>
       <c r="I33" s="9"/>
-      <c r="J33" s="30">
+      <c r="J33" s="29">
         <f t="shared" si="2"/>
-        <v>12.490000000000009</v>
+        <v>24.720000000000027</v>
       </c>
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
@@ -6306,25 +6306,25 @@
       <c r="C34" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D34" s="38">
-        <v>858.22</v>
-      </c>
-      <c r="E34" s="38">
-        <v>892.11</v>
-      </c>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36">
+      <c r="D34" s="37">
+        <v>849.35</v>
+      </c>
+      <c r="E34" s="37">
+        <v>891.11</v>
+      </c>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35">
         <f t="shared" si="0"/>
-        <v>881.71770461935557</v>
+        <v>869.56973170342496</v>
       </c>
       <c r="H34" s="11">
         <f t="shared" si="1"/>
-        <v>1.1786420218397264</v>
+        <v>2.4771179942497668</v>
       </c>
       <c r="I34" s="9"/>
-      <c r="J34" s="30">
+      <c r="J34" s="29">
         <f t="shared" si="2"/>
-        <v>33.889999999999986</v>
+        <v>41.759999999999991</v>
       </c>
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
@@ -6339,25 +6339,25 @@
       <c r="C35" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D35" s="38">
-        <v>940.46</v>
-      </c>
-      <c r="E35" s="38">
-        <v>977.5</v>
-      </c>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36">
+      <c r="D35" s="37">
+        <v>937.67</v>
+      </c>
+      <c r="E35" s="37">
+        <v>950</v>
+      </c>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35">
         <f t="shared" si="0"/>
-        <v>966.2094014195884</v>
+        <v>959.99228860463927</v>
       </c>
       <c r="H35" s="11">
         <f t="shared" si="1"/>
-        <v>1.1685457172972091</v>
+        <v>-1.0408717573307968</v>
       </c>
       <c r="I35" s="9"/>
-      <c r="J35" s="30">
+      <c r="J35" s="29">
         <f t="shared" si="2"/>
-        <v>37.039999999999964</v>
+        <v>12.330000000000041</v>
       </c>
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
@@ -6372,25 +6372,25 @@
       <c r="C36" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D36" s="38">
-        <v>691.78</v>
-      </c>
-      <c r="E36" s="38">
-        <v>691.79</v>
-      </c>
-      <c r="F36" s="36"/>
-      <c r="G36" s="36">
+      <c r="D36" s="37">
+        <v>681.98</v>
+      </c>
+      <c r="E36" s="37">
+        <v>693.22</v>
+      </c>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35">
         <f t="shared" si="0"/>
-        <v>710.72064703872877</v>
+        <v>698.21530067357594</v>
       </c>
       <c r="H36" s="11">
         <f t="shared" si="1"/>
-        <v>-2.6635847878635266</v>
+        <v>-0.71543844266329648</v>
       </c>
       <c r="I36" s="9"/>
-      <c r="J36" s="30">
+      <c r="J36" s="29">
         <f t="shared" si="2"/>
-        <v>9.9999999999909051E-3</v>
+        <v>11.240000000000009</v>
       </c>
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
@@ -6405,25 +6405,25 @@
       <c r="C37" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D37" s="38">
-        <v>979.07</v>
-      </c>
-      <c r="E37" s="38">
-        <v>995.98</v>
-      </c>
-      <c r="F37" s="36"/>
-      <c r="G37" s="36">
+      <c r="D37" s="37">
+        <v>971.43</v>
+      </c>
+      <c r="E37" s="37">
+        <v>985.31</v>
+      </c>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35">
         <f t="shared" si="0"/>
-        <v>1005.8765270696005</v>
+        <v>994.55598336216872</v>
       </c>
       <c r="H37" s="11">
         <f t="shared" si="1"/>
-        <v>-0.98387096261524087</v>
+        <v>-0.92965941755355219</v>
       </c>
       <c r="I37" s="9"/>
-      <c r="J37" s="30">
+      <c r="J37" s="29">
         <f t="shared" si="2"/>
-        <v>16.909999999999968</v>
+        <v>13.879999999999995</v>
       </c>
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
@@ -6438,25 +6438,25 @@
       <c r="C38" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D38" s="38">
-        <v>783.48</v>
-      </c>
-      <c r="E38" s="38">
-        <v>826.29</v>
-      </c>
-      <c r="F38" s="36"/>
-      <c r="G38" s="36">
+      <c r="D38" s="37">
+        <v>790.78</v>
+      </c>
+      <c r="E38" s="37">
+        <v>823.54</v>
+      </c>
+      <c r="F38" s="35"/>
+      <c r="G38" s="35">
         <f t="shared" si="0"/>
-        <v>804.93135468198443</v>
+        <v>809.60540700115894</v>
       </c>
       <c r="H38" s="11">
         <f t="shared" si="1"/>
-        <v>2.6534741371149639</v>
+        <v>1.7211585889051584</v>
       </c>
       <c r="I38" s="9"/>
-      <c r="J38" s="30">
+      <c r="J38" s="29">
         <f t="shared" si="2"/>
-        <v>42.809999999999945</v>
+        <v>32.759999999999991</v>
       </c>
       <c r="K38" s="9"/>
       <c r="L38" s="9"/>
@@ -6471,25 +6471,25 @@
       <c r="C39" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D39" s="38">
-        <v>875.69</v>
-      </c>
-      <c r="E39" s="38">
-        <v>864.45</v>
-      </c>
-      <c r="F39" s="36"/>
-      <c r="G39" s="36">
+      <c r="D39" s="37">
+        <v>864.74</v>
+      </c>
+      <c r="E39" s="37">
+        <v>870.4</v>
+      </c>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35">
         <f t="shared" si="0"/>
-        <v>899.66602591191486</v>
+        <v>885.32610795693142</v>
       </c>
       <c r="H39" s="11">
         <f t="shared" si="1"/>
-        <v>-3.9143443119594612</v>
+        <v>-1.6859446279491763</v>
       </c>
       <c r="I39" s="9"/>
-      <c r="J39" s="30">
+      <c r="J39" s="29">
         <f t="shared" si="2"/>
-        <v>-11.240000000000009</v>
+        <v>5.6599999999999682</v>
       </c>
       <c r="K39" s="9"/>
       <c r="L39" s="9"/>
@@ -6504,25 +6504,25 @@
       <c r="C40" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D40" s="38">
-        <v>785.4</v>
-      </c>
-      <c r="E40" s="38">
-        <v>813.29</v>
-      </c>
-      <c r="F40" s="36"/>
-      <c r="G40" s="36">
+      <c r="D40" s="37">
+        <v>787.03</v>
+      </c>
+      <c r="E40" s="37">
+        <v>816.35</v>
+      </c>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35">
         <f t="shared" si="0"/>
-        <v>806.903923478877</v>
+        <v>805.76613403490489</v>
       </c>
       <c r="H40" s="11">
         <f t="shared" si="1"/>
-        <v>0.79142960336469059</v>
+        <v>1.3135158600046992</v>
       </c>
       <c r="I40" s="9"/>
-      <c r="J40" s="30">
+      <c r="J40" s="29">
         <f t="shared" si="2"/>
-        <v>27.889999999999986</v>
+        <v>29.32000000000005</v>
       </c>
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
@@ -6537,25 +6537,25 @@
       <c r="C41" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D41" s="38">
-        <v>759.68</v>
-      </c>
-      <c r="E41" s="38">
-        <v>800.88</v>
-      </c>
-      <c r="F41" s="36"/>
-      <c r="G41" s="36">
+      <c r="D41" s="37">
+        <v>754.52</v>
+      </c>
+      <c r="E41" s="37">
+        <v>796.02</v>
+      </c>
+      <c r="F41" s="35"/>
+      <c r="G41" s="35">
         <f t="shared" si="0"/>
-        <v>780.47972063716998</v>
+        <v>772.4821969327935</v>
       </c>
       <c r="H41" s="11">
         <f t="shared" si="1"/>
-        <v>2.6138128670627925</v>
+        <v>3.0470350204399921</v>
       </c>
       <c r="I41" s="9"/>
-      <c r="J41" s="30">
+      <c r="J41" s="29">
         <f t="shared" si="2"/>
-        <v>41.200000000000045</v>
+        <v>41.5</v>
       </c>
       <c r="K41" s="9"/>
       <c r="L41" s="9"/>
@@ -6570,25 +6570,25 @@
       <c r="C42" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D42" s="38">
-        <v>820.6</v>
-      </c>
-      <c r="E42" s="38">
-        <v>866.32</v>
-      </c>
-      <c r="F42" s="36"/>
-      <c r="G42" s="36">
+      <c r="D42" s="37">
+        <v>811.71</v>
+      </c>
+      <c r="E42" s="37">
+        <v>860.02</v>
+      </c>
+      <c r="F42" s="35"/>
+      <c r="G42" s="35">
         <f t="shared" si="0"/>
-        <v>843.06768475524132</v>
+        <v>831.03366918347808</v>
       </c>
       <c r="H42" s="11">
         <f t="shared" si="1"/>
-        <v>2.7580603153481542</v>
+        <v>3.4879851312164201</v>
       </c>
       <c r="I42" s="9"/>
-      <c r="J42" s="30">
+      <c r="J42" s="29">
         <f t="shared" si="2"/>
-        <v>45.720000000000027</v>
+        <v>48.309999999999945</v>
       </c>
       <c r="K42" s="9"/>
       <c r="L42" s="9"/>
@@ -6603,25 +6603,25 @@
       <c r="C43" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D43" s="38">
-        <v>825.89</v>
-      </c>
-      <c r="E43" s="38">
-        <v>835.67</v>
-      </c>
-      <c r="F43" s="36"/>
-      <c r="G43" s="36">
+      <c r="D43" s="37">
+        <v>822.53</v>
+      </c>
+      <c r="E43" s="37">
+        <v>829.82</v>
+      </c>
+      <c r="F43" s="35"/>
+      <c r="G43" s="35">
         <f t="shared" si="0"/>
-        <v>848.50252274251307</v>
+        <v>842.11125144877622</v>
       </c>
       <c r="H43" s="11">
         <f t="shared" si="1"/>
-        <v>-1.5123729627857907</v>
+        <v>-1.4595757303598744</v>
       </c>
       <c r="I43" s="9"/>
-      <c r="J43" s="30">
+      <c r="J43" s="29">
         <f t="shared" si="2"/>
-        <v>9.7799999999999727</v>
+        <v>7.2900000000000773</v>
       </c>
       <c r="K43" s="9"/>
       <c r="L43" s="9"/>
@@ -6636,25 +6636,25 @@
       <c r="C44" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D44" s="38">
-        <v>843.7</v>
-      </c>
-      <c r="E44" s="38">
-        <v>859.55</v>
-      </c>
-      <c r="F44" s="36"/>
-      <c r="G44" s="36">
+      <c r="D44" s="37">
+        <v>833.95</v>
+      </c>
+      <c r="E44" s="37">
+        <v>852.05</v>
+      </c>
+      <c r="F44" s="35"/>
+      <c r="G44" s="35">
         <f t="shared" si="0"/>
-        <v>866.80015309285534</v>
+        <v>853.80311738867522</v>
       </c>
       <c r="H44" s="11">
         <f t="shared" si="1"/>
-        <v>-0.83642729722483988</v>
+        <v>-0.20533040380985579</v>
       </c>
       <c r="I44" s="9"/>
-      <c r="J44" s="30">
+      <c r="J44" s="29">
         <f t="shared" si="2"/>
-        <v>15.849999999999909</v>
+        <v>18.099999999999909</v>
       </c>
       <c r="K44" s="9"/>
       <c r="L44" s="9"/>
@@ -6669,25 +6669,25 @@
       <c r="C45" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D45" s="38">
-        <v>749.58</v>
-      </c>
-      <c r="E45" s="38">
-        <v>783.07</v>
-      </c>
-      <c r="F45" s="36"/>
-      <c r="G45" s="36">
+      <c r="D45" s="37">
+        <v>767.08</v>
+      </c>
+      <c r="E45" s="37">
+        <v>799.37</v>
+      </c>
+      <c r="F45" s="35"/>
+      <c r="G45" s="35">
         <f t="shared" si="0"/>
-        <v>770.10318686184962</v>
+        <v>785.34120185443362</v>
       </c>
       <c r="H45" s="11">
         <f t="shared" si="1"/>
-        <v>1.6837760652556044</v>
+        <v>1.7863316113353012</v>
       </c>
       <c r="I45" s="9"/>
-      <c r="J45" s="30">
+      <c r="J45" s="29">
         <f t="shared" si="2"/>
-        <v>33.490000000000009</v>
+        <v>32.289999999999964</v>
       </c>
       <c r="K45" s="9"/>
       <c r="L45" s="9"/>
@@ -6702,25 +6702,25 @@
       <c r="C46" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D46" s="38">
-        <v>707.41</v>
-      </c>
-      <c r="E46" s="38">
-        <v>735.38</v>
-      </c>
-      <c r="F46" s="36"/>
-      <c r="G46" s="36">
+      <c r="D46" s="37">
+        <v>711.65</v>
+      </c>
+      <c r="E46" s="37">
+        <v>730.73</v>
+      </c>
+      <c r="F46" s="35"/>
+      <c r="G46" s="35">
         <f t="shared" si="0"/>
-        <v>726.7785899009325</v>
+        <v>728.5916283825776</v>
       </c>
       <c r="H46" s="11">
         <f t="shared" si="1"/>
-        <v>1.1834980031869113</v>
+        <v>0.29349384952026547</v>
       </c>
       <c r="I46" s="9"/>
-      <c r="J46" s="30">
+      <c r="J46" s="29">
         <f t="shared" si="2"/>
-        <v>27.970000000000027</v>
+        <v>19.080000000000041</v>
       </c>
       <c r="K46" s="9"/>
       <c r="L46" s="9"/>
@@ -6735,25 +6735,25 @@
       <c r="C47" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D47" s="38">
-        <v>748.68</v>
-      </c>
-      <c r="E47" s="38">
-        <v>800.39</v>
-      </c>
-      <c r="F47" s="36"/>
-      <c r="G47" s="36">
+      <c r="D47" s="37">
+        <v>753.3</v>
+      </c>
+      <c r="E47" s="37">
+        <v>788.6</v>
+      </c>
+      <c r="F47" s="35"/>
+      <c r="G47" s="35">
         <f t="shared" si="0"/>
-        <v>769.17854523830613</v>
+        <v>771.23315346110553</v>
       </c>
       <c r="H47" s="11">
         <f t="shared" si="1"/>
-        <v>4.0577646054888339</v>
+        <v>2.2518283168917685</v>
       </c>
       <c r="I47" s="9"/>
-      <c r="J47" s="30">
+      <c r="J47" s="29">
         <f t="shared" si="2"/>
-        <v>51.710000000000036</v>
+        <v>35.300000000000068</v>
       </c>
       <c r="K47" s="9"/>
       <c r="L47" s="9"/>
@@ -6768,25 +6768,25 @@
       <c r="C48" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D48" s="38">
-        <v>871.79</v>
-      </c>
-      <c r="E48" s="38">
-        <v>891.02</v>
-      </c>
-      <c r="F48" s="36"/>
-      <c r="G48" s="36">
+      <c r="D48" s="37">
+        <v>863.1</v>
+      </c>
+      <c r="E48" s="37">
+        <v>892.83</v>
+      </c>
+      <c r="F48" s="35"/>
+      <c r="G48" s="35">
         <f t="shared" si="0"/>
-        <v>895.65924554322669</v>
+        <v>883.64706591302297</v>
       </c>
       <c r="H48" s="11">
         <f t="shared" si="1"/>
-        <v>-0.51796992732575653</v>
+        <v>1.039208349262033</v>
       </c>
       <c r="I48" s="9"/>
-      <c r="J48" s="30">
+      <c r="J48" s="29">
         <f t="shared" si="2"/>
-        <v>19.230000000000018</v>
+        <v>29.730000000000018</v>
       </c>
       <c r="K48" s="9"/>
       <c r="L48" s="9"/>
@@ -6801,25 +6801,25 @@
       <c r="C49" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D49" s="38">
-        <v>829.01</v>
-      </c>
-      <c r="E49" s="38">
-        <v>852.61</v>
-      </c>
-      <c r="F49" s="36"/>
-      <c r="G49" s="36">
+      <c r="D49" s="37">
+        <v>826.97</v>
+      </c>
+      <c r="E49" s="37">
+        <v>848.05</v>
+      </c>
+      <c r="F49" s="35"/>
+      <c r="G49" s="35">
         <f t="shared" si="0"/>
-        <v>851.70794703746355</v>
+        <v>846.65695064082104</v>
       </c>
       <c r="H49" s="11">
         <f t="shared" si="1"/>
-        <v>0.10591106560342567</v>
+        <v>0.1645352770238917</v>
       </c>
       <c r="I49" s="9"/>
-      <c r="J49" s="30">
+      <c r="J49" s="29">
         <f t="shared" si="2"/>
-        <v>23.600000000000023</v>
+        <v>21.079999999999927</v>
       </c>
       <c r="K49" s="9"/>
       <c r="L49" s="9"/>
@@ -6834,25 +6834,25 @@
       <c r="C50" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D50" s="38">
-        <v>802.76</v>
-      </c>
-      <c r="E50" s="38">
-        <v>793.55</v>
-      </c>
-      <c r="F50" s="36"/>
-      <c r="G50" s="36">
+      <c r="D50" s="37">
+        <v>797.37</v>
+      </c>
+      <c r="E50" s="37">
+        <v>787.62</v>
+      </c>
+      <c r="F50" s="35"/>
+      <c r="G50" s="35">
         <f t="shared" si="0"/>
-        <v>824.73923301744765</v>
+        <v>816.35228936052272</v>
       </c>
       <c r="H50" s="11">
         <f t="shared" si="1"/>
-        <v>-3.7817084199252449</v>
+        <v>-3.5195943877403324</v>
       </c>
       <c r="I50" s="9"/>
-      <c r="J50" s="30">
+      <c r="J50" s="29">
         <f t="shared" si="2"/>
-        <v>-9.2100000000000364</v>
+        <v>-9.75</v>
       </c>
       <c r="K50" s="9"/>
       <c r="L50" s="9"/>
@@ -6867,25 +6867,25 @@
       <c r="C51" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D51" s="38">
-        <v>924.06</v>
-      </c>
-      <c r="E51" s="38">
-        <v>946</v>
-      </c>
-      <c r="F51" s="36"/>
-      <c r="G51" s="36">
+      <c r="D51" s="37">
+        <v>929.51</v>
+      </c>
+      <c r="E51" s="37">
+        <v>944.28</v>
+      </c>
+      <c r="F51" s="35"/>
+      <c r="G51" s="35">
         <f t="shared" si="0"/>
-        <v>949.36037627946405</v>
+        <v>951.6380306300706</v>
       </c>
       <c r="H51" s="11">
         <f t="shared" si="1"/>
-        <v>-0.35396213739542493</v>
+        <v>-0.77319636177202167</v>
       </c>
       <c r="I51" s="9"/>
-      <c r="J51" s="30">
+      <c r="J51" s="29">
         <f t="shared" si="2"/>
-        <v>21.940000000000055</v>
+        <v>14.769999999999982</v>
       </c>
       <c r="K51" s="9"/>
       <c r="L51" s="9"/>
@@ -6900,25 +6900,25 @@
       <c r="C52" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D52" s="38">
-        <v>1036.94</v>
-      </c>
-      <c r="E52" s="38">
-        <v>1063.92</v>
-      </c>
-      <c r="F52" s="36"/>
-      <c r="G52" s="36">
+      <c r="D52" s="37">
+        <v>1033.23</v>
+      </c>
+      <c r="E52" s="37">
+        <v>1063.3</v>
+      </c>
+      <c r="F52" s="35"/>
+      <c r="G52" s="35">
         <f t="shared" si="0"/>
-        <v>1065.3309834634413</v>
+        <v>1057.827201846035</v>
       </c>
       <c r="H52" s="11">
         <f t="shared" si="1"/>
-        <v>-0.13244554841106426</v>
+        <v>0.51736220664531096</v>
       </c>
       <c r="I52" s="9"/>
-      <c r="J52" s="30">
+      <c r="J52" s="29">
         <f t="shared" si="2"/>
-        <v>26.980000000000018</v>
+        <v>30.069999999999936</v>
       </c>
       <c r="K52" s="9"/>
       <c r="L52" s="9"/>
@@ -6933,25 +6933,25 @@
       <c r="C53" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D53" s="38">
-        <v>724.07</v>
-      </c>
-      <c r="E53" s="38">
-        <v>753.28</v>
-      </c>
-      <c r="F53" s="36"/>
-      <c r="G53" s="36">
+      <c r="D53" s="37">
+        <v>728.02</v>
+      </c>
+      <c r="E53" s="37">
+        <v>757.11</v>
+      </c>
+      <c r="F53" s="35"/>
+      <c r="G53" s="35">
         <f t="shared" si="0"/>
-        <v>743.89473373230271</v>
+        <v>745.35133463793181</v>
       </c>
       <c r="H53" s="11">
         <f t="shared" si="1"/>
-        <v>1.2616390252703003</v>
+        <v>1.5776003631603031</v>
       </c>
       <c r="I53" s="9"/>
-      <c r="J53" s="30">
+      <c r="J53" s="29">
         <f t="shared" si="2"/>
-        <v>29.209999999999923</v>
+        <v>29.090000000000032</v>
       </c>
       <c r="K53" s="9"/>
       <c r="L53" s="9"/>
@@ -6966,25 +6966,25 @@
       <c r="C54" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D54" s="38">
-        <v>791.42</v>
-      </c>
-      <c r="E54" s="38">
-        <v>809.86</v>
-      </c>
-      <c r="F54" s="36"/>
-      <c r="G54" s="36">
+      <c r="D54" s="37">
+        <v>794.54</v>
+      </c>
+      <c r="E54" s="37">
+        <v>812.74</v>
+      </c>
+      <c r="F54" s="35"/>
+      <c r="G54" s="35">
         <f t="shared" si="0"/>
-        <v>813.0887485608007</v>
+        <v>813.45491802865627</v>
       </c>
       <c r="H54" s="11">
         <f t="shared" si="1"/>
-        <v>-0.39709669658025692</v>
+        <v>-8.7886619505450625E-2</v>
       </c>
       <c r="I54" s="9"/>
-      <c r="J54" s="30">
+      <c r="J54" s="29">
         <f t="shared" si="2"/>
-        <v>18.440000000000055</v>
+        <v>18.200000000000045</v>
       </c>
       <c r="K54" s="9"/>
       <c r="L54" s="9"/>
@@ -6999,30 +6999,30 @@
       <c r="C55" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D55" s="38">
-        <v>777.2</v>
-      </c>
-      <c r="E55" s="38">
-        <v>783.81</v>
-      </c>
-      <c r="F55" s="36"/>
-      <c r="G55" s="36">
+      <c r="D55" s="37">
+        <v>776.88</v>
+      </c>
+      <c r="E55" s="37">
+        <v>775.12</v>
+      </c>
+      <c r="F55" s="35"/>
+      <c r="G55" s="35">
         <f t="shared" si="0"/>
-        <v>798.479410908815</v>
+        <v>795.37450187291074</v>
       </c>
       <c r="H55" s="11">
         <f t="shared" si="1"/>
-        <v>-1.8371683362653712</v>
+        <v>-2.546536483784223</v>
       </c>
       <c r="I55" s="9"/>
-      <c r="J55" s="30">
+      <c r="J55" s="29">
         <f t="shared" si="2"/>
-        <v>6.6099999999999</v>
+        <v>-1.7599999999999909</v>
       </c>
       <c r="K55" s="9"/>
       <c r="L55" s="9">
         <f>COUNTIF(J5:J55,"&lt;0")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
@@ -7038,17 +7038,17 @@
       <c r="C57" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D57" s="33" t="s">
-        <v>195</v>
-      </c>
-      <c r="E57" s="34" t="s">
+      <c r="D57" s="32" t="s">
         <v>196</v>
+      </c>
+      <c r="E57" s="33" t="s">
+        <v>197</v>
       </c>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c r="H57" s="11"/>
       <c r="I57" s="8"/>
-      <c r="J57" s="44" t="s">
+      <c r="J57" s="42" t="s">
         <v>194</v>
       </c>
       <c r="K57" s="8"/>
@@ -7062,24 +7062,24 @@
         <v>167</v>
       </c>
       <c r="D58" s="9">
-        <v>875.61</v>
+        <v>875.82</v>
       </c>
       <c r="E58" s="9">
-        <v>897.5</v>
+        <v>896.6</v>
       </c>
       <c r="F58" s="9"/>
       <c r="G58" s="11">
         <f>D58/$G$61</f>
-        <v>899.58383554537761</v>
+        <v>896.66987981455657</v>
       </c>
       <c r="H58" s="11">
         <f>((E58/G58)-1)*100</f>
-        <v>-0.23164439633514</v>
+        <v>-7.7932599421126625E-3</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="11">
         <f>((E58/D58)-1)*100</f>
-        <v>2.4999714484759128</v>
+        <v>2.3726336461830089</v>
       </c>
       <c r="K58" s="9"/>
       <c r="L58" s="9"/>
@@ -7115,15 +7115,15 @@
         <v>56</v>
       </c>
       <c r="D61" s="11">
-        <v>237.11099999999999</v>
+        <v>238.13200000000001</v>
       </c>
       <c r="E61" s="11">
-        <v>243.60300000000001</v>
+        <v>243.80099999999999</v>
       </c>
       <c r="F61" s="9"/>
       <c r="G61" s="9">
         <f>D61/E61</f>
-        <v>0.97335008189554306</v>
+        <v>0.97674742925582758</v>
       </c>
       <c r="H61" s="9"/>
       <c r="I61" s="9"/>
@@ -7156,10 +7156,10 @@
       <c r="L63" s="9"/>
     </row>
     <row r="65" spans="4:7" x14ac:dyDescent="0.2">
-      <c r="D65" s="32"/>
-      <c r="E65" s="32"/>
-      <c r="F65" s="32"/>
-      <c r="G65" s="32"/>
+      <c r="D65" s="31"/>
+      <c r="E65" s="31"/>
+      <c r="F65" s="31"/>
+      <c r="G65" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7183,7 +7183,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O5" sqref="O5:O55"/>
+      <selection pane="bottomRight" activeCell="P5" sqref="P5:P55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7194,2518 +7194,2671 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="40" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
     </row>
     <row r="4" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="32" t="s">
         <v>179</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="32" t="s">
         <v>177</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="H4" s="33" t="s">
+      <c r="H4" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="I4" s="33" t="s">
+      <c r="I4" s="32" t="s">
         <v>173</v>
       </c>
-      <c r="J4" s="33" t="s">
+      <c r="J4" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="K4" s="33" t="s">
+      <c r="K4" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="L4" s="33" t="s">
+      <c r="L4" s="32" t="s">
         <v>170</v>
       </c>
-      <c r="M4" s="33" t="s">
+      <c r="M4" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="N4" s="33" t="s">
+      <c r="N4" s="32" t="s">
         <v>192</v>
       </c>
-      <c r="O4" s="33" t="s">
+      <c r="O4" s="32" t="s">
         <v>191</v>
       </c>
-      <c r="P4" s="33" t="s">
+      <c r="P4" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="Q4" s="33" t="s">
+      <c r="Q4" s="32" t="s">
         <v>189</v>
       </c>
-      <c r="R4" s="33" t="s">
+      <c r="R4" s="32" t="s">
         <v>188</v>
       </c>
-      <c r="S4" s="33" t="s">
+      <c r="S4" s="32" t="s">
         <v>187</v>
       </c>
-      <c r="T4" s="33" t="s">
+      <c r="T4" s="32" t="s">
         <v>186</v>
       </c>
-      <c r="U4" s="33" t="s">
+      <c r="U4" s="32" t="s">
         <v>185</v>
       </c>
-      <c r="V4" s="33" t="s">
+      <c r="V4" s="32" t="s">
         <v>184</v>
       </c>
-      <c r="W4" s="33" t="s">
+      <c r="W4" s="32" t="s">
         <v>183</v>
       </c>
-      <c r="X4" s="33" t="s">
+      <c r="X4" s="32" t="s">
         <v>182</v>
       </c>
-      <c r="Y4" s="33" t="s">
+      <c r="Y4" s="32" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="38">
+      <c r="B5" s="37">
         <v>768.58</v>
       </c>
-      <c r="C5" s="38">
+      <c r="C5" s="37">
         <v>768.96</v>
       </c>
-      <c r="D5" s="38">
+      <c r="D5" s="37">
         <v>760.77</v>
       </c>
-      <c r="E5" s="38">
+      <c r="E5" s="37">
         <v>777.15</v>
       </c>
-      <c r="F5" s="38">
+      <c r="F5" s="37">
         <v>786.21</v>
       </c>
-      <c r="G5" s="38">
+      <c r="G5" s="37">
         <v>778.26</v>
       </c>
-      <c r="H5" s="38">
+      <c r="H5" s="37">
         <v>782.13</v>
       </c>
-      <c r="I5" s="38">
+      <c r="I5" s="37">
         <v>771.37</v>
       </c>
-      <c r="J5" s="38">
+      <c r="J5" s="37">
         <v>778.22</v>
       </c>
-      <c r="K5" s="38">
+      <c r="K5" s="37">
         <v>801.36</v>
       </c>
-      <c r="L5" s="38">
+      <c r="L5" s="37">
         <v>780.57</v>
       </c>
-      <c r="M5" s="38">
+      <c r="M5" s="37">
         <v>783.13</v>
       </c>
-      <c r="N5" s="38">
+      <c r="N5" s="37">
         <v>795.44</v>
       </c>
-      <c r="O5" s="38">
-        <v>791.43</v>
+      <c r="O5" s="37">
+        <v>788.25</v>
+      </c>
+      <c r="P5" s="37">
+        <v>786.48</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="38">
+      <c r="B6" s="37">
         <v>935.32</v>
       </c>
-      <c r="C6" s="38">
+      <c r="C6" s="37">
         <v>951.48</v>
       </c>
-      <c r="D6" s="38">
+      <c r="D6" s="37">
         <v>955.89</v>
       </c>
-      <c r="E6" s="38">
+      <c r="E6" s="37">
         <v>959.92</v>
       </c>
-      <c r="F6" s="38">
+      <c r="F6" s="37">
         <v>965.81</v>
       </c>
-      <c r="G6" s="38">
+      <c r="G6" s="37">
         <v>961.19</v>
       </c>
-      <c r="H6" s="38">
+      <c r="H6" s="37">
         <v>989.87</v>
       </c>
-      <c r="I6" s="38">
+      <c r="I6" s="37">
         <v>986.95</v>
       </c>
-      <c r="J6" s="38">
+      <c r="J6" s="37">
         <v>974.63</v>
       </c>
-      <c r="K6" s="38">
+      <c r="K6" s="37">
         <v>1001.32</v>
       </c>
-      <c r="L6" s="38">
+      <c r="L6" s="37">
         <v>981.74</v>
       </c>
-      <c r="M6" s="38">
+      <c r="M6" s="37">
         <v>976.29</v>
       </c>
-      <c r="N6" s="38">
+      <c r="N6" s="37">
         <v>975.07</v>
       </c>
-      <c r="O6" s="38">
-        <v>961.87</v>
+      <c r="O6" s="37">
+        <v>966.65</v>
+      </c>
+      <c r="P6" s="37">
+        <v>981.05</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="38">
+      <c r="B7" s="37">
         <v>803.06</v>
       </c>
-      <c r="C7" s="38">
+      <c r="C7" s="37">
         <v>810.54</v>
       </c>
-      <c r="D7" s="38">
+      <c r="D7" s="37">
         <v>813.6</v>
       </c>
-      <c r="E7" s="38">
+      <c r="E7" s="37">
         <v>820.46</v>
       </c>
-      <c r="F7" s="38">
+      <c r="F7" s="37">
         <v>841.12</v>
       </c>
-      <c r="G7" s="38">
+      <c r="G7" s="37">
         <v>817.69</v>
       </c>
-      <c r="H7" s="38">
+      <c r="H7" s="37">
         <v>814.28</v>
       </c>
-      <c r="I7" s="38">
+      <c r="I7" s="37">
         <v>826.58</v>
       </c>
-      <c r="J7" s="38">
+      <c r="J7" s="37">
         <v>825.56</v>
       </c>
-      <c r="K7" s="38">
+      <c r="K7" s="37">
         <v>848.07</v>
       </c>
-      <c r="L7" s="38">
+      <c r="L7" s="37">
         <v>831.74</v>
       </c>
-      <c r="M7" s="38">
+      <c r="M7" s="37">
         <v>827.66</v>
       </c>
-      <c r="N7" s="38">
+      <c r="N7" s="37">
         <v>857.44</v>
       </c>
-      <c r="O7" s="38">
-        <v>850.37</v>
+      <c r="O7" s="37">
+        <v>856.03</v>
+      </c>
+      <c r="P7" s="37">
+        <v>849.34</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="38">
+      <c r="B8" s="37">
         <v>675.35</v>
       </c>
-      <c r="C8" s="38">
+      <c r="C8" s="37">
         <v>673.93</v>
       </c>
-      <c r="D8" s="38">
+      <c r="D8" s="37">
         <v>666.99</v>
       </c>
-      <c r="E8" s="38">
+      <c r="E8" s="37">
         <v>677.66</v>
       </c>
-      <c r="F8" s="38">
+      <c r="F8" s="37">
         <v>687.37</v>
       </c>
-      <c r="G8" s="38">
+      <c r="G8" s="37">
         <v>685.25</v>
       </c>
-      <c r="H8" s="38">
+      <c r="H8" s="37">
         <v>698.92</v>
       </c>
-      <c r="I8" s="38">
+      <c r="I8" s="37">
         <v>688.4</v>
       </c>
-      <c r="J8" s="38">
+      <c r="J8" s="37">
         <v>686.39</v>
       </c>
-      <c r="K8" s="38">
+      <c r="K8" s="37">
         <v>706.15</v>
       </c>
-      <c r="L8" s="38">
+      <c r="L8" s="37">
         <v>694.19</v>
       </c>
-      <c r="M8" s="38">
+      <c r="M8" s="37">
         <v>697.94</v>
       </c>
-      <c r="N8" s="38">
+      <c r="N8" s="37">
         <v>703.11</v>
       </c>
-      <c r="O8" s="38">
-        <v>703.14</v>
+      <c r="O8" s="37">
+        <v>703.82</v>
+      </c>
+      <c r="P8" s="37">
+        <v>705.89</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="38">
+      <c r="B9" s="37">
         <v>971.28</v>
       </c>
-      <c r="C9" s="38">
+      <c r="C9" s="37">
         <v>978.58</v>
       </c>
-      <c r="D9" s="38">
+      <c r="D9" s="37">
         <v>970.49</v>
       </c>
-      <c r="E9" s="38">
+      <c r="E9" s="37">
         <v>979.95</v>
       </c>
-      <c r="F9" s="38">
+      <c r="F9" s="37">
         <v>1009.66</v>
       </c>
-      <c r="G9" s="38">
+      <c r="G9" s="37">
         <v>980.64</v>
       </c>
-      <c r="H9" s="38">
+      <c r="H9" s="37">
         <v>988.31</v>
       </c>
-      <c r="I9" s="38">
+      <c r="I9" s="37">
         <v>992.44</v>
       </c>
-      <c r="J9" s="38">
+      <c r="J9" s="37">
         <v>998.13</v>
       </c>
-      <c r="K9" s="38">
+      <c r="K9" s="37">
         <v>1036.7</v>
       </c>
-      <c r="L9" s="38">
+      <c r="L9" s="37">
         <v>1001.52</v>
       </c>
-      <c r="M9" s="38">
+      <c r="M9" s="37">
         <v>1004.45</v>
       </c>
-      <c r="N9" s="38">
+      <c r="N9" s="37">
         <v>1028.79</v>
       </c>
-      <c r="O9" s="38">
-        <v>1011.84</v>
+      <c r="O9" s="37">
+        <v>1007.17</v>
+      </c>
+      <c r="P9" s="37">
+        <v>1008.68</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="38">
+      <c r="B10" s="37">
         <v>915.49</v>
       </c>
-      <c r="C10" s="38">
+      <c r="C10" s="37">
         <v>912</v>
       </c>
-      <c r="D10" s="38">
+      <c r="D10" s="37">
         <v>909.42</v>
       </c>
-      <c r="E10" s="38">
+      <c r="E10" s="37">
         <v>910.34</v>
       </c>
-      <c r="F10" s="38">
+      <c r="F10" s="37">
         <v>925.81</v>
       </c>
-      <c r="G10" s="38">
+      <c r="G10" s="37">
         <v>903.16</v>
       </c>
-      <c r="H10" s="38">
+      <c r="H10" s="37">
         <v>899.76</v>
       </c>
-      <c r="I10" s="38">
+      <c r="I10" s="37">
         <v>899.08</v>
       </c>
-      <c r="J10" s="38">
+      <c r="J10" s="37">
         <v>901.81</v>
       </c>
-      <c r="K10" s="38">
+      <c r="K10" s="37">
         <v>931.27</v>
       </c>
-      <c r="L10" s="38">
+      <c r="L10" s="37">
         <v>897.77</v>
       </c>
-      <c r="M10" s="38">
+      <c r="M10" s="37">
         <v>891.38</v>
       </c>
-      <c r="N10" s="38">
+      <c r="N10" s="37">
         <v>904.2</v>
       </c>
-      <c r="O10" s="38">
-        <v>889.44</v>
+      <c r="O10" s="37">
+        <v>899.7</v>
+      </c>
+      <c r="P10" s="37">
+        <v>897.08</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="38">
+      <c r="B11" s="37">
         <v>1005.3</v>
       </c>
-      <c r="C11" s="38">
+      <c r="C11" s="37">
         <v>1003.59</v>
       </c>
-      <c r="D11" s="38">
+      <c r="D11" s="37">
         <v>999.32</v>
       </c>
-      <c r="E11" s="38">
+      <c r="E11" s="37">
         <v>1019.37</v>
       </c>
-      <c r="F11" s="38">
+      <c r="F11" s="37">
         <v>1044.1400000000001</v>
       </c>
-      <c r="G11" s="38">
+      <c r="G11" s="37">
         <v>1009.34</v>
       </c>
-      <c r="H11" s="38">
+      <c r="H11" s="37">
         <v>1014.05</v>
       </c>
-      <c r="I11" s="38">
+      <c r="I11" s="37">
         <v>1021.1</v>
       </c>
-      <c r="J11" s="38">
+      <c r="J11" s="37">
         <v>1029.8800000000001</v>
       </c>
-      <c r="K11" s="38">
+      <c r="K11" s="37">
         <v>1058.49</v>
       </c>
-      <c r="L11" s="38">
+      <c r="L11" s="37">
         <v>1030.21</v>
       </c>
-      <c r="M11" s="38">
+      <c r="M11" s="37">
         <v>1033.24</v>
       </c>
-      <c r="N11" s="38">
+      <c r="N11" s="37">
         <v>1056.83</v>
       </c>
-      <c r="O11" s="38">
+      <c r="O11" s="37">
         <v>1032.9000000000001</v>
       </c>
+      <c r="P11" s="37">
+        <v>1031.0899999999999</v>
+      </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="38">
+      <c r="B12" s="37">
         <v>799.2</v>
       </c>
-      <c r="C12" s="38">
+      <c r="C12" s="37">
         <v>801.12</v>
       </c>
-      <c r="D12" s="38">
+      <c r="D12" s="37">
         <v>807.53</v>
       </c>
-      <c r="E12" s="38">
+      <c r="E12" s="37">
         <v>810.74</v>
       </c>
-      <c r="F12" s="38">
+      <c r="F12" s="37">
         <v>811.85</v>
       </c>
-      <c r="G12" s="38">
+      <c r="G12" s="37">
         <v>793.58</v>
       </c>
-      <c r="H12" s="38">
+      <c r="H12" s="37">
         <v>801.36</v>
       </c>
-      <c r="I12" s="38">
+      <c r="I12" s="37">
         <v>799.79</v>
       </c>
-      <c r="J12" s="38">
+      <c r="J12" s="37">
         <v>803.75</v>
       </c>
-      <c r="K12" s="38">
+      <c r="K12" s="37">
         <v>843.16</v>
       </c>
-      <c r="L12" s="38">
+      <c r="L12" s="37">
         <v>819.89</v>
       </c>
-      <c r="M12" s="38">
+      <c r="M12" s="37">
         <v>816.19</v>
       </c>
-      <c r="N12" s="38">
+      <c r="N12" s="37">
         <v>833.02</v>
       </c>
-      <c r="O12" s="38">
-        <v>827.52</v>
+      <c r="O12" s="37">
+        <v>829.46</v>
+      </c>
+      <c r="P12" s="37">
+        <v>841.42</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="38">
+      <c r="B13" s="37">
         <v>1287.26</v>
       </c>
-      <c r="C13" s="38">
+      <c r="C13" s="37">
         <v>1304.69</v>
       </c>
-      <c r="D13" s="38">
+      <c r="D13" s="37">
         <v>1305.9100000000001</v>
       </c>
-      <c r="E13" s="38">
+      <c r="E13" s="37">
         <v>1332.86</v>
       </c>
-      <c r="F13" s="38">
+      <c r="F13" s="37">
         <v>1411.96</v>
       </c>
-      <c r="G13" s="38">
+      <c r="G13" s="37">
         <v>1347.46</v>
       </c>
-      <c r="H13" s="38">
+      <c r="H13" s="37">
         <v>1358.65</v>
       </c>
-      <c r="I13" s="38">
+      <c r="I13" s="37">
         <v>1382.7</v>
       </c>
-      <c r="J13" s="38">
+      <c r="J13" s="37">
         <v>1383.08</v>
       </c>
-      <c r="K13" s="38">
+      <c r="K13" s="37">
         <v>1456.36</v>
       </c>
-      <c r="L13" s="38">
+      <c r="L13" s="37">
         <v>1403.26</v>
       </c>
-      <c r="M13" s="38">
+      <c r="M13" s="37">
         <v>1412.46</v>
       </c>
-      <c r="N13" s="38">
+      <c r="N13" s="37">
         <v>1480.46</v>
       </c>
-      <c r="O13" s="38">
-        <v>1409.88</v>
+      <c r="O13" s="37">
+        <v>1412.46</v>
+      </c>
+      <c r="P13" s="37">
+        <v>1409.97</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="38">
+      <c r="B14" s="37">
         <v>777.37</v>
       </c>
-      <c r="C14" s="38">
+      <c r="C14" s="37">
         <v>782.5</v>
       </c>
-      <c r="D14" s="38">
+      <c r="D14" s="37">
         <v>790.7</v>
       </c>
-      <c r="E14" s="38">
+      <c r="E14" s="37">
         <v>788.65</v>
       </c>
-      <c r="F14" s="38">
+      <c r="F14" s="37">
         <v>800.22</v>
       </c>
-      <c r="G14" s="38">
+      <c r="G14" s="37">
         <v>787.5</v>
       </c>
-      <c r="H14" s="38">
+      <c r="H14" s="37">
         <v>785.74</v>
       </c>
-      <c r="I14" s="38">
+      <c r="I14" s="37">
         <v>789.57</v>
       </c>
-      <c r="J14" s="38">
+      <c r="J14" s="37">
         <v>791.28</v>
       </c>
-      <c r="K14" s="38">
+      <c r="K14" s="37">
         <v>811.23</v>
       </c>
-      <c r="L14" s="38">
+      <c r="L14" s="37">
         <v>805.46</v>
       </c>
-      <c r="M14" s="38">
+      <c r="M14" s="37">
         <v>811.91</v>
       </c>
-      <c r="N14" s="38">
+      <c r="N14" s="37">
         <v>822.16</v>
       </c>
-      <c r="O14" s="38">
-        <v>818.06</v>
+      <c r="O14" s="37">
+        <v>817.71</v>
+      </c>
+      <c r="P14" s="37">
+        <v>814.28</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="38">
+      <c r="B15" s="37">
         <v>839.36</v>
       </c>
-      <c r="C15" s="38">
+      <c r="C15" s="37">
         <v>842.17</v>
       </c>
-      <c r="D15" s="38">
+      <c r="D15" s="37">
         <v>840.43</v>
       </c>
-      <c r="E15" s="38">
+      <c r="E15" s="37">
         <v>842.51</v>
       </c>
-      <c r="F15" s="38">
+      <c r="F15" s="37">
         <v>865.22</v>
       </c>
-      <c r="G15" s="38">
+      <c r="G15" s="37">
         <v>843.88</v>
       </c>
-      <c r="H15" s="38">
+      <c r="H15" s="37">
         <v>847.73</v>
       </c>
-      <c r="I15" s="38">
+      <c r="I15" s="37">
         <v>847.7</v>
       </c>
-      <c r="J15" s="38">
+      <c r="J15" s="37">
         <v>848.39</v>
       </c>
-      <c r="K15" s="38">
+      <c r="K15" s="37">
         <v>882.46</v>
       </c>
-      <c r="L15" s="38">
+      <c r="L15" s="37">
         <v>857.12</v>
       </c>
-      <c r="M15" s="38">
+      <c r="M15" s="37">
         <v>862.38</v>
       </c>
-      <c r="N15" s="38">
+      <c r="N15" s="37">
         <v>885.89</v>
       </c>
-      <c r="O15" s="38">
-        <v>869.29</v>
+      <c r="O15" s="37">
+        <v>867.22</v>
+      </c>
+      <c r="P15" s="37">
+        <v>863.78</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="38">
+      <c r="B16" s="37">
         <v>824.26</v>
       </c>
-      <c r="C16" s="38">
+      <c r="C16" s="37">
         <v>824.13</v>
       </c>
-      <c r="D16" s="38">
+      <c r="D16" s="37">
         <v>820.54</v>
       </c>
-      <c r="E16" s="38">
+      <c r="E16" s="37">
         <v>827.64</v>
       </c>
-      <c r="F16" s="38">
+      <c r="F16" s="37">
         <v>851.76</v>
       </c>
-      <c r="G16" s="38">
+      <c r="G16" s="37">
         <v>824.9</v>
       </c>
-      <c r="H16" s="38">
+      <c r="H16" s="37">
         <v>837.31</v>
       </c>
-      <c r="I16" s="38">
+      <c r="I16" s="37">
         <v>830.58</v>
       </c>
-      <c r="J16" s="38">
+      <c r="J16" s="37">
         <v>828.82</v>
       </c>
-      <c r="K16" s="38">
+      <c r="K16" s="37">
         <v>858.61</v>
       </c>
-      <c r="L16" s="38">
+      <c r="L16" s="37">
         <v>817.59</v>
       </c>
-      <c r="M16" s="38">
+      <c r="M16" s="37">
         <v>829.76</v>
       </c>
-      <c r="N16" s="38">
+      <c r="N16" s="37">
         <v>870.13</v>
       </c>
-      <c r="O16" s="38">
-        <v>842.35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="39" t="s">
+      <c r="O16" s="37">
+        <v>837.82</v>
+      </c>
+      <c r="P16" s="37">
+        <v>832.69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="38">
+      <c r="B17" s="37">
         <v>734.18</v>
       </c>
-      <c r="C17" s="38">
+      <c r="C17" s="37">
         <v>729.65</v>
       </c>
-      <c r="D17" s="38">
+      <c r="D17" s="37">
         <v>727.38</v>
       </c>
-      <c r="E17" s="38">
+      <c r="E17" s="37">
         <v>744.89</v>
       </c>
-      <c r="F17" s="38">
+      <c r="F17" s="37">
         <v>755.66</v>
       </c>
-      <c r="G17" s="38">
+      <c r="G17" s="37">
         <v>730.85</v>
       </c>
-      <c r="H17" s="38">
+      <c r="H17" s="37">
         <v>735.6</v>
       </c>
-      <c r="I17" s="38">
+      <c r="I17" s="37">
         <v>735.71</v>
       </c>
-      <c r="J17" s="38">
+      <c r="J17" s="37">
         <v>734.33</v>
       </c>
-      <c r="K17" s="38">
+      <c r="K17" s="37">
         <v>757.91</v>
       </c>
-      <c r="L17" s="38">
+      <c r="L17" s="37">
         <v>735.05</v>
       </c>
-      <c r="M17" s="38">
+      <c r="M17" s="37">
         <v>724.81</v>
       </c>
-      <c r="N17" s="38">
+      <c r="N17" s="37">
         <v>740.34</v>
       </c>
-      <c r="O17" s="38">
-        <v>735.78</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="39" t="s">
+      <c r="O17" s="37">
+        <v>735.15</v>
+      </c>
+      <c r="P17" s="37">
+        <v>739.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="38">
+      <c r="B18" s="37">
         <v>900.38</v>
       </c>
-      <c r="C18" s="38">
+      <c r="C18" s="37">
         <v>894.01</v>
       </c>
-      <c r="D18" s="38">
+      <c r="D18" s="37">
         <v>897.33</v>
       </c>
-      <c r="E18" s="38">
+      <c r="E18" s="37">
         <v>899.37</v>
       </c>
-      <c r="F18" s="38">
+      <c r="F18" s="37">
         <v>915.47</v>
       </c>
-      <c r="G18" s="38">
+      <c r="G18" s="37">
         <v>898.78</v>
       </c>
-      <c r="H18" s="38">
+      <c r="H18" s="37">
         <v>900.92</v>
       </c>
-      <c r="I18" s="38">
+      <c r="I18" s="37">
         <v>902.02</v>
       </c>
-      <c r="J18" s="38">
+      <c r="J18" s="37">
         <v>910.75</v>
       </c>
-      <c r="K18" s="38">
+      <c r="K18" s="37">
         <v>935.86</v>
       </c>
-      <c r="L18" s="38">
+      <c r="L18" s="37">
         <v>912.8</v>
       </c>
-      <c r="M18" s="38">
+      <c r="M18" s="37">
         <v>906.1</v>
       </c>
-      <c r="N18" s="38">
+      <c r="N18" s="37">
         <v>914.62</v>
       </c>
-      <c r="O18" s="38">
-        <v>896.08</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="39" t="s">
+      <c r="O18" s="37">
+        <v>902.46</v>
+      </c>
+      <c r="P18" s="37">
+        <v>896.76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="38">
+      <c r="B19" s="37">
         <v>804.54</v>
       </c>
-      <c r="C19" s="38">
+      <c r="C19" s="37">
         <v>796.79</v>
       </c>
-      <c r="D19" s="38">
+      <c r="D19" s="37">
         <v>794.05</v>
       </c>
-      <c r="E19" s="38">
+      <c r="E19" s="37">
         <v>809.03</v>
       </c>
-      <c r="F19" s="38">
+      <c r="F19" s="37">
         <v>814.67</v>
       </c>
-      <c r="G19" s="38">
+      <c r="G19" s="37">
         <v>805.04</v>
       </c>
-      <c r="H19" s="38">
+      <c r="H19" s="37">
         <v>811.63</v>
       </c>
-      <c r="I19" s="38">
+      <c r="I19" s="37">
         <v>815.26</v>
       </c>
-      <c r="J19" s="38">
+      <c r="J19" s="37">
         <v>823.64</v>
       </c>
-      <c r="K19" s="38">
+      <c r="K19" s="37">
         <v>847.97</v>
       </c>
-      <c r="L19" s="38">
+      <c r="L19" s="37">
         <v>836.78</v>
       </c>
-      <c r="M19" s="38">
+      <c r="M19" s="37">
         <v>837.66</v>
       </c>
-      <c r="N19" s="38">
+      <c r="N19" s="37">
         <v>845.99</v>
       </c>
-      <c r="O19" s="38">
-        <v>836.61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="39" t="s">
+      <c r="O19" s="37">
+        <v>840.42</v>
+      </c>
+      <c r="P19" s="37">
+        <v>834.21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="38">
+      <c r="B20" s="37">
         <v>768.95</v>
       </c>
-      <c r="C20" s="38">
+      <c r="C20" s="37">
         <v>770.3</v>
       </c>
-      <c r="D20" s="38">
+      <c r="D20" s="37">
         <v>784.04</v>
       </c>
-      <c r="E20" s="38">
+      <c r="E20" s="37">
         <v>806.27</v>
       </c>
-      <c r="F20" s="38">
+      <c r="F20" s="37">
         <v>808.6</v>
       </c>
-      <c r="G20" s="38">
+      <c r="G20" s="37">
         <v>820.99</v>
       </c>
-      <c r="H20" s="38">
+      <c r="H20" s="37">
         <v>809.8</v>
       </c>
-      <c r="I20" s="38">
+      <c r="I20" s="37">
         <v>803.18</v>
       </c>
-      <c r="J20" s="38">
+      <c r="J20" s="37">
         <v>806.08</v>
       </c>
-      <c r="K20" s="38">
+      <c r="K20" s="37">
         <v>826.96</v>
       </c>
-      <c r="L20" s="38">
+      <c r="L20" s="37">
         <v>812.67</v>
       </c>
-      <c r="M20" s="38">
+      <c r="M20" s="37">
         <v>797.89</v>
       </c>
-      <c r="N20" s="38">
+      <c r="N20" s="37">
         <v>795.21</v>
       </c>
-      <c r="O20" s="38">
-        <v>791.86</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="39" t="s">
+      <c r="O20" s="37">
+        <v>790.5</v>
+      </c>
+      <c r="P20" s="37">
+        <v>792.27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="38">
+      <c r="B21" s="37">
         <v>772.13</v>
       </c>
-      <c r="C21" s="38">
+      <c r="C21" s="37">
         <v>767.15</v>
       </c>
-      <c r="D21" s="38">
+      <c r="D21" s="37">
         <v>760.45</v>
       </c>
-      <c r="E21" s="38">
+      <c r="E21" s="37">
         <v>767.53</v>
       </c>
-      <c r="F21" s="38">
+      <c r="F21" s="37">
         <v>766.08</v>
       </c>
-      <c r="G21" s="38">
+      <c r="G21" s="37">
         <v>763.3</v>
       </c>
-      <c r="H21" s="38">
+      <c r="H21" s="37">
         <v>766.92</v>
       </c>
-      <c r="I21" s="38">
+      <c r="I21" s="37">
         <v>770.3</v>
       </c>
-      <c r="J21" s="38">
+      <c r="J21" s="37">
         <v>774.36</v>
       </c>
-      <c r="K21" s="38">
+      <c r="K21" s="37">
         <v>797.05</v>
       </c>
-      <c r="L21" s="38">
+      <c r="L21" s="37">
         <v>780.72</v>
       </c>
-      <c r="M21" s="38">
+      <c r="M21" s="37">
         <v>779.09</v>
       </c>
-      <c r="N21" s="38">
+      <c r="N21" s="37">
         <v>785.23</v>
       </c>
-      <c r="O21" s="38">
-        <v>784.54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="39" t="s">
+      <c r="O21" s="37">
+        <v>786.86</v>
+      </c>
+      <c r="P21" s="37">
+        <v>781.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="38">
+      <c r="B22" s="37">
         <v>739.5</v>
       </c>
-      <c r="C22" s="38">
+      <c r="C22" s="37">
         <v>732.89</v>
       </c>
-      <c r="D22" s="38">
+      <c r="D22" s="37">
         <v>741.66</v>
       </c>
-      <c r="E22" s="38">
+      <c r="E22" s="37">
         <v>746.58</v>
       </c>
-      <c r="F22" s="38">
+      <c r="F22" s="37">
         <v>740.6</v>
       </c>
-      <c r="G22" s="38">
+      <c r="G22" s="37">
         <v>749.05</v>
       </c>
-      <c r="H22" s="38">
+      <c r="H22" s="37">
         <v>747.65</v>
       </c>
-      <c r="I22" s="38">
+      <c r="I22" s="37">
         <v>739.9</v>
       </c>
-      <c r="J22" s="38">
+      <c r="J22" s="37">
         <v>745.52</v>
       </c>
-      <c r="K22" s="38">
+      <c r="K22" s="37">
         <v>763.22</v>
       </c>
-      <c r="L22" s="38">
+      <c r="L22" s="37">
         <v>753.3</v>
       </c>
-      <c r="M22" s="38">
+      <c r="M22" s="37">
         <v>763.58</v>
       </c>
-      <c r="N22" s="38">
+      <c r="N22" s="37">
         <v>773.78</v>
       </c>
-      <c r="O22" s="38">
+      <c r="O22" s="37">
         <v>758.73</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="39" t="s">
+      <c r="P22" s="37">
+        <v>760.82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="38">
+      <c r="B23" s="37">
         <v>794.6</v>
       </c>
-      <c r="C23" s="38">
+      <c r="C23" s="37">
         <v>785.89</v>
       </c>
-      <c r="D23" s="38">
+      <c r="D23" s="37">
         <v>775.39</v>
       </c>
-      <c r="E23" s="38">
+      <c r="E23" s="37">
         <v>788.55</v>
       </c>
-      <c r="F23" s="38">
+      <c r="F23" s="37">
         <v>803.37</v>
       </c>
-      <c r="G23" s="38">
+      <c r="G23" s="37">
         <v>790.94</v>
       </c>
-      <c r="H23" s="38">
+      <c r="H23" s="37">
         <v>789.4</v>
       </c>
-      <c r="I23" s="38">
+      <c r="I23" s="37">
         <v>774.63</v>
       </c>
-      <c r="J23" s="38">
+      <c r="J23" s="37">
         <v>798.16</v>
       </c>
-      <c r="K23" s="38">
+      <c r="K23" s="37">
         <v>825.38</v>
       </c>
-      <c r="L23" s="38">
+      <c r="L23" s="37">
         <v>802.74</v>
       </c>
-      <c r="M23" s="38">
+      <c r="M23" s="37">
         <v>803.62</v>
       </c>
-      <c r="N23" s="38">
+      <c r="N23" s="37">
         <v>817.39</v>
       </c>
-      <c r="O23" s="38">
+      <c r="O23" s="37">
         <v>815.62</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="39" t="s">
+      <c r="P23" s="37">
+        <v>812.96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="38">
+      <c r="B24" s="37">
         <v>749.06</v>
       </c>
-      <c r="C24" s="38">
+      <c r="C24" s="37">
         <v>748.94</v>
       </c>
-      <c r="D24" s="38">
+      <c r="D24" s="37">
         <v>751.04</v>
       </c>
-      <c r="E24" s="38">
+      <c r="E24" s="37">
         <v>753.06</v>
       </c>
-      <c r="F24" s="38">
+      <c r="F24" s="37">
         <v>754.8</v>
       </c>
-      <c r="G24" s="38">
+      <c r="G24" s="37">
         <v>741.73</v>
       </c>
-      <c r="H24" s="38">
+      <c r="H24" s="37">
         <v>740.18</v>
       </c>
-      <c r="I24" s="38">
+      <c r="I24" s="37">
         <v>747.95</v>
       </c>
-      <c r="J24" s="38">
+      <c r="J24" s="37">
         <v>760.92</v>
       </c>
-      <c r="K24" s="38">
+      <c r="K24" s="37">
         <v>773.47</v>
       </c>
-      <c r="L24" s="38">
+      <c r="L24" s="37">
         <v>770.44</v>
       </c>
-      <c r="M24" s="38">
+      <c r="M24" s="37">
         <v>763.64</v>
       </c>
-      <c r="N24" s="38">
+      <c r="N24" s="37">
         <v>776.79</v>
       </c>
-      <c r="O24" s="38">
-        <v>767.85</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="39" t="s">
+      <c r="O24" s="37">
+        <v>773.52</v>
+      </c>
+      <c r="P24" s="37">
+        <v>787.91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="38">
+      <c r="B25" s="37">
         <v>919.97</v>
       </c>
-      <c r="C25" s="38">
+      <c r="C25" s="37">
         <v>916.64</v>
       </c>
-      <c r="D25" s="38">
+      <c r="D25" s="37">
         <v>924.45</v>
       </c>
-      <c r="E25" s="38">
+      <c r="E25" s="37">
         <v>929.21</v>
       </c>
-      <c r="F25" s="38">
+      <c r="F25" s="37">
         <v>939.47</v>
       </c>
-      <c r="G25" s="38">
+      <c r="G25" s="37">
         <v>926.74</v>
       </c>
-      <c r="H25" s="38">
+      <c r="H25" s="37">
         <v>928.16</v>
       </c>
-      <c r="I25" s="38">
+      <c r="I25" s="37">
         <v>936.37</v>
       </c>
-      <c r="J25" s="38">
+      <c r="J25" s="37">
         <v>940.77</v>
       </c>
-      <c r="K25" s="38">
+      <c r="K25" s="37">
         <v>962.85</v>
       </c>
-      <c r="L25" s="38">
+      <c r="L25" s="37">
         <v>951.51</v>
       </c>
-      <c r="M25" s="38">
+      <c r="M25" s="37">
         <v>942.22</v>
       </c>
-      <c r="N25" s="38">
+      <c r="N25" s="37">
         <v>971.11</v>
       </c>
-      <c r="O25" s="38">
-        <v>950.76</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="39" t="s">
+      <c r="O25" s="37">
+        <v>950.08</v>
+      </c>
+      <c r="P25" s="37">
+        <v>946.15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="38">
+      <c r="B26" s="37">
         <v>1041.48</v>
       </c>
-      <c r="C26" s="38">
+      <c r="C26" s="37">
         <v>1031.25</v>
       </c>
-      <c r="D26" s="38">
+      <c r="D26" s="37">
         <v>1030.8599999999999</v>
       </c>
-      <c r="E26" s="38">
+      <c r="E26" s="37">
         <v>1034.6300000000001</v>
       </c>
-      <c r="F26" s="38">
+      <c r="F26" s="37">
         <v>1047.4000000000001</v>
       </c>
-      <c r="G26" s="38">
+      <c r="G26" s="37">
         <v>1029.46</v>
       </c>
-      <c r="H26" s="38">
+      <c r="H26" s="37">
         <v>1035.8900000000001</v>
       </c>
-      <c r="I26" s="38">
+      <c r="I26" s="37">
         <v>1029.46</v>
       </c>
-      <c r="J26" s="38">
+      <c r="J26" s="37">
         <v>1049.22</v>
       </c>
-      <c r="K26" s="38">
+      <c r="K26" s="37">
         <v>1075.52</v>
       </c>
-      <c r="L26" s="38">
+      <c r="L26" s="37">
         <v>1059.78</v>
       </c>
-      <c r="M26" s="38">
+      <c r="M26" s="37">
         <v>1065.6400000000001</v>
       </c>
-      <c r="N26" s="38">
+      <c r="N26" s="37">
         <v>1084.27</v>
       </c>
-      <c r="O26" s="38">
-        <v>1066.23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="39" t="s">
+      <c r="O26" s="37">
+        <v>1065.24</v>
+      </c>
+      <c r="P26" s="37">
+        <v>1063.26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="38">
+      <c r="B27" s="37">
         <v>822.02</v>
       </c>
-      <c r="C27" s="38">
+      <c r="C27" s="37">
         <v>818.64</v>
       </c>
-      <c r="D27" s="38">
+      <c r="D27" s="37">
         <v>821.06</v>
       </c>
-      <c r="E27" s="38">
+      <c r="E27" s="37">
         <v>822.17</v>
       </c>
-      <c r="F27" s="38">
+      <c r="F27" s="37">
         <v>823.89</v>
       </c>
-      <c r="G27" s="38">
+      <c r="G27" s="37">
         <v>816.66</v>
       </c>
-      <c r="H27" s="38">
+      <c r="H27" s="37">
         <v>821.47</v>
       </c>
-      <c r="I27" s="38">
+      <c r="I27" s="37">
         <v>821.1</v>
       </c>
-      <c r="J27" s="38">
+      <c r="J27" s="37">
         <v>829.68</v>
       </c>
-      <c r="K27" s="38">
+      <c r="K27" s="37">
         <v>850.86</v>
       </c>
-      <c r="L27" s="38">
+      <c r="L27" s="37">
         <v>834.54</v>
       </c>
-      <c r="M27" s="38">
+      <c r="M27" s="37">
         <v>840.08</v>
       </c>
-      <c r="N27" s="38">
+      <c r="N27" s="37">
         <v>851.06</v>
       </c>
-      <c r="O27" s="38">
+      <c r="O27" s="37">
         <v>843.09</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="39" t="s">
+      <c r="P27" s="37">
+        <v>829.72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="38">
+      <c r="B28" s="37">
         <v>894.79</v>
       </c>
-      <c r="C28" s="38">
+      <c r="C28" s="37">
         <v>886.44</v>
       </c>
-      <c r="D28" s="38">
+      <c r="D28" s="37">
         <v>906.18</v>
       </c>
-      <c r="E28" s="38">
+      <c r="E28" s="37">
         <v>906.53</v>
       </c>
-      <c r="F28" s="38">
+      <c r="F28" s="37">
         <v>925.76</v>
       </c>
-      <c r="G28" s="38">
+      <c r="G28" s="37">
         <v>913.75</v>
       </c>
-      <c r="H28" s="38">
+      <c r="H28" s="37">
         <v>919</v>
       </c>
-      <c r="I28" s="38">
+      <c r="I28" s="37">
         <v>916.61</v>
       </c>
-      <c r="J28" s="38">
+      <c r="J28" s="37">
         <v>931.61</v>
       </c>
-      <c r="K28" s="38">
+      <c r="K28" s="37">
         <v>953.24</v>
       </c>
-      <c r="L28" s="38">
+      <c r="L28" s="37">
         <v>950.08</v>
       </c>
-      <c r="M28" s="38">
+      <c r="M28" s="37">
         <v>944.12</v>
       </c>
-      <c r="N28" s="38">
+      <c r="N28" s="37">
         <v>958.8</v>
       </c>
-      <c r="O28" s="38">
-        <v>955.53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="39" t="s">
+      <c r="O28" s="37">
+        <v>955.19</v>
+      </c>
+      <c r="P28" s="37">
+        <v>950.68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="38">
+      <c r="B29" s="37">
         <v>687.5</v>
       </c>
-      <c r="C29" s="38">
+      <c r="C29" s="37">
         <v>679.31</v>
       </c>
-      <c r="D29" s="38">
+      <c r="D29" s="37">
         <v>672.37</v>
       </c>
-      <c r="E29" s="38">
+      <c r="E29" s="37">
         <v>684.29</v>
       </c>
-      <c r="F29" s="38">
+      <c r="F29" s="37">
         <v>698.09</v>
       </c>
-      <c r="G29" s="38">
+      <c r="G29" s="37">
         <v>687.93</v>
       </c>
-      <c r="H29" s="38">
+      <c r="H29" s="37">
         <v>700.79</v>
       </c>
-      <c r="I29" s="38">
+      <c r="I29" s="37">
         <v>688.62</v>
       </c>
-      <c r="J29" s="38">
+      <c r="J29" s="37">
         <v>699.05</v>
       </c>
-      <c r="K29" s="38">
+      <c r="K29" s="37">
         <v>715.88</v>
       </c>
-      <c r="L29" s="38">
+      <c r="L29" s="37">
         <v>699.75</v>
       </c>
-      <c r="M29" s="38">
+      <c r="M29" s="37">
         <v>700.79</v>
       </c>
-      <c r="N29" s="38">
+      <c r="N29" s="37">
         <v>711.61</v>
       </c>
-      <c r="O29" s="38">
+      <c r="O29" s="37">
         <v>705.1</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="39" t="s">
+      <c r="P29" s="37">
+        <v>701.98</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="38">
+      <c r="B30" s="37">
         <v>743.15</v>
       </c>
-      <c r="C30" s="38">
+      <c r="C30" s="37">
         <v>738.26</v>
       </c>
-      <c r="D30" s="38">
+      <c r="D30" s="37">
         <v>740.59</v>
       </c>
-      <c r="E30" s="38">
+      <c r="E30" s="37">
         <v>746.79</v>
       </c>
-      <c r="F30" s="38">
+      <c r="F30" s="37">
         <v>752.52</v>
       </c>
-      <c r="G30" s="38">
+      <c r="G30" s="37">
         <v>738.93</v>
       </c>
-      <c r="H30" s="38">
+      <c r="H30" s="37">
         <v>746.59</v>
       </c>
-      <c r="I30" s="38">
+      <c r="I30" s="37">
         <v>741.02</v>
       </c>
-      <c r="J30" s="38">
+      <c r="J30" s="37">
         <v>760.91</v>
       </c>
-      <c r="K30" s="38">
+      <c r="K30" s="37">
         <v>780.78</v>
       </c>
-      <c r="L30" s="38">
+      <c r="L30" s="37">
         <v>768.91</v>
       </c>
-      <c r="M30" s="38">
+      <c r="M30" s="37">
         <v>766.92</v>
       </c>
-      <c r="N30" s="38">
+      <c r="N30" s="37">
         <v>792.08</v>
       </c>
-      <c r="O30" s="38">
-        <v>779.17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="39" t="s">
+      <c r="O30" s="37">
+        <v>776.86</v>
+      </c>
+      <c r="P30" s="37">
+        <v>785.21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="38">
+      <c r="B31" s="37">
         <v>713.87</v>
       </c>
-      <c r="C31" s="38">
+      <c r="C31" s="37">
         <v>722.87</v>
       </c>
-      <c r="D31" s="38">
+      <c r="D31" s="37">
         <v>709.95</v>
       </c>
-      <c r="E31" s="38">
+      <c r="E31" s="37">
         <v>724.79</v>
       </c>
-      <c r="F31" s="38">
+      <c r="F31" s="37">
         <v>740.52</v>
       </c>
-      <c r="G31" s="38">
+      <c r="G31" s="37">
         <v>732.5</v>
       </c>
-      <c r="H31" s="38">
+      <c r="H31" s="37">
         <v>739.36</v>
       </c>
-      <c r="I31" s="38">
+      <c r="I31" s="37">
         <v>738.47</v>
       </c>
-      <c r="J31" s="38">
+      <c r="J31" s="37">
         <v>740.95</v>
       </c>
-      <c r="K31" s="38">
+      <c r="K31" s="37">
         <v>758.91</v>
       </c>
-      <c r="L31" s="38">
+      <c r="L31" s="37">
         <v>739.37</v>
       </c>
-      <c r="M31" s="38">
+      <c r="M31" s="37">
         <v>735.8</v>
       </c>
-      <c r="N31" s="38">
+      <c r="N31" s="37">
         <v>751.43</v>
       </c>
-      <c r="O31" s="38">
-        <v>736.44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="39" t="s">
+      <c r="O31" s="37">
+        <v>729.31</v>
+      </c>
+      <c r="P31" s="37">
+        <v>731.58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="38">
+      <c r="B32" s="37">
         <v>760.18</v>
       </c>
-      <c r="C32" s="38">
+      <c r="C32" s="37">
         <v>761.9</v>
       </c>
-      <c r="D32" s="38">
+      <c r="D32" s="37">
         <v>762.86</v>
       </c>
-      <c r="E32" s="38">
+      <c r="E32" s="37">
         <v>779.96</v>
       </c>
-      <c r="F32" s="38">
+      <c r="F32" s="37">
         <v>785.66</v>
       </c>
-      <c r="G32" s="38">
+      <c r="G32" s="37">
         <v>779.08</v>
       </c>
-      <c r="H32" s="38">
+      <c r="H32" s="37">
         <v>782.68</v>
       </c>
-      <c r="I32" s="38">
+      <c r="I32" s="37">
         <v>783.28</v>
       </c>
-      <c r="J32" s="38">
+      <c r="J32" s="37">
         <v>783.82</v>
       </c>
-      <c r="K32" s="38">
+      <c r="K32" s="37">
         <v>806.27</v>
       </c>
-      <c r="L32" s="38">
+      <c r="L32" s="37">
         <v>774.14</v>
       </c>
-      <c r="M32" s="38">
+      <c r="M32" s="37">
         <v>768.83</v>
       </c>
-      <c r="N32" s="38">
+      <c r="N32" s="37">
         <v>807.84</v>
       </c>
-      <c r="O32" s="38">
-        <v>791.62</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="39" t="s">
+      <c r="O32" s="37">
+        <v>791.95</v>
+      </c>
+      <c r="P32" s="37">
+        <v>808.85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="38">
+      <c r="B33" s="37">
         <v>739.7</v>
       </c>
-      <c r="C33" s="38">
+      <c r="C33" s="37">
         <v>741.26</v>
       </c>
-      <c r="D33" s="38">
+      <c r="D33" s="37">
         <v>739.26</v>
       </c>
-      <c r="E33" s="38">
+      <c r="E33" s="37">
         <v>746.59</v>
       </c>
-      <c r="F33" s="38">
+      <c r="F33" s="37">
         <v>758.73</v>
       </c>
-      <c r="G33" s="38">
+      <c r="G33" s="37">
         <v>750.38</v>
       </c>
-      <c r="H33" s="38">
+      <c r="H33" s="37">
         <v>748.3</v>
       </c>
-      <c r="I33" s="38">
+      <c r="I33" s="37">
         <v>758.52</v>
       </c>
-      <c r="J33" s="38">
+      <c r="J33" s="37">
         <v>750.88</v>
       </c>
-      <c r="K33" s="38">
+      <c r="K33" s="37">
         <v>765.9</v>
       </c>
-      <c r="L33" s="38">
+      <c r="L33" s="37">
         <v>749.35</v>
       </c>
-      <c r="M33" s="38">
+      <c r="M33" s="37">
         <v>757.02</v>
       </c>
-      <c r="N33" s="38">
+      <c r="N33" s="37">
         <v>774.07</v>
       </c>
-      <c r="O33" s="38">
+      <c r="O33" s="37">
         <v>753.75</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="39" t="s">
+      <c r="P33" s="37">
+        <v>763.98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="38">
+      <c r="B34" s="37">
         <v>861.8</v>
       </c>
-      <c r="C34" s="38">
+      <c r="C34" s="37">
         <v>858.22</v>
       </c>
-      <c r="D34" s="38">
+      <c r="D34" s="37">
         <v>849.35</v>
       </c>
-      <c r="E34" s="38">
+      <c r="E34" s="37">
         <v>860.83</v>
       </c>
-      <c r="F34" s="38">
+      <c r="F34" s="37">
         <v>862.92</v>
       </c>
-      <c r="G34" s="38">
+      <c r="G34" s="37">
         <v>846.21</v>
       </c>
-      <c r="H34" s="38">
+      <c r="H34" s="37">
         <v>852.38</v>
       </c>
-      <c r="I34" s="38">
+      <c r="I34" s="37">
         <v>864.62</v>
       </c>
-      <c r="J34" s="38">
+      <c r="J34" s="37">
         <v>884.07</v>
       </c>
-      <c r="K34" s="38">
+      <c r="K34" s="37">
         <v>909.08</v>
       </c>
-      <c r="L34" s="38">
+      <c r="L34" s="37">
         <v>892.06</v>
       </c>
-      <c r="M34" s="38">
+      <c r="M34" s="37">
         <v>894.44</v>
       </c>
-      <c r="N34" s="38">
+      <c r="N34" s="37">
         <v>905.13</v>
       </c>
-      <c r="O34" s="38">
-        <v>892.11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="39" t="s">
+      <c r="O34" s="37">
+        <v>893.45</v>
+      </c>
+      <c r="P34" s="37">
+        <v>891.11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="38">
+      <c r="B35" s="37">
         <v>934.75</v>
       </c>
-      <c r="C35" s="38">
+      <c r="C35" s="37">
         <v>940.46</v>
       </c>
-      <c r="D35" s="38">
+      <c r="D35" s="37">
         <v>937.67</v>
       </c>
-      <c r="E35" s="38">
+      <c r="E35" s="37">
         <v>948.77</v>
       </c>
-      <c r="F35" s="38">
+      <c r="F35" s="37">
         <v>961.18</v>
       </c>
-      <c r="G35" s="38">
+      <c r="G35" s="37">
         <v>941.4</v>
       </c>
-      <c r="H35" s="38">
+      <c r="H35" s="37">
         <v>946.28</v>
       </c>
-      <c r="I35" s="38">
+      <c r="I35" s="37">
         <v>946.83</v>
       </c>
-      <c r="J35" s="38">
+      <c r="J35" s="37">
         <v>981.01</v>
       </c>
-      <c r="K35" s="38">
+      <c r="K35" s="37">
         <v>1004.85</v>
       </c>
-      <c r="L35" s="38">
+      <c r="L35" s="37">
         <v>978.77</v>
       </c>
-      <c r="M35" s="38">
+      <c r="M35" s="37">
         <v>986.52</v>
       </c>
-      <c r="N35" s="38">
+      <c r="N35" s="37">
         <v>1003.45</v>
       </c>
-      <c r="O35" s="38">
-        <v>977.5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="39" t="s">
+      <c r="O35" s="37">
+        <v>963.64</v>
+      </c>
+      <c r="P35" s="37">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="38">
+      <c r="B36" s="37">
         <v>687.71</v>
       </c>
-      <c r="C36" s="38">
+      <c r="C36" s="37">
         <v>691.78</v>
       </c>
-      <c r="D36" s="38">
+      <c r="D36" s="37">
         <v>681.98</v>
       </c>
-      <c r="E36" s="38">
+      <c r="E36" s="37">
         <v>685.41</v>
       </c>
-      <c r="F36" s="38">
+      <c r="F36" s="37">
         <v>686.47</v>
       </c>
-      <c r="G36" s="38">
+      <c r="G36" s="37">
         <v>678.69</v>
       </c>
-      <c r="H36" s="38">
+      <c r="H36" s="37">
         <v>684.74</v>
       </c>
-      <c r="I36" s="38">
+      <c r="I36" s="37">
         <v>688.13</v>
       </c>
-      <c r="J36" s="38">
+      <c r="J36" s="37">
         <v>691.71</v>
       </c>
-      <c r="K36" s="38">
+      <c r="K36" s="37">
         <v>709.87</v>
       </c>
-      <c r="L36" s="38">
+      <c r="L36" s="37">
         <v>695.72</v>
       </c>
-      <c r="M36" s="38">
+      <c r="M36" s="37">
         <v>694.54</v>
       </c>
-      <c r="N36" s="38">
+      <c r="N36" s="37">
         <v>703.17</v>
       </c>
-      <c r="O36" s="38">
-        <v>691.79</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="39" t="s">
+      <c r="O36" s="37">
+        <v>695.21</v>
+      </c>
+      <c r="P36" s="37">
+        <v>693.22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="38">
+      <c r="B37" s="37">
         <v>976.95</v>
       </c>
-      <c r="C37" s="38">
+      <c r="C37" s="37">
         <v>979.07</v>
       </c>
-      <c r="D37" s="38">
+      <c r="D37" s="37">
         <v>971.43</v>
       </c>
-      <c r="E37" s="38">
+      <c r="E37" s="37">
         <v>969.36</v>
       </c>
-      <c r="F37" s="38">
+      <c r="F37" s="37">
         <v>981.46</v>
       </c>
-      <c r="G37" s="38">
+      <c r="G37" s="37">
         <v>962.12</v>
       </c>
-      <c r="H37" s="38">
+      <c r="H37" s="37">
         <v>977.3</v>
       </c>
-      <c r="I37" s="38">
+      <c r="I37" s="37">
         <v>993.04</v>
       </c>
-      <c r="J37" s="38">
+      <c r="J37" s="37">
         <v>980.78</v>
       </c>
-      <c r="K37" s="38">
+      <c r="K37" s="37">
         <v>998.87</v>
       </c>
-      <c r="L37" s="38">
+      <c r="L37" s="37">
         <v>979.96</v>
       </c>
-      <c r="M37" s="38">
+      <c r="M37" s="37">
         <v>980.88</v>
       </c>
-      <c r="N37" s="38">
+      <c r="N37" s="37">
         <v>1011.03</v>
       </c>
-      <c r="O37" s="38">
-        <v>995.98</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="39" t="s">
+      <c r="O37" s="37">
+        <v>992.67</v>
+      </c>
+      <c r="P37" s="37">
+        <v>985.31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="38">
+      <c r="B38" s="37">
         <v>776.72</v>
       </c>
-      <c r="C38" s="38">
+      <c r="C38" s="37">
         <v>783.48</v>
       </c>
-      <c r="D38" s="38">
+      <c r="D38" s="37">
         <v>790.78</v>
       </c>
-      <c r="E38" s="38">
+      <c r="E38" s="37">
         <v>797.13</v>
       </c>
-      <c r="F38" s="38">
+      <c r="F38" s="37">
         <v>809.03</v>
       </c>
-      <c r="G38" s="38">
+      <c r="G38" s="37">
         <v>801.52</v>
       </c>
-      <c r="H38" s="38">
+      <c r="H38" s="37">
         <v>803.16</v>
       </c>
-      <c r="I38" s="38">
+      <c r="I38" s="37">
         <v>806.68</v>
       </c>
-      <c r="J38" s="38">
+      <c r="J38" s="37">
         <v>809.43</v>
       </c>
-      <c r="K38" s="38">
+      <c r="K38" s="37">
         <v>824.86</v>
       </c>
-      <c r="L38" s="38">
+      <c r="L38" s="37">
         <v>817.65</v>
       </c>
-      <c r="M38" s="38">
+      <c r="M38" s="37">
         <v>812.87</v>
       </c>
-      <c r="N38" s="38">
+      <c r="N38" s="37">
         <v>818.38</v>
       </c>
-      <c r="O38" s="38">
-        <v>826.29</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="39" t="s">
+      <c r="O38" s="37">
+        <v>825.26</v>
+      </c>
+      <c r="P38" s="37">
+        <v>823.54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="38">
+      <c r="B39" s="37">
         <v>895.13</v>
       </c>
-      <c r="C39" s="38">
+      <c r="C39" s="37">
         <v>875.69</v>
       </c>
-      <c r="D39" s="38">
+      <c r="D39" s="37">
         <v>864.74</v>
       </c>
-      <c r="E39" s="38">
+      <c r="E39" s="37">
         <v>885.1</v>
       </c>
-      <c r="F39" s="38">
+      <c r="F39" s="37">
         <v>904.96</v>
       </c>
-      <c r="G39" s="38">
+      <c r="G39" s="37">
         <v>878.84</v>
       </c>
-      <c r="H39" s="38">
+      <c r="H39" s="37">
         <v>891.58</v>
       </c>
-      <c r="I39" s="38">
+      <c r="I39" s="37">
         <v>896.93</v>
       </c>
-      <c r="J39" s="38">
+      <c r="J39" s="37">
         <v>891.99</v>
       </c>
-      <c r="K39" s="38">
+      <c r="K39" s="37">
         <v>913.3</v>
       </c>
-      <c r="L39" s="38">
+      <c r="L39" s="37">
         <v>880.14</v>
       </c>
-      <c r="M39" s="38">
+      <c r="M39" s="37">
         <v>872.25</v>
       </c>
-      <c r="N39" s="38">
+      <c r="N39" s="37">
         <v>882.2</v>
       </c>
-      <c r="O39" s="38">
-        <v>864.45</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="39" t="s">
+      <c r="O39" s="37">
+        <v>867.16</v>
+      </c>
+      <c r="P39" s="37">
+        <v>870.4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="38">
+      <c r="B40" s="37">
         <v>786.08</v>
       </c>
-      <c r="C40" s="38">
+      <c r="C40" s="37">
         <v>785.4</v>
       </c>
-      <c r="D40" s="38">
+      <c r="D40" s="37">
         <v>787.03</v>
       </c>
-      <c r="E40" s="38">
+      <c r="E40" s="37">
         <v>799.94</v>
       </c>
-      <c r="F40" s="38">
+      <c r="F40" s="37">
         <v>805.3</v>
       </c>
-      <c r="G40" s="38">
+      <c r="G40" s="37">
         <v>794.05</v>
       </c>
-      <c r="H40" s="38">
+      <c r="H40" s="37">
         <v>800.22</v>
       </c>
-      <c r="I40" s="38">
+      <c r="I40" s="37">
         <v>796.79</v>
       </c>
-      <c r="J40" s="38">
+      <c r="J40" s="37">
         <v>810.12</v>
       </c>
-      <c r="K40" s="38">
+      <c r="K40" s="37">
         <v>827.94</v>
       </c>
-      <c r="L40" s="38">
+      <c r="L40" s="37">
         <v>815.28</v>
       </c>
-      <c r="M40" s="38">
+      <c r="M40" s="37">
         <v>820.44</v>
       </c>
-      <c r="N40" s="38">
+      <c r="N40" s="37">
         <v>825.94</v>
       </c>
-      <c r="O40" s="38">
-        <v>813.29</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="39" t="s">
+      <c r="O40" s="37">
+        <v>814.31</v>
+      </c>
+      <c r="P40" s="37">
+        <v>816.35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="38">
+      <c r="B41" s="37">
         <v>756.28</v>
       </c>
-      <c r="C41" s="38">
+      <c r="C41" s="37">
         <v>759.68</v>
       </c>
-      <c r="D41" s="38">
+      <c r="D41" s="37">
         <v>754.52</v>
       </c>
-      <c r="E41" s="38">
+      <c r="E41" s="37">
         <v>757.39</v>
       </c>
-      <c r="F41" s="38">
+      <c r="F41" s="37">
         <v>771.15</v>
       </c>
-      <c r="G41" s="38">
+      <c r="G41" s="37">
         <v>762.65</v>
       </c>
-      <c r="H41" s="38">
+      <c r="H41" s="37">
         <v>777.22</v>
       </c>
-      <c r="I41" s="38">
+      <c r="I41" s="37">
         <v>767.55</v>
       </c>
-      <c r="J41" s="38">
+      <c r="J41" s="37">
         <v>779.92</v>
       </c>
-      <c r="K41" s="38">
+      <c r="K41" s="37">
         <v>798.25</v>
       </c>
-      <c r="L41" s="38">
+      <c r="L41" s="37">
         <v>780.15</v>
       </c>
-      <c r="M41" s="38">
+      <c r="M41" s="37">
         <v>781.55</v>
       </c>
-      <c r="N41" s="38">
+      <c r="N41" s="37">
         <v>798.13</v>
       </c>
-      <c r="O41" s="38">
-        <v>800.88</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="39" t="s">
+      <c r="O41" s="37">
+        <v>798.13</v>
+      </c>
+      <c r="P41" s="37">
+        <v>796.02</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="38">
+      <c r="B42" s="37">
         <v>811.29</v>
       </c>
-      <c r="C42" s="38">
+      <c r="C42" s="37">
         <v>820.6</v>
       </c>
-      <c r="D42" s="38">
+      <c r="D42" s="37">
         <v>811.71</v>
       </c>
-      <c r="E42" s="38">
+      <c r="E42" s="37">
         <v>834.62</v>
       </c>
-      <c r="F42" s="38">
+      <c r="F42" s="37">
         <v>855.7</v>
       </c>
-      <c r="G42" s="38">
+      <c r="G42" s="37">
         <v>834.14</v>
       </c>
-      <c r="H42" s="38">
+      <c r="H42" s="37">
         <v>844.86</v>
       </c>
-      <c r="I42" s="38">
+      <c r="I42" s="37">
         <v>843.83</v>
       </c>
-      <c r="J42" s="38">
+      <c r="J42" s="37">
         <v>857.5</v>
       </c>
-      <c r="K42" s="38">
+      <c r="K42" s="37">
         <v>885.92</v>
       </c>
-      <c r="L42" s="38">
+      <c r="L42" s="37">
         <v>856.8</v>
       </c>
-      <c r="M42" s="38">
+      <c r="M42" s="37">
         <v>850.48</v>
       </c>
-      <c r="N42" s="38">
+      <c r="N42" s="37">
         <v>871.34</v>
       </c>
-      <c r="O42" s="38">
-        <v>866.32</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="39" t="s">
+      <c r="O42" s="37">
+        <v>869.04</v>
+      </c>
+      <c r="P42" s="37">
+        <v>860.02</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="38">
+      <c r="B43" s="37">
         <v>831.72</v>
       </c>
-      <c r="C43" s="38">
+      <c r="C43" s="37">
         <v>825.89</v>
       </c>
-      <c r="D43" s="38">
+      <c r="D43" s="37">
         <v>822.53</v>
       </c>
-      <c r="E43" s="38">
+      <c r="E43" s="37">
         <v>825.65</v>
       </c>
-      <c r="F43" s="38">
+      <c r="F43" s="37">
         <v>830.55</v>
       </c>
-      <c r="G43" s="38">
+      <c r="G43" s="37">
         <v>824.72</v>
       </c>
-      <c r="H43" s="38">
+      <c r="H43" s="37">
         <v>831.48</v>
       </c>
-      <c r="I43" s="38">
+      <c r="I43" s="37">
         <v>829.11</v>
       </c>
-      <c r="J43" s="38">
+      <c r="J43" s="37">
         <v>837.23</v>
       </c>
-      <c r="K43" s="38">
+      <c r="K43" s="37">
         <v>852.5</v>
       </c>
-      <c r="L43" s="38">
+      <c r="L43" s="37">
         <v>842.63</v>
       </c>
-      <c r="M43" s="38">
+      <c r="M43" s="37">
         <v>845</v>
       </c>
-      <c r="N43" s="38">
+      <c r="N43" s="37">
         <v>848.57</v>
       </c>
-      <c r="O43" s="38">
-        <v>835.67</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="39" t="s">
+      <c r="O43" s="37">
+        <v>835.33</v>
+      </c>
+      <c r="P43" s="37">
+        <v>829.82</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="38">
+      <c r="B44" s="37">
         <v>842.08</v>
       </c>
-      <c r="C44" s="38">
+      <c r="C44" s="37">
         <v>843.7</v>
       </c>
-      <c r="D44" s="38">
+      <c r="D44" s="37">
         <v>833.95</v>
       </c>
-      <c r="E44" s="38">
+      <c r="E44" s="37">
         <v>849.55</v>
       </c>
-      <c r="F44" s="38">
+      <c r="F44" s="37">
         <v>857.67</v>
       </c>
-      <c r="G44" s="38">
+      <c r="G44" s="37">
         <v>848.1</v>
       </c>
-      <c r="H44" s="38">
+      <c r="H44" s="37">
         <v>842.82</v>
       </c>
-      <c r="I44" s="38">
+      <c r="I44" s="37">
         <v>854.04</v>
       </c>
-      <c r="J44" s="38">
+      <c r="J44" s="37">
         <v>852.11</v>
       </c>
-      <c r="K44" s="38">
+      <c r="K44" s="37">
         <v>853.74</v>
       </c>
-      <c r="L44" s="38">
+      <c r="L44" s="37">
         <v>856.27</v>
       </c>
-      <c r="M44" s="38">
+      <c r="M44" s="37">
         <v>858.05</v>
       </c>
-      <c r="N44" s="38">
+      <c r="N44" s="37">
         <v>876.29</v>
       </c>
-      <c r="O44" s="38">
-        <v>859.55</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" s="39" t="s">
+      <c r="O44" s="37">
+        <v>858.92</v>
+      </c>
+      <c r="P44" s="37">
+        <v>852.05</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="38">
+      <c r="B45" s="37">
         <v>752.33</v>
       </c>
-      <c r="C45" s="38">
+      <c r="C45" s="37">
         <v>749.58</v>
       </c>
-      <c r="D45" s="38">
+      <c r="D45" s="37">
         <v>767.08</v>
       </c>
-      <c r="E45" s="38">
+      <c r="E45" s="37">
         <v>758.78</v>
       </c>
-      <c r="F45" s="38">
+      <c r="F45" s="37">
         <v>761.08</v>
       </c>
-      <c r="G45" s="38">
+      <c r="G45" s="37">
         <v>763.62</v>
       </c>
-      <c r="H45" s="38">
+      <c r="H45" s="37">
         <v>754.39</v>
       </c>
-      <c r="I45" s="38">
+      <c r="I45" s="37">
         <v>755.08</v>
       </c>
-      <c r="J45" s="38">
+      <c r="J45" s="37">
         <v>765.06</v>
       </c>
-      <c r="K45" s="38">
+      <c r="K45" s="37">
         <v>770.87</v>
       </c>
-      <c r="L45" s="38">
+      <c r="L45" s="37">
         <v>776.25</v>
       </c>
-      <c r="M45" s="38">
+      <c r="M45" s="37">
         <v>774.87</v>
       </c>
-      <c r="N45" s="38">
+      <c r="N45" s="37">
         <v>794.3</v>
       </c>
-      <c r="O45" s="38">
-        <v>783.07</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" s="39" t="s">
+      <c r="O45" s="37">
+        <v>782.26</v>
+      </c>
+      <c r="P45" s="37">
+        <v>799.37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="38">
+      <c r="B46" s="37">
         <v>717.02</v>
       </c>
-      <c r="C46" s="38">
+      <c r="C46" s="37">
         <v>707.41</v>
       </c>
-      <c r="D46" s="38">
+      <c r="D46" s="37">
         <v>711.65</v>
       </c>
-      <c r="E46" s="38">
+      <c r="E46" s="37">
         <v>725.8</v>
       </c>
-      <c r="F46" s="38">
+      <c r="F46" s="37">
         <v>734.16</v>
       </c>
-      <c r="G46" s="38">
+      <c r="G46" s="37">
         <v>719.68</v>
       </c>
-      <c r="H46" s="38">
+      <c r="H46" s="37">
         <v>727.56</v>
       </c>
-      <c r="I46" s="38">
+      <c r="I46" s="37">
         <v>720.53</v>
       </c>
-      <c r="J46" s="38">
+      <c r="J46" s="37">
         <v>736.56</v>
       </c>
-      <c r="K46" s="38">
+      <c r="K46" s="37">
         <v>750.03</v>
       </c>
-      <c r="L46" s="38">
+      <c r="L46" s="37">
         <v>738.82</v>
       </c>
-      <c r="M46" s="38">
+      <c r="M46" s="37">
         <v>726.55</v>
       </c>
-      <c r="N46" s="38">
+      <c r="N46" s="37">
         <v>745.78</v>
       </c>
-      <c r="O46" s="38">
-        <v>735.38</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" s="39" t="s">
+      <c r="O46" s="37">
+        <v>737.37</v>
+      </c>
+      <c r="P46" s="37">
+        <v>730.73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="B47" s="38">
+      <c r="B47" s="37">
         <v>753.25</v>
       </c>
-      <c r="C47" s="38">
+      <c r="C47" s="37">
         <v>748.68</v>
       </c>
-      <c r="D47" s="38">
+      <c r="D47" s="37">
         <v>753.3</v>
       </c>
-      <c r="E47" s="38">
+      <c r="E47" s="37">
         <v>756.5</v>
       </c>
-      <c r="F47" s="38">
+      <c r="F47" s="37">
         <v>775.43</v>
       </c>
-      <c r="G47" s="38">
+      <c r="G47" s="37">
         <v>766.47</v>
       </c>
-      <c r="H47" s="38">
+      <c r="H47" s="37">
         <v>773.19</v>
       </c>
-      <c r="I47" s="38">
+      <c r="I47" s="37">
         <v>770.71</v>
       </c>
-      <c r="J47" s="38">
+      <c r="J47" s="37">
         <v>781.99</v>
       </c>
-      <c r="K47" s="38">
+      <c r="K47" s="37">
         <v>797.27</v>
       </c>
-      <c r="L47" s="38">
+      <c r="L47" s="37">
         <v>788.81</v>
       </c>
-      <c r="M47" s="38">
+      <c r="M47" s="37">
         <v>806.7</v>
       </c>
-      <c r="N47" s="38">
+      <c r="N47" s="37">
         <v>814.67</v>
       </c>
-      <c r="O47" s="38">
-        <v>800.39</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" s="39" t="s">
+      <c r="O47" s="37">
+        <v>800.75</v>
+      </c>
+      <c r="P47" s="37">
+        <v>788.6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="B48" s="38">
+      <c r="B48" s="37">
         <v>877.15</v>
       </c>
-      <c r="C48" s="38">
+      <c r="C48" s="37">
         <v>871.79</v>
       </c>
-      <c r="D48" s="38">
+      <c r="D48" s="37">
         <v>863.1</v>
       </c>
-      <c r="E48" s="38">
+      <c r="E48" s="37">
         <v>870.06</v>
       </c>
-      <c r="F48" s="38">
+      <c r="F48" s="37">
         <v>892.69</v>
       </c>
-      <c r="G48" s="38">
+      <c r="G48" s="37">
         <v>870.3</v>
       </c>
-      <c r="H48" s="38">
+      <c r="H48" s="37">
         <v>870.72</v>
       </c>
-      <c r="I48" s="38">
+      <c r="I48" s="37">
         <v>872.15</v>
       </c>
-      <c r="J48" s="38">
+      <c r="J48" s="37">
         <v>877.86</v>
       </c>
-      <c r="K48" s="38">
+      <c r="K48" s="37">
         <v>909.32</v>
       </c>
-      <c r="L48" s="38">
+      <c r="L48" s="37">
         <v>880.4</v>
       </c>
-      <c r="M48" s="38">
+      <c r="M48" s="37">
         <v>887.5</v>
       </c>
-      <c r="N48" s="38">
+      <c r="N48" s="37">
         <v>912.6</v>
       </c>
-      <c r="O48" s="38">
-        <v>891.02</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A49" s="39" t="s">
+      <c r="O48" s="37">
+        <v>890.66</v>
+      </c>
+      <c r="P48" s="37">
+        <v>892.83</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="B49" s="38">
+      <c r="B49" s="37">
         <v>831.3</v>
       </c>
-      <c r="C49" s="38">
+      <c r="C49" s="37">
         <v>829.01</v>
       </c>
-      <c r="D49" s="38">
+      <c r="D49" s="37">
         <v>826.97</v>
       </c>
-      <c r="E49" s="38">
+      <c r="E49" s="37">
         <v>840.39</v>
       </c>
-      <c r="F49" s="38">
+      <c r="F49" s="37">
         <v>860.97</v>
       </c>
-      <c r="G49" s="38">
+      <c r="G49" s="37">
         <v>841.12</v>
       </c>
-      <c r="H49" s="38">
+      <c r="H49" s="37">
         <v>844.6</v>
       </c>
-      <c r="I49" s="38">
+      <c r="I49" s="37">
         <v>843.18</v>
       </c>
-      <c r="J49" s="38">
+      <c r="J49" s="37">
         <v>853.88</v>
       </c>
-      <c r="K49" s="38">
+      <c r="K49" s="37">
         <v>872.96</v>
       </c>
-      <c r="L49" s="38">
+      <c r="L49" s="37">
         <v>871.39</v>
       </c>
-      <c r="M49" s="38">
+      <c r="M49" s="37">
         <v>848.08</v>
       </c>
-      <c r="N49" s="38">
+      <c r="N49" s="37">
         <v>872.96</v>
       </c>
-      <c r="O49" s="38">
-        <v>852.61</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="39" t="s">
+      <c r="O49" s="37">
+        <v>849.47</v>
+      </c>
+      <c r="P49" s="37">
+        <v>848.05</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="B50" s="38">
+      <c r="B50" s="37">
         <v>813.12</v>
       </c>
-      <c r="C50" s="38">
+      <c r="C50" s="37">
         <v>802.76</v>
       </c>
-      <c r="D50" s="38">
+      <c r="D50" s="37">
         <v>797.37</v>
       </c>
-      <c r="E50" s="38">
+      <c r="E50" s="37">
         <v>814.52</v>
       </c>
-      <c r="F50" s="38">
+      <c r="F50" s="37">
         <v>824.72</v>
       </c>
-      <c r="G50" s="38">
+      <c r="G50" s="37">
         <v>810.82</v>
       </c>
-      <c r="H50" s="38">
+      <c r="H50" s="37">
         <v>811.91</v>
       </c>
-      <c r="I50" s="38">
+      <c r="I50" s="37">
         <v>806.13</v>
       </c>
-      <c r="J50" s="38">
+      <c r="J50" s="37">
         <v>822.35</v>
       </c>
-      <c r="K50" s="38">
+      <c r="K50" s="37">
         <v>828.35</v>
       </c>
-      <c r="L50" s="38">
+      <c r="L50" s="37">
         <v>821.51</v>
       </c>
-      <c r="M50" s="38">
+      <c r="M50" s="37">
         <v>802.46</v>
       </c>
-      <c r="N50" s="38">
+      <c r="N50" s="37">
         <v>815.63</v>
       </c>
-      <c r="O50" s="38">
-        <v>793.55</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A51" s="39" t="s">
+      <c r="O50" s="37">
+        <v>797.83</v>
+      </c>
+      <c r="P50" s="37">
+        <v>787.62</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="38">
+      <c r="B51" s="37">
         <v>924.41</v>
       </c>
-      <c r="C51" s="38">
+      <c r="C51" s="37">
         <v>924.06</v>
       </c>
-      <c r="D51" s="38">
+      <c r="D51" s="37">
         <v>929.51</v>
       </c>
-      <c r="E51" s="38">
+      <c r="E51" s="37">
         <v>938.46</v>
       </c>
-      <c r="F51" s="38">
+      <c r="F51" s="37">
         <v>954.72</v>
       </c>
-      <c r="G51" s="38">
+      <c r="G51" s="37">
         <v>933.92</v>
       </c>
-      <c r="H51" s="38">
+      <c r="H51" s="37">
         <v>943.35</v>
       </c>
-      <c r="I51" s="38">
+      <c r="I51" s="37">
         <v>935.06</v>
       </c>
-      <c r="J51" s="38">
+      <c r="J51" s="37">
         <v>950.51</v>
       </c>
-      <c r="K51" s="38">
+      <c r="K51" s="37">
         <v>972.87</v>
       </c>
-      <c r="L51" s="38">
+      <c r="L51" s="37">
         <v>947.19</v>
       </c>
-      <c r="M51" s="38">
+      <c r="M51" s="37">
         <v>949.69</v>
       </c>
-      <c r="N51" s="38">
+      <c r="N51" s="37">
         <v>970.56</v>
       </c>
-      <c r="O51" s="38">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A52" s="39" t="s">
+      <c r="O51" s="37">
+        <v>954.26</v>
+      </c>
+      <c r="P51" s="37">
+        <v>944.28</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A52" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="B52" s="38">
+      <c r="B52" s="37">
         <v>1032.92</v>
       </c>
-      <c r="C52" s="38">
+      <c r="C52" s="37">
         <v>1036.94</v>
       </c>
-      <c r="D52" s="38">
+      <c r="D52" s="37">
         <v>1033.23</v>
       </c>
-      <c r="E52" s="38">
+      <c r="E52" s="37">
         <v>1039.9100000000001</v>
       </c>
-      <c r="F52" s="38">
+      <c r="F52" s="37">
         <v>1068.32</v>
       </c>
-      <c r="G52" s="38">
+      <c r="G52" s="37">
         <v>1033.6199999999999</v>
       </c>
-      <c r="H52" s="38">
+      <c r="H52" s="37">
         <v>1038.3499999999999</v>
       </c>
-      <c r="I52" s="38">
+      <c r="I52" s="37">
         <v>1040.02</v>
       </c>
-      <c r="J52" s="38">
+      <c r="J52" s="37">
         <v>1052.53</v>
       </c>
-      <c r="K52" s="38">
+      <c r="K52" s="37">
         <v>1087.5899999999999</v>
       </c>
-      <c r="L52" s="38">
+      <c r="L52" s="37">
         <v>1050.58</v>
       </c>
-      <c r="M52" s="38">
+      <c r="M52" s="37">
         <v>1053.33</v>
       </c>
-      <c r="N52" s="38">
+      <c r="N52" s="37">
         <v>1094.46</v>
       </c>
-      <c r="O52" s="38">
-        <v>1063.92</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A53" s="39" t="s">
+      <c r="O52" s="37">
+        <v>1063.96</v>
+      </c>
+      <c r="P52" s="37">
+        <v>1063.3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A53" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="B53" s="38">
+      <c r="B53" s="37">
         <v>720.94</v>
       </c>
-      <c r="C53" s="38">
+      <c r="C53" s="37">
         <v>724.07</v>
       </c>
-      <c r="D53" s="38">
+      <c r="D53" s="37">
         <v>728.02</v>
       </c>
-      <c r="E53" s="38">
+      <c r="E53" s="37">
         <v>732.19</v>
       </c>
-      <c r="F53" s="38">
+      <c r="F53" s="37">
         <v>720.69</v>
       </c>
-      <c r="G53" s="38">
+      <c r="G53" s="37">
         <v>723.71</v>
       </c>
-      <c r="H53" s="38">
+      <c r="H53" s="37">
         <v>735.3</v>
       </c>
-      <c r="I53" s="38">
+      <c r="I53" s="37">
         <v>732.16</v>
       </c>
-      <c r="J53" s="38">
+      <c r="J53" s="37">
         <v>738.85</v>
       </c>
-      <c r="K53" s="38">
+      <c r="K53" s="37">
         <v>751.89</v>
       </c>
-      <c r="L53" s="38">
+      <c r="L53" s="37">
         <v>745.54</v>
       </c>
-      <c r="M53" s="38">
+      <c r="M53" s="37">
         <v>740.61</v>
       </c>
-      <c r="N53" s="38">
+      <c r="N53" s="37">
         <v>755.04</v>
       </c>
-      <c r="O53" s="38">
-        <v>753.28</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A54" s="39" t="s">
+      <c r="O53" s="37">
+        <v>752.19</v>
+      </c>
+      <c r="P53" s="37">
+        <v>757.11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A54" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="B54" s="38">
+      <c r="B54" s="37">
         <v>793.74</v>
       </c>
-      <c r="C54" s="38">
+      <c r="C54" s="37">
         <v>791.42</v>
       </c>
-      <c r="D54" s="38">
+      <c r="D54" s="37">
         <v>794.54</v>
       </c>
-      <c r="E54" s="38">
+      <c r="E54" s="37">
         <v>801.27</v>
       </c>
-      <c r="F54" s="38">
+      <c r="F54" s="37">
         <v>809.42</v>
       </c>
-      <c r="G54" s="38">
+      <c r="G54" s="37">
         <v>798.34</v>
       </c>
-      <c r="H54" s="38">
+      <c r="H54" s="37">
         <v>809.85</v>
       </c>
-      <c r="I54" s="38">
+      <c r="I54" s="37">
         <v>808.16</v>
       </c>
-      <c r="J54" s="38">
+      <c r="J54" s="37">
         <v>801.02</v>
       </c>
-      <c r="K54" s="38">
+      <c r="K54" s="37">
         <v>825.52</v>
       </c>
-      <c r="L54" s="38">
+      <c r="L54" s="37">
         <v>819.25</v>
       </c>
-      <c r="M54" s="38">
+      <c r="M54" s="37">
         <v>818.41</v>
       </c>
-      <c r="N54" s="38">
+      <c r="N54" s="37">
         <v>829.25</v>
       </c>
-      <c r="O54" s="38">
-        <v>809.86</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A55" s="39" t="s">
+      <c r="O54" s="37">
+        <v>812.52</v>
+      </c>
+      <c r="P54" s="37">
+        <v>812.74</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A55" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="B55" s="38">
+      <c r="B55" s="37">
         <v>774.82</v>
       </c>
-      <c r="C55" s="38">
+      <c r="C55" s="37">
         <v>777.2</v>
       </c>
-      <c r="D55" s="38">
+      <c r="D55" s="37">
         <v>776.88</v>
       </c>
-      <c r="E55" s="38">
+      <c r="E55" s="37">
         <v>755.31</v>
       </c>
-      <c r="F55" s="38">
+      <c r="F55" s="37">
         <v>773.89</v>
       </c>
-      <c r="G55" s="38">
+      <c r="G55" s="37">
         <v>746.5</v>
       </c>
-      <c r="H55" s="38">
+      <c r="H55" s="37">
         <v>757.91</v>
       </c>
-      <c r="I55" s="38">
+      <c r="I55" s="37">
         <v>770.38</v>
       </c>
-      <c r="J55" s="38">
+      <c r="J55" s="37">
         <v>775.56</v>
       </c>
-      <c r="K55" s="38">
+      <c r="K55" s="37">
         <v>812.26</v>
       </c>
-      <c r="L55" s="38">
+      <c r="L55" s="37">
         <v>793.54</v>
       </c>
-      <c r="M55" s="38">
+      <c r="M55" s="37">
         <v>770.25</v>
       </c>
-      <c r="N55" s="38">
+      <c r="N55" s="37">
         <v>795.31</v>
       </c>
-      <c r="O55" s="38">
-        <v>783.81</v>
+      <c r="O55" s="37">
+        <v>783.42</v>
+      </c>
+      <c r="P55" s="37">
+        <v>775.12</v>
       </c>
     </row>
   </sheetData>
@@ -9717,7 +9870,7 @@
   <pageSetup orientation="landscape"/>
   <headerFooter>
     <oddHeader>&amp;CBureau of Labor Statistics</oddHeader>
-    <oddFooter>&amp;LSource: Bureau of Labor Statistics&amp;RGenerated on: March 24, 2017 (11:38:00 AM)</oddFooter>
+    <oddFooter>&amp;LSource: Bureau of Labor Statistics&amp;RGenerated on: April 21, 2017 (10:55:46 AM)</oddFooter>
   </headerFooter>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -9725,10 +9878,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L56"/>
+  <dimension ref="A1:M56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="M6" sqref="M6:M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9739,31 +9892,31 @@
     <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>166</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="C1" s="24">
+      <c r="C1" s="50">
         <f>+Earnings_Comparison!E58</f>
-        <v>897.5</v>
+        <v>896.6</v>
       </c>
       <c r="D1" s="23">
         <f>+Earnings_Comparison!H58</f>
-        <v>-0.23164439633514</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+        <v>-7.7932599421126625E-3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="49" t="s">
         <v>180</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>165</v>
       </c>
@@ -9777,7 +9930,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>+Earnings_Comparison!B13</f>
         <v>DC</v>
@@ -9785,50 +9938,53 @@
       <c r="B4" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="25">
         <f>+Earnings_Comparison!E13</f>
-        <v>1409.88</v>
-      </c>
-      <c r="D4" s="25">
+        <v>1409.97</v>
+      </c>
+      <c r="D4" s="24">
         <f>+Earnings_Comparison!H13</f>
-        <v>5.1825961311030566</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>5.4578472350957696</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
-        <f>+Earnings_Comparison!B28</f>
-        <v>MN</v>
+        <f>+Earnings_Comparison!B32</f>
+        <v>NE</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="C5" s="26">
-        <f>+Earnings_Comparison!E28</f>
-        <v>955.53</v>
-      </c>
-      <c r="D5" s="25">
-        <f>+Earnings_Comparison!H28</f>
-        <v>4.9213938623762665</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+      <c r="C5" s="25">
+        <f>+Earnings_Comparison!E32</f>
+        <v>808.85</v>
+      </c>
+      <c r="D5" s="24">
+        <f>+Earnings_Comparison!H32</f>
+        <v>3.5631909070571455</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
-        <f>+Earnings_Comparison!B47</f>
-        <v>TN</v>
+        <f>+Earnings_Comparison!B30</f>
+        <v>MO</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="C6" s="26">
-        <f>+Earnings_Comparison!E47</f>
-        <v>800.39</v>
-      </c>
-      <c r="D6" s="25">
-        <f>+Earnings_Comparison!H47</f>
-        <v>4.0577646054888339</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+      <c r="C6" s="25">
+        <f>+Earnings_Comparison!E30</f>
+        <v>785.21</v>
+      </c>
+      <c r="D6" s="24">
+        <f>+Earnings_Comparison!H30</f>
+        <v>3.5595739783103042</v>
+      </c>
+      <c r="M6" s="20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>+Earnings_Comparison!B42</f>
         <v>OR</v>
@@ -9836,865 +9992,865 @@
       <c r="B7" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="25">
         <f>+Earnings_Comparison!E42</f>
-        <v>866.32</v>
-      </c>
-      <c r="D7" s="25">
+        <v>860.02</v>
+      </c>
+      <c r="D7" s="24">
         <f>+Earnings_Comparison!H42</f>
-        <v>2.7580603153481542</v>
-      </c>
-      <c r="K7" s="20" t="s">
+        <v>3.4879851312164201</v>
+      </c>
+      <c r="K7" s="20"/>
+      <c r="M7" s="20" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
+        <f>+Earnings_Comparison!B8</f>
+        <v>AR</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="25">
+        <f>+Earnings_Comparison!E8</f>
+        <v>705.89</v>
+      </c>
+      <c r="D8" s="24">
+        <f>+Earnings_Comparison!H8</f>
+        <v>3.3713013444573559</v>
+      </c>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="str">
+        <f>+Earnings_Comparison!B41</f>
+        <v>OK</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="C9" s="25">
+        <f>+Earnings_Comparison!E41</f>
+        <v>796.02</v>
+      </c>
+      <c r="D9" s="24">
+        <f>+Earnings_Comparison!H41</f>
+        <v>3.0470350204399921</v>
+      </c>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
+        <f>+Earnings_Comparison!B19</f>
+        <v>IN</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="25">
+        <f>+Earnings_Comparison!E19</f>
+        <v>834.21</v>
+      </c>
+      <c r="D10" s="24">
+        <f>+Earnings_Comparison!H19</f>
+        <v>2.614756370443172</v>
+      </c>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
+        <f>+Earnings_Comparison!B34</f>
+        <v>NH</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="C11" s="25">
+        <f>+Earnings_Comparison!E34</f>
+        <v>891.11</v>
+      </c>
+      <c r="D11" s="24">
+        <f>+Earnings_Comparison!H34</f>
+        <v>2.4771179942497668</v>
+      </c>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f>+Earnings_Comparison!B28</f>
+        <v>MN</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" s="25">
+        <f>+Earnings_Comparison!E28</f>
+        <v>950.68</v>
+      </c>
+      <c r="D12" s="24">
+        <f>+Earnings_Comparison!H28</f>
+        <v>2.4712801038347942</v>
+      </c>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
+        <f>+Earnings_Comparison!B24</f>
+        <v>ME</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="C13" s="25">
+        <f>+Earnings_Comparison!E24</f>
+        <v>787.91</v>
+      </c>
+      <c r="D13" s="24">
+        <f>+Earnings_Comparison!H24</f>
+        <v>2.4697841639538698</v>
+      </c>
+      <c r="L13" s="20"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="str">
+        <f>+Earnings_Comparison!B23</f>
+        <v>LA</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" s="25">
+        <f>+Earnings_Comparison!E23</f>
+        <v>812.96</v>
+      </c>
+      <c r="D14" s="24">
+        <f>+Earnings_Comparison!H23</f>
+        <v>2.4073808132446528</v>
+      </c>
+      <c r="F14" s="25">
+        <f>C$1-C14</f>
+        <v>83.639999999999986</v>
+      </c>
+      <c r="L14" s="20"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="str">
+        <f>+Earnings_Comparison!B47</f>
+        <v>TN</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="C15" s="25">
+        <f>+Earnings_Comparison!E47</f>
+        <v>788.6</v>
+      </c>
+      <c r="D15" s="24">
+        <f>+Earnings_Comparison!H47</f>
+        <v>2.2518283168917685</v>
+      </c>
+      <c r="F15" s="25">
+        <f t="shared" ref="F15:F21" si="0">C$1-C15</f>
+        <v>108</v>
+      </c>
+      <c r="L15" s="20"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="str">
+        <f>+Earnings_Comparison!B29</f>
+        <v>MS</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C16" s="25">
+        <f>+Earnings_Comparison!E29</f>
+        <v>701.98</v>
+      </c>
+      <c r="D16" s="24">
+        <f>+Earnings_Comparison!H29</f>
+        <v>1.9761679416103961</v>
+      </c>
+      <c r="F16" s="25">
+        <f t="shared" si="0"/>
+        <v>194.62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="str">
+        <f>+Earnings_Comparison!B7</f>
+        <v>AZ</v>
+      </c>
+      <c r="B17" s="20" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="str">
-        <f>+Earnings_Comparison!B30</f>
-        <v>MO</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="C8" s="26">
-        <f>+Earnings_Comparison!E30</f>
-        <v>779.17</v>
-      </c>
-      <c r="D8" s="25">
-        <f>+Earnings_Comparison!H30</f>
-        <v>2.7287382914623848</v>
-      </c>
-      <c r="K8" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="L8" s="20"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" t="str">
+      <c r="C17" s="25">
+        <f>+Earnings_Comparison!E7</f>
+        <v>849.34</v>
+      </c>
+      <c r="D17" s="24">
+        <f>+Earnings_Comparison!H7</f>
+        <v>1.9654205462321217</v>
+      </c>
+      <c r="F17" s="25">
+        <f t="shared" si="0"/>
+        <v>47.259999999999991</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="str">
+        <f>+Earnings_Comparison!B45</f>
+        <v>SC</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="C18" s="25">
+        <f>+Earnings_Comparison!E45</f>
+        <v>799.37</v>
+      </c>
+      <c r="D18" s="24">
+        <f>+Earnings_Comparison!H45</f>
+        <v>1.7863316113353012</v>
+      </c>
+      <c r="F18" s="25">
+        <f t="shared" si="0"/>
+        <v>97.230000000000018</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="str">
+        <f>+Earnings_Comparison!B12</f>
+        <v>DE</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" s="25">
+        <f>+Earnings_Comparison!E12</f>
+        <v>841.42</v>
+      </c>
+      <c r="D19" s="24">
+        <f>+Earnings_Comparison!H12</f>
+        <v>1.7739058517254325</v>
+      </c>
+      <c r="F19" s="25">
+        <f t="shared" si="0"/>
+        <v>55.180000000000064</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="str">
         <f>+Earnings_Comparison!B38</f>
         <v>NC</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B20" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="C9" s="26">
+      <c r="C20" s="25">
         <f>+Earnings_Comparison!E38</f>
-        <v>826.29</v>
-      </c>
-      <c r="D9" s="25">
+        <v>823.54</v>
+      </c>
+      <c r="D20" s="24">
         <f>+Earnings_Comparison!H38</f>
-        <v>2.6534741371149639</v>
-      </c>
-      <c r="K9" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="L9" s="20"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" t="str">
-        <f>+Earnings_Comparison!B41</f>
-        <v>OK</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="C10" s="26">
-        <f>+Earnings_Comparison!E41</f>
-        <v>800.88</v>
-      </c>
-      <c r="D10" s="25">
-        <f>+Earnings_Comparison!H41</f>
-        <v>2.6138128670627925</v>
-      </c>
-      <c r="K10" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="L10" s="20"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" t="str">
-        <f>+Earnings_Comparison!B19</f>
-        <v>IN</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="C11" s="26">
-        <f>+Earnings_Comparison!E19</f>
-        <v>836.61</v>
-      </c>
-      <c r="D11" s="25">
-        <f>+Earnings_Comparison!H19</f>
-        <v>2.1993765000351884</v>
-      </c>
-      <c r="K11" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="L11" s="20"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" t="str">
-        <f>+Earnings_Comparison!B7</f>
-        <v>AZ</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="C12" s="26">
-        <f>+Earnings_Comparison!E7</f>
-        <v>850.37</v>
-      </c>
-      <c r="D12" s="25">
-        <f>+Earnings_Comparison!H7</f>
-        <v>2.1180582255672764</v>
-      </c>
-      <c r="K12" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="L12" s="20"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" t="str">
+        <v>1.7211585889051584</v>
+      </c>
+      <c r="F20" s="25">
+        <f t="shared" si="0"/>
+        <v>73.060000000000059</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="str">
+        <f>+Earnings_Comparison!B53</f>
+        <v>WV</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="C21" s="25">
+        <f>+Earnings_Comparison!E53</f>
+        <v>757.11</v>
+      </c>
+      <c r="D21" s="24">
+        <f>+Earnings_Comparison!H53</f>
+        <v>1.5776003631603031</v>
+      </c>
+      <c r="F21" s="25">
+        <f t="shared" si="0"/>
+        <v>139.49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="str">
+        <f>+Earnings_Comparison!B9</f>
+        <v>CA</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="C22" s="25">
+        <f>+Earnings_Comparison!E9</f>
+        <v>1008.68</v>
+      </c>
+      <c r="D22" s="24">
+        <f>+Earnings_Comparison!H9</f>
+        <v>1.5183666953567876</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="str">
+        <f>+Earnings_Comparison!B40</f>
+        <v>OH</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="C23" s="25">
+        <f>+Earnings_Comparison!E40</f>
+        <v>816.35</v>
+      </c>
+      <c r="D23" s="36">
+        <f>+Earnings_Comparison!H40</f>
+        <v>1.3135158600046992</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="str">
+        <f>+Earnings_Comparison!B48</f>
+        <v>TX</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="C24" s="25">
+        <f>+Earnings_Comparison!E48</f>
+        <v>892.83</v>
+      </c>
+      <c r="D24" s="24">
+        <f>+Earnings_Comparison!H48</f>
+        <v>1.039208349262033</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="str">
+        <f>+Earnings_Comparison!B5</f>
+        <v>AL</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" s="25">
+        <f>+Earnings_Comparison!E5</f>
+        <v>786.48</v>
+      </c>
+      <c r="D25" s="24">
+        <f>+Earnings_Comparison!H5</f>
+        <v>0.9756323410654133</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="str">
+        <f>+Earnings_Comparison!B33</f>
+        <v>NV</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="C26" s="25">
+        <f>+Earnings_Comparison!E33</f>
+        <v>763.98</v>
+      </c>
+      <c r="D26" s="24">
+        <f>+Earnings_Comparison!H33</f>
+        <v>0.94087344139641704</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="str">
+        <f>+Earnings_Comparison!B11</f>
+        <v>CT</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="C27" s="25">
+        <f>+Earnings_Comparison!E11</f>
+        <v>1031.0899999999999</v>
+      </c>
+      <c r="D27" s="24">
+        <f>+Earnings_Comparison!H11</f>
+        <v>0.77998107026688857</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="str">
+        <f>+Earnings_Comparison!B26</f>
+        <v>MA</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="C28" s="25">
+        <f>+Earnings_Comparison!E26</f>
+        <v>1063.26</v>
+      </c>
+      <c r="D28" s="24">
+        <f>+Earnings_Comparison!H26</f>
+        <v>0.74466674723545623</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="str">
+        <f>+Earnings_Comparison!B31</f>
+        <v>MT</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="C29" s="25">
+        <f>+Earnings_Comparison!E31</f>
+        <v>731.58</v>
+      </c>
+      <c r="D29" s="24">
+        <f>+Earnings_Comparison!H31</f>
+        <v>0.65059290020119676</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="str">
         <f>+Earnings_Comparison!B14</f>
         <v>FL</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B30" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C13" s="26">
+      <c r="C30" s="25">
         <f>+Earnings_Comparison!E14</f>
-        <v>818.06</v>
-      </c>
-      <c r="D13" s="25">
+        <v>814.28</v>
+      </c>
+      <c r="D30" s="24">
         <f>+Earnings_Comparison!H14</f>
-        <v>1.7583090090054876</v>
-      </c>
-      <c r="L13" s="20"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" t="str">
-        <f>+Earnings_Comparison!B45</f>
-        <v>SC</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="C14" s="26">
-        <f>+Earnings_Comparison!E45</f>
-        <v>783.07</v>
-      </c>
-      <c r="D14" s="25">
-        <f>+Earnings_Comparison!H45</f>
-        <v>1.6837760652556044</v>
-      </c>
-      <c r="F14" s="26">
-        <f>C$1-C14</f>
-        <v>114.42999999999995</v>
-      </c>
-      <c r="L14" s="20"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" t="str">
-        <f>+Earnings_Comparison!B8</f>
-        <v>AR</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="C15" s="26">
-        <f>+Earnings_Comparison!E8</f>
-        <v>703.14</v>
-      </c>
-      <c r="D15" s="25">
-        <f>+Earnings_Comparison!H8</f>
-        <v>1.553778075472545</v>
-      </c>
-      <c r="F15" s="26">
-        <f t="shared" ref="F15:F21" si="0">C$1-C15</f>
-        <v>194.36</v>
-      </c>
-      <c r="L15" s="20"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" t="str">
-        <f>+Earnings_Comparison!B53</f>
-        <v>WV</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="C16" s="26">
-        <f>+Earnings_Comparison!E53</f>
-        <v>753.28</v>
-      </c>
-      <c r="D16" s="25">
-        <f>+Earnings_Comparison!H53</f>
-        <v>1.2616390252703003</v>
-      </c>
-      <c r="F16" s="26">
-        <f t="shared" si="0"/>
-        <v>144.22000000000003</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="str">
+        <v>0.58756755968576435</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="str">
+        <f>+Earnings_Comparison!B52</f>
+        <v>WA</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="C31" s="25">
+        <f>+Earnings_Comparison!E52</f>
+        <v>1063.3</v>
+      </c>
+      <c r="D31" s="24">
+        <f>+Earnings_Comparison!H52</f>
+        <v>0.51736220664531096</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="str">
+        <f>+Earnings_Comparison!B15</f>
+        <v>GA</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="C32" s="25">
+        <f>+Earnings_Comparison!E15</f>
+        <v>863.78</v>
+      </c>
+      <c r="D32" s="24">
+        <f>+Earnings_Comparison!H15</f>
+        <v>0.38847904555987522</v>
+      </c>
+      <c r="E32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="str">
+        <f>+Earnings_Comparison!B21</f>
+        <v>KS</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="C33" s="25">
+        <f>+Earnings_Comparison!E21</f>
+        <v>781.5</v>
+      </c>
+      <c r="D33" s="24">
+        <f>+Earnings_Comparison!H21</f>
+        <v>0.37847537161275202</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="str">
         <f>+Earnings_Comparison!B46</f>
         <v>SD</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B34" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="C17" s="26">
+      <c r="C34" s="25">
         <f>+Earnings_Comparison!E46</f>
-        <v>735.38</v>
-      </c>
-      <c r="D17" s="25">
+        <v>730.73</v>
+      </c>
+      <c r="D34" s="24">
         <f>+Earnings_Comparison!H46</f>
-        <v>1.1834980031869113</v>
-      </c>
-      <c r="F17" s="26">
-        <f t="shared" si="0"/>
-        <v>162.12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="str">
-        <f>+Earnings_Comparison!B34</f>
-        <v>NH</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="C18" s="26">
-        <f>+Earnings_Comparison!E34</f>
-        <v>892.11</v>
-      </c>
-      <c r="D18" s="25">
-        <f>+Earnings_Comparison!H34</f>
-        <v>1.1786420218397264</v>
-      </c>
-      <c r="F18" s="26">
-        <f t="shared" si="0"/>
-        <v>5.3899999999999864</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="str">
+        <v>0.29349384952026547</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="str">
+        <f>+Earnings_Comparison!B6</f>
+        <v>AK</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C35" s="25">
+        <f>+Earnings_Comparison!E6</f>
+        <v>981.05</v>
+      </c>
+      <c r="D35" s="24">
+        <f>+Earnings_Comparison!H6</f>
+        <v>0.24564180726125429</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="str">
+        <f>+Earnings_Comparison!B22</f>
+        <v>KY</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="C36" s="25">
+        <f>+Earnings_Comparison!E22</f>
+        <v>760.82</v>
+      </c>
+      <c r="D36" s="24">
+        <f>+Earnings_Comparison!H22</f>
+        <v>0.19806638168686774</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="str">
+        <f>+Earnings_Comparison!B49</f>
+        <v>UT</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="C37" s="25">
+        <f>+Earnings_Comparison!E49</f>
+        <v>848.05</v>
+      </c>
+      <c r="D37" s="24">
+        <f>+Earnings_Comparison!H49</f>
+        <v>0.1645352770238917</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="str">
+        <f>+Earnings_Comparison!B25</f>
+        <v>MD</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="C38" s="25">
+        <f>+Earnings_Comparison!E25</f>
+        <v>946.15</v>
+      </c>
+      <c r="D38" s="36">
+        <f>+Earnings_Comparison!H25</f>
+        <v>-3.2497139877629699E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="str">
+        <f>+Earnings_Comparison!B54</f>
+        <v>WI</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="C39" s="25">
+        <f>+Earnings_Comparison!E54</f>
+        <v>812.74</v>
+      </c>
+      <c r="D39" s="24">
+        <f>+Earnings_Comparison!H54</f>
+        <v>-8.7886619505450625E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="str">
+        <f>+Earnings_Comparison!B44</f>
+        <v>RI</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="C40" s="25">
+        <f>+Earnings_Comparison!E44</f>
+        <v>852.05</v>
+      </c>
+      <c r="D40" s="24">
+        <f>+Earnings_Comparison!H44</f>
+        <v>-0.20533040380985579</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="str">
+        <f>+Earnings_Comparison!B36</f>
+        <v>NM</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C41" s="25">
+        <f>+Earnings_Comparison!E36</f>
+        <v>693.22</v>
+      </c>
+      <c r="D41" s="24">
+        <f>+Earnings_Comparison!H36</f>
+        <v>-0.71543844266329648</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="str">
+        <f>+Earnings_Comparison!B17</f>
+        <v>ID</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="C42" s="25">
+        <f>+Earnings_Comparison!E17</f>
+        <v>739.2</v>
+      </c>
+      <c r="D42" s="24">
+        <f>+Earnings_Comparison!H17</f>
+        <v>-0.73803243065415636</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="str">
+        <f>+Earnings_Comparison!B51</f>
+        <v>VA</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="C43" s="25">
+        <f>+Earnings_Comparison!E51</f>
+        <v>944.28</v>
+      </c>
+      <c r="D43" s="24">
+        <f>+Earnings_Comparison!H51</f>
+        <v>-0.77319636177202167</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="str">
+        <f>+Earnings_Comparison!B16</f>
+        <v>HI</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C44" s="25">
+        <f>+Earnings_Comparison!E16</f>
+        <v>832.69</v>
+      </c>
+      <c r="D44" s="24">
+        <f>+Earnings_Comparison!H16</f>
+        <v>-0.87895570392240163</v>
+      </c>
+      <c r="H44" s="20"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="str">
+        <f>+Earnings_Comparison!B37</f>
+        <v>NY</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="C45" s="25">
+        <f>+Earnings_Comparison!E37</f>
+        <v>985.31</v>
+      </c>
+      <c r="D45" s="36">
+        <f>+Earnings_Comparison!H37</f>
+        <v>-0.92965941755355219</v>
+      </c>
+      <c r="H45" s="20"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="str">
         <f>+Earnings_Comparison!B35</f>
         <v>NJ</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B46" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="C19" s="26">
+      <c r="C46" s="25">
         <f>+Earnings_Comparison!E35</f>
-        <v>977.5</v>
-      </c>
-      <c r="D19" s="25">
+        <v>950</v>
+      </c>
+      <c r="D46" s="24">
         <f>+Earnings_Comparison!H35</f>
-        <v>1.1685457172972091</v>
-      </c>
-      <c r="F19" s="26">
-        <f t="shared" si="0"/>
-        <v>-80</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="str">
-        <f>+Earnings_Comparison!B32</f>
-        <v>NE</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="C20" s="26">
-        <f>+Earnings_Comparison!E32</f>
-        <v>791.62</v>
-      </c>
-      <c r="D20" s="25">
-        <f>+Earnings_Comparison!H32</f>
-        <v>1.1318272516274819</v>
-      </c>
-      <c r="F20" s="26">
-        <f t="shared" si="0"/>
-        <v>105.88</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="str">
-        <f>+Earnings_Comparison!B29</f>
-        <v>MS</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="C21" s="26">
-        <f>+Earnings_Comparison!E29</f>
-        <v>705.1</v>
-      </c>
-      <c r="D21" s="25">
-        <f>+Earnings_Comparison!H29</f>
-        <v>1.0303311808375515</v>
-      </c>
-      <c r="F21" s="26">
-        <f t="shared" si="0"/>
-        <v>192.39999999999998</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="str">
-        <f>+Earnings_Comparison!B23</f>
-        <v>LA</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="C22" s="26">
-        <f>+Earnings_Comparison!E23</f>
-        <v>815.62</v>
-      </c>
-      <c r="D22" s="25">
-        <f>+Earnings_Comparison!H23</f>
-        <v>1.0171644626656207</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="str">
-        <f>+Earnings_Comparison!B25</f>
-        <v>MD</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="C23" s="26">
-        <f>+Earnings_Comparison!E25</f>
-        <v>950.76</v>
-      </c>
-      <c r="D23" s="25">
-        <f>+Earnings_Comparison!H25</f>
-        <v>0.95809956613355229</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="str">
-        <f>+Earnings_Comparison!B40</f>
-        <v>OH</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="C24" s="26">
-        <f>+Earnings_Comparison!E40</f>
-        <v>813.29</v>
-      </c>
-      <c r="D24" s="37">
-        <f>+Earnings_Comparison!H40</f>
-        <v>0.79142960336469059</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="str">
-        <f>+Earnings_Comparison!B22</f>
-        <v>KY</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="C25" s="26">
-        <f>+Earnings_Comparison!E22</f>
-        <v>758.73</v>
-      </c>
-      <c r="D25" s="25">
-        <f>+Earnings_Comparison!H22</f>
-        <v>0.76681461564565012</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="str">
-        <f>+Earnings_Comparison!B9</f>
-        <v>CA</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="C26" s="26">
-        <f>+Earnings_Comparison!E9</f>
-        <v>1011.84</v>
-      </c>
-      <c r="D26" s="25">
-        <f>+Earnings_Comparison!H9</f>
-        <v>0.64323273163013894</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="str">
-        <f>+Earnings_Comparison!B26</f>
-        <v>MA</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="C27" s="26">
-        <f>+Earnings_Comparison!E26</f>
-        <v>1066.23</v>
-      </c>
-      <c r="D27" s="25">
-        <f>+Earnings_Comparison!H26</f>
-        <v>0.63661166734398922</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="str">
-        <f>+Earnings_Comparison!B12</f>
-        <v>DE</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="C28" s="26">
-        <f>+Earnings_Comparison!E12</f>
-        <v>827.52</v>
-      </c>
-      <c r="D28" s="25">
-        <f>+Earnings_Comparison!H12</f>
-        <v>0.54257286925800674</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="str">
-        <f>+Earnings_Comparison!B15</f>
-        <v>GA</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="C29" s="26">
-        <f>+Earnings_Comparison!E15</f>
-        <v>869.29</v>
-      </c>
-      <c r="D29" s="25">
-        <f>+Earnings_Comparison!H15</f>
-        <v>0.46944116876361797</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="str">
+        <v>-1.0408717573307968</v>
+      </c>
+      <c r="H46" s="20"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="str">
         <f>+Earnings_Comparison!B27</f>
         <v>MI</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="B47" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="C30" s="26">
+      <c r="C47" s="25">
         <f>+Earnings_Comparison!E27</f>
-        <v>843.09</v>
-      </c>
-      <c r="D30" s="25">
+        <v>829.72</v>
+      </c>
+      <c r="D47" s="24">
         <f>+Earnings_Comparison!H27</f>
-        <v>0.24207472702451049</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="str">
-        <f>+Earnings_Comparison!B5</f>
-        <v>AL</v>
-      </c>
-      <c r="B31" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="C31" s="26">
-        <f>+Earnings_Comparison!E5</f>
-        <v>791.43</v>
-      </c>
-      <c r="D31" s="25">
-        <f>+Earnings_Comparison!H5</f>
-        <v>0.17926229122313675</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="str">
-        <f>+Earnings_Comparison!B11</f>
-        <v>CT</v>
-      </c>
-      <c r="B32" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="C32" s="26">
-        <f>+Earnings_Comparison!E11</f>
-        <v>1032.9000000000001</v>
-      </c>
-      <c r="D32" s="25">
-        <f>+Earnings_Comparison!H11</f>
-        <v>0.17769204455071463</v>
-      </c>
-      <c r="E32">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" t="str">
-        <f>+Earnings_Comparison!B49</f>
-        <v>UT</v>
-      </c>
-      <c r="B33" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="C33" s="26">
-        <f>+Earnings_Comparison!E49</f>
-        <v>852.61</v>
-      </c>
-      <c r="D33" s="25">
-        <f>+Earnings_Comparison!H49</f>
-        <v>0.10591106560342567</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" t="str">
+        <v>-1.2950482300751132</v>
+      </c>
+      <c r="H47" s="20"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="str">
         <f>+Earnings_Comparison!B20</f>
         <v>IA</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="B48" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="C34" s="26">
+      <c r="C48" s="25">
         <f>+Earnings_Comparison!E20</f>
-        <v>791.86</v>
-      </c>
-      <c r="D34" s="25">
+        <v>792.27</v>
+      </c>
+      <c r="D48" s="24">
         <f>+Earnings_Comparison!H20</f>
-        <v>5.9326995950237382E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" t="str">
-        <f>+Earnings_Comparison!B52</f>
-        <v>WA</v>
-      </c>
-      <c r="B35" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="C35" s="26">
-        <f>+Earnings_Comparison!E52</f>
-        <v>1063.92</v>
-      </c>
-      <c r="D35" s="25">
-        <f>+Earnings_Comparison!H52</f>
-        <v>-0.13244554841106426</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" t="str">
-        <f>+Earnings_Comparison!B24</f>
-        <v>ME</v>
-      </c>
-      <c r="B36" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="C36" s="26">
-        <f>+Earnings_Comparison!E24</f>
-        <v>767.85</v>
-      </c>
-      <c r="D36" s="25">
-        <f>+Earnings_Comparison!H24</f>
-        <v>-0.20737837697375472</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" t="str">
-        <f>+Earnings_Comparison!B51</f>
-        <v>VA</v>
-      </c>
-      <c r="B37" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="C37" s="26">
-        <f>+Earnings_Comparison!E51</f>
-        <v>946</v>
-      </c>
-      <c r="D37" s="25">
-        <f>+Earnings_Comparison!H51</f>
-        <v>-0.35396213739542493</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" t="str">
-        <f>+Earnings_Comparison!B54</f>
-        <v>WI</v>
-      </c>
-      <c r="B38" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="C38" s="26">
-        <f>+Earnings_Comparison!E54</f>
-        <v>809.86</v>
-      </c>
-      <c r="D38" s="37">
-        <f>+Earnings_Comparison!H54</f>
-        <v>-0.39709669658025692</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" t="str">
-        <f>+Earnings_Comparison!B21</f>
-        <v>KS</v>
-      </c>
-      <c r="B39" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="C39" s="26">
-        <f>+Earnings_Comparison!E21</f>
-        <v>784.54</v>
-      </c>
-      <c r="D39" s="25">
-        <f>+Earnings_Comparison!H21</f>
-        <v>-0.45857091177353704</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" t="str">
-        <f>+Earnings_Comparison!B16</f>
-        <v>HI</v>
-      </c>
-      <c r="B40" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="C40" s="26">
-        <f>+Earnings_Comparison!E16</f>
-        <v>842.35</v>
-      </c>
-      <c r="D40" s="25">
-        <f>+Earnings_Comparison!H16</f>
-        <v>-0.51309362786080559</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" t="str">
-        <f>+Earnings_Comparison!B48</f>
-        <v>TX</v>
-      </c>
-      <c r="B41" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="C41" s="26">
-        <f>+Earnings_Comparison!E48</f>
-        <v>891.02</v>
-      </c>
-      <c r="D41" s="25">
-        <f>+Earnings_Comparison!H48</f>
-        <v>-0.51796992732575653</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" t="str">
-        <f>+Earnings_Comparison!B44</f>
-        <v>RI</v>
-      </c>
-      <c r="B42" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="C42" s="26">
-        <f>+Earnings_Comparison!E44</f>
-        <v>859.55</v>
-      </c>
-      <c r="D42" s="25">
-        <f>+Earnings_Comparison!H44</f>
-        <v>-0.83642729722483988</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" t="str">
-        <f>+Earnings_Comparison!B31</f>
-        <v>MT</v>
-      </c>
-      <c r="B43" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="C43" s="26">
-        <f>+Earnings_Comparison!E31</f>
-        <v>736.44</v>
-      </c>
-      <c r="D43" s="25">
-        <f>+Earnings_Comparison!H31</f>
-        <v>-0.83778074741602815</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" t="str">
-        <f>+Earnings_Comparison!B37</f>
-        <v>NY</v>
-      </c>
-      <c r="B44" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="C44" s="26">
-        <f>+Earnings_Comparison!E37</f>
-        <v>995.98</v>
-      </c>
-      <c r="D44" s="37">
-        <f>+Earnings_Comparison!H37</f>
-        <v>-0.98387096261524087</v>
-      </c>
-      <c r="H44" s="20"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" t="str">
-        <f>+Earnings_Comparison!B33</f>
-        <v>NV</v>
-      </c>
-      <c r="B45" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="C45" s="26">
-        <f>+Earnings_Comparison!E33</f>
-        <v>753.75</v>
-      </c>
-      <c r="D45" s="25">
-        <f>+Earnings_Comparison!H33</f>
-        <v>-1.0249272551108191</v>
-      </c>
-      <c r="H45" s="20"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" t="str">
+        <v>-1.2999737543346601</v>
+      </c>
+      <c r="H48" s="20"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="str">
         <f>+Earnings_Comparison!B43</f>
         <v>PA</v>
       </c>
-      <c r="B46" s="20" t="s">
+      <c r="B49" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="C46" s="26">
+      <c r="C49" s="25">
         <f>+Earnings_Comparison!E43</f>
-        <v>835.67</v>
-      </c>
-      <c r="D46" s="25">
+        <v>829.82</v>
+      </c>
+      <c r="D49" s="24">
         <f>+Earnings_Comparison!H43</f>
-        <v>-1.5123729627857907</v>
-      </c>
-      <c r="H46" s="20"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" t="str">
-        <f>+Earnings_Comparison!B6</f>
-        <v>AK</v>
-      </c>
-      <c r="B47" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="C47" s="26">
-        <f>+Earnings_Comparison!E6</f>
-        <v>961.87</v>
-      </c>
-      <c r="D47" s="25">
-        <f>+Earnings_Comparison!H6</f>
-        <v>-1.602110052458694</v>
-      </c>
-      <c r="H47" s="20"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" t="str">
+        <v>-1.4595757303598744</v>
+      </c>
+      <c r="H49" s="20"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" t="str">
+        <f>+Earnings_Comparison!B39</f>
+        <v>ND</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="C50" s="25">
+        <f>+Earnings_Comparison!E39</f>
+        <v>870.4</v>
+      </c>
+      <c r="D50" s="24">
+        <f>+Earnings_Comparison!H39</f>
+        <v>-1.6859446279491763</v>
+      </c>
+      <c r="H50" s="20"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="str">
+        <f>+Earnings_Comparison!B18</f>
+        <v>IL</v>
+      </c>
+      <c r="B51" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="C51" s="36">
+        <f>+Earnings_Comparison!E18</f>
+        <v>896.76</v>
+      </c>
+      <c r="D51" s="24">
+        <f>+Earnings_Comparison!H18</f>
+        <v>-2.3873018109886068</v>
+      </c>
+      <c r="H51" s="20"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" t="str">
         <f>+Earnings_Comparison!B55</f>
         <v>WY</v>
       </c>
-      <c r="B48" s="20" t="s">
+      <c r="B52" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="C48" s="26">
+      <c r="C52" s="25">
         <f>+Earnings_Comparison!E55</f>
-        <v>783.81</v>
-      </c>
-      <c r="D48" s="25">
+        <v>775.12</v>
+      </c>
+      <c r="D52" s="24">
         <f>+Earnings_Comparison!H55</f>
-        <v>-1.8371683362653712</v>
-      </c>
-      <c r="H48" s="20"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" t="str">
-        <f>+Earnings_Comparison!B17</f>
-        <v>ID</v>
-      </c>
-      <c r="B49" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="C49" s="26">
-        <f>+Earnings_Comparison!E17</f>
-        <v>735.78</v>
-      </c>
-      <c r="D49" s="25">
-        <f>+Earnings_Comparison!H17</f>
-        <v>-1.8472523460422496</v>
-      </c>
-      <c r="H49" s="20"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" t="str">
-        <f>+Earnings_Comparison!B18</f>
-        <v>IL</v>
-      </c>
-      <c r="B50" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="C50" s="26">
-        <f>+Earnings_Comparison!E18</f>
-        <v>896.08</v>
-      </c>
-      <c r="D50" s="25">
-        <f>+Earnings_Comparison!H18</f>
-        <v>-2.4396213258287558</v>
-      </c>
-      <c r="H50" s="20"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" t="str">
-        <f>+Earnings_Comparison!B36</f>
-        <v>NM</v>
-      </c>
-      <c r="B51" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="C51" s="26">
-        <f>+Earnings_Comparison!E36</f>
-        <v>691.79</v>
-      </c>
-      <c r="D51" s="25">
-        <f>+Earnings_Comparison!H36</f>
-        <v>-2.6635847878635266</v>
-      </c>
-      <c r="H51" s="20"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" t="str">
+        <v>-2.546536483784223</v>
+      </c>
+      <c r="H52" s="20"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" t="str">
         <f>+Earnings_Comparison!B50</f>
         <v>VT</v>
       </c>
-      <c r="B52" s="20" t="s">
+      <c r="B53" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="C52" s="26">
+      <c r="C53" s="25">
         <f>+Earnings_Comparison!E50</f>
-        <v>793.55</v>
-      </c>
-      <c r="D52" s="25">
+        <v>787.62</v>
+      </c>
+      <c r="D53" s="24">
         <f>+Earnings_Comparison!H50</f>
-        <v>-3.7817084199252449</v>
-      </c>
-      <c r="H52" s="20"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" t="str">
-        <f>+Earnings_Comparison!B39</f>
-        <v>ND</v>
-      </c>
-      <c r="B53" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="C53" s="26">
-        <f>+Earnings_Comparison!E39</f>
-        <v>864.45</v>
-      </c>
-      <c r="D53" s="25">
-        <f>+Earnings_Comparison!H39</f>
-        <v>-3.9143443119594612</v>
+        <v>-3.5195943877403324</v>
       </c>
       <c r="H53" s="20"/>
     </row>
@@ -10706,23 +10862,23 @@
       <c r="B54" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="C54" s="26">
+      <c r="C54" s="36">
         <f>+Earnings_Comparison!E10</f>
-        <v>889.44</v>
-      </c>
-      <c r="D54" s="25">
+        <v>897.08</v>
+      </c>
+      <c r="D54" s="24">
         <f>+Earnings_Comparison!H10</f>
-        <v>-5.0727525393451938</v>
+        <v>-3.6506142555895016</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C56">
-        <f>COUNTIF(C4:C54, "&lt;895")</f>
-        <v>39</v>
+        <f>COUNTIF(C4:C54, "&lt;896")</f>
+        <v>38</v>
       </c>
       <c r="D56">
         <f>COUNTIF(D4:D54, "&lt;0")</f>
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -10731,8 +10887,8 @@
       <sortCondition descending="1" ref="D3:D54"/>
     </sortState>
   </autoFilter>
-  <sortState ref="K7:K12">
-    <sortCondition ref="K7"/>
+  <sortState ref="M6:M10">
+    <sortCondition ref="M6"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A2:D2"/>

--- a/static/data/source/current_earnings.xlsx
+++ b/static/data/source/current_earnings.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17927"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\megan\Documents\April SEM\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="1110" windowWidth="20775" windowHeight="11415" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16457" windowHeight="6711" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Earnings Table" sheetId="2" r:id="rId1"/>
     <sheet name="Earnings_Comparison" sheetId="1" r:id="rId2"/>
-    <sheet name="March_2017_BLS Data Series" sheetId="25" r:id="rId3"/>
+    <sheet name="April_2017_BLS Data Series" sheetId="25" r:id="rId3"/>
     <sheet name="SCRATCH" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">SCRATCH!$A$3:$D$54</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -25,7 +30,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="P5" authorId="0">
+    <comment ref="E5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -40,7 +45,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P6" authorId="0">
+    <comment ref="E6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -55,7 +60,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P7" authorId="0">
+    <comment ref="E7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -70,7 +75,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P8" authorId="0">
+    <comment ref="E8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -85,7 +90,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P9" authorId="0">
+    <comment ref="E9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -100,7 +105,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P10" authorId="0">
+    <comment ref="E10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -115,7 +120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P11" authorId="0">
+    <comment ref="E11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -130,7 +135,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P12" authorId="0">
+    <comment ref="E12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -145,7 +150,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P13" authorId="0">
+    <comment ref="E13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -160,7 +165,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P14" authorId="0">
+    <comment ref="E14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -175,7 +180,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P15" authorId="0">
+    <comment ref="E15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -190,7 +195,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P16" authorId="0">
+    <comment ref="E16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -205,7 +210,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P17" authorId="0">
+    <comment ref="E17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -220,7 +225,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P18" authorId="0">
+    <comment ref="E18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -235,7 +240,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P19" authorId="0">
+    <comment ref="E19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -250,7 +255,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P20" authorId="0">
+    <comment ref="E20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -265,7 +270,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P21" authorId="0">
+    <comment ref="E21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -280,7 +285,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P22" authorId="0">
+    <comment ref="E22" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -295,7 +300,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P23" authorId="0">
+    <comment ref="E23" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -310,7 +315,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P24" authorId="0">
+    <comment ref="E24" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -325,7 +330,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P25" authorId="0">
+    <comment ref="E25" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -340,7 +345,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P26" authorId="0">
+    <comment ref="E26" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -355,7 +360,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P27" authorId="0">
+    <comment ref="E27" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -370,7 +375,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P28" authorId="0">
+    <comment ref="E28" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -385,7 +390,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P29" authorId="0">
+    <comment ref="E29" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -400,7 +405,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P30" authorId="0">
+    <comment ref="E30" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -415,7 +420,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P31" authorId="0">
+    <comment ref="E31" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -430,7 +435,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P32" authorId="0">
+    <comment ref="E32" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -445,7 +450,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P33" authorId="0">
+    <comment ref="E33" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -460,7 +465,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P34" authorId="0">
+    <comment ref="E34" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -475,7 +480,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P35" authorId="0">
+    <comment ref="E35" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -490,7 +495,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P36" authorId="0">
+    <comment ref="E36" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -505,7 +510,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P37" authorId="0">
+    <comment ref="E37" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -520,7 +525,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P38" authorId="0">
+    <comment ref="E38" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -535,7 +540,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P39" authorId="0">
+    <comment ref="E39" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -550,7 +555,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P40" authorId="0">
+    <comment ref="E40" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -565,7 +570,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P41" authorId="0">
+    <comment ref="E41" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -580,7 +585,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P42" authorId="0">
+    <comment ref="E42" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -595,7 +600,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P43" authorId="0">
+    <comment ref="E43" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -610,7 +615,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P44" authorId="0">
+    <comment ref="E44" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -625,7 +630,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P45" authorId="0">
+    <comment ref="E45" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -640,7 +645,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P46" authorId="0">
+    <comment ref="E46" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -655,7 +660,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P47" authorId="0">
+    <comment ref="E47" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -670,7 +675,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P48" authorId="0">
+    <comment ref="E48" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -685,7 +690,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P49" authorId="0">
+    <comment ref="E49" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -700,7 +705,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P50" authorId="0">
+    <comment ref="E50" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -715,7 +720,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P51" authorId="0">
+    <comment ref="E51" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -730,7 +735,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P52" authorId="0">
+    <comment ref="E52" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -745,7 +750,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P53" authorId="0">
+    <comment ref="E53" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -760,7 +765,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P54" authorId="0">
+    <comment ref="E54" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -775,7 +780,782 @@
         </r>
       </text>
     </comment>
-    <comment ref="P55" authorId="0">
+    <comment ref="E55" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Preliminary
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="Q5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Preliminary
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Preliminary
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Preliminary
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Preliminary
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Preliminary
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Preliminary
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Preliminary
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q12" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Preliminary
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q13" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Preliminary
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q14" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Preliminary
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q15" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Preliminary
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q16" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Preliminary
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q17" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Preliminary
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q18" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Preliminary
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q19" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Preliminary
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q20" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Preliminary
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q21" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Preliminary
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q22" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Preliminary
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q23" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Preliminary
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q24" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Preliminary
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q25" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Preliminary
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q26" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Preliminary
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q27" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Preliminary
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q28" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Preliminary
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q29" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Preliminary
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q30" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Preliminary
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q31" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Preliminary
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q32" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Preliminary
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q33" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Preliminary
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q34" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Preliminary
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q35" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Preliminary
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q36" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Preliminary
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q37" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Preliminary
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q38" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Preliminary
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q39" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Preliminary
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q40" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Preliminary
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q41" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Preliminary
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q42" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Preliminary
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q43" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Preliminary
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q44" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Preliminary
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q45" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Preliminary
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q46" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Preliminary
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q47" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Preliminary
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q48" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Preliminary
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q49" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Preliminary
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q50" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Preliminary
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q51" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Preliminary
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q52" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Preliminary
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q53" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Preliminary
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q54" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Preliminary
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q55" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -795,7 +1575,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="199">
   <si>
     <t>State and Area Employment, Hours, and Earnings</t>
   </si>
@@ -1349,9 +2129,6 @@
 2016</t>
   </si>
   <si>
-    <t>Average Weekly Wages December 2016</t>
-  </si>
-  <si>
     <t>Dec
 2017</t>
   </si>
@@ -1409,22 +2186,25 @@
     <t>Average Weekly Earnings March 2017</t>
   </si>
   <si>
-    <t>March
+    <t>April
+2017</t>
+  </si>
+  <si>
+    <t>April
 2016</t>
   </si>
   <si>
-    <t>March
-2017</t>
-  </si>
-  <si>
-    <t>March 2016 adj for inflation</t>
+    <t>April 2016 adj for inflation</t>
+  </si>
+  <si>
+    <t>Average Weekly Wages April 2017</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="14">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="#0.00"/>
@@ -1438,8 +2218,9 @@
     <numFmt numFmtId="172" formatCode="0.0"/>
     <numFmt numFmtId="173" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="174" formatCode="#0"/>
+    <numFmt numFmtId="175" formatCode="#0.000"/>
   </numFmts>
-  <fonts count="78" x14ac:knownFonts="1">
+  <fonts count="80" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1942,6 +2723,17 @@
       <sz val="11"/>
       <color theme="3"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -3070,7 +3862,7 @@
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3147,6 +3939,20 @@
     </xf>
     <xf numFmtId="17" fontId="4" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="315"/>
+    <xf numFmtId="164" fontId="78" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="17" fontId="4" fillId="2" borderId="1" xfId="315" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="4" fillId="34" borderId="1" xfId="315" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="175" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="77" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3161,7 +3967,6 @@
     <xf numFmtId="0" fontId="28" fillId="34" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="77" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="480">
     <cellStyle name="20% - Accent1" xfId="9" builtinId="30" customBuiltin="1"/>
@@ -3651,6 +4456,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -3672,7 +4480,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1076" name="_xssf_cell_comment" hidden="1"/>
+        <xdr:cNvPr id="1076" name="_xssf_cell_comment" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000034040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3715,7 +4529,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="_xssf_cell_comment" hidden="1"/>
+        <xdr:cNvPr id="2" name="_xssf_cell_comment" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3758,7 +4578,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="AutoShape 52"/>
+        <xdr:cNvPr id="3" name="AutoShape 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3806,7 +4632,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="AutoShape 52"/>
+        <xdr:cNvPr id="4" name="AutoShape 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3854,7 +4686,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="AutoShape 52"/>
+        <xdr:cNvPr id="5" name="AutoShape 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3902,7 +4740,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="AutoShape 52"/>
+        <xdr:cNvPr id="6" name="AutoShape 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3950,7 +4794,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="AutoShape 52"/>
+        <xdr:cNvPr id="7" name="AutoShape 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3998,7 +4848,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="AutoShape 52"/>
+        <xdr:cNvPr id="8" name="AutoShape 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4324,26 +5180,26 @@
   <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" customWidth="1"/>
-    <col min="3" max="3" width="32.42578125" customWidth="1"/>
-    <col min="4" max="4" width="36.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17.3828125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.84375" customWidth="1"/>
+    <col min="3" max="3" width="32.3828125" customWidth="1"/>
+    <col min="4" max="4" width="36.3046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
-        <v>195</v>
-      </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="17.600000000000001" x14ac:dyDescent="0.4">
+      <c r="A1" s="50" t="s">
+        <v>194</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="26" t="s">
         <v>58</v>
       </c>
@@ -4357,7 +5213,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="20" t="s">
         <v>164</v>
       </c>
@@ -4366,14 +5222,14 @@
       </c>
       <c r="C3" s="30">
         <f>+Earnings_Comparison!E58</f>
-        <v>896.6</v>
+        <v>900.94</v>
       </c>
       <c r="D3" s="29">
         <f>+Earnings_Comparison!H58</f>
-        <v>-7.7932599421126625E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.33789333703202473</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="20" t="s">
         <v>113</v>
       </c>
@@ -4383,14 +5239,14 @@
       </c>
       <c r="C4" s="30">
         <f>+Earnings_Comparison!E5</f>
-        <v>786.48</v>
+        <v>803.08</v>
       </c>
       <c r="D4" s="29">
         <f>+Earnings_Comparison!H5</f>
-        <v>0.9756323410654133</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.1123911808991638</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="20" t="s">
         <v>114</v>
       </c>
@@ -4400,14 +5256,14 @@
       </c>
       <c r="C5" s="30">
         <f>+Earnings_Comparison!E6</f>
-        <v>981.05</v>
+        <v>990.85</v>
       </c>
       <c r="D5" s="29">
         <f>+Earnings_Comparison!H6</f>
-        <v>0.24564180726125429</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.0004469042502961</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="20" t="s">
         <v>115</v>
       </c>
@@ -4417,14 +5273,14 @@
       </c>
       <c r="C6" s="30">
         <f>+Earnings_Comparison!E7</f>
-        <v>849.34</v>
+        <v>881.23</v>
       </c>
       <c r="D6" s="29">
         <f>+Earnings_Comparison!H7</f>
-        <v>1.9654205462321217</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5.0950552705700147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="20" t="s">
         <v>116</v>
       </c>
@@ -4434,14 +5290,14 @@
       </c>
       <c r="C7" s="30">
         <f>+Earnings_Comparison!E8</f>
-        <v>705.89</v>
+        <v>717.89</v>
       </c>
       <c r="D7" s="29">
         <f>+Earnings_Comparison!H8</f>
-        <v>3.3713013444573559</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.6564841863573339</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="20" t="s">
         <v>117</v>
       </c>
@@ -4451,14 +5307,14 @@
       </c>
       <c r="C8" s="30">
         <f>+Earnings_Comparison!E9</f>
-        <v>1008.68</v>
+        <v>1047.3499999999999</v>
       </c>
       <c r="D8" s="29">
         <f>+Earnings_Comparison!H9</f>
-        <v>1.5183666953567876</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4.577520793771761</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="20" t="s">
         <v>118</v>
       </c>
@@ -4468,14 +5324,14 @@
       </c>
       <c r="C9" s="30">
         <f>+Earnings_Comparison!E10</f>
-        <v>897.08</v>
+        <v>931.39</v>
       </c>
       <c r="D9" s="29">
         <f>+Earnings_Comparison!H10</f>
-        <v>-3.6506142555895016</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.11020873947418242</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="20" t="s">
         <v>119</v>
       </c>
@@ -4485,14 +5341,14 @@
       </c>
       <c r="C10" s="30">
         <f>+Earnings_Comparison!E11</f>
-        <v>1031.0899999999999</v>
+        <v>1073.01</v>
       </c>
       <c r="D10" s="29">
         <f>+Earnings_Comparison!H11</f>
-        <v>0.77998107026688857</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.9964706927592788</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="20" t="s">
         <v>120</v>
       </c>
@@ -4502,14 +5358,14 @@
       </c>
       <c r="C11" s="30">
         <f>+Earnings_Comparison!E12</f>
-        <v>841.42</v>
+        <v>858.66</v>
       </c>
       <c r="D11" s="29">
         <f>+Earnings_Comparison!H12</f>
-        <v>1.7739058517254325</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.631086998459998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" s="20" t="s">
         <v>121</v>
       </c>
@@ -4519,14 +5375,14 @@
       </c>
       <c r="C12" s="30">
         <f>+Earnings_Comparison!E13</f>
-        <v>1409.97</v>
+        <v>1460.34</v>
       </c>
       <c r="D12" s="29">
         <f>+Earnings_Comparison!H13</f>
-        <v>5.4578472350957696</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7.2061916143748794</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" s="20" t="s">
         <v>122</v>
       </c>
@@ -4536,14 +5392,14 @@
       </c>
       <c r="C13" s="30">
         <f>+Earnings_Comparison!E14</f>
-        <v>814.28</v>
+        <v>839.05</v>
       </c>
       <c r="D13" s="29">
         <f>+Earnings_Comparison!H14</f>
-        <v>0.58756755968576435</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4.1007734202464174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" s="20" t="s">
         <v>123</v>
       </c>
@@ -4553,14 +5409,14 @@
       </c>
       <c r="C14" s="30">
         <f>+Earnings_Comparison!E15</f>
-        <v>863.78</v>
+        <v>889.49</v>
       </c>
       <c r="D14" s="29">
         <f>+Earnings_Comparison!H15</f>
-        <v>0.38847904555987522</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.3038310262055948</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" s="20" t="s">
         <v>124</v>
       </c>
@@ -4570,14 +5426,14 @@
       </c>
       <c r="C15" s="30">
         <f>+Earnings_Comparison!E16</f>
-        <v>832.69</v>
+        <v>876.77</v>
       </c>
       <c r="D15" s="29">
         <f>+Earnings_Comparison!H16</f>
-        <v>-0.87895570392240163</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.6560443016670607</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" s="20" t="s">
         <v>125</v>
       </c>
@@ -4587,14 +5443,14 @@
       </c>
       <c r="C16" s="30">
         <f>+Earnings_Comparison!E17</f>
-        <v>739.2</v>
+        <v>757.91</v>
       </c>
       <c r="D16" s="29">
         <f>+Earnings_Comparison!H17</f>
-        <v>-0.73803243065415636</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.44205691006204972</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="20" t="s">
         <v>126</v>
       </c>
@@ -4604,14 +5460,14 @@
       </c>
       <c r="C17" s="30">
         <f>+Earnings_Comparison!E18</f>
-        <v>896.76</v>
+        <v>919.3</v>
       </c>
       <c r="D17" s="29">
         <f>+Earnings_Comparison!H18</f>
-        <v>-2.3873018109886068</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.5954806707840774E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" s="20" t="s">
         <v>127</v>
       </c>
@@ -4621,14 +5477,14 @@
       </c>
       <c r="C18" s="30">
         <f>+Earnings_Comparison!E19</f>
-        <v>834.21</v>
+        <v>857.49</v>
       </c>
       <c r="D18" s="29">
         <f>+Earnings_Comparison!H19</f>
-        <v>2.614756370443172</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.7086210854226254</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" s="20" t="s">
         <v>128</v>
       </c>
@@ -4638,14 +5494,14 @@
       </c>
       <c r="C19" s="30">
         <f>+Earnings_Comparison!E20</f>
-        <v>792.27</v>
+        <v>809.64</v>
       </c>
       <c r="D19" s="29">
         <f>+Earnings_Comparison!H20</f>
-        <v>-1.2999737543346601</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-1.7433670814102742</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" s="20" t="s">
         <v>129</v>
       </c>
@@ -4655,14 +5511,14 @@
       </c>
       <c r="C20" s="30">
         <f>+Earnings_Comparison!E21</f>
-        <v>781.5</v>
+        <v>795.15</v>
       </c>
       <c r="D20" s="29">
         <f>+Earnings_Comparison!H21</f>
-        <v>0.37847537161275202</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.368758096492706</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" s="20" t="s">
         <v>130</v>
       </c>
@@ -4672,14 +5528,14 @@
       </c>
       <c r="C21" s="30">
         <f>+Earnings_Comparison!E22</f>
-        <v>760.82</v>
+        <v>766.06</v>
       </c>
       <c r="D21" s="29">
         <f>+Earnings_Comparison!H22</f>
-        <v>0.19806638168686774</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.40072680329839017</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" s="20" t="s">
         <v>131</v>
       </c>
@@ -4689,14 +5545,14 @@
       </c>
       <c r="C22" s="30">
         <f>+Earnings_Comparison!E23</f>
-        <v>812.96</v>
+        <v>810.47</v>
       </c>
       <c r="D22" s="29">
         <f>+Earnings_Comparison!H23</f>
-        <v>2.4073808132446528</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.56761014133679399</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" s="20" t="s">
         <v>132</v>
       </c>
@@ -4706,14 +5562,14 @@
       </c>
       <c r="C23" s="30">
         <f>+Earnings_Comparison!E24</f>
-        <v>787.91</v>
+        <v>792.2</v>
       </c>
       <c r="D23" s="29">
         <f>+Earnings_Comparison!H24</f>
-        <v>2.4697841639538698</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.9332487709414101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" s="20" t="s">
         <v>133</v>
       </c>
@@ -4723,14 +5579,14 @@
       </c>
       <c r="C24" s="30">
         <f>+Earnings_Comparison!E25</f>
-        <v>946.15</v>
+        <v>967.43</v>
       </c>
       <c r="D24" s="29">
         <f>+Earnings_Comparison!H25</f>
-        <v>-3.2497139877629699E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.8722968020006281</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" s="20" t="s">
         <v>134</v>
       </c>
@@ -4740,14 +5596,14 @@
       </c>
       <c r="C25" s="30">
         <f>+Earnings_Comparison!E26</f>
-        <v>1063.26</v>
+        <v>1093.57</v>
       </c>
       <c r="D25" s="29">
         <f>+Earnings_Comparison!H26</f>
-        <v>0.74466674723545623</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.4217644158938354</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" s="20" t="s">
         <v>135</v>
       </c>
@@ -4757,14 +5613,14 @@
       </c>
       <c r="C26" s="30">
         <f>+Earnings_Comparison!E27</f>
-        <v>829.72</v>
+        <v>827.34</v>
       </c>
       <c r="D26" s="29">
         <f>+Earnings_Comparison!H27</f>
-        <v>-1.2950482300751132</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-1.5370556972318594</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" s="20" t="s">
         <v>136</v>
       </c>
@@ -4774,14 +5630,14 @@
       </c>
       <c r="C27" s="30">
         <f>+Earnings_Comparison!E28</f>
-        <v>950.68</v>
+        <v>989.06</v>
       </c>
       <c r="D27" s="29">
         <f>+Earnings_Comparison!H28</f>
-        <v>2.4712801038347942</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6.7556525319776073</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" s="20" t="s">
         <v>137</v>
       </c>
@@ -4791,14 +5647,14 @@
       </c>
       <c r="C28" s="30">
         <f>+Earnings_Comparison!E29</f>
-        <v>701.98</v>
+        <v>703.76</v>
       </c>
       <c r="D28" s="29">
         <f>+Earnings_Comparison!H29</f>
-        <v>1.9761679416103961</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.63169958361155576</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" s="20" t="s">
         <v>138</v>
       </c>
@@ -4808,14 +5664,14 @@
       </c>
       <c r="C29" s="30">
         <f>+Earnings_Comparison!E30</f>
-        <v>785.21</v>
+        <v>810.21</v>
       </c>
       <c r="D29" s="29">
         <f>+Earnings_Comparison!H30</f>
-        <v>3.5595739783103042</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6.1572176738330819</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" s="20" t="s">
         <v>139</v>
       </c>
@@ -4825,14 +5681,14 @@
       </c>
       <c r="C30" s="30">
         <f>+Earnings_Comparison!E31</f>
-        <v>731.58</v>
+        <v>758.35</v>
       </c>
       <c r="D30" s="29">
         <f>+Earnings_Comparison!H31</f>
-        <v>0.65059290020119676</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.3783015721515088</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" s="20" t="s">
         <v>140</v>
       </c>
@@ -4842,14 +5698,14 @@
       </c>
       <c r="C31" s="30">
         <f>+Earnings_Comparison!E32</f>
-        <v>808.85</v>
+        <v>833.17</v>
       </c>
       <c r="D31" s="29">
         <f>+Earnings_Comparison!H32</f>
-        <v>3.5631909070571455</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4.5229636728373324</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32" s="20" t="s">
         <v>141</v>
       </c>
@@ -4859,14 +5715,14 @@
       </c>
       <c r="C32" s="30">
         <f>+Earnings_Comparison!E33</f>
-        <v>763.98</v>
+        <v>768.13</v>
       </c>
       <c r="D32" s="29">
         <f>+Earnings_Comparison!H33</f>
-        <v>0.94087344139641704</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.67067501939599428</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33" s="20" t="s">
         <v>142</v>
       </c>
@@ -4876,14 +5732,14 @@
       </c>
       <c r="C33" s="30">
         <f>+Earnings_Comparison!E34</f>
-        <v>891.11</v>
+        <v>915.63</v>
       </c>
       <c r="D33" s="29">
         <f>+Earnings_Comparison!H34</f>
-        <v>2.4771179942497668</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4.0765869922366305</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34" s="20" t="s">
         <v>143</v>
       </c>
@@ -4893,14 +5749,14 @@
       </c>
       <c r="C34" s="30">
         <f>+Earnings_Comparison!E35</f>
-        <v>950</v>
+        <v>983.84</v>
       </c>
       <c r="D34" s="29">
         <f>+Earnings_Comparison!H35</f>
-        <v>-1.0408717573307968</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.4644612820032599</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35" s="20" t="s">
         <v>144</v>
       </c>
@@ -4910,14 +5766,14 @@
       </c>
       <c r="C35" s="30">
         <f>+Earnings_Comparison!E36</f>
-        <v>693.22</v>
+        <v>715.21</v>
       </c>
       <c r="D35" s="29">
         <f>+Earnings_Comparison!H36</f>
-        <v>-0.71543844266329648</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.1018388384042908</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36" s="20" t="s">
         <v>145</v>
       </c>
@@ -4927,14 +5783,14 @@
       </c>
       <c r="C36" s="30">
         <f>+Earnings_Comparison!E37</f>
-        <v>985.31</v>
+        <v>1016.39</v>
       </c>
       <c r="D36" s="29">
         <f>+Earnings_Comparison!H37</f>
-        <v>-0.92965941755355219</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.5948853903039026</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37" s="20" t="s">
         <v>146</v>
       </c>
@@ -4944,14 +5800,14 @@
       </c>
       <c r="C37" s="30">
         <f>+Earnings_Comparison!E38</f>
-        <v>823.54</v>
+        <v>843.21</v>
       </c>
       <c r="D37" s="29">
         <f>+Earnings_Comparison!H38</f>
-        <v>1.7211585889051584</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.503972003094491</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A38" s="20" t="s">
         <v>147</v>
       </c>
@@ -4961,14 +5817,14 @@
       </c>
       <c r="C38" s="30">
         <f>+Earnings_Comparison!E39</f>
-        <v>870.4</v>
+        <v>910.35</v>
       </c>
       <c r="D38" s="29">
         <f>+Earnings_Comparison!H39</f>
-        <v>-1.6859446279491763</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.63903825775333267</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A39" s="20" t="s">
         <v>148</v>
       </c>
@@ -4978,14 +5834,14 @@
       </c>
       <c r="C39" s="30">
         <f>+Earnings_Comparison!E40</f>
-        <v>816.35</v>
+        <v>825.6</v>
       </c>
       <c r="D39" s="29">
         <f>+Earnings_Comparison!H40</f>
-        <v>1.3135158600046992</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.9863539736035154</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A40" s="20" t="s">
         <v>149</v>
       </c>
@@ -4995,14 +5851,14 @@
       </c>
       <c r="C40" s="30">
         <f>+Earnings_Comparison!E41</f>
-        <v>796.02</v>
+        <v>821.03</v>
       </c>
       <c r="D40" s="29">
         <f>+Earnings_Comparison!H41</f>
-        <v>3.0470350204399921</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6.0693436857237382</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A41" s="20" t="s">
         <v>150</v>
       </c>
@@ -5012,14 +5868,14 @@
       </c>
       <c r="C41" s="30">
         <f>+Earnings_Comparison!E42</f>
-        <v>860.02</v>
+        <v>893.44</v>
       </c>
       <c r="D41" s="29">
         <f>+Earnings_Comparison!H42</f>
-        <v>3.4879851312164201</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4.7434867547869741</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A42" s="20" t="s">
         <v>151</v>
       </c>
@@ -5029,14 +5885,14 @@
       </c>
       <c r="C42" s="30">
         <f>+Earnings_Comparison!E43</f>
-        <v>829.82</v>
+        <v>854.62</v>
       </c>
       <c r="D42" s="29">
         <f>+Earnings_Comparison!H43</f>
-        <v>-1.4595757303598744</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.2808852985967345</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A43" s="20" t="s">
         <v>152</v>
       </c>
@@ -5046,14 +5902,14 @@
       </c>
       <c r="C43" s="30">
         <f>+Earnings_Comparison!E44</f>
-        <v>852.05</v>
+        <v>881.39</v>
       </c>
       <c r="D43" s="29">
         <f>+Earnings_Comparison!H44</f>
-        <v>-0.20533040380985579</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.5148545372227984</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A44" s="20" t="s">
         <v>153</v>
       </c>
@@ -5063,14 +5919,14 @@
       </c>
       <c r="C44" s="30">
         <f>+Earnings_Comparison!E45</f>
-        <v>799.37</v>
+        <v>790.47</v>
       </c>
       <c r="D44" s="29">
         <f>+Earnings_Comparison!H45</f>
-        <v>1.7863316113353012</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.9342047447652888</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A45" s="20" t="s">
         <v>154</v>
       </c>
@@ -5080,14 +5936,14 @@
       </c>
       <c r="C45" s="30">
         <f>+Earnings_Comparison!E46</f>
-        <v>730.73</v>
+        <v>748.51</v>
       </c>
       <c r="D45" s="29">
         <f>+Earnings_Comparison!H46</f>
-        <v>0.29349384952026547</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.90927014456652078</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A46" s="20" t="s">
         <v>155</v>
       </c>
@@ -5097,14 +5953,14 @@
       </c>
       <c r="C46" s="30">
         <f>+Earnings_Comparison!E47</f>
-        <v>788.6</v>
+        <v>804.79</v>
       </c>
       <c r="D46" s="29">
         <f>+Earnings_Comparison!H47</f>
-        <v>2.2518283168917685</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4.0936077942461013</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A47" s="20" t="s">
         <v>156</v>
       </c>
@@ -5114,14 +5970,14 @@
       </c>
       <c r="C47" s="30">
         <f>+Earnings_Comparison!E48</f>
-        <v>892.83</v>
+        <v>913.92</v>
       </c>
       <c r="D47" s="29">
         <f>+Earnings_Comparison!H48</f>
-        <v>1.039208349262033</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.7801862979744518</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A48" s="20" t="s">
         <v>157</v>
       </c>
@@ -5131,14 +5987,14 @@
       </c>
       <c r="C48" s="30">
         <f>+Earnings_Comparison!E49</f>
-        <v>848.05</v>
+        <v>885.28</v>
       </c>
       <c r="D48" s="29">
         <f>+Earnings_Comparison!H49</f>
-        <v>0.1645352770238917</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.0742536800620002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A49" s="20" t="s">
         <v>158</v>
       </c>
@@ -5148,14 +6004,14 @@
       </c>
       <c r="C49" s="30">
         <f>+Earnings_Comparison!E50</f>
-        <v>787.62</v>
+        <v>817.97</v>
       </c>
       <c r="D49" s="29">
         <f>+Earnings_Comparison!H50</f>
-        <v>-3.5195943877403324</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-1.7378991433968038</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A50" s="20" t="s">
         <v>159</v>
       </c>
@@ -5165,14 +6021,14 @@
       </c>
       <c r="C50" s="30">
         <f>+Earnings_Comparison!E51</f>
-        <v>944.28</v>
+        <v>970.53</v>
       </c>
       <c r="D50" s="29">
         <f>+Earnings_Comparison!H51</f>
-        <v>-0.77319636177202167</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.1914036208238166</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A51" s="20" t="s">
         <v>160</v>
       </c>
@@ -5182,14 +6038,14 @@
       </c>
       <c r="C51" s="30">
         <f>+Earnings_Comparison!E52</f>
-        <v>1063.3</v>
+        <v>1114.04</v>
       </c>
       <c r="D51" s="29">
         <f>+Earnings_Comparison!H52</f>
-        <v>0.51736220664531096</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4.8227265976875433</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A52" s="20" t="s">
         <v>161</v>
       </c>
@@ -5199,14 +6055,14 @@
       </c>
       <c r="C52" s="30">
         <f>+Earnings_Comparison!E53</f>
-        <v>757.11</v>
+        <v>758.56</v>
       </c>
       <c r="D52" s="29">
         <f>+Earnings_Comparison!H53</f>
-        <v>1.5776003631603031</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.3716620058143558</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A53" s="20" t="s">
         <v>162</v>
       </c>
@@ -5216,14 +6072,14 @@
       </c>
       <c r="C53" s="30">
         <f>+Earnings_Comparison!E54</f>
-        <v>812.74</v>
+        <v>842.3</v>
       </c>
       <c r="D53" s="29">
         <f>+Earnings_Comparison!H54</f>
-        <v>-8.7886619505450625E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.8580626215183758</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A54" s="20" t="s">
         <v>163</v>
       </c>
@@ -5233,11 +6089,11 @@
       </c>
       <c r="C54" s="30">
         <f>+Earnings_Comparison!E55</f>
-        <v>775.12</v>
+        <v>818.74</v>
       </c>
       <c r="D54" s="29">
         <f>+Earnings_Comparison!H55</f>
-        <v>-2.546536483784223</v>
+        <v>6.0647801354385411</v>
       </c>
     </row>
   </sheetData>
@@ -5250,46 +6106,46 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H63" sqref="H63"/>
+      <selection pane="bottomRight" activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="27.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" style="1" customWidth="1"/>
+    <col min="1" max="2" width="9.15234375" style="1"/>
+    <col min="3" max="3" width="27.53515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.69140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.3046875" style="1" customWidth="1"/>
     <col min="6" max="6" width="8" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.69140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.3046875" style="1" customWidth="1"/>
     <col min="9" max="9" width="8" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.69140625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="235" width="8" style="1" customWidth="1"/>
-    <col min="236" max="16384" width="9.140625" style="1"/>
+    <col min="236" max="16384" width="9.15234375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C1" s="45" t="s">
+    <row r="1" spans="1:32" ht="15.45" x14ac:dyDescent="0.4">
+      <c r="C1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="46"/>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="D1" s="52"/>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="D3" s="34"/>
     </row>
-    <row r="4" spans="1:32" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" ht="25.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="16" t="s">
         <v>61</v>
       </c>
@@ -5299,22 +6155,22 @@
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="32" t="s">
-        <v>196</v>
-      </c>
-      <c r="E4" s="33" t="s">
-        <v>197</v>
+      <c r="D4" s="46">
+        <v>42461</v>
+      </c>
+      <c r="E4" s="47">
+        <v>42826</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>57</v>
       </c>
       <c r="I4" s="10"/>
       <c r="J4" s="42" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
@@ -5339,7 +6195,7 @@
       <c r="AE4" s="4"/>
       <c r="AF4" s="4"/>
     </row>
-    <row r="5" spans="1:32" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" ht="14.6" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A5" s="19">
         <v>1</v>
       </c>
@@ -5350,29 +6206,29 @@
         <v>3</v>
       </c>
       <c r="D5" s="37">
-        <v>760.77</v>
-      </c>
-      <c r="E5" s="37">
-        <v>786.48</v>
+        <v>777.15</v>
+      </c>
+      <c r="E5" s="44">
+        <v>803.08</v>
       </c>
       <c r="F5" s="35"/>
       <c r="G5" s="35">
         <f>D5/$G$61</f>
-        <v>778.88098520988353</v>
+        <v>794.24488989012002</v>
       </c>
       <c r="H5" s="11">
         <f>((E5/G5)-1)*100</f>
-        <v>0.9756323410654133</v>
+        <v>1.1123911808991638</v>
       </c>
       <c r="I5" s="9"/>
       <c r="J5" s="29">
         <f>E5-D5</f>
-        <v>25.710000000000036</v>
+        <v>25.930000000000064</v>
       </c>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" s="19">
         <v>2</v>
       </c>
@@ -5383,29 +6239,29 @@
         <v>4</v>
       </c>
       <c r="D6" s="37">
-        <v>955.89</v>
-      </c>
-      <c r="E6" s="37">
-        <v>981.05</v>
+        <v>959.92</v>
+      </c>
+      <c r="E6" s="44">
+        <v>990.85</v>
       </c>
       <c r="F6" s="35"/>
       <c r="G6" s="35">
         <f t="shared" ref="G6:G55" si="0">D6/$G$61</f>
-        <v>978.64603619001218</v>
+        <v>981.03526308090329</v>
       </c>
       <c r="H6" s="11">
         <f t="shared" ref="H6:H55" si="1">((E6/G6)-1)*100</f>
-        <v>0.24564180726125429</v>
+        <v>1.0004469042502961</v>
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="29">
         <f t="shared" ref="J6:J55" si="2">E6-D6</f>
-        <v>25.159999999999968</v>
+        <v>30.930000000000064</v>
       </c>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" s="19">
         <v>4</v>
       </c>
@@ -5416,29 +6272,29 @@
         <v>5</v>
       </c>
       <c r="D7" s="37">
-        <v>813.6</v>
-      </c>
-      <c r="E7" s="37">
-        <v>849.34</v>
+        <v>820.46</v>
+      </c>
+      <c r="E7" s="44">
+        <v>881.23</v>
       </c>
       <c r="F7" s="35"/>
       <c r="G7" s="35">
         <f t="shared" si="0"/>
-        <v>832.96866275847003</v>
+        <v>838.50757557646261</v>
       </c>
       <c r="H7" s="11">
         <f t="shared" si="1"/>
-        <v>1.9654205462321217</v>
+        <v>5.0950552705700147</v>
       </c>
       <c r="I7" s="9"/>
       <c r="J7" s="29">
         <f t="shared" si="2"/>
-        <v>35.740000000000009</v>
+        <v>60.769999999999982</v>
       </c>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" s="19">
         <v>5</v>
       </c>
@@ -5449,29 +6305,29 @@
         <v>6</v>
       </c>
       <c r="D8" s="37">
-        <v>666.99</v>
-      </c>
-      <c r="E8" s="37">
-        <v>705.89</v>
+        <v>677.66</v>
+      </c>
+      <c r="E8" s="44">
+        <v>717.89</v>
       </c>
       <c r="F8" s="35"/>
       <c r="G8" s="35">
         <f t="shared" si="0"/>
-        <v>682.86844686980328</v>
+        <v>692.56641843008265</v>
       </c>
       <c r="H8" s="11">
         <f t="shared" si="1"/>
-        <v>3.3713013444573559</v>
+        <v>3.6564841863573339</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="29">
         <f t="shared" si="2"/>
-        <v>38.899999999999977</v>
+        <v>40.230000000000018</v>
       </c>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9" s="19">
         <v>6</v>
       </c>
@@ -5482,29 +6338,29 @@
         <v>7</v>
       </c>
       <c r="D9" s="37">
-        <v>970.49</v>
-      </c>
-      <c r="E9" s="37">
-        <v>1008.68</v>
+        <v>979.95</v>
+      </c>
+      <c r="E9" s="44">
+        <v>1047.3499999999999</v>
       </c>
       <c r="F9" s="35"/>
       <c r="G9" s="35">
         <f t="shared" si="0"/>
-        <v>993.59360560529444</v>
+        <v>1001.5058609635504</v>
       </c>
       <c r="H9" s="11">
         <f t="shared" si="1"/>
-        <v>1.5183666953567876</v>
+        <v>4.577520793771761</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="29">
         <f t="shared" si="2"/>
-        <v>38.189999999999941</v>
+        <v>67.399999999999864</v>
       </c>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10" s="19">
         <v>8</v>
       </c>
@@ -5515,29 +6371,29 @@
         <v>8</v>
       </c>
       <c r="D10" s="37">
-        <v>909.42</v>
-      </c>
-      <c r="E10" s="37">
-        <v>897.08</v>
+        <v>910.34</v>
+      </c>
+      <c r="E10" s="44">
+        <v>931.39</v>
       </c>
       <c r="F10" s="35"/>
       <c r="G10" s="35">
         <f t="shared" si="0"/>
-        <v>931.06976559219243</v>
+        <v>930.36465683918414</v>
       </c>
       <c r="H10" s="11">
         <f t="shared" si="1"/>
-        <v>-3.6506142555895016</v>
+        <v>0.11020873947418242</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="29">
         <f t="shared" si="2"/>
-        <v>-12.339999999999918</v>
+        <v>21.049999999999955</v>
       </c>
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A11" s="19">
         <v>9</v>
       </c>
@@ -5548,29 +6404,29 @@
         <v>9</v>
       </c>
       <c r="D11" s="37">
-        <v>999.32</v>
-      </c>
-      <c r="E11" s="37">
-        <v>1031.0899999999999</v>
+        <v>1019.37</v>
+      </c>
+      <c r="E11" s="44">
+        <v>1073.01</v>
       </c>
       <c r="F11" s="35"/>
       <c r="G11" s="35">
         <f t="shared" si="0"/>
-        <v>1023.1099361698554</v>
+        <v>1041.7929787136225</v>
       </c>
       <c r="H11" s="11">
         <f t="shared" si="1"/>
-        <v>0.77998107026688857</v>
+        <v>2.9964706927592788</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="29">
         <f t="shared" si="2"/>
-        <v>31.769999999999868</v>
+        <v>53.639999999999986</v>
       </c>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A12" s="19">
         <v>10</v>
       </c>
@@ -5581,29 +6437,29 @@
         <v>10</v>
       </c>
       <c r="D12" s="37">
-        <v>807.53</v>
-      </c>
-      <c r="E12" s="37">
-        <v>841.42</v>
+        <v>810.74</v>
+      </c>
+      <c r="E12" s="44">
+        <v>858.66</v>
       </c>
       <c r="F12" s="35"/>
       <c r="G12" s="35">
         <f t="shared" si="0"/>
-        <v>826.75415958376016</v>
+        <v>828.57376572028045</v>
       </c>
       <c r="H12" s="11">
         <f t="shared" si="1"/>
-        <v>1.7739058517254325</v>
+        <v>3.631086998459998</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="29">
         <f t="shared" si="2"/>
-        <v>33.889999999999986</v>
+        <v>47.919999999999959</v>
       </c>
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A13" s="19">
         <v>11</v>
       </c>
@@ -5614,29 +6470,29 @@
         <v>11</v>
       </c>
       <c r="D13" s="37">
-        <v>1305.9100000000001</v>
-      </c>
-      <c r="E13" s="37">
-        <v>1409.97</v>
+        <v>1332.86</v>
+      </c>
+      <c r="E13" s="44">
+        <v>1460.34</v>
       </c>
       <c r="F13" s="35"/>
       <c r="G13" s="35">
         <f t="shared" si="0"/>
-        <v>1336.99865582954</v>
+        <v>1362.1787865134727</v>
       </c>
       <c r="H13" s="11">
         <f t="shared" si="1"/>
-        <v>5.4578472350957696</v>
+        <v>7.2061916143748794</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="29">
         <f t="shared" si="2"/>
-        <v>104.05999999999995</v>
+        <v>127.48000000000002</v>
       </c>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A14" s="19">
         <v>12</v>
       </c>
@@ -5647,29 +6503,29 @@
         <v>12</v>
       </c>
       <c r="D14" s="37">
-        <v>790.7</v>
-      </c>
-      <c r="E14" s="37">
-        <v>814.28</v>
+        <v>788.65</v>
+      </c>
+      <c r="E14" s="44">
+        <v>839.05</v>
       </c>
       <c r="F14" s="35"/>
       <c r="G14" s="35">
         <f t="shared" si="0"/>
-        <v>809.5235025112122</v>
+        <v>805.99785422613797</v>
       </c>
       <c r="H14" s="11">
         <f t="shared" si="1"/>
-        <v>0.58756755968576435</v>
+        <v>4.1007734202464174</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="29">
         <f t="shared" si="2"/>
-        <v>23.579999999999927</v>
+        <v>50.399999999999977</v>
       </c>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A15" s="19">
         <v>13</v>
       </c>
@@ -5680,29 +6536,29 @@
         <v>13</v>
       </c>
       <c r="D15" s="37">
-        <v>840.43</v>
-      </c>
-      <c r="E15" s="37">
-        <v>863.78</v>
+        <v>842.51</v>
+      </c>
+      <c r="E15" s="44">
+        <v>889.49</v>
       </c>
       <c r="F15" s="35"/>
       <c r="G15" s="35">
         <f t="shared" si="0"/>
-        <v>860.43738107436195</v>
+        <v>861.04260719465356</v>
       </c>
       <c r="H15" s="11">
         <f t="shared" si="1"/>
-        <v>0.38847904555987522</v>
+        <v>3.3038310262055948</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="29">
         <f t="shared" si="2"/>
-        <v>23.350000000000023</v>
+        <v>46.980000000000018</v>
       </c>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A16" s="19">
         <v>15</v>
       </c>
@@ -5713,29 +6569,29 @@
         <v>14</v>
       </c>
       <c r="D16" s="37">
-        <v>820.54</v>
-      </c>
-      <c r="E16" s="37">
-        <v>832.69</v>
+        <v>827.64</v>
+      </c>
+      <c r="E16" s="44">
+        <v>876.77</v>
       </c>
       <c r="F16" s="35"/>
       <c r="G16" s="35">
         <f t="shared" si="0"/>
-        <v>840.07387726135073</v>
+        <v>845.84551330973295</v>
       </c>
       <c r="H16" s="11">
         <f t="shared" si="1"/>
-        <v>-0.87895570392240163</v>
+        <v>3.6560443016670607</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="29">
         <f t="shared" si="2"/>
-        <v>12.150000000000091</v>
+        <v>49.129999999999995</v>
       </c>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="19">
         <v>16</v>
       </c>
@@ -5746,29 +6602,29 @@
         <v>15</v>
       </c>
       <c r="D17" s="37">
-        <v>727.38</v>
-      </c>
-      <c r="E17" s="37">
-        <v>739.2</v>
+        <v>744.89</v>
+      </c>
+      <c r="E17" s="44">
+        <v>757.91</v>
       </c>
       <c r="F17" s="35"/>
       <c r="G17" s="35">
         <f t="shared" si="0"/>
-        <v>744.6960987183578</v>
+        <v>761.27526993534264</v>
       </c>
       <c r="H17" s="11">
         <f t="shared" si="1"/>
-        <v>-0.73803243065415636</v>
+        <v>-0.44205691006204972</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="29">
         <f t="shared" si="2"/>
-        <v>11.82000000000005</v>
+        <v>13.019999999999982</v>
       </c>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="19">
         <v>17</v>
       </c>
@@ -5779,29 +6635,29 @@
         <v>16</v>
       </c>
       <c r="D18" s="37">
-        <v>897.33</v>
-      </c>
-      <c r="E18" s="37">
-        <v>896.76</v>
+        <v>899.37</v>
+      </c>
+      <c r="E18" s="44">
+        <v>919.3</v>
       </c>
       <c r="F18" s="35"/>
       <c r="G18" s="35">
         <f t="shared" si="0"/>
-        <v>918.69194954898956</v>
+        <v>919.15335085952165</v>
       </c>
       <c r="H18" s="11">
         <f t="shared" si="1"/>
-        <v>-2.3873018109886068</v>
+        <v>1.5954806707840774E-2</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="29">
         <f t="shared" si="2"/>
-        <v>-0.57000000000005002</v>
+        <v>19.92999999999995</v>
       </c>
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="19">
         <v>18</v>
       </c>
@@ -5812,29 +6668,29 @@
         <v>17</v>
       </c>
       <c r="D19" s="37">
-        <v>794.05</v>
-      </c>
-      <c r="E19" s="37">
-        <v>834.21</v>
+        <v>809.03</v>
+      </c>
+      <c r="E19" s="44">
+        <v>857.49</v>
       </c>
       <c r="F19" s="35"/>
       <c r="G19" s="35">
         <f t="shared" si="0"/>
-        <v>812.95325302773244</v>
+        <v>826.82615102335944</v>
       </c>
       <c r="H19" s="11">
         <f t="shared" si="1"/>
-        <v>2.614756370443172</v>
+        <v>3.7086210854226254</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="29">
         <f t="shared" si="2"/>
-        <v>40.160000000000082</v>
+        <v>48.460000000000036</v>
       </c>
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="19">
         <v>19</v>
       </c>
@@ -5845,29 +6701,29 @@
         <v>18</v>
       </c>
       <c r="D20" s="37">
-        <v>784.04</v>
-      </c>
-      <c r="E20" s="37">
-        <v>792.27</v>
+        <v>806.27</v>
+      </c>
+      <c r="E20" s="44">
+        <v>809.64</v>
       </c>
       <c r="F20" s="35"/>
       <c r="G20" s="35">
         <f t="shared" si="0"/>
-        <v>802.70495372314508</v>
+        <v>824.0054395827151</v>
       </c>
       <c r="H20" s="11">
         <f t="shared" si="1"/>
-        <v>-1.2999737543346601</v>
+        <v>-1.7433670814102742</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="29">
         <f t="shared" si="2"/>
-        <v>8.2300000000000182</v>
+        <v>3.3700000000000045</v>
       </c>
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="19">
         <v>20</v>
       </c>
@@ -5878,29 +6734,29 @@
         <v>19</v>
       </c>
       <c r="D21" s="37">
-        <v>760.45</v>
-      </c>
-      <c r="E21" s="37">
-        <v>781.5</v>
+        <v>767.53</v>
+      </c>
+      <c r="E21" s="44">
+        <v>795.15</v>
       </c>
       <c r="F21" s="35"/>
       <c r="G21" s="35">
         <f t="shared" si="0"/>
-        <v>778.55336725009658</v>
+        <v>784.41327972381623</v>
       </c>
       <c r="H21" s="11">
         <f t="shared" si="1"/>
-        <v>0.37847537161275202</v>
+        <v>1.368758096492706</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="29">
         <f t="shared" si="2"/>
-        <v>21.049999999999955</v>
+        <v>27.620000000000005</v>
       </c>
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="19">
         <v>21</v>
       </c>
@@ -5911,29 +6767,29 @@
         <v>20</v>
       </c>
       <c r="D22" s="37">
-        <v>741.66</v>
-      </c>
-      <c r="E22" s="37">
-        <v>760.82</v>
+        <v>746.58</v>
+      </c>
+      <c r="E22" s="44">
+        <v>766.06</v>
       </c>
       <c r="F22" s="35"/>
       <c r="G22" s="35">
         <f t="shared" si="0"/>
-        <v>759.31605017385311</v>
+        <v>763.00244469428787</v>
       </c>
       <c r="H22" s="11">
         <f t="shared" si="1"/>
-        <v>0.19806638168686774</v>
+        <v>0.40072680329839017</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="29">
         <f t="shared" si="2"/>
-        <v>19.160000000000082</v>
+        <v>19.479999999999905</v>
       </c>
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="19">
         <v>22</v>
       </c>
@@ -5944,29 +6800,29 @@
         <v>21</v>
       </c>
       <c r="D23" s="37">
-        <v>775.39</v>
-      </c>
-      <c r="E23" s="37">
-        <v>812.96</v>
+        <v>788.55</v>
+      </c>
+      <c r="E23" s="44">
+        <v>810.47</v>
       </c>
       <c r="F23" s="35"/>
       <c r="G23" s="35">
         <f t="shared" si="0"/>
-        <v>793.84903074765248</v>
+        <v>805.8956545362596</v>
       </c>
       <c r="H23" s="11">
         <f t="shared" si="1"/>
-        <v>2.4073808132446528</v>
+        <v>0.56761014133679399</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="29">
         <f t="shared" si="2"/>
-        <v>37.57000000000005</v>
+        <v>21.920000000000073</v>
       </c>
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="19">
         <v>23</v>
       </c>
@@ -5977,29 +6833,29 @@
         <v>22</v>
       </c>
       <c r="D24" s="37">
-        <v>751.04</v>
-      </c>
-      <c r="E24" s="37">
-        <v>787.91</v>
+        <v>753.06</v>
+      </c>
+      <c r="E24" s="44">
+        <v>792.2</v>
       </c>
       <c r="F24" s="35"/>
       <c r="G24" s="35">
         <f t="shared" si="0"/>
-        <v>768.91935162010975</v>
+        <v>769.62498459840924</v>
       </c>
       <c r="H24" s="11">
         <f t="shared" si="1"/>
-        <v>2.4697841639538698</v>
+        <v>2.9332487709414101</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="29">
         <f t="shared" si="2"/>
-        <v>36.870000000000005</v>
+        <v>39.1400000000001</v>
       </c>
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="19">
         <v>24</v>
       </c>
@@ -6010,29 +6866,29 @@
         <v>23</v>
       </c>
       <c r="D25" s="37">
-        <v>924.45</v>
-      </c>
-      <c r="E25" s="37">
-        <v>946.15</v>
+        <v>929.21</v>
+      </c>
+      <c r="E25" s="44">
+        <v>967.43</v>
       </c>
       <c r="F25" s="35"/>
       <c r="G25" s="35">
         <f t="shared" si="0"/>
-        <v>946.45757164093857</v>
+        <v>949.64973831924146</v>
       </c>
       <c r="H25" s="11">
         <f t="shared" si="1"/>
-        <v>-3.2497139877629699E-2</v>
+        <v>1.8722968020006281</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="29">
         <f t="shared" si="2"/>
-        <v>21.699999999999932</v>
+        <v>38.219999999999914</v>
       </c>
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="19">
         <v>25</v>
       </c>
@@ -6043,29 +6899,29 @@
         <v>24</v>
       </c>
       <c r="D26" s="37">
-        <v>1030.8599999999999</v>
-      </c>
-      <c r="E26" s="37">
-        <v>1063.26</v>
+        <v>1034.6300000000001</v>
+      </c>
+      <c r="E26" s="44">
+        <v>1093.57</v>
       </c>
       <c r="F26" s="35"/>
       <c r="G26" s="35">
         <f t="shared" si="0"/>
-        <v>1055.4007813313622</v>
+        <v>1057.3886513890691</v>
       </c>
       <c r="H26" s="11">
         <f t="shared" si="1"/>
-        <v>0.74466674723545623</v>
+        <v>3.4217644158938354</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="29">
         <f t="shared" si="2"/>
-        <v>32.400000000000091</v>
+        <v>58.939999999999827</v>
       </c>
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="19">
         <v>26</v>
       </c>
@@ -6076,29 +6932,29 @@
         <v>25</v>
       </c>
       <c r="D27" s="37">
-        <v>821.06</v>
-      </c>
-      <c r="E27" s="37">
-        <v>829.72</v>
+        <v>822.17</v>
+      </c>
+      <c r="E27" s="44">
+        <v>827.34</v>
       </c>
       <c r="F27" s="35"/>
       <c r="G27" s="35">
         <f t="shared" si="0"/>
-        <v>840.60625644600464</v>
+        <v>840.2551902733835</v>
       </c>
       <c r="H27" s="11">
         <f t="shared" si="1"/>
-        <v>-1.2950482300751132</v>
+        <v>-1.5370556972318594</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="29">
         <f t="shared" si="2"/>
-        <v>8.6600000000000819</v>
+        <v>5.1700000000000728</v>
       </c>
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="19">
         <v>27</v>
       </c>
@@ -6109,29 +6965,29 @@
         <v>26</v>
       </c>
       <c r="D28" s="37">
-        <v>906.18</v>
-      </c>
-      <c r="E28" s="37">
-        <v>950.68</v>
+        <v>906.53</v>
+      </c>
+      <c r="E28" s="44">
+        <v>989.06</v>
       </c>
       <c r="F28" s="35"/>
       <c r="G28" s="35">
         <f t="shared" si="0"/>
-        <v>927.752633749349</v>
+        <v>926.47084865481634</v>
       </c>
       <c r="H28" s="11">
         <f t="shared" si="1"/>
-        <v>2.4712801038347942</v>
+        <v>6.7556525319776073</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="29">
         <f t="shared" si="2"/>
-        <v>44.5</v>
+        <v>82.529999999999973</v>
       </c>
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="19">
         <v>28</v>
       </c>
@@ -6142,29 +6998,29 @@
         <v>27</v>
       </c>
       <c r="D29" s="37">
-        <v>672.37</v>
-      </c>
-      <c r="E29" s="37">
-        <v>701.98</v>
+        <v>684.29</v>
+      </c>
+      <c r="E29" s="44">
+        <v>703.76</v>
       </c>
       <c r="F29" s="35"/>
       <c r="G29" s="35">
         <f t="shared" si="0"/>
-        <v>688.37652381872238</v>
+        <v>699.34225786902175</v>
       </c>
       <c r="H29" s="11">
         <f t="shared" si="1"/>
-        <v>1.9761679416103961</v>
+        <v>0.63169958361155576</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="29">
         <f t="shared" si="2"/>
-        <v>29.610000000000014</v>
+        <v>19.470000000000027</v>
       </c>
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="19">
         <v>29</v>
       </c>
@@ -6175,29 +7031,29 @@
         <v>28</v>
       </c>
       <c r="D30" s="37">
-        <v>740.59</v>
-      </c>
-      <c r="E30" s="37">
-        <v>785.21</v>
+        <v>746.79</v>
+      </c>
+      <c r="E30" s="44">
+        <v>810.21</v>
       </c>
       <c r="F30" s="35"/>
       <c r="G30" s="35">
         <f t="shared" si="0"/>
-        <v>758.22057762081533</v>
+        <v>763.21706404303256</v>
       </c>
       <c r="H30" s="11">
         <f t="shared" si="1"/>
-        <v>3.5595739783103042</v>
+        <v>6.1572176738330819</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="29">
         <f t="shared" si="2"/>
-        <v>44.620000000000005</v>
+        <v>63.420000000000073</v>
       </c>
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="19">
         <v>30</v>
       </c>
@@ -6208,29 +7064,29 @@
         <v>29</v>
       </c>
       <c r="D31" s="37">
-        <v>709.95</v>
-      </c>
-      <c r="E31" s="37">
-        <v>731.58</v>
+        <v>724.79</v>
+      </c>
+      <c r="E31" s="44">
+        <v>758.35</v>
       </c>
       <c r="F31" s="35"/>
       <c r="G31" s="35">
         <f t="shared" si="0"/>
-        <v>726.8511579712092</v>
+        <v>740.73313226978075</v>
       </c>
       <c r="H31" s="11">
         <f t="shared" si="1"/>
-        <v>0.65059290020119676</v>
+        <v>2.3783015721515088</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="29">
         <f t="shared" si="2"/>
-        <v>21.629999999999995</v>
+        <v>33.560000000000059</v>
       </c>
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="19">
         <v>31</v>
       </c>
@@ -6241,29 +7097,29 @@
         <v>30</v>
       </c>
       <c r="D32" s="37">
-        <v>762.86</v>
-      </c>
-      <c r="E32" s="37">
-        <v>808.85</v>
+        <v>779.96</v>
+      </c>
+      <c r="E32" s="44">
+        <v>833.17</v>
       </c>
       <c r="F32" s="35"/>
       <c r="G32" s="35">
         <f t="shared" si="0"/>
-        <v>781.02074000974244</v>
+        <v>797.11670117570361</v>
       </c>
       <c r="H32" s="11">
         <f t="shared" si="1"/>
-        <v>3.5631909070571455</v>
+        <v>4.5229636728373324</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="29">
         <f t="shared" si="2"/>
-        <v>45.990000000000009</v>
+        <v>53.209999999999923</v>
       </c>
       <c r="K32" s="9"/>
       <c r="L32" s="9"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="19">
         <v>32</v>
       </c>
@@ -6274,29 +7130,29 @@
         <v>31</v>
       </c>
       <c r="D33" s="37">
-        <v>739.26</v>
-      </c>
-      <c r="E33" s="37">
-        <v>763.98</v>
+        <v>746.59</v>
+      </c>
+      <c r="E33" s="44">
+        <v>768.13</v>
       </c>
       <c r="F33" s="35"/>
       <c r="G33" s="35">
         <f t="shared" si="0"/>
-        <v>756.85891547545054</v>
+        <v>763.0126646632757</v>
       </c>
       <c r="H33" s="11">
         <f t="shared" si="1"/>
-        <v>0.94087344139641704</v>
+        <v>0.67067501939599428</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="29">
         <f t="shared" si="2"/>
-        <v>24.720000000000027</v>
+        <v>21.539999999999964</v>
       </c>
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="19">
         <v>33</v>
       </c>
@@ -6307,29 +7163,29 @@
         <v>32</v>
       </c>
       <c r="D34" s="37">
-        <v>849.35</v>
-      </c>
-      <c r="E34" s="37">
-        <v>891.11</v>
+        <v>860.83</v>
+      </c>
+      <c r="E34" s="44">
+        <v>915.63</v>
       </c>
       <c r="F34" s="35"/>
       <c r="G34" s="35">
         <f t="shared" si="0"/>
-        <v>869.56973170342496</v>
+        <v>879.76559038037965</v>
       </c>
       <c r="H34" s="11">
         <f t="shared" si="1"/>
-        <v>2.4771179942497668</v>
+        <v>4.0765869922366305</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="29">
         <f t="shared" si="2"/>
-        <v>41.759999999999991</v>
+        <v>54.799999999999955</v>
       </c>
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="19">
         <v>34</v>
       </c>
@@ -6340,29 +7196,29 @@
         <v>33</v>
       </c>
       <c r="D35" s="37">
-        <v>937.67</v>
-      </c>
-      <c r="E35" s="37">
-        <v>950</v>
+        <v>948.77</v>
+      </c>
+      <c r="E35" s="44">
+        <v>983.84</v>
       </c>
       <c r="F35" s="35"/>
       <c r="G35" s="35">
         <f t="shared" si="0"/>
-        <v>959.99228860463927</v>
+        <v>969.63999765945982</v>
       </c>
       <c r="H35" s="11">
         <f t="shared" si="1"/>
-        <v>-1.0408717573307968</v>
+        <v>1.4644612820032599</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="29">
         <f t="shared" si="2"/>
-        <v>12.330000000000041</v>
+        <v>35.07000000000005</v>
       </c>
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="19">
         <v>35</v>
       </c>
@@ -6373,29 +7229,29 @@
         <v>34</v>
       </c>
       <c r="D36" s="37">
-        <v>681.98</v>
-      </c>
-      <c r="E36" s="37">
-        <v>693.22</v>
+        <v>685.41</v>
+      </c>
+      <c r="E36" s="44">
+        <v>715.21</v>
       </c>
       <c r="F36" s="35"/>
       <c r="G36" s="35">
         <f t="shared" si="0"/>
-        <v>698.21530067357594</v>
+        <v>700.48689439565999</v>
       </c>
       <c r="H36" s="11">
         <f t="shared" si="1"/>
-        <v>-0.71543844266329648</v>
+        <v>2.1018388384042908</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="29">
         <f t="shared" si="2"/>
-        <v>11.240000000000009</v>
+        <v>29.800000000000068</v>
       </c>
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" s="19">
         <v>36</v>
       </c>
@@ -6406,29 +7262,29 @@
         <v>35</v>
       </c>
       <c r="D37" s="37">
-        <v>971.43</v>
-      </c>
-      <c r="E37" s="37">
-        <v>985.31</v>
+        <v>969.36</v>
+      </c>
+      <c r="E37" s="44">
+        <v>1016.39</v>
       </c>
       <c r="F37" s="35"/>
       <c r="G37" s="35">
         <f t="shared" si="0"/>
-        <v>994.55598336216872</v>
+        <v>990.68291380542598</v>
       </c>
       <c r="H37" s="11">
         <f t="shared" si="1"/>
-        <v>-0.92965941755355219</v>
+        <v>2.5948853903039026</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="29">
         <f t="shared" si="2"/>
-        <v>13.879999999999995</v>
+        <v>47.029999999999973</v>
       </c>
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" s="19">
         <v>37</v>
       </c>
@@ -6439,29 +7295,29 @@
         <v>36</v>
       </c>
       <c r="D38" s="37">
-        <v>790.78</v>
-      </c>
-      <c r="E38" s="37">
-        <v>823.54</v>
+        <v>797.13</v>
+      </c>
+      <c r="E38" s="44">
+        <v>843.21</v>
       </c>
       <c r="F38" s="35"/>
       <c r="G38" s="35">
         <f t="shared" si="0"/>
-        <v>809.60540700115894</v>
+        <v>814.66438792782787</v>
       </c>
       <c r="H38" s="11">
         <f t="shared" si="1"/>
-        <v>1.7211585889051584</v>
+        <v>3.503972003094491</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="29">
         <f t="shared" si="2"/>
-        <v>32.759999999999991</v>
+        <v>46.080000000000041</v>
       </c>
       <c r="K38" s="9"/>
       <c r="L38" s="9"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" s="19">
         <v>38</v>
       </c>
@@ -6472,29 +7328,29 @@
         <v>37</v>
       </c>
       <c r="D39" s="37">
-        <v>864.74</v>
-      </c>
-      <c r="E39" s="37">
-        <v>870.4</v>
+        <v>885.1</v>
+      </c>
+      <c r="E39" s="44">
+        <v>910.35</v>
       </c>
       <c r="F39" s="35"/>
       <c r="G39" s="35">
         <f t="shared" si="0"/>
-        <v>885.32610795693142</v>
+        <v>904.56945511387153</v>
       </c>
       <c r="H39" s="11">
         <f t="shared" si="1"/>
-        <v>-1.6859446279491763</v>
+        <v>0.63903825775333267</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="29">
         <f t="shared" si="2"/>
-        <v>5.6599999999999682</v>
+        <v>25.25</v>
       </c>
       <c r="K39" s="9"/>
       <c r="L39" s="9"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" s="19">
         <v>39</v>
       </c>
@@ -6505,29 +7361,29 @@
         <v>38</v>
       </c>
       <c r="D40" s="37">
-        <v>787.03</v>
-      </c>
-      <c r="E40" s="37">
-        <v>816.35</v>
+        <v>799.94</v>
+      </c>
+      <c r="E40" s="44">
+        <v>825.6</v>
       </c>
       <c r="F40" s="35"/>
       <c r="G40" s="35">
         <f t="shared" si="0"/>
-        <v>805.76613403490489</v>
+        <v>817.53619921341146</v>
       </c>
       <c r="H40" s="11">
         <f t="shared" si="1"/>
-        <v>1.3135158600046992</v>
+        <v>0.9863539736035154</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="29">
         <f t="shared" si="2"/>
-        <v>29.32000000000005</v>
+        <v>25.659999999999968</v>
       </c>
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" s="19">
         <v>40</v>
       </c>
@@ -6538,29 +7394,29 @@
         <v>39</v>
       </c>
       <c r="D41" s="37">
-        <v>754.52</v>
-      </c>
-      <c r="E41" s="37">
-        <v>796.02</v>
+        <v>757.39</v>
+      </c>
+      <c r="E41" s="44">
+        <v>821.03</v>
       </c>
       <c r="F41" s="35"/>
       <c r="G41" s="35">
         <f t="shared" si="0"/>
-        <v>772.4821969327935</v>
+        <v>774.0502311701448</v>
       </c>
       <c r="H41" s="11">
         <f t="shared" si="1"/>
-        <v>3.0470350204399921</v>
+        <v>6.0693436857237382</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="29">
         <f t="shared" si="2"/>
-        <v>41.5</v>
+        <v>63.639999999999986</v>
       </c>
       <c r="K41" s="9"/>
       <c r="L41" s="9"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" s="19">
         <v>41</v>
       </c>
@@ -6571,29 +7427,29 @@
         <v>40</v>
       </c>
       <c r="D42" s="37">
-        <v>811.71</v>
-      </c>
-      <c r="E42" s="37">
-        <v>860.02</v>
+        <v>834.62</v>
+      </c>
+      <c r="E42" s="44">
+        <v>893.44</v>
       </c>
       <c r="F42" s="35"/>
       <c r="G42" s="35">
         <f t="shared" si="0"/>
-        <v>831.03366918347808</v>
+        <v>852.97905166324642</v>
       </c>
       <c r="H42" s="11">
         <f t="shared" si="1"/>
-        <v>3.4879851312164201</v>
+        <v>4.7434867547869741</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="29">
         <f t="shared" si="2"/>
-        <v>48.309999999999945</v>
+        <v>58.82000000000005</v>
       </c>
       <c r="K42" s="9"/>
       <c r="L42" s="9"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" s="19">
         <v>42</v>
       </c>
@@ -6604,29 +7460,29 @@
         <v>41</v>
       </c>
       <c r="D43" s="37">
-        <v>822.53</v>
-      </c>
-      <c r="E43" s="37">
-        <v>829.82</v>
+        <v>825.65</v>
+      </c>
+      <c r="E43" s="44">
+        <v>854.62</v>
       </c>
       <c r="F43" s="35"/>
       <c r="G43" s="35">
         <f t="shared" si="0"/>
-        <v>842.11125144877622</v>
+        <v>843.81173948115247</v>
       </c>
       <c r="H43" s="11">
         <f t="shared" si="1"/>
-        <v>-1.4595757303598744</v>
+        <v>1.2808852985967345</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="29">
         <f t="shared" si="2"/>
-        <v>7.2900000000000773</v>
+        <v>28.970000000000027</v>
       </c>
       <c r="K43" s="9"/>
       <c r="L43" s="9"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" s="19">
         <v>44</v>
       </c>
@@ -6637,29 +7493,29 @@
         <v>42</v>
       </c>
       <c r="D44" s="37">
-        <v>833.95</v>
-      </c>
-      <c r="E44" s="37">
-        <v>852.05</v>
+        <v>849.55</v>
+      </c>
+      <c r="E44" s="44">
+        <v>881.39</v>
       </c>
       <c r="F44" s="35"/>
       <c r="G44" s="35">
         <f t="shared" si="0"/>
-        <v>853.80311738867522</v>
+        <v>868.2374653620941</v>
       </c>
       <c r="H44" s="11">
         <f t="shared" si="1"/>
-        <v>-0.20533040380985579</v>
+        <v>1.5148545372227984</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="29">
         <f t="shared" si="2"/>
-        <v>18.099999999999909</v>
+        <v>31.840000000000032</v>
       </c>
       <c r="K44" s="9"/>
       <c r="L44" s="9"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" s="19">
         <v>45</v>
       </c>
@@ -6670,29 +7526,29 @@
         <v>43</v>
       </c>
       <c r="D45" s="37">
-        <v>767.08</v>
-      </c>
-      <c r="E45" s="37">
-        <v>799.37</v>
+        <v>758.78</v>
+      </c>
+      <c r="E45" s="44">
+        <v>790.47</v>
       </c>
       <c r="F45" s="35"/>
       <c r="G45" s="35">
         <f t="shared" si="0"/>
-        <v>785.34120185443362</v>
+        <v>775.4708068594548</v>
       </c>
       <c r="H45" s="11">
         <f t="shared" si="1"/>
-        <v>1.7863316113353012</v>
+        <v>1.9342047447652888</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="29">
         <f t="shared" si="2"/>
-        <v>32.289999999999964</v>
+        <v>31.690000000000055</v>
       </c>
       <c r="K45" s="9"/>
       <c r="L45" s="9"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" s="19">
         <v>46</v>
       </c>
@@ -6703,29 +7559,29 @@
         <v>44</v>
       </c>
       <c r="D46" s="37">
-        <v>711.65</v>
-      </c>
-      <c r="E46" s="37">
-        <v>730.73</v>
+        <v>725.8</v>
+      </c>
+      <c r="E46" s="44">
+        <v>748.51</v>
       </c>
       <c r="F46" s="35"/>
       <c r="G46" s="35">
         <f t="shared" si="0"/>
-        <v>728.5916283825776</v>
+        <v>741.76534913755268</v>
       </c>
       <c r="H46" s="11">
         <f t="shared" si="1"/>
-        <v>0.29349384952026547</v>
+        <v>0.90927014456652078</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="29">
         <f t="shared" si="2"/>
-        <v>19.080000000000041</v>
+        <v>22.710000000000036</v>
       </c>
       <c r="K46" s="9"/>
       <c r="L46" s="9"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" s="19">
         <v>47</v>
       </c>
@@ -6736,29 +7592,29 @@
         <v>45</v>
       </c>
       <c r="D47" s="37">
-        <v>753.3</v>
-      </c>
-      <c r="E47" s="37">
-        <v>788.6</v>
+        <v>756.5</v>
+      </c>
+      <c r="E47" s="44">
+        <v>804.79</v>
       </c>
       <c r="F47" s="35"/>
       <c r="G47" s="35">
         <f t="shared" si="0"/>
-        <v>771.23315346110553</v>
+        <v>773.1406539302269</v>
       </c>
       <c r="H47" s="11">
         <f t="shared" si="1"/>
-        <v>2.2518283168917685</v>
+        <v>4.0936077942461013</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="29">
         <f t="shared" si="2"/>
-        <v>35.300000000000068</v>
+        <v>48.289999999999964</v>
       </c>
       <c r="K47" s="9"/>
       <c r="L47" s="9"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" s="19">
         <v>48</v>
       </c>
@@ -6769,29 +7625,29 @@
         <v>46</v>
       </c>
       <c r="D48" s="37">
-        <v>863.1</v>
-      </c>
-      <c r="E48" s="37">
-        <v>892.83</v>
+        <v>870.06</v>
+      </c>
+      <c r="E48" s="44">
+        <v>913.92</v>
       </c>
       <c r="F48" s="35"/>
       <c r="G48" s="35">
         <f t="shared" si="0"/>
-        <v>883.64706591302297</v>
+        <v>889.19862175615754</v>
       </c>
       <c r="H48" s="11">
         <f t="shared" si="1"/>
-        <v>1.039208349262033</v>
+        <v>2.7801862979744518</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="29">
         <f t="shared" si="2"/>
-        <v>29.730000000000018</v>
+        <v>43.860000000000014</v>
       </c>
       <c r="K48" s="9"/>
       <c r="L48" s="9"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A49" s="19">
         <v>49</v>
       </c>
@@ -6802,29 +7658,29 @@
         <v>47</v>
       </c>
       <c r="D49" s="37">
-        <v>826.97</v>
-      </c>
-      <c r="E49" s="37">
-        <v>848.05</v>
+        <v>840.39</v>
+      </c>
+      <c r="E49" s="44">
+        <v>885.28</v>
       </c>
       <c r="F49" s="35"/>
       <c r="G49" s="35">
         <f t="shared" si="0"/>
-        <v>846.65695064082104</v>
+        <v>858.87597376923111</v>
       </c>
       <c r="H49" s="11">
         <f t="shared" si="1"/>
-        <v>0.1645352770238917</v>
+        <v>3.0742536800620002</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="29">
         <f t="shared" si="2"/>
-        <v>21.079999999999927</v>
+        <v>44.889999999999986</v>
       </c>
       <c r="K49" s="9"/>
       <c r="L49" s="9"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A50" s="19">
         <v>50</v>
       </c>
@@ -6835,29 +7691,29 @@
         <v>48</v>
       </c>
       <c r="D50" s="37">
-        <v>797.37</v>
-      </c>
-      <c r="E50" s="37">
-        <v>787.62</v>
+        <v>814.52</v>
+      </c>
+      <c r="E50" s="44">
+        <v>817.97</v>
       </c>
       <c r="F50" s="35"/>
       <c r="G50" s="35">
         <f t="shared" si="0"/>
-        <v>816.35228936052272</v>
+        <v>832.43691399768454</v>
       </c>
       <c r="H50" s="11">
         <f t="shared" si="1"/>
-        <v>-3.5195943877403324</v>
+        <v>-1.7378991433968038</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="29">
         <f t="shared" si="2"/>
-        <v>-9.75</v>
+        <v>3.4500000000000455</v>
       </c>
       <c r="K50" s="9"/>
       <c r="L50" s="9"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A51" s="19">
         <v>51</v>
       </c>
@@ -6868,29 +7724,29 @@
         <v>49</v>
       </c>
       <c r="D51" s="37">
-        <v>929.51</v>
-      </c>
-      <c r="E51" s="37">
-        <v>944.28</v>
+        <v>938.46</v>
+      </c>
+      <c r="E51" s="44">
+        <v>970.53</v>
       </c>
       <c r="F51" s="35"/>
       <c r="G51" s="35">
         <f t="shared" si="0"/>
-        <v>951.6380306300706</v>
+        <v>959.103209632995</v>
       </c>
       <c r="H51" s="11">
         <f t="shared" si="1"/>
-        <v>-0.77319636177202167</v>
+        <v>1.1914036208238166</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="29">
         <f t="shared" si="2"/>
-        <v>14.769999999999982</v>
+        <v>32.069999999999936</v>
       </c>
       <c r="K51" s="9"/>
       <c r="L51" s="9"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A52" s="19">
         <v>53</v>
       </c>
@@ -6901,29 +7757,29 @@
         <v>50</v>
       </c>
       <c r="D52" s="37">
-        <v>1033.23</v>
-      </c>
-      <c r="E52" s="37">
-        <v>1063.3</v>
+        <v>1039.9100000000001</v>
+      </c>
+      <c r="E52" s="44">
+        <v>1114.04</v>
       </c>
       <c r="F52" s="35"/>
       <c r="G52" s="35">
         <f t="shared" si="0"/>
-        <v>1057.827201846035</v>
+        <v>1062.7847950146495</v>
       </c>
       <c r="H52" s="11">
         <f t="shared" si="1"/>
-        <v>0.51736220664531096</v>
+        <v>4.8227265976875433</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="29">
         <f t="shared" si="2"/>
-        <v>30.069999999999936</v>
+        <v>74.129999999999882</v>
       </c>
       <c r="K52" s="9"/>
       <c r="L52" s="9"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A53" s="19">
         <v>54</v>
       </c>
@@ -6934,29 +7790,29 @@
         <v>51</v>
       </c>
       <c r="D53" s="37">
-        <v>728.02</v>
-      </c>
-      <c r="E53" s="37">
-        <v>757.11</v>
+        <v>732.19</v>
+      </c>
+      <c r="E53" s="44">
+        <v>758.56</v>
       </c>
       <c r="F53" s="35"/>
       <c r="G53" s="35">
         <f t="shared" si="0"/>
-        <v>745.35133463793181</v>
+        <v>748.29590932078372</v>
       </c>
       <c r="H53" s="11">
         <f t="shared" si="1"/>
-        <v>1.5776003631603031</v>
+        <v>1.3716620058143558</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="29">
         <f t="shared" si="2"/>
-        <v>29.090000000000032</v>
+        <v>26.369999999999891</v>
       </c>
       <c r="K53" s="9"/>
       <c r="L53" s="9"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A54" s="19">
         <v>55</v>
       </c>
@@ -6967,29 +7823,29 @@
         <v>52</v>
       </c>
       <c r="D54" s="37">
-        <v>794.54</v>
-      </c>
-      <c r="E54" s="37">
-        <v>812.74</v>
+        <v>801.27</v>
+      </c>
+      <c r="E54" s="44">
+        <v>842.3</v>
       </c>
       <c r="F54" s="35"/>
       <c r="G54" s="35">
         <f t="shared" si="0"/>
-        <v>813.45491802865627</v>
+        <v>818.89545508879428</v>
       </c>
       <c r="H54" s="11">
         <f t="shared" si="1"/>
-        <v>-8.7886619505450625E-2</v>
+        <v>2.8580626215183758</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="29">
         <f t="shared" si="2"/>
-        <v>18.200000000000045</v>
+        <v>41.029999999999973</v>
       </c>
       <c r="K54" s="9"/>
       <c r="L54" s="9"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A55" s="19">
         <v>56</v>
       </c>
@@ -7000,32 +7856,32 @@
         <v>53</v>
       </c>
       <c r="D55" s="37">
-        <v>776.88</v>
-      </c>
-      <c r="E55" s="37">
-        <v>775.12</v>
+        <v>755.31</v>
+      </c>
+      <c r="E55" s="44">
+        <v>818.74</v>
       </c>
       <c r="F55" s="35"/>
       <c r="G55" s="35">
         <f t="shared" si="0"/>
-        <v>795.37450187291074</v>
+        <v>771.92447762067366</v>
       </c>
       <c r="H55" s="11">
         <f t="shared" si="1"/>
-        <v>-2.546536483784223</v>
+        <v>6.0647801354385411</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="29">
         <f t="shared" si="2"/>
-        <v>-1.7599999999999909</v>
+        <v>63.430000000000064</v>
       </c>
       <c r="K55" s="9"/>
       <c r="L55" s="9">
         <f>COUNTIF(J5:J55,"&lt;0")</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="H56" s="11"/>
@@ -7034,7 +7890,7 @@
       <c r="K56" s="9"/>
       <c r="L56" s="9"/>
     </row>
-    <row r="57" spans="1:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" ht="25.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C57" s="7" t="s">
         <v>54</v>
       </c>
@@ -7042,14 +7898,14 @@
         <v>196</v>
       </c>
       <c r="E57" s="33" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c r="H57" s="11"/>
       <c r="I57" s="8"/>
       <c r="J57" s="42" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K57" s="8"/>
       <c r="L57" s="8"/>
@@ -7057,34 +7913,34 @@
       <c r="N57" s="6"/>
       <c r="O57" s="6"/>
     </row>
-    <row r="58" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" ht="14.6" thickTop="1" x14ac:dyDescent="0.35">
       <c r="C58" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="D58" s="9">
-        <v>875.82</v>
-      </c>
-      <c r="E58" s="9">
-        <v>896.6</v>
+      <c r="D58" s="45">
+        <v>878.58</v>
+      </c>
+      <c r="E58" s="45">
+        <v>900.94</v>
       </c>
       <c r="F58" s="9"/>
       <c r="G58" s="11">
         <f>D58/$G$61</f>
-        <v>896.66987981455657</v>
+        <v>897.90603533379874</v>
       </c>
       <c r="H58" s="11">
         <f>((E58/G58)-1)*100</f>
-        <v>-7.7932599421126625E-3</v>
+        <v>0.33789333703202473</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="11">
         <f>((E58/D58)-1)*100</f>
-        <v>2.3726336461830089</v>
+        <v>2.5450158209838536</v>
       </c>
       <c r="K58" s="9"/>
       <c r="L58" s="9"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C59" s="9"/>
       <c r="D59" s="10"/>
       <c r="E59" s="10"/>
@@ -7096,7 +7952,7 @@
       <c r="K59" s="9"/>
       <c r="L59" s="9"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C60" s="7" t="s">
         <v>55</v>
       </c>
@@ -7110,20 +7966,20 @@
       <c r="K60" s="9"/>
       <c r="L60" s="9"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C61" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D61" s="11">
-        <v>238.13200000000001</v>
-      </c>
-      <c r="E61" s="11">
-        <v>243.80099999999999</v>
+      <c r="D61" s="45">
+        <v>239.261</v>
+      </c>
+      <c r="E61" s="48">
+        <v>244.524</v>
       </c>
       <c r="F61" s="9"/>
       <c r="G61" s="9">
         <f>D61/E61</f>
-        <v>0.97674742925582758</v>
+        <v>0.97847655035906489</v>
       </c>
       <c r="H61" s="9"/>
       <c r="I61" s="9"/>
@@ -7131,7 +7987,7 @@
       <c r="K61" s="9"/>
       <c r="L61" s="9"/>
     </row>
-    <row r="62" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" ht="14.6" x14ac:dyDescent="0.4">
       <c r="C62" s="9"/>
       <c r="D62" s="10"/>
       <c r="E62" s="10"/>
@@ -7143,7 +7999,7 @@
       <c r="K62"/>
       <c r="L62" s="9"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
       <c r="E63" s="9"/>
@@ -7155,7 +8011,7 @@
       <c r="K63" s="9"/>
       <c r="L63" s="9"/>
     </row>
-    <row r="65" spans="4:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="4:7" x14ac:dyDescent="0.35">
       <c r="D65" s="31"/>
       <c r="E65" s="31"/>
       <c r="F65" s="31"/>
@@ -7172,6 +8028,7 @@
     <oddFooter>&amp;LSource: Bureau of Labor Statistics&amp;RGenerated on: March 27, 2015 (04:23:58 PM)</oddFooter>
   </headerFooter>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -7180,61 +8037,61 @@
   <dimension ref="A1:Y55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P5" sqref="P5:P55"/>
+      <selection pane="bottomRight" activeCell="E5" sqref="E5:E55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="23" style="43" customWidth="1"/>
     <col min="2" max="255" width="8" style="43" customWidth="1"/>
-    <col min="256" max="16384" width="9.140625" style="43"/>
+    <col min="256" max="16384" width="9.15234375" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:25" ht="15.45" x14ac:dyDescent="0.4">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A2" s="41" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
-    </row>
-    <row r="4" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+    </row>
+    <row r="4" spans="1:25" ht="26.15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="39" t="s">
         <v>2</v>
       </c>
@@ -7275,43 +8132,43 @@
         <v>169</v>
       </c>
       <c r="N4" s="32" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O4" s="32" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P4" s="32" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Q4" s="32" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="R4" s="32" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="S4" s="32" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="T4" s="32" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U4" s="32" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="V4" s="32" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="W4" s="32" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="X4" s="32" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Y4" s="32" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="15" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A5" s="38" t="s">
         <v>3</v>
       </c>
@@ -7357,11 +8214,14 @@
       <c r="O5" s="37">
         <v>788.25</v>
       </c>
-      <c r="P5" s="37">
-        <v>786.48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="P5" s="44">
+        <v>785.07</v>
+      </c>
+      <c r="Q5" s="44">
+        <v>803.08</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A6" s="38" t="s">
         <v>4</v>
       </c>
@@ -7407,11 +8267,14 @@
       <c r="O6" s="37">
         <v>966.65</v>
       </c>
-      <c r="P6" s="37">
-        <v>981.05</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="P6" s="44">
+        <v>978.59</v>
+      </c>
+      <c r="Q6" s="44">
+        <v>990.85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A7" s="38" t="s">
         <v>5</v>
       </c>
@@ -7457,11 +8320,14 @@
       <c r="O7" s="37">
         <v>856.03</v>
       </c>
-      <c r="P7" s="37">
+      <c r="P7" s="44">
         <v>849.34</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Q7" s="44">
+        <v>881.23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A8" s="38" t="s">
         <v>6</v>
       </c>
@@ -7507,11 +8373,14 @@
       <c r="O8" s="37">
         <v>703.82</v>
       </c>
-      <c r="P8" s="37">
-        <v>705.89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="P8" s="44">
+        <v>702.45</v>
+      </c>
+      <c r="Q8" s="44">
+        <v>717.89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A9" s="38" t="s">
         <v>7</v>
       </c>
@@ -7557,11 +8426,14 @@
       <c r="O9" s="37">
         <v>1007.17</v>
       </c>
-      <c r="P9" s="37">
-        <v>1008.68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="P9" s="44">
+        <v>1010.61</v>
+      </c>
+      <c r="Q9" s="44">
+        <v>1047.3499999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A10" s="38" t="s">
         <v>8</v>
       </c>
@@ -7607,11 +8479,14 @@
       <c r="O10" s="37">
         <v>899.7</v>
       </c>
-      <c r="P10" s="37">
-        <v>897.08</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="P10" s="44">
+        <v>896.2</v>
+      </c>
+      <c r="Q10" s="44">
+        <v>931.39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A11" s="38" t="s">
         <v>9</v>
       </c>
@@ -7657,11 +8532,14 @@
       <c r="O11" s="37">
         <v>1032.9000000000001</v>
       </c>
-      <c r="P11" s="37">
-        <v>1031.0899999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="P11" s="44">
+        <v>1032.73</v>
+      </c>
+      <c r="Q11" s="44">
+        <v>1073.01</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A12" s="38" t="s">
         <v>10</v>
       </c>
@@ -7707,11 +8585,14 @@
       <c r="O12" s="37">
         <v>829.46</v>
       </c>
-      <c r="P12" s="37">
-        <v>841.42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="P12" s="44">
+        <v>825.93</v>
+      </c>
+      <c r="Q12" s="44">
+        <v>858.66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A13" s="38" t="s">
         <v>11</v>
       </c>
@@ -7757,11 +8638,14 @@
       <c r="O13" s="37">
         <v>1412.46</v>
       </c>
-      <c r="P13" s="37">
-        <v>1409.97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="P13" s="44">
+        <v>1412.35</v>
+      </c>
+      <c r="Q13" s="44">
+        <v>1460.34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A14" s="38" t="s">
         <v>12</v>
       </c>
@@ -7807,11 +8691,14 @@
       <c r="O14" s="37">
         <v>817.71</v>
       </c>
-      <c r="P14" s="37">
-        <v>814.28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="P14" s="44">
+        <v>815.65</v>
+      </c>
+      <c r="Q14" s="44">
+        <v>839.05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A15" s="38" t="s">
         <v>13</v>
       </c>
@@ -7857,11 +8744,14 @@
       <c r="O15" s="37">
         <v>867.22</v>
       </c>
-      <c r="P15" s="37">
-        <v>863.78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="P15" s="44">
+        <v>861.27</v>
+      </c>
+      <c r="Q15" s="44">
+        <v>889.49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A16" s="38" t="s">
         <v>14</v>
       </c>
@@ -7907,11 +8797,14 @@
       <c r="O16" s="37">
         <v>837.82</v>
       </c>
-      <c r="P16" s="37">
-        <v>832.69</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P16" s="44">
+        <v>830.43</v>
+      </c>
+      <c r="Q16" s="44">
+        <v>876.77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A17" s="38" t="s">
         <v>15</v>
       </c>
@@ -7957,11 +8850,14 @@
       <c r="O17" s="37">
         <v>735.15</v>
       </c>
-      <c r="P17" s="37">
-        <v>739.2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P17" s="44">
+        <v>734.72</v>
+      </c>
+      <c r="Q17" s="44">
+        <v>757.91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A18" s="38" t="s">
         <v>16</v>
       </c>
@@ -8007,11 +8903,14 @@
       <c r="O18" s="37">
         <v>902.46</v>
       </c>
-      <c r="P18" s="37">
-        <v>896.76</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P18" s="44">
+        <v>897.43</v>
+      </c>
+      <c r="Q18" s="44">
+        <v>919.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A19" s="38" t="s">
         <v>17</v>
       </c>
@@ -8057,11 +8956,14 @@
       <c r="O19" s="37">
         <v>840.42</v>
       </c>
-      <c r="P19" s="37">
-        <v>834.21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P19" s="44">
+        <v>833.17</v>
+      </c>
+      <c r="Q19" s="44">
+        <v>857.49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A20" s="38" t="s">
         <v>18</v>
       </c>
@@ -8107,11 +9009,14 @@
       <c r="O20" s="37">
         <v>790.5</v>
       </c>
-      <c r="P20" s="37">
-        <v>792.27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P20" s="44">
+        <v>789.59</v>
+      </c>
+      <c r="Q20" s="44">
+        <v>809.64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A21" s="38" t="s">
         <v>19</v>
       </c>
@@ -8157,11 +9062,14 @@
       <c r="O21" s="37">
         <v>786.86</v>
       </c>
-      <c r="P21" s="37">
-        <v>781.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P21" s="44">
+        <v>781.17</v>
+      </c>
+      <c r="Q21" s="44">
+        <v>795.15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A22" s="38" t="s">
         <v>20</v>
       </c>
@@ -8207,11 +9115,14 @@
       <c r="O22" s="37">
         <v>758.73</v>
       </c>
-      <c r="P22" s="37">
-        <v>760.82</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P22" s="44">
+        <v>757.25</v>
+      </c>
+      <c r="Q22" s="44">
+        <v>766.06</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A23" s="38" t="s">
         <v>21</v>
       </c>
@@ -8257,11 +9168,14 @@
       <c r="O23" s="37">
         <v>815.62</v>
       </c>
-      <c r="P23" s="37">
-        <v>812.96</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P23" s="44">
+        <v>814.2</v>
+      </c>
+      <c r="Q23" s="44">
+        <v>810.47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A24" s="38" t="s">
         <v>22</v>
       </c>
@@ -8307,11 +9221,14 @@
       <c r="O24" s="37">
         <v>773.52</v>
       </c>
-      <c r="P24" s="37">
-        <v>787.91</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P24" s="44">
+        <v>789.93</v>
+      </c>
+      <c r="Q24" s="44">
+        <v>792.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A25" s="38" t="s">
         <v>23</v>
       </c>
@@ -8357,11 +9274,14 @@
       <c r="O25" s="37">
         <v>950.08</v>
       </c>
-      <c r="P25" s="37">
-        <v>946.15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P25" s="44">
+        <v>944.12</v>
+      </c>
+      <c r="Q25" s="44">
+        <v>967.43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A26" s="38" t="s">
         <v>24</v>
       </c>
@@ -8407,11 +9327,14 @@
       <c r="O26" s="37">
         <v>1065.24</v>
       </c>
-      <c r="P26" s="37">
-        <v>1063.26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P26" s="44">
+        <v>1061.6099999999999</v>
+      </c>
+      <c r="Q26" s="44">
+        <v>1093.57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A27" s="38" t="s">
         <v>25</v>
       </c>
@@ -8457,11 +9380,14 @@
       <c r="O27" s="37">
         <v>843.09</v>
       </c>
-      <c r="P27" s="37">
-        <v>829.72</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P27" s="44">
+        <v>808.02</v>
+      </c>
+      <c r="Q27" s="44">
+        <v>827.34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A28" s="38" t="s">
         <v>26</v>
       </c>
@@ -8507,11 +9433,14 @@
       <c r="O28" s="37">
         <v>955.19</v>
       </c>
-      <c r="P28" s="37">
-        <v>950.68</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P28" s="44">
+        <v>955.86</v>
+      </c>
+      <c r="Q28" s="44">
+        <v>989.06</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A29" s="38" t="s">
         <v>27</v>
       </c>
@@ -8557,11 +9486,14 @@
       <c r="O29" s="37">
         <v>705.1</v>
       </c>
-      <c r="P29" s="37">
-        <v>701.98</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P29" s="44">
+        <v>699.61</v>
+      </c>
+      <c r="Q29" s="44">
+        <v>703.76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A30" s="38" t="s">
         <v>28</v>
       </c>
@@ -8607,11 +9539,14 @@
       <c r="O30" s="37">
         <v>776.86</v>
       </c>
-      <c r="P30" s="37">
-        <v>785.21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P30" s="44">
+        <v>785.55</v>
+      </c>
+      <c r="Q30" s="44">
+        <v>810.21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A31" s="38" t="s">
         <v>29</v>
       </c>
@@ -8657,11 +9592,14 @@
       <c r="O31" s="37">
         <v>729.31</v>
       </c>
-      <c r="P31" s="37">
+      <c r="P31" s="44">
         <v>731.58</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q31" s="44">
+        <v>758.35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A32" s="38" t="s">
         <v>30</v>
       </c>
@@ -8707,11 +9645,14 @@
       <c r="O32" s="37">
         <v>791.95</v>
       </c>
-      <c r="P32" s="37">
-        <v>808.85</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P32" s="44">
+        <v>804.44</v>
+      </c>
+      <c r="Q32" s="44">
+        <v>833.17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A33" s="38" t="s">
         <v>31</v>
       </c>
@@ -8757,11 +9698,14 @@
       <c r="O33" s="37">
         <v>753.75</v>
       </c>
-      <c r="P33" s="37">
-        <v>763.98</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P33" s="44">
+        <v>761.39</v>
+      </c>
+      <c r="Q33" s="44">
+        <v>768.13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A34" s="38" t="s">
         <v>32</v>
       </c>
@@ -8807,11 +9751,14 @@
       <c r="O34" s="37">
         <v>893.45</v>
       </c>
-      <c r="P34" s="37">
-        <v>891.11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P34" s="44">
+        <v>893.45</v>
+      </c>
+      <c r="Q34" s="44">
+        <v>915.63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A35" s="38" t="s">
         <v>33</v>
       </c>
@@ -8857,11 +9804,14 @@
       <c r="O35" s="37">
         <v>963.64</v>
       </c>
-      <c r="P35" s="37">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P35" s="44">
+        <v>951.35</v>
+      </c>
+      <c r="Q35" s="44">
+        <v>983.84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A36" s="38" t="s">
         <v>34</v>
       </c>
@@ -8907,11 +9857,14 @@
       <c r="O36" s="37">
         <v>695.21</v>
       </c>
-      <c r="P36" s="37">
-        <v>693.22</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P36" s="44">
+        <v>694.21</v>
+      </c>
+      <c r="Q36" s="44">
+        <v>715.21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A37" s="38" t="s">
         <v>35</v>
       </c>
@@ -8957,11 +9910,14 @@
       <c r="O37" s="37">
         <v>992.67</v>
       </c>
-      <c r="P37" s="37">
-        <v>985.31</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P37" s="44">
+        <v>984.66</v>
+      </c>
+      <c r="Q37" s="44">
+        <v>1016.39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A38" s="38" t="s">
         <v>36</v>
       </c>
@@ -9007,11 +9963,14 @@
       <c r="O38" s="37">
         <v>825.26</v>
       </c>
-      <c r="P38" s="37">
-        <v>823.54</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P38" s="44">
+        <v>823.89</v>
+      </c>
+      <c r="Q38" s="44">
+        <v>843.21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A39" s="38" t="s">
         <v>37</v>
       </c>
@@ -9057,11 +10016,14 @@
       <c r="O39" s="37">
         <v>867.16</v>
       </c>
-      <c r="P39" s="37">
-        <v>870.4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P39" s="44">
+        <v>868.52</v>
+      </c>
+      <c r="Q39" s="44">
+        <v>910.35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A40" s="38" t="s">
         <v>38</v>
       </c>
@@ -9107,11 +10069,14 @@
       <c r="O40" s="37">
         <v>814.31</v>
       </c>
-      <c r="P40" s="37">
-        <v>816.35</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P40" s="44">
+        <v>815.33</v>
+      </c>
+      <c r="Q40" s="44">
+        <v>825.6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A41" s="38" t="s">
         <v>39</v>
       </c>
@@ -9157,11 +10122,14 @@
       <c r="O41" s="37">
         <v>798.13</v>
       </c>
-      <c r="P41" s="37">
-        <v>796.02</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P41" s="44">
+        <v>799.19</v>
+      </c>
+      <c r="Q41" s="44">
+        <v>821.03</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A42" s="38" t="s">
         <v>40</v>
       </c>
@@ -9207,11 +10175,14 @@
       <c r="O42" s="37">
         <v>869.04</v>
       </c>
-      <c r="P42" s="37">
-        <v>860.02</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P42" s="44">
+        <v>859.35</v>
+      </c>
+      <c r="Q42" s="44">
+        <v>893.44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A43" s="38" t="s">
         <v>41</v>
       </c>
@@ -9257,11 +10228,14 @@
       <c r="O43" s="37">
         <v>835.33</v>
       </c>
-      <c r="P43" s="37">
-        <v>829.82</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P43" s="44">
+        <v>826.65</v>
+      </c>
+      <c r="Q43" s="44">
+        <v>854.62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A44" s="38" t="s">
         <v>42</v>
       </c>
@@ -9307,11 +10281,14 @@
       <c r="O44" s="37">
         <v>858.92</v>
       </c>
-      <c r="P44" s="37">
-        <v>852.05</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P44" s="44">
+        <v>857.92</v>
+      </c>
+      <c r="Q44" s="44">
+        <v>881.39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A45" s="38" t="s">
         <v>43</v>
       </c>
@@ -9357,11 +10334,14 @@
       <c r="O45" s="37">
         <v>782.26</v>
       </c>
-      <c r="P45" s="37">
-        <v>799.37</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P45" s="44">
+        <v>797.99</v>
+      </c>
+      <c r="Q45" s="44">
+        <v>790.47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A46" s="38" t="s">
         <v>44</v>
       </c>
@@ -9407,11 +10387,14 @@
       <c r="O46" s="37">
         <v>737.37</v>
       </c>
-      <c r="P46" s="37">
-        <v>730.73</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P46" s="44">
+        <v>732.06</v>
+      </c>
+      <c r="Q46" s="44">
+        <v>748.51</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A47" s="38" t="s">
         <v>45</v>
       </c>
@@ -9457,11 +10440,14 @@
       <c r="O47" s="37">
         <v>800.75</v>
       </c>
-      <c r="P47" s="37">
-        <v>788.6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P47" s="44">
+        <v>790.72</v>
+      </c>
+      <c r="Q47" s="44">
+        <v>804.79</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A48" s="38" t="s">
         <v>46</v>
       </c>
@@ -9507,11 +10493,14 @@
       <c r="O48" s="37">
         <v>890.66</v>
       </c>
-      <c r="P48" s="37">
-        <v>892.83</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P48" s="44">
+        <v>891.76</v>
+      </c>
+      <c r="Q48" s="44">
+        <v>913.92</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A49" s="38" t="s">
         <v>47</v>
       </c>
@@ -9557,11 +10546,14 @@
       <c r="O49" s="37">
         <v>849.47</v>
       </c>
-      <c r="P49" s="37">
-        <v>848.05</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P49" s="44">
+        <v>850.81</v>
+      </c>
+      <c r="Q49" s="44">
+        <v>885.28</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A50" s="38" t="s">
         <v>48</v>
       </c>
@@ -9607,11 +10599,14 @@
       <c r="O50" s="37">
         <v>797.83</v>
       </c>
-      <c r="P50" s="37">
-        <v>787.62</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P50" s="44">
+        <v>789.9</v>
+      </c>
+      <c r="Q50" s="44">
+        <v>817.97</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A51" s="38" t="s">
         <v>49</v>
       </c>
@@ -9657,11 +10652,14 @@
       <c r="O51" s="37">
         <v>954.26</v>
       </c>
-      <c r="P51" s="37">
-        <v>944.28</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P51" s="44">
+        <v>942.55</v>
+      </c>
+      <c r="Q51" s="44">
+        <v>970.53</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A52" s="38" t="s">
         <v>50</v>
       </c>
@@ -9707,11 +10705,14 @@
       <c r="O52" s="37">
         <v>1063.96</v>
       </c>
-      <c r="P52" s="37">
-        <v>1063.3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P52" s="44">
+        <v>1064.33</v>
+      </c>
+      <c r="Q52" s="44">
+        <v>1114.04</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A53" s="38" t="s">
         <v>51</v>
       </c>
@@ -9757,11 +10758,14 @@
       <c r="O53" s="37">
         <v>752.19</v>
       </c>
-      <c r="P53" s="37">
-        <v>757.11</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P53" s="44">
+        <v>754.25</v>
+      </c>
+      <c r="Q53" s="44">
+        <v>758.56</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A54" s="38" t="s">
         <v>52</v>
       </c>
@@ -9807,11 +10811,14 @@
       <c r="O54" s="37">
         <v>812.52</v>
       </c>
-      <c r="P54" s="37">
-        <v>812.74</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P54" s="44">
+        <v>815.85</v>
+      </c>
+      <c r="Q54" s="44">
+        <v>842.3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A55" s="38" t="s">
         <v>53</v>
       </c>
@@ -9857,8 +10864,11 @@
       <c r="O55" s="37">
         <v>783.42</v>
       </c>
-      <c r="P55" s="37">
-        <v>775.12</v>
+      <c r="P55" s="44">
+        <v>784.14</v>
+      </c>
+      <c r="Q55" s="44">
+        <v>818.74</v>
       </c>
     </row>
   </sheetData>
@@ -9880,43 +10890,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6:M10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="28.42578125" customWidth="1"/>
-    <col min="3" max="3" width="33.28515625" customWidth="1"/>
-    <col min="4" max="4" width="40.28515625" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.3828125" customWidth="1"/>
+    <col min="3" max="3" width="33.3046875" customWidth="1"/>
+    <col min="4" max="4" width="40.3046875" customWidth="1"/>
+    <col min="7" max="7" width="10.3828125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" s="22" t="s">
         <v>166</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="C1" s="50">
+      <c r="C1" s="49">
         <f>+Earnings_Comparison!E58</f>
-        <v>896.6</v>
+        <v>900.94</v>
       </c>
       <c r="D1" s="23">
         <f>+Earnings_Comparison!H58</f>
-        <v>-7.7932599421126625E-3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
-        <v>180</v>
-      </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.33789333703202473</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="17.600000000000001" x14ac:dyDescent="0.4">
+      <c r="A2" s="55" t="s">
+        <v>198</v>
+      </c>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" s="17" t="s">
         <v>165</v>
       </c>
@@ -9930,7 +10940,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4" t="str">
         <f>+Earnings_Comparison!B13</f>
         <v>DC</v>
@@ -9940,31 +10950,31 @@
       </c>
       <c r="C4" s="25">
         <f>+Earnings_Comparison!E13</f>
-        <v>1409.97</v>
+        <v>1460.34</v>
       </c>
       <c r="D4" s="24">
         <f>+Earnings_Comparison!H13</f>
-        <v>5.4578472350957696</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+        <v>7.2061916143748794</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5" t="str">
-        <f>+Earnings_Comparison!B32</f>
-        <v>NE</v>
+        <f>+Earnings_Comparison!B28</f>
+        <v>MN</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C5" s="25">
-        <f>+Earnings_Comparison!E32</f>
-        <v>808.85</v>
+        <f>+Earnings_Comparison!E28</f>
+        <v>989.06</v>
       </c>
       <c r="D5" s="24">
-        <f>+Earnings_Comparison!H32</f>
-        <v>3.5631909070571455</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+        <f>+Earnings_Comparison!H28</f>
+        <v>6.7556525319776073</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6" t="str">
         <f>+Earnings_Comparison!B30</f>
         <v>MO</v>
@@ -9974,52 +10984,52 @@
       </c>
       <c r="C6" s="25">
         <f>+Earnings_Comparison!E30</f>
-        <v>785.21</v>
+        <v>810.21</v>
       </c>
       <c r="D6" s="24">
         <f>+Earnings_Comparison!H30</f>
-        <v>3.5595739783103042</v>
+        <v>6.1572176738330819</v>
       </c>
       <c r="M6" s="20" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7" t="str">
-        <f>+Earnings_Comparison!B42</f>
-        <v>OR</v>
+        <f>+Earnings_Comparison!B41</f>
+        <v>OK</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C7" s="25">
-        <f>+Earnings_Comparison!E42</f>
-        <v>860.02</v>
+        <f>+Earnings_Comparison!E41</f>
+        <v>821.03</v>
       </c>
       <c r="D7" s="24">
-        <f>+Earnings_Comparison!H42</f>
-        <v>3.4879851312164201</v>
+        <f>+Earnings_Comparison!H41</f>
+        <v>6.0693436857237382</v>
       </c>
       <c r="K7" s="20"/>
       <c r="M7" s="20" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8" t="str">
-        <f>+Earnings_Comparison!B8</f>
-        <v>AR</v>
+        <f>+Earnings_Comparison!B55</f>
+        <v>WY</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>116</v>
+        <v>163</v>
       </c>
       <c r="C8" s="25">
-        <f>+Earnings_Comparison!E8</f>
-        <v>705.89</v>
+        <f>+Earnings_Comparison!E55</f>
+        <v>818.74</v>
       </c>
       <c r="D8" s="24">
-        <f>+Earnings_Comparison!H8</f>
-        <v>3.3713013444573559</v>
+        <f>+Earnings_Comparison!H55</f>
+        <v>6.0647801354385411</v>
       </c>
       <c r="K8" s="20"/>
       <c r="L8" s="20"/>
@@ -10027,21 +11037,21 @@
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9" t="str">
-        <f>+Earnings_Comparison!B41</f>
-        <v>OK</v>
+        <f>+Earnings_Comparison!B7</f>
+        <v>AZ</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>149</v>
+        <v>115</v>
       </c>
       <c r="C9" s="25">
-        <f>+Earnings_Comparison!E41</f>
-        <v>796.02</v>
+        <f>+Earnings_Comparison!E7</f>
+        <v>881.23</v>
       </c>
       <c r="D9" s="24">
-        <f>+Earnings_Comparison!H41</f>
-        <v>3.0470350204399921</v>
+        <f>+Earnings_Comparison!H7</f>
+        <v>5.0950552705700147</v>
       </c>
       <c r="K9" s="20"/>
       <c r="L9" s="20"/>
@@ -10049,21 +11059,21 @@
         <v>149</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10" t="str">
-        <f>+Earnings_Comparison!B19</f>
-        <v>IN</v>
+        <f>+Earnings_Comparison!B52</f>
+        <v>WA</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>127</v>
+        <v>160</v>
       </c>
       <c r="C10" s="25">
-        <f>+Earnings_Comparison!E19</f>
-        <v>834.21</v>
+        <f>+Earnings_Comparison!E52</f>
+        <v>1114.04</v>
       </c>
       <c r="D10" s="24">
-        <f>+Earnings_Comparison!H19</f>
-        <v>2.614756370443172</v>
+        <f>+Earnings_Comparison!H52</f>
+        <v>4.8227265976875433</v>
       </c>
       <c r="K10" s="20"/>
       <c r="L10" s="20"/>
@@ -10071,85 +11081,85 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11" t="str">
-        <f>+Earnings_Comparison!B34</f>
-        <v>NH</v>
+        <f>+Earnings_Comparison!B42</f>
+        <v>OR</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="C11" s="25">
-        <f>+Earnings_Comparison!E34</f>
-        <v>891.11</v>
+        <f>+Earnings_Comparison!E42</f>
+        <v>893.44</v>
       </c>
       <c r="D11" s="24">
-        <f>+Earnings_Comparison!H34</f>
-        <v>2.4771179942497668</v>
+        <f>+Earnings_Comparison!H42</f>
+        <v>4.7434867547869741</v>
       </c>
       <c r="K11" s="20"/>
       <c r="L11" s="20"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12" t="str">
-        <f>+Earnings_Comparison!B28</f>
-        <v>MN</v>
+        <f>+Earnings_Comparison!B9</f>
+        <v>CA</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="C12" s="25">
-        <f>+Earnings_Comparison!E28</f>
-        <v>950.68</v>
+        <f>+Earnings_Comparison!E9</f>
+        <v>1047.3499999999999</v>
       </c>
       <c r="D12" s="24">
-        <f>+Earnings_Comparison!H28</f>
-        <v>2.4712801038347942</v>
+        <f>+Earnings_Comparison!H9</f>
+        <v>4.577520793771761</v>
       </c>
       <c r="K12" s="20"/>
       <c r="L12" s="20"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13" t="str">
-        <f>+Earnings_Comparison!B24</f>
-        <v>ME</v>
+        <f>+Earnings_Comparison!B32</f>
+        <v>NE</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="C13" s="25">
-        <f>+Earnings_Comparison!E24</f>
-        <v>787.91</v>
+        <f>+Earnings_Comparison!E32</f>
+        <v>833.17</v>
       </c>
       <c r="D13" s="24">
-        <f>+Earnings_Comparison!H24</f>
-        <v>2.4697841639538698</v>
+        <f>+Earnings_Comparison!H32</f>
+        <v>4.5229636728373324</v>
       </c>
       <c r="L13" s="20"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14" t="str">
-        <f>+Earnings_Comparison!B23</f>
-        <v>LA</v>
+        <f>+Earnings_Comparison!B14</f>
+        <v>FL</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C14" s="25">
-        <f>+Earnings_Comparison!E23</f>
-        <v>812.96</v>
+        <f>+Earnings_Comparison!E14</f>
+        <v>839.05</v>
       </c>
       <c r="D14" s="24">
-        <f>+Earnings_Comparison!H23</f>
-        <v>2.4073808132446528</v>
+        <f>+Earnings_Comparison!H14</f>
+        <v>4.1007734202464174</v>
       </c>
       <c r="F14" s="25">
         <f>C$1-C14</f>
-        <v>83.639999999999986</v>
+        <v>61.8900000000001</v>
       </c>
       <c r="L14" s="20"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15" t="str">
         <f>+Earnings_Comparison!B47</f>
         <v>TN</v>
@@ -10159,684 +11169,684 @@
       </c>
       <c r="C15" s="25">
         <f>+Earnings_Comparison!E47</f>
-        <v>788.6</v>
+        <v>804.79</v>
       </c>
       <c r="D15" s="24">
         <f>+Earnings_Comparison!H47</f>
-        <v>2.2518283168917685</v>
+        <v>4.0936077942461013</v>
       </c>
       <c r="F15" s="25">
         <f t="shared" ref="F15:F21" si="0">C$1-C15</f>
-        <v>108</v>
+        <v>96.150000000000091</v>
       </c>
       <c r="L15" s="20"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16" t="str">
+        <f>+Earnings_Comparison!B34</f>
+        <v>NH</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="C16" s="25">
+        <f>+Earnings_Comparison!E34</f>
+        <v>915.63</v>
+      </c>
+      <c r="D16" s="24">
+        <f>+Earnings_Comparison!H34</f>
+        <v>4.0765869922366305</v>
+      </c>
+      <c r="F16" s="25">
+        <f t="shared" si="0"/>
+        <v>-14.689999999999941</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A17" t="str">
+        <f>+Earnings_Comparison!B19</f>
+        <v>IN</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" s="25">
+        <f>+Earnings_Comparison!E19</f>
+        <v>857.49</v>
+      </c>
+      <c r="D17" s="24">
+        <f>+Earnings_Comparison!H19</f>
+        <v>3.7086210854226254</v>
+      </c>
+      <c r="F17" s="25">
+        <f t="shared" si="0"/>
+        <v>43.450000000000045</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A18" t="str">
+        <f>+Earnings_Comparison!B8</f>
+        <v>AR</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C18" s="25">
+        <f>+Earnings_Comparison!E8</f>
+        <v>717.89</v>
+      </c>
+      <c r="D18" s="24">
+        <f>+Earnings_Comparison!H8</f>
+        <v>3.6564841863573339</v>
+      </c>
+      <c r="F18" s="25">
+        <f t="shared" si="0"/>
+        <v>183.05000000000007</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A19" t="str">
+        <f>+Earnings_Comparison!B16</f>
+        <v>HI</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C19" s="25">
+        <f>+Earnings_Comparison!E16</f>
+        <v>876.77</v>
+      </c>
+      <c r="D19" s="24">
+        <f>+Earnings_Comparison!H16</f>
+        <v>3.6560443016670607</v>
+      </c>
+      <c r="F19" s="25">
+        <f t="shared" si="0"/>
+        <v>24.170000000000073</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A20" t="str">
+        <f>+Earnings_Comparison!B12</f>
+        <v>DE</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20" s="25">
+        <f>+Earnings_Comparison!E12</f>
+        <v>858.66</v>
+      </c>
+      <c r="D20" s="24">
+        <f>+Earnings_Comparison!H12</f>
+        <v>3.631086998459998</v>
+      </c>
+      <c r="F20" s="25">
+        <f t="shared" si="0"/>
+        <v>42.280000000000086</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A21" t="str">
+        <f>+Earnings_Comparison!B38</f>
+        <v>NC</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="C21" s="25">
+        <f>+Earnings_Comparison!E38</f>
+        <v>843.21</v>
+      </c>
+      <c r="D21" s="24">
+        <f>+Earnings_Comparison!H38</f>
+        <v>3.503972003094491</v>
+      </c>
+      <c r="F21" s="25">
+        <f t="shared" si="0"/>
+        <v>57.730000000000018</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A22" t="str">
+        <f>+Earnings_Comparison!B26</f>
+        <v>MA</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="C22" s="25">
+        <f>+Earnings_Comparison!E26</f>
+        <v>1093.57</v>
+      </c>
+      <c r="D22" s="24">
+        <f>+Earnings_Comparison!H26</f>
+        <v>3.4217644158938354</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A23" t="str">
+        <f>+Earnings_Comparison!B15</f>
+        <v>GA</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="C23" s="25">
+        <f>+Earnings_Comparison!E15</f>
+        <v>889.49</v>
+      </c>
+      <c r="D23" s="24">
+        <f>+Earnings_Comparison!H15</f>
+        <v>3.3038310262055948</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A24" t="str">
+        <f>+Earnings_Comparison!B49</f>
+        <v>UT</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="C24" s="25">
+        <f>+Earnings_Comparison!E49</f>
+        <v>885.28</v>
+      </c>
+      <c r="D24" s="24">
+        <f>+Earnings_Comparison!H49</f>
+        <v>3.0742536800620002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A25" t="str">
+        <f>+Earnings_Comparison!B11</f>
+        <v>CT</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="C25" s="25">
+        <f>+Earnings_Comparison!E11</f>
+        <v>1073.01</v>
+      </c>
+      <c r="D25" s="24">
+        <f>+Earnings_Comparison!H11</f>
+        <v>2.9964706927592788</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A26" t="str">
+        <f>+Earnings_Comparison!B24</f>
+        <v>ME</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="C26" s="25">
+        <f>+Earnings_Comparison!E24</f>
+        <v>792.2</v>
+      </c>
+      <c r="D26" s="24">
+        <f>+Earnings_Comparison!H24</f>
+        <v>2.9332487709414101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A27" t="str">
+        <f>+Earnings_Comparison!B54</f>
+        <v>WI</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="C27" s="25">
+        <f>+Earnings_Comparison!E54</f>
+        <v>842.3</v>
+      </c>
+      <c r="D27" s="24">
+        <f>+Earnings_Comparison!H54</f>
+        <v>2.8580626215183758</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A28" t="str">
+        <f>+Earnings_Comparison!B48</f>
+        <v>TX</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="C28" s="25">
+        <f>+Earnings_Comparison!E48</f>
+        <v>913.92</v>
+      </c>
+      <c r="D28" s="24">
+        <f>+Earnings_Comparison!H48</f>
+        <v>2.7801862979744518</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A29" t="str">
+        <f>+Earnings_Comparison!B37</f>
+        <v>NY</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="C29" s="25">
+        <f>+Earnings_Comparison!E37</f>
+        <v>1016.39</v>
+      </c>
+      <c r="D29" s="36">
+        <f>+Earnings_Comparison!H37</f>
+        <v>2.5948853903039026</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A30" t="str">
+        <f>+Earnings_Comparison!B31</f>
+        <v>MT</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="C30" s="25">
+        <f>+Earnings_Comparison!E31</f>
+        <v>758.35</v>
+      </c>
+      <c r="D30" s="24">
+        <f>+Earnings_Comparison!H31</f>
+        <v>2.3783015721515088</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A31" t="str">
+        <f>+Earnings_Comparison!B36</f>
+        <v>NM</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C31" s="25">
+        <f>+Earnings_Comparison!E36</f>
+        <v>715.21</v>
+      </c>
+      <c r="D31" s="24">
+        <f>+Earnings_Comparison!H36</f>
+        <v>2.1018388384042908</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A32" t="str">
+        <f>+Earnings_Comparison!B45</f>
+        <v>SC</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="C32" s="25">
+        <f>+Earnings_Comparison!E45</f>
+        <v>790.47</v>
+      </c>
+      <c r="D32" s="24">
+        <f>+Earnings_Comparison!H45</f>
+        <v>1.9342047447652888</v>
+      </c>
+      <c r="E32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A33" t="str">
+        <f>+Earnings_Comparison!B25</f>
+        <v>MD</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="C33" s="25">
+        <f>+Earnings_Comparison!E25</f>
+        <v>967.43</v>
+      </c>
+      <c r="D33" s="36">
+        <f>+Earnings_Comparison!H25</f>
+        <v>1.8722968020006281</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A34" t="str">
+        <f>+Earnings_Comparison!B44</f>
+        <v>RI</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="C34" s="25">
+        <f>+Earnings_Comparison!E44</f>
+        <v>881.39</v>
+      </c>
+      <c r="D34" s="24">
+        <f>+Earnings_Comparison!H44</f>
+        <v>1.5148545372227984</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A35" t="str">
+        <f>+Earnings_Comparison!B35</f>
+        <v>NJ</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="C35" s="25">
+        <f>+Earnings_Comparison!E35</f>
+        <v>983.84</v>
+      </c>
+      <c r="D35" s="24">
+        <f>+Earnings_Comparison!H35</f>
+        <v>1.4644612820032599</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A36" t="str">
+        <f>+Earnings_Comparison!B53</f>
+        <v>WV</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="C36" s="25">
+        <f>+Earnings_Comparison!E53</f>
+        <v>758.56</v>
+      </c>
+      <c r="D36" s="24">
+        <f>+Earnings_Comparison!H53</f>
+        <v>1.3716620058143558</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A37" t="str">
+        <f>+Earnings_Comparison!B21</f>
+        <v>KS</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="C37" s="25">
+        <f>+Earnings_Comparison!E21</f>
+        <v>795.15</v>
+      </c>
+      <c r="D37" s="24">
+        <f>+Earnings_Comparison!H21</f>
+        <v>1.368758096492706</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A38" t="str">
+        <f>+Earnings_Comparison!B43</f>
+        <v>PA</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="C38" s="25">
+        <f>+Earnings_Comparison!E43</f>
+        <v>854.62</v>
+      </c>
+      <c r="D38" s="24">
+        <f>+Earnings_Comparison!H43</f>
+        <v>1.2808852985967345</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A39" t="str">
+        <f>+Earnings_Comparison!B51</f>
+        <v>VA</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="C39" s="25">
+        <f>+Earnings_Comparison!E51</f>
+        <v>970.53</v>
+      </c>
+      <c r="D39" s="24">
+        <f>+Earnings_Comparison!H51</f>
+        <v>1.1914036208238166</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A40" t="str">
+        <f>+Earnings_Comparison!B5</f>
+        <v>AL</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C40" s="25">
+        <f>+Earnings_Comparison!E5</f>
+        <v>803.08</v>
+      </c>
+      <c r="D40" s="24">
+        <f>+Earnings_Comparison!H5</f>
+        <v>1.1123911808991638</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A41" t="str">
+        <f>+Earnings_Comparison!B6</f>
+        <v>AK</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C41" s="25">
+        <f>+Earnings_Comparison!E6</f>
+        <v>990.85</v>
+      </c>
+      <c r="D41" s="24">
+        <f>+Earnings_Comparison!H6</f>
+        <v>1.0004469042502961</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A42" t="str">
+        <f>+Earnings_Comparison!B40</f>
+        <v>OH</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="C42" s="25">
+        <f>+Earnings_Comparison!E40</f>
+        <v>825.6</v>
+      </c>
+      <c r="D42" s="36">
+        <f>+Earnings_Comparison!H40</f>
+        <v>0.9863539736035154</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A43" t="str">
+        <f>+Earnings_Comparison!B46</f>
+        <v>SD</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="C43" s="25">
+        <f>+Earnings_Comparison!E46</f>
+        <v>748.51</v>
+      </c>
+      <c r="D43" s="24">
+        <f>+Earnings_Comparison!H46</f>
+        <v>0.90927014456652078</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A44" t="str">
+        <f>+Earnings_Comparison!B33</f>
+        <v>NV</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="C44" s="25">
+        <f>+Earnings_Comparison!E33</f>
+        <v>768.13</v>
+      </c>
+      <c r="D44" s="24">
+        <f>+Earnings_Comparison!H33</f>
+        <v>0.67067501939599428</v>
+      </c>
+      <c r="H44" s="20"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A45" t="str">
+        <f>+Earnings_Comparison!B39</f>
+        <v>ND</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="C45" s="25">
+        <f>+Earnings_Comparison!E39</f>
+        <v>910.35</v>
+      </c>
+      <c r="D45" s="24">
+        <f>+Earnings_Comparison!H39</f>
+        <v>0.63903825775333267</v>
+      </c>
+      <c r="H45" s="20"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A46" t="str">
         <f>+Earnings_Comparison!B29</f>
         <v>MS</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B46" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="C16" s="25">
+      <c r="C46" s="25">
         <f>+Earnings_Comparison!E29</f>
-        <v>701.98</v>
-      </c>
-      <c r="D16" s="24">
+        <v>703.76</v>
+      </c>
+      <c r="D46" s="24">
         <f>+Earnings_Comparison!H29</f>
-        <v>1.9761679416103961</v>
-      </c>
-      <c r="F16" s="25">
-        <f t="shared" si="0"/>
-        <v>194.62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="str">
-        <f>+Earnings_Comparison!B7</f>
-        <v>AZ</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="C17" s="25">
-        <f>+Earnings_Comparison!E7</f>
-        <v>849.34</v>
-      </c>
-      <c r="D17" s="24">
-        <f>+Earnings_Comparison!H7</f>
-        <v>1.9654205462321217</v>
-      </c>
-      <c r="F17" s="25">
-        <f t="shared" si="0"/>
-        <v>47.259999999999991</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="str">
-        <f>+Earnings_Comparison!B45</f>
-        <v>SC</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="C18" s="25">
-        <f>+Earnings_Comparison!E45</f>
-        <v>799.37</v>
-      </c>
-      <c r="D18" s="24">
-        <f>+Earnings_Comparison!H45</f>
-        <v>1.7863316113353012</v>
-      </c>
-      <c r="F18" s="25">
-        <f t="shared" si="0"/>
-        <v>97.230000000000018</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="str">
-        <f>+Earnings_Comparison!B12</f>
-        <v>DE</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="C19" s="25">
-        <f>+Earnings_Comparison!E12</f>
-        <v>841.42</v>
-      </c>
-      <c r="D19" s="24">
-        <f>+Earnings_Comparison!H12</f>
-        <v>1.7739058517254325</v>
-      </c>
-      <c r="F19" s="25">
-        <f t="shared" si="0"/>
-        <v>55.180000000000064</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="str">
-        <f>+Earnings_Comparison!B38</f>
-        <v>NC</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="C20" s="25">
-        <f>+Earnings_Comparison!E38</f>
-        <v>823.54</v>
-      </c>
-      <c r="D20" s="24">
-        <f>+Earnings_Comparison!H38</f>
-        <v>1.7211585889051584</v>
-      </c>
-      <c r="F20" s="25">
-        <f t="shared" si="0"/>
-        <v>73.060000000000059</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="str">
-        <f>+Earnings_Comparison!B53</f>
-        <v>WV</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="C21" s="25">
-        <f>+Earnings_Comparison!E53</f>
-        <v>757.11</v>
-      </c>
-      <c r="D21" s="24">
-        <f>+Earnings_Comparison!H53</f>
-        <v>1.5776003631603031</v>
-      </c>
-      <c r="F21" s="25">
-        <f t="shared" si="0"/>
-        <v>139.49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="str">
-        <f>+Earnings_Comparison!B9</f>
-        <v>CA</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="C22" s="25">
-        <f>+Earnings_Comparison!E9</f>
-        <v>1008.68</v>
-      </c>
-      <c r="D22" s="24">
-        <f>+Earnings_Comparison!H9</f>
-        <v>1.5183666953567876</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="str">
-        <f>+Earnings_Comparison!B40</f>
-        <v>OH</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="C23" s="25">
-        <f>+Earnings_Comparison!E40</f>
-        <v>816.35</v>
-      </c>
-      <c r="D23" s="36">
-        <f>+Earnings_Comparison!H40</f>
-        <v>1.3135158600046992</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="str">
-        <f>+Earnings_Comparison!B48</f>
-        <v>TX</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="C24" s="25">
-        <f>+Earnings_Comparison!E48</f>
-        <v>892.83</v>
-      </c>
-      <c r="D24" s="24">
-        <f>+Earnings_Comparison!H48</f>
-        <v>1.039208349262033</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="str">
-        <f>+Earnings_Comparison!B5</f>
-        <v>AL</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="C25" s="25">
-        <f>+Earnings_Comparison!E5</f>
-        <v>786.48</v>
-      </c>
-      <c r="D25" s="24">
-        <f>+Earnings_Comparison!H5</f>
-        <v>0.9756323410654133</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="str">
-        <f>+Earnings_Comparison!B33</f>
-        <v>NV</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="C26" s="25">
-        <f>+Earnings_Comparison!E33</f>
-        <v>763.98</v>
-      </c>
-      <c r="D26" s="24">
-        <f>+Earnings_Comparison!H33</f>
-        <v>0.94087344139641704</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="str">
-        <f>+Earnings_Comparison!B11</f>
-        <v>CT</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="C27" s="25">
-        <f>+Earnings_Comparison!E11</f>
-        <v>1031.0899999999999</v>
-      </c>
-      <c r="D27" s="24">
-        <f>+Earnings_Comparison!H11</f>
-        <v>0.77998107026688857</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="str">
-        <f>+Earnings_Comparison!B26</f>
-        <v>MA</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="C28" s="25">
-        <f>+Earnings_Comparison!E26</f>
-        <v>1063.26</v>
-      </c>
-      <c r="D28" s="24">
-        <f>+Earnings_Comparison!H26</f>
-        <v>0.74466674723545623</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="str">
-        <f>+Earnings_Comparison!B31</f>
-        <v>MT</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="C29" s="25">
-        <f>+Earnings_Comparison!E31</f>
-        <v>731.58</v>
-      </c>
-      <c r="D29" s="24">
-        <f>+Earnings_Comparison!H31</f>
-        <v>0.65059290020119676</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="str">
-        <f>+Earnings_Comparison!B14</f>
-        <v>FL</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="C30" s="25">
-        <f>+Earnings_Comparison!E14</f>
-        <v>814.28</v>
-      </c>
-      <c r="D30" s="24">
-        <f>+Earnings_Comparison!H14</f>
-        <v>0.58756755968576435</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="str">
-        <f>+Earnings_Comparison!B52</f>
-        <v>WA</v>
-      </c>
-      <c r="B31" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="C31" s="25">
-        <f>+Earnings_Comparison!E52</f>
-        <v>1063.3</v>
-      </c>
-      <c r="D31" s="24">
-        <f>+Earnings_Comparison!H52</f>
-        <v>0.51736220664531096</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="str">
-        <f>+Earnings_Comparison!B15</f>
-        <v>GA</v>
-      </c>
-      <c r="B32" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="C32" s="25">
-        <f>+Earnings_Comparison!E15</f>
-        <v>863.78</v>
-      </c>
-      <c r="D32" s="24">
-        <f>+Earnings_Comparison!H15</f>
-        <v>0.38847904555987522</v>
-      </c>
-      <c r="E32">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" t="str">
-        <f>+Earnings_Comparison!B21</f>
-        <v>KS</v>
-      </c>
-      <c r="B33" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="C33" s="25">
-        <f>+Earnings_Comparison!E21</f>
-        <v>781.5</v>
-      </c>
-      <c r="D33" s="24">
-        <f>+Earnings_Comparison!H21</f>
-        <v>0.37847537161275202</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" t="str">
-        <f>+Earnings_Comparison!B46</f>
-        <v>SD</v>
-      </c>
-      <c r="B34" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="C34" s="25">
-        <f>+Earnings_Comparison!E46</f>
-        <v>730.73</v>
-      </c>
-      <c r="D34" s="24">
-        <f>+Earnings_Comparison!H46</f>
-        <v>0.29349384952026547</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" t="str">
-        <f>+Earnings_Comparison!B6</f>
-        <v>AK</v>
-      </c>
-      <c r="B35" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="C35" s="25">
-        <f>+Earnings_Comparison!E6</f>
-        <v>981.05</v>
-      </c>
-      <c r="D35" s="24">
-        <f>+Earnings_Comparison!H6</f>
-        <v>0.24564180726125429</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" t="str">
+        <v>0.63169958361155576</v>
+      </c>
+      <c r="H46" s="20"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A47" t="str">
+        <f>+Earnings_Comparison!B23</f>
+        <v>LA</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="C47" s="25">
+        <f>+Earnings_Comparison!E23</f>
+        <v>810.47</v>
+      </c>
+      <c r="D47" s="24">
+        <f>+Earnings_Comparison!H23</f>
+        <v>0.56761014133679399</v>
+      </c>
+      <c r="H47" s="20"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A48" t="str">
         <f>+Earnings_Comparison!B22</f>
         <v>KY</v>
       </c>
-      <c r="B36" s="20" t="s">
+      <c r="B48" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="C36" s="25">
+      <c r="C48" s="25">
         <f>+Earnings_Comparison!E22</f>
-        <v>760.82</v>
-      </c>
-      <c r="D36" s="24">
+        <v>766.06</v>
+      </c>
+      <c r="D48" s="24">
         <f>+Earnings_Comparison!H22</f>
-        <v>0.19806638168686774</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" t="str">
-        <f>+Earnings_Comparison!B49</f>
-        <v>UT</v>
-      </c>
-      <c r="B37" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="C37" s="25">
-        <f>+Earnings_Comparison!E49</f>
-        <v>848.05</v>
-      </c>
-      <c r="D37" s="24">
-        <f>+Earnings_Comparison!H49</f>
-        <v>0.1645352770238917</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" t="str">
-        <f>+Earnings_Comparison!B25</f>
-        <v>MD</v>
-      </c>
-      <c r="B38" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="C38" s="25">
-        <f>+Earnings_Comparison!E25</f>
-        <v>946.15</v>
-      </c>
-      <c r="D38" s="36">
-        <f>+Earnings_Comparison!H25</f>
-        <v>-3.2497139877629699E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" t="str">
-        <f>+Earnings_Comparison!B54</f>
-        <v>WI</v>
-      </c>
-      <c r="B39" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="C39" s="25">
-        <f>+Earnings_Comparison!E54</f>
-        <v>812.74</v>
-      </c>
-      <c r="D39" s="24">
-        <f>+Earnings_Comparison!H54</f>
-        <v>-8.7886619505450625E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" t="str">
-        <f>+Earnings_Comparison!B44</f>
-        <v>RI</v>
-      </c>
-      <c r="B40" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="C40" s="25">
-        <f>+Earnings_Comparison!E44</f>
-        <v>852.05</v>
-      </c>
-      <c r="D40" s="24">
-        <f>+Earnings_Comparison!H44</f>
-        <v>-0.20533040380985579</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" t="str">
-        <f>+Earnings_Comparison!B36</f>
-        <v>NM</v>
-      </c>
-      <c r="B41" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="C41" s="25">
-        <f>+Earnings_Comparison!E36</f>
-        <v>693.22</v>
-      </c>
-      <c r="D41" s="24">
-        <f>+Earnings_Comparison!H36</f>
-        <v>-0.71543844266329648</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" t="str">
+        <v>0.40072680329839017</v>
+      </c>
+      <c r="H48" s="20"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A49" t="str">
+        <f>+Earnings_Comparison!B10</f>
+        <v>CO</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C49" s="36">
+        <f>+Earnings_Comparison!E10</f>
+        <v>931.39</v>
+      </c>
+      <c r="D49" s="24">
+        <f>+Earnings_Comparison!H10</f>
+        <v>0.11020873947418242</v>
+      </c>
+      <c r="H49" s="20"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A50" t="str">
+        <f>+Earnings_Comparison!B18</f>
+        <v>IL</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="C50" s="36">
+        <f>+Earnings_Comparison!E18</f>
+        <v>919.3</v>
+      </c>
+      <c r="D50" s="24">
+        <f>+Earnings_Comparison!H18</f>
+        <v>1.5954806707840774E-2</v>
+      </c>
+      <c r="H50" s="20"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A51" t="str">
         <f>+Earnings_Comparison!B17</f>
         <v>ID</v>
       </c>
-      <c r="B42" s="20" t="s">
+      <c r="B51" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="C42" s="25">
+      <c r="C51" s="25">
         <f>+Earnings_Comparison!E17</f>
-        <v>739.2</v>
-      </c>
-      <c r="D42" s="24">
+        <v>757.91</v>
+      </c>
+      <c r="D51" s="24">
         <f>+Earnings_Comparison!H17</f>
-        <v>-0.73803243065415636</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" t="str">
-        <f>+Earnings_Comparison!B51</f>
-        <v>VA</v>
-      </c>
-      <c r="B43" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="C43" s="25">
-        <f>+Earnings_Comparison!E51</f>
-        <v>944.28</v>
-      </c>
-      <c r="D43" s="24">
-        <f>+Earnings_Comparison!H51</f>
-        <v>-0.77319636177202167</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" t="str">
-        <f>+Earnings_Comparison!B16</f>
-        <v>HI</v>
-      </c>
-      <c r="B44" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="C44" s="25">
-        <f>+Earnings_Comparison!E16</f>
-        <v>832.69</v>
-      </c>
-      <c r="D44" s="24">
-        <f>+Earnings_Comparison!H16</f>
-        <v>-0.87895570392240163</v>
-      </c>
-      <c r="H44" s="20"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" t="str">
-        <f>+Earnings_Comparison!B37</f>
-        <v>NY</v>
-      </c>
-      <c r="B45" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="C45" s="25">
-        <f>+Earnings_Comparison!E37</f>
-        <v>985.31</v>
-      </c>
-      <c r="D45" s="36">
-        <f>+Earnings_Comparison!H37</f>
-        <v>-0.92965941755355219</v>
-      </c>
-      <c r="H45" s="20"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" t="str">
-        <f>+Earnings_Comparison!B35</f>
-        <v>NJ</v>
-      </c>
-      <c r="B46" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="C46" s="25">
-        <f>+Earnings_Comparison!E35</f>
-        <v>950</v>
-      </c>
-      <c r="D46" s="24">
-        <f>+Earnings_Comparison!H35</f>
-        <v>-1.0408717573307968</v>
-      </c>
-      <c r="H46" s="20"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" t="str">
+        <v>-0.44205691006204972</v>
+      </c>
+      <c r="H51" s="20"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A52" t="str">
         <f>+Earnings_Comparison!B27</f>
         <v>MI</v>
       </c>
-      <c r="B47" s="20" t="s">
+      <c r="B52" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="C47" s="25">
+      <c r="C52" s="25">
         <f>+Earnings_Comparison!E27</f>
-        <v>829.72</v>
-      </c>
-      <c r="D47" s="24">
+        <v>827.34</v>
+      </c>
+      <c r="D52" s="24">
         <f>+Earnings_Comparison!H27</f>
-        <v>-1.2950482300751132</v>
-      </c>
-      <c r="H47" s="20"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" t="str">
-        <f>+Earnings_Comparison!B20</f>
-        <v>IA</v>
-      </c>
-      <c r="B48" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="C48" s="25">
-        <f>+Earnings_Comparison!E20</f>
-        <v>792.27</v>
-      </c>
-      <c r="D48" s="24">
-        <f>+Earnings_Comparison!H20</f>
-        <v>-1.2999737543346601</v>
-      </c>
-      <c r="H48" s="20"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" t="str">
-        <f>+Earnings_Comparison!B43</f>
-        <v>PA</v>
-      </c>
-      <c r="B49" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="C49" s="25">
-        <f>+Earnings_Comparison!E43</f>
-        <v>829.82</v>
-      </c>
-      <c r="D49" s="24">
-        <f>+Earnings_Comparison!H43</f>
-        <v>-1.4595757303598744</v>
-      </c>
-      <c r="H49" s="20"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" t="str">
-        <f>+Earnings_Comparison!B39</f>
-        <v>ND</v>
-      </c>
-      <c r="B50" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="C50" s="25">
-        <f>+Earnings_Comparison!E39</f>
-        <v>870.4</v>
-      </c>
-      <c r="D50" s="24">
-        <f>+Earnings_Comparison!H39</f>
-        <v>-1.6859446279491763</v>
-      </c>
-      <c r="H50" s="20"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" t="str">
-        <f>+Earnings_Comparison!B18</f>
-        <v>IL</v>
-      </c>
-      <c r="B51" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="C51" s="36">
-        <f>+Earnings_Comparison!E18</f>
-        <v>896.76</v>
-      </c>
-      <c r="D51" s="24">
-        <f>+Earnings_Comparison!H18</f>
-        <v>-2.3873018109886068</v>
-      </c>
-      <c r="H51" s="20"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" t="str">
-        <f>+Earnings_Comparison!B55</f>
-        <v>WY</v>
-      </c>
-      <c r="B52" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="C52" s="25">
-        <f>+Earnings_Comparison!E55</f>
-        <v>775.12</v>
-      </c>
-      <c r="D52" s="24">
-        <f>+Earnings_Comparison!H55</f>
-        <v>-2.546536483784223</v>
+        <v>-1.5370556972318594</v>
       </c>
       <c r="H52" s="20"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A53" t="str">
         <f>+Earnings_Comparison!B50</f>
         <v>VT</v>
@@ -10846,39 +11856,39 @@
       </c>
       <c r="C53" s="25">
         <f>+Earnings_Comparison!E50</f>
-        <v>787.62</v>
+        <v>817.97</v>
       </c>
       <c r="D53" s="24">
         <f>+Earnings_Comparison!H50</f>
-        <v>-3.5195943877403324</v>
+        <v>-1.7378991433968038</v>
       </c>
       <c r="H53" s="20"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A54" t="str">
-        <f>+Earnings_Comparison!B10</f>
-        <v>CO</v>
+        <f>+Earnings_Comparison!B20</f>
+        <v>IA</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="C54" s="36">
-        <f>+Earnings_Comparison!E10</f>
-        <v>897.08</v>
+        <v>128</v>
+      </c>
+      <c r="C54" s="25">
+        <f>+Earnings_Comparison!E20</f>
+        <v>809.64</v>
       </c>
       <c r="D54" s="24">
-        <f>+Earnings_Comparison!H10</f>
-        <v>-3.6506142555895016</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+        <f>+Earnings_Comparison!H20</f>
+        <v>-1.7433670814102742</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C56">
         <f>COUNTIF(C4:C54, "&lt;896")</f>
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D56">
         <f>COUNTIF(D4:D54, "&lt;0")</f>
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/static/data/source/current_earnings.xlsx
+++ b/static/data/source/current_earnings.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\megan\Documents\April SEM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\RAuxier\Box Sync\TPC\CENTER\SLFI\SEM\Online SEM\Earnings\2017\May 2017\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16457" windowHeight="6711" activeTab="3"/>
+    <workbookView xWindow="390" yWindow="1110" windowWidth="20775" windowHeight="11415" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Earnings Table" sheetId="2" r:id="rId1"/>
     <sheet name="Earnings_Comparison" sheetId="1" r:id="rId2"/>
-    <sheet name="April_2017_BLS Data Series" sheetId="25" r:id="rId3"/>
+    <sheet name="May 2017_BLS Data Series" sheetId="26" r:id="rId3"/>
     <sheet name="SCRATCH" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
@@ -805,7 +805,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="Q5" authorId="0" shapeId="0">
+    <comment ref="R5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -820,7 +820,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q6" authorId="0" shapeId="0">
+    <comment ref="R6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -835,7 +835,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q7" authorId="0" shapeId="0">
+    <comment ref="R7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -850,7 +850,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q8" authorId="0" shapeId="0">
+    <comment ref="R8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -865,7 +865,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q9" authorId="0" shapeId="0">
+    <comment ref="R9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -880,7 +880,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q10" authorId="0" shapeId="0">
+    <comment ref="R10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -895,7 +895,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q11" authorId="0" shapeId="0">
+    <comment ref="R11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -910,7 +910,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q12" authorId="0" shapeId="0">
+    <comment ref="R12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -925,7 +925,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q13" authorId="0" shapeId="0">
+    <comment ref="R13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -940,7 +940,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q14" authorId="0" shapeId="0">
+    <comment ref="R14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -955,7 +955,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q15" authorId="0" shapeId="0">
+    <comment ref="R15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -970,7 +970,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q16" authorId="0" shapeId="0">
+    <comment ref="R16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -985,7 +985,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q17" authorId="0" shapeId="0">
+    <comment ref="R17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1000,7 +1000,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q18" authorId="0" shapeId="0">
+    <comment ref="R18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1015,7 +1015,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q19" authorId="0" shapeId="0">
+    <comment ref="R19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1030,7 +1030,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q20" authorId="0" shapeId="0">
+    <comment ref="R20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1045,7 +1045,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q21" authorId="0" shapeId="0">
+    <comment ref="R21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1060,7 +1060,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q22" authorId="0" shapeId="0">
+    <comment ref="R22" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1075,7 +1075,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q23" authorId="0" shapeId="0">
+    <comment ref="R23" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1090,7 +1090,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q24" authorId="0" shapeId="0">
+    <comment ref="R24" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1105,7 +1105,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q25" authorId="0" shapeId="0">
+    <comment ref="R25" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1120,7 +1120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q26" authorId="0" shapeId="0">
+    <comment ref="R26" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1135,7 +1135,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q27" authorId="0" shapeId="0">
+    <comment ref="R27" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1150,7 +1150,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q28" authorId="0" shapeId="0">
+    <comment ref="R28" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1165,7 +1165,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q29" authorId="0" shapeId="0">
+    <comment ref="R29" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1180,7 +1180,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q30" authorId="0" shapeId="0">
+    <comment ref="R30" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1195,7 +1195,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q31" authorId="0" shapeId="0">
+    <comment ref="R31" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1210,7 +1210,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q32" authorId="0" shapeId="0">
+    <comment ref="R32" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1225,7 +1225,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q33" authorId="0" shapeId="0">
+    <comment ref="R33" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1240,7 +1240,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q34" authorId="0" shapeId="0">
+    <comment ref="R34" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1255,7 +1255,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q35" authorId="0" shapeId="0">
+    <comment ref="R35" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1270,7 +1270,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q36" authorId="0" shapeId="0">
+    <comment ref="R36" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1285,7 +1285,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q37" authorId="0" shapeId="0">
+    <comment ref="R37" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1300,7 +1300,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q38" authorId="0" shapeId="0">
+    <comment ref="R38" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1315,7 +1315,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q39" authorId="0" shapeId="0">
+    <comment ref="R39" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1330,7 +1330,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q40" authorId="0" shapeId="0">
+    <comment ref="R40" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1345,7 +1345,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q41" authorId="0" shapeId="0">
+    <comment ref="R41" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1360,7 +1360,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q42" authorId="0" shapeId="0">
+    <comment ref="R42" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1375,7 +1375,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q43" authorId="0" shapeId="0">
+    <comment ref="R43" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1390,7 +1390,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q44" authorId="0" shapeId="0">
+    <comment ref="R44" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1405,7 +1405,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q45" authorId="0" shapeId="0">
+    <comment ref="R45" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1420,7 +1420,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q46" authorId="0" shapeId="0">
+    <comment ref="R46" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1435,7 +1435,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q47" authorId="0" shapeId="0">
+    <comment ref="R47" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1450,7 +1450,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q48" authorId="0" shapeId="0">
+    <comment ref="R48" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1465,7 +1465,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q49" authorId="0" shapeId="0">
+    <comment ref="R49" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1480,7 +1480,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q50" authorId="0" shapeId="0">
+    <comment ref="R50" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1495,7 +1495,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q51" authorId="0" shapeId="0">
+    <comment ref="R51" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1510,7 +1510,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q52" authorId="0" shapeId="0">
+    <comment ref="R52" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1525,7 +1525,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q53" authorId="0" shapeId="0">
+    <comment ref="R53" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1540,7 +1540,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q54" authorId="0" shapeId="0">
+    <comment ref="R54" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1555,7 +1555,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q55" authorId="0" shapeId="0">
+    <comment ref="R55" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1575,7 +1575,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="197">
   <si>
     <t>State and Area Employment, Hours, and Earnings</t>
   </si>
@@ -2183,21 +2183,13 @@
     <t>NOMINAL</t>
   </si>
   <si>
-    <t>Average Weekly Earnings March 2017</t>
-  </si>
-  <si>
-    <t>April
-2017</t>
-  </si>
-  <si>
-    <t>April
-2016</t>
-  </si>
-  <si>
-    <t>April 2016 adj for inflation</t>
-  </si>
-  <si>
     <t>Average Weekly Wages April 2017</t>
+  </si>
+  <si>
+    <t>May 2016 adj for inflation</t>
+  </si>
+  <si>
+    <t>Average Weekly Earnings May 2017</t>
   </si>
 </sst>
 </file>
@@ -2729,6 +2721,7 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -5180,26 +5173,26 @@
   <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.3828125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.84375" customWidth="1"/>
-    <col min="3" max="3" width="32.3828125" customWidth="1"/>
-    <col min="4" max="4" width="36.3046875" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col min="3" max="3" width="32.42578125" customWidth="1"/>
+    <col min="4" max="4" width="36.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.600000000000001" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="50" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B1" s="50"/>
       <c r="C1" s="50"/>
       <c r="D1" s="50"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>58</v>
       </c>
@@ -5213,7 +5206,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>164</v>
       </c>
@@ -5222,14 +5215,14 @@
       </c>
       <c r="C3" s="30">
         <f>+Earnings_Comparison!E58</f>
-        <v>900.94</v>
+        <v>901.97</v>
       </c>
       <c r="D3" s="29">
         <f>+Earnings_Comparison!H58</f>
-        <v>0.33789333703202473</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+        <v>0.57598407943317831</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
         <v>113</v>
       </c>
@@ -5239,14 +5232,14 @@
       </c>
       <c r="C4" s="30">
         <f>+Earnings_Comparison!E5</f>
-        <v>803.08</v>
+        <v>790.24</v>
       </c>
       <c r="D4" s="29">
         <f>+Earnings_Comparison!H5</f>
-        <v>1.1123911808991638</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+        <v>-1.337220770601244</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>114</v>
       </c>
@@ -5256,14 +5249,14 @@
       </c>
       <c r="C5" s="30">
         <f>+Earnings_Comparison!E6</f>
-        <v>990.85</v>
+        <v>983.68</v>
       </c>
       <c r="D5" s="29">
         <f>+Earnings_Comparison!H6</f>
-        <v>1.0004469042502961</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+        <v>-2.4164267194448641E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
         <v>115</v>
       </c>
@@ -5273,14 +5266,14 @@
       </c>
       <c r="C6" s="30">
         <f>+Earnings_Comparison!E7</f>
-        <v>881.23</v>
+        <v>863.78</v>
       </c>
       <c r="D6" s="29">
         <f>+Earnings_Comparison!H7</f>
-        <v>5.0950552705700147</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+        <v>0.80407388856638118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>116</v>
       </c>
@@ -5290,14 +5283,14 @@
       </c>
       <c r="C7" s="30">
         <f>+Earnings_Comparison!E8</f>
-        <v>717.89</v>
+        <v>708.26</v>
       </c>
       <c r="D7" s="29">
         <f>+Earnings_Comparison!H8</f>
-        <v>3.6564841863573339</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+        <v>1.1428160010965138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>117</v>
       </c>
@@ -5307,14 +5300,14 @@
       </c>
       <c r="C8" s="30">
         <f>+Earnings_Comparison!E9</f>
-        <v>1047.3499999999999</v>
+        <v>1024.31</v>
       </c>
       <c r="D8" s="29">
         <f>+Earnings_Comparison!H9</f>
-        <v>4.577520793771761</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+        <v>-0.41609298673916939</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
         <v>118</v>
       </c>
@@ -5324,14 +5317,14 @@
       </c>
       <c r="C9" s="30">
         <f>+Earnings_Comparison!E10</f>
-        <v>931.39</v>
+        <v>898.92</v>
       </c>
       <c r="D9" s="29">
         <f>+Earnings_Comparison!H10</f>
-        <v>0.11020873947418242</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+        <v>-4.6914032871673399</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
         <v>119</v>
       </c>
@@ -5341,14 +5334,14 @@
       </c>
       <c r="C10" s="30">
         <f>+Earnings_Comparison!E11</f>
-        <v>1073.01</v>
+        <v>1038.9100000000001</v>
       </c>
       <c r="D10" s="29">
         <f>+Earnings_Comparison!H11</f>
-        <v>2.9964706927592788</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+        <v>-2.3320454062370821</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
         <v>120</v>
       </c>
@@ -5358,14 +5351,14 @@
       </c>
       <c r="C11" s="30">
         <f>+Earnings_Comparison!E12</f>
-        <v>858.66</v>
+        <v>828.75</v>
       </c>
       <c r="D11" s="29">
         <f>+Earnings_Comparison!H12</f>
-        <v>3.631086998459998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+        <v>0.20298194810215442</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>121</v>
       </c>
@@ -5375,14 +5368,14 @@
       </c>
       <c r="C12" s="30">
         <f>+Earnings_Comparison!E13</f>
-        <v>1460.34</v>
+        <v>1391.01</v>
       </c>
       <c r="D12" s="29">
         <f>+Earnings_Comparison!H13</f>
-        <v>7.2061916143748794</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+        <v>-3.2968194679639629</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
         <v>122</v>
       </c>
@@ -5392,14 +5385,14 @@
       </c>
       <c r="C13" s="30">
         <f>+Earnings_Comparison!E14</f>
-        <v>839.05</v>
+        <v>813.96</v>
       </c>
       <c r="D13" s="29">
         <f>+Earnings_Comparison!H14</f>
-        <v>4.1007734202464174</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+        <v>-0.15494487652164546</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
         <v>123</v>
       </c>
@@ -5409,14 +5402,14 @@
       </c>
       <c r="C14" s="30">
         <f>+Earnings_Comparison!E15</f>
-        <v>889.49</v>
+        <v>871.47</v>
       </c>
       <c r="D14" s="29">
         <f>+Earnings_Comparison!H15</f>
-        <v>3.3038310262055948</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+        <v>-1.1313074582754545</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
         <v>124</v>
       </c>
@@ -5426,14 +5419,14 @@
       </c>
       <c r="C15" s="30">
         <f>+Earnings_Comparison!E16</f>
-        <v>876.77</v>
+        <v>841.1</v>
       </c>
       <c r="D15" s="29">
         <f>+Earnings_Comparison!H16</f>
-        <v>3.6560443016670607</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+        <v>-3.0688664784802255</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
         <v>125</v>
       </c>
@@ -5443,14 +5436,14 @@
       </c>
       <c r="C16" s="30">
         <f>+Earnings_Comparison!E17</f>
-        <v>757.91</v>
+        <v>745.59</v>
       </c>
       <c r="D16" s="29">
         <f>+Earnings_Comparison!H17</f>
-        <v>-0.44205691006204972</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+        <v>-3.1484578892507664</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
         <v>126</v>
       </c>
@@ -5460,14 +5453,14 @@
       </c>
       <c r="C17" s="30">
         <f>+Earnings_Comparison!E18</f>
-        <v>919.3</v>
+        <v>902.7</v>
       </c>
       <c r="D17" s="29">
         <f>+Earnings_Comparison!H18</f>
-        <v>1.5954806707840774E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+        <v>-3.209613299342251</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
         <v>127</v>
       </c>
@@ -5477,14 +5470,14 @@
       </c>
       <c r="C18" s="30">
         <f>+Earnings_Comparison!E19</f>
-        <v>857.49</v>
+        <v>834.55</v>
       </c>
       <c r="D18" s="29">
         <f>+Earnings_Comparison!H19</f>
-        <v>3.7086210854226254</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+        <v>0.55496916701844867</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
         <v>128</v>
       </c>
@@ -5494,14 +5487,14 @@
       </c>
       <c r="C19" s="30">
         <f>+Earnings_Comparison!E20</f>
-        <v>809.64</v>
+        <v>793.44</v>
       </c>
       <c r="D19" s="29">
         <f>+Earnings_Comparison!H20</f>
-        <v>-1.7433670814102742</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+        <v>-3.6807142413847083</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
         <v>129</v>
       </c>
@@ -5511,14 +5504,14 @@
       </c>
       <c r="C20" s="30">
         <f>+Earnings_Comparison!E21</f>
-        <v>795.15</v>
+        <v>771.51</v>
       </c>
       <c r="D20" s="29">
         <f>+Earnings_Comparison!H21</f>
-        <v>1.368758096492706</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+        <v>-1.1446143433823774</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
         <v>130</v>
       </c>
@@ -5528,14 +5521,14 @@
       </c>
       <c r="C21" s="30">
         <f>+Earnings_Comparison!E22</f>
-        <v>766.06</v>
+        <v>760.28</v>
       </c>
       <c r="D21" s="29">
         <f>+Earnings_Comparison!H22</f>
-        <v>0.40072680329839017</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+        <v>0.76802758893252943</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
         <v>131</v>
       </c>
@@ -5545,14 +5538,14 @@
       </c>
       <c r="C22" s="30">
         <f>+Earnings_Comparison!E23</f>
-        <v>810.47</v>
+        <v>803.93</v>
       </c>
       <c r="D22" s="29">
         <f>+Earnings_Comparison!H23</f>
-        <v>0.56761014133679399</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+        <v>-1.7719494729972918</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
         <v>132</v>
       </c>
@@ -5562,14 +5555,14 @@
       </c>
       <c r="C23" s="30">
         <f>+Earnings_Comparison!E24</f>
-        <v>792.2</v>
+        <v>790.1</v>
       </c>
       <c r="D23" s="29">
         <f>+Earnings_Comparison!H24</f>
-        <v>2.9332487709414101</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+        <v>2.7502932037129169</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
         <v>133</v>
       </c>
@@ -5579,14 +5572,14 @@
       </c>
       <c r="C24" s="30">
         <f>+Earnings_Comparison!E25</f>
-        <v>967.43</v>
+        <v>939.47</v>
       </c>
       <c r="D24" s="29">
         <f>+Earnings_Comparison!H25</f>
-        <v>1.8722968020006281</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+        <v>-1.8403729778983635</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
         <v>134</v>
       </c>
@@ -5596,14 +5589,14 @@
       </c>
       <c r="C25" s="30">
         <f>+Earnings_Comparison!E26</f>
-        <v>1093.57</v>
+        <v>1055.28</v>
       </c>
       <c r="D25" s="29">
         <f>+Earnings_Comparison!H26</f>
-        <v>3.4217644158938354</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+        <v>-1.1018796984118673</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
         <v>135</v>
       </c>
@@ -5613,14 +5606,14 @@
       </c>
       <c r="C26" s="30">
         <f>+Earnings_Comparison!E27</f>
-        <v>827.34</v>
+        <v>822.83</v>
       </c>
       <c r="D26" s="29">
         <f>+Earnings_Comparison!H27</f>
-        <v>-1.5370556972318594</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+        <v>-1.966663143628522</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
         <v>136</v>
       </c>
@@ -5630,14 +5623,14 @@
       </c>
       <c r="C27" s="30">
         <f>+Earnings_Comparison!E28</f>
-        <v>989.06</v>
+        <v>955.53</v>
       </c>
       <c r="D27" s="29">
         <f>+Earnings_Comparison!H28</f>
-        <v>6.7556525319776073</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+        <v>1.3161817408710474</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
         <v>137</v>
       </c>
@@ -5647,14 +5640,14 @@
       </c>
       <c r="C28" s="30">
         <f>+Earnings_Comparison!E29</f>
-        <v>703.76</v>
+        <v>700.95</v>
       </c>
       <c r="D28" s="29">
         <f>+Earnings_Comparison!H29</f>
-        <v>0.63169958361155576</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+        <v>-1.4382234939017247</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
         <v>138</v>
       </c>
@@ -5664,14 +5657,14 @@
       </c>
       <c r="C29" s="30">
         <f>+Earnings_Comparison!E30</f>
-        <v>810.21</v>
+        <v>794.29</v>
       </c>
       <c r="D29" s="29">
         <f>+Earnings_Comparison!H30</f>
-        <v>6.1572176738330819</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+        <v>3.6081567897000788</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
         <v>139</v>
       </c>
@@ -5681,14 +5674,14 @@
       </c>
       <c r="C30" s="30">
         <f>+Earnings_Comparison!E31</f>
-        <v>758.35</v>
+        <v>750.47</v>
       </c>
       <c r="D30" s="29">
         <f>+Earnings_Comparison!H31</f>
-        <v>2.3783015721515088</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+        <v>-0.52145074909980549</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
         <v>140</v>
       </c>
@@ -5698,14 +5691,14 @@
       </c>
       <c r="C31" s="30">
         <f>+Earnings_Comparison!E32</f>
-        <v>833.17</v>
+        <v>814.24</v>
       </c>
       <c r="D31" s="29">
         <f>+Earnings_Comparison!H32</f>
-        <v>4.5229636728373324</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+        <v>1.7303855439707361</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="20" t="s">
         <v>141</v>
       </c>
@@ -5715,14 +5708,14 @@
       </c>
       <c r="C32" s="30">
         <f>+Earnings_Comparison!E33</f>
-        <v>768.13</v>
+        <v>760.61</v>
       </c>
       <c r="D32" s="29">
         <f>+Earnings_Comparison!H33</f>
-        <v>0.67067501939599428</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+        <v>-1.5971506210631814</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
         <v>142</v>
       </c>
@@ -5732,14 +5725,14 @@
       </c>
       <c r="C33" s="30">
         <f>+Earnings_Comparison!E34</f>
-        <v>915.63</v>
+        <v>889.2</v>
       </c>
       <c r="D33" s="29">
         <f>+Earnings_Comparison!H34</f>
-        <v>4.0765869922366305</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+        <v>1.1490524591535545</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="20" t="s">
         <v>143</v>
       </c>
@@ -5749,14 +5742,14 @@
       </c>
       <c r="C34" s="30">
         <f>+Earnings_Comparison!E35</f>
-        <v>983.84</v>
+        <v>820.98</v>
       </c>
       <c r="D34" s="29">
         <f>+Earnings_Comparison!H35</f>
-        <v>1.4644612820032599</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+        <v>-16.158169549298773</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
         <v>144</v>
       </c>
@@ -5766,14 +5759,14 @@
       </c>
       <c r="C35" s="30">
         <f>+Earnings_Comparison!E36</f>
-        <v>715.21</v>
+        <v>709.05</v>
       </c>
       <c r="D35" s="29">
         <f>+Earnings_Comparison!H36</f>
-        <v>2.1018388384042908</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+        <v>1.3883833816789704</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="20" t="s">
         <v>145</v>
       </c>
@@ -5783,14 +5776,14 @@
       </c>
       <c r="C36" s="30">
         <f>+Earnings_Comparison!E37</f>
-        <v>1016.39</v>
+        <v>994.01</v>
       </c>
       <c r="D36" s="29">
         <f>+Earnings_Comparison!H37</f>
-        <v>2.5948853903039026</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+        <v>-0.58519872818123542</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
         <v>146</v>
       </c>
@@ -5800,14 +5793,14 @@
       </c>
       <c r="C37" s="30">
         <f>+Earnings_Comparison!E38</f>
-        <v>843.21</v>
+        <v>830.76</v>
       </c>
       <c r="D37" s="29">
         <f>+Earnings_Comparison!H38</f>
-        <v>3.503972003094491</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+        <v>0.79612838198972469</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="20" t="s">
         <v>147</v>
       </c>
@@ -5817,14 +5810,14 @@
       </c>
       <c r="C38" s="30">
         <f>+Earnings_Comparison!E39</f>
-        <v>910.35</v>
+        <v>916.04</v>
       </c>
       <c r="D38" s="29">
         <f>+Earnings_Comparison!H39</f>
-        <v>0.63903825775333267</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+        <v>-0.63854232526744381</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="20" t="s">
         <v>148</v>
       </c>
@@ -5834,14 +5827,14 @@
       </c>
       <c r="C39" s="30">
         <f>+Earnings_Comparison!E40</f>
-        <v>825.6</v>
+        <v>814.97</v>
       </c>
       <c r="D39" s="29">
         <f>+Earnings_Comparison!H40</f>
-        <v>0.9863539736035154</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+        <v>-0.66167734483771889</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="20" t="s">
         <v>149</v>
       </c>
@@ -5851,14 +5844,14 @@
       </c>
       <c r="C40" s="30">
         <f>+Earnings_Comparison!E41</f>
-        <v>821.03</v>
+        <v>806.41</v>
       </c>
       <c r="D40" s="29">
         <f>+Earnings_Comparison!H41</f>
-        <v>6.0693436857237382</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+        <v>2.6478698397107925</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="20" t="s">
         <v>150</v>
       </c>
@@ -5868,14 +5861,14 @@
       </c>
       <c r="C41" s="30">
         <f>+Earnings_Comparison!E42</f>
-        <v>893.44</v>
+        <v>854.28</v>
       </c>
       <c r="D41" s="29">
         <f>+Earnings_Comparison!H42</f>
-        <v>4.7434867547869741</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+        <v>-2.0032649615040587</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="20" t="s">
         <v>151</v>
       </c>
@@ -5885,14 +5878,14 @@
       </c>
       <c r="C42" s="30">
         <f>+Earnings_Comparison!E43</f>
-        <v>854.62</v>
+        <v>842.3</v>
       </c>
       <c r="D42" s="29">
         <f>+Earnings_Comparison!H43</f>
-        <v>1.2808852985967345</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+        <v>-0.45168401575316208</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="20" t="s">
         <v>152</v>
       </c>
@@ -5902,14 +5895,14 @@
       </c>
       <c r="C43" s="30">
         <f>+Earnings_Comparison!E44</f>
-        <v>881.39</v>
+        <v>885.72</v>
       </c>
       <c r="D43" s="29">
         <f>+Earnings_Comparison!H44</f>
-        <v>1.5148545372227984</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+        <v>1.3699264822319313</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="20" t="s">
         <v>153</v>
       </c>
@@ -5919,14 +5912,14 @@
       </c>
       <c r="C44" s="30">
         <f>+Earnings_Comparison!E45</f>
-        <v>790.47</v>
+        <v>775.22</v>
       </c>
       <c r="D44" s="29">
         <f>+Earnings_Comparison!H45</f>
-        <v>1.9342047447652888</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+        <v>-1.6678851009577222E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="20" t="s">
         <v>154</v>
       </c>
@@ -5936,14 +5929,14 @@
       </c>
       <c r="C45" s="30">
         <f>+Earnings_Comparison!E46</f>
-        <v>748.51</v>
+        <v>736.16</v>
       </c>
       <c r="D45" s="29">
         <f>+Earnings_Comparison!H46</f>
-        <v>0.90927014456652078</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+        <v>-1.5729663444067454</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="20" t="s">
         <v>155</v>
       </c>
@@ -5953,14 +5946,14 @@
       </c>
       <c r="C46" s="30">
         <f>+Earnings_Comparison!E47</f>
-        <v>804.79</v>
+        <v>794.38</v>
       </c>
       <c r="D46" s="29">
         <f>+Earnings_Comparison!H47</f>
-        <v>4.0936077942461013</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+        <v>0.55845726089667203</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="20" t="s">
         <v>156</v>
       </c>
@@ -5970,14 +5963,14 @@
       </c>
       <c r="C47" s="30">
         <f>+Earnings_Comparison!E48</f>
-        <v>913.92</v>
+        <v>923.2</v>
       </c>
       <c r="D47" s="29">
         <f>+Earnings_Comparison!H48</f>
-        <v>2.7801862979744518</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
+        <v>1.5144872988430702</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="20" t="s">
         <v>157</v>
       </c>
@@ -5987,14 +5980,14 @@
       </c>
       <c r="C48" s="30">
         <f>+Earnings_Comparison!E49</f>
-        <v>885.28</v>
+        <v>869.08</v>
       </c>
       <c r="D48" s="29">
         <f>+Earnings_Comparison!H49</f>
-        <v>3.0742536800620002</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+        <v>-0.91574775849554424</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="20" t="s">
         <v>158</v>
       </c>
@@ -6004,14 +5997,14 @@
       </c>
       <c r="C49" s="30">
         <f>+Earnings_Comparison!E50</f>
-        <v>817.97</v>
+        <v>815.47</v>
       </c>
       <c r="D49" s="29">
         <f>+Earnings_Comparison!H50</f>
-        <v>-1.7378991433968038</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
+        <v>-2.9413242704030118</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
         <v>159</v>
       </c>
@@ -6021,14 +6014,14 @@
       </c>
       <c r="C50" s="30">
         <f>+Earnings_Comparison!E51</f>
-        <v>970.53</v>
+        <v>943.92</v>
       </c>
       <c r="D50" s="29">
         <f>+Earnings_Comparison!H51</f>
-        <v>1.1914036208238166</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
+        <v>-2.9507759985103799</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="20" t="s">
         <v>160</v>
       </c>
@@ -6038,14 +6031,14 @@
       </c>
       <c r="C51" s="30">
         <f>+Earnings_Comparison!E52</f>
-        <v>1114.04</v>
+        <v>1073.3</v>
       </c>
       <c r="D51" s="29">
         <f>+Earnings_Comparison!H52</f>
-        <v>4.8227265976875433</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
+        <v>-1.3827994581944725</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="20" t="s">
         <v>161</v>
       </c>
@@ -6055,14 +6048,14 @@
       </c>
       <c r="C52" s="30">
         <f>+Earnings_Comparison!E53</f>
-        <v>758.56</v>
+        <v>752.6</v>
       </c>
       <c r="D52" s="29">
         <f>+Earnings_Comparison!H53</f>
-        <v>1.3716620058143558</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
+        <v>2.5058420358735178</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="20" t="s">
         <v>162</v>
       </c>
@@ -6072,14 +6065,14 @@
       </c>
       <c r="C53" s="30">
         <f>+Earnings_Comparison!E54</f>
-        <v>842.3</v>
+        <v>827.12</v>
       </c>
       <c r="D53" s="29">
         <f>+Earnings_Comparison!H54</f>
-        <v>2.8580626215183758</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
+        <v>0.30613365437066609</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="20" t="s">
         <v>163</v>
       </c>
@@ -6089,11 +6082,11 @@
       </c>
       <c r="C54" s="30">
         <f>+Earnings_Comparison!E55</f>
-        <v>818.74</v>
+        <v>812.89</v>
       </c>
       <c r="D54" s="29">
         <f>+Earnings_Comparison!H55</f>
-        <v>6.0647801354385411</v>
+        <v>3.106357764018397</v>
       </c>
     </row>
   </sheetData>
@@ -6110,42 +6103,42 @@
   <dimension ref="A1:AF65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="D38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Q14" sqref="Q14"/>
+      <selection pane="bottomRight" activeCell="J58" sqref="J58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9.15234375" style="1"/>
-    <col min="3" max="3" width="27.53515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.69140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.3046875" style="1" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="27.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="8" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.69140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.3046875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" customWidth="1"/>
     <col min="9" max="9" width="8" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.69140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="235" width="8" style="1" customWidth="1"/>
-    <col min="236" max="16384" width="9.15234375" style="1"/>
+    <col min="236" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="15.45" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C1" s="51" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="52"/>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D3" s="34"/>
     </row>
-    <row r="4" spans="1:32" ht="25.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:32" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>61</v>
       </c>
@@ -6156,14 +6149,14 @@
         <v>2</v>
       </c>
       <c r="D4" s="46">
-        <v>42461</v>
+        <v>42491</v>
       </c>
       <c r="E4" s="47">
-        <v>42826</v>
+        <v>42856</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="13" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>57</v>
@@ -6195,7 +6188,7 @@
       <c r="AE4" s="4"/>
       <c r="AF4" s="4"/>
     </row>
-    <row r="5" spans="1:32" ht="14.6" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:32" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A5" s="19">
         <v>1</v>
       </c>
@@ -6206,29 +6199,31 @@
         <v>3</v>
       </c>
       <c r="D5" s="37">
-        <v>777.15</v>
+        <f>'May 2017_BLS Data Series'!F5</f>
+        <v>786.21</v>
       </c>
       <c r="E5" s="44">
-        <v>803.08</v>
+        <f>'May 2017_BLS Data Series'!R5</f>
+        <v>790.24</v>
       </c>
       <c r="F5" s="35"/>
       <c r="G5" s="35">
         <f>D5/$G$61</f>
-        <v>794.24488989012002</v>
+        <v>800.95047612902692</v>
       </c>
       <c r="H5" s="11">
         <f>((E5/G5)-1)*100</f>
-        <v>1.1123911808991638</v>
+        <v>-1.337220770601244</v>
       </c>
       <c r="I5" s="9"/>
       <c r="J5" s="29">
         <f>E5-D5</f>
-        <v>25.930000000000064</v>
+        <v>4.0299999999999727</v>
       </c>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" s="19">
         <v>2</v>
       </c>
@@ -6239,29 +6234,31 @@
         <v>4</v>
       </c>
       <c r="D6" s="37">
-        <v>959.92</v>
+        <f>'May 2017_BLS Data Series'!F6</f>
+        <v>965.81</v>
       </c>
       <c r="E6" s="44">
-        <v>990.85</v>
+        <f>'May 2017_BLS Data Series'!R6</f>
+        <v>983.68</v>
       </c>
       <c r="F6" s="35"/>
       <c r="G6" s="35">
         <f t="shared" ref="G6:G55" si="0">D6/$G$61</f>
-        <v>981.03526308090329</v>
+        <v>983.91775651565797</v>
       </c>
       <c r="H6" s="11">
         <f t="shared" ref="H6:H55" si="1">((E6/G6)-1)*100</f>
-        <v>1.0004469042502961</v>
+        <v>-2.4164267194448641E-2</v>
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="29">
         <f t="shared" ref="J6:J55" si="2">E6-D6</f>
-        <v>30.930000000000064</v>
+        <v>17.870000000000005</v>
       </c>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" s="19">
         <v>4</v>
       </c>
@@ -6272,29 +6269,31 @@
         <v>5</v>
       </c>
       <c r="D7" s="37">
-        <v>820.46</v>
+        <f>'May 2017_BLS Data Series'!F7</f>
+        <v>841.12</v>
       </c>
       <c r="E7" s="44">
-        <v>881.23</v>
+        <f>'May 2017_BLS Data Series'!R7</f>
+        <v>863.78</v>
       </c>
       <c r="F7" s="35"/>
       <c r="G7" s="35">
         <f t="shared" si="0"/>
-        <v>838.50757557646261</v>
+        <v>856.88997148554085</v>
       </c>
       <c r="H7" s="11">
         <f t="shared" si="1"/>
-        <v>5.0950552705700147</v>
+        <v>0.80407388856638118</v>
       </c>
       <c r="I7" s="9"/>
       <c r="J7" s="29">
         <f t="shared" si="2"/>
-        <v>60.769999999999982</v>
+        <v>22.659999999999968</v>
       </c>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" s="19">
         <v>5</v>
       </c>
@@ -6305,29 +6304,31 @@
         <v>6</v>
       </c>
       <c r="D8" s="37">
-        <v>677.66</v>
+        <f>'May 2017_BLS Data Series'!F8</f>
+        <v>687.37</v>
       </c>
       <c r="E8" s="44">
-        <v>717.89</v>
+        <f>'May 2017_BLS Data Series'!R8</f>
+        <v>708.26</v>
       </c>
       <c r="F8" s="35"/>
       <c r="G8" s="35">
         <f t="shared" si="0"/>
-        <v>692.56641843008265</v>
+        <v>700.25734698974725</v>
       </c>
       <c r="H8" s="11">
         <f t="shared" si="1"/>
-        <v>3.6564841863573339</v>
+        <v>1.1428160010965138</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="29">
         <f t="shared" si="2"/>
-        <v>40.230000000000018</v>
+        <v>20.889999999999986</v>
       </c>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" s="19">
         <v>6</v>
       </c>
@@ -6338,29 +6339,31 @@
         <v>7</v>
       </c>
       <c r="D9" s="37">
-        <v>979.95</v>
+        <f>'May 2017_BLS Data Series'!F9</f>
+        <v>1009.66</v>
       </c>
       <c r="E9" s="44">
-        <v>1047.3499999999999</v>
+        <f>'May 2017_BLS Data Series'!R9</f>
+        <v>1024.31</v>
       </c>
       <c r="F9" s="35"/>
       <c r="G9" s="35">
         <f t="shared" si="0"/>
-        <v>1001.5058609635504</v>
+        <v>1028.5898903962468</v>
       </c>
       <c r="H9" s="11">
         <f t="shared" si="1"/>
-        <v>4.577520793771761</v>
+        <v>-0.41609298673916939</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="29">
         <f t="shared" si="2"/>
-        <v>67.399999999999864</v>
+        <v>14.649999999999977</v>
       </c>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" s="19">
         <v>8</v>
       </c>
@@ -6371,29 +6374,31 @@
         <v>8</v>
       </c>
       <c r="D10" s="37">
-        <v>910.34</v>
+        <f>'May 2017_BLS Data Series'!F10</f>
+        <v>925.81</v>
       </c>
       <c r="E10" s="44">
-        <v>931.39</v>
+        <f>'May 2017_BLS Data Series'!R10</f>
+        <v>898.92</v>
       </c>
       <c r="F10" s="35"/>
       <c r="G10" s="35">
         <f t="shared" si="0"/>
-        <v>930.36465683918414</v>
+        <v>943.16780542732135</v>
       </c>
       <c r="H10" s="11">
         <f t="shared" si="1"/>
-        <v>0.11020873947418242</v>
+        <v>-4.6914032871673399</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="29">
         <f t="shared" si="2"/>
-        <v>21.049999999999955</v>
+        <v>-26.889999999999986</v>
       </c>
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" s="19">
         <v>9</v>
       </c>
@@ -6404,29 +6409,31 @@
         <v>9</v>
       </c>
       <c r="D11" s="37">
-        <v>1019.37</v>
+        <f>'May 2017_BLS Data Series'!F11</f>
+        <v>1044.1400000000001</v>
       </c>
       <c r="E11" s="44">
-        <v>1073.01</v>
+        <f>'May 2017_BLS Data Series'!R11</f>
+        <v>1038.9100000000001</v>
       </c>
       <c r="F11" s="35"/>
       <c r="G11" s="35">
         <f t="shared" si="0"/>
-        <v>1041.7929787136225</v>
+        <v>1063.7163482343931</v>
       </c>
       <c r="H11" s="11">
         <f t="shared" si="1"/>
-        <v>2.9964706927592788</v>
+        <v>-2.3320454062370821</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="29">
         <f t="shared" si="2"/>
-        <v>53.639999999999986</v>
+        <v>-5.2300000000000182</v>
       </c>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" s="19">
         <v>10</v>
       </c>
@@ -6437,29 +6444,31 @@
         <v>10</v>
       </c>
       <c r="D12" s="37">
-        <v>810.74</v>
+        <f>'May 2017_BLS Data Series'!F12</f>
+        <v>811.85</v>
       </c>
       <c r="E12" s="44">
-        <v>858.66</v>
+        <f>'May 2017_BLS Data Series'!R12</f>
+        <v>828.75</v>
       </c>
       <c r="F12" s="35"/>
       <c r="G12" s="35">
         <f t="shared" si="0"/>
-        <v>828.57376572028045</v>
+        <v>827.0711947766506</v>
       </c>
       <c r="H12" s="11">
         <f t="shared" si="1"/>
-        <v>3.631086998459998</v>
+        <v>0.20298194810215442</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="29">
         <f t="shared" si="2"/>
-        <v>47.919999999999959</v>
+        <v>16.899999999999977</v>
       </c>
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" s="19">
         <v>11</v>
       </c>
@@ -6470,29 +6479,31 @@
         <v>11</v>
       </c>
       <c r="D13" s="37">
-        <v>1332.86</v>
+        <f>'May 2017_BLS Data Series'!F13</f>
+        <v>1411.96</v>
       </c>
       <c r="E13" s="44">
-        <v>1460.34</v>
+        <f>'May 2017_BLS Data Series'!R13</f>
+        <v>1391.01</v>
       </c>
       <c r="F13" s="35"/>
       <c r="G13" s="35">
         <f t="shared" si="0"/>
-        <v>1362.1787865134727</v>
+        <v>1438.4325234671917</v>
       </c>
       <c r="H13" s="11">
         <f t="shared" si="1"/>
-        <v>7.2061916143748794</v>
+        <v>-3.2968194679639629</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="29">
         <f t="shared" si="2"/>
-        <v>127.48000000000002</v>
+        <v>-20.950000000000045</v>
       </c>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14" s="19">
         <v>12</v>
       </c>
@@ -6503,29 +6514,31 @@
         <v>12</v>
       </c>
       <c r="D14" s="37">
-        <v>788.65</v>
+        <f>'May 2017_BLS Data Series'!F14</f>
+        <v>800.22</v>
       </c>
       <c r="E14" s="44">
-        <v>839.05</v>
+        <f>'May 2017_BLS Data Series'!R14</f>
+        <v>813.96</v>
       </c>
       <c r="F14" s="35"/>
       <c r="G14" s="35">
         <f t="shared" si="0"/>
-        <v>805.99785422613797</v>
+        <v>815.22314649771681</v>
       </c>
       <c r="H14" s="11">
         <f t="shared" si="1"/>
-        <v>4.1007734202464174</v>
+        <v>-0.15494487652164546</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="29">
         <f t="shared" si="2"/>
-        <v>50.399999999999977</v>
+        <v>13.740000000000009</v>
       </c>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15" s="19">
         <v>13</v>
       </c>
@@ -6536,29 +6549,31 @@
         <v>13</v>
       </c>
       <c r="D15" s="37">
-        <v>842.51</v>
+        <f>'May 2017_BLS Data Series'!F15</f>
+        <v>865.22</v>
       </c>
       <c r="E15" s="44">
-        <v>889.49</v>
+        <f>'May 2017_BLS Data Series'!R15</f>
+        <v>871.47</v>
       </c>
       <c r="F15" s="35"/>
       <c r="G15" s="35">
         <f t="shared" si="0"/>
-        <v>861.04260719465356</v>
+        <v>881.44181701626371</v>
       </c>
       <c r="H15" s="11">
         <f t="shared" si="1"/>
-        <v>3.3038310262055948</v>
+        <v>-1.1313074582754545</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="29">
         <f t="shared" si="2"/>
-        <v>46.980000000000018</v>
+        <v>6.25</v>
       </c>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16" s="19">
         <v>15</v>
       </c>
@@ -6569,29 +6584,31 @@
         <v>14</v>
       </c>
       <c r="D16" s="37">
-        <v>827.64</v>
+        <f>'May 2017_BLS Data Series'!F16</f>
+        <v>851.76</v>
       </c>
       <c r="E16" s="44">
-        <v>876.77</v>
+        <f>'May 2017_BLS Data Series'!R16</f>
+        <v>841.1</v>
       </c>
       <c r="F16" s="35"/>
       <c r="G16" s="35">
         <f t="shared" si="0"/>
-        <v>845.84551330973295</v>
+        <v>867.72945847503843</v>
       </c>
       <c r="H16" s="11">
         <f t="shared" si="1"/>
-        <v>3.6560443016670607</v>
+        <v>-3.0688664784802255</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="29">
         <f t="shared" si="2"/>
-        <v>49.129999999999995</v>
+        <v>-10.659999999999968</v>
       </c>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="19">
         <v>16</v>
       </c>
@@ -6602,29 +6619,31 @@
         <v>15</v>
       </c>
       <c r="D17" s="37">
-        <v>744.89</v>
+        <f>'May 2017_BLS Data Series'!F17</f>
+        <v>755.66</v>
       </c>
       <c r="E17" s="44">
-        <v>757.91</v>
+        <f>'May 2017_BLS Data Series'!R17</f>
+        <v>745.59</v>
       </c>
       <c r="F17" s="35"/>
       <c r="G17" s="35">
         <f t="shared" si="0"/>
-        <v>761.27526993534264</v>
+        <v>769.82770098530978</v>
       </c>
       <c r="H17" s="11">
         <f t="shared" si="1"/>
-        <v>-0.44205691006204972</v>
+        <v>-3.1484578892507664</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="29">
         <f t="shared" si="2"/>
-        <v>13.019999999999982</v>
+        <v>-10.069999999999936</v>
       </c>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="19">
         <v>17</v>
       </c>
@@ -6635,29 +6654,31 @@
         <v>16</v>
       </c>
       <c r="D18" s="37">
-        <v>899.37</v>
+        <f>'May 2017_BLS Data Series'!F18</f>
+        <v>915.47</v>
       </c>
       <c r="E18" s="44">
-        <v>919.3</v>
+        <f>'May 2017_BLS Data Series'!R18</f>
+        <v>902.7</v>
       </c>
       <c r="F18" s="35"/>
       <c r="G18" s="35">
         <f t="shared" si="0"/>
-        <v>919.15335085952165</v>
+        <v>932.63394307098645</v>
       </c>
       <c r="H18" s="11">
         <f t="shared" si="1"/>
-        <v>1.5954806707840774E-2</v>
+        <v>-3.209613299342251</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="29">
         <f t="shared" si="2"/>
-        <v>19.92999999999995</v>
+        <v>-12.769999999999982</v>
       </c>
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="19">
         <v>18</v>
       </c>
@@ -6668,29 +6689,31 @@
         <v>17</v>
       </c>
       <c r="D19" s="37">
-        <v>809.03</v>
+        <f>'May 2017_BLS Data Series'!F19</f>
+        <v>814.67</v>
       </c>
       <c r="E19" s="44">
-        <v>857.49</v>
+        <f>'May 2017_BLS Data Series'!R19</f>
+        <v>834.55</v>
       </c>
       <c r="F19" s="35"/>
       <c r="G19" s="35">
         <f t="shared" si="0"/>
-        <v>826.82615102335944</v>
+        <v>829.94406632837831</v>
       </c>
       <c r="H19" s="11">
         <f t="shared" si="1"/>
-        <v>3.7086210854226254</v>
+        <v>0.55496916701844867</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="29">
         <f t="shared" si="2"/>
-        <v>48.460000000000036</v>
+        <v>19.879999999999995</v>
       </c>
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="19">
         <v>19</v>
       </c>
@@ -6701,29 +6724,31 @@
         <v>18</v>
       </c>
       <c r="D20" s="37">
-        <v>806.27</v>
+        <f>'May 2017_BLS Data Series'!F20</f>
+        <v>808.6</v>
       </c>
       <c r="E20" s="44">
-        <v>809.64</v>
+        <f>'May 2017_BLS Data Series'!R20</f>
+        <v>793.44</v>
       </c>
       <c r="F20" s="35"/>
       <c r="G20" s="35">
         <f t="shared" si="0"/>
-        <v>824.0054395827151</v>
+        <v>823.76026125072326</v>
       </c>
       <c r="H20" s="11">
         <f t="shared" si="1"/>
-        <v>-1.7433670814102742</v>
+        <v>-3.6807142413847083</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="29">
         <f t="shared" si="2"/>
-        <v>3.3700000000000045</v>
+        <v>-15.159999999999968</v>
       </c>
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="19">
         <v>20</v>
       </c>
@@ -6734,29 +6759,31 @@
         <v>19</v>
       </c>
       <c r="D21" s="37">
-        <v>767.53</v>
+        <f>'May 2017_BLS Data Series'!F21</f>
+        <v>766.08</v>
       </c>
       <c r="E21" s="44">
-        <v>795.15</v>
+        <f>'May 2017_BLS Data Series'!R21</f>
+        <v>771.51</v>
       </c>
       <c r="F21" s="35"/>
       <c r="G21" s="35">
         <f t="shared" si="0"/>
-        <v>784.41327972381623</v>
+        <v>780.4430632438216</v>
       </c>
       <c r="H21" s="11">
         <f t="shared" si="1"/>
-        <v>1.368758096492706</v>
+        <v>-1.1446143433823774</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="29">
         <f t="shared" si="2"/>
-        <v>27.620000000000005</v>
+        <v>5.42999999999995</v>
       </c>
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="19">
         <v>21</v>
       </c>
@@ -6767,29 +6794,31 @@
         <v>20</v>
       </c>
       <c r="D22" s="37">
-        <v>746.58</v>
+        <f>'May 2017_BLS Data Series'!F22</f>
+        <v>740.6</v>
       </c>
       <c r="E22" s="44">
-        <v>766.06</v>
+        <f>'May 2017_BLS Data Series'!R22</f>
+        <v>760.28</v>
       </c>
       <c r="F22" s="35"/>
       <c r="G22" s="35">
         <f t="shared" si="0"/>
-        <v>763.00244469428787</v>
+        <v>754.48534440055118</v>
       </c>
       <c r="H22" s="11">
         <f t="shared" si="1"/>
-        <v>0.40072680329839017</v>
+        <v>0.76802758893252943</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="29">
         <f t="shared" si="2"/>
-        <v>19.479999999999905</v>
+        <v>19.67999999999995</v>
       </c>
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="19">
         <v>22</v>
       </c>
@@ -6800,29 +6829,31 @@
         <v>21</v>
       </c>
       <c r="D23" s="37">
-        <v>788.55</v>
+        <f>'May 2017_BLS Data Series'!F23</f>
+        <v>803.37</v>
       </c>
       <c r="E23" s="44">
-        <v>810.47</v>
+        <f>'May 2017_BLS Data Series'!R23</f>
+        <v>803.93</v>
       </c>
       <c r="F23" s="35"/>
       <c r="G23" s="35">
         <f t="shared" si="0"/>
-        <v>805.8956545362596</v>
+        <v>818.43220514592326</v>
       </c>
       <c r="H23" s="11">
         <f t="shared" si="1"/>
-        <v>0.56761014133679399</v>
+        <v>-1.7719494729972918</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="29">
         <f t="shared" si="2"/>
-        <v>21.920000000000073</v>
+        <v>0.55999999999994543</v>
       </c>
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="19">
         <v>23</v>
       </c>
@@ -6833,29 +6864,31 @@
         <v>22</v>
       </c>
       <c r="D24" s="37">
-        <v>753.06</v>
+        <f>'May 2017_BLS Data Series'!F24</f>
+        <v>754.8</v>
       </c>
       <c r="E24" s="44">
-        <v>792.2</v>
+        <f>'May 2017_BLS Data Series'!R24</f>
+        <v>790.1</v>
       </c>
       <c r="F24" s="35"/>
       <c r="G24" s="35">
         <f t="shared" si="0"/>
-        <v>769.62498459840924</v>
+        <v>768.95157703691052</v>
       </c>
       <c r="H24" s="11">
         <f t="shared" si="1"/>
-        <v>2.9332487709414101</v>
+        <v>2.7502932037129169</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="29">
         <f t="shared" si="2"/>
-        <v>39.1400000000001</v>
+        <v>35.300000000000068</v>
       </c>
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="19">
         <v>24</v>
       </c>
@@ -6866,29 +6899,31 @@
         <v>23</v>
       </c>
       <c r="D25" s="37">
-        <v>929.21</v>
+        <f>'May 2017_BLS Data Series'!F25</f>
+        <v>939.47</v>
       </c>
       <c r="E25" s="44">
-        <v>967.43</v>
+        <f>'May 2017_BLS Data Series'!R25</f>
+        <v>939.47</v>
       </c>
       <c r="F25" s="35"/>
       <c r="G25" s="35">
         <f t="shared" si="0"/>
-        <v>949.64973831924146</v>
+        <v>957.08391372398842</v>
       </c>
       <c r="H25" s="11">
         <f t="shared" si="1"/>
-        <v>1.8722968020006281</v>
+        <v>-1.8403729778983635</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="29">
         <f t="shared" si="2"/>
-        <v>38.219999999999914</v>
+        <v>0</v>
       </c>
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="19">
         <v>25</v>
       </c>
@@ -6899,29 +6934,31 @@
         <v>24</v>
       </c>
       <c r="D26" s="37">
-        <v>1034.6300000000001</v>
+        <f>'May 2017_BLS Data Series'!F26</f>
+        <v>1047.4000000000001</v>
       </c>
       <c r="E26" s="44">
-        <v>1093.57</v>
+        <f>'May 2017_BLS Data Series'!R26</f>
+        <v>1055.28</v>
       </c>
       <c r="F26" s="35"/>
       <c r="G26" s="35">
         <f t="shared" si="0"/>
-        <v>1057.3886513890691</v>
+        <v>1067.0374692480925</v>
       </c>
       <c r="H26" s="11">
         <f t="shared" si="1"/>
-        <v>3.4217644158938354</v>
+        <v>-1.1018796984118673</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="29">
         <f t="shared" si="2"/>
-        <v>58.939999999999827</v>
+        <v>7.8799999999998818</v>
       </c>
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="19">
         <v>26</v>
       </c>
@@ -6932,29 +6969,31 @@
         <v>25</v>
       </c>
       <c r="D27" s="37">
-        <v>822.17</v>
+        <f>'May 2017_BLS Data Series'!F27</f>
+        <v>823.89</v>
       </c>
       <c r="E27" s="44">
-        <v>827.34</v>
+        <f>'May 2017_BLS Data Series'!R27</f>
+        <v>822.83</v>
       </c>
       <c r="F27" s="35"/>
       <c r="G27" s="35">
         <f t="shared" si="0"/>
-        <v>840.2551902733835</v>
+        <v>839.33693005423993</v>
       </c>
       <c r="H27" s="11">
         <f t="shared" si="1"/>
-        <v>-1.5370556972318594</v>
+        <v>-1.966663143628522</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="29">
         <f t="shared" si="2"/>
-        <v>5.1700000000000728</v>
+        <v>-1.0599999999999454</v>
       </c>
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="19">
         <v>27</v>
       </c>
@@ -6965,29 +7004,31 @@
         <v>26</v>
       </c>
       <c r="D28" s="37">
-        <v>906.53</v>
+        <f>'May 2017_BLS Data Series'!F28</f>
+        <v>925.76</v>
       </c>
       <c r="E28" s="44">
-        <v>989.06</v>
+        <f>'May 2017_BLS Data Series'!R28</f>
+        <v>955.53</v>
       </c>
       <c r="F28" s="35"/>
       <c r="G28" s="35">
         <f t="shared" si="0"/>
-        <v>926.47084865481634</v>
+        <v>943.11686798846097</v>
       </c>
       <c r="H28" s="11">
         <f t="shared" si="1"/>
-        <v>6.7556525319776073</v>
+        <v>1.3161817408710474</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="29">
         <f t="shared" si="2"/>
-        <v>82.529999999999973</v>
+        <v>29.769999999999982</v>
       </c>
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="19">
         <v>28</v>
       </c>
@@ -6998,29 +7039,31 @@
         <v>27</v>
       </c>
       <c r="D29" s="37">
-        <v>684.29</v>
+        <f>'May 2017_BLS Data Series'!F29</f>
+        <v>698.09</v>
       </c>
       <c r="E29" s="44">
-        <v>703.76</v>
+        <f>'May 2017_BLS Data Series'!R29</f>
+        <v>700.95</v>
       </c>
       <c r="F29" s="35"/>
       <c r="G29" s="35">
         <f t="shared" si="0"/>
-        <v>699.34225786902175</v>
+        <v>711.17833388142151</v>
       </c>
       <c r="H29" s="11">
         <f t="shared" si="1"/>
-        <v>0.63169958361155576</v>
+        <v>-1.4382234939017247</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="29">
         <f t="shared" si="2"/>
-        <v>19.470000000000027</v>
+        <v>2.8600000000000136</v>
       </c>
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="19">
         <v>29</v>
       </c>
@@ -7031,29 +7074,31 @@
         <v>28</v>
       </c>
       <c r="D30" s="37">
-        <v>746.79</v>
+        <f>'May 2017_BLS Data Series'!F30</f>
+        <v>752.52</v>
       </c>
       <c r="E30" s="44">
-        <v>810.21</v>
+        <f>'May 2017_BLS Data Series'!R30</f>
+        <v>794.29</v>
       </c>
       <c r="F30" s="35"/>
       <c r="G30" s="35">
         <f t="shared" si="0"/>
-        <v>763.21706404303256</v>
+        <v>766.62882982487542</v>
       </c>
       <c r="H30" s="11">
         <f t="shared" si="1"/>
-        <v>6.1572176738330819</v>
+        <v>3.6081567897000788</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="29">
         <f t="shared" si="2"/>
-        <v>63.420000000000073</v>
+        <v>41.769999999999982</v>
       </c>
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="19">
         <v>30</v>
       </c>
@@ -7064,29 +7109,31 @@
         <v>29</v>
       </c>
       <c r="D31" s="37">
-        <v>724.79</v>
+        <f>'May 2017_BLS Data Series'!F31</f>
+        <v>740.52</v>
       </c>
       <c r="E31" s="44">
-        <v>758.35</v>
+        <f>'May 2017_BLS Data Series'!R31</f>
+        <v>750.47</v>
       </c>
       <c r="F31" s="35"/>
       <c r="G31" s="35">
         <f t="shared" si="0"/>
-        <v>740.73313226978075</v>
+        <v>754.4038444983745</v>
       </c>
       <c r="H31" s="11">
         <f t="shared" si="1"/>
-        <v>2.3783015721515088</v>
+        <v>-0.52145074909980549</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="29">
         <f t="shared" si="2"/>
-        <v>33.560000000000059</v>
+        <v>9.9500000000000455</v>
       </c>
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="19">
         <v>31</v>
       </c>
@@ -7097,29 +7144,31 @@
         <v>30</v>
       </c>
       <c r="D32" s="37">
-        <v>779.96</v>
+        <f>'May 2017_BLS Data Series'!F32</f>
+        <v>785.66</v>
       </c>
       <c r="E32" s="44">
-        <v>833.17</v>
+        <f>'May 2017_BLS Data Series'!R32</f>
+        <v>814.24</v>
       </c>
       <c r="F32" s="35"/>
       <c r="G32" s="35">
         <f t="shared" si="0"/>
-        <v>797.11670117570361</v>
+        <v>800.39016430156221</v>
       </c>
       <c r="H32" s="11">
         <f t="shared" si="1"/>
-        <v>4.5229636728373324</v>
+        <v>1.7303855439707361</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="29">
         <f t="shared" si="2"/>
-        <v>53.209999999999923</v>
+        <v>28.580000000000041</v>
       </c>
       <c r="K32" s="9"/>
       <c r="L32" s="9"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="19">
         <v>32</v>
       </c>
@@ -7130,29 +7179,31 @@
         <v>31</v>
       </c>
       <c r="D33" s="37">
-        <v>746.59</v>
+        <f>'May 2017_BLS Data Series'!F33</f>
+        <v>758.73</v>
       </c>
       <c r="E33" s="44">
-        <v>768.13</v>
+        <f>'May 2017_BLS Data Series'!R33</f>
+        <v>760.61</v>
       </c>
       <c r="F33" s="35"/>
       <c r="G33" s="35">
         <f t="shared" si="0"/>
-        <v>763.0126646632757</v>
+        <v>772.95525973133965</v>
       </c>
       <c r="H33" s="11">
         <f t="shared" si="1"/>
-        <v>0.67067501939599428</v>
+        <v>-1.5971506210631814</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="29">
         <f t="shared" si="2"/>
-        <v>21.539999999999964</v>
+        <v>1.8799999999999955</v>
       </c>
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="19">
         <v>33</v>
       </c>
@@ -7163,29 +7214,31 @@
         <v>32</v>
       </c>
       <c r="D34" s="37">
-        <v>860.83</v>
+        <f>'May 2017_BLS Data Series'!F34</f>
+        <v>862.92</v>
       </c>
       <c r="E34" s="44">
-        <v>915.63</v>
+        <f>'May 2017_BLS Data Series'!R34</f>
+        <v>889.2</v>
       </c>
       <c r="F34" s="35"/>
       <c r="G34" s="35">
         <f t="shared" si="0"/>
-        <v>879.76559038037965</v>
+        <v>879.0986948286843</v>
       </c>
       <c r="H34" s="11">
         <f t="shared" si="1"/>
-        <v>4.0765869922366305</v>
+        <v>1.1490524591535545</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="29">
         <f t="shared" si="2"/>
-        <v>54.799999999999955</v>
+        <v>26.280000000000086</v>
       </c>
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="19">
         <v>34</v>
       </c>
@@ -7196,29 +7249,31 @@
         <v>33</v>
       </c>
       <c r="D35" s="37">
-        <v>948.77</v>
+        <f>'May 2017_BLS Data Series'!F35</f>
+        <v>961.18</v>
       </c>
       <c r="E35" s="44">
-        <v>983.84</v>
+        <f>'May 2017_BLS Data Series'!R35</f>
+        <v>820.98</v>
       </c>
       <c r="F35" s="35"/>
       <c r="G35" s="35">
         <f t="shared" si="0"/>
-        <v>969.63999765945982</v>
+        <v>979.20094967718296</v>
       </c>
       <c r="H35" s="11">
         <f t="shared" si="1"/>
-        <v>1.4644612820032599</v>
+        <v>-16.158169549298773</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="29">
         <f t="shared" si="2"/>
-        <v>35.07000000000005</v>
+        <v>-140.19999999999993</v>
       </c>
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="19">
         <v>35</v>
       </c>
@@ -7229,29 +7284,31 @@
         <v>34</v>
       </c>
       <c r="D36" s="37">
-        <v>685.41</v>
+        <f>'May 2017_BLS Data Series'!F36</f>
+        <v>686.47</v>
       </c>
       <c r="E36" s="44">
-        <v>715.21</v>
+        <f>'May 2017_BLS Data Series'!R36</f>
+        <v>709.05</v>
       </c>
       <c r="F36" s="35"/>
       <c r="G36" s="35">
         <f t="shared" si="0"/>
-        <v>700.48689439565999</v>
+        <v>699.34047309025971</v>
       </c>
       <c r="H36" s="11">
         <f t="shared" si="1"/>
-        <v>2.1018388384042908</v>
+        <v>1.3883833816789704</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="29">
         <f t="shared" si="2"/>
-        <v>29.800000000000068</v>
+        <v>22.579999999999927</v>
       </c>
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="19">
         <v>36</v>
       </c>
@@ -7262,29 +7319,31 @@
         <v>35</v>
       </c>
       <c r="D37" s="37">
-        <v>969.36</v>
+        <f>'May 2017_BLS Data Series'!F37</f>
+        <v>981.46</v>
       </c>
       <c r="E37" s="44">
-        <v>1016.39</v>
+        <f>'May 2017_BLS Data Series'!R37</f>
+        <v>994.01</v>
       </c>
       <c r="F37" s="35"/>
       <c r="G37" s="35">
         <f t="shared" si="0"/>
-        <v>990.68291380542598</v>
+        <v>999.86117487896968</v>
       </c>
       <c r="H37" s="11">
         <f t="shared" si="1"/>
-        <v>2.5948853903039026</v>
+        <v>-0.58519872818123542</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="29">
         <f t="shared" si="2"/>
-        <v>47.029999999999973</v>
+        <v>12.549999999999955</v>
       </c>
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="19">
         <v>37</v>
       </c>
@@ -7295,29 +7354,31 @@
         <v>36</v>
       </c>
       <c r="D38" s="37">
-        <v>797.13</v>
+        <f>'May 2017_BLS Data Series'!F38</f>
+        <v>809.03</v>
       </c>
       <c r="E38" s="44">
-        <v>843.21</v>
+        <f>'May 2017_BLS Data Series'!R38</f>
+        <v>830.76</v>
       </c>
       <c r="F38" s="35"/>
       <c r="G38" s="35">
         <f t="shared" si="0"/>
-        <v>814.66438792782787</v>
+        <v>824.19832322492289</v>
       </c>
       <c r="H38" s="11">
         <f t="shared" si="1"/>
-        <v>3.503972003094491</v>
+        <v>0.79612838198972469</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="29">
         <f t="shared" si="2"/>
-        <v>46.080000000000041</v>
+        <v>21.730000000000018</v>
       </c>
       <c r="K38" s="9"/>
       <c r="L38" s="9"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="19">
         <v>38</v>
       </c>
@@ -7328,29 +7389,31 @@
         <v>37</v>
       </c>
       <c r="D39" s="37">
-        <v>885.1</v>
+        <f>'May 2017_BLS Data Series'!F39</f>
+        <v>904.96</v>
       </c>
       <c r="E39" s="44">
-        <v>910.35</v>
+        <f>'May 2017_BLS Data Series'!R39</f>
+        <v>916.04</v>
       </c>
       <c r="F39" s="35"/>
       <c r="G39" s="35">
         <f t="shared" si="0"/>
-        <v>904.56945511387153</v>
+        <v>921.92689342252606</v>
       </c>
       <c r="H39" s="11">
         <f t="shared" si="1"/>
-        <v>0.63903825775333267</v>
+        <v>-0.63854232526744381</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="29">
         <f t="shared" si="2"/>
-        <v>25.25</v>
+        <v>11.079999999999927</v>
       </c>
       <c r="K39" s="9"/>
       <c r="L39" s="9"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="19">
         <v>39</v>
       </c>
@@ -7361,29 +7424,31 @@
         <v>38</v>
       </c>
       <c r="D40" s="37">
-        <v>799.94</v>
+        <f>'May 2017_BLS Data Series'!F40</f>
+        <v>805.3</v>
       </c>
       <c r="E40" s="44">
-        <v>825.6</v>
+        <f>'May 2017_BLS Data Series'!R40</f>
+        <v>814.97</v>
       </c>
       <c r="F40" s="35"/>
       <c r="G40" s="35">
         <f t="shared" si="0"/>
-        <v>817.53619921341146</v>
+        <v>820.39839028593542</v>
       </c>
       <c r="H40" s="11">
         <f t="shared" si="1"/>
-        <v>0.9863539736035154</v>
+        <v>-0.66167734483771889</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="29">
         <f t="shared" si="2"/>
-        <v>25.659999999999968</v>
+        <v>9.6700000000000728</v>
       </c>
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="19">
         <v>40</v>
       </c>
@@ -7394,29 +7459,31 @@
         <v>39</v>
       </c>
       <c r="D41" s="37">
-        <v>757.39</v>
+        <f>'May 2017_BLS Data Series'!F41</f>
+        <v>771.15</v>
       </c>
       <c r="E41" s="44">
-        <v>821.03</v>
+        <f>'May 2017_BLS Data Series'!R41</f>
+        <v>806.41</v>
       </c>
       <c r="F41" s="35"/>
       <c r="G41" s="35">
         <f t="shared" si="0"/>
-        <v>774.0502311701448</v>
+        <v>785.60811954426811</v>
       </c>
       <c r="H41" s="11">
         <f t="shared" si="1"/>
-        <v>6.0693436857237382</v>
+        <v>2.6478698397107925</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="29">
         <f t="shared" si="2"/>
-        <v>63.639999999999986</v>
+        <v>35.259999999999991</v>
       </c>
       <c r="K41" s="9"/>
       <c r="L41" s="9"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="19">
         <v>41</v>
       </c>
@@ -7427,29 +7494,31 @@
         <v>40</v>
       </c>
       <c r="D42" s="37">
-        <v>834.62</v>
+        <f>'May 2017_BLS Data Series'!F42</f>
+        <v>855.7</v>
       </c>
       <c r="E42" s="44">
-        <v>893.44</v>
+        <f>'May 2017_BLS Data Series'!R42</f>
+        <v>854.28</v>
       </c>
       <c r="F42" s="35"/>
       <c r="G42" s="35">
         <f t="shared" si="0"/>
-        <v>852.97905166324642</v>
+        <v>871.74332865723966</v>
       </c>
       <c r="H42" s="11">
         <f t="shared" si="1"/>
-        <v>4.7434867547869741</v>
+        <v>-2.0032649615040587</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="29">
         <f t="shared" si="2"/>
-        <v>58.82000000000005</v>
+        <v>-1.4200000000000728</v>
       </c>
       <c r="K42" s="9"/>
       <c r="L42" s="9"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="19">
         <v>42</v>
       </c>
@@ -7460,29 +7529,31 @@
         <v>41</v>
       </c>
       <c r="D43" s="37">
-        <v>825.65</v>
+        <f>'May 2017_BLS Data Series'!F43</f>
+        <v>830.55</v>
       </c>
       <c r="E43" s="44">
-        <v>854.62</v>
+        <f>'May 2017_BLS Data Series'!R43</f>
+        <v>842.3</v>
       </c>
       <c r="F43" s="35"/>
       <c r="G43" s="35">
         <f t="shared" si="0"/>
-        <v>843.81173948115247</v>
+        <v>846.12179691044787</v>
       </c>
       <c r="H43" s="11">
         <f t="shared" si="1"/>
-        <v>1.2808852985967345</v>
+        <v>-0.45168401575316208</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="29">
         <f t="shared" si="2"/>
-        <v>28.970000000000027</v>
+        <v>11.75</v>
       </c>
       <c r="K43" s="9"/>
       <c r="L43" s="9"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="19">
         <v>44</v>
       </c>
@@ -7493,29 +7564,31 @@
         <v>42</v>
       </c>
       <c r="D44" s="37">
-        <v>849.55</v>
+        <f>'May 2017_BLS Data Series'!F44</f>
+        <v>857.67</v>
       </c>
       <c r="E44" s="44">
-        <v>881.39</v>
+        <f>'May 2017_BLS Data Series'!R44</f>
+        <v>885.72</v>
       </c>
       <c r="F44" s="35"/>
       <c r="G44" s="35">
         <f t="shared" si="0"/>
-        <v>868.2374653620941</v>
+        <v>873.7502637483401</v>
       </c>
       <c r="H44" s="11">
         <f t="shared" si="1"/>
-        <v>1.5148545372227984</v>
+        <v>1.3699264822319313</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="29">
         <f t="shared" si="2"/>
-        <v>31.840000000000032</v>
+        <v>28.050000000000068</v>
       </c>
       <c r="K44" s="9"/>
       <c r="L44" s="9"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="19">
         <v>45</v>
       </c>
@@ -7526,29 +7599,31 @@
         <v>43</v>
       </c>
       <c r="D45" s="37">
-        <v>758.78</v>
+        <f>'May 2017_BLS Data Series'!F45</f>
+        <v>761.08</v>
       </c>
       <c r="E45" s="44">
-        <v>790.47</v>
+        <f>'May 2017_BLS Data Series'!R45</f>
+        <v>775.22</v>
       </c>
       <c r="F45" s="35"/>
       <c r="G45" s="35">
         <f t="shared" si="0"/>
-        <v>775.4708068594548</v>
+        <v>775.34931935777945</v>
       </c>
       <c r="H45" s="11">
         <f t="shared" si="1"/>
-        <v>1.9342047447652888</v>
+        <v>-1.6678851009577222E-2</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="29">
         <f t="shared" si="2"/>
-        <v>31.690000000000055</v>
+        <v>14.139999999999986</v>
       </c>
       <c r="K45" s="9"/>
       <c r="L45" s="9"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="19">
         <v>46</v>
       </c>
@@ -7559,29 +7634,31 @@
         <v>44</v>
       </c>
       <c r="D46" s="37">
-        <v>725.8</v>
+        <f>'May 2017_BLS Data Series'!F46</f>
+        <v>734.16</v>
       </c>
       <c r="E46" s="44">
-        <v>748.51</v>
+        <f>'May 2017_BLS Data Series'!R46</f>
+        <v>736.16</v>
       </c>
       <c r="F46" s="35"/>
       <c r="G46" s="35">
         <f t="shared" si="0"/>
-        <v>741.76534913755268</v>
+        <v>747.92460227532888</v>
       </c>
       <c r="H46" s="11">
         <f t="shared" si="1"/>
-        <v>0.90927014456652078</v>
+        <v>-1.5729663444067454</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="29">
         <f t="shared" si="2"/>
-        <v>22.710000000000036</v>
+        <v>2</v>
       </c>
       <c r="K46" s="9"/>
       <c r="L46" s="9"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="19">
         <v>47</v>
       </c>
@@ -7592,29 +7669,31 @@
         <v>45</v>
       </c>
       <c r="D47" s="37">
-        <v>756.5</v>
+        <f>'May 2017_BLS Data Series'!F47</f>
+        <v>775.43</v>
       </c>
       <c r="E47" s="44">
-        <v>804.79</v>
+        <f>'May 2017_BLS Data Series'!R47</f>
+        <v>794.38</v>
       </c>
       <c r="F47" s="35"/>
       <c r="G47" s="35">
         <f t="shared" si="0"/>
-        <v>773.1406539302269</v>
+        <v>789.96836431072018</v>
       </c>
       <c r="H47" s="11">
         <f t="shared" si="1"/>
-        <v>4.0936077942461013</v>
+        <v>0.55845726089667203</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="29">
         <f t="shared" si="2"/>
-        <v>48.289999999999964</v>
+        <v>18.950000000000045</v>
       </c>
       <c r="K47" s="9"/>
       <c r="L47" s="9"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="19">
         <v>48</v>
       </c>
@@ -7625,29 +7704,31 @@
         <v>46</v>
       </c>
       <c r="D48" s="37">
-        <v>870.06</v>
+        <f>'May 2017_BLS Data Series'!F48</f>
+        <v>892.69</v>
       </c>
       <c r="E48" s="44">
-        <v>913.92</v>
+        <f>'May 2017_BLS Data Series'!R48</f>
+        <v>923.2</v>
       </c>
       <c r="F48" s="35"/>
       <c r="G48" s="35">
         <f t="shared" si="0"/>
-        <v>889.19862175615754</v>
+        <v>909.42684592617888</v>
       </c>
       <c r="H48" s="11">
         <f t="shared" si="1"/>
-        <v>2.7801862979744518</v>
+        <v>1.5144872988430702</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="29">
         <f t="shared" si="2"/>
-        <v>43.860000000000014</v>
+        <v>30.509999999999991</v>
       </c>
       <c r="K48" s="9"/>
       <c r="L48" s="9"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="19">
         <v>49</v>
       </c>
@@ -7658,29 +7739,31 @@
         <v>47</v>
       </c>
       <c r="D49" s="37">
-        <v>840.39</v>
+        <f>'May 2017_BLS Data Series'!F49</f>
+        <v>860.97</v>
       </c>
       <c r="E49" s="44">
-        <v>885.28</v>
+        <f>'May 2017_BLS Data Series'!R49</f>
+        <v>869.08</v>
       </c>
       <c r="F49" s="35"/>
       <c r="G49" s="35">
         <f t="shared" si="0"/>
-        <v>858.87597376923111</v>
+        <v>877.11213471312794</v>
       </c>
       <c r="H49" s="11">
         <f t="shared" si="1"/>
-        <v>3.0742536800620002</v>
+        <v>-0.91574775849554424</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="29">
         <f t="shared" si="2"/>
-        <v>44.889999999999986</v>
+        <v>8.1100000000000136</v>
       </c>
       <c r="K49" s="9"/>
       <c r="L49" s="9"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="19">
         <v>50</v>
       </c>
@@ -7691,29 +7774,31 @@
         <v>48</v>
       </c>
       <c r="D50" s="37">
-        <v>814.52</v>
+        <f>'May 2017_BLS Data Series'!F50</f>
+        <v>824.72</v>
       </c>
       <c r="E50" s="44">
-        <v>817.97</v>
+        <f>'May 2017_BLS Data Series'!R50</f>
+        <v>815.47</v>
       </c>
       <c r="F50" s="35"/>
       <c r="G50" s="35">
         <f t="shared" si="0"/>
-        <v>832.43691399768454</v>
+        <v>840.18249153932288</v>
       </c>
       <c r="H50" s="11">
         <f t="shared" si="1"/>
-        <v>-1.7378991433968038</v>
+        <v>-2.9413242704030118</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="29">
         <f t="shared" si="2"/>
-        <v>3.4500000000000455</v>
+        <v>-9.25</v>
       </c>
       <c r="K50" s="9"/>
       <c r="L50" s="9"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="19">
         <v>51</v>
       </c>
@@ -7724,29 +7809,31 @@
         <v>49</v>
       </c>
       <c r="D51" s="37">
-        <v>938.46</v>
+        <f>'May 2017_BLS Data Series'!F51</f>
+        <v>954.72</v>
       </c>
       <c r="E51" s="44">
-        <v>970.53</v>
+        <f>'May 2017_BLS Data Series'!R51</f>
+        <v>943.92</v>
       </c>
       <c r="F51" s="35"/>
       <c r="G51" s="35">
         <f t="shared" si="0"/>
-        <v>959.103209632995</v>
+        <v>972.61983257641668</v>
       </c>
       <c r="H51" s="11">
         <f t="shared" si="1"/>
-        <v>1.1914036208238166</v>
+        <v>-2.9507759985103799</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="29">
         <f t="shared" si="2"/>
-        <v>32.069999999999936</v>
+        <v>-10.800000000000068</v>
       </c>
       <c r="K51" s="9"/>
       <c r="L51" s="9"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="19">
         <v>53</v>
       </c>
@@ -7757,29 +7844,31 @@
         <v>50</v>
       </c>
       <c r="D52" s="37">
-        <v>1039.9100000000001</v>
+        <f>'May 2017_BLS Data Series'!F52</f>
+        <v>1068.32</v>
       </c>
       <c r="E52" s="44">
-        <v>1114.04</v>
+        <f>'May 2017_BLS Data Series'!R52</f>
+        <v>1073.3</v>
       </c>
       <c r="F52" s="35"/>
       <c r="G52" s="35">
         <f t="shared" si="0"/>
-        <v>1062.7847950146495</v>
+        <v>1088.3496936672925</v>
       </c>
       <c r="H52" s="11">
         <f t="shared" si="1"/>
-        <v>4.8227265976875433</v>
+        <v>-1.3827994581944725</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="29">
         <f t="shared" si="2"/>
-        <v>74.129999999999882</v>
+        <v>4.9800000000000182</v>
       </c>
       <c r="K52" s="9"/>
       <c r="L52" s="9"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="19">
         <v>54</v>
       </c>
@@ -7790,29 +7879,31 @@
         <v>51</v>
       </c>
       <c r="D53" s="37">
-        <v>732.19</v>
+        <f>'May 2017_BLS Data Series'!F53</f>
+        <v>720.69</v>
       </c>
       <c r="E53" s="44">
-        <v>758.56</v>
+        <f>'May 2017_BLS Data Series'!R53</f>
+        <v>752.6</v>
       </c>
       <c r="F53" s="35"/>
       <c r="G53" s="35">
         <f t="shared" si="0"/>
-        <v>748.29590932078372</v>
+        <v>734.20205624633172</v>
       </c>
       <c r="H53" s="11">
         <f t="shared" si="1"/>
-        <v>1.3716620058143558</v>
+        <v>2.5058420358735178</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="29">
         <f t="shared" si="2"/>
-        <v>26.369999999999891</v>
+        <v>31.909999999999968</v>
       </c>
       <c r="K53" s="9"/>
       <c r="L53" s="9"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="19">
         <v>55</v>
       </c>
@@ -7823,29 +7914,31 @@
         <v>52</v>
       </c>
       <c r="D54" s="37">
-        <v>801.27</v>
+        <f>'May 2017_BLS Data Series'!F54</f>
+        <v>809.42</v>
       </c>
       <c r="E54" s="44">
-        <v>842.3</v>
+        <f>'May 2017_BLS Data Series'!R54</f>
+        <v>827.12</v>
       </c>
       <c r="F54" s="35"/>
       <c r="G54" s="35">
         <f t="shared" si="0"/>
-        <v>818.89545508879428</v>
+        <v>824.59563524803411</v>
       </c>
       <c r="H54" s="11">
         <f t="shared" si="1"/>
-        <v>2.8580626215183758</v>
+        <v>0.30613365437066609</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="29">
         <f t="shared" si="2"/>
-        <v>41.029999999999973</v>
+        <v>17.700000000000045</v>
       </c>
       <c r="K54" s="9"/>
       <c r="L54" s="9"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="19">
         <v>56</v>
       </c>
@@ -7856,32 +7949,34 @@
         <v>53</v>
       </c>
       <c r="D55" s="37">
-        <v>755.31</v>
+        <f>'May 2017_BLS Data Series'!F55</f>
+        <v>773.89</v>
       </c>
       <c r="E55" s="44">
-        <v>818.74</v>
+        <f>'May 2017_BLS Data Series'!R55</f>
+        <v>812.89</v>
       </c>
       <c r="F55" s="35"/>
       <c r="G55" s="35">
         <f t="shared" si="0"/>
-        <v>771.92447762067366</v>
+        <v>788.39949119381924</v>
       </c>
       <c r="H55" s="11">
         <f t="shared" si="1"/>
-        <v>6.0647801354385411</v>
+        <v>3.106357764018397</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="29">
         <f t="shared" si="2"/>
-        <v>63.430000000000064</v>
+        <v>39</v>
       </c>
       <c r="K55" s="9"/>
       <c r="L55" s="9">
         <f>COUNTIF(J5:J55,"&lt;0")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="H56" s="11"/>
@@ -7890,15 +7985,15 @@
       <c r="K56" s="9"/>
       <c r="L56" s="9"/>
     </row>
-    <row r="57" spans="1:15" ht="25.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C57" s="7" t="s">
         <v>54</v>
       </c>
       <c r="D57" s="32" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="E57" s="33" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
@@ -7913,34 +8008,34 @@
       <c r="N57" s="6"/>
       <c r="O57" s="6"/>
     </row>
-    <row r="58" spans="1:15" ht="14.6" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="C58" s="7" t="s">
         <v>167</v>
       </c>
       <c r="D58" s="45">
-        <v>878.58</v>
+        <v>880.3</v>
       </c>
       <c r="E58" s="45">
-        <v>900.94</v>
+        <v>901.97</v>
       </c>
       <c r="F58" s="9"/>
       <c r="G58" s="11">
         <f>D58/$G$61</f>
-        <v>897.90603533379874</v>
+        <v>896.8045485765665</v>
       </c>
       <c r="H58" s="11">
         <f>((E58/G58)-1)*100</f>
-        <v>0.33789333703202473</v>
+        <v>0.57598407943317831</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="11">
         <f>((E58/D58)-1)*100</f>
-        <v>2.5450158209838536</v>
+        <v>2.4616607974554228</v>
       </c>
       <c r="K58" s="9"/>
       <c r="L58" s="9"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C59" s="9"/>
       <c r="D59" s="10"/>
       <c r="E59" s="10"/>
@@ -7952,7 +8047,7 @@
       <c r="K59" s="9"/>
       <c r="L59" s="9"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C60" s="7" t="s">
         <v>55</v>
       </c>
@@ -7966,20 +8061,20 @@
       <c r="K60" s="9"/>
       <c r="L60" s="9"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C61" s="7" t="s">
         <v>56</v>
       </c>
       <c r="D61" s="45">
-        <v>239.261</v>
+        <v>240.22900000000001</v>
       </c>
       <c r="E61" s="48">
-        <v>244.524</v>
+        <v>244.733</v>
       </c>
       <c r="F61" s="9"/>
       <c r="G61" s="9">
         <f>D61/E61</f>
-        <v>0.97847655035906489</v>
+        <v>0.98159627022101636</v>
       </c>
       <c r="H61" s="9"/>
       <c r="I61" s="9"/>
@@ -7987,7 +8082,7 @@
       <c r="K61" s="9"/>
       <c r="L61" s="9"/>
     </row>
-    <row r="62" spans="1:15" ht="14.6" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="C62" s="9"/>
       <c r="D62" s="10"/>
       <c r="E62" s="10"/>
@@ -7999,7 +8094,7 @@
       <c r="K62"/>
       <c r="L62" s="9"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
       <c r="E63" s="9"/>
@@ -8011,7 +8106,7 @@
       <c r="K63" s="9"/>
       <c r="L63" s="9"/>
     </row>
-    <row r="65" spans="4:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="4:7" x14ac:dyDescent="0.2">
       <c r="D65" s="31"/>
       <c r="E65" s="31"/>
       <c r="F65" s="31"/>
@@ -8037,20 +8132,20 @@
   <dimension ref="A1:Y55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E5" sqref="E5:E55"/>
+      <selection pane="bottomRight" sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" style="43" customWidth="1"/>
     <col min="2" max="255" width="8" style="43" customWidth="1"/>
-    <col min="256" max="16384" width="9.15234375" style="43"/>
+    <col min="256" max="16384" width="9.140625" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="15.45" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
@@ -8068,7 +8163,7 @@
       <c r="M1" s="54"/>
       <c r="N1" s="54"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="41" t="s">
         <v>1</v>
       </c>
@@ -8076,7 +8171,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B3" s="54"/>
       <c r="C3" s="54"/>
       <c r="D3" s="54"/>
@@ -8091,7 +8186,7 @@
       <c r="M3" s="54"/>
       <c r="N3" s="54"/>
     </row>
-    <row r="4" spans="1:25" ht="26.15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="39" t="s">
         <v>2</v>
       </c>
@@ -8168,7 +8263,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="15" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="38" t="s">
         <v>3</v>
       </c>
@@ -8214,14 +8309,17 @@
       <c r="O5" s="37">
         <v>788.25</v>
       </c>
-      <c r="P5" s="44">
+      <c r="P5" s="37">
         <v>785.07</v>
       </c>
-      <c r="Q5" s="44">
-        <v>803.08</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="Q5" s="37">
+        <v>800.8</v>
+      </c>
+      <c r="R5" s="37">
+        <v>790.24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="38" t="s">
         <v>4</v>
       </c>
@@ -8267,14 +8365,17 @@
       <c r="O6" s="37">
         <v>966.65</v>
       </c>
-      <c r="P6" s="44">
+      <c r="P6" s="37">
         <v>978.59</v>
       </c>
-      <c r="Q6" s="44">
-        <v>990.85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="Q6" s="37">
+        <v>987.56</v>
+      </c>
+      <c r="R6" s="37">
+        <v>983.68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="38" t="s">
         <v>5</v>
       </c>
@@ -8320,14 +8421,17 @@
       <c r="O7" s="37">
         <v>856.03</v>
       </c>
-      <c r="P7" s="44">
+      <c r="P7" s="37">
         <v>849.34</v>
       </c>
-      <c r="Q7" s="44">
-        <v>881.23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="Q7" s="37">
+        <v>884.1</v>
+      </c>
+      <c r="R7" s="37">
+        <v>863.78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
         <v>6</v>
       </c>
@@ -8373,14 +8477,17 @@
       <c r="O8" s="37">
         <v>703.82</v>
       </c>
-      <c r="P8" s="44">
+      <c r="P8" s="37">
         <v>702.45</v>
       </c>
-      <c r="Q8" s="44">
-        <v>717.89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="Q8" s="37">
+        <v>719.32</v>
+      </c>
+      <c r="R8" s="37">
+        <v>708.26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="38" t="s">
         <v>7</v>
       </c>
@@ -8426,14 +8533,17 @@
       <c r="O9" s="37">
         <v>1007.17</v>
       </c>
-      <c r="P9" s="44">
+      <c r="P9" s="37">
         <v>1010.61</v>
       </c>
-      <c r="Q9" s="44">
-        <v>1047.3499999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="Q9" s="37">
+        <v>1043.6500000000001</v>
+      </c>
+      <c r="R9" s="37">
+        <v>1024.31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
         <v>8</v>
       </c>
@@ -8479,14 +8589,17 @@
       <c r="O10" s="37">
         <v>899.7</v>
       </c>
-      <c r="P10" s="44">
+      <c r="P10" s="37">
         <v>896.2</v>
       </c>
-      <c r="Q10" s="44">
+      <c r="Q10" s="37">
         <v>931.39</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="R10" s="37">
+        <v>898.92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="38" t="s">
         <v>9</v>
       </c>
@@ -8532,14 +8645,17 @@
       <c r="O11" s="37">
         <v>1032.9000000000001</v>
       </c>
-      <c r="P11" s="44">
+      <c r="P11" s="37">
         <v>1032.73</v>
       </c>
-      <c r="Q11" s="44">
-        <v>1073.01</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="Q11" s="37">
+        <v>1065.93</v>
+      </c>
+      <c r="R11" s="37">
+        <v>1038.9100000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="38" t="s">
         <v>10</v>
       </c>
@@ -8585,14 +8701,17 @@
       <c r="O12" s="37">
         <v>829.46</v>
       </c>
-      <c r="P12" s="44">
+      <c r="P12" s="37">
         <v>825.93</v>
       </c>
-      <c r="Q12" s="44">
-        <v>858.66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="Q12" s="37">
+        <v>860.6</v>
+      </c>
+      <c r="R12" s="37">
+        <v>828.75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="38" t="s">
         <v>11</v>
       </c>
@@ -8638,14 +8757,17 @@
       <c r="O13" s="37">
         <v>1412.46</v>
       </c>
-      <c r="P13" s="44">
+      <c r="P13" s="37">
         <v>1412.35</v>
       </c>
-      <c r="Q13" s="44">
-        <v>1460.34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="Q13" s="37">
+        <v>1454.91</v>
+      </c>
+      <c r="R13" s="37">
+        <v>1391.01</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
         <v>12</v>
       </c>
@@ -8691,14 +8813,17 @@
       <c r="O14" s="37">
         <v>817.71</v>
       </c>
-      <c r="P14" s="44">
+      <c r="P14" s="37">
         <v>815.65</v>
       </c>
-      <c r="Q14" s="44">
-        <v>839.05</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="Q14" s="37">
+        <v>834.55</v>
+      </c>
+      <c r="R14" s="37">
+        <v>813.96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="38" t="s">
         <v>13</v>
       </c>
@@ -8744,14 +8869,17 @@
       <c r="O15" s="37">
         <v>867.22</v>
       </c>
-      <c r="P15" s="44">
+      <c r="P15" s="37">
         <v>861.27</v>
       </c>
-      <c r="Q15" s="44">
-        <v>889.49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="Q15" s="37">
+        <v>890.53</v>
+      </c>
+      <c r="R15" s="37">
+        <v>871.47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="38" t="s">
         <v>14</v>
       </c>
@@ -8797,14 +8925,17 @@
       <c r="O16" s="37">
         <v>837.82</v>
       </c>
-      <c r="P16" s="44">
+      <c r="P16" s="37">
         <v>830.43</v>
       </c>
-      <c r="Q16" s="44">
+      <c r="Q16" s="37">
         <v>876.77</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="R16" s="37">
+        <v>841.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="38" t="s">
         <v>15</v>
       </c>
@@ -8850,14 +8981,17 @@
       <c r="O17" s="37">
         <v>735.15</v>
       </c>
-      <c r="P17" s="44">
+      <c r="P17" s="37">
         <v>734.72</v>
       </c>
-      <c r="Q17" s="44">
-        <v>757.91</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="Q17" s="37">
+        <v>765.12</v>
+      </c>
+      <c r="R17" s="37">
+        <v>745.59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="38" t="s">
         <v>16</v>
       </c>
@@ -8903,14 +9037,17 @@
       <c r="O18" s="37">
         <v>902.46</v>
       </c>
-      <c r="P18" s="44">
+      <c r="P18" s="37">
         <v>897.43</v>
       </c>
-      <c r="Q18" s="44">
-        <v>919.3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="Q18" s="37">
+        <v>919</v>
+      </c>
+      <c r="R18" s="37">
+        <v>902.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="38" t="s">
         <v>17</v>
       </c>
@@ -8956,14 +9093,17 @@
       <c r="O19" s="37">
         <v>840.42</v>
       </c>
-      <c r="P19" s="44">
+      <c r="P19" s="37">
         <v>833.17</v>
       </c>
-      <c r="Q19" s="44">
-        <v>857.49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="Q19" s="37">
+        <v>851.54</v>
+      </c>
+      <c r="R19" s="37">
+        <v>834.55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="38" t="s">
         <v>18</v>
       </c>
@@ -9009,14 +9149,17 @@
       <c r="O20" s="37">
         <v>790.5</v>
       </c>
-      <c r="P20" s="44">
+      <c r="P20" s="37">
         <v>789.59</v>
       </c>
-      <c r="Q20" s="44">
-        <v>809.64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="Q20" s="37">
+        <v>811.72</v>
+      </c>
+      <c r="R20" s="37">
+        <v>793.44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="38" t="s">
         <v>19</v>
       </c>
@@ -9062,14 +9205,17 @@
       <c r="O21" s="37">
         <v>786.86</v>
       </c>
-      <c r="P21" s="44">
+      <c r="P21" s="37">
         <v>781.17</v>
       </c>
-      <c r="Q21" s="44">
-        <v>795.15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="Q21" s="37">
+        <v>794.53</v>
+      </c>
+      <c r="R21" s="37">
+        <v>771.51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="38" t="s">
         <v>20</v>
       </c>
@@ -9115,14 +9261,17 @@
       <c r="O22" s="37">
         <v>758.73</v>
       </c>
-      <c r="P22" s="44">
+      <c r="P22" s="37">
         <v>757.25</v>
       </c>
-      <c r="Q22" s="44">
-        <v>766.06</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="Q22" s="37">
+        <v>768.15</v>
+      </c>
+      <c r="R22" s="37">
+        <v>760.28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="38" t="s">
         <v>21</v>
       </c>
@@ -9168,14 +9317,17 @@
       <c r="O23" s="37">
         <v>815.62</v>
       </c>
-      <c r="P23" s="44">
+      <c r="P23" s="37">
         <v>814.2</v>
       </c>
-      <c r="Q23" s="44">
-        <v>810.47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="Q23" s="37">
+        <v>808.54</v>
+      </c>
+      <c r="R23" s="37">
+        <v>803.93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="38" t="s">
         <v>22</v>
       </c>
@@ -9221,14 +9373,17 @@
       <c r="O24" s="37">
         <v>773.52</v>
       </c>
-      <c r="P24" s="44">
+      <c r="P24" s="37">
         <v>789.93</v>
       </c>
-      <c r="Q24" s="44">
-        <v>792.2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="Q24" s="37">
+        <v>790.16</v>
+      </c>
+      <c r="R24" s="37">
+        <v>790.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="38" t="s">
         <v>23</v>
       </c>
@@ -9274,14 +9429,17 @@
       <c r="O25" s="37">
         <v>950.08</v>
       </c>
-      <c r="P25" s="44">
+      <c r="P25" s="37">
         <v>944.12</v>
       </c>
-      <c r="Q25" s="44">
-        <v>967.43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="Q25" s="37">
+        <v>969.88</v>
+      </c>
+      <c r="R25" s="37">
+        <v>939.47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="38" t="s">
         <v>24</v>
       </c>
@@ -9327,14 +9485,17 @@
       <c r="O26" s="37">
         <v>1065.24</v>
       </c>
-      <c r="P26" s="44">
+      <c r="P26" s="37">
         <v>1061.6099999999999</v>
       </c>
-      <c r="Q26" s="44">
-        <v>1093.57</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="Q26" s="37">
+        <v>1086.29</v>
+      </c>
+      <c r="R26" s="37">
+        <v>1055.28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="38" t="s">
         <v>25</v>
       </c>
@@ -9380,14 +9541,17 @@
       <c r="O27" s="37">
         <v>843.09</v>
       </c>
-      <c r="P27" s="44">
+      <c r="P27" s="37">
         <v>808.02</v>
       </c>
-      <c r="Q27" s="44">
-        <v>827.34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="Q27" s="37">
+        <v>830.13</v>
+      </c>
+      <c r="R27" s="37">
+        <v>822.83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="38" t="s">
         <v>26</v>
       </c>
@@ -9433,14 +9597,17 @@
       <c r="O28" s="37">
         <v>955.19</v>
       </c>
-      <c r="P28" s="44">
+      <c r="P28" s="37">
         <v>955.86</v>
       </c>
-      <c r="Q28" s="44">
-        <v>989.06</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="Q28" s="37">
+        <v>987.7</v>
+      </c>
+      <c r="R28" s="37">
+        <v>955.53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="38" t="s">
         <v>27</v>
       </c>
@@ -9486,14 +9653,17 @@
       <c r="O29" s="37">
         <v>705.1</v>
       </c>
-      <c r="P29" s="44">
+      <c r="P29" s="37">
         <v>699.61</v>
       </c>
-      <c r="Q29" s="44">
-        <v>703.76</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="Q29" s="37">
+        <v>705.1</v>
+      </c>
+      <c r="R29" s="37">
+        <v>700.95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="38" t="s">
         <v>28</v>
       </c>
@@ -9539,14 +9709,17 @@
       <c r="O30" s="37">
         <v>776.86</v>
       </c>
-      <c r="P30" s="44">
+      <c r="P30" s="37">
         <v>785.55</v>
       </c>
-      <c r="Q30" s="44">
-        <v>810.21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="Q30" s="37">
+        <v>812.26</v>
+      </c>
+      <c r="R30" s="37">
+        <v>794.29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="38" t="s">
         <v>29</v>
       </c>
@@ -9592,14 +9765,17 @@
       <c r="O31" s="37">
         <v>729.31</v>
       </c>
-      <c r="P31" s="44">
+      <c r="P31" s="37">
         <v>731.58</v>
       </c>
-      <c r="Q31" s="44">
-        <v>758.35</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="Q31" s="37">
+        <v>760.98</v>
+      </c>
+      <c r="R31" s="37">
+        <v>750.47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="38" t="s">
         <v>30</v>
       </c>
@@ -9645,14 +9821,17 @@
       <c r="O32" s="37">
         <v>791.95</v>
       </c>
-      <c r="P32" s="44">
+      <c r="P32" s="37">
         <v>804.44</v>
       </c>
-      <c r="Q32" s="44">
-        <v>833.17</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="Q32" s="37">
+        <v>830.06</v>
+      </c>
+      <c r="R32" s="37">
+        <v>814.24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="38" t="s">
         <v>31</v>
       </c>
@@ -9698,14 +9877,17 @@
       <c r="O33" s="37">
         <v>753.75</v>
       </c>
-      <c r="P33" s="44">
+      <c r="P33" s="37">
         <v>761.39</v>
       </c>
-      <c r="Q33" s="44">
-        <v>768.13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="Q33" s="37">
+        <v>768.82</v>
+      </c>
+      <c r="R33" s="37">
+        <v>760.61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="38" t="s">
         <v>32</v>
       </c>
@@ -9751,14 +9933,17 @@
       <c r="O34" s="37">
         <v>893.45</v>
       </c>
-      <c r="P34" s="44">
+      <c r="P34" s="37">
         <v>893.45</v>
       </c>
-      <c r="Q34" s="44">
-        <v>915.63</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="Q34" s="37">
+        <v>916.76</v>
+      </c>
+      <c r="R34" s="37">
+        <v>889.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="38" t="s">
         <v>33</v>
       </c>
@@ -9804,14 +9989,17 @@
       <c r="O35" s="37">
         <v>963.64</v>
       </c>
-      <c r="P35" s="44">
+      <c r="P35" s="37">
         <v>951.35</v>
       </c>
-      <c r="Q35" s="44">
-        <v>983.84</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="Q35" s="37">
+        <v>987.39</v>
+      </c>
+      <c r="R35" s="37">
+        <v>820.98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="38" t="s">
         <v>34</v>
       </c>
@@ -9857,14 +10045,17 @@
       <c r="O36" s="37">
         <v>695.21</v>
       </c>
-      <c r="P36" s="44">
+      <c r="P36" s="37">
         <v>694.21</v>
       </c>
-      <c r="Q36" s="44">
-        <v>715.21</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="Q36" s="37">
+        <v>720.71</v>
+      </c>
+      <c r="R36" s="37">
+        <v>709.05</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="38" t="s">
         <v>35</v>
       </c>
@@ -9910,14 +10101,17 @@
       <c r="O37" s="37">
         <v>992.67</v>
       </c>
-      <c r="P37" s="44">
+      <c r="P37" s="37">
         <v>984.66</v>
       </c>
-      <c r="Q37" s="44">
-        <v>1016.39</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="Q37" s="37">
+        <v>1016.06</v>
+      </c>
+      <c r="R37" s="37">
+        <v>994.01</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="38" t="s">
         <v>36</v>
       </c>
@@ -9963,14 +10157,17 @@
       <c r="O38" s="37">
         <v>825.26</v>
       </c>
-      <c r="P38" s="44">
+      <c r="P38" s="37">
         <v>823.89</v>
       </c>
-      <c r="Q38" s="44">
-        <v>843.21</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="Q38" s="37">
+        <v>844.6</v>
+      </c>
+      <c r="R38" s="37">
+        <v>830.76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="38" t="s">
         <v>37</v>
       </c>
@@ -10016,14 +10213,17 @@
       <c r="O39" s="37">
         <v>867.16</v>
       </c>
-      <c r="P39" s="44">
+      <c r="P39" s="37">
         <v>868.52</v>
       </c>
-      <c r="Q39" s="44">
-        <v>910.35</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="Q39" s="37">
+        <v>915.41</v>
+      </c>
+      <c r="R39" s="37">
+        <v>916.04</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="38" t="s">
         <v>38</v>
       </c>
@@ -10069,14 +10269,17 @@
       <c r="O40" s="37">
         <v>814.31</v>
       </c>
-      <c r="P40" s="44">
+      <c r="P40" s="37">
         <v>815.33</v>
       </c>
-      <c r="Q40" s="44">
-        <v>825.6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="Q40" s="37">
+        <v>823.54</v>
+      </c>
+      <c r="R40" s="37">
+        <v>814.97</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="38" t="s">
         <v>39</v>
       </c>
@@ -10122,14 +10325,17 @@
       <c r="O41" s="37">
         <v>798.13</v>
       </c>
-      <c r="P41" s="44">
+      <c r="P41" s="37">
         <v>799.19</v>
       </c>
-      <c r="Q41" s="44">
-        <v>821.03</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="Q41" s="37">
+        <v>823.19</v>
+      </c>
+      <c r="R41" s="37">
+        <v>806.41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="38" t="s">
         <v>40</v>
       </c>
@@ -10175,14 +10381,17 @@
       <c r="O42" s="37">
         <v>869.04</v>
       </c>
-      <c r="P42" s="44">
+      <c r="P42" s="37">
         <v>859.35</v>
       </c>
-      <c r="Q42" s="44">
-        <v>893.44</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="Q42" s="37">
+        <v>894.84</v>
+      </c>
+      <c r="R42" s="37">
+        <v>854.28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="38" t="s">
         <v>41</v>
       </c>
@@ -10228,14 +10437,17 @@
       <c r="O43" s="37">
         <v>835.33</v>
       </c>
-      <c r="P43" s="44">
+      <c r="P43" s="37">
         <v>826.65</v>
       </c>
-      <c r="Q43" s="44">
-        <v>854.62</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="Q43" s="37">
+        <v>853.94</v>
+      </c>
+      <c r="R43" s="37">
+        <v>842.3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="38" t="s">
         <v>42</v>
       </c>
@@ -10281,14 +10493,17 @@
       <c r="O44" s="37">
         <v>858.92</v>
       </c>
-      <c r="P44" s="44">
+      <c r="P44" s="37">
         <v>857.92</v>
       </c>
-      <c r="Q44" s="44">
-        <v>881.39</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="Q44" s="37">
+        <v>887.7</v>
+      </c>
+      <c r="R44" s="37">
+        <v>885.72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="38" t="s">
         <v>43</v>
       </c>
@@ -10334,14 +10549,17 @@
       <c r="O45" s="37">
         <v>782.26</v>
       </c>
-      <c r="P45" s="44">
+      <c r="P45" s="37">
         <v>797.99</v>
       </c>
-      <c r="Q45" s="44">
-        <v>790.47</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="Q45" s="37">
+        <v>791.16</v>
+      </c>
+      <c r="R45" s="37">
+        <v>775.22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="38" t="s">
         <v>44</v>
       </c>
@@ -10387,14 +10605,17 @@
       <c r="O46" s="37">
         <v>737.37</v>
       </c>
-      <c r="P46" s="44">
+      <c r="P46" s="37">
         <v>732.06</v>
       </c>
-      <c r="Q46" s="44">
-        <v>748.51</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="Q46" s="37">
+        <v>749.53</v>
+      </c>
+      <c r="R46" s="37">
+        <v>736.16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="38" t="s">
         <v>45</v>
       </c>
@@ -10440,14 +10661,17 @@
       <c r="O47" s="37">
         <v>800.75</v>
       </c>
-      <c r="P47" s="44">
+      <c r="P47" s="37">
         <v>790.72</v>
       </c>
-      <c r="Q47" s="44">
-        <v>804.79</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="Q47" s="37">
+        <v>805.85</v>
+      </c>
+      <c r="R47" s="37">
+        <v>794.38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="38" t="s">
         <v>46</v>
       </c>
@@ -10493,14 +10717,17 @@
       <c r="O48" s="37">
         <v>890.66</v>
       </c>
-      <c r="P48" s="44">
+      <c r="P48" s="37">
         <v>891.76</v>
       </c>
-      <c r="Q48" s="44">
+      <c r="Q48" s="37">
         <v>913.92</v>
       </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="R48" s="37">
+        <v>923.2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="38" t="s">
         <v>47</v>
       </c>
@@ -10546,14 +10773,17 @@
       <c r="O49" s="37">
         <v>849.47</v>
       </c>
-      <c r="P49" s="44">
+      <c r="P49" s="37">
         <v>850.81</v>
       </c>
-      <c r="Q49" s="44">
-        <v>885.28</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="Q49" s="37">
+        <v>892.74</v>
+      </c>
+      <c r="R49" s="37">
+        <v>869.08</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="38" t="s">
         <v>48</v>
       </c>
@@ -10599,14 +10829,17 @@
       <c r="O50" s="37">
         <v>797.83</v>
       </c>
-      <c r="P50" s="44">
+      <c r="P50" s="37">
         <v>789.9</v>
       </c>
-      <c r="Q50" s="44">
-        <v>817.97</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="Q50" s="37">
+        <v>819.18</v>
+      </c>
+      <c r="R50" s="37">
+        <v>815.47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="38" t="s">
         <v>49</v>
       </c>
@@ -10652,14 +10885,17 @@
       <c r="O51" s="37">
         <v>954.26</v>
       </c>
-      <c r="P51" s="44">
+      <c r="P51" s="37">
         <v>942.55</v>
       </c>
-      <c r="Q51" s="44">
-        <v>970.53</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="Q51" s="37">
+        <v>974.72</v>
+      </c>
+      <c r="R51" s="37">
+        <v>943.92</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="38" t="s">
         <v>50</v>
       </c>
@@ -10705,14 +10941,17 @@
       <c r="O52" s="37">
         <v>1063.96</v>
       </c>
-      <c r="P52" s="44">
+      <c r="P52" s="37">
         <v>1064.33</v>
       </c>
-      <c r="Q52" s="44">
-        <v>1114.04</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="Q52" s="37">
+        <v>1110.54</v>
+      </c>
+      <c r="R52" s="37">
+        <v>1073.3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="38" t="s">
         <v>51</v>
       </c>
@@ -10758,14 +10997,17 @@
       <c r="O53" s="37">
         <v>752.19</v>
       </c>
-      <c r="P53" s="44">
+      <c r="P53" s="37">
         <v>754.25</v>
       </c>
-      <c r="Q53" s="44">
-        <v>758.56</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="Q53" s="37">
+        <v>758.6</v>
+      </c>
+      <c r="R53" s="37">
+        <v>752.6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="38" t="s">
         <v>52</v>
       </c>
@@ -10811,14 +11053,17 @@
       <c r="O54" s="37">
         <v>812.52</v>
       </c>
-      <c r="P54" s="44">
+      <c r="P54" s="37">
         <v>815.85</v>
       </c>
-      <c r="Q54" s="44">
-        <v>842.3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="Q54" s="37">
+        <v>843.31</v>
+      </c>
+      <c r="R54" s="37">
+        <v>827.12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="38" t="s">
         <v>53</v>
       </c>
@@ -10864,11 +11109,14 @@
       <c r="O55" s="37">
         <v>783.42</v>
       </c>
-      <c r="P55" s="44">
+      <c r="P55" s="37">
         <v>784.14</v>
       </c>
-      <c r="Q55" s="44">
-        <v>818.74</v>
+      <c r="Q55" s="37">
+        <v>838.01</v>
+      </c>
+      <c r="R55" s="37">
+        <v>812.89</v>
       </c>
     </row>
   </sheetData>
@@ -10880,7 +11128,7 @@
   <pageSetup orientation="landscape"/>
   <headerFooter>
     <oddHeader>&amp;CBureau of Labor Statistics</oddHeader>
-    <oddFooter>&amp;LSource: Bureau of Labor Statistics&amp;RGenerated on: April 21, 2017 (10:55:46 AM)</oddFooter>
+    <oddFooter>&amp;LSource: Bureau of Labor Statistics&amp;RGenerated on: June 16, 2017 (10:24:00 AM)</oddFooter>
   </headerFooter>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -10888,21 +11136,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M56"/>
+  <dimension ref="A1:O56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6:O9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="28.3828125" customWidth="1"/>
-    <col min="3" max="3" width="33.3046875" customWidth="1"/>
-    <col min="4" max="4" width="40.3046875" customWidth="1"/>
-    <col min="7" max="7" width="10.3828125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" customWidth="1"/>
+    <col min="3" max="3" width="33.28515625" customWidth="1"/>
+    <col min="4" max="4" width="40.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>166</v>
       </c>
@@ -10911,22 +11159,22 @@
       </c>
       <c r="C1" s="49">
         <f>+Earnings_Comparison!E58</f>
-        <v>900.94</v>
+        <v>901.97</v>
       </c>
       <c r="D1" s="23">
         <f>+Earnings_Comparison!H58</f>
-        <v>0.33789333703202473</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="17.600000000000001" x14ac:dyDescent="0.4">
+        <v>0.57598407943317831</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="55" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B2" s="55"/>
       <c r="C2" s="55"/>
       <c r="D2" s="55"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>165</v>
       </c>
@@ -10940,61 +11188,64 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
-        <f>+Earnings_Comparison!B13</f>
-        <v>DC</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="C4" s="25">
-        <f>+Earnings_Comparison!E13</f>
-        <v>1460.34</v>
-      </c>
-      <c r="D4" s="24">
-        <f>+Earnings_Comparison!H13</f>
-        <v>7.2061916143748794</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A5" t="str">
-        <f>+Earnings_Comparison!B28</f>
-        <v>MN</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="C5" s="25">
-        <f>+Earnings_Comparison!E28</f>
-        <v>989.06</v>
-      </c>
-      <c r="D5" s="24">
-        <f>+Earnings_Comparison!H28</f>
-        <v>6.7556525319776073</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A6" t="str">
         <f>+Earnings_Comparison!B30</f>
         <v>MO</v>
       </c>
+      <c r="B4" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" s="25">
+        <f>+Earnings_Comparison!E30</f>
+        <v>794.29</v>
+      </c>
+      <c r="D4" s="24">
+        <f>+Earnings_Comparison!H30</f>
+        <v>3.6081567897000788</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f>+Earnings_Comparison!B55</f>
+        <v>WY</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="C5" s="25">
+        <f>+Earnings_Comparison!E55</f>
+        <v>812.89</v>
+      </c>
+      <c r="D5" s="24">
+        <f>+Earnings_Comparison!H55</f>
+        <v>3.106357764018397</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f>+Earnings_Comparison!B24</f>
+        <v>ME</v>
+      </c>
       <c r="B6" s="20" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C6" s="25">
-        <f>+Earnings_Comparison!E30</f>
-        <v>810.21</v>
+        <f>+Earnings_Comparison!E24</f>
+        <v>790.1</v>
       </c>
       <c r="D6" s="24">
-        <f>+Earnings_Comparison!H30</f>
-        <v>6.1572176738330819</v>
+        <f>+Earnings_Comparison!H24</f>
+        <v>2.7502932037129169</v>
       </c>
       <c r="M6" s="20" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="O6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>+Earnings_Comparison!B41</f>
         <v>OK</v>
@@ -11004,76 +11255,85 @@
       </c>
       <c r="C7" s="25">
         <f>+Earnings_Comparison!E41</f>
-        <v>821.03</v>
+        <v>806.41</v>
       </c>
       <c r="D7" s="24">
         <f>+Earnings_Comparison!H41</f>
-        <v>6.0693436857237382</v>
+        <v>2.6478698397107925</v>
       </c>
       <c r="K7" s="20"/>
       <c r="M7" s="20" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="O7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
-        <f>+Earnings_Comparison!B55</f>
-        <v>WY</v>
+        <f>+Earnings_Comparison!B53</f>
+        <v>WV</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C8" s="25">
-        <f>+Earnings_Comparison!E55</f>
-        <v>818.74</v>
+        <f>+Earnings_Comparison!E53</f>
+        <v>752.6</v>
       </c>
       <c r="D8" s="24">
-        <f>+Earnings_Comparison!H55</f>
-        <v>6.0647801354385411</v>
+        <f>+Earnings_Comparison!H53</f>
+        <v>2.5058420358735178</v>
       </c>
       <c r="K8" s="20"/>
       <c r="L8" s="20"/>
       <c r="M8" s="20" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="O8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
-        <f>+Earnings_Comparison!B7</f>
-        <v>AZ</v>
+        <f>+Earnings_Comparison!B32</f>
+        <v>NE</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="C9" s="25">
-        <f>+Earnings_Comparison!E7</f>
-        <v>881.23</v>
+        <f>+Earnings_Comparison!E32</f>
+        <v>814.24</v>
       </c>
       <c r="D9" s="24">
-        <f>+Earnings_Comparison!H7</f>
-        <v>5.0950552705700147</v>
+        <f>+Earnings_Comparison!H32</f>
+        <v>1.7303855439707361</v>
       </c>
       <c r="K9" s="20"/>
       <c r="L9" s="20"/>
       <c r="M9" s="20" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="O9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
-        <f>+Earnings_Comparison!B52</f>
-        <v>WA</v>
+        <f>+Earnings_Comparison!B48</f>
+        <v>TX</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C10" s="25">
-        <f>+Earnings_Comparison!E52</f>
-        <v>1114.04</v>
+        <f>+Earnings_Comparison!E48</f>
+        <v>923.2</v>
       </c>
       <c r="D10" s="24">
-        <f>+Earnings_Comparison!H52</f>
-        <v>4.8227265976875433</v>
+        <f>+Earnings_Comparison!H48</f>
+        <v>1.5144872988430702</v>
       </c>
       <c r="K10" s="20"/>
       <c r="L10" s="20"/>
@@ -11081,352 +11341,352 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
-        <f>+Earnings_Comparison!B42</f>
-        <v>OR</v>
+        <f>+Earnings_Comparison!B36</f>
+        <v>NM</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C11" s="25">
-        <f>+Earnings_Comparison!E42</f>
-        <v>893.44</v>
+        <f>+Earnings_Comparison!E36</f>
+        <v>709.05</v>
       </c>
       <c r="D11" s="24">
-        <f>+Earnings_Comparison!H42</f>
-        <v>4.7434867547869741</v>
+        <f>+Earnings_Comparison!H36</f>
+        <v>1.3883833816789704</v>
       </c>
       <c r="K11" s="20"/>
       <c r="L11" s="20"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
+        <f>+Earnings_Comparison!B44</f>
+        <v>RI</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="C12" s="25">
+        <f>+Earnings_Comparison!E44</f>
+        <v>885.72</v>
+      </c>
+      <c r="D12" s="24">
+        <f>+Earnings_Comparison!H44</f>
+        <v>1.3699264822319313</v>
+      </c>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
+        <f>+Earnings_Comparison!B28</f>
+        <v>MN</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C13" s="25">
+        <f>+Earnings_Comparison!E28</f>
+        <v>955.53</v>
+      </c>
+      <c r="D13" s="24">
+        <f>+Earnings_Comparison!H28</f>
+        <v>1.3161817408710474</v>
+      </c>
+      <c r="L13" s="20"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="str">
+        <f>+Earnings_Comparison!B34</f>
+        <v>NH</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="C14" s="25">
+        <f>+Earnings_Comparison!E34</f>
+        <v>889.2</v>
+      </c>
+      <c r="D14" s="24">
+        <f>+Earnings_Comparison!H34</f>
+        <v>1.1490524591535545</v>
+      </c>
+      <c r="F14" s="25">
+        <f>C$1-C14</f>
+        <v>12.769999999999982</v>
+      </c>
+      <c r="L14" s="20"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" t="str">
+        <f>+Earnings_Comparison!B8</f>
+        <v>AR</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" s="25">
+        <f>+Earnings_Comparison!E8</f>
+        <v>708.26</v>
+      </c>
+      <c r="D15" s="24">
+        <f>+Earnings_Comparison!H8</f>
+        <v>1.1428160010965138</v>
+      </c>
+      <c r="F15" s="25">
+        <f t="shared" ref="F15:F21" si="0">C$1-C15</f>
+        <v>193.71000000000004</v>
+      </c>
+      <c r="L15" s="20"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" t="str">
+        <f>+Earnings_Comparison!B7</f>
+        <v>AZ</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="C16" s="25">
+        <f>+Earnings_Comparison!E7</f>
+        <v>863.78</v>
+      </c>
+      <c r="D16" s="24">
+        <f>+Earnings_Comparison!H7</f>
+        <v>0.80407388856638118</v>
+      </c>
+      <c r="F16" s="25">
+        <f t="shared" si="0"/>
+        <v>38.190000000000055</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="str">
+        <f>+Earnings_Comparison!B38</f>
+        <v>NC</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="C17" s="25">
+        <f>+Earnings_Comparison!E38</f>
+        <v>830.76</v>
+      </c>
+      <c r="D17" s="24">
+        <f>+Earnings_Comparison!H38</f>
+        <v>0.79612838198972469</v>
+      </c>
+      <c r="F17" s="25">
+        <f t="shared" si="0"/>
+        <v>71.210000000000036</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="str">
+        <f>+Earnings_Comparison!B22</f>
+        <v>KY</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="C18" s="25">
+        <f>+Earnings_Comparison!E22</f>
+        <v>760.28</v>
+      </c>
+      <c r="D18" s="24">
+        <f>+Earnings_Comparison!H22</f>
+        <v>0.76802758893252943</v>
+      </c>
+      <c r="F18" s="25">
+        <f t="shared" si="0"/>
+        <v>141.69000000000005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="str">
+        <f>+Earnings_Comparison!B47</f>
+        <v>TN</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="C19" s="25">
+        <f>+Earnings_Comparison!E47</f>
+        <v>794.38</v>
+      </c>
+      <c r="D19" s="24">
+        <f>+Earnings_Comparison!H47</f>
+        <v>0.55845726089667203</v>
+      </c>
+      <c r="F19" s="25">
+        <f t="shared" si="0"/>
+        <v>107.59000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="str">
+        <f>+Earnings_Comparison!B19</f>
+        <v>IN</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="C20" s="25">
+        <f>+Earnings_Comparison!E19</f>
+        <v>834.55</v>
+      </c>
+      <c r="D20" s="24">
+        <f>+Earnings_Comparison!H19</f>
+        <v>0.55496916701844867</v>
+      </c>
+      <c r="F20" s="25">
+        <f t="shared" si="0"/>
+        <v>67.420000000000073</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="str">
+        <f>+Earnings_Comparison!B54</f>
+        <v>WI</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="C21" s="25">
+        <f>+Earnings_Comparison!E54</f>
+        <v>827.12</v>
+      </c>
+      <c r="D21" s="24">
+        <f>+Earnings_Comparison!H54</f>
+        <v>0.30613365437066609</v>
+      </c>
+      <c r="F21" s="25">
+        <f t="shared" si="0"/>
+        <v>74.850000000000023</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="str">
+        <f>+Earnings_Comparison!B12</f>
+        <v>DE</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" s="25">
+        <f>+Earnings_Comparison!E12</f>
+        <v>828.75</v>
+      </c>
+      <c r="D22" s="24">
+        <f>+Earnings_Comparison!H12</f>
+        <v>0.20298194810215442</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="str">
+        <f>+Earnings_Comparison!B45</f>
+        <v>SC</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="C23" s="25">
+        <f>+Earnings_Comparison!E45</f>
+        <v>775.22</v>
+      </c>
+      <c r="D23" s="24">
+        <f>+Earnings_Comparison!H45</f>
+        <v>-1.6678851009577222E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="str">
+        <f>+Earnings_Comparison!B6</f>
+        <v>AK</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24" s="25">
+        <f>+Earnings_Comparison!E6</f>
+        <v>983.68</v>
+      </c>
+      <c r="D24" s="24">
+        <f>+Earnings_Comparison!H6</f>
+        <v>-2.4164267194448641E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="str">
+        <f>+Earnings_Comparison!B14</f>
+        <v>FL</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" s="25">
+        <f>+Earnings_Comparison!E14</f>
+        <v>813.96</v>
+      </c>
+      <c r="D25" s="24">
+        <f>+Earnings_Comparison!H14</f>
+        <v>-0.15494487652164546</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="str">
         <f>+Earnings_Comparison!B9</f>
         <v>CA</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B26" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="C12" s="25">
+      <c r="C26" s="25">
         <f>+Earnings_Comparison!E9</f>
-        <v>1047.3499999999999</v>
-      </c>
-      <c r="D12" s="24">
+        <v>1024.31</v>
+      </c>
+      <c r="D26" s="24">
         <f>+Earnings_Comparison!H9</f>
-        <v>4.577520793771761</v>
-      </c>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A13" t="str">
-        <f>+Earnings_Comparison!B32</f>
-        <v>NE</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="C13" s="25">
-        <f>+Earnings_Comparison!E32</f>
-        <v>833.17</v>
-      </c>
-      <c r="D13" s="24">
-        <f>+Earnings_Comparison!H32</f>
-        <v>4.5229636728373324</v>
-      </c>
-      <c r="L13" s="20"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A14" t="str">
-        <f>+Earnings_Comparison!B14</f>
-        <v>FL</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="C14" s="25">
-        <f>+Earnings_Comparison!E14</f>
-        <v>839.05</v>
-      </c>
-      <c r="D14" s="24">
-        <f>+Earnings_Comparison!H14</f>
-        <v>4.1007734202464174</v>
-      </c>
-      <c r="F14" s="25">
-        <f>C$1-C14</f>
-        <v>61.8900000000001</v>
-      </c>
-      <c r="L14" s="20"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A15" t="str">
-        <f>+Earnings_Comparison!B47</f>
-        <v>TN</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="C15" s="25">
-        <f>+Earnings_Comparison!E47</f>
-        <v>804.79</v>
-      </c>
-      <c r="D15" s="24">
-        <f>+Earnings_Comparison!H47</f>
-        <v>4.0936077942461013</v>
-      </c>
-      <c r="F15" s="25">
-        <f t="shared" ref="F15:F21" si="0">C$1-C15</f>
-        <v>96.150000000000091</v>
-      </c>
-      <c r="L15" s="20"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A16" t="str">
-        <f>+Earnings_Comparison!B34</f>
-        <v>NH</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="C16" s="25">
-        <f>+Earnings_Comparison!E34</f>
-        <v>915.63</v>
-      </c>
-      <c r="D16" s="24">
-        <f>+Earnings_Comparison!H34</f>
-        <v>4.0765869922366305</v>
-      </c>
-      <c r="F16" s="25">
-        <f t="shared" si="0"/>
-        <v>-14.689999999999941</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A17" t="str">
-        <f>+Earnings_Comparison!B19</f>
-        <v>IN</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="C17" s="25">
-        <f>+Earnings_Comparison!E19</f>
-        <v>857.49</v>
-      </c>
-      <c r="D17" s="24">
-        <f>+Earnings_Comparison!H19</f>
-        <v>3.7086210854226254</v>
-      </c>
-      <c r="F17" s="25">
-        <f t="shared" si="0"/>
-        <v>43.450000000000045</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A18" t="str">
-        <f>+Earnings_Comparison!B8</f>
-        <v>AR</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="C18" s="25">
-        <f>+Earnings_Comparison!E8</f>
-        <v>717.89</v>
-      </c>
-      <c r="D18" s="24">
-        <f>+Earnings_Comparison!H8</f>
-        <v>3.6564841863573339</v>
-      </c>
-      <c r="F18" s="25">
-        <f t="shared" si="0"/>
-        <v>183.05000000000007</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A19" t="str">
-        <f>+Earnings_Comparison!B16</f>
-        <v>HI</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="C19" s="25">
-        <f>+Earnings_Comparison!E16</f>
-        <v>876.77</v>
-      </c>
-      <c r="D19" s="24">
-        <f>+Earnings_Comparison!H16</f>
-        <v>3.6560443016670607</v>
-      </c>
-      <c r="F19" s="25">
-        <f t="shared" si="0"/>
-        <v>24.170000000000073</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A20" t="str">
-        <f>+Earnings_Comparison!B12</f>
-        <v>DE</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="C20" s="25">
-        <f>+Earnings_Comparison!E12</f>
-        <v>858.66</v>
-      </c>
-      <c r="D20" s="24">
-        <f>+Earnings_Comparison!H12</f>
-        <v>3.631086998459998</v>
-      </c>
-      <c r="F20" s="25">
-        <f t="shared" si="0"/>
-        <v>42.280000000000086</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A21" t="str">
-        <f>+Earnings_Comparison!B38</f>
-        <v>NC</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="C21" s="25">
-        <f>+Earnings_Comparison!E38</f>
-        <v>843.21</v>
-      </c>
-      <c r="D21" s="24">
-        <f>+Earnings_Comparison!H38</f>
-        <v>3.503972003094491</v>
-      </c>
-      <c r="F21" s="25">
-        <f t="shared" si="0"/>
-        <v>57.730000000000018</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A22" t="str">
-        <f>+Earnings_Comparison!B26</f>
-        <v>MA</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="C22" s="25">
-        <f>+Earnings_Comparison!E26</f>
-        <v>1093.57</v>
-      </c>
-      <c r="D22" s="24">
-        <f>+Earnings_Comparison!H26</f>
-        <v>3.4217644158938354</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A23" t="str">
-        <f>+Earnings_Comparison!B15</f>
-        <v>GA</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="C23" s="25">
-        <f>+Earnings_Comparison!E15</f>
-        <v>889.49</v>
-      </c>
-      <c r="D23" s="24">
-        <f>+Earnings_Comparison!H15</f>
-        <v>3.3038310262055948</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A24" t="str">
-        <f>+Earnings_Comparison!B49</f>
-        <v>UT</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="C24" s="25">
-        <f>+Earnings_Comparison!E49</f>
-        <v>885.28</v>
-      </c>
-      <c r="D24" s="24">
-        <f>+Earnings_Comparison!H49</f>
-        <v>3.0742536800620002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A25" t="str">
-        <f>+Earnings_Comparison!B11</f>
-        <v>CT</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="C25" s="25">
-        <f>+Earnings_Comparison!E11</f>
-        <v>1073.01</v>
-      </c>
-      <c r="D25" s="24">
-        <f>+Earnings_Comparison!H11</f>
-        <v>2.9964706927592788</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A26" t="str">
-        <f>+Earnings_Comparison!B24</f>
-        <v>ME</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="C26" s="25">
-        <f>+Earnings_Comparison!E24</f>
-        <v>792.2</v>
-      </c>
-      <c r="D26" s="24">
-        <f>+Earnings_Comparison!H24</f>
-        <v>2.9332487709414101</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+        <v>-0.41609298673916939</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
-        <f>+Earnings_Comparison!B54</f>
-        <v>WI</v>
+        <f>+Earnings_Comparison!B43</f>
+        <v>PA</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="C27" s="25">
-        <f>+Earnings_Comparison!E54</f>
+        <f>+Earnings_Comparison!E43</f>
         <v>842.3</v>
       </c>
       <c r="D27" s="24">
-        <f>+Earnings_Comparison!H54</f>
-        <v>2.8580626215183758</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+        <f>+Earnings_Comparison!H43</f>
+        <v>-0.45168401575316208</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
-        <f>+Earnings_Comparison!B48</f>
-        <v>TX</v>
+        <f>+Earnings_Comparison!B31</f>
+        <v>MT</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="C28" s="25">
-        <f>+Earnings_Comparison!E48</f>
-        <v>913.92</v>
+        <f>+Earnings_Comparison!E31</f>
+        <v>750.47</v>
       </c>
       <c r="D28" s="24">
-        <f>+Earnings_Comparison!H48</f>
-        <v>2.7801862979744518</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+        <f>+Earnings_Comparison!H31</f>
+        <v>-0.52145074909980549</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f>+Earnings_Comparison!B37</f>
         <v>NY</v>
@@ -11436,363 +11696,373 @@
       </c>
       <c r="C29" s="25">
         <f>+Earnings_Comparison!E37</f>
-        <v>1016.39</v>
+        <v>994.01</v>
       </c>
       <c r="D29" s="36">
         <f>+Earnings_Comparison!H37</f>
-        <v>2.5948853903039026</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+        <v>-0.58519872818123542</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
-        <f>+Earnings_Comparison!B31</f>
-        <v>MT</v>
+        <f>+Earnings_Comparison!B39</f>
+        <v>ND</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="C30" s="25">
-        <f>+Earnings_Comparison!E31</f>
-        <v>758.35</v>
+        <f>+Earnings_Comparison!E39</f>
+        <v>916.04</v>
       </c>
       <c r="D30" s="24">
-        <f>+Earnings_Comparison!H31</f>
-        <v>2.3783015721515088</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+        <f>+Earnings_Comparison!H39</f>
+        <v>-0.63854232526744381</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
-        <f>+Earnings_Comparison!B36</f>
-        <v>NM</v>
+        <f>+Earnings_Comparison!B40</f>
+        <v>OH</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C31" s="25">
-        <f>+Earnings_Comparison!E36</f>
-        <v>715.21</v>
-      </c>
-      <c r="D31" s="24">
-        <f>+Earnings_Comparison!H36</f>
-        <v>2.1018388384042908</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+        <f>+Earnings_Comparison!E40</f>
+        <v>814.97</v>
+      </c>
+      <c r="D31" s="36">
+        <f>+Earnings_Comparison!H40</f>
+        <v>-0.66167734483771889</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
-        <f>+Earnings_Comparison!B45</f>
-        <v>SC</v>
+        <f>+Earnings_Comparison!B49</f>
+        <v>UT</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C32" s="25">
-        <f>+Earnings_Comparison!E45</f>
-        <v>790.47</v>
+        <f>+Earnings_Comparison!E49</f>
+        <v>869.08</v>
       </c>
       <c r="D32" s="24">
-        <f>+Earnings_Comparison!H45</f>
-        <v>1.9342047447652888</v>
+        <f>+Earnings_Comparison!H49</f>
+        <v>-0.91574775849554424</v>
       </c>
       <c r="E32">
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
+        <f>+Earnings_Comparison!B26</f>
+        <v>MA</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="C33" s="25">
+        <f>+Earnings_Comparison!E26</f>
+        <v>1055.28</v>
+      </c>
+      <c r="D33" s="24">
+        <f>+Earnings_Comparison!H26</f>
+        <v>-1.1018796984118673</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="str">
+        <f>+Earnings_Comparison!B15</f>
+        <v>GA</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="C34" s="25">
+        <f>+Earnings_Comparison!E15</f>
+        <v>871.47</v>
+      </c>
+      <c r="D34" s="24">
+        <f>+Earnings_Comparison!H15</f>
+        <v>-1.1313074582754545</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="str">
+        <f>+Earnings_Comparison!B21</f>
+        <v>KS</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="C35" s="25">
+        <f>+Earnings_Comparison!E21</f>
+        <v>771.51</v>
+      </c>
+      <c r="D35" s="24">
+        <f>+Earnings_Comparison!H21</f>
+        <v>-1.1446143433823774</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="str">
+        <f>+Earnings_Comparison!B5</f>
+        <v>AL</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C36" s="25">
+        <f>+Earnings_Comparison!E5</f>
+        <v>790.24</v>
+      </c>
+      <c r="D36" s="24">
+        <f>+Earnings_Comparison!H5</f>
+        <v>-1.337220770601244</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="str">
+        <f>+Earnings_Comparison!B52</f>
+        <v>WA</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="C37" s="25">
+        <f>+Earnings_Comparison!E52</f>
+        <v>1073.3</v>
+      </c>
+      <c r="D37" s="24">
+        <f>+Earnings_Comparison!H52</f>
+        <v>-1.3827994581944725</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="str">
+        <f>+Earnings_Comparison!B29</f>
+        <v>MS</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C38" s="25">
+        <f>+Earnings_Comparison!E29</f>
+        <v>700.95</v>
+      </c>
+      <c r="D38" s="24">
+        <f>+Earnings_Comparison!H29</f>
+        <v>-1.4382234939017247</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="str">
+        <f>+Earnings_Comparison!B46</f>
+        <v>SD</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="C39" s="25">
+        <f>+Earnings_Comparison!E46</f>
+        <v>736.16</v>
+      </c>
+      <c r="D39" s="24">
+        <f>+Earnings_Comparison!H46</f>
+        <v>-1.5729663444067454</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="str">
+        <f>+Earnings_Comparison!B33</f>
+        <v>NV</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="C40" s="25">
+        <f>+Earnings_Comparison!E33</f>
+        <v>760.61</v>
+      </c>
+      <c r="D40" s="24">
+        <f>+Earnings_Comparison!H33</f>
+        <v>-1.5971506210631814</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="str">
+        <f>+Earnings_Comparison!B23</f>
+        <v>LA</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="C41" s="25">
+        <f>+Earnings_Comparison!E23</f>
+        <v>803.93</v>
+      </c>
+      <c r="D41" s="24">
+        <f>+Earnings_Comparison!H23</f>
+        <v>-1.7719494729972918</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="str">
         <f>+Earnings_Comparison!B25</f>
         <v>MD</v>
       </c>
-      <c r="B33" s="20" t="s">
+      <c r="B42" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="C33" s="25">
+      <c r="C42" s="25">
         <f>+Earnings_Comparison!E25</f>
-        <v>967.43</v>
-      </c>
-      <c r="D33" s="36">
+        <v>939.47</v>
+      </c>
+      <c r="D42" s="36">
         <f>+Earnings_Comparison!H25</f>
-        <v>1.8722968020006281</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A34" t="str">
-        <f>+Earnings_Comparison!B44</f>
-        <v>RI</v>
-      </c>
-      <c r="B34" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="C34" s="25">
-        <f>+Earnings_Comparison!E44</f>
-        <v>881.39</v>
-      </c>
-      <c r="D34" s="24">
-        <f>+Earnings_Comparison!H44</f>
-        <v>1.5148545372227984</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A35" t="str">
-        <f>+Earnings_Comparison!B35</f>
-        <v>NJ</v>
-      </c>
-      <c r="B35" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="C35" s="25">
-        <f>+Earnings_Comparison!E35</f>
-        <v>983.84</v>
-      </c>
-      <c r="D35" s="24">
-        <f>+Earnings_Comparison!H35</f>
-        <v>1.4644612820032599</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A36" t="str">
-        <f>+Earnings_Comparison!B53</f>
-        <v>WV</v>
-      </c>
-      <c r="B36" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="C36" s="25">
-        <f>+Earnings_Comparison!E53</f>
-        <v>758.56</v>
-      </c>
-      <c r="D36" s="24">
-        <f>+Earnings_Comparison!H53</f>
-        <v>1.3716620058143558</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A37" t="str">
-        <f>+Earnings_Comparison!B21</f>
-        <v>KS</v>
-      </c>
-      <c r="B37" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="C37" s="25">
-        <f>+Earnings_Comparison!E21</f>
-        <v>795.15</v>
-      </c>
-      <c r="D37" s="24">
-        <f>+Earnings_Comparison!H21</f>
-        <v>1.368758096492706</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A38" t="str">
-        <f>+Earnings_Comparison!B43</f>
-        <v>PA</v>
-      </c>
-      <c r="B38" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="C38" s="25">
-        <f>+Earnings_Comparison!E43</f>
-        <v>854.62</v>
-      </c>
-      <c r="D38" s="24">
-        <f>+Earnings_Comparison!H43</f>
-        <v>1.2808852985967345</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A39" t="str">
+        <v>-1.8403729778983635</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="str">
+        <f>+Earnings_Comparison!B27</f>
+        <v>MI</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="C43" s="25">
+        <f>+Earnings_Comparison!E27</f>
+        <v>822.83</v>
+      </c>
+      <c r="D43" s="24">
+        <f>+Earnings_Comparison!H27</f>
+        <v>-1.966663143628522</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="str">
+        <f>+Earnings_Comparison!B42</f>
+        <v>OR</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C44" s="25">
+        <f>+Earnings_Comparison!E42</f>
+        <v>854.28</v>
+      </c>
+      <c r="D44" s="24">
+        <f>+Earnings_Comparison!H42</f>
+        <v>-2.0032649615040587</v>
+      </c>
+      <c r="H44" s="20"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="str">
+        <f>+Earnings_Comparison!B11</f>
+        <v>CT</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="C45" s="25">
+        <f>+Earnings_Comparison!E11</f>
+        <v>1038.9100000000001</v>
+      </c>
+      <c r="D45" s="24">
+        <f>+Earnings_Comparison!H11</f>
+        <v>-2.3320454062370821</v>
+      </c>
+      <c r="H45" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="str">
+        <f>+Earnings_Comparison!B50</f>
+        <v>VT</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="C46" s="25">
+        <f>+Earnings_Comparison!E50</f>
+        <v>815.47</v>
+      </c>
+      <c r="D46" s="24">
+        <f>+Earnings_Comparison!H50</f>
+        <v>-2.9413242704030118</v>
+      </c>
+      <c r="H46" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="str">
         <f>+Earnings_Comparison!B51</f>
         <v>VA</v>
       </c>
-      <c r="B39" s="20" t="s">
+      <c r="B47" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="C39" s="25">
+      <c r="C47" s="25">
         <f>+Earnings_Comparison!E51</f>
-        <v>970.53</v>
-      </c>
-      <c r="D39" s="24">
+        <v>943.92</v>
+      </c>
+      <c r="D47" s="24">
         <f>+Earnings_Comparison!H51</f>
-        <v>1.1914036208238166</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A40" t="str">
-        <f>+Earnings_Comparison!B5</f>
-        <v>AL</v>
-      </c>
-      <c r="B40" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="C40" s="25">
-        <f>+Earnings_Comparison!E5</f>
-        <v>803.08</v>
-      </c>
-      <c r="D40" s="24">
-        <f>+Earnings_Comparison!H5</f>
-        <v>1.1123911808991638</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A41" t="str">
-        <f>+Earnings_Comparison!B6</f>
-        <v>AK</v>
-      </c>
-      <c r="B41" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="C41" s="25">
-        <f>+Earnings_Comparison!E6</f>
-        <v>990.85</v>
-      </c>
-      <c r="D41" s="24">
-        <f>+Earnings_Comparison!H6</f>
-        <v>1.0004469042502961</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A42" t="str">
-        <f>+Earnings_Comparison!B40</f>
-        <v>OH</v>
-      </c>
-      <c r="B42" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="C42" s="25">
-        <f>+Earnings_Comparison!E40</f>
-        <v>825.6</v>
-      </c>
-      <c r="D42" s="36">
-        <f>+Earnings_Comparison!H40</f>
-        <v>0.9863539736035154</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A43" t="str">
-        <f>+Earnings_Comparison!B46</f>
-        <v>SD</v>
-      </c>
-      <c r="B43" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="C43" s="25">
-        <f>+Earnings_Comparison!E46</f>
-        <v>748.51</v>
-      </c>
-      <c r="D43" s="24">
-        <f>+Earnings_Comparison!H46</f>
-        <v>0.90927014456652078</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A44" t="str">
-        <f>+Earnings_Comparison!B33</f>
-        <v>NV</v>
-      </c>
-      <c r="B44" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="C44" s="25">
-        <f>+Earnings_Comparison!E33</f>
-        <v>768.13</v>
-      </c>
-      <c r="D44" s="24">
-        <f>+Earnings_Comparison!H33</f>
-        <v>0.67067501939599428</v>
-      </c>
-      <c r="H44" s="20"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A45" t="str">
-        <f>+Earnings_Comparison!B39</f>
-        <v>ND</v>
-      </c>
-      <c r="B45" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="C45" s="25">
-        <f>+Earnings_Comparison!E39</f>
-        <v>910.35</v>
-      </c>
-      <c r="D45" s="24">
-        <f>+Earnings_Comparison!H39</f>
-        <v>0.63903825775333267</v>
-      </c>
-      <c r="H45" s="20"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A46" t="str">
-        <f>+Earnings_Comparison!B29</f>
-        <v>MS</v>
-      </c>
-      <c r="B46" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="C46" s="25">
-        <f>+Earnings_Comparison!E29</f>
-        <v>703.76</v>
-      </c>
-      <c r="D46" s="24">
-        <f>+Earnings_Comparison!H29</f>
-        <v>0.63169958361155576</v>
-      </c>
-      <c r="H46" s="20"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A47" t="str">
-        <f>+Earnings_Comparison!B23</f>
-        <v>LA</v>
-      </c>
-      <c r="B47" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="C47" s="25">
-        <f>+Earnings_Comparison!E23</f>
-        <v>810.47</v>
-      </c>
-      <c r="D47" s="24">
-        <f>+Earnings_Comparison!H23</f>
-        <v>0.56761014133679399</v>
-      </c>
-      <c r="H47" s="20"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
+        <v>-2.9507759985103799</v>
+      </c>
+      <c r="H47" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
-        <f>+Earnings_Comparison!B22</f>
-        <v>KY</v>
+        <f>+Earnings_Comparison!B16</f>
+        <v>HI</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C48" s="25">
-        <f>+Earnings_Comparison!E22</f>
-        <v>766.06</v>
+        <f>+Earnings_Comparison!E16</f>
+        <v>841.1</v>
       </c>
       <c r="D48" s="24">
-        <f>+Earnings_Comparison!H22</f>
-        <v>0.40072680329839017</v>
-      </c>
-      <c r="H48" s="20"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
+        <f>+Earnings_Comparison!H16</f>
+        <v>-3.0688664784802255</v>
+      </c>
+      <c r="H48" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
-        <f>+Earnings_Comparison!B10</f>
-        <v>CO</v>
+        <f>+Earnings_Comparison!B17</f>
+        <v>ID</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="C49" s="36">
-        <f>+Earnings_Comparison!E10</f>
-        <v>931.39</v>
+        <v>125</v>
+      </c>
+      <c r="C49" s="25">
+        <f>+Earnings_Comparison!E17</f>
+        <v>745.59</v>
       </c>
       <c r="D49" s="24">
-        <f>+Earnings_Comparison!H10</f>
-        <v>0.11020873947418242</v>
-      </c>
-      <c r="H49" s="20"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
+        <f>+Earnings_Comparison!H17</f>
+        <v>-3.1484578892507664</v>
+      </c>
+      <c r="H49" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
         <f>+Earnings_Comparison!B18</f>
         <v>IL</v>
@@ -11800,95 +12070,99 @@
       <c r="B50" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="C50" s="36">
+      <c r="C50" s="25">
         <f>+Earnings_Comparison!E18</f>
-        <v>919.3</v>
+        <v>902.7</v>
       </c>
       <c r="D50" s="24">
         <f>+Earnings_Comparison!H18</f>
-        <v>1.5954806707840774E-2</v>
-      </c>
-      <c r="H50" s="20"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
+        <v>-3.209613299342251</v>
+      </c>
+      <c r="H50" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
-        <f>+Earnings_Comparison!B17</f>
-        <v>ID</v>
+        <f>+Earnings_Comparison!B13</f>
+        <v>DC</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C51" s="25">
-        <f>+Earnings_Comparison!E17</f>
-        <v>757.91</v>
+        <f>+Earnings_Comparison!E13</f>
+        <v>1391.01</v>
       </c>
       <c r="D51" s="24">
-        <f>+Earnings_Comparison!H17</f>
-        <v>-0.44205691006204972</v>
-      </c>
-      <c r="H51" s="20"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
+        <f>+Earnings_Comparison!H13</f>
+        <v>-3.2968194679639629</v>
+      </c>
+      <c r="H51" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
-        <f>+Earnings_Comparison!B27</f>
-        <v>MI</v>
-      </c>
-      <c r="B52" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="C52" s="25">
-        <f>+Earnings_Comparison!E27</f>
-        <v>827.34</v>
-      </c>
-      <c r="D52" s="24">
-        <f>+Earnings_Comparison!H27</f>
-        <v>-1.5370556972318594</v>
-      </c>
-      <c r="H52" s="20"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A53" t="str">
-        <f>+Earnings_Comparison!B50</f>
-        <v>VT</v>
-      </c>
-      <c r="B53" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="C53" s="25">
-        <f>+Earnings_Comparison!E50</f>
-        <v>817.97</v>
-      </c>
-      <c r="D53" s="24">
-        <f>+Earnings_Comparison!H50</f>
-        <v>-1.7378991433968038</v>
-      </c>
-      <c r="H53" s="20"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A54" t="str">
         <f>+Earnings_Comparison!B20</f>
         <v>IA</v>
       </c>
+      <c r="B52" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C52" s="25">
+        <f>+Earnings_Comparison!E20</f>
+        <v>793.44</v>
+      </c>
+      <c r="D52" s="24">
+        <f>+Earnings_Comparison!H20</f>
+        <v>-3.6807142413847083</v>
+      </c>
+      <c r="H52" s="20"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" t="str">
+        <f>+Earnings_Comparison!B10</f>
+        <v>CO</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C53" s="25">
+        <f>+Earnings_Comparison!E10</f>
+        <v>898.92</v>
+      </c>
+      <c r="D53" s="24">
+        <f>+Earnings_Comparison!H10</f>
+        <v>-4.6914032871673399</v>
+      </c>
+      <c r="H53" s="20"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" t="str">
+        <f>+Earnings_Comparison!B35</f>
+        <v>NJ</v>
+      </c>
       <c r="B54" s="20" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="C54" s="25">
-        <f>+Earnings_Comparison!E20</f>
-        <v>809.64</v>
+        <f>+Earnings_Comparison!E35</f>
+        <v>820.98</v>
       </c>
       <c r="D54" s="24">
-        <f>+Earnings_Comparison!H20</f>
-        <v>-1.7433670814102742</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
+        <f>+Earnings_Comparison!H35</f>
+        <v>-16.158169549298773</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C56">
-        <f>COUNTIF(C4:C54, "&lt;896")</f>
-        <v>35</v>
+        <f>COUNTIF(C4:C54, "&lt;902")</f>
+        <v>38</v>
       </c>
       <c r="D56">
         <f>COUNTIF(D4:D54, "&lt;0")</f>
-        <v>4</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -11897,8 +12171,8 @@
       <sortCondition descending="1" ref="D3:D54"/>
     </sortState>
   </autoFilter>
-  <sortState ref="M6:M10">
-    <sortCondition ref="M6"/>
+  <sortState ref="O6:O9">
+    <sortCondition ref="O6"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A2:D2"/>

--- a/static/data/source/current_earnings.xlsx
+++ b/static/data/source/current_earnings.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\RAuxier\Box Sync\TPC\CENTER\SLFI\SEM\Online SEM\Earnings\2017\May 2017\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\RAuxier\Box Sync\TPC\CENTER\SLFI\SEM\Online SEM\Earnings\2017\June 2017\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="1110" windowWidth="20775" windowHeight="11415" activeTab="3"/>
+    <workbookView xWindow="390" yWindow="1110" windowWidth="20775" windowHeight="11415" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Earnings Table" sheetId="2" r:id="rId1"/>
     <sheet name="Earnings_Comparison" sheetId="1" r:id="rId2"/>
-    <sheet name="May 2017_BLS Data Series" sheetId="26" r:id="rId3"/>
+    <sheet name="June 2017_BLS Data Series" sheetId="27" r:id="rId3"/>
     <sheet name="SCRATCH" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
@@ -805,7 +805,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="R5" authorId="0" shapeId="0">
+    <comment ref="S5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -820,7 +820,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R6" authorId="0" shapeId="0">
+    <comment ref="S6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -835,7 +835,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R7" authorId="0" shapeId="0">
+    <comment ref="S7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -850,7 +850,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R8" authorId="0" shapeId="0">
+    <comment ref="S8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -865,7 +865,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R9" authorId="0" shapeId="0">
+    <comment ref="S9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -880,7 +880,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R10" authorId="0" shapeId="0">
+    <comment ref="S10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -895,7 +895,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R11" authorId="0" shapeId="0">
+    <comment ref="S11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -910,7 +910,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R12" authorId="0" shapeId="0">
+    <comment ref="S12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -925,7 +925,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R13" authorId="0" shapeId="0">
+    <comment ref="S13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -940,7 +940,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R14" authorId="0" shapeId="0">
+    <comment ref="S14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -955,7 +955,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R15" authorId="0" shapeId="0">
+    <comment ref="S15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -970,7 +970,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R16" authorId="0" shapeId="0">
+    <comment ref="S16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -985,7 +985,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R17" authorId="0" shapeId="0">
+    <comment ref="S17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1000,7 +1000,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R18" authorId="0" shapeId="0">
+    <comment ref="S18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1015,7 +1015,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R19" authorId="0" shapeId="0">
+    <comment ref="S19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1030,7 +1030,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R20" authorId="0" shapeId="0">
+    <comment ref="S20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1045,7 +1045,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R21" authorId="0" shapeId="0">
+    <comment ref="S21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1060,7 +1060,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R22" authorId="0" shapeId="0">
+    <comment ref="S22" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1075,7 +1075,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R23" authorId="0" shapeId="0">
+    <comment ref="S23" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1090,7 +1090,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R24" authorId="0" shapeId="0">
+    <comment ref="S24" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1105,7 +1105,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R25" authorId="0" shapeId="0">
+    <comment ref="S25" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1120,7 +1120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R26" authorId="0" shapeId="0">
+    <comment ref="S26" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1135,7 +1135,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R27" authorId="0" shapeId="0">
+    <comment ref="S27" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1150,7 +1150,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R28" authorId="0" shapeId="0">
+    <comment ref="S28" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1165,7 +1165,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R29" authorId="0" shapeId="0">
+    <comment ref="S29" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1180,7 +1180,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R30" authorId="0" shapeId="0">
+    <comment ref="S30" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1195,7 +1195,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R31" authorId="0" shapeId="0">
+    <comment ref="S31" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1210,7 +1210,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R32" authorId="0" shapeId="0">
+    <comment ref="S32" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1225,7 +1225,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R33" authorId="0" shapeId="0">
+    <comment ref="S33" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1240,7 +1240,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R34" authorId="0" shapeId="0">
+    <comment ref="S34" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1255,7 +1255,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R35" authorId="0" shapeId="0">
+    <comment ref="S35" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1270,7 +1270,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R36" authorId="0" shapeId="0">
+    <comment ref="S36" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1285,7 +1285,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R37" authorId="0" shapeId="0">
+    <comment ref="S37" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1300,7 +1300,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R38" authorId="0" shapeId="0">
+    <comment ref="S38" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1315,7 +1315,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R39" authorId="0" shapeId="0">
+    <comment ref="S39" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1330,7 +1330,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R40" authorId="0" shapeId="0">
+    <comment ref="S40" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1345,7 +1345,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R41" authorId="0" shapeId="0">
+    <comment ref="S41" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1360,7 +1360,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R42" authorId="0" shapeId="0">
+    <comment ref="S42" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1375,7 +1375,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R43" authorId="0" shapeId="0">
+    <comment ref="S43" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1390,7 +1390,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R44" authorId="0" shapeId="0">
+    <comment ref="S44" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1405,7 +1405,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R45" authorId="0" shapeId="0">
+    <comment ref="S45" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1420,7 +1420,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R46" authorId="0" shapeId="0">
+    <comment ref="S46" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1435,7 +1435,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R47" authorId="0" shapeId="0">
+    <comment ref="S47" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1450,7 +1450,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R48" authorId="0" shapeId="0">
+    <comment ref="S48" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1465,7 +1465,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R49" authorId="0" shapeId="0">
+    <comment ref="S49" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1480,7 +1480,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R50" authorId="0" shapeId="0">
+    <comment ref="S50" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1495,7 +1495,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R51" authorId="0" shapeId="0">
+    <comment ref="S51" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1510,7 +1510,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R52" authorId="0" shapeId="0">
+    <comment ref="S52" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1525,7 +1525,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R53" authorId="0" shapeId="0">
+    <comment ref="S53" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1540,7 +1540,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R54" authorId="0" shapeId="0">
+    <comment ref="S54" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1555,7 +1555,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R55" authorId="0" shapeId="0">
+    <comment ref="S55" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1575,7 +1575,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="197">
   <si>
     <t>State and Area Employment, Hours, and Earnings</t>
   </si>
@@ -2186,10 +2186,10 @@
     <t>Average Weekly Wages April 2017</t>
   </si>
   <si>
-    <t>May 2016 adj for inflation</t>
-  </si>
-  <si>
-    <t>Average Weekly Earnings May 2017</t>
+    <t>June 2016 adj for inflation</t>
+  </si>
+  <si>
+    <t>Average Weekly Earnings June 2017</t>
   </si>
 </sst>
 </file>
@@ -3855,7 +3855,7 @@
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3909,9 +3909,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="315" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="1" xfId="315" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="174" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -3931,7 +3928,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="17" fontId="4" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="315"/>
     <xf numFmtId="164" fontId="78" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -3946,6 +3942,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="77" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="315"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="32" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -5173,7 +5170,7 @@
   <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5185,12 +5182,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="49" t="s">
         <v>196</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
@@ -5215,11 +5212,11 @@
       </c>
       <c r="C3" s="30">
         <f>+Earnings_Comparison!E58</f>
-        <v>901.97</v>
+        <v>905.63</v>
       </c>
       <c r="D3" s="29">
         <f>+Earnings_Comparison!H58</f>
-        <v>0.57598407943317831</v>
+        <v>1.105647928819109</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -5232,11 +5229,11 @@
       </c>
       <c r="C4" s="30">
         <f>+Earnings_Comparison!E5</f>
-        <v>790.24</v>
+        <v>785.62</v>
       </c>
       <c r="D4" s="29">
         <f>+Earnings_Comparison!H5</f>
-        <v>-1.337220770601244</v>
+        <v>-0.67673420289339203</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -5249,11 +5246,11 @@
       </c>
       <c r="C5" s="30">
         <f>+Earnings_Comparison!E6</f>
-        <v>983.68</v>
+        <v>981.58</v>
       </c>
       <c r="D5" s="29">
         <f>+Earnings_Comparison!H6</f>
-        <v>-2.4164267194448641E-2</v>
+        <v>0.48000007094550767</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -5266,11 +5263,11 @@
       </c>
       <c r="C6" s="30">
         <f>+Earnings_Comparison!E7</f>
-        <v>863.78</v>
+        <v>863.08</v>
       </c>
       <c r="D6" s="29">
         <f>+Earnings_Comparison!H7</f>
-        <v>0.80407388856638118</v>
+        <v>3.8545518411986057</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -5283,11 +5280,11 @@
       </c>
       <c r="C7" s="30">
         <f>+Earnings_Comparison!E8</f>
-        <v>708.26</v>
+        <v>714.35</v>
       </c>
       <c r="D7" s="29">
         <f>+Earnings_Comparison!H8</f>
-        <v>1.1428160010965138</v>
+        <v>2.5711381322665261</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -5300,11 +5297,11 @@
       </c>
       <c r="C8" s="30">
         <f>+Earnings_Comparison!E9</f>
-        <v>1024.31</v>
+        <v>1021.34</v>
       </c>
       <c r="D8" s="29">
         <f>+Earnings_Comparison!H9</f>
-        <v>-0.41609298673916939</v>
+        <v>2.4764109612882113</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -5317,11 +5314,11 @@
       </c>
       <c r="C9" s="30">
         <f>+Earnings_Comparison!E10</f>
-        <v>898.92</v>
+        <v>914.85</v>
       </c>
       <c r="D9" s="29">
         <f>+Earnings_Comparison!H10</f>
-        <v>-4.6914032871673399</v>
+        <v>-0.33369282099028341</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -5334,11 +5331,11 @@
       </c>
       <c r="C10" s="30">
         <f>+Earnings_Comparison!E11</f>
-        <v>1038.9100000000001</v>
+        <v>1030.51</v>
       </c>
       <c r="D10" s="29">
         <f>+Earnings_Comparison!H11</f>
-        <v>-2.3320454062370821</v>
+        <v>0.45646591779280321</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -5351,11 +5348,11 @@
       </c>
       <c r="C11" s="30">
         <f>+Earnings_Comparison!E12</f>
-        <v>828.75</v>
+        <v>820.33</v>
       </c>
       <c r="D11" s="29">
         <f>+Earnings_Comparison!H12</f>
-        <v>0.20298194810215442</v>
+        <v>1.7093900397560313</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -5368,11 +5365,11 @@
       </c>
       <c r="C12" s="30">
         <f>+Earnings_Comparison!E13</f>
-        <v>1391.01</v>
+        <v>1389.26</v>
       </c>
       <c r="D12" s="29">
         <f>+Earnings_Comparison!H13</f>
-        <v>-3.2968194679639629</v>
+        <v>1.4450403859940675</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -5385,11 +5382,11 @@
       </c>
       <c r="C13" s="30">
         <f>+Earnings_Comparison!E14</f>
-        <v>813.96</v>
+        <v>807.49</v>
       </c>
       <c r="D13" s="29">
         <f>+Earnings_Comparison!H14</f>
-        <v>-0.15494487652164546</v>
+        <v>0.89038048517495749</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -5402,11 +5399,11 @@
       </c>
       <c r="C14" s="30">
         <f>+Earnings_Comparison!E15</f>
-        <v>871.47</v>
+        <v>874.87</v>
       </c>
       <c r="D14" s="29">
         <f>+Earnings_Comparison!H15</f>
-        <v>-1.1313074582754545</v>
+        <v>2.0060662729118439</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -5419,11 +5416,11 @@
       </c>
       <c r="C15" s="30">
         <f>+Earnings_Comparison!E16</f>
-        <v>841.1</v>
+        <v>847.26</v>
       </c>
       <c r="D15" s="29">
         <f>+Earnings_Comparison!H16</f>
-        <v>-3.0688664784802255</v>
+        <v>1.0598314178942969</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -5436,11 +5433,11 @@
       </c>
       <c r="C16" s="30">
         <f>+Earnings_Comparison!E17</f>
-        <v>745.59</v>
+        <v>749.49</v>
       </c>
       <c r="D16" s="29">
         <f>+Earnings_Comparison!H17</f>
-        <v>-3.1484578892507664</v>
+        <v>0.9022291893232115</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -5453,11 +5450,11 @@
       </c>
       <c r="C17" s="30">
         <f>+Earnings_Comparison!E18</f>
-        <v>902.7</v>
+        <v>908.61</v>
       </c>
       <c r="D17" s="29">
         <f>+Earnings_Comparison!H18</f>
-        <v>-3.209613299342251</v>
+        <v>-0.53110757711504197</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -5470,11 +5467,11 @@
       </c>
       <c r="C18" s="30">
         <f>+Earnings_Comparison!E19</f>
-        <v>834.55</v>
+        <v>851.65</v>
       </c>
       <c r="D18" s="29">
         <f>+Earnings_Comparison!H19</f>
-        <v>0.55496916701844867</v>
+        <v>4.0894852174315766</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -5487,11 +5484,11 @@
       </c>
       <c r="C19" s="30">
         <f>+Earnings_Comparison!E20</f>
-        <v>793.44</v>
+        <v>798.22</v>
       </c>
       <c r="D19" s="29">
         <f>+Earnings_Comparison!H20</f>
-        <v>-3.6807142413847083</v>
+        <v>-4.3361384534694514</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -5504,11 +5501,11 @@
       </c>
       <c r="C20" s="30">
         <f>+Earnings_Comparison!E21</f>
-        <v>771.51</v>
+        <v>782.15</v>
       </c>
       <c r="D20" s="29">
         <f>+Earnings_Comparison!H21</f>
-        <v>-1.1446143433823774</v>
+        <v>0.82261488428254648</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -5521,11 +5518,11 @@
       </c>
       <c r="C21" s="30">
         <f>+Earnings_Comparison!E22</f>
-        <v>760.28</v>
+        <v>759.85</v>
       </c>
       <c r="D21" s="29">
         <f>+Earnings_Comparison!H22</f>
-        <v>0.76802758893252943</v>
+        <v>-0.18858119088721592</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -5538,11 +5535,11 @@
       </c>
       <c r="C22" s="30">
         <f>+Earnings_Comparison!E23</f>
-        <v>803.93</v>
+        <v>806.06</v>
       </c>
       <c r="D22" s="29">
         <f>+Earnings_Comparison!H23</f>
-        <v>-1.7719494729972918</v>
+        <v>0.27369076879304455</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -5555,11 +5552,11 @@
       </c>
       <c r="C23" s="30">
         <f>+Earnings_Comparison!E24</f>
-        <v>790.1</v>
+        <v>780.1</v>
       </c>
       <c r="D23" s="29">
         <f>+Earnings_Comparison!H24</f>
-        <v>2.7502932037129169</v>
+        <v>3.4826645421318414</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -5572,11 +5569,11 @@
       </c>
       <c r="C24" s="30">
         <f>+Earnings_Comparison!E25</f>
-        <v>939.47</v>
+        <v>945.65</v>
       </c>
       <c r="D24" s="29">
         <f>+Earnings_Comparison!H25</f>
-        <v>-1.8403729778983635</v>
+        <v>0.40045663849239688</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -5589,11 +5586,11 @@
       </c>
       <c r="C25" s="30">
         <f>+Earnings_Comparison!E26</f>
-        <v>1055.28</v>
+        <v>1054.77</v>
       </c>
       <c r="D25" s="29">
         <f>+Earnings_Comparison!H26</f>
-        <v>-1.1018796984118673</v>
+        <v>0.8118215501988324</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -5606,11 +5603,11 @@
       </c>
       <c r="C26" s="30">
         <f>+Earnings_Comparison!E27</f>
-        <v>822.83</v>
+        <v>799.03</v>
       </c>
       <c r="D26" s="29">
         <f>+Earnings_Comparison!H27</f>
-        <v>-1.966663143628522</v>
+        <v>-3.7313302579275454</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -5623,11 +5620,11 @@
       </c>
       <c r="C27" s="30">
         <f>+Earnings_Comparison!E28</f>
-        <v>955.53</v>
+        <v>954.52</v>
       </c>
       <c r="D27" s="29">
         <f>+Earnings_Comparison!H28</f>
-        <v>1.3161817408710474</v>
+        <v>2.7828870257054161</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -5640,11 +5637,11 @@
       </c>
       <c r="C28" s="30">
         <f>+Earnings_Comparison!E29</f>
-        <v>700.95</v>
+        <v>703.93</v>
       </c>
       <c r="D28" s="29">
         <f>+Earnings_Comparison!H29</f>
-        <v>-1.4382234939017247</v>
+        <v>0.68120271426670431</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -5657,11 +5654,11 @@
       </c>
       <c r="C29" s="30">
         <f>+Earnings_Comparison!E30</f>
-        <v>794.29</v>
+        <v>792.61</v>
       </c>
       <c r="D29" s="29">
         <f>+Earnings_Comparison!H30</f>
-        <v>3.6081567897000788</v>
+        <v>5.540565782582596</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -5674,11 +5671,11 @@
       </c>
       <c r="C30" s="30">
         <f>+Earnings_Comparison!E31</f>
-        <v>750.47</v>
+        <v>760.91</v>
       </c>
       <c r="D30" s="29">
         <f>+Earnings_Comparison!H31</f>
-        <v>-0.52145074909980549</v>
+        <v>2.2089277692085574</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -5691,11 +5688,11 @@
       </c>
       <c r="C31" s="30">
         <f>+Earnings_Comparison!E32</f>
-        <v>814.24</v>
+        <v>818.03</v>
       </c>
       <c r="D31" s="29">
         <f>+Earnings_Comparison!H32</f>
-        <v>1.7303855439707361</v>
+        <v>3.3118991450269641</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -5708,11 +5705,11 @@
       </c>
       <c r="C32" s="30">
         <f>+Earnings_Comparison!E33</f>
-        <v>760.61</v>
+        <v>763.16</v>
       </c>
       <c r="D32" s="29">
         <f>+Earnings_Comparison!H33</f>
-        <v>-1.5971506210631814</v>
+        <v>6.8529697601649175E-2</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -5725,11 +5722,11 @@
       </c>
       <c r="C33" s="30">
         <f>+Earnings_Comparison!E34</f>
-        <v>889.2</v>
+        <v>878.22</v>
       </c>
       <c r="D33" s="29">
         <f>+Earnings_Comparison!H34</f>
-        <v>1.1490524591535545</v>
+        <v>2.1147173544935338</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -5742,11 +5739,11 @@
       </c>
       <c r="C34" s="30">
         <f>+Earnings_Comparison!E35</f>
-        <v>820.98</v>
+        <v>999.32</v>
       </c>
       <c r="D34" s="29">
         <f>+Earnings_Comparison!H35</f>
-        <v>-16.158169549298773</v>
+        <v>4.4464190964051964</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -5759,11 +5756,11 @@
       </c>
       <c r="C35" s="30">
         <f>+Earnings_Comparison!E36</f>
-        <v>709.05</v>
+        <v>706.82</v>
       </c>
       <c r="D35" s="29">
         <f>+Earnings_Comparison!H36</f>
-        <v>1.3883833816789704</v>
+        <v>2.4708996405107264</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -5776,11 +5773,11 @@
       </c>
       <c r="C36" s="30">
         <f>+Earnings_Comparison!E37</f>
-        <v>994.01</v>
+        <v>991.65</v>
       </c>
       <c r="D36" s="29">
         <f>+Earnings_Comparison!H37</f>
-        <v>-0.58519872818123542</v>
+        <v>1.4126994782312607</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -5793,11 +5790,11 @@
       </c>
       <c r="C37" s="30">
         <f>+Earnings_Comparison!E38</f>
-        <v>830.76</v>
+        <v>823.48</v>
       </c>
       <c r="D37" s="29">
         <f>+Earnings_Comparison!H38</f>
-        <v>0.79612838198972469</v>
+        <v>1.0885255024292162</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -5810,11 +5807,11 @@
       </c>
       <c r="C38" s="30">
         <f>+Earnings_Comparison!E39</f>
-        <v>916.04</v>
+        <v>921.94</v>
       </c>
       <c r="D38" s="29">
         <f>+Earnings_Comparison!H39</f>
-        <v>-0.63854232526744381</v>
+        <v>3.218136068981603</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -5827,11 +5824,11 @@
       </c>
       <c r="C39" s="30">
         <f>+Earnings_Comparison!E40</f>
-        <v>814.97</v>
+        <v>812.87</v>
       </c>
       <c r="D39" s="29">
         <f>+Earnings_Comparison!H40</f>
-        <v>-0.66167734483771889</v>
+        <v>0.72480034412625294</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -5844,11 +5841,11 @@
       </c>
       <c r="C40" s="30">
         <f>+Earnings_Comparison!E41</f>
-        <v>806.41</v>
+        <v>804.79</v>
       </c>
       <c r="D40" s="29">
         <f>+Earnings_Comparison!H41</f>
-        <v>2.6478698397107925</v>
+        <v>3.829429179605337</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -5861,11 +5858,11 @@
       </c>
       <c r="C41" s="30">
         <f>+Earnings_Comparison!E42</f>
-        <v>854.28</v>
+        <v>858.5</v>
       </c>
       <c r="D41" s="29">
         <f>+Earnings_Comparison!H42</f>
-        <v>-2.0032649615040587</v>
+        <v>1.2662018685905441</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -5878,11 +5875,11 @@
       </c>
       <c r="C42" s="30">
         <f>+Earnings_Comparison!E43</f>
-        <v>842.3</v>
+        <v>837.23</v>
       </c>
       <c r="D42" s="29">
         <f>+Earnings_Comparison!H43</f>
-        <v>-0.45168401575316208</v>
+        <v>-0.11473531203562981</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -5895,11 +5892,11 @@
       </c>
       <c r="C43" s="30">
         <f>+Earnings_Comparison!E44</f>
-        <v>885.72</v>
+        <v>872.52</v>
       </c>
       <c r="D43" s="29">
         <f>+Earnings_Comparison!H44</f>
-        <v>1.3699264822319313</v>
+        <v>1.2258651176063617</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -5912,11 +5909,11 @@
       </c>
       <c r="C44" s="30">
         <f>+Earnings_Comparison!E45</f>
-        <v>775.22</v>
+        <v>785.25</v>
       </c>
       <c r="D44" s="29">
         <f>+Earnings_Comparison!H45</f>
-        <v>-1.6678851009577222E-2</v>
+        <v>1.1798008378898217</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -5929,11 +5926,11 @@
       </c>
       <c r="C45" s="30">
         <f>+Earnings_Comparison!E46</f>
-        <v>736.16</v>
+        <v>730.85</v>
       </c>
       <c r="D45" s="29">
         <f>+Earnings_Comparison!H46</f>
-        <v>-1.5729663444067454</v>
+        <v>-8.0100816422934429E-2</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -5946,11 +5943,11 @@
       </c>
       <c r="C46" s="30">
         <f>+Earnings_Comparison!E47</f>
-        <v>794.38</v>
+        <v>794.95</v>
       </c>
       <c r="D46" s="29">
         <f>+Earnings_Comparison!H47</f>
-        <v>0.55845726089667203</v>
+        <v>2.0487812258880966</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -5963,11 +5960,11 @@
       </c>
       <c r="C47" s="30">
         <f>+Earnings_Comparison!E48</f>
-        <v>923.2</v>
+        <v>894.28</v>
       </c>
       <c r="D47" s="29">
         <f>+Earnings_Comparison!H48</f>
-        <v>1.5144872988430702</v>
+        <v>1.1038524586913123</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -5980,11 +5977,11 @@
       </c>
       <c r="C48" s="30">
         <f>+Earnings_Comparison!E49</f>
-        <v>869.08</v>
+        <v>877.91</v>
       </c>
       <c r="D48" s="29">
         <f>+Earnings_Comparison!H49</f>
-        <v>-0.91574775849554424</v>
+        <v>2.6963967270785538</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -5997,11 +5994,11 @@
       </c>
       <c r="C49" s="30">
         <f>+Earnings_Comparison!E50</f>
-        <v>815.47</v>
+        <v>809.76</v>
       </c>
       <c r="D49" s="29">
         <f>+Earnings_Comparison!H50</f>
-        <v>-2.9413242704030118</v>
+        <v>-1.7358646667118505</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -6014,11 +6011,11 @@
       </c>
       <c r="C50" s="30">
         <f>+Earnings_Comparison!E51</f>
-        <v>943.92</v>
+        <v>929.43</v>
       </c>
       <c r="D50" s="29">
         <f>+Earnings_Comparison!H51</f>
-        <v>-2.9507759985103799</v>
+        <v>-2.0802761260702574</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -6031,11 +6028,11 @@
       </c>
       <c r="C51" s="30">
         <f>+Earnings_Comparison!E52</f>
-        <v>1073.3</v>
+        <v>1070.8699999999999</v>
       </c>
       <c r="D51" s="29">
         <f>+Earnings_Comparison!H52</f>
-        <v>-1.3827994581944725</v>
+        <v>1.9386828292423663</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -6048,11 +6045,11 @@
       </c>
       <c r="C52" s="30">
         <f>+Earnings_Comparison!E53</f>
-        <v>752.6</v>
+        <v>762.55</v>
       </c>
       <c r="D52" s="29">
         <f>+Earnings_Comparison!H53</f>
-        <v>2.5058420358735178</v>
+        <v>3.6732997018352531</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -6065,11 +6062,11 @@
       </c>
       <c r="C53" s="30">
         <f>+Earnings_Comparison!E54</f>
-        <v>827.12</v>
+        <v>814.92</v>
       </c>
       <c r="D53" s="29">
         <f>+Earnings_Comparison!H54</f>
-        <v>0.30613365437066609</v>
+        <v>0.43619621162769295</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -6082,11 +6079,11 @@
       </c>
       <c r="C54" s="30">
         <f>+Earnings_Comparison!E55</f>
-        <v>812.89</v>
+        <v>818.15</v>
       </c>
       <c r="D54" s="29">
         <f>+Earnings_Comparison!H55</f>
-        <v>3.106357764018397</v>
+        <v>7.836626279745218</v>
       </c>
     </row>
   </sheetData>
@@ -6102,11 +6099,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D38" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="4" topLeftCell="D35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J58" sqref="J58"/>
+      <selection pane="bottomRight" activeCell="K52" sqref="K52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6125,10 +6122,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="52"/>
+      <c r="D1" s="51"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C2" s="2" t="s">
@@ -6136,7 +6133,7 @@
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="D3" s="34"/>
+      <c r="D3" s="33"/>
     </row>
     <row r="4" spans="1:32" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
@@ -6148,11 +6145,11 @@
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="46">
-        <v>42491</v>
-      </c>
-      <c r="E4" s="47">
-        <v>42856</v>
+      <c r="D4" s="44">
+        <v>42522</v>
+      </c>
+      <c r="E4" s="45">
+        <v>42887</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="13" t="s">
@@ -6162,7 +6159,7 @@
         <v>57</v>
       </c>
       <c r="I4" s="10"/>
-      <c r="J4" s="42" t="s">
+      <c r="J4" s="41" t="s">
         <v>193</v>
       </c>
       <c r="K4" s="10"/>
@@ -6198,27 +6195,27 @@
       <c r="C5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="37">
-        <f>'May 2017_BLS Data Series'!F5</f>
-        <v>786.21</v>
-      </c>
-      <c r="E5" s="44">
-        <f>'May 2017_BLS Data Series'!R5</f>
-        <v>790.24</v>
-      </c>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35">
+      <c r="D5" s="36">
+        <f>'June 2017_BLS Data Series'!G5</f>
+        <v>778.26</v>
+      </c>
+      <c r="E5" s="42">
+        <f>'June 2017_BLS Data Series'!S5</f>
+        <v>785.62</v>
+      </c>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34">
         <f>D5/$G$61</f>
-        <v>800.95047612902692</v>
+        <v>790.97278336057889</v>
       </c>
       <c r="H5" s="11">
         <f>((E5/G5)-1)*100</f>
-        <v>-1.337220770601244</v>
+        <v>-0.67673420289339203</v>
       </c>
       <c r="I5" s="9"/>
       <c r="J5" s="29">
         <f>E5-D5</f>
-        <v>4.0299999999999727</v>
+        <v>7.3600000000000136</v>
       </c>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
@@ -6233,27 +6230,27 @@
       <c r="C6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="37">
-        <f>'May 2017_BLS Data Series'!F6</f>
-        <v>965.81</v>
-      </c>
-      <c r="E6" s="44">
-        <f>'May 2017_BLS Data Series'!R6</f>
-        <v>983.68</v>
-      </c>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35">
+      <c r="D6" s="36">
+        <f>'June 2017_BLS Data Series'!G6</f>
+        <v>961.19</v>
+      </c>
+      <c r="E6" s="42">
+        <f>'June 2017_BLS Data Series'!S6</f>
+        <v>981.58</v>
+      </c>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34">
         <f t="shared" ref="G6:G55" si="0">D6/$G$61</f>
-        <v>983.91775651565797</v>
+        <v>976.89092287712958</v>
       </c>
       <c r="H6" s="11">
         <f t="shared" ref="H6:H55" si="1">((E6/G6)-1)*100</f>
-        <v>-2.4164267194448641E-2</v>
+        <v>0.48000007094550767</v>
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="29">
         <f t="shared" ref="J6:J55" si="2">E6-D6</f>
-        <v>17.870000000000005</v>
+        <v>20.389999999999986</v>
       </c>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
@@ -6268,27 +6265,27 @@
       <c r="C7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="37">
-        <f>'May 2017_BLS Data Series'!F7</f>
-        <v>841.12</v>
-      </c>
-      <c r="E7" s="44">
-        <f>'May 2017_BLS Data Series'!R7</f>
-        <v>863.78</v>
-      </c>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35">
+      <c r="D7" s="36">
+        <f>'June 2017_BLS Data Series'!G7</f>
+        <v>817.69</v>
+      </c>
+      <c r="E7" s="42">
+        <f>'June 2017_BLS Data Series'!S7</f>
+        <v>863.08</v>
+      </c>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34">
         <f t="shared" si="0"/>
-        <v>856.88997148554085</v>
+        <v>831.04686766133659</v>
       </c>
       <c r="H7" s="11">
         <f t="shared" si="1"/>
-        <v>0.80407388856638118</v>
+        <v>3.8545518411986057</v>
       </c>
       <c r="I7" s="9"/>
       <c r="J7" s="29">
         <f t="shared" si="2"/>
-        <v>22.659999999999968</v>
+        <v>45.389999999999986</v>
       </c>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
@@ -6303,27 +6300,27 @@
       <c r="C8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="37">
-        <f>'May 2017_BLS Data Series'!F8</f>
-        <v>687.37</v>
-      </c>
-      <c r="E8" s="44">
-        <f>'May 2017_BLS Data Series'!R8</f>
-        <v>708.26</v>
-      </c>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35">
+      <c r="D8" s="36">
+        <f>'June 2017_BLS Data Series'!G8</f>
+        <v>685.25</v>
+      </c>
+      <c r="E8" s="42">
+        <f>'June 2017_BLS Data Series'!S8</f>
+        <v>714.35</v>
+      </c>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34">
         <f t="shared" si="0"/>
-        <v>700.25734698974725</v>
+        <v>696.44347621339489</v>
       </c>
       <c r="H8" s="11">
         <f t="shared" si="1"/>
-        <v>1.1428160010965138</v>
+        <v>2.5711381322665261</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="29">
         <f t="shared" si="2"/>
-        <v>20.889999999999986</v>
+        <v>29.100000000000023</v>
       </c>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
@@ -6338,27 +6335,27 @@
       <c r="C9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="37">
-        <f>'May 2017_BLS Data Series'!F9</f>
-        <v>1009.66</v>
-      </c>
-      <c r="E9" s="44">
-        <f>'May 2017_BLS Data Series'!R9</f>
-        <v>1024.31</v>
-      </c>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35">
+      <c r="D9" s="36">
+        <f>'June 2017_BLS Data Series'!G9</f>
+        <v>980.64</v>
+      </c>
+      <c r="E9" s="42">
+        <f>'June 2017_BLS Data Series'!S9</f>
+        <v>1021.34</v>
+      </c>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34">
         <f t="shared" si="0"/>
-        <v>1028.5898903962468</v>
+        <v>996.65863628442696</v>
       </c>
       <c r="H9" s="11">
         <f t="shared" si="1"/>
-        <v>-0.41609298673916939</v>
+        <v>2.4764109612882113</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="29">
         <f t="shared" si="2"/>
-        <v>14.649999999999977</v>
+        <v>40.700000000000045</v>
       </c>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
@@ -6373,27 +6370,27 @@
       <c r="C10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="37">
-        <f>'May 2017_BLS Data Series'!F10</f>
-        <v>925.81</v>
-      </c>
-      <c r="E10" s="44">
-        <f>'May 2017_BLS Data Series'!R10</f>
-        <v>898.92</v>
-      </c>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35">
+      <c r="D10" s="36">
+        <f>'June 2017_BLS Data Series'!G10</f>
+        <v>903.16</v>
+      </c>
+      <c r="E10" s="42">
+        <f>'June 2017_BLS Data Series'!S10</f>
+        <v>914.85</v>
+      </c>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34">
         <f t="shared" si="0"/>
-        <v>943.16780542732135</v>
+        <v>917.91300981669417</v>
       </c>
       <c r="H10" s="11">
         <f t="shared" si="1"/>
-        <v>-4.6914032871673399</v>
+        <v>-0.33369282099028341</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="29">
         <f t="shared" si="2"/>
-        <v>-26.889999999999986</v>
+        <v>11.690000000000055</v>
       </c>
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
@@ -6408,27 +6405,27 @@
       <c r="C11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="37">
-        <f>'May 2017_BLS Data Series'!F11</f>
-        <v>1044.1400000000001</v>
-      </c>
-      <c r="E11" s="44">
-        <f>'May 2017_BLS Data Series'!R11</f>
-        <v>1038.9100000000001</v>
-      </c>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35">
+      <c r="D11" s="36">
+        <f>'June 2017_BLS Data Series'!G11</f>
+        <v>1009.34</v>
+      </c>
+      <c r="E11" s="42">
+        <f>'June 2017_BLS Data Series'!S11</f>
+        <v>1030.51</v>
+      </c>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34">
         <f t="shared" si="0"/>
-        <v>1063.7163482343931</v>
+        <v>1025.8274473275856</v>
       </c>
       <c r="H11" s="11">
         <f t="shared" si="1"/>
-        <v>-2.3320454062370821</v>
+        <v>0.45646591779280321</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="29">
         <f t="shared" si="2"/>
-        <v>-5.2300000000000182</v>
+        <v>21.169999999999959</v>
       </c>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
@@ -6443,27 +6440,27 @@
       <c r="C12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="37">
-        <f>'May 2017_BLS Data Series'!F12</f>
-        <v>811.85</v>
-      </c>
-      <c r="E12" s="44">
-        <f>'May 2017_BLS Data Series'!R12</f>
-        <v>828.75</v>
-      </c>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35">
+      <c r="D12" s="36">
+        <f>'June 2017_BLS Data Series'!G12</f>
+        <v>793.58</v>
+      </c>
+      <c r="E12" s="42">
+        <f>'June 2017_BLS Data Series'!S12</f>
+        <v>820.33</v>
+      </c>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34">
         <f t="shared" si="0"/>
-        <v>827.0711947766506</v>
+        <v>806.54303371532421</v>
       </c>
       <c r="H12" s="11">
         <f t="shared" si="1"/>
-        <v>0.20298194810215442</v>
+        <v>1.7093900397560313</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="29">
         <f t="shared" si="2"/>
-        <v>16.899999999999977</v>
+        <v>26.75</v>
       </c>
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
@@ -6478,27 +6475,27 @@
       <c r="C13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="37">
-        <f>'May 2017_BLS Data Series'!F13</f>
-        <v>1411.96</v>
-      </c>
-      <c r="E13" s="44">
-        <f>'May 2017_BLS Data Series'!R13</f>
-        <v>1391.01</v>
-      </c>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35">
+      <c r="D13" s="36">
+        <f>'June 2017_BLS Data Series'!G13</f>
+        <v>1347.46</v>
+      </c>
+      <c r="E13" s="42">
+        <f>'June 2017_BLS Data Series'!S13</f>
+        <v>1389.26</v>
+      </c>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34">
         <f t="shared" si="0"/>
-        <v>1438.4325234671917</v>
+        <v>1369.4705968018986</v>
       </c>
       <c r="H13" s="11">
         <f t="shared" si="1"/>
-        <v>-3.2968194679639629</v>
+        <v>1.4450403859940675</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="29">
         <f t="shared" si="2"/>
-        <v>-20.950000000000045</v>
+        <v>41.799999999999955</v>
       </c>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
@@ -6513,27 +6510,27 @@
       <c r="C14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="37">
-        <f>'May 2017_BLS Data Series'!F14</f>
-        <v>800.22</v>
-      </c>
-      <c r="E14" s="44">
-        <f>'May 2017_BLS Data Series'!R14</f>
-        <v>813.96</v>
-      </c>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35">
+      <c r="D14" s="36">
+        <f>'June 2017_BLS Data Series'!G14</f>
+        <v>787.5</v>
+      </c>
+      <c r="E14" s="42">
+        <f>'June 2017_BLS Data Series'!S14</f>
+        <v>807.49</v>
+      </c>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34">
         <f t="shared" si="0"/>
-        <v>815.22314649771681</v>
+        <v>800.36371764764465</v>
       </c>
       <c r="H14" s="11">
         <f t="shared" si="1"/>
-        <v>-0.15494487652164546</v>
+        <v>0.89038048517495749</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="29">
         <f t="shared" si="2"/>
-        <v>13.740000000000009</v>
+        <v>19.990000000000009</v>
       </c>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
@@ -6548,27 +6545,27 @@
       <c r="C15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="37">
-        <f>'May 2017_BLS Data Series'!F15</f>
-        <v>865.22</v>
-      </c>
-      <c r="E15" s="44">
-        <f>'May 2017_BLS Data Series'!R15</f>
-        <v>871.47</v>
-      </c>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35">
+      <c r="D15" s="36">
+        <f>'June 2017_BLS Data Series'!G15</f>
+        <v>843.88</v>
+      </c>
+      <c r="E15" s="42">
+        <f>'June 2017_BLS Data Series'!S15</f>
+        <v>874.87</v>
+      </c>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34">
         <f t="shared" si="0"/>
-        <v>881.44181701626371</v>
+        <v>857.66467815681824</v>
       </c>
       <c r="H15" s="11">
         <f t="shared" si="1"/>
-        <v>-1.1313074582754545</v>
+        <v>2.0060662729118439</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="29">
         <f t="shared" si="2"/>
-        <v>6.25</v>
+        <v>30.990000000000009</v>
       </c>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
@@ -6583,27 +6580,27 @@
       <c r="C16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="37">
-        <f>'May 2017_BLS Data Series'!F16</f>
-        <v>851.76</v>
-      </c>
-      <c r="E16" s="44">
-        <f>'May 2017_BLS Data Series'!R16</f>
-        <v>841.1</v>
-      </c>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35">
+      <c r="D16" s="36">
+        <f>'June 2017_BLS Data Series'!G16</f>
+        <v>824.9</v>
+      </c>
+      <c r="E16" s="42">
+        <f>'June 2017_BLS Data Series'!S16</f>
+        <v>847.26</v>
+      </c>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34">
         <f t="shared" si="0"/>
-        <v>867.72945847503843</v>
+        <v>838.37464214291049</v>
       </c>
       <c r="H16" s="11">
         <f t="shared" si="1"/>
-        <v>-3.0688664784802255</v>
+        <v>1.0598314178942969</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="29">
         <f t="shared" si="2"/>
-        <v>-10.659999999999968</v>
+        <v>22.360000000000014</v>
       </c>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
@@ -6618,27 +6615,27 @@
       <c r="C17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="37">
-        <f>'May 2017_BLS Data Series'!F17</f>
-        <v>755.66</v>
-      </c>
-      <c r="E17" s="44">
-        <f>'May 2017_BLS Data Series'!R17</f>
-        <v>745.59</v>
-      </c>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35">
+      <c r="D17" s="36">
+        <f>'June 2017_BLS Data Series'!G17</f>
+        <v>730.85</v>
+      </c>
+      <c r="E17" s="42">
+        <f>'June 2017_BLS Data Series'!S17</f>
+        <v>749.49</v>
+      </c>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34">
         <f t="shared" si="0"/>
-        <v>769.82770098530978</v>
+        <v>742.78834672099185</v>
       </c>
       <c r="H17" s="11">
         <f t="shared" si="1"/>
-        <v>-3.1484578892507664</v>
+        <v>0.9022291893232115</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="29">
         <f t="shared" si="2"/>
-        <v>-10.069999999999936</v>
+        <v>18.639999999999986</v>
       </c>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
@@ -6653,27 +6650,27 @@
       <c r="C18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="37">
-        <f>'May 2017_BLS Data Series'!F18</f>
-        <v>915.47</v>
-      </c>
-      <c r="E18" s="44">
-        <f>'May 2017_BLS Data Series'!R18</f>
-        <v>902.7</v>
-      </c>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35">
+      <c r="D18" s="36">
+        <f>'June 2017_BLS Data Series'!G18</f>
+        <v>898.78</v>
+      </c>
+      <c r="E18" s="42">
+        <f>'June 2017_BLS Data Series'!S18</f>
+        <v>908.61</v>
+      </c>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34">
         <f t="shared" si="0"/>
-        <v>932.63394307098645</v>
+        <v>913.46146304425395</v>
       </c>
       <c r="H18" s="11">
         <f t="shared" si="1"/>
-        <v>-3.209613299342251</v>
+        <v>-0.53110757711504197</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="29">
         <f t="shared" si="2"/>
-        <v>-12.769999999999982</v>
+        <v>9.8300000000000409</v>
       </c>
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
@@ -6688,27 +6685,27 @@
       <c r="C19" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="37">
-        <f>'May 2017_BLS Data Series'!F19</f>
-        <v>814.67</v>
-      </c>
-      <c r="E19" s="44">
-        <f>'May 2017_BLS Data Series'!R19</f>
-        <v>834.55</v>
-      </c>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35">
+      <c r="D19" s="36">
+        <f>'June 2017_BLS Data Series'!G19</f>
+        <v>805.04</v>
+      </c>
+      <c r="E19" s="42">
+        <f>'June 2017_BLS Data Series'!S19</f>
+        <v>851.65</v>
+      </c>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34">
         <f t="shared" si="0"/>
-        <v>829.94406632837831</v>
+        <v>818.19023143499658</v>
       </c>
       <c r="H19" s="11">
         <f t="shared" si="1"/>
-        <v>0.55496916701844867</v>
+        <v>4.0894852174315766</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="29">
         <f t="shared" si="2"/>
-        <v>19.879999999999995</v>
+        <v>46.610000000000014</v>
       </c>
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
@@ -6723,27 +6720,27 @@
       <c r="C20" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="37">
-        <f>'May 2017_BLS Data Series'!F20</f>
-        <v>808.6</v>
-      </c>
-      <c r="E20" s="44">
-        <f>'May 2017_BLS Data Series'!R20</f>
-        <v>793.44</v>
-      </c>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35">
+      <c r="D20" s="36">
+        <f>'June 2017_BLS Data Series'!G20</f>
+        <v>820.99</v>
+      </c>
+      <c r="E20" s="42">
+        <f>'June 2017_BLS Data Series'!S20</f>
+        <v>798.22</v>
+      </c>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34">
         <f t="shared" si="0"/>
-        <v>823.76026125072326</v>
+        <v>834.40077276386</v>
       </c>
       <c r="H20" s="11">
         <f t="shared" si="1"/>
-        <v>-3.6807142413847083</v>
+        <v>-4.3361384534694514</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="29">
         <f t="shared" si="2"/>
-        <v>-15.159999999999968</v>
+        <v>-22.769999999999982</v>
       </c>
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
@@ -6758,27 +6755,27 @@
       <c r="C21" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="37">
-        <f>'May 2017_BLS Data Series'!F21</f>
-        <v>766.08</v>
-      </c>
-      <c r="E21" s="44">
-        <f>'May 2017_BLS Data Series'!R21</f>
-        <v>771.51</v>
-      </c>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35">
+      <c r="D21" s="36">
+        <f>'June 2017_BLS Data Series'!G21</f>
+        <v>763.3</v>
+      </c>
+      <c r="E21" s="42">
+        <f>'June 2017_BLS Data Series'!S21</f>
+        <v>782.15</v>
+      </c>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34">
         <f t="shared" si="0"/>
-        <v>780.4430632438216</v>
+        <v>775.76841356247246</v>
       </c>
       <c r="H21" s="11">
         <f t="shared" si="1"/>
-        <v>-1.1446143433823774</v>
+        <v>0.82261488428254648</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="29">
         <f t="shared" si="2"/>
-        <v>5.42999999999995</v>
+        <v>18.850000000000023</v>
       </c>
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
@@ -6793,27 +6790,27 @@
       <c r="C22" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="37">
-        <f>'May 2017_BLS Data Series'!F22</f>
-        <v>740.6</v>
-      </c>
-      <c r="E22" s="44">
-        <f>'May 2017_BLS Data Series'!R22</f>
-        <v>760.28</v>
-      </c>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35">
+      <c r="D22" s="36">
+        <f>'June 2017_BLS Data Series'!G22</f>
+        <v>749.05</v>
+      </c>
+      <c r="E22" s="42">
+        <f>'June 2017_BLS Data Series'!S22</f>
+        <v>759.85</v>
+      </c>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34">
         <f t="shared" si="0"/>
-        <v>754.48534440055118</v>
+        <v>761.28564152884849</v>
       </c>
       <c r="H22" s="11">
         <f t="shared" si="1"/>
-        <v>0.76802758893252943</v>
+        <v>-0.18858119088721592</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="29">
         <f t="shared" si="2"/>
-        <v>19.67999999999995</v>
+        <v>10.800000000000068</v>
       </c>
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
@@ -6828,27 +6825,27 @@
       <c r="C23" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="37">
-        <f>'May 2017_BLS Data Series'!F23</f>
-        <v>803.37</v>
-      </c>
-      <c r="E23" s="44">
-        <f>'May 2017_BLS Data Series'!R23</f>
-        <v>803.93</v>
-      </c>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35">
+      <c r="D23" s="36">
+        <f>'June 2017_BLS Data Series'!G23</f>
+        <v>790.94</v>
+      </c>
+      <c r="E23" s="42">
+        <f>'June 2017_BLS Data Series'!S23</f>
+        <v>806.06</v>
+      </c>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34">
         <f t="shared" si="0"/>
-        <v>818.43220514592326</v>
+        <v>803.85990963330551</v>
       </c>
       <c r="H23" s="11">
         <f t="shared" si="1"/>
-        <v>-1.7719494729972918</v>
+        <v>0.27369076879304455</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="29">
         <f t="shared" si="2"/>
-        <v>0.55999999999994543</v>
+        <v>15.119999999999891</v>
       </c>
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
@@ -6863,27 +6860,27 @@
       <c r="C24" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="37">
-        <f>'May 2017_BLS Data Series'!F24</f>
-        <v>754.8</v>
-      </c>
-      <c r="E24" s="44">
-        <f>'May 2017_BLS Data Series'!R24</f>
-        <v>790.1</v>
-      </c>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35">
+      <c r="D24" s="36">
+        <f>'June 2017_BLS Data Series'!G24</f>
+        <v>741.73</v>
+      </c>
+      <c r="E24" s="42">
+        <f>'June 2017_BLS Data Series'!S24</f>
+        <v>780.1</v>
+      </c>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34">
         <f t="shared" si="0"/>
-        <v>768.95157703691052</v>
+        <v>753.84607021052375</v>
       </c>
       <c r="H24" s="11">
         <f t="shared" si="1"/>
-        <v>2.7502932037129169</v>
+        <v>3.4826645421318414</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="29">
         <f t="shared" si="2"/>
-        <v>35.300000000000068</v>
+        <v>38.370000000000005</v>
       </c>
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
@@ -6898,27 +6895,27 @@
       <c r="C25" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="37">
-        <f>'May 2017_BLS Data Series'!F25</f>
-        <v>939.47</v>
-      </c>
-      <c r="E25" s="44">
-        <f>'May 2017_BLS Data Series'!R25</f>
-        <v>939.47</v>
-      </c>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35">
+      <c r="D25" s="36">
+        <f>'June 2017_BLS Data Series'!G25</f>
+        <v>926.74</v>
+      </c>
+      <c r="E25" s="42">
+        <f>'June 2017_BLS Data Series'!S25</f>
+        <v>945.65</v>
+      </c>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34">
         <f t="shared" si="0"/>
-        <v>957.08391372398842</v>
+        <v>941.87818627654372</v>
       </c>
       <c r="H25" s="11">
         <f t="shared" si="1"/>
-        <v>-1.8403729778983635</v>
+        <v>0.40045663849239688</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>18.909999999999968</v>
       </c>
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
@@ -6933,27 +6930,27 @@
       <c r="C26" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="37">
-        <f>'May 2017_BLS Data Series'!F26</f>
-        <v>1047.4000000000001</v>
-      </c>
-      <c r="E26" s="44">
-        <f>'May 2017_BLS Data Series'!R26</f>
-        <v>1055.28</v>
-      </c>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35">
+      <c r="D26" s="36">
+        <f>'June 2017_BLS Data Series'!G26</f>
+        <v>1029.46</v>
+      </c>
+      <c r="E26" s="42">
+        <f>'June 2017_BLS Data Series'!S26</f>
+        <v>1054.77</v>
+      </c>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34">
         <f t="shared" si="0"/>
-        <v>1067.0374692480925</v>
+        <v>1046.2761051041832</v>
       </c>
       <c r="H26" s="11">
         <f t="shared" si="1"/>
-        <v>-1.1018796984118673</v>
+        <v>0.8118215501988324</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="29">
         <f t="shared" si="2"/>
-        <v>7.8799999999998818</v>
+        <v>25.309999999999945</v>
       </c>
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
@@ -6968,27 +6965,27 @@
       <c r="C27" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="37">
-        <f>'May 2017_BLS Data Series'!F27</f>
-        <v>823.89</v>
-      </c>
-      <c r="E27" s="44">
-        <f>'May 2017_BLS Data Series'!R27</f>
-        <v>822.83</v>
-      </c>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35">
+      <c r="D27" s="36">
+        <f>'June 2017_BLS Data Series'!G27</f>
+        <v>816.66</v>
+      </c>
+      <c r="E27" s="42">
+        <f>'June 2017_BLS Data Series'!S27</f>
+        <v>799.03</v>
+      </c>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34">
         <f t="shared" si="0"/>
-        <v>839.33693005423993</v>
+        <v>830.00004273539741</v>
       </c>
       <c r="H27" s="11">
         <f t="shared" si="1"/>
-        <v>-1.966663143628522</v>
+        <v>-3.7313302579275454</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="29">
         <f t="shared" si="2"/>
-        <v>-1.0599999999999454</v>
+        <v>-17.629999999999995</v>
       </c>
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
@@ -7003,27 +7000,27 @@
       <c r="C28" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="37">
-        <f>'May 2017_BLS Data Series'!F28</f>
-        <v>925.76</v>
-      </c>
-      <c r="E28" s="44">
-        <f>'May 2017_BLS Data Series'!R28</f>
-        <v>955.53</v>
-      </c>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35">
+      <c r="D28" s="36">
+        <f>'June 2017_BLS Data Series'!G28</f>
+        <v>913.75</v>
+      </c>
+      <c r="E28" s="42">
+        <f>'June 2017_BLS Data Series'!S28</f>
+        <v>954.52</v>
+      </c>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34">
         <f t="shared" si="0"/>
-        <v>943.11686798846097</v>
+        <v>928.67599619115583</v>
       </c>
       <c r="H28" s="11">
         <f t="shared" si="1"/>
-        <v>1.3161817408710474</v>
+        <v>2.7828870257054161</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="29">
         <f t="shared" si="2"/>
-        <v>29.769999999999982</v>
+        <v>40.769999999999982</v>
       </c>
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
@@ -7038,27 +7035,27 @@
       <c r="C29" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D29" s="37">
-        <f>'May 2017_BLS Data Series'!F29</f>
-        <v>698.09</v>
-      </c>
-      <c r="E29" s="44">
-        <f>'May 2017_BLS Data Series'!R29</f>
-        <v>700.95</v>
-      </c>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35">
+      <c r="D29" s="36">
+        <f>'June 2017_BLS Data Series'!G29</f>
+        <v>687.93</v>
+      </c>
+      <c r="E29" s="42">
+        <f>'June 2017_BLS Data Series'!S29</f>
+        <v>703.93</v>
+      </c>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34">
         <f t="shared" si="0"/>
-        <v>711.17833388142151</v>
+        <v>699.16725369059566</v>
       </c>
       <c r="H29" s="11">
         <f t="shared" si="1"/>
-        <v>-1.4382234939017247</v>
+        <v>0.68120271426670431</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="29">
         <f t="shared" si="2"/>
-        <v>2.8600000000000136</v>
+        <v>16</v>
       </c>
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
@@ -7073,27 +7070,27 @@
       <c r="C30" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D30" s="37">
-        <f>'May 2017_BLS Data Series'!F30</f>
-        <v>752.52</v>
-      </c>
-      <c r="E30" s="44">
-        <f>'May 2017_BLS Data Series'!R30</f>
-        <v>794.29</v>
-      </c>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35">
+      <c r="D30" s="36">
+        <f>'June 2017_BLS Data Series'!G30</f>
+        <v>738.93</v>
+      </c>
+      <c r="E30" s="42">
+        <f>'June 2017_BLS Data Series'!S30</f>
+        <v>792.61</v>
+      </c>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34">
         <f t="shared" si="0"/>
-        <v>766.62882982487542</v>
+        <v>751.00033254777645</v>
       </c>
       <c r="H30" s="11">
         <f t="shared" si="1"/>
-        <v>3.6081567897000788</v>
+        <v>5.540565782582596</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="29">
         <f t="shared" si="2"/>
-        <v>41.769999999999982</v>
+        <v>53.680000000000064</v>
       </c>
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
@@ -7108,27 +7105,27 @@
       <c r="C31" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D31" s="37">
-        <f>'May 2017_BLS Data Series'!F31</f>
-        <v>740.52</v>
-      </c>
-      <c r="E31" s="44">
-        <f>'May 2017_BLS Data Series'!R31</f>
-        <v>750.47</v>
-      </c>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35">
+      <c r="D31" s="36">
+        <f>'June 2017_BLS Data Series'!G31</f>
+        <v>732.5</v>
+      </c>
+      <c r="E31" s="42">
+        <f>'June 2017_BLS Data Series'!S31</f>
+        <v>760.91</v>
+      </c>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34">
         <f t="shared" si="0"/>
-        <v>754.4038444983745</v>
+        <v>744.46529927225356</v>
       </c>
       <c r="H31" s="11">
         <f t="shared" si="1"/>
-        <v>-0.52145074909980549</v>
+        <v>2.2089277692085574</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="29">
         <f t="shared" si="2"/>
-        <v>9.9500000000000455</v>
+        <v>28.409999999999968</v>
       </c>
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
@@ -7143,27 +7140,27 @@
       <c r="C32" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D32" s="37">
-        <f>'May 2017_BLS Data Series'!F32</f>
-        <v>785.66</v>
-      </c>
-      <c r="E32" s="44">
-        <f>'May 2017_BLS Data Series'!R32</f>
-        <v>814.24</v>
-      </c>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35">
+      <c r="D32" s="36">
+        <f>'June 2017_BLS Data Series'!G32</f>
+        <v>779.08</v>
+      </c>
+      <c r="E32" s="42">
+        <f>'June 2017_BLS Data Series'!S32</f>
+        <v>818.03</v>
+      </c>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34">
         <f t="shared" si="0"/>
-        <v>800.39016430156221</v>
+        <v>791.80617796181207</v>
       </c>
       <c r="H32" s="11">
         <f t="shared" si="1"/>
-        <v>1.7303855439707361</v>
+        <v>3.3118991450269641</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="29">
         <f t="shared" si="2"/>
-        <v>28.580000000000041</v>
+        <v>38.949999999999932</v>
       </c>
       <c r="K32" s="9"/>
       <c r="L32" s="9"/>
@@ -7178,27 +7175,27 @@
       <c r="C33" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D33" s="37">
-        <f>'May 2017_BLS Data Series'!F33</f>
-        <v>758.73</v>
-      </c>
-      <c r="E33" s="44">
-        <f>'May 2017_BLS Data Series'!R33</f>
-        <v>760.61</v>
-      </c>
-      <c r="F33" s="35"/>
-      <c r="G33" s="35">
+      <c r="D33" s="36">
+        <f>'June 2017_BLS Data Series'!G33</f>
+        <v>750.38</v>
+      </c>
+      <c r="E33" s="42">
+        <f>'June 2017_BLS Data Series'!S33</f>
+        <v>763.16</v>
+      </c>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34">
         <f t="shared" si="0"/>
-        <v>772.95525973133965</v>
+        <v>762.63736691865336</v>
       </c>
       <c r="H33" s="11">
         <f t="shared" si="1"/>
-        <v>-1.5971506210631814</v>
+        <v>6.8529697601649175E-2</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="29">
         <f t="shared" si="2"/>
-        <v>1.8799999999999955</v>
+        <v>12.779999999999973</v>
       </c>
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
@@ -7213,27 +7210,27 @@
       <c r="C34" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D34" s="37">
-        <f>'May 2017_BLS Data Series'!F34</f>
-        <v>862.92</v>
-      </c>
-      <c r="E34" s="44">
-        <f>'May 2017_BLS Data Series'!R34</f>
-        <v>889.2</v>
-      </c>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35">
+      <c r="D34" s="36">
+        <f>'June 2017_BLS Data Series'!G34</f>
+        <v>846.21</v>
+      </c>
+      <c r="E34" s="42">
+        <f>'June 2017_BLS Data Series'!S34</f>
+        <v>878.22</v>
+      </c>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34">
         <f t="shared" si="0"/>
-        <v>879.0986948286843</v>
+        <v>860.03273842617568</v>
       </c>
       <c r="H34" s="11">
         <f t="shared" si="1"/>
-        <v>1.1490524591535545</v>
+        <v>2.1147173544935338</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="29">
         <f t="shared" si="2"/>
-        <v>26.280000000000086</v>
+        <v>32.009999999999991</v>
       </c>
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
@@ -7248,27 +7245,27 @@
       <c r="C35" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D35" s="37">
-        <f>'May 2017_BLS Data Series'!F35</f>
-        <v>961.18</v>
-      </c>
-      <c r="E35" s="44">
-        <f>'May 2017_BLS Data Series'!R35</f>
-        <v>820.98</v>
-      </c>
-      <c r="F35" s="35"/>
-      <c r="G35" s="35">
+      <c r="D35" s="36">
+        <f>'June 2017_BLS Data Series'!G35</f>
+        <v>941.4</v>
+      </c>
+      <c r="E35" s="42">
+        <f>'June 2017_BLS Data Series'!S35</f>
+        <v>999.32</v>
+      </c>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34">
         <f t="shared" si="0"/>
-        <v>979.20094967718296</v>
+        <v>956.77765561078422</v>
       </c>
       <c r="H35" s="11">
         <f t="shared" si="1"/>
-        <v>-16.158169549298773</v>
+        <v>4.4464190964051964</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="29">
         <f t="shared" si="2"/>
-        <v>-140.19999999999993</v>
+        <v>57.920000000000073</v>
       </c>
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
@@ -7283,27 +7280,27 @@
       <c r="C36" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D36" s="37">
-        <f>'May 2017_BLS Data Series'!F36</f>
-        <v>686.47</v>
-      </c>
-      <c r="E36" s="44">
-        <f>'May 2017_BLS Data Series'!R36</f>
-        <v>709.05</v>
-      </c>
-      <c r="F36" s="35"/>
-      <c r="G36" s="35">
+      <c r="D36" s="36">
+        <f>'June 2017_BLS Data Series'!G36</f>
+        <v>678.69</v>
+      </c>
+      <c r="E36" s="42">
+        <f>'June 2017_BLS Data Series'!S36</f>
+        <v>706.82</v>
+      </c>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34">
         <f t="shared" si="0"/>
-        <v>699.34047309025971</v>
+        <v>689.77631940353012</v>
       </c>
       <c r="H36" s="11">
         <f t="shared" si="1"/>
-        <v>1.3883833816789704</v>
+        <v>2.4708996405107264</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="29">
         <f t="shared" si="2"/>
-        <v>22.579999999999927</v>
+        <v>28.129999999999995</v>
       </c>
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
@@ -7318,27 +7315,27 @@
       <c r="C37" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D37" s="37">
-        <f>'May 2017_BLS Data Series'!F37</f>
-        <v>981.46</v>
-      </c>
-      <c r="E37" s="44">
-        <f>'May 2017_BLS Data Series'!R37</f>
-        <v>994.01</v>
-      </c>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35">
+      <c r="D37" s="36">
+        <f>'June 2017_BLS Data Series'!G37</f>
+        <v>962.12</v>
+      </c>
+      <c r="E37" s="42">
+        <f>'June 2017_BLS Data Series'!S37</f>
+        <v>991.65</v>
+      </c>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34">
         <f t="shared" si="0"/>
-        <v>999.86117487896968</v>
+        <v>977.83611431511349</v>
       </c>
       <c r="H37" s="11">
         <f t="shared" si="1"/>
-        <v>-0.58519872818123542</v>
+        <v>1.4126994782312607</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="29">
         <f t="shared" si="2"/>
-        <v>12.549999999999955</v>
+        <v>29.529999999999973</v>
       </c>
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
@@ -7353,27 +7350,27 @@
       <c r="C38" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D38" s="37">
-        <f>'May 2017_BLS Data Series'!F38</f>
-        <v>809.03</v>
-      </c>
-      <c r="E38" s="44">
-        <f>'May 2017_BLS Data Series'!R38</f>
-        <v>830.76</v>
-      </c>
-      <c r="F38" s="35"/>
-      <c r="G38" s="35">
+      <c r="D38" s="36">
+        <f>'June 2017_BLS Data Series'!G38</f>
+        <v>801.52</v>
+      </c>
+      <c r="E38" s="42">
+        <f>'June 2017_BLS Data Series'!S38</f>
+        <v>823.48</v>
+      </c>
+      <c r="F38" s="34"/>
+      <c r="G38" s="34">
         <f t="shared" si="0"/>
-        <v>824.19832322492289</v>
+        <v>814.61273265897159</v>
       </c>
       <c r="H38" s="11">
         <f t="shared" si="1"/>
-        <v>0.79612838198972469</v>
+        <v>1.0885255024292162</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="29">
         <f t="shared" si="2"/>
-        <v>21.730000000000018</v>
+        <v>21.960000000000036</v>
       </c>
       <c r="K38" s="9"/>
       <c r="L38" s="9"/>
@@ -7388,27 +7385,27 @@
       <c r="C39" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D39" s="37">
-        <f>'May 2017_BLS Data Series'!F39</f>
-        <v>904.96</v>
-      </c>
-      <c r="E39" s="44">
-        <f>'May 2017_BLS Data Series'!R39</f>
-        <v>916.04</v>
-      </c>
-      <c r="F39" s="35"/>
-      <c r="G39" s="35">
+      <c r="D39" s="36">
+        <f>'June 2017_BLS Data Series'!G39</f>
+        <v>878.84</v>
+      </c>
+      <c r="E39" s="42">
+        <f>'June 2017_BLS Data Series'!S39</f>
+        <v>921.94</v>
+      </c>
+      <c r="F39" s="34"/>
+      <c r="G39" s="34">
         <f t="shared" si="0"/>
-        <v>921.92689342252606</v>
+        <v>893.19574554597591</v>
       </c>
       <c r="H39" s="11">
         <f t="shared" si="1"/>
-        <v>-0.63854232526744381</v>
+        <v>3.218136068981603</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="29">
         <f t="shared" si="2"/>
-        <v>11.079999999999927</v>
+        <v>43.100000000000023</v>
       </c>
       <c r="K39" s="9"/>
       <c r="L39" s="9"/>
@@ -7423,27 +7420,27 @@
       <c r="C40" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D40" s="37">
-        <f>'May 2017_BLS Data Series'!F40</f>
-        <v>805.3</v>
-      </c>
-      <c r="E40" s="44">
-        <f>'May 2017_BLS Data Series'!R40</f>
-        <v>814.97</v>
-      </c>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35">
+      <c r="D40" s="36">
+        <f>'June 2017_BLS Data Series'!G40</f>
+        <v>794.05</v>
+      </c>
+      <c r="E40" s="42">
+        <f>'June 2017_BLS Data Series'!S40</f>
+        <v>812.87</v>
+      </c>
+      <c r="F40" s="34"/>
+      <c r="G40" s="34">
         <f t="shared" si="0"/>
-        <v>820.39839028593542</v>
+        <v>807.02071110871384</v>
       </c>
       <c r="H40" s="11">
         <f t="shared" si="1"/>
-        <v>-0.66167734483771889</v>
+        <v>0.72480034412625294</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="29">
         <f t="shared" si="2"/>
-        <v>9.6700000000000728</v>
+        <v>18.82000000000005</v>
       </c>
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
@@ -7458,27 +7455,27 @@
       <c r="C41" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D41" s="37">
-        <f>'May 2017_BLS Data Series'!F41</f>
-        <v>771.15</v>
-      </c>
-      <c r="E41" s="44">
-        <f>'May 2017_BLS Data Series'!R41</f>
-        <v>806.41</v>
-      </c>
-      <c r="F41" s="35"/>
-      <c r="G41" s="35">
+      <c r="D41" s="36">
+        <f>'June 2017_BLS Data Series'!G41</f>
+        <v>762.65</v>
+      </c>
+      <c r="E41" s="42">
+        <f>'June 2017_BLS Data Series'!S41</f>
+        <v>804.79</v>
+      </c>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34">
         <f t="shared" si="0"/>
-        <v>785.60811954426811</v>
+        <v>775.10779589076333</v>
       </c>
       <c r="H41" s="11">
         <f t="shared" si="1"/>
-        <v>2.6478698397107925</v>
+        <v>3.829429179605337</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="29">
         <f t="shared" si="2"/>
-        <v>35.259999999999991</v>
+        <v>42.139999999999986</v>
       </c>
       <c r="K41" s="9"/>
       <c r="L41" s="9"/>
@@ -7493,27 +7490,27 @@
       <c r="C42" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D42" s="37">
-        <f>'May 2017_BLS Data Series'!F42</f>
-        <v>855.7</v>
-      </c>
-      <c r="E42" s="44">
-        <f>'May 2017_BLS Data Series'!R42</f>
-        <v>854.28</v>
-      </c>
-      <c r="F42" s="35"/>
-      <c r="G42" s="35">
+      <c r="D42" s="36">
+        <f>'June 2017_BLS Data Series'!G42</f>
+        <v>834.14</v>
+      </c>
+      <c r="E42" s="42">
+        <f>'June 2017_BLS Data Series'!S42</f>
+        <v>858.5</v>
+      </c>
+      <c r="F42" s="34"/>
+      <c r="G42" s="34">
         <f t="shared" si="0"/>
-        <v>871.74332865723966</v>
+        <v>847.76557642997625</v>
       </c>
       <c r="H42" s="11">
         <f t="shared" si="1"/>
-        <v>-2.0032649615040587</v>
+        <v>1.2662018685905441</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="29">
         <f t="shared" si="2"/>
-        <v>-1.4200000000000728</v>
+        <v>24.360000000000014</v>
       </c>
       <c r="K42" s="9"/>
       <c r="L42" s="9"/>
@@ -7528,27 +7525,27 @@
       <c r="C43" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D43" s="37">
-        <f>'May 2017_BLS Data Series'!F43</f>
-        <v>830.55</v>
-      </c>
-      <c r="E43" s="44">
-        <f>'May 2017_BLS Data Series'!R43</f>
-        <v>842.3</v>
-      </c>
-      <c r="F43" s="35"/>
-      <c r="G43" s="35">
+      <c r="D43" s="36">
+        <f>'June 2017_BLS Data Series'!G43</f>
+        <v>824.72</v>
+      </c>
+      <c r="E43" s="42">
+        <f>'June 2017_BLS Data Series'!S43</f>
+        <v>837.23</v>
+      </c>
+      <c r="F43" s="34"/>
+      <c r="G43" s="34">
         <f t="shared" si="0"/>
-        <v>846.12179691044787</v>
+        <v>838.1917018645911</v>
       </c>
       <c r="H43" s="11">
         <f t="shared" si="1"/>
-        <v>-0.45168401575316208</v>
+        <v>-0.11473531203562981</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="29">
         <f t="shared" si="2"/>
-        <v>11.75</v>
+        <v>12.509999999999991</v>
       </c>
       <c r="K43" s="9"/>
       <c r="L43" s="9"/>
@@ -7563,27 +7560,27 @@
       <c r="C44" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D44" s="37">
-        <f>'May 2017_BLS Data Series'!F44</f>
-        <v>857.67</v>
-      </c>
-      <c r="E44" s="44">
-        <f>'May 2017_BLS Data Series'!R44</f>
-        <v>885.72</v>
-      </c>
-      <c r="F44" s="35"/>
-      <c r="G44" s="35">
+      <c r="D44" s="36">
+        <f>'June 2017_BLS Data Series'!G44</f>
+        <v>848.1</v>
+      </c>
+      <c r="E44" s="42">
+        <f>'June 2017_BLS Data Series'!S44</f>
+        <v>872.52</v>
+      </c>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34">
         <f t="shared" si="0"/>
-        <v>873.7502637483401</v>
+        <v>861.95361134852999</v>
       </c>
       <c r="H44" s="11">
         <f t="shared" si="1"/>
-        <v>1.3699264822319313</v>
+        <v>1.2258651176063617</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="29">
         <f t="shared" si="2"/>
-        <v>28.050000000000068</v>
+        <v>24.419999999999959</v>
       </c>
       <c r="K44" s="9"/>
       <c r="L44" s="9"/>
@@ -7598,27 +7595,27 @@
       <c r="C45" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D45" s="37">
-        <f>'May 2017_BLS Data Series'!F45</f>
-        <v>761.08</v>
-      </c>
-      <c r="E45" s="44">
-        <f>'May 2017_BLS Data Series'!R45</f>
-        <v>775.22</v>
-      </c>
-      <c r="F45" s="35"/>
-      <c r="G45" s="35">
+      <c r="D45" s="36">
+        <f>'June 2017_BLS Data Series'!G45</f>
+        <v>763.62</v>
+      </c>
+      <c r="E45" s="42">
+        <f>'June 2017_BLS Data Series'!S45</f>
+        <v>785.25</v>
+      </c>
+      <c r="F45" s="34"/>
+      <c r="G45" s="34">
         <f t="shared" si="0"/>
-        <v>775.34931935777945</v>
+        <v>776.09364072392941</v>
       </c>
       <c r="H45" s="11">
         <f t="shared" si="1"/>
-        <v>-1.6678851009577222E-2</v>
+        <v>1.1798008378898217</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="29">
         <f t="shared" si="2"/>
-        <v>14.139999999999986</v>
+        <v>21.629999999999995</v>
       </c>
       <c r="K45" s="9"/>
       <c r="L45" s="9"/>
@@ -7633,27 +7630,27 @@
       <c r="C46" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D46" s="37">
-        <f>'May 2017_BLS Data Series'!F46</f>
-        <v>734.16</v>
-      </c>
-      <c r="E46" s="44">
-        <f>'May 2017_BLS Data Series'!R46</f>
-        <v>736.16</v>
-      </c>
-      <c r="F46" s="35"/>
-      <c r="G46" s="35">
+      <c r="D46" s="36">
+        <f>'June 2017_BLS Data Series'!G46</f>
+        <v>719.68</v>
+      </c>
+      <c r="E46" s="42">
+        <f>'June 2017_BLS Data Series'!S46</f>
+        <v>730.85</v>
+      </c>
+      <c r="F46" s="34"/>
+      <c r="G46" s="34">
         <f t="shared" si="0"/>
-        <v>747.92460227532888</v>
+        <v>731.43588611638961</v>
       </c>
       <c r="H46" s="11">
         <f t="shared" si="1"/>
-        <v>-1.5729663444067454</v>
+        <v>-8.0100816422934429E-2</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="29">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>11.170000000000073</v>
       </c>
       <c r="K46" s="9"/>
       <c r="L46" s="9"/>
@@ -7668,27 +7665,27 @@
       <c r="C47" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D47" s="37">
-        <f>'May 2017_BLS Data Series'!F47</f>
-        <v>775.43</v>
-      </c>
-      <c r="E47" s="44">
-        <f>'May 2017_BLS Data Series'!R47</f>
-        <v>794.38</v>
-      </c>
-      <c r="F47" s="35"/>
-      <c r="G47" s="35">
+      <c r="D47" s="36">
+        <f>'June 2017_BLS Data Series'!G47</f>
+        <v>766.47</v>
+      </c>
+      <c r="E47" s="42">
+        <f>'June 2017_BLS Data Series'!S47</f>
+        <v>794.95</v>
+      </c>
+      <c r="F47" s="34"/>
+      <c r="G47" s="34">
         <f t="shared" si="0"/>
-        <v>789.96836431072018</v>
+        <v>778.99019513065423</v>
       </c>
       <c r="H47" s="11">
         <f t="shared" si="1"/>
-        <v>0.55845726089667203</v>
+        <v>2.0487812258880966</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="29">
         <f t="shared" si="2"/>
-        <v>18.950000000000045</v>
+        <v>28.480000000000018</v>
       </c>
       <c r="K47" s="9"/>
       <c r="L47" s="9"/>
@@ -7703,27 +7700,27 @@
       <c r="C48" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D48" s="37">
-        <f>'May 2017_BLS Data Series'!F48</f>
-        <v>892.69</v>
-      </c>
-      <c r="E48" s="44">
-        <f>'May 2017_BLS Data Series'!R48</f>
-        <v>923.2</v>
-      </c>
-      <c r="F48" s="35"/>
-      <c r="G48" s="35">
+      <c r="D48" s="36">
+        <f>'June 2017_BLS Data Series'!G48</f>
+        <v>870.3</v>
+      </c>
+      <c r="E48" s="42">
+        <f>'June 2017_BLS Data Series'!S48</f>
+        <v>894.28</v>
+      </c>
+      <c r="F48" s="34"/>
+      <c r="G48" s="34">
         <f t="shared" si="0"/>
-        <v>909.42684592617888</v>
+        <v>884.51624567459692</v>
       </c>
       <c r="H48" s="11">
         <f t="shared" si="1"/>
-        <v>1.5144872988430702</v>
+        <v>1.1038524586913123</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="29">
         <f t="shared" si="2"/>
-        <v>30.509999999999991</v>
+        <v>23.980000000000018</v>
       </c>
       <c r="K48" s="9"/>
       <c r="L48" s="9"/>
@@ -7738,27 +7735,27 @@
       <c r="C49" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D49" s="37">
-        <f>'May 2017_BLS Data Series'!F49</f>
-        <v>860.97</v>
-      </c>
-      <c r="E49" s="44">
-        <f>'May 2017_BLS Data Series'!R49</f>
-        <v>869.08</v>
-      </c>
-      <c r="F49" s="35"/>
-      <c r="G49" s="35">
+      <c r="D49" s="36">
+        <f>'June 2017_BLS Data Series'!G49</f>
+        <v>841.12</v>
+      </c>
+      <c r="E49" s="42">
+        <f>'June 2017_BLS Data Series'!S49</f>
+        <v>877.91</v>
+      </c>
+      <c r="F49" s="34"/>
+      <c r="G49" s="34">
         <f t="shared" si="0"/>
-        <v>877.11213471312794</v>
+        <v>854.85959388925312</v>
       </c>
       <c r="H49" s="11">
         <f t="shared" si="1"/>
-        <v>-0.91574775849554424</v>
+        <v>2.6963967270785538</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="29">
         <f t="shared" si="2"/>
-        <v>8.1100000000000136</v>
+        <v>36.789999999999964</v>
       </c>
       <c r="K49" s="9"/>
       <c r="L49" s="9"/>
@@ -7773,27 +7770,27 @@
       <c r="C50" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D50" s="37">
-        <f>'May 2017_BLS Data Series'!F50</f>
-        <v>824.72</v>
-      </c>
-      <c r="E50" s="44">
-        <f>'May 2017_BLS Data Series'!R50</f>
-        <v>815.47</v>
-      </c>
-      <c r="F50" s="35"/>
-      <c r="G50" s="35">
+      <c r="D50" s="36">
+        <f>'June 2017_BLS Data Series'!G50</f>
+        <v>810.82</v>
+      </c>
+      <c r="E50" s="42">
+        <f>'June 2017_BLS Data Series'!S50</f>
+        <v>809.76</v>
+      </c>
+      <c r="F50" s="34"/>
+      <c r="G50" s="34">
         <f t="shared" si="0"/>
-        <v>840.18249153932288</v>
+        <v>824.06464703881045</v>
       </c>
       <c r="H50" s="11">
         <f t="shared" si="1"/>
-        <v>-2.9413242704030118</v>
+        <v>-1.7358646667118505</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="29">
         <f t="shared" si="2"/>
-        <v>-9.25</v>
+        <v>-1.0600000000000591</v>
       </c>
       <c r="K50" s="9"/>
       <c r="L50" s="9"/>
@@ -7808,27 +7805,27 @@
       <c r="C51" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D51" s="37">
-        <f>'May 2017_BLS Data Series'!F51</f>
-        <v>954.72</v>
-      </c>
-      <c r="E51" s="44">
-        <f>'May 2017_BLS Data Series'!R51</f>
-        <v>943.92</v>
-      </c>
-      <c r="F51" s="35"/>
-      <c r="G51" s="35">
+      <c r="D51" s="36">
+        <f>'June 2017_BLS Data Series'!G51</f>
+        <v>933.92</v>
+      </c>
+      <c r="E51" s="42">
+        <f>'June 2017_BLS Data Series'!S51</f>
+        <v>929.43</v>
+      </c>
+      <c r="F51" s="34"/>
+      <c r="G51" s="34">
         <f t="shared" si="0"/>
-        <v>972.61983257641668</v>
+        <v>949.17547071173112</v>
       </c>
       <c r="H51" s="11">
         <f t="shared" si="1"/>
-        <v>-2.9507759985103799</v>
+        <v>-2.0802761260702574</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="29">
         <f t="shared" si="2"/>
-        <v>-10.800000000000068</v>
+        <v>-4.4900000000000091</v>
       </c>
       <c r="K51" s="9"/>
       <c r="L51" s="9"/>
@@ -7843,27 +7840,27 @@
       <c r="C52" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D52" s="37">
-        <f>'May 2017_BLS Data Series'!F52</f>
-        <v>1068.32</v>
-      </c>
-      <c r="E52" s="44">
-        <f>'May 2017_BLS Data Series'!R52</f>
-        <v>1073.3</v>
-      </c>
-      <c r="F52" s="35"/>
-      <c r="G52" s="35">
+      <c r="D52" s="36">
+        <f>'June 2017_BLS Data Series'!G52</f>
+        <v>1033.6199999999999</v>
+      </c>
+      <c r="E52" s="42">
+        <f>'June 2017_BLS Data Series'!S52</f>
+        <v>1070.8699999999999</v>
+      </c>
+      <c r="F52" s="34"/>
+      <c r="G52" s="34">
         <f t="shared" si="0"/>
-        <v>1088.3496936672925</v>
+        <v>1050.5040582031218</v>
       </c>
       <c r="H52" s="11">
         <f t="shared" si="1"/>
-        <v>-1.3827994581944725</v>
+        <v>1.9386828292423663</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="29">
         <f t="shared" si="2"/>
-        <v>4.9800000000000182</v>
+        <v>37.25</v>
       </c>
       <c r="K52" s="9"/>
       <c r="L52" s="9"/>
@@ -7878,27 +7875,27 @@
       <c r="C53" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D53" s="37">
-        <f>'May 2017_BLS Data Series'!F53</f>
-        <v>720.69</v>
-      </c>
-      <c r="E53" s="44">
-        <f>'May 2017_BLS Data Series'!R53</f>
-        <v>752.6</v>
-      </c>
-      <c r="F53" s="35"/>
-      <c r="G53" s="35">
+      <c r="D53" s="36">
+        <f>'June 2017_BLS Data Series'!G53</f>
+        <v>723.71</v>
+      </c>
+      <c r="E53" s="42">
+        <f>'June 2017_BLS Data Series'!S53</f>
+        <v>762.55</v>
+      </c>
+      <c r="F53" s="34"/>
+      <c r="G53" s="34">
         <f t="shared" si="0"/>
-        <v>734.20205624633172</v>
+        <v>735.53171568098651</v>
       </c>
       <c r="H53" s="11">
         <f t="shared" si="1"/>
-        <v>2.5058420358735178</v>
+        <v>3.6732997018352531</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="29">
         <f t="shared" si="2"/>
-        <v>31.909999999999968</v>
+        <v>38.839999999999918</v>
       </c>
       <c r="K53" s="9"/>
       <c r="L53" s="9"/>
@@ -7913,27 +7910,27 @@
       <c r="C54" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D54" s="37">
-        <f>'May 2017_BLS Data Series'!F54</f>
-        <v>809.42</v>
-      </c>
-      <c r="E54" s="44">
-        <f>'May 2017_BLS Data Series'!R54</f>
-        <v>827.12</v>
-      </c>
-      <c r="F54" s="35"/>
-      <c r="G54" s="35">
+      <c r="D54" s="36">
+        <f>'June 2017_BLS Data Series'!G54</f>
+        <v>798.34</v>
+      </c>
+      <c r="E54" s="42">
+        <f>'June 2017_BLS Data Series'!S54</f>
+        <v>814.92</v>
+      </c>
+      <c r="F54" s="34"/>
+      <c r="G54" s="34">
         <f t="shared" si="0"/>
-        <v>824.59563524803411</v>
+        <v>811.38078774199448</v>
       </c>
       <c r="H54" s="11">
         <f t="shared" si="1"/>
-        <v>0.30613365437066609</v>
+        <v>0.43619621162769295</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="29">
         <f t="shared" si="2"/>
-        <v>17.700000000000045</v>
+        <v>16.579999999999927</v>
       </c>
       <c r="K54" s="9"/>
       <c r="L54" s="9"/>
@@ -7948,32 +7945,32 @@
       <c r="C55" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D55" s="37">
-        <f>'May 2017_BLS Data Series'!F55</f>
-        <v>773.89</v>
-      </c>
-      <c r="E55" s="44">
-        <f>'May 2017_BLS Data Series'!R55</f>
-        <v>812.89</v>
-      </c>
-      <c r="F55" s="35"/>
-      <c r="G55" s="35">
+      <c r="D55" s="36">
+        <f>'June 2017_BLS Data Series'!G55</f>
+        <v>746.5</v>
+      </c>
+      <c r="E55" s="42">
+        <f>'June 2017_BLS Data Series'!S55</f>
+        <v>818.15</v>
+      </c>
+      <c r="F55" s="34"/>
+      <c r="G55" s="34">
         <f t="shared" si="0"/>
-        <v>788.39949119381924</v>
+        <v>758.69398758598948</v>
       </c>
       <c r="H55" s="11">
         <f t="shared" si="1"/>
-        <v>3.106357764018397</v>
+        <v>7.836626279745218</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="29">
         <f t="shared" si="2"/>
-        <v>39</v>
+        <v>71.649999999999977</v>
       </c>
       <c r="K55" s="9"/>
       <c r="L55" s="9">
         <f>COUNTIF(J5:J55,"&lt;0")</f>
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
@@ -7985,21 +7982,21 @@
       <c r="K56" s="9"/>
       <c r="L56" s="9"/>
     </row>
-    <row r="57" spans="1:15" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C57" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D57" s="32" t="s">
-        <v>176</v>
-      </c>
-      <c r="E57" s="33" t="s">
-        <v>187</v>
+      <c r="D57" s="44">
+        <v>42522</v>
+      </c>
+      <c r="E57" s="45">
+        <v>42887</v>
       </c>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c r="H57" s="11"/>
       <c r="I57" s="8"/>
-      <c r="J57" s="42" t="s">
+      <c r="J57" s="41" t="s">
         <v>193</v>
       </c>
       <c r="K57" s="8"/>
@@ -8012,25 +8009,25 @@
       <c r="C58" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="D58" s="45">
-        <v>880.3</v>
-      </c>
-      <c r="E58" s="45">
-        <v>901.97</v>
+      <c r="D58" s="43">
+        <v>881.33</v>
+      </c>
+      <c r="E58" s="43">
+        <v>905.63</v>
       </c>
       <c r="F58" s="9"/>
       <c r="G58" s="11">
         <f>D58/$G$61</f>
-        <v>896.8045485765665</v>
-      </c>
-      <c r="H58" s="11">
+        <v>895.72641939606183</v>
+      </c>
+      <c r="H58" s="29">
         <f>((E58/G58)-1)*100</f>
-        <v>0.57598407943317831</v>
+        <v>1.105647928819109</v>
       </c>
       <c r="I58" s="9"/>
-      <c r="J58" s="11">
+      <c r="J58" s="29">
         <f>((E58/D58)-1)*100</f>
-        <v>2.4616607974554228</v>
+        <v>2.757196509820381</v>
       </c>
       <c r="K58" s="9"/>
       <c r="L58" s="9"/>
@@ -8065,16 +8062,16 @@
       <c r="C61" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D61" s="45">
-        <v>240.22900000000001</v>
-      </c>
-      <c r="E61" s="48">
-        <v>244.733</v>
+      <c r="D61" s="43">
+        <v>241.018</v>
+      </c>
+      <c r="E61" s="46">
+        <v>244.95500000000001</v>
       </c>
       <c r="F61" s="9"/>
       <c r="G61" s="9">
         <f>D61/E61</f>
-        <v>0.98159627022101636</v>
+        <v>0.98392766018248246</v>
       </c>
       <c r="H61" s="9"/>
       <c r="I61" s="9"/>
@@ -8135,59 +8132,59 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" sqref="A1:N1"/>
+      <selection pane="bottomRight" activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23" style="43" customWidth="1"/>
-    <col min="2" max="255" width="8" style="43" customWidth="1"/>
-    <col min="256" max="16384" width="9.140625" style="43"/>
+    <col min="1" max="1" width="23" style="48" customWidth="1"/>
+    <col min="2" max="255" width="8" style="48" customWidth="1"/>
+    <col min="256" max="16384" width="9.140625" style="48"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="39" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
     </row>
     <row r="4" spans="1:25" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="38" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="32" t="s">
@@ -8264,2859 +8261,3012 @@
       </c>
     </row>
     <row r="5" spans="1:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="37">
+      <c r="B5" s="36">
         <v>768.58</v>
       </c>
-      <c r="C5" s="37">
+      <c r="C5" s="36">
         <v>768.96</v>
       </c>
-      <c r="D5" s="37">
+      <c r="D5" s="36">
         <v>760.77</v>
       </c>
-      <c r="E5" s="37">
+      <c r="E5" s="36">
         <v>777.15</v>
       </c>
-      <c r="F5" s="37">
+      <c r="F5" s="36">
         <v>786.21</v>
       </c>
-      <c r="G5" s="37">
+      <c r="G5" s="36">
         <v>778.26</v>
       </c>
-      <c r="H5" s="37">
+      <c r="H5" s="36">
         <v>782.13</v>
       </c>
-      <c r="I5" s="37">
+      <c r="I5" s="36">
         <v>771.37</v>
       </c>
-      <c r="J5" s="37">
+      <c r="J5" s="36">
         <v>778.22</v>
       </c>
-      <c r="K5" s="37">
+      <c r="K5" s="36">
         <v>801.36</v>
       </c>
-      <c r="L5" s="37">
+      <c r="L5" s="36">
         <v>780.57</v>
       </c>
-      <c r="M5" s="37">
+      <c r="M5" s="36">
         <v>783.13</v>
       </c>
-      <c r="N5" s="37">
+      <c r="N5" s="36">
         <v>795.44</v>
       </c>
-      <c r="O5" s="37">
+      <c r="O5" s="36">
         <v>788.25</v>
       </c>
-      <c r="P5" s="37">
+      <c r="P5" s="36">
         <v>785.07</v>
       </c>
-      <c r="Q5" s="37">
+      <c r="Q5" s="36">
         <v>800.8</v>
       </c>
-      <c r="R5" s="37">
+      <c r="R5" s="36">
         <v>790.24</v>
       </c>
+      <c r="S5" s="36">
+        <v>785.62</v>
+      </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="37">
+      <c r="B6" s="36">
         <v>935.32</v>
       </c>
-      <c r="C6" s="37">
+      <c r="C6" s="36">
         <v>951.48</v>
       </c>
-      <c r="D6" s="37">
+      <c r="D6" s="36">
         <v>955.89</v>
       </c>
-      <c r="E6" s="37">
+      <c r="E6" s="36">
         <v>959.92</v>
       </c>
-      <c r="F6" s="37">
+      <c r="F6" s="36">
         <v>965.81</v>
       </c>
-      <c r="G6" s="37">
+      <c r="G6" s="36">
         <v>961.19</v>
       </c>
-      <c r="H6" s="37">
+      <c r="H6" s="36">
         <v>989.87</v>
       </c>
-      <c r="I6" s="37">
+      <c r="I6" s="36">
         <v>986.95</v>
       </c>
-      <c r="J6" s="37">
+      <c r="J6" s="36">
         <v>974.63</v>
       </c>
-      <c r="K6" s="37">
+      <c r="K6" s="36">
         <v>1001.32</v>
       </c>
-      <c r="L6" s="37">
+      <c r="L6" s="36">
         <v>981.74</v>
       </c>
-      <c r="M6" s="37">
+      <c r="M6" s="36">
         <v>976.29</v>
       </c>
-      <c r="N6" s="37">
+      <c r="N6" s="36">
         <v>975.07</v>
       </c>
-      <c r="O6" s="37">
+      <c r="O6" s="36">
         <v>966.65</v>
       </c>
-      <c r="P6" s="37">
+      <c r="P6" s="36">
         <v>978.59</v>
       </c>
-      <c r="Q6" s="37">
+      <c r="Q6" s="36">
         <v>987.56</v>
       </c>
-      <c r="R6" s="37">
-        <v>983.68</v>
+      <c r="R6" s="36">
+        <v>966.38</v>
+      </c>
+      <c r="S6" s="36">
+        <v>981.58</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="37">
+      <c r="B7" s="36">
         <v>803.06</v>
       </c>
-      <c r="C7" s="37">
+      <c r="C7" s="36">
         <v>810.54</v>
       </c>
-      <c r="D7" s="37">
+      <c r="D7" s="36">
         <v>813.6</v>
       </c>
-      <c r="E7" s="37">
+      <c r="E7" s="36">
         <v>820.46</v>
       </c>
-      <c r="F7" s="37">
+      <c r="F7" s="36">
         <v>841.12</v>
       </c>
-      <c r="G7" s="37">
+      <c r="G7" s="36">
         <v>817.69</v>
       </c>
-      <c r="H7" s="37">
+      <c r="H7" s="36">
         <v>814.28</v>
       </c>
-      <c r="I7" s="37">
+      <c r="I7" s="36">
         <v>826.58</v>
       </c>
-      <c r="J7" s="37">
+      <c r="J7" s="36">
         <v>825.56</v>
       </c>
-      <c r="K7" s="37">
+      <c r="K7" s="36">
         <v>848.07</v>
       </c>
-      <c r="L7" s="37">
+      <c r="L7" s="36">
         <v>831.74</v>
       </c>
-      <c r="M7" s="37">
+      <c r="M7" s="36">
         <v>827.66</v>
       </c>
-      <c r="N7" s="37">
+      <c r="N7" s="36">
         <v>857.44</v>
       </c>
-      <c r="O7" s="37">
+      <c r="O7" s="36">
         <v>856.03</v>
       </c>
-      <c r="P7" s="37">
+      <c r="P7" s="36">
         <v>849.34</v>
       </c>
-      <c r="Q7" s="37">
+      <c r="Q7" s="36">
         <v>884.1</v>
       </c>
-      <c r="R7" s="37">
-        <v>863.78</v>
+      <c r="R7" s="36">
+        <v>862.5</v>
+      </c>
+      <c r="S7" s="36">
+        <v>863.08</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="37">
+      <c r="B8" s="36">
         <v>675.35</v>
       </c>
-      <c r="C8" s="37">
+      <c r="C8" s="36">
         <v>673.93</v>
       </c>
-      <c r="D8" s="37">
+      <c r="D8" s="36">
         <v>666.99</v>
       </c>
-      <c r="E8" s="37">
+      <c r="E8" s="36">
         <v>677.66</v>
       </c>
-      <c r="F8" s="37">
+      <c r="F8" s="36">
         <v>687.37</v>
       </c>
-      <c r="G8" s="37">
+      <c r="G8" s="36">
         <v>685.25</v>
       </c>
-      <c r="H8" s="37">
+      <c r="H8" s="36">
         <v>698.92</v>
       </c>
-      <c r="I8" s="37">
+      <c r="I8" s="36">
         <v>688.4</v>
       </c>
-      <c r="J8" s="37">
+      <c r="J8" s="36">
         <v>686.39</v>
       </c>
-      <c r="K8" s="37">
+      <c r="K8" s="36">
         <v>706.15</v>
       </c>
-      <c r="L8" s="37">
+      <c r="L8" s="36">
         <v>694.19</v>
       </c>
-      <c r="M8" s="37">
+      <c r="M8" s="36">
         <v>697.94</v>
       </c>
-      <c r="N8" s="37">
+      <c r="N8" s="36">
         <v>703.11</v>
       </c>
-      <c r="O8" s="37">
+      <c r="O8" s="36">
         <v>703.82</v>
       </c>
-      <c r="P8" s="37">
+      <c r="P8" s="36">
         <v>702.45</v>
       </c>
-      <c r="Q8" s="37">
+      <c r="Q8" s="36">
         <v>719.32</v>
       </c>
-      <c r="R8" s="37">
-        <v>708.26</v>
+      <c r="R8" s="36">
+        <v>707.92</v>
+      </c>
+      <c r="S8" s="36">
+        <v>714.35</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="37">
+      <c r="B9" s="36">
         <v>971.28</v>
       </c>
-      <c r="C9" s="37">
+      <c r="C9" s="36">
         <v>978.58</v>
       </c>
-      <c r="D9" s="37">
+      <c r="D9" s="36">
         <v>970.49</v>
       </c>
-      <c r="E9" s="37">
+      <c r="E9" s="36">
         <v>979.95</v>
       </c>
-      <c r="F9" s="37">
+      <c r="F9" s="36">
         <v>1009.66</v>
       </c>
-      <c r="G9" s="37">
+      <c r="G9" s="36">
         <v>980.64</v>
       </c>
-      <c r="H9" s="37">
+      <c r="H9" s="36">
         <v>988.31</v>
       </c>
-      <c r="I9" s="37">
+      <c r="I9" s="36">
         <v>992.44</v>
       </c>
-      <c r="J9" s="37">
+      <c r="J9" s="36">
         <v>998.13</v>
       </c>
-      <c r="K9" s="37">
+      <c r="K9" s="36">
         <v>1036.7</v>
       </c>
-      <c r="L9" s="37">
+      <c r="L9" s="36">
         <v>1001.52</v>
       </c>
-      <c r="M9" s="37">
+      <c r="M9" s="36">
         <v>1004.45</v>
       </c>
-      <c r="N9" s="37">
+      <c r="N9" s="36">
         <v>1028.79</v>
       </c>
-      <c r="O9" s="37">
+      <c r="O9" s="36">
         <v>1007.17</v>
       </c>
-      <c r="P9" s="37">
+      <c r="P9" s="36">
         <v>1010.61</v>
       </c>
-      <c r="Q9" s="37">
+      <c r="Q9" s="36">
         <v>1043.6500000000001</v>
       </c>
-      <c r="R9" s="37">
-        <v>1024.31</v>
+      <c r="R9" s="36">
+        <v>1020.43</v>
+      </c>
+      <c r="S9" s="36">
+        <v>1021.34</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="37">
+      <c r="B10" s="36">
         <v>915.49</v>
       </c>
-      <c r="C10" s="37">
+      <c r="C10" s="36">
         <v>912</v>
       </c>
-      <c r="D10" s="37">
+      <c r="D10" s="36">
         <v>909.42</v>
       </c>
-      <c r="E10" s="37">
+      <c r="E10" s="36">
         <v>910.34</v>
       </c>
-      <c r="F10" s="37">
+      <c r="F10" s="36">
         <v>925.81</v>
       </c>
-      <c r="G10" s="37">
+      <c r="G10" s="36">
         <v>903.16</v>
       </c>
-      <c r="H10" s="37">
+      <c r="H10" s="36">
         <v>899.76</v>
       </c>
-      <c r="I10" s="37">
+      <c r="I10" s="36">
         <v>899.08</v>
       </c>
-      <c r="J10" s="37">
+      <c r="J10" s="36">
         <v>901.81</v>
       </c>
-      <c r="K10" s="37">
+      <c r="K10" s="36">
         <v>931.27</v>
       </c>
-      <c r="L10" s="37">
+      <c r="L10" s="36">
         <v>897.77</v>
       </c>
-      <c r="M10" s="37">
+      <c r="M10" s="36">
         <v>891.38</v>
       </c>
-      <c r="N10" s="37">
+      <c r="N10" s="36">
         <v>904.2</v>
       </c>
-      <c r="O10" s="37">
+      <c r="O10" s="36">
         <v>899.7</v>
       </c>
-      <c r="P10" s="37">
+      <c r="P10" s="36">
         <v>896.2</v>
       </c>
-      <c r="Q10" s="37">
+      <c r="Q10" s="36">
         <v>931.39</v>
       </c>
-      <c r="R10" s="37">
-        <v>898.92</v>
+      <c r="R10" s="36">
+        <v>917.33</v>
+      </c>
+      <c r="S10" s="36">
+        <v>914.85</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="37">
+      <c r="B11" s="36">
         <v>1005.3</v>
       </c>
-      <c r="C11" s="37">
+      <c r="C11" s="36">
         <v>1003.59</v>
       </c>
-      <c r="D11" s="37">
+      <c r="D11" s="36">
         <v>999.32</v>
       </c>
-      <c r="E11" s="37">
+      <c r="E11" s="36">
         <v>1019.37</v>
       </c>
-      <c r="F11" s="37">
+      <c r="F11" s="36">
         <v>1044.1400000000001</v>
       </c>
-      <c r="G11" s="37">
+      <c r="G11" s="36">
         <v>1009.34</v>
       </c>
-      <c r="H11" s="37">
+      <c r="H11" s="36">
         <v>1014.05</v>
       </c>
-      <c r="I11" s="37">
+      <c r="I11" s="36">
         <v>1021.1</v>
       </c>
-      <c r="J11" s="37">
+      <c r="J11" s="36">
         <v>1029.8800000000001</v>
       </c>
-      <c r="K11" s="37">
+      <c r="K11" s="36">
         <v>1058.49</v>
       </c>
-      <c r="L11" s="37">
+      <c r="L11" s="36">
         <v>1030.21</v>
       </c>
-      <c r="M11" s="37">
+      <c r="M11" s="36">
         <v>1033.24</v>
       </c>
-      <c r="N11" s="37">
+      <c r="N11" s="36">
         <v>1056.83</v>
       </c>
-      <c r="O11" s="37">
+      <c r="O11" s="36">
         <v>1032.9000000000001</v>
       </c>
-      <c r="P11" s="37">
+      <c r="P11" s="36">
         <v>1032.73</v>
       </c>
-      <c r="Q11" s="37">
+      <c r="Q11" s="36">
         <v>1065.93</v>
       </c>
-      <c r="R11" s="37">
-        <v>1038.9100000000001</v>
+      <c r="R11" s="36">
+        <v>1042.6099999999999</v>
+      </c>
+      <c r="S11" s="36">
+        <v>1030.51</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="37">
+      <c r="B12" s="36">
         <v>799.2</v>
       </c>
-      <c r="C12" s="37">
+      <c r="C12" s="36">
         <v>801.12</v>
       </c>
-      <c r="D12" s="37">
+      <c r="D12" s="36">
         <v>807.53</v>
       </c>
-      <c r="E12" s="37">
+      <c r="E12" s="36">
         <v>810.74</v>
       </c>
-      <c r="F12" s="37">
+      <c r="F12" s="36">
         <v>811.85</v>
       </c>
-      <c r="G12" s="37">
+      <c r="G12" s="36">
         <v>793.58</v>
       </c>
-      <c r="H12" s="37">
+      <c r="H12" s="36">
         <v>801.36</v>
       </c>
-      <c r="I12" s="37">
+      <c r="I12" s="36">
         <v>799.79</v>
       </c>
-      <c r="J12" s="37">
+      <c r="J12" s="36">
         <v>803.75</v>
       </c>
-      <c r="K12" s="37">
+      <c r="K12" s="36">
         <v>843.16</v>
       </c>
-      <c r="L12" s="37">
+      <c r="L12" s="36">
         <v>819.89</v>
       </c>
-      <c r="M12" s="37">
+      <c r="M12" s="36">
         <v>816.19</v>
       </c>
-      <c r="N12" s="37">
+      <c r="N12" s="36">
         <v>833.02</v>
       </c>
-      <c r="O12" s="37">
+      <c r="O12" s="36">
         <v>829.46</v>
       </c>
-      <c r="P12" s="37">
+      <c r="P12" s="36">
         <v>825.93</v>
       </c>
-      <c r="Q12" s="37">
+      <c r="Q12" s="36">
         <v>860.6</v>
       </c>
-      <c r="R12" s="37">
-        <v>828.75</v>
+      <c r="R12" s="36">
+        <v>814.93</v>
+      </c>
+      <c r="S12" s="36">
+        <v>820.33</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="37">
+      <c r="B13" s="36">
         <v>1287.26</v>
       </c>
-      <c r="C13" s="37">
+      <c r="C13" s="36">
         <v>1304.69</v>
       </c>
-      <c r="D13" s="37">
+      <c r="D13" s="36">
         <v>1305.9100000000001</v>
       </c>
-      <c r="E13" s="37">
+      <c r="E13" s="36">
         <v>1332.86</v>
       </c>
-      <c r="F13" s="37">
+      <c r="F13" s="36">
         <v>1411.96</v>
       </c>
-      <c r="G13" s="37">
+      <c r="G13" s="36">
         <v>1347.46</v>
       </c>
-      <c r="H13" s="37">
+      <c r="H13" s="36">
         <v>1358.65</v>
       </c>
-      <c r="I13" s="37">
+      <c r="I13" s="36">
         <v>1382.7</v>
       </c>
-      <c r="J13" s="37">
+      <c r="J13" s="36">
         <v>1383.08</v>
       </c>
-      <c r="K13" s="37">
+      <c r="K13" s="36">
         <v>1456.36</v>
       </c>
-      <c r="L13" s="37">
+      <c r="L13" s="36">
         <v>1403.26</v>
       </c>
-      <c r="M13" s="37">
+      <c r="M13" s="36">
         <v>1412.46</v>
       </c>
-      <c r="N13" s="37">
+      <c r="N13" s="36">
         <v>1480.46</v>
       </c>
-      <c r="O13" s="37">
+      <c r="O13" s="36">
         <v>1412.46</v>
       </c>
-      <c r="P13" s="37">
+      <c r="P13" s="36">
         <v>1412.35</v>
       </c>
-      <c r="Q13" s="37">
+      <c r="Q13" s="36">
         <v>1454.91</v>
       </c>
-      <c r="R13" s="37">
-        <v>1391.01</v>
+      <c r="R13" s="36">
+        <v>1392.77</v>
+      </c>
+      <c r="S13" s="36">
+        <v>1389.26</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="37">
+      <c r="B14" s="36">
         <v>777.37</v>
       </c>
-      <c r="C14" s="37">
+      <c r="C14" s="36">
         <v>782.5</v>
       </c>
-      <c r="D14" s="37">
+      <c r="D14" s="36">
         <v>790.7</v>
       </c>
-      <c r="E14" s="37">
+      <c r="E14" s="36">
         <v>788.65</v>
       </c>
-      <c r="F14" s="37">
+      <c r="F14" s="36">
         <v>800.22</v>
       </c>
-      <c r="G14" s="37">
+      <c r="G14" s="36">
         <v>787.5</v>
       </c>
-      <c r="H14" s="37">
+      <c r="H14" s="36">
         <v>785.74</v>
       </c>
-      <c r="I14" s="37">
+      <c r="I14" s="36">
         <v>789.57</v>
       </c>
-      <c r="J14" s="37">
+      <c r="J14" s="36">
         <v>791.28</v>
       </c>
-      <c r="K14" s="37">
+      <c r="K14" s="36">
         <v>811.23</v>
       </c>
-      <c r="L14" s="37">
+      <c r="L14" s="36">
         <v>805.46</v>
       </c>
-      <c r="M14" s="37">
+      <c r="M14" s="36">
         <v>811.91</v>
       </c>
-      <c r="N14" s="37">
+      <c r="N14" s="36">
         <v>822.16</v>
       </c>
-      <c r="O14" s="37">
+      <c r="O14" s="36">
         <v>817.71</v>
       </c>
-      <c r="P14" s="37">
+      <c r="P14" s="36">
         <v>815.65</v>
       </c>
-      <c r="Q14" s="37">
+      <c r="Q14" s="36">
         <v>834.55</v>
       </c>
-      <c r="R14" s="37">
-        <v>813.96</v>
+      <c r="R14" s="36">
+        <v>815.67</v>
+      </c>
+      <c r="S14" s="36">
+        <v>807.49</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="37">
+      <c r="B15" s="36">
         <v>839.36</v>
       </c>
-      <c r="C15" s="37">
+      <c r="C15" s="36">
         <v>842.17</v>
       </c>
-      <c r="D15" s="37">
+      <c r="D15" s="36">
         <v>840.43</v>
       </c>
-      <c r="E15" s="37">
+      <c r="E15" s="36">
         <v>842.51</v>
       </c>
-      <c r="F15" s="37">
+      <c r="F15" s="36">
         <v>865.22</v>
       </c>
-      <c r="G15" s="37">
+      <c r="G15" s="36">
         <v>843.88</v>
       </c>
-      <c r="H15" s="37">
+      <c r="H15" s="36">
         <v>847.73</v>
       </c>
-      <c r="I15" s="37">
+      <c r="I15" s="36">
         <v>847.7</v>
       </c>
-      <c r="J15" s="37">
+      <c r="J15" s="36">
         <v>848.39</v>
       </c>
-      <c r="K15" s="37">
+      <c r="K15" s="36">
         <v>882.46</v>
       </c>
-      <c r="L15" s="37">
+      <c r="L15" s="36">
         <v>857.12</v>
       </c>
-      <c r="M15" s="37">
+      <c r="M15" s="36">
         <v>862.38</v>
       </c>
-      <c r="N15" s="37">
+      <c r="N15" s="36">
         <v>885.89</v>
       </c>
-      <c r="O15" s="37">
+      <c r="O15" s="36">
         <v>867.22</v>
       </c>
-      <c r="P15" s="37">
+      <c r="P15" s="36">
         <v>861.27</v>
       </c>
-      <c r="Q15" s="37">
+      <c r="Q15" s="36">
         <v>890.53</v>
       </c>
-      <c r="R15" s="37">
-        <v>871.47</v>
+      <c r="R15" s="36">
+        <v>868.02</v>
+      </c>
+      <c r="S15" s="36">
+        <v>874.87</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="37">
+      <c r="B16" s="36">
         <v>824.26</v>
       </c>
-      <c r="C16" s="37">
+      <c r="C16" s="36">
         <v>824.13</v>
       </c>
-      <c r="D16" s="37">
+      <c r="D16" s="36">
         <v>820.54</v>
       </c>
-      <c r="E16" s="37">
+      <c r="E16" s="36">
         <v>827.64</v>
       </c>
-      <c r="F16" s="37">
+      <c r="F16" s="36">
         <v>851.76</v>
       </c>
-      <c r="G16" s="37">
+      <c r="G16" s="36">
         <v>824.9</v>
       </c>
-      <c r="H16" s="37">
+      <c r="H16" s="36">
         <v>837.31</v>
       </c>
-      <c r="I16" s="37">
+      <c r="I16" s="36">
         <v>830.58</v>
       </c>
-      <c r="J16" s="37">
+      <c r="J16" s="36">
         <v>828.82</v>
       </c>
-      <c r="K16" s="37">
+      <c r="K16" s="36">
         <v>858.61</v>
       </c>
-      <c r="L16" s="37">
+      <c r="L16" s="36">
         <v>817.59</v>
       </c>
-      <c r="M16" s="37">
+      <c r="M16" s="36">
         <v>829.76</v>
       </c>
-      <c r="N16" s="37">
+      <c r="N16" s="36">
         <v>870.13</v>
       </c>
-      <c r="O16" s="37">
+      <c r="O16" s="36">
         <v>837.82</v>
       </c>
-      <c r="P16" s="37">
+      <c r="P16" s="36">
         <v>830.43</v>
       </c>
-      <c r="Q16" s="37">
+      <c r="Q16" s="36">
         <v>876.77</v>
       </c>
-      <c r="R16" s="37">
-        <v>841.1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="38" t="s">
+      <c r="R16" s="36">
+        <v>846.95</v>
+      </c>
+      <c r="S16" s="36">
+        <v>847.26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="37">
+      <c r="B17" s="36">
         <v>734.18</v>
       </c>
-      <c r="C17" s="37">
+      <c r="C17" s="36">
         <v>729.65</v>
       </c>
-      <c r="D17" s="37">
+      <c r="D17" s="36">
         <v>727.38</v>
       </c>
-      <c r="E17" s="37">
+      <c r="E17" s="36">
         <v>744.89</v>
       </c>
-      <c r="F17" s="37">
+      <c r="F17" s="36">
         <v>755.66</v>
       </c>
-      <c r="G17" s="37">
+      <c r="G17" s="36">
         <v>730.85</v>
       </c>
-      <c r="H17" s="37">
+      <c r="H17" s="36">
         <v>735.6</v>
       </c>
-      <c r="I17" s="37">
+      <c r="I17" s="36">
         <v>735.71</v>
       </c>
-      <c r="J17" s="37">
+      <c r="J17" s="36">
         <v>734.33</v>
       </c>
-      <c r="K17" s="37">
+      <c r="K17" s="36">
         <v>757.91</v>
       </c>
-      <c r="L17" s="37">
+      <c r="L17" s="36">
         <v>735.05</v>
       </c>
-      <c r="M17" s="37">
+      <c r="M17" s="36">
         <v>724.81</v>
       </c>
-      <c r="N17" s="37">
+      <c r="N17" s="36">
         <v>740.34</v>
       </c>
-      <c r="O17" s="37">
+      <c r="O17" s="36">
         <v>735.15</v>
       </c>
-      <c r="P17" s="37">
+      <c r="P17" s="36">
         <v>734.72</v>
       </c>
-      <c r="Q17" s="37">
+      <c r="Q17" s="36">
         <v>765.12</v>
       </c>
-      <c r="R17" s="37">
-        <v>745.59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="38" t="s">
+      <c r="R17" s="36">
+        <v>751.41</v>
+      </c>
+      <c r="S17" s="36">
+        <v>749.49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="37">
+      <c r="B18" s="36">
         <v>900.38</v>
       </c>
-      <c r="C18" s="37">
+      <c r="C18" s="36">
         <v>894.01</v>
       </c>
-      <c r="D18" s="37">
+      <c r="D18" s="36">
         <v>897.33</v>
       </c>
-      <c r="E18" s="37">
+      <c r="E18" s="36">
         <v>899.37</v>
       </c>
-      <c r="F18" s="37">
+      <c r="F18" s="36">
         <v>915.47</v>
       </c>
-      <c r="G18" s="37">
+      <c r="G18" s="36">
         <v>898.78</v>
       </c>
-      <c r="H18" s="37">
+      <c r="H18" s="36">
         <v>900.92</v>
       </c>
-      <c r="I18" s="37">
+      <c r="I18" s="36">
         <v>902.02</v>
       </c>
-      <c r="J18" s="37">
+      <c r="J18" s="36">
         <v>910.75</v>
       </c>
-      <c r="K18" s="37">
+      <c r="K18" s="36">
         <v>935.86</v>
       </c>
-      <c r="L18" s="37">
+      <c r="L18" s="36">
         <v>912.8</v>
       </c>
-      <c r="M18" s="37">
+      <c r="M18" s="36">
         <v>906.1</v>
       </c>
-      <c r="N18" s="37">
+      <c r="N18" s="36">
         <v>914.62</v>
       </c>
-      <c r="O18" s="37">
+      <c r="O18" s="36">
         <v>902.46</v>
       </c>
-      <c r="P18" s="37">
+      <c r="P18" s="36">
         <v>897.43</v>
       </c>
-      <c r="Q18" s="37">
+      <c r="Q18" s="36">
         <v>919</v>
       </c>
-      <c r="R18" s="37">
-        <v>902.7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="38" t="s">
+      <c r="R18" s="36">
+        <v>900.38</v>
+      </c>
+      <c r="S18" s="36">
+        <v>908.61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="37">
+      <c r="B19" s="36">
         <v>804.54</v>
       </c>
-      <c r="C19" s="37">
+      <c r="C19" s="36">
         <v>796.79</v>
       </c>
-      <c r="D19" s="37">
+      <c r="D19" s="36">
         <v>794.05</v>
       </c>
-      <c r="E19" s="37">
+      <c r="E19" s="36">
         <v>809.03</v>
       </c>
-      <c r="F19" s="37">
+      <c r="F19" s="36">
         <v>814.67</v>
       </c>
-      <c r="G19" s="37">
+      <c r="G19" s="36">
         <v>805.04</v>
       </c>
-      <c r="H19" s="37">
+      <c r="H19" s="36">
         <v>811.63</v>
       </c>
-      <c r="I19" s="37">
+      <c r="I19" s="36">
         <v>815.26</v>
       </c>
-      <c r="J19" s="37">
+      <c r="J19" s="36">
         <v>823.64</v>
       </c>
-      <c r="K19" s="37">
+      <c r="K19" s="36">
         <v>847.97</v>
       </c>
-      <c r="L19" s="37">
+      <c r="L19" s="36">
         <v>836.78</v>
       </c>
-      <c r="M19" s="37">
+      <c r="M19" s="36">
         <v>837.66</v>
       </c>
-      <c r="N19" s="37">
+      <c r="N19" s="36">
         <v>845.99</v>
       </c>
-      <c r="O19" s="37">
+      <c r="O19" s="36">
         <v>840.42</v>
       </c>
-      <c r="P19" s="37">
+      <c r="P19" s="36">
         <v>833.17</v>
       </c>
-      <c r="Q19" s="37">
+      <c r="Q19" s="36">
         <v>851.54</v>
       </c>
-      <c r="R19" s="37">
-        <v>834.55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="38" t="s">
+      <c r="R19" s="36">
+        <v>848.77</v>
+      </c>
+      <c r="S19" s="36">
+        <v>851.65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="37">
+      <c r="B20" s="36">
         <v>768.95</v>
       </c>
-      <c r="C20" s="37">
+      <c r="C20" s="36">
         <v>770.3</v>
       </c>
-      <c r="D20" s="37">
+      <c r="D20" s="36">
         <v>784.04</v>
       </c>
-      <c r="E20" s="37">
+      <c r="E20" s="36">
         <v>806.27</v>
       </c>
-      <c r="F20" s="37">
+      <c r="F20" s="36">
         <v>808.6</v>
       </c>
-      <c r="G20" s="37">
+      <c r="G20" s="36">
         <v>820.99</v>
       </c>
-      <c r="H20" s="37">
+      <c r="H20" s="36">
         <v>809.8</v>
       </c>
-      <c r="I20" s="37">
+      <c r="I20" s="36">
         <v>803.18</v>
       </c>
-      <c r="J20" s="37">
+      <c r="J20" s="36">
         <v>806.08</v>
       </c>
-      <c r="K20" s="37">
+      <c r="K20" s="36">
         <v>826.96</v>
       </c>
-      <c r="L20" s="37">
+      <c r="L20" s="36">
         <v>812.67</v>
       </c>
-      <c r="M20" s="37">
+      <c r="M20" s="36">
         <v>797.89</v>
       </c>
-      <c r="N20" s="37">
+      <c r="N20" s="36">
         <v>795.21</v>
       </c>
-      <c r="O20" s="37">
+      <c r="O20" s="36">
         <v>790.5</v>
       </c>
-      <c r="P20" s="37">
+      <c r="P20" s="36">
         <v>789.59</v>
       </c>
-      <c r="Q20" s="37">
+      <c r="Q20" s="36">
         <v>811.72</v>
       </c>
-      <c r="R20" s="37">
-        <v>793.44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="38" t="s">
+      <c r="R20" s="36">
+        <v>790.02</v>
+      </c>
+      <c r="S20" s="36">
+        <v>798.22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="37">
+      <c r="B21" s="36">
         <v>772.13</v>
       </c>
-      <c r="C21" s="37">
+      <c r="C21" s="36">
         <v>767.15</v>
       </c>
-      <c r="D21" s="37">
+      <c r="D21" s="36">
         <v>760.45</v>
       </c>
-      <c r="E21" s="37">
+      <c r="E21" s="36">
         <v>767.53</v>
       </c>
-      <c r="F21" s="37">
+      <c r="F21" s="36">
         <v>766.08</v>
       </c>
-      <c r="G21" s="37">
+      <c r="G21" s="36">
         <v>763.3</v>
       </c>
-      <c r="H21" s="37">
+      <c r="H21" s="36">
         <v>766.92</v>
       </c>
-      <c r="I21" s="37">
+      <c r="I21" s="36">
         <v>770.3</v>
       </c>
-      <c r="J21" s="37">
+      <c r="J21" s="36">
         <v>774.36</v>
       </c>
-      <c r="K21" s="37">
+      <c r="K21" s="36">
         <v>797.05</v>
       </c>
-      <c r="L21" s="37">
+      <c r="L21" s="36">
         <v>780.72</v>
       </c>
-      <c r="M21" s="37">
+      <c r="M21" s="36">
         <v>779.09</v>
       </c>
-      <c r="N21" s="37">
+      <c r="N21" s="36">
         <v>785.23</v>
       </c>
-      <c r="O21" s="37">
+      <c r="O21" s="36">
         <v>786.86</v>
       </c>
-      <c r="P21" s="37">
+      <c r="P21" s="36">
         <v>781.17</v>
       </c>
-      <c r="Q21" s="37">
+      <c r="Q21" s="36">
         <v>794.53</v>
       </c>
-      <c r="R21" s="37">
-        <v>771.51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="38" t="s">
+      <c r="R21" s="36">
+        <v>774.14</v>
+      </c>
+      <c r="S21" s="36">
+        <v>782.15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="37">
+      <c r="B22" s="36">
         <v>739.5</v>
       </c>
-      <c r="C22" s="37">
+      <c r="C22" s="36">
         <v>732.89</v>
       </c>
-      <c r="D22" s="37">
+      <c r="D22" s="36">
         <v>741.66</v>
       </c>
-      <c r="E22" s="37">
+      <c r="E22" s="36">
         <v>746.58</v>
       </c>
-      <c r="F22" s="37">
+      <c r="F22" s="36">
         <v>740.6</v>
       </c>
-      <c r="G22" s="37">
+      <c r="G22" s="36">
         <v>749.05</v>
       </c>
-      <c r="H22" s="37">
+      <c r="H22" s="36">
         <v>747.65</v>
       </c>
-      <c r="I22" s="37">
+      <c r="I22" s="36">
         <v>739.9</v>
       </c>
-      <c r="J22" s="37">
+      <c r="J22" s="36">
         <v>745.52</v>
       </c>
-      <c r="K22" s="37">
+      <c r="K22" s="36">
         <v>763.22</v>
       </c>
-      <c r="L22" s="37">
+      <c r="L22" s="36">
         <v>753.3</v>
       </c>
-      <c r="M22" s="37">
+      <c r="M22" s="36">
         <v>763.58</v>
       </c>
-      <c r="N22" s="37">
+      <c r="N22" s="36">
         <v>773.78</v>
       </c>
-      <c r="O22" s="37">
+      <c r="O22" s="36">
         <v>758.73</v>
       </c>
-      <c r="P22" s="37">
+      <c r="P22" s="36">
         <v>757.25</v>
       </c>
-      <c r="Q22" s="37">
+      <c r="Q22" s="36">
         <v>768.15</v>
       </c>
-      <c r="R22" s="37">
-        <v>760.28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="38" t="s">
+      <c r="R22" s="36">
+        <v>756.7</v>
+      </c>
+      <c r="S22" s="36">
+        <v>759.85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="37">
+      <c r="B23" s="36">
         <v>794.6</v>
       </c>
-      <c r="C23" s="37">
+      <c r="C23" s="36">
         <v>785.89</v>
       </c>
-      <c r="D23" s="37">
+      <c r="D23" s="36">
         <v>775.39</v>
       </c>
-      <c r="E23" s="37">
+      <c r="E23" s="36">
         <v>788.55</v>
       </c>
-      <c r="F23" s="37">
+      <c r="F23" s="36">
         <v>803.37</v>
       </c>
-      <c r="G23" s="37">
+      <c r="G23" s="36">
         <v>790.94</v>
       </c>
-      <c r="H23" s="37">
+      <c r="H23" s="36">
         <v>789.4</v>
       </c>
-      <c r="I23" s="37">
+      <c r="I23" s="36">
         <v>774.63</v>
       </c>
-      <c r="J23" s="37">
+      <c r="J23" s="36">
         <v>798.16</v>
       </c>
-      <c r="K23" s="37">
+      <c r="K23" s="36">
         <v>825.38</v>
       </c>
-      <c r="L23" s="37">
+      <c r="L23" s="36">
         <v>802.74</v>
       </c>
-      <c r="M23" s="37">
+      <c r="M23" s="36">
         <v>803.62</v>
       </c>
-      <c r="N23" s="37">
+      <c r="N23" s="36">
         <v>817.39</v>
       </c>
-      <c r="O23" s="37">
+      <c r="O23" s="36">
         <v>815.62</v>
       </c>
-      <c r="P23" s="37">
+      <c r="P23" s="36">
         <v>814.2</v>
       </c>
-      <c r="Q23" s="37">
+      <c r="Q23" s="36">
         <v>808.54</v>
       </c>
-      <c r="R23" s="37">
-        <v>803.93</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="38" t="s">
+      <c r="R23" s="36">
+        <v>807.12</v>
+      </c>
+      <c r="S23" s="36">
+        <v>806.06</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="37">
+      <c r="B24" s="36">
         <v>749.06</v>
       </c>
-      <c r="C24" s="37">
+      <c r="C24" s="36">
         <v>748.94</v>
       </c>
-      <c r="D24" s="37">
+      <c r="D24" s="36">
         <v>751.04</v>
       </c>
-      <c r="E24" s="37">
+      <c r="E24" s="36">
         <v>753.06</v>
       </c>
-      <c r="F24" s="37">
+      <c r="F24" s="36">
         <v>754.8</v>
       </c>
-      <c r="G24" s="37">
+      <c r="G24" s="36">
         <v>741.73</v>
       </c>
-      <c r="H24" s="37">
+      <c r="H24" s="36">
         <v>740.18</v>
       </c>
-      <c r="I24" s="37">
+      <c r="I24" s="36">
         <v>747.95</v>
       </c>
-      <c r="J24" s="37">
+      <c r="J24" s="36">
         <v>760.92</v>
       </c>
-      <c r="K24" s="37">
+      <c r="K24" s="36">
         <v>773.47</v>
       </c>
-      <c r="L24" s="37">
+      <c r="L24" s="36">
         <v>770.44</v>
       </c>
-      <c r="M24" s="37">
+      <c r="M24" s="36">
         <v>763.64</v>
       </c>
-      <c r="N24" s="37">
+      <c r="N24" s="36">
         <v>776.79</v>
       </c>
-      <c r="O24" s="37">
+      <c r="O24" s="36">
         <v>773.52</v>
       </c>
-      <c r="P24" s="37">
+      <c r="P24" s="36">
         <v>789.93</v>
       </c>
-      <c r="Q24" s="37">
+      <c r="Q24" s="36">
         <v>790.16</v>
       </c>
-      <c r="R24" s="37">
-        <v>790.1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="38" t="s">
+      <c r="R24" s="36">
+        <v>793.85</v>
+      </c>
+      <c r="S24" s="36">
+        <v>780.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="37">
+      <c r="B25" s="36">
         <v>919.97</v>
       </c>
-      <c r="C25" s="37">
+      <c r="C25" s="36">
         <v>916.64</v>
       </c>
-      <c r="D25" s="37">
+      <c r="D25" s="36">
         <v>924.45</v>
       </c>
-      <c r="E25" s="37">
+      <c r="E25" s="36">
         <v>929.21</v>
       </c>
-      <c r="F25" s="37">
+      <c r="F25" s="36">
         <v>939.47</v>
       </c>
-      <c r="G25" s="37">
+      <c r="G25" s="36">
         <v>926.74</v>
       </c>
-      <c r="H25" s="37">
+      <c r="H25" s="36">
         <v>928.16</v>
       </c>
-      <c r="I25" s="37">
+      <c r="I25" s="36">
         <v>936.37</v>
       </c>
-      <c r="J25" s="37">
+      <c r="J25" s="36">
         <v>940.77</v>
       </c>
-      <c r="K25" s="37">
+      <c r="K25" s="36">
         <v>962.85</v>
       </c>
-      <c r="L25" s="37">
+      <c r="L25" s="36">
         <v>951.51</v>
       </c>
-      <c r="M25" s="37">
+      <c r="M25" s="36">
         <v>942.22</v>
       </c>
-      <c r="N25" s="37">
+      <c r="N25" s="36">
         <v>971.11</v>
       </c>
-      <c r="O25" s="37">
+      <c r="O25" s="36">
         <v>950.08</v>
       </c>
-      <c r="P25" s="37">
+      <c r="P25" s="36">
         <v>944.12</v>
       </c>
-      <c r="Q25" s="37">
+      <c r="Q25" s="36">
         <v>969.88</v>
       </c>
-      <c r="R25" s="37">
+      <c r="R25" s="36">
         <v>939.47</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="38" t="s">
+      <c r="S25" s="36">
+        <v>945.65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="37">
+      <c r="B26" s="36">
         <v>1041.48</v>
       </c>
-      <c r="C26" s="37">
+      <c r="C26" s="36">
         <v>1031.25</v>
       </c>
-      <c r="D26" s="37">
+      <c r="D26" s="36">
         <v>1030.8599999999999</v>
       </c>
-      <c r="E26" s="37">
+      <c r="E26" s="36">
         <v>1034.6300000000001</v>
       </c>
-      <c r="F26" s="37">
+      <c r="F26" s="36">
         <v>1047.4000000000001</v>
       </c>
-      <c r="G26" s="37">
+      <c r="G26" s="36">
         <v>1029.46</v>
       </c>
-      <c r="H26" s="37">
+      <c r="H26" s="36">
         <v>1035.8900000000001</v>
       </c>
-      <c r="I26" s="37">
+      <c r="I26" s="36">
         <v>1029.46</v>
       </c>
-      <c r="J26" s="37">
+      <c r="J26" s="36">
         <v>1049.22</v>
       </c>
-      <c r="K26" s="37">
+      <c r="K26" s="36">
         <v>1075.52</v>
       </c>
-      <c r="L26" s="37">
+      <c r="L26" s="36">
         <v>1059.78</v>
       </c>
-      <c r="M26" s="37">
+      <c r="M26" s="36">
         <v>1065.6400000000001</v>
       </c>
-      <c r="N26" s="37">
+      <c r="N26" s="36">
         <v>1084.27</v>
       </c>
-      <c r="O26" s="37">
+      <c r="O26" s="36">
         <v>1065.24</v>
       </c>
-      <c r="P26" s="37">
+      <c r="P26" s="36">
         <v>1061.6099999999999</v>
       </c>
-      <c r="Q26" s="37">
+      <c r="Q26" s="36">
         <v>1086.29</v>
       </c>
-      <c r="R26" s="37">
-        <v>1055.28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="38" t="s">
+      <c r="R26" s="36">
+        <v>1060.1199999999999</v>
+      </c>
+      <c r="S26" s="36">
+        <v>1054.77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="37">
+      <c r="B27" s="36">
         <v>822.02</v>
       </c>
-      <c r="C27" s="37">
+      <c r="C27" s="36">
         <v>818.64</v>
       </c>
-      <c r="D27" s="37">
+      <c r="D27" s="36">
         <v>821.06</v>
       </c>
-      <c r="E27" s="37">
+      <c r="E27" s="36">
         <v>822.17</v>
       </c>
-      <c r="F27" s="37">
+      <c r="F27" s="36">
         <v>823.89</v>
       </c>
-      <c r="G27" s="37">
+      <c r="G27" s="36">
         <v>816.66</v>
       </c>
-      <c r="H27" s="37">
+      <c r="H27" s="36">
         <v>821.47</v>
       </c>
-      <c r="I27" s="37">
+      <c r="I27" s="36">
         <v>821.1</v>
       </c>
-      <c r="J27" s="37">
+      <c r="J27" s="36">
         <v>829.68</v>
       </c>
-      <c r="K27" s="37">
+      <c r="K27" s="36">
         <v>850.86</v>
       </c>
-      <c r="L27" s="37">
+      <c r="L27" s="36">
         <v>834.54</v>
       </c>
-      <c r="M27" s="37">
+      <c r="M27" s="36">
         <v>840.08</v>
       </c>
-      <c r="N27" s="37">
+      <c r="N27" s="36">
         <v>851.06</v>
       </c>
-      <c r="O27" s="37">
+      <c r="O27" s="36">
         <v>843.09</v>
       </c>
-      <c r="P27" s="37">
+      <c r="P27" s="36">
         <v>808.02</v>
       </c>
-      <c r="Q27" s="37">
+      <c r="Q27" s="36">
         <v>830.13</v>
       </c>
-      <c r="R27" s="37">
-        <v>822.83</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="38" t="s">
+      <c r="R27" s="36">
+        <v>791.25</v>
+      </c>
+      <c r="S27" s="36">
+        <v>799.03</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="37">
+      <c r="B28" s="36">
         <v>894.79</v>
       </c>
-      <c r="C28" s="37">
+      <c r="C28" s="36">
         <v>886.44</v>
       </c>
-      <c r="D28" s="37">
+      <c r="D28" s="36">
         <v>906.18</v>
       </c>
-      <c r="E28" s="37">
+      <c r="E28" s="36">
         <v>906.53</v>
       </c>
-      <c r="F28" s="37">
+      <c r="F28" s="36">
         <v>925.76</v>
       </c>
-      <c r="G28" s="37">
+      <c r="G28" s="36">
         <v>913.75</v>
       </c>
-      <c r="H28" s="37">
+      <c r="H28" s="36">
         <v>919</v>
       </c>
-      <c r="I28" s="37">
+      <c r="I28" s="36">
         <v>916.61</v>
       </c>
-      <c r="J28" s="37">
+      <c r="J28" s="36">
         <v>931.61</v>
       </c>
-      <c r="K28" s="37">
+      <c r="K28" s="36">
         <v>953.24</v>
       </c>
-      <c r="L28" s="37">
+      <c r="L28" s="36">
         <v>950.08</v>
       </c>
-      <c r="M28" s="37">
+      <c r="M28" s="36">
         <v>944.12</v>
       </c>
-      <c r="N28" s="37">
+      <c r="N28" s="36">
         <v>958.8</v>
       </c>
-      <c r="O28" s="37">
+      <c r="O28" s="36">
         <v>955.19</v>
       </c>
-      <c r="P28" s="37">
+      <c r="P28" s="36">
         <v>955.86</v>
       </c>
-      <c r="Q28" s="37">
+      <c r="Q28" s="36">
         <v>987.7</v>
       </c>
-      <c r="R28" s="37">
-        <v>955.53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="38" t="s">
+      <c r="R28" s="36">
+        <v>957.68</v>
+      </c>
+      <c r="S28" s="36">
+        <v>954.52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="37">
+      <c r="B29" s="36">
         <v>687.5</v>
       </c>
-      <c r="C29" s="37">
+      <c r="C29" s="36">
         <v>679.31</v>
       </c>
-      <c r="D29" s="37">
+      <c r="D29" s="36">
         <v>672.37</v>
       </c>
-      <c r="E29" s="37">
+      <c r="E29" s="36">
         <v>684.29</v>
       </c>
-      <c r="F29" s="37">
+      <c r="F29" s="36">
         <v>698.09</v>
       </c>
-      <c r="G29" s="37">
+      <c r="G29" s="36">
         <v>687.93</v>
       </c>
-      <c r="H29" s="37">
+      <c r="H29" s="36">
         <v>700.79</v>
       </c>
-      <c r="I29" s="37">
+      <c r="I29" s="36">
         <v>688.62</v>
       </c>
-      <c r="J29" s="37">
+      <c r="J29" s="36">
         <v>699.05</v>
       </c>
-      <c r="K29" s="37">
+      <c r="K29" s="36">
         <v>715.88</v>
       </c>
-      <c r="L29" s="37">
+      <c r="L29" s="36">
         <v>699.75</v>
       </c>
-      <c r="M29" s="37">
+      <c r="M29" s="36">
         <v>700.79</v>
       </c>
-      <c r="N29" s="37">
+      <c r="N29" s="36">
         <v>711.61</v>
       </c>
-      <c r="O29" s="37">
+      <c r="O29" s="36">
         <v>705.1</v>
       </c>
-      <c r="P29" s="37">
+      <c r="P29" s="36">
         <v>699.61</v>
       </c>
-      <c r="Q29" s="37">
+      <c r="Q29" s="36">
         <v>705.1</v>
       </c>
-      <c r="R29" s="37">
-        <v>700.95</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="38" t="s">
+      <c r="R29" s="36">
+        <v>697.12</v>
+      </c>
+      <c r="S29" s="36">
+        <v>703.93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="37">
+      <c r="B30" s="36">
         <v>743.15</v>
       </c>
-      <c r="C30" s="37">
+      <c r="C30" s="36">
         <v>738.26</v>
       </c>
-      <c r="D30" s="37">
+      <c r="D30" s="36">
         <v>740.59</v>
       </c>
-      <c r="E30" s="37">
+      <c r="E30" s="36">
         <v>746.79</v>
       </c>
-      <c r="F30" s="37">
+      <c r="F30" s="36">
         <v>752.52</v>
       </c>
-      <c r="G30" s="37">
+      <c r="G30" s="36">
         <v>738.93</v>
       </c>
-      <c r="H30" s="37">
+      <c r="H30" s="36">
         <v>746.59</v>
       </c>
-      <c r="I30" s="37">
+      <c r="I30" s="36">
         <v>741.02</v>
       </c>
-      <c r="J30" s="37">
+      <c r="J30" s="36">
         <v>760.91</v>
       </c>
-      <c r="K30" s="37">
+      <c r="K30" s="36">
         <v>780.78</v>
       </c>
-      <c r="L30" s="37">
+      <c r="L30" s="36">
         <v>768.91</v>
       </c>
-      <c r="M30" s="37">
+      <c r="M30" s="36">
         <v>766.92</v>
       </c>
-      <c r="N30" s="37">
+      <c r="N30" s="36">
         <v>792.08</v>
       </c>
-      <c r="O30" s="37">
+      <c r="O30" s="36">
         <v>776.86</v>
       </c>
-      <c r="P30" s="37">
+      <c r="P30" s="36">
         <v>785.55</v>
       </c>
-      <c r="Q30" s="37">
+      <c r="Q30" s="36">
         <v>812.26</v>
       </c>
-      <c r="R30" s="37">
-        <v>794.29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="38" t="s">
+      <c r="R30" s="36">
+        <v>791.28</v>
+      </c>
+      <c r="S30" s="36">
+        <v>792.61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="37">
+      <c r="B31" s="36">
         <v>713.87</v>
       </c>
-      <c r="C31" s="37">
+      <c r="C31" s="36">
         <v>722.87</v>
       </c>
-      <c r="D31" s="37">
+      <c r="D31" s="36">
         <v>709.95</v>
       </c>
-      <c r="E31" s="37">
+      <c r="E31" s="36">
         <v>724.79</v>
       </c>
-      <c r="F31" s="37">
+      <c r="F31" s="36">
         <v>740.52</v>
       </c>
-      <c r="G31" s="37">
+      <c r="G31" s="36">
         <v>732.5</v>
       </c>
-      <c r="H31" s="37">
+      <c r="H31" s="36">
         <v>739.36</v>
       </c>
-      <c r="I31" s="37">
+      <c r="I31" s="36">
         <v>738.47</v>
       </c>
-      <c r="J31" s="37">
+      <c r="J31" s="36">
         <v>740.95</v>
       </c>
-      <c r="K31" s="37">
+      <c r="K31" s="36">
         <v>758.91</v>
       </c>
-      <c r="L31" s="37">
+      <c r="L31" s="36">
         <v>739.37</v>
       </c>
-      <c r="M31" s="37">
+      <c r="M31" s="36">
         <v>735.8</v>
       </c>
-      <c r="N31" s="37">
+      <c r="N31" s="36">
         <v>751.43</v>
       </c>
-      <c r="O31" s="37">
+      <c r="O31" s="36">
         <v>729.31</v>
       </c>
-      <c r="P31" s="37">
+      <c r="P31" s="36">
         <v>731.58</v>
       </c>
-      <c r="Q31" s="37">
+      <c r="Q31" s="36">
         <v>760.98</v>
       </c>
-      <c r="R31" s="37">
-        <v>750.47</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="38" t="s">
+      <c r="R31" s="36">
+        <v>750.79</v>
+      </c>
+      <c r="S31" s="36">
+        <v>760.91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="37">
+      <c r="B32" s="36">
         <v>760.18</v>
       </c>
-      <c r="C32" s="37">
+      <c r="C32" s="36">
         <v>761.9</v>
       </c>
-      <c r="D32" s="37">
+      <c r="D32" s="36">
         <v>762.86</v>
       </c>
-      <c r="E32" s="37">
+      <c r="E32" s="36">
         <v>779.96</v>
       </c>
-      <c r="F32" s="37">
+      <c r="F32" s="36">
         <v>785.66</v>
       </c>
-      <c r="G32" s="37">
+      <c r="G32" s="36">
         <v>779.08</v>
       </c>
-      <c r="H32" s="37">
+      <c r="H32" s="36">
         <v>782.68</v>
       </c>
-      <c r="I32" s="37">
+      <c r="I32" s="36">
         <v>783.28</v>
       </c>
-      <c r="J32" s="37">
+      <c r="J32" s="36">
         <v>783.82</v>
       </c>
-      <c r="K32" s="37">
+      <c r="K32" s="36">
         <v>806.27</v>
       </c>
-      <c r="L32" s="37">
+      <c r="L32" s="36">
         <v>774.14</v>
       </c>
-      <c r="M32" s="37">
+      <c r="M32" s="36">
         <v>768.83</v>
       </c>
-      <c r="N32" s="37">
+      <c r="N32" s="36">
         <v>807.84</v>
       </c>
-      <c r="O32" s="37">
+      <c r="O32" s="36">
         <v>791.95</v>
       </c>
-      <c r="P32" s="37">
+      <c r="P32" s="36">
         <v>804.44</v>
       </c>
-      <c r="Q32" s="37">
+      <c r="Q32" s="36">
         <v>830.06</v>
       </c>
-      <c r="R32" s="37">
-        <v>814.24</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="38" t="s">
+      <c r="R32" s="36">
+        <v>812.89</v>
+      </c>
+      <c r="S32" s="36">
+        <v>818.03</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="37">
+      <c r="B33" s="36">
         <v>739.7</v>
       </c>
-      <c r="C33" s="37">
+      <c r="C33" s="36">
         <v>741.26</v>
       </c>
-      <c r="D33" s="37">
+      <c r="D33" s="36">
         <v>739.26</v>
       </c>
-      <c r="E33" s="37">
+      <c r="E33" s="36">
         <v>746.59</v>
       </c>
-      <c r="F33" s="37">
+      <c r="F33" s="36">
         <v>758.73</v>
       </c>
-      <c r="G33" s="37">
+      <c r="G33" s="36">
         <v>750.38</v>
       </c>
-      <c r="H33" s="37">
+      <c r="H33" s="36">
         <v>748.3</v>
       </c>
-      <c r="I33" s="37">
+      <c r="I33" s="36">
         <v>758.52</v>
       </c>
-      <c r="J33" s="37">
+      <c r="J33" s="36">
         <v>750.88</v>
       </c>
-      <c r="K33" s="37">
+      <c r="K33" s="36">
         <v>765.9</v>
       </c>
-      <c r="L33" s="37">
+      <c r="L33" s="36">
         <v>749.35</v>
       </c>
-      <c r="M33" s="37">
+      <c r="M33" s="36">
         <v>757.02</v>
       </c>
-      <c r="N33" s="37">
+      <c r="N33" s="36">
         <v>774.07</v>
       </c>
-      <c r="O33" s="37">
+      <c r="O33" s="36">
         <v>753.75</v>
       </c>
-      <c r="P33" s="37">
+      <c r="P33" s="36">
         <v>761.39</v>
       </c>
-      <c r="Q33" s="37">
+      <c r="Q33" s="36">
         <v>768.82</v>
       </c>
-      <c r="R33" s="37">
-        <v>760.61</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="38" t="s">
+      <c r="R33" s="36">
+        <v>761.11</v>
+      </c>
+      <c r="S33" s="36">
+        <v>763.16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="37">
+      <c r="B34" s="36">
         <v>861.8</v>
       </c>
-      <c r="C34" s="37">
+      <c r="C34" s="36">
         <v>858.22</v>
       </c>
-      <c r="D34" s="37">
+      <c r="D34" s="36">
         <v>849.35</v>
       </c>
-      <c r="E34" s="37">
+      <c r="E34" s="36">
         <v>860.83</v>
       </c>
-      <c r="F34" s="37">
+      <c r="F34" s="36">
         <v>862.92</v>
       </c>
-      <c r="G34" s="37">
+      <c r="G34" s="36">
         <v>846.21</v>
       </c>
-      <c r="H34" s="37">
+      <c r="H34" s="36">
         <v>852.38</v>
       </c>
-      <c r="I34" s="37">
+      <c r="I34" s="36">
         <v>864.62</v>
       </c>
-      <c r="J34" s="37">
+      <c r="J34" s="36">
         <v>884.07</v>
       </c>
-      <c r="K34" s="37">
+      <c r="K34" s="36">
         <v>909.08</v>
       </c>
-      <c r="L34" s="37">
+      <c r="L34" s="36">
         <v>892.06</v>
       </c>
-      <c r="M34" s="37">
+      <c r="M34" s="36">
         <v>894.44</v>
       </c>
-      <c r="N34" s="37">
+      <c r="N34" s="36">
         <v>905.13</v>
       </c>
-      <c r="O34" s="37">
+      <c r="O34" s="36">
         <v>893.45</v>
       </c>
-      <c r="P34" s="37">
+      <c r="P34" s="36">
         <v>893.45</v>
       </c>
-      <c r="Q34" s="37">
+      <c r="Q34" s="36">
         <v>916.76</v>
       </c>
-      <c r="R34" s="37">
-        <v>889.2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="38" t="s">
+      <c r="R34" s="36">
+        <v>888.52</v>
+      </c>
+      <c r="S34" s="36">
+        <v>878.22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="37">
+      <c r="B35" s="36">
         <v>934.75</v>
       </c>
-      <c r="C35" s="37">
+      <c r="C35" s="36">
         <v>940.46</v>
       </c>
-      <c r="D35" s="37">
+      <c r="D35" s="36">
         <v>937.67</v>
       </c>
-      <c r="E35" s="37">
+      <c r="E35" s="36">
         <v>948.77</v>
       </c>
-      <c r="F35" s="37">
+      <c r="F35" s="36">
         <v>961.18</v>
       </c>
-      <c r="G35" s="37">
+      <c r="G35" s="36">
         <v>941.4</v>
       </c>
-      <c r="H35" s="37">
+      <c r="H35" s="36">
         <v>946.28</v>
       </c>
-      <c r="I35" s="37">
+      <c r="I35" s="36">
         <v>946.83</v>
       </c>
-      <c r="J35" s="37">
+      <c r="J35" s="36">
         <v>981.01</v>
       </c>
-      <c r="K35" s="37">
+      <c r="K35" s="36">
         <v>1004.85</v>
       </c>
-      <c r="L35" s="37">
+      <c r="L35" s="36">
         <v>978.77</v>
       </c>
-      <c r="M35" s="37">
+      <c r="M35" s="36">
         <v>986.52</v>
       </c>
-      <c r="N35" s="37">
+      <c r="N35" s="36">
         <v>1003.45</v>
       </c>
-      <c r="O35" s="37">
+      <c r="O35" s="36">
         <v>963.64</v>
       </c>
-      <c r="P35" s="37">
+      <c r="P35" s="36">
         <v>951.35</v>
       </c>
-      <c r="Q35" s="37">
+      <c r="Q35" s="36">
         <v>987.39</v>
       </c>
-      <c r="R35" s="37">
-        <v>820.98</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="38" t="s">
+      <c r="R35" s="36">
+        <v>1007.76</v>
+      </c>
+      <c r="S35" s="36">
+        <v>999.32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A36" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="37">
+      <c r="B36" s="36">
         <v>687.71</v>
       </c>
-      <c r="C36" s="37">
+      <c r="C36" s="36">
         <v>691.78</v>
       </c>
-      <c r="D36" s="37">
+      <c r="D36" s="36">
         <v>681.98</v>
       </c>
-      <c r="E36" s="37">
+      <c r="E36" s="36">
         <v>685.41</v>
       </c>
-      <c r="F36" s="37">
+      <c r="F36" s="36">
         <v>686.47</v>
       </c>
-      <c r="G36" s="37">
+      <c r="G36" s="36">
         <v>678.69</v>
       </c>
-      <c r="H36" s="37">
+      <c r="H36" s="36">
         <v>684.74</v>
       </c>
-      <c r="I36" s="37">
+      <c r="I36" s="36">
         <v>688.13</v>
       </c>
-      <c r="J36" s="37">
+      <c r="J36" s="36">
         <v>691.71</v>
       </c>
-      <c r="K36" s="37">
+      <c r="K36" s="36">
         <v>709.87</v>
       </c>
-      <c r="L36" s="37">
+      <c r="L36" s="36">
         <v>695.72</v>
       </c>
-      <c r="M36" s="37">
+      <c r="M36" s="36">
         <v>694.54</v>
       </c>
-      <c r="N36" s="37">
+      <c r="N36" s="36">
         <v>703.17</v>
       </c>
-      <c r="O36" s="37">
+      <c r="O36" s="36">
         <v>695.21</v>
       </c>
-      <c r="P36" s="37">
+      <c r="P36" s="36">
         <v>694.21</v>
       </c>
-      <c r="Q36" s="37">
+      <c r="Q36" s="36">
         <v>720.71</v>
       </c>
-      <c r="R36" s="37">
-        <v>709.05</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="38" t="s">
+      <c r="R36" s="36">
+        <v>710.06</v>
+      </c>
+      <c r="S36" s="36">
+        <v>706.82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A37" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="37">
+      <c r="B37" s="36">
         <v>976.95</v>
       </c>
-      <c r="C37" s="37">
+      <c r="C37" s="36">
         <v>979.07</v>
       </c>
-      <c r="D37" s="37">
+      <c r="D37" s="36">
         <v>971.43</v>
       </c>
-      <c r="E37" s="37">
+      <c r="E37" s="36">
         <v>969.36</v>
       </c>
-      <c r="F37" s="37">
+      <c r="F37" s="36">
         <v>981.46</v>
       </c>
-      <c r="G37" s="37">
+      <c r="G37" s="36">
         <v>962.12</v>
       </c>
-      <c r="H37" s="37">
+      <c r="H37" s="36">
         <v>977.3</v>
       </c>
-      <c r="I37" s="37">
+      <c r="I37" s="36">
         <v>993.04</v>
       </c>
-      <c r="J37" s="37">
+      <c r="J37" s="36">
         <v>980.78</v>
       </c>
-      <c r="K37" s="37">
+      <c r="K37" s="36">
         <v>998.87</v>
       </c>
-      <c r="L37" s="37">
+      <c r="L37" s="36">
         <v>979.96</v>
       </c>
-      <c r="M37" s="37">
+      <c r="M37" s="36">
         <v>980.88</v>
       </c>
-      <c r="N37" s="37">
+      <c r="N37" s="36">
         <v>1011.03</v>
       </c>
-      <c r="O37" s="37">
+      <c r="O37" s="36">
         <v>992.67</v>
       </c>
-      <c r="P37" s="37">
+      <c r="P37" s="36">
         <v>984.66</v>
       </c>
-      <c r="Q37" s="37">
+      <c r="Q37" s="36">
         <v>1016.06</v>
       </c>
-      <c r="R37" s="37">
-        <v>994.01</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="38" t="s">
+      <c r="R37" s="36">
+        <v>991.67</v>
+      </c>
+      <c r="S37" s="36">
+        <v>991.65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A38" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="37">
+      <c r="B38" s="36">
         <v>776.72</v>
       </c>
-      <c r="C38" s="37">
+      <c r="C38" s="36">
         <v>783.48</v>
       </c>
-      <c r="D38" s="37">
+      <c r="D38" s="36">
         <v>790.78</v>
       </c>
-      <c r="E38" s="37">
+      <c r="E38" s="36">
         <v>797.13</v>
       </c>
-      <c r="F38" s="37">
+      <c r="F38" s="36">
         <v>809.03</v>
       </c>
-      <c r="G38" s="37">
+      <c r="G38" s="36">
         <v>801.52</v>
       </c>
-      <c r="H38" s="37">
+      <c r="H38" s="36">
         <v>803.16</v>
       </c>
-      <c r="I38" s="37">
+      <c r="I38" s="36">
         <v>806.68</v>
       </c>
-      <c r="J38" s="37">
+      <c r="J38" s="36">
         <v>809.43</v>
       </c>
-      <c r="K38" s="37">
+      <c r="K38" s="36">
         <v>824.86</v>
       </c>
-      <c r="L38" s="37">
+      <c r="L38" s="36">
         <v>817.65</v>
       </c>
-      <c r="M38" s="37">
+      <c r="M38" s="36">
         <v>812.87</v>
       </c>
-      <c r="N38" s="37">
+      <c r="N38" s="36">
         <v>818.38</v>
       </c>
-      <c r="O38" s="37">
+      <c r="O38" s="36">
         <v>825.26</v>
       </c>
-      <c r="P38" s="37">
+      <c r="P38" s="36">
         <v>823.89</v>
       </c>
-      <c r="Q38" s="37">
+      <c r="Q38" s="36">
         <v>844.6</v>
       </c>
-      <c r="R38" s="37">
-        <v>830.76</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="38" t="s">
+      <c r="R38" s="36">
+        <v>825.6</v>
+      </c>
+      <c r="S38" s="36">
+        <v>823.48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A39" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="37">
+      <c r="B39" s="36">
         <v>895.13</v>
       </c>
-      <c r="C39" s="37">
+      <c r="C39" s="36">
         <v>875.69</v>
       </c>
-      <c r="D39" s="37">
+      <c r="D39" s="36">
         <v>864.74</v>
       </c>
-      <c r="E39" s="37">
+      <c r="E39" s="36">
         <v>885.1</v>
       </c>
-      <c r="F39" s="37">
+      <c r="F39" s="36">
         <v>904.96</v>
       </c>
-      <c r="G39" s="37">
+      <c r="G39" s="36">
         <v>878.84</v>
       </c>
-      <c r="H39" s="37">
+      <c r="H39" s="36">
         <v>891.58</v>
       </c>
-      <c r="I39" s="37">
+      <c r="I39" s="36">
         <v>896.93</v>
       </c>
-      <c r="J39" s="37">
+      <c r="J39" s="36">
         <v>891.99</v>
       </c>
-      <c r="K39" s="37">
+      <c r="K39" s="36">
         <v>913.3</v>
       </c>
-      <c r="L39" s="37">
+      <c r="L39" s="36">
         <v>880.14</v>
       </c>
-      <c r="M39" s="37">
+      <c r="M39" s="36">
         <v>872.25</v>
       </c>
-      <c r="N39" s="37">
+      <c r="N39" s="36">
         <v>882.2</v>
       </c>
-      <c r="O39" s="37">
+      <c r="O39" s="36">
         <v>867.16</v>
       </c>
-      <c r="P39" s="37">
+      <c r="P39" s="36">
         <v>868.52</v>
       </c>
-      <c r="Q39" s="37">
+      <c r="Q39" s="36">
         <v>915.41</v>
       </c>
-      <c r="R39" s="37">
-        <v>916.04</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="38" t="s">
+      <c r="R39" s="36">
+        <v>915.2</v>
+      </c>
+      <c r="S39" s="36">
+        <v>921.94</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A40" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="37">
+      <c r="B40" s="36">
         <v>786.08</v>
       </c>
-      <c r="C40" s="37">
+      <c r="C40" s="36">
         <v>785.4</v>
       </c>
-      <c r="D40" s="37">
+      <c r="D40" s="36">
         <v>787.03</v>
       </c>
-      <c r="E40" s="37">
+      <c r="E40" s="36">
         <v>799.94</v>
       </c>
-      <c r="F40" s="37">
+      <c r="F40" s="36">
         <v>805.3</v>
       </c>
-      <c r="G40" s="37">
+      <c r="G40" s="36">
         <v>794.05</v>
       </c>
-      <c r="H40" s="37">
+      <c r="H40" s="36">
         <v>800.22</v>
       </c>
-      <c r="I40" s="37">
+      <c r="I40" s="36">
         <v>796.79</v>
       </c>
-      <c r="J40" s="37">
+      <c r="J40" s="36">
         <v>810.12</v>
       </c>
-      <c r="K40" s="37">
+      <c r="K40" s="36">
         <v>827.94</v>
       </c>
-      <c r="L40" s="37">
+      <c r="L40" s="36">
         <v>815.28</v>
       </c>
-      <c r="M40" s="37">
+      <c r="M40" s="36">
         <v>820.44</v>
       </c>
-      <c r="N40" s="37">
+      <c r="N40" s="36">
         <v>825.94</v>
       </c>
-      <c r="O40" s="37">
+      <c r="O40" s="36">
         <v>814.31</v>
       </c>
-      <c r="P40" s="37">
+      <c r="P40" s="36">
         <v>815.33</v>
       </c>
-      <c r="Q40" s="37">
+      <c r="Q40" s="36">
         <v>823.54</v>
       </c>
-      <c r="R40" s="37">
-        <v>814.97</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="38" t="s">
+      <c r="R40" s="36">
+        <v>814.28</v>
+      </c>
+      <c r="S40" s="36">
+        <v>812.87</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A41" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="37">
+      <c r="B41" s="36">
         <v>756.28</v>
       </c>
-      <c r="C41" s="37">
+      <c r="C41" s="36">
         <v>759.68</v>
       </c>
-      <c r="D41" s="37">
+      <c r="D41" s="36">
         <v>754.52</v>
       </c>
-      <c r="E41" s="37">
+      <c r="E41" s="36">
         <v>757.39</v>
       </c>
-      <c r="F41" s="37">
+      <c r="F41" s="36">
         <v>771.15</v>
       </c>
-      <c r="G41" s="37">
+      <c r="G41" s="36">
         <v>762.65</v>
       </c>
-      <c r="H41" s="37">
+      <c r="H41" s="36">
         <v>777.22</v>
       </c>
-      <c r="I41" s="37">
+      <c r="I41" s="36">
         <v>767.55</v>
       </c>
-      <c r="J41" s="37">
+      <c r="J41" s="36">
         <v>779.92</v>
       </c>
-      <c r="K41" s="37">
+      <c r="K41" s="36">
         <v>798.25</v>
       </c>
-      <c r="L41" s="37">
+      <c r="L41" s="36">
         <v>780.15</v>
       </c>
-      <c r="M41" s="37">
+      <c r="M41" s="36">
         <v>781.55</v>
       </c>
-      <c r="N41" s="37">
+      <c r="N41" s="36">
         <v>798.13</v>
       </c>
-      <c r="O41" s="37">
+      <c r="O41" s="36">
         <v>798.13</v>
       </c>
-      <c r="P41" s="37">
+      <c r="P41" s="36">
         <v>799.19</v>
       </c>
-      <c r="Q41" s="37">
+      <c r="Q41" s="36">
         <v>823.19</v>
       </c>
-      <c r="R41" s="37">
-        <v>806.41</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="38" t="s">
+      <c r="R41" s="36">
+        <v>803.08</v>
+      </c>
+      <c r="S41" s="36">
+        <v>804.79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A42" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="37">
+      <c r="B42" s="36">
         <v>811.29</v>
       </c>
-      <c r="C42" s="37">
+      <c r="C42" s="36">
         <v>820.6</v>
       </c>
-      <c r="D42" s="37">
+      <c r="D42" s="36">
         <v>811.71</v>
       </c>
-      <c r="E42" s="37">
+      <c r="E42" s="36">
         <v>834.62</v>
       </c>
-      <c r="F42" s="37">
+      <c r="F42" s="36">
         <v>855.7</v>
       </c>
-      <c r="G42" s="37">
+      <c r="G42" s="36">
         <v>834.14</v>
       </c>
-      <c r="H42" s="37">
+      <c r="H42" s="36">
         <v>844.86</v>
       </c>
-      <c r="I42" s="37">
+      <c r="I42" s="36">
         <v>843.83</v>
       </c>
-      <c r="J42" s="37">
+      <c r="J42" s="36">
         <v>857.5</v>
       </c>
-      <c r="K42" s="37">
+      <c r="K42" s="36">
         <v>885.92</v>
       </c>
-      <c r="L42" s="37">
+      <c r="L42" s="36">
         <v>856.8</v>
       </c>
-      <c r="M42" s="37">
+      <c r="M42" s="36">
         <v>850.48</v>
       </c>
-      <c r="N42" s="37">
+      <c r="N42" s="36">
         <v>871.34</v>
       </c>
-      <c r="O42" s="37">
+      <c r="O42" s="36">
         <v>869.04</v>
       </c>
-      <c r="P42" s="37">
+      <c r="P42" s="36">
         <v>859.35</v>
       </c>
-      <c r="Q42" s="37">
+      <c r="Q42" s="36">
         <v>894.84</v>
       </c>
-      <c r="R42" s="37">
-        <v>854.28</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="38" t="s">
+      <c r="R42" s="36">
+        <v>852.1</v>
+      </c>
+      <c r="S42" s="36">
+        <v>858.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A43" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="37">
+      <c r="B43" s="36">
         <v>831.72</v>
       </c>
-      <c r="C43" s="37">
+      <c r="C43" s="36">
         <v>825.89</v>
       </c>
-      <c r="D43" s="37">
+      <c r="D43" s="36">
         <v>822.53</v>
       </c>
-      <c r="E43" s="37">
+      <c r="E43" s="36">
         <v>825.65</v>
       </c>
-      <c r="F43" s="37">
+      <c r="F43" s="36">
         <v>830.55</v>
       </c>
-      <c r="G43" s="37">
+      <c r="G43" s="36">
         <v>824.72</v>
       </c>
-      <c r="H43" s="37">
+      <c r="H43" s="36">
         <v>831.48</v>
       </c>
-      <c r="I43" s="37">
+      <c r="I43" s="36">
         <v>829.11</v>
       </c>
-      <c r="J43" s="37">
+      <c r="J43" s="36">
         <v>837.23</v>
       </c>
-      <c r="K43" s="37">
+      <c r="K43" s="36">
         <v>852.5</v>
       </c>
-      <c r="L43" s="37">
+      <c r="L43" s="36">
         <v>842.63</v>
       </c>
-      <c r="M43" s="37">
+      <c r="M43" s="36">
         <v>845</v>
       </c>
-      <c r="N43" s="37">
+      <c r="N43" s="36">
         <v>848.57</v>
       </c>
-      <c r="O43" s="37">
+      <c r="O43" s="36">
         <v>835.33</v>
       </c>
-      <c r="P43" s="37">
+      <c r="P43" s="36">
         <v>826.65</v>
       </c>
-      <c r="Q43" s="37">
+      <c r="Q43" s="36">
         <v>853.94</v>
       </c>
-      <c r="R43" s="37">
-        <v>842.3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="38" t="s">
+      <c r="R43" s="36">
+        <v>839.59</v>
+      </c>
+      <c r="S43" s="36">
+        <v>837.23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A44" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="37">
+      <c r="B44" s="36">
         <v>842.08</v>
       </c>
-      <c r="C44" s="37">
+      <c r="C44" s="36">
         <v>843.7</v>
       </c>
-      <c r="D44" s="37">
+      <c r="D44" s="36">
         <v>833.95</v>
       </c>
-      <c r="E44" s="37">
+      <c r="E44" s="36">
         <v>849.55</v>
       </c>
-      <c r="F44" s="37">
+      <c r="F44" s="36">
         <v>857.67</v>
       </c>
-      <c r="G44" s="37">
+      <c r="G44" s="36">
         <v>848.1</v>
       </c>
-      <c r="H44" s="37">
+      <c r="H44" s="36">
         <v>842.82</v>
       </c>
-      <c r="I44" s="37">
+      <c r="I44" s="36">
         <v>854.04</v>
       </c>
-      <c r="J44" s="37">
+      <c r="J44" s="36">
         <v>852.11</v>
       </c>
-      <c r="K44" s="37">
+      <c r="K44" s="36">
         <v>853.74</v>
       </c>
-      <c r="L44" s="37">
+      <c r="L44" s="36">
         <v>856.27</v>
       </c>
-      <c r="M44" s="37">
+      <c r="M44" s="36">
         <v>858.05</v>
       </c>
-      <c r="N44" s="37">
+      <c r="N44" s="36">
         <v>876.29</v>
       </c>
-      <c r="O44" s="37">
+      <c r="O44" s="36">
         <v>858.92</v>
       </c>
-      <c r="P44" s="37">
+      <c r="P44" s="36">
         <v>857.92</v>
       </c>
-      <c r="Q44" s="37">
+      <c r="Q44" s="36">
         <v>887.7</v>
       </c>
-      <c r="R44" s="37">
-        <v>885.72</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="38" t="s">
+      <c r="R44" s="36">
+        <v>878.76</v>
+      </c>
+      <c r="S44" s="36">
+        <v>872.52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A45" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="37">
+      <c r="B45" s="36">
         <v>752.33</v>
       </c>
-      <c r="C45" s="37">
+      <c r="C45" s="36">
         <v>749.58</v>
       </c>
-      <c r="D45" s="37">
+      <c r="D45" s="36">
         <v>767.08</v>
       </c>
-      <c r="E45" s="37">
+      <c r="E45" s="36">
         <v>758.78</v>
       </c>
-      <c r="F45" s="37">
+      <c r="F45" s="36">
         <v>761.08</v>
       </c>
-      <c r="G45" s="37">
+      <c r="G45" s="36">
         <v>763.62</v>
       </c>
-      <c r="H45" s="37">
+      <c r="H45" s="36">
         <v>754.39</v>
       </c>
-      <c r="I45" s="37">
+      <c r="I45" s="36">
         <v>755.08</v>
       </c>
-      <c r="J45" s="37">
+      <c r="J45" s="36">
         <v>765.06</v>
       </c>
-      <c r="K45" s="37">
+      <c r="K45" s="36">
         <v>770.87</v>
       </c>
-      <c r="L45" s="37">
+      <c r="L45" s="36">
         <v>776.25</v>
       </c>
-      <c r="M45" s="37">
+      <c r="M45" s="36">
         <v>774.87</v>
       </c>
-      <c r="N45" s="37">
+      <c r="N45" s="36">
         <v>794.3</v>
       </c>
-      <c r="O45" s="37">
+      <c r="O45" s="36">
         <v>782.26</v>
       </c>
-      <c r="P45" s="37">
+      <c r="P45" s="36">
         <v>797.99</v>
       </c>
-      <c r="Q45" s="37">
+      <c r="Q45" s="36">
         <v>791.16</v>
       </c>
-      <c r="R45" s="37">
-        <v>775.22</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="38" t="s">
+      <c r="R45" s="36">
+        <v>776.42</v>
+      </c>
+      <c r="S45" s="36">
+        <v>785.25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A46" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="37">
+      <c r="B46" s="36">
         <v>717.02</v>
       </c>
-      <c r="C46" s="37">
+      <c r="C46" s="36">
         <v>707.41</v>
       </c>
-      <c r="D46" s="37">
+      <c r="D46" s="36">
         <v>711.65</v>
       </c>
-      <c r="E46" s="37">
+      <c r="E46" s="36">
         <v>725.8</v>
       </c>
-      <c r="F46" s="37">
+      <c r="F46" s="36">
         <v>734.16</v>
       </c>
-      <c r="G46" s="37">
+      <c r="G46" s="36">
         <v>719.68</v>
       </c>
-      <c r="H46" s="37">
+      <c r="H46" s="36">
         <v>727.56</v>
       </c>
-      <c r="I46" s="37">
+      <c r="I46" s="36">
         <v>720.53</v>
       </c>
-      <c r="J46" s="37">
+      <c r="J46" s="36">
         <v>736.56</v>
       </c>
-      <c r="K46" s="37">
+      <c r="K46" s="36">
         <v>750.03</v>
       </c>
-      <c r="L46" s="37">
+      <c r="L46" s="36">
         <v>738.82</v>
       </c>
-      <c r="M46" s="37">
+      <c r="M46" s="36">
         <v>726.55</v>
       </c>
-      <c r="N46" s="37">
+      <c r="N46" s="36">
         <v>745.78</v>
       </c>
-      <c r="O46" s="37">
+      <c r="O46" s="36">
         <v>737.37</v>
       </c>
-      <c r="P46" s="37">
+      <c r="P46" s="36">
         <v>732.06</v>
       </c>
-      <c r="Q46" s="37">
+      <c r="Q46" s="36">
         <v>749.53</v>
       </c>
-      <c r="R46" s="37">
-        <v>736.16</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="38" t="s">
+      <c r="R46" s="36">
+        <v>740.04</v>
+      </c>
+      <c r="S46" s="36">
+        <v>730.85</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A47" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="B47" s="37">
+      <c r="B47" s="36">
         <v>753.25</v>
       </c>
-      <c r="C47" s="37">
+      <c r="C47" s="36">
         <v>748.68</v>
       </c>
-      <c r="D47" s="37">
+      <c r="D47" s="36">
         <v>753.3</v>
       </c>
-      <c r="E47" s="37">
+      <c r="E47" s="36">
         <v>756.5</v>
       </c>
-      <c r="F47" s="37">
+      <c r="F47" s="36">
         <v>775.43</v>
       </c>
-      <c r="G47" s="37">
+      <c r="G47" s="36">
         <v>766.47</v>
       </c>
-      <c r="H47" s="37">
+      <c r="H47" s="36">
         <v>773.19</v>
       </c>
-      <c r="I47" s="37">
+      <c r="I47" s="36">
         <v>770.71</v>
       </c>
-      <c r="J47" s="37">
+      <c r="J47" s="36">
         <v>781.99</v>
       </c>
-      <c r="K47" s="37">
+      <c r="K47" s="36">
         <v>797.27</v>
       </c>
-      <c r="L47" s="37">
+      <c r="L47" s="36">
         <v>788.81</v>
       </c>
-      <c r="M47" s="37">
+      <c r="M47" s="36">
         <v>806.7</v>
       </c>
-      <c r="N47" s="37">
+      <c r="N47" s="36">
         <v>814.67</v>
       </c>
-      <c r="O47" s="37">
+      <c r="O47" s="36">
         <v>800.75</v>
       </c>
-      <c r="P47" s="37">
+      <c r="P47" s="36">
         <v>790.72</v>
       </c>
-      <c r="Q47" s="37">
+      <c r="Q47" s="36">
         <v>805.85</v>
       </c>
-      <c r="R47" s="37">
-        <v>794.38</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="38" t="s">
+      <c r="R47" s="36">
+        <v>794.02</v>
+      </c>
+      <c r="S47" s="36">
+        <v>794.95</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A48" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="B48" s="37">
+      <c r="B48" s="36">
         <v>877.15</v>
       </c>
-      <c r="C48" s="37">
+      <c r="C48" s="36">
         <v>871.79</v>
       </c>
-      <c r="D48" s="37">
+      <c r="D48" s="36">
         <v>863.1</v>
       </c>
-      <c r="E48" s="37">
+      <c r="E48" s="36">
         <v>870.06</v>
       </c>
-      <c r="F48" s="37">
+      <c r="F48" s="36">
         <v>892.69</v>
       </c>
-      <c r="G48" s="37">
+      <c r="G48" s="36">
         <v>870.3</v>
       </c>
-      <c r="H48" s="37">
+      <c r="H48" s="36">
         <v>870.72</v>
       </c>
-      <c r="I48" s="37">
+      <c r="I48" s="36">
         <v>872.15</v>
       </c>
-      <c r="J48" s="37">
+      <c r="J48" s="36">
         <v>877.86</v>
       </c>
-      <c r="K48" s="37">
+      <c r="K48" s="36">
         <v>909.32</v>
       </c>
-      <c r="L48" s="37">
+      <c r="L48" s="36">
         <v>880.4</v>
       </c>
-      <c r="M48" s="37">
+      <c r="M48" s="36">
         <v>887.5</v>
       </c>
-      <c r="N48" s="37">
+      <c r="N48" s="36">
         <v>912.6</v>
       </c>
-      <c r="O48" s="37">
+      <c r="O48" s="36">
         <v>890.66</v>
       </c>
-      <c r="P48" s="37">
+      <c r="P48" s="36">
         <v>891.76</v>
       </c>
-      <c r="Q48" s="37">
+      <c r="Q48" s="36">
         <v>913.92</v>
       </c>
-      <c r="R48" s="37">
-        <v>923.2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="38" t="s">
+      <c r="R48" s="36">
+        <v>898.9</v>
+      </c>
+      <c r="S48" s="36">
+        <v>894.28</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A49" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="B49" s="37">
+      <c r="B49" s="36">
         <v>831.3</v>
       </c>
-      <c r="C49" s="37">
+      <c r="C49" s="36">
         <v>829.01</v>
       </c>
-      <c r="D49" s="37">
+      <c r="D49" s="36">
         <v>826.97</v>
       </c>
-      <c r="E49" s="37">
+      <c r="E49" s="36">
         <v>840.39</v>
       </c>
-      <c r="F49" s="37">
+      <c r="F49" s="36">
         <v>860.97</v>
       </c>
-      <c r="G49" s="37">
+      <c r="G49" s="36">
         <v>841.12</v>
       </c>
-      <c r="H49" s="37">
+      <c r="H49" s="36">
         <v>844.6</v>
       </c>
-      <c r="I49" s="37">
+      <c r="I49" s="36">
         <v>843.18</v>
       </c>
-      <c r="J49" s="37">
+      <c r="J49" s="36">
         <v>853.88</v>
       </c>
-      <c r="K49" s="37">
+      <c r="K49" s="36">
         <v>872.96</v>
       </c>
-      <c r="L49" s="37">
+      <c r="L49" s="36">
         <v>871.39</v>
       </c>
-      <c r="M49" s="37">
+      <c r="M49" s="36">
         <v>848.08</v>
       </c>
-      <c r="N49" s="37">
+      <c r="N49" s="36">
         <v>872.96</v>
       </c>
-      <c r="O49" s="37">
+      <c r="O49" s="36">
         <v>849.47</v>
       </c>
-      <c r="P49" s="37">
+      <c r="P49" s="36">
         <v>850.81</v>
       </c>
-      <c r="Q49" s="37">
+      <c r="Q49" s="36">
         <v>892.74</v>
       </c>
-      <c r="R49" s="37">
-        <v>869.08</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="38" t="s">
+      <c r="R49" s="36">
+        <v>870.48</v>
+      </c>
+      <c r="S49" s="36">
+        <v>877.91</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A50" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="B50" s="37">
+      <c r="B50" s="36">
         <v>813.12</v>
       </c>
-      <c r="C50" s="37">
+      <c r="C50" s="36">
         <v>802.76</v>
       </c>
-      <c r="D50" s="37">
+      <c r="D50" s="36">
         <v>797.37</v>
       </c>
-      <c r="E50" s="37">
+      <c r="E50" s="36">
         <v>814.52</v>
       </c>
-      <c r="F50" s="37">
+      <c r="F50" s="36">
         <v>824.72</v>
       </c>
-      <c r="G50" s="37">
+      <c r="G50" s="36">
         <v>810.82</v>
       </c>
-      <c r="H50" s="37">
+      <c r="H50" s="36">
         <v>811.91</v>
       </c>
-      <c r="I50" s="37">
+      <c r="I50" s="36">
         <v>806.13</v>
       </c>
-      <c r="J50" s="37">
+      <c r="J50" s="36">
         <v>822.35</v>
       </c>
-      <c r="K50" s="37">
+      <c r="K50" s="36">
         <v>828.35</v>
       </c>
-      <c r="L50" s="37">
+      <c r="L50" s="36">
         <v>821.51</v>
       </c>
-      <c r="M50" s="37">
+      <c r="M50" s="36">
         <v>802.46</v>
       </c>
-      <c r="N50" s="37">
+      <c r="N50" s="36">
         <v>815.63</v>
       </c>
-      <c r="O50" s="37">
+      <c r="O50" s="36">
         <v>797.83</v>
       </c>
-      <c r="P50" s="37">
+      <c r="P50" s="36">
         <v>789.9</v>
       </c>
-      <c r="Q50" s="37">
+      <c r="Q50" s="36">
         <v>819.18</v>
       </c>
-      <c r="R50" s="37">
-        <v>815.47</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="38" t="s">
+      <c r="R50" s="36">
+        <v>817.74</v>
+      </c>
+      <c r="S50" s="36">
+        <v>809.76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A51" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="37">
+      <c r="B51" s="36">
         <v>924.41</v>
       </c>
-      <c r="C51" s="37">
+      <c r="C51" s="36">
         <v>924.06</v>
       </c>
-      <c r="D51" s="37">
+      <c r="D51" s="36">
         <v>929.51</v>
       </c>
-      <c r="E51" s="37">
+      <c r="E51" s="36">
         <v>938.46</v>
       </c>
-      <c r="F51" s="37">
+      <c r="F51" s="36">
         <v>954.72</v>
       </c>
-      <c r="G51" s="37">
+      <c r="G51" s="36">
         <v>933.92</v>
       </c>
-      <c r="H51" s="37">
+      <c r="H51" s="36">
         <v>943.35</v>
       </c>
-      <c r="I51" s="37">
+      <c r="I51" s="36">
         <v>935.06</v>
       </c>
-      <c r="J51" s="37">
+      <c r="J51" s="36">
         <v>950.51</v>
       </c>
-      <c r="K51" s="37">
+      <c r="K51" s="36">
         <v>972.87</v>
       </c>
-      <c r="L51" s="37">
+      <c r="L51" s="36">
         <v>947.19</v>
       </c>
-      <c r="M51" s="37">
+      <c r="M51" s="36">
         <v>949.69</v>
       </c>
-      <c r="N51" s="37">
+      <c r="N51" s="36">
         <v>970.56</v>
       </c>
-      <c r="O51" s="37">
+      <c r="O51" s="36">
         <v>954.26</v>
       </c>
-      <c r="P51" s="37">
+      <c r="P51" s="36">
         <v>942.55</v>
       </c>
-      <c r="Q51" s="37">
+      <c r="Q51" s="36">
         <v>974.72</v>
       </c>
-      <c r="R51" s="37">
-        <v>943.92</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="38" t="s">
+      <c r="R51" s="36">
+        <v>939.13</v>
+      </c>
+      <c r="S51" s="36">
+        <v>929.43</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A52" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="B52" s="37">
+      <c r="B52" s="36">
         <v>1032.92</v>
       </c>
-      <c r="C52" s="37">
+      <c r="C52" s="36">
         <v>1036.94</v>
       </c>
-      <c r="D52" s="37">
+      <c r="D52" s="36">
         <v>1033.23</v>
       </c>
-      <c r="E52" s="37">
+      <c r="E52" s="36">
         <v>1039.9100000000001</v>
       </c>
-      <c r="F52" s="37">
+      <c r="F52" s="36">
         <v>1068.32</v>
       </c>
-      <c r="G52" s="37">
+      <c r="G52" s="36">
         <v>1033.6199999999999</v>
       </c>
-      <c r="H52" s="37">
+      <c r="H52" s="36">
         <v>1038.3499999999999</v>
       </c>
-      <c r="I52" s="37">
+      <c r="I52" s="36">
         <v>1040.02</v>
       </c>
-      <c r="J52" s="37">
+      <c r="J52" s="36">
         <v>1052.53</v>
       </c>
-      <c r="K52" s="37">
+      <c r="K52" s="36">
         <v>1087.5899999999999</v>
       </c>
-      <c r="L52" s="37">
+      <c r="L52" s="36">
         <v>1050.58</v>
       </c>
-      <c r="M52" s="37">
+      <c r="M52" s="36">
         <v>1053.33</v>
       </c>
-      <c r="N52" s="37">
+      <c r="N52" s="36">
         <v>1094.46</v>
       </c>
-      <c r="O52" s="37">
+      <c r="O52" s="36">
         <v>1063.96</v>
       </c>
-      <c r="P52" s="37">
+      <c r="P52" s="36">
         <v>1064.33</v>
       </c>
-      <c r="Q52" s="37">
+      <c r="Q52" s="36">
         <v>1110.54</v>
       </c>
-      <c r="R52" s="37">
-        <v>1073.3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A53" s="38" t="s">
+      <c r="R52" s="36">
+        <v>1066.4000000000001</v>
+      </c>
+      <c r="S52" s="36">
+        <v>1070.8699999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A53" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="B53" s="37">
+      <c r="B53" s="36">
         <v>720.94</v>
       </c>
-      <c r="C53" s="37">
+      <c r="C53" s="36">
         <v>724.07</v>
       </c>
-      <c r="D53" s="37">
+      <c r="D53" s="36">
         <v>728.02</v>
       </c>
-      <c r="E53" s="37">
+      <c r="E53" s="36">
         <v>732.19</v>
       </c>
-      <c r="F53" s="37">
+      <c r="F53" s="36">
         <v>720.69</v>
       </c>
-      <c r="G53" s="37">
+      <c r="G53" s="36">
         <v>723.71</v>
       </c>
-      <c r="H53" s="37">
+      <c r="H53" s="36">
         <v>735.3</v>
       </c>
-      <c r="I53" s="37">
+      <c r="I53" s="36">
         <v>732.16</v>
       </c>
-      <c r="J53" s="37">
+      <c r="J53" s="36">
         <v>738.85</v>
       </c>
-      <c r="K53" s="37">
+      <c r="K53" s="36">
         <v>751.89</v>
       </c>
-      <c r="L53" s="37">
+      <c r="L53" s="36">
         <v>745.54</v>
       </c>
-      <c r="M53" s="37">
+      <c r="M53" s="36">
         <v>740.61</v>
       </c>
-      <c r="N53" s="37">
+      <c r="N53" s="36">
         <v>755.04</v>
       </c>
-      <c r="O53" s="37">
+      <c r="O53" s="36">
         <v>752.19</v>
       </c>
-      <c r="P53" s="37">
+      <c r="P53" s="36">
         <v>754.25</v>
       </c>
-      <c r="Q53" s="37">
+      <c r="Q53" s="36">
         <v>758.6</v>
       </c>
-      <c r="R53" s="37">
-        <v>752.6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A54" s="38" t="s">
+      <c r="R53" s="36">
+        <v>755.07</v>
+      </c>
+      <c r="S53" s="36">
+        <v>762.55</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A54" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="B54" s="37">
+      <c r="B54" s="36">
         <v>793.74</v>
       </c>
-      <c r="C54" s="37">
+      <c r="C54" s="36">
         <v>791.42</v>
       </c>
-      <c r="D54" s="37">
+      <c r="D54" s="36">
         <v>794.54</v>
       </c>
-      <c r="E54" s="37">
+      <c r="E54" s="36">
         <v>801.27</v>
       </c>
-      <c r="F54" s="37">
+      <c r="F54" s="36">
         <v>809.42</v>
       </c>
-      <c r="G54" s="37">
+      <c r="G54" s="36">
         <v>798.34</v>
       </c>
-      <c r="H54" s="37">
+      <c r="H54" s="36">
         <v>809.85</v>
       </c>
-      <c r="I54" s="37">
+      <c r="I54" s="36">
         <v>808.16</v>
       </c>
-      <c r="J54" s="37">
+      <c r="J54" s="36">
         <v>801.02</v>
       </c>
-      <c r="K54" s="37">
+      <c r="K54" s="36">
         <v>825.52</v>
       </c>
-      <c r="L54" s="37">
+      <c r="L54" s="36">
         <v>819.25</v>
       </c>
-      <c r="M54" s="37">
+      <c r="M54" s="36">
         <v>818.41</v>
       </c>
-      <c r="N54" s="37">
+      <c r="N54" s="36">
         <v>829.25</v>
       </c>
-      <c r="O54" s="37">
+      <c r="O54" s="36">
         <v>812.52</v>
       </c>
-      <c r="P54" s="37">
+      <c r="P54" s="36">
         <v>815.85</v>
       </c>
-      <c r="Q54" s="37">
+      <c r="Q54" s="36">
         <v>843.31</v>
       </c>
-      <c r="R54" s="37">
-        <v>827.12</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A55" s="38" t="s">
+      <c r="R54" s="36">
+        <v>817.74</v>
+      </c>
+      <c r="S54" s="36">
+        <v>814.92</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A55" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="B55" s="37">
+      <c r="B55" s="36">
         <v>774.82</v>
       </c>
-      <c r="C55" s="37">
+      <c r="C55" s="36">
         <v>777.2</v>
       </c>
-      <c r="D55" s="37">
+      <c r="D55" s="36">
         <v>776.88</v>
       </c>
-      <c r="E55" s="37">
+      <c r="E55" s="36">
         <v>755.31</v>
       </c>
-      <c r="F55" s="37">
+      <c r="F55" s="36">
         <v>773.89</v>
       </c>
-      <c r="G55" s="37">
+      <c r="G55" s="36">
         <v>746.5</v>
       </c>
-      <c r="H55" s="37">
+      <c r="H55" s="36">
         <v>757.91</v>
       </c>
-      <c r="I55" s="37">
+      <c r="I55" s="36">
         <v>770.38</v>
       </c>
-      <c r="J55" s="37">
+      <c r="J55" s="36">
         <v>775.56</v>
       </c>
-      <c r="K55" s="37">
+      <c r="K55" s="36">
         <v>812.26</v>
       </c>
-      <c r="L55" s="37">
+      <c r="L55" s="36">
         <v>793.54</v>
       </c>
-      <c r="M55" s="37">
+      <c r="M55" s="36">
         <v>770.25</v>
       </c>
-      <c r="N55" s="37">
+      <c r="N55" s="36">
         <v>795.31</v>
       </c>
-      <c r="O55" s="37">
+      <c r="O55" s="36">
         <v>783.42</v>
       </c>
-      <c r="P55" s="37">
+      <c r="P55" s="36">
         <v>784.14</v>
       </c>
-      <c r="Q55" s="37">
+      <c r="Q55" s="36">
         <v>838.01</v>
       </c>
-      <c r="R55" s="37">
-        <v>812.89</v>
+      <c r="R55" s="36">
+        <v>824.2</v>
+      </c>
+      <c r="S55" s="36">
+        <v>818.15</v>
       </c>
     </row>
   </sheetData>
@@ -11128,7 +11278,7 @@
   <pageSetup orientation="landscape"/>
   <headerFooter>
     <oddHeader>&amp;CBureau of Labor Statistics</oddHeader>
-    <oddFooter>&amp;LSource: Bureau of Labor Statistics&amp;RGenerated on: June 16, 2017 (10:24:00 AM)</oddFooter>
+    <oddFooter>&amp;LSource: Bureau of Labor Statistics&amp;RGenerated on: July 21, 2017 (11:12:55 AM)</oddFooter>
   </headerFooter>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -11136,10 +11286,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O56"/>
+  <dimension ref="A1:M56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6:O9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11150,31 +11300,31 @@
     <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>166</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="C1" s="49">
+      <c r="C1" s="47">
         <f>+Earnings_Comparison!E58</f>
-        <v>901.97</v>
+        <v>905.63</v>
       </c>
       <c r="D1" s="23">
         <f>+Earnings_Comparison!H58</f>
-        <v>0.57598407943317831</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+        <v>1.105647928819109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="54" t="s">
         <v>194</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>165</v>
       </c>
@@ -11188,607 +11338,607 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
+        <f>+Earnings_Comparison!B55</f>
+        <v>WY</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="C4" s="25">
+        <f>+Earnings_Comparison!E55</f>
+        <v>818.15</v>
+      </c>
+      <c r="D4" s="24">
+        <f>+Earnings_Comparison!H55</f>
+        <v>7.836626279745218</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
         <f>+Earnings_Comparison!B30</f>
         <v>MO</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B5" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C5" s="25">
         <f>+Earnings_Comparison!E30</f>
-        <v>794.29</v>
-      </c>
-      <c r="D4" s="24">
+        <v>792.61</v>
+      </c>
+      <c r="D5" s="24">
         <f>+Earnings_Comparison!H30</f>
-        <v>3.6081567897000788</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" t="str">
-        <f>+Earnings_Comparison!B55</f>
-        <v>WY</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="C5" s="25">
-        <f>+Earnings_Comparison!E55</f>
-        <v>812.89</v>
-      </c>
-      <c r="D5" s="24">
-        <f>+Earnings_Comparison!H55</f>
-        <v>3.106357764018397</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>5.540565782582596</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
-        <f>+Earnings_Comparison!B24</f>
-        <v>ME</v>
+        <f>+Earnings_Comparison!B35</f>
+        <v>NJ</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="C6" s="25">
-        <f>+Earnings_Comparison!E24</f>
-        <v>790.1</v>
+        <f>+Earnings_Comparison!E35</f>
+        <v>999.32</v>
       </c>
       <c r="D6" s="24">
-        <f>+Earnings_Comparison!H24</f>
-        <v>2.7502932037129169</v>
+        <f>+Earnings_Comparison!H35</f>
+        <v>4.4464190964051964</v>
       </c>
       <c r="M6" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="O6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
-        <f>+Earnings_Comparison!B41</f>
-        <v>OK</v>
+        <f>+Earnings_Comparison!B19</f>
+        <v>IN</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="C7" s="25">
-        <f>+Earnings_Comparison!E41</f>
-        <v>806.41</v>
+        <f>+Earnings_Comparison!E19</f>
+        <v>851.65</v>
       </c>
       <c r="D7" s="24">
-        <f>+Earnings_Comparison!H41</f>
-        <v>2.6478698397107925</v>
+        <f>+Earnings_Comparison!H19</f>
+        <v>4.0894852174315766</v>
       </c>
       <c r="K7" s="20"/>
       <c r="M7" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="O7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
-        <f>+Earnings_Comparison!B53</f>
-        <v>WV</v>
+        <f>+Earnings_Comparison!B7</f>
+        <v>AZ</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>161</v>
+        <v>115</v>
       </c>
       <c r="C8" s="25">
-        <f>+Earnings_Comparison!E53</f>
-        <v>752.6</v>
+        <f>+Earnings_Comparison!E7</f>
+        <v>863.08</v>
       </c>
       <c r="D8" s="24">
-        <f>+Earnings_Comparison!H53</f>
-        <v>2.5058420358735178</v>
+        <f>+Earnings_Comparison!H7</f>
+        <v>3.8545518411986057</v>
       </c>
       <c r="K8" s="20"/>
       <c r="L8" s="20"/>
       <c r="M8" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="O8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
-        <f>+Earnings_Comparison!B32</f>
-        <v>NE</v>
+        <f>+Earnings_Comparison!B41</f>
+        <v>OK</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C9" s="25">
-        <f>+Earnings_Comparison!E32</f>
-        <v>814.24</v>
+        <f>+Earnings_Comparison!E41</f>
+        <v>804.79</v>
       </c>
       <c r="D9" s="24">
-        <f>+Earnings_Comparison!H32</f>
-        <v>1.7303855439707361</v>
+        <f>+Earnings_Comparison!H41</f>
+        <v>3.829429179605337</v>
       </c>
       <c r="K9" s="20"/>
       <c r="L9" s="20"/>
       <c r="M9" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="O9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
-        <f>+Earnings_Comparison!B48</f>
-        <v>TX</v>
+        <f>+Earnings_Comparison!B53</f>
+        <v>WV</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C10" s="25">
-        <f>+Earnings_Comparison!E48</f>
-        <v>923.2</v>
+        <f>+Earnings_Comparison!E53</f>
+        <v>762.55</v>
       </c>
       <c r="D10" s="24">
-        <f>+Earnings_Comparison!H48</f>
-        <v>1.5144872988430702</v>
+        <f>+Earnings_Comparison!H53</f>
+        <v>3.6732997018352531</v>
       </c>
       <c r="K10" s="20"/>
       <c r="L10" s="20"/>
       <c r="M10" s="20" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
+        <f>+Earnings_Comparison!B24</f>
+        <v>ME</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11" s="25">
+        <f>+Earnings_Comparison!E24</f>
+        <v>780.1</v>
+      </c>
+      <c r="D11" s="24">
+        <f>+Earnings_Comparison!H24</f>
+        <v>3.4826645421318414</v>
+      </c>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f>+Earnings_Comparison!B32</f>
+        <v>NE</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="C12" s="25">
+        <f>+Earnings_Comparison!E32</f>
+        <v>818.03</v>
+      </c>
+      <c r="D12" s="24">
+        <f>+Earnings_Comparison!H32</f>
+        <v>3.3118991450269641</v>
+      </c>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
+        <f>+Earnings_Comparison!B39</f>
+        <v>ND</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="C13" s="25">
+        <f>+Earnings_Comparison!E39</f>
+        <v>921.94</v>
+      </c>
+      <c r="D13" s="24">
+        <f>+Earnings_Comparison!H39</f>
+        <v>3.218136068981603</v>
+      </c>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="str">
+        <f>+Earnings_Comparison!B28</f>
+        <v>MN</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C14" s="25">
+        <f>+Earnings_Comparison!E28</f>
+        <v>954.52</v>
+      </c>
+      <c r="D14" s="24">
+        <f>+Earnings_Comparison!H28</f>
+        <v>2.7828870257054161</v>
+      </c>
+      <c r="F14" s="25">
+        <f>C$1-C14</f>
+        <v>-48.889999999999986</v>
+      </c>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="str">
+        <f>+Earnings_Comparison!B49</f>
+        <v>UT</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15" s="25">
+        <f>+Earnings_Comparison!E49</f>
+        <v>877.91</v>
+      </c>
+      <c r="D15" s="24">
+        <f>+Earnings_Comparison!H49</f>
+        <v>2.6963967270785538</v>
+      </c>
+      <c r="F15" s="25">
+        <f t="shared" ref="F15:F21" si="0">C$1-C15</f>
+        <v>27.720000000000027</v>
+      </c>
+      <c r="L15" s="20"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="str">
+        <f>+Earnings_Comparison!B8</f>
+        <v>AR</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" s="25">
+        <f>+Earnings_Comparison!E8</f>
+        <v>714.35</v>
+      </c>
+      <c r="D16" s="24">
+        <f>+Earnings_Comparison!H8</f>
+        <v>2.5711381322665261</v>
+      </c>
+      <c r="F16" s="25">
+        <f t="shared" si="0"/>
+        <v>191.27999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="str">
+        <f>+Earnings_Comparison!B9</f>
+        <v>CA</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" s="25">
+        <f>+Earnings_Comparison!E9</f>
+        <v>1021.34</v>
+      </c>
+      <c r="D17" s="24">
+        <f>+Earnings_Comparison!H9</f>
+        <v>2.4764109612882113</v>
+      </c>
+      <c r="F17" s="25">
+        <f t="shared" si="0"/>
+        <v>-115.71000000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="str">
         <f>+Earnings_Comparison!B36</f>
         <v>NM</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B18" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="C11" s="25">
+      <c r="C18" s="25">
         <f>+Earnings_Comparison!E36</f>
-        <v>709.05</v>
-      </c>
-      <c r="D11" s="24">
+        <v>706.82</v>
+      </c>
+      <c r="D18" s="24">
         <f>+Earnings_Comparison!H36</f>
-        <v>1.3883833816789704</v>
-      </c>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" t="str">
+        <v>2.4708996405107264</v>
+      </c>
+      <c r="F18" s="25">
+        <f t="shared" si="0"/>
+        <v>198.80999999999995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="str">
+        <f>+Earnings_Comparison!B31</f>
+        <v>MT</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="C19" s="25">
+        <f>+Earnings_Comparison!E31</f>
+        <v>760.91</v>
+      </c>
+      <c r="D19" s="24">
+        <f>+Earnings_Comparison!H31</f>
+        <v>2.2089277692085574</v>
+      </c>
+      <c r="F19" s="25">
+        <f t="shared" si="0"/>
+        <v>144.72000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="str">
+        <f>+Earnings_Comparison!B34</f>
+        <v>NH</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="C20" s="25">
+        <f>+Earnings_Comparison!E34</f>
+        <v>878.22</v>
+      </c>
+      <c r="D20" s="24">
+        <f>+Earnings_Comparison!H34</f>
+        <v>2.1147173544935338</v>
+      </c>
+      <c r="F20" s="25">
+        <f t="shared" si="0"/>
+        <v>27.409999999999968</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="str">
+        <f>+Earnings_Comparison!B47</f>
+        <v>TN</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="C21" s="25">
+        <f>+Earnings_Comparison!E47</f>
+        <v>794.95</v>
+      </c>
+      <c r="D21" s="24">
+        <f>+Earnings_Comparison!H47</f>
+        <v>2.0487812258880966</v>
+      </c>
+      <c r="F21" s="25">
+        <f t="shared" si="0"/>
+        <v>110.67999999999995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="str">
+        <f>+Earnings_Comparison!B15</f>
+        <v>GA</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="C22" s="25">
+        <f>+Earnings_Comparison!E15</f>
+        <v>874.87</v>
+      </c>
+      <c r="D22" s="24">
+        <f>+Earnings_Comparison!H15</f>
+        <v>2.0060662729118439</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="str">
+        <f>+Earnings_Comparison!B52</f>
+        <v>WA</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="C23" s="25">
+        <f>+Earnings_Comparison!E52</f>
+        <v>1070.8699999999999</v>
+      </c>
+      <c r="D23" s="24">
+        <f>+Earnings_Comparison!H52</f>
+        <v>1.9386828292423663</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="str">
+        <f>+Earnings_Comparison!B12</f>
+        <v>DE</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24" s="25">
+        <f>+Earnings_Comparison!E12</f>
+        <v>820.33</v>
+      </c>
+      <c r="D24" s="24">
+        <f>+Earnings_Comparison!H12</f>
+        <v>1.7093900397560313</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="str">
+        <f>+Earnings_Comparison!B13</f>
+        <v>DC</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="C25" s="25">
+        <f>+Earnings_Comparison!E13</f>
+        <v>1389.26</v>
+      </c>
+      <c r="D25" s="24">
+        <f>+Earnings_Comparison!H13</f>
+        <v>1.4450403859940675</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="str">
+        <f>+Earnings_Comparison!B37</f>
+        <v>NY</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="C26" s="25">
+        <f>+Earnings_Comparison!E37</f>
+        <v>991.65</v>
+      </c>
+      <c r="D26" s="35">
+        <f>+Earnings_Comparison!H37</f>
+        <v>1.4126994782312607</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="str">
+        <f>+Earnings_Comparison!B42</f>
+        <v>OR</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="C27" s="25">
+        <f>+Earnings_Comparison!E42</f>
+        <v>858.5</v>
+      </c>
+      <c r="D27" s="24">
+        <f>+Earnings_Comparison!H42</f>
+        <v>1.2662018685905441</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="str">
         <f>+Earnings_Comparison!B44</f>
         <v>RI</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B28" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="C12" s="25">
+      <c r="C28" s="25">
         <f>+Earnings_Comparison!E44</f>
-        <v>885.72</v>
-      </c>
-      <c r="D12" s="24">
+        <v>872.52</v>
+      </c>
+      <c r="D28" s="24">
         <f>+Earnings_Comparison!H44</f>
-        <v>1.3699264822319313</v>
-      </c>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" t="str">
-        <f>+Earnings_Comparison!B28</f>
-        <v>MN</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="C13" s="25">
-        <f>+Earnings_Comparison!E28</f>
-        <v>955.53</v>
-      </c>
-      <c r="D13" s="24">
-        <f>+Earnings_Comparison!H28</f>
-        <v>1.3161817408710474</v>
-      </c>
-      <c r="L13" s="20"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" t="str">
-        <f>+Earnings_Comparison!B34</f>
-        <v>NH</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="C14" s="25">
-        <f>+Earnings_Comparison!E34</f>
-        <v>889.2</v>
-      </c>
-      <c r="D14" s="24">
-        <f>+Earnings_Comparison!H34</f>
-        <v>1.1490524591535545</v>
-      </c>
-      <c r="F14" s="25">
-        <f>C$1-C14</f>
-        <v>12.769999999999982</v>
-      </c>
-      <c r="L14" s="20"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" t="str">
-        <f>+Earnings_Comparison!B8</f>
-        <v>AR</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="C15" s="25">
-        <f>+Earnings_Comparison!E8</f>
-        <v>708.26</v>
-      </c>
-      <c r="D15" s="24">
-        <f>+Earnings_Comparison!H8</f>
-        <v>1.1428160010965138</v>
-      </c>
-      <c r="F15" s="25">
-        <f t="shared" ref="F15:F21" si="0">C$1-C15</f>
-        <v>193.71000000000004</v>
-      </c>
-      <c r="L15" s="20"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" t="str">
-        <f>+Earnings_Comparison!B7</f>
-        <v>AZ</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="C16" s="25">
-        <f>+Earnings_Comparison!E7</f>
-        <v>863.78</v>
-      </c>
-      <c r="D16" s="24">
-        <f>+Earnings_Comparison!H7</f>
-        <v>0.80407388856638118</v>
-      </c>
-      <c r="F16" s="25">
-        <f t="shared" si="0"/>
-        <v>38.190000000000055</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="str">
+        <v>1.2258651176063617</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="str">
+        <f>+Earnings_Comparison!B45</f>
+        <v>SC</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="C29" s="25">
+        <f>+Earnings_Comparison!E45</f>
+        <v>785.25</v>
+      </c>
+      <c r="D29" s="24">
+        <f>+Earnings_Comparison!H45</f>
+        <v>1.1798008378898217</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="str">
+        <f>+Earnings_Comparison!B48</f>
+        <v>TX</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="C30" s="25">
+        <f>+Earnings_Comparison!E48</f>
+        <v>894.28</v>
+      </c>
+      <c r="D30" s="24">
+        <f>+Earnings_Comparison!H48</f>
+        <v>1.1038524586913123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="str">
         <f>+Earnings_Comparison!B38</f>
         <v>NC</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B31" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="C17" s="25">
+      <c r="C31" s="25">
         <f>+Earnings_Comparison!E38</f>
-        <v>830.76</v>
-      </c>
-      <c r="D17" s="24">
+        <v>823.48</v>
+      </c>
+      <c r="D31" s="24">
         <f>+Earnings_Comparison!H38</f>
-        <v>0.79612838198972469</v>
-      </c>
-      <c r="F17" s="25">
-        <f t="shared" si="0"/>
-        <v>71.210000000000036</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="str">
-        <f>+Earnings_Comparison!B22</f>
-        <v>KY</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="C18" s="25">
-        <f>+Earnings_Comparison!E22</f>
-        <v>760.28</v>
-      </c>
-      <c r="D18" s="24">
-        <f>+Earnings_Comparison!H22</f>
-        <v>0.76802758893252943</v>
-      </c>
-      <c r="F18" s="25">
-        <f t="shared" si="0"/>
-        <v>141.69000000000005</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="str">
-        <f>+Earnings_Comparison!B47</f>
-        <v>TN</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="C19" s="25">
-        <f>+Earnings_Comparison!E47</f>
-        <v>794.38</v>
-      </c>
-      <c r="D19" s="24">
-        <f>+Earnings_Comparison!H47</f>
-        <v>0.55845726089667203</v>
-      </c>
-      <c r="F19" s="25">
-        <f t="shared" si="0"/>
-        <v>107.59000000000003</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="str">
-        <f>+Earnings_Comparison!B19</f>
-        <v>IN</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="C20" s="25">
-        <f>+Earnings_Comparison!E19</f>
-        <v>834.55</v>
-      </c>
-      <c r="D20" s="24">
-        <f>+Earnings_Comparison!H19</f>
-        <v>0.55496916701844867</v>
-      </c>
-      <c r="F20" s="25">
-        <f t="shared" si="0"/>
-        <v>67.420000000000073</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="str">
-        <f>+Earnings_Comparison!B54</f>
-        <v>WI</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="C21" s="25">
-        <f>+Earnings_Comparison!E54</f>
-        <v>827.12</v>
-      </c>
-      <c r="D21" s="24">
-        <f>+Earnings_Comparison!H54</f>
-        <v>0.30613365437066609</v>
-      </c>
-      <c r="F21" s="25">
-        <f t="shared" si="0"/>
-        <v>74.850000000000023</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="str">
-        <f>+Earnings_Comparison!B12</f>
-        <v>DE</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="C22" s="25">
-        <f>+Earnings_Comparison!E12</f>
-        <v>828.75</v>
-      </c>
-      <c r="D22" s="24">
-        <f>+Earnings_Comparison!H12</f>
-        <v>0.20298194810215442</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="str">
-        <f>+Earnings_Comparison!B45</f>
-        <v>SC</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="C23" s="25">
-        <f>+Earnings_Comparison!E45</f>
-        <v>775.22</v>
-      </c>
-      <c r="D23" s="24">
-        <f>+Earnings_Comparison!H45</f>
-        <v>-1.6678851009577222E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="str">
-        <f>+Earnings_Comparison!B6</f>
-        <v>AK</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="C24" s="25">
-        <f>+Earnings_Comparison!E6</f>
-        <v>983.68</v>
-      </c>
-      <c r="D24" s="24">
-        <f>+Earnings_Comparison!H6</f>
-        <v>-2.4164267194448641E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="str">
+        <v>1.0885255024292162</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="str">
+        <f>+Earnings_Comparison!B16</f>
+        <v>HI</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C32" s="25">
+        <f>+Earnings_Comparison!E16</f>
+        <v>847.26</v>
+      </c>
+      <c r="D32" s="24">
+        <f>+Earnings_Comparison!H16</f>
+        <v>1.0598314178942969</v>
+      </c>
+      <c r="E32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="str">
+        <f>+Earnings_Comparison!B17</f>
+        <v>ID</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="C33" s="25">
+        <f>+Earnings_Comparison!E17</f>
+        <v>749.49</v>
+      </c>
+      <c r="D33" s="24">
+        <f>+Earnings_Comparison!H17</f>
+        <v>0.9022291893232115</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="str">
         <f>+Earnings_Comparison!B14</f>
         <v>FL</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B34" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C25" s="25">
+      <c r="C34" s="25">
         <f>+Earnings_Comparison!E14</f>
-        <v>813.96</v>
-      </c>
-      <c r="D25" s="24">
+        <v>807.49</v>
+      </c>
+      <c r="D34" s="24">
         <f>+Earnings_Comparison!H14</f>
-        <v>-0.15494487652164546</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="str">
-        <f>+Earnings_Comparison!B9</f>
-        <v>CA</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="C26" s="25">
-        <f>+Earnings_Comparison!E9</f>
-        <v>1024.31</v>
-      </c>
-      <c r="D26" s="24">
-        <f>+Earnings_Comparison!H9</f>
-        <v>-0.41609298673916939</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="str">
-        <f>+Earnings_Comparison!B43</f>
-        <v>PA</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="C27" s="25">
-        <f>+Earnings_Comparison!E43</f>
-        <v>842.3</v>
-      </c>
-      <c r="D27" s="24">
-        <f>+Earnings_Comparison!H43</f>
-        <v>-0.45168401575316208</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="str">
-        <f>+Earnings_Comparison!B31</f>
-        <v>MT</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="C28" s="25">
-        <f>+Earnings_Comparison!E31</f>
-        <v>750.47</v>
-      </c>
-      <c r="D28" s="24">
-        <f>+Earnings_Comparison!H31</f>
-        <v>-0.52145074909980549</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="str">
-        <f>+Earnings_Comparison!B37</f>
-        <v>NY</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="C29" s="25">
-        <f>+Earnings_Comparison!E37</f>
-        <v>994.01</v>
-      </c>
-      <c r="D29" s="36">
-        <f>+Earnings_Comparison!H37</f>
-        <v>-0.58519872818123542</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="str">
-        <f>+Earnings_Comparison!B39</f>
-        <v>ND</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="C30" s="25">
-        <f>+Earnings_Comparison!E39</f>
-        <v>916.04</v>
-      </c>
-      <c r="D30" s="24">
-        <f>+Earnings_Comparison!H39</f>
-        <v>-0.63854232526744381</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="str">
-        <f>+Earnings_Comparison!B40</f>
-        <v>OH</v>
-      </c>
-      <c r="B31" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="C31" s="25">
-        <f>+Earnings_Comparison!E40</f>
-        <v>814.97</v>
-      </c>
-      <c r="D31" s="36">
-        <f>+Earnings_Comparison!H40</f>
-        <v>-0.66167734483771889</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="str">
-        <f>+Earnings_Comparison!B49</f>
-        <v>UT</v>
-      </c>
-      <c r="B32" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="C32" s="25">
-        <f>+Earnings_Comparison!E49</f>
-        <v>869.08</v>
-      </c>
-      <c r="D32" s="24">
-        <f>+Earnings_Comparison!H49</f>
-        <v>-0.91574775849554424</v>
-      </c>
-      <c r="E32">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" t="str">
-        <f>+Earnings_Comparison!B26</f>
-        <v>MA</v>
-      </c>
-      <c r="B33" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="C33" s="25">
-        <f>+Earnings_Comparison!E26</f>
-        <v>1055.28</v>
-      </c>
-      <c r="D33" s="24">
-        <f>+Earnings_Comparison!H26</f>
-        <v>-1.1018796984118673</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" t="str">
-        <f>+Earnings_Comparison!B15</f>
-        <v>GA</v>
-      </c>
-      <c r="B34" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="C34" s="25">
-        <f>+Earnings_Comparison!E15</f>
-        <v>871.47</v>
-      </c>
-      <c r="D34" s="24">
-        <f>+Earnings_Comparison!H15</f>
-        <v>-1.1313074582754545</v>
+        <v>0.89038048517495749</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -11801,45 +11951,45 @@
       </c>
       <c r="C35" s="25">
         <f>+Earnings_Comparison!E21</f>
-        <v>771.51</v>
+        <v>782.15</v>
       </c>
       <c r="D35" s="24">
         <f>+Earnings_Comparison!H21</f>
-        <v>-1.1446143433823774</v>
+        <v>0.82261488428254648</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
-        <f>+Earnings_Comparison!B5</f>
-        <v>AL</v>
+        <f>+Earnings_Comparison!B26</f>
+        <v>MA</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="C36" s="25">
-        <f>+Earnings_Comparison!E5</f>
-        <v>790.24</v>
+        <f>+Earnings_Comparison!E26</f>
+        <v>1054.77</v>
       </c>
       <c r="D36" s="24">
-        <f>+Earnings_Comparison!H5</f>
-        <v>-1.337220770601244</v>
+        <f>+Earnings_Comparison!H26</f>
+        <v>0.8118215501988324</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
-        <f>+Earnings_Comparison!B52</f>
-        <v>WA</v>
+        <f>+Earnings_Comparison!B40</f>
+        <v>OH</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="C37" s="25">
-        <f>+Earnings_Comparison!E52</f>
-        <v>1073.3</v>
-      </c>
-      <c r="D37" s="24">
-        <f>+Earnings_Comparison!H52</f>
-        <v>-1.3827994581944725</v>
+        <f>+Earnings_Comparison!E40</f>
+        <v>812.87</v>
+      </c>
+      <c r="D37" s="35">
+        <f>+Earnings_Comparison!H40</f>
+        <v>0.72480034412625294</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -11852,62 +12002,62 @@
       </c>
       <c r="C38" s="25">
         <f>+Earnings_Comparison!E29</f>
-        <v>700.95</v>
+        <v>703.93</v>
       </c>
       <c r="D38" s="24">
         <f>+Earnings_Comparison!H29</f>
-        <v>-1.4382234939017247</v>
+        <v>0.68120271426670431</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
-        <f>+Earnings_Comparison!B46</f>
-        <v>SD</v>
+        <f>+Earnings_Comparison!B6</f>
+        <v>AK</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="C39" s="25">
-        <f>+Earnings_Comparison!E46</f>
-        <v>736.16</v>
+        <f>+Earnings_Comparison!E6</f>
+        <v>981.58</v>
       </c>
       <c r="D39" s="24">
-        <f>+Earnings_Comparison!H46</f>
-        <v>-1.5729663444067454</v>
+        <f>+Earnings_Comparison!H6</f>
+        <v>0.48000007094550767</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
-        <f>+Earnings_Comparison!B33</f>
-        <v>NV</v>
+        <f>+Earnings_Comparison!B11</f>
+        <v>CT</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="C40" s="25">
-        <f>+Earnings_Comparison!E33</f>
-        <v>760.61</v>
+        <f>+Earnings_Comparison!E11</f>
+        <v>1030.51</v>
       </c>
       <c r="D40" s="24">
-        <f>+Earnings_Comparison!H33</f>
-        <v>-1.5971506210631814</v>
+        <f>+Earnings_Comparison!H11</f>
+        <v>0.45646591779280321</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
-        <f>+Earnings_Comparison!B23</f>
-        <v>LA</v>
+        <f>+Earnings_Comparison!B54</f>
+        <v>WI</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>131</v>
+        <v>162</v>
       </c>
       <c r="C41" s="25">
-        <f>+Earnings_Comparison!E23</f>
-        <v>803.93</v>
+        <f>+Earnings_Comparison!E54</f>
+        <v>814.92</v>
       </c>
       <c r="D41" s="24">
-        <f>+Earnings_Comparison!H23</f>
-        <v>-1.7719494729972918</v>
+        <f>+Earnings_Comparison!H54</f>
+        <v>0.43619621162769295</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -11920,249 +12070,249 @@
       </c>
       <c r="C42" s="25">
         <f>+Earnings_Comparison!E25</f>
-        <v>939.47</v>
-      </c>
-      <c r="D42" s="36">
+        <v>945.65</v>
+      </c>
+      <c r="D42" s="35">
         <f>+Earnings_Comparison!H25</f>
-        <v>-1.8403729778983635</v>
+        <v>0.40045663849239688</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
+        <f>+Earnings_Comparison!B23</f>
+        <v>LA</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="C43" s="25">
+        <f>+Earnings_Comparison!E23</f>
+        <v>806.06</v>
+      </c>
+      <c r="D43" s="24">
+        <f>+Earnings_Comparison!H23</f>
+        <v>0.27369076879304455</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="str">
+        <f>+Earnings_Comparison!B33</f>
+        <v>NV</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="C44" s="25">
+        <f>+Earnings_Comparison!E33</f>
+        <v>763.16</v>
+      </c>
+      <c r="D44" s="24">
+        <f>+Earnings_Comparison!H33</f>
+        <v>6.8529697601649175E-2</v>
+      </c>
+      <c r="H44" s="20"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="str">
+        <f>+Earnings_Comparison!B46</f>
+        <v>SD</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="C45" s="25">
+        <f>+Earnings_Comparison!E46</f>
+        <v>730.85</v>
+      </c>
+      <c r="D45" s="24">
+        <f>+Earnings_Comparison!H46</f>
+        <v>-8.0100816422934429E-2</v>
+      </c>
+      <c r="H45" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="str">
+        <f>+Earnings_Comparison!B43</f>
+        <v>PA</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="C46" s="25">
+        <f>+Earnings_Comparison!E43</f>
+        <v>837.23</v>
+      </c>
+      <c r="D46" s="24">
+        <f>+Earnings_Comparison!H43</f>
+        <v>-0.11473531203562981</v>
+      </c>
+      <c r="H46" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="str">
+        <f>+Earnings_Comparison!B22</f>
+        <v>KY</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="C47" s="25">
+        <f>+Earnings_Comparison!E22</f>
+        <v>759.85</v>
+      </c>
+      <c r="D47" s="24">
+        <f>+Earnings_Comparison!H22</f>
+        <v>-0.18858119088721592</v>
+      </c>
+      <c r="H47" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="str">
+        <f>+Earnings_Comparison!B10</f>
+        <v>CO</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C48" s="25">
+        <f>+Earnings_Comparison!E10</f>
+        <v>914.85</v>
+      </c>
+      <c r="D48" s="24">
+        <f>+Earnings_Comparison!H10</f>
+        <v>-0.33369282099028341</v>
+      </c>
+      <c r="H48" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="str">
+        <f>+Earnings_Comparison!B18</f>
+        <v>IL</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="C49" s="25">
+        <f>+Earnings_Comparison!E18</f>
+        <v>908.61</v>
+      </c>
+      <c r="D49" s="24">
+        <f>+Earnings_Comparison!H18</f>
+        <v>-0.53110757711504197</v>
+      </c>
+      <c r="H49" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" t="str">
+        <f>+Earnings_Comparison!B5</f>
+        <v>AL</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C50" s="25">
+        <f>+Earnings_Comparison!E5</f>
+        <v>785.62</v>
+      </c>
+      <c r="D50" s="24">
+        <f>+Earnings_Comparison!H5</f>
+        <v>-0.67673420289339203</v>
+      </c>
+      <c r="H50" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="str">
+        <f>+Earnings_Comparison!B50</f>
+        <v>VT</v>
+      </c>
+      <c r="B51" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="C51" s="25">
+        <f>+Earnings_Comparison!E50</f>
+        <v>809.76</v>
+      </c>
+      <c r="D51" s="24">
+        <f>+Earnings_Comparison!H50</f>
+        <v>-1.7358646667118505</v>
+      </c>
+      <c r="H51" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" t="str">
+        <f>+Earnings_Comparison!B51</f>
+        <v>VA</v>
+      </c>
+      <c r="B52" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="C52" s="25">
+        <f>+Earnings_Comparison!E51</f>
+        <v>929.43</v>
+      </c>
+      <c r="D52" s="24">
+        <f>+Earnings_Comparison!H51</f>
+        <v>-2.0802761260702574</v>
+      </c>
+      <c r="H52" s="20"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" t="str">
         <f>+Earnings_Comparison!B27</f>
         <v>MI</v>
       </c>
-      <c r="B43" s="20" t="s">
+      <c r="B53" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="C43" s="25">
+      <c r="C53" s="25">
         <f>+Earnings_Comparison!E27</f>
-        <v>822.83</v>
-      </c>
-      <c r="D43" s="24">
+        <v>799.03</v>
+      </c>
+      <c r="D53" s="24">
         <f>+Earnings_Comparison!H27</f>
-        <v>-1.966663143628522</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" t="str">
-        <f>+Earnings_Comparison!B42</f>
-        <v>OR</v>
-      </c>
-      <c r="B44" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="C44" s="25">
-        <f>+Earnings_Comparison!E42</f>
-        <v>854.28</v>
-      </c>
-      <c r="D44" s="24">
-        <f>+Earnings_Comparison!H42</f>
-        <v>-2.0032649615040587</v>
-      </c>
-      <c r="H44" s="20"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" t="str">
-        <f>+Earnings_Comparison!B11</f>
-        <v>CT</v>
-      </c>
-      <c r="B45" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="C45" s="25">
-        <f>+Earnings_Comparison!E11</f>
-        <v>1038.9100000000001</v>
-      </c>
-      <c r="D45" s="24">
-        <f>+Earnings_Comparison!H11</f>
-        <v>-2.3320454062370821</v>
-      </c>
-      <c r="H45" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" t="str">
-        <f>+Earnings_Comparison!B50</f>
-        <v>VT</v>
-      </c>
-      <c r="B46" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="C46" s="25">
-        <f>+Earnings_Comparison!E50</f>
-        <v>815.47</v>
-      </c>
-      <c r="D46" s="24">
-        <f>+Earnings_Comparison!H50</f>
-        <v>-2.9413242704030118</v>
-      </c>
-      <c r="H46" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" t="str">
-        <f>+Earnings_Comparison!B51</f>
-        <v>VA</v>
-      </c>
-      <c r="B47" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="C47" s="25">
-        <f>+Earnings_Comparison!E51</f>
-        <v>943.92</v>
-      </c>
-      <c r="D47" s="24">
-        <f>+Earnings_Comparison!H51</f>
-        <v>-2.9507759985103799</v>
-      </c>
-      <c r="H47" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" t="str">
-        <f>+Earnings_Comparison!B16</f>
-        <v>HI</v>
-      </c>
-      <c r="B48" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="C48" s="25">
-        <f>+Earnings_Comparison!E16</f>
-        <v>841.1</v>
-      </c>
-      <c r="D48" s="24">
-        <f>+Earnings_Comparison!H16</f>
-        <v>-3.0688664784802255</v>
-      </c>
-      <c r="H48" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" t="str">
-        <f>+Earnings_Comparison!B17</f>
-        <v>ID</v>
-      </c>
-      <c r="B49" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="C49" s="25">
-        <f>+Earnings_Comparison!E17</f>
-        <v>745.59</v>
-      </c>
-      <c r="D49" s="24">
-        <f>+Earnings_Comparison!H17</f>
-        <v>-3.1484578892507664</v>
-      </c>
-      <c r="H49" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" t="str">
-        <f>+Earnings_Comparison!B18</f>
-        <v>IL</v>
-      </c>
-      <c r="B50" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="C50" s="25">
-        <f>+Earnings_Comparison!E18</f>
-        <v>902.7</v>
-      </c>
-      <c r="D50" s="24">
-        <f>+Earnings_Comparison!H18</f>
-        <v>-3.209613299342251</v>
-      </c>
-      <c r="H50" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" t="str">
-        <f>+Earnings_Comparison!B13</f>
-        <v>DC</v>
-      </c>
-      <c r="B51" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="C51" s="25">
-        <f>+Earnings_Comparison!E13</f>
-        <v>1391.01</v>
-      </c>
-      <c r="D51" s="24">
-        <f>+Earnings_Comparison!H13</f>
-        <v>-3.2968194679639629</v>
-      </c>
-      <c r="H51" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" t="str">
+        <v>-3.7313302579275454</v>
+      </c>
+      <c r="H53" s="20"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" t="str">
         <f>+Earnings_Comparison!B20</f>
         <v>IA</v>
       </c>
-      <c r="B52" s="20" t="s">
+      <c r="B54" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="C52" s="25">
+      <c r="C54" s="25">
         <f>+Earnings_Comparison!E20</f>
-        <v>793.44</v>
-      </c>
-      <c r="D52" s="24">
+        <v>798.22</v>
+      </c>
+      <c r="D54" s="24">
         <f>+Earnings_Comparison!H20</f>
-        <v>-3.6807142413847083</v>
-      </c>
-      <c r="H52" s="20"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" t="str">
-        <f>+Earnings_Comparison!B10</f>
-        <v>CO</v>
-      </c>
-      <c r="B53" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="C53" s="25">
-        <f>+Earnings_Comparison!E10</f>
-        <v>898.92</v>
-      </c>
-      <c r="D53" s="24">
-        <f>+Earnings_Comparison!H10</f>
-        <v>-4.6914032871673399</v>
-      </c>
-      <c r="H53" s="20"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" t="str">
-        <f>+Earnings_Comparison!B35</f>
-        <v>NJ</v>
-      </c>
-      <c r="B54" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="C54" s="25">
-        <f>+Earnings_Comparison!E35</f>
-        <v>820.98</v>
-      </c>
-      <c r="D54" s="24">
-        <f>+Earnings_Comparison!H35</f>
-        <v>-16.158169549298773</v>
+        <v>-4.3361384534694514</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C56">
-        <f>COUNTIF(C4:C54, "&lt;902")</f>
-        <v>38</v>
+        <f>COUNTIF(C4:C54, "&lt;906")</f>
+        <v>37</v>
       </c>
       <c r="D56">
         <f>COUNTIF(D4:D54, "&lt;0")</f>
-        <v>32</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -12171,8 +12321,8 @@
       <sortCondition descending="1" ref="D3:D54"/>
     </sortState>
   </autoFilter>
-  <sortState ref="O6:O9">
-    <sortCondition ref="O6"/>
+  <sortState ref="M6:M14">
+    <sortCondition ref="M6"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A2:D2"/>

--- a/static/data/source/current_earnings.xlsx
+++ b/static/data/source/current_earnings.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\RAuxier\Box Sync\TPC\CENTER\SLFI\SEM\Online SEM\Earnings\2017\June 2017\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\RAuxier\Box Sync\TPC\CENTER\SLFI\SEM\Online SEM\Earnings\2017\July 2017\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="1110" windowWidth="20775" windowHeight="11415" activeTab="1"/>
+    <workbookView xWindow="390" yWindow="1110" windowWidth="20775" windowHeight="11415" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Earnings Table" sheetId="2" r:id="rId1"/>
     <sheet name="Earnings_Comparison" sheetId="1" r:id="rId2"/>
-    <sheet name="June 2017_BLS Data Series" sheetId="27" r:id="rId3"/>
+    <sheet name="July 2017_BLS Data Series" sheetId="28" r:id="rId3"/>
     <sheet name="SCRATCH" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
@@ -805,7 +805,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="S5" authorId="0" shapeId="0">
+    <comment ref="T5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -820,7 +820,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S6" authorId="0" shapeId="0">
+    <comment ref="T6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -835,7 +835,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S7" authorId="0" shapeId="0">
+    <comment ref="T7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -850,7 +850,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S8" authorId="0" shapeId="0">
+    <comment ref="T8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -865,7 +865,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S9" authorId="0" shapeId="0">
+    <comment ref="T9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -880,7 +880,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S10" authorId="0" shapeId="0">
+    <comment ref="T10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -895,7 +895,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S11" authorId="0" shapeId="0">
+    <comment ref="T11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -910,7 +910,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S12" authorId="0" shapeId="0">
+    <comment ref="T12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -925,7 +925,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S13" authorId="0" shapeId="0">
+    <comment ref="T13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -940,7 +940,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S14" authorId="0" shapeId="0">
+    <comment ref="T14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -955,7 +955,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S15" authorId="0" shapeId="0">
+    <comment ref="T15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -970,7 +970,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S16" authorId="0" shapeId="0">
+    <comment ref="T16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -985,7 +985,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S17" authorId="0" shapeId="0">
+    <comment ref="T17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1000,7 +1000,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S18" authorId="0" shapeId="0">
+    <comment ref="T18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1015,7 +1015,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S19" authorId="0" shapeId="0">
+    <comment ref="T19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1030,7 +1030,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S20" authorId="0" shapeId="0">
+    <comment ref="T20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1045,7 +1045,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S21" authorId="0" shapeId="0">
+    <comment ref="T21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1060,7 +1060,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S22" authorId="0" shapeId="0">
+    <comment ref="T22" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1075,7 +1075,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S23" authorId="0" shapeId="0">
+    <comment ref="T23" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1090,7 +1090,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S24" authorId="0" shapeId="0">
+    <comment ref="T24" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1105,7 +1105,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S25" authorId="0" shapeId="0">
+    <comment ref="T25" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1120,7 +1120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S26" authorId="0" shapeId="0">
+    <comment ref="T26" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1135,7 +1135,52 @@
         </r>
       </text>
     </comment>
-    <comment ref="S27" authorId="0" shapeId="0">
+    <comment ref="P27" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Correction
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q27" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Correction
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R27" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">*  Correction
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T27" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1150,7 +1195,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S28" authorId="0" shapeId="0">
+    <comment ref="T28" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1165,7 +1210,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S29" authorId="0" shapeId="0">
+    <comment ref="T29" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1180,7 +1225,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S30" authorId="0" shapeId="0">
+    <comment ref="T30" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1195,7 +1240,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S31" authorId="0" shapeId="0">
+    <comment ref="T31" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1210,7 +1255,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S32" authorId="0" shapeId="0">
+    <comment ref="T32" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1225,7 +1270,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S33" authorId="0" shapeId="0">
+    <comment ref="T33" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1240,7 +1285,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S34" authorId="0" shapeId="0">
+    <comment ref="T34" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1255,7 +1300,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S35" authorId="0" shapeId="0">
+    <comment ref="T35" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1270,7 +1315,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S36" authorId="0" shapeId="0">
+    <comment ref="T36" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1285,7 +1330,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S37" authorId="0" shapeId="0">
+    <comment ref="T37" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1300,7 +1345,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S38" authorId="0" shapeId="0">
+    <comment ref="T38" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1315,7 +1360,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S39" authorId="0" shapeId="0">
+    <comment ref="T39" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1330,7 +1375,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S40" authorId="0" shapeId="0">
+    <comment ref="T40" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1345,7 +1390,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S41" authorId="0" shapeId="0">
+    <comment ref="T41" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1360,7 +1405,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S42" authorId="0" shapeId="0">
+    <comment ref="T42" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1375,7 +1420,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S43" authorId="0" shapeId="0">
+    <comment ref="T43" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1390,7 +1435,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S44" authorId="0" shapeId="0">
+    <comment ref="T44" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1405,7 +1450,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S45" authorId="0" shapeId="0">
+    <comment ref="T45" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1420,7 +1465,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S46" authorId="0" shapeId="0">
+    <comment ref="T46" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1435,7 +1480,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S47" authorId="0" shapeId="0">
+    <comment ref="T47" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1450,7 +1495,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S48" authorId="0" shapeId="0">
+    <comment ref="T48" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1465,7 +1510,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S49" authorId="0" shapeId="0">
+    <comment ref="T49" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1480,7 +1525,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S50" authorId="0" shapeId="0">
+    <comment ref="T50" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1495,7 +1540,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S51" authorId="0" shapeId="0">
+    <comment ref="T51" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1510,7 +1555,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S52" authorId="0" shapeId="0">
+    <comment ref="T52" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1525,7 +1570,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S53" authorId="0" shapeId="0">
+    <comment ref="T53" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1540,7 +1585,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S54" authorId="0" shapeId="0">
+    <comment ref="T54" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1555,7 +1600,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S55" authorId="0" shapeId="0">
+    <comment ref="T55" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1575,7 +1620,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="197">
   <si>
     <t>State and Area Employment, Hours, and Earnings</t>
   </si>
@@ -2186,17 +2231,17 @@
     <t>Average Weekly Wages April 2017</t>
   </si>
   <si>
-    <t>June 2016 adj for inflation</t>
-  </si>
-  <si>
-    <t>Average Weekly Earnings June 2017</t>
+    <t>Average Weekly Earnings July 2017</t>
+  </si>
+  <si>
+    <t>July 2016 adj for inflation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="14">
+  <numFmts count="13">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="#0.00"/>
@@ -2210,7 +2255,6 @@
     <numFmt numFmtId="172" formatCode="0.0"/>
     <numFmt numFmtId="173" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="174" formatCode="#0"/>
-    <numFmt numFmtId="175" formatCode="#0.000"/>
   </numFmts>
   <fonts count="80" x14ac:knownFonts="1">
     <font>
@@ -3855,7 +3899,7 @@
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3937,9 +3981,6 @@
     </xf>
     <xf numFmtId="17" fontId="4" fillId="34" borderId="1" xfId="315" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="175" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="77" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="315"/>
@@ -5170,7 +5211,7 @@
   <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5182,12 +5223,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
-        <v>196</v>
-      </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
+      <c r="A1" s="48" t="s">
+        <v>195</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
@@ -5212,11 +5253,11 @@
       </c>
       <c r="C3" s="30">
         <f>+Earnings_Comparison!E58</f>
-        <v>905.63</v>
+        <v>909.42</v>
       </c>
       <c r="D3" s="29">
         <f>+Earnings_Comparison!H58</f>
-        <v>1.105647928819109</v>
+        <v>1.0800694669405031</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -5229,11 +5270,11 @@
       </c>
       <c r="C4" s="30">
         <f>+Earnings_Comparison!E5</f>
-        <v>785.62</v>
+        <v>799.46</v>
       </c>
       <c r="D4" s="29">
         <f>+Earnings_Comparison!H5</f>
-        <v>-0.67673420289339203</v>
+        <v>0.47948041116914197</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -5246,11 +5287,11 @@
       </c>
       <c r="C5" s="30">
         <f>+Earnings_Comparison!E6</f>
-        <v>981.58</v>
+        <v>1027.1099999999999</v>
       </c>
       <c r="D5" s="29">
         <f>+Earnings_Comparison!H6</f>
-        <v>0.48000007094550767</v>
+        <v>1.9995794181475679</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -5263,11 +5304,11 @@
       </c>
       <c r="C6" s="30">
         <f>+Earnings_Comparison!E7</f>
-        <v>863.08</v>
+        <v>898.1</v>
       </c>
       <c r="D6" s="29">
         <f>+Earnings_Comparison!H7</f>
-        <v>3.8545518411986057</v>
+        <v>8.4202774114052978</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -5280,11 +5321,11 @@
       </c>
       <c r="C7" s="30">
         <f>+Earnings_Comparison!E8</f>
-        <v>714.35</v>
+        <v>724.46</v>
       </c>
       <c r="D7" s="29">
         <f>+Earnings_Comparison!H8</f>
-        <v>2.5711381322665261</v>
+        <v>1.8935114256935615</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -5297,11 +5338,11 @@
       </c>
       <c r="C8" s="30">
         <f>+Earnings_Comparison!E9</f>
-        <v>1021.34</v>
+        <v>1061.28</v>
       </c>
       <c r="D8" s="29">
         <f>+Earnings_Comparison!H9</f>
-        <v>2.4764109612882113</v>
+        <v>5.5592694693389344</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -5314,11 +5355,11 @@
       </c>
       <c r="C9" s="30">
         <f>+Earnings_Comparison!E10</f>
-        <v>914.85</v>
+        <v>953.57</v>
       </c>
       <c r="D9" s="29">
         <f>+Earnings_Comparison!H10</f>
-        <v>-0.33369282099028341</v>
+        <v>4.1802710450885128</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -5331,11 +5372,11 @@
       </c>
       <c r="C10" s="30">
         <f>+Earnings_Comparison!E11</f>
-        <v>1030.51</v>
+        <v>1058.95</v>
       </c>
       <c r="D10" s="29">
         <f>+Earnings_Comparison!H11</f>
-        <v>0.45646591779280321</v>
+        <v>2.653951392058107</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -5348,11 +5389,11 @@
       </c>
       <c r="C11" s="30">
         <f>+Earnings_Comparison!E12</f>
-        <v>820.33</v>
+        <v>911.09</v>
       </c>
       <c r="D11" s="29">
         <f>+Earnings_Comparison!H12</f>
-        <v>1.7093900397560313</v>
+        <v>11.761752934516245</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -5365,11 +5406,11 @@
       </c>
       <c r="C12" s="30">
         <f>+Earnings_Comparison!E13</f>
-        <v>1389.26</v>
+        <v>1477.08</v>
       </c>
       <c r="D12" s="29">
         <f>+Earnings_Comparison!H13</f>
-        <v>1.4450403859940675</v>
+        <v>6.8700494516544364</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -5382,11 +5423,11 @@
       </c>
       <c r="C13" s="30">
         <f>+Earnings_Comparison!E14</f>
-        <v>807.49</v>
+        <v>829.38</v>
       </c>
       <c r="D13" s="29">
         <f>+Earnings_Comparison!H14</f>
-        <v>0.89038048517495749</v>
+        <v>3.761031775713275</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -5399,11 +5440,11 @@
       </c>
       <c r="C14" s="30">
         <f>+Earnings_Comparison!E15</f>
-        <v>874.87</v>
+        <v>911.41</v>
       </c>
       <c r="D14" s="29">
         <f>+Earnings_Comparison!H15</f>
-        <v>2.0060662729118439</v>
+        <v>5.6856012776546505</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -5416,11 +5457,11 @@
       </c>
       <c r="C15" s="30">
         <f>+Earnings_Comparison!E16</f>
-        <v>847.26</v>
+        <v>898.78</v>
       </c>
       <c r="D15" s="29">
         <f>+Earnings_Comparison!H16</f>
-        <v>1.0598314178942969</v>
+        <v>5.518038031913397</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -5433,11 +5474,11 @@
       </c>
       <c r="C16" s="30">
         <f>+Earnings_Comparison!E17</f>
-        <v>749.49</v>
+        <v>770.56</v>
       </c>
       <c r="D16" s="29">
         <f>+Earnings_Comparison!H17</f>
-        <v>0.9022291893232115</v>
+        <v>2.9732277344208136</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -5450,11 +5491,11 @@
       </c>
       <c r="C17" s="30">
         <f>+Earnings_Comparison!E18</f>
-        <v>908.61</v>
+        <v>927.77</v>
       </c>
       <c r="D17" s="29">
         <f>+Earnings_Comparison!H18</f>
-        <v>-0.53110757711504197</v>
+        <v>1.2310363191617268</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -5467,11 +5508,11 @@
       </c>
       <c r="C18" s="30">
         <f>+Earnings_Comparison!E19</f>
-        <v>851.65</v>
+        <v>865.56</v>
       </c>
       <c r="D18" s="29">
         <f>+Earnings_Comparison!H19</f>
-        <v>4.0894852174315766</v>
+        <v>4.8331589501042549</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -5484,11 +5525,11 @@
       </c>
       <c r="C19" s="30">
         <f>+Earnings_Comparison!E20</f>
-        <v>798.22</v>
+        <v>811.98</v>
       </c>
       <c r="D19" s="29">
         <f>+Earnings_Comparison!H20</f>
-        <v>-4.3361384534694514</v>
+        <v>-1.4339970245571543</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -5501,11 +5542,11 @@
       </c>
       <c r="C20" s="30">
         <f>+Earnings_Comparison!E21</f>
-        <v>782.15</v>
+        <v>798.91</v>
       </c>
       <c r="D20" s="29">
         <f>+Earnings_Comparison!H21</f>
-        <v>0.82261488428254648</v>
+        <v>2.401750193753216</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -5518,11 +5559,11 @@
       </c>
       <c r="C21" s="30">
         <f>+Earnings_Comparison!E22</f>
-        <v>759.85</v>
+        <v>774.84</v>
       </c>
       <c r="D21" s="29">
         <f>+Earnings_Comparison!H22</f>
-        <v>-0.18858119088721592</v>
+        <v>1.87632742564392</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -5535,11 +5576,11 @@
       </c>
       <c r="C22" s="30">
         <f>+Earnings_Comparison!E23</f>
-        <v>806.06</v>
+        <v>828.21</v>
       </c>
       <c r="D22" s="29">
         <f>+Earnings_Comparison!H23</f>
-        <v>0.27369076879304455</v>
+        <v>3.1342544977436271</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -5552,11 +5593,11 @@
       </c>
       <c r="C23" s="30">
         <f>+Earnings_Comparison!E24</f>
-        <v>780.1</v>
+        <v>785.22</v>
       </c>
       <c r="D23" s="29">
         <f>+Earnings_Comparison!H24</f>
-        <v>3.4826645421318414</v>
+        <v>4.2830182606085065</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -5569,11 +5610,11 @@
       </c>
       <c r="C24" s="30">
         <f>+Earnings_Comparison!E25</f>
-        <v>945.65</v>
+        <v>970.14</v>
       </c>
       <c r="D24" s="29">
         <f>+Earnings_Comparison!H25</f>
-        <v>0.40045663849239688</v>
+        <v>2.7474728856072161</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -5586,11 +5627,11 @@
       </c>
       <c r="C25" s="30">
         <f>+Earnings_Comparison!E26</f>
-        <v>1054.77</v>
+        <v>1077.05</v>
       </c>
       <c r="D25" s="29">
         <f>+Earnings_Comparison!H26</f>
-        <v>0.8118215501988324</v>
+        <v>2.2072751628677389</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -5603,11 +5644,11 @@
       </c>
       <c r="C26" s="30">
         <f>+Earnings_Comparison!E27</f>
-        <v>799.03</v>
+        <v>852.95</v>
       </c>
       <c r="D26" s="29">
         <f>+Earnings_Comparison!H27</f>
-        <v>-3.7313302579275454</v>
+        <v>2.0684340018956693</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -5620,11 +5661,11 @@
       </c>
       <c r="C27" s="30">
         <f>+Earnings_Comparison!E28</f>
-        <v>954.52</v>
+        <v>977.99</v>
       </c>
       <c r="D27" s="29">
         <f>+Earnings_Comparison!H28</f>
-        <v>2.7828870257054161</v>
+        <v>4.6112733569586339</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -5637,11 +5678,11 @@
       </c>
       <c r="C28" s="30">
         <f>+Earnings_Comparison!E29</f>
-        <v>703.93</v>
+        <v>715.97</v>
       </c>
       <c r="D28" s="29">
         <f>+Earnings_Comparison!H29</f>
-        <v>0.68120271426670431</v>
+        <v>0.43070583926916317</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -5654,11 +5695,11 @@
       </c>
       <c r="C29" s="30">
         <f>+Earnings_Comparison!E30</f>
-        <v>792.61</v>
+        <v>822.17</v>
       </c>
       <c r="D29" s="29">
         <f>+Earnings_Comparison!H30</f>
-        <v>5.540565782582596</v>
+        <v>8.2527762291400464</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -5671,11 +5712,11 @@
       </c>
       <c r="C30" s="30">
         <f>+Earnings_Comparison!E31</f>
-        <v>760.91</v>
+        <v>778.08</v>
       </c>
       <c r="D30" s="29">
         <f>+Earnings_Comparison!H31</f>
-        <v>2.2089277692085574</v>
+        <v>3.449378719085483</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -5688,11 +5729,11 @@
       </c>
       <c r="C31" s="30">
         <f>+Earnings_Comparison!E32</f>
-        <v>818.03</v>
+        <v>836.97</v>
       </c>
       <c r="D31" s="29">
         <f>+Earnings_Comparison!H32</f>
-        <v>3.3118991450269641</v>
+        <v>5.1199730820937983</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -5705,11 +5746,11 @@
       </c>
       <c r="C32" s="30">
         <f>+Earnings_Comparison!E33</f>
-        <v>763.16</v>
+        <v>775.73</v>
       </c>
       <c r="D32" s="29">
         <f>+Earnings_Comparison!H33</f>
-        <v>6.8529697601649175E-2</v>
+        <v>1.9047499961891479</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -5722,11 +5763,11 @@
       </c>
       <c r="C33" s="30">
         <f>+Earnings_Comparison!E34</f>
-        <v>878.22</v>
+        <v>874.79</v>
       </c>
       <c r="D33" s="29">
         <f>+Earnings_Comparison!H34</f>
-        <v>2.1147173544935338</v>
+        <v>0.8858237823111903</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -5739,11 +5780,11 @@
       </c>
       <c r="C34" s="30">
         <f>+Earnings_Comparison!E35</f>
-        <v>999.32</v>
+        <v>1000.84</v>
       </c>
       <c r="D34" s="29">
         <f>+Earnings_Comparison!H35</f>
-        <v>4.4464190964051964</v>
+        <v>3.9691704339658074</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -5756,11 +5797,11 @@
       </c>
       <c r="C35" s="30">
         <f>+Earnings_Comparison!E36</f>
-        <v>706.82</v>
+        <v>725.9</v>
       </c>
       <c r="D35" s="29">
         <f>+Earnings_Comparison!H36</f>
-        <v>2.4708996405107264</v>
+        <v>4.2103089981685216</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -5773,11 +5814,11 @@
       </c>
       <c r="C36" s="30">
         <f>+Earnings_Comparison!E37</f>
-        <v>991.65</v>
+        <v>1013.7</v>
       </c>
       <c r="D36" s="29">
         <f>+Earnings_Comparison!H37</f>
-        <v>1.4126994782312607</v>
+        <v>1.9626545183159871</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -5790,11 +5831,11 @@
       </c>
       <c r="C37" s="30">
         <f>+Earnings_Comparison!E38</f>
-        <v>823.48</v>
+        <v>841.46</v>
       </c>
       <c r="D37" s="29">
         <f>+Earnings_Comparison!H38</f>
-        <v>1.0885255024292162</v>
+        <v>2.9890354333622637</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -5807,11 +5848,11 @@
       </c>
       <c r="C38" s="30">
         <f>+Earnings_Comparison!E39</f>
-        <v>921.94</v>
+        <v>942.73</v>
       </c>
       <c r="D38" s="29">
         <f>+Earnings_Comparison!H39</f>
-        <v>3.218136068981603</v>
+        <v>3.9409293472148166</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -5824,11 +5865,11 @@
       </c>
       <c r="C39" s="30">
         <f>+Earnings_Comparison!E40</f>
-        <v>812.87</v>
+        <v>822.17</v>
       </c>
       <c r="D39" s="29">
         <f>+Earnings_Comparison!H40</f>
-        <v>0.72480034412625294</v>
+        <v>0.99777586777844984</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -5841,11 +5882,11 @@
       </c>
       <c r="C40" s="30">
         <f>+Earnings_Comparison!E41</f>
-        <v>804.79</v>
+        <v>833.69</v>
       </c>
       <c r="D40" s="29">
         <f>+Earnings_Comparison!H41</f>
-        <v>3.829429179605337</v>
+        <v>5.4435964424423</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -5858,11 +5899,11 @@
       </c>
       <c r="C41" s="30">
         <f>+Earnings_Comparison!E42</f>
-        <v>858.5</v>
+        <v>888.79</v>
       </c>
       <c r="D41" s="29">
         <f>+Earnings_Comparison!H42</f>
-        <v>1.2662018685905441</v>
+        <v>3.412728385519781</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -5875,11 +5916,11 @@
       </c>
       <c r="C42" s="30">
         <f>+Earnings_Comparison!E43</f>
-        <v>837.23</v>
+        <v>848.64</v>
       </c>
       <c r="D42" s="29">
         <f>+Earnings_Comparison!H43</f>
-        <v>-0.11473531203562981</v>
+        <v>0.33010723046997814</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -5892,11 +5933,11 @@
       </c>
       <c r="C43" s="30">
         <f>+Earnings_Comparison!E44</f>
-        <v>872.52</v>
+        <v>877.48</v>
       </c>
       <c r="D43" s="29">
         <f>+Earnings_Comparison!H44</f>
-        <v>1.2258651176063617</v>
+        <v>2.34390400101121</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -5909,11 +5950,11 @@
       </c>
       <c r="C44" s="30">
         <f>+Earnings_Comparison!E45</f>
-        <v>785.25</v>
+        <v>797.81</v>
       </c>
       <c r="D44" s="29">
         <f>+Earnings_Comparison!H45</f>
-        <v>1.1798008378898217</v>
+        <v>3.9592501859836426</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -5926,11 +5967,11 @@
       </c>
       <c r="C45" s="30">
         <f>+Earnings_Comparison!E46</f>
-        <v>730.85</v>
+        <v>743.97</v>
       </c>
       <c r="D45" s="29">
         <f>+Earnings_Comparison!H46</f>
-        <v>-8.0100816422934429E-2</v>
+        <v>0.51854527674572992</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -5943,11 +5984,11 @@
       </c>
       <c r="C46" s="30">
         <f>+Earnings_Comparison!E47</f>
-        <v>794.95</v>
+        <v>805.98</v>
       </c>
       <c r="D46" s="29">
         <f>+Earnings_Comparison!H47</f>
-        <v>2.0487812258880966</v>
+        <v>2.4702090932969378</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -5960,11 +6001,11 @@
       </c>
       <c r="C47" s="30">
         <f>+Earnings_Comparison!E48</f>
-        <v>894.28</v>
+        <v>930.75</v>
       </c>
       <c r="D47" s="29">
         <f>+Earnings_Comparison!H48</f>
-        <v>1.1038524586913123</v>
+        <v>5.0785595065279132</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -5977,11 +6018,11 @@
       </c>
       <c r="C48" s="30">
         <f>+Earnings_Comparison!E49</f>
-        <v>877.91</v>
+        <v>903.21</v>
       </c>
       <c r="D48" s="29">
         <f>+Earnings_Comparison!H49</f>
-        <v>2.6963967270785538</v>
+        <v>5.1228788880663068</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -5994,11 +6035,11 @@
       </c>
       <c r="C49" s="30">
         <f>+Earnings_Comparison!E50</f>
-        <v>809.76</v>
+        <v>821.14</v>
       </c>
       <c r="D49" s="29">
         <f>+Earnings_Comparison!H50</f>
-        <v>-1.7358646667118505</v>
+        <v>-0.58111146522916712</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -6011,11 +6052,11 @@
       </c>
       <c r="C50" s="30">
         <f>+Earnings_Comparison!E51</f>
-        <v>929.43</v>
+        <v>955.96</v>
       </c>
       <c r="D50" s="29">
         <f>+Earnings_Comparison!H51</f>
-        <v>-2.0802761260702574</v>
+        <v>-0.38460703019946862</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -6028,11 +6069,11 @@
       </c>
       <c r="C51" s="30">
         <f>+Earnings_Comparison!E52</f>
-        <v>1070.8699999999999</v>
+        <v>1109.08</v>
       </c>
       <c r="D51" s="29">
         <f>+Earnings_Comparison!H52</f>
-        <v>1.9386828292423663</v>
+        <v>4.9974356044612422</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -6045,11 +6086,11 @@
       </c>
       <c r="C52" s="30">
         <f>+Earnings_Comparison!E53</f>
-        <v>762.55</v>
+        <v>780.12</v>
       </c>
       <c r="D52" s="29">
         <f>+Earnings_Comparison!H53</f>
-        <v>3.6732997018352531</v>
+        <v>4.2933053876920368</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -6062,11 +6103,11 @@
       </c>
       <c r="C53" s="30">
         <f>+Earnings_Comparison!E54</f>
-        <v>814.92</v>
+        <v>839.95</v>
       </c>
       <c r="D53" s="29">
         <f>+Earnings_Comparison!H54</f>
-        <v>0.43619621162769295</v>
+        <v>1.9549776190133317</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -6079,11 +6120,11 @@
       </c>
       <c r="C54" s="30">
         <f>+Earnings_Comparison!E55</f>
-        <v>818.15</v>
+        <v>835.18</v>
       </c>
       <c r="D54" s="29">
         <f>+Earnings_Comparison!H55</f>
-        <v>7.836626279745218</v>
+        <v>8.3233379602161151</v>
       </c>
     </row>
   </sheetData>
@@ -6099,11 +6140,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D35" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="4" topLeftCell="D41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K52" sqref="K52"/>
+      <selection pane="bottomRight" activeCell="I62" sqref="I62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6122,10 +6163,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="51"/>
+      <c r="D1" s="50"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C2" s="2" t="s">
@@ -6146,14 +6187,14 @@
         <v>2</v>
       </c>
       <c r="D4" s="44">
-        <v>42522</v>
+        <v>42552</v>
       </c>
       <c r="E4" s="45">
-        <v>42887</v>
+        <v>42917</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="13" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>57</v>
@@ -6196,26 +6237,26 @@
         <v>3</v>
       </c>
       <c r="D5" s="36">
-        <f>'June 2017_BLS Data Series'!G5</f>
-        <v>778.26</v>
+        <f>'July 2017_BLS Data Series'!H5</f>
+        <v>782.13</v>
       </c>
       <c r="E5" s="42">
-        <f>'June 2017_BLS Data Series'!S5</f>
-        <v>785.62</v>
+        <f>'July 2017_BLS Data Series'!T5</f>
+        <v>799.46</v>
       </c>
       <c r="F5" s="34"/>
       <c r="G5" s="34">
         <f>D5/$G$61</f>
-        <v>790.97278336057889</v>
+        <v>795.6450379008262</v>
       </c>
       <c r="H5" s="11">
         <f>((E5/G5)-1)*100</f>
-        <v>-0.67673420289339203</v>
+        <v>0.47948041116914197</v>
       </c>
       <c r="I5" s="9"/>
       <c r="J5" s="29">
         <f>E5-D5</f>
-        <v>7.3600000000000136</v>
+        <v>17.330000000000041</v>
       </c>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
@@ -6231,26 +6272,26 @@
         <v>4</v>
       </c>
       <c r="D6" s="36">
-        <f>'June 2017_BLS Data Series'!G6</f>
-        <v>961.19</v>
+        <f>'July 2017_BLS Data Series'!H6</f>
+        <v>989.87</v>
       </c>
       <c r="E6" s="42">
-        <f>'June 2017_BLS Data Series'!S6</f>
-        <v>981.58</v>
+        <f>'July 2017_BLS Data Series'!T6</f>
+        <v>1027.1099999999999</v>
       </c>
       <c r="F6" s="34"/>
       <c r="G6" s="34">
         <f t="shared" ref="G6:G55" si="0">D6/$G$61</f>
-        <v>976.89092287712958</v>
+        <v>1006.9747403460944</v>
       </c>
       <c r="H6" s="11">
         <f t="shared" ref="H6:H55" si="1">((E6/G6)-1)*100</f>
-        <v>0.48000007094550767</v>
+        <v>1.9995794181475679</v>
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="29">
         <f t="shared" ref="J6:J55" si="2">E6-D6</f>
-        <v>20.389999999999986</v>
+        <v>37.239999999999895</v>
       </c>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
@@ -6266,26 +6307,26 @@
         <v>5</v>
       </c>
       <c r="D7" s="36">
-        <f>'June 2017_BLS Data Series'!G7</f>
-        <v>817.69</v>
+        <f>'July 2017_BLS Data Series'!H7</f>
+        <v>814.28</v>
       </c>
       <c r="E7" s="42">
-        <f>'June 2017_BLS Data Series'!S7</f>
-        <v>863.08</v>
+        <f>'July 2017_BLS Data Series'!T7</f>
+        <v>898.1</v>
       </c>
       <c r="F7" s="34"/>
       <c r="G7" s="34">
         <f t="shared" si="0"/>
-        <v>831.04686766133659</v>
+        <v>828.35058297454987</v>
       </c>
       <c r="H7" s="11">
         <f t="shared" si="1"/>
-        <v>3.8545518411986057</v>
+        <v>8.4202774114052978</v>
       </c>
       <c r="I7" s="9"/>
       <c r="J7" s="29">
         <f t="shared" si="2"/>
-        <v>45.389999999999986</v>
+        <v>83.82000000000005</v>
       </c>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
@@ -6301,26 +6342,26 @@
         <v>6</v>
       </c>
       <c r="D8" s="36">
-        <f>'June 2017_BLS Data Series'!G8</f>
-        <v>685.25</v>
+        <f>'July 2017_BLS Data Series'!H8</f>
+        <v>698.92</v>
       </c>
       <c r="E8" s="42">
-        <f>'June 2017_BLS Data Series'!S8</f>
-        <v>714.35</v>
+        <f>'July 2017_BLS Data Series'!T8</f>
+        <v>724.46</v>
       </c>
       <c r="F8" s="34"/>
       <c r="G8" s="34">
         <f t="shared" si="0"/>
-        <v>696.44347621339489</v>
+        <v>710.99718702727864</v>
       </c>
       <c r="H8" s="11">
         <f t="shared" si="1"/>
-        <v>2.5711381322665261</v>
+        <v>1.8935114256935615</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="29">
         <f t="shared" si="2"/>
-        <v>29.100000000000023</v>
+        <v>25.540000000000077</v>
       </c>
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
@@ -6336,26 +6377,26 @@
         <v>7</v>
       </c>
       <c r="D9" s="36">
-        <f>'June 2017_BLS Data Series'!G9</f>
-        <v>980.64</v>
+        <f>'July 2017_BLS Data Series'!H9</f>
+        <v>988.31</v>
       </c>
       <c r="E9" s="42">
-        <f>'June 2017_BLS Data Series'!S9</f>
-        <v>1021.34</v>
+        <f>'July 2017_BLS Data Series'!T9</f>
+        <v>1061.28</v>
       </c>
       <c r="F9" s="34"/>
       <c r="G9" s="34">
         <f t="shared" si="0"/>
-        <v>996.65863628442696</v>
+        <v>1005.387783882175</v>
       </c>
       <c r="H9" s="11">
         <f t="shared" si="1"/>
-        <v>2.4764109612882113</v>
+        <v>5.5592694693389344</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="29">
         <f t="shared" si="2"/>
-        <v>40.700000000000045</v>
+        <v>72.970000000000027</v>
       </c>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
@@ -6371,26 +6412,26 @@
         <v>8</v>
       </c>
       <c r="D10" s="36">
-        <f>'June 2017_BLS Data Series'!G10</f>
-        <v>903.16</v>
+        <f>'July 2017_BLS Data Series'!H10</f>
+        <v>899.76</v>
       </c>
       <c r="E10" s="42">
-        <f>'June 2017_BLS Data Series'!S10</f>
-        <v>914.85</v>
+        <f>'July 2017_BLS Data Series'!T10</f>
+        <v>953.57</v>
       </c>
       <c r="F10" s="34"/>
       <c r="G10" s="34">
         <f t="shared" si="0"/>
-        <v>917.91300981669417</v>
+        <v>915.30765895905711</v>
       </c>
       <c r="H10" s="11">
         <f t="shared" si="1"/>
-        <v>-0.33369282099028341</v>
+        <v>4.1802710450885128</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="29">
         <f t="shared" si="2"/>
-        <v>11.690000000000055</v>
+        <v>53.810000000000059</v>
       </c>
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
@@ -6406,26 +6447,26 @@
         <v>9</v>
       </c>
       <c r="D11" s="36">
-        <f>'June 2017_BLS Data Series'!G11</f>
-        <v>1009.34</v>
+        <f>'July 2017_BLS Data Series'!H11</f>
+        <v>1014.05</v>
       </c>
       <c r="E11" s="42">
-        <f>'June 2017_BLS Data Series'!S11</f>
-        <v>1030.51</v>
+        <f>'July 2017_BLS Data Series'!T11</f>
+        <v>1058.95</v>
       </c>
       <c r="F11" s="34"/>
       <c r="G11" s="34">
         <f t="shared" si="0"/>
-        <v>1025.8274473275856</v>
+        <v>1031.5725655368453</v>
       </c>
       <c r="H11" s="11">
         <f t="shared" si="1"/>
-        <v>0.45646591779280321</v>
+        <v>2.653951392058107</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="29">
         <f t="shared" si="2"/>
-        <v>21.169999999999959</v>
+        <v>44.900000000000091</v>
       </c>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
@@ -6441,26 +6482,26 @@
         <v>10</v>
       </c>
       <c r="D12" s="36">
-        <f>'June 2017_BLS Data Series'!G12</f>
-        <v>793.58</v>
+        <f>'July 2017_BLS Data Series'!H12</f>
+        <v>801.36</v>
       </c>
       <c r="E12" s="42">
-        <f>'June 2017_BLS Data Series'!S12</f>
-        <v>820.33</v>
+        <f>'July 2017_BLS Data Series'!T12</f>
+        <v>911.09</v>
       </c>
       <c r="F12" s="34"/>
       <c r="G12" s="34">
         <f t="shared" si="0"/>
-        <v>806.54303371532421</v>
+        <v>815.20732815798658</v>
       </c>
       <c r="H12" s="11">
         <f t="shared" si="1"/>
-        <v>1.7093900397560313</v>
+        <v>11.761752934516245</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="29">
         <f t="shared" si="2"/>
-        <v>26.75</v>
+        <v>109.73000000000002</v>
       </c>
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
@@ -6476,26 +6517,26 @@
         <v>11</v>
       </c>
       <c r="D13" s="36">
-        <f>'June 2017_BLS Data Series'!G13</f>
-        <v>1347.46</v>
+        <f>'July 2017_BLS Data Series'!H13</f>
+        <v>1358.65</v>
       </c>
       <c r="E13" s="42">
-        <f>'June 2017_BLS Data Series'!S13</f>
-        <v>1389.26</v>
+        <f>'July 2017_BLS Data Series'!T13</f>
+        <v>1477.08</v>
       </c>
       <c r="F13" s="34"/>
       <c r="G13" s="34">
         <f t="shared" si="0"/>
-        <v>1369.4705968018986</v>
+        <v>1382.1271792975049</v>
       </c>
       <c r="H13" s="11">
         <f t="shared" si="1"/>
-        <v>1.4450403859940675</v>
+        <v>6.8700494516544364</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="29">
         <f t="shared" si="2"/>
-        <v>41.799999999999955</v>
+        <v>118.42999999999984</v>
       </c>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
@@ -6511,26 +6552,26 @@
         <v>12</v>
       </c>
       <c r="D14" s="36">
-        <f>'June 2017_BLS Data Series'!G14</f>
-        <v>787.5</v>
+        <f>'July 2017_BLS Data Series'!H14</f>
+        <v>785.74</v>
       </c>
       <c r="E14" s="42">
-        <f>'June 2017_BLS Data Series'!S14</f>
-        <v>807.49</v>
+        <f>'July 2017_BLS Data Series'!T14</f>
+        <v>829.38</v>
       </c>
       <c r="F14" s="34"/>
       <c r="G14" s="34">
         <f t="shared" si="0"/>
-        <v>800.36371764764465</v>
+        <v>799.31741792310129</v>
       </c>
       <c r="H14" s="11">
         <f t="shared" si="1"/>
-        <v>0.89038048517495749</v>
+        <v>3.761031775713275</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="29">
         <f t="shared" si="2"/>
-        <v>19.990000000000009</v>
+        <v>43.639999999999986</v>
       </c>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
@@ -6546,26 +6587,26 @@
         <v>13</v>
       </c>
       <c r="D15" s="36">
-        <f>'June 2017_BLS Data Series'!G15</f>
-        <v>843.88</v>
+        <f>'July 2017_BLS Data Series'!H15</f>
+        <v>847.73</v>
       </c>
       <c r="E15" s="42">
-        <f>'June 2017_BLS Data Series'!S15</f>
-        <v>874.87</v>
+        <f>'July 2017_BLS Data Series'!T15</f>
+        <v>911.41</v>
       </c>
       <c r="F15" s="34"/>
       <c r="G15" s="34">
         <f t="shared" si="0"/>
-        <v>857.66467815681824</v>
+        <v>862.37859176820655</v>
       </c>
       <c r="H15" s="11">
         <f t="shared" si="1"/>
-        <v>2.0060662729118439</v>
+        <v>5.6856012776546505</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="29">
         <f t="shared" si="2"/>
-        <v>30.990000000000009</v>
+        <v>63.67999999999995</v>
       </c>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
@@ -6581,26 +6622,26 @@
         <v>14</v>
       </c>
       <c r="D16" s="36">
-        <f>'June 2017_BLS Data Series'!G16</f>
-        <v>824.9</v>
+        <f>'July 2017_BLS Data Series'!H16</f>
+        <v>837.31</v>
       </c>
       <c r="E16" s="42">
-        <f>'June 2017_BLS Data Series'!S16</f>
-        <v>847.26</v>
+        <f>'July 2017_BLS Data Series'!T16</f>
+        <v>898.78</v>
       </c>
       <c r="F16" s="34"/>
       <c r="G16" s="34">
         <f t="shared" si="0"/>
-        <v>838.37464214291049</v>
+        <v>851.77853641305251</v>
       </c>
       <c r="H16" s="11">
         <f t="shared" si="1"/>
-        <v>1.0598314178942969</v>
+        <v>5.518038031913397</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="29">
         <f t="shared" si="2"/>
-        <v>22.360000000000014</v>
+        <v>61.470000000000027</v>
       </c>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
@@ -6616,26 +6657,26 @@
         <v>15</v>
       </c>
       <c r="D17" s="36">
-        <f>'June 2017_BLS Data Series'!G17</f>
-        <v>730.85</v>
+        <f>'July 2017_BLS Data Series'!H17</f>
+        <v>735.6</v>
       </c>
       <c r="E17" s="42">
-        <f>'June 2017_BLS Data Series'!S17</f>
-        <v>749.49</v>
+        <f>'July 2017_BLS Data Series'!T17</f>
+        <v>770.56</v>
       </c>
       <c r="F17" s="34"/>
       <c r="G17" s="34">
         <f t="shared" si="0"/>
-        <v>742.78834672099185</v>
+        <v>748.31100952507609</v>
       </c>
       <c r="H17" s="11">
         <f t="shared" si="1"/>
-        <v>0.9022291893232115</v>
+        <v>2.9732277344208136</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="29">
         <f t="shared" si="2"/>
-        <v>18.639999999999986</v>
+        <v>34.959999999999923</v>
       </c>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
@@ -6651,26 +6692,26 @@
         <v>16</v>
       </c>
       <c r="D18" s="36">
-        <f>'June 2017_BLS Data Series'!G18</f>
-        <v>898.78</v>
+        <f>'July 2017_BLS Data Series'!H18</f>
+        <v>900.92</v>
       </c>
       <c r="E18" s="42">
-        <f>'June 2017_BLS Data Series'!S18</f>
-        <v>908.61</v>
+        <f>'July 2017_BLS Data Series'!T18</f>
+        <v>927.77</v>
       </c>
       <c r="F18" s="34"/>
       <c r="G18" s="34">
         <f t="shared" si="0"/>
-        <v>913.46146304425395</v>
+        <v>916.48770350915106</v>
       </c>
       <c r="H18" s="11">
         <f t="shared" si="1"/>
-        <v>-0.53110757711504197</v>
+        <v>1.2310363191617268</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="29">
         <f t="shared" si="2"/>
-        <v>9.8300000000000409</v>
+        <v>26.850000000000023</v>
       </c>
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
@@ -6686,26 +6727,26 @@
         <v>17</v>
       </c>
       <c r="D19" s="36">
-        <f>'June 2017_BLS Data Series'!G19</f>
-        <v>805.04</v>
+        <f>'July 2017_BLS Data Series'!H19</f>
+        <v>811.63</v>
       </c>
       <c r="E19" s="42">
-        <f>'June 2017_BLS Data Series'!S19</f>
-        <v>851.65</v>
+        <f>'July 2017_BLS Data Series'!T19</f>
+        <v>865.56</v>
       </c>
       <c r="F19" s="34"/>
       <c r="G19" s="34">
         <f t="shared" si="0"/>
-        <v>818.19023143499658</v>
+        <v>825.65479154545608</v>
       </c>
       <c r="H19" s="11">
         <f t="shared" si="1"/>
-        <v>4.0894852174315766</v>
+        <v>4.8331589501042549</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="29">
         <f t="shared" si="2"/>
-        <v>46.610000000000014</v>
+        <v>53.92999999999995</v>
       </c>
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
@@ -6721,26 +6762,26 @@
         <v>18</v>
       </c>
       <c r="D20" s="36">
-        <f>'June 2017_BLS Data Series'!G20</f>
-        <v>820.99</v>
+        <f>'July 2017_BLS Data Series'!H20</f>
+        <v>809.8</v>
       </c>
       <c r="E20" s="42">
-        <f>'June 2017_BLS Data Series'!S20</f>
-        <v>798.22</v>
+        <f>'July 2017_BLS Data Series'!T20</f>
+        <v>811.98</v>
       </c>
       <c r="F20" s="34"/>
       <c r="G20" s="34">
         <f t="shared" si="0"/>
-        <v>834.40077276386</v>
+        <v>823.79316953970442</v>
       </c>
       <c r="H20" s="11">
         <f t="shared" si="1"/>
-        <v>-4.3361384534694514</v>
+        <v>-1.4339970245571543</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="29">
         <f t="shared" si="2"/>
-        <v>-22.769999999999982</v>
+        <v>2.1800000000000637</v>
       </c>
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
@@ -6756,26 +6797,26 @@
         <v>19</v>
       </c>
       <c r="D21" s="36">
-        <f>'June 2017_BLS Data Series'!G21</f>
-        <v>763.3</v>
+        <f>'July 2017_BLS Data Series'!H21</f>
+        <v>766.92</v>
       </c>
       <c r="E21" s="42">
-        <f>'June 2017_BLS Data Series'!S21</f>
-        <v>782.15</v>
+        <f>'July 2017_BLS Data Series'!T21</f>
+        <v>798.91</v>
       </c>
       <c r="F21" s="34"/>
       <c r="G21" s="34">
         <f t="shared" si="0"/>
-        <v>775.76841356247246</v>
+        <v>780.17221237761191</v>
       </c>
       <c r="H21" s="11">
         <f t="shared" si="1"/>
-        <v>0.82261488428254648</v>
+        <v>2.401750193753216</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="29">
         <f t="shared" si="2"/>
-        <v>18.850000000000023</v>
+        <v>31.990000000000009</v>
       </c>
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
@@ -6791,26 +6832,26 @@
         <v>20</v>
       </c>
       <c r="D22" s="36">
-        <f>'June 2017_BLS Data Series'!G22</f>
-        <v>749.05</v>
+        <f>'July 2017_BLS Data Series'!H22</f>
+        <v>747.65</v>
       </c>
       <c r="E22" s="42">
-        <f>'June 2017_BLS Data Series'!S22</f>
-        <v>759.85</v>
+        <f>'July 2017_BLS Data Series'!T22</f>
+        <v>774.84</v>
       </c>
       <c r="F22" s="34"/>
       <c r="G22" s="34">
         <f t="shared" si="0"/>
-        <v>761.28564152884849</v>
+        <v>760.56923092906891</v>
       </c>
       <c r="H22" s="11">
         <f t="shared" si="1"/>
-        <v>-0.18858119088721592</v>
+        <v>1.87632742564392</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="29">
         <f t="shared" si="2"/>
-        <v>10.800000000000068</v>
+        <v>27.190000000000055</v>
       </c>
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
@@ -6826,26 +6867,26 @@
         <v>21</v>
       </c>
       <c r="D23" s="36">
-        <f>'June 2017_BLS Data Series'!G23</f>
-        <v>790.94</v>
+        <f>'July 2017_BLS Data Series'!H23</f>
+        <v>789.4</v>
       </c>
       <c r="E23" s="42">
-        <f>'June 2017_BLS Data Series'!S23</f>
-        <v>806.06</v>
+        <f>'July 2017_BLS Data Series'!T23</f>
+        <v>828.21</v>
       </c>
       <c r="F23" s="34"/>
       <c r="G23" s="34">
         <f t="shared" si="0"/>
-        <v>803.85990963330551</v>
+        <v>803.04066193460449</v>
       </c>
       <c r="H23" s="11">
         <f t="shared" si="1"/>
-        <v>0.27369076879304455</v>
+        <v>3.1342544977436271</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="29">
         <f t="shared" si="2"/>
-        <v>15.119999999999891</v>
+        <v>38.810000000000059</v>
       </c>
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
@@ -6861,26 +6902,26 @@
         <v>22</v>
       </c>
       <c r="D24" s="36">
-        <f>'June 2017_BLS Data Series'!G24</f>
-        <v>741.73</v>
+        <f>'July 2017_BLS Data Series'!H24</f>
+        <v>740.18</v>
       </c>
       <c r="E24" s="42">
-        <f>'June 2017_BLS Data Series'!S24</f>
-        <v>780.1</v>
+        <f>'July 2017_BLS Data Series'!T24</f>
+        <v>785.22</v>
       </c>
       <c r="F24" s="34"/>
       <c r="G24" s="34">
         <f t="shared" si="0"/>
-        <v>753.84607021052375</v>
+        <v>752.97015093837786</v>
       </c>
       <c r="H24" s="11">
         <f t="shared" si="1"/>
-        <v>3.4826645421318414</v>
+        <v>4.2830182606085065</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="29">
         <f t="shared" si="2"/>
-        <v>38.370000000000005</v>
+        <v>45.040000000000077</v>
       </c>
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
@@ -6896,26 +6937,26 @@
         <v>23</v>
       </c>
       <c r="D25" s="36">
-        <f>'June 2017_BLS Data Series'!G25</f>
-        <v>926.74</v>
+        <f>'July 2017_BLS Data Series'!H25</f>
+        <v>928.16</v>
       </c>
       <c r="E25" s="42">
-        <f>'June 2017_BLS Data Series'!S25</f>
-        <v>945.65</v>
+        <f>'July 2017_BLS Data Series'!T25</f>
+        <v>970.14</v>
       </c>
       <c r="F25" s="34"/>
       <c r="G25" s="34">
         <f t="shared" si="0"/>
-        <v>941.87818627654372</v>
+        <v>944.19840484066685</v>
       </c>
       <c r="H25" s="11">
         <f t="shared" si="1"/>
-        <v>0.40045663849239688</v>
+        <v>2.7474728856072161</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="29">
         <f t="shared" si="2"/>
-        <v>18.909999999999968</v>
+        <v>41.980000000000018</v>
       </c>
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
@@ -6931,26 +6972,26 @@
         <v>24</v>
       </c>
       <c r="D26" s="36">
-        <f>'June 2017_BLS Data Series'!G26</f>
-        <v>1029.46</v>
+        <f>'July 2017_BLS Data Series'!H26</f>
+        <v>1035.8900000000001</v>
       </c>
       <c r="E26" s="42">
-        <f>'June 2017_BLS Data Series'!S26</f>
-        <v>1054.77</v>
+        <f>'July 2017_BLS Data Series'!T26</f>
+        <v>1077.05</v>
       </c>
       <c r="F26" s="34"/>
       <c r="G26" s="34">
         <f t="shared" si="0"/>
-        <v>1046.2761051041832</v>
+        <v>1053.7899560317171</v>
       </c>
       <c r="H26" s="11">
         <f t="shared" si="1"/>
-        <v>0.8118215501988324</v>
+        <v>2.2072751628677389</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="29">
         <f t="shared" si="2"/>
-        <v>25.309999999999945</v>
+        <v>41.159999999999854</v>
       </c>
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
@@ -6966,26 +7007,26 @@
         <v>25</v>
       </c>
       <c r="D27" s="36">
-        <f>'June 2017_BLS Data Series'!G27</f>
-        <v>816.66</v>
+        <f>'July 2017_BLS Data Series'!H27</f>
+        <v>821.47</v>
       </c>
       <c r="E27" s="42">
-        <f>'June 2017_BLS Data Series'!S27</f>
-        <v>799.03</v>
+        <f>'July 2017_BLS Data Series'!T27</f>
+        <v>852.95</v>
       </c>
       <c r="F27" s="34"/>
       <c r="G27" s="34">
         <f t="shared" si="0"/>
-        <v>830.00004273539741</v>
+        <v>835.66482462556314</v>
       </c>
       <c r="H27" s="11">
         <f t="shared" si="1"/>
-        <v>-3.7313302579275454</v>
+        <v>2.0684340018956693</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="29">
         <f t="shared" si="2"/>
-        <v>-17.629999999999995</v>
+        <v>31.480000000000018</v>
       </c>
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
@@ -7001,26 +7042,26 @@
         <v>26</v>
       </c>
       <c r="D28" s="36">
-        <f>'June 2017_BLS Data Series'!G28</f>
-        <v>913.75</v>
+        <f>'July 2017_BLS Data Series'!H28</f>
+        <v>919</v>
       </c>
       <c r="E28" s="42">
-        <f>'June 2017_BLS Data Series'!S28</f>
-        <v>954.52</v>
+        <f>'July 2017_BLS Data Series'!T28</f>
+        <v>977.99</v>
       </c>
       <c r="F28" s="34"/>
       <c r="G28" s="34">
         <f t="shared" si="0"/>
-        <v>928.67599619115583</v>
+        <v>934.8801220140632</v>
       </c>
       <c r="H28" s="11">
         <f t="shared" si="1"/>
-        <v>2.7828870257054161</v>
+        <v>4.6112733569586339</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="29">
         <f t="shared" si="2"/>
-        <v>40.769999999999982</v>
+        <v>58.990000000000009</v>
       </c>
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
@@ -7036,26 +7077,26 @@
         <v>27</v>
       </c>
       <c r="D29" s="36">
-        <f>'June 2017_BLS Data Series'!G29</f>
-        <v>687.93</v>
+        <f>'July 2017_BLS Data Series'!H29</f>
+        <v>700.79</v>
       </c>
       <c r="E29" s="42">
-        <f>'June 2017_BLS Data Series'!S29</f>
-        <v>703.93</v>
+        <f>'July 2017_BLS Data Series'!T29</f>
+        <v>715.97</v>
       </c>
       <c r="F29" s="34"/>
       <c r="G29" s="34">
         <f t="shared" si="0"/>
-        <v>699.16725369059566</v>
+        <v>712.8995002244128</v>
       </c>
       <c r="H29" s="11">
         <f t="shared" si="1"/>
-        <v>0.68120271426670431</v>
+        <v>0.43070583926916317</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="29">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>15.180000000000064</v>
       </c>
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
@@ -7071,26 +7112,26 @@
         <v>28</v>
       </c>
       <c r="D30" s="36">
-        <f>'June 2017_BLS Data Series'!G30</f>
-        <v>738.93</v>
+        <f>'July 2017_BLS Data Series'!H30</f>
+        <v>746.59</v>
       </c>
       <c r="E30" s="42">
-        <f>'June 2017_BLS Data Series'!S30</f>
-        <v>792.61</v>
+        <f>'July 2017_BLS Data Series'!T30</f>
+        <v>822.17</v>
       </c>
       <c r="F30" s="34"/>
       <c r="G30" s="34">
         <f t="shared" si="0"/>
-        <v>751.00033254777645</v>
+        <v>759.49091435743139</v>
       </c>
       <c r="H30" s="11">
         <f t="shared" si="1"/>
-        <v>5.540565782582596</v>
+        <v>8.2527762291400464</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="29">
         <f t="shared" si="2"/>
-        <v>53.680000000000064</v>
+        <v>75.579999999999927</v>
       </c>
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
@@ -7106,26 +7147,26 @@
         <v>29</v>
       </c>
       <c r="D31" s="36">
-        <f>'June 2017_BLS Data Series'!G31</f>
-        <v>732.5</v>
+        <f>'July 2017_BLS Data Series'!H31</f>
+        <v>739.36</v>
       </c>
       <c r="E31" s="42">
-        <f>'June 2017_BLS Data Series'!S31</f>
-        <v>760.91</v>
+        <f>'July 2017_BLS Data Series'!T31</f>
+        <v>778.08</v>
       </c>
       <c r="F31" s="34"/>
       <c r="G31" s="34">
         <f t="shared" si="0"/>
-        <v>744.46529927225356</v>
+        <v>752.13598151503572</v>
       </c>
       <c r="H31" s="11">
         <f t="shared" si="1"/>
-        <v>2.2089277692085574</v>
+        <v>3.449378719085483</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="29">
         <f t="shared" si="2"/>
-        <v>28.409999999999968</v>
+        <v>38.720000000000027</v>
       </c>
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
@@ -7141,26 +7182,26 @@
         <v>30</v>
       </c>
       <c r="D32" s="36">
-        <f>'June 2017_BLS Data Series'!G32</f>
-        <v>779.08</v>
+        <f>'July 2017_BLS Data Series'!H32</f>
+        <v>782.68</v>
       </c>
       <c r="E32" s="42">
-        <f>'June 2017_BLS Data Series'!S32</f>
-        <v>818.03</v>
+        <f>'July 2017_BLS Data Series'!T32</f>
+        <v>836.97</v>
       </c>
       <c r="F32" s="34"/>
       <c r="G32" s="34">
         <f t="shared" si="0"/>
-        <v>791.80617796181207</v>
+        <v>796.20454178233615</v>
       </c>
       <c r="H32" s="11">
         <f t="shared" si="1"/>
-        <v>3.3118991450269641</v>
+        <v>5.1199730820937983</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="29">
         <f t="shared" si="2"/>
-        <v>38.949999999999932</v>
+        <v>54.290000000000077</v>
       </c>
       <c r="K32" s="9"/>
       <c r="L32" s="9"/>
@@ -7176,26 +7217,26 @@
         <v>31</v>
       </c>
       <c r="D33" s="36">
-        <f>'June 2017_BLS Data Series'!G33</f>
-        <v>750.38</v>
+        <f>'July 2017_BLS Data Series'!H33</f>
+        <v>748.3</v>
       </c>
       <c r="E33" s="42">
-        <f>'June 2017_BLS Data Series'!S33</f>
-        <v>763.16</v>
+        <f>'July 2017_BLS Data Series'!T33</f>
+        <v>775.73</v>
       </c>
       <c r="F33" s="34"/>
       <c r="G33" s="34">
         <f t="shared" si="0"/>
-        <v>762.63736691865336</v>
+        <v>761.2304627890353</v>
       </c>
       <c r="H33" s="11">
         <f t="shared" si="1"/>
-        <v>6.8529697601649175E-2</v>
+        <v>1.9047499961891479</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="29">
         <f t="shared" si="2"/>
-        <v>12.779999999999973</v>
+        <v>27.430000000000064</v>
       </c>
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
@@ -7211,26 +7252,26 @@
         <v>32</v>
       </c>
       <c r="D34" s="36">
-        <f>'June 2017_BLS Data Series'!G34</f>
-        <v>846.21</v>
+        <f>'July 2017_BLS Data Series'!H34</f>
+        <v>852.38</v>
       </c>
       <c r="E34" s="42">
-        <f>'June 2017_BLS Data Series'!S34</f>
-        <v>878.22</v>
+        <f>'July 2017_BLS Data Series'!T34</f>
+        <v>874.79</v>
       </c>
       <c r="F34" s="34"/>
       <c r="G34" s="34">
         <f t="shared" si="0"/>
-        <v>860.03273842617568</v>
+        <v>867.10894276642784</v>
       </c>
       <c r="H34" s="11">
         <f t="shared" si="1"/>
-        <v>2.1147173544935338</v>
+        <v>0.8858237823111903</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="29">
         <f t="shared" si="2"/>
-        <v>32.009999999999991</v>
+        <v>22.409999999999968</v>
       </c>
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
@@ -7246,26 +7287,26 @@
         <v>33</v>
       </c>
       <c r="D35" s="36">
-        <f>'June 2017_BLS Data Series'!G35</f>
-        <v>941.4</v>
+        <f>'July 2017_BLS Data Series'!H35</f>
+        <v>946.28</v>
       </c>
       <c r="E35" s="42">
-        <f>'June 2017_BLS Data Series'!S35</f>
-        <v>999.32</v>
+        <f>'July 2017_BLS Data Series'!T35</f>
+        <v>1000.84</v>
       </c>
       <c r="F35" s="34"/>
       <c r="G35" s="34">
         <f t="shared" si="0"/>
-        <v>956.77765561078422</v>
+        <v>962.63151453696162</v>
       </c>
       <c r="H35" s="11">
         <f t="shared" si="1"/>
-        <v>4.4464190964051964</v>
+        <v>3.9691704339658074</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="29">
         <f t="shared" si="2"/>
-        <v>57.920000000000073</v>
+        <v>54.560000000000059</v>
       </c>
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
@@ -7281,26 +7322,26 @@
         <v>34</v>
       </c>
       <c r="D36" s="36">
-        <f>'June 2017_BLS Data Series'!G36</f>
-        <v>678.69</v>
+        <f>'July 2017_BLS Data Series'!H36</f>
+        <v>684.74</v>
       </c>
       <c r="E36" s="42">
-        <f>'June 2017_BLS Data Series'!S36</f>
-        <v>706.82</v>
+        <f>'July 2017_BLS Data Series'!T36</f>
+        <v>725.9</v>
       </c>
       <c r="F36" s="34"/>
       <c r="G36" s="34">
         <f t="shared" si="0"/>
-        <v>689.77631940353012</v>
+        <v>696.57215968216497</v>
       </c>
       <c r="H36" s="11">
         <f t="shared" si="1"/>
-        <v>2.4708996405107264</v>
+        <v>4.2103089981685216</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="29">
         <f t="shared" si="2"/>
-        <v>28.129999999999995</v>
+        <v>41.159999999999968</v>
       </c>
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
@@ -7316,26 +7357,26 @@
         <v>35</v>
       </c>
       <c r="D37" s="36">
-        <f>'June 2017_BLS Data Series'!G37</f>
-        <v>962.12</v>
+        <f>'July 2017_BLS Data Series'!H37</f>
+        <v>977.3</v>
       </c>
       <c r="E37" s="42">
-        <f>'June 2017_BLS Data Series'!S37</f>
-        <v>991.65</v>
+        <f>'July 2017_BLS Data Series'!T37</f>
+        <v>1013.7</v>
       </c>
       <c r="F37" s="34"/>
       <c r="G37" s="34">
         <f t="shared" si="0"/>
-        <v>977.83611431511349</v>
+        <v>994.18753345412836</v>
       </c>
       <c r="H37" s="11">
         <f t="shared" si="1"/>
-        <v>1.4126994782312607</v>
+        <v>1.9626545183159871</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="29">
         <f t="shared" si="2"/>
-        <v>29.529999999999973</v>
+        <v>36.400000000000091</v>
       </c>
       <c r="K37" s="9"/>
       <c r="L37" s="9"/>
@@ -7351,26 +7392,26 @@
         <v>36</v>
       </c>
       <c r="D38" s="36">
-        <f>'June 2017_BLS Data Series'!G38</f>
-        <v>801.52</v>
+        <f>'July 2017_BLS Data Series'!H38</f>
+        <v>803.16</v>
       </c>
       <c r="E38" s="42">
-        <f>'June 2017_BLS Data Series'!S38</f>
-        <v>823.48</v>
+        <f>'July 2017_BLS Data Series'!T38</f>
+        <v>841.46</v>
       </c>
       <c r="F38" s="34"/>
       <c r="G38" s="34">
         <f t="shared" si="0"/>
-        <v>814.61273265897159</v>
+        <v>817.03843177020133</v>
       </c>
       <c r="H38" s="11">
         <f t="shared" si="1"/>
-        <v>1.0885255024292162</v>
+        <v>2.9890354333622637</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="29">
         <f t="shared" si="2"/>
-        <v>21.960000000000036</v>
+        <v>38.300000000000068</v>
       </c>
       <c r="K38" s="9"/>
       <c r="L38" s="9"/>
@@ -7386,26 +7427,26 @@
         <v>37</v>
       </c>
       <c r="D39" s="36">
-        <f>'June 2017_BLS Data Series'!G39</f>
-        <v>878.84</v>
+        <f>'July 2017_BLS Data Series'!H39</f>
+        <v>891.58</v>
       </c>
       <c r="E39" s="42">
-        <f>'June 2017_BLS Data Series'!S39</f>
-        <v>921.94</v>
+        <f>'July 2017_BLS Data Series'!T39</f>
+        <v>942.73</v>
       </c>
       <c r="F39" s="34"/>
       <c r="G39" s="34">
         <f t="shared" si="0"/>
-        <v>893.19574554597591</v>
+        <v>906.98631032132596</v>
       </c>
       <c r="H39" s="11">
         <f t="shared" si="1"/>
-        <v>3.218136068981603</v>
+        <v>3.9409293472148166</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="29">
         <f t="shared" si="2"/>
-        <v>43.100000000000023</v>
+        <v>51.149999999999977</v>
       </c>
       <c r="K39" s="9"/>
       <c r="L39" s="9"/>
@@ -7421,26 +7462,26 @@
         <v>38</v>
       </c>
       <c r="D40" s="36">
-        <f>'June 2017_BLS Data Series'!G40</f>
-        <v>794.05</v>
+        <f>'July 2017_BLS Data Series'!H40</f>
+        <v>800.22</v>
       </c>
       <c r="E40" s="42">
-        <f>'June 2017_BLS Data Series'!S40</f>
-        <v>812.87</v>
+        <f>'July 2017_BLS Data Series'!T40</f>
+        <v>822.17</v>
       </c>
       <c r="F40" s="34"/>
       <c r="G40" s="34">
         <f t="shared" si="0"/>
-        <v>807.02071110871384</v>
+        <v>814.04762920358405</v>
       </c>
       <c r="H40" s="11">
         <f t="shared" si="1"/>
-        <v>0.72480034412625294</v>
+        <v>0.99777586777844984</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="29">
         <f t="shared" si="2"/>
-        <v>18.82000000000005</v>
+        <v>21.949999999999932</v>
       </c>
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
@@ -7456,26 +7497,26 @@
         <v>39</v>
       </c>
       <c r="D41" s="36">
-        <f>'June 2017_BLS Data Series'!G41</f>
-        <v>762.65</v>
+        <f>'July 2017_BLS Data Series'!H41</f>
+        <v>777.22</v>
       </c>
       <c r="E41" s="42">
-        <f>'June 2017_BLS Data Series'!S41</f>
-        <v>804.79</v>
+        <f>'July 2017_BLS Data Series'!T41</f>
+        <v>833.69</v>
       </c>
       <c r="F41" s="34"/>
       <c r="G41" s="34">
         <f t="shared" si="0"/>
-        <v>775.10779589076333</v>
+        <v>790.65019415861832</v>
       </c>
       <c r="H41" s="11">
         <f t="shared" si="1"/>
-        <v>3.829429179605337</v>
+        <v>5.4435964424423</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="29">
         <f t="shared" si="2"/>
-        <v>42.139999999999986</v>
+        <v>56.470000000000027</v>
       </c>
       <c r="K41" s="9"/>
       <c r="L41" s="9"/>
@@ -7491,26 +7532,26 @@
         <v>40</v>
       </c>
       <c r="D42" s="36">
-        <f>'June 2017_BLS Data Series'!G42</f>
-        <v>834.14</v>
+        <f>'July 2017_BLS Data Series'!H42</f>
+        <v>844.86</v>
       </c>
       <c r="E42" s="42">
-        <f>'June 2017_BLS Data Series'!S42</f>
-        <v>858.5</v>
+        <f>'July 2017_BLS Data Series'!T42</f>
+        <v>888.79</v>
       </c>
       <c r="F42" s="34"/>
       <c